--- a/vs-x86/Parallel workload.xlsx
+++ b/vs-x86/Parallel workload.xlsx
@@ -4087,13 +4087,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>9.03166</v>
+        <v>6.06366</v>
       </c>
       <c r="C2" t="n">
-        <v>11.8608</v>
+        <v>6.42138</v>
       </c>
       <c r="D2" t="n">
-        <v>14.8724</v>
+        <v>7.91489</v>
       </c>
     </row>
     <row r="3">
@@ -4101,13 +4101,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>16.7981</v>
+        <v>10.5258</v>
       </c>
       <c r="C3" t="n">
-        <v>19.0362</v>
+        <v>9.533849999999999</v>
       </c>
       <c r="D3" t="n">
-        <v>26.2389</v>
+        <v>14.5387</v>
       </c>
     </row>
     <row r="4">
@@ -4115,13 +4115,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>23.6321</v>
+        <v>12.6543</v>
       </c>
       <c r="C4" t="n">
-        <v>24.3729</v>
+        <v>11.3361</v>
       </c>
       <c r="D4" t="n">
-        <v>36.3914</v>
+        <v>18.9998</v>
       </c>
     </row>
     <row r="5">
@@ -4129,13 +4129,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>29.4983</v>
+        <v>13.8686</v>
       </c>
       <c r="C5" t="n">
-        <v>29.3645</v>
+        <v>13.1389</v>
       </c>
       <c r="D5" t="n">
-        <v>46.7246</v>
+        <v>21.7365</v>
       </c>
     </row>
     <row r="6">
@@ -4143,13 +4143,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>25.3461</v>
+        <v>16.5505</v>
       </c>
       <c r="C6" t="n">
-        <v>22.2238</v>
+        <v>14.8526</v>
       </c>
       <c r="D6" t="n">
-        <v>37.2077</v>
+        <v>25.7994</v>
       </c>
     </row>
     <row r="7">
@@ -4157,13 +4157,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>28.6712</v>
+        <v>18.8809</v>
       </c>
       <c r="C7" t="n">
-        <v>19.7423</v>
+        <v>16.2836</v>
       </c>
       <c r="D7" t="n">
-        <v>37.1229</v>
+        <v>29.0602</v>
       </c>
     </row>
     <row r="8">
@@ -4171,13 +4171,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>30.4853</v>
+        <v>14.0117</v>
       </c>
       <c r="C8" t="n">
-        <v>17.3418</v>
+        <v>14.9635</v>
       </c>
       <c r="D8" t="n">
-        <v>36.9239</v>
+        <v>20.6574</v>
       </c>
     </row>
     <row r="9">
@@ -4185,13 +4185,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>31.7456</v>
+        <v>14.9821</v>
       </c>
       <c r="C9" t="n">
-        <v>16.2322</v>
+        <v>15.1284</v>
       </c>
       <c r="D9" t="n">
-        <v>36.0778</v>
+        <v>22.4902</v>
       </c>
     </row>
     <row r="10">
@@ -4199,13 +4199,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>31.4338</v>
+        <v>15.5906</v>
       </c>
       <c r="C10" t="n">
-        <v>16.6247</v>
+        <v>15.2897</v>
       </c>
       <c r="D10" t="n">
-        <v>35.2448</v>
+        <v>24.1695</v>
       </c>
     </row>
     <row r="11">
@@ -4213,13 +4213,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>31.6039</v>
+        <v>16.4611</v>
       </c>
       <c r="C11" t="n">
-        <v>17.9514</v>
+        <v>15.4082</v>
       </c>
       <c r="D11" t="n">
-        <v>38.7777</v>
+        <v>25.5245</v>
       </c>
     </row>
     <row r="12">
@@ -4227,13 +4227,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>32.1041</v>
+        <v>17.5953</v>
       </c>
       <c r="C12" t="n">
-        <v>16.085</v>
+        <v>15.4664</v>
       </c>
       <c r="D12" t="n">
-        <v>37.8479</v>
+        <v>27.2312</v>
       </c>
     </row>
     <row r="13">
@@ -4241,13 +4241,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>29.3986</v>
+        <v>18.7669</v>
       </c>
       <c r="C13" t="n">
-        <v>16.1092</v>
+        <v>15.588</v>
       </c>
       <c r="D13" t="n">
-        <v>38.9921</v>
+        <v>28.4487</v>
       </c>
     </row>
     <row r="14">
@@ -4255,13 +4255,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>28.8368</v>
+        <v>15.8741</v>
       </c>
       <c r="C14" t="n">
-        <v>15.6269</v>
+        <v>15.5106</v>
       </c>
       <c r="D14" t="n">
-        <v>27.0483</v>
+        <v>23.6933</v>
       </c>
     </row>
     <row r="15">
@@ -4269,13 +4269,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>28.6258</v>
+        <v>16.1802</v>
       </c>
       <c r="C15" t="n">
-        <v>17.1519</v>
+        <v>15.6303</v>
       </c>
       <c r="D15" t="n">
-        <v>36.9075</v>
+        <v>24.4659</v>
       </c>
     </row>
     <row r="16">
@@ -4283,13 +4283,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>30.4138</v>
+        <v>16.4375</v>
       </c>
       <c r="C16" t="n">
-        <v>16.4714</v>
+        <v>15.6616</v>
       </c>
       <c r="D16" t="n">
-        <v>39.772</v>
+        <v>25.2857</v>
       </c>
     </row>
     <row r="17">
@@ -4297,13 +4297,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>30.019</v>
+        <v>17.1863</v>
       </c>
       <c r="C17" t="n">
-        <v>15.655</v>
+        <v>15.6532</v>
       </c>
       <c r="D17" t="n">
-        <v>40.061</v>
+        <v>26.1726</v>
       </c>
     </row>
   </sheetData>
@@ -4351,13 +4351,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>9.02237</v>
+        <v>6.08697</v>
       </c>
       <c r="C2" t="n">
-        <v>11.7334</v>
+        <v>6.40825</v>
       </c>
       <c r="D2" t="n">
-        <v>14.5767</v>
+        <v>7.87398</v>
       </c>
     </row>
     <row r="3">
@@ -4365,13 +4365,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>16.718</v>
+        <v>10.5816</v>
       </c>
       <c r="C3" t="n">
-        <v>18.9533</v>
+        <v>9.39523</v>
       </c>
       <c r="D3" t="n">
-        <v>25.8368</v>
+        <v>14.2247</v>
       </c>
     </row>
     <row r="4">
@@ -4379,13 +4379,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>23.0151</v>
+        <v>14.2749</v>
       </c>
       <c r="C4" t="n">
-        <v>24.2748</v>
+        <v>11.4186</v>
       </c>
       <c r="D4" t="n">
-        <v>34.7464</v>
+        <v>18.7884</v>
       </c>
     </row>
     <row r="5">
@@ -4393,13 +4393,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>29.5299</v>
+        <v>13.9396</v>
       </c>
       <c r="C5" t="n">
-        <v>29.3041</v>
+        <v>13.1189</v>
       </c>
       <c r="D5" t="n">
-        <v>42.4143</v>
+        <v>21.4894</v>
       </c>
     </row>
     <row r="6">
@@ -4407,13 +4407,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>24.9747</v>
+        <v>16.597</v>
       </c>
       <c r="C6" t="n">
-        <v>22.978</v>
+        <v>14.7928</v>
       </c>
       <c r="D6" t="n">
-        <v>33.0704</v>
+        <v>25.5827</v>
       </c>
     </row>
     <row r="7">
@@ -4421,13 +4421,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>28.0203</v>
+        <v>19.0231</v>
       </c>
       <c r="C7" t="n">
-        <v>19.7073</v>
+        <v>16.2358</v>
       </c>
       <c r="D7" t="n">
-        <v>36.458</v>
+        <v>28.919</v>
       </c>
     </row>
     <row r="8">
@@ -4435,13 +4435,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>29.29</v>
+        <v>14.0471</v>
       </c>
       <c r="C8" t="n">
-        <v>17.0985</v>
+        <v>14.9806</v>
       </c>
       <c r="D8" t="n">
-        <v>23.002</v>
+        <v>20.5492</v>
       </c>
     </row>
     <row r="9">
@@ -4449,13 +4449,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>31.1501</v>
+        <v>14.7176</v>
       </c>
       <c r="C9" t="n">
-        <v>16.3237</v>
+        <v>15.091</v>
       </c>
       <c r="D9" t="n">
-        <v>27.6495</v>
+        <v>22.354</v>
       </c>
     </row>
     <row r="10">
@@ -4463,13 +4463,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>32.693</v>
+        <v>15.4524</v>
       </c>
       <c r="C10" t="n">
-        <v>15.2385</v>
+        <v>15.127</v>
       </c>
       <c r="D10" t="n">
-        <v>26.3916</v>
+        <v>23.6561</v>
       </c>
     </row>
     <row r="11">
@@ -4477,13 +4477,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>32.3848</v>
+        <v>16.4641</v>
       </c>
       <c r="C11" t="n">
-        <v>15.3554</v>
+        <v>15.3802</v>
       </c>
       <c r="D11" t="n">
-        <v>28.931</v>
+        <v>25.4408</v>
       </c>
     </row>
     <row r="12">
@@ -4491,13 +4491,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>32.2453</v>
+        <v>17.6938</v>
       </c>
       <c r="C12" t="n">
-        <v>15.4606</v>
+        <v>15.4507</v>
       </c>
       <c r="D12" t="n">
-        <v>25.6498</v>
+        <v>26.9865</v>
       </c>
     </row>
     <row r="13">
@@ -4505,13 +4505,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>32.102</v>
+        <v>18.8598</v>
       </c>
       <c r="C13" t="n">
-        <v>15.3376</v>
+        <v>15.5034</v>
       </c>
       <c r="D13" t="n">
-        <v>38.0142</v>
+        <v>26.9277</v>
       </c>
     </row>
     <row r="14">
@@ -4519,13 +4519,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>32.1789</v>
+        <v>15.8884</v>
       </c>
       <c r="C14" t="n">
-        <v>15.463</v>
+        <v>15.4914</v>
       </c>
       <c r="D14" t="n">
-        <v>31.6072</v>
+        <v>23.2473</v>
       </c>
     </row>
     <row r="15">
@@ -4533,13 +4533,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>32.6105</v>
+        <v>16.3094</v>
       </c>
       <c r="C15" t="n">
-        <v>15.3018</v>
+        <v>15.56</v>
       </c>
       <c r="D15" t="n">
-        <v>35.8512</v>
+        <v>22.8776</v>
       </c>
     </row>
     <row r="16">
@@ -4547,13 +4547,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>32.7213</v>
+        <v>16.6446</v>
       </c>
       <c r="C16" t="n">
-        <v>15.5868</v>
+        <v>15.5687</v>
       </c>
       <c r="D16" t="n">
-        <v>38.8967</v>
+        <v>24.9492</v>
       </c>
     </row>
     <row r="17">
@@ -4561,13 +4561,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>32.7943</v>
+        <v>17.2554</v>
       </c>
       <c r="C17" t="n">
-        <v>15.644</v>
+        <v>15.6644</v>
       </c>
       <c r="D17" t="n">
-        <v>31.2418</v>
+        <v>25.5237</v>
       </c>
     </row>
   </sheetData>
@@ -4615,13 +4615,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>9.721830000000001</v>
+        <v>6.45519</v>
       </c>
       <c r="C2" t="n">
-        <v>11.5423</v>
+        <v>6.50595</v>
       </c>
       <c r="D2" t="n">
-        <v>13.2373</v>
+        <v>7.73756</v>
       </c>
     </row>
     <row r="3">
@@ -4629,13 +4629,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>17.6542</v>
+        <v>11.2466</v>
       </c>
       <c r="C3" t="n">
-        <v>19.3335</v>
+        <v>9.36309</v>
       </c>
       <c r="D3" t="n">
-        <v>24.2214</v>
+        <v>14.032</v>
       </c>
     </row>
     <row r="4">
@@ -4643,13 +4643,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>24.9056</v>
+        <v>15.2766</v>
       </c>
       <c r="C4" t="n">
-        <v>25.0841</v>
+        <v>12.5425</v>
       </c>
       <c r="D4" t="n">
-        <v>34.1562</v>
+        <v>19.6396</v>
       </c>
     </row>
     <row r="5">
@@ -4657,13 +4657,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>31.78</v>
+        <v>15.9277</v>
       </c>
       <c r="C5" t="n">
-        <v>29.7009</v>
+        <v>13.2164</v>
       </c>
       <c r="D5" t="n">
-        <v>44.6243</v>
+        <v>21.7798</v>
       </c>
     </row>
     <row r="6">
@@ -4671,13 +4671,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>26.4044</v>
+        <v>19.2537</v>
       </c>
       <c r="C6" t="n">
-        <v>18.4901</v>
+        <v>14.589</v>
       </c>
       <c r="D6" t="n">
-        <v>34.8592</v>
+        <v>26.2071</v>
       </c>
     </row>
     <row r="7">
@@ -4685,13 +4685,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>29.3201</v>
+        <v>22.5562</v>
       </c>
       <c r="C7" t="n">
-        <v>16.3911</v>
+        <v>15.7094</v>
       </c>
       <c r="D7" t="n">
-        <v>28.2415</v>
+        <v>30.5127</v>
       </c>
     </row>
     <row r="8">
@@ -4699,13 +4699,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>31.8948</v>
+        <v>16.8379</v>
       </c>
       <c r="C8" t="n">
-        <v>15.6362</v>
+        <v>14.7748</v>
       </c>
       <c r="D8" t="n">
-        <v>28.6323</v>
+        <v>21.2332</v>
       </c>
     </row>
     <row r="9">
@@ -4713,13 +4713,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>34.3348</v>
+        <v>17.309</v>
       </c>
       <c r="C9" t="n">
-        <v>14.9527</v>
+        <v>14.9183</v>
       </c>
       <c r="D9" t="n">
-        <v>34.9031</v>
+        <v>22.838</v>
       </c>
     </row>
     <row r="10">
@@ -4727,13 +4727,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>34.1561</v>
+        <v>18.1716</v>
       </c>
       <c r="C10" t="n">
-        <v>15.2955</v>
+        <v>14.9079</v>
       </c>
       <c r="D10" t="n">
-        <v>24.4438</v>
+        <v>24.3684</v>
       </c>
     </row>
     <row r="11">
@@ -4741,13 +4741,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>34.2055</v>
+        <v>19.3349</v>
       </c>
       <c r="C11" t="n">
-        <v>15.4582</v>
+        <v>14.9862</v>
       </c>
       <c r="D11" t="n">
-        <v>37.008</v>
+        <v>26.1216</v>
       </c>
     </row>
     <row r="12">
@@ -4755,13 +4755,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>34.3474</v>
+        <v>20.7589</v>
       </c>
       <c r="C12" t="n">
-        <v>15.3526</v>
+        <v>15.0571</v>
       </c>
       <c r="D12" t="n">
-        <v>36.1498</v>
+        <v>28.1571</v>
       </c>
     </row>
     <row r="13">
@@ -4769,13 +4769,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>34.5834</v>
+        <v>21.9259</v>
       </c>
       <c r="C13" t="n">
-        <v>15.0951</v>
+        <v>15.1025</v>
       </c>
       <c r="D13" t="n">
-        <v>32.052</v>
+        <v>28.6809</v>
       </c>
     </row>
     <row r="14">
@@ -4783,13 +4783,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>34.6443</v>
+        <v>18.93</v>
       </c>
       <c r="C14" t="n">
-        <v>15.3318</v>
+        <v>15.0678</v>
       </c>
       <c r="D14" t="n">
-        <v>34.897</v>
+        <v>23.5649</v>
       </c>
     </row>
     <row r="15">
@@ -4797,13 +4797,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>34.6539</v>
+        <v>19.0267</v>
       </c>
       <c r="C15" t="n">
-        <v>15.6808</v>
+        <v>15.0799</v>
       </c>
       <c r="D15" t="n">
-        <v>35.2887</v>
+        <v>24.8906</v>
       </c>
     </row>
     <row r="16">
@@ -4811,13 +4811,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>34.9711</v>
+        <v>19.4846</v>
       </c>
       <c r="C16" t="n">
-        <v>15.4452</v>
+        <v>15.1884</v>
       </c>
       <c r="D16" t="n">
-        <v>36.1082</v>
+        <v>25.9843</v>
       </c>
     </row>
     <row r="17">
@@ -4825,13 +4825,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>34.8797</v>
+        <v>20.2273</v>
       </c>
       <c r="C17" t="n">
-        <v>15.4801</v>
+        <v>15.2898</v>
       </c>
       <c r="D17" t="n">
-        <v>30.6256</v>
+        <v>25.5148</v>
       </c>
     </row>
   </sheetData>
@@ -4879,13 +4879,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.09721</v>
+        <v>5.87189</v>
       </c>
       <c r="C2" t="n">
-        <v>11.2228</v>
+        <v>6.3202</v>
       </c>
       <c r="D2" t="n">
-        <v>14.457</v>
+        <v>7.83396</v>
       </c>
     </row>
     <row r="3">
@@ -4893,13 +4893,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>15.3393</v>
+        <v>11.0894</v>
       </c>
       <c r="C3" t="n">
-        <v>18.5166</v>
+        <v>10.4844</v>
       </c>
       <c r="D3" t="n">
-        <v>26.2626</v>
+        <v>13.9453</v>
       </c>
     </row>
     <row r="4">
@@ -4907,13 +4907,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>21.6084</v>
+        <v>15.4855</v>
       </c>
       <c r="C4" t="n">
-        <v>24.131</v>
+        <v>13.6128</v>
       </c>
       <c r="D4" t="n">
-        <v>36.5167</v>
+        <v>18.7935</v>
       </c>
     </row>
     <row r="5">
@@ -4921,13 +4921,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>28.1248</v>
+        <v>13.65</v>
       </c>
       <c r="C5" t="n">
-        <v>28.0307</v>
+        <v>13.3877</v>
       </c>
       <c r="D5" t="n">
-        <v>46.978</v>
+        <v>20.0062</v>
       </c>
     </row>
     <row r="6">
@@ -4935,13 +4935,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>29.2707</v>
+        <v>16.3626</v>
       </c>
       <c r="C6" t="n">
-        <v>18.3957</v>
+        <v>14.7571</v>
       </c>
       <c r="D6" t="n">
-        <v>39.3822</v>
+        <v>21.5335</v>
       </c>
     </row>
     <row r="7">
@@ -4949,13 +4949,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>30.7996</v>
+        <v>18.9275</v>
       </c>
       <c r="C7" t="n">
-        <v>17.186</v>
+        <v>16.1824</v>
       </c>
       <c r="D7" t="n">
-        <v>39.5344</v>
+        <v>24.4388</v>
       </c>
     </row>
     <row r="8">
@@ -4963,13 +4963,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>32.566</v>
+        <v>14.062</v>
       </c>
       <c r="C8" t="n">
-        <v>16.5087</v>
+        <v>15.3995</v>
       </c>
       <c r="D8" t="n">
-        <v>37.081</v>
+        <v>22.3097</v>
       </c>
     </row>
     <row r="9">
@@ -4977,13 +4977,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>33.767</v>
+        <v>15.6968</v>
       </c>
       <c r="C9" t="n">
-        <v>16.2737</v>
+        <v>15.5473</v>
       </c>
       <c r="D9" t="n">
-        <v>39.1716</v>
+        <v>22.0682</v>
       </c>
     </row>
     <row r="10">
@@ -4991,13 +4991,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>33.6641</v>
+        <v>17.3314</v>
       </c>
       <c r="C10" t="n">
-        <v>18.5234</v>
+        <v>15.6239</v>
       </c>
       <c r="D10" t="n">
-        <v>39.5998</v>
+        <v>22.6062</v>
       </c>
     </row>
     <row r="11">
@@ -5005,13 +5005,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>33.5379</v>
+        <v>16.1008</v>
       </c>
       <c r="C11" t="n">
-        <v>18.6429</v>
+        <v>15.5255</v>
       </c>
       <c r="D11" t="n">
-        <v>40.4112</v>
+        <v>23.625</v>
       </c>
     </row>
     <row r="12">
@@ -5019,13 +5019,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>33.3604</v>
+        <v>17.6023</v>
       </c>
       <c r="C12" t="n">
-        <v>17.6123</v>
+        <v>15.434</v>
       </c>
       <c r="D12" t="n">
-        <v>40.3708</v>
+        <v>23.9083</v>
       </c>
     </row>
     <row r="13">
@@ -5033,13 +5033,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>33.6947</v>
+        <v>18.9792</v>
       </c>
       <c r="C13" t="n">
-        <v>17.4415</v>
+        <v>15.6065</v>
       </c>
       <c r="D13" t="n">
-        <v>40.8286</v>
+        <v>23.4374</v>
       </c>
     </row>
     <row r="14">
@@ -5047,13 +5047,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>33.4647</v>
+        <v>15.8402</v>
       </c>
       <c r="C14" t="n">
-        <v>17.3753</v>
+        <v>15.6199</v>
       </c>
       <c r="D14" t="n">
-        <v>41.991</v>
+        <v>24.1791</v>
       </c>
     </row>
     <row r="15">
@@ -5061,13 +5061,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>33.5319</v>
+        <v>16.8643</v>
       </c>
       <c r="C15" t="n">
-        <v>17.2072</v>
+        <v>15.5461</v>
       </c>
       <c r="D15" t="n">
-        <v>42.8606</v>
+        <v>24.5619</v>
       </c>
     </row>
     <row r="16">
@@ -5075,13 +5075,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>33.7085</v>
+        <v>17.6437</v>
       </c>
       <c r="C16" t="n">
-        <v>16.9204</v>
+        <v>15.5929</v>
       </c>
       <c r="D16" t="n">
-        <v>41.79</v>
+        <v>24.5057</v>
       </c>
     </row>
     <row r="17">
@@ -5089,13 +5089,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>33.6776</v>
+        <v>17.1139</v>
       </c>
       <c r="C17" t="n">
-        <v>17.3752</v>
+        <v>15.7144</v>
       </c>
       <c r="D17" t="n">
-        <v>42.0192</v>
+        <v>24.3638</v>
       </c>
     </row>
   </sheetData>
@@ -5143,13 +5143,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.11683</v>
+        <v>5.87079</v>
       </c>
       <c r="C2" t="n">
-        <v>11.2075</v>
+        <v>6.35216</v>
       </c>
       <c r="D2" t="n">
-        <v>14.1602</v>
+        <v>7.7782</v>
       </c>
     </row>
     <row r="3">
@@ -5157,13 +5157,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>15.3919</v>
+        <v>11.0201</v>
       </c>
       <c r="C3" t="n">
-        <v>18.5231</v>
+        <v>10.6851</v>
       </c>
       <c r="D3" t="n">
-        <v>25.7837</v>
+        <v>13.6198</v>
       </c>
     </row>
     <row r="4">
@@ -5171,13 +5171,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>21.8325</v>
+        <v>15.6469</v>
       </c>
       <c r="C4" t="n">
-        <v>24.3355</v>
+        <v>14.4241</v>
       </c>
       <c r="D4" t="n">
-        <v>35.9034</v>
+        <v>18.5217</v>
       </c>
     </row>
     <row r="5">
@@ -5185,13 +5185,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>28.3215</v>
+        <v>13.9894</v>
       </c>
       <c r="C5" t="n">
-        <v>28.5111</v>
+        <v>13.4786</v>
       </c>
       <c r="D5" t="n">
-        <v>46.2761</v>
+        <v>19.4531</v>
       </c>
     </row>
     <row r="6">
@@ -5199,13 +5199,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>29.3642</v>
+        <v>16.5115</v>
       </c>
       <c r="C6" t="n">
-        <v>18.7466</v>
+        <v>14.9737</v>
       </c>
       <c r="D6" t="n">
-        <v>38.4859</v>
+        <v>21.5419</v>
       </c>
     </row>
     <row r="7">
@@ -5213,13 +5213,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>31.0959</v>
+        <v>19.1181</v>
       </c>
       <c r="C7" t="n">
-        <v>17.0759</v>
+        <v>16.419</v>
       </c>
       <c r="D7" t="n">
-        <v>38.5639</v>
+        <v>23.1011</v>
       </c>
     </row>
     <row r="8">
@@ -5227,13 +5227,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>32.7657</v>
+        <v>14.1804</v>
       </c>
       <c r="C8" t="n">
-        <v>16.3538</v>
+        <v>15.6923</v>
       </c>
       <c r="D8" t="n">
-        <v>37.5905</v>
+        <v>22.5722</v>
       </c>
     </row>
     <row r="9">
@@ -5241,13 +5241,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>34.3259</v>
+        <v>15.9333</v>
       </c>
       <c r="C9" t="n">
-        <v>16.5549</v>
+        <v>15.8139</v>
       </c>
       <c r="D9" t="n">
-        <v>38.999</v>
+        <v>22.5438</v>
       </c>
     </row>
     <row r="10">
@@ -5255,13 +5255,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>34.0359</v>
+        <v>17.505</v>
       </c>
       <c r="C10" t="n">
-        <v>20.0648</v>
+        <v>15.6742</v>
       </c>
       <c r="D10" t="n">
-        <v>38.1417</v>
+        <v>23.2501</v>
       </c>
     </row>
     <row r="11">
@@ -5269,13 +5269,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>33.6602</v>
+        <v>16.394</v>
       </c>
       <c r="C11" t="n">
-        <v>18.7322</v>
+        <v>15.7424</v>
       </c>
       <c r="D11" t="n">
-        <v>39.1172</v>
+        <v>24.0678</v>
       </c>
     </row>
     <row r="12">
@@ -5283,13 +5283,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>33.8642</v>
+        <v>17.7665</v>
       </c>
       <c r="C12" t="n">
-        <v>17.5728</v>
+        <v>15.667</v>
       </c>
       <c r="D12" t="n">
-        <v>40.7898</v>
+        <v>23.7341</v>
       </c>
     </row>
     <row r="13">
@@ -5297,13 +5297,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>34.0399</v>
+        <v>19.1422</v>
       </c>
       <c r="C13" t="n">
-        <v>17.75</v>
+        <v>15.791</v>
       </c>
       <c r="D13" t="n">
-        <v>41.3517</v>
+        <v>23.9756</v>
       </c>
     </row>
     <row r="14">
@@ -5311,13 +5311,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>34.0543</v>
+        <v>15.98</v>
       </c>
       <c r="C14" t="n">
-        <v>17.7311</v>
+        <v>15.79</v>
       </c>
       <c r="D14" t="n">
-        <v>40.8393</v>
+        <v>24.6011</v>
       </c>
     </row>
     <row r="15">
@@ -5325,13 +5325,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>33.925</v>
+        <v>17.0079</v>
       </c>
       <c r="C15" t="n">
-        <v>17.2257</v>
+        <v>15.765</v>
       </c>
       <c r="D15" t="n">
-        <v>42.4861</v>
+        <v>24.7508</v>
       </c>
     </row>
     <row r="16">
@@ -5339,13 +5339,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>33.5843</v>
+        <v>17.9885</v>
       </c>
       <c r="C16" t="n">
-        <v>17.5159</v>
+        <v>15.8759</v>
       </c>
       <c r="D16" t="n">
-        <v>41.032</v>
+        <v>24.5568</v>
       </c>
     </row>
     <row r="17">
@@ -5353,13 +5353,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>33.8074</v>
+        <v>17.2937</v>
       </c>
       <c r="C17" t="n">
-        <v>17.6133</v>
+        <v>15.8234</v>
       </c>
       <c r="D17" t="n">
-        <v>42.4521</v>
+        <v>25.0216</v>
       </c>
     </row>
   </sheetData>
@@ -5407,13 +5407,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>9.525180000000001</v>
+        <v>6.32809</v>
       </c>
       <c r="C2" t="n">
-        <v>11.5313</v>
+        <v>6.48529</v>
       </c>
       <c r="D2" t="n">
-        <v>13.4697</v>
+        <v>7.72203</v>
       </c>
     </row>
     <row r="3">
@@ -5421,13 +5421,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>17.8214</v>
+        <v>11.9023</v>
       </c>
       <c r="C3" t="n">
-        <v>19.4755</v>
+        <v>10.8559</v>
       </c>
       <c r="D3" t="n">
-        <v>24.9184</v>
+        <v>14.2918</v>
       </c>
     </row>
     <row r="4">
@@ -5435,13 +5435,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>25.2949</v>
+        <v>16.9911</v>
       </c>
       <c r="C4" t="n">
-        <v>25.7548</v>
+        <v>14.2499</v>
       </c>
       <c r="D4" t="n">
-        <v>35.253</v>
+        <v>20.054</v>
       </c>
     </row>
     <row r="5">
@@ -5449,13 +5449,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>33.2062</v>
+        <v>15.9595</v>
       </c>
       <c r="C5" t="n">
-        <v>30.4337</v>
+        <v>13.7494</v>
       </c>
       <c r="D5" t="n">
-        <v>46.2382</v>
+        <v>21.7374</v>
       </c>
     </row>
     <row r="6">
@@ -5463,13 +5463,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>32.8263</v>
+        <v>19.7256</v>
       </c>
       <c r="C6" t="n">
-        <v>19.3607</v>
+        <v>14.9477</v>
       </c>
       <c r="D6" t="n">
-        <v>40.0898</v>
+        <v>24.8659</v>
       </c>
     </row>
     <row r="7">
@@ -5477,13 +5477,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>34.3088</v>
+        <v>23.5195</v>
       </c>
       <c r="C7" t="n">
-        <v>17.932</v>
+        <v>16.257</v>
       </c>
       <c r="D7" t="n">
-        <v>39.6881</v>
+        <v>29.5265</v>
       </c>
     </row>
     <row r="8">
@@ -5491,13 +5491,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>36.3772</v>
+        <v>18.8094</v>
       </c>
       <c r="C8" t="n">
-        <v>17.2234</v>
+        <v>15.764</v>
       </c>
       <c r="D8" t="n">
-        <v>37.6808</v>
+        <v>26.0144</v>
       </c>
     </row>
     <row r="9">
@@ -5505,13 +5505,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>38.1281</v>
+        <v>19.3449</v>
       </c>
       <c r="C9" t="n">
-        <v>17.0313</v>
+        <v>15.7605</v>
       </c>
       <c r="D9" t="n">
-        <v>40.0055</v>
+        <v>26.8738</v>
       </c>
     </row>
     <row r="10">
@@ -5519,13 +5519,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>38.0241</v>
+        <v>20.274</v>
       </c>
       <c r="C10" t="n">
-        <v>18.8306</v>
+        <v>15.7458</v>
       </c>
       <c r="D10" t="n">
-        <v>39.9198</v>
+        <v>27.2083</v>
       </c>
     </row>
     <row r="11">
@@ -5533,13 +5533,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>37.8548</v>
+        <v>20.4107</v>
       </c>
       <c r="C11" t="n">
-        <v>18.9468</v>
+        <v>15.4281</v>
       </c>
       <c r="D11" t="n">
-        <v>40.1388</v>
+        <v>27.0984</v>
       </c>
     </row>
     <row r="12">
@@ -5547,13 +5547,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>37.8403</v>
+        <v>21.5097</v>
       </c>
       <c r="C12" t="n">
-        <v>18.3933</v>
+        <v>15.845</v>
       </c>
       <c r="D12" t="n">
-        <v>40.6115</v>
+        <v>28.4213</v>
       </c>
     </row>
     <row r="13">
@@ -5561,13 +5561,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>37.7732</v>
+        <v>22.1402</v>
       </c>
       <c r="C13" t="n">
-        <v>18.2664</v>
+        <v>15.7013</v>
       </c>
       <c r="D13" t="n">
-        <v>42.5397</v>
+        <v>27.5941</v>
       </c>
     </row>
     <row r="14">
@@ -5575,13 +5575,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>38.0313</v>
+        <v>21.0487</v>
       </c>
       <c r="C14" t="n">
-        <v>18.3828</v>
+        <v>15.9586</v>
       </c>
       <c r="D14" t="n">
-        <v>42.2313</v>
+        <v>28.5056</v>
       </c>
     </row>
     <row r="15">
@@ -5589,13 +5589,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>38.0344</v>
+        <v>21.1212</v>
       </c>
       <c r="C15" t="n">
-        <v>17.6861</v>
+        <v>15.8732</v>
       </c>
       <c r="D15" t="n">
-        <v>43.2848</v>
+        <v>28.5654</v>
       </c>
     </row>
     <row r="16">
@@ -5603,13 +5603,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>37.9617</v>
+        <v>21.1181</v>
       </c>
       <c r="C16" t="n">
-        <v>17.7581</v>
+        <v>15.878</v>
       </c>
       <c r="D16" t="n">
-        <v>43.1151</v>
+        <v>28.4951</v>
       </c>
     </row>
     <row r="17">
@@ -5617,13 +5617,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>38.1113</v>
+        <v>21.5349</v>
       </c>
       <c r="C17" t="n">
-        <v>17.6398</v>
+        <v>15.7814</v>
       </c>
       <c r="D17" t="n">
-        <v>41.9754</v>
+        <v>28.1716</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Parallel workload.xlsx
+++ b/vs-x86/Parallel workload.xlsx
@@ -4087,13 +4087,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>6.07041</v>
+        <v>8.245469999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>6.37845</v>
+        <v>8.929209999999999</v>
       </c>
       <c r="D2" t="n">
-        <v>7.91553</v>
+        <v>12.3075</v>
       </c>
     </row>
     <row r="3">
@@ -4101,13 +4101,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>10.5214</v>
+        <v>13.5569</v>
       </c>
       <c r="C3" t="n">
-        <v>10.4461</v>
+        <v>13.5393</v>
       </c>
       <c r="D3" t="n">
-        <v>14.3462</v>
+        <v>20.9545</v>
       </c>
     </row>
     <row r="4">
@@ -4115,13 +4115,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>13.3941</v>
+        <v>16.0515</v>
       </c>
       <c r="C4" t="n">
-        <v>13.825</v>
+        <v>16.4436</v>
       </c>
       <c r="D4" t="n">
-        <v>19.11</v>
+        <v>26.5773</v>
       </c>
     </row>
     <row r="5">
@@ -4129,13 +4129,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>13.8698</v>
+        <v>16.1716</v>
       </c>
       <c r="C5" t="n">
-        <v>15.3943</v>
+        <v>18.6431</v>
       </c>
       <c r="D5" t="n">
-        <v>21.7933</v>
+        <v>28.1965</v>
       </c>
     </row>
     <row r="6">
@@ -4143,13 +4143,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>16.5354</v>
+        <v>18.7537</v>
       </c>
       <c r="C6" t="n">
-        <v>18.6861</v>
+        <v>22.3744</v>
       </c>
       <c r="D6" t="n">
-        <v>25.7695</v>
+        <v>32.1613</v>
       </c>
     </row>
     <row r="7">
@@ -4157,13 +4157,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>18.9051</v>
+        <v>21.1045</v>
       </c>
       <c r="C7" t="n">
-        <v>22.1486</v>
+        <v>26.4376</v>
       </c>
       <c r="D7" t="n">
-        <v>29.0418</v>
+        <v>35.1752</v>
       </c>
     </row>
     <row r="8">
@@ -4171,13 +4171,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>14.033</v>
+        <v>16.7807</v>
       </c>
       <c r="C8" t="n">
-        <v>17.3185</v>
+        <v>21.7635</v>
       </c>
       <c r="D8" t="n">
-        <v>20.6675</v>
+        <v>27.2767</v>
       </c>
     </row>
     <row r="9">
@@ -4185,13 +4185,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>14.8639</v>
+        <v>16.9763</v>
       </c>
       <c r="C9" t="n">
-        <v>17.0888</v>
+        <v>21.0309</v>
       </c>
       <c r="D9" t="n">
-        <v>22.3128</v>
+        <v>28.7144</v>
       </c>
     </row>
     <row r="10">
@@ -4199,13 +4199,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>15.3761</v>
+        <v>17.7163</v>
       </c>
       <c r="C10" t="n">
-        <v>17.5967</v>
+        <v>21.5</v>
       </c>
       <c r="D10" t="n">
-        <v>23.9035</v>
+        <v>30.2536</v>
       </c>
     </row>
     <row r="11">
@@ -4213,13 +4213,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>16.3866</v>
+        <v>18.6191</v>
       </c>
       <c r="C11" t="n">
-        <v>18.922</v>
+        <v>22.6874</v>
       </c>
       <c r="D11" t="n">
-        <v>25.4739</v>
+        <v>31.0873</v>
       </c>
     </row>
     <row r="12">
@@ -4227,13 +4227,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>17.586</v>
+        <v>19.8035</v>
       </c>
       <c r="C12" t="n">
-        <v>20.2777</v>
+        <v>24.2504</v>
       </c>
       <c r="D12" t="n">
-        <v>27.0307</v>
+        <v>31.8859</v>
       </c>
     </row>
     <row r="13">
@@ -4241,13 +4241,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>18.7327</v>
+        <v>20.9239</v>
       </c>
       <c r="C13" t="n">
-        <v>21.4251</v>
+        <v>25.6228</v>
       </c>
       <c r="D13" t="n">
-        <v>28.2905</v>
+        <v>34.0822</v>
       </c>
     </row>
     <row r="14">
@@ -4255,13 +4255,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>15.8091</v>
+        <v>18.4056</v>
       </c>
       <c r="C14" t="n">
-        <v>19.0114</v>
+        <v>23.508</v>
       </c>
       <c r="D14" t="n">
-        <v>23.6114</v>
+        <v>29.3148</v>
       </c>
     </row>
     <row r="15">
@@ -4269,13 +4269,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>16.2362</v>
+        <v>18.5717</v>
       </c>
       <c r="C15" t="n">
-        <v>18.7284</v>
+        <v>22.8071</v>
       </c>
       <c r="D15" t="n">
-        <v>24.4723</v>
+        <v>29.3523</v>
       </c>
     </row>
     <row r="16">
@@ -4283,13 +4283,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>16.4305</v>
+        <v>18.5915</v>
       </c>
       <c r="C16" t="n">
-        <v>19.1482</v>
+        <v>23.091</v>
       </c>
       <c r="D16" t="n">
-        <v>25.3209</v>
+        <v>29.948</v>
       </c>
     </row>
     <row r="17">
@@ -4297,13 +4297,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>17.1719</v>
+        <v>19.3686</v>
       </c>
       <c r="C17" t="n">
-        <v>19.8098</v>
+        <v>23.696</v>
       </c>
       <c r="D17" t="n">
-        <v>26.2114</v>
+        <v>29.0845</v>
       </c>
     </row>
   </sheetData>
@@ -4351,13 +4351,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>6.07361</v>
+        <v>8.292109999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>6.34994</v>
+        <v>8.93282</v>
       </c>
       <c r="D2" t="n">
-        <v>7.85256</v>
+        <v>12.2103</v>
       </c>
     </row>
     <row r="3">
@@ -4365,13 +4365,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>10.8642</v>
+        <v>14.0646</v>
       </c>
       <c r="C3" t="n">
-        <v>11.1848</v>
+        <v>14.4002</v>
       </c>
       <c r="D3" t="n">
-        <v>14.4747</v>
+        <v>20.9172</v>
       </c>
     </row>
     <row r="4">
@@ -4379,13 +4379,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>14.1978</v>
+        <v>16.1007</v>
       </c>
       <c r="C4" t="n">
-        <v>14.6372</v>
+        <v>17.6568</v>
       </c>
       <c r="D4" t="n">
-        <v>19.1389</v>
+        <v>25.7763</v>
       </c>
     </row>
     <row r="5">
@@ -4393,13 +4393,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>13.9103</v>
+        <v>16.2331</v>
       </c>
       <c r="C5" t="n">
-        <v>15.3448</v>
+        <v>18.5898</v>
       </c>
       <c r="D5" t="n">
-        <v>21.439</v>
+        <v>28.0028</v>
       </c>
     </row>
     <row r="6">
@@ -4407,13 +4407,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>16.6044</v>
+        <v>18.7733</v>
       </c>
       <c r="C6" t="n">
-        <v>18.6663</v>
+        <v>22.2684</v>
       </c>
       <c r="D6" t="n">
-        <v>25.574</v>
+        <v>31.9578</v>
       </c>
     </row>
     <row r="7">
@@ -4421,13 +4421,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>19.0021</v>
+        <v>21.247</v>
       </c>
       <c r="C7" t="n">
-        <v>22.0842</v>
+        <v>26.3671</v>
       </c>
       <c r="D7" t="n">
-        <v>28.8868</v>
+        <v>34.9857</v>
       </c>
     </row>
     <row r="8">
@@ -4435,13 +4435,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>14.0092</v>
+        <v>16.8003</v>
       </c>
       <c r="C8" t="n">
-        <v>17.2638</v>
+        <v>21.4263</v>
       </c>
       <c r="D8" t="n">
-        <v>20.5326</v>
+        <v>27.132</v>
       </c>
     </row>
     <row r="9">
@@ -4449,13 +4449,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>14.9369</v>
+        <v>17.1987</v>
       </c>
       <c r="C9" t="n">
-        <v>16.6843</v>
+        <v>21.1444</v>
       </c>
       <c r="D9" t="n">
-        <v>22.3015</v>
+        <v>28.4963</v>
       </c>
     </row>
     <row r="10">
@@ -4463,13 +4463,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>15.4752</v>
+        <v>17.5488</v>
       </c>
       <c r="C10" t="n">
-        <v>17.618</v>
+        <v>21.3934</v>
       </c>
       <c r="D10" t="n">
-        <v>23.6088</v>
+        <v>29.7717</v>
       </c>
     </row>
     <row r="11">
@@ -4477,13 +4477,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>16.4969</v>
+        <v>18.7329</v>
       </c>
       <c r="C11" t="n">
-        <v>18.8376</v>
+        <v>22.5625</v>
       </c>
       <c r="D11" t="n">
-        <v>25.3869</v>
+        <v>31.6489</v>
       </c>
     </row>
     <row r="12">
@@ -4491,13 +4491,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>17.7048</v>
+        <v>19.9756</v>
       </c>
       <c r="C12" t="n">
-        <v>20.262</v>
+        <v>24.1292</v>
       </c>
       <c r="D12" t="n">
-        <v>27.0948</v>
+        <v>32.1427</v>
       </c>
     </row>
     <row r="13">
@@ -4505,13 +4505,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>18.8672</v>
+        <v>21.0892</v>
       </c>
       <c r="C13" t="n">
-        <v>21.385</v>
+        <v>25.4937</v>
       </c>
       <c r="D13" t="n">
-        <v>28.2052</v>
+        <v>34.5059</v>
       </c>
     </row>
     <row r="14">
@@ -4519,13 +4519,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>15.8446</v>
+        <v>18.4895</v>
       </c>
       <c r="C14" t="n">
-        <v>19.041</v>
+        <v>23.5453</v>
       </c>
       <c r="D14" t="n">
-        <v>23.113</v>
+        <v>29.3235</v>
       </c>
     </row>
     <row r="15">
@@ -4533,13 +4533,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>16.2125</v>
+        <v>18.6502</v>
       </c>
       <c r="C15" t="n">
-        <v>18.7563</v>
+        <v>22.7542</v>
       </c>
       <c r="D15" t="n">
-        <v>24.2949</v>
+        <v>29.8327</v>
       </c>
     </row>
     <row r="16">
@@ -4547,13 +4547,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>16.4481</v>
+        <v>18.7478</v>
       </c>
       <c r="C16" t="n">
-        <v>19.1534</v>
+        <v>23.0103</v>
       </c>
       <c r="D16" t="n">
-        <v>24.1779</v>
+        <v>28.4155</v>
       </c>
     </row>
     <row r="17">
@@ -4561,13 +4561,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>17.2232</v>
+        <v>19.4936</v>
       </c>
       <c r="C17" t="n">
-        <v>19.8198</v>
+        <v>23.7416</v>
       </c>
       <c r="D17" t="n">
-        <v>25.7965</v>
+        <v>29.8211</v>
       </c>
     </row>
   </sheetData>
@@ -4615,13 +4615,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>6.43295</v>
+        <v>8.94647</v>
       </c>
       <c r="C2" t="n">
-        <v>6.45576</v>
+        <v>9.061780000000001</v>
       </c>
       <c r="D2" t="n">
-        <v>7.72648</v>
+        <v>11.7509</v>
       </c>
     </row>
     <row r="3">
@@ -4629,13 +4629,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>11.2542</v>
+        <v>15.1146</v>
       </c>
       <c r="C3" t="n">
-        <v>11.2298</v>
+        <v>14.7506</v>
       </c>
       <c r="D3" t="n">
-        <v>13.9915</v>
+        <v>20.6652</v>
       </c>
     </row>
     <row r="4">
@@ -4643,13 +4643,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>14.6398</v>
+        <v>18.8075</v>
       </c>
       <c r="C4" t="n">
-        <v>14.6053</v>
+        <v>18.7959</v>
       </c>
       <c r="D4" t="n">
-        <v>18.907</v>
+        <v>26.1748</v>
       </c>
     </row>
     <row r="5">
@@ -4657,13 +4657,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>15.961</v>
+        <v>19.0863</v>
       </c>
       <c r="C5" t="n">
-        <v>15.7337</v>
+        <v>19.0908</v>
       </c>
       <c r="D5" t="n">
-        <v>21.7667</v>
+        <v>28.3574</v>
       </c>
     </row>
     <row r="6">
@@ -4671,13 +4671,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>19.2016</v>
+        <v>22.6012</v>
       </c>
       <c r="C6" t="n">
-        <v>19.0415</v>
+        <v>22.743</v>
       </c>
       <c r="D6" t="n">
-        <v>26.2255</v>
+        <v>33.4492</v>
       </c>
     </row>
     <row r="7">
@@ -4685,13 +4685,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>22.5602</v>
+        <v>26.085</v>
       </c>
       <c r="C7" t="n">
-        <v>22.4486</v>
+        <v>26.5298</v>
       </c>
       <c r="D7" t="n">
-        <v>30.4766</v>
+        <v>37.9914</v>
       </c>
     </row>
     <row r="8">
@@ -4699,13 +4699,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>16.9991</v>
+        <v>20.7781</v>
       </c>
       <c r="C8" t="n">
-        <v>16.7656</v>
+        <v>21.2221</v>
       </c>
       <c r="D8" t="n">
-        <v>21.2293</v>
+        <v>28.4892</v>
       </c>
     </row>
     <row r="9">
@@ -4713,13 +4713,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>17.3072</v>
+        <v>20.6314</v>
       </c>
       <c r="C9" t="n">
-        <v>16.8438</v>
+        <v>20.9023</v>
       </c>
       <c r="D9" t="n">
-        <v>22.7595</v>
+        <v>29.6437</v>
       </c>
     </row>
     <row r="10">
@@ -4727,13 +4727,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>18.2057</v>
+        <v>21.423</v>
       </c>
       <c r="C10" t="n">
-        <v>18.1632</v>
+        <v>21.3697</v>
       </c>
       <c r="D10" t="n">
-        <v>24.5157</v>
+        <v>31.2604</v>
       </c>
     </row>
     <row r="11">
@@ -4741,13 +4741,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>19.3178</v>
+        <v>22.7475</v>
       </c>
       <c r="C11" t="n">
-        <v>19.1369</v>
+        <v>22.8712</v>
       </c>
       <c r="D11" t="n">
-        <v>26.1874</v>
+        <v>33.3003</v>
       </c>
     </row>
     <row r="12">
@@ -4755,13 +4755,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>20.7667</v>
+        <v>24.1485</v>
       </c>
       <c r="C12" t="n">
-        <v>20.6099</v>
+        <v>24.5098</v>
       </c>
       <c r="D12" t="n">
-        <v>28.1326</v>
+        <v>33.932</v>
       </c>
     </row>
     <row r="13">
@@ -4769,13 +4769,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>21.8981</v>
+        <v>25.2482</v>
       </c>
       <c r="C13" t="n">
-        <v>21.8474</v>
+        <v>26.0738</v>
       </c>
       <c r="D13" t="n">
-        <v>29.3757</v>
+        <v>33.3229</v>
       </c>
     </row>
     <row r="14">
@@ -4783,13 +4783,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>18.9726</v>
+        <v>22.6247</v>
       </c>
       <c r="C14" t="n">
-        <v>19.0126</v>
+        <v>23.315</v>
       </c>
       <c r="D14" t="n">
-        <v>23.9443</v>
+        <v>31.8228</v>
       </c>
     </row>
     <row r="15">
@@ -4797,13 +4797,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>18.9556</v>
+        <v>22.67</v>
       </c>
       <c r="C15" t="n">
-        <v>18.8735</v>
+        <v>22.8543</v>
       </c>
       <c r="D15" t="n">
-        <v>25.1036</v>
+        <v>30.5001</v>
       </c>
     </row>
     <row r="16">
@@ -4811,13 +4811,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>19.4501</v>
+        <v>22.7676</v>
       </c>
       <c r="C16" t="n">
-        <v>19.4818</v>
+        <v>23.2312</v>
       </c>
       <c r="D16" t="n">
-        <v>25.435</v>
+        <v>30.2647</v>
       </c>
     </row>
     <row r="17">
@@ -4825,13 +4825,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>20.2619</v>
+        <v>23.5888</v>
       </c>
       <c r="C17" t="n">
-        <v>20.1728</v>
+        <v>23.9657</v>
       </c>
       <c r="D17" t="n">
-        <v>26.4542</v>
+        <v>31.762</v>
       </c>
     </row>
   </sheetData>
@@ -4879,13 +4879,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>5.83922</v>
+        <v>7.86552</v>
       </c>
       <c r="C2" t="n">
-        <v>6.2818</v>
+        <v>8.776350000000001</v>
       </c>
       <c r="D2" t="n">
-        <v>7.81322</v>
+        <v>12.0707</v>
       </c>
     </row>
     <row r="3">
@@ -4893,13 +4893,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>11.0445</v>
+        <v>14.3675</v>
       </c>
       <c r="C3" t="n">
-        <v>10.7629</v>
+        <v>13.9553</v>
       </c>
       <c r="D3" t="n">
-        <v>13.751</v>
+        <v>20.0064</v>
       </c>
     </row>
     <row r="4">
@@ -4907,13 +4907,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>15.4732</v>
+        <v>19.3681</v>
       </c>
       <c r="C4" t="n">
-        <v>15.1399</v>
+        <v>18.534</v>
       </c>
       <c r="D4" t="n">
-        <v>18.2493</v>
+        <v>25.592</v>
       </c>
     </row>
     <row r="5">
@@ -4921,13 +4921,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>13.6765</v>
+        <v>15.7133</v>
       </c>
       <c r="C5" t="n">
-        <v>15.4413</v>
+        <v>19.0081</v>
       </c>
       <c r="D5" t="n">
-        <v>20.1235</v>
+        <v>24.9579</v>
       </c>
     </row>
     <row r="6">
@@ -4935,13 +4935,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>16.3427</v>
+        <v>18.5305</v>
       </c>
       <c r="C6" t="n">
-        <v>18.7096</v>
+        <v>22.361</v>
       </c>
       <c r="D6" t="n">
-        <v>21.8387</v>
+        <v>26.8017</v>
       </c>
     </row>
     <row r="7">
@@ -4949,13 +4949,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>18.9626</v>
+        <v>21.2088</v>
       </c>
       <c r="C7" t="n">
-        <v>22.1158</v>
+        <v>26.3375</v>
       </c>
       <c r="D7" t="n">
-        <v>24.3797</v>
+        <v>29.2615</v>
       </c>
     </row>
     <row r="8">
@@ -4963,13 +4963,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>13.9555</v>
+        <v>16.4795</v>
       </c>
       <c r="C8" t="n">
-        <v>18.7162</v>
+        <v>22.8412</v>
       </c>
       <c r="D8" t="n">
-        <v>21.8253</v>
+        <v>28.198</v>
       </c>
     </row>
     <row r="9">
@@ -4977,13 +4977,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>15.6978</v>
+        <v>18.4521</v>
       </c>
       <c r="C9" t="n">
-        <v>19.0381</v>
+        <v>23.3277</v>
       </c>
       <c r="D9" t="n">
-        <v>22.2559</v>
+        <v>28.8016</v>
       </c>
     </row>
     <row r="10">
@@ -4991,13 +4991,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>17.1803</v>
+        <v>20.109</v>
       </c>
       <c r="C10" t="n">
-        <v>19.5449</v>
+        <v>24.1223</v>
       </c>
       <c r="D10" t="n">
-        <v>21.9784</v>
+        <v>28.8391</v>
       </c>
     </row>
     <row r="11">
@@ -5005,13 +5005,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>16.2164</v>
+        <v>18.3453</v>
       </c>
       <c r="C11" t="n">
-        <v>18.6834</v>
+        <v>23.6955</v>
       </c>
       <c r="D11" t="n">
-        <v>22.9416</v>
+        <v>29.204</v>
       </c>
     </row>
     <row r="12">
@@ -5019,13 +5019,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>17.5667</v>
+        <v>19.7206</v>
       </c>
       <c r="C12" t="n">
-        <v>18.5548</v>
+        <v>22.9544</v>
       </c>
       <c r="D12" t="n">
-        <v>23.8042</v>
+        <v>29.186</v>
       </c>
     </row>
     <row r="13">
@@ -5033,13 +5033,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>18.8653</v>
+        <v>21.1956</v>
       </c>
       <c r="C13" t="n">
-        <v>18.6368</v>
+        <v>23.0433</v>
       </c>
       <c r="D13" t="n">
-        <v>23.5336</v>
+        <v>28.6963</v>
       </c>
     </row>
     <row r="14">
@@ -5047,13 +5047,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>15.7103</v>
+        <v>18.0549</v>
       </c>
       <c r="C14" t="n">
-        <v>19.4866</v>
+        <v>23.3521</v>
       </c>
       <c r="D14" t="n">
-        <v>24.5114</v>
+        <v>29.171</v>
       </c>
     </row>
     <row r="15">
@@ -5061,13 +5061,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>16.7073</v>
+        <v>19.3015</v>
       </c>
       <c r="C15" t="n">
-        <v>19.8049</v>
+        <v>23.6459</v>
       </c>
       <c r="D15" t="n">
-        <v>24.2324</v>
+        <v>29.3998</v>
       </c>
     </row>
     <row r="16">
@@ -5075,13 +5075,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>17.623</v>
+        <v>20.1299</v>
       </c>
       <c r="C16" t="n">
-        <v>19.5305</v>
+        <v>23.4676</v>
       </c>
       <c r="D16" t="n">
-        <v>24.4762</v>
+        <v>28.9916</v>
       </c>
     </row>
     <row r="17">
@@ -5089,13 +5089,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>17.1021</v>
+        <v>19.3991</v>
       </c>
       <c r="C17" t="n">
-        <v>19.3739</v>
+        <v>23.882</v>
       </c>
       <c r="D17" t="n">
-        <v>24.6116</v>
+        <v>29.1217</v>
       </c>
     </row>
   </sheetData>
@@ -5143,13 +5143,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>5.85803</v>
+        <v>7.8907</v>
       </c>
       <c r="C2" t="n">
-        <v>6.30528</v>
+        <v>8.844670000000001</v>
       </c>
       <c r="D2" t="n">
-        <v>7.76387</v>
+        <v>11.9907</v>
       </c>
     </row>
     <row r="3">
@@ -5157,13 +5157,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>11.0605</v>
+        <v>14.6355</v>
       </c>
       <c r="C3" t="n">
-        <v>10.8732</v>
+        <v>14.3697</v>
       </c>
       <c r="D3" t="n">
-        <v>13.7689</v>
+        <v>19.7206</v>
       </c>
     </row>
     <row r="4">
@@ -5171,13 +5171,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>15.5872</v>
+        <v>20.0497</v>
       </c>
       <c r="C4" t="n">
-        <v>15.1027</v>
+        <v>19.0194</v>
       </c>
       <c r="D4" t="n">
-        <v>18.0527</v>
+        <v>24.4261</v>
       </c>
     </row>
     <row r="5">
@@ -5185,13 +5185,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>13.7633</v>
+        <v>16.0086</v>
       </c>
       <c r="C5" t="n">
-        <v>15.6006</v>
+        <v>19.0188</v>
       </c>
       <c r="D5" t="n">
-        <v>18.8513</v>
+        <v>24.4855</v>
       </c>
     </row>
     <row r="6">
@@ -5199,13 +5199,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>16.4925</v>
+        <v>18.8044</v>
       </c>
       <c r="C6" t="n">
-        <v>18.8316</v>
+        <v>22.5458</v>
       </c>
       <c r="D6" t="n">
-        <v>21.6501</v>
+        <v>27.7123</v>
       </c>
     </row>
     <row r="7">
@@ -5213,13 +5213,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>19.1564</v>
+        <v>21.4934</v>
       </c>
       <c r="C7" t="n">
-        <v>22.3065</v>
+        <v>26.5674</v>
       </c>
       <c r="D7" t="n">
-        <v>23.3078</v>
+        <v>29.3293</v>
       </c>
     </row>
     <row r="8">
@@ -5227,13 +5227,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>14.0431</v>
+        <v>16.7687</v>
       </c>
       <c r="C8" t="n">
-        <v>19.4455</v>
+        <v>23.5997</v>
       </c>
       <c r="D8" t="n">
-        <v>22.3515</v>
+        <v>28.7895</v>
       </c>
     </row>
     <row r="9">
@@ -5241,13 +5241,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>15.7686</v>
+        <v>18.7904</v>
       </c>
       <c r="C9" t="n">
-        <v>19.5827</v>
+        <v>23.6596</v>
       </c>
       <c r="D9" t="n">
-        <v>22.0615</v>
+        <v>28.3556</v>
       </c>
     </row>
     <row r="10">
@@ -5255,13 +5255,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>17.4845</v>
+        <v>20.4235</v>
       </c>
       <c r="C10" t="n">
-        <v>19.6532</v>
+        <v>23.9153</v>
       </c>
       <c r="D10" t="n">
-        <v>22.7951</v>
+        <v>28.6577</v>
       </c>
     </row>
     <row r="11">
@@ -5269,13 +5269,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>16.2202</v>
+        <v>18.5081</v>
       </c>
       <c r="C11" t="n">
-        <v>18.8715</v>
+        <v>23.9802</v>
       </c>
       <c r="D11" t="n">
-        <v>23.3194</v>
+        <v>29.2262</v>
       </c>
     </row>
     <row r="12">
@@ -5283,13 +5283,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>17.7239</v>
+        <v>19.9893</v>
       </c>
       <c r="C12" t="n">
-        <v>19.4235</v>
+        <v>23.4219</v>
       </c>
       <c r="D12" t="n">
-        <v>23.5084</v>
+        <v>29.4063</v>
       </c>
     </row>
     <row r="13">
@@ -5297,13 +5297,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>19.0983</v>
+        <v>21.4526</v>
       </c>
       <c r="C13" t="n">
-        <v>19.4669</v>
+        <v>23.2107</v>
       </c>
       <c r="D13" t="n">
-        <v>24.0769</v>
+        <v>29.4747</v>
       </c>
     </row>
     <row r="14">
@@ -5311,13 +5311,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>15.8789</v>
+        <v>18.5892</v>
       </c>
       <c r="C14" t="n">
-        <v>19.6468</v>
+        <v>23.8493</v>
       </c>
       <c r="D14" t="n">
-        <v>24.2499</v>
+        <v>30.1481</v>
       </c>
     </row>
     <row r="15">
@@ -5325,13 +5325,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>16.8739</v>
+        <v>19.5604</v>
       </c>
       <c r="C15" t="n">
-        <v>19.6809</v>
+        <v>24.162</v>
       </c>
       <c r="D15" t="n">
-        <v>24.852</v>
+        <v>29.8224</v>
       </c>
     </row>
     <row r="16">
@@ -5339,13 +5339,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>17.861</v>
+        <v>20.4662</v>
       </c>
       <c r="C16" t="n">
-        <v>20.0001</v>
+        <v>24.2685</v>
       </c>
       <c r="D16" t="n">
-        <v>24.7863</v>
+        <v>30.1752</v>
       </c>
     </row>
     <row r="17">
@@ -5353,13 +5353,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>17.2911</v>
+        <v>19.6057</v>
       </c>
       <c r="C17" t="n">
-        <v>19.8233</v>
+        <v>23.9652</v>
       </c>
       <c r="D17" t="n">
-        <v>25.0161</v>
+        <v>29.344</v>
       </c>
     </row>
   </sheetData>
@@ -5407,13 +5407,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>6.32006</v>
+        <v>8.705679999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>6.44244</v>
+        <v>9.05165</v>
       </c>
       <c r="D2" t="n">
-        <v>7.71101</v>
+        <v>11.725</v>
       </c>
     </row>
     <row r="3">
@@ -5421,13 +5421,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>11.8575</v>
+        <v>15.8821</v>
       </c>
       <c r="C3" t="n">
-        <v>11.7471</v>
+        <v>15.742</v>
       </c>
       <c r="D3" t="n">
-        <v>14.3401</v>
+        <v>20.4341</v>
       </c>
     </row>
     <row r="4">
@@ -5435,13 +5435,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>17.0584</v>
+        <v>22.0319</v>
       </c>
       <c r="C4" t="n">
-        <v>16.5555</v>
+        <v>20.4628</v>
       </c>
       <c r="D4" t="n">
-        <v>20.3151</v>
+        <v>28.0625</v>
       </c>
     </row>
     <row r="5">
@@ -5449,13 +5449,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>16.1181</v>
+        <v>19.3381</v>
       </c>
       <c r="C5" t="n">
-        <v>16.264</v>
+        <v>19.7546</v>
       </c>
       <c r="D5" t="n">
-        <v>21.6611</v>
+        <v>29.1728</v>
       </c>
     </row>
     <row r="6">
@@ -5463,13 +5463,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>19.7469</v>
+        <v>23.3718</v>
       </c>
       <c r="C6" t="n">
-        <v>19.2452</v>
+        <v>23.0097</v>
       </c>
       <c r="D6" t="n">
-        <v>25.2252</v>
+        <v>32.251</v>
       </c>
     </row>
     <row r="7">
@@ -5477,13 +5477,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>23.5394</v>
+        <v>27.6028</v>
       </c>
       <c r="C7" t="n">
-        <v>22.6561</v>
+        <v>26.9852</v>
       </c>
       <c r="D7" t="n">
-        <v>30.1509</v>
+        <v>35.8567</v>
       </c>
     </row>
     <row r="8">
@@ -5491,13 +5491,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>18.3845</v>
+        <v>24.227</v>
       </c>
       <c r="C8" t="n">
-        <v>19.8722</v>
+        <v>24.9556</v>
       </c>
       <c r="D8" t="n">
-        <v>25.1352</v>
+        <v>33.294</v>
       </c>
     </row>
     <row r="9">
@@ -5505,13 +5505,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>18.8451</v>
+        <v>23.6653</v>
       </c>
       <c r="C9" t="n">
-        <v>19.3392</v>
+        <v>24.015</v>
       </c>
       <c r="D9" t="n">
-        <v>25.882</v>
+        <v>34.0098</v>
       </c>
     </row>
     <row r="10">
@@ -5519,13 +5519,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>20.1135</v>
+        <v>24.1141</v>
       </c>
       <c r="C10" t="n">
-        <v>19.1735</v>
+        <v>23.6874</v>
       </c>
       <c r="D10" t="n">
-        <v>26.8336</v>
+        <v>34.4937</v>
       </c>
     </row>
     <row r="11">
@@ -5533,13 +5533,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>20.1191</v>
+        <v>25.0046</v>
       </c>
       <c r="C11" t="n">
-        <v>19.6896</v>
+        <v>24.0171</v>
       </c>
       <c r="D11" t="n">
-        <v>27.3761</v>
+        <v>35.4613</v>
       </c>
     </row>
     <row r="12">
@@ -5547,13 +5547,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>21.5463</v>
+        <v>25.2522</v>
       </c>
       <c r="C12" t="n">
-        <v>20.0767</v>
+        <v>24.7611</v>
       </c>
       <c r="D12" t="n">
-        <v>27.6961</v>
+        <v>33.9599</v>
       </c>
     </row>
     <row r="13">
@@ -5561,13 +5561,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>22.3499</v>
+        <v>25.8927</v>
       </c>
       <c r="C13" t="n">
-        <v>20.9365</v>
+        <v>24.7799</v>
       </c>
       <c r="D13" t="n">
-        <v>28.2016</v>
+        <v>35.3583</v>
       </c>
     </row>
     <row r="14">
@@ -5575,13 +5575,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>21.3558</v>
+        <v>25.2364</v>
       </c>
       <c r="C14" t="n">
-        <v>21.1221</v>
+        <v>25.1415</v>
       </c>
       <c r="D14" t="n">
-        <v>27.8072</v>
+        <v>36.023</v>
       </c>
     </row>
     <row r="15">
@@ -5589,13 +5589,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>20.7537</v>
+        <v>24.9647</v>
       </c>
       <c r="C15" t="n">
-        <v>21.1718</v>
+        <v>25.1918</v>
       </c>
       <c r="D15" t="n">
-        <v>28.2798</v>
+        <v>36.2387</v>
       </c>
     </row>
     <row r="16">
@@ -5603,13 +5603,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>21.186</v>
+        <v>25.525</v>
       </c>
       <c r="C16" t="n">
-        <v>21.1021</v>
+        <v>25.3922</v>
       </c>
       <c r="D16" t="n">
-        <v>28.2391</v>
+        <v>36.9345</v>
       </c>
     </row>
     <row r="17">
@@ -5617,13 +5617,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>21.3434</v>
+        <v>25.1976</v>
       </c>
       <c r="C17" t="n">
-        <v>20.9848</v>
+        <v>25.0971</v>
       </c>
       <c r="D17" t="n">
-        <v>29.0261</v>
+        <v>37.1809</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Parallel workload.xlsx
+++ b/vs-x86/Parallel workload.xlsx
@@ -4087,13 +4087,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.245469999999999</v>
+        <v>8.25136</v>
       </c>
       <c r="C2" t="n">
-        <v>8.929209999999999</v>
+        <v>8.919560000000001</v>
       </c>
       <c r="D2" t="n">
-        <v>12.3075</v>
+        <v>12.3063</v>
       </c>
     </row>
     <row r="3">
@@ -4101,13 +4101,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>13.5569</v>
+        <v>13.8095</v>
       </c>
       <c r="C3" t="n">
-        <v>13.5393</v>
+        <v>13.266</v>
       </c>
       <c r="D3" t="n">
-        <v>20.9545</v>
+        <v>21.0015</v>
       </c>
     </row>
     <row r="4">
@@ -4115,13 +4115,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>16.0515</v>
+        <v>14.9008</v>
       </c>
       <c r="C4" t="n">
-        <v>16.4436</v>
+        <v>16.034</v>
       </c>
       <c r="D4" t="n">
-        <v>26.5773</v>
+        <v>26.1995</v>
       </c>
     </row>
     <row r="5">
@@ -4129,13 +4129,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>16.1716</v>
+        <v>16.0459</v>
       </c>
       <c r="C5" t="n">
-        <v>18.6431</v>
+        <v>18.6481</v>
       </c>
       <c r="D5" t="n">
-        <v>28.1965</v>
+        <v>27.9809</v>
       </c>
     </row>
     <row r="6">
@@ -4143,13 +4143,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>18.7537</v>
+        <v>18.7085</v>
       </c>
       <c r="C6" t="n">
-        <v>22.3744</v>
+        <v>22.393</v>
       </c>
       <c r="D6" t="n">
-        <v>32.1613</v>
+        <v>32.0203</v>
       </c>
     </row>
     <row r="7">
@@ -4157,13 +4157,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>21.1045</v>
+        <v>21.0791</v>
       </c>
       <c r="C7" t="n">
-        <v>26.4376</v>
+        <v>26.4092</v>
       </c>
       <c r="D7" t="n">
-        <v>35.1752</v>
+        <v>35.0609</v>
       </c>
     </row>
     <row r="8">
@@ -4171,13 +4171,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>16.7807</v>
+        <v>16.7173</v>
       </c>
       <c r="C8" t="n">
-        <v>21.7635</v>
+        <v>21.7394</v>
       </c>
       <c r="D8" t="n">
-        <v>27.2767</v>
+        <v>27.1954</v>
       </c>
     </row>
     <row r="9">
@@ -4185,13 +4185,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>16.9763</v>
+        <v>17.1666</v>
       </c>
       <c r="C9" t="n">
-        <v>21.0309</v>
+        <v>21.0424</v>
       </c>
       <c r="D9" t="n">
-        <v>28.7144</v>
+        <v>28.6789</v>
       </c>
     </row>
     <row r="10">
@@ -4199,13 +4199,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>17.7163</v>
+        <v>17.69</v>
       </c>
       <c r="C10" t="n">
-        <v>21.5</v>
+        <v>21.416</v>
       </c>
       <c r="D10" t="n">
-        <v>30.2536</v>
+        <v>29.8701</v>
       </c>
     </row>
     <row r="11">
@@ -4213,13 +4213,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>18.6191</v>
+        <v>18.6159</v>
       </c>
       <c r="C11" t="n">
-        <v>22.6874</v>
+        <v>22.7162</v>
       </c>
       <c r="D11" t="n">
-        <v>31.0873</v>
+        <v>31.0173</v>
       </c>
     </row>
     <row r="12">
@@ -4227,13 +4227,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>19.8035</v>
+        <v>19.766</v>
       </c>
       <c r="C12" t="n">
-        <v>24.2504</v>
+        <v>24.1869</v>
       </c>
       <c r="D12" t="n">
-        <v>31.8859</v>
+        <v>32.0219</v>
       </c>
     </row>
     <row r="13">
@@ -4241,13 +4241,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>20.9239</v>
+        <v>20.8241</v>
       </c>
       <c r="C13" t="n">
-        <v>25.6228</v>
+        <v>25.6786</v>
       </c>
       <c r="D13" t="n">
-        <v>34.0822</v>
+        <v>33.5623</v>
       </c>
     </row>
     <row r="14">
@@ -4255,13 +4255,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>18.4056</v>
+        <v>18.3841</v>
       </c>
       <c r="C14" t="n">
-        <v>23.508</v>
+        <v>23.414</v>
       </c>
       <c r="D14" t="n">
-        <v>29.3148</v>
+        <v>28.2217</v>
       </c>
     </row>
     <row r="15">
@@ -4269,13 +4269,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>18.5717</v>
+        <v>18.5969</v>
       </c>
       <c r="C15" t="n">
-        <v>22.8071</v>
+        <v>22.9317</v>
       </c>
       <c r="D15" t="n">
-        <v>29.3523</v>
+        <v>30.2571</v>
       </c>
     </row>
     <row r="16">
@@ -4283,13 +4283,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>18.5915</v>
+        <v>18.701</v>
       </c>
       <c r="C16" t="n">
-        <v>23.091</v>
+        <v>23.0321</v>
       </c>
       <c r="D16" t="n">
-        <v>29.948</v>
+        <v>29.8758</v>
       </c>
     </row>
     <row r="17">
@@ -4297,13 +4297,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>19.3686</v>
+        <v>19.3544</v>
       </c>
       <c r="C17" t="n">
-        <v>23.696</v>
+        <v>23.7354</v>
       </c>
       <c r="D17" t="n">
-        <v>29.0845</v>
+        <v>30.559</v>
       </c>
     </row>
   </sheetData>
@@ -4351,13 +4351,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.292109999999999</v>
+        <v>8.28459</v>
       </c>
       <c r="C2" t="n">
-        <v>8.93282</v>
+        <v>8.927670000000001</v>
       </c>
       <c r="D2" t="n">
-        <v>12.2103</v>
+        <v>12.1925</v>
       </c>
     </row>
     <row r="3">
@@ -4365,13 +4365,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>14.0646</v>
+        <v>14.0696</v>
       </c>
       <c r="C3" t="n">
-        <v>14.4002</v>
+        <v>14.4359</v>
       </c>
       <c r="D3" t="n">
-        <v>20.9172</v>
+        <v>20.9702</v>
       </c>
     </row>
     <row r="4">
@@ -4379,13 +4379,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>16.1007</v>
+        <v>15.7736</v>
       </c>
       <c r="C4" t="n">
-        <v>17.6568</v>
+        <v>16.5019</v>
       </c>
       <c r="D4" t="n">
-        <v>25.7763</v>
+        <v>25.6839</v>
       </c>
     </row>
     <row r="5">
@@ -4393,13 +4393,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>16.2331</v>
+        <v>16.055</v>
       </c>
       <c r="C5" t="n">
-        <v>18.5898</v>
+        <v>18.5014</v>
       </c>
       <c r="D5" t="n">
-        <v>28.0028</v>
+        <v>27.9369</v>
       </c>
     </row>
     <row r="6">
@@ -4407,13 +4407,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>18.7733</v>
+        <v>18.7922</v>
       </c>
       <c r="C6" t="n">
-        <v>22.2684</v>
+        <v>22.2435</v>
       </c>
       <c r="D6" t="n">
-        <v>31.9578</v>
+        <v>31.8039</v>
       </c>
     </row>
     <row r="7">
@@ -4421,13 +4421,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>21.247</v>
+        <v>21.2072</v>
       </c>
       <c r="C7" t="n">
-        <v>26.3671</v>
+        <v>26.3357</v>
       </c>
       <c r="D7" t="n">
-        <v>34.9857</v>
+        <v>35.0231</v>
       </c>
     </row>
     <row r="8">
@@ -4435,13 +4435,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>16.8003</v>
+        <v>16.7351</v>
       </c>
       <c r="C8" t="n">
-        <v>21.4263</v>
+        <v>21.6762</v>
       </c>
       <c r="D8" t="n">
-        <v>27.132</v>
+        <v>27.0705</v>
       </c>
     </row>
     <row r="9">
@@ -4449,13 +4449,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>17.1987</v>
+        <v>17.152</v>
       </c>
       <c r="C9" t="n">
-        <v>21.1444</v>
+        <v>20.9555</v>
       </c>
       <c r="D9" t="n">
-        <v>28.4963</v>
+        <v>28.4915</v>
       </c>
     </row>
     <row r="10">
@@ -4463,13 +4463,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>17.5488</v>
+        <v>17.5185</v>
       </c>
       <c r="C10" t="n">
-        <v>21.3934</v>
+        <v>21.4086</v>
       </c>
       <c r="D10" t="n">
-        <v>29.7717</v>
+        <v>29.5619</v>
       </c>
     </row>
     <row r="11">
@@ -4477,13 +4477,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>18.7329</v>
+        <v>18.7185</v>
       </c>
       <c r="C11" t="n">
-        <v>22.5625</v>
+        <v>22.5948</v>
       </c>
       <c r="D11" t="n">
-        <v>31.6489</v>
+        <v>31.4817</v>
       </c>
     </row>
     <row r="12">
@@ -4491,13 +4491,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>19.9756</v>
+        <v>19.9402</v>
       </c>
       <c r="C12" t="n">
-        <v>24.1292</v>
+        <v>24.153</v>
       </c>
       <c r="D12" t="n">
-        <v>32.1427</v>
+        <v>32.7434</v>
       </c>
     </row>
     <row r="13">
@@ -4505,13 +4505,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>21.0892</v>
+        <v>21.0589</v>
       </c>
       <c r="C13" t="n">
-        <v>25.4937</v>
+        <v>25.6971</v>
       </c>
       <c r="D13" t="n">
-        <v>34.5059</v>
+        <v>34.6454</v>
       </c>
     </row>
     <row r="14">
@@ -4519,13 +4519,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>18.4895</v>
+        <v>18.4472</v>
       </c>
       <c r="C14" t="n">
-        <v>23.5453</v>
+        <v>23.4051</v>
       </c>
       <c r="D14" t="n">
-        <v>29.3235</v>
+        <v>28.7663</v>
       </c>
     </row>
     <row r="15">
@@ -4533,13 +4533,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>18.6502</v>
+        <v>18.5196</v>
       </c>
       <c r="C15" t="n">
-        <v>22.7542</v>
+        <v>22.5154</v>
       </c>
       <c r="D15" t="n">
-        <v>29.8327</v>
+        <v>29.3198</v>
       </c>
     </row>
     <row r="16">
@@ -4547,13 +4547,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>18.7478</v>
+        <v>18.73</v>
       </c>
       <c r="C16" t="n">
-        <v>23.0103</v>
+        <v>23.0468</v>
       </c>
       <c r="D16" t="n">
-        <v>28.4155</v>
+        <v>30.38</v>
       </c>
     </row>
     <row r="17">
@@ -4561,13 +4561,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>19.4936</v>
+        <v>19.441</v>
       </c>
       <c r="C17" t="n">
-        <v>23.7416</v>
+        <v>23.6694</v>
       </c>
       <c r="D17" t="n">
-        <v>29.8211</v>
+        <v>31.4466</v>
       </c>
     </row>
   </sheetData>
@@ -4615,13 +4615,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.94647</v>
+        <v>8.948029999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>9.061780000000001</v>
+        <v>9.060219999999999</v>
       </c>
       <c r="D2" t="n">
-        <v>11.7509</v>
+        <v>11.7454</v>
       </c>
     </row>
     <row r="3">
@@ -4629,13 +4629,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>15.1146</v>
+        <v>15.204</v>
       </c>
       <c r="C3" t="n">
-        <v>14.7506</v>
+        <v>14.7423</v>
       </c>
       <c r="D3" t="n">
-        <v>20.6652</v>
+        <v>21.0248</v>
       </c>
     </row>
     <row r="4">
@@ -4643,13 +4643,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>18.8075</v>
+        <v>17.5611</v>
       </c>
       <c r="C4" t="n">
-        <v>18.7959</v>
+        <v>17.4373</v>
       </c>
       <c r="D4" t="n">
-        <v>26.1748</v>
+        <v>26.2304</v>
       </c>
     </row>
     <row r="5">
@@ -4657,13 +4657,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>19.0863</v>
+        <v>19.0329</v>
       </c>
       <c r="C5" t="n">
-        <v>19.0908</v>
+        <v>19.0153</v>
       </c>
       <c r="D5" t="n">
-        <v>28.3574</v>
+        <v>28.3543</v>
       </c>
     </row>
     <row r="6">
@@ -4671,13 +4671,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>22.6012</v>
+        <v>22.5583</v>
       </c>
       <c r="C6" t="n">
-        <v>22.743</v>
+        <v>22.699</v>
       </c>
       <c r="D6" t="n">
-        <v>33.4492</v>
+        <v>33.4207</v>
       </c>
     </row>
     <row r="7">
@@ -4685,13 +4685,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>26.085</v>
+        <v>26.0404</v>
       </c>
       <c r="C7" t="n">
-        <v>26.5298</v>
+        <v>26.5519</v>
       </c>
       <c r="D7" t="n">
-        <v>37.9914</v>
+        <v>38.0589</v>
       </c>
     </row>
     <row r="8">
@@ -4699,13 +4699,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>20.7781</v>
+        <v>20.9</v>
       </c>
       <c r="C8" t="n">
-        <v>21.2221</v>
+        <v>21.063</v>
       </c>
       <c r="D8" t="n">
-        <v>28.4892</v>
+        <v>28.4799</v>
       </c>
     </row>
     <row r="9">
@@ -4713,13 +4713,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>20.6314</v>
+        <v>20.8842</v>
       </c>
       <c r="C9" t="n">
-        <v>20.9023</v>
+        <v>20.7272</v>
       </c>
       <c r="D9" t="n">
-        <v>29.6437</v>
+        <v>29.5133</v>
       </c>
     </row>
     <row r="10">
@@ -4727,13 +4727,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>21.423</v>
+        <v>21.362</v>
       </c>
       <c r="C10" t="n">
-        <v>21.3697</v>
+        <v>21.6839</v>
       </c>
       <c r="D10" t="n">
-        <v>31.2604</v>
+        <v>31.0009</v>
       </c>
     </row>
     <row r="11">
@@ -4741,13 +4741,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>22.7475</v>
+        <v>22.6616</v>
       </c>
       <c r="C11" t="n">
-        <v>22.8712</v>
+        <v>22.948</v>
       </c>
       <c r="D11" t="n">
-        <v>33.3003</v>
+        <v>33.2322</v>
       </c>
     </row>
     <row r="12">
@@ -4755,13 +4755,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>24.1485</v>
+        <v>24.154</v>
       </c>
       <c r="C12" t="n">
-        <v>24.5098</v>
+        <v>24.4865</v>
       </c>
       <c r="D12" t="n">
-        <v>33.932</v>
+        <v>33.3799</v>
       </c>
     </row>
     <row r="13">
@@ -4769,13 +4769,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>25.2482</v>
+        <v>25.3567</v>
       </c>
       <c r="C13" t="n">
-        <v>26.0738</v>
+        <v>26.1172</v>
       </c>
       <c r="D13" t="n">
-        <v>33.3229</v>
+        <v>37.1553</v>
       </c>
     </row>
     <row r="14">
@@ -4783,13 +4783,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>22.6247</v>
+        <v>22.8329</v>
       </c>
       <c r="C14" t="n">
-        <v>23.315</v>
+        <v>23.3967</v>
       </c>
       <c r="D14" t="n">
-        <v>31.8228</v>
+        <v>29.8254</v>
       </c>
     </row>
     <row r="15">
@@ -4797,13 +4797,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>22.67</v>
+        <v>22.4683</v>
       </c>
       <c r="C15" t="n">
-        <v>22.8543</v>
+        <v>22.9286</v>
       </c>
       <c r="D15" t="n">
-        <v>30.5001</v>
+        <v>30.4745</v>
       </c>
     </row>
     <row r="16">
@@ -4811,13 +4811,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>22.7676</v>
+        <v>22.8388</v>
       </c>
       <c r="C16" t="n">
-        <v>23.2312</v>
+        <v>23.2267</v>
       </c>
       <c r="D16" t="n">
-        <v>30.2647</v>
+        <v>31.806</v>
       </c>
     </row>
     <row r="17">
@@ -4825,13 +4825,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>23.5888</v>
+        <v>23.6241</v>
       </c>
       <c r="C17" t="n">
-        <v>23.9657</v>
+        <v>24.0125</v>
       </c>
       <c r="D17" t="n">
-        <v>31.762</v>
+        <v>30.0178</v>
       </c>
     </row>
   </sheetData>
@@ -4879,13 +4879,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>7.86552</v>
+        <v>7.88513</v>
       </c>
       <c r="C2" t="n">
-        <v>8.776350000000001</v>
+        <v>8.78862</v>
       </c>
       <c r="D2" t="n">
-        <v>12.0707</v>
+        <v>12.1175</v>
       </c>
     </row>
     <row r="3">
@@ -4893,13 +4893,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>14.3675</v>
+        <v>14.4432</v>
       </c>
       <c r="C3" t="n">
-        <v>13.9553</v>
+        <v>13.9288</v>
       </c>
       <c r="D3" t="n">
-        <v>20.0064</v>
+        <v>20.1865</v>
       </c>
     </row>
     <row r="4">
@@ -4907,13 +4907,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>19.3681</v>
+        <v>19.7671</v>
       </c>
       <c r="C4" t="n">
-        <v>18.534</v>
+        <v>18.0075</v>
       </c>
       <c r="D4" t="n">
-        <v>25.592</v>
+        <v>26.4209</v>
       </c>
     </row>
     <row r="5">
@@ -4921,13 +4921,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>15.7133</v>
+        <v>15.8149</v>
       </c>
       <c r="C5" t="n">
-        <v>19.0081</v>
+        <v>18.9253</v>
       </c>
       <c r="D5" t="n">
-        <v>24.9579</v>
+        <v>24.7684</v>
       </c>
     </row>
     <row r="6">
@@ -4935,13 +4935,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>18.5305</v>
+        <v>18.5769</v>
       </c>
       <c r="C6" t="n">
-        <v>22.361</v>
+        <v>22.3358</v>
       </c>
       <c r="D6" t="n">
-        <v>26.8017</v>
+        <v>26.7509</v>
       </c>
     </row>
     <row r="7">
@@ -4949,13 +4949,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>21.2088</v>
+        <v>21.1638</v>
       </c>
       <c r="C7" t="n">
-        <v>26.3375</v>
+        <v>26.3127</v>
       </c>
       <c r="D7" t="n">
-        <v>29.2615</v>
+        <v>29.3348</v>
       </c>
     </row>
     <row r="8">
@@ -4963,13 +4963,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>16.4795</v>
+        <v>16.5686</v>
       </c>
       <c r="C8" t="n">
-        <v>22.8412</v>
+        <v>22.1486</v>
       </c>
       <c r="D8" t="n">
-        <v>28.198</v>
+        <v>28.5014</v>
       </c>
     </row>
     <row r="9">
@@ -4977,13 +4977,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>18.4521</v>
+        <v>18.6817</v>
       </c>
       <c r="C9" t="n">
-        <v>23.3277</v>
+        <v>23.5197</v>
       </c>
       <c r="D9" t="n">
-        <v>28.8016</v>
+        <v>28.8165</v>
       </c>
     </row>
     <row r="10">
@@ -4991,13 +4991,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>20.109</v>
+        <v>20.1886</v>
       </c>
       <c r="C10" t="n">
-        <v>24.1223</v>
+        <v>23.5163</v>
       </c>
       <c r="D10" t="n">
-        <v>28.8391</v>
+        <v>27.864</v>
       </c>
     </row>
     <row r="11">
@@ -5005,13 +5005,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>18.3453</v>
+        <v>18.406</v>
       </c>
       <c r="C11" t="n">
-        <v>23.6955</v>
+        <v>23.3478</v>
       </c>
       <c r="D11" t="n">
-        <v>29.204</v>
+        <v>28.7228</v>
       </c>
     </row>
     <row r="12">
@@ -5019,13 +5019,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>19.7206</v>
+        <v>19.7775</v>
       </c>
       <c r="C12" t="n">
-        <v>22.9544</v>
+        <v>23.5451</v>
       </c>
       <c r="D12" t="n">
-        <v>29.186</v>
+        <v>29.0071</v>
       </c>
     </row>
     <row r="13">
@@ -5033,13 +5033,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>21.1956</v>
+        <v>21.1404</v>
       </c>
       <c r="C13" t="n">
-        <v>23.0433</v>
+        <v>22.7951</v>
       </c>
       <c r="D13" t="n">
-        <v>28.6963</v>
+        <v>29.4223</v>
       </c>
     </row>
     <row r="14">
@@ -5047,13 +5047,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>18.0549</v>
+        <v>18.1516</v>
       </c>
       <c r="C14" t="n">
-        <v>23.3521</v>
+        <v>23.2171</v>
       </c>
       <c r="D14" t="n">
-        <v>29.171</v>
+        <v>29.2066</v>
       </c>
     </row>
     <row r="15">
@@ -5061,13 +5061,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>19.3015</v>
+        <v>19.3675</v>
       </c>
       <c r="C15" t="n">
-        <v>23.6459</v>
+        <v>23.7014</v>
       </c>
       <c r="D15" t="n">
-        <v>29.3998</v>
+        <v>29.6899</v>
       </c>
     </row>
     <row r="16">
@@ -5075,13 +5075,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>20.1299</v>
+        <v>19.9859</v>
       </c>
       <c r="C16" t="n">
-        <v>23.4676</v>
+        <v>23.6187</v>
       </c>
       <c r="D16" t="n">
-        <v>28.9916</v>
+        <v>29.54</v>
       </c>
     </row>
     <row r="17">
@@ -5089,13 +5089,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>19.3991</v>
+        <v>19.5042</v>
       </c>
       <c r="C17" t="n">
-        <v>23.882</v>
+        <v>23.5799</v>
       </c>
       <c r="D17" t="n">
-        <v>29.1217</v>
+        <v>29.3141</v>
       </c>
     </row>
   </sheetData>
@@ -5143,13 +5143,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>7.8907</v>
+        <v>7.88049</v>
       </c>
       <c r="C2" t="n">
-        <v>8.844670000000001</v>
+        <v>8.821999999999999</v>
       </c>
       <c r="D2" t="n">
-        <v>11.9907</v>
+        <v>11.978</v>
       </c>
     </row>
     <row r="3">
@@ -5157,13 +5157,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>14.6355</v>
+        <v>14.4928</v>
       </c>
       <c r="C3" t="n">
-        <v>14.3697</v>
+        <v>14.1898</v>
       </c>
       <c r="D3" t="n">
-        <v>19.7206</v>
+        <v>19.8619</v>
       </c>
     </row>
     <row r="4">
@@ -5171,13 +5171,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>20.0497</v>
+        <v>19.7634</v>
       </c>
       <c r="C4" t="n">
-        <v>19.0194</v>
+        <v>18.5268</v>
       </c>
       <c r="D4" t="n">
-        <v>24.4261</v>
+        <v>24.3787</v>
       </c>
     </row>
     <row r="5">
@@ -5185,13 +5185,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>16.0086</v>
+        <v>15.8839</v>
       </c>
       <c r="C5" t="n">
-        <v>19.0188</v>
+        <v>18.9265</v>
       </c>
       <c r="D5" t="n">
-        <v>24.4855</v>
+        <v>24.3953</v>
       </c>
     </row>
     <row r="6">
@@ -5199,13 +5199,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>18.8044</v>
+        <v>18.7413</v>
       </c>
       <c r="C6" t="n">
-        <v>22.5458</v>
+        <v>22.4948</v>
       </c>
       <c r="D6" t="n">
-        <v>27.7123</v>
+        <v>27.4211</v>
       </c>
     </row>
     <row r="7">
@@ -5213,13 +5213,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>21.4934</v>
+        <v>21.4342</v>
       </c>
       <c r="C7" t="n">
-        <v>26.5674</v>
+        <v>26.6435</v>
       </c>
       <c r="D7" t="n">
-        <v>29.3293</v>
+        <v>29.2301</v>
       </c>
     </row>
     <row r="8">
@@ -5227,13 +5227,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>16.7687</v>
+        <v>16.6297</v>
       </c>
       <c r="C8" t="n">
-        <v>23.5997</v>
+        <v>23.2764</v>
       </c>
       <c r="D8" t="n">
-        <v>28.7895</v>
+        <v>28.4342</v>
       </c>
     </row>
     <row r="9">
@@ -5241,13 +5241,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>18.7904</v>
+        <v>18.7687</v>
       </c>
       <c r="C9" t="n">
-        <v>23.6596</v>
+        <v>23.558</v>
       </c>
       <c r="D9" t="n">
-        <v>28.3556</v>
+        <v>28.4497</v>
       </c>
     </row>
     <row r="10">
@@ -5255,13 +5255,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>20.4235</v>
+        <v>20.2355</v>
       </c>
       <c r="C10" t="n">
-        <v>23.9153</v>
+        <v>24.2279</v>
       </c>
       <c r="D10" t="n">
-        <v>28.6577</v>
+        <v>28.7486</v>
       </c>
     </row>
     <row r="11">
@@ -5269,13 +5269,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>18.5081</v>
+        <v>18.4841</v>
       </c>
       <c r="C11" t="n">
-        <v>23.9802</v>
+        <v>23.6663</v>
       </c>
       <c r="D11" t="n">
-        <v>29.2262</v>
+        <v>29.5065</v>
       </c>
     </row>
     <row r="12">
@@ -5283,13 +5283,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>19.9893</v>
+        <v>19.9251</v>
       </c>
       <c r="C12" t="n">
-        <v>23.4219</v>
+        <v>23.3386</v>
       </c>
       <c r="D12" t="n">
-        <v>29.4063</v>
+        <v>29.2763</v>
       </c>
     </row>
     <row r="13">
@@ -5297,13 +5297,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>21.4526</v>
+        <v>21.3932</v>
       </c>
       <c r="C13" t="n">
-        <v>23.2107</v>
+        <v>23.4604</v>
       </c>
       <c r="D13" t="n">
-        <v>29.4747</v>
+        <v>29.5566</v>
       </c>
     </row>
     <row r="14">
@@ -5311,13 +5311,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>18.5892</v>
+        <v>18.381</v>
       </c>
       <c r="C14" t="n">
-        <v>23.8493</v>
+        <v>23.535</v>
       </c>
       <c r="D14" t="n">
-        <v>30.1481</v>
+        <v>30.2171</v>
       </c>
     </row>
     <row r="15">
@@ -5325,13 +5325,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>19.5604</v>
+        <v>19.7121</v>
       </c>
       <c r="C15" t="n">
-        <v>24.162</v>
+        <v>24.1112</v>
       </c>
       <c r="D15" t="n">
-        <v>29.8224</v>
+        <v>29.9457</v>
       </c>
     </row>
     <row r="16">
@@ -5339,13 +5339,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>20.4662</v>
+        <v>20.5392</v>
       </c>
       <c r="C16" t="n">
-        <v>24.2685</v>
+        <v>23.9064</v>
       </c>
       <c r="D16" t="n">
-        <v>30.1752</v>
+        <v>30.332</v>
       </c>
     </row>
     <row r="17">
@@ -5353,13 +5353,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>19.6057</v>
+        <v>19.4937</v>
       </c>
       <c r="C17" t="n">
-        <v>23.9652</v>
+        <v>24.0466</v>
       </c>
       <c r="D17" t="n">
-        <v>29.344</v>
+        <v>30.364</v>
       </c>
     </row>
   </sheetData>
@@ -5407,13 +5407,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.705679999999999</v>
+        <v>8.7043</v>
       </c>
       <c r="C2" t="n">
-        <v>9.05165</v>
+        <v>9.04968</v>
       </c>
       <c r="D2" t="n">
-        <v>11.725</v>
+        <v>11.7264</v>
       </c>
     </row>
     <row r="3">
@@ -5421,13 +5421,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>15.8821</v>
+        <v>15.9835</v>
       </c>
       <c r="C3" t="n">
-        <v>15.742</v>
+        <v>15.5779</v>
       </c>
       <c r="D3" t="n">
-        <v>20.4341</v>
+        <v>20.2332</v>
       </c>
     </row>
     <row r="4">
@@ -5435,13 +5435,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>22.0319</v>
+        <v>22.4475</v>
       </c>
       <c r="C4" t="n">
-        <v>20.4628</v>
+        <v>21.1022</v>
       </c>
       <c r="D4" t="n">
-        <v>28.0625</v>
+        <v>28.9648</v>
       </c>
     </row>
     <row r="5">
@@ -5449,13 +5449,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>19.3381</v>
+        <v>19.3853</v>
       </c>
       <c r="C5" t="n">
-        <v>19.7546</v>
+        <v>19.9372</v>
       </c>
       <c r="D5" t="n">
-        <v>29.1728</v>
+        <v>28.8795</v>
       </c>
     </row>
     <row r="6">
@@ -5463,13 +5463,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>23.3718</v>
+        <v>23.4618</v>
       </c>
       <c r="C6" t="n">
-        <v>23.0097</v>
+        <v>23.0586</v>
       </c>
       <c r="D6" t="n">
-        <v>32.251</v>
+        <v>32.2639</v>
       </c>
     </row>
     <row r="7">
@@ -5477,13 +5477,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>27.6028</v>
+        <v>27.6302</v>
       </c>
       <c r="C7" t="n">
-        <v>26.9852</v>
+        <v>27.0199</v>
       </c>
       <c r="D7" t="n">
-        <v>35.8567</v>
+        <v>35.9481</v>
       </c>
     </row>
     <row r="8">
@@ -5491,13 +5491,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>24.227</v>
+        <v>23.667</v>
       </c>
       <c r="C8" t="n">
-        <v>24.9556</v>
+        <v>24.2719</v>
       </c>
       <c r="D8" t="n">
-        <v>33.294</v>
+        <v>32.9476</v>
       </c>
     </row>
     <row r="9">
@@ -5505,13 +5505,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>23.6653</v>
+        <v>23.9843</v>
       </c>
       <c r="C9" t="n">
-        <v>24.015</v>
+        <v>23.9595</v>
       </c>
       <c r="D9" t="n">
-        <v>34.0098</v>
+        <v>33.1546</v>
       </c>
     </row>
     <row r="10">
@@ -5519,13 +5519,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>24.1141</v>
+        <v>24.3548</v>
       </c>
       <c r="C10" t="n">
-        <v>23.6874</v>
+        <v>23.9785</v>
       </c>
       <c r="D10" t="n">
-        <v>34.4937</v>
+        <v>34.8495</v>
       </c>
     </row>
     <row r="11">
@@ -5533,13 +5533,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>25.0046</v>
+        <v>24.7139</v>
       </c>
       <c r="C11" t="n">
-        <v>24.0171</v>
+        <v>24.1266</v>
       </c>
       <c r="D11" t="n">
-        <v>35.4613</v>
+        <v>35.1608</v>
       </c>
     </row>
     <row r="12">
@@ -5547,13 +5547,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>25.2522</v>
+        <v>25.346</v>
       </c>
       <c r="C12" t="n">
-        <v>24.7611</v>
+        <v>24.5927</v>
       </c>
       <c r="D12" t="n">
-        <v>33.9599</v>
+        <v>35.408</v>
       </c>
     </row>
     <row r="13">
@@ -5561,13 +5561,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>25.8927</v>
+        <v>25.6339</v>
       </c>
       <c r="C13" t="n">
-        <v>24.7799</v>
+        <v>24.9582</v>
       </c>
       <c r="D13" t="n">
-        <v>35.3583</v>
+        <v>34.5085</v>
       </c>
     </row>
     <row r="14">
@@ -5575,13 +5575,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>25.2364</v>
+        <v>24.8919</v>
       </c>
       <c r="C14" t="n">
-        <v>25.1415</v>
+        <v>25.3156</v>
       </c>
       <c r="D14" t="n">
-        <v>36.023</v>
+        <v>36.1184</v>
       </c>
     </row>
     <row r="15">
@@ -5589,13 +5589,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>24.9647</v>
+        <v>24.7752</v>
       </c>
       <c r="C15" t="n">
-        <v>25.1918</v>
+        <v>25.5331</v>
       </c>
       <c r="D15" t="n">
-        <v>36.2387</v>
+        <v>37.3523</v>
       </c>
     </row>
     <row r="16">
@@ -5603,13 +5603,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>25.525</v>
+        <v>24.7354</v>
       </c>
       <c r="C16" t="n">
-        <v>25.3922</v>
+        <v>25.4784</v>
       </c>
       <c r="D16" t="n">
-        <v>36.9345</v>
+        <v>36.1502</v>
       </c>
     </row>
     <row r="17">
@@ -5617,13 +5617,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>25.1976</v>
+        <v>25.6633</v>
       </c>
       <c r="C17" t="n">
-        <v>25.0971</v>
+        <v>25.2505</v>
       </c>
       <c r="D17" t="n">
-        <v>37.1809</v>
+        <v>35.9652</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Parallel workload.xlsx
+++ b/vs-x86/Parallel workload.xlsx
@@ -4087,13 +4087,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.25136</v>
+        <v>8.223050000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>8.919560000000001</v>
+        <v>8.96856</v>
       </c>
       <c r="D2" t="n">
-        <v>12.3063</v>
+        <v>12.2579</v>
       </c>
     </row>
     <row r="3">
@@ -4101,13 +4101,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>13.8095</v>
+        <v>12.9342</v>
       </c>
       <c r="C3" t="n">
-        <v>13.266</v>
+        <v>13.1238</v>
       </c>
       <c r="D3" t="n">
-        <v>21.0015</v>
+        <v>20.1549</v>
       </c>
     </row>
     <row r="4">
@@ -4115,13 +4115,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>14.9008</v>
+        <v>14.6749</v>
       </c>
       <c r="C4" t="n">
-        <v>16.034</v>
+        <v>15.5422</v>
       </c>
       <c r="D4" t="n">
-        <v>26.1995</v>
+        <v>24.9519</v>
       </c>
     </row>
     <row r="5">
@@ -4129,13 +4129,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>16.0459</v>
+        <v>15.9952</v>
       </c>
       <c r="C5" t="n">
-        <v>18.6481</v>
+        <v>18.6884</v>
       </c>
       <c r="D5" t="n">
-        <v>27.9809</v>
+        <v>28.1427</v>
       </c>
     </row>
     <row r="6">
@@ -4143,13 +4143,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>18.7085</v>
+        <v>18.7564</v>
       </c>
       <c r="C6" t="n">
-        <v>22.393</v>
+        <v>22.4089</v>
       </c>
       <c r="D6" t="n">
-        <v>32.0203</v>
+        <v>32.1252</v>
       </c>
     </row>
     <row r="7">
@@ -4157,13 +4157,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>21.0791</v>
+        <v>21.045</v>
       </c>
       <c r="C7" t="n">
-        <v>26.4092</v>
+        <v>26.467</v>
       </c>
       <c r="D7" t="n">
-        <v>35.0609</v>
+        <v>35.1422</v>
       </c>
     </row>
     <row r="8">
@@ -4171,13 +4171,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>16.7173</v>
+        <v>16.6728</v>
       </c>
       <c r="C8" t="n">
-        <v>21.7394</v>
+        <v>21.7093</v>
       </c>
       <c r="D8" t="n">
-        <v>27.1954</v>
+        <v>27.255</v>
       </c>
     </row>
     <row r="9">
@@ -4185,13 +4185,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>17.1666</v>
+        <v>17.2951</v>
       </c>
       <c r="C9" t="n">
-        <v>21.0424</v>
+        <v>21.1105</v>
       </c>
       <c r="D9" t="n">
-        <v>28.6789</v>
+        <v>28.8006</v>
       </c>
     </row>
     <row r="10">
@@ -4199,13 +4199,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>17.69</v>
+        <v>17.5842</v>
       </c>
       <c r="C10" t="n">
-        <v>21.416</v>
+        <v>21.5439</v>
       </c>
       <c r="D10" t="n">
-        <v>29.8701</v>
+        <v>30.1065</v>
       </c>
     </row>
     <row r="11">
@@ -4213,13 +4213,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>18.6159</v>
+        <v>18.5721</v>
       </c>
       <c r="C11" t="n">
-        <v>22.7162</v>
+        <v>22.5781</v>
       </c>
       <c r="D11" t="n">
-        <v>31.0173</v>
+        <v>31.8085</v>
       </c>
     </row>
     <row r="12">
@@ -4227,13 +4227,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>19.766</v>
+        <v>19.7874</v>
       </c>
       <c r="C12" t="n">
-        <v>24.1869</v>
+        <v>24.1936</v>
       </c>
       <c r="D12" t="n">
-        <v>32.0219</v>
+        <v>33.3928</v>
       </c>
     </row>
     <row r="13">
@@ -4241,13 +4241,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>20.8241</v>
+        <v>20.8947</v>
       </c>
       <c r="C13" t="n">
-        <v>25.6786</v>
+        <v>25.5187</v>
       </c>
       <c r="D13" t="n">
-        <v>33.5623</v>
+        <v>34.713</v>
       </c>
     </row>
     <row r="14">
@@ -4255,13 +4255,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>18.3841</v>
+        <v>18.2529</v>
       </c>
       <c r="C14" t="n">
-        <v>23.414</v>
+        <v>23.3166</v>
       </c>
       <c r="D14" t="n">
-        <v>28.2217</v>
+        <v>30.0638</v>
       </c>
     </row>
     <row r="15">
@@ -4269,13 +4269,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>18.5969</v>
+        <v>18.4692</v>
       </c>
       <c r="C15" t="n">
-        <v>22.9317</v>
+        <v>22.6824</v>
       </c>
       <c r="D15" t="n">
-        <v>30.2571</v>
+        <v>30.7413</v>
       </c>
     </row>
     <row r="16">
@@ -4283,13 +4283,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>18.701</v>
+        <v>18.567</v>
       </c>
       <c r="C16" t="n">
-        <v>23.0321</v>
+        <v>23.1951</v>
       </c>
       <c r="D16" t="n">
-        <v>29.8758</v>
+        <v>31.3194</v>
       </c>
     </row>
     <row r="17">
@@ -4297,13 +4297,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>19.3544</v>
+        <v>19.3364</v>
       </c>
       <c r="C17" t="n">
-        <v>23.7354</v>
+        <v>23.6609</v>
       </c>
       <c r="D17" t="n">
-        <v>30.559</v>
+        <v>32.6074</v>
       </c>
     </row>
   </sheetData>
@@ -4351,13 +4351,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.28459</v>
+        <v>8.264659999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>8.927670000000001</v>
+        <v>8.96621</v>
       </c>
       <c r="D2" t="n">
-        <v>12.1925</v>
+        <v>12.1578</v>
       </c>
     </row>
     <row r="3">
@@ -4365,13 +4365,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>14.0696</v>
+        <v>14.1004</v>
       </c>
       <c r="C3" t="n">
-        <v>14.4359</v>
+        <v>14.6305</v>
       </c>
       <c r="D3" t="n">
-        <v>20.9702</v>
+        <v>20.9545</v>
       </c>
     </row>
     <row r="4">
@@ -4379,13 +4379,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>15.7736</v>
+        <v>15.3511</v>
       </c>
       <c r="C4" t="n">
-        <v>16.5019</v>
+        <v>17.0031</v>
       </c>
       <c r="D4" t="n">
-        <v>25.6839</v>
+        <v>25.7704</v>
       </c>
     </row>
     <row r="5">
@@ -4393,13 +4393,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>16.055</v>
+        <v>16.0572</v>
       </c>
       <c r="C5" t="n">
-        <v>18.5014</v>
+        <v>18.5687</v>
       </c>
       <c r="D5" t="n">
-        <v>27.9369</v>
+        <v>27.7271</v>
       </c>
     </row>
     <row r="6">
@@ -4407,13 +4407,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>18.7922</v>
+        <v>18.8209</v>
       </c>
       <c r="C6" t="n">
-        <v>22.2435</v>
+        <v>22.2657</v>
       </c>
       <c r="D6" t="n">
-        <v>31.8039</v>
+        <v>31.8165</v>
       </c>
     </row>
     <row r="7">
@@ -4421,13 +4421,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>21.2072</v>
+        <v>21.2126</v>
       </c>
       <c r="C7" t="n">
-        <v>26.3357</v>
+        <v>26.3302</v>
       </c>
       <c r="D7" t="n">
-        <v>35.0231</v>
+        <v>34.9368</v>
       </c>
     </row>
     <row r="8">
@@ -4435,13 +4435,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>16.7351</v>
+        <v>16.6744</v>
       </c>
       <c r="C8" t="n">
-        <v>21.6762</v>
+        <v>21.7865</v>
       </c>
       <c r="D8" t="n">
-        <v>27.0705</v>
+        <v>27.0061</v>
       </c>
     </row>
     <row r="9">
@@ -4449,13 +4449,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>17.152</v>
+        <v>17.0083</v>
       </c>
       <c r="C9" t="n">
-        <v>20.9555</v>
+        <v>20.8643</v>
       </c>
       <c r="D9" t="n">
-        <v>28.4915</v>
+        <v>28.4495</v>
       </c>
     </row>
     <row r="10">
@@ -4463,13 +4463,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>17.5185</v>
+        <v>17.5922</v>
       </c>
       <c r="C10" t="n">
-        <v>21.4086</v>
+        <v>21.5614</v>
       </c>
       <c r="D10" t="n">
-        <v>29.5619</v>
+        <v>29.893</v>
       </c>
     </row>
     <row r="11">
@@ -4477,13 +4477,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>18.7185</v>
+        <v>18.6812</v>
       </c>
       <c r="C11" t="n">
-        <v>22.5948</v>
+        <v>22.7026</v>
       </c>
       <c r="D11" t="n">
-        <v>31.4817</v>
+        <v>31.6094</v>
       </c>
     </row>
     <row r="12">
@@ -4491,13 +4491,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>19.9402</v>
+        <v>19.9335</v>
       </c>
       <c r="C12" t="n">
-        <v>24.153</v>
+        <v>24.1847</v>
       </c>
       <c r="D12" t="n">
-        <v>32.7434</v>
+        <v>33.2462</v>
       </c>
     </row>
     <row r="13">
@@ -4505,13 +4505,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>21.0589</v>
+        <v>21.0428</v>
       </c>
       <c r="C13" t="n">
-        <v>25.6971</v>
+        <v>25.5635</v>
       </c>
       <c r="D13" t="n">
-        <v>34.6454</v>
+        <v>34.6539</v>
       </c>
     </row>
     <row r="14">
@@ -4519,13 +4519,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>18.4472</v>
+        <v>18.3286</v>
       </c>
       <c r="C14" t="n">
-        <v>23.4051</v>
+        <v>23.5103</v>
       </c>
       <c r="D14" t="n">
-        <v>28.7663</v>
+        <v>29.9482</v>
       </c>
     </row>
     <row r="15">
@@ -4533,13 +4533,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>18.5196</v>
+        <v>18.5595</v>
       </c>
       <c r="C15" t="n">
-        <v>22.5154</v>
+        <v>22.7296</v>
       </c>
       <c r="D15" t="n">
-        <v>29.3198</v>
+        <v>30.4458</v>
       </c>
     </row>
     <row r="16">
@@ -4547,13 +4547,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>18.73</v>
+        <v>18.7785</v>
       </c>
       <c r="C16" t="n">
-        <v>23.0468</v>
+        <v>22.906</v>
       </c>
       <c r="D16" t="n">
-        <v>30.38</v>
+        <v>31.426</v>
       </c>
     </row>
     <row r="17">
@@ -4561,13 +4561,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>19.441</v>
+        <v>19.4718</v>
       </c>
       <c r="C17" t="n">
-        <v>23.6694</v>
+        <v>23.6924</v>
       </c>
       <c r="D17" t="n">
-        <v>31.4466</v>
+        <v>32.4373</v>
       </c>
     </row>
   </sheetData>
@@ -4615,13 +4615,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.948029999999999</v>
+        <v>8.9672</v>
       </c>
       <c r="C2" t="n">
-        <v>9.060219999999999</v>
+        <v>9.079800000000001</v>
       </c>
       <c r="D2" t="n">
-        <v>11.7454</v>
+        <v>11.692</v>
       </c>
     </row>
     <row r="3">
@@ -4629,13 +4629,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>15.204</v>
+        <v>15.1568</v>
       </c>
       <c r="C3" t="n">
-        <v>14.7423</v>
+        <v>14.7825</v>
       </c>
       <c r="D3" t="n">
-        <v>21.0248</v>
+        <v>20.794</v>
       </c>
     </row>
     <row r="4">
@@ -4643,13 +4643,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>17.5611</v>
+        <v>17.4973</v>
       </c>
       <c r="C4" t="n">
-        <v>17.4373</v>
+        <v>17.1986</v>
       </c>
       <c r="D4" t="n">
-        <v>26.2304</v>
+        <v>26.7722</v>
       </c>
     </row>
     <row r="5">
@@ -4657,13 +4657,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>19.0329</v>
+        <v>18.9354</v>
       </c>
       <c r="C5" t="n">
-        <v>19.0153</v>
+        <v>19.115</v>
       </c>
       <c r="D5" t="n">
-        <v>28.3543</v>
+        <v>28.3639</v>
       </c>
     </row>
     <row r="6">
@@ -4671,13 +4671,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>22.5583</v>
+        <v>22.5459</v>
       </c>
       <c r="C6" t="n">
-        <v>22.699</v>
+        <v>22.7131</v>
       </c>
       <c r="D6" t="n">
-        <v>33.4207</v>
+        <v>33.5609</v>
       </c>
     </row>
     <row r="7">
@@ -4685,13 +4685,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>26.0404</v>
+        <v>26.0807</v>
       </c>
       <c r="C7" t="n">
-        <v>26.5519</v>
+        <v>26.5672</v>
       </c>
       <c r="D7" t="n">
-        <v>38.0589</v>
+        <v>38.1358</v>
       </c>
     </row>
     <row r="8">
@@ -4699,13 +4699,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>20.9</v>
+        <v>20.899</v>
       </c>
       <c r="C8" t="n">
-        <v>21.063</v>
+        <v>21.111</v>
       </c>
       <c r="D8" t="n">
-        <v>28.4799</v>
+        <v>28.5356</v>
       </c>
     </row>
     <row r="9">
@@ -4713,13 +4713,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>20.8842</v>
+        <v>20.2864</v>
       </c>
       <c r="C9" t="n">
-        <v>20.7272</v>
+        <v>20.6496</v>
       </c>
       <c r="D9" t="n">
-        <v>29.5133</v>
+        <v>29.8121</v>
       </c>
     </row>
     <row r="10">
@@ -4727,13 +4727,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>21.362</v>
+        <v>21.2344</v>
       </c>
       <c r="C10" t="n">
-        <v>21.6839</v>
+        <v>21.4498</v>
       </c>
       <c r="D10" t="n">
-        <v>31.0009</v>
+        <v>31.242</v>
       </c>
     </row>
     <row r="11">
@@ -4741,13 +4741,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>22.6616</v>
+        <v>22.6613</v>
       </c>
       <c r="C11" t="n">
-        <v>22.948</v>
+        <v>22.9044</v>
       </c>
       <c r="D11" t="n">
-        <v>33.2322</v>
+        <v>33.3804</v>
       </c>
     </row>
     <row r="12">
@@ -4755,13 +4755,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>24.154</v>
+        <v>24.1231</v>
       </c>
       <c r="C12" t="n">
-        <v>24.4865</v>
+        <v>24.5765</v>
       </c>
       <c r="D12" t="n">
-        <v>33.3799</v>
+        <v>35.5938</v>
       </c>
     </row>
     <row r="13">
@@ -4769,13 +4769,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>25.3567</v>
+        <v>25.4051</v>
       </c>
       <c r="C13" t="n">
-        <v>26.1172</v>
+        <v>26.0489</v>
       </c>
       <c r="D13" t="n">
-        <v>37.1553</v>
+        <v>37.8081</v>
       </c>
     </row>
     <row r="14">
@@ -4783,13 +4783,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>22.8329</v>
+        <v>22.7056</v>
       </c>
       <c r="C14" t="n">
-        <v>23.3967</v>
+        <v>23.2798</v>
       </c>
       <c r="D14" t="n">
-        <v>29.8254</v>
+        <v>32.0733</v>
       </c>
     </row>
     <row r="15">
@@ -4797,13 +4797,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>22.4683</v>
+        <v>22.4448</v>
       </c>
       <c r="C15" t="n">
-        <v>22.9286</v>
+        <v>22.6148</v>
       </c>
       <c r="D15" t="n">
-        <v>30.4745</v>
+        <v>32.4424</v>
       </c>
     </row>
     <row r="16">
@@ -4811,13 +4811,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>22.8388</v>
+        <v>22.8231</v>
       </c>
       <c r="C16" t="n">
-        <v>23.2267</v>
+        <v>23.0974</v>
       </c>
       <c r="D16" t="n">
-        <v>31.806</v>
+        <v>33.3721</v>
       </c>
     </row>
     <row r="17">
@@ -4825,13 +4825,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>23.6241</v>
+        <v>23.6041</v>
       </c>
       <c r="C17" t="n">
-        <v>24.0125</v>
+        <v>24.0426</v>
       </c>
       <c r="D17" t="n">
-        <v>30.0178</v>
+        <v>34.7045</v>
       </c>
     </row>
   </sheetData>
@@ -4879,13 +4879,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>7.88513</v>
+        <v>7.87899</v>
       </c>
       <c r="C2" t="n">
-        <v>8.78862</v>
+        <v>8.81739</v>
       </c>
       <c r="D2" t="n">
-        <v>12.1175</v>
+        <v>12.0534</v>
       </c>
     </row>
     <row r="3">
@@ -4893,13 +4893,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>14.4432</v>
+        <v>14.6243</v>
       </c>
       <c r="C3" t="n">
-        <v>13.9288</v>
+        <v>13.8082</v>
       </c>
       <c r="D3" t="n">
-        <v>20.1865</v>
+        <v>19.7925</v>
       </c>
     </row>
     <row r="4">
@@ -4907,13 +4907,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>19.7671</v>
+        <v>19.6908</v>
       </c>
       <c r="C4" t="n">
-        <v>18.0075</v>
+        <v>18.5701</v>
       </c>
       <c r="D4" t="n">
-        <v>26.4209</v>
+        <v>26.0033</v>
       </c>
     </row>
     <row r="5">
@@ -4921,13 +4921,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>15.8149</v>
+        <v>15.9911</v>
       </c>
       <c r="C5" t="n">
-        <v>18.9253</v>
+        <v>18.9312</v>
       </c>
       <c r="D5" t="n">
-        <v>24.7684</v>
+        <v>24.6983</v>
       </c>
     </row>
     <row r="6">
@@ -4935,13 +4935,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>18.5769</v>
+        <v>18.5589</v>
       </c>
       <c r="C6" t="n">
-        <v>22.3358</v>
+        <v>22.3636</v>
       </c>
       <c r="D6" t="n">
-        <v>26.7509</v>
+        <v>26.8224</v>
       </c>
     </row>
     <row r="7">
@@ -4949,13 +4949,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>21.1638</v>
+        <v>21.2081</v>
       </c>
       <c r="C7" t="n">
-        <v>26.3127</v>
+        <v>26.3717</v>
       </c>
       <c r="D7" t="n">
-        <v>29.3348</v>
+        <v>29.2834</v>
       </c>
     </row>
     <row r="8">
@@ -4963,13 +4963,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>16.5686</v>
+        <v>16.486</v>
       </c>
       <c r="C8" t="n">
-        <v>22.1486</v>
+        <v>22.7168</v>
       </c>
       <c r="D8" t="n">
-        <v>28.5014</v>
+        <v>28.7455</v>
       </c>
     </row>
     <row r="9">
@@ -4977,13 +4977,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>18.6817</v>
+        <v>18.646</v>
       </c>
       <c r="C9" t="n">
-        <v>23.5197</v>
+        <v>22.7141</v>
       </c>
       <c r="D9" t="n">
-        <v>28.8165</v>
+        <v>28.357</v>
       </c>
     </row>
     <row r="10">
@@ -4991,13 +4991,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>20.1886</v>
+        <v>20.0032</v>
       </c>
       <c r="C10" t="n">
-        <v>23.5163</v>
+        <v>23.8896</v>
       </c>
       <c r="D10" t="n">
-        <v>27.864</v>
+        <v>29.2879</v>
       </c>
     </row>
     <row r="11">
@@ -5005,13 +5005,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>18.406</v>
+        <v>18.3753</v>
       </c>
       <c r="C11" t="n">
-        <v>23.3478</v>
+        <v>23.2595</v>
       </c>
       <c r="D11" t="n">
-        <v>28.7228</v>
+        <v>29.0104</v>
       </c>
     </row>
     <row r="12">
@@ -5019,13 +5019,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>19.7775</v>
+        <v>19.7971</v>
       </c>
       <c r="C12" t="n">
-        <v>23.5451</v>
+        <v>22.8744</v>
       </c>
       <c r="D12" t="n">
-        <v>29.0071</v>
+        <v>29.0943</v>
       </c>
     </row>
     <row r="13">
@@ -5033,13 +5033,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>21.1404</v>
+        <v>21.1028</v>
       </c>
       <c r="C13" t="n">
-        <v>22.7951</v>
+        <v>23.4767</v>
       </c>
       <c r="D13" t="n">
-        <v>29.4223</v>
+        <v>29.1662</v>
       </c>
     </row>
     <row r="14">
@@ -5047,13 +5047,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>18.1516</v>
+        <v>18.1066</v>
       </c>
       <c r="C14" t="n">
-        <v>23.2171</v>
+        <v>22.9292</v>
       </c>
       <c r="D14" t="n">
-        <v>29.2066</v>
+        <v>29.3455</v>
       </c>
     </row>
     <row r="15">
@@ -5061,13 +5061,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>19.3675</v>
+        <v>19.3693</v>
       </c>
       <c r="C15" t="n">
-        <v>23.7014</v>
+        <v>23.9879</v>
       </c>
       <c r="D15" t="n">
-        <v>29.6899</v>
+        <v>29.2741</v>
       </c>
     </row>
     <row r="16">
@@ -5075,13 +5075,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>19.9859</v>
+        <v>19.962</v>
       </c>
       <c r="C16" t="n">
-        <v>23.6187</v>
+        <v>23.996</v>
       </c>
       <c r="D16" t="n">
-        <v>29.54</v>
+        <v>29.8921</v>
       </c>
     </row>
     <row r="17">
@@ -5089,13 +5089,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>19.5042</v>
+        <v>19.3513</v>
       </c>
       <c r="C17" t="n">
-        <v>23.5799</v>
+        <v>23.5916</v>
       </c>
       <c r="D17" t="n">
-        <v>29.3141</v>
+        <v>29.7082</v>
       </c>
     </row>
   </sheetData>
@@ -5143,13 +5143,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>7.88049</v>
+        <v>7.8577</v>
       </c>
       <c r="C2" t="n">
-        <v>8.821999999999999</v>
+        <v>8.874700000000001</v>
       </c>
       <c r="D2" t="n">
-        <v>11.978</v>
+        <v>11.9225</v>
       </c>
     </row>
     <row r="3">
@@ -5157,13 +5157,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>14.4928</v>
+        <v>14.6299</v>
       </c>
       <c r="C3" t="n">
-        <v>14.1898</v>
+        <v>14.353</v>
       </c>
       <c r="D3" t="n">
-        <v>19.8619</v>
+        <v>19.769</v>
       </c>
     </row>
     <row r="4">
@@ -5171,13 +5171,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>19.7634</v>
+        <v>19.815</v>
       </c>
       <c r="C4" t="n">
-        <v>18.5268</v>
+        <v>18.6164</v>
       </c>
       <c r="D4" t="n">
-        <v>24.3787</v>
+        <v>24.5863</v>
       </c>
     </row>
     <row r="5">
@@ -5185,13 +5185,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>15.8839</v>
+        <v>15.995</v>
       </c>
       <c r="C5" t="n">
-        <v>18.9265</v>
+        <v>19.0281</v>
       </c>
       <c r="D5" t="n">
-        <v>24.3953</v>
+        <v>24.6427</v>
       </c>
     </row>
     <row r="6">
@@ -5199,13 +5199,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>18.7413</v>
+        <v>18.6926</v>
       </c>
       <c r="C6" t="n">
-        <v>22.4948</v>
+        <v>22.4376</v>
       </c>
       <c r="D6" t="n">
-        <v>27.4211</v>
+        <v>27.6375</v>
       </c>
     </row>
     <row r="7">
@@ -5213,13 +5213,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>21.4342</v>
+        <v>21.485</v>
       </c>
       <c r="C7" t="n">
-        <v>26.6435</v>
+        <v>26.6814</v>
       </c>
       <c r="D7" t="n">
-        <v>29.2301</v>
+        <v>29.3629</v>
       </c>
     </row>
     <row r="8">
@@ -5227,13 +5227,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>16.6297</v>
+        <v>16.7429</v>
       </c>
       <c r="C8" t="n">
-        <v>23.2764</v>
+        <v>23.3255</v>
       </c>
       <c r="D8" t="n">
-        <v>28.4342</v>
+        <v>28.9402</v>
       </c>
     </row>
     <row r="9">
@@ -5241,13 +5241,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>18.7687</v>
+        <v>18.6699</v>
       </c>
       <c r="C9" t="n">
-        <v>23.558</v>
+        <v>24.216</v>
       </c>
       <c r="D9" t="n">
-        <v>28.4497</v>
+        <v>28.6796</v>
       </c>
     </row>
     <row r="10">
@@ -5255,13 +5255,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>20.2355</v>
+        <v>20.1827</v>
       </c>
       <c r="C10" t="n">
-        <v>24.2279</v>
+        <v>23.7711</v>
       </c>
       <c r="D10" t="n">
-        <v>28.7486</v>
+        <v>29.1823</v>
       </c>
     </row>
     <row r="11">
@@ -5269,13 +5269,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>18.4841</v>
+        <v>18.5442</v>
       </c>
       <c r="C11" t="n">
-        <v>23.6663</v>
+        <v>24.015</v>
       </c>
       <c r="D11" t="n">
-        <v>29.5065</v>
+        <v>29.5114</v>
       </c>
     </row>
     <row r="12">
@@ -5283,13 +5283,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>19.9251</v>
+        <v>20.0001</v>
       </c>
       <c r="C12" t="n">
-        <v>23.3386</v>
+        <v>23.9937</v>
       </c>
       <c r="D12" t="n">
-        <v>29.2763</v>
+        <v>29.0181</v>
       </c>
     </row>
     <row r="13">
@@ -5297,13 +5297,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>21.3932</v>
+        <v>21.4209</v>
       </c>
       <c r="C13" t="n">
-        <v>23.4604</v>
+        <v>23.6789</v>
       </c>
       <c r="D13" t="n">
-        <v>29.5566</v>
+        <v>29.8459</v>
       </c>
     </row>
     <row r="14">
@@ -5311,13 +5311,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>18.381</v>
+        <v>18.2063</v>
       </c>
       <c r="C14" t="n">
-        <v>23.535</v>
+        <v>24.1463</v>
       </c>
       <c r="D14" t="n">
-        <v>30.2171</v>
+        <v>30.2174</v>
       </c>
     </row>
     <row r="15">
@@ -5325,13 +5325,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>19.7121</v>
+        <v>19.3934</v>
       </c>
       <c r="C15" t="n">
-        <v>24.1112</v>
+        <v>23.8977</v>
       </c>
       <c r="D15" t="n">
-        <v>29.9457</v>
+        <v>29.6872</v>
       </c>
     </row>
     <row r="16">
@@ -5339,13 +5339,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>20.5392</v>
+        <v>20.4071</v>
       </c>
       <c r="C16" t="n">
-        <v>23.9064</v>
+        <v>23.9502</v>
       </c>
       <c r="D16" t="n">
-        <v>30.332</v>
+        <v>30.0808</v>
       </c>
     </row>
     <row r="17">
@@ -5353,13 +5353,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>19.4937</v>
+        <v>19.5462</v>
       </c>
       <c r="C17" t="n">
-        <v>24.0466</v>
+        <v>24.2183</v>
       </c>
       <c r="D17" t="n">
-        <v>30.364</v>
+        <v>29.9525</v>
       </c>
     </row>
   </sheetData>
@@ -5407,13 +5407,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.7043</v>
+        <v>8.697179999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>9.04968</v>
+        <v>9.08652</v>
       </c>
       <c r="D2" t="n">
-        <v>11.7264</v>
+        <v>11.6917</v>
       </c>
     </row>
     <row r="3">
@@ -5421,13 +5421,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>15.9835</v>
+        <v>16.0199</v>
       </c>
       <c r="C3" t="n">
-        <v>15.5779</v>
+        <v>15.6828</v>
       </c>
       <c r="D3" t="n">
-        <v>20.2332</v>
+        <v>20.4623</v>
       </c>
     </row>
     <row r="4">
@@ -5435,13 +5435,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>22.4475</v>
+        <v>22.5755</v>
       </c>
       <c r="C4" t="n">
-        <v>21.1022</v>
+        <v>20.5668</v>
       </c>
       <c r="D4" t="n">
-        <v>28.9648</v>
+        <v>28.6372</v>
       </c>
     </row>
     <row r="5">
@@ -5449,13 +5449,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>19.3853</v>
+        <v>19.4205</v>
       </c>
       <c r="C5" t="n">
-        <v>19.9372</v>
+        <v>19.9186</v>
       </c>
       <c r="D5" t="n">
-        <v>28.8795</v>
+        <v>29.1117</v>
       </c>
     </row>
     <row r="6">
@@ -5463,13 +5463,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>23.4618</v>
+        <v>23.4638</v>
       </c>
       <c r="C6" t="n">
-        <v>23.0586</v>
+        <v>23.065</v>
       </c>
       <c r="D6" t="n">
-        <v>32.2639</v>
+        <v>32.2759</v>
       </c>
     </row>
     <row r="7">
@@ -5477,13 +5477,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>27.6302</v>
+        <v>27.6408</v>
       </c>
       <c r="C7" t="n">
-        <v>27.0199</v>
+        <v>27.0315</v>
       </c>
       <c r="D7" t="n">
-        <v>35.9481</v>
+        <v>35.8236</v>
       </c>
     </row>
     <row r="8">
@@ -5491,13 +5491,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>23.667</v>
+        <v>23.3569</v>
       </c>
       <c r="C8" t="n">
-        <v>24.2719</v>
+        <v>23.9727</v>
       </c>
       <c r="D8" t="n">
-        <v>32.9476</v>
+        <v>34.1841</v>
       </c>
     </row>
     <row r="9">
@@ -5505,13 +5505,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>23.9843</v>
+        <v>23.879</v>
       </c>
       <c r="C9" t="n">
-        <v>23.9595</v>
+        <v>23.6877</v>
       </c>
       <c r="D9" t="n">
-        <v>33.1546</v>
+        <v>34.0226</v>
       </c>
     </row>
     <row r="10">
@@ -5519,13 +5519,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>24.3548</v>
+        <v>24.2016</v>
       </c>
       <c r="C10" t="n">
-        <v>23.9785</v>
+        <v>23.8451</v>
       </c>
       <c r="D10" t="n">
-        <v>34.8495</v>
+        <v>34.4656</v>
       </c>
     </row>
     <row r="11">
@@ -5533,13 +5533,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>24.7139</v>
+        <v>24.3978</v>
       </c>
       <c r="C11" t="n">
-        <v>24.1266</v>
+        <v>23.9903</v>
       </c>
       <c r="D11" t="n">
-        <v>35.1608</v>
+        <v>34.6409</v>
       </c>
     </row>
     <row r="12">
@@ -5547,13 +5547,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>25.346</v>
+        <v>25.3388</v>
       </c>
       <c r="C12" t="n">
-        <v>24.5927</v>
+        <v>24.5378</v>
       </c>
       <c r="D12" t="n">
-        <v>35.408</v>
+        <v>34.947</v>
       </c>
     </row>
     <row r="13">
@@ -5561,13 +5561,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>25.6339</v>
+        <v>25.3825</v>
       </c>
       <c r="C13" t="n">
-        <v>24.9582</v>
+        <v>25.2184</v>
       </c>
       <c r="D13" t="n">
-        <v>34.5085</v>
+        <v>36.2345</v>
       </c>
     </row>
     <row r="14">
@@ -5575,13 +5575,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>24.8919</v>
+        <v>25.0833</v>
       </c>
       <c r="C14" t="n">
-        <v>25.3156</v>
+        <v>25.5572</v>
       </c>
       <c r="D14" t="n">
-        <v>36.1184</v>
+        <v>36.0887</v>
       </c>
     </row>
     <row r="15">
@@ -5589,13 +5589,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>24.7752</v>
+        <v>24.8055</v>
       </c>
       <c r="C15" t="n">
-        <v>25.5331</v>
+        <v>25.1323</v>
       </c>
       <c r="D15" t="n">
-        <v>37.3523</v>
+        <v>36.0861</v>
       </c>
     </row>
     <row r="16">
@@ -5603,13 +5603,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>24.7354</v>
+        <v>25.0962</v>
       </c>
       <c r="C16" t="n">
-        <v>25.4784</v>
+        <v>25.2544</v>
       </c>
       <c r="D16" t="n">
-        <v>36.1502</v>
+        <v>37.2522</v>
       </c>
     </row>
     <row r="17">
@@ -5617,13 +5617,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>25.6633</v>
+        <v>25.2814</v>
       </c>
       <c r="C17" t="n">
-        <v>25.2505</v>
+        <v>24.9509</v>
       </c>
       <c r="D17" t="n">
-        <v>35.9652</v>
+        <v>37.8876</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Parallel workload.xlsx
+++ b/vs-x86/Parallel workload.xlsx
@@ -4087,13 +4087,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.223050000000001</v>
+        <v>8.87082</v>
       </c>
       <c r="C2" t="n">
-        <v>8.96856</v>
+        <v>8.71022</v>
       </c>
       <c r="D2" t="n">
-        <v>12.2579</v>
+        <v>11.5007</v>
       </c>
     </row>
     <row r="3">
@@ -4101,13 +4101,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>12.9342</v>
+        <v>16.8196</v>
       </c>
       <c r="C3" t="n">
-        <v>13.1238</v>
+        <v>13.8588</v>
       </c>
       <c r="D3" t="n">
-        <v>20.1549</v>
+        <v>19.7143</v>
       </c>
     </row>
     <row r="4">
@@ -4115,13 +4115,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>14.6749</v>
+        <v>23.437</v>
       </c>
       <c r="C4" t="n">
-        <v>15.5422</v>
+        <v>18.0059</v>
       </c>
       <c r="D4" t="n">
-        <v>24.9519</v>
+        <v>24.5978</v>
       </c>
     </row>
     <row r="5">
@@ -4129,13 +4129,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>15.9952</v>
+        <v>18.9936</v>
       </c>
       <c r="C5" t="n">
-        <v>18.6884</v>
+        <v>19.0287</v>
       </c>
       <c r="D5" t="n">
-        <v>28.1427</v>
+        <v>24.8447</v>
       </c>
     </row>
     <row r="6">
@@ -4143,13 +4143,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>18.7564</v>
+        <v>22.8089</v>
       </c>
       <c r="C6" t="n">
-        <v>22.4089</v>
+        <v>22.4461</v>
       </c>
       <c r="D6" t="n">
-        <v>32.1252</v>
+        <v>28.7324</v>
       </c>
     </row>
     <row r="7">
@@ -4157,13 +4157,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>21.045</v>
+        <v>27.002</v>
       </c>
       <c r="C7" t="n">
-        <v>26.467</v>
+        <v>26.4724</v>
       </c>
       <c r="D7" t="n">
-        <v>35.1422</v>
+        <v>31.6811</v>
       </c>
     </row>
     <row r="8">
@@ -4171,13 +4171,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>16.6728</v>
+        <v>19.8117</v>
       </c>
       <c r="C8" t="n">
-        <v>21.7093</v>
+        <v>24.3135</v>
       </c>
       <c r="D8" t="n">
-        <v>27.255</v>
+        <v>31.6396</v>
       </c>
     </row>
     <row r="9">
@@ -4185,13 +4185,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>17.2951</v>
+        <v>22.7198</v>
       </c>
       <c r="C9" t="n">
-        <v>21.1105</v>
+        <v>24.5088</v>
       </c>
       <c r="D9" t="n">
-        <v>28.8006</v>
+        <v>31.7174</v>
       </c>
     </row>
     <row r="10">
@@ -4199,13 +4199,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>17.5842</v>
+        <v>25.215</v>
       </c>
       <c r="C10" t="n">
-        <v>21.5439</v>
+        <v>24.6412</v>
       </c>
       <c r="D10" t="n">
-        <v>30.1065</v>
+        <v>31.1613</v>
       </c>
     </row>
     <row r="11">
@@ -4213,13 +4213,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>18.5721</v>
+        <v>22.4626</v>
       </c>
       <c r="C11" t="n">
-        <v>22.5781</v>
+        <v>25.0606</v>
       </c>
       <c r="D11" t="n">
-        <v>31.8085</v>
+        <v>31.8286</v>
       </c>
     </row>
     <row r="12">
@@ -4227,13 +4227,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>19.7874</v>
+        <v>24.6488</v>
       </c>
       <c r="C12" t="n">
-        <v>24.1936</v>
+        <v>24.7273</v>
       </c>
       <c r="D12" t="n">
-        <v>33.3928</v>
+        <v>31.7183</v>
       </c>
     </row>
     <row r="13">
@@ -4241,13 +4241,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>20.8947</v>
+        <v>26.9765</v>
       </c>
       <c r="C13" t="n">
-        <v>25.5187</v>
+        <v>25.4926</v>
       </c>
       <c r="D13" t="n">
-        <v>34.713</v>
+        <v>31.2718</v>
       </c>
     </row>
     <row r="14">
@@ -4255,13 +4255,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>18.2529</v>
+        <v>22.4106</v>
       </c>
       <c r="C14" t="n">
-        <v>23.3166</v>
+        <v>24.6489</v>
       </c>
       <c r="D14" t="n">
-        <v>30.0638</v>
+        <v>31.3712</v>
       </c>
     </row>
     <row r="15">
@@ -4269,13 +4269,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>18.4692</v>
+        <v>24.0412</v>
       </c>
       <c r="C15" t="n">
-        <v>22.6824</v>
+        <v>24.8173</v>
       </c>
       <c r="D15" t="n">
-        <v>30.7413</v>
+        <v>32.2503</v>
       </c>
     </row>
     <row r="16">
@@ -4283,13 +4283,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>18.567</v>
+        <v>25.2369</v>
       </c>
       <c r="C16" t="n">
-        <v>23.1951</v>
+        <v>24.8702</v>
       </c>
       <c r="D16" t="n">
-        <v>31.3194</v>
+        <v>32.1485</v>
       </c>
     </row>
     <row r="17">
@@ -4297,13 +4297,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>19.3364</v>
+        <v>23.8618</v>
       </c>
       <c r="C17" t="n">
-        <v>23.6609</v>
+        <v>25.1855</v>
       </c>
       <c r="D17" t="n">
-        <v>32.6074</v>
+        <v>33.4127</v>
       </c>
     </row>
   </sheetData>
@@ -4351,13 +4351,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.264659999999999</v>
+        <v>8.91403</v>
       </c>
       <c r="C2" t="n">
-        <v>8.96621</v>
+        <v>8.67605</v>
       </c>
       <c r="D2" t="n">
-        <v>12.1578</v>
+        <v>11.3669</v>
       </c>
     </row>
     <row r="3">
@@ -4365,13 +4365,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>14.1004</v>
+        <v>16.9635</v>
       </c>
       <c r="C3" t="n">
-        <v>14.6305</v>
+        <v>14.1352</v>
       </c>
       <c r="D3" t="n">
-        <v>20.9545</v>
+        <v>19.4765</v>
       </c>
     </row>
     <row r="4">
@@ -4379,13 +4379,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>15.3511</v>
+        <v>23.8829</v>
       </c>
       <c r="C4" t="n">
-        <v>17.0031</v>
+        <v>18.0203</v>
       </c>
       <c r="D4" t="n">
-        <v>25.7704</v>
+        <v>24.4268</v>
       </c>
     </row>
     <row r="5">
@@ -4393,13 +4393,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>16.0572</v>
+        <v>19.3695</v>
       </c>
       <c r="C5" t="n">
-        <v>18.5687</v>
+        <v>18.7889</v>
       </c>
       <c r="D5" t="n">
-        <v>27.7271</v>
+        <v>25.6667</v>
       </c>
     </row>
     <row r="6">
@@ -4407,13 +4407,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>18.8209</v>
+        <v>23.3762</v>
       </c>
       <c r="C6" t="n">
-        <v>22.2657</v>
+        <v>22.4125</v>
       </c>
       <c r="D6" t="n">
-        <v>31.8165</v>
+        <v>28.7299</v>
       </c>
     </row>
     <row r="7">
@@ -4421,13 +4421,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>21.2126</v>
+        <v>27.7345</v>
       </c>
       <c r="C7" t="n">
-        <v>26.3302</v>
+        <v>26.3022</v>
       </c>
       <c r="D7" t="n">
-        <v>34.9368</v>
+        <v>30.7506</v>
       </c>
     </row>
     <row r="8">
@@ -4435,13 +4435,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>16.6744</v>
+        <v>20.3134</v>
       </c>
       <c r="C8" t="n">
-        <v>21.7865</v>
+        <v>23.84</v>
       </c>
       <c r="D8" t="n">
-        <v>27.0061</v>
+        <v>28.8752</v>
       </c>
     </row>
     <row r="9">
@@ -4449,13 +4449,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>17.0083</v>
+        <v>23.2357</v>
       </c>
       <c r="C9" t="n">
-        <v>20.8643</v>
+        <v>24.1057</v>
       </c>
       <c r="D9" t="n">
-        <v>28.4495</v>
+        <v>28.9868</v>
       </c>
     </row>
     <row r="10">
@@ -4463,13 +4463,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>17.5922</v>
+        <v>25.7639</v>
       </c>
       <c r="C10" t="n">
-        <v>21.5614</v>
+        <v>23.9949</v>
       </c>
       <c r="D10" t="n">
-        <v>29.893</v>
+        <v>31.3714</v>
       </c>
     </row>
     <row r="11">
@@ -4477,13 +4477,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>18.6812</v>
+        <v>23.0276</v>
       </c>
       <c r="C11" t="n">
-        <v>22.7026</v>
+        <v>24.3262</v>
       </c>
       <c r="D11" t="n">
-        <v>31.6094</v>
+        <v>31.5484</v>
       </c>
     </row>
     <row r="12">
@@ -4491,13 +4491,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>19.9335</v>
+        <v>25.2951</v>
       </c>
       <c r="C12" t="n">
-        <v>24.1847</v>
+        <v>24.6863</v>
       </c>
       <c r="D12" t="n">
-        <v>33.2462</v>
+        <v>31.6335</v>
       </c>
     </row>
     <row r="13">
@@ -4505,13 +4505,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>21.0428</v>
+        <v>27.7188</v>
       </c>
       <c r="C13" t="n">
-        <v>25.5635</v>
+        <v>25.0445</v>
       </c>
       <c r="D13" t="n">
-        <v>34.6539</v>
+        <v>32.2658</v>
       </c>
     </row>
     <row r="14">
@@ -4519,13 +4519,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>18.3286</v>
+        <v>23.0079</v>
       </c>
       <c r="C14" t="n">
-        <v>23.5103</v>
+        <v>25.2881</v>
       </c>
       <c r="D14" t="n">
-        <v>29.9482</v>
+        <v>32.7823</v>
       </c>
     </row>
     <row r="15">
@@ -4533,13 +4533,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>18.5595</v>
+        <v>24.5896</v>
       </c>
       <c r="C15" t="n">
-        <v>22.7296</v>
+        <v>25.3287</v>
       </c>
       <c r="D15" t="n">
-        <v>30.4458</v>
+        <v>33.1381</v>
       </c>
     </row>
     <row r="16">
@@ -4547,13 +4547,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>18.7785</v>
+        <v>26.0331</v>
       </c>
       <c r="C16" t="n">
-        <v>22.906</v>
+        <v>25.4113</v>
       </c>
       <c r="D16" t="n">
-        <v>31.426</v>
+        <v>33.5629</v>
       </c>
     </row>
     <row r="17">
@@ -4561,13 +4561,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>19.4718</v>
+        <v>24.4493</v>
       </c>
       <c r="C17" t="n">
-        <v>23.6924</v>
+        <v>25.3873</v>
       </c>
       <c r="D17" t="n">
-        <v>32.4373</v>
+        <v>33.0354</v>
       </c>
     </row>
   </sheetData>
@@ -4615,13 +4615,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.9672</v>
+        <v>9.86496</v>
       </c>
       <c r="C2" t="n">
-        <v>9.079800000000001</v>
+        <v>9.154299999999999</v>
       </c>
       <c r="D2" t="n">
-        <v>11.692</v>
+        <v>11.8629</v>
       </c>
     </row>
     <row r="3">
@@ -4629,13 +4629,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>15.1568</v>
+        <v>18.3908</v>
       </c>
       <c r="C3" t="n">
-        <v>14.7825</v>
+        <v>15.8896</v>
       </c>
       <c r="D3" t="n">
-        <v>20.794</v>
+        <v>20.812</v>
       </c>
     </row>
     <row r="4">
@@ -4643,13 +4643,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>17.4973</v>
+        <v>25.7381</v>
       </c>
       <c r="C4" t="n">
-        <v>17.1986</v>
+        <v>21.0159</v>
       </c>
       <c r="D4" t="n">
-        <v>26.7722</v>
+        <v>28.5292</v>
       </c>
     </row>
     <row r="5">
@@ -4657,13 +4657,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>18.9354</v>
+        <v>22.3868</v>
       </c>
       <c r="C5" t="n">
-        <v>19.115</v>
+        <v>19.896</v>
       </c>
       <c r="D5" t="n">
-        <v>28.3639</v>
+        <v>27.9373</v>
       </c>
     </row>
     <row r="6">
@@ -4671,13 +4671,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>22.5459</v>
+        <v>27.6122</v>
       </c>
       <c r="C6" t="n">
-        <v>22.7131</v>
+        <v>22.8862</v>
       </c>
       <c r="D6" t="n">
-        <v>33.5609</v>
+        <v>35.0534</v>
       </c>
     </row>
     <row r="7">
@@ -4685,13 +4685,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>26.0807</v>
+        <v>33.1213</v>
       </c>
       <c r="C7" t="n">
-        <v>26.5672</v>
+        <v>26.9021</v>
       </c>
       <c r="D7" t="n">
-        <v>38.1358</v>
+        <v>39.3284</v>
       </c>
     </row>
     <row r="8">
@@ -4699,13 +4699,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>20.899</v>
+        <v>29.4446</v>
       </c>
       <c r="C8" t="n">
-        <v>21.111</v>
+        <v>23.9591</v>
       </c>
       <c r="D8" t="n">
-        <v>28.5356</v>
+        <v>34.968</v>
       </c>
     </row>
     <row r="9">
@@ -4713,13 +4713,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>20.2864</v>
+        <v>29.5958</v>
       </c>
       <c r="C9" t="n">
-        <v>20.6496</v>
+        <v>23.9792</v>
       </c>
       <c r="D9" t="n">
-        <v>29.8121</v>
+        <v>35.5935</v>
       </c>
     </row>
     <row r="10">
@@ -4727,13 +4727,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>21.2344</v>
+        <v>29.9799</v>
       </c>
       <c r="C10" t="n">
-        <v>21.4498</v>
+        <v>24.4579</v>
       </c>
       <c r="D10" t="n">
-        <v>31.242</v>
+        <v>39.4766</v>
       </c>
     </row>
     <row r="11">
@@ -4741,13 +4741,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>22.6613</v>
+        <v>30.0209</v>
       </c>
       <c r="C11" t="n">
-        <v>22.9044</v>
+        <v>24.403</v>
       </c>
       <c r="D11" t="n">
-        <v>33.3804</v>
+        <v>38.7223</v>
       </c>
     </row>
     <row r="12">
@@ -4755,13 +4755,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>24.1231</v>
+        <v>30.0344</v>
       </c>
       <c r="C12" t="n">
-        <v>24.5765</v>
+        <v>24.7789</v>
       </c>
       <c r="D12" t="n">
-        <v>35.5938</v>
+        <v>39.6439</v>
       </c>
     </row>
     <row r="13">
@@ -4769,13 +4769,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>25.4051</v>
+        <v>29.992</v>
       </c>
       <c r="C13" t="n">
-        <v>26.0489</v>
+        <v>24.9797</v>
       </c>
       <c r="D13" t="n">
-        <v>37.8081</v>
+        <v>39.6104</v>
       </c>
     </row>
     <row r="14">
@@ -4783,13 +4783,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>22.7056</v>
+        <v>30.4421</v>
       </c>
       <c r="C14" t="n">
-        <v>23.2798</v>
+        <v>24.7007</v>
       </c>
       <c r="D14" t="n">
-        <v>32.0733</v>
+        <v>36.0735</v>
       </c>
     </row>
     <row r="15">
@@ -4797,13 +4797,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>22.4448</v>
+        <v>30.9225</v>
       </c>
       <c r="C15" t="n">
-        <v>22.6148</v>
+        <v>24.8123</v>
       </c>
       <c r="D15" t="n">
-        <v>32.4424</v>
+        <v>35.1896</v>
       </c>
     </row>
     <row r="16">
@@ -4811,13 +4811,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>22.8231</v>
+        <v>30.5585</v>
       </c>
       <c r="C16" t="n">
-        <v>23.0974</v>
+        <v>25.3836</v>
       </c>
       <c r="D16" t="n">
-        <v>33.3721</v>
+        <v>39.5568</v>
       </c>
     </row>
     <row r="17">
@@ -4825,13 +4825,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>23.6041</v>
+        <v>30.6648</v>
       </c>
       <c r="C17" t="n">
-        <v>24.0426</v>
+        <v>25.1734</v>
       </c>
       <c r="D17" t="n">
-        <v>34.7045</v>
+        <v>39.6333</v>
       </c>
     </row>
   </sheetData>
@@ -4879,13 +4879,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>7.87899</v>
+        <v>5.03417</v>
       </c>
       <c r="C2" t="n">
-        <v>8.81739</v>
+        <v>7.65048</v>
       </c>
       <c r="D2" t="n">
-        <v>12.0534</v>
+        <v>9.98765</v>
       </c>
     </row>
     <row r="3">
@@ -4893,13 +4893,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>14.6243</v>
+        <v>9.800470000000001</v>
       </c>
       <c r="C3" t="n">
-        <v>13.8082</v>
+        <v>13.3723</v>
       </c>
       <c r="D3" t="n">
-        <v>19.7925</v>
+        <v>18.8475</v>
       </c>
     </row>
     <row r="4">
@@ -4907,13 +4907,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>19.6908</v>
+        <v>14.1974</v>
       </c>
       <c r="C4" t="n">
-        <v>18.5701</v>
+        <v>18.774</v>
       </c>
       <c r="D4" t="n">
-        <v>26.0033</v>
+        <v>26.4839</v>
       </c>
     </row>
     <row r="5">
@@ -4921,13 +4921,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>15.9911</v>
+        <v>16.7915</v>
       </c>
       <c r="C5" t="n">
-        <v>18.9312</v>
+        <v>18.6281</v>
       </c>
       <c r="D5" t="n">
-        <v>24.6983</v>
+        <v>26.8142</v>
       </c>
     </row>
     <row r="6">
@@ -4935,13 +4935,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>18.5589</v>
+        <v>20.3625</v>
       </c>
       <c r="C6" t="n">
-        <v>22.3636</v>
+        <v>21.6369</v>
       </c>
       <c r="D6" t="n">
-        <v>26.8224</v>
+        <v>30.8328</v>
       </c>
     </row>
     <row r="7">
@@ -4949,13 +4949,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>21.2081</v>
+        <v>23.551</v>
       </c>
       <c r="C7" t="n">
-        <v>26.3717</v>
+        <v>25.3552</v>
       </c>
       <c r="D7" t="n">
-        <v>29.2834</v>
+        <v>35.4084</v>
       </c>
     </row>
     <row r="8">
@@ -4963,13 +4963,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>16.486</v>
+        <v>21.0371</v>
       </c>
       <c r="C8" t="n">
-        <v>22.7168</v>
+        <v>24.5501</v>
       </c>
       <c r="D8" t="n">
-        <v>28.7455</v>
+        <v>33.777</v>
       </c>
     </row>
     <row r="9">
@@ -4977,13 +4977,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>18.646</v>
+        <v>21.7191</v>
       </c>
       <c r="C9" t="n">
-        <v>22.7141</v>
+        <v>24.1553</v>
       </c>
       <c r="D9" t="n">
-        <v>28.357</v>
+        <v>33.3711</v>
       </c>
     </row>
     <row r="10">
@@ -4991,13 +4991,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>20.0032</v>
+        <v>22.6662</v>
       </c>
       <c r="C10" t="n">
-        <v>23.8896</v>
+        <v>24.4919</v>
       </c>
       <c r="D10" t="n">
-        <v>29.2879</v>
+        <v>33.546</v>
       </c>
     </row>
     <row r="11">
@@ -5005,13 +5005,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>18.3753</v>
+        <v>22.6036</v>
       </c>
       <c r="C11" t="n">
-        <v>23.2595</v>
+        <v>24.4777</v>
       </c>
       <c r="D11" t="n">
-        <v>29.0104</v>
+        <v>33.599</v>
       </c>
     </row>
     <row r="12">
@@ -5019,13 +5019,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>19.7971</v>
+        <v>23.1286</v>
       </c>
       <c r="C12" t="n">
-        <v>22.8744</v>
+        <v>24.4614</v>
       </c>
       <c r="D12" t="n">
-        <v>29.0943</v>
+        <v>33.39</v>
       </c>
     </row>
     <row r="13">
@@ -5033,13 +5033,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>21.1028</v>
+        <v>22.6885</v>
       </c>
       <c r="C13" t="n">
-        <v>23.4767</v>
+        <v>24.8686</v>
       </c>
       <c r="D13" t="n">
-        <v>29.1662</v>
+        <v>33.2739</v>
       </c>
     </row>
     <row r="14">
@@ -5047,13 +5047,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>18.1066</v>
+        <v>22.9765</v>
       </c>
       <c r="C14" t="n">
-        <v>22.9292</v>
+        <v>24.8065</v>
       </c>
       <c r="D14" t="n">
-        <v>29.3455</v>
+        <v>33.0116</v>
       </c>
     </row>
     <row r="15">
@@ -5061,13 +5061,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>19.3693</v>
+        <v>22.9732</v>
       </c>
       <c r="C15" t="n">
-        <v>23.9879</v>
+        <v>24.795</v>
       </c>
       <c r="D15" t="n">
-        <v>29.2741</v>
+        <v>32.9296</v>
       </c>
     </row>
     <row r="16">
@@ -5075,13 +5075,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>19.962</v>
+        <v>22.8307</v>
       </c>
       <c r="C16" t="n">
-        <v>23.996</v>
+        <v>24.7651</v>
       </c>
       <c r="D16" t="n">
-        <v>29.8921</v>
+        <v>33.3754</v>
       </c>
     </row>
     <row r="17">
@@ -5089,13 +5089,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>19.3513</v>
+        <v>23.0161</v>
       </c>
       <c r="C17" t="n">
-        <v>23.5916</v>
+        <v>24.7738</v>
       </c>
       <c r="D17" t="n">
-        <v>29.7082</v>
+        <v>33.4477</v>
       </c>
     </row>
   </sheetData>
@@ -5143,13 +5143,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>7.8577</v>
+        <v>5.01103</v>
       </c>
       <c r="C2" t="n">
-        <v>8.874700000000001</v>
+        <v>7.65655</v>
       </c>
       <c r="D2" t="n">
-        <v>11.9225</v>
+        <v>9.9328</v>
       </c>
     </row>
     <row r="3">
@@ -5157,13 +5157,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>14.6299</v>
+        <v>9.81456</v>
       </c>
       <c r="C3" t="n">
-        <v>14.353</v>
+        <v>13.4432</v>
       </c>
       <c r="D3" t="n">
-        <v>19.769</v>
+        <v>18.8312</v>
       </c>
     </row>
     <row r="4">
@@ -5171,13 +5171,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>19.815</v>
+        <v>14.2156</v>
       </c>
       <c r="C4" t="n">
-        <v>18.6164</v>
+        <v>18.7762</v>
       </c>
       <c r="D4" t="n">
-        <v>24.5863</v>
+        <v>26.4416</v>
       </c>
     </row>
     <row r="5">
@@ -5185,13 +5185,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>15.995</v>
+        <v>16.9827</v>
       </c>
       <c r="C5" t="n">
-        <v>19.0281</v>
+        <v>18.5984</v>
       </c>
       <c r="D5" t="n">
-        <v>24.6427</v>
+        <v>26.7897</v>
       </c>
     </row>
     <row r="6">
@@ -5199,13 +5199,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>18.6926</v>
+        <v>20.6893</v>
       </c>
       <c r="C6" t="n">
-        <v>22.4376</v>
+        <v>21.5347</v>
       </c>
       <c r="D6" t="n">
-        <v>27.6375</v>
+        <v>31.5306</v>
       </c>
     </row>
     <row r="7">
@@ -5213,13 +5213,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>21.485</v>
+        <v>24.0445</v>
       </c>
       <c r="C7" t="n">
-        <v>26.6814</v>
+        <v>25.3751</v>
       </c>
       <c r="D7" t="n">
-        <v>29.3629</v>
+        <v>35.7045</v>
       </c>
     </row>
     <row r="8">
@@ -5227,13 +5227,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>16.7429</v>
+        <v>21.4463</v>
       </c>
       <c r="C8" t="n">
-        <v>23.3255</v>
+        <v>24.5281</v>
       </c>
       <c r="D8" t="n">
-        <v>28.9402</v>
+        <v>33.4963</v>
       </c>
     </row>
     <row r="9">
@@ -5241,13 +5241,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>18.6699</v>
+        <v>21.9991</v>
       </c>
       <c r="C9" t="n">
-        <v>24.216</v>
+        <v>24.4003</v>
       </c>
       <c r="D9" t="n">
-        <v>28.6796</v>
+        <v>33.6924</v>
       </c>
     </row>
     <row r="10">
@@ -5255,13 +5255,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>20.1827</v>
+        <v>22.8998</v>
       </c>
       <c r="C10" t="n">
-        <v>23.7711</v>
+        <v>24.4671</v>
       </c>
       <c r="D10" t="n">
-        <v>29.1823</v>
+        <v>33.7417</v>
       </c>
     </row>
     <row r="11">
@@ -5269,13 +5269,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>18.5442</v>
+        <v>23.0681</v>
       </c>
       <c r="C11" t="n">
-        <v>24.015</v>
+        <v>24.4971</v>
       </c>
       <c r="D11" t="n">
-        <v>29.5114</v>
+        <v>33.3047</v>
       </c>
     </row>
     <row r="12">
@@ -5283,13 +5283,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>20.0001</v>
+        <v>23.4146</v>
       </c>
       <c r="C12" t="n">
-        <v>23.9937</v>
+        <v>24.6681</v>
       </c>
       <c r="D12" t="n">
-        <v>29.0181</v>
+        <v>33.9921</v>
       </c>
     </row>
     <row r="13">
@@ -5297,13 +5297,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>21.4209</v>
+        <v>23.4922</v>
       </c>
       <c r="C13" t="n">
-        <v>23.6789</v>
+        <v>24.857</v>
       </c>
       <c r="D13" t="n">
-        <v>29.8459</v>
+        <v>33.8008</v>
       </c>
     </row>
     <row r="14">
@@ -5311,13 +5311,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>18.2063</v>
+        <v>23.1458</v>
       </c>
       <c r="C14" t="n">
-        <v>24.1463</v>
+        <v>24.5786</v>
       </c>
       <c r="D14" t="n">
-        <v>30.2174</v>
+        <v>33.477</v>
       </c>
     </row>
     <row r="15">
@@ -5325,13 +5325,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>19.3934</v>
+        <v>23.4467</v>
       </c>
       <c r="C15" t="n">
-        <v>23.8977</v>
+        <v>24.7163</v>
       </c>
       <c r="D15" t="n">
-        <v>29.6872</v>
+        <v>33.4105</v>
       </c>
     </row>
     <row r="16">
@@ -5339,13 +5339,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>20.4071</v>
+        <v>23.1219</v>
       </c>
       <c r="C16" t="n">
-        <v>23.9502</v>
+        <v>24.7863</v>
       </c>
       <c r="D16" t="n">
-        <v>30.0808</v>
+        <v>33.584</v>
       </c>
     </row>
     <row r="17">
@@ -5353,13 +5353,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>19.5462</v>
+        <v>23.2793</v>
       </c>
       <c r="C17" t="n">
-        <v>24.2183</v>
+        <v>24.762</v>
       </c>
       <c r="D17" t="n">
-        <v>29.9525</v>
+        <v>34.1377</v>
       </c>
     </row>
   </sheetData>
@@ -5407,13 +5407,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.697179999999999</v>
+        <v>7.21723</v>
       </c>
       <c r="C2" t="n">
-        <v>9.08652</v>
+        <v>8.888249999999999</v>
       </c>
       <c r="D2" t="n">
-        <v>11.6917</v>
+        <v>11.5714</v>
       </c>
     </row>
     <row r="3">
@@ -5421,13 +5421,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>16.0199</v>
+        <v>13.8299</v>
       </c>
       <c r="C3" t="n">
-        <v>15.6828</v>
+        <v>15.1286</v>
       </c>
       <c r="D3" t="n">
-        <v>20.4623</v>
+        <v>21.8131</v>
       </c>
     </row>
     <row r="4">
@@ -5435,13 +5435,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>22.5755</v>
+        <v>20.1489</v>
       </c>
       <c r="C4" t="n">
-        <v>20.5668</v>
+        <v>20.5753</v>
       </c>
       <c r="D4" t="n">
-        <v>28.6372</v>
+        <v>30.934</v>
       </c>
     </row>
     <row r="5">
@@ -5449,13 +5449,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>19.4205</v>
+        <v>21.7486</v>
       </c>
       <c r="C5" t="n">
-        <v>19.9186</v>
+        <v>20.1822</v>
       </c>
       <c r="D5" t="n">
-        <v>29.1117</v>
+        <v>31.7148</v>
       </c>
     </row>
     <row r="6">
@@ -5463,13 +5463,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>23.4638</v>
+        <v>25.9582</v>
       </c>
       <c r="C6" t="n">
-        <v>23.065</v>
+        <v>22.7865</v>
       </c>
       <c r="D6" t="n">
-        <v>32.2759</v>
+        <v>36.9444</v>
       </c>
     </row>
     <row r="7">
@@ -5477,13 +5477,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>27.6408</v>
+        <v>31.169</v>
       </c>
       <c r="C7" t="n">
-        <v>27.0315</v>
+        <v>26.5856</v>
       </c>
       <c r="D7" t="n">
-        <v>35.8236</v>
+        <v>42.9003</v>
       </c>
     </row>
     <row r="8">
@@ -5491,13 +5491,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>23.3569</v>
+        <v>28.3439</v>
       </c>
       <c r="C8" t="n">
-        <v>23.9727</v>
+        <v>25.856</v>
       </c>
       <c r="D8" t="n">
-        <v>34.1841</v>
+        <v>40.7897</v>
       </c>
     </row>
     <row r="9">
@@ -5505,13 +5505,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>23.879</v>
+        <v>29.008</v>
       </c>
       <c r="C9" t="n">
-        <v>23.6877</v>
+        <v>25.7429</v>
       </c>
       <c r="D9" t="n">
-        <v>34.0226</v>
+        <v>40.919</v>
       </c>
     </row>
     <row r="10">
@@ -5519,13 +5519,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>24.2016</v>
+        <v>29.1685</v>
       </c>
       <c r="C10" t="n">
-        <v>23.8451</v>
+        <v>25.8269</v>
       </c>
       <c r="D10" t="n">
-        <v>34.4656</v>
+        <v>40.5438</v>
       </c>
     </row>
     <row r="11">
@@ -5533,13 +5533,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>24.3978</v>
+        <v>29.5154</v>
       </c>
       <c r="C11" t="n">
-        <v>23.9903</v>
+        <v>25.7642</v>
       </c>
       <c r="D11" t="n">
-        <v>34.6409</v>
+        <v>40.9482</v>
       </c>
     </row>
     <row r="12">
@@ -5547,13 +5547,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>25.3388</v>
+        <v>29.3536</v>
       </c>
       <c r="C12" t="n">
-        <v>24.5378</v>
+        <v>25.8246</v>
       </c>
       <c r="D12" t="n">
-        <v>34.947</v>
+        <v>40.6319</v>
       </c>
     </row>
     <row r="13">
@@ -5561,13 +5561,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>25.3825</v>
+        <v>29.2151</v>
       </c>
       <c r="C13" t="n">
-        <v>25.2184</v>
+        <v>26.111</v>
       </c>
       <c r="D13" t="n">
-        <v>36.2345</v>
+        <v>40.3397</v>
       </c>
     </row>
     <row r="14">
@@ -5575,13 +5575,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>25.0833</v>
+        <v>29.7665</v>
       </c>
       <c r="C14" t="n">
-        <v>25.5572</v>
+        <v>25.9712</v>
       </c>
       <c r="D14" t="n">
-        <v>36.0887</v>
+        <v>40.8984</v>
       </c>
     </row>
     <row r="15">
@@ -5589,13 +5589,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>24.8055</v>
+        <v>29.7452</v>
       </c>
       <c r="C15" t="n">
-        <v>25.1323</v>
+        <v>25.9575</v>
       </c>
       <c r="D15" t="n">
-        <v>36.0861</v>
+        <v>40.9177</v>
       </c>
     </row>
     <row r="16">
@@ -5603,13 +5603,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>25.0962</v>
+        <v>30.0714</v>
       </c>
       <c r="C16" t="n">
-        <v>25.2544</v>
+        <v>26.1685</v>
       </c>
       <c r="D16" t="n">
-        <v>37.2522</v>
+        <v>40.7928</v>
       </c>
     </row>
     <row r="17">
@@ -5617,13 +5617,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>25.2814</v>
+        <v>30.1623</v>
       </c>
       <c r="C17" t="n">
-        <v>24.9509</v>
+        <v>26.167</v>
       </c>
       <c r="D17" t="n">
-        <v>37.8876</v>
+        <v>40.9597</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Parallel workload.xlsx
+++ b/vs-x86/Parallel workload.xlsx
@@ -4087,13 +4087,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.87082</v>
+        <v>8.058</v>
       </c>
       <c r="C2" t="n">
-        <v>8.71022</v>
+        <v>8.72819</v>
       </c>
       <c r="D2" t="n">
-        <v>11.5007</v>
+        <v>11.559</v>
       </c>
     </row>
     <row r="3">
@@ -4101,13 +4101,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>16.8196</v>
+        <v>15.1589</v>
       </c>
       <c r="C3" t="n">
-        <v>13.8588</v>
+        <v>13.9212</v>
       </c>
       <c r="D3" t="n">
-        <v>19.7143</v>
+        <v>20.0492</v>
       </c>
     </row>
     <row r="4">
@@ -4115,13 +4115,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>23.437</v>
+        <v>21.0674</v>
       </c>
       <c r="C4" t="n">
-        <v>18.0059</v>
+        <v>17.9926</v>
       </c>
       <c r="D4" t="n">
-        <v>24.5978</v>
+        <v>24.6389</v>
       </c>
     </row>
     <row r="5">
@@ -4129,13 +4129,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>18.9936</v>
+        <v>17.741</v>
       </c>
       <c r="C5" t="n">
-        <v>19.0287</v>
+        <v>19.2935</v>
       </c>
       <c r="D5" t="n">
-        <v>24.8447</v>
+        <v>24.7007</v>
       </c>
     </row>
     <row r="6">
@@ -4143,13 +4143,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>22.8089</v>
+        <v>21.0618</v>
       </c>
       <c r="C6" t="n">
-        <v>22.4461</v>
+        <v>22.4801</v>
       </c>
       <c r="D6" t="n">
-        <v>28.7324</v>
+        <v>28.7096</v>
       </c>
     </row>
     <row r="7">
@@ -4157,13 +4157,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>27.002</v>
+        <v>25.064</v>
       </c>
       <c r="C7" t="n">
-        <v>26.4724</v>
+        <v>26.4694</v>
       </c>
       <c r="D7" t="n">
-        <v>31.6811</v>
+        <v>31.7233</v>
       </c>
     </row>
     <row r="8">
@@ -4171,13 +4171,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>19.8117</v>
+        <v>18.3689</v>
       </c>
       <c r="C8" t="n">
-        <v>24.3135</v>
+        <v>24.2169</v>
       </c>
       <c r="D8" t="n">
-        <v>31.6396</v>
+        <v>31.2997</v>
       </c>
     </row>
     <row r="9">
@@ -4185,13 +4185,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>22.7198</v>
+        <v>20.7572</v>
       </c>
       <c r="C9" t="n">
-        <v>24.5088</v>
+        <v>24.5429</v>
       </c>
       <c r="D9" t="n">
-        <v>31.7174</v>
+        <v>30.993</v>
       </c>
     </row>
     <row r="10">
@@ -4199,13 +4199,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>25.215</v>
+        <v>22.9505</v>
       </c>
       <c r="C10" t="n">
-        <v>24.6412</v>
+        <v>24.4464</v>
       </c>
       <c r="D10" t="n">
-        <v>31.1613</v>
+        <v>31.075</v>
       </c>
     </row>
     <row r="11">
@@ -4213,13 +4213,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>22.4626</v>
+        <v>21.1595</v>
       </c>
       <c r="C11" t="n">
-        <v>25.0606</v>
+        <v>24.7131</v>
       </c>
       <c r="D11" t="n">
-        <v>31.8286</v>
+        <v>31.8233</v>
       </c>
     </row>
     <row r="12">
@@ -4227,13 +4227,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>24.6488</v>
+        <v>22.9853</v>
       </c>
       <c r="C12" t="n">
-        <v>24.7273</v>
+        <v>25.0054</v>
       </c>
       <c r="D12" t="n">
-        <v>31.7183</v>
+        <v>32.1512</v>
       </c>
     </row>
     <row r="13">
@@ -4241,13 +4241,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>26.9765</v>
+        <v>24.9044</v>
       </c>
       <c r="C13" t="n">
-        <v>25.4926</v>
+        <v>25.1433</v>
       </c>
       <c r="D13" t="n">
-        <v>31.2718</v>
+        <v>31.8211</v>
       </c>
     </row>
     <row r="14">
@@ -4255,13 +4255,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>22.4106</v>
+        <v>20.6126</v>
       </c>
       <c r="C14" t="n">
-        <v>24.6489</v>
+        <v>24.782</v>
       </c>
       <c r="D14" t="n">
-        <v>31.3712</v>
+        <v>31.5064</v>
       </c>
     </row>
     <row r="15">
@@ -4269,13 +4269,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>24.0412</v>
+        <v>22.2039</v>
       </c>
       <c r="C15" t="n">
-        <v>24.8173</v>
+        <v>25.2119</v>
       </c>
       <c r="D15" t="n">
-        <v>32.2503</v>
+        <v>31.7588</v>
       </c>
     </row>
     <row r="16">
@@ -4283,13 +4283,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>25.2369</v>
+        <v>23.189</v>
       </c>
       <c r="C16" t="n">
-        <v>24.8702</v>
+        <v>24.9521</v>
       </c>
       <c r="D16" t="n">
-        <v>32.1485</v>
+        <v>31.9911</v>
       </c>
     </row>
     <row r="17">
@@ -4297,13 +4297,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>23.8618</v>
+        <v>22.3631</v>
       </c>
       <c r="C17" t="n">
-        <v>25.1855</v>
+        <v>25.1623</v>
       </c>
       <c r="D17" t="n">
-        <v>33.4127</v>
+        <v>32.0397</v>
       </c>
     </row>
   </sheetData>
@@ -4351,13 +4351,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.91403</v>
+        <v>8.046620000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>8.67605</v>
+        <v>8.70946</v>
       </c>
       <c r="D2" t="n">
-        <v>11.3669</v>
+        <v>11.45</v>
       </c>
     </row>
     <row r="3">
@@ -4365,13 +4365,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>16.9635</v>
+        <v>15.1608</v>
       </c>
       <c r="C3" t="n">
-        <v>14.1352</v>
+        <v>14.179</v>
       </c>
       <c r="D3" t="n">
-        <v>19.4765</v>
+        <v>19.8815</v>
       </c>
     </row>
     <row r="4">
@@ -4379,13 +4379,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>23.8829</v>
+        <v>21.4078</v>
       </c>
       <c r="C4" t="n">
-        <v>18.0203</v>
+        <v>18.0698</v>
       </c>
       <c r="D4" t="n">
-        <v>24.4268</v>
+        <v>25.7704</v>
       </c>
     </row>
     <row r="5">
@@ -4393,13 +4393,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>19.3695</v>
+        <v>17.508</v>
       </c>
       <c r="C5" t="n">
-        <v>18.7889</v>
+        <v>19.2342</v>
       </c>
       <c r="D5" t="n">
-        <v>25.6667</v>
+        <v>24.7111</v>
       </c>
     </row>
     <row r="6">
@@ -4407,13 +4407,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>23.3762</v>
+        <v>21.3296</v>
       </c>
       <c r="C6" t="n">
-        <v>22.4125</v>
+        <v>22.4503</v>
       </c>
       <c r="D6" t="n">
-        <v>28.7299</v>
+        <v>28.7476</v>
       </c>
     </row>
     <row r="7">
@@ -4421,13 +4421,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>27.7345</v>
+        <v>25.4838</v>
       </c>
       <c r="C7" t="n">
-        <v>26.3022</v>
+        <v>26.3715</v>
       </c>
       <c r="D7" t="n">
-        <v>30.7506</v>
+        <v>31.5254</v>
       </c>
     </row>
     <row r="8">
@@ -4435,13 +4435,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>20.3134</v>
+        <v>18.439</v>
       </c>
       <c r="C8" t="n">
-        <v>23.84</v>
+        <v>24.1456</v>
       </c>
       <c r="D8" t="n">
-        <v>28.8752</v>
+        <v>28.6898</v>
       </c>
     </row>
     <row r="9">
@@ -4449,13 +4449,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>23.2357</v>
+        <v>20.9945</v>
       </c>
       <c r="C9" t="n">
-        <v>24.1057</v>
+        <v>24.3001</v>
       </c>
       <c r="D9" t="n">
-        <v>28.9868</v>
+        <v>29.893</v>
       </c>
     </row>
     <row r="10">
@@ -4463,13 +4463,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>25.7639</v>
+        <v>22.8803</v>
       </c>
       <c r="C10" t="n">
-        <v>23.9949</v>
+        <v>24.3498</v>
       </c>
       <c r="D10" t="n">
-        <v>31.3714</v>
+        <v>31.4144</v>
       </c>
     </row>
     <row r="11">
@@ -4477,13 +4477,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>23.0276</v>
+        <v>21.2386</v>
       </c>
       <c r="C11" t="n">
-        <v>24.3262</v>
+        <v>24.359</v>
       </c>
       <c r="D11" t="n">
-        <v>31.5484</v>
+        <v>31.2244</v>
       </c>
     </row>
     <row r="12">
@@ -4491,13 +4491,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>25.2951</v>
+        <v>23.3214</v>
       </c>
       <c r="C12" t="n">
-        <v>24.6863</v>
+        <v>24.58</v>
       </c>
       <c r="D12" t="n">
-        <v>31.6335</v>
+        <v>31.6443</v>
       </c>
     </row>
     <row r="13">
@@ -4505,13 +4505,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>27.7188</v>
+        <v>25.4421</v>
       </c>
       <c r="C13" t="n">
-        <v>25.0445</v>
+        <v>25.2041</v>
       </c>
       <c r="D13" t="n">
-        <v>32.2658</v>
+        <v>31.504</v>
       </c>
     </row>
     <row r="14">
@@ -4519,13 +4519,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>23.0079</v>
+        <v>20.7375</v>
       </c>
       <c r="C14" t="n">
-        <v>25.2881</v>
+        <v>25.1488</v>
       </c>
       <c r="D14" t="n">
-        <v>32.7823</v>
+        <v>32.6654</v>
       </c>
     </row>
     <row r="15">
@@ -4533,13 +4533,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>24.5896</v>
+        <v>22.4136</v>
       </c>
       <c r="C15" t="n">
-        <v>25.3287</v>
+        <v>25.3147</v>
       </c>
       <c r="D15" t="n">
-        <v>33.1381</v>
+        <v>31.8869</v>
       </c>
     </row>
     <row r="16">
@@ -4547,13 +4547,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>26.0331</v>
+        <v>23.5418</v>
       </c>
       <c r="C16" t="n">
-        <v>25.4113</v>
+        <v>25.093</v>
       </c>
       <c r="D16" t="n">
-        <v>33.5629</v>
+        <v>32.601</v>
       </c>
     </row>
     <row r="17">
@@ -4561,13 +4561,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>24.4493</v>
+        <v>22.684</v>
       </c>
       <c r="C17" t="n">
-        <v>25.3873</v>
+        <v>25.3758</v>
       </c>
       <c r="D17" t="n">
-        <v>33.0354</v>
+        <v>33.3419</v>
       </c>
     </row>
   </sheetData>
@@ -4615,13 +4615,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>9.86496</v>
+        <v>9.165979999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>9.154299999999999</v>
+        <v>9.14292</v>
       </c>
       <c r="D2" t="n">
-        <v>11.8629</v>
+        <v>11.9188</v>
       </c>
     </row>
     <row r="3">
@@ -4629,13 +4629,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>18.3908</v>
+        <v>16.6611</v>
       </c>
       <c r="C3" t="n">
-        <v>15.8896</v>
+        <v>15.8496</v>
       </c>
       <c r="D3" t="n">
-        <v>20.812</v>
+        <v>21.0058</v>
       </c>
     </row>
     <row r="4">
@@ -4643,13 +4643,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>25.7381</v>
+        <v>23.7114</v>
       </c>
       <c r="C4" t="n">
-        <v>21.0159</v>
+        <v>20.8725</v>
       </c>
       <c r="D4" t="n">
-        <v>28.5292</v>
+        <v>28.5107</v>
       </c>
     </row>
     <row r="5">
@@ -4657,13 +4657,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>22.3868</v>
+        <v>21.0003</v>
       </c>
       <c r="C5" t="n">
-        <v>19.896</v>
+        <v>19.8503</v>
       </c>
       <c r="D5" t="n">
-        <v>27.9373</v>
+        <v>28.6936</v>
       </c>
     </row>
     <row r="6">
@@ -4671,13 +4671,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>27.6122</v>
+        <v>25.7231</v>
       </c>
       <c r="C6" t="n">
-        <v>22.8862</v>
+        <v>23.074</v>
       </c>
       <c r="D6" t="n">
-        <v>35.0534</v>
+        <v>35.055</v>
       </c>
     </row>
     <row r="7">
@@ -4685,13 +4685,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>33.1213</v>
+        <v>30.5307</v>
       </c>
       <c r="C7" t="n">
-        <v>26.9021</v>
+        <v>26.9059</v>
       </c>
       <c r="D7" t="n">
-        <v>39.3284</v>
+        <v>39.4254</v>
       </c>
     </row>
     <row r="8">
@@ -4699,13 +4699,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>29.4446</v>
+        <v>27.8764</v>
       </c>
       <c r="C8" t="n">
-        <v>23.9591</v>
+        <v>23.6816</v>
       </c>
       <c r="D8" t="n">
-        <v>34.968</v>
+        <v>35.6529</v>
       </c>
     </row>
     <row r="9">
@@ -4713,13 +4713,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>29.5958</v>
+        <v>27.0606</v>
       </c>
       <c r="C9" t="n">
-        <v>23.9792</v>
+        <v>24.3798</v>
       </c>
       <c r="D9" t="n">
-        <v>35.5935</v>
+        <v>36.6994</v>
       </c>
     </row>
     <row r="10">
@@ -4727,13 +4727,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>29.9799</v>
+        <v>28.2706</v>
       </c>
       <c r="C10" t="n">
-        <v>24.4579</v>
+        <v>24.3094</v>
       </c>
       <c r="D10" t="n">
-        <v>39.4766</v>
+        <v>39.3501</v>
       </c>
     </row>
     <row r="11">
@@ -4741,13 +4741,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>30.0209</v>
+        <v>28.024</v>
       </c>
       <c r="C11" t="n">
-        <v>24.403</v>
+        <v>24.8174</v>
       </c>
       <c r="D11" t="n">
-        <v>38.7223</v>
+        <v>39.048</v>
       </c>
     </row>
     <row r="12">
@@ -4755,13 +4755,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>30.0344</v>
+        <v>27.9554</v>
       </c>
       <c r="C12" t="n">
-        <v>24.7789</v>
+        <v>24.8192</v>
       </c>
       <c r="D12" t="n">
-        <v>39.6439</v>
+        <v>39.4929</v>
       </c>
     </row>
     <row r="13">
@@ -4769,13 +4769,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>29.992</v>
+        <v>28.1383</v>
       </c>
       <c r="C13" t="n">
-        <v>24.9797</v>
+        <v>24.7167</v>
       </c>
       <c r="D13" t="n">
-        <v>39.6104</v>
+        <v>38.7094</v>
       </c>
     </row>
     <row r="14">
@@ -4783,13 +4783,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>30.4421</v>
+        <v>28.2037</v>
       </c>
       <c r="C14" t="n">
-        <v>24.7007</v>
+        <v>25.0887</v>
       </c>
       <c r="D14" t="n">
-        <v>36.0735</v>
+        <v>36.1028</v>
       </c>
     </row>
     <row r="15">
@@ -4797,13 +4797,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>30.9225</v>
+        <v>28.496</v>
       </c>
       <c r="C15" t="n">
-        <v>24.8123</v>
+        <v>24.9764</v>
       </c>
       <c r="D15" t="n">
-        <v>35.1896</v>
+        <v>35.2895</v>
       </c>
     </row>
     <row r="16">
@@ -4811,13 +4811,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>30.5585</v>
+        <v>28.6245</v>
       </c>
       <c r="C16" t="n">
-        <v>25.3836</v>
+        <v>25.1189</v>
       </c>
       <c r="D16" t="n">
-        <v>39.5568</v>
+        <v>39.5571</v>
       </c>
     </row>
     <row r="17">
@@ -4825,13 +4825,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>30.6648</v>
+        <v>28.8932</v>
       </c>
       <c r="C17" t="n">
-        <v>25.1734</v>
+        <v>25.3263</v>
       </c>
       <c r="D17" t="n">
-        <v>39.6333</v>
+        <v>39.4357</v>
       </c>
     </row>
   </sheetData>
@@ -4879,13 +4879,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>5.03417</v>
+        <v>4.59793</v>
       </c>
       <c r="C2" t="n">
-        <v>7.65048</v>
+        <v>7.63239</v>
       </c>
       <c r="D2" t="n">
-        <v>9.98765</v>
+        <v>10.0028</v>
       </c>
     </row>
     <row r="3">
@@ -4893,13 +4893,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.800470000000001</v>
+        <v>9.01891</v>
       </c>
       <c r="C3" t="n">
-        <v>13.3723</v>
+        <v>13.3898</v>
       </c>
       <c r="D3" t="n">
-        <v>18.8475</v>
+        <v>18.8852</v>
       </c>
     </row>
     <row r="4">
@@ -4907,13 +4907,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>14.1974</v>
+        <v>13.081</v>
       </c>
       <c r="C4" t="n">
-        <v>18.774</v>
+        <v>18.4854</v>
       </c>
       <c r="D4" t="n">
-        <v>26.4839</v>
+        <v>26.4803</v>
       </c>
     </row>
     <row r="5">
@@ -4921,13 +4921,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>16.7915</v>
+        <v>14.9539</v>
       </c>
       <c r="C5" t="n">
-        <v>18.6281</v>
+        <v>18.7133</v>
       </c>
       <c r="D5" t="n">
-        <v>26.8142</v>
+        <v>27.0763</v>
       </c>
     </row>
     <row r="6">
@@ -4935,13 +4935,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>20.3625</v>
+        <v>17.9114</v>
       </c>
       <c r="C6" t="n">
-        <v>21.6369</v>
+        <v>21.6287</v>
       </c>
       <c r="D6" t="n">
-        <v>30.8328</v>
+        <v>31.2809</v>
       </c>
     </row>
     <row r="7">
@@ -4949,13 +4949,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>23.551</v>
+        <v>21.149</v>
       </c>
       <c r="C7" t="n">
-        <v>25.3552</v>
+        <v>25.437</v>
       </c>
       <c r="D7" t="n">
-        <v>35.4084</v>
+        <v>35.6626</v>
       </c>
     </row>
     <row r="8">
@@ -4963,13 +4963,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>21.0371</v>
+        <v>19.0033</v>
       </c>
       <c r="C8" t="n">
-        <v>24.5501</v>
+        <v>24.2291</v>
       </c>
       <c r="D8" t="n">
-        <v>33.777</v>
+        <v>33.2664</v>
       </c>
     </row>
     <row r="9">
@@ -4977,13 +4977,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>21.7191</v>
+        <v>19.284</v>
       </c>
       <c r="C9" t="n">
-        <v>24.1553</v>
+        <v>24.2536</v>
       </c>
       <c r="D9" t="n">
-        <v>33.3711</v>
+        <v>33.5308</v>
       </c>
     </row>
     <row r="10">
@@ -4991,13 +4991,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>22.6662</v>
+        <v>19.7168</v>
       </c>
       <c r="C10" t="n">
-        <v>24.4919</v>
+        <v>24.6078</v>
       </c>
       <c r="D10" t="n">
-        <v>33.546</v>
+        <v>32.7115</v>
       </c>
     </row>
     <row r="11">
@@ -5005,13 +5005,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>22.6036</v>
+        <v>20.0154</v>
       </c>
       <c r="C11" t="n">
-        <v>24.4777</v>
+        <v>24.6826</v>
       </c>
       <c r="D11" t="n">
-        <v>33.599</v>
+        <v>33.6415</v>
       </c>
     </row>
     <row r="12">
@@ -5019,13 +5019,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>23.1286</v>
+        <v>19.9759</v>
       </c>
       <c r="C12" t="n">
-        <v>24.4614</v>
+        <v>24.8181</v>
       </c>
       <c r="D12" t="n">
-        <v>33.39</v>
+        <v>32.9709</v>
       </c>
     </row>
     <row r="13">
@@ -5033,13 +5033,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>22.6885</v>
+        <v>20.2766</v>
       </c>
       <c r="C13" t="n">
-        <v>24.8686</v>
+        <v>24.9904</v>
       </c>
       <c r="D13" t="n">
-        <v>33.2739</v>
+        <v>33.2568</v>
       </c>
     </row>
     <row r="14">
@@ -5047,13 +5047,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>22.9765</v>
+        <v>20.157</v>
       </c>
       <c r="C14" t="n">
-        <v>24.8065</v>
+        <v>24.7505</v>
       </c>
       <c r="D14" t="n">
-        <v>33.0116</v>
+        <v>33.6548</v>
       </c>
     </row>
     <row r="15">
@@ -5061,13 +5061,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>22.9732</v>
+        <v>20.2575</v>
       </c>
       <c r="C15" t="n">
-        <v>24.795</v>
+        <v>24.7513</v>
       </c>
       <c r="D15" t="n">
-        <v>32.9296</v>
+        <v>33.1593</v>
       </c>
     </row>
     <row r="16">
@@ -5075,13 +5075,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>22.8307</v>
+        <v>20.2794</v>
       </c>
       <c r="C16" t="n">
-        <v>24.7651</v>
+        <v>24.7838</v>
       </c>
       <c r="D16" t="n">
-        <v>33.3754</v>
+        <v>33.5997</v>
       </c>
     </row>
     <row r="17">
@@ -5089,13 +5089,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>23.0161</v>
+        <v>20.2905</v>
       </c>
       <c r="C17" t="n">
-        <v>24.7738</v>
+        <v>25.0513</v>
       </c>
       <c r="D17" t="n">
-        <v>33.4477</v>
+        <v>33.611</v>
       </c>
     </row>
   </sheetData>
@@ -5143,13 +5143,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>5.01103</v>
+        <v>4.68424</v>
       </c>
       <c r="C2" t="n">
-        <v>7.65655</v>
+        <v>7.68327</v>
       </c>
       <c r="D2" t="n">
-        <v>9.9328</v>
+        <v>9.98709</v>
       </c>
     </row>
     <row r="3">
@@ -5157,13 +5157,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.81456</v>
+        <v>9.22246</v>
       </c>
       <c r="C3" t="n">
-        <v>13.4432</v>
+        <v>13.3451</v>
       </c>
       <c r="D3" t="n">
-        <v>18.8312</v>
+        <v>18.8843</v>
       </c>
     </row>
     <row r="4">
@@ -5171,13 +5171,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>14.2156</v>
+        <v>13.4076</v>
       </c>
       <c r="C4" t="n">
-        <v>18.7762</v>
+        <v>18.8991</v>
       </c>
       <c r="D4" t="n">
-        <v>26.4416</v>
+        <v>26.7489</v>
       </c>
     </row>
     <row r="5">
@@ -5185,13 +5185,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>16.9827</v>
+        <v>15.0267</v>
       </c>
       <c r="C5" t="n">
-        <v>18.5984</v>
+        <v>18.7105</v>
       </c>
       <c r="D5" t="n">
-        <v>26.7897</v>
+        <v>27.2056</v>
       </c>
     </row>
     <row r="6">
@@ -5199,13 +5199,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>20.6893</v>
+        <v>18.2677</v>
       </c>
       <c r="C6" t="n">
-        <v>21.5347</v>
+        <v>21.5782</v>
       </c>
       <c r="D6" t="n">
-        <v>31.5306</v>
+        <v>31.5072</v>
       </c>
     </row>
     <row r="7">
@@ -5213,13 +5213,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>24.0445</v>
+        <v>21.7136</v>
       </c>
       <c r="C7" t="n">
-        <v>25.3751</v>
+        <v>25.436</v>
       </c>
       <c r="D7" t="n">
-        <v>35.7045</v>
+        <v>36.0152</v>
       </c>
     </row>
     <row r="8">
@@ -5227,13 +5227,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>21.4463</v>
+        <v>19.4364</v>
       </c>
       <c r="C8" t="n">
-        <v>24.5281</v>
+        <v>24.3093</v>
       </c>
       <c r="D8" t="n">
-        <v>33.4963</v>
+        <v>33.3192</v>
       </c>
     </row>
     <row r="9">
@@ -5241,13 +5241,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>21.9991</v>
+        <v>20.5941</v>
       </c>
       <c r="C9" t="n">
-        <v>24.4003</v>
+        <v>24.6112</v>
       </c>
       <c r="D9" t="n">
-        <v>33.6924</v>
+        <v>32.703</v>
       </c>
     </row>
     <row r="10">
@@ -5255,13 +5255,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>22.8998</v>
+        <v>20.451</v>
       </c>
       <c r="C10" t="n">
-        <v>24.4671</v>
+        <v>24.301</v>
       </c>
       <c r="D10" t="n">
-        <v>33.7417</v>
+        <v>33.8378</v>
       </c>
     </row>
     <row r="11">
@@ -5269,13 +5269,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>23.0681</v>
+        <v>20.4519</v>
       </c>
       <c r="C11" t="n">
-        <v>24.4971</v>
+        <v>24.6947</v>
       </c>
       <c r="D11" t="n">
-        <v>33.3047</v>
+        <v>33.1086</v>
       </c>
     </row>
     <row r="12">
@@ -5283,13 +5283,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>23.4146</v>
+        <v>20.5978</v>
       </c>
       <c r="C12" t="n">
-        <v>24.6681</v>
+        <v>24.5903</v>
       </c>
       <c r="D12" t="n">
-        <v>33.9921</v>
+        <v>33.3946</v>
       </c>
     </row>
     <row r="13">
@@ -5297,13 +5297,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>23.4922</v>
+        <v>20.4184</v>
       </c>
       <c r="C13" t="n">
-        <v>24.857</v>
+        <v>25.058</v>
       </c>
       <c r="D13" t="n">
-        <v>33.8008</v>
+        <v>33.9418</v>
       </c>
     </row>
     <row r="14">
@@ -5311,13 +5311,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>23.1458</v>
+        <v>20.4773</v>
       </c>
       <c r="C14" t="n">
-        <v>24.5786</v>
+        <v>24.8206</v>
       </c>
       <c r="D14" t="n">
-        <v>33.477</v>
+        <v>33.6213</v>
       </c>
     </row>
     <row r="15">
@@ -5325,13 +5325,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>23.4467</v>
+        <v>20.4172</v>
       </c>
       <c r="C15" t="n">
-        <v>24.7163</v>
+        <v>24.8251</v>
       </c>
       <c r="D15" t="n">
-        <v>33.4105</v>
+        <v>33.7484</v>
       </c>
     </row>
     <row r="16">
@@ -5339,13 +5339,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>23.1219</v>
+        <v>20.5973</v>
       </c>
       <c r="C16" t="n">
-        <v>24.7863</v>
+        <v>24.6949</v>
       </c>
       <c r="D16" t="n">
-        <v>33.584</v>
+        <v>33.8875</v>
       </c>
     </row>
     <row r="17">
@@ -5353,13 +5353,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>23.2793</v>
+        <v>20.6062</v>
       </c>
       <c r="C17" t="n">
-        <v>24.762</v>
+        <v>24.8707</v>
       </c>
       <c r="D17" t="n">
-        <v>34.1377</v>
+        <v>33.8927</v>
       </c>
     </row>
   </sheetData>
@@ -5407,13 +5407,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>7.21723</v>
+        <v>7.68228</v>
       </c>
       <c r="C2" t="n">
-        <v>8.888249999999999</v>
+        <v>8.910030000000001</v>
       </c>
       <c r="D2" t="n">
-        <v>11.5714</v>
+        <v>11.6283</v>
       </c>
     </row>
     <row r="3">
@@ -5421,13 +5421,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>13.8299</v>
+        <v>14.7071</v>
       </c>
       <c r="C3" t="n">
-        <v>15.1286</v>
+        <v>15.1003</v>
       </c>
       <c r="D3" t="n">
-        <v>21.8131</v>
+        <v>21.8882</v>
       </c>
     </row>
     <row r="4">
@@ -5435,13 +5435,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>20.1489</v>
+        <v>21.0178</v>
       </c>
       <c r="C4" t="n">
-        <v>20.5753</v>
+        <v>20.9603</v>
       </c>
       <c r="D4" t="n">
-        <v>30.934</v>
+        <v>31.2157</v>
       </c>
     </row>
     <row r="5">
@@ -5449,13 +5449,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>21.7486</v>
+        <v>20.8272</v>
       </c>
       <c r="C5" t="n">
-        <v>20.1822</v>
+        <v>20.0691</v>
       </c>
       <c r="D5" t="n">
-        <v>31.7148</v>
+        <v>32.1405</v>
       </c>
     </row>
     <row r="6">
@@ -5463,13 +5463,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>25.9582</v>
+        <v>24.2754</v>
       </c>
       <c r="C6" t="n">
-        <v>22.7865</v>
+        <v>22.9757</v>
       </c>
       <c r="D6" t="n">
-        <v>36.9444</v>
+        <v>37.0391</v>
       </c>
     </row>
     <row r="7">
@@ -5477,13 +5477,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>31.169</v>
+        <v>29.5235</v>
       </c>
       <c r="C7" t="n">
-        <v>26.5856</v>
+        <v>26.6461</v>
       </c>
       <c r="D7" t="n">
-        <v>42.9003</v>
+        <v>43.4384</v>
       </c>
     </row>
     <row r="8">
@@ -5491,13 +5491,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>28.3439</v>
+        <v>27.1823</v>
       </c>
       <c r="C8" t="n">
-        <v>25.856</v>
+        <v>25.9055</v>
       </c>
       <c r="D8" t="n">
-        <v>40.7897</v>
+        <v>40.6462</v>
       </c>
     </row>
     <row r="9">
@@ -5505,13 +5505,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>29.008</v>
+        <v>27.0255</v>
       </c>
       <c r="C9" t="n">
-        <v>25.7429</v>
+        <v>25.9965</v>
       </c>
       <c r="D9" t="n">
-        <v>40.919</v>
+        <v>41.4268</v>
       </c>
     </row>
     <row r="10">
@@ -5519,13 +5519,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>29.1685</v>
+        <v>27.9782</v>
       </c>
       <c r="C10" t="n">
-        <v>25.8269</v>
+        <v>25.6487</v>
       </c>
       <c r="D10" t="n">
-        <v>40.5438</v>
+        <v>41.1143</v>
       </c>
     </row>
     <row r="11">
@@ -5533,13 +5533,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>29.5154</v>
+        <v>28.0326</v>
       </c>
       <c r="C11" t="n">
-        <v>25.7642</v>
+        <v>25.7749</v>
       </c>
       <c r="D11" t="n">
-        <v>40.9482</v>
+        <v>40.7631</v>
       </c>
     </row>
     <row r="12">
@@ -5547,13 +5547,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>29.3536</v>
+        <v>27.999</v>
       </c>
       <c r="C12" t="n">
-        <v>25.8246</v>
+        <v>26.0769</v>
       </c>
       <c r="D12" t="n">
-        <v>40.6319</v>
+        <v>40.4819</v>
       </c>
     </row>
     <row r="13">
@@ -5561,13 +5561,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>29.2151</v>
+        <v>28.1393</v>
       </c>
       <c r="C13" t="n">
-        <v>26.111</v>
+        <v>26.228</v>
       </c>
       <c r="D13" t="n">
-        <v>40.3397</v>
+        <v>41.6123</v>
       </c>
     </row>
     <row r="14">
@@ -5575,13 +5575,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>29.7665</v>
+        <v>27.9841</v>
       </c>
       <c r="C14" t="n">
-        <v>25.9712</v>
+        <v>25.9195</v>
       </c>
       <c r="D14" t="n">
-        <v>40.8984</v>
+        <v>40.9885</v>
       </c>
     </row>
     <row r="15">
@@ -5589,13 +5589,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>29.7452</v>
+        <v>28.1913</v>
       </c>
       <c r="C15" t="n">
-        <v>25.9575</v>
+        <v>26.1712</v>
       </c>
       <c r="D15" t="n">
-        <v>40.9177</v>
+        <v>41.3156</v>
       </c>
     </row>
     <row r="16">
@@ -5603,13 +5603,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>30.0714</v>
+        <v>28.41</v>
       </c>
       <c r="C16" t="n">
-        <v>26.1685</v>
+        <v>26.1654</v>
       </c>
       <c r="D16" t="n">
-        <v>40.7928</v>
+        <v>42.0976</v>
       </c>
     </row>
     <row r="17">
@@ -5617,13 +5617,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>30.1623</v>
+        <v>28.5072</v>
       </c>
       <c r="C17" t="n">
-        <v>26.167</v>
+        <v>26.2092</v>
       </c>
       <c r="D17" t="n">
-        <v>40.9597</v>
+        <v>40.9952</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Parallel workload.xlsx
+++ b/vs-x86/Parallel workload.xlsx
@@ -4087,13 +4087,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.058</v>
+        <v>8.028740000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>8.72819</v>
+        <v>8.64969</v>
       </c>
       <c r="D2" t="n">
-        <v>11.559</v>
+        <v>11.2993</v>
       </c>
     </row>
     <row r="3">
@@ -4101,13 +4101,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>15.1589</v>
+        <v>15.0452</v>
       </c>
       <c r="C3" t="n">
-        <v>13.9212</v>
+        <v>13.8503</v>
       </c>
       <c r="D3" t="n">
-        <v>20.0492</v>
+        <v>19.4069</v>
       </c>
     </row>
     <row r="4">
@@ -4115,13 +4115,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>21.0674</v>
+        <v>20.5895</v>
       </c>
       <c r="C4" t="n">
-        <v>17.9926</v>
+        <v>17.7382</v>
       </c>
       <c r="D4" t="n">
-        <v>24.6389</v>
+        <v>24.5336</v>
       </c>
     </row>
     <row r="5">
@@ -4129,13 +4129,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>17.741</v>
+        <v>17.8121</v>
       </c>
       <c r="C5" t="n">
-        <v>19.2935</v>
+        <v>18.9824</v>
       </c>
       <c r="D5" t="n">
-        <v>24.7007</v>
+        <v>24.818</v>
       </c>
     </row>
     <row r="6">
@@ -4143,13 +4143,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>21.0618</v>
+        <v>21.1025</v>
       </c>
       <c r="C6" t="n">
-        <v>22.4801</v>
+        <v>22.4258</v>
       </c>
       <c r="D6" t="n">
-        <v>28.7096</v>
+        <v>28.5967</v>
       </c>
     </row>
     <row r="7">
@@ -4157,13 +4157,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>25.064</v>
+        <v>24.9696</v>
       </c>
       <c r="C7" t="n">
-        <v>26.4694</v>
+        <v>26.3994</v>
       </c>
       <c r="D7" t="n">
-        <v>31.7233</v>
+        <v>31.6513</v>
       </c>
     </row>
     <row r="8">
@@ -4171,13 +4171,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>18.3689</v>
+        <v>18.4083</v>
       </c>
       <c r="C8" t="n">
-        <v>24.2169</v>
+        <v>24.2063</v>
       </c>
       <c r="D8" t="n">
-        <v>31.2997</v>
+        <v>30.5877</v>
       </c>
     </row>
     <row r="9">
@@ -4185,13 +4185,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>20.7572</v>
+        <v>20.7237</v>
       </c>
       <c r="C9" t="n">
-        <v>24.5429</v>
+        <v>25.0704</v>
       </c>
       <c r="D9" t="n">
-        <v>30.993</v>
+        <v>31.1573</v>
       </c>
     </row>
     <row r="10">
@@ -4199,13 +4199,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>22.9505</v>
+        <v>22.4845</v>
       </c>
       <c r="C10" t="n">
-        <v>24.4464</v>
+        <v>24.7965</v>
       </c>
       <c r="D10" t="n">
-        <v>31.075</v>
+        <v>30.7552</v>
       </c>
     </row>
     <row r="11">
@@ -4213,13 +4213,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>21.1595</v>
+        <v>20.9501</v>
       </c>
       <c r="C11" t="n">
-        <v>24.7131</v>
+        <v>24.5476</v>
       </c>
       <c r="D11" t="n">
-        <v>31.8233</v>
+        <v>31.9895</v>
       </c>
     </row>
     <row r="12">
@@ -4227,13 +4227,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>22.9853</v>
+        <v>22.8839</v>
       </c>
       <c r="C12" t="n">
-        <v>25.0054</v>
+        <v>24.9537</v>
       </c>
       <c r="D12" t="n">
-        <v>32.1512</v>
+        <v>32.1727</v>
       </c>
     </row>
     <row r="13">
@@ -4241,13 +4241,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>24.9044</v>
+        <v>25.0053</v>
       </c>
       <c r="C13" t="n">
-        <v>25.1433</v>
+        <v>25.1208</v>
       </c>
       <c r="D13" t="n">
-        <v>31.8211</v>
+        <v>31.9971</v>
       </c>
     </row>
     <row r="14">
@@ -4255,13 +4255,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>20.6126</v>
+        <v>20.7952</v>
       </c>
       <c r="C14" t="n">
-        <v>24.782</v>
+        <v>25.1957</v>
       </c>
       <c r="D14" t="n">
-        <v>31.5064</v>
+        <v>31.4291</v>
       </c>
     </row>
     <row r="15">
@@ -4269,13 +4269,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>22.2039</v>
+        <v>22.0623</v>
       </c>
       <c r="C15" t="n">
-        <v>25.2119</v>
+        <v>25.2573</v>
       </c>
       <c r="D15" t="n">
-        <v>31.7588</v>
+        <v>31.9233</v>
       </c>
     </row>
     <row r="16">
@@ -4283,13 +4283,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>23.189</v>
+        <v>23.0305</v>
       </c>
       <c r="C16" t="n">
-        <v>24.9521</v>
+        <v>25.1484</v>
       </c>
       <c r="D16" t="n">
-        <v>31.9911</v>
+        <v>32.5316</v>
       </c>
     </row>
     <row r="17">
@@ -4297,13 +4297,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>22.3631</v>
+        <v>22.4653</v>
       </c>
       <c r="C17" t="n">
-        <v>25.1623</v>
+        <v>25.1672</v>
       </c>
       <c r="D17" t="n">
-        <v>32.0397</v>
+        <v>32.2606</v>
       </c>
     </row>
   </sheetData>
@@ -4351,13 +4351,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.046620000000001</v>
+        <v>8.028460000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>8.70946</v>
+        <v>8.660119999999999</v>
       </c>
       <c r="D2" t="n">
-        <v>11.45</v>
+        <v>11.2486</v>
       </c>
     </row>
     <row r="3">
@@ -4365,13 +4365,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>15.1608</v>
+        <v>15.0499</v>
       </c>
       <c r="C3" t="n">
-        <v>14.179</v>
+        <v>13.9641</v>
       </c>
       <c r="D3" t="n">
-        <v>19.8815</v>
+        <v>19.4905</v>
       </c>
     </row>
     <row r="4">
@@ -4379,13 +4379,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>21.4078</v>
+        <v>21.0689</v>
       </c>
       <c r="C4" t="n">
-        <v>18.0698</v>
+        <v>17.7855</v>
       </c>
       <c r="D4" t="n">
-        <v>25.7704</v>
+        <v>24.8918</v>
       </c>
     </row>
     <row r="5">
@@ -4393,13 +4393,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>17.508</v>
+        <v>17.7539</v>
       </c>
       <c r="C5" t="n">
-        <v>19.2342</v>
+        <v>18.8677</v>
       </c>
       <c r="D5" t="n">
-        <v>24.7111</v>
+        <v>24.7731</v>
       </c>
     </row>
     <row r="6">
@@ -4407,13 +4407,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>21.3296</v>
+        <v>21.4182</v>
       </c>
       <c r="C6" t="n">
-        <v>22.4503</v>
+        <v>22.4144</v>
       </c>
       <c r="D6" t="n">
-        <v>28.7476</v>
+        <v>28.7931</v>
       </c>
     </row>
     <row r="7">
@@ -4421,13 +4421,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>25.4838</v>
+        <v>25.4702</v>
       </c>
       <c r="C7" t="n">
-        <v>26.3715</v>
+        <v>26.2414</v>
       </c>
       <c r="D7" t="n">
-        <v>31.5254</v>
+        <v>31.7108</v>
       </c>
     </row>
     <row r="8">
@@ -4435,13 +4435,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>18.439</v>
+        <v>18.5336</v>
       </c>
       <c r="C8" t="n">
-        <v>24.1456</v>
+        <v>24.0463</v>
       </c>
       <c r="D8" t="n">
-        <v>28.6898</v>
+        <v>28.4683</v>
       </c>
     </row>
     <row r="9">
@@ -4449,13 +4449,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>20.9945</v>
+        <v>20.8047</v>
       </c>
       <c r="C9" t="n">
-        <v>24.3001</v>
+        <v>24.2793</v>
       </c>
       <c r="D9" t="n">
-        <v>29.893</v>
+        <v>29.1109</v>
       </c>
     </row>
     <row r="10">
@@ -4463,13 +4463,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>22.8803</v>
+        <v>23.0493</v>
       </c>
       <c r="C10" t="n">
-        <v>24.3498</v>
+        <v>24.5392</v>
       </c>
       <c r="D10" t="n">
-        <v>31.4144</v>
+        <v>31.3644</v>
       </c>
     </row>
     <row r="11">
@@ -4477,13 +4477,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>21.2386</v>
+        <v>21.3728</v>
       </c>
       <c r="C11" t="n">
-        <v>24.359</v>
+        <v>24.0254</v>
       </c>
       <c r="D11" t="n">
-        <v>31.2244</v>
+        <v>31.536</v>
       </c>
     </row>
     <row r="12">
@@ -4491,13 +4491,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>23.3214</v>
+        <v>23.2653</v>
       </c>
       <c r="C12" t="n">
-        <v>24.58</v>
+        <v>24.7168</v>
       </c>
       <c r="D12" t="n">
-        <v>31.6443</v>
+        <v>31.6884</v>
       </c>
     </row>
     <row r="13">
@@ -4505,13 +4505,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>25.4421</v>
+        <v>25.455</v>
       </c>
       <c r="C13" t="n">
-        <v>25.2041</v>
+        <v>25.1873</v>
       </c>
       <c r="D13" t="n">
-        <v>31.504</v>
+        <v>31.5979</v>
       </c>
     </row>
     <row r="14">
@@ -4519,13 +4519,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>20.7375</v>
+        <v>20.681</v>
       </c>
       <c r="C14" t="n">
-        <v>25.1488</v>
+        <v>25.0836</v>
       </c>
       <c r="D14" t="n">
-        <v>32.6654</v>
+        <v>32.2934</v>
       </c>
     </row>
     <row r="15">
@@ -4533,13 +4533,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>22.4136</v>
+        <v>22.2612</v>
       </c>
       <c r="C15" t="n">
-        <v>25.3147</v>
+        <v>25.2881</v>
       </c>
       <c r="D15" t="n">
-        <v>31.8869</v>
+        <v>32.0748</v>
       </c>
     </row>
     <row r="16">
@@ -4547,13 +4547,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>23.5418</v>
+        <v>23.5976</v>
       </c>
       <c r="C16" t="n">
-        <v>25.093</v>
+        <v>25.233</v>
       </c>
       <c r="D16" t="n">
-        <v>32.601</v>
+        <v>33.0688</v>
       </c>
     </row>
     <row r="17">
@@ -4561,13 +4561,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>22.684</v>
+        <v>22.4485</v>
       </c>
       <c r="C17" t="n">
-        <v>25.3758</v>
+        <v>25.5325</v>
       </c>
       <c r="D17" t="n">
-        <v>33.3419</v>
+        <v>32.7284</v>
       </c>
     </row>
   </sheetData>
@@ -4615,13 +4615,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>9.165979999999999</v>
+        <v>9.164249999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>9.14292</v>
+        <v>9.14537</v>
       </c>
       <c r="D2" t="n">
-        <v>11.9188</v>
+        <v>11.678</v>
       </c>
     </row>
     <row r="3">
@@ -4629,13 +4629,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>16.6611</v>
+        <v>16.6837</v>
       </c>
       <c r="C3" t="n">
-        <v>15.8496</v>
+        <v>15.8124</v>
       </c>
       <c r="D3" t="n">
-        <v>21.0058</v>
+        <v>20.8706</v>
       </c>
     </row>
     <row r="4">
@@ -4643,13 +4643,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>23.7114</v>
+        <v>23.5157</v>
       </c>
       <c r="C4" t="n">
-        <v>20.8725</v>
+        <v>20.8445</v>
       </c>
       <c r="D4" t="n">
-        <v>28.5107</v>
+        <v>28.284</v>
       </c>
     </row>
     <row r="5">
@@ -4657,13 +4657,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>21.0003</v>
+        <v>21.1067</v>
       </c>
       <c r="C5" t="n">
-        <v>19.8503</v>
+        <v>20.0032</v>
       </c>
       <c r="D5" t="n">
-        <v>28.6936</v>
+        <v>28.2719</v>
       </c>
     </row>
     <row r="6">
@@ -4671,13 +4671,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>25.7231</v>
+        <v>25.6131</v>
       </c>
       <c r="C6" t="n">
-        <v>23.074</v>
+        <v>23.0827</v>
       </c>
       <c r="D6" t="n">
-        <v>35.055</v>
+        <v>33.4119</v>
       </c>
     </row>
     <row r="7">
@@ -4685,13 +4685,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>30.5307</v>
+        <v>30.5105</v>
       </c>
       <c r="C7" t="n">
-        <v>26.9059</v>
+        <v>26.9097</v>
       </c>
       <c r="D7" t="n">
-        <v>39.4254</v>
+        <v>39.4291</v>
       </c>
     </row>
     <row r="8">
@@ -4699,13 +4699,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>27.8764</v>
+        <v>27.4407</v>
       </c>
       <c r="C8" t="n">
-        <v>23.6816</v>
+        <v>23.9165</v>
       </c>
       <c r="D8" t="n">
-        <v>35.6529</v>
+        <v>35.3368</v>
       </c>
     </row>
     <row r="9">
@@ -4713,13 +4713,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>27.0606</v>
+        <v>27.467</v>
       </c>
       <c r="C9" t="n">
-        <v>24.3798</v>
+        <v>24.1563</v>
       </c>
       <c r="D9" t="n">
-        <v>36.6994</v>
+        <v>35.3645</v>
       </c>
     </row>
     <row r="10">
@@ -4727,13 +4727,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>28.2706</v>
+        <v>27.3176</v>
       </c>
       <c r="C10" t="n">
-        <v>24.3094</v>
+        <v>24.4484</v>
       </c>
       <c r="D10" t="n">
-        <v>39.3501</v>
+        <v>39.4214</v>
       </c>
     </row>
     <row r="11">
@@ -4741,13 +4741,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>28.024</v>
+        <v>28.1293</v>
       </c>
       <c r="C11" t="n">
-        <v>24.8174</v>
+        <v>24.6256</v>
       </c>
       <c r="D11" t="n">
-        <v>39.048</v>
+        <v>39.3314</v>
       </c>
     </row>
     <row r="12">
@@ -4755,13 +4755,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>27.9554</v>
+        <v>27.9408</v>
       </c>
       <c r="C12" t="n">
-        <v>24.8192</v>
+        <v>25.0284</v>
       </c>
       <c r="D12" t="n">
-        <v>39.4929</v>
+        <v>39.4604</v>
       </c>
     </row>
     <row r="13">
@@ -4769,13 +4769,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>28.1383</v>
+        <v>28.1942</v>
       </c>
       <c r="C13" t="n">
-        <v>24.7167</v>
+        <v>24.791</v>
       </c>
       <c r="D13" t="n">
-        <v>38.7094</v>
+        <v>39.3975</v>
       </c>
     </row>
     <row r="14">
@@ -4783,13 +4783,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>28.2037</v>
+        <v>28.6777</v>
       </c>
       <c r="C14" t="n">
-        <v>25.0887</v>
+        <v>24.8278</v>
       </c>
       <c r="D14" t="n">
-        <v>36.1028</v>
+        <v>35.7798</v>
       </c>
     </row>
     <row r="15">
@@ -4797,13 +4797,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>28.496</v>
+        <v>28.727</v>
       </c>
       <c r="C15" t="n">
-        <v>24.9764</v>
+        <v>24.9388</v>
       </c>
       <c r="D15" t="n">
-        <v>35.2895</v>
+        <v>35.2762</v>
       </c>
     </row>
     <row r="16">
@@ -4811,13 +4811,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>28.6245</v>
+        <v>28.0179</v>
       </c>
       <c r="C16" t="n">
-        <v>25.1189</v>
+        <v>25.1409</v>
       </c>
       <c r="D16" t="n">
-        <v>39.5571</v>
+        <v>38.9961</v>
       </c>
     </row>
     <row r="17">
@@ -4825,13 +4825,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>28.8932</v>
+        <v>29.2944</v>
       </c>
       <c r="C17" t="n">
-        <v>25.3263</v>
+        <v>25.1939</v>
       </c>
       <c r="D17" t="n">
-        <v>39.4357</v>
+        <v>38.5549</v>
       </c>
     </row>
   </sheetData>
@@ -4879,13 +4879,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4.59793</v>
+        <v>4.58194</v>
       </c>
       <c r="C2" t="n">
-        <v>7.63239</v>
+        <v>7.60007</v>
       </c>
       <c r="D2" t="n">
-        <v>10.0028</v>
+        <v>9.90879</v>
       </c>
     </row>
     <row r="3">
@@ -4893,13 +4893,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.01891</v>
+        <v>9.02955</v>
       </c>
       <c r="C3" t="n">
-        <v>13.3898</v>
+        <v>13.3317</v>
       </c>
       <c r="D3" t="n">
-        <v>18.8852</v>
+        <v>18.8282</v>
       </c>
     </row>
     <row r="4">
@@ -4907,13 +4907,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>13.081</v>
+        <v>13.0665</v>
       </c>
       <c r="C4" t="n">
-        <v>18.4854</v>
+        <v>18.5769</v>
       </c>
       <c r="D4" t="n">
-        <v>26.4803</v>
+        <v>26.5679</v>
       </c>
     </row>
     <row r="5">
@@ -4921,13 +4921,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>14.9539</v>
+        <v>14.8119</v>
       </c>
       <c r="C5" t="n">
-        <v>18.7133</v>
+        <v>18.6756</v>
       </c>
       <c r="D5" t="n">
-        <v>27.0763</v>
+        <v>26.9311</v>
       </c>
     </row>
     <row r="6">
@@ -4935,13 +4935,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>17.9114</v>
+        <v>17.9504</v>
       </c>
       <c r="C6" t="n">
-        <v>21.6287</v>
+        <v>21.6466</v>
       </c>
       <c r="D6" t="n">
-        <v>31.2809</v>
+        <v>30.9055</v>
       </c>
     </row>
     <row r="7">
@@ -4949,13 +4949,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>21.149</v>
+        <v>21.0802</v>
       </c>
       <c r="C7" t="n">
-        <v>25.437</v>
+        <v>25.3325</v>
       </c>
       <c r="D7" t="n">
-        <v>35.6626</v>
+        <v>35.5361</v>
       </c>
     </row>
     <row r="8">
@@ -4963,13 +4963,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>19.0033</v>
+        <v>19.103</v>
       </c>
       <c r="C8" t="n">
-        <v>24.2291</v>
+        <v>24.5833</v>
       </c>
       <c r="D8" t="n">
-        <v>33.2664</v>
+        <v>32.5125</v>
       </c>
     </row>
     <row r="9">
@@ -4977,13 +4977,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>19.284</v>
+        <v>19.4883</v>
       </c>
       <c r="C9" t="n">
-        <v>24.2536</v>
+        <v>24.3845</v>
       </c>
       <c r="D9" t="n">
-        <v>33.5308</v>
+        <v>33.3027</v>
       </c>
     </row>
     <row r="10">
@@ -4991,13 +4991,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>19.7168</v>
+        <v>19.929</v>
       </c>
       <c r="C10" t="n">
-        <v>24.6078</v>
+        <v>24.3802</v>
       </c>
       <c r="D10" t="n">
-        <v>32.7115</v>
+        <v>33.7077</v>
       </c>
     </row>
     <row r="11">
@@ -5005,13 +5005,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>20.0154</v>
+        <v>20.0735</v>
       </c>
       <c r="C11" t="n">
-        <v>24.6826</v>
+        <v>24.6096</v>
       </c>
       <c r="D11" t="n">
-        <v>33.6415</v>
+        <v>32.5144</v>
       </c>
     </row>
     <row r="12">
@@ -5019,13 +5019,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>19.9759</v>
+        <v>20.2925</v>
       </c>
       <c r="C12" t="n">
-        <v>24.8181</v>
+        <v>24.8485</v>
       </c>
       <c r="D12" t="n">
-        <v>32.9709</v>
+        <v>32.4306</v>
       </c>
     </row>
     <row r="13">
@@ -5033,13 +5033,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>20.2766</v>
+        <v>20.2998</v>
       </c>
       <c r="C13" t="n">
-        <v>24.9904</v>
+        <v>24.8083</v>
       </c>
       <c r="D13" t="n">
-        <v>33.2568</v>
+        <v>33.5827</v>
       </c>
     </row>
     <row r="14">
@@ -5047,13 +5047,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>20.157</v>
+        <v>19.6572</v>
       </c>
       <c r="C14" t="n">
-        <v>24.7505</v>
+        <v>24.5488</v>
       </c>
       <c r="D14" t="n">
-        <v>33.6548</v>
+        <v>33.3031</v>
       </c>
     </row>
     <row r="15">
@@ -5061,13 +5061,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>20.2575</v>
+        <v>20.2087</v>
       </c>
       <c r="C15" t="n">
-        <v>24.7513</v>
+        <v>24.7473</v>
       </c>
       <c r="D15" t="n">
-        <v>33.1593</v>
+        <v>33.687</v>
       </c>
     </row>
     <row r="16">
@@ -5075,13 +5075,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>20.2794</v>
+        <v>20.3712</v>
       </c>
       <c r="C16" t="n">
-        <v>24.7838</v>
+        <v>24.8966</v>
       </c>
       <c r="D16" t="n">
-        <v>33.5997</v>
+        <v>33.1555</v>
       </c>
     </row>
     <row r="17">
@@ -5089,13 +5089,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>20.2905</v>
+        <v>19.9948</v>
       </c>
       <c r="C17" t="n">
-        <v>25.0513</v>
+        <v>24.9862</v>
       </c>
       <c r="D17" t="n">
-        <v>33.611</v>
+        <v>33.5223</v>
       </c>
     </row>
   </sheetData>
@@ -5143,13 +5143,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4.68424</v>
+        <v>4.67121</v>
       </c>
       <c r="C2" t="n">
-        <v>7.68327</v>
+        <v>7.62844</v>
       </c>
       <c r="D2" t="n">
-        <v>9.98709</v>
+        <v>9.870150000000001</v>
       </c>
     </row>
     <row r="3">
@@ -5157,13 +5157,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.22246</v>
+        <v>9.225899999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>13.3451</v>
+        <v>13.3787</v>
       </c>
       <c r="D3" t="n">
-        <v>18.8843</v>
+        <v>18.8239</v>
       </c>
     </row>
     <row r="4">
@@ -5171,13 +5171,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>13.4076</v>
+        <v>13.4001</v>
       </c>
       <c r="C4" t="n">
-        <v>18.8991</v>
+        <v>18.6257</v>
       </c>
       <c r="D4" t="n">
-        <v>26.7489</v>
+        <v>26.3411</v>
       </c>
     </row>
     <row r="5">
@@ -5185,13 +5185,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>15.0267</v>
+        <v>15.1241</v>
       </c>
       <c r="C5" t="n">
-        <v>18.7105</v>
+        <v>18.6979</v>
       </c>
       <c r="D5" t="n">
-        <v>27.2056</v>
+        <v>26.7524</v>
       </c>
     </row>
     <row r="6">
@@ -5199,13 +5199,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>18.2677</v>
+        <v>18.2566</v>
       </c>
       <c r="C6" t="n">
-        <v>21.5782</v>
+        <v>21.5652</v>
       </c>
       <c r="D6" t="n">
-        <v>31.5072</v>
+        <v>31.4265</v>
       </c>
     </row>
     <row r="7">
@@ -5213,13 +5213,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>21.7136</v>
+        <v>21.6837</v>
       </c>
       <c r="C7" t="n">
-        <v>25.436</v>
+        <v>25.3587</v>
       </c>
       <c r="D7" t="n">
-        <v>36.0152</v>
+        <v>35.7913</v>
       </c>
     </row>
     <row r="8">
@@ -5227,13 +5227,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>19.4364</v>
+        <v>19.7245</v>
       </c>
       <c r="C8" t="n">
-        <v>24.3093</v>
+        <v>24.3584</v>
       </c>
       <c r="D8" t="n">
-        <v>33.3192</v>
+        <v>34.0512</v>
       </c>
     </row>
     <row r="9">
@@ -5241,13 +5241,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>20.5941</v>
+        <v>19.8475</v>
       </c>
       <c r="C9" t="n">
-        <v>24.6112</v>
+        <v>24.2581</v>
       </c>
       <c r="D9" t="n">
-        <v>32.703</v>
+        <v>33.9583</v>
       </c>
     </row>
     <row r="10">
@@ -5255,13 +5255,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>20.451</v>
+        <v>20.3055</v>
       </c>
       <c r="C10" t="n">
-        <v>24.301</v>
+        <v>24.5564</v>
       </c>
       <c r="D10" t="n">
-        <v>33.8378</v>
+        <v>33.0873</v>
       </c>
     </row>
     <row r="11">
@@ -5269,13 +5269,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>20.4519</v>
+        <v>20.6625</v>
       </c>
       <c r="C11" t="n">
-        <v>24.6947</v>
+        <v>24.6035</v>
       </c>
       <c r="D11" t="n">
-        <v>33.1086</v>
+        <v>33.8383</v>
       </c>
     </row>
     <row r="12">
@@ -5283,13 +5283,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>20.5978</v>
+        <v>20.4845</v>
       </c>
       <c r="C12" t="n">
-        <v>24.5903</v>
+        <v>24.7071</v>
       </c>
       <c r="D12" t="n">
-        <v>33.3946</v>
+        <v>33.6114</v>
       </c>
     </row>
     <row r="13">
@@ -5297,13 +5297,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>20.4184</v>
+        <v>20.8079</v>
       </c>
       <c r="C13" t="n">
-        <v>25.058</v>
+        <v>24.8575</v>
       </c>
       <c r="D13" t="n">
-        <v>33.9418</v>
+        <v>33.7382</v>
       </c>
     </row>
     <row r="14">
@@ -5311,13 +5311,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>20.4773</v>
+        <v>20.6951</v>
       </c>
       <c r="C14" t="n">
-        <v>24.8206</v>
+        <v>24.5786</v>
       </c>
       <c r="D14" t="n">
-        <v>33.6213</v>
+        <v>33.8303</v>
       </c>
     </row>
     <row r="15">
@@ -5325,13 +5325,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>20.4172</v>
+        <v>20.609</v>
       </c>
       <c r="C15" t="n">
-        <v>24.8251</v>
+        <v>24.713</v>
       </c>
       <c r="D15" t="n">
-        <v>33.7484</v>
+        <v>33.4921</v>
       </c>
     </row>
     <row r="16">
@@ -5339,13 +5339,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>20.5973</v>
+        <v>20.5882</v>
       </c>
       <c r="C16" t="n">
-        <v>24.6949</v>
+        <v>24.8487</v>
       </c>
       <c r="D16" t="n">
-        <v>33.8875</v>
+        <v>34.0782</v>
       </c>
     </row>
     <row r="17">
@@ -5353,13 +5353,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>20.6062</v>
+        <v>20.789</v>
       </c>
       <c r="C17" t="n">
-        <v>24.8707</v>
+        <v>25.0161</v>
       </c>
       <c r="D17" t="n">
-        <v>33.8927</v>
+        <v>33.9482</v>
       </c>
     </row>
   </sheetData>
@@ -5407,13 +5407,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>7.68228</v>
+        <v>7.66805</v>
       </c>
       <c r="C2" t="n">
-        <v>8.910030000000001</v>
+        <v>8.87562</v>
       </c>
       <c r="D2" t="n">
-        <v>11.6283</v>
+        <v>11.417</v>
       </c>
     </row>
     <row r="3">
@@ -5421,13 +5421,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>14.7071</v>
+        <v>14.586</v>
       </c>
       <c r="C3" t="n">
-        <v>15.1003</v>
+        <v>14.9906</v>
       </c>
       <c r="D3" t="n">
-        <v>21.8882</v>
+        <v>21.4933</v>
       </c>
     </row>
     <row r="4">
@@ -5435,13 +5435,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>21.0178</v>
+        <v>21.2054</v>
       </c>
       <c r="C4" t="n">
-        <v>20.9603</v>
+        <v>20.8243</v>
       </c>
       <c r="D4" t="n">
-        <v>31.2157</v>
+        <v>30.8562</v>
       </c>
     </row>
     <row r="5">
@@ -5449,13 +5449,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>20.8272</v>
+        <v>20.9423</v>
       </c>
       <c r="C5" t="n">
-        <v>20.0691</v>
+        <v>20.1059</v>
       </c>
       <c r="D5" t="n">
-        <v>32.1405</v>
+        <v>31.7487</v>
       </c>
     </row>
     <row r="6">
@@ -5463,13 +5463,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>24.2754</v>
+        <v>24.2855</v>
       </c>
       <c r="C6" t="n">
-        <v>22.9757</v>
+        <v>22.9132</v>
       </c>
       <c r="D6" t="n">
-        <v>37.0391</v>
+        <v>37.1505</v>
       </c>
     </row>
     <row r="7">
@@ -5477,13 +5477,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>29.5235</v>
+        <v>29.4331</v>
       </c>
       <c r="C7" t="n">
-        <v>26.6461</v>
+        <v>26.5775</v>
       </c>
       <c r="D7" t="n">
-        <v>43.4384</v>
+        <v>42.8546</v>
       </c>
     </row>
     <row r="8">
@@ -5491,13 +5491,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>27.1823</v>
+        <v>26.9369</v>
       </c>
       <c r="C8" t="n">
-        <v>25.9055</v>
+        <v>25.8398</v>
       </c>
       <c r="D8" t="n">
-        <v>40.6462</v>
+        <v>41.0516</v>
       </c>
     </row>
     <row r="9">
@@ -5505,13 +5505,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>27.0255</v>
+        <v>27.3823</v>
       </c>
       <c r="C9" t="n">
-        <v>25.9965</v>
+        <v>25.8316</v>
       </c>
       <c r="D9" t="n">
-        <v>41.4268</v>
+        <v>40.4519</v>
       </c>
     </row>
     <row r="10">
@@ -5519,13 +5519,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>27.9782</v>
+        <v>28.1123</v>
       </c>
       <c r="C10" t="n">
-        <v>25.6487</v>
+        <v>25.7935</v>
       </c>
       <c r="D10" t="n">
-        <v>41.1143</v>
+        <v>40.5303</v>
       </c>
     </row>
     <row r="11">
@@ -5533,13 +5533,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>28.0326</v>
+        <v>27.7921</v>
       </c>
       <c r="C11" t="n">
-        <v>25.7749</v>
+        <v>25.7997</v>
       </c>
       <c r="D11" t="n">
-        <v>40.7631</v>
+        <v>40.5126</v>
       </c>
     </row>
     <row r="12">
@@ -5547,13 +5547,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>27.999</v>
+        <v>27.7179</v>
       </c>
       <c r="C12" t="n">
-        <v>26.0769</v>
+        <v>25.9354</v>
       </c>
       <c r="D12" t="n">
-        <v>40.4819</v>
+        <v>40.9546</v>
       </c>
     </row>
     <row r="13">
@@ -5561,13 +5561,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>28.1393</v>
+        <v>28.0969</v>
       </c>
       <c r="C13" t="n">
-        <v>26.228</v>
+        <v>26.1656</v>
       </c>
       <c r="D13" t="n">
-        <v>41.6123</v>
+        <v>41.4913</v>
       </c>
     </row>
     <row r="14">
@@ -5575,13 +5575,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>27.9841</v>
+        <v>27.8595</v>
       </c>
       <c r="C14" t="n">
-        <v>25.9195</v>
+        <v>26.2131</v>
       </c>
       <c r="D14" t="n">
-        <v>40.9885</v>
+        <v>41.6641</v>
       </c>
     </row>
     <row r="15">
@@ -5589,13 +5589,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>28.1913</v>
+        <v>28.3545</v>
       </c>
       <c r="C15" t="n">
-        <v>26.1712</v>
+        <v>26.0538</v>
       </c>
       <c r="D15" t="n">
-        <v>41.3156</v>
+        <v>40.4043</v>
       </c>
     </row>
     <row r="16">
@@ -5603,13 +5603,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>28.41</v>
+        <v>28.0934</v>
       </c>
       <c r="C16" t="n">
-        <v>26.1654</v>
+        <v>25.8663</v>
       </c>
       <c r="D16" t="n">
-        <v>42.0976</v>
+        <v>40.9485</v>
       </c>
     </row>
     <row r="17">
@@ -5617,13 +5617,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>28.5072</v>
+        <v>28.3638</v>
       </c>
       <c r="C17" t="n">
-        <v>26.2092</v>
+        <v>26.1366</v>
       </c>
       <c r="D17" t="n">
-        <v>40.9952</v>
+        <v>41.1773</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Parallel workload.xlsx
+++ b/vs-x86/Parallel workload.xlsx
@@ -4087,13 +4087,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.028740000000001</v>
+        <v>8.014749999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>8.64969</v>
+        <v>8.73678</v>
       </c>
       <c r="D2" t="n">
-        <v>11.2993</v>
+        <v>11.3484</v>
       </c>
     </row>
     <row r="3">
@@ -4101,13 +4101,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>15.0452</v>
+        <v>15.2567</v>
       </c>
       <c r="C3" t="n">
-        <v>13.8503</v>
+        <v>14.0117</v>
       </c>
       <c r="D3" t="n">
-        <v>19.4069</v>
+        <v>20.2762</v>
       </c>
     </row>
     <row r="4">
@@ -4115,13 +4115,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>20.5895</v>
+        <v>21.1507</v>
       </c>
       <c r="C4" t="n">
-        <v>17.7382</v>
+        <v>18.2613</v>
       </c>
       <c r="D4" t="n">
-        <v>24.5336</v>
+        <v>26.6519</v>
       </c>
     </row>
     <row r="5">
@@ -4129,13 +4129,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>17.8121</v>
+        <v>17.4616</v>
       </c>
       <c r="C5" t="n">
-        <v>18.9824</v>
+        <v>18.9352</v>
       </c>
       <c r="D5" t="n">
-        <v>24.818</v>
+        <v>30.3509</v>
       </c>
     </row>
     <row r="6">
@@ -4143,13 +4143,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>21.1025</v>
+        <v>21.0531</v>
       </c>
       <c r="C6" t="n">
-        <v>22.4258</v>
+        <v>22.5122</v>
       </c>
       <c r="D6" t="n">
-        <v>28.5967</v>
+        <v>35.3988</v>
       </c>
     </row>
     <row r="7">
@@ -4157,13 +4157,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>24.9696</v>
+        <v>24.9466</v>
       </c>
       <c r="C7" t="n">
-        <v>26.3994</v>
+        <v>26.4666</v>
       </c>
       <c r="D7" t="n">
-        <v>31.6513</v>
+        <v>39.4715</v>
       </c>
     </row>
     <row r="8">
@@ -4171,13 +4171,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>18.4083</v>
+        <v>18.6136</v>
       </c>
       <c r="C8" t="n">
-        <v>24.2063</v>
+        <v>24.736</v>
       </c>
       <c r="D8" t="n">
-        <v>30.5877</v>
+        <v>36.0673</v>
       </c>
     </row>
     <row r="9">
@@ -4185,13 +4185,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>20.7237</v>
+        <v>20.5454</v>
       </c>
       <c r="C9" t="n">
-        <v>25.0704</v>
+        <v>24.4642</v>
       </c>
       <c r="D9" t="n">
-        <v>31.1573</v>
+        <v>35.2278</v>
       </c>
     </row>
     <row r="10">
@@ -4199,13 +4199,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>22.4845</v>
+        <v>22.7622</v>
       </c>
       <c r="C10" t="n">
-        <v>24.7965</v>
+        <v>24.6466</v>
       </c>
       <c r="D10" t="n">
-        <v>30.7552</v>
+        <v>36.7094</v>
       </c>
     </row>
     <row r="11">
@@ -4213,13 +4213,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>20.9501</v>
+        <v>20.8993</v>
       </c>
       <c r="C11" t="n">
-        <v>24.5476</v>
+        <v>24.6464</v>
       </c>
       <c r="D11" t="n">
-        <v>31.9895</v>
+        <v>38.2873</v>
       </c>
     </row>
     <row r="12">
@@ -4227,13 +4227,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>22.8839</v>
+        <v>22.8307</v>
       </c>
       <c r="C12" t="n">
-        <v>24.9537</v>
+        <v>25.0445</v>
       </c>
       <c r="D12" t="n">
-        <v>32.1727</v>
+        <v>40.5789</v>
       </c>
     </row>
     <row r="13">
@@ -4241,13 +4241,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>25.0053</v>
+        <v>24.767</v>
       </c>
       <c r="C13" t="n">
-        <v>25.1208</v>
+        <v>25.2176</v>
       </c>
       <c r="D13" t="n">
-        <v>31.9971</v>
+        <v>39.3255</v>
       </c>
     </row>
     <row r="14">
@@ -4255,13 +4255,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>20.7952</v>
+        <v>20.7031</v>
       </c>
       <c r="C14" t="n">
-        <v>25.1957</v>
+        <v>25.0213</v>
       </c>
       <c r="D14" t="n">
-        <v>31.4291</v>
+        <v>39.7998</v>
       </c>
     </row>
     <row r="15">
@@ -4269,13 +4269,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>22.0623</v>
+        <v>22.1005</v>
       </c>
       <c r="C15" t="n">
-        <v>25.2573</v>
+        <v>25.0223</v>
       </c>
       <c r="D15" t="n">
-        <v>31.9233</v>
+        <v>39.3137</v>
       </c>
     </row>
     <row r="16">
@@ -4283,13 +4283,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>23.0305</v>
+        <v>23.1093</v>
       </c>
       <c r="C16" t="n">
-        <v>25.1484</v>
+        <v>25.0884</v>
       </c>
       <c r="D16" t="n">
-        <v>32.5316</v>
+        <v>40.3863</v>
       </c>
     </row>
     <row r="17">
@@ -4297,13 +4297,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>22.4653</v>
+        <v>22.1715</v>
       </c>
       <c r="C17" t="n">
-        <v>25.1672</v>
+        <v>24.8476</v>
       </c>
       <c r="D17" t="n">
-        <v>32.2606</v>
+        <v>40.9977</v>
       </c>
     </row>
   </sheetData>
@@ -4351,13 +4351,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.028460000000001</v>
+        <v>8.001950000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>8.660119999999999</v>
+        <v>8.688689999999999</v>
       </c>
       <c r="D2" t="n">
-        <v>11.2486</v>
+        <v>11.2475</v>
       </c>
     </row>
     <row r="3">
@@ -4365,13 +4365,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>15.0499</v>
+        <v>15.1024</v>
       </c>
       <c r="C3" t="n">
-        <v>13.9641</v>
+        <v>14.3481</v>
       </c>
       <c r="D3" t="n">
-        <v>19.4905</v>
+        <v>19.9702</v>
       </c>
     </row>
     <row r="4">
@@ -4379,13 +4379,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>21.0689</v>
+        <v>20.9097</v>
       </c>
       <c r="C4" t="n">
-        <v>17.7855</v>
+        <v>17.8349</v>
       </c>
       <c r="D4" t="n">
-        <v>24.8918</v>
+        <v>26.7686</v>
       </c>
     </row>
     <row r="5">
@@ -4393,13 +4393,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>17.7539</v>
+        <v>17.3362</v>
       </c>
       <c r="C5" t="n">
-        <v>18.8677</v>
+        <v>19.022</v>
       </c>
       <c r="D5" t="n">
-        <v>24.7731</v>
+        <v>28.9113</v>
       </c>
     </row>
     <row r="6">
@@ -4407,13 +4407,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>21.4182</v>
+        <v>21.4571</v>
       </c>
       <c r="C6" t="n">
-        <v>22.4144</v>
+        <v>22.4289</v>
       </c>
       <c r="D6" t="n">
-        <v>28.7931</v>
+        <v>34.9585</v>
       </c>
     </row>
     <row r="7">
@@ -4421,13 +4421,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>25.4702</v>
+        <v>25.3742</v>
       </c>
       <c r="C7" t="n">
-        <v>26.2414</v>
+        <v>26.3812</v>
       </c>
       <c r="D7" t="n">
-        <v>31.7108</v>
+        <v>39.6418</v>
       </c>
     </row>
     <row r="8">
@@ -4435,13 +4435,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>18.5336</v>
+        <v>18.5127</v>
       </c>
       <c r="C8" t="n">
-        <v>24.0463</v>
+        <v>24.1526</v>
       </c>
       <c r="D8" t="n">
-        <v>28.4683</v>
+        <v>35.3337</v>
       </c>
     </row>
     <row r="9">
@@ -4449,13 +4449,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>20.8047</v>
+        <v>20.8156</v>
       </c>
       <c r="C9" t="n">
-        <v>24.2793</v>
+        <v>24.264</v>
       </c>
       <c r="D9" t="n">
-        <v>29.1109</v>
+        <v>35.9557</v>
       </c>
     </row>
     <row r="10">
@@ -4463,13 +4463,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>23.0493</v>
+        <v>22.4837</v>
       </c>
       <c r="C10" t="n">
-        <v>24.5392</v>
+        <v>24.6386</v>
       </c>
       <c r="D10" t="n">
-        <v>31.3644</v>
+        <v>37.6896</v>
       </c>
     </row>
     <row r="11">
@@ -4477,13 +4477,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>21.3728</v>
+        <v>21.1378</v>
       </c>
       <c r="C11" t="n">
-        <v>24.0254</v>
+        <v>24.2663</v>
       </c>
       <c r="D11" t="n">
-        <v>31.536</v>
+        <v>38.1746</v>
       </c>
     </row>
     <row r="12">
@@ -4491,13 +4491,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>23.2653</v>
+        <v>23.2892</v>
       </c>
       <c r="C12" t="n">
-        <v>24.7168</v>
+        <v>24.8632</v>
       </c>
       <c r="D12" t="n">
-        <v>31.6884</v>
+        <v>39.6737</v>
       </c>
     </row>
     <row r="13">
@@ -4505,13 +4505,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>25.455</v>
+        <v>25.3219</v>
       </c>
       <c r="C13" t="n">
-        <v>25.1873</v>
+        <v>25.3356</v>
       </c>
       <c r="D13" t="n">
-        <v>31.5979</v>
+        <v>39.6366</v>
       </c>
     </row>
     <row r="14">
@@ -4519,13 +4519,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>20.681</v>
+        <v>20.6179</v>
       </c>
       <c r="C14" t="n">
-        <v>25.0836</v>
+        <v>25.0708</v>
       </c>
       <c r="D14" t="n">
-        <v>32.2934</v>
+        <v>39.8999</v>
       </c>
     </row>
     <row r="15">
@@ -4533,13 +4533,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>22.2612</v>
+        <v>22.3584</v>
       </c>
       <c r="C15" t="n">
-        <v>25.2881</v>
+        <v>25.1415</v>
       </c>
       <c r="D15" t="n">
-        <v>32.0748</v>
+        <v>39.6345</v>
       </c>
     </row>
     <row r="16">
@@ -4547,13 +4547,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>23.5976</v>
+        <v>23.7845</v>
       </c>
       <c r="C16" t="n">
-        <v>25.233</v>
+        <v>25.2639</v>
       </c>
       <c r="D16" t="n">
-        <v>33.0688</v>
+        <v>39.7521</v>
       </c>
     </row>
     <row r="17">
@@ -4561,13 +4561,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>22.4485</v>
+        <v>22.5821</v>
       </c>
       <c r="C17" t="n">
-        <v>25.5325</v>
+        <v>25.0819</v>
       </c>
       <c r="D17" t="n">
-        <v>32.7284</v>
+        <v>40.3152</v>
       </c>
     </row>
   </sheetData>
@@ -4615,13 +4615,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>9.164249999999999</v>
+        <v>9.11054</v>
       </c>
       <c r="C2" t="n">
-        <v>9.14537</v>
+        <v>9.15972</v>
       </c>
       <c r="D2" t="n">
-        <v>11.678</v>
+        <v>11.7015</v>
       </c>
     </row>
     <row r="3">
@@ -4629,13 +4629,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>16.6837</v>
+        <v>16.7103</v>
       </c>
       <c r="C3" t="n">
-        <v>15.8124</v>
+        <v>15.8083</v>
       </c>
       <c r="D3" t="n">
-        <v>20.8706</v>
+        <v>21.2096</v>
       </c>
     </row>
     <row r="4">
@@ -4643,13 +4643,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>23.5157</v>
+        <v>23.4329</v>
       </c>
       <c r="C4" t="n">
-        <v>20.8445</v>
+        <v>20.7439</v>
       </c>
       <c r="D4" t="n">
-        <v>28.284</v>
+        <v>28.7646</v>
       </c>
     </row>
     <row r="5">
@@ -4657,13 +4657,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>21.1067</v>
+        <v>20.9092</v>
       </c>
       <c r="C5" t="n">
-        <v>20.0032</v>
+        <v>19.9546</v>
       </c>
       <c r="D5" t="n">
-        <v>28.2719</v>
+        <v>30.9128</v>
       </c>
     </row>
     <row r="6">
@@ -4671,13 +4671,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>25.6131</v>
+        <v>25.6224</v>
       </c>
       <c r="C6" t="n">
-        <v>23.0827</v>
+        <v>22.8911</v>
       </c>
       <c r="D6" t="n">
-        <v>33.4119</v>
+        <v>35.201</v>
       </c>
     </row>
     <row r="7">
@@ -4685,13 +4685,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>30.5105</v>
+        <v>30.4884</v>
       </c>
       <c r="C7" t="n">
-        <v>26.9097</v>
+        <v>26.9502</v>
       </c>
       <c r="D7" t="n">
-        <v>39.4291</v>
+        <v>39.5821</v>
       </c>
     </row>
     <row r="8">
@@ -4699,13 +4699,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>27.4407</v>
+        <v>27.7376</v>
       </c>
       <c r="C8" t="n">
-        <v>23.9165</v>
+        <v>24.2452</v>
       </c>
       <c r="D8" t="n">
-        <v>35.3368</v>
+        <v>38.1048</v>
       </c>
     </row>
     <row r="9">
@@ -4713,13 +4713,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>27.467</v>
+        <v>27.5995</v>
       </c>
       <c r="C9" t="n">
-        <v>24.1563</v>
+        <v>24.3366</v>
       </c>
       <c r="D9" t="n">
-        <v>35.3645</v>
+        <v>39.752</v>
       </c>
     </row>
     <row r="10">
@@ -4727,13 +4727,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>27.3176</v>
+        <v>27.2396</v>
       </c>
       <c r="C10" t="n">
-        <v>24.4484</v>
+        <v>24.2228</v>
       </c>
       <c r="D10" t="n">
-        <v>39.4214</v>
+        <v>39.8341</v>
       </c>
     </row>
     <row r="11">
@@ -4741,13 +4741,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>28.1293</v>
+        <v>28.2114</v>
       </c>
       <c r="C11" t="n">
-        <v>24.6256</v>
+        <v>24.7654</v>
       </c>
       <c r="D11" t="n">
-        <v>39.3314</v>
+        <v>39.8685</v>
       </c>
     </row>
     <row r="12">
@@ -4755,13 +4755,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>27.9408</v>
+        <v>27.8667</v>
       </c>
       <c r="C12" t="n">
-        <v>25.0284</v>
+        <v>24.4762</v>
       </c>
       <c r="D12" t="n">
-        <v>39.4604</v>
+        <v>42.1881</v>
       </c>
     </row>
     <row r="13">
@@ -4769,13 +4769,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>28.1942</v>
+        <v>28.3984</v>
       </c>
       <c r="C13" t="n">
-        <v>24.791</v>
+        <v>24.9611</v>
       </c>
       <c r="D13" t="n">
-        <v>39.3975</v>
+        <v>44.5834</v>
       </c>
     </row>
     <row r="14">
@@ -4783,13 +4783,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>28.6777</v>
+        <v>28.0908</v>
       </c>
       <c r="C14" t="n">
-        <v>24.8278</v>
+        <v>25.3178</v>
       </c>
       <c r="D14" t="n">
-        <v>35.7798</v>
+        <v>39.5466</v>
       </c>
     </row>
     <row r="15">
@@ -4797,13 +4797,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>28.727</v>
+        <v>28.6439</v>
       </c>
       <c r="C15" t="n">
-        <v>24.9388</v>
+        <v>25.2909</v>
       </c>
       <c r="D15" t="n">
-        <v>35.2762</v>
+        <v>39.5317</v>
       </c>
     </row>
     <row r="16">
@@ -4811,13 +4811,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>28.0179</v>
+        <v>28.3303</v>
       </c>
       <c r="C16" t="n">
-        <v>25.1409</v>
+        <v>25.0295</v>
       </c>
       <c r="D16" t="n">
-        <v>38.9961</v>
+        <v>39.7344</v>
       </c>
     </row>
     <row r="17">
@@ -4825,13 +4825,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>29.2944</v>
+        <v>28.5432</v>
       </c>
       <c r="C17" t="n">
-        <v>25.1939</v>
+        <v>25.2181</v>
       </c>
       <c r="D17" t="n">
-        <v>38.5549</v>
+        <v>39.8796</v>
       </c>
     </row>
   </sheetData>
@@ -4879,13 +4879,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4.58194</v>
+        <v>4.56779</v>
       </c>
       <c r="C2" t="n">
-        <v>7.60007</v>
+        <v>7.61107</v>
       </c>
       <c r="D2" t="n">
-        <v>9.90879</v>
+        <v>9.90326</v>
       </c>
     </row>
     <row r="3">
@@ -4893,13 +4893,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.02955</v>
+        <v>8.97645</v>
       </c>
       <c r="C3" t="n">
-        <v>13.3317</v>
+        <v>13.301</v>
       </c>
       <c r="D3" t="n">
-        <v>18.8282</v>
+        <v>19.0047</v>
       </c>
     </row>
     <row r="4">
@@ -4907,13 +4907,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>13.0665</v>
+        <v>13.0382</v>
       </c>
       <c r="C4" t="n">
-        <v>18.5769</v>
+        <v>18.4004</v>
       </c>
       <c r="D4" t="n">
-        <v>26.5679</v>
+        <v>27.4291</v>
       </c>
     </row>
     <row r="5">
@@ -4921,13 +4921,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>14.8119</v>
+        <v>14.822</v>
       </c>
       <c r="C5" t="n">
-        <v>18.6756</v>
+        <v>18.5556</v>
       </c>
       <c r="D5" t="n">
-        <v>26.9311</v>
+        <v>31.8349</v>
       </c>
     </row>
     <row r="6">
@@ -4935,13 +4935,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>17.9504</v>
+        <v>17.8813</v>
       </c>
       <c r="C6" t="n">
-        <v>21.6466</v>
+        <v>21.537</v>
       </c>
       <c r="D6" t="n">
-        <v>30.9055</v>
+        <v>38.3356</v>
       </c>
     </row>
     <row r="7">
@@ -4949,13 +4949,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>21.0802</v>
+        <v>21.0537</v>
       </c>
       <c r="C7" t="n">
-        <v>25.3325</v>
+        <v>25.4197</v>
       </c>
       <c r="D7" t="n">
-        <v>35.5361</v>
+        <v>45.5479</v>
       </c>
     </row>
     <row r="8">
@@ -4963,13 +4963,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>19.103</v>
+        <v>18.6653</v>
       </c>
       <c r="C8" t="n">
-        <v>24.5833</v>
+        <v>24.5745</v>
       </c>
       <c r="D8" t="n">
-        <v>32.5125</v>
+        <v>41.7137</v>
       </c>
     </row>
     <row r="9">
@@ -4977,13 +4977,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>19.4883</v>
+        <v>19.3081</v>
       </c>
       <c r="C9" t="n">
-        <v>24.3845</v>
+        <v>24.3959</v>
       </c>
       <c r="D9" t="n">
-        <v>33.3027</v>
+        <v>41.4786</v>
       </c>
     </row>
     <row r="10">
@@ -4991,13 +4991,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>19.929</v>
+        <v>19.5879</v>
       </c>
       <c r="C10" t="n">
-        <v>24.3802</v>
+        <v>24.4125</v>
       </c>
       <c r="D10" t="n">
-        <v>33.7077</v>
+        <v>41.9758</v>
       </c>
     </row>
     <row r="11">
@@ -5005,13 +5005,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>20.0735</v>
+        <v>20.0608</v>
       </c>
       <c r="C11" t="n">
-        <v>24.6096</v>
+        <v>24.5707</v>
       </c>
       <c r="D11" t="n">
-        <v>32.5144</v>
+        <v>40.355</v>
       </c>
     </row>
     <row r="12">
@@ -5019,13 +5019,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>20.2925</v>
+        <v>19.9732</v>
       </c>
       <c r="C12" t="n">
-        <v>24.8485</v>
+        <v>24.7285</v>
       </c>
       <c r="D12" t="n">
-        <v>32.4306</v>
+        <v>41.4878</v>
       </c>
     </row>
     <row r="13">
@@ -5033,13 +5033,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>20.2998</v>
+        <v>19.8414</v>
       </c>
       <c r="C13" t="n">
-        <v>24.8083</v>
+        <v>24.8147</v>
       </c>
       <c r="D13" t="n">
-        <v>33.5827</v>
+        <v>42.1294</v>
       </c>
     </row>
     <row r="14">
@@ -5047,13 +5047,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>19.6572</v>
+        <v>19.7945</v>
       </c>
       <c r="C14" t="n">
-        <v>24.5488</v>
+        <v>24.7339</v>
       </c>
       <c r="D14" t="n">
-        <v>33.3031</v>
+        <v>41.7565</v>
       </c>
     </row>
     <row r="15">
@@ -5061,13 +5061,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>20.2087</v>
+        <v>19.9518</v>
       </c>
       <c r="C15" t="n">
-        <v>24.7473</v>
+        <v>24.8109</v>
       </c>
       <c r="D15" t="n">
-        <v>33.687</v>
+        <v>41.4132</v>
       </c>
     </row>
     <row r="16">
@@ -5075,13 +5075,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>20.3712</v>
+        <v>20.0547</v>
       </c>
       <c r="C16" t="n">
-        <v>24.8966</v>
+        <v>24.9188</v>
       </c>
       <c r="D16" t="n">
-        <v>33.1555</v>
+        <v>42.4643</v>
       </c>
     </row>
     <row r="17">
@@ -5089,13 +5089,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>19.9948</v>
+        <v>20.2056</v>
       </c>
       <c r="C17" t="n">
-        <v>24.9862</v>
+        <v>24.6341</v>
       </c>
       <c r="D17" t="n">
-        <v>33.5223</v>
+        <v>42.6854</v>
       </c>
     </row>
   </sheetData>
@@ -5143,13 +5143,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4.67121</v>
+        <v>4.65862</v>
       </c>
       <c r="C2" t="n">
-        <v>7.62844</v>
+        <v>7.65266</v>
       </c>
       <c r="D2" t="n">
-        <v>9.870150000000001</v>
+        <v>9.85914</v>
       </c>
     </row>
     <row r="3">
@@ -5157,13 +5157,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.225899999999999</v>
+        <v>9.19261</v>
       </c>
       <c r="C3" t="n">
-        <v>13.3787</v>
+        <v>13.4173</v>
       </c>
       <c r="D3" t="n">
-        <v>18.8239</v>
+        <v>19.0537</v>
       </c>
     </row>
     <row r="4">
@@ -5171,13 +5171,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>13.4001</v>
+        <v>13.3629</v>
       </c>
       <c r="C4" t="n">
-        <v>18.6257</v>
+        <v>18.761</v>
       </c>
       <c r="D4" t="n">
-        <v>26.3411</v>
+        <v>27.6421</v>
       </c>
     </row>
     <row r="5">
@@ -5185,13 +5185,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>15.1241</v>
+        <v>15.1174</v>
       </c>
       <c r="C5" t="n">
-        <v>18.6979</v>
+        <v>18.6112</v>
       </c>
       <c r="D5" t="n">
-        <v>26.7524</v>
+        <v>31.7923</v>
       </c>
     </row>
     <row r="6">
@@ -5199,13 +5199,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>18.2566</v>
+        <v>18.219</v>
       </c>
       <c r="C6" t="n">
-        <v>21.5652</v>
+        <v>21.5666</v>
       </c>
       <c r="D6" t="n">
-        <v>31.4265</v>
+        <v>37.83</v>
       </c>
     </row>
     <row r="7">
@@ -5213,13 +5213,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>21.6837</v>
+        <v>21.6227</v>
       </c>
       <c r="C7" t="n">
-        <v>25.3587</v>
+        <v>25.3767</v>
       </c>
       <c r="D7" t="n">
-        <v>35.7913</v>
+        <v>44.2903</v>
       </c>
     </row>
     <row r="8">
@@ -5227,13 +5227,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>19.7245</v>
+        <v>19.3812</v>
       </c>
       <c r="C8" t="n">
-        <v>24.3584</v>
+        <v>24.2309</v>
       </c>
       <c r="D8" t="n">
-        <v>34.0512</v>
+        <v>40.4318</v>
       </c>
     </row>
     <row r="9">
@@ -5241,13 +5241,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>19.8475</v>
+        <v>20.1814</v>
       </c>
       <c r="C9" t="n">
-        <v>24.2581</v>
+        <v>24.4579</v>
       </c>
       <c r="D9" t="n">
-        <v>33.9583</v>
+        <v>40.58</v>
       </c>
     </row>
     <row r="10">
@@ -5255,13 +5255,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>20.3055</v>
+        <v>20.1019</v>
       </c>
       <c r="C10" t="n">
-        <v>24.5564</v>
+        <v>24.4358</v>
       </c>
       <c r="D10" t="n">
-        <v>33.0873</v>
+        <v>40.0128</v>
       </c>
     </row>
     <row r="11">
@@ -5269,13 +5269,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>20.6625</v>
+        <v>20.8107</v>
       </c>
       <c r="C11" t="n">
-        <v>24.6035</v>
+        <v>24.5699</v>
       </c>
       <c r="D11" t="n">
-        <v>33.8383</v>
+        <v>40.4856</v>
       </c>
     </row>
     <row r="12">
@@ -5283,13 +5283,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>20.4845</v>
+        <v>20.4483</v>
       </c>
       <c r="C12" t="n">
-        <v>24.7071</v>
+        <v>24.7257</v>
       </c>
       <c r="D12" t="n">
-        <v>33.6114</v>
+        <v>40.548</v>
       </c>
     </row>
     <row r="13">
@@ -5297,13 +5297,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>20.8079</v>
+        <v>20.5759</v>
       </c>
       <c r="C13" t="n">
-        <v>24.8575</v>
+        <v>24.8293</v>
       </c>
       <c r="D13" t="n">
-        <v>33.7382</v>
+        <v>41.3811</v>
       </c>
     </row>
     <row r="14">
@@ -5311,13 +5311,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>20.6951</v>
+        <v>20.2469</v>
       </c>
       <c r="C14" t="n">
-        <v>24.5786</v>
+        <v>24.5504</v>
       </c>
       <c r="D14" t="n">
-        <v>33.8303</v>
+        <v>41.3132</v>
       </c>
     </row>
     <row r="15">
@@ -5325,13 +5325,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>20.609</v>
+        <v>20.6576</v>
       </c>
       <c r="C15" t="n">
-        <v>24.713</v>
+        <v>24.6962</v>
       </c>
       <c r="D15" t="n">
-        <v>33.4921</v>
+        <v>41.5161</v>
       </c>
     </row>
     <row r="16">
@@ -5339,13 +5339,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>20.5882</v>
+        <v>20.5117</v>
       </c>
       <c r="C16" t="n">
-        <v>24.8487</v>
+        <v>24.7119</v>
       </c>
       <c r="D16" t="n">
-        <v>34.0782</v>
+        <v>41.589</v>
       </c>
     </row>
     <row r="17">
@@ -5353,13 +5353,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>20.789</v>
+        <v>20.3476</v>
       </c>
       <c r="C17" t="n">
-        <v>25.0161</v>
+        <v>24.6587</v>
       </c>
       <c r="D17" t="n">
-        <v>33.9482</v>
+        <v>42.0527</v>
       </c>
     </row>
   </sheetData>
@@ -5407,13 +5407,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>7.66805</v>
+        <v>7.57758</v>
       </c>
       <c r="C2" t="n">
-        <v>8.87562</v>
+        <v>8.86971</v>
       </c>
       <c r="D2" t="n">
-        <v>11.417</v>
+        <v>11.4325</v>
       </c>
     </row>
     <row r="3">
@@ -5421,13 +5421,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>14.586</v>
+        <v>14.6323</v>
       </c>
       <c r="C3" t="n">
-        <v>14.9906</v>
+        <v>15.1066</v>
       </c>
       <c r="D3" t="n">
-        <v>21.4933</v>
+        <v>21.8407</v>
       </c>
     </row>
     <row r="4">
@@ -5435,13 +5435,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>21.2054</v>
+        <v>21.0241</v>
       </c>
       <c r="C4" t="n">
-        <v>20.8243</v>
+        <v>20.8365</v>
       </c>
       <c r="D4" t="n">
-        <v>30.8562</v>
+        <v>31.704</v>
       </c>
     </row>
     <row r="5">
@@ -5449,13 +5449,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>20.9423</v>
+        <v>20.9967</v>
       </c>
       <c r="C5" t="n">
-        <v>20.1059</v>
+        <v>20.1757</v>
       </c>
       <c r="D5" t="n">
-        <v>31.7487</v>
+        <v>33.5068</v>
       </c>
     </row>
     <row r="6">
@@ -5463,13 +5463,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>24.2855</v>
+        <v>24.2282</v>
       </c>
       <c r="C6" t="n">
-        <v>22.9132</v>
+        <v>22.9369</v>
       </c>
       <c r="D6" t="n">
-        <v>37.1505</v>
+        <v>39.3433</v>
       </c>
     </row>
     <row r="7">
@@ -5477,13 +5477,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>29.4331</v>
+        <v>29.3927</v>
       </c>
       <c r="C7" t="n">
-        <v>26.5775</v>
+        <v>26.6496</v>
       </c>
       <c r="D7" t="n">
-        <v>42.8546</v>
+        <v>47.4559</v>
       </c>
     </row>
     <row r="8">
@@ -5491,13 +5491,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>26.9369</v>
+        <v>27.0101</v>
       </c>
       <c r="C8" t="n">
-        <v>25.8398</v>
+        <v>25.9807</v>
       </c>
       <c r="D8" t="n">
-        <v>41.0516</v>
+        <v>44.0923</v>
       </c>
     </row>
     <row r="9">
@@ -5505,13 +5505,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>27.3823</v>
+        <v>27.4912</v>
       </c>
       <c r="C9" t="n">
-        <v>25.8316</v>
+        <v>25.8788</v>
       </c>
       <c r="D9" t="n">
-        <v>40.4519</v>
+        <v>43.126</v>
       </c>
     </row>
     <row r="10">
@@ -5519,13 +5519,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>28.1123</v>
+        <v>27.8381</v>
       </c>
       <c r="C10" t="n">
-        <v>25.7935</v>
+        <v>25.8637</v>
       </c>
       <c r="D10" t="n">
-        <v>40.5303</v>
+        <v>44.7957</v>
       </c>
     </row>
     <row r="11">
@@ -5533,13 +5533,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>27.7921</v>
+        <v>27.755</v>
       </c>
       <c r="C11" t="n">
-        <v>25.7997</v>
+        <v>25.9328</v>
       </c>
       <c r="D11" t="n">
-        <v>40.5126</v>
+        <v>43.483</v>
       </c>
     </row>
     <row r="12">
@@ -5547,13 +5547,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>27.7179</v>
+        <v>27.9569</v>
       </c>
       <c r="C12" t="n">
-        <v>25.9354</v>
+        <v>25.872</v>
       </c>
       <c r="D12" t="n">
-        <v>40.9546</v>
+        <v>44.1559</v>
       </c>
     </row>
     <row r="13">
@@ -5561,13 +5561,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>28.0969</v>
+        <v>27.4642</v>
       </c>
       <c r="C13" t="n">
-        <v>26.1656</v>
+        <v>26.1489</v>
       </c>
       <c r="D13" t="n">
-        <v>41.4913</v>
+        <v>44.445</v>
       </c>
     </row>
     <row r="14">
@@ -5575,13 +5575,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>27.8595</v>
+        <v>28.25</v>
       </c>
       <c r="C14" t="n">
-        <v>26.2131</v>
+        <v>26.105</v>
       </c>
       <c r="D14" t="n">
-        <v>41.6641</v>
+        <v>43.5423</v>
       </c>
     </row>
     <row r="15">
@@ -5589,13 +5589,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>28.3545</v>
+        <v>27.9201</v>
       </c>
       <c r="C15" t="n">
-        <v>26.0538</v>
+        <v>26.1518</v>
       </c>
       <c r="D15" t="n">
-        <v>40.4043</v>
+        <v>44.4883</v>
       </c>
     </row>
     <row r="16">
@@ -5603,13 +5603,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>28.0934</v>
+        <v>28.4475</v>
       </c>
       <c r="C16" t="n">
-        <v>25.8663</v>
+        <v>26.115</v>
       </c>
       <c r="D16" t="n">
-        <v>40.9485</v>
+        <v>44.0683</v>
       </c>
     </row>
     <row r="17">
@@ -5617,13 +5617,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>28.3638</v>
+        <v>28.1278</v>
       </c>
       <c r="C17" t="n">
-        <v>26.1366</v>
+        <v>26.2182</v>
       </c>
       <c r="D17" t="n">
-        <v>41.1773</v>
+        <v>44.3313</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Parallel workload.xlsx
+++ b/vs-x86/Parallel workload.xlsx
@@ -4087,13 +4087,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.014749999999999</v>
+        <v>7.94984</v>
       </c>
       <c r="C2" t="n">
-        <v>8.73678</v>
+        <v>8.72532</v>
       </c>
       <c r="D2" t="n">
-        <v>11.3484</v>
+        <v>11.3523</v>
       </c>
     </row>
     <row r="3">
@@ -4101,13 +4101,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>15.2567</v>
+        <v>14.9364</v>
       </c>
       <c r="C3" t="n">
-        <v>14.0117</v>
+        <v>14.1211</v>
       </c>
       <c r="D3" t="n">
-        <v>20.2762</v>
+        <v>19.9482</v>
       </c>
     </row>
     <row r="4">
@@ -4115,13 +4115,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>21.1507</v>
+        <v>21.0967</v>
       </c>
       <c r="C4" t="n">
-        <v>18.2613</v>
+        <v>17.8071</v>
       </c>
       <c r="D4" t="n">
-        <v>26.6519</v>
+        <v>27.173</v>
       </c>
     </row>
     <row r="5">
@@ -4129,13 +4129,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>17.4616</v>
+        <v>17.8435</v>
       </c>
       <c r="C5" t="n">
-        <v>18.9352</v>
+        <v>19.2544</v>
       </c>
       <c r="D5" t="n">
-        <v>30.3509</v>
+        <v>30.2684</v>
       </c>
     </row>
     <row r="6">
@@ -4143,13 +4143,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>21.0531</v>
+        <v>21.0899</v>
       </c>
       <c r="C6" t="n">
-        <v>22.5122</v>
+        <v>22.4378</v>
       </c>
       <c r="D6" t="n">
-        <v>35.3988</v>
+        <v>35.1929</v>
       </c>
     </row>
     <row r="7">
@@ -4157,13 +4157,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>24.9466</v>
+        <v>24.9234</v>
       </c>
       <c r="C7" t="n">
-        <v>26.4666</v>
+        <v>26.467</v>
       </c>
       <c r="D7" t="n">
-        <v>39.4715</v>
+        <v>39.3487</v>
       </c>
     </row>
     <row r="8">
@@ -4171,13 +4171,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>18.6136</v>
+        <v>18.368</v>
       </c>
       <c r="C8" t="n">
-        <v>24.736</v>
+        <v>24.5395</v>
       </c>
       <c r="D8" t="n">
-        <v>36.0673</v>
+        <v>34.9066</v>
       </c>
     </row>
     <row r="9">
@@ -4185,13 +4185,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>20.5454</v>
+        <v>20.7291</v>
       </c>
       <c r="C9" t="n">
-        <v>24.4642</v>
+        <v>24.2041</v>
       </c>
       <c r="D9" t="n">
-        <v>35.2278</v>
+        <v>36.6924</v>
       </c>
     </row>
     <row r="10">
@@ -4199,13 +4199,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>22.7622</v>
+        <v>22.8296</v>
       </c>
       <c r="C10" t="n">
-        <v>24.6466</v>
+        <v>24.3877</v>
       </c>
       <c r="D10" t="n">
-        <v>36.7094</v>
+        <v>36.9811</v>
       </c>
     </row>
     <row r="11">
@@ -4213,13 +4213,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>20.8993</v>
+        <v>20.8088</v>
       </c>
       <c r="C11" t="n">
-        <v>24.6464</v>
+        <v>24.761</v>
       </c>
       <c r="D11" t="n">
-        <v>38.2873</v>
+        <v>37.6677</v>
       </c>
     </row>
     <row r="12">
@@ -4227,13 +4227,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>22.8307</v>
+        <v>22.9293</v>
       </c>
       <c r="C12" t="n">
-        <v>25.0445</v>
+        <v>24.7174</v>
       </c>
       <c r="D12" t="n">
-        <v>40.5789</v>
+        <v>39.1793</v>
       </c>
     </row>
     <row r="13">
@@ -4241,13 +4241,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>24.767</v>
+        <v>24.9412</v>
       </c>
       <c r="C13" t="n">
-        <v>25.2176</v>
+        <v>25.3657</v>
       </c>
       <c r="D13" t="n">
-        <v>39.3255</v>
+        <v>39.5184</v>
       </c>
     </row>
     <row r="14">
@@ -4255,13 +4255,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>20.7031</v>
+        <v>20.6366</v>
       </c>
       <c r="C14" t="n">
-        <v>25.0213</v>
+        <v>24.6325</v>
       </c>
       <c r="D14" t="n">
-        <v>39.7998</v>
+        <v>39.8718</v>
       </c>
     </row>
     <row r="15">
@@ -4269,13 +4269,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>22.1005</v>
+        <v>22.0811</v>
       </c>
       <c r="C15" t="n">
-        <v>25.0223</v>
+        <v>24.6798</v>
       </c>
       <c r="D15" t="n">
-        <v>39.3137</v>
+        <v>39.7438</v>
       </c>
     </row>
     <row r="16">
@@ -4283,13 +4283,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>23.1093</v>
+        <v>23.2443</v>
       </c>
       <c r="C16" t="n">
-        <v>25.0884</v>
+        <v>25.1802</v>
       </c>
       <c r="D16" t="n">
-        <v>40.3863</v>
+        <v>40.0926</v>
       </c>
     </row>
     <row r="17">
@@ -4297,13 +4297,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>22.1715</v>
+        <v>22.2972</v>
       </c>
       <c r="C17" t="n">
-        <v>24.8476</v>
+        <v>25.1067</v>
       </c>
       <c r="D17" t="n">
-        <v>40.9977</v>
+        <v>40.6829</v>
       </c>
     </row>
   </sheetData>
@@ -4351,13 +4351,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.001950000000001</v>
+        <v>7.98863</v>
       </c>
       <c r="C2" t="n">
-        <v>8.688689999999999</v>
+        <v>8.66291</v>
       </c>
       <c r="D2" t="n">
-        <v>11.2475</v>
+        <v>11.2462</v>
       </c>
     </row>
     <row r="3">
@@ -4365,13 +4365,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>15.1024</v>
+        <v>15.0516</v>
       </c>
       <c r="C3" t="n">
-        <v>14.3481</v>
+        <v>14.2788</v>
       </c>
       <c r="D3" t="n">
-        <v>19.9702</v>
+        <v>19.8948</v>
       </c>
     </row>
     <row r="4">
@@ -4379,13 +4379,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>20.9097</v>
+        <v>21.3393</v>
       </c>
       <c r="C4" t="n">
-        <v>17.8349</v>
+        <v>18.3862</v>
       </c>
       <c r="D4" t="n">
-        <v>26.7686</v>
+        <v>26.9826</v>
       </c>
     </row>
     <row r="5">
@@ -4393,13 +4393,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>17.3362</v>
+        <v>17.7147</v>
       </c>
       <c r="C5" t="n">
-        <v>19.022</v>
+        <v>19.2526</v>
       </c>
       <c r="D5" t="n">
-        <v>28.9113</v>
+        <v>28.4117</v>
       </c>
     </row>
     <row r="6">
@@ -4407,13 +4407,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>21.4571</v>
+        <v>21.3791</v>
       </c>
       <c r="C6" t="n">
-        <v>22.4289</v>
+        <v>22.4792</v>
       </c>
       <c r="D6" t="n">
-        <v>34.9585</v>
+        <v>33.4417</v>
       </c>
     </row>
     <row r="7">
@@ -4421,13 +4421,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>25.3742</v>
+        <v>25.4217</v>
       </c>
       <c r="C7" t="n">
-        <v>26.3812</v>
+        <v>26.3028</v>
       </c>
       <c r="D7" t="n">
-        <v>39.6418</v>
+        <v>39.6267</v>
       </c>
     </row>
     <row r="8">
@@ -4435,13 +4435,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>18.5127</v>
+        <v>18.3641</v>
       </c>
       <c r="C8" t="n">
-        <v>24.1526</v>
+        <v>24.3329</v>
       </c>
       <c r="D8" t="n">
-        <v>35.3337</v>
+        <v>35.2703</v>
       </c>
     </row>
     <row r="9">
@@ -4449,13 +4449,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>20.8156</v>
+        <v>20.8512</v>
       </c>
       <c r="C9" t="n">
-        <v>24.264</v>
+        <v>24.3964</v>
       </c>
       <c r="D9" t="n">
-        <v>35.9557</v>
+        <v>36.0331</v>
       </c>
     </row>
     <row r="10">
@@ -4463,13 +4463,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>22.4837</v>
+        <v>23.2346</v>
       </c>
       <c r="C10" t="n">
-        <v>24.6386</v>
+        <v>24.2385</v>
       </c>
       <c r="D10" t="n">
-        <v>37.6896</v>
+        <v>37.1338</v>
       </c>
     </row>
     <row r="11">
@@ -4477,13 +4477,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>21.1378</v>
+        <v>21.2733</v>
       </c>
       <c r="C11" t="n">
-        <v>24.2663</v>
+        <v>24.5186</v>
       </c>
       <c r="D11" t="n">
-        <v>38.1746</v>
+        <v>38.497</v>
       </c>
     </row>
     <row r="12">
@@ -4491,13 +4491,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>23.2892</v>
+        <v>23.2381</v>
       </c>
       <c r="C12" t="n">
-        <v>24.8632</v>
+        <v>24.6485</v>
       </c>
       <c r="D12" t="n">
-        <v>39.6737</v>
+        <v>39.7555</v>
       </c>
     </row>
     <row r="13">
@@ -4505,13 +4505,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>25.3219</v>
+        <v>25.3703</v>
       </c>
       <c r="C13" t="n">
-        <v>25.3356</v>
+        <v>25.1865</v>
       </c>
       <c r="D13" t="n">
-        <v>39.6366</v>
+        <v>39.4142</v>
       </c>
     </row>
     <row r="14">
@@ -4519,13 +4519,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>20.6179</v>
+        <v>20.5453</v>
       </c>
       <c r="C14" t="n">
-        <v>25.0708</v>
+        <v>25.2303</v>
       </c>
       <c r="D14" t="n">
-        <v>39.8999</v>
+        <v>40.3334</v>
       </c>
     </row>
     <row r="15">
@@ -4533,13 +4533,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>22.3584</v>
+        <v>22.5394</v>
       </c>
       <c r="C15" t="n">
-        <v>25.1415</v>
+        <v>24.9181</v>
       </c>
       <c r="D15" t="n">
-        <v>39.6345</v>
+        <v>39.853</v>
       </c>
     </row>
     <row r="16">
@@ -4547,13 +4547,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>23.7845</v>
+        <v>23.6551</v>
       </c>
       <c r="C16" t="n">
-        <v>25.2639</v>
+        <v>25.5055</v>
       </c>
       <c r="D16" t="n">
-        <v>39.7521</v>
+        <v>39.9238</v>
       </c>
     </row>
     <row r="17">
@@ -4561,13 +4561,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>22.5821</v>
+        <v>22.6092</v>
       </c>
       <c r="C17" t="n">
-        <v>25.0819</v>
+        <v>25.4098</v>
       </c>
       <c r="D17" t="n">
-        <v>40.3152</v>
+        <v>40.4028</v>
       </c>
     </row>
   </sheetData>
@@ -4615,13 +4615,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>9.11054</v>
+        <v>9.087350000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>9.15972</v>
+        <v>9.14526</v>
       </c>
       <c r="D2" t="n">
-        <v>11.7015</v>
+        <v>11.6752</v>
       </c>
     </row>
     <row r="3">
@@ -4629,13 +4629,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>16.7103</v>
+        <v>16.622</v>
       </c>
       <c r="C3" t="n">
-        <v>15.8083</v>
+        <v>15.7675</v>
       </c>
       <c r="D3" t="n">
-        <v>21.2096</v>
+        <v>21.0496</v>
       </c>
     </row>
     <row r="4">
@@ -4643,13 +4643,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>23.4329</v>
+        <v>23.5636</v>
       </c>
       <c r="C4" t="n">
-        <v>20.7439</v>
+        <v>22.0395</v>
       </c>
       <c r="D4" t="n">
-        <v>28.7646</v>
+        <v>28.768</v>
       </c>
     </row>
     <row r="5">
@@ -4657,13 +4657,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>20.9092</v>
+        <v>20.9402</v>
       </c>
       <c r="C5" t="n">
-        <v>19.9546</v>
+        <v>19.9772</v>
       </c>
       <c r="D5" t="n">
-        <v>30.9128</v>
+        <v>30.9679</v>
       </c>
     </row>
     <row r="6">
@@ -4671,13 +4671,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>25.6224</v>
+        <v>25.5848</v>
       </c>
       <c r="C6" t="n">
-        <v>22.8911</v>
+        <v>22.8583</v>
       </c>
       <c r="D6" t="n">
-        <v>35.201</v>
+        <v>35.1647</v>
       </c>
     </row>
     <row r="7">
@@ -4685,13 +4685,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>30.4884</v>
+        <v>30.4062</v>
       </c>
       <c r="C7" t="n">
-        <v>26.9502</v>
+        <v>26.9283</v>
       </c>
       <c r="D7" t="n">
-        <v>39.5821</v>
+        <v>39.4123</v>
       </c>
     </row>
     <row r="8">
@@ -4699,13 +4699,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>27.7376</v>
+        <v>27.6812</v>
       </c>
       <c r="C8" t="n">
-        <v>24.2452</v>
+        <v>23.9481</v>
       </c>
       <c r="D8" t="n">
-        <v>38.1048</v>
+        <v>36.2651</v>
       </c>
     </row>
     <row r="9">
@@ -4713,13 +4713,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>27.5995</v>
+        <v>27.0081</v>
       </c>
       <c r="C9" t="n">
-        <v>24.3366</v>
+        <v>24.4301</v>
       </c>
       <c r="D9" t="n">
-        <v>39.752</v>
+        <v>38.8883</v>
       </c>
     </row>
     <row r="10">
@@ -4727,13 +4727,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>27.2396</v>
+        <v>27.9439</v>
       </c>
       <c r="C10" t="n">
-        <v>24.2228</v>
+        <v>24.6969</v>
       </c>
       <c r="D10" t="n">
-        <v>39.8341</v>
+        <v>39.4869</v>
       </c>
     </row>
     <row r="11">
@@ -4741,13 +4741,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>28.2114</v>
+        <v>27.8061</v>
       </c>
       <c r="C11" t="n">
-        <v>24.7654</v>
+        <v>24.5817</v>
       </c>
       <c r="D11" t="n">
-        <v>39.8685</v>
+        <v>39.4401</v>
       </c>
     </row>
     <row r="12">
@@ -4755,13 +4755,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>27.8667</v>
+        <v>28.0162</v>
       </c>
       <c r="C12" t="n">
-        <v>24.4762</v>
+        <v>25.0903</v>
       </c>
       <c r="D12" t="n">
-        <v>42.1881</v>
+        <v>42.0555</v>
       </c>
     </row>
     <row r="13">
@@ -4769,13 +4769,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>28.3984</v>
+        <v>28.7327</v>
       </c>
       <c r="C13" t="n">
-        <v>24.9611</v>
+        <v>24.8055</v>
       </c>
       <c r="D13" t="n">
-        <v>44.5834</v>
+        <v>45.1484</v>
       </c>
     </row>
     <row r="14">
@@ -4783,13 +4783,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>28.0908</v>
+        <v>27.7367</v>
       </c>
       <c r="C14" t="n">
-        <v>25.3178</v>
+        <v>24.7901</v>
       </c>
       <c r="D14" t="n">
-        <v>39.5466</v>
+        <v>39.2153</v>
       </c>
     </row>
     <row r="15">
@@ -4797,13 +4797,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>28.6439</v>
+        <v>28.1133</v>
       </c>
       <c r="C15" t="n">
-        <v>25.2909</v>
+        <v>24.7544</v>
       </c>
       <c r="D15" t="n">
-        <v>39.5317</v>
+        <v>39.6249</v>
       </c>
     </row>
     <row r="16">
@@ -4811,13 +4811,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>28.3303</v>
+        <v>28.2979</v>
       </c>
       <c r="C16" t="n">
-        <v>25.0295</v>
+        <v>25.0087</v>
       </c>
       <c r="D16" t="n">
-        <v>39.7344</v>
+        <v>39.5721</v>
       </c>
     </row>
     <row r="17">
@@ -4825,13 +4825,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>28.5432</v>
+        <v>28.552</v>
       </c>
       <c r="C17" t="n">
-        <v>25.2181</v>
+        <v>25.1839</v>
       </c>
       <c r="D17" t="n">
-        <v>39.8796</v>
+        <v>40.1325</v>
       </c>
     </row>
   </sheetData>
@@ -4879,13 +4879,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4.56779</v>
+        <v>4.58324</v>
       </c>
       <c r="C2" t="n">
-        <v>7.61107</v>
+        <v>7.62405</v>
       </c>
       <c r="D2" t="n">
-        <v>9.90326</v>
+        <v>9.90713</v>
       </c>
     </row>
     <row r="3">
@@ -4893,13 +4893,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>8.97645</v>
+        <v>9.01268</v>
       </c>
       <c r="C3" t="n">
-        <v>13.301</v>
+        <v>13.4045</v>
       </c>
       <c r="D3" t="n">
-        <v>19.0047</v>
+        <v>19.1395</v>
       </c>
     </row>
     <row r="4">
@@ -4907,13 +4907,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>13.0382</v>
+        <v>13.0505</v>
       </c>
       <c r="C4" t="n">
-        <v>18.4004</v>
+        <v>18.582</v>
       </c>
       <c r="D4" t="n">
-        <v>27.4291</v>
+        <v>27.5988</v>
       </c>
     </row>
     <row r="5">
@@ -4921,13 +4921,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>14.822</v>
+        <v>14.7803</v>
       </c>
       <c r="C5" t="n">
-        <v>18.5556</v>
+        <v>18.5932</v>
       </c>
       <c r="D5" t="n">
-        <v>31.8349</v>
+        <v>31.9455</v>
       </c>
     </row>
     <row r="6">
@@ -4935,13 +4935,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>17.8813</v>
+        <v>17.9084</v>
       </c>
       <c r="C6" t="n">
-        <v>21.537</v>
+        <v>21.5699</v>
       </c>
       <c r="D6" t="n">
-        <v>38.3356</v>
+        <v>38.2339</v>
       </c>
     </row>
     <row r="7">
@@ -4949,13 +4949,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>21.0537</v>
+        <v>21.0687</v>
       </c>
       <c r="C7" t="n">
-        <v>25.4197</v>
+        <v>25.3491</v>
       </c>
       <c r="D7" t="n">
-        <v>45.5479</v>
+        <v>45.4627</v>
       </c>
     </row>
     <row r="8">
@@ -4963,13 +4963,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>18.6653</v>
+        <v>19.0442</v>
       </c>
       <c r="C8" t="n">
-        <v>24.5745</v>
+        <v>24.3455</v>
       </c>
       <c r="D8" t="n">
-        <v>41.7137</v>
+        <v>42.1472</v>
       </c>
     </row>
     <row r="9">
@@ -4977,13 +4977,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>19.3081</v>
+        <v>19.6745</v>
       </c>
       <c r="C9" t="n">
-        <v>24.3959</v>
+        <v>24.342</v>
       </c>
       <c r="D9" t="n">
-        <v>41.4786</v>
+        <v>41.5942</v>
       </c>
     </row>
     <row r="10">
@@ -4991,13 +4991,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>19.5879</v>
+        <v>19.7922</v>
       </c>
       <c r="C10" t="n">
-        <v>24.4125</v>
+        <v>24.5033</v>
       </c>
       <c r="D10" t="n">
-        <v>41.9758</v>
+        <v>41.7758</v>
       </c>
     </row>
     <row r="11">
@@ -5005,13 +5005,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>20.0608</v>
+        <v>20.2457</v>
       </c>
       <c r="C11" t="n">
-        <v>24.5707</v>
+        <v>24.4625</v>
       </c>
       <c r="D11" t="n">
-        <v>40.355</v>
+        <v>42.6179</v>
       </c>
     </row>
     <row r="12">
@@ -5019,13 +5019,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>19.9732</v>
+        <v>20.0416</v>
       </c>
       <c r="C12" t="n">
-        <v>24.7285</v>
+        <v>24.6942</v>
       </c>
       <c r="D12" t="n">
-        <v>41.4878</v>
+        <v>40.5108</v>
       </c>
     </row>
     <row r="13">
@@ -5033,13 +5033,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>19.8414</v>
+        <v>20.1144</v>
       </c>
       <c r="C13" t="n">
-        <v>24.8147</v>
+        <v>24.7308</v>
       </c>
       <c r="D13" t="n">
-        <v>42.1294</v>
+        <v>41.9766</v>
       </c>
     </row>
     <row r="14">
@@ -5047,13 +5047,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>19.7945</v>
+        <v>20.067</v>
       </c>
       <c r="C14" t="n">
-        <v>24.7339</v>
+        <v>24.4265</v>
       </c>
       <c r="D14" t="n">
-        <v>41.7565</v>
+        <v>42.5728</v>
       </c>
     </row>
     <row r="15">
@@ -5061,13 +5061,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>19.9518</v>
+        <v>20.1531</v>
       </c>
       <c r="C15" t="n">
-        <v>24.8109</v>
+        <v>24.7414</v>
       </c>
       <c r="D15" t="n">
-        <v>41.4132</v>
+        <v>41.6322</v>
       </c>
     </row>
     <row r="16">
@@ -5075,13 +5075,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>20.0547</v>
+        <v>20.2773</v>
       </c>
       <c r="C16" t="n">
-        <v>24.9188</v>
+        <v>24.6206</v>
       </c>
       <c r="D16" t="n">
-        <v>42.4643</v>
+        <v>42.3955</v>
       </c>
     </row>
     <row r="17">
@@ -5089,13 +5089,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>20.2056</v>
+        <v>20.4021</v>
       </c>
       <c r="C17" t="n">
-        <v>24.6341</v>
+        <v>24.8827</v>
       </c>
       <c r="D17" t="n">
-        <v>42.6854</v>
+        <v>42.6535</v>
       </c>
     </row>
   </sheetData>
@@ -5143,13 +5143,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4.65862</v>
+        <v>4.66629</v>
       </c>
       <c r="C2" t="n">
-        <v>7.65266</v>
+        <v>7.64705</v>
       </c>
       <c r="D2" t="n">
-        <v>9.85914</v>
+        <v>9.89428</v>
       </c>
     </row>
     <row r="3">
@@ -5157,13 +5157,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.19261</v>
+        <v>9.206910000000001</v>
       </c>
       <c r="C3" t="n">
-        <v>13.4173</v>
+        <v>13.3828</v>
       </c>
       <c r="D3" t="n">
-        <v>19.0537</v>
+        <v>19.1272</v>
       </c>
     </row>
     <row r="4">
@@ -5171,13 +5171,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>13.3629</v>
+        <v>13.3984</v>
       </c>
       <c r="C4" t="n">
-        <v>18.761</v>
+        <v>18.737</v>
       </c>
       <c r="D4" t="n">
-        <v>27.6421</v>
+        <v>27.7142</v>
       </c>
     </row>
     <row r="5">
@@ -5185,13 +5185,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>15.1174</v>
+        <v>15.123</v>
       </c>
       <c r="C5" t="n">
-        <v>18.6112</v>
+        <v>18.6392</v>
       </c>
       <c r="D5" t="n">
-        <v>31.7923</v>
+        <v>31.3198</v>
       </c>
     </row>
     <row r="6">
@@ -5199,13 +5199,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>18.219</v>
+        <v>18.207</v>
       </c>
       <c r="C6" t="n">
-        <v>21.5666</v>
+        <v>21.531</v>
       </c>
       <c r="D6" t="n">
-        <v>37.83</v>
+        <v>37.5615</v>
       </c>
     </row>
     <row r="7">
@@ -5213,13 +5213,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>21.6227</v>
+        <v>21.6568</v>
       </c>
       <c r="C7" t="n">
-        <v>25.3767</v>
+        <v>25.3355</v>
       </c>
       <c r="D7" t="n">
-        <v>44.2903</v>
+        <v>44.752</v>
       </c>
     </row>
     <row r="8">
@@ -5227,13 +5227,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>19.3812</v>
+        <v>19.7405</v>
       </c>
       <c r="C8" t="n">
-        <v>24.2309</v>
+        <v>24.3689</v>
       </c>
       <c r="D8" t="n">
-        <v>40.4318</v>
+        <v>40.9269</v>
       </c>
     </row>
     <row r="9">
@@ -5241,13 +5241,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>20.1814</v>
+        <v>20.1671</v>
       </c>
       <c r="C9" t="n">
-        <v>24.4579</v>
+        <v>24.2835</v>
       </c>
       <c r="D9" t="n">
-        <v>40.58</v>
+        <v>40.2757</v>
       </c>
     </row>
     <row r="10">
@@ -5255,13 +5255,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>20.1019</v>
+        <v>20.3367</v>
       </c>
       <c r="C10" t="n">
-        <v>24.4358</v>
+        <v>24.6437</v>
       </c>
       <c r="D10" t="n">
-        <v>40.0128</v>
+        <v>41.2401</v>
       </c>
     </row>
     <row r="11">
@@ -5269,13 +5269,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>20.8107</v>
+        <v>20.2804</v>
       </c>
       <c r="C11" t="n">
-        <v>24.5699</v>
+        <v>24.5111</v>
       </c>
       <c r="D11" t="n">
-        <v>40.4856</v>
+        <v>41.5948</v>
       </c>
     </row>
     <row r="12">
@@ -5283,13 +5283,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>20.4483</v>
+        <v>20.5136</v>
       </c>
       <c r="C12" t="n">
-        <v>24.7257</v>
+        <v>24.3393</v>
       </c>
       <c r="D12" t="n">
-        <v>40.548</v>
+        <v>41.4703</v>
       </c>
     </row>
     <row r="13">
@@ -5297,13 +5297,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>20.5759</v>
+        <v>20.6281</v>
       </c>
       <c r="C13" t="n">
-        <v>24.8293</v>
+        <v>24.6056</v>
       </c>
       <c r="D13" t="n">
-        <v>41.3811</v>
+        <v>40.9008</v>
       </c>
     </row>
     <row r="14">
@@ -5311,13 +5311,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>20.2469</v>
+        <v>20.5128</v>
       </c>
       <c r="C14" t="n">
-        <v>24.5504</v>
+        <v>24.494</v>
       </c>
       <c r="D14" t="n">
-        <v>41.3132</v>
+        <v>41.3583</v>
       </c>
     </row>
     <row r="15">
@@ -5325,13 +5325,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>20.6576</v>
+        <v>20.3277</v>
       </c>
       <c r="C15" t="n">
-        <v>24.6962</v>
+        <v>24.7764</v>
       </c>
       <c r="D15" t="n">
-        <v>41.5161</v>
+        <v>41.722</v>
       </c>
     </row>
     <row r="16">
@@ -5339,13 +5339,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>20.5117</v>
+        <v>20.6003</v>
       </c>
       <c r="C16" t="n">
-        <v>24.7119</v>
+        <v>24.6205</v>
       </c>
       <c r="D16" t="n">
-        <v>41.589</v>
+        <v>40.377</v>
       </c>
     </row>
     <row r="17">
@@ -5353,13 +5353,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>20.3476</v>
+        <v>20.4113</v>
       </c>
       <c r="C17" t="n">
-        <v>24.6587</v>
+        <v>24.9348</v>
       </c>
       <c r="D17" t="n">
-        <v>42.0527</v>
+        <v>41.8093</v>
       </c>
     </row>
   </sheetData>
@@ -5407,13 +5407,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>7.57758</v>
+        <v>7.62863</v>
       </c>
       <c r="C2" t="n">
-        <v>8.86971</v>
+        <v>8.883620000000001</v>
       </c>
       <c r="D2" t="n">
-        <v>11.4325</v>
+        <v>11.4249</v>
       </c>
     </row>
     <row r="3">
@@ -5421,13 +5421,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>14.6323</v>
+        <v>14.6114</v>
       </c>
       <c r="C3" t="n">
-        <v>15.1066</v>
+        <v>15.1199</v>
       </c>
       <c r="D3" t="n">
-        <v>21.8407</v>
+        <v>21.7846</v>
       </c>
     </row>
     <row r="4">
@@ -5435,13 +5435,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>21.0241</v>
+        <v>21.0643</v>
       </c>
       <c r="C4" t="n">
-        <v>20.8365</v>
+        <v>20.503</v>
       </c>
       <c r="D4" t="n">
-        <v>31.704</v>
+        <v>31.2756</v>
       </c>
     </row>
     <row r="5">
@@ -5449,13 +5449,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>20.9967</v>
+        <v>20.8225</v>
       </c>
       <c r="C5" t="n">
-        <v>20.1757</v>
+        <v>19.9456</v>
       </c>
       <c r="D5" t="n">
-        <v>33.5068</v>
+        <v>33.6241</v>
       </c>
     </row>
     <row r="6">
@@ -5463,13 +5463,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>24.2282</v>
+        <v>24.2518</v>
       </c>
       <c r="C6" t="n">
-        <v>22.9369</v>
+        <v>22.8696</v>
       </c>
       <c r="D6" t="n">
-        <v>39.3433</v>
+        <v>39.497</v>
       </c>
     </row>
     <row r="7">
@@ -5477,13 +5477,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>29.3927</v>
+        <v>29.4054</v>
       </c>
       <c r="C7" t="n">
-        <v>26.6496</v>
+        <v>26.5821</v>
       </c>
       <c r="D7" t="n">
-        <v>47.4559</v>
+        <v>47.6151</v>
       </c>
     </row>
     <row r="8">
@@ -5491,13 +5491,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>27.0101</v>
+        <v>26.4979</v>
       </c>
       <c r="C8" t="n">
-        <v>25.9807</v>
+        <v>25.5341</v>
       </c>
       <c r="D8" t="n">
-        <v>44.0923</v>
+        <v>44.0469</v>
       </c>
     </row>
     <row r="9">
@@ -5505,13 +5505,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>27.4912</v>
+        <v>27.8004</v>
       </c>
       <c r="C9" t="n">
-        <v>25.8788</v>
+        <v>25.6384</v>
       </c>
       <c r="D9" t="n">
-        <v>43.126</v>
+        <v>43.7042</v>
       </c>
     </row>
     <row r="10">
@@ -5519,13 +5519,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>27.8381</v>
+        <v>27.7734</v>
       </c>
       <c r="C10" t="n">
-        <v>25.8637</v>
+        <v>25.8321</v>
       </c>
       <c r="D10" t="n">
-        <v>44.7957</v>
+        <v>43.6156</v>
       </c>
     </row>
     <row r="11">
@@ -5533,13 +5533,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>27.755</v>
+        <v>28.2034</v>
       </c>
       <c r="C11" t="n">
-        <v>25.9328</v>
+        <v>25.7321</v>
       </c>
       <c r="D11" t="n">
-        <v>43.483</v>
+        <v>44.1287</v>
       </c>
     </row>
     <row r="12">
@@ -5547,13 +5547,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>27.9569</v>
+        <v>28.1914</v>
       </c>
       <c r="C12" t="n">
-        <v>25.872</v>
+        <v>25.9147</v>
       </c>
       <c r="D12" t="n">
-        <v>44.1559</v>
+        <v>43.8533</v>
       </c>
     </row>
     <row r="13">
@@ -5561,13 +5561,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>27.4642</v>
+        <v>28.074</v>
       </c>
       <c r="C13" t="n">
-        <v>26.1489</v>
+        <v>26.1898</v>
       </c>
       <c r="D13" t="n">
-        <v>44.445</v>
+        <v>43.7556</v>
       </c>
     </row>
     <row r="14">
@@ -5575,13 +5575,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>28.25</v>
+        <v>27.9062</v>
       </c>
       <c r="C14" t="n">
-        <v>26.105</v>
+        <v>26.0378</v>
       </c>
       <c r="D14" t="n">
-        <v>43.5423</v>
+        <v>44.4673</v>
       </c>
     </row>
     <row r="15">
@@ -5589,13 +5589,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>27.9201</v>
+        <v>28.2356</v>
       </c>
       <c r="C15" t="n">
-        <v>26.1518</v>
+        <v>26.0977</v>
       </c>
       <c r="D15" t="n">
-        <v>44.4883</v>
+        <v>44.2294</v>
       </c>
     </row>
     <row r="16">
@@ -5603,13 +5603,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>28.4475</v>
+        <v>28.0045</v>
       </c>
       <c r="C16" t="n">
-        <v>26.115</v>
+        <v>26.0793</v>
       </c>
       <c r="D16" t="n">
-        <v>44.0683</v>
+        <v>44.2723</v>
       </c>
     </row>
     <row r="17">
@@ -5617,13 +5617,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>28.1278</v>
+        <v>27.6992</v>
       </c>
       <c r="C17" t="n">
-        <v>26.2182</v>
+        <v>25.9545</v>
       </c>
       <c r="D17" t="n">
-        <v>44.3313</v>
+        <v>43.9361</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Parallel workload.xlsx
+++ b/vs-x86/Parallel workload.xlsx
@@ -4087,13 +4087,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>7.94984</v>
+        <v>8.025779999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>8.72532</v>
+        <v>8.7315</v>
       </c>
       <c r="D2" t="n">
-        <v>11.3523</v>
+        <v>11.3779</v>
       </c>
     </row>
     <row r="3">
@@ -4101,13 +4101,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>14.9364</v>
+        <v>15.1521</v>
       </c>
       <c r="C3" t="n">
-        <v>14.1211</v>
+        <v>14.1875</v>
       </c>
       <c r="D3" t="n">
-        <v>19.9482</v>
+        <v>19.7265</v>
       </c>
     </row>
     <row r="4">
@@ -4115,13 +4115,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>21.0967</v>
+        <v>20.6487</v>
       </c>
       <c r="C4" t="n">
-        <v>17.8071</v>
+        <v>18.314</v>
       </c>
       <c r="D4" t="n">
-        <v>27.173</v>
+        <v>24.8518</v>
       </c>
     </row>
     <row r="5">
@@ -4129,13 +4129,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>17.8435</v>
+        <v>18.1092</v>
       </c>
       <c r="C5" t="n">
-        <v>19.2544</v>
+        <v>19.242</v>
       </c>
       <c r="D5" t="n">
-        <v>30.2684</v>
+        <v>28.7565</v>
       </c>
     </row>
     <row r="6">
@@ -4143,13 +4143,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>21.0899</v>
+        <v>21.13</v>
       </c>
       <c r="C6" t="n">
-        <v>22.4378</v>
+        <v>22.5462</v>
       </c>
       <c r="D6" t="n">
-        <v>35.1929</v>
+        <v>31.6396</v>
       </c>
     </row>
     <row r="7">
@@ -4157,13 +4157,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>24.9234</v>
+        <v>25.0249</v>
       </c>
       <c r="C7" t="n">
-        <v>26.467</v>
+        <v>26.4955</v>
       </c>
       <c r="D7" t="n">
-        <v>39.3487</v>
+        <v>33.9427</v>
       </c>
     </row>
     <row r="8">
@@ -4171,13 +4171,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>18.368</v>
+        <v>18.3785</v>
       </c>
       <c r="C8" t="n">
-        <v>24.5395</v>
+        <v>24.6322</v>
       </c>
       <c r="D8" t="n">
-        <v>34.9066</v>
+        <v>32.4558</v>
       </c>
     </row>
     <row r="9">
@@ -4185,13 +4185,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>20.7291</v>
+        <v>20.8476</v>
       </c>
       <c r="C9" t="n">
-        <v>24.2041</v>
+        <v>24.5876</v>
       </c>
       <c r="D9" t="n">
-        <v>36.6924</v>
+        <v>34.2592</v>
       </c>
     </row>
     <row r="10">
@@ -4199,13 +4199,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>22.8296</v>
+        <v>22.8838</v>
       </c>
       <c r="C10" t="n">
-        <v>24.3877</v>
+        <v>24.7036</v>
       </c>
       <c r="D10" t="n">
-        <v>36.9811</v>
+        <v>37.9894</v>
       </c>
     </row>
     <row r="11">
@@ -4213,13 +4213,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>20.8088</v>
+        <v>21.0872</v>
       </c>
       <c r="C11" t="n">
-        <v>24.761</v>
+        <v>24.5755</v>
       </c>
       <c r="D11" t="n">
-        <v>37.6677</v>
+        <v>39.6614</v>
       </c>
     </row>
     <row r="12">
@@ -4227,13 +4227,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>22.9293</v>
+        <v>22.8967</v>
       </c>
       <c r="C12" t="n">
-        <v>24.7174</v>
+        <v>25.0637</v>
       </c>
       <c r="D12" t="n">
-        <v>39.1793</v>
+        <v>39.8114</v>
       </c>
     </row>
     <row r="13">
@@ -4241,13 +4241,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>24.9412</v>
+        <v>25.0068</v>
       </c>
       <c r="C13" t="n">
-        <v>25.3657</v>
+        <v>25.3988</v>
       </c>
       <c r="D13" t="n">
-        <v>39.5184</v>
+        <v>40.1742</v>
       </c>
     </row>
     <row r="14">
@@ -4255,13 +4255,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>20.6366</v>
+        <v>20.7572</v>
       </c>
       <c r="C14" t="n">
-        <v>24.6325</v>
+        <v>25.2127</v>
       </c>
       <c r="D14" t="n">
-        <v>39.8718</v>
+        <v>40.0456</v>
       </c>
     </row>
     <row r="15">
@@ -4269,13 +4269,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>22.0811</v>
+        <v>22.3037</v>
       </c>
       <c r="C15" t="n">
-        <v>24.6798</v>
+        <v>24.9371</v>
       </c>
       <c r="D15" t="n">
-        <v>39.7438</v>
+        <v>40.0015</v>
       </c>
     </row>
     <row r="16">
@@ -4283,13 +4283,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>23.2443</v>
+        <v>23.171</v>
       </c>
       <c r="C16" t="n">
-        <v>25.1802</v>
+        <v>24.916</v>
       </c>
       <c r="D16" t="n">
-        <v>40.0926</v>
+        <v>41.0807</v>
       </c>
     </row>
     <row r="17">
@@ -4297,13 +4297,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>22.2972</v>
+        <v>22.3183</v>
       </c>
       <c r="C17" t="n">
-        <v>25.1067</v>
+        <v>25.185</v>
       </c>
       <c r="D17" t="n">
-        <v>40.6829</v>
+        <v>42.0154</v>
       </c>
     </row>
   </sheetData>
@@ -4351,13 +4351,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>7.98863</v>
+        <v>7.9872</v>
       </c>
       <c r="C2" t="n">
-        <v>8.66291</v>
+        <v>8.71932</v>
       </c>
       <c r="D2" t="n">
-        <v>11.2462</v>
+        <v>11.292</v>
       </c>
     </row>
     <row r="3">
@@ -4365,13 +4365,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>15.0516</v>
+        <v>15.1222</v>
       </c>
       <c r="C3" t="n">
-        <v>14.2788</v>
+        <v>14.2185</v>
       </c>
       <c r="D3" t="n">
-        <v>19.8948</v>
+        <v>19.6991</v>
       </c>
     </row>
     <row r="4">
@@ -4379,13 +4379,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>21.3393</v>
+        <v>21.1744</v>
       </c>
       <c r="C4" t="n">
-        <v>18.3862</v>
+        <v>17.8629</v>
       </c>
       <c r="D4" t="n">
-        <v>26.9826</v>
+        <v>24.5505</v>
       </c>
     </row>
     <row r="5">
@@ -4393,13 +4393,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>17.7147</v>
+        <v>17.8576</v>
       </c>
       <c r="C5" t="n">
-        <v>19.2526</v>
+        <v>19.0596</v>
       </c>
       <c r="D5" t="n">
-        <v>28.4117</v>
+        <v>26.0576</v>
       </c>
     </row>
     <row r="6">
@@ -4407,13 +4407,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>21.3791</v>
+        <v>21.3962</v>
       </c>
       <c r="C6" t="n">
-        <v>22.4792</v>
+        <v>22.3977</v>
       </c>
       <c r="D6" t="n">
-        <v>33.4417</v>
+        <v>30.2058</v>
       </c>
     </row>
     <row r="7">
@@ -4421,13 +4421,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>25.4217</v>
+        <v>25.5256</v>
       </c>
       <c r="C7" t="n">
-        <v>26.3028</v>
+        <v>26.4695</v>
       </c>
       <c r="D7" t="n">
-        <v>39.6267</v>
+        <v>35.0713</v>
       </c>
     </row>
     <row r="8">
@@ -4435,13 +4435,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>18.3641</v>
+        <v>18.4516</v>
       </c>
       <c r="C8" t="n">
-        <v>24.3329</v>
+        <v>23.9198</v>
       </c>
       <c r="D8" t="n">
-        <v>35.2703</v>
+        <v>33.3506</v>
       </c>
     </row>
     <row r="9">
@@ -4449,13 +4449,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>20.8512</v>
+        <v>20.9967</v>
       </c>
       <c r="C9" t="n">
-        <v>24.3964</v>
+        <v>23.9997</v>
       </c>
       <c r="D9" t="n">
-        <v>36.0331</v>
+        <v>35.0848</v>
       </c>
     </row>
     <row r="10">
@@ -4463,13 +4463,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>23.2346</v>
+        <v>22.7733</v>
       </c>
       <c r="C10" t="n">
-        <v>24.2385</v>
+        <v>24.4628</v>
       </c>
       <c r="D10" t="n">
-        <v>37.1338</v>
+        <v>35.8906</v>
       </c>
     </row>
     <row r="11">
@@ -4477,13 +4477,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>21.2733</v>
+        <v>21.5256</v>
       </c>
       <c r="C11" t="n">
-        <v>24.5186</v>
+        <v>24.3164</v>
       </c>
       <c r="D11" t="n">
-        <v>38.497</v>
+        <v>39.786</v>
       </c>
     </row>
     <row r="12">
@@ -4491,13 +4491,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>23.2381</v>
+        <v>23.2422</v>
       </c>
       <c r="C12" t="n">
-        <v>24.6485</v>
+        <v>24.9538</v>
       </c>
       <c r="D12" t="n">
-        <v>39.7555</v>
+        <v>38.9062</v>
       </c>
     </row>
     <row r="13">
@@ -4505,13 +4505,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>25.3703</v>
+        <v>25.4651</v>
       </c>
       <c r="C13" t="n">
-        <v>25.1865</v>
+        <v>25.2411</v>
       </c>
       <c r="D13" t="n">
-        <v>39.4142</v>
+        <v>40.4072</v>
       </c>
     </row>
     <row r="14">
@@ -4519,13 +4519,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>20.5453</v>
+        <v>20.9198</v>
       </c>
       <c r="C14" t="n">
-        <v>25.2303</v>
+        <v>25.1752</v>
       </c>
       <c r="D14" t="n">
-        <v>40.3334</v>
+        <v>39.1216</v>
       </c>
     </row>
     <row r="15">
@@ -4533,13 +4533,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>22.5394</v>
+        <v>22.5539</v>
       </c>
       <c r="C15" t="n">
-        <v>24.9181</v>
+        <v>25.1832</v>
       </c>
       <c r="D15" t="n">
-        <v>39.853</v>
+        <v>40.7301</v>
       </c>
     </row>
     <row r="16">
@@ -4547,13 +4547,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>23.6551</v>
+        <v>23.6962</v>
       </c>
       <c r="C16" t="n">
-        <v>25.5055</v>
+        <v>25.4637</v>
       </c>
       <c r="D16" t="n">
-        <v>39.9238</v>
+        <v>40.422</v>
       </c>
     </row>
     <row r="17">
@@ -4561,13 +4561,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>22.6092</v>
+        <v>22.5821</v>
       </c>
       <c r="C17" t="n">
-        <v>25.4098</v>
+        <v>25.4992</v>
       </c>
       <c r="D17" t="n">
-        <v>40.4028</v>
+        <v>41.0329</v>
       </c>
     </row>
   </sheetData>
@@ -4615,13 +4615,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>9.087350000000001</v>
+        <v>9.130380000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>9.14526</v>
+        <v>9.18242</v>
       </c>
       <c r="D2" t="n">
-        <v>11.6752</v>
+        <v>11.7398</v>
       </c>
     </row>
     <row r="3">
@@ -4629,13 +4629,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>16.622</v>
+        <v>16.7335</v>
       </c>
       <c r="C3" t="n">
-        <v>15.7675</v>
+        <v>15.9937</v>
       </c>
       <c r="D3" t="n">
-        <v>21.0496</v>
+        <v>20.8199</v>
       </c>
     </row>
     <row r="4">
@@ -4643,13 +4643,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>23.5636</v>
+        <v>23.4056</v>
       </c>
       <c r="C4" t="n">
-        <v>22.0395</v>
+        <v>21.4058</v>
       </c>
       <c r="D4" t="n">
-        <v>28.768</v>
+        <v>27.2562</v>
       </c>
     </row>
     <row r="5">
@@ -4657,13 +4657,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>20.9402</v>
+        <v>20.9479</v>
       </c>
       <c r="C5" t="n">
-        <v>19.9772</v>
+        <v>19.9418</v>
       </c>
       <c r="D5" t="n">
-        <v>30.9679</v>
+        <v>29.2236</v>
       </c>
     </row>
     <row r="6">
@@ -4671,13 +4671,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>25.5848</v>
+        <v>25.682</v>
       </c>
       <c r="C6" t="n">
-        <v>22.8583</v>
+        <v>22.9726</v>
       </c>
       <c r="D6" t="n">
-        <v>35.1647</v>
+        <v>28.9348</v>
       </c>
     </row>
     <row r="7">
@@ -4685,13 +4685,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>30.4062</v>
+        <v>30.6121</v>
       </c>
       <c r="C7" t="n">
-        <v>26.9283</v>
+        <v>26.9827</v>
       </c>
       <c r="D7" t="n">
-        <v>39.4123</v>
+        <v>34.8738</v>
       </c>
     </row>
     <row r="8">
@@ -4699,13 +4699,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>27.6812</v>
+        <v>26.5221</v>
       </c>
       <c r="C8" t="n">
-        <v>23.9481</v>
+        <v>24.2936</v>
       </c>
       <c r="D8" t="n">
-        <v>36.2651</v>
+        <v>33.2095</v>
       </c>
     </row>
     <row r="9">
@@ -4713,13 +4713,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>27.0081</v>
+        <v>27.3558</v>
       </c>
       <c r="C9" t="n">
-        <v>24.4301</v>
+        <v>23.9533</v>
       </c>
       <c r="D9" t="n">
-        <v>38.8883</v>
+        <v>36.4837</v>
       </c>
     </row>
     <row r="10">
@@ -4727,13 +4727,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>27.9439</v>
+        <v>27.775</v>
       </c>
       <c r="C10" t="n">
-        <v>24.6969</v>
+        <v>24.6884</v>
       </c>
       <c r="D10" t="n">
-        <v>39.4869</v>
+        <v>38.3849</v>
       </c>
     </row>
     <row r="11">
@@ -4741,13 +4741,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>27.8061</v>
+        <v>28.3744</v>
       </c>
       <c r="C11" t="n">
-        <v>24.5817</v>
+        <v>24.4944</v>
       </c>
       <c r="D11" t="n">
-        <v>39.4401</v>
+        <v>39.1171</v>
       </c>
     </row>
     <row r="12">
@@ -4755,13 +4755,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>28.0162</v>
+        <v>27.8587</v>
       </c>
       <c r="C12" t="n">
-        <v>25.0903</v>
+        <v>25.0327</v>
       </c>
       <c r="D12" t="n">
-        <v>42.0555</v>
+        <v>40.4487</v>
       </c>
     </row>
     <row r="13">
@@ -4769,13 +4769,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>28.7327</v>
+        <v>28.4141</v>
       </c>
       <c r="C13" t="n">
-        <v>24.8055</v>
+        <v>25.4636</v>
       </c>
       <c r="D13" t="n">
-        <v>45.1484</v>
+        <v>39.1893</v>
       </c>
     </row>
     <row r="14">
@@ -4783,13 +4783,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>27.7367</v>
+        <v>28.5758</v>
       </c>
       <c r="C14" t="n">
-        <v>24.7901</v>
+        <v>25.156</v>
       </c>
       <c r="D14" t="n">
-        <v>39.2153</v>
+        <v>40.4169</v>
       </c>
     </row>
     <row r="15">
@@ -4797,13 +4797,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>28.1133</v>
+        <v>28.495</v>
       </c>
       <c r="C15" t="n">
-        <v>24.7544</v>
+        <v>25.2577</v>
       </c>
       <c r="D15" t="n">
-        <v>39.6249</v>
+        <v>40.4686</v>
       </c>
     </row>
     <row r="16">
@@ -4811,13 +4811,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>28.2979</v>
+        <v>28.3695</v>
       </c>
       <c r="C16" t="n">
-        <v>25.0087</v>
+        <v>25.0342</v>
       </c>
       <c r="D16" t="n">
-        <v>39.5721</v>
+        <v>39.8589</v>
       </c>
     </row>
     <row r="17">
@@ -4825,13 +4825,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>28.552</v>
+        <v>29.1876</v>
       </c>
       <c r="C17" t="n">
-        <v>25.1839</v>
+        <v>25.5824</v>
       </c>
       <c r="D17" t="n">
-        <v>40.1325</v>
+        <v>40.9364</v>
       </c>
     </row>
   </sheetData>
@@ -4879,13 +4879,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4.58324</v>
+        <v>4.58314</v>
       </c>
       <c r="C2" t="n">
-        <v>7.62405</v>
+        <v>7.62525</v>
       </c>
       <c r="D2" t="n">
-        <v>9.90713</v>
+        <v>9.93858</v>
       </c>
     </row>
     <row r="3">
@@ -4893,13 +4893,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.01268</v>
+        <v>8.99686</v>
       </c>
       <c r="C3" t="n">
-        <v>13.4045</v>
+        <v>13.3642</v>
       </c>
       <c r="D3" t="n">
-        <v>19.1395</v>
+        <v>19.1762</v>
       </c>
     </row>
     <row r="4">
@@ -4907,13 +4907,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>13.0505</v>
+        <v>13.0578</v>
       </c>
       <c r="C4" t="n">
-        <v>18.582</v>
+        <v>18.5392</v>
       </c>
       <c r="D4" t="n">
-        <v>27.5988</v>
+        <v>27.5499</v>
       </c>
     </row>
     <row r="5">
@@ -4921,13 +4921,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>14.7803</v>
+        <v>14.8646</v>
       </c>
       <c r="C5" t="n">
-        <v>18.5932</v>
+        <v>18.6728</v>
       </c>
       <c r="D5" t="n">
-        <v>31.9455</v>
+        <v>32.1809</v>
       </c>
     </row>
     <row r="6">
@@ -4935,13 +4935,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>17.9084</v>
+        <v>17.8549</v>
       </c>
       <c r="C6" t="n">
-        <v>21.5699</v>
+        <v>21.6395</v>
       </c>
       <c r="D6" t="n">
-        <v>38.2339</v>
+        <v>38.0911</v>
       </c>
     </row>
     <row r="7">
@@ -4949,13 +4949,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>21.0687</v>
+        <v>21.1297</v>
       </c>
       <c r="C7" t="n">
-        <v>25.3491</v>
+        <v>25.4324</v>
       </c>
       <c r="D7" t="n">
-        <v>45.4627</v>
+        <v>44.7649</v>
       </c>
     </row>
     <row r="8">
@@ -4963,13 +4963,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>19.0442</v>
+        <v>19.0457</v>
       </c>
       <c r="C8" t="n">
-        <v>24.3455</v>
+        <v>24.2044</v>
       </c>
       <c r="D8" t="n">
-        <v>42.1472</v>
+        <v>40.3037</v>
       </c>
     </row>
     <row r="9">
@@ -4977,13 +4977,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>19.6745</v>
+        <v>19.5498</v>
       </c>
       <c r="C9" t="n">
-        <v>24.342</v>
+        <v>24.435</v>
       </c>
       <c r="D9" t="n">
-        <v>41.5942</v>
+        <v>40.627</v>
       </c>
     </row>
     <row r="10">
@@ -4991,13 +4991,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>19.7922</v>
+        <v>19.6089</v>
       </c>
       <c r="C10" t="n">
-        <v>24.5033</v>
+        <v>24.5268</v>
       </c>
       <c r="D10" t="n">
-        <v>41.7758</v>
+        <v>42.2483</v>
       </c>
     </row>
     <row r="11">
@@ -5005,13 +5005,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>20.2457</v>
+        <v>20.5856</v>
       </c>
       <c r="C11" t="n">
-        <v>24.4625</v>
+        <v>24.6243</v>
       </c>
       <c r="D11" t="n">
-        <v>42.6179</v>
+        <v>40.5632</v>
       </c>
     </row>
     <row r="12">
@@ -5019,13 +5019,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>20.0416</v>
+        <v>19.9354</v>
       </c>
       <c r="C12" t="n">
-        <v>24.6942</v>
+        <v>24.6116</v>
       </c>
       <c r="D12" t="n">
-        <v>40.5108</v>
+        <v>41.7489</v>
       </c>
     </row>
     <row r="13">
@@ -5033,13 +5033,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>20.1144</v>
+        <v>20.065</v>
       </c>
       <c r="C13" t="n">
-        <v>24.7308</v>
+        <v>24.8311</v>
       </c>
       <c r="D13" t="n">
-        <v>41.9766</v>
+        <v>40.7204</v>
       </c>
     </row>
     <row r="14">
@@ -5047,13 +5047,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>20.067</v>
+        <v>19.9891</v>
       </c>
       <c r="C14" t="n">
-        <v>24.4265</v>
+        <v>24.7701</v>
       </c>
       <c r="D14" t="n">
-        <v>42.5728</v>
+        <v>42.2847</v>
       </c>
     </row>
     <row r="15">
@@ -5061,13 +5061,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>20.1531</v>
+        <v>20.0234</v>
       </c>
       <c r="C15" t="n">
-        <v>24.7414</v>
+        <v>24.8819</v>
       </c>
       <c r="D15" t="n">
-        <v>41.6322</v>
+        <v>43.362</v>
       </c>
     </row>
     <row r="16">
@@ -5075,13 +5075,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>20.2773</v>
+        <v>19.8962</v>
       </c>
       <c r="C16" t="n">
-        <v>24.6206</v>
+        <v>24.7739</v>
       </c>
       <c r="D16" t="n">
-        <v>42.3955</v>
+        <v>42.5813</v>
       </c>
     </row>
     <row r="17">
@@ -5089,13 +5089,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>20.4021</v>
+        <v>19.9113</v>
       </c>
       <c r="C17" t="n">
-        <v>24.8827</v>
+        <v>25.1129</v>
       </c>
       <c r="D17" t="n">
-        <v>42.6535</v>
+        <v>43.656</v>
       </c>
     </row>
   </sheetData>
@@ -5143,13 +5143,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4.66629</v>
+        <v>4.65743</v>
       </c>
       <c r="C2" t="n">
-        <v>7.64705</v>
+        <v>7.62771</v>
       </c>
       <c r="D2" t="n">
-        <v>9.89428</v>
+        <v>9.848319999999999</v>
       </c>
     </row>
     <row r="3">
@@ -5157,13 +5157,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.206910000000001</v>
+        <v>9.140459999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>13.3828</v>
+        <v>13.2573</v>
       </c>
       <c r="D3" t="n">
-        <v>19.1272</v>
+        <v>18.8866</v>
       </c>
     </row>
     <row r="4">
@@ -5171,13 +5171,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>13.3984</v>
+        <v>13.2734</v>
       </c>
       <c r="C4" t="n">
-        <v>18.737</v>
+        <v>18.5264</v>
       </c>
       <c r="D4" t="n">
-        <v>27.7142</v>
+        <v>27.5235</v>
       </c>
     </row>
     <row r="5">
@@ -5185,13 +5185,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>15.123</v>
+        <v>15.2478</v>
       </c>
       <c r="C5" t="n">
-        <v>18.6392</v>
+        <v>18.7226</v>
       </c>
       <c r="D5" t="n">
-        <v>31.3198</v>
+        <v>31.768</v>
       </c>
     </row>
     <row r="6">
@@ -5199,13 +5199,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>18.207</v>
+        <v>18.2625</v>
       </c>
       <c r="C6" t="n">
-        <v>21.531</v>
+        <v>21.5812</v>
       </c>
       <c r="D6" t="n">
-        <v>37.5615</v>
+        <v>37.6963</v>
       </c>
     </row>
     <row r="7">
@@ -5213,13 +5213,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>21.6568</v>
+        <v>21.6695</v>
       </c>
       <c r="C7" t="n">
-        <v>25.3355</v>
+        <v>25.4197</v>
       </c>
       <c r="D7" t="n">
-        <v>44.752</v>
+        <v>44.1225</v>
       </c>
     </row>
     <row r="8">
@@ -5227,13 +5227,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>19.7405</v>
+        <v>19.7308</v>
       </c>
       <c r="C8" t="n">
-        <v>24.3689</v>
+        <v>24.574</v>
       </c>
       <c r="D8" t="n">
-        <v>40.9269</v>
+        <v>40.1527</v>
       </c>
     </row>
     <row r="9">
@@ -5241,13 +5241,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>20.1671</v>
+        <v>19.974</v>
       </c>
       <c r="C9" t="n">
-        <v>24.2835</v>
+        <v>24.5666</v>
       </c>
       <c r="D9" t="n">
-        <v>40.2757</v>
+        <v>40.149</v>
       </c>
     </row>
     <row r="10">
@@ -5255,13 +5255,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>20.3367</v>
+        <v>20.315</v>
       </c>
       <c r="C10" t="n">
-        <v>24.6437</v>
+        <v>24.5101</v>
       </c>
       <c r="D10" t="n">
-        <v>41.2401</v>
+        <v>41.8286</v>
       </c>
     </row>
     <row r="11">
@@ -5269,13 +5269,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>20.2804</v>
+        <v>20.631</v>
       </c>
       <c r="C11" t="n">
-        <v>24.5111</v>
+        <v>24.6681</v>
       </c>
       <c r="D11" t="n">
-        <v>41.5948</v>
+        <v>41.226</v>
       </c>
     </row>
     <row r="12">
@@ -5283,13 +5283,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>20.5136</v>
+        <v>20.3869</v>
       </c>
       <c r="C12" t="n">
-        <v>24.3393</v>
+        <v>24.6954</v>
       </c>
       <c r="D12" t="n">
-        <v>41.4703</v>
+        <v>42.0707</v>
       </c>
     </row>
     <row r="13">
@@ -5297,13 +5297,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>20.6281</v>
+        <v>20.4005</v>
       </c>
       <c r="C13" t="n">
-        <v>24.6056</v>
+        <v>24.9901</v>
       </c>
       <c r="D13" t="n">
-        <v>40.9008</v>
+        <v>39.9807</v>
       </c>
     </row>
     <row r="14">
@@ -5311,13 +5311,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>20.5128</v>
+        <v>20.1178</v>
       </c>
       <c r="C14" t="n">
-        <v>24.494</v>
+        <v>24.8118</v>
       </c>
       <c r="D14" t="n">
-        <v>41.3583</v>
+        <v>43.1372</v>
       </c>
     </row>
     <row r="15">
@@ -5325,13 +5325,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>20.3277</v>
+        <v>20.5984</v>
       </c>
       <c r="C15" t="n">
-        <v>24.7764</v>
+        <v>24.9603</v>
       </c>
       <c r="D15" t="n">
-        <v>41.722</v>
+        <v>40.5107</v>
       </c>
     </row>
     <row r="16">
@@ -5339,13 +5339,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>20.6003</v>
+        <v>20.8269</v>
       </c>
       <c r="C16" t="n">
-        <v>24.6205</v>
+        <v>24.725</v>
       </c>
       <c r="D16" t="n">
-        <v>40.377</v>
+        <v>42.4278</v>
       </c>
     </row>
     <row r="17">
@@ -5353,13 +5353,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>20.4113</v>
+        <v>20.6512</v>
       </c>
       <c r="C17" t="n">
-        <v>24.9348</v>
+        <v>24.9184</v>
       </c>
       <c r="D17" t="n">
-        <v>41.8093</v>
+        <v>41.7036</v>
       </c>
     </row>
   </sheetData>
@@ -5407,13 +5407,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>7.62863</v>
+        <v>7.57756</v>
       </c>
       <c r="C2" t="n">
-        <v>8.883620000000001</v>
+        <v>8.882960000000001</v>
       </c>
       <c r="D2" t="n">
-        <v>11.4249</v>
+        <v>11.4356</v>
       </c>
     </row>
     <row r="3">
@@ -5421,13 +5421,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>14.6114</v>
+        <v>14.495</v>
       </c>
       <c r="C3" t="n">
-        <v>15.1199</v>
+        <v>15.0397</v>
       </c>
       <c r="D3" t="n">
-        <v>21.7846</v>
+        <v>21.8122</v>
       </c>
     </row>
     <row r="4">
@@ -5435,13 +5435,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>21.0643</v>
+        <v>20.7924</v>
       </c>
       <c r="C4" t="n">
-        <v>20.503</v>
+        <v>20.8594</v>
       </c>
       <c r="D4" t="n">
-        <v>31.2756</v>
+        <v>30.9917</v>
       </c>
     </row>
     <row r="5">
@@ -5449,13 +5449,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>20.8225</v>
+        <v>21.3869</v>
       </c>
       <c r="C5" t="n">
-        <v>19.9456</v>
+        <v>20.2088</v>
       </c>
       <c r="D5" t="n">
-        <v>33.6241</v>
+        <v>33.2995</v>
       </c>
     </row>
     <row r="6">
@@ -5463,13 +5463,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>24.2518</v>
+        <v>24.3627</v>
       </c>
       <c r="C6" t="n">
-        <v>22.8696</v>
+        <v>22.9735</v>
       </c>
       <c r="D6" t="n">
-        <v>39.497</v>
+        <v>39.4277</v>
       </c>
     </row>
     <row r="7">
@@ -5477,13 +5477,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>29.4054</v>
+        <v>29.4193</v>
       </c>
       <c r="C7" t="n">
-        <v>26.5821</v>
+        <v>26.6558</v>
       </c>
       <c r="D7" t="n">
-        <v>47.6151</v>
+        <v>47.2966</v>
       </c>
     </row>
     <row r="8">
@@ -5491,13 +5491,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>26.4979</v>
+        <v>26.7075</v>
       </c>
       <c r="C8" t="n">
-        <v>25.5341</v>
+        <v>26.0002</v>
       </c>
       <c r="D8" t="n">
-        <v>44.0469</v>
+        <v>43.8706</v>
       </c>
     </row>
     <row r="9">
@@ -5505,13 +5505,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>27.8004</v>
+        <v>27.0711</v>
       </c>
       <c r="C9" t="n">
-        <v>25.6384</v>
+        <v>25.762</v>
       </c>
       <c r="D9" t="n">
-        <v>43.7042</v>
+        <v>43.0876</v>
       </c>
     </row>
     <row r="10">
@@ -5519,13 +5519,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>27.7734</v>
+        <v>27.6086</v>
       </c>
       <c r="C10" t="n">
-        <v>25.8321</v>
+        <v>25.8096</v>
       </c>
       <c r="D10" t="n">
-        <v>43.6156</v>
+        <v>44.4814</v>
       </c>
     </row>
     <row r="11">
@@ -5533,13 +5533,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>28.2034</v>
+        <v>27.9634</v>
       </c>
       <c r="C11" t="n">
-        <v>25.7321</v>
+        <v>25.7869</v>
       </c>
       <c r="D11" t="n">
-        <v>44.1287</v>
+        <v>43.7084</v>
       </c>
     </row>
     <row r="12">
@@ -5547,13 +5547,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>28.1914</v>
+        <v>27.8392</v>
       </c>
       <c r="C12" t="n">
-        <v>25.9147</v>
+        <v>26.0643</v>
       </c>
       <c r="D12" t="n">
-        <v>43.8533</v>
+        <v>44.9447</v>
       </c>
     </row>
     <row r="13">
@@ -5561,13 +5561,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>28.074</v>
+        <v>28.1945</v>
       </c>
       <c r="C13" t="n">
-        <v>26.1898</v>
+        <v>26.3628</v>
       </c>
       <c r="D13" t="n">
-        <v>43.7556</v>
+        <v>44.8882</v>
       </c>
     </row>
     <row r="14">
@@ -5575,13 +5575,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>27.9062</v>
+        <v>28.0172</v>
       </c>
       <c r="C14" t="n">
-        <v>26.0378</v>
+        <v>26.2159</v>
       </c>
       <c r="D14" t="n">
-        <v>44.4673</v>
+        <v>44.1334</v>
       </c>
     </row>
     <row r="15">
@@ -5589,13 +5589,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>28.2356</v>
+        <v>28.4181</v>
       </c>
       <c r="C15" t="n">
-        <v>26.0977</v>
+        <v>26.0544</v>
       </c>
       <c r="D15" t="n">
-        <v>44.2294</v>
+        <v>44.9034</v>
       </c>
     </row>
     <row r="16">
@@ -5603,13 +5603,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>28.0045</v>
+        <v>28.0995</v>
       </c>
       <c r="C16" t="n">
-        <v>26.0793</v>
+        <v>26.0986</v>
       </c>
       <c r="D16" t="n">
-        <v>44.2723</v>
+        <v>43.9501</v>
       </c>
     </row>
     <row r="17">
@@ -5617,13 +5617,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>27.6992</v>
+        <v>28.1493</v>
       </c>
       <c r="C17" t="n">
-        <v>25.9545</v>
+        <v>26.2202</v>
       </c>
       <c r="D17" t="n">
-        <v>43.9361</v>
+        <v>44.9553</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Parallel workload.xlsx
+++ b/vs-x86/Parallel workload.xlsx
@@ -4087,13 +4087,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.025779999999999</v>
+        <v>8.02351</v>
       </c>
       <c r="C2" t="n">
-        <v>8.7315</v>
+        <v>8.71585</v>
       </c>
       <c r="D2" t="n">
-        <v>11.3779</v>
+        <v>11.3165</v>
       </c>
     </row>
     <row r="3">
@@ -4101,13 +4101,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>15.1521</v>
+        <v>14.9744</v>
       </c>
       <c r="C3" t="n">
-        <v>14.1875</v>
+        <v>13.8841</v>
       </c>
       <c r="D3" t="n">
-        <v>19.7265</v>
+        <v>19.7878</v>
       </c>
     </row>
     <row r="4">
@@ -4115,13 +4115,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>20.6487</v>
+        <v>20.7748</v>
       </c>
       <c r="C4" t="n">
-        <v>18.314</v>
+        <v>17.9494</v>
       </c>
       <c r="D4" t="n">
-        <v>24.8518</v>
+        <v>24.2281</v>
       </c>
     </row>
     <row r="5">
@@ -4129,13 +4129,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>18.1092</v>
+        <v>17.4022</v>
       </c>
       <c r="C5" t="n">
-        <v>19.242</v>
+        <v>19.1136</v>
       </c>
       <c r="D5" t="n">
-        <v>28.7565</v>
+        <v>28.4167</v>
       </c>
     </row>
     <row r="6">
@@ -4143,13 +4143,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>21.13</v>
+        <v>20.9872</v>
       </c>
       <c r="C6" t="n">
-        <v>22.5462</v>
+        <v>22.4088</v>
       </c>
       <c r="D6" t="n">
-        <v>31.6396</v>
+        <v>31.2706</v>
       </c>
     </row>
     <row r="7">
@@ -4157,13 +4157,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>25.0249</v>
+        <v>24.9398</v>
       </c>
       <c r="C7" t="n">
-        <v>26.4955</v>
+        <v>26.423</v>
       </c>
       <c r="D7" t="n">
-        <v>33.9427</v>
+        <v>31.8618</v>
       </c>
     </row>
     <row r="8">
@@ -4171,13 +4171,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>18.3785</v>
+        <v>18.4544</v>
       </c>
       <c r="C8" t="n">
-        <v>24.6322</v>
+        <v>24.3389</v>
       </c>
       <c r="D8" t="n">
-        <v>32.4558</v>
+        <v>30.7226</v>
       </c>
     </row>
     <row r="9">
@@ -4185,13 +4185,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>20.8476</v>
+        <v>20.6663</v>
       </c>
       <c r="C9" t="n">
-        <v>24.5876</v>
+        <v>24.2613</v>
       </c>
       <c r="D9" t="n">
-        <v>34.2592</v>
+        <v>33.8306</v>
       </c>
     </row>
     <row r="10">
@@ -4199,13 +4199,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>22.8838</v>
+        <v>22.6205</v>
       </c>
       <c r="C10" t="n">
-        <v>24.7036</v>
+        <v>24.8429</v>
       </c>
       <c r="D10" t="n">
-        <v>37.9894</v>
+        <v>36.3861</v>
       </c>
     </row>
     <row r="11">
@@ -4213,13 +4213,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>21.0872</v>
+        <v>20.9371</v>
       </c>
       <c r="C11" t="n">
-        <v>24.5755</v>
+        <v>24.8526</v>
       </c>
       <c r="D11" t="n">
-        <v>39.6614</v>
+        <v>37.1001</v>
       </c>
     </row>
     <row r="12">
@@ -4227,13 +4227,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>22.8967</v>
+        <v>22.7814</v>
       </c>
       <c r="C12" t="n">
-        <v>25.0637</v>
+        <v>24.944</v>
       </c>
       <c r="D12" t="n">
-        <v>39.8114</v>
+        <v>38.9448</v>
       </c>
     </row>
     <row r="13">
@@ -4241,13 +4241,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>25.0068</v>
+        <v>24.8698</v>
       </c>
       <c r="C13" t="n">
-        <v>25.3988</v>
+        <v>25.5655</v>
       </c>
       <c r="D13" t="n">
-        <v>40.1742</v>
+        <v>40.484</v>
       </c>
     </row>
     <row r="14">
@@ -4255,13 +4255,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>20.7572</v>
+        <v>20.7711</v>
       </c>
       <c r="C14" t="n">
-        <v>25.2127</v>
+        <v>24.9003</v>
       </c>
       <c r="D14" t="n">
-        <v>40.0456</v>
+        <v>39.9388</v>
       </c>
     </row>
     <row r="15">
@@ -4269,13 +4269,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>22.3037</v>
+        <v>21.9065</v>
       </c>
       <c r="C15" t="n">
-        <v>24.9371</v>
+        <v>24.8259</v>
       </c>
       <c r="D15" t="n">
-        <v>40.0015</v>
+        <v>39.5047</v>
       </c>
     </row>
     <row r="16">
@@ -4283,13 +4283,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>23.171</v>
+        <v>23.4766</v>
       </c>
       <c r="C16" t="n">
-        <v>24.916</v>
+        <v>25.2757</v>
       </c>
       <c r="D16" t="n">
-        <v>41.0807</v>
+        <v>40.4897</v>
       </c>
     </row>
     <row r="17">
@@ -4297,13 +4297,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>22.3183</v>
+        <v>22.0988</v>
       </c>
       <c r="C17" t="n">
-        <v>25.185</v>
+        <v>25.5566</v>
       </c>
       <c r="D17" t="n">
-        <v>42.0154</v>
+        <v>40.5499</v>
       </c>
     </row>
   </sheetData>
@@ -4351,13 +4351,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>7.9872</v>
+        <v>7.96277</v>
       </c>
       <c r="C2" t="n">
-        <v>8.71932</v>
+        <v>8.676019999999999</v>
       </c>
       <c r="D2" t="n">
-        <v>11.292</v>
+        <v>11.1683</v>
       </c>
     </row>
     <row r="3">
@@ -4365,13 +4365,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>15.1222</v>
+        <v>15.1152</v>
       </c>
       <c r="C3" t="n">
-        <v>14.2185</v>
+        <v>14.1287</v>
       </c>
       <c r="D3" t="n">
-        <v>19.6991</v>
+        <v>19.135</v>
       </c>
     </row>
     <row r="4">
@@ -4379,13 +4379,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>21.1744</v>
+        <v>21.2908</v>
       </c>
       <c r="C4" t="n">
-        <v>17.8629</v>
+        <v>17.6759</v>
       </c>
       <c r="D4" t="n">
-        <v>24.5505</v>
+        <v>25.1709</v>
       </c>
     </row>
     <row r="5">
@@ -4393,13 +4393,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>17.8576</v>
+        <v>18.4958</v>
       </c>
       <c r="C5" t="n">
-        <v>19.0596</v>
+        <v>19.1128</v>
       </c>
       <c r="D5" t="n">
-        <v>26.0576</v>
+        <v>26.1246</v>
       </c>
     </row>
     <row r="6">
@@ -4407,13 +4407,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>21.3962</v>
+        <v>21.3543</v>
       </c>
       <c r="C6" t="n">
-        <v>22.3977</v>
+        <v>22.3241</v>
       </c>
       <c r="D6" t="n">
-        <v>30.2058</v>
+        <v>29.6395</v>
       </c>
     </row>
     <row r="7">
@@ -4421,13 +4421,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>25.5256</v>
+        <v>25.3422</v>
       </c>
       <c r="C7" t="n">
-        <v>26.4695</v>
+        <v>26.3364</v>
       </c>
       <c r="D7" t="n">
-        <v>35.0713</v>
+        <v>35.2627</v>
       </c>
     </row>
     <row r="8">
@@ -4435,13 +4435,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>18.4516</v>
+        <v>18.4029</v>
       </c>
       <c r="C8" t="n">
-        <v>23.9198</v>
+        <v>23.9944</v>
       </c>
       <c r="D8" t="n">
-        <v>33.3506</v>
+        <v>31.711</v>
       </c>
     </row>
     <row r="9">
@@ -4449,13 +4449,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>20.9967</v>
+        <v>20.9043</v>
       </c>
       <c r="C9" t="n">
-        <v>23.9997</v>
+        <v>23.8778</v>
       </c>
       <c r="D9" t="n">
-        <v>35.0848</v>
+        <v>34.5401</v>
       </c>
     </row>
     <row r="10">
@@ -4463,13 +4463,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>22.7733</v>
+        <v>22.8046</v>
       </c>
       <c r="C10" t="n">
-        <v>24.4628</v>
+        <v>24.4335</v>
       </c>
       <c r="D10" t="n">
-        <v>35.8906</v>
+        <v>35.6131</v>
       </c>
     </row>
     <row r="11">
@@ -4477,13 +4477,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>21.5256</v>
+        <v>21.0335</v>
       </c>
       <c r="C11" t="n">
-        <v>24.3164</v>
+        <v>24.1804</v>
       </c>
       <c r="D11" t="n">
-        <v>39.786</v>
+        <v>37.1874</v>
       </c>
     </row>
     <row r="12">
@@ -4491,13 +4491,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>23.2422</v>
+        <v>23.0833</v>
       </c>
       <c r="C12" t="n">
-        <v>24.9538</v>
+        <v>24.6851</v>
       </c>
       <c r="D12" t="n">
-        <v>38.9062</v>
+        <v>38.8322</v>
       </c>
     </row>
     <row r="13">
@@ -4505,13 +4505,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>25.4651</v>
+        <v>25.3599</v>
       </c>
       <c r="C13" t="n">
-        <v>25.2411</v>
+        <v>25.2077</v>
       </c>
       <c r="D13" t="n">
-        <v>40.4072</v>
+        <v>40.9228</v>
       </c>
     </row>
     <row r="14">
@@ -4519,13 +4519,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>20.9198</v>
+        <v>20.8789</v>
       </c>
       <c r="C14" t="n">
-        <v>25.1752</v>
+        <v>25.1429</v>
       </c>
       <c r="D14" t="n">
-        <v>39.1216</v>
+        <v>39.8691</v>
       </c>
     </row>
     <row r="15">
@@ -4533,13 +4533,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>22.5539</v>
+        <v>22.4195</v>
       </c>
       <c r="C15" t="n">
-        <v>25.1832</v>
+        <v>25.1868</v>
       </c>
       <c r="D15" t="n">
-        <v>40.7301</v>
+        <v>39.9963</v>
       </c>
     </row>
     <row r="16">
@@ -4547,13 +4547,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>23.6962</v>
+        <v>23.1994</v>
       </c>
       <c r="C16" t="n">
-        <v>25.4637</v>
+        <v>25.2247</v>
       </c>
       <c r="D16" t="n">
-        <v>40.422</v>
+        <v>40.0965</v>
       </c>
     </row>
     <row r="17">
@@ -4561,13 +4561,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>22.5821</v>
+        <v>22.6703</v>
       </c>
       <c r="C17" t="n">
-        <v>25.4992</v>
+        <v>25.2046</v>
       </c>
       <c r="D17" t="n">
-        <v>41.0329</v>
+        <v>40.3005</v>
       </c>
     </row>
   </sheetData>
@@ -4615,13 +4615,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>9.130380000000001</v>
+        <v>9.102209999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>9.18242</v>
+        <v>9.12978</v>
       </c>
       <c r="D2" t="n">
-        <v>11.7398</v>
+        <v>11.5465</v>
       </c>
     </row>
     <row r="3">
@@ -4629,13 +4629,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>16.7335</v>
+        <v>16.5806</v>
       </c>
       <c r="C3" t="n">
-        <v>15.9937</v>
+        <v>15.9179</v>
       </c>
       <c r="D3" t="n">
-        <v>20.8199</v>
+        <v>19.7187</v>
       </c>
     </row>
     <row r="4">
@@ -4643,13 +4643,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>23.4056</v>
+        <v>23.4284</v>
       </c>
       <c r="C4" t="n">
-        <v>21.4058</v>
+        <v>21.2694</v>
       </c>
       <c r="D4" t="n">
-        <v>27.2562</v>
+        <v>26.4514</v>
       </c>
     </row>
     <row r="5">
@@ -4657,13 +4657,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>20.9479</v>
+        <v>21.0025</v>
       </c>
       <c r="C5" t="n">
-        <v>19.9418</v>
+        <v>19.7937</v>
       </c>
       <c r="D5" t="n">
-        <v>29.2236</v>
+        <v>26.3307</v>
       </c>
     </row>
     <row r="6">
@@ -4671,13 +4671,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>25.682</v>
+        <v>25.6401</v>
       </c>
       <c r="C6" t="n">
-        <v>22.9726</v>
+        <v>22.8598</v>
       </c>
       <c r="D6" t="n">
-        <v>28.9348</v>
+        <v>28.9445</v>
       </c>
     </row>
     <row r="7">
@@ -4685,13 +4685,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>30.6121</v>
+        <v>30.4692</v>
       </c>
       <c r="C7" t="n">
-        <v>26.9827</v>
+        <v>26.917</v>
       </c>
       <c r="D7" t="n">
-        <v>34.8738</v>
+        <v>33.2203</v>
       </c>
     </row>
     <row r="8">
@@ -4699,13 +4699,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>26.5221</v>
+        <v>26.5146</v>
       </c>
       <c r="C8" t="n">
-        <v>24.2936</v>
+        <v>24.0548</v>
       </c>
       <c r="D8" t="n">
-        <v>33.2095</v>
+        <v>33.9126</v>
       </c>
     </row>
     <row r="9">
@@ -4713,13 +4713,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>27.3558</v>
+        <v>27.3613</v>
       </c>
       <c r="C9" t="n">
-        <v>23.9533</v>
+        <v>24.3407</v>
       </c>
       <c r="D9" t="n">
-        <v>36.4837</v>
+        <v>36.5071</v>
       </c>
     </row>
     <row r="10">
@@ -4727,13 +4727,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>27.775</v>
+        <v>27.0224</v>
       </c>
       <c r="C10" t="n">
-        <v>24.6884</v>
+        <v>23.9165</v>
       </c>
       <c r="D10" t="n">
-        <v>38.3849</v>
+        <v>39.4276</v>
       </c>
     </row>
     <row r="11">
@@ -4741,13 +4741,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>28.3744</v>
+        <v>28.1627</v>
       </c>
       <c r="C11" t="n">
-        <v>24.4944</v>
+        <v>24.5533</v>
       </c>
       <c r="D11" t="n">
-        <v>39.1171</v>
+        <v>39.4605</v>
       </c>
     </row>
     <row r="12">
@@ -4755,13 +4755,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>27.8587</v>
+        <v>28.2742</v>
       </c>
       <c r="C12" t="n">
-        <v>25.0327</v>
+        <v>24.8971</v>
       </c>
       <c r="D12" t="n">
-        <v>40.4487</v>
+        <v>38.9501</v>
       </c>
     </row>
     <row r="13">
@@ -4769,13 +4769,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>28.4141</v>
+        <v>28.4186</v>
       </c>
       <c r="C13" t="n">
-        <v>25.4636</v>
+        <v>24.9744</v>
       </c>
       <c r="D13" t="n">
-        <v>39.1893</v>
+        <v>40.1233</v>
       </c>
     </row>
     <row r="14">
@@ -4783,13 +4783,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>28.5758</v>
+        <v>28.1854</v>
       </c>
       <c r="C14" t="n">
-        <v>25.156</v>
+        <v>24.7641</v>
       </c>
       <c r="D14" t="n">
-        <v>40.4169</v>
+        <v>39.997</v>
       </c>
     </row>
     <row r="15">
@@ -4797,13 +4797,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>28.495</v>
+        <v>28.1998</v>
       </c>
       <c r="C15" t="n">
-        <v>25.2577</v>
+        <v>25.0786</v>
       </c>
       <c r="D15" t="n">
-        <v>40.4686</v>
+        <v>39.4244</v>
       </c>
     </row>
     <row r="16">
@@ -4811,13 +4811,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>28.3695</v>
+        <v>28.2581</v>
       </c>
       <c r="C16" t="n">
-        <v>25.0342</v>
+        <v>25.4545</v>
       </c>
       <c r="D16" t="n">
-        <v>39.8589</v>
+        <v>39.8958</v>
       </c>
     </row>
     <row r="17">
@@ -4825,13 +4825,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>29.1876</v>
+        <v>28.7507</v>
       </c>
       <c r="C17" t="n">
-        <v>25.5824</v>
+        <v>25.4345</v>
       </c>
       <c r="D17" t="n">
-        <v>40.9364</v>
+        <v>39.7676</v>
       </c>
     </row>
   </sheetData>
@@ -4879,13 +4879,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4.58314</v>
+        <v>4.57542</v>
       </c>
       <c r="C2" t="n">
-        <v>7.62525</v>
+        <v>7.58919</v>
       </c>
       <c r="D2" t="n">
-        <v>9.93858</v>
+        <v>9.91522</v>
       </c>
     </row>
     <row r="3">
@@ -4893,13 +4893,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>8.99686</v>
+        <v>8.9777</v>
       </c>
       <c r="C3" t="n">
-        <v>13.3642</v>
+        <v>13.2655</v>
       </c>
       <c r="D3" t="n">
-        <v>19.1762</v>
+        <v>19.0578</v>
       </c>
     </row>
     <row r="4">
@@ -4907,13 +4907,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>13.0578</v>
+        <v>13.0054</v>
       </c>
       <c r="C4" t="n">
-        <v>18.5392</v>
+        <v>18.2533</v>
       </c>
       <c r="D4" t="n">
-        <v>27.5499</v>
+        <v>27.4543</v>
       </c>
     </row>
     <row r="5">
@@ -4921,13 +4921,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>14.8646</v>
+        <v>14.864</v>
       </c>
       <c r="C5" t="n">
-        <v>18.6728</v>
+        <v>18.6072</v>
       </c>
       <c r="D5" t="n">
-        <v>32.1809</v>
+        <v>31.6391</v>
       </c>
     </row>
     <row r="6">
@@ -4935,13 +4935,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>17.8549</v>
+        <v>17.853</v>
       </c>
       <c r="C6" t="n">
-        <v>21.6395</v>
+        <v>21.5154</v>
       </c>
       <c r="D6" t="n">
-        <v>38.0911</v>
+        <v>37.8569</v>
       </c>
     </row>
     <row r="7">
@@ -4949,13 +4949,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>21.1297</v>
+        <v>20.9649</v>
       </c>
       <c r="C7" t="n">
-        <v>25.4324</v>
+        <v>25.293</v>
       </c>
       <c r="D7" t="n">
-        <v>44.7649</v>
+        <v>44.6817</v>
       </c>
     </row>
     <row r="8">
@@ -4963,13 +4963,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>19.0457</v>
+        <v>18.5981</v>
       </c>
       <c r="C8" t="n">
-        <v>24.2044</v>
+        <v>24.2519</v>
       </c>
       <c r="D8" t="n">
-        <v>40.3037</v>
+        <v>39.6237</v>
       </c>
     </row>
     <row r="9">
@@ -4977,13 +4977,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>19.5498</v>
+        <v>19.6143</v>
       </c>
       <c r="C9" t="n">
-        <v>24.435</v>
+        <v>24.0886</v>
       </c>
       <c r="D9" t="n">
-        <v>40.627</v>
+        <v>40.2805</v>
       </c>
     </row>
     <row r="10">
@@ -4991,13 +4991,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>19.6089</v>
+        <v>19.7793</v>
       </c>
       <c r="C10" t="n">
-        <v>24.5268</v>
+        <v>24.7405</v>
       </c>
       <c r="D10" t="n">
-        <v>42.2483</v>
+        <v>41.0874</v>
       </c>
     </row>
     <row r="11">
@@ -5005,13 +5005,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>20.5856</v>
+        <v>19.9668</v>
       </c>
       <c r="C11" t="n">
-        <v>24.6243</v>
+        <v>24.5587</v>
       </c>
       <c r="D11" t="n">
-        <v>40.5632</v>
+        <v>40.2538</v>
       </c>
     </row>
     <row r="12">
@@ -5019,13 +5019,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>19.9354</v>
+        <v>20.0093</v>
       </c>
       <c r="C12" t="n">
-        <v>24.6116</v>
+        <v>24.7005</v>
       </c>
       <c r="D12" t="n">
-        <v>41.7489</v>
+        <v>41.776</v>
       </c>
     </row>
     <row r="13">
@@ -5033,13 +5033,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>20.065</v>
+        <v>20.1836</v>
       </c>
       <c r="C13" t="n">
-        <v>24.8311</v>
+        <v>24.6605</v>
       </c>
       <c r="D13" t="n">
-        <v>40.7204</v>
+        <v>40.9014</v>
       </c>
     </row>
     <row r="14">
@@ -5047,13 +5047,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>19.9891</v>
+        <v>20.0758</v>
       </c>
       <c r="C14" t="n">
-        <v>24.7701</v>
+        <v>24.4888</v>
       </c>
       <c r="D14" t="n">
-        <v>42.2847</v>
+        <v>41.838</v>
       </c>
     </row>
     <row r="15">
@@ -5061,13 +5061,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>20.0234</v>
+        <v>19.9684</v>
       </c>
       <c r="C15" t="n">
-        <v>24.8819</v>
+        <v>24.8154</v>
       </c>
       <c r="D15" t="n">
-        <v>43.362</v>
+        <v>41.4301</v>
       </c>
     </row>
     <row r="16">
@@ -5075,13 +5075,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>19.8962</v>
+        <v>20.0432</v>
       </c>
       <c r="C16" t="n">
-        <v>24.7739</v>
+        <v>24.7104</v>
       </c>
       <c r="D16" t="n">
-        <v>42.5813</v>
+        <v>42.1103</v>
       </c>
     </row>
     <row r="17">
@@ -5089,13 +5089,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>19.9113</v>
+        <v>20.3291</v>
       </c>
       <c r="C17" t="n">
-        <v>25.1129</v>
+        <v>24.6787</v>
       </c>
       <c r="D17" t="n">
-        <v>43.656</v>
+        <v>42.5478</v>
       </c>
     </row>
   </sheetData>
@@ -5143,13 +5143,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4.65743</v>
+        <v>4.64874</v>
       </c>
       <c r="C2" t="n">
-        <v>7.62771</v>
+        <v>7.6077</v>
       </c>
       <c r="D2" t="n">
-        <v>9.848319999999999</v>
+        <v>9.84258</v>
       </c>
     </row>
     <row r="3">
@@ -5157,13 +5157,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.140459999999999</v>
+        <v>9.15133</v>
       </c>
       <c r="C3" t="n">
-        <v>13.2573</v>
+        <v>13.3913</v>
       </c>
       <c r="D3" t="n">
-        <v>18.8866</v>
+        <v>18.8984</v>
       </c>
     </row>
     <row r="4">
@@ -5171,13 +5171,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>13.2734</v>
+        <v>13.2966</v>
       </c>
       <c r="C4" t="n">
-        <v>18.5264</v>
+        <v>18.6045</v>
       </c>
       <c r="D4" t="n">
-        <v>27.5235</v>
+        <v>27.2079</v>
       </c>
     </row>
     <row r="5">
@@ -5185,13 +5185,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>15.2478</v>
+        <v>15.1989</v>
       </c>
       <c r="C5" t="n">
-        <v>18.7226</v>
+        <v>18.5734</v>
       </c>
       <c r="D5" t="n">
-        <v>31.768</v>
+        <v>31.1424</v>
       </c>
     </row>
     <row r="6">
@@ -5199,13 +5199,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>18.2625</v>
+        <v>18.217</v>
       </c>
       <c r="C6" t="n">
-        <v>21.5812</v>
+        <v>21.4842</v>
       </c>
       <c r="D6" t="n">
-        <v>37.6963</v>
+        <v>37.3345</v>
       </c>
     </row>
     <row r="7">
@@ -5213,13 +5213,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>21.6695</v>
+        <v>21.5473</v>
       </c>
       <c r="C7" t="n">
-        <v>25.4197</v>
+        <v>25.2864</v>
       </c>
       <c r="D7" t="n">
-        <v>44.1225</v>
+        <v>43.3042</v>
       </c>
     </row>
     <row r="8">
@@ -5227,13 +5227,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>19.7308</v>
+        <v>19.2827</v>
       </c>
       <c r="C8" t="n">
-        <v>24.574</v>
+        <v>24.3044</v>
       </c>
       <c r="D8" t="n">
-        <v>40.1527</v>
+        <v>38.7095</v>
       </c>
     </row>
     <row r="9">
@@ -5241,13 +5241,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>19.974</v>
+        <v>19.9534</v>
       </c>
       <c r="C9" t="n">
-        <v>24.5666</v>
+        <v>24.3967</v>
       </c>
       <c r="D9" t="n">
-        <v>40.149</v>
+        <v>39.5241</v>
       </c>
     </row>
     <row r="10">
@@ -5255,13 +5255,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>20.315</v>
+        <v>20.3153</v>
       </c>
       <c r="C10" t="n">
-        <v>24.5101</v>
+        <v>24.2972</v>
       </c>
       <c r="D10" t="n">
-        <v>41.8286</v>
+        <v>40.242</v>
       </c>
     </row>
     <row r="11">
@@ -5269,13 +5269,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>20.631</v>
+        <v>20.6893</v>
       </c>
       <c r="C11" t="n">
-        <v>24.6681</v>
+        <v>24.713</v>
       </c>
       <c r="D11" t="n">
-        <v>41.226</v>
+        <v>40.2422</v>
       </c>
     </row>
     <row r="12">
@@ -5283,13 +5283,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>20.3869</v>
+        <v>20.289</v>
       </c>
       <c r="C12" t="n">
-        <v>24.6954</v>
+        <v>24.4714</v>
       </c>
       <c r="D12" t="n">
-        <v>42.0707</v>
+        <v>39.8723</v>
       </c>
     </row>
     <row r="13">
@@ -5297,13 +5297,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>20.4005</v>
+        <v>20.3384</v>
       </c>
       <c r="C13" t="n">
-        <v>24.9901</v>
+        <v>24.7479</v>
       </c>
       <c r="D13" t="n">
-        <v>39.9807</v>
+        <v>40.4418</v>
       </c>
     </row>
     <row r="14">
@@ -5311,13 +5311,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>20.1178</v>
+        <v>20.5825</v>
       </c>
       <c r="C14" t="n">
-        <v>24.8118</v>
+        <v>24.5809</v>
       </c>
       <c r="D14" t="n">
-        <v>43.1372</v>
+        <v>41.6259</v>
       </c>
     </row>
     <row r="15">
@@ -5325,13 +5325,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>20.5984</v>
+        <v>20.397</v>
       </c>
       <c r="C15" t="n">
-        <v>24.9603</v>
+        <v>24.6547</v>
       </c>
       <c r="D15" t="n">
-        <v>40.5107</v>
+        <v>42.3456</v>
       </c>
     </row>
     <row r="16">
@@ -5339,13 +5339,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>20.8269</v>
+        <v>20.3198</v>
       </c>
       <c r="C16" t="n">
-        <v>24.725</v>
+        <v>24.4818</v>
       </c>
       <c r="D16" t="n">
-        <v>42.4278</v>
+        <v>41.5861</v>
       </c>
     </row>
     <row r="17">
@@ -5353,13 +5353,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>20.6512</v>
+        <v>20.7117</v>
       </c>
       <c r="C17" t="n">
-        <v>24.9184</v>
+        <v>24.6264</v>
       </c>
       <c r="D17" t="n">
-        <v>41.7036</v>
+        <v>42.5162</v>
       </c>
     </row>
   </sheetData>
@@ -5407,13 +5407,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>7.57756</v>
+        <v>7.59933</v>
       </c>
       <c r="C2" t="n">
-        <v>8.882960000000001</v>
+        <v>8.83366</v>
       </c>
       <c r="D2" t="n">
-        <v>11.4356</v>
+        <v>11.3213</v>
       </c>
     </row>
     <row r="3">
@@ -5421,13 +5421,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>14.495</v>
+        <v>14.5328</v>
       </c>
       <c r="C3" t="n">
-        <v>15.0397</v>
+        <v>14.9973</v>
       </c>
       <c r="D3" t="n">
-        <v>21.8122</v>
+        <v>21.4258</v>
       </c>
     </row>
     <row r="4">
@@ -5435,13 +5435,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>20.7924</v>
+        <v>21.0009</v>
       </c>
       <c r="C4" t="n">
-        <v>20.8594</v>
+        <v>20.5978</v>
       </c>
       <c r="D4" t="n">
-        <v>30.9917</v>
+        <v>30.769</v>
       </c>
     </row>
     <row r="5">
@@ -5449,13 +5449,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>21.3869</v>
+        <v>20.9566</v>
       </c>
       <c r="C5" t="n">
-        <v>20.2088</v>
+        <v>20.0911</v>
       </c>
       <c r="D5" t="n">
-        <v>33.2995</v>
+        <v>32.7132</v>
       </c>
     </row>
     <row r="6">
@@ -5463,13 +5463,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>24.3627</v>
+        <v>24.2686</v>
       </c>
       <c r="C6" t="n">
-        <v>22.9735</v>
+        <v>22.8516</v>
       </c>
       <c r="D6" t="n">
-        <v>39.4277</v>
+        <v>39.2625</v>
       </c>
     </row>
     <row r="7">
@@ -5477,13 +5477,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>29.4193</v>
+        <v>29.3534</v>
       </c>
       <c r="C7" t="n">
-        <v>26.6558</v>
+        <v>26.5707</v>
       </c>
       <c r="D7" t="n">
-        <v>47.2966</v>
+        <v>46.1091</v>
       </c>
     </row>
     <row r="8">
@@ -5491,13 +5491,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>26.7075</v>
+        <v>26.746</v>
       </c>
       <c r="C8" t="n">
-        <v>26.0002</v>
+        <v>25.9306</v>
       </c>
       <c r="D8" t="n">
-        <v>43.8706</v>
+        <v>42.6034</v>
       </c>
     </row>
     <row r="9">
@@ -5505,13 +5505,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>27.0711</v>
+        <v>26.9048</v>
       </c>
       <c r="C9" t="n">
-        <v>25.762</v>
+        <v>25.9176</v>
       </c>
       <c r="D9" t="n">
-        <v>43.0876</v>
+        <v>42.0069</v>
       </c>
     </row>
     <row r="10">
@@ -5519,13 +5519,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>27.6086</v>
+        <v>27.8088</v>
       </c>
       <c r="C10" t="n">
-        <v>25.8096</v>
+        <v>25.7249</v>
       </c>
       <c r="D10" t="n">
-        <v>44.4814</v>
+        <v>43.4049</v>
       </c>
     </row>
     <row r="11">
@@ -5533,13 +5533,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>27.9634</v>
+        <v>27.8037</v>
       </c>
       <c r="C11" t="n">
-        <v>25.7869</v>
+        <v>25.8716</v>
       </c>
       <c r="D11" t="n">
-        <v>43.7084</v>
+        <v>43.19</v>
       </c>
     </row>
     <row r="12">
@@ -5547,13 +5547,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>27.8392</v>
+        <v>27.7848</v>
       </c>
       <c r="C12" t="n">
-        <v>26.0643</v>
+        <v>25.8441</v>
       </c>
       <c r="D12" t="n">
-        <v>44.9447</v>
+        <v>44.3181</v>
       </c>
     </row>
     <row r="13">
@@ -5561,13 +5561,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>28.1945</v>
+        <v>27.9828</v>
       </c>
       <c r="C13" t="n">
-        <v>26.3628</v>
+        <v>26.0809</v>
       </c>
       <c r="D13" t="n">
-        <v>44.8882</v>
+        <v>44.1783</v>
       </c>
     </row>
     <row r="14">
@@ -5575,13 +5575,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>28.0172</v>
+        <v>27.8111</v>
       </c>
       <c r="C14" t="n">
-        <v>26.2159</v>
+        <v>26.05</v>
       </c>
       <c r="D14" t="n">
-        <v>44.1334</v>
+        <v>42.8246</v>
       </c>
     </row>
     <row r="15">
@@ -5589,13 +5589,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>28.4181</v>
+        <v>28.3451</v>
       </c>
       <c r="C15" t="n">
-        <v>26.0544</v>
+        <v>26.0593</v>
       </c>
       <c r="D15" t="n">
-        <v>44.9034</v>
+        <v>44.7924</v>
       </c>
     </row>
     <row r="16">
@@ -5603,13 +5603,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>28.0995</v>
+        <v>28.1436</v>
       </c>
       <c r="C16" t="n">
-        <v>26.0986</v>
+        <v>26.1144</v>
       </c>
       <c r="D16" t="n">
-        <v>43.9501</v>
+        <v>44.4521</v>
       </c>
     </row>
     <row r="17">
@@ -5617,13 +5617,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>28.1493</v>
+        <v>28.5048</v>
       </c>
       <c r="C17" t="n">
-        <v>26.2202</v>
+        <v>26.1264</v>
       </c>
       <c r="D17" t="n">
-        <v>44.9553</v>
+        <v>44.466</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Parallel workload.xlsx
+++ b/vs-x86/Parallel workload.xlsx
@@ -4087,13 +4087,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.02351</v>
+        <v>7.99225</v>
       </c>
       <c r="C2" t="n">
-        <v>8.71585</v>
+        <v>8.72228</v>
       </c>
       <c r="D2" t="n">
-        <v>11.3165</v>
+        <v>11.3407</v>
       </c>
     </row>
     <row r="3">
@@ -4101,13 +4101,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>14.9744</v>
+        <v>15.0522</v>
       </c>
       <c r="C3" t="n">
-        <v>13.8841</v>
+        <v>14.3134</v>
       </c>
       <c r="D3" t="n">
-        <v>19.7878</v>
+        <v>19.3222</v>
       </c>
     </row>
     <row r="4">
@@ -4115,13 +4115,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>20.7748</v>
+        <v>21.2471</v>
       </c>
       <c r="C4" t="n">
-        <v>17.9494</v>
+        <v>19.2148</v>
       </c>
       <c r="D4" t="n">
-        <v>24.2281</v>
+        <v>23.893</v>
       </c>
     </row>
     <row r="5">
@@ -4129,13 +4129,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>17.4022</v>
+        <v>17.6248</v>
       </c>
       <c r="C5" t="n">
-        <v>19.1136</v>
+        <v>21.0199</v>
       </c>
       <c r="D5" t="n">
-        <v>28.4167</v>
+        <v>28.5939</v>
       </c>
     </row>
     <row r="6">
@@ -4143,13 +4143,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>20.9872</v>
+        <v>21.0476</v>
       </c>
       <c r="C6" t="n">
-        <v>22.4088</v>
+        <v>24.7668</v>
       </c>
       <c r="D6" t="n">
-        <v>31.2706</v>
+        <v>31.1096</v>
       </c>
     </row>
     <row r="7">
@@ -4157,13 +4157,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>24.9398</v>
+        <v>24.9772</v>
       </c>
       <c r="C7" t="n">
-        <v>26.423</v>
+        <v>29.1584</v>
       </c>
       <c r="D7" t="n">
-        <v>31.8618</v>
+        <v>31.7492</v>
       </c>
     </row>
     <row r="8">
@@ -4171,13 +4171,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>18.4544</v>
+        <v>18.4102</v>
       </c>
       <c r="C8" t="n">
-        <v>24.3389</v>
+        <v>26.6591</v>
       </c>
       <c r="D8" t="n">
-        <v>30.7226</v>
+        <v>31.0285</v>
       </c>
     </row>
     <row r="9">
@@ -4185,13 +4185,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>20.6663</v>
+        <v>20.8151</v>
       </c>
       <c r="C9" t="n">
-        <v>24.2613</v>
+        <v>26.8213</v>
       </c>
       <c r="D9" t="n">
-        <v>33.8306</v>
+        <v>35.9017</v>
       </c>
     </row>
     <row r="10">
@@ -4199,13 +4199,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>22.6205</v>
+        <v>22.7876</v>
       </c>
       <c r="C10" t="n">
-        <v>24.8429</v>
+        <v>27.2092</v>
       </c>
       <c r="D10" t="n">
-        <v>36.3861</v>
+        <v>38.3036</v>
       </c>
     </row>
     <row r="11">
@@ -4213,13 +4213,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>20.9371</v>
+        <v>21.0519</v>
       </c>
       <c r="C11" t="n">
-        <v>24.8526</v>
+        <v>27.2068</v>
       </c>
       <c r="D11" t="n">
-        <v>37.1001</v>
+        <v>37.7746</v>
       </c>
     </row>
     <row r="12">
@@ -4227,13 +4227,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>22.7814</v>
+        <v>22.8572</v>
       </c>
       <c r="C12" t="n">
-        <v>24.944</v>
+        <v>27.6234</v>
       </c>
       <c r="D12" t="n">
-        <v>38.9448</v>
+        <v>37.9052</v>
       </c>
     </row>
     <row r="13">
@@ -4241,13 +4241,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>24.8698</v>
+        <v>24.9504</v>
       </c>
       <c r="C13" t="n">
-        <v>25.5655</v>
+        <v>27.8598</v>
       </c>
       <c r="D13" t="n">
-        <v>40.484</v>
+        <v>40.376</v>
       </c>
     </row>
     <row r="14">
@@ -4255,13 +4255,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>20.7711</v>
+        <v>20.6879</v>
       </c>
       <c r="C14" t="n">
-        <v>24.9003</v>
+        <v>27.0539</v>
       </c>
       <c r="D14" t="n">
-        <v>39.9388</v>
+        <v>38.2842</v>
       </c>
     </row>
     <row r="15">
@@ -4269,13 +4269,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>21.9065</v>
+        <v>22.187</v>
       </c>
       <c r="C15" t="n">
-        <v>24.8259</v>
+        <v>27.527</v>
       </c>
       <c r="D15" t="n">
-        <v>39.5047</v>
+        <v>41.2501</v>
       </c>
     </row>
     <row r="16">
@@ -4283,13 +4283,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>23.4766</v>
+        <v>23.1323</v>
       </c>
       <c r="C16" t="n">
-        <v>25.2757</v>
+        <v>27.5449</v>
       </c>
       <c r="D16" t="n">
-        <v>40.4897</v>
+        <v>40.6985</v>
       </c>
     </row>
     <row r="17">
@@ -4297,13 +4297,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>22.0988</v>
+        <v>22.2383</v>
       </c>
       <c r="C17" t="n">
-        <v>25.5566</v>
+        <v>27.5149</v>
       </c>
       <c r="D17" t="n">
-        <v>40.5499</v>
+        <v>40.6414</v>
       </c>
     </row>
   </sheetData>
@@ -4351,13 +4351,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>7.96277</v>
+        <v>7.97962</v>
       </c>
       <c r="C2" t="n">
-        <v>8.676019999999999</v>
+        <v>8.7057</v>
       </c>
       <c r="D2" t="n">
-        <v>11.1683</v>
+        <v>11.2283</v>
       </c>
     </row>
     <row r="3">
@@ -4365,13 +4365,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>15.1152</v>
+        <v>15.1563</v>
       </c>
       <c r="C3" t="n">
-        <v>14.1287</v>
+        <v>14.5076</v>
       </c>
       <c r="D3" t="n">
-        <v>19.135</v>
+        <v>19.5105</v>
       </c>
     </row>
     <row r="4">
@@ -4379,13 +4379,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>21.2908</v>
+        <v>21.301</v>
       </c>
       <c r="C4" t="n">
-        <v>17.6759</v>
+        <v>18.9456</v>
       </c>
       <c r="D4" t="n">
-        <v>25.1709</v>
+        <v>24.4345</v>
       </c>
     </row>
     <row r="5">
@@ -4393,13 +4393,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>18.4958</v>
+        <v>17.5211</v>
       </c>
       <c r="C5" t="n">
-        <v>19.1128</v>
+        <v>20.6829</v>
       </c>
       <c r="D5" t="n">
-        <v>26.1246</v>
+        <v>26.1199</v>
       </c>
     </row>
     <row r="6">
@@ -4407,13 +4407,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>21.3543</v>
+        <v>21.3731</v>
       </c>
       <c r="C6" t="n">
-        <v>22.3241</v>
+        <v>24.6029</v>
       </c>
       <c r="D6" t="n">
-        <v>29.6395</v>
+        <v>28.7276</v>
       </c>
     </row>
     <row r="7">
@@ -4421,13 +4421,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>25.3422</v>
+        <v>25.3941</v>
       </c>
       <c r="C7" t="n">
-        <v>26.3364</v>
+        <v>29.0884</v>
       </c>
       <c r="D7" t="n">
-        <v>35.2627</v>
+        <v>35.2155</v>
       </c>
     </row>
     <row r="8">
@@ -4435,13 +4435,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>18.4029</v>
+        <v>18.3776</v>
       </c>
       <c r="C8" t="n">
-        <v>23.9944</v>
+        <v>26.405</v>
       </c>
       <c r="D8" t="n">
-        <v>31.711</v>
+        <v>33.1569</v>
       </c>
     </row>
     <row r="9">
@@ -4449,13 +4449,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>20.9043</v>
+        <v>20.9073</v>
       </c>
       <c r="C9" t="n">
-        <v>23.8778</v>
+        <v>26.3232</v>
       </c>
       <c r="D9" t="n">
-        <v>34.5401</v>
+        <v>35.6975</v>
       </c>
     </row>
     <row r="10">
@@ -4463,13 +4463,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>22.8046</v>
+        <v>23.0694</v>
       </c>
       <c r="C10" t="n">
-        <v>24.4335</v>
+        <v>26.897</v>
       </c>
       <c r="D10" t="n">
-        <v>35.6131</v>
+        <v>36.3336</v>
       </c>
     </row>
     <row r="11">
@@ -4477,13 +4477,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>21.0335</v>
+        <v>21.2023</v>
       </c>
       <c r="C11" t="n">
-        <v>24.1804</v>
+        <v>26.63</v>
       </c>
       <c r="D11" t="n">
-        <v>37.1874</v>
+        <v>37.4924</v>
       </c>
     </row>
     <row r="12">
@@ -4491,13 +4491,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>23.0833</v>
+        <v>23.1913</v>
       </c>
       <c r="C12" t="n">
-        <v>24.6851</v>
+        <v>27.3774</v>
       </c>
       <c r="D12" t="n">
-        <v>38.8322</v>
+        <v>38.7984</v>
       </c>
     </row>
     <row r="13">
@@ -4505,13 +4505,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>25.3599</v>
+        <v>25.3932</v>
       </c>
       <c r="C13" t="n">
-        <v>25.2077</v>
+        <v>27.3847</v>
       </c>
       <c r="D13" t="n">
-        <v>40.9228</v>
+        <v>39.7462</v>
       </c>
     </row>
     <row r="14">
@@ -4519,13 +4519,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>20.8789</v>
+        <v>20.581</v>
       </c>
       <c r="C14" t="n">
-        <v>25.1429</v>
+        <v>27.7222</v>
       </c>
       <c r="D14" t="n">
-        <v>39.8691</v>
+        <v>39.2473</v>
       </c>
     </row>
     <row r="15">
@@ -4533,13 +4533,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>22.4195</v>
+        <v>22.4864</v>
       </c>
       <c r="C15" t="n">
-        <v>25.1868</v>
+        <v>27.9427</v>
       </c>
       <c r="D15" t="n">
-        <v>39.9963</v>
+        <v>39.7915</v>
       </c>
     </row>
     <row r="16">
@@ -4547,13 +4547,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>23.1994</v>
+        <v>23.5978</v>
       </c>
       <c r="C16" t="n">
-        <v>25.2247</v>
+        <v>27.8763</v>
       </c>
       <c r="D16" t="n">
-        <v>40.0965</v>
+        <v>41.4275</v>
       </c>
     </row>
     <row r="17">
@@ -4561,13 +4561,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>22.6703</v>
+        <v>22.955</v>
       </c>
       <c r="C17" t="n">
-        <v>25.2046</v>
+        <v>27.7304</v>
       </c>
       <c r="D17" t="n">
-        <v>40.3005</v>
+        <v>40.8533</v>
       </c>
     </row>
   </sheetData>
@@ -4615,13 +4615,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>9.102209999999999</v>
+        <v>9.115729999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>9.12978</v>
+        <v>9.163550000000001</v>
       </c>
       <c r="D2" t="n">
-        <v>11.5465</v>
+        <v>11.6292</v>
       </c>
     </row>
     <row r="3">
@@ -4629,13 +4629,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>16.5806</v>
+        <v>16.6445</v>
       </c>
       <c r="C3" t="n">
-        <v>15.9179</v>
+        <v>16.4544</v>
       </c>
       <c r="D3" t="n">
-        <v>19.7187</v>
+        <v>20.2276</v>
       </c>
     </row>
     <row r="4">
@@ -4643,13 +4643,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>23.4284</v>
+        <v>23.5009</v>
       </c>
       <c r="C4" t="n">
-        <v>21.2694</v>
+        <v>21.6258</v>
       </c>
       <c r="D4" t="n">
-        <v>26.4514</v>
+        <v>25.4492</v>
       </c>
     </row>
     <row r="5">
@@ -4657,13 +4657,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>21.0025</v>
+        <v>21.0608</v>
       </c>
       <c r="C5" t="n">
-        <v>19.7937</v>
+        <v>21.6334</v>
       </c>
       <c r="D5" t="n">
-        <v>26.3307</v>
+        <v>27.7707</v>
       </c>
     </row>
     <row r="6">
@@ -4671,13 +4671,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>25.6401</v>
+        <v>25.5921</v>
       </c>
       <c r="C6" t="n">
-        <v>22.8598</v>
+        <v>25.329</v>
       </c>
       <c r="D6" t="n">
-        <v>28.9445</v>
+        <v>31.6085</v>
       </c>
     </row>
     <row r="7">
@@ -4685,13 +4685,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>30.4692</v>
+        <v>30.4732</v>
       </c>
       <c r="C7" t="n">
-        <v>26.917</v>
+        <v>30.1925</v>
       </c>
       <c r="D7" t="n">
-        <v>33.2203</v>
+        <v>35.073</v>
       </c>
     </row>
     <row r="8">
@@ -4699,13 +4699,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>26.5146</v>
+        <v>26.669</v>
       </c>
       <c r="C8" t="n">
-        <v>24.0548</v>
+        <v>26.0868</v>
       </c>
       <c r="D8" t="n">
-        <v>33.9126</v>
+        <v>33.21</v>
       </c>
     </row>
     <row r="9">
@@ -4713,13 +4713,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>27.3613</v>
+        <v>27.4004</v>
       </c>
       <c r="C9" t="n">
-        <v>24.3407</v>
+        <v>26.9812</v>
       </c>
       <c r="D9" t="n">
-        <v>36.5071</v>
+        <v>36.3358</v>
       </c>
     </row>
     <row r="10">
@@ -4727,13 +4727,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>27.0224</v>
+        <v>27.2911</v>
       </c>
       <c r="C10" t="n">
-        <v>23.9165</v>
+        <v>26.6321</v>
       </c>
       <c r="D10" t="n">
-        <v>39.4276</v>
+        <v>37.6068</v>
       </c>
     </row>
     <row r="11">
@@ -4741,13 +4741,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>28.1627</v>
+        <v>27.6384</v>
       </c>
       <c r="C11" t="n">
-        <v>24.5533</v>
+        <v>27.2893</v>
       </c>
       <c r="D11" t="n">
-        <v>39.4605</v>
+        <v>39.2105</v>
       </c>
     </row>
     <row r="12">
@@ -4755,13 +4755,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>28.2742</v>
+        <v>28.3198</v>
       </c>
       <c r="C12" t="n">
-        <v>24.8971</v>
+        <v>27.6299</v>
       </c>
       <c r="D12" t="n">
-        <v>38.9501</v>
+        <v>40.4245</v>
       </c>
     </row>
     <row r="13">
@@ -4769,13 +4769,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>28.4186</v>
+        <v>27.6514</v>
       </c>
       <c r="C13" t="n">
-        <v>24.9744</v>
+        <v>27.4191</v>
       </c>
       <c r="D13" t="n">
-        <v>40.1233</v>
+        <v>39.9834</v>
       </c>
     </row>
     <row r="14">
@@ -4783,13 +4783,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>28.1854</v>
+        <v>27.5964</v>
       </c>
       <c r="C14" t="n">
-        <v>24.7641</v>
+        <v>28.341</v>
       </c>
       <c r="D14" t="n">
-        <v>39.997</v>
+        <v>39.6141</v>
       </c>
     </row>
     <row r="15">
@@ -4797,13 +4797,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>28.1998</v>
+        <v>28.3177</v>
       </c>
       <c r="C15" t="n">
-        <v>25.0786</v>
+        <v>28.1801</v>
       </c>
       <c r="D15" t="n">
-        <v>39.4244</v>
+        <v>39.4512</v>
       </c>
     </row>
     <row r="16">
@@ -4811,13 +4811,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>28.2581</v>
+        <v>28.82</v>
       </c>
       <c r="C16" t="n">
-        <v>25.4545</v>
+        <v>27.6859</v>
       </c>
       <c r="D16" t="n">
-        <v>39.8958</v>
+        <v>39.1014</v>
       </c>
     </row>
     <row r="17">
@@ -4825,13 +4825,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>28.7507</v>
+        <v>28.6517</v>
       </c>
       <c r="C17" t="n">
-        <v>25.4345</v>
+        <v>28.1935</v>
       </c>
       <c r="D17" t="n">
-        <v>39.7676</v>
+        <v>39.68</v>
       </c>
     </row>
   </sheetData>
@@ -4879,13 +4879,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4.57542</v>
+        <v>4.57228</v>
       </c>
       <c r="C2" t="n">
-        <v>7.58919</v>
+        <v>7.61809</v>
       </c>
       <c r="D2" t="n">
-        <v>9.91522</v>
+        <v>9.927379999999999</v>
       </c>
     </row>
     <row r="3">
@@ -4893,13 +4893,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>8.9777</v>
+        <v>8.97763</v>
       </c>
       <c r="C3" t="n">
-        <v>13.2655</v>
+        <v>13.614</v>
       </c>
       <c r="D3" t="n">
-        <v>19.0578</v>
+        <v>19.0071</v>
       </c>
     </row>
     <row r="4">
@@ -4907,13 +4907,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>13.0054</v>
+        <v>13.0139</v>
       </c>
       <c r="C4" t="n">
-        <v>18.2533</v>
+        <v>19.0793</v>
       </c>
       <c r="D4" t="n">
-        <v>27.4543</v>
+        <v>27.4538</v>
       </c>
     </row>
     <row r="5">
@@ -4921,13 +4921,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>14.864</v>
+        <v>14.8756</v>
       </c>
       <c r="C5" t="n">
-        <v>18.6072</v>
+        <v>20.225</v>
       </c>
       <c r="D5" t="n">
-        <v>31.6391</v>
+        <v>31.6387</v>
       </c>
     </row>
     <row r="6">
@@ -4935,13 +4935,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>17.853</v>
+        <v>17.8795</v>
       </c>
       <c r="C6" t="n">
-        <v>21.5154</v>
+        <v>23.4604</v>
       </c>
       <c r="D6" t="n">
-        <v>37.8569</v>
+        <v>37.8141</v>
       </c>
     </row>
     <row r="7">
@@ -4949,13 +4949,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>20.9649</v>
+        <v>21.0784</v>
       </c>
       <c r="C7" t="n">
-        <v>25.293</v>
+        <v>27.8737</v>
       </c>
       <c r="D7" t="n">
-        <v>44.6817</v>
+        <v>44.8053</v>
       </c>
     </row>
     <row r="8">
@@ -4963,13 +4963,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>18.5981</v>
+        <v>19.1312</v>
       </c>
       <c r="C8" t="n">
-        <v>24.2519</v>
+        <v>26.8219</v>
       </c>
       <c r="D8" t="n">
-        <v>39.6237</v>
+        <v>40.8767</v>
       </c>
     </row>
     <row r="9">
@@ -4977,13 +4977,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>19.6143</v>
+        <v>19.7269</v>
       </c>
       <c r="C9" t="n">
-        <v>24.0886</v>
+        <v>26.3705</v>
       </c>
       <c r="D9" t="n">
-        <v>40.2805</v>
+        <v>40.4588</v>
       </c>
     </row>
     <row r="10">
@@ -4991,13 +4991,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>19.7793</v>
+        <v>19.8807</v>
       </c>
       <c r="C10" t="n">
-        <v>24.7405</v>
+        <v>26.5207</v>
       </c>
       <c r="D10" t="n">
-        <v>41.0874</v>
+        <v>39.7799</v>
       </c>
     </row>
     <row r="11">
@@ -5005,13 +5005,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>19.9668</v>
+        <v>20.3195</v>
       </c>
       <c r="C11" t="n">
-        <v>24.5587</v>
+        <v>26.6415</v>
       </c>
       <c r="D11" t="n">
-        <v>40.2538</v>
+        <v>41.0181</v>
       </c>
     </row>
     <row r="12">
@@ -5019,13 +5019,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>20.0093</v>
+        <v>20.2456</v>
       </c>
       <c r="C12" t="n">
-        <v>24.7005</v>
+        <v>26.8714</v>
       </c>
       <c r="D12" t="n">
-        <v>41.776</v>
+        <v>40.3979</v>
       </c>
     </row>
     <row r="13">
@@ -5033,13 +5033,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>20.1836</v>
+        <v>20.1433</v>
       </c>
       <c r="C13" t="n">
-        <v>24.6605</v>
+        <v>27.1967</v>
       </c>
       <c r="D13" t="n">
-        <v>40.9014</v>
+        <v>39.9666</v>
       </c>
     </row>
     <row r="14">
@@ -5047,13 +5047,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>20.0758</v>
+        <v>19.9373</v>
       </c>
       <c r="C14" t="n">
-        <v>24.4888</v>
+        <v>27.0865</v>
       </c>
       <c r="D14" t="n">
-        <v>41.838</v>
+        <v>42.9092</v>
       </c>
     </row>
     <row r="15">
@@ -5061,13 +5061,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>19.9684</v>
+        <v>20.2982</v>
       </c>
       <c r="C15" t="n">
-        <v>24.8154</v>
+        <v>26.9942</v>
       </c>
       <c r="D15" t="n">
-        <v>41.4301</v>
+        <v>42.2117</v>
       </c>
     </row>
     <row r="16">
@@ -5075,13 +5075,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>20.0432</v>
+        <v>20.3987</v>
       </c>
       <c r="C16" t="n">
-        <v>24.7104</v>
+        <v>27.3191</v>
       </c>
       <c r="D16" t="n">
-        <v>42.1103</v>
+        <v>42.5984</v>
       </c>
     </row>
     <row r="17">
@@ -5089,13 +5089,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>20.3291</v>
+        <v>20.1801</v>
       </c>
       <c r="C17" t="n">
-        <v>24.6787</v>
+        <v>27.3114</v>
       </c>
       <c r="D17" t="n">
-        <v>42.5478</v>
+        <v>42.9132</v>
       </c>
     </row>
   </sheetData>
@@ -5143,13 +5143,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4.64874</v>
+        <v>4.65382</v>
       </c>
       <c r="C2" t="n">
-        <v>7.6077</v>
+        <v>7.65362</v>
       </c>
       <c r="D2" t="n">
-        <v>9.84258</v>
+        <v>9.88344</v>
       </c>
     </row>
     <row r="3">
@@ -5157,13 +5157,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.15133</v>
+        <v>9.16915</v>
       </c>
       <c r="C3" t="n">
-        <v>13.3913</v>
+        <v>13.6904</v>
       </c>
       <c r="D3" t="n">
-        <v>18.8984</v>
+        <v>19.0113</v>
       </c>
     </row>
     <row r="4">
@@ -5171,13 +5171,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>13.2966</v>
+        <v>13.3663</v>
       </c>
       <c r="C4" t="n">
-        <v>18.6045</v>
+        <v>19.4564</v>
       </c>
       <c r="D4" t="n">
-        <v>27.2079</v>
+        <v>27.6229</v>
       </c>
     </row>
     <row r="5">
@@ -5185,13 +5185,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>15.1989</v>
+        <v>14.942</v>
       </c>
       <c r="C5" t="n">
-        <v>18.5734</v>
+        <v>20.2722</v>
       </c>
       <c r="D5" t="n">
-        <v>31.1424</v>
+        <v>31.504</v>
       </c>
     </row>
     <row r="6">
@@ -5199,13 +5199,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>18.217</v>
+        <v>18.2465</v>
       </c>
       <c r="C6" t="n">
-        <v>21.4842</v>
+        <v>23.5317</v>
       </c>
       <c r="D6" t="n">
-        <v>37.3345</v>
+        <v>37.3925</v>
       </c>
     </row>
     <row r="7">
@@ -5213,13 +5213,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>21.5473</v>
+        <v>21.6521</v>
       </c>
       <c r="C7" t="n">
-        <v>25.2864</v>
+        <v>27.8657</v>
       </c>
       <c r="D7" t="n">
-        <v>43.3042</v>
+        <v>43.3806</v>
       </c>
     </row>
     <row r="8">
@@ -5227,13 +5227,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>19.2827</v>
+        <v>19.2096</v>
       </c>
       <c r="C8" t="n">
-        <v>24.3044</v>
+        <v>26.4428</v>
       </c>
       <c r="D8" t="n">
-        <v>38.7095</v>
+        <v>38.247</v>
       </c>
     </row>
     <row r="9">
@@ -5241,13 +5241,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>19.9534</v>
+        <v>20.4965</v>
       </c>
       <c r="C9" t="n">
-        <v>24.3967</v>
+        <v>26.8155</v>
       </c>
       <c r="D9" t="n">
-        <v>39.5241</v>
+        <v>39.2779</v>
       </c>
     </row>
     <row r="10">
@@ -5255,13 +5255,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>20.3153</v>
+        <v>20.6638</v>
       </c>
       <c r="C10" t="n">
-        <v>24.2972</v>
+        <v>26.463</v>
       </c>
       <c r="D10" t="n">
-        <v>40.242</v>
+        <v>40.1295</v>
       </c>
     </row>
     <row r="11">
@@ -5269,13 +5269,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>20.6893</v>
+        <v>20.663</v>
       </c>
       <c r="C11" t="n">
-        <v>24.713</v>
+        <v>27.0763</v>
       </c>
       <c r="D11" t="n">
-        <v>40.2422</v>
+        <v>39.9027</v>
       </c>
     </row>
     <row r="12">
@@ -5283,13 +5283,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>20.289</v>
+        <v>20.5243</v>
       </c>
       <c r="C12" t="n">
-        <v>24.4714</v>
+        <v>27.0871</v>
       </c>
       <c r="D12" t="n">
-        <v>39.8723</v>
+        <v>40.7463</v>
       </c>
     </row>
     <row r="13">
@@ -5297,13 +5297,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>20.3384</v>
+        <v>20.5619</v>
       </c>
       <c r="C13" t="n">
-        <v>24.7479</v>
+        <v>26.9141</v>
       </c>
       <c r="D13" t="n">
-        <v>40.4418</v>
+        <v>41.4293</v>
       </c>
     </row>
     <row r="14">
@@ -5311,13 +5311,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>20.5825</v>
+        <v>20.6281</v>
       </c>
       <c r="C14" t="n">
-        <v>24.5809</v>
+        <v>26.8905</v>
       </c>
       <c r="D14" t="n">
-        <v>41.6259</v>
+        <v>40.3891</v>
       </c>
     </row>
     <row r="15">
@@ -5325,13 +5325,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>20.397</v>
+        <v>20.6894</v>
       </c>
       <c r="C15" t="n">
-        <v>24.6547</v>
+        <v>26.9132</v>
       </c>
       <c r="D15" t="n">
-        <v>42.3456</v>
+        <v>41.9477</v>
       </c>
     </row>
     <row r="16">
@@ -5339,13 +5339,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>20.3198</v>
+        <v>20.5065</v>
       </c>
       <c r="C16" t="n">
-        <v>24.4818</v>
+        <v>27.0988</v>
       </c>
       <c r="D16" t="n">
-        <v>41.5861</v>
+        <v>42.4279</v>
       </c>
     </row>
     <row r="17">
@@ -5353,13 +5353,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>20.7117</v>
+        <v>20.7761</v>
       </c>
       <c r="C17" t="n">
-        <v>24.6264</v>
+        <v>27.2122</v>
       </c>
       <c r="D17" t="n">
-        <v>42.5162</v>
+        <v>42.5291</v>
       </c>
     </row>
   </sheetData>
@@ -5407,13 +5407,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>7.59933</v>
+        <v>7.59666</v>
       </c>
       <c r="C2" t="n">
-        <v>8.83366</v>
+        <v>8.873799999999999</v>
       </c>
       <c r="D2" t="n">
-        <v>11.3213</v>
+        <v>11.3796</v>
       </c>
     </row>
     <row r="3">
@@ -5421,13 +5421,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>14.5328</v>
+        <v>14.6673</v>
       </c>
       <c r="C3" t="n">
-        <v>14.9973</v>
+        <v>15.5577</v>
       </c>
       <c r="D3" t="n">
-        <v>21.4258</v>
+        <v>21.5701</v>
       </c>
     </row>
     <row r="4">
@@ -5435,13 +5435,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>21.0009</v>
+        <v>20.876</v>
       </c>
       <c r="C4" t="n">
-        <v>20.5978</v>
+        <v>21.306</v>
       </c>
       <c r="D4" t="n">
-        <v>30.769</v>
+        <v>30.7436</v>
       </c>
     </row>
     <row r="5">
@@ -5449,13 +5449,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>20.9566</v>
+        <v>21.482</v>
       </c>
       <c r="C5" t="n">
-        <v>20.0911</v>
+        <v>22.1281</v>
       </c>
       <c r="D5" t="n">
-        <v>32.7132</v>
+        <v>33.1204</v>
       </c>
     </row>
     <row r="6">
@@ -5463,13 +5463,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>24.2686</v>
+        <v>24.2066</v>
       </c>
       <c r="C6" t="n">
-        <v>22.8516</v>
+        <v>25.2376</v>
       </c>
       <c r="D6" t="n">
-        <v>39.2625</v>
+        <v>39.1231</v>
       </c>
     </row>
     <row r="7">
@@ -5477,13 +5477,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>29.3534</v>
+        <v>29.3415</v>
       </c>
       <c r="C7" t="n">
-        <v>26.5707</v>
+        <v>29.5029</v>
       </c>
       <c r="D7" t="n">
-        <v>46.1091</v>
+        <v>46.3685</v>
       </c>
     </row>
     <row r="8">
@@ -5491,13 +5491,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>26.746</v>
+        <v>26.7984</v>
       </c>
       <c r="C8" t="n">
-        <v>25.9306</v>
+        <v>28.0736</v>
       </c>
       <c r="D8" t="n">
-        <v>42.6034</v>
+        <v>43.0211</v>
       </c>
     </row>
     <row r="9">
@@ -5505,13 +5505,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>26.9048</v>
+        <v>27.6449</v>
       </c>
       <c r="C9" t="n">
-        <v>25.9176</v>
+        <v>28.5169</v>
       </c>
       <c r="D9" t="n">
-        <v>42.0069</v>
+        <v>42.9664</v>
       </c>
     </row>
     <row r="10">
@@ -5519,13 +5519,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>27.8088</v>
+        <v>27.6131</v>
       </c>
       <c r="C10" t="n">
-        <v>25.7249</v>
+        <v>28.2447</v>
       </c>
       <c r="D10" t="n">
-        <v>43.4049</v>
+        <v>44.1428</v>
       </c>
     </row>
     <row r="11">
@@ -5533,13 +5533,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>27.8037</v>
+        <v>27.9059</v>
       </c>
       <c r="C11" t="n">
-        <v>25.8716</v>
+        <v>28.7234</v>
       </c>
       <c r="D11" t="n">
-        <v>43.19</v>
+        <v>43.8775</v>
       </c>
     </row>
     <row r="12">
@@ -5547,13 +5547,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>27.7848</v>
+        <v>28.0271</v>
       </c>
       <c r="C12" t="n">
-        <v>25.8441</v>
+        <v>28.6825</v>
       </c>
       <c r="D12" t="n">
-        <v>44.3181</v>
+        <v>43.7563</v>
       </c>
     </row>
     <row r="13">
@@ -5561,13 +5561,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>27.9828</v>
+        <v>27.8375</v>
       </c>
       <c r="C13" t="n">
-        <v>26.0809</v>
+        <v>29.1461</v>
       </c>
       <c r="D13" t="n">
-        <v>44.1783</v>
+        <v>43.9246</v>
       </c>
     </row>
     <row r="14">
@@ -5575,13 +5575,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>27.8111</v>
+        <v>27.6725</v>
       </c>
       <c r="C14" t="n">
-        <v>26.05</v>
+        <v>28.7494</v>
       </c>
       <c r="D14" t="n">
-        <v>42.8246</v>
+        <v>43.7915</v>
       </c>
     </row>
     <row r="15">
@@ -5589,13 +5589,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>28.3451</v>
+        <v>27.5711</v>
       </c>
       <c r="C15" t="n">
-        <v>26.0593</v>
+        <v>28.949</v>
       </c>
       <c r="D15" t="n">
-        <v>44.7924</v>
+        <v>44.5837</v>
       </c>
     </row>
     <row r="16">
@@ -5603,13 +5603,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>28.1436</v>
+        <v>27.9309</v>
       </c>
       <c r="C16" t="n">
-        <v>26.1144</v>
+        <v>28.973</v>
       </c>
       <c r="D16" t="n">
-        <v>44.4521</v>
+        <v>44.5743</v>
       </c>
     </row>
     <row r="17">
@@ -5617,13 +5617,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>28.5048</v>
+        <v>28.2171</v>
       </c>
       <c r="C17" t="n">
-        <v>26.1264</v>
+        <v>28.8014</v>
       </c>
       <c r="D17" t="n">
-        <v>44.466</v>
+        <v>44.7805</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Parallel workload.xlsx
+++ b/vs-x86/Parallel workload.xlsx
@@ -4087,13 +4087,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>7.99225</v>
+        <v>8.06419</v>
       </c>
       <c r="C2" t="n">
-        <v>8.72228</v>
+        <v>9.0146</v>
       </c>
       <c r="D2" t="n">
-        <v>11.3407</v>
+        <v>11.1674</v>
       </c>
     </row>
     <row r="3">
@@ -4101,13 +4101,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>15.0522</v>
+        <v>15.2002</v>
       </c>
       <c r="C3" t="n">
-        <v>14.3134</v>
+        <v>14.7759</v>
       </c>
       <c r="D3" t="n">
-        <v>19.3222</v>
+        <v>18.8828</v>
       </c>
     </row>
     <row r="4">
@@ -4115,13 +4115,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>21.2471</v>
+        <v>21.5616</v>
       </c>
       <c r="C4" t="n">
-        <v>19.2148</v>
+        <v>19.4298</v>
       </c>
       <c r="D4" t="n">
-        <v>23.893</v>
+        <v>23.231</v>
       </c>
     </row>
     <row r="5">
@@ -4129,13 +4129,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>17.6248</v>
+        <v>17.5907</v>
       </c>
       <c r="C5" t="n">
-        <v>21.0199</v>
+        <v>21.7815</v>
       </c>
       <c r="D5" t="n">
-        <v>28.5939</v>
+        <v>28.0781</v>
       </c>
     </row>
     <row r="6">
@@ -4143,13 +4143,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>21.0476</v>
+        <v>21.2552</v>
       </c>
       <c r="C6" t="n">
-        <v>24.7668</v>
+        <v>25.5642</v>
       </c>
       <c r="D6" t="n">
-        <v>31.1096</v>
+        <v>31.3654</v>
       </c>
     </row>
     <row r="7">
@@ -4157,13 +4157,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>24.9772</v>
+        <v>25.1476</v>
       </c>
       <c r="C7" t="n">
-        <v>29.1584</v>
+        <v>30.0895</v>
       </c>
       <c r="D7" t="n">
-        <v>31.7492</v>
+        <v>31.6711</v>
       </c>
     </row>
     <row r="8">
@@ -4171,13 +4171,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>18.4102</v>
+        <v>18.6752</v>
       </c>
       <c r="C8" t="n">
-        <v>26.6591</v>
+        <v>27.6228</v>
       </c>
       <c r="D8" t="n">
-        <v>31.0285</v>
+        <v>31.0007</v>
       </c>
     </row>
     <row r="9">
@@ -4185,13 +4185,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>20.8151</v>
+        <v>21.0671</v>
       </c>
       <c r="C9" t="n">
-        <v>26.8213</v>
+        <v>27.7142</v>
       </c>
       <c r="D9" t="n">
-        <v>35.9017</v>
+        <v>33.4859</v>
       </c>
     </row>
     <row r="10">
@@ -4199,13 +4199,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>22.7876</v>
+        <v>23.115</v>
       </c>
       <c r="C10" t="n">
-        <v>27.2092</v>
+        <v>27.4114</v>
       </c>
       <c r="D10" t="n">
-        <v>38.3036</v>
+        <v>35.2451</v>
       </c>
     </row>
     <row r="11">
@@ -4213,13 +4213,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>21.0519</v>
+        <v>20.9909</v>
       </c>
       <c r="C11" t="n">
-        <v>27.2068</v>
+        <v>27.9085</v>
       </c>
       <c r="D11" t="n">
-        <v>37.7746</v>
+        <v>36.9091</v>
       </c>
     </row>
     <row r="12">
@@ -4227,13 +4227,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>22.8572</v>
+        <v>23.0069</v>
       </c>
       <c r="C12" t="n">
-        <v>27.6234</v>
+        <v>28.0905</v>
       </c>
       <c r="D12" t="n">
-        <v>37.9052</v>
+        <v>36.8182</v>
       </c>
     </row>
     <row r="13">
@@ -4241,13 +4241,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>24.9504</v>
+        <v>25.1053</v>
       </c>
       <c r="C13" t="n">
-        <v>27.8598</v>
+        <v>28.6903</v>
       </c>
       <c r="D13" t="n">
-        <v>40.376</v>
+        <v>39.5708</v>
       </c>
     </row>
     <row r="14">
@@ -4255,13 +4255,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>20.6879</v>
+        <v>21.019</v>
       </c>
       <c r="C14" t="n">
-        <v>27.0539</v>
+        <v>28.6433</v>
       </c>
       <c r="D14" t="n">
-        <v>38.2842</v>
+        <v>39.7366</v>
       </c>
     </row>
     <row r="15">
@@ -4269,13 +4269,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>22.187</v>
+        <v>22.5448</v>
       </c>
       <c r="C15" t="n">
-        <v>27.527</v>
+        <v>28.1236</v>
       </c>
       <c r="D15" t="n">
-        <v>41.2501</v>
+        <v>40.1701</v>
       </c>
     </row>
     <row r="16">
@@ -4283,13 +4283,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>23.1323</v>
+        <v>23.1687</v>
       </c>
       <c r="C16" t="n">
-        <v>27.5449</v>
+        <v>28.4848</v>
       </c>
       <c r="D16" t="n">
-        <v>40.6985</v>
+        <v>40.1498</v>
       </c>
     </row>
     <row r="17">
@@ -4297,13 +4297,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>22.2383</v>
+        <v>22.2609</v>
       </c>
       <c r="C17" t="n">
-        <v>27.5149</v>
+        <v>28.5175</v>
       </c>
       <c r="D17" t="n">
-        <v>40.6414</v>
+        <v>41.1569</v>
       </c>
     </row>
   </sheetData>
@@ -4351,13 +4351,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>7.97962</v>
+        <v>8.02427</v>
       </c>
       <c r="C2" t="n">
-        <v>8.7057</v>
+        <v>8.98746</v>
       </c>
       <c r="D2" t="n">
-        <v>11.2283</v>
+        <v>11.0889</v>
       </c>
     </row>
     <row r="3">
@@ -4365,13 +4365,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>15.1563</v>
+        <v>15.2023</v>
       </c>
       <c r="C3" t="n">
-        <v>14.5076</v>
+        <v>14.9463</v>
       </c>
       <c r="D3" t="n">
-        <v>19.5105</v>
+        <v>18.7316</v>
       </c>
     </row>
     <row r="4">
@@ -4379,13 +4379,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>21.301</v>
+        <v>21.7078</v>
       </c>
       <c r="C4" t="n">
-        <v>18.9456</v>
+        <v>19.4264</v>
       </c>
       <c r="D4" t="n">
-        <v>24.4345</v>
+        <v>24.0665</v>
       </c>
     </row>
     <row r="5">
@@ -4393,13 +4393,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>17.5211</v>
+        <v>17.6778</v>
       </c>
       <c r="C5" t="n">
-        <v>20.6829</v>
+        <v>21.5384</v>
       </c>
       <c r="D5" t="n">
-        <v>26.1199</v>
+        <v>26.2992</v>
       </c>
     </row>
     <row r="6">
@@ -4407,13 +4407,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>21.3731</v>
+        <v>21.4929</v>
       </c>
       <c r="C6" t="n">
-        <v>24.6029</v>
+        <v>25.4274</v>
       </c>
       <c r="D6" t="n">
-        <v>28.7276</v>
+        <v>29.1467</v>
       </c>
     </row>
     <row r="7">
@@ -4421,13 +4421,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>25.3941</v>
+        <v>25.5797</v>
       </c>
       <c r="C7" t="n">
-        <v>29.0884</v>
+        <v>30.0319</v>
       </c>
       <c r="D7" t="n">
-        <v>35.2155</v>
+        <v>35.2557</v>
       </c>
     </row>
     <row r="8">
@@ -4435,13 +4435,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>18.3776</v>
+        <v>18.6056</v>
       </c>
       <c r="C8" t="n">
-        <v>26.405</v>
+        <v>26.9307</v>
       </c>
       <c r="D8" t="n">
-        <v>33.1569</v>
+        <v>34.2332</v>
       </c>
     </row>
     <row r="9">
@@ -4449,13 +4449,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>20.9073</v>
+        <v>21.1145</v>
       </c>
       <c r="C9" t="n">
-        <v>26.3232</v>
+        <v>27.1924</v>
       </c>
       <c r="D9" t="n">
-        <v>35.6975</v>
+        <v>33.2083</v>
       </c>
     </row>
     <row r="10">
@@ -4463,13 +4463,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>23.0694</v>
+        <v>23.357</v>
       </c>
       <c r="C10" t="n">
-        <v>26.897</v>
+        <v>27.4222</v>
       </c>
       <c r="D10" t="n">
-        <v>36.3336</v>
+        <v>36.4388</v>
       </c>
     </row>
     <row r="11">
@@ -4477,13 +4477,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>21.2023</v>
+        <v>21.5288</v>
       </c>
       <c r="C11" t="n">
-        <v>26.63</v>
+        <v>27.4087</v>
       </c>
       <c r="D11" t="n">
-        <v>37.4924</v>
+        <v>36.4246</v>
       </c>
     </row>
     <row r="12">
@@ -4491,13 +4491,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>23.1913</v>
+        <v>23.3636</v>
       </c>
       <c r="C12" t="n">
-        <v>27.3774</v>
+        <v>28.0632</v>
       </c>
       <c r="D12" t="n">
-        <v>38.7984</v>
+        <v>39.3111</v>
       </c>
     </row>
     <row r="13">
@@ -4505,13 +4505,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>25.3932</v>
+        <v>25.5508</v>
       </c>
       <c r="C13" t="n">
-        <v>27.3847</v>
+        <v>28.798</v>
       </c>
       <c r="D13" t="n">
-        <v>39.7462</v>
+        <v>39.4425</v>
       </c>
     </row>
     <row r="14">
@@ -4519,13 +4519,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>20.581</v>
+        <v>20.9998</v>
       </c>
       <c r="C14" t="n">
-        <v>27.7222</v>
+        <v>28.392</v>
       </c>
       <c r="D14" t="n">
-        <v>39.2473</v>
+        <v>38.7966</v>
       </c>
     </row>
     <row r="15">
@@ -4533,13 +4533,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>22.4864</v>
+        <v>22.7367</v>
       </c>
       <c r="C15" t="n">
-        <v>27.9427</v>
+        <v>28.4913</v>
       </c>
       <c r="D15" t="n">
-        <v>39.7915</v>
+        <v>39.7099</v>
       </c>
     </row>
     <row r="16">
@@ -4547,13 +4547,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>23.5978</v>
+        <v>23.8415</v>
       </c>
       <c r="C16" t="n">
-        <v>27.8763</v>
+        <v>28.9703</v>
       </c>
       <c r="D16" t="n">
-        <v>41.4275</v>
+        <v>40.3156</v>
       </c>
     </row>
     <row r="17">
@@ -4561,13 +4561,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>22.955</v>
+        <v>22.5302</v>
       </c>
       <c r="C17" t="n">
-        <v>27.7304</v>
+        <v>29.0761</v>
       </c>
       <c r="D17" t="n">
-        <v>40.8533</v>
+        <v>39.7445</v>
       </c>
     </row>
   </sheetData>
@@ -4615,13 +4615,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>9.115729999999999</v>
+        <v>9.18384</v>
       </c>
       <c r="C2" t="n">
-        <v>9.163550000000001</v>
+        <v>9.486980000000001</v>
       </c>
       <c r="D2" t="n">
-        <v>11.6292</v>
+        <v>11.5667</v>
       </c>
     </row>
     <row r="3">
@@ -4629,13 +4629,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>16.6445</v>
+        <v>16.6559</v>
       </c>
       <c r="C3" t="n">
-        <v>16.4544</v>
+        <v>16.8777</v>
       </c>
       <c r="D3" t="n">
-        <v>20.2276</v>
+        <v>19.8977</v>
       </c>
     </row>
     <row r="4">
@@ -4643,13 +4643,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>23.5009</v>
+        <v>23.6506</v>
       </c>
       <c r="C4" t="n">
-        <v>21.6258</v>
+        <v>23.056</v>
       </c>
       <c r="D4" t="n">
-        <v>25.4492</v>
+        <v>25.108</v>
       </c>
     </row>
     <row r="5">
@@ -4657,13 +4657,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>21.0608</v>
+        <v>21.1153</v>
       </c>
       <c r="C5" t="n">
-        <v>21.6334</v>
+        <v>22.4739</v>
       </c>
       <c r="D5" t="n">
-        <v>27.7707</v>
+        <v>28.0071</v>
       </c>
     </row>
     <row r="6">
@@ -4671,13 +4671,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>25.5921</v>
+        <v>25.7656</v>
       </c>
       <c r="C6" t="n">
-        <v>25.329</v>
+        <v>26.1831</v>
       </c>
       <c r="D6" t="n">
-        <v>31.6085</v>
+        <v>29.4308</v>
       </c>
     </row>
     <row r="7">
@@ -4685,13 +4685,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>30.4732</v>
+        <v>30.8018</v>
       </c>
       <c r="C7" t="n">
-        <v>30.1925</v>
+        <v>31.0144</v>
       </c>
       <c r="D7" t="n">
-        <v>35.073</v>
+        <v>34.8892</v>
       </c>
     </row>
     <row r="8">
@@ -4699,13 +4699,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>26.669</v>
+        <v>27.1587</v>
       </c>
       <c r="C8" t="n">
-        <v>26.0868</v>
+        <v>26.8156</v>
       </c>
       <c r="D8" t="n">
-        <v>33.21</v>
+        <v>33.8174</v>
       </c>
     </row>
     <row r="9">
@@ -4713,13 +4713,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>27.4004</v>
+        <v>27.1161</v>
       </c>
       <c r="C9" t="n">
-        <v>26.9812</v>
+        <v>26.9906</v>
       </c>
       <c r="D9" t="n">
-        <v>36.3358</v>
+        <v>35.1109</v>
       </c>
     </row>
     <row r="10">
@@ -4727,13 +4727,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>27.2911</v>
+        <v>27.5822</v>
       </c>
       <c r="C10" t="n">
-        <v>26.6321</v>
+        <v>27.6621</v>
       </c>
       <c r="D10" t="n">
-        <v>37.6068</v>
+        <v>38.616</v>
       </c>
     </row>
     <row r="11">
@@ -4741,13 +4741,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>27.6384</v>
+        <v>28.305</v>
       </c>
       <c r="C11" t="n">
-        <v>27.2893</v>
+        <v>27.8748</v>
       </c>
       <c r="D11" t="n">
-        <v>39.2105</v>
+        <v>40.5197</v>
       </c>
     </row>
     <row r="12">
@@ -4755,13 +4755,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>28.3198</v>
+        <v>28.6864</v>
       </c>
       <c r="C12" t="n">
-        <v>27.6299</v>
+        <v>28.5246</v>
       </c>
       <c r="D12" t="n">
-        <v>40.4245</v>
+        <v>38.867</v>
       </c>
     </row>
     <row r="13">
@@ -4769,13 +4769,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>27.6514</v>
+        <v>28.8445</v>
       </c>
       <c r="C13" t="n">
-        <v>27.4191</v>
+        <v>28.6737</v>
       </c>
       <c r="D13" t="n">
-        <v>39.9834</v>
+        <v>38.9842</v>
       </c>
     </row>
     <row r="14">
@@ -4783,13 +4783,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>27.5964</v>
+        <v>28.5688</v>
       </c>
       <c r="C14" t="n">
-        <v>28.341</v>
+        <v>28.3537</v>
       </c>
       <c r="D14" t="n">
-        <v>39.6141</v>
+        <v>39.7068</v>
       </c>
     </row>
     <row r="15">
@@ -4797,13 +4797,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>28.3177</v>
+        <v>28.6117</v>
       </c>
       <c r="C15" t="n">
-        <v>28.1801</v>
+        <v>28.7839</v>
       </c>
       <c r="D15" t="n">
-        <v>39.4512</v>
+        <v>39.8383</v>
       </c>
     </row>
     <row r="16">
@@ -4811,13 +4811,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>28.82</v>
+        <v>28.6567</v>
       </c>
       <c r="C16" t="n">
-        <v>27.6859</v>
+        <v>28.8728</v>
       </c>
       <c r="D16" t="n">
-        <v>39.1014</v>
+        <v>39.9765</v>
       </c>
     </row>
     <row r="17">
@@ -4825,13 +4825,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>28.6517</v>
+        <v>28.9998</v>
       </c>
       <c r="C17" t="n">
-        <v>28.1935</v>
+        <v>29.1798</v>
       </c>
       <c r="D17" t="n">
-        <v>39.68</v>
+        <v>40.6858</v>
       </c>
     </row>
   </sheetData>
@@ -4879,13 +4879,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4.57228</v>
+        <v>4.5483</v>
       </c>
       <c r="C2" t="n">
-        <v>7.61809</v>
+        <v>7.92196</v>
       </c>
       <c r="D2" t="n">
-        <v>9.927379999999999</v>
+        <v>9.606170000000001</v>
       </c>
     </row>
     <row r="3">
@@ -4893,13 +4893,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>8.97763</v>
+        <v>8.926130000000001</v>
       </c>
       <c r="C3" t="n">
-        <v>13.614</v>
+        <v>14.0183</v>
       </c>
       <c r="D3" t="n">
-        <v>19.0071</v>
+        <v>18.5333</v>
       </c>
     </row>
     <row r="4">
@@ -4907,13 +4907,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>13.0139</v>
+        <v>12.9758</v>
       </c>
       <c r="C4" t="n">
-        <v>19.0793</v>
+        <v>20.0047</v>
       </c>
       <c r="D4" t="n">
-        <v>27.4538</v>
+        <v>26.5414</v>
       </c>
     </row>
     <row r="5">
@@ -4921,13 +4921,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>14.8756</v>
+        <v>14.655</v>
       </c>
       <c r="C5" t="n">
-        <v>20.225</v>
+        <v>21.2757</v>
       </c>
       <c r="D5" t="n">
-        <v>31.6387</v>
+        <v>30.1343</v>
       </c>
     </row>
     <row r="6">
@@ -4935,13 +4935,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>17.8795</v>
+        <v>17.8992</v>
       </c>
       <c r="C6" t="n">
-        <v>23.4604</v>
+        <v>24.4938</v>
       </c>
       <c r="D6" t="n">
-        <v>37.8141</v>
+        <v>36.798</v>
       </c>
     </row>
     <row r="7">
@@ -4949,13 +4949,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>21.0784</v>
+        <v>21.1078</v>
       </c>
       <c r="C7" t="n">
-        <v>27.8737</v>
+        <v>28.9303</v>
       </c>
       <c r="D7" t="n">
-        <v>44.8053</v>
+        <v>43.9329</v>
       </c>
     </row>
     <row r="8">
@@ -4963,13 +4963,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>19.1312</v>
+        <v>19.0461</v>
       </c>
       <c r="C8" t="n">
-        <v>26.8219</v>
+        <v>27.5213</v>
       </c>
       <c r="D8" t="n">
-        <v>40.8767</v>
+        <v>38.9498</v>
       </c>
     </row>
     <row r="9">
@@ -4977,13 +4977,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>19.7269</v>
+        <v>20.0232</v>
       </c>
       <c r="C9" t="n">
-        <v>26.3705</v>
+        <v>27.8949</v>
       </c>
       <c r="D9" t="n">
-        <v>40.4588</v>
+        <v>40.2433</v>
       </c>
     </row>
     <row r="10">
@@ -4991,13 +4991,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>19.8807</v>
+        <v>19.6219</v>
       </c>
       <c r="C10" t="n">
-        <v>26.5207</v>
+        <v>27.8639</v>
       </c>
       <c r="D10" t="n">
-        <v>39.7799</v>
+        <v>40.8745</v>
       </c>
     </row>
     <row r="11">
@@ -5005,13 +5005,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>20.3195</v>
+        <v>20.2407</v>
       </c>
       <c r="C11" t="n">
-        <v>26.6415</v>
+        <v>28.0268</v>
       </c>
       <c r="D11" t="n">
-        <v>41.0181</v>
+        <v>40.663</v>
       </c>
     </row>
     <row r="12">
@@ -5019,13 +5019,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>20.2456</v>
+        <v>19.895</v>
       </c>
       <c r="C12" t="n">
-        <v>26.8714</v>
+        <v>27.7449</v>
       </c>
       <c r="D12" t="n">
-        <v>40.3979</v>
+        <v>40.5025</v>
       </c>
     </row>
     <row r="13">
@@ -5033,13 +5033,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>20.1433</v>
+        <v>20.2943</v>
       </c>
       <c r="C13" t="n">
-        <v>27.1967</v>
+        <v>27.8028</v>
       </c>
       <c r="D13" t="n">
-        <v>39.9666</v>
+        <v>41.1321</v>
       </c>
     </row>
     <row r="14">
@@ -5047,13 +5047,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>19.9373</v>
+        <v>20.0621</v>
       </c>
       <c r="C14" t="n">
-        <v>27.0865</v>
+        <v>28.1717</v>
       </c>
       <c r="D14" t="n">
-        <v>42.9092</v>
+        <v>41.2618</v>
       </c>
     </row>
     <row r="15">
@@ -5061,13 +5061,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>20.2982</v>
+        <v>20.1617</v>
       </c>
       <c r="C15" t="n">
-        <v>26.9942</v>
+        <v>28.2784</v>
       </c>
       <c r="D15" t="n">
-        <v>42.2117</v>
+        <v>40.9165</v>
       </c>
     </row>
     <row r="16">
@@ -5075,13 +5075,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>20.3987</v>
+        <v>20.1359</v>
       </c>
       <c r="C16" t="n">
-        <v>27.3191</v>
+        <v>27.8667</v>
       </c>
       <c r="D16" t="n">
-        <v>42.5984</v>
+        <v>41.7901</v>
       </c>
     </row>
     <row r="17">
@@ -5089,13 +5089,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>20.1801</v>
+        <v>20.4877</v>
       </c>
       <c r="C17" t="n">
-        <v>27.3114</v>
+        <v>28.5082</v>
       </c>
       <c r="D17" t="n">
-        <v>42.9132</v>
+        <v>40.3568</v>
       </c>
     </row>
   </sheetData>
@@ -5143,13 +5143,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4.65382</v>
+        <v>4.63026</v>
       </c>
       <c r="C2" t="n">
-        <v>7.65362</v>
+        <v>7.9212</v>
       </c>
       <c r="D2" t="n">
-        <v>9.88344</v>
+        <v>9.580249999999999</v>
       </c>
     </row>
     <row r="3">
@@ -5157,13 +5157,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.16915</v>
+        <v>9.118650000000001</v>
       </c>
       <c r="C3" t="n">
-        <v>13.6904</v>
+        <v>14.0909</v>
       </c>
       <c r="D3" t="n">
-        <v>19.0113</v>
+        <v>18.453</v>
       </c>
     </row>
     <row r="4">
@@ -5171,13 +5171,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>13.3663</v>
+        <v>13.2789</v>
       </c>
       <c r="C4" t="n">
-        <v>19.4564</v>
+        <v>19.8225</v>
       </c>
       <c r="D4" t="n">
-        <v>27.6229</v>
+        <v>26.6755</v>
       </c>
     </row>
     <row r="5">
@@ -5185,13 +5185,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>14.942</v>
+        <v>15.1116</v>
       </c>
       <c r="C5" t="n">
-        <v>20.2722</v>
+        <v>21.0283</v>
       </c>
       <c r="D5" t="n">
-        <v>31.504</v>
+        <v>30.1825</v>
       </c>
     </row>
     <row r="6">
@@ -5199,13 +5199,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>18.2465</v>
+        <v>18.3</v>
       </c>
       <c r="C6" t="n">
-        <v>23.5317</v>
+        <v>24.3715</v>
       </c>
       <c r="D6" t="n">
-        <v>37.3925</v>
+        <v>36.42</v>
       </c>
     </row>
     <row r="7">
@@ -5213,13 +5213,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>21.6521</v>
+        <v>21.6736</v>
       </c>
       <c r="C7" t="n">
-        <v>27.8657</v>
+        <v>28.9539</v>
       </c>
       <c r="D7" t="n">
-        <v>43.3806</v>
+        <v>42.8892</v>
       </c>
     </row>
     <row r="8">
@@ -5227,13 +5227,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>19.2096</v>
+        <v>19.5736</v>
       </c>
       <c r="C8" t="n">
-        <v>26.4428</v>
+        <v>27.8381</v>
       </c>
       <c r="D8" t="n">
-        <v>38.247</v>
+        <v>38.2442</v>
       </c>
     </row>
     <row r="9">
@@ -5241,13 +5241,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>20.4965</v>
+        <v>20.1757</v>
       </c>
       <c r="C9" t="n">
-        <v>26.8155</v>
+        <v>27.6742</v>
       </c>
       <c r="D9" t="n">
-        <v>39.2779</v>
+        <v>38.248</v>
       </c>
     </row>
     <row r="10">
@@ -5255,13 +5255,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>20.6638</v>
+        <v>20.2643</v>
       </c>
       <c r="C10" t="n">
-        <v>26.463</v>
+        <v>27.6491</v>
       </c>
       <c r="D10" t="n">
-        <v>40.1295</v>
+        <v>37.7686</v>
       </c>
     </row>
     <row r="11">
@@ -5269,13 +5269,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>20.663</v>
+        <v>20.6087</v>
       </c>
       <c r="C11" t="n">
-        <v>27.0763</v>
+        <v>27.9555</v>
       </c>
       <c r="D11" t="n">
-        <v>39.9027</v>
+        <v>39.7167</v>
       </c>
     </row>
     <row r="12">
@@ -5283,13 +5283,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>20.5243</v>
+        <v>20.1341</v>
       </c>
       <c r="C12" t="n">
-        <v>27.0871</v>
+        <v>27.7732</v>
       </c>
       <c r="D12" t="n">
-        <v>40.7463</v>
+        <v>40.0611</v>
       </c>
     </row>
     <row r="13">
@@ -5297,13 +5297,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>20.5619</v>
+        <v>20.7831</v>
       </c>
       <c r="C13" t="n">
-        <v>26.9141</v>
+        <v>27.9803</v>
       </c>
       <c r="D13" t="n">
-        <v>41.4293</v>
+        <v>40.3956</v>
       </c>
     </row>
     <row r="14">
@@ -5311,13 +5311,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>20.6281</v>
+        <v>20.4882</v>
       </c>
       <c r="C14" t="n">
-        <v>26.8905</v>
+        <v>28.104</v>
       </c>
       <c r="D14" t="n">
-        <v>40.3891</v>
+        <v>40.0907</v>
       </c>
     </row>
     <row r="15">
@@ -5325,13 +5325,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>20.6894</v>
+        <v>20.7527</v>
       </c>
       <c r="C15" t="n">
-        <v>26.9132</v>
+        <v>28.0305</v>
       </c>
       <c r="D15" t="n">
-        <v>41.9477</v>
+        <v>40.9101</v>
       </c>
     </row>
     <row r="16">
@@ -5339,13 +5339,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>20.5065</v>
+        <v>20.7408</v>
       </c>
       <c r="C16" t="n">
-        <v>27.0988</v>
+        <v>28.4401</v>
       </c>
       <c r="D16" t="n">
-        <v>42.4279</v>
+        <v>40.804</v>
       </c>
     </row>
     <row r="17">
@@ -5353,13 +5353,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>20.7761</v>
+        <v>20.8759</v>
       </c>
       <c r="C17" t="n">
-        <v>27.2122</v>
+        <v>28.2094</v>
       </c>
       <c r="D17" t="n">
-        <v>42.5291</v>
+        <v>40.3114</v>
       </c>
     </row>
   </sheetData>
@@ -5407,13 +5407,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>7.59666</v>
+        <v>7.61532</v>
       </c>
       <c r="C2" t="n">
-        <v>8.873799999999999</v>
+        <v>9.216939999999999</v>
       </c>
       <c r="D2" t="n">
-        <v>11.3796</v>
+        <v>11.1878</v>
       </c>
     </row>
     <row r="3">
@@ -5421,13 +5421,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>14.6673</v>
+        <v>14.5797</v>
       </c>
       <c r="C3" t="n">
-        <v>15.5577</v>
+        <v>16.0444</v>
       </c>
       <c r="D3" t="n">
-        <v>21.5701</v>
+        <v>21.09</v>
       </c>
     </row>
     <row r="4">
@@ -5435,13 +5435,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>20.876</v>
+        <v>21.1586</v>
       </c>
       <c r="C4" t="n">
-        <v>21.306</v>
+        <v>22.1975</v>
       </c>
       <c r="D4" t="n">
-        <v>30.7436</v>
+        <v>30.3327</v>
       </c>
     </row>
     <row r="5">
@@ -5449,13 +5449,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>21.482</v>
+        <v>20.1821</v>
       </c>
       <c r="C5" t="n">
-        <v>22.1281</v>
+        <v>22.5118</v>
       </c>
       <c r="D5" t="n">
-        <v>33.1204</v>
+        <v>32.0207</v>
       </c>
     </row>
     <row r="6">
@@ -5463,13 +5463,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>24.2066</v>
+        <v>24.2534</v>
       </c>
       <c r="C6" t="n">
-        <v>25.2376</v>
+        <v>26.2128</v>
       </c>
       <c r="D6" t="n">
-        <v>39.1231</v>
+        <v>38.2555</v>
       </c>
     </row>
     <row r="7">
@@ -5477,13 +5477,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>29.3415</v>
+        <v>29.5336</v>
       </c>
       <c r="C7" t="n">
-        <v>29.5029</v>
+        <v>30.5428</v>
       </c>
       <c r="D7" t="n">
-        <v>46.3685</v>
+        <v>45.9561</v>
       </c>
     </row>
     <row r="8">
@@ -5491,13 +5491,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>26.7984</v>
+        <v>26.9173</v>
       </c>
       <c r="C8" t="n">
-        <v>28.0736</v>
+        <v>29.4396</v>
       </c>
       <c r="D8" t="n">
-        <v>43.0211</v>
+        <v>42.3135</v>
       </c>
     </row>
     <row r="9">
@@ -5505,13 +5505,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>27.6449</v>
+        <v>27.6869</v>
       </c>
       <c r="C9" t="n">
-        <v>28.5169</v>
+        <v>29.0957</v>
       </c>
       <c r="D9" t="n">
-        <v>42.9664</v>
+        <v>41.8617</v>
       </c>
     </row>
     <row r="10">
@@ -5519,13 +5519,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>27.6131</v>
+        <v>27.6155</v>
       </c>
       <c r="C10" t="n">
-        <v>28.2447</v>
+        <v>29.6077</v>
       </c>
       <c r="D10" t="n">
-        <v>44.1428</v>
+        <v>43.0659</v>
       </c>
     </row>
     <row r="11">
@@ -5533,13 +5533,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>27.9059</v>
+        <v>28.4901</v>
       </c>
       <c r="C11" t="n">
-        <v>28.7234</v>
+        <v>29.6511</v>
       </c>
       <c r="D11" t="n">
-        <v>43.8775</v>
+        <v>43.087</v>
       </c>
     </row>
     <row r="12">
@@ -5547,13 +5547,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>28.0271</v>
+        <v>27.6724</v>
       </c>
       <c r="C12" t="n">
-        <v>28.6825</v>
+        <v>29.9653</v>
       </c>
       <c r="D12" t="n">
-        <v>43.7563</v>
+        <v>42.7971</v>
       </c>
     </row>
     <row r="13">
@@ -5561,13 +5561,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>27.8375</v>
+        <v>28.0538</v>
       </c>
       <c r="C13" t="n">
-        <v>29.1461</v>
+        <v>29.8147</v>
       </c>
       <c r="D13" t="n">
-        <v>43.9246</v>
+        <v>42.4383</v>
       </c>
     </row>
     <row r="14">
@@ -5575,13 +5575,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>27.6725</v>
+        <v>28.2187</v>
       </c>
       <c r="C14" t="n">
-        <v>28.7494</v>
+        <v>29.7064</v>
       </c>
       <c r="D14" t="n">
-        <v>43.7915</v>
+        <v>43.6562</v>
       </c>
     </row>
     <row r="15">
@@ -5589,13 +5589,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>27.5711</v>
+        <v>28.1487</v>
       </c>
       <c r="C15" t="n">
-        <v>28.949</v>
+        <v>29.935</v>
       </c>
       <c r="D15" t="n">
-        <v>44.5837</v>
+        <v>43.8784</v>
       </c>
     </row>
     <row r="16">
@@ -5603,13 +5603,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>27.9309</v>
+        <v>28.3482</v>
       </c>
       <c r="C16" t="n">
-        <v>28.973</v>
+        <v>30.0243</v>
       </c>
       <c r="D16" t="n">
-        <v>44.5743</v>
+        <v>43.5125</v>
       </c>
     </row>
     <row r="17">
@@ -5617,13 +5617,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>28.2171</v>
+        <v>28.0642</v>
       </c>
       <c r="C17" t="n">
-        <v>28.8014</v>
+        <v>30.1442</v>
       </c>
       <c r="D17" t="n">
-        <v>44.7805</v>
+        <v>43.4953</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Parallel workload.xlsx
+++ b/vs-x86/Parallel workload.xlsx
@@ -4087,13 +4087,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.06419</v>
+        <v>9.37229</v>
       </c>
       <c r="C2" t="n">
-        <v>9.0146</v>
+        <v>10.8485</v>
       </c>
       <c r="D2" t="n">
-        <v>11.1674</v>
+        <v>13.1944</v>
       </c>
     </row>
     <row r="3">
@@ -4101,13 +4101,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>15.2002</v>
+        <v>17.5226</v>
       </c>
       <c r="C3" t="n">
-        <v>14.7759</v>
+        <v>16.7446</v>
       </c>
       <c r="D3" t="n">
-        <v>18.8828</v>
+        <v>21.7675</v>
       </c>
     </row>
     <row r="4">
@@ -4115,13 +4115,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>21.5616</v>
+        <v>24.2661</v>
       </c>
       <c r="C4" t="n">
-        <v>19.4298</v>
+        <v>21.595</v>
       </c>
       <c r="D4" t="n">
-        <v>23.231</v>
+        <v>26.0945</v>
       </c>
     </row>
     <row r="5">
@@ -4129,13 +4129,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>17.5907</v>
+        <v>19.1192</v>
       </c>
       <c r="C5" t="n">
-        <v>21.7815</v>
+        <v>23.8781</v>
       </c>
       <c r="D5" t="n">
-        <v>28.0781</v>
+        <v>29.4313</v>
       </c>
     </row>
     <row r="6">
@@ -4143,13 +4143,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>21.2552</v>
+        <v>22.5631</v>
       </c>
       <c r="C6" t="n">
-        <v>25.5642</v>
+        <v>27.8326</v>
       </c>
       <c r="D6" t="n">
-        <v>31.3654</v>
+        <v>31.8142</v>
       </c>
     </row>
     <row r="7">
@@ -4157,13 +4157,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>25.1476</v>
+        <v>26.5171</v>
       </c>
       <c r="C7" t="n">
-        <v>30.0895</v>
+        <v>32.6743</v>
       </c>
       <c r="D7" t="n">
-        <v>31.6711</v>
+        <v>34.956</v>
       </c>
     </row>
     <row r="8">
@@ -4171,13 +4171,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>18.6752</v>
+        <v>20.2473</v>
       </c>
       <c r="C8" t="n">
-        <v>27.6228</v>
+        <v>30.1214</v>
       </c>
       <c r="D8" t="n">
-        <v>31.0007</v>
+        <v>36.2754</v>
       </c>
     </row>
     <row r="9">
@@ -4185,13 +4185,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>21.0671</v>
+        <v>22.5627</v>
       </c>
       <c r="C9" t="n">
-        <v>27.7142</v>
+        <v>30.0551</v>
       </c>
       <c r="D9" t="n">
-        <v>33.4859</v>
+        <v>39.7516</v>
       </c>
     </row>
     <row r="10">
@@ -4199,13 +4199,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>23.115</v>
+        <v>24.5595</v>
       </c>
       <c r="C10" t="n">
-        <v>27.4114</v>
+        <v>30.4774</v>
       </c>
       <c r="D10" t="n">
-        <v>35.2451</v>
+        <v>41.5111</v>
       </c>
     </row>
     <row r="11">
@@ -4213,13 +4213,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>20.9909</v>
+        <v>22.4404</v>
       </c>
       <c r="C11" t="n">
-        <v>27.9085</v>
+        <v>30.5816</v>
       </c>
       <c r="D11" t="n">
-        <v>36.9091</v>
+        <v>42.8821</v>
       </c>
     </row>
     <row r="12">
@@ -4227,13 +4227,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>23.0069</v>
+        <v>24.4656</v>
       </c>
       <c r="C12" t="n">
-        <v>28.0905</v>
+        <v>30.4579</v>
       </c>
       <c r="D12" t="n">
-        <v>36.8182</v>
+        <v>43.7714</v>
       </c>
     </row>
     <row r="13">
@@ -4241,13 +4241,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>25.1053</v>
+        <v>26.4885</v>
       </c>
       <c r="C13" t="n">
-        <v>28.6903</v>
+        <v>30.8716</v>
       </c>
       <c r="D13" t="n">
-        <v>39.5708</v>
+        <v>44.6766</v>
       </c>
     </row>
     <row r="14">
@@ -4255,13 +4255,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>21.019</v>
+        <v>22.3412</v>
       </c>
       <c r="C14" t="n">
-        <v>28.6433</v>
+        <v>30.8401</v>
       </c>
       <c r="D14" t="n">
-        <v>39.7366</v>
+        <v>44.3202</v>
       </c>
     </row>
     <row r="15">
@@ -4269,13 +4269,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>22.5448</v>
+        <v>23.8044</v>
       </c>
       <c r="C15" t="n">
-        <v>28.1236</v>
+        <v>31.1524</v>
       </c>
       <c r="D15" t="n">
-        <v>40.1701</v>
+        <v>44.8502</v>
       </c>
     </row>
     <row r="16">
@@ -4283,13 +4283,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>23.1687</v>
+        <v>25.0529</v>
       </c>
       <c r="C16" t="n">
-        <v>28.4848</v>
+        <v>30.8357</v>
       </c>
       <c r="D16" t="n">
-        <v>40.1498</v>
+        <v>44.4876</v>
       </c>
     </row>
     <row r="17">
@@ -4297,13 +4297,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>22.2609</v>
+        <v>23.8686</v>
       </c>
       <c r="C17" t="n">
-        <v>28.5175</v>
+        <v>31.3669</v>
       </c>
       <c r="D17" t="n">
-        <v>41.1569</v>
+        <v>45.0643</v>
       </c>
     </row>
   </sheetData>
@@ -4351,13 +4351,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.02427</v>
+        <v>9.35272</v>
       </c>
       <c r="C2" t="n">
-        <v>8.98746</v>
+        <v>10.84</v>
       </c>
       <c r="D2" t="n">
-        <v>11.0889</v>
+        <v>13.0604</v>
       </c>
     </row>
     <row r="3">
@@ -4365,13 +4365,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>15.2023</v>
+        <v>17.5103</v>
       </c>
       <c r="C3" t="n">
-        <v>14.9463</v>
+        <v>16.8061</v>
       </c>
       <c r="D3" t="n">
-        <v>18.7316</v>
+        <v>20.921</v>
       </c>
     </row>
     <row r="4">
@@ -4379,13 +4379,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>21.7078</v>
+        <v>24.4689</v>
       </c>
       <c r="C4" t="n">
-        <v>19.4264</v>
+        <v>21.3809</v>
       </c>
       <c r="D4" t="n">
-        <v>24.0665</v>
+        <v>26.9621</v>
       </c>
     </row>
     <row r="5">
@@ -4393,13 +4393,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>17.6778</v>
+        <v>18.9722</v>
       </c>
       <c r="C5" t="n">
-        <v>21.5384</v>
+        <v>23.5562</v>
       </c>
       <c r="D5" t="n">
-        <v>26.2992</v>
+        <v>28.4559</v>
       </c>
     </row>
     <row r="6">
@@ -4407,13 +4407,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>21.4929</v>
+        <v>23.0543</v>
       </c>
       <c r="C6" t="n">
-        <v>25.4274</v>
+        <v>27.7886</v>
       </c>
       <c r="D6" t="n">
-        <v>29.1467</v>
+        <v>35.164</v>
       </c>
     </row>
     <row r="7">
@@ -4421,13 +4421,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>25.5797</v>
+        <v>27.0921</v>
       </c>
       <c r="C7" t="n">
-        <v>30.0319</v>
+        <v>32.5615</v>
       </c>
       <c r="D7" t="n">
-        <v>35.2557</v>
+        <v>35.3092</v>
       </c>
     </row>
     <row r="8">
@@ -4435,13 +4435,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>18.6056</v>
+        <v>20.1957</v>
       </c>
       <c r="C8" t="n">
-        <v>26.9307</v>
+        <v>29.3933</v>
       </c>
       <c r="D8" t="n">
-        <v>34.2332</v>
+        <v>34.7576</v>
       </c>
     </row>
     <row r="9">
@@ -4449,13 +4449,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>21.1145</v>
+        <v>22.8345</v>
       </c>
       <c r="C9" t="n">
-        <v>27.1924</v>
+        <v>30.0414</v>
       </c>
       <c r="D9" t="n">
-        <v>33.2083</v>
+        <v>35.8017</v>
       </c>
     </row>
     <row r="10">
@@ -4463,13 +4463,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>23.357</v>
+        <v>24.7545</v>
       </c>
       <c r="C10" t="n">
-        <v>27.4222</v>
+        <v>30.3893</v>
       </c>
       <c r="D10" t="n">
-        <v>36.4388</v>
+        <v>37.7617</v>
       </c>
     </row>
     <row r="11">
@@ -4477,13 +4477,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>21.5288</v>
+        <v>22.8262</v>
       </c>
       <c r="C11" t="n">
-        <v>27.4087</v>
+        <v>30.0136</v>
       </c>
       <c r="D11" t="n">
-        <v>36.4246</v>
+        <v>40.0042</v>
       </c>
     </row>
     <row r="12">
@@ -4491,13 +4491,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>23.3636</v>
+        <v>24.9225</v>
       </c>
       <c r="C12" t="n">
-        <v>28.0632</v>
+        <v>30.3444</v>
       </c>
       <c r="D12" t="n">
-        <v>39.3111</v>
+        <v>40.7082</v>
       </c>
     </row>
     <row r="13">
@@ -4505,13 +4505,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>25.5508</v>
+        <v>27.0886</v>
       </c>
       <c r="C13" t="n">
-        <v>28.798</v>
+        <v>31.2964</v>
       </c>
       <c r="D13" t="n">
-        <v>39.4425</v>
+        <v>43.3247</v>
       </c>
     </row>
     <row r="14">
@@ -4519,13 +4519,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>20.9998</v>
+        <v>22.5926</v>
       </c>
       <c r="C14" t="n">
-        <v>28.392</v>
+        <v>31.5612</v>
       </c>
       <c r="D14" t="n">
-        <v>38.7966</v>
+        <v>44.4129</v>
       </c>
     </row>
     <row r="15">
@@ -4533,13 +4533,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>22.7367</v>
+        <v>24.3019</v>
       </c>
       <c r="C15" t="n">
-        <v>28.4913</v>
+        <v>31.3539</v>
       </c>
       <c r="D15" t="n">
-        <v>39.7099</v>
+        <v>43.2084</v>
       </c>
     </row>
     <row r="16">
@@ -4547,13 +4547,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>23.8415</v>
+        <v>25.1342</v>
       </c>
       <c r="C16" t="n">
-        <v>28.9703</v>
+        <v>31.6479</v>
       </c>
       <c r="D16" t="n">
-        <v>40.3156</v>
+        <v>43.9093</v>
       </c>
     </row>
     <row r="17">
@@ -4561,13 +4561,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>22.5302</v>
+        <v>24.4367</v>
       </c>
       <c r="C17" t="n">
-        <v>29.0761</v>
+        <v>31.6769</v>
       </c>
       <c r="D17" t="n">
-        <v>39.7445</v>
+        <v>44.8195</v>
       </c>
     </row>
   </sheetData>
@@ -4615,13 +4615,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>9.18384</v>
+        <v>10.9198</v>
       </c>
       <c r="C2" t="n">
-        <v>9.486980000000001</v>
+        <v>11.5984</v>
       </c>
       <c r="D2" t="n">
-        <v>11.5667</v>
+        <v>13.8814</v>
       </c>
     </row>
     <row r="3">
@@ -4629,13 +4629,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>16.6559</v>
+        <v>19.5583</v>
       </c>
       <c r="C3" t="n">
-        <v>16.8777</v>
+        <v>19.4837</v>
       </c>
       <c r="D3" t="n">
-        <v>19.8977</v>
+        <v>22.0462</v>
       </c>
     </row>
     <row r="4">
@@ -4643,13 +4643,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>23.6506</v>
+        <v>26.9745</v>
       </c>
       <c r="C4" t="n">
-        <v>23.056</v>
+        <v>24.7524</v>
       </c>
       <c r="D4" t="n">
-        <v>25.108</v>
+        <v>31.5766</v>
       </c>
     </row>
     <row r="5">
@@ -4657,13 +4657,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>21.1153</v>
+        <v>23.165</v>
       </c>
       <c r="C5" t="n">
-        <v>22.4739</v>
+        <v>24.7052</v>
       </c>
       <c r="D5" t="n">
-        <v>28.0071</v>
+        <v>31.4042</v>
       </c>
     </row>
     <row r="6">
@@ -4671,13 +4671,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>25.7656</v>
+        <v>28.0552</v>
       </c>
       <c r="C6" t="n">
-        <v>26.1831</v>
+        <v>28.7796</v>
       </c>
       <c r="D6" t="n">
-        <v>29.4308</v>
+        <v>33.9055</v>
       </c>
     </row>
     <row r="7">
@@ -4685,13 +4685,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>30.8018</v>
+        <v>33.2156</v>
       </c>
       <c r="C7" t="n">
-        <v>31.0144</v>
+        <v>33.6116</v>
       </c>
       <c r="D7" t="n">
-        <v>34.8892</v>
+        <v>35.0818</v>
       </c>
     </row>
     <row r="8">
@@ -4699,13 +4699,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>27.1587</v>
+        <v>30.3589</v>
       </c>
       <c r="C8" t="n">
-        <v>26.8156</v>
+        <v>29.4224</v>
       </c>
       <c r="D8" t="n">
-        <v>33.8174</v>
+        <v>35.2828</v>
       </c>
     </row>
     <row r="9">
@@ -4713,13 +4713,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>27.1161</v>
+        <v>30.1494</v>
       </c>
       <c r="C9" t="n">
-        <v>26.9906</v>
+        <v>30.3251</v>
       </c>
       <c r="D9" t="n">
-        <v>35.1109</v>
+        <v>37.9561</v>
       </c>
     </row>
     <row r="10">
@@ -4727,13 +4727,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>27.5822</v>
+        <v>30.0965</v>
       </c>
       <c r="C10" t="n">
-        <v>27.6621</v>
+        <v>30.6278</v>
       </c>
       <c r="D10" t="n">
-        <v>38.616</v>
+        <v>42.4264</v>
       </c>
     </row>
     <row r="11">
@@ -4741,13 +4741,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>28.305</v>
+        <v>30.8187</v>
       </c>
       <c r="C11" t="n">
-        <v>27.8748</v>
+        <v>31.0266</v>
       </c>
       <c r="D11" t="n">
-        <v>40.5197</v>
+        <v>45.2086</v>
       </c>
     </row>
     <row r="12">
@@ -4755,13 +4755,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>28.6864</v>
+        <v>31.2426</v>
       </c>
       <c r="C12" t="n">
-        <v>28.5246</v>
+        <v>31.0037</v>
       </c>
       <c r="D12" t="n">
-        <v>38.867</v>
+        <v>44.5341</v>
       </c>
     </row>
     <row r="13">
@@ -4769,13 +4769,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>28.8445</v>
+        <v>31.4587</v>
       </c>
       <c r="C13" t="n">
-        <v>28.6737</v>
+        <v>30.8265</v>
       </c>
       <c r="D13" t="n">
-        <v>38.9842</v>
+        <v>43.9641</v>
       </c>
     </row>
     <row r="14">
@@ -4783,13 +4783,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>28.5688</v>
+        <v>31.3775</v>
       </c>
       <c r="C14" t="n">
-        <v>28.3537</v>
+        <v>31.4903</v>
       </c>
       <c r="D14" t="n">
-        <v>39.7068</v>
+        <v>44.8467</v>
       </c>
     </row>
     <row r="15">
@@ -4797,13 +4797,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>28.6117</v>
+        <v>31.1772</v>
       </c>
       <c r="C15" t="n">
-        <v>28.7839</v>
+        <v>31.4844</v>
       </c>
       <c r="D15" t="n">
-        <v>39.8383</v>
+        <v>45.1507</v>
       </c>
     </row>
     <row r="16">
@@ -4811,13 +4811,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>28.6567</v>
+        <v>30.848</v>
       </c>
       <c r="C16" t="n">
-        <v>28.8728</v>
+        <v>30.9101</v>
       </c>
       <c r="D16" t="n">
-        <v>39.9765</v>
+        <v>44.8127</v>
       </c>
     </row>
     <row r="17">
@@ -4825,13 +4825,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>28.9998</v>
+        <v>31.1531</v>
       </c>
       <c r="C17" t="n">
-        <v>29.1798</v>
+        <v>31.9492</v>
       </c>
       <c r="D17" t="n">
-        <v>40.6858</v>
+        <v>45.4191</v>
       </c>
     </row>
   </sheetData>
@@ -4879,13 +4879,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4.5483</v>
+        <v>4.91372</v>
       </c>
       <c r="C2" t="n">
-        <v>7.92196</v>
+        <v>9.06756</v>
       </c>
       <c r="D2" t="n">
-        <v>9.606170000000001</v>
+        <v>10.8773</v>
       </c>
     </row>
     <row r="3">
@@ -4893,13 +4893,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>8.926130000000001</v>
+        <v>9.59661</v>
       </c>
       <c r="C3" t="n">
-        <v>14.0183</v>
+        <v>15.8278</v>
       </c>
       <c r="D3" t="n">
-        <v>18.5333</v>
+        <v>20.8114</v>
       </c>
     </row>
     <row r="4">
@@ -4907,13 +4907,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>12.9758</v>
+        <v>13.9489</v>
       </c>
       <c r="C4" t="n">
-        <v>20.0047</v>
+        <v>22.4159</v>
       </c>
       <c r="D4" t="n">
-        <v>26.5414</v>
+        <v>30.1353</v>
       </c>
     </row>
     <row r="5">
@@ -4921,13 +4921,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>14.655</v>
+        <v>15.6749</v>
       </c>
       <c r="C5" t="n">
-        <v>21.2757</v>
+        <v>22.91</v>
       </c>
       <c r="D5" t="n">
-        <v>30.1343</v>
+        <v>34.157</v>
       </c>
     </row>
     <row r="6">
@@ -4935,13 +4935,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>17.8992</v>
+        <v>18.7811</v>
       </c>
       <c r="C6" t="n">
-        <v>24.4938</v>
+        <v>26.209</v>
       </c>
       <c r="D6" t="n">
-        <v>36.798</v>
+        <v>40.7245</v>
       </c>
     </row>
     <row r="7">
@@ -4949,13 +4949,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>21.1078</v>
+        <v>22.1178</v>
       </c>
       <c r="C7" t="n">
-        <v>28.9303</v>
+        <v>31.2518</v>
       </c>
       <c r="D7" t="n">
-        <v>43.9329</v>
+        <v>47.4751</v>
       </c>
     </row>
     <row r="8">
@@ -4963,13 +4963,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>19.0461</v>
+        <v>19.9016</v>
       </c>
       <c r="C8" t="n">
-        <v>27.5213</v>
+        <v>29.8321</v>
       </c>
       <c r="D8" t="n">
-        <v>38.9498</v>
+        <v>43.2637</v>
       </c>
     </row>
     <row r="9">
@@ -4977,13 +4977,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>20.0232</v>
+        <v>20.5425</v>
       </c>
       <c r="C9" t="n">
-        <v>27.8949</v>
+        <v>29.9134</v>
       </c>
       <c r="D9" t="n">
-        <v>40.2433</v>
+        <v>42.546</v>
       </c>
     </row>
     <row r="10">
@@ -4991,13 +4991,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>19.6219</v>
+        <v>20.4792</v>
       </c>
       <c r="C10" t="n">
-        <v>27.8639</v>
+        <v>29.9168</v>
       </c>
       <c r="D10" t="n">
-        <v>40.8745</v>
+        <v>43.235</v>
       </c>
     </row>
     <row r="11">
@@ -5005,13 +5005,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>20.2407</v>
+        <v>21.0705</v>
       </c>
       <c r="C11" t="n">
-        <v>28.0268</v>
+        <v>30.5507</v>
       </c>
       <c r="D11" t="n">
-        <v>40.663</v>
+        <v>43.3138</v>
       </c>
     </row>
     <row r="12">
@@ -5019,13 +5019,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>19.895</v>
+        <v>20.9867</v>
       </c>
       <c r="C12" t="n">
-        <v>27.7449</v>
+        <v>30.0993</v>
       </c>
       <c r="D12" t="n">
-        <v>40.5025</v>
+        <v>45.4752</v>
       </c>
     </row>
     <row r="13">
@@ -5033,13 +5033,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>20.2943</v>
+        <v>21.094</v>
       </c>
       <c r="C13" t="n">
-        <v>27.8028</v>
+        <v>30.3744</v>
       </c>
       <c r="D13" t="n">
-        <v>41.1321</v>
+        <v>43.8643</v>
       </c>
     </row>
     <row r="14">
@@ -5047,13 +5047,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>20.0621</v>
+        <v>20.8768</v>
       </c>
       <c r="C14" t="n">
-        <v>28.1717</v>
+        <v>30.6265</v>
       </c>
       <c r="D14" t="n">
-        <v>41.2618</v>
+        <v>45.2242</v>
       </c>
     </row>
     <row r="15">
@@ -5061,13 +5061,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>20.1617</v>
+        <v>21.0776</v>
       </c>
       <c r="C15" t="n">
-        <v>28.2784</v>
+        <v>30.3133</v>
       </c>
       <c r="D15" t="n">
-        <v>40.9165</v>
+        <v>45.2091</v>
       </c>
     </row>
     <row r="16">
@@ -5075,13 +5075,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>20.1359</v>
+        <v>21.0095</v>
       </c>
       <c r="C16" t="n">
-        <v>27.8667</v>
+        <v>30.6765</v>
       </c>
       <c r="D16" t="n">
-        <v>41.7901</v>
+        <v>45.6738</v>
       </c>
     </row>
     <row r="17">
@@ -5089,13 +5089,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>20.4877</v>
+        <v>20.8351</v>
       </c>
       <c r="C17" t="n">
-        <v>28.5082</v>
+        <v>30.5022</v>
       </c>
       <c r="D17" t="n">
-        <v>40.3568</v>
+        <v>45.6992</v>
       </c>
     </row>
   </sheetData>
@@ -5143,13 +5143,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4.63026</v>
+        <v>4.9922</v>
       </c>
       <c r="C2" t="n">
-        <v>7.9212</v>
+        <v>9.09036</v>
       </c>
       <c r="D2" t="n">
-        <v>9.580249999999999</v>
+        <v>10.8892</v>
       </c>
     </row>
     <row r="3">
@@ -5157,13 +5157,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.118650000000001</v>
+        <v>9.769679999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>14.0909</v>
+        <v>15.8352</v>
       </c>
       <c r="D3" t="n">
-        <v>18.453</v>
+        <v>20.7242</v>
       </c>
     </row>
     <row r="4">
@@ -5171,13 +5171,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>13.2789</v>
+        <v>14.194</v>
       </c>
       <c r="C4" t="n">
-        <v>19.8225</v>
+        <v>21.9172</v>
       </c>
       <c r="D4" t="n">
-        <v>26.6755</v>
+        <v>29.8959</v>
       </c>
     </row>
     <row r="5">
@@ -5185,13 +5185,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>15.1116</v>
+        <v>16.0565</v>
       </c>
       <c r="C5" t="n">
-        <v>21.0283</v>
+        <v>23.0199</v>
       </c>
       <c r="D5" t="n">
-        <v>30.1825</v>
+        <v>33.5269</v>
       </c>
     </row>
     <row r="6">
@@ -5199,13 +5199,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>18.3</v>
+        <v>19.2958</v>
       </c>
       <c r="C6" t="n">
-        <v>24.3715</v>
+        <v>26.4488</v>
       </c>
       <c r="D6" t="n">
-        <v>36.42</v>
+        <v>39.7958</v>
       </c>
     </row>
     <row r="7">
@@ -5213,13 +5213,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>21.6736</v>
+        <v>22.738</v>
       </c>
       <c r="C7" t="n">
-        <v>28.9539</v>
+        <v>31.2553</v>
       </c>
       <c r="D7" t="n">
-        <v>42.8892</v>
+        <v>46.971</v>
       </c>
     </row>
     <row r="8">
@@ -5227,13 +5227,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>19.5736</v>
+        <v>20.309</v>
       </c>
       <c r="C8" t="n">
-        <v>27.8381</v>
+        <v>30.5119</v>
       </c>
       <c r="D8" t="n">
-        <v>38.2442</v>
+        <v>44.1661</v>
       </c>
     </row>
     <row r="9">
@@ -5241,13 +5241,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>20.1757</v>
+        <v>21.3146</v>
       </c>
       <c r="C9" t="n">
-        <v>27.6742</v>
+        <v>29.8137</v>
       </c>
       <c r="D9" t="n">
-        <v>38.248</v>
+        <v>42.8168</v>
       </c>
     </row>
     <row r="10">
@@ -5255,13 +5255,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>20.2643</v>
+        <v>21.2984</v>
       </c>
       <c r="C10" t="n">
-        <v>27.6491</v>
+        <v>30.0255</v>
       </c>
       <c r="D10" t="n">
-        <v>37.7686</v>
+        <v>43.0541</v>
       </c>
     </row>
     <row r="11">
@@ -5269,13 +5269,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>20.6087</v>
+        <v>21.6928</v>
       </c>
       <c r="C11" t="n">
-        <v>27.9555</v>
+        <v>29.7305</v>
       </c>
       <c r="D11" t="n">
-        <v>39.7167</v>
+        <v>43.3155</v>
       </c>
     </row>
     <row r="12">
@@ -5283,13 +5283,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>20.1341</v>
+        <v>21.1134</v>
       </c>
       <c r="C12" t="n">
-        <v>27.7732</v>
+        <v>30.4019</v>
       </c>
       <c r="D12" t="n">
-        <v>40.0611</v>
+        <v>42.9132</v>
       </c>
     </row>
     <row r="13">
@@ -5297,13 +5297,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>20.7831</v>
+        <v>21.474</v>
       </c>
       <c r="C13" t="n">
-        <v>27.9803</v>
+        <v>30.0659</v>
       </c>
       <c r="D13" t="n">
-        <v>40.3956</v>
+        <v>44.1568</v>
       </c>
     </row>
     <row r="14">
@@ -5311,13 +5311,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>20.4882</v>
+        <v>21.4201</v>
       </c>
       <c r="C14" t="n">
-        <v>28.104</v>
+        <v>30.5602</v>
       </c>
       <c r="D14" t="n">
-        <v>40.0907</v>
+        <v>44.273</v>
       </c>
     </row>
     <row r="15">
@@ -5325,13 +5325,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>20.7527</v>
+        <v>21.4926</v>
       </c>
       <c r="C15" t="n">
-        <v>28.0305</v>
+        <v>30.4617</v>
       </c>
       <c r="D15" t="n">
-        <v>40.9101</v>
+        <v>44.7772</v>
       </c>
     </row>
     <row r="16">
@@ -5339,13 +5339,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>20.7408</v>
+        <v>21.5791</v>
       </c>
       <c r="C16" t="n">
-        <v>28.4401</v>
+        <v>30.31</v>
       </c>
       <c r="D16" t="n">
-        <v>40.804</v>
+        <v>46.6109</v>
       </c>
     </row>
     <row r="17">
@@ -5353,13 +5353,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>20.8759</v>
+        <v>21.0103</v>
       </c>
       <c r="C17" t="n">
-        <v>28.2094</v>
+        <v>30.6857</v>
       </c>
       <c r="D17" t="n">
-        <v>40.3114</v>
+        <v>45.314</v>
       </c>
     </row>
   </sheetData>
@@ -5407,13 +5407,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>7.61532</v>
+        <v>8.763669999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>9.216939999999999</v>
+        <v>11.013</v>
       </c>
       <c r="D2" t="n">
-        <v>11.1878</v>
+        <v>13.1963</v>
       </c>
     </row>
     <row r="3">
@@ -5421,13 +5421,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>14.5797</v>
+        <v>16.5197</v>
       </c>
       <c r="C3" t="n">
-        <v>16.0444</v>
+        <v>18.5679</v>
       </c>
       <c r="D3" t="n">
-        <v>21.09</v>
+        <v>24.4785</v>
       </c>
     </row>
     <row r="4">
@@ -5435,13 +5435,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>21.1586</v>
+        <v>23.7039</v>
       </c>
       <c r="C4" t="n">
-        <v>22.1975</v>
+        <v>25.2509</v>
       </c>
       <c r="D4" t="n">
-        <v>30.3327</v>
+        <v>34.8075</v>
       </c>
     </row>
     <row r="5">
@@ -5449,13 +5449,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>20.1821</v>
+        <v>22.7185</v>
       </c>
       <c r="C5" t="n">
-        <v>22.5118</v>
+        <v>25.3691</v>
       </c>
       <c r="D5" t="n">
-        <v>32.0207</v>
+        <v>36.6795</v>
       </c>
     </row>
     <row r="6">
@@ -5463,13 +5463,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>24.2534</v>
+        <v>26.3693</v>
       </c>
       <c r="C6" t="n">
-        <v>26.2128</v>
+        <v>28.5895</v>
       </c>
       <c r="D6" t="n">
-        <v>38.2555</v>
+        <v>42.9347</v>
       </c>
     </row>
     <row r="7">
@@ -5477,13 +5477,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>29.5336</v>
+        <v>31.9274</v>
       </c>
       <c r="C7" t="n">
-        <v>30.5428</v>
+        <v>33.0681</v>
       </c>
       <c r="D7" t="n">
-        <v>45.9561</v>
+        <v>50.6687</v>
       </c>
     </row>
     <row r="8">
@@ -5491,13 +5491,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>26.9173</v>
+        <v>29.4762</v>
       </c>
       <c r="C8" t="n">
-        <v>29.4396</v>
+        <v>32.2026</v>
       </c>
       <c r="D8" t="n">
-        <v>42.3135</v>
+        <v>46.8217</v>
       </c>
     </row>
     <row r="9">
@@ -5505,13 +5505,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>27.6869</v>
+        <v>30.0424</v>
       </c>
       <c r="C9" t="n">
-        <v>29.0957</v>
+        <v>31.4701</v>
       </c>
       <c r="D9" t="n">
-        <v>41.8617</v>
+        <v>47.637</v>
       </c>
     </row>
     <row r="10">
@@ -5519,13 +5519,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>27.6155</v>
+        <v>30.2411</v>
       </c>
       <c r="C10" t="n">
-        <v>29.6077</v>
+        <v>32.1401</v>
       </c>
       <c r="D10" t="n">
-        <v>43.0659</v>
+        <v>47.2495</v>
       </c>
     </row>
     <row r="11">
@@ -5533,13 +5533,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>28.4901</v>
+        <v>30.468</v>
       </c>
       <c r="C11" t="n">
-        <v>29.6511</v>
+        <v>32.3456</v>
       </c>
       <c r="D11" t="n">
-        <v>43.087</v>
+        <v>47.4953</v>
       </c>
     </row>
     <row r="12">
@@ -5547,13 +5547,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>27.6724</v>
+        <v>30.4468</v>
       </c>
       <c r="C12" t="n">
-        <v>29.9653</v>
+        <v>32.838</v>
       </c>
       <c r="D12" t="n">
-        <v>42.7971</v>
+        <v>48.4881</v>
       </c>
     </row>
     <row r="13">
@@ -5561,13 +5561,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>28.0538</v>
+        <v>30.8083</v>
       </c>
       <c r="C13" t="n">
-        <v>29.8147</v>
+        <v>32.5746</v>
       </c>
       <c r="D13" t="n">
-        <v>42.4383</v>
+        <v>47.3093</v>
       </c>
     </row>
     <row r="14">
@@ -5575,13 +5575,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>28.2187</v>
+        <v>30.5664</v>
       </c>
       <c r="C14" t="n">
-        <v>29.7064</v>
+        <v>32.4295</v>
       </c>
       <c r="D14" t="n">
-        <v>43.6562</v>
+        <v>48.2545</v>
       </c>
     </row>
     <row r="15">
@@ -5589,13 +5589,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>28.1487</v>
+        <v>30.7133</v>
       </c>
       <c r="C15" t="n">
-        <v>29.935</v>
+        <v>32.8618</v>
       </c>
       <c r="D15" t="n">
-        <v>43.8784</v>
+        <v>48.5633</v>
       </c>
     </row>
     <row r="16">
@@ -5603,13 +5603,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>28.3482</v>
+        <v>30.7419</v>
       </c>
       <c r="C16" t="n">
-        <v>30.0243</v>
+        <v>32.4524</v>
       </c>
       <c r="D16" t="n">
-        <v>43.5125</v>
+        <v>48.0723</v>
       </c>
     </row>
     <row r="17">
@@ -5617,13 +5617,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>28.0642</v>
+        <v>30.6363</v>
       </c>
       <c r="C17" t="n">
-        <v>30.1442</v>
+        <v>32.2953</v>
       </c>
       <c r="D17" t="n">
-        <v>43.4953</v>
+        <v>47.7769</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Parallel workload.xlsx
+++ b/vs-x86/Parallel workload.xlsx
@@ -4087,13 +4087,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.0328</v>
+        <v>9.3132</v>
       </c>
       <c r="C2" t="n">
-        <v>11.3622</v>
+        <v>13.1734</v>
       </c>
       <c r="D2" t="n">
-        <v>11.8905</v>
+        <v>14.699</v>
       </c>
     </row>
     <row r="3">
@@ -4101,13 +4101,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>15.2082</v>
+        <v>17.085</v>
       </c>
       <c r="C3" t="n">
-        <v>20.029</v>
+        <v>21.6788</v>
       </c>
       <c r="D3" t="n">
-        <v>20.9744</v>
+        <v>23.9138</v>
       </c>
     </row>
     <row r="4">
@@ -4115,13 +4115,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>20.9514</v>
+        <v>23.6937</v>
       </c>
       <c r="C4" t="n">
-        <v>27.4635</v>
+        <v>27.043</v>
       </c>
       <c r="D4" t="n">
-        <v>28.7816</v>
+        <v>31.3088</v>
       </c>
     </row>
     <row r="5">
@@ -4129,13 +4129,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>18.0629</v>
+        <v>19.2754</v>
       </c>
       <c r="C5" t="n">
-        <v>30.7414</v>
+        <v>30.8706</v>
       </c>
       <c r="D5" t="n">
-        <v>34.961</v>
+        <v>32.9315</v>
       </c>
     </row>
     <row r="6">
@@ -4143,13 +4143,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>21.4277</v>
+        <v>22.5549</v>
       </c>
       <c r="C6" t="n">
-        <v>35.2027</v>
+        <v>31.5903</v>
       </c>
       <c r="D6" t="n">
-        <v>39.4213</v>
+        <v>39.4354</v>
       </c>
     </row>
     <row r="7">
@@ -4157,13 +4157,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>25.3554</v>
+        <v>26.4464</v>
       </c>
       <c r="C7" t="n">
-        <v>39.4514</v>
+        <v>37.2825</v>
       </c>
       <c r="D7" t="n">
-        <v>44.9421</v>
+        <v>42.4274</v>
       </c>
     </row>
     <row r="8">
@@ -4171,13 +4171,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>18.5388</v>
+        <v>20.1378</v>
       </c>
       <c r="C8" t="n">
-        <v>35.7669</v>
+        <v>36.8323</v>
       </c>
       <c r="D8" t="n">
-        <v>39.7489</v>
+        <v>41.2453</v>
       </c>
     </row>
     <row r="9">
@@ -4185,13 +4185,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>21.0057</v>
+        <v>22.5173</v>
       </c>
       <c r="C9" t="n">
-        <v>37.2217</v>
+        <v>38.3539</v>
       </c>
       <c r="D9" t="n">
-        <v>42.1589</v>
+        <v>43.8541</v>
       </c>
     </row>
     <row r="10">
@@ -4199,13 +4199,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>23.1491</v>
+        <v>24.4272</v>
       </c>
       <c r="C10" t="n">
-        <v>39.0895</v>
+        <v>40.7588</v>
       </c>
       <c r="D10" t="n">
-        <v>42.9948</v>
+        <v>46.1862</v>
       </c>
     </row>
     <row r="11">
@@ -4213,13 +4213,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>21.3248</v>
+        <v>22.5826</v>
       </c>
       <c r="C11" t="n">
-        <v>39.8793</v>
+        <v>43.1514</v>
       </c>
       <c r="D11" t="n">
-        <v>44.0871</v>
+        <v>48.5036</v>
       </c>
     </row>
     <row r="12">
@@ -4227,13 +4227,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>23.2026</v>
+        <v>24.3725</v>
       </c>
       <c r="C12" t="n">
-        <v>39.4661</v>
+        <v>44.1805</v>
       </c>
       <c r="D12" t="n">
-        <v>45.7739</v>
+        <v>50.7195</v>
       </c>
     </row>
     <row r="13">
@@ -4241,13 +4241,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>25.3546</v>
+        <v>26.4921</v>
       </c>
       <c r="C13" t="n">
-        <v>41.3681</v>
+        <v>43.5367</v>
       </c>
       <c r="D13" t="n">
-        <v>44.7378</v>
+        <v>52.8033</v>
       </c>
     </row>
     <row r="14">
@@ -4255,13 +4255,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>21.0707</v>
+        <v>22.2865</v>
       </c>
       <c r="C14" t="n">
-        <v>39.589</v>
+        <v>44.6391</v>
       </c>
       <c r="D14" t="n">
-        <v>44.5639</v>
+        <v>52.8831</v>
       </c>
     </row>
     <row r="15">
@@ -4269,13 +4269,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>22.7315</v>
+        <v>23.7074</v>
       </c>
       <c r="C15" t="n">
-        <v>39.6547</v>
+        <v>43.5936</v>
       </c>
       <c r="D15" t="n">
-        <v>44.7088</v>
+        <v>52.6573</v>
       </c>
     </row>
     <row r="16">
@@ -4283,13 +4283,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>23.2699</v>
+        <v>24.9007</v>
       </c>
       <c r="C16" t="n">
-        <v>39.8985</v>
+        <v>45.5589</v>
       </c>
       <c r="D16" t="n">
-        <v>44.8924</v>
+        <v>51.8903</v>
       </c>
     </row>
     <row r="17">
@@ -4297,13 +4297,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>22.5732</v>
+        <v>23.8171</v>
       </c>
       <c r="C17" t="n">
-        <v>40.9627</v>
+        <v>44.3273</v>
       </c>
       <c r="D17" t="n">
-        <v>45.2514</v>
+        <v>52.6815</v>
       </c>
     </row>
   </sheetData>
@@ -4351,13 +4351,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>7.99511</v>
+        <v>9.343629999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>11.237</v>
+        <v>13.2034</v>
       </c>
       <c r="D2" t="n">
-        <v>11.8233</v>
+        <v>14.5652</v>
       </c>
     </row>
     <row r="3">
@@ -4365,13 +4365,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>15.254</v>
+        <v>17.5037</v>
       </c>
       <c r="C3" t="n">
-        <v>20.0966</v>
+        <v>21.1683</v>
       </c>
       <c r="D3" t="n">
-        <v>21.1007</v>
+        <v>23.4571</v>
       </c>
     </row>
     <row r="4">
@@ -4379,13 +4379,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>21.6804</v>
+        <v>24.4596</v>
       </c>
       <c r="C4" t="n">
-        <v>26.4906</v>
+        <v>26.5501</v>
       </c>
       <c r="D4" t="n">
-        <v>28.8442</v>
+        <v>29.8442</v>
       </c>
     </row>
     <row r="5">
@@ -4393,13 +4393,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>17.9274</v>
+        <v>18.9658</v>
       </c>
       <c r="C5" t="n">
-        <v>28.5993</v>
+        <v>28.852</v>
       </c>
       <c r="D5" t="n">
-        <v>31.0693</v>
+        <v>34.9873</v>
       </c>
     </row>
     <row r="6">
@@ -4407,13 +4407,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>21.6614</v>
+        <v>22.932</v>
       </c>
       <c r="C6" t="n">
-        <v>34.8308</v>
+        <v>34.6649</v>
       </c>
       <c r="D6" t="n">
-        <v>39.3796</v>
+        <v>35.281</v>
       </c>
     </row>
     <row r="7">
@@ -4421,13 +4421,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>25.8584</v>
+        <v>27.0986</v>
       </c>
       <c r="C7" t="n">
-        <v>39.4125</v>
+        <v>35.4314</v>
       </c>
       <c r="D7" t="n">
-        <v>45.0406</v>
+        <v>45.2268</v>
       </c>
     </row>
     <row r="8">
@@ -4435,13 +4435,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>18.6777</v>
+        <v>20.1618</v>
       </c>
       <c r="C8" t="n">
-        <v>35.0363</v>
+        <v>33.8754</v>
       </c>
       <c r="D8" t="n">
-        <v>36.1717</v>
+        <v>41.1905</v>
       </c>
     </row>
     <row r="9">
@@ -4449,13 +4449,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>21.1697</v>
+        <v>22.9287</v>
       </c>
       <c r="C9" t="n">
-        <v>35.1698</v>
+        <v>35.8057</v>
       </c>
       <c r="D9" t="n">
-        <v>39.3498</v>
+        <v>44.2991</v>
       </c>
     </row>
     <row r="10">
@@ -4463,13 +4463,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>23.2657</v>
+        <v>24.7832</v>
       </c>
       <c r="C10" t="n">
-        <v>37.8343</v>
+        <v>37.7636</v>
       </c>
       <c r="D10" t="n">
-        <v>39.7081</v>
+        <v>46.8303</v>
       </c>
     </row>
     <row r="11">
@@ -4477,13 +4477,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>21.6493</v>
+        <v>23.0017</v>
       </c>
       <c r="C11" t="n">
-        <v>38.5228</v>
+        <v>41.5978</v>
       </c>
       <c r="D11" t="n">
-        <v>39.7978</v>
+        <v>49.4521</v>
       </c>
     </row>
     <row r="12">
@@ -4491,13 +4491,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>23.6868</v>
+        <v>24.913</v>
       </c>
       <c r="C12" t="n">
-        <v>39.3092</v>
+        <v>42.3411</v>
       </c>
       <c r="D12" t="n">
-        <v>44.2057</v>
+        <v>52.3652</v>
       </c>
     </row>
     <row r="13">
@@ -4505,13 +4505,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>25.8297</v>
+        <v>27.0494</v>
       </c>
       <c r="C13" t="n">
-        <v>39.6977</v>
+        <v>44.3508</v>
       </c>
       <c r="D13" t="n">
-        <v>42.9075</v>
+        <v>51.9845</v>
       </c>
     </row>
     <row r="14">
@@ -4519,13 +4519,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>20.9165</v>
+        <v>22.3949</v>
       </c>
       <c r="C14" t="n">
-        <v>40.2501</v>
+        <v>43.4667</v>
       </c>
       <c r="D14" t="n">
-        <v>45.1222</v>
+        <v>53.2115</v>
       </c>
     </row>
     <row r="15">
@@ -4533,13 +4533,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>22.882</v>
+        <v>24.0975</v>
       </c>
       <c r="C15" t="n">
-        <v>39.4594</v>
+        <v>44.1492</v>
       </c>
       <c r="D15" t="n">
-        <v>45.8134</v>
+        <v>53.1641</v>
       </c>
     </row>
     <row r="16">
@@ -4547,13 +4547,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>24.1398</v>
+        <v>25.7038</v>
       </c>
       <c r="C16" t="n">
-        <v>39.6784</v>
+        <v>44.0601</v>
       </c>
       <c r="D16" t="n">
-        <v>44.9009</v>
+        <v>53.9476</v>
       </c>
     </row>
     <row r="17">
@@ -4561,13 +4561,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>23.062</v>
+        <v>24.4209</v>
       </c>
       <c r="C17" t="n">
-        <v>42.1506</v>
+        <v>45.1913</v>
       </c>
       <c r="D17" t="n">
-        <v>45.8396</v>
+        <v>53.2051</v>
       </c>
     </row>
   </sheetData>
@@ -4615,13 +4615,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>9.14263</v>
+        <v>10.9169</v>
       </c>
       <c r="C2" t="n">
-        <v>11.7067</v>
+        <v>13.8808</v>
       </c>
       <c r="D2" t="n">
-        <v>12.0721</v>
+        <v>15.1472</v>
       </c>
     </row>
     <row r="3">
@@ -4629,13 +4629,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>16.7894</v>
+        <v>19.4976</v>
       </c>
       <c r="C3" t="n">
-        <v>20.8013</v>
+        <v>22.0892</v>
       </c>
       <c r="D3" t="n">
-        <v>22.1645</v>
+        <v>26.0067</v>
       </c>
     </row>
     <row r="4">
@@ -4643,13 +4643,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>23.4681</v>
+        <v>26.9347</v>
       </c>
       <c r="C4" t="n">
-        <v>28.749</v>
+        <v>31.2097</v>
       </c>
       <c r="D4" t="n">
-        <v>30.0837</v>
+        <v>30.0681</v>
       </c>
     </row>
     <row r="5">
@@ -4657,13 +4657,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>21.145</v>
+        <v>23.4272</v>
       </c>
       <c r="C5" t="n">
-        <v>30.6524</v>
+        <v>29.3475</v>
       </c>
       <c r="D5" t="n">
-        <v>34.9266</v>
+        <v>34.4224</v>
       </c>
     </row>
     <row r="6">
@@ -4671,13 +4671,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>25.9661</v>
+        <v>28.001</v>
       </c>
       <c r="C6" t="n">
-        <v>35.1029</v>
+        <v>34.1222</v>
       </c>
       <c r="D6" t="n">
-        <v>39.474</v>
+        <v>36.7149</v>
       </c>
     </row>
     <row r="7">
@@ -4685,13 +4685,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>31.0127</v>
+        <v>33.1174</v>
       </c>
       <c r="C7" t="n">
-        <v>39.4283</v>
+        <v>35.0006</v>
       </c>
       <c r="D7" t="n">
-        <v>44.8482</v>
+        <v>44.9645</v>
       </c>
     </row>
     <row r="8">
@@ -4699,13 +4699,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>26.6626</v>
+        <v>30.1241</v>
       </c>
       <c r="C8" t="n">
-        <v>35.6622</v>
+        <v>35.855</v>
       </c>
       <c r="D8" t="n">
-        <v>42.0072</v>
+        <v>45.7994</v>
       </c>
     </row>
     <row r="9">
@@ -4713,13 +4713,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>27.7111</v>
+        <v>29.9479</v>
       </c>
       <c r="C9" t="n">
-        <v>39.0209</v>
+        <v>39.226</v>
       </c>
       <c r="D9" t="n">
-        <v>45.0683</v>
+        <v>50.084</v>
       </c>
     </row>
     <row r="10">
@@ -4727,13 +4727,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>27.5547</v>
+        <v>30.2011</v>
       </c>
       <c r="C10" t="n">
-        <v>39.3828</v>
+        <v>43.0832</v>
       </c>
       <c r="D10" t="n">
-        <v>48.9385</v>
+        <v>50.2953</v>
       </c>
     </row>
     <row r="11">
@@ -4741,13 +4741,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>28.3015</v>
+        <v>30.4726</v>
       </c>
       <c r="C11" t="n">
-        <v>39.3599</v>
+        <v>43.0579</v>
       </c>
       <c r="D11" t="n">
-        <v>44.9863</v>
+        <v>51.2603</v>
       </c>
     </row>
     <row r="12">
@@ -4755,13 +4755,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>28.5105</v>
+        <v>30.8761</v>
       </c>
       <c r="C12" t="n">
-        <v>42.6855</v>
+        <v>44.2498</v>
       </c>
       <c r="D12" t="n">
-        <v>45.1432</v>
+        <v>50.972</v>
       </c>
     </row>
     <row r="13">
@@ -4769,13 +4769,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>28.9863</v>
+        <v>30.7622</v>
       </c>
       <c r="C13" t="n">
-        <v>43.0272</v>
+        <v>44.2271</v>
       </c>
       <c r="D13" t="n">
-        <v>52.3486</v>
+        <v>52.7469</v>
       </c>
     </row>
     <row r="14">
@@ -4783,13 +4783,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>28.2812</v>
+        <v>31.5954</v>
       </c>
       <c r="C14" t="n">
-        <v>38.9152</v>
+        <v>43.3069</v>
       </c>
       <c r="D14" t="n">
-        <v>44.5512</v>
+        <v>52.3915</v>
       </c>
     </row>
     <row r="15">
@@ -4797,13 +4797,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>28.6084</v>
+        <v>31.4168</v>
       </c>
       <c r="C15" t="n">
-        <v>39.3687</v>
+        <v>44.6449</v>
       </c>
       <c r="D15" t="n">
-        <v>45.3234</v>
+        <v>52.9111</v>
       </c>
     </row>
     <row r="16">
@@ -4811,13 +4811,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>29.1036</v>
+        <v>31.0817</v>
       </c>
       <c r="C16" t="n">
-        <v>39.2765</v>
+        <v>44.5552</v>
       </c>
       <c r="D16" t="n">
-        <v>45.1296</v>
+        <v>51.6736</v>
       </c>
     </row>
     <row r="17">
@@ -4825,13 +4825,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>29.1067</v>
+        <v>31.311</v>
       </c>
       <c r="C17" t="n">
-        <v>40.0398</v>
+        <v>45.2356</v>
       </c>
       <c r="D17" t="n">
-        <v>45.3686</v>
+        <v>52.343</v>
       </c>
     </row>
   </sheetData>
@@ -4879,13 +4879,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4.54866</v>
+        <v>4.88776</v>
       </c>
       <c r="C2" t="n">
-        <v>9.87384</v>
+        <v>10.8795</v>
       </c>
       <c r="D2" t="n">
-        <v>11.1673</v>
+        <v>13.6771</v>
       </c>
     </row>
     <row r="3">
@@ -4893,13 +4893,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>8.902950000000001</v>
+        <v>9.599130000000001</v>
       </c>
       <c r="C3" t="n">
-        <v>18.9923</v>
+        <v>20.9009</v>
       </c>
       <c r="D3" t="n">
-        <v>21.5695</v>
+        <v>26.208</v>
       </c>
     </row>
     <row r="4">
@@ -4907,13 +4907,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>12.8722</v>
+        <v>13.9006</v>
       </c>
       <c r="C4" t="n">
-        <v>27.4144</v>
+        <v>30.31</v>
       </c>
       <c r="D4" t="n">
-        <v>31.1168</v>
+        <v>37.639</v>
       </c>
     </row>
     <row r="5">
@@ -4921,13 +4921,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>15.0141</v>
+        <v>15.3012</v>
       </c>
       <c r="C5" t="n">
-        <v>32.0753</v>
+        <v>33.8655</v>
       </c>
       <c r="D5" t="n">
-        <v>37.2647</v>
+        <v>42.7143</v>
       </c>
     </row>
     <row r="6">
@@ -4935,13 +4935,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>18.0473</v>
+        <v>18.7725</v>
       </c>
       <c r="C6" t="n">
-        <v>38.4087</v>
+        <v>41.1196</v>
       </c>
       <c r="D6" t="n">
-        <v>45.3106</v>
+        <v>51.6877</v>
       </c>
     </row>
     <row r="7">
@@ -4949,13 +4949,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>21.2133</v>
+        <v>22.0661</v>
       </c>
       <c r="C7" t="n">
-        <v>45.3985</v>
+        <v>47.8719</v>
       </c>
       <c r="D7" t="n">
-        <v>52.9985</v>
+        <v>61.0477</v>
       </c>
     </row>
     <row r="8">
@@ -4963,13 +4963,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>19.1168</v>
+        <v>20.0111</v>
       </c>
       <c r="C8" t="n">
-        <v>40.9029</v>
+        <v>40.2011</v>
       </c>
       <c r="D8" t="n">
-        <v>48.3045</v>
+        <v>54.3043</v>
       </c>
     </row>
     <row r="9">
@@ -4977,13 +4977,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>19.6041</v>
+        <v>20.5313</v>
       </c>
       <c r="C9" t="n">
-        <v>41.7166</v>
+        <v>43.6877</v>
       </c>
       <c r="D9" t="n">
-        <v>48.9671</v>
+        <v>52.9033</v>
       </c>
     </row>
     <row r="10">
@@ -4991,13 +4991,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>20.1216</v>
+        <v>20.6971</v>
       </c>
       <c r="C10" t="n">
-        <v>42.522</v>
+        <v>44.5637</v>
       </c>
       <c r="D10" t="n">
-        <v>49.6776</v>
+        <v>54.8413</v>
       </c>
     </row>
     <row r="11">
@@ -5005,13 +5005,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>20.1503</v>
+        <v>20.886</v>
       </c>
       <c r="C11" t="n">
-        <v>41.6521</v>
+        <v>44.4782</v>
       </c>
       <c r="D11" t="n">
-        <v>50.8441</v>
+        <v>55.1731</v>
       </c>
     </row>
     <row r="12">
@@ -5019,13 +5019,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>19.8496</v>
+        <v>20.7016</v>
       </c>
       <c r="C12" t="n">
-        <v>42.6047</v>
+        <v>45.0177</v>
       </c>
       <c r="D12" t="n">
-        <v>50.2628</v>
+        <v>57.5092</v>
       </c>
     </row>
     <row r="13">
@@ -5033,13 +5033,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>20.1342</v>
+        <v>21.0993</v>
       </c>
       <c r="C13" t="n">
-        <v>41.8243</v>
+        <v>45.9091</v>
       </c>
       <c r="D13" t="n">
-        <v>48.6868</v>
+        <v>55.8522</v>
       </c>
     </row>
     <row r="14">
@@ -5047,13 +5047,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>20.1316</v>
+        <v>20.9728</v>
       </c>
       <c r="C14" t="n">
-        <v>41.8763</v>
+        <v>45.4827</v>
       </c>
       <c r="D14" t="n">
-        <v>49.3678</v>
+        <v>57.9219</v>
       </c>
     </row>
     <row r="15">
@@ -5061,13 +5061,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>20.0806</v>
+        <v>20.9827</v>
       </c>
       <c r="C15" t="n">
-        <v>42.8889</v>
+        <v>44.8867</v>
       </c>
       <c r="D15" t="n">
-        <v>50.0678</v>
+        <v>57.1659</v>
       </c>
     </row>
     <row r="16">
@@ -5075,13 +5075,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>20.2854</v>
+        <v>21.0201</v>
       </c>
       <c r="C16" t="n">
-        <v>42.4078</v>
+        <v>45.7399</v>
       </c>
       <c r="D16" t="n">
-        <v>49.7264</v>
+        <v>57.1449</v>
       </c>
     </row>
     <row r="17">
@@ -5089,13 +5089,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>20.3377</v>
+        <v>21.1865</v>
       </c>
       <c r="C17" t="n">
-        <v>42.1305</v>
+        <v>46.7854</v>
       </c>
       <c r="D17" t="n">
-        <v>50.0439</v>
+        <v>59.3276</v>
       </c>
     </row>
   </sheetData>
@@ -5143,13 +5143,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4.62451</v>
+        <v>4.98487</v>
       </c>
       <c r="C2" t="n">
-        <v>9.84043</v>
+        <v>11.0287</v>
       </c>
       <c r="D2" t="n">
-        <v>11.1944</v>
+        <v>13.7296</v>
       </c>
     </row>
     <row r="3">
@@ -5157,13 +5157,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.085240000000001</v>
+        <v>9.81264</v>
       </c>
       <c r="C3" t="n">
-        <v>19.0777</v>
+        <v>20.9231</v>
       </c>
       <c r="D3" t="n">
-        <v>21.6975</v>
+        <v>26.1435</v>
       </c>
     </row>
     <row r="4">
@@ -5171,13 +5171,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>13.288</v>
+        <v>14.2096</v>
       </c>
       <c r="C4" t="n">
-        <v>27.2904</v>
+        <v>30.0241</v>
       </c>
       <c r="D4" t="n">
-        <v>30.8964</v>
+        <v>37.4279</v>
       </c>
     </row>
     <row r="5">
@@ -5185,13 +5185,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>15.2688</v>
+        <v>15.8342</v>
       </c>
       <c r="C5" t="n">
-        <v>31.8771</v>
+        <v>33.2718</v>
       </c>
       <c r="D5" t="n">
-        <v>37.1285</v>
+        <v>43.1387</v>
       </c>
     </row>
     <row r="6">
@@ -5199,13 +5199,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>18.3768</v>
+        <v>19.1931</v>
       </c>
       <c r="C6" t="n">
-        <v>37.5828</v>
+        <v>40.1862</v>
       </c>
       <c r="D6" t="n">
-        <v>44.6914</v>
+        <v>51.5234</v>
       </c>
     </row>
     <row r="7">
@@ -5213,13 +5213,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>21.7869</v>
+        <v>22.7315</v>
       </c>
       <c r="C7" t="n">
-        <v>44.6158</v>
+        <v>47.6834</v>
       </c>
       <c r="D7" t="n">
-        <v>52.9021</v>
+        <v>59.31</v>
       </c>
     </row>
     <row r="8">
@@ -5227,13 +5227,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>19.848</v>
+        <v>20.4211</v>
       </c>
       <c r="C8" t="n">
-        <v>40.6973</v>
+        <v>42.5192</v>
       </c>
       <c r="D8" t="n">
-        <v>48.0194</v>
+        <v>54.3323</v>
       </c>
     </row>
     <row r="9">
@@ -5241,13 +5241,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>19.984</v>
+        <v>21.0166</v>
       </c>
       <c r="C9" t="n">
-        <v>39.9913</v>
+        <v>45.6681</v>
       </c>
       <c r="D9" t="n">
-        <v>48.1433</v>
+        <v>52.1318</v>
       </c>
     </row>
     <row r="10">
@@ -5255,13 +5255,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>20.3148</v>
+        <v>21.5996</v>
       </c>
       <c r="C10" t="n">
-        <v>40.802</v>
+        <v>43.6628</v>
       </c>
       <c r="D10" t="n">
-        <v>48.2331</v>
+        <v>52.9791</v>
       </c>
     </row>
     <row r="11">
@@ -5269,13 +5269,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>20.7272</v>
+        <v>21.7181</v>
       </c>
       <c r="C11" t="n">
-        <v>40.8815</v>
+        <v>43.6647</v>
       </c>
       <c r="D11" t="n">
-        <v>49.3255</v>
+        <v>53.7803</v>
       </c>
     </row>
     <row r="12">
@@ -5283,13 +5283,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>20.4379</v>
+        <v>21.6286</v>
       </c>
       <c r="C12" t="n">
-        <v>41.9341</v>
+        <v>44.5513</v>
       </c>
       <c r="D12" t="n">
-        <v>49.7615</v>
+        <v>55.5163</v>
       </c>
     </row>
     <row r="13">
@@ -5297,13 +5297,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>21.1442</v>
+        <v>21.9744</v>
       </c>
       <c r="C13" t="n">
-        <v>41.633</v>
+        <v>44.3207</v>
       </c>
       <c r="D13" t="n">
-        <v>49.2781</v>
+        <v>55.7062</v>
       </c>
     </row>
     <row r="14">
@@ -5311,13 +5311,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>20.7328</v>
+        <v>21.1734</v>
       </c>
       <c r="C14" t="n">
-        <v>41.2679</v>
+        <v>44.285</v>
       </c>
       <c r="D14" t="n">
-        <v>50.1851</v>
+        <v>56.4009</v>
       </c>
     </row>
     <row r="15">
@@ -5325,13 +5325,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>20.8693</v>
+        <v>21.3223</v>
       </c>
       <c r="C15" t="n">
-        <v>41.7462</v>
+        <v>44.3144</v>
       </c>
       <c r="D15" t="n">
-        <v>49.6748</v>
+        <v>56.7039</v>
       </c>
     </row>
     <row r="16">
@@ -5339,13 +5339,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>20.7552</v>
+        <v>21.7068</v>
       </c>
       <c r="C16" t="n">
-        <v>41.7811</v>
+        <v>46.208</v>
       </c>
       <c r="D16" t="n">
-        <v>49.7578</v>
+        <v>56.9506</v>
       </c>
     </row>
     <row r="17">
@@ -5353,13 +5353,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>20.7863</v>
+        <v>21.1756</v>
       </c>
       <c r="C17" t="n">
-        <v>41.9883</v>
+        <v>45.74</v>
       </c>
       <c r="D17" t="n">
-        <v>50.5814</v>
+        <v>56.0952</v>
       </c>
     </row>
   </sheetData>
@@ -5407,13 +5407,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>7.5838</v>
+        <v>8.752230000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>11.4049</v>
+        <v>13.2221</v>
       </c>
       <c r="D2" t="n">
-        <v>12.0086</v>
+        <v>14.9607</v>
       </c>
     </row>
     <row r="3">
@@ -5421,13 +5421,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>14.518</v>
+        <v>16.5749</v>
       </c>
       <c r="C3" t="n">
-        <v>21.8116</v>
+        <v>24.6511</v>
       </c>
       <c r="D3" t="n">
-        <v>23.0514</v>
+        <v>28.1725</v>
       </c>
     </row>
     <row r="4">
@@ -5435,13 +5435,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>20.7801</v>
+        <v>23.8723</v>
       </c>
       <c r="C4" t="n">
-        <v>31.1809</v>
+        <v>34.9018</v>
       </c>
       <c r="D4" t="n">
-        <v>33.4688</v>
+        <v>40.1213</v>
       </c>
     </row>
     <row r="5">
@@ -5449,13 +5449,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>21.2648</v>
+        <v>22.3651</v>
       </c>
       <c r="C5" t="n">
-        <v>33.4161</v>
+        <v>36.7361</v>
       </c>
       <c r="D5" t="n">
-        <v>38.7866</v>
+        <v>45.2873</v>
       </c>
     </row>
     <row r="6">
@@ -5463,13 +5463,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>24.4673</v>
+        <v>26.3202</v>
       </c>
       <c r="C6" t="n">
-        <v>39.4716</v>
+        <v>42.7704</v>
       </c>
       <c r="D6" t="n">
-        <v>47.3764</v>
+        <v>54.3466</v>
       </c>
     </row>
     <row r="7">
@@ -5477,13 +5477,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>29.7466</v>
+        <v>31.9729</v>
       </c>
       <c r="C7" t="n">
-        <v>47.5197</v>
+        <v>50.9237</v>
       </c>
       <c r="D7" t="n">
-        <v>54.9034</v>
+        <v>63.4382</v>
       </c>
     </row>
     <row r="8">
@@ -5491,13 +5491,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>27.0038</v>
+        <v>29.1417</v>
       </c>
       <c r="C8" t="n">
-        <v>43.344</v>
+        <v>47.5273</v>
       </c>
       <c r="D8" t="n">
-        <v>50.6163</v>
+        <v>58.8635</v>
       </c>
     </row>
     <row r="9">
@@ -5505,13 +5505,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>28.2312</v>
+        <v>30.2618</v>
       </c>
       <c r="C9" t="n">
-        <v>43.8977</v>
+        <v>47.9667</v>
       </c>
       <c r="D9" t="n">
-        <v>51.2017</v>
+        <v>59.6599</v>
       </c>
     </row>
     <row r="10">
@@ -5519,13 +5519,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>27.7618</v>
+        <v>30.0469</v>
       </c>
       <c r="C10" t="n">
-        <v>43.6838</v>
+        <v>46.8679</v>
       </c>
       <c r="D10" t="n">
-        <v>50.7682</v>
+        <v>60.7092</v>
       </c>
     </row>
     <row r="11">
@@ -5533,13 +5533,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>27.786</v>
+        <v>30.5296</v>
       </c>
       <c r="C11" t="n">
-        <v>43.8736</v>
+        <v>48.3724</v>
       </c>
       <c r="D11" t="n">
-        <v>50.9044</v>
+        <v>61.4344</v>
       </c>
     </row>
     <row r="12">
@@ -5547,13 +5547,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>27.7794</v>
+        <v>30.3386</v>
       </c>
       <c r="C12" t="n">
-        <v>44.7708</v>
+        <v>47.4116</v>
       </c>
       <c r="D12" t="n">
-        <v>51.309</v>
+        <v>60.0363</v>
       </c>
     </row>
     <row r="13">
@@ -5561,13 +5561,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>28.5914</v>
+        <v>30.538</v>
       </c>
       <c r="C13" t="n">
-        <v>44.4466</v>
+        <v>48.7574</v>
       </c>
       <c r="D13" t="n">
-        <v>51.5912</v>
+        <v>61.7171</v>
       </c>
     </row>
     <row r="14">
@@ -5575,13 +5575,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>28.3007</v>
+        <v>30.8347</v>
       </c>
       <c r="C14" t="n">
-        <v>44.6826</v>
+        <v>47.5794</v>
       </c>
       <c r="D14" t="n">
-        <v>51.4214</v>
+        <v>61.6138</v>
       </c>
     </row>
     <row r="15">
@@ -5589,13 +5589,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>28.3065</v>
+        <v>30.4409</v>
       </c>
       <c r="C15" t="n">
-        <v>43.9886</v>
+        <v>48.2022</v>
       </c>
       <c r="D15" t="n">
-        <v>52.2403</v>
+        <v>61.2804</v>
       </c>
     </row>
     <row r="16">
@@ -5603,13 +5603,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>28.3926</v>
+        <v>30.2585</v>
       </c>
       <c r="C16" t="n">
-        <v>44.2413</v>
+        <v>48.9684</v>
       </c>
       <c r="D16" t="n">
-        <v>51.533</v>
+        <v>60.2299</v>
       </c>
     </row>
     <row r="17">
@@ -5617,13 +5617,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>28.342</v>
+        <v>30.9266</v>
       </c>
       <c r="C17" t="n">
-        <v>43.9491</v>
+        <v>48.6417</v>
       </c>
       <c r="D17" t="n">
-        <v>52.4945</v>
+        <v>61.1411</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Parallel workload.xlsx
+++ b/vs-x86/Parallel workload.xlsx
@@ -4087,13 +4087,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>9.37229</v>
+        <v>9.335660000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>10.8485</v>
+        <v>10.8259</v>
       </c>
       <c r="D2" t="n">
-        <v>13.1944</v>
+        <v>13.1387</v>
       </c>
     </row>
     <row r="3">
@@ -4101,13 +4101,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>17.5226</v>
+        <v>17.4472</v>
       </c>
       <c r="C3" t="n">
-        <v>16.7446</v>
+        <v>17.1783</v>
       </c>
       <c r="D3" t="n">
-        <v>21.7675</v>
+        <v>21.7263</v>
       </c>
     </row>
     <row r="4">
@@ -4115,13 +4115,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>24.2661</v>
+        <v>24.3169</v>
       </c>
       <c r="C4" t="n">
-        <v>21.595</v>
+        <v>22.0173</v>
       </c>
       <c r="D4" t="n">
-        <v>26.0945</v>
+        <v>27.1233</v>
       </c>
     </row>
     <row r="5">
@@ -4129,13 +4129,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>19.1192</v>
+        <v>18.9264</v>
       </c>
       <c r="C5" t="n">
-        <v>23.8781</v>
+        <v>23.6829</v>
       </c>
       <c r="D5" t="n">
-        <v>29.4313</v>
+        <v>30.01</v>
       </c>
     </row>
     <row r="6">
@@ -4143,13 +4143,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>22.5631</v>
+        <v>22.624</v>
       </c>
       <c r="C6" t="n">
-        <v>27.8326</v>
+        <v>27.8301</v>
       </c>
       <c r="D6" t="n">
-        <v>31.8142</v>
+        <v>31.8075</v>
       </c>
     </row>
     <row r="7">
@@ -4157,13 +4157,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>26.5171</v>
+        <v>26.4838</v>
       </c>
       <c r="C7" t="n">
-        <v>32.6743</v>
+        <v>32.6942</v>
       </c>
       <c r="D7" t="n">
-        <v>34.956</v>
+        <v>37.9277</v>
       </c>
     </row>
     <row r="8">
@@ -4171,13 +4171,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>20.2473</v>
+        <v>20.1516</v>
       </c>
       <c r="C8" t="n">
-        <v>30.1214</v>
+        <v>30.6385</v>
       </c>
       <c r="D8" t="n">
-        <v>36.2754</v>
+        <v>34.6081</v>
       </c>
     </row>
     <row r="9">
@@ -4185,13 +4185,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>22.5627</v>
+        <v>22.6286</v>
       </c>
       <c r="C9" t="n">
-        <v>30.0551</v>
+        <v>30.2631</v>
       </c>
       <c r="D9" t="n">
-        <v>39.7516</v>
+        <v>41.1809</v>
       </c>
     </row>
     <row r="10">
@@ -4199,13 +4199,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>24.5595</v>
+        <v>24.1948</v>
       </c>
       <c r="C10" t="n">
-        <v>30.4774</v>
+        <v>30.7931</v>
       </c>
       <c r="D10" t="n">
-        <v>41.5111</v>
+        <v>41.7045</v>
       </c>
     </row>
     <row r="11">
@@ -4213,13 +4213,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>22.4404</v>
+        <v>22.4858</v>
       </c>
       <c r="C11" t="n">
-        <v>30.5816</v>
+        <v>30.7087</v>
       </c>
       <c r="D11" t="n">
-        <v>42.8821</v>
+        <v>40.8699</v>
       </c>
     </row>
     <row r="12">
@@ -4227,13 +4227,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>24.4656</v>
+        <v>24.4333</v>
       </c>
       <c r="C12" t="n">
-        <v>30.4579</v>
+        <v>31.1162</v>
       </c>
       <c r="D12" t="n">
-        <v>43.7714</v>
+        <v>45.591</v>
       </c>
     </row>
     <row r="13">
@@ -4241,13 +4241,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>26.4885</v>
+        <v>26.4955</v>
       </c>
       <c r="C13" t="n">
-        <v>30.8716</v>
+        <v>31.2057</v>
       </c>
       <c r="D13" t="n">
-        <v>44.6766</v>
+        <v>43.7278</v>
       </c>
     </row>
     <row r="14">
@@ -4255,13 +4255,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>22.3412</v>
+        <v>22.3492</v>
       </c>
       <c r="C14" t="n">
-        <v>30.8401</v>
+        <v>30.9663</v>
       </c>
       <c r="D14" t="n">
-        <v>44.3202</v>
+        <v>44.8381</v>
       </c>
     </row>
     <row r="15">
@@ -4269,13 +4269,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>23.8044</v>
+        <v>23.711</v>
       </c>
       <c r="C15" t="n">
-        <v>31.1524</v>
+        <v>30.5045</v>
       </c>
       <c r="D15" t="n">
-        <v>44.8502</v>
+        <v>45.0002</v>
       </c>
     </row>
     <row r="16">
@@ -4283,13 +4283,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>25.0529</v>
+        <v>24.5343</v>
       </c>
       <c r="C16" t="n">
-        <v>30.8357</v>
+        <v>31.4844</v>
       </c>
       <c r="D16" t="n">
-        <v>44.4876</v>
+        <v>45.7433</v>
       </c>
     </row>
     <row r="17">
@@ -4297,13 +4297,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>23.8686</v>
+        <v>23.8057</v>
       </c>
       <c r="C17" t="n">
-        <v>31.3669</v>
+        <v>31.4204</v>
       </c>
       <c r="D17" t="n">
-        <v>45.0643</v>
+        <v>43.6137</v>
       </c>
     </row>
   </sheetData>
@@ -4351,13 +4351,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>9.35272</v>
+        <v>9.3584</v>
       </c>
       <c r="C2" t="n">
-        <v>10.84</v>
+        <v>10.8604</v>
       </c>
       <c r="D2" t="n">
-        <v>13.0604</v>
+        <v>13.0626</v>
       </c>
     </row>
     <row r="3">
@@ -4365,13 +4365,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>17.5103</v>
+        <v>17.4489</v>
       </c>
       <c r="C3" t="n">
-        <v>16.8061</v>
+        <v>17.0159</v>
       </c>
       <c r="D3" t="n">
-        <v>20.921</v>
+        <v>21.5835</v>
       </c>
     </row>
     <row r="4">
@@ -4379,13 +4379,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>24.4689</v>
+        <v>23.8657</v>
       </c>
       <c r="C4" t="n">
-        <v>21.3809</v>
+        <v>21.3237</v>
       </c>
       <c r="D4" t="n">
-        <v>26.9621</v>
+        <v>26.4464</v>
       </c>
     </row>
     <row r="5">
@@ -4393,13 +4393,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>18.9722</v>
+        <v>19.2714</v>
       </c>
       <c r="C5" t="n">
-        <v>23.5562</v>
+        <v>23.4206</v>
       </c>
       <c r="D5" t="n">
-        <v>28.4559</v>
+        <v>27.871</v>
       </c>
     </row>
     <row r="6">
@@ -4407,13 +4407,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>23.0543</v>
+        <v>22.994</v>
       </c>
       <c r="C6" t="n">
-        <v>27.7886</v>
+        <v>27.8325</v>
       </c>
       <c r="D6" t="n">
-        <v>35.164</v>
+        <v>34.9557</v>
       </c>
     </row>
     <row r="7">
@@ -4421,13 +4421,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>27.0921</v>
+        <v>27.0981</v>
       </c>
       <c r="C7" t="n">
-        <v>32.5615</v>
+        <v>32.6479</v>
       </c>
       <c r="D7" t="n">
-        <v>35.3092</v>
+        <v>36.1905</v>
       </c>
     </row>
     <row r="8">
@@ -4435,13 +4435,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>20.1957</v>
+        <v>20.7061</v>
       </c>
       <c r="C8" t="n">
-        <v>29.3933</v>
+        <v>29.4029</v>
       </c>
       <c r="D8" t="n">
-        <v>34.7576</v>
+        <v>35.9982</v>
       </c>
     </row>
     <row r="9">
@@ -4449,13 +4449,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>22.8345</v>
+        <v>22.8799</v>
       </c>
       <c r="C9" t="n">
-        <v>30.0414</v>
+        <v>29.2074</v>
       </c>
       <c r="D9" t="n">
-        <v>35.8017</v>
+        <v>37.1427</v>
       </c>
     </row>
     <row r="10">
@@ -4463,13 +4463,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>24.7545</v>
+        <v>24.8408</v>
       </c>
       <c r="C10" t="n">
-        <v>30.3893</v>
+        <v>30.0099</v>
       </c>
       <c r="D10" t="n">
-        <v>37.7617</v>
+        <v>39.3244</v>
       </c>
     </row>
     <row r="11">
@@ -4477,13 +4477,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>22.8262</v>
+        <v>22.6453</v>
       </c>
       <c r="C11" t="n">
-        <v>30.0136</v>
+        <v>30.1983</v>
       </c>
       <c r="D11" t="n">
-        <v>40.0042</v>
+        <v>39.0713</v>
       </c>
     </row>
     <row r="12">
@@ -4491,13 +4491,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>24.9225</v>
+        <v>24.8538</v>
       </c>
       <c r="C12" t="n">
-        <v>30.3444</v>
+        <v>30.7822</v>
       </c>
       <c r="D12" t="n">
-        <v>40.7082</v>
+        <v>43.0079</v>
       </c>
     </row>
     <row r="13">
@@ -4505,13 +4505,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>27.0886</v>
+        <v>27.0781</v>
       </c>
       <c r="C13" t="n">
-        <v>31.2964</v>
+        <v>31.4633</v>
       </c>
       <c r="D13" t="n">
-        <v>43.3247</v>
+        <v>42.4463</v>
       </c>
     </row>
     <row r="14">
@@ -4519,13 +4519,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>22.5926</v>
+        <v>22.5282</v>
       </c>
       <c r="C14" t="n">
-        <v>31.5612</v>
+        <v>31.6613</v>
       </c>
       <c r="D14" t="n">
-        <v>44.4129</v>
+        <v>45.4721</v>
       </c>
     </row>
     <row r="15">
@@ -4533,13 +4533,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>24.3019</v>
+        <v>24.4061</v>
       </c>
       <c r="C15" t="n">
-        <v>31.3539</v>
+        <v>31.3831</v>
       </c>
       <c r="D15" t="n">
-        <v>43.2084</v>
+        <v>44.4381</v>
       </c>
     </row>
     <row r="16">
@@ -4547,13 +4547,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>25.1342</v>
+        <v>25.8757</v>
       </c>
       <c r="C16" t="n">
-        <v>31.6479</v>
+        <v>31.6953</v>
       </c>
       <c r="D16" t="n">
-        <v>43.9093</v>
+        <v>44.1231</v>
       </c>
     </row>
     <row r="17">
@@ -4561,13 +4561,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>24.4367</v>
+        <v>24.1252</v>
       </c>
       <c r="C17" t="n">
-        <v>31.6769</v>
+        <v>31.6939</v>
       </c>
       <c r="D17" t="n">
-        <v>44.8195</v>
+        <v>44.7958</v>
       </c>
     </row>
   </sheetData>
@@ -4615,13 +4615,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>10.9198</v>
+        <v>10.9484</v>
       </c>
       <c r="C2" t="n">
-        <v>11.5984</v>
+        <v>11.7037</v>
       </c>
       <c r="D2" t="n">
-        <v>13.8814</v>
+        <v>13.8582</v>
       </c>
     </row>
     <row r="3">
@@ -4629,13 +4629,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>19.5583</v>
+        <v>19.4988</v>
       </c>
       <c r="C3" t="n">
-        <v>19.4837</v>
+        <v>19.8289</v>
       </c>
       <c r="D3" t="n">
-        <v>22.0462</v>
+        <v>22.6332</v>
       </c>
     </row>
     <row r="4">
@@ -4643,13 +4643,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>26.9745</v>
+        <v>27.0484</v>
       </c>
       <c r="C4" t="n">
-        <v>24.7524</v>
+        <v>24.9989</v>
       </c>
       <c r="D4" t="n">
-        <v>31.5766</v>
+        <v>31.5313</v>
       </c>
     </row>
     <row r="5">
@@ -4657,13 +4657,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>23.165</v>
+        <v>23.2379</v>
       </c>
       <c r="C5" t="n">
-        <v>24.7052</v>
+        <v>24.9329</v>
       </c>
       <c r="D5" t="n">
-        <v>31.4042</v>
+        <v>31.2153</v>
       </c>
     </row>
     <row r="6">
@@ -4671,13 +4671,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>28.0552</v>
+        <v>28.1217</v>
       </c>
       <c r="C6" t="n">
-        <v>28.7796</v>
+        <v>28.8416</v>
       </c>
       <c r="D6" t="n">
-        <v>33.9055</v>
+        <v>35.228</v>
       </c>
     </row>
     <row r="7">
@@ -4685,13 +4685,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>33.2156</v>
+        <v>33.241</v>
       </c>
       <c r="C7" t="n">
-        <v>33.6116</v>
+        <v>33.7361</v>
       </c>
       <c r="D7" t="n">
-        <v>35.0818</v>
+        <v>34.9853</v>
       </c>
     </row>
     <row r="8">
@@ -4699,13 +4699,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>30.3589</v>
+        <v>29.7323</v>
       </c>
       <c r="C8" t="n">
-        <v>29.4224</v>
+        <v>30.2871</v>
       </c>
       <c r="D8" t="n">
-        <v>35.2828</v>
+        <v>34.6124</v>
       </c>
     </row>
     <row r="9">
@@ -4713,13 +4713,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>30.1494</v>
+        <v>30.1314</v>
       </c>
       <c r="C9" t="n">
-        <v>30.3251</v>
+        <v>30.2992</v>
       </c>
       <c r="D9" t="n">
-        <v>37.9561</v>
+        <v>41.6356</v>
       </c>
     </row>
     <row r="10">
@@ -4727,13 +4727,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>30.0965</v>
+        <v>30.4885</v>
       </c>
       <c r="C10" t="n">
-        <v>30.6278</v>
+        <v>29.9058</v>
       </c>
       <c r="D10" t="n">
-        <v>42.4264</v>
+        <v>42.7512</v>
       </c>
     </row>
     <row r="11">
@@ -4741,13 +4741,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>30.8187</v>
+        <v>30.4424</v>
       </c>
       <c r="C11" t="n">
-        <v>31.0266</v>
+        <v>30.7032</v>
       </c>
       <c r="D11" t="n">
-        <v>45.2086</v>
+        <v>44.137</v>
       </c>
     </row>
     <row r="12">
@@ -4755,13 +4755,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>31.2426</v>
+        <v>31.0411</v>
       </c>
       <c r="C12" t="n">
-        <v>31.0037</v>
+        <v>30.6261</v>
       </c>
       <c r="D12" t="n">
-        <v>44.5341</v>
+        <v>43.4455</v>
       </c>
     </row>
     <row r="13">
@@ -4769,13 +4769,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>31.4587</v>
+        <v>31.3394</v>
       </c>
       <c r="C13" t="n">
-        <v>30.8265</v>
+        <v>31.6536</v>
       </c>
       <c r="D13" t="n">
-        <v>43.9641</v>
+        <v>44.9911</v>
       </c>
     </row>
     <row r="14">
@@ -4783,13 +4783,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>31.3775</v>
+        <v>31.4361</v>
       </c>
       <c r="C14" t="n">
-        <v>31.4903</v>
+        <v>31.7042</v>
       </c>
       <c r="D14" t="n">
-        <v>44.8467</v>
+        <v>43.7513</v>
       </c>
     </row>
     <row r="15">
@@ -4797,13 +4797,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>31.1772</v>
+        <v>31.2138</v>
       </c>
       <c r="C15" t="n">
-        <v>31.4844</v>
+        <v>31.6245</v>
       </c>
       <c r="D15" t="n">
-        <v>45.1507</v>
+        <v>43.9343</v>
       </c>
     </row>
     <row r="16">
@@ -4811,13 +4811,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>30.848</v>
+        <v>31.1663</v>
       </c>
       <c r="C16" t="n">
-        <v>30.9101</v>
+        <v>31.9011</v>
       </c>
       <c r="D16" t="n">
-        <v>44.8127</v>
+        <v>44.4611</v>
       </c>
     </row>
     <row r="17">
@@ -4825,13 +4825,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>31.1531</v>
+        <v>31.5467</v>
       </c>
       <c r="C17" t="n">
-        <v>31.9492</v>
+        <v>32.2717</v>
       </c>
       <c r="D17" t="n">
-        <v>45.4191</v>
+        <v>45.3449</v>
       </c>
     </row>
   </sheetData>
@@ -4879,13 +4879,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4.91372</v>
+        <v>4.89415</v>
       </c>
       <c r="C2" t="n">
-        <v>9.06756</v>
+        <v>9.01498</v>
       </c>
       <c r="D2" t="n">
-        <v>10.8773</v>
+        <v>10.8195</v>
       </c>
     </row>
     <row r="3">
@@ -4893,13 +4893,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.59661</v>
+        <v>9.59273</v>
       </c>
       <c r="C3" t="n">
-        <v>15.8278</v>
+        <v>15.8598</v>
       </c>
       <c r="D3" t="n">
-        <v>20.8114</v>
+        <v>20.8095</v>
       </c>
     </row>
     <row r="4">
@@ -4907,13 +4907,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>13.9489</v>
+        <v>13.8449</v>
       </c>
       <c r="C4" t="n">
-        <v>22.4159</v>
+        <v>22.0694</v>
       </c>
       <c r="D4" t="n">
-        <v>30.1353</v>
+        <v>30.0139</v>
       </c>
     </row>
     <row r="5">
@@ -4921,13 +4921,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>15.6749</v>
+        <v>15.611</v>
       </c>
       <c r="C5" t="n">
-        <v>22.91</v>
+        <v>23.1226</v>
       </c>
       <c r="D5" t="n">
-        <v>34.157</v>
+        <v>33.6777</v>
       </c>
     </row>
     <row r="6">
@@ -4935,13 +4935,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>18.7811</v>
+        <v>18.8622</v>
       </c>
       <c r="C6" t="n">
-        <v>26.209</v>
+        <v>26.5669</v>
       </c>
       <c r="D6" t="n">
-        <v>40.7245</v>
+        <v>41.0175</v>
       </c>
     </row>
     <row r="7">
@@ -4949,13 +4949,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>22.1178</v>
+        <v>22.1125</v>
       </c>
       <c r="C7" t="n">
-        <v>31.2518</v>
+        <v>31.3105</v>
       </c>
       <c r="D7" t="n">
-        <v>47.4751</v>
+        <v>47.9152</v>
       </c>
     </row>
     <row r="8">
@@ -4963,13 +4963,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>19.9016</v>
+        <v>20.1009</v>
       </c>
       <c r="C8" t="n">
-        <v>29.8321</v>
+        <v>29.6521</v>
       </c>
       <c r="D8" t="n">
-        <v>43.2637</v>
+        <v>43.0243</v>
       </c>
     </row>
     <row r="9">
@@ -4977,13 +4977,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>20.5425</v>
+        <v>20.7987</v>
       </c>
       <c r="C9" t="n">
-        <v>29.9134</v>
+        <v>30.1011</v>
       </c>
       <c r="D9" t="n">
-        <v>42.546</v>
+        <v>44.0529</v>
       </c>
     </row>
     <row r="10">
@@ -4991,13 +4991,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>20.4792</v>
+        <v>20.5516</v>
       </c>
       <c r="C10" t="n">
-        <v>29.9168</v>
+        <v>29.7386</v>
       </c>
       <c r="D10" t="n">
-        <v>43.235</v>
+        <v>43.2669</v>
       </c>
     </row>
     <row r="11">
@@ -5005,13 +5005,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>21.0705</v>
+        <v>21.029</v>
       </c>
       <c r="C11" t="n">
-        <v>30.5507</v>
+        <v>30.2038</v>
       </c>
       <c r="D11" t="n">
-        <v>43.3138</v>
+        <v>42.9325</v>
       </c>
     </row>
     <row r="12">
@@ -5019,13 +5019,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>20.9867</v>
+        <v>20.9399</v>
       </c>
       <c r="C12" t="n">
-        <v>30.0993</v>
+        <v>29.874</v>
       </c>
       <c r="D12" t="n">
-        <v>45.4752</v>
+        <v>44.2421</v>
       </c>
     </row>
     <row r="13">
@@ -5033,13 +5033,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>21.094</v>
+        <v>21.1079</v>
       </c>
       <c r="C13" t="n">
-        <v>30.3744</v>
+        <v>30.2751</v>
       </c>
       <c r="D13" t="n">
-        <v>43.8643</v>
+        <v>45.2136</v>
       </c>
     </row>
     <row r="14">
@@ -5047,13 +5047,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>20.8768</v>
+        <v>21.0291</v>
       </c>
       <c r="C14" t="n">
-        <v>30.6265</v>
+        <v>30.4709</v>
       </c>
       <c r="D14" t="n">
-        <v>45.2242</v>
+        <v>45.0165</v>
       </c>
     </row>
     <row r="15">
@@ -5061,13 +5061,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>21.0776</v>
+        <v>21.2978</v>
       </c>
       <c r="C15" t="n">
-        <v>30.3133</v>
+        <v>30.0902</v>
       </c>
       <c r="D15" t="n">
-        <v>45.2091</v>
+        <v>45.2437</v>
       </c>
     </row>
     <row r="16">
@@ -5075,13 +5075,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>21.0095</v>
+        <v>20.9141</v>
       </c>
       <c r="C16" t="n">
-        <v>30.6765</v>
+        <v>30.5612</v>
       </c>
       <c r="D16" t="n">
-        <v>45.6738</v>
+        <v>45.6897</v>
       </c>
     </row>
     <row r="17">
@@ -5089,13 +5089,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>20.8351</v>
+        <v>21.3345</v>
       </c>
       <c r="C17" t="n">
-        <v>30.5022</v>
+        <v>30.628</v>
       </c>
       <c r="D17" t="n">
-        <v>45.6992</v>
+        <v>45.9755</v>
       </c>
     </row>
   </sheetData>
@@ -5143,13 +5143,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4.9922</v>
+        <v>4.98782</v>
       </c>
       <c r="C2" t="n">
-        <v>9.09036</v>
+        <v>9.03063</v>
       </c>
       <c r="D2" t="n">
-        <v>10.8892</v>
+        <v>10.7611</v>
       </c>
     </row>
     <row r="3">
@@ -5157,13 +5157,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.769679999999999</v>
+        <v>9.737819999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>15.8352</v>
+        <v>15.7026</v>
       </c>
       <c r="D3" t="n">
-        <v>20.7242</v>
+        <v>20.4867</v>
       </c>
     </row>
     <row r="4">
@@ -5171,13 +5171,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>14.194</v>
+        <v>14.0592</v>
       </c>
       <c r="C4" t="n">
-        <v>21.9172</v>
+        <v>21.6255</v>
       </c>
       <c r="D4" t="n">
-        <v>29.8959</v>
+        <v>29.3986</v>
       </c>
     </row>
     <row r="5">
@@ -5185,13 +5185,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>16.0565</v>
+        <v>16.1299</v>
       </c>
       <c r="C5" t="n">
-        <v>23.0199</v>
+        <v>23.2323</v>
       </c>
       <c r="D5" t="n">
-        <v>33.5269</v>
+        <v>33.4065</v>
       </c>
     </row>
     <row r="6">
@@ -5199,13 +5199,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>19.2958</v>
+        <v>19.3434</v>
       </c>
       <c r="C6" t="n">
-        <v>26.4488</v>
+        <v>26.5925</v>
       </c>
       <c r="D6" t="n">
-        <v>39.7958</v>
+        <v>39.7495</v>
       </c>
     </row>
     <row r="7">
@@ -5213,13 +5213,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>22.738</v>
+        <v>22.7348</v>
       </c>
       <c r="C7" t="n">
-        <v>31.2553</v>
+        <v>31.3194</v>
       </c>
       <c r="D7" t="n">
-        <v>46.971</v>
+        <v>47.291</v>
       </c>
     </row>
     <row r="8">
@@ -5227,13 +5227,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>20.309</v>
+        <v>20.7063</v>
       </c>
       <c r="C8" t="n">
-        <v>30.5119</v>
+        <v>29.9647</v>
       </c>
       <c r="D8" t="n">
-        <v>44.1661</v>
+        <v>42.6834</v>
       </c>
     </row>
     <row r="9">
@@ -5241,13 +5241,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>21.3146</v>
+        <v>21.3</v>
       </c>
       <c r="C9" t="n">
-        <v>29.8137</v>
+        <v>29.7419</v>
       </c>
       <c r="D9" t="n">
-        <v>42.8168</v>
+        <v>43.1818</v>
       </c>
     </row>
     <row r="10">
@@ -5255,13 +5255,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>21.2984</v>
+        <v>21.1911</v>
       </c>
       <c r="C10" t="n">
-        <v>30.0255</v>
+        <v>29.8685</v>
       </c>
       <c r="D10" t="n">
-        <v>43.0541</v>
+        <v>43.2197</v>
       </c>
     </row>
     <row r="11">
@@ -5269,13 +5269,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>21.6928</v>
+        <v>21.4153</v>
       </c>
       <c r="C11" t="n">
-        <v>29.7305</v>
+        <v>30.5108</v>
       </c>
       <c r="D11" t="n">
-        <v>43.3155</v>
+        <v>43.8369</v>
       </c>
     </row>
     <row r="12">
@@ -5283,13 +5283,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>21.1134</v>
+        <v>21.4484</v>
       </c>
       <c r="C12" t="n">
-        <v>30.4019</v>
+        <v>30.3839</v>
       </c>
       <c r="D12" t="n">
-        <v>42.9132</v>
+        <v>43.61</v>
       </c>
     </row>
     <row r="13">
@@ -5297,13 +5297,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>21.474</v>
+        <v>21.578</v>
       </c>
       <c r="C13" t="n">
-        <v>30.0659</v>
+        <v>30.3636</v>
       </c>
       <c r="D13" t="n">
-        <v>44.1568</v>
+        <v>44.6042</v>
       </c>
     </row>
     <row r="14">
@@ -5311,13 +5311,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>21.4201</v>
+        <v>21.6494</v>
       </c>
       <c r="C14" t="n">
-        <v>30.5602</v>
+        <v>30.4914</v>
       </c>
       <c r="D14" t="n">
-        <v>44.273</v>
+        <v>44.9707</v>
       </c>
     </row>
     <row r="15">
@@ -5325,13 +5325,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>21.4926</v>
+        <v>21.5347</v>
       </c>
       <c r="C15" t="n">
-        <v>30.4617</v>
+        <v>30.2244</v>
       </c>
       <c r="D15" t="n">
-        <v>44.7772</v>
+        <v>45.0088</v>
       </c>
     </row>
     <row r="16">
@@ -5339,13 +5339,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>21.5791</v>
+        <v>21.9279</v>
       </c>
       <c r="C16" t="n">
-        <v>30.31</v>
+        <v>30.6679</v>
       </c>
       <c r="D16" t="n">
-        <v>46.6109</v>
+        <v>46.0628</v>
       </c>
     </row>
     <row r="17">
@@ -5353,13 +5353,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>21.0103</v>
+        <v>21.498</v>
       </c>
       <c r="C17" t="n">
-        <v>30.6857</v>
+        <v>30.7351</v>
       </c>
       <c r="D17" t="n">
-        <v>45.314</v>
+        <v>44.9488</v>
       </c>
     </row>
   </sheetData>
@@ -5407,13 +5407,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.763669999999999</v>
+        <v>8.66432</v>
       </c>
       <c r="C2" t="n">
-        <v>11.013</v>
+        <v>10.9924</v>
       </c>
       <c r="D2" t="n">
-        <v>13.1963</v>
+        <v>13.0838</v>
       </c>
     </row>
     <row r="3">
@@ -5421,13 +5421,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>16.5197</v>
+        <v>16.2652</v>
       </c>
       <c r="C3" t="n">
-        <v>18.5679</v>
+        <v>18.5249</v>
       </c>
       <c r="D3" t="n">
-        <v>24.4785</v>
+        <v>24.3533</v>
       </c>
     </row>
     <row r="4">
@@ -5435,13 +5435,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>23.7039</v>
+        <v>22.9668</v>
       </c>
       <c r="C4" t="n">
-        <v>25.2509</v>
+        <v>24.7491</v>
       </c>
       <c r="D4" t="n">
-        <v>34.8075</v>
+        <v>34.2739</v>
       </c>
     </row>
     <row r="5">
@@ -5449,13 +5449,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>22.7185</v>
+        <v>23.2963</v>
       </c>
       <c r="C5" t="n">
-        <v>25.3691</v>
+        <v>25.2255</v>
       </c>
       <c r="D5" t="n">
-        <v>36.6795</v>
+        <v>36.7811</v>
       </c>
     </row>
     <row r="6">
@@ -5463,13 +5463,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>26.3693</v>
+        <v>26.3203</v>
       </c>
       <c r="C6" t="n">
-        <v>28.5895</v>
+        <v>28.7087</v>
       </c>
       <c r="D6" t="n">
-        <v>42.9347</v>
+        <v>42.9022</v>
       </c>
     </row>
     <row r="7">
@@ -5477,13 +5477,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>31.9274</v>
+        <v>31.8601</v>
       </c>
       <c r="C7" t="n">
-        <v>33.0681</v>
+        <v>33.2568</v>
       </c>
       <c r="D7" t="n">
-        <v>50.6687</v>
+        <v>50.7886</v>
       </c>
     </row>
     <row r="8">
@@ -5491,13 +5491,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>29.4762</v>
+        <v>29.0275</v>
       </c>
       <c r="C8" t="n">
-        <v>32.2026</v>
+        <v>31.8206</v>
       </c>
       <c r="D8" t="n">
-        <v>46.8217</v>
+        <v>46.8897</v>
       </c>
     </row>
     <row r="9">
@@ -5505,13 +5505,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>30.0424</v>
+        <v>30.1289</v>
       </c>
       <c r="C9" t="n">
-        <v>31.4701</v>
+        <v>32.3389</v>
       </c>
       <c r="D9" t="n">
-        <v>47.637</v>
+        <v>47.9612</v>
       </c>
     </row>
     <row r="10">
@@ -5519,13 +5519,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>30.2411</v>
+        <v>30.4047</v>
       </c>
       <c r="C10" t="n">
-        <v>32.1401</v>
+        <v>32.1128</v>
       </c>
       <c r="D10" t="n">
-        <v>47.2495</v>
+        <v>47.9299</v>
       </c>
     </row>
     <row r="11">
@@ -5533,13 +5533,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>30.468</v>
+        <v>30.3193</v>
       </c>
       <c r="C11" t="n">
-        <v>32.3456</v>
+        <v>32.569</v>
       </c>
       <c r="D11" t="n">
-        <v>47.4953</v>
+        <v>49.3937</v>
       </c>
     </row>
     <row r="12">
@@ -5547,13 +5547,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>30.4468</v>
+        <v>29.7642</v>
       </c>
       <c r="C12" t="n">
-        <v>32.838</v>
+        <v>32.1466</v>
       </c>
       <c r="D12" t="n">
-        <v>48.4881</v>
+        <v>47.1011</v>
       </c>
     </row>
     <row r="13">
@@ -5561,13 +5561,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>30.8083</v>
+        <v>30.7076</v>
       </c>
       <c r="C13" t="n">
-        <v>32.5746</v>
+        <v>32.4387</v>
       </c>
       <c r="D13" t="n">
-        <v>47.3093</v>
+        <v>48.6932</v>
       </c>
     </row>
     <row r="14">
@@ -5575,13 +5575,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>30.5664</v>
+        <v>30.2533</v>
       </c>
       <c r="C14" t="n">
-        <v>32.4295</v>
+        <v>32.3829</v>
       </c>
       <c r="D14" t="n">
-        <v>48.2545</v>
+        <v>47.5105</v>
       </c>
     </row>
     <row r="15">
@@ -5589,13 +5589,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>30.7133</v>
+        <v>30.801</v>
       </c>
       <c r="C15" t="n">
-        <v>32.8618</v>
+        <v>32.4563</v>
       </c>
       <c r="D15" t="n">
-        <v>48.5633</v>
+        <v>47.8018</v>
       </c>
     </row>
     <row r="16">
@@ -5603,13 +5603,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>30.7419</v>
+        <v>30.6484</v>
       </c>
       <c r="C16" t="n">
-        <v>32.4524</v>
+        <v>32.3397</v>
       </c>
       <c r="D16" t="n">
-        <v>48.0723</v>
+        <v>49.614</v>
       </c>
     </row>
     <row r="17">
@@ -5617,13 +5617,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>30.6363</v>
+        <v>30.9563</v>
       </c>
       <c r="C17" t="n">
-        <v>32.2953</v>
+        <v>32.3365</v>
       </c>
       <c r="D17" t="n">
-        <v>47.7769</v>
+        <v>47.9154</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Parallel workload.xlsx
+++ b/vs-x86/Parallel workload.xlsx
@@ -4087,13 +4087,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>9.3132</v>
+        <v>9.309519999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>13.1734</v>
+        <v>13.1887</v>
       </c>
       <c r="D2" t="n">
-        <v>14.699</v>
+        <v>14.7003</v>
       </c>
     </row>
     <row r="3">
@@ -4101,13 +4101,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>17.085</v>
+        <v>17.3374</v>
       </c>
       <c r="C3" t="n">
-        <v>21.6788</v>
+        <v>21.4051</v>
       </c>
       <c r="D3" t="n">
-        <v>23.9138</v>
+        <v>24.2687</v>
       </c>
     </row>
     <row r="4">
@@ -4115,13 +4115,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>23.6937</v>
+        <v>23.6749</v>
       </c>
       <c r="C4" t="n">
-        <v>27.043</v>
+        <v>26.6028</v>
       </c>
       <c r="D4" t="n">
-        <v>31.3088</v>
+        <v>31.6754</v>
       </c>
     </row>
     <row r="5">
@@ -4129,13 +4129,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>19.2754</v>
+        <v>18.9547</v>
       </c>
       <c r="C5" t="n">
-        <v>30.8706</v>
+        <v>29.7609</v>
       </c>
       <c r="D5" t="n">
-        <v>32.9315</v>
+        <v>32.4568</v>
       </c>
     </row>
     <row r="6">
@@ -4143,13 +4143,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>22.5549</v>
+        <v>22.4703</v>
       </c>
       <c r="C6" t="n">
-        <v>31.5903</v>
+        <v>31.8211</v>
       </c>
       <c r="D6" t="n">
-        <v>39.4354</v>
+        <v>39.2945</v>
       </c>
     </row>
     <row r="7">
@@ -4157,13 +4157,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>26.4464</v>
+        <v>26.4378</v>
       </c>
       <c r="C7" t="n">
-        <v>37.2825</v>
+        <v>38.7227</v>
       </c>
       <c r="D7" t="n">
-        <v>42.4274</v>
+        <v>43.9579</v>
       </c>
     </row>
     <row r="8">
@@ -4171,13 +4171,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>20.1378</v>
+        <v>19.8688</v>
       </c>
       <c r="C8" t="n">
-        <v>36.8323</v>
+        <v>37.169</v>
       </c>
       <c r="D8" t="n">
-        <v>41.2453</v>
+        <v>40.3787</v>
       </c>
     </row>
     <row r="9">
@@ -4185,13 +4185,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>22.5173</v>
+        <v>22.441</v>
       </c>
       <c r="C9" t="n">
-        <v>38.3539</v>
+        <v>37.6117</v>
       </c>
       <c r="D9" t="n">
-        <v>43.8541</v>
+        <v>45.7214</v>
       </c>
     </row>
     <row r="10">
@@ -4199,13 +4199,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>24.4272</v>
+        <v>24.4783</v>
       </c>
       <c r="C10" t="n">
-        <v>40.7588</v>
+        <v>40.9834</v>
       </c>
       <c r="D10" t="n">
-        <v>46.1862</v>
+        <v>46.9911</v>
       </c>
     </row>
     <row r="11">
@@ -4213,13 +4213,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>22.5826</v>
+        <v>22.6861</v>
       </c>
       <c r="C11" t="n">
-        <v>43.1514</v>
+        <v>43.7297</v>
       </c>
       <c r="D11" t="n">
-        <v>48.5036</v>
+        <v>49.2577</v>
       </c>
     </row>
     <row r="12">
@@ -4227,13 +4227,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>24.3725</v>
+        <v>24.3223</v>
       </c>
       <c r="C12" t="n">
-        <v>44.1805</v>
+        <v>43.7743</v>
       </c>
       <c r="D12" t="n">
-        <v>50.7195</v>
+        <v>52.0368</v>
       </c>
     </row>
     <row r="13">
@@ -4241,13 +4241,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>26.4921</v>
+        <v>26.4417</v>
       </c>
       <c r="C13" t="n">
-        <v>43.5367</v>
+        <v>44.8978</v>
       </c>
       <c r="D13" t="n">
-        <v>52.8033</v>
+        <v>54.3434</v>
       </c>
     </row>
     <row r="14">
@@ -4255,13 +4255,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>22.2865</v>
+        <v>22.2103</v>
       </c>
       <c r="C14" t="n">
-        <v>44.6391</v>
+        <v>44.5401</v>
       </c>
       <c r="D14" t="n">
-        <v>52.8831</v>
+        <v>53.9911</v>
       </c>
     </row>
     <row r="15">
@@ -4269,13 +4269,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>23.7074</v>
+        <v>23.6832</v>
       </c>
       <c r="C15" t="n">
-        <v>43.5936</v>
+        <v>44.7839</v>
       </c>
       <c r="D15" t="n">
-        <v>52.6573</v>
+        <v>53.853</v>
       </c>
     </row>
     <row r="16">
@@ -4283,13 +4283,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>24.9007</v>
+        <v>24.8864</v>
       </c>
       <c r="C16" t="n">
-        <v>45.5589</v>
+        <v>44.3225</v>
       </c>
       <c r="D16" t="n">
-        <v>51.8903</v>
+        <v>53.7099</v>
       </c>
     </row>
     <row r="17">
@@ -4297,13 +4297,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>23.8171</v>
+        <v>23.9817</v>
       </c>
       <c r="C17" t="n">
-        <v>44.3273</v>
+        <v>45.2284</v>
       </c>
       <c r="D17" t="n">
-        <v>52.6815</v>
+        <v>53.1681</v>
       </c>
     </row>
   </sheetData>
@@ -4351,13 +4351,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>9.343629999999999</v>
+        <v>9.34857</v>
       </c>
       <c r="C2" t="n">
-        <v>13.2034</v>
+        <v>13.1017</v>
       </c>
       <c r="D2" t="n">
-        <v>14.5652</v>
+        <v>14.5679</v>
       </c>
     </row>
     <row r="3">
@@ -4365,13 +4365,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>17.5037</v>
+        <v>17.3783</v>
       </c>
       <c r="C3" t="n">
-        <v>21.1683</v>
+        <v>21.6981</v>
       </c>
       <c r="D3" t="n">
-        <v>23.4571</v>
+        <v>24.166</v>
       </c>
     </row>
     <row r="4">
@@ -4379,13 +4379,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>24.4596</v>
+        <v>23.3225</v>
       </c>
       <c r="C4" t="n">
-        <v>26.5501</v>
+        <v>26.1273</v>
       </c>
       <c r="D4" t="n">
-        <v>29.8442</v>
+        <v>30.2588</v>
       </c>
     </row>
     <row r="5">
@@ -4393,13 +4393,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>18.9658</v>
+        <v>19.1347</v>
       </c>
       <c r="C5" t="n">
-        <v>28.852</v>
+        <v>27.8245</v>
       </c>
       <c r="D5" t="n">
-        <v>34.9873</v>
+        <v>34.9752</v>
       </c>
     </row>
     <row r="6">
@@ -4407,13 +4407,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>22.932</v>
+        <v>22.9435</v>
       </c>
       <c r="C6" t="n">
-        <v>34.6649</v>
+        <v>34.6557</v>
       </c>
       <c r="D6" t="n">
-        <v>35.281</v>
+        <v>35.2813</v>
       </c>
     </row>
     <row r="7">
@@ -4421,13 +4421,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>27.0986</v>
+        <v>27.0867</v>
       </c>
       <c r="C7" t="n">
-        <v>35.4314</v>
+        <v>37.8883</v>
       </c>
       <c r="D7" t="n">
-        <v>45.2268</v>
+        <v>44.2296</v>
       </c>
     </row>
     <row r="8">
@@ -4435,13 +4435,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>20.1618</v>
+        <v>20.1373</v>
       </c>
       <c r="C8" t="n">
-        <v>33.8754</v>
+        <v>33.9576</v>
       </c>
       <c r="D8" t="n">
-        <v>41.1905</v>
+        <v>39.826</v>
       </c>
     </row>
     <row r="9">
@@ -4449,13 +4449,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>22.9287</v>
+        <v>22.7534</v>
       </c>
       <c r="C9" t="n">
-        <v>35.8057</v>
+        <v>36.3849</v>
       </c>
       <c r="D9" t="n">
-        <v>44.2991</v>
+        <v>41.6286</v>
       </c>
     </row>
     <row r="10">
@@ -4463,13 +4463,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>24.7832</v>
+        <v>24.497</v>
       </c>
       <c r="C10" t="n">
-        <v>37.7636</v>
+        <v>38.3793</v>
       </c>
       <c r="D10" t="n">
-        <v>46.8303</v>
+        <v>48.2972</v>
       </c>
     </row>
     <row r="11">
@@ -4477,13 +4477,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>23.0017</v>
+        <v>22.8757</v>
       </c>
       <c r="C11" t="n">
-        <v>41.5978</v>
+        <v>41.1398</v>
       </c>
       <c r="D11" t="n">
-        <v>49.4521</v>
+        <v>50.2572</v>
       </c>
     </row>
     <row r="12">
@@ -4491,13 +4491,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>24.913</v>
+        <v>24.9612</v>
       </c>
       <c r="C12" t="n">
-        <v>42.3411</v>
+        <v>43.5441</v>
       </c>
       <c r="D12" t="n">
-        <v>52.3652</v>
+        <v>51.5086</v>
       </c>
     </row>
     <row r="13">
@@ -4505,13 +4505,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>27.0494</v>
+        <v>27.0271</v>
       </c>
       <c r="C13" t="n">
-        <v>44.3508</v>
+        <v>43.5396</v>
       </c>
       <c r="D13" t="n">
-        <v>51.9845</v>
+        <v>50.8741</v>
       </c>
     </row>
     <row r="14">
@@ -4519,13 +4519,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>22.3949</v>
+        <v>22.2347</v>
       </c>
       <c r="C14" t="n">
-        <v>43.4667</v>
+        <v>43.4514</v>
       </c>
       <c r="D14" t="n">
-        <v>53.2115</v>
+        <v>52.1758</v>
       </c>
     </row>
     <row r="15">
@@ -4533,13 +4533,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>24.0975</v>
+        <v>24.1429</v>
       </c>
       <c r="C15" t="n">
-        <v>44.1492</v>
+        <v>45.3014</v>
       </c>
       <c r="D15" t="n">
-        <v>53.1641</v>
+        <v>51.6642</v>
       </c>
     </row>
     <row r="16">
@@ -4547,13 +4547,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>25.7038</v>
+        <v>25.2251</v>
       </c>
       <c r="C16" t="n">
-        <v>44.0601</v>
+        <v>44.8922</v>
       </c>
       <c r="D16" t="n">
-        <v>53.9476</v>
+        <v>53.7242</v>
       </c>
     </row>
     <row r="17">
@@ -4561,13 +4561,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>24.4209</v>
+        <v>24.3262</v>
       </c>
       <c r="C17" t="n">
-        <v>45.1913</v>
+        <v>44.9502</v>
       </c>
       <c r="D17" t="n">
-        <v>53.2051</v>
+        <v>53.4206</v>
       </c>
     </row>
   </sheetData>
@@ -4615,13 +4615,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>10.9169</v>
+        <v>10.9135</v>
       </c>
       <c r="C2" t="n">
-        <v>13.8808</v>
+        <v>13.9924</v>
       </c>
       <c r="D2" t="n">
-        <v>15.1472</v>
+        <v>15.0079</v>
       </c>
     </row>
     <row r="3">
@@ -4629,13 +4629,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>19.4976</v>
+        <v>19.2994</v>
       </c>
       <c r="C3" t="n">
-        <v>22.0892</v>
+        <v>22.1459</v>
       </c>
       <c r="D3" t="n">
-        <v>26.0067</v>
+        <v>24.494</v>
       </c>
     </row>
     <row r="4">
@@ -4643,13 +4643,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>26.9347</v>
+        <v>27.0777</v>
       </c>
       <c r="C4" t="n">
-        <v>31.2097</v>
+        <v>31.4647</v>
       </c>
       <c r="D4" t="n">
-        <v>30.0681</v>
+        <v>32.0166</v>
       </c>
     </row>
     <row r="5">
@@ -4657,13 +4657,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>23.4272</v>
+        <v>23.1273</v>
       </c>
       <c r="C5" t="n">
-        <v>29.3475</v>
+        <v>31.7603</v>
       </c>
       <c r="D5" t="n">
-        <v>34.4224</v>
+        <v>35.0378</v>
       </c>
     </row>
     <row r="6">
@@ -4671,13 +4671,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>28.001</v>
+        <v>28.024</v>
       </c>
       <c r="C6" t="n">
-        <v>34.1222</v>
+        <v>35.1681</v>
       </c>
       <c r="D6" t="n">
-        <v>36.7149</v>
+        <v>38.9206</v>
       </c>
     </row>
     <row r="7">
@@ -4685,13 +4685,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>33.1174</v>
+        <v>33.137</v>
       </c>
       <c r="C7" t="n">
-        <v>35.0006</v>
+        <v>35.2556</v>
       </c>
       <c r="D7" t="n">
-        <v>44.9645</v>
+        <v>52.2568</v>
       </c>
     </row>
     <row r="8">
@@ -4699,13 +4699,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>30.1241</v>
+        <v>29.4797</v>
       </c>
       <c r="C8" t="n">
-        <v>35.855</v>
+        <v>35.4866</v>
       </c>
       <c r="D8" t="n">
-        <v>45.7994</v>
+        <v>45.2393</v>
       </c>
     </row>
     <row r="9">
@@ -4713,13 +4713,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>29.9479</v>
+        <v>29.5618</v>
       </c>
       <c r="C9" t="n">
-        <v>39.226</v>
+        <v>39.6992</v>
       </c>
       <c r="D9" t="n">
-        <v>50.084</v>
+        <v>47.7366</v>
       </c>
     </row>
     <row r="10">
@@ -4727,13 +4727,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>30.2011</v>
+        <v>30.4852</v>
       </c>
       <c r="C10" t="n">
-        <v>43.0832</v>
+        <v>43.3131</v>
       </c>
       <c r="D10" t="n">
-        <v>50.2953</v>
+        <v>49.9861</v>
       </c>
     </row>
     <row r="11">
@@ -4741,13 +4741,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>30.4726</v>
+        <v>29.8497</v>
       </c>
       <c r="C11" t="n">
-        <v>43.0579</v>
+        <v>44.6786</v>
       </c>
       <c r="D11" t="n">
-        <v>51.2603</v>
+        <v>51.6641</v>
       </c>
     </row>
     <row r="12">
@@ -4755,13 +4755,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>30.8761</v>
+        <v>31.1973</v>
       </c>
       <c r="C12" t="n">
-        <v>44.2498</v>
+        <v>43.3642</v>
       </c>
       <c r="D12" t="n">
-        <v>50.972</v>
+        <v>52.5482</v>
       </c>
     </row>
     <row r="13">
@@ -4769,13 +4769,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>30.7622</v>
+        <v>30.9747</v>
       </c>
       <c r="C13" t="n">
-        <v>44.2271</v>
+        <v>45.2623</v>
       </c>
       <c r="D13" t="n">
-        <v>52.7469</v>
+        <v>52.9639</v>
       </c>
     </row>
     <row r="14">
@@ -4783,13 +4783,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>31.5954</v>
+        <v>30.9453</v>
       </c>
       <c r="C14" t="n">
-        <v>43.3069</v>
+        <v>45.339</v>
       </c>
       <c r="D14" t="n">
-        <v>52.3915</v>
+        <v>51.5508</v>
       </c>
     </row>
     <row r="15">
@@ -4797,13 +4797,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>31.4168</v>
+        <v>30.9774</v>
       </c>
       <c r="C15" t="n">
-        <v>44.6449</v>
+        <v>44.8368</v>
       </c>
       <c r="D15" t="n">
-        <v>52.9111</v>
+        <v>52.5074</v>
       </c>
     </row>
     <row r="16">
@@ -4811,13 +4811,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>31.0817</v>
+        <v>31.4316</v>
       </c>
       <c r="C16" t="n">
-        <v>44.5552</v>
+        <v>43.7359</v>
       </c>
       <c r="D16" t="n">
-        <v>51.6736</v>
+        <v>52.7041</v>
       </c>
     </row>
     <row r="17">
@@ -4825,13 +4825,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>31.311</v>
+        <v>31.4838</v>
       </c>
       <c r="C17" t="n">
-        <v>45.2356</v>
+        <v>44.9672</v>
       </c>
       <c r="D17" t="n">
-        <v>52.343</v>
+        <v>52.8583</v>
       </c>
     </row>
   </sheetData>
@@ -4879,13 +4879,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4.88776</v>
+        <v>4.90369</v>
       </c>
       <c r="C2" t="n">
-        <v>10.8795</v>
+        <v>10.9975</v>
       </c>
       <c r="D2" t="n">
-        <v>13.6771</v>
+        <v>13.6817</v>
       </c>
     </row>
     <row r="3">
@@ -4893,13 +4893,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.599130000000001</v>
+        <v>9.589370000000001</v>
       </c>
       <c r="C3" t="n">
-        <v>20.9009</v>
+        <v>20.7105</v>
       </c>
       <c r="D3" t="n">
-        <v>26.208</v>
+        <v>25.9682</v>
       </c>
     </row>
     <row r="4">
@@ -4907,13 +4907,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>13.9006</v>
+        <v>13.8157</v>
       </c>
       <c r="C4" t="n">
-        <v>30.31</v>
+        <v>29.9049</v>
       </c>
       <c r="D4" t="n">
-        <v>37.639</v>
+        <v>37.4505</v>
       </c>
     </row>
     <row r="5">
@@ -4921,13 +4921,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>15.3012</v>
+        <v>15.6097</v>
       </c>
       <c r="C5" t="n">
-        <v>33.8655</v>
+        <v>33.9267</v>
       </c>
       <c r="D5" t="n">
-        <v>42.7143</v>
+        <v>43.2758</v>
       </c>
     </row>
     <row r="6">
@@ -4935,13 +4935,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>18.7725</v>
+        <v>18.8657</v>
       </c>
       <c r="C6" t="n">
-        <v>41.1196</v>
+        <v>41.0703</v>
       </c>
       <c r="D6" t="n">
-        <v>51.6877</v>
+        <v>52.0516</v>
       </c>
     </row>
     <row r="7">
@@ -4949,13 +4949,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>22.0661</v>
+        <v>22.1347</v>
       </c>
       <c r="C7" t="n">
-        <v>47.8719</v>
+        <v>47.9088</v>
       </c>
       <c r="D7" t="n">
-        <v>61.0477</v>
+        <v>62.0741</v>
       </c>
     </row>
     <row r="8">
@@ -4963,13 +4963,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>20.0111</v>
+        <v>19.7723</v>
       </c>
       <c r="C8" t="n">
-        <v>40.2011</v>
+        <v>44.3347</v>
       </c>
       <c r="D8" t="n">
-        <v>54.3043</v>
+        <v>53.8429</v>
       </c>
     </row>
     <row r="9">
@@ -4977,13 +4977,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>20.5313</v>
+        <v>20.6777</v>
       </c>
       <c r="C9" t="n">
-        <v>43.6877</v>
+        <v>43.3872</v>
       </c>
       <c r="D9" t="n">
-        <v>52.9033</v>
+        <v>53.633</v>
       </c>
     </row>
     <row r="10">
@@ -4991,13 +4991,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>20.6971</v>
+        <v>20.8231</v>
       </c>
       <c r="C10" t="n">
-        <v>44.5637</v>
+        <v>42.8707</v>
       </c>
       <c r="D10" t="n">
-        <v>54.8413</v>
+        <v>54.4424</v>
       </c>
     </row>
     <row r="11">
@@ -5005,13 +5005,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>20.886</v>
+        <v>21.1217</v>
       </c>
       <c r="C11" t="n">
-        <v>44.4782</v>
+        <v>42.9204</v>
       </c>
       <c r="D11" t="n">
-        <v>55.1731</v>
+        <v>55.6276</v>
       </c>
     </row>
     <row r="12">
@@ -5019,13 +5019,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>20.7016</v>
+        <v>21.0921</v>
       </c>
       <c r="C12" t="n">
-        <v>45.0177</v>
+        <v>44.4669</v>
       </c>
       <c r="D12" t="n">
-        <v>57.5092</v>
+        <v>57.5748</v>
       </c>
     </row>
     <row r="13">
@@ -5033,13 +5033,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>21.0993</v>
+        <v>21.0935</v>
       </c>
       <c r="C13" t="n">
-        <v>45.9091</v>
+        <v>44.0717</v>
       </c>
       <c r="D13" t="n">
-        <v>55.8522</v>
+        <v>56.8209</v>
       </c>
     </row>
     <row r="14">
@@ -5047,13 +5047,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>20.9728</v>
+        <v>21.0448</v>
       </c>
       <c r="C14" t="n">
-        <v>45.4827</v>
+        <v>46.9068</v>
       </c>
       <c r="D14" t="n">
-        <v>57.9219</v>
+        <v>57.3644</v>
       </c>
     </row>
     <row r="15">
@@ -5061,13 +5061,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>20.9827</v>
+        <v>21.1933</v>
       </c>
       <c r="C15" t="n">
-        <v>44.8867</v>
+        <v>44.8303</v>
       </c>
       <c r="D15" t="n">
-        <v>57.1659</v>
+        <v>58.6018</v>
       </c>
     </row>
     <row r="16">
@@ -5075,13 +5075,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>21.0201</v>
+        <v>21.0186</v>
       </c>
       <c r="C16" t="n">
-        <v>45.7399</v>
+        <v>45.7577</v>
       </c>
       <c r="D16" t="n">
-        <v>57.1449</v>
+        <v>58.7881</v>
       </c>
     </row>
     <row r="17">
@@ -5089,13 +5089,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>21.1865</v>
+        <v>20.8889</v>
       </c>
       <c r="C17" t="n">
-        <v>46.7854</v>
+        <v>46.1082</v>
       </c>
       <c r="D17" t="n">
-        <v>59.3276</v>
+        <v>58.6176</v>
       </c>
     </row>
   </sheetData>
@@ -5143,13 +5143,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4.98487</v>
+        <v>5.00381</v>
       </c>
       <c r="C2" t="n">
-        <v>11.0287</v>
+        <v>11.1482</v>
       </c>
       <c r="D2" t="n">
-        <v>13.7296</v>
+        <v>13.7024</v>
       </c>
     </row>
     <row r="3">
@@ -5157,13 +5157,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.81264</v>
+        <v>9.76023</v>
       </c>
       <c r="C3" t="n">
-        <v>20.9231</v>
+        <v>20.6969</v>
       </c>
       <c r="D3" t="n">
-        <v>26.1435</v>
+        <v>25.9535</v>
       </c>
     </row>
     <row r="4">
@@ -5171,13 +5171,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>14.2096</v>
+        <v>14.1734</v>
       </c>
       <c r="C4" t="n">
-        <v>30.0241</v>
+        <v>29.5846</v>
       </c>
       <c r="D4" t="n">
-        <v>37.4279</v>
+        <v>37.2749</v>
       </c>
     </row>
     <row r="5">
@@ -5185,13 +5185,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>15.8342</v>
+        <v>16.1994</v>
       </c>
       <c r="C5" t="n">
-        <v>33.2718</v>
+        <v>33.6503</v>
       </c>
       <c r="D5" t="n">
-        <v>43.1387</v>
+        <v>43.2928</v>
       </c>
     </row>
     <row r="6">
@@ -5199,13 +5199,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>19.1931</v>
+        <v>19.3138</v>
       </c>
       <c r="C6" t="n">
-        <v>40.1862</v>
+        <v>40.2864</v>
       </c>
       <c r="D6" t="n">
-        <v>51.5234</v>
+        <v>51.1423</v>
       </c>
     </row>
     <row r="7">
@@ -5213,13 +5213,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>22.7315</v>
+        <v>22.7669</v>
       </c>
       <c r="C7" t="n">
-        <v>47.6834</v>
+        <v>47.6574</v>
       </c>
       <c r="D7" t="n">
-        <v>59.31</v>
+        <v>58.8704</v>
       </c>
     </row>
     <row r="8">
@@ -5227,13 +5227,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>20.4211</v>
+        <v>20.4882</v>
       </c>
       <c r="C8" t="n">
-        <v>42.5192</v>
+        <v>43.5647</v>
       </c>
       <c r="D8" t="n">
-        <v>54.3323</v>
+        <v>51.7389</v>
       </c>
     </row>
     <row r="9">
@@ -5241,13 +5241,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>21.0166</v>
+        <v>21.2566</v>
       </c>
       <c r="C9" t="n">
-        <v>45.6681</v>
+        <v>43.0398</v>
       </c>
       <c r="D9" t="n">
-        <v>52.1318</v>
+        <v>52.3805</v>
       </c>
     </row>
     <row r="10">
@@ -5255,13 +5255,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>21.5996</v>
+        <v>21.4283</v>
       </c>
       <c r="C10" t="n">
-        <v>43.6628</v>
+        <v>42.3402</v>
       </c>
       <c r="D10" t="n">
-        <v>52.9791</v>
+        <v>54.945</v>
       </c>
     </row>
     <row r="11">
@@ -5269,13 +5269,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>21.7181</v>
+        <v>21.7353</v>
       </c>
       <c r="C11" t="n">
-        <v>43.6647</v>
+        <v>44.1206</v>
       </c>
       <c r="D11" t="n">
-        <v>53.7803</v>
+        <v>54.0853</v>
       </c>
     </row>
     <row r="12">
@@ -5283,13 +5283,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>21.6286</v>
+        <v>21.8316</v>
       </c>
       <c r="C12" t="n">
-        <v>44.5513</v>
+        <v>44.4747</v>
       </c>
       <c r="D12" t="n">
-        <v>55.5163</v>
+        <v>55.9284</v>
       </c>
     </row>
     <row r="13">
@@ -5297,13 +5297,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>21.9744</v>
+        <v>21.417</v>
       </c>
       <c r="C13" t="n">
-        <v>44.3207</v>
+        <v>44.478</v>
       </c>
       <c r="D13" t="n">
-        <v>55.7062</v>
+        <v>55.2253</v>
       </c>
     </row>
     <row r="14">
@@ -5311,13 +5311,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>21.1734</v>
+        <v>21.569</v>
       </c>
       <c r="C14" t="n">
-        <v>44.285</v>
+        <v>45.0713</v>
       </c>
       <c r="D14" t="n">
-        <v>56.4009</v>
+        <v>57.1377</v>
       </c>
     </row>
     <row r="15">
@@ -5325,13 +5325,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>21.3223</v>
+        <v>21.5625</v>
       </c>
       <c r="C15" t="n">
-        <v>44.3144</v>
+        <v>45.2942</v>
       </c>
       <c r="D15" t="n">
-        <v>56.7039</v>
+        <v>56.4318</v>
       </c>
     </row>
     <row r="16">
@@ -5339,13 +5339,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>21.7068</v>
+        <v>21.5759</v>
       </c>
       <c r="C16" t="n">
-        <v>46.208</v>
+        <v>45.0459</v>
       </c>
       <c r="D16" t="n">
-        <v>56.9506</v>
+        <v>57.1183</v>
       </c>
     </row>
     <row r="17">
@@ -5353,13 +5353,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>21.1756</v>
+        <v>21.7362</v>
       </c>
       <c r="C17" t="n">
-        <v>45.74</v>
+        <v>44.5297</v>
       </c>
       <c r="D17" t="n">
-        <v>56.0952</v>
+        <v>58.0295</v>
       </c>
     </row>
   </sheetData>
@@ -5407,13 +5407,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.752230000000001</v>
+        <v>8.62908</v>
       </c>
       <c r="C2" t="n">
-        <v>13.2221</v>
+        <v>13.171</v>
       </c>
       <c r="D2" t="n">
-        <v>14.9607</v>
+        <v>14.8121</v>
       </c>
     </row>
     <row r="3">
@@ -5421,13 +5421,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>16.5749</v>
+        <v>15.9283</v>
       </c>
       <c r="C3" t="n">
-        <v>24.6511</v>
+        <v>24.2295</v>
       </c>
       <c r="D3" t="n">
-        <v>28.1725</v>
+        <v>27.9243</v>
       </c>
     </row>
     <row r="4">
@@ -5435,13 +5435,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>23.8723</v>
+        <v>23.1498</v>
       </c>
       <c r="C4" t="n">
-        <v>34.9018</v>
+        <v>34.5799</v>
       </c>
       <c r="D4" t="n">
-        <v>40.1213</v>
+        <v>39.9427</v>
       </c>
     </row>
     <row r="5">
@@ -5449,13 +5449,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>22.3651</v>
+        <v>23.2197</v>
       </c>
       <c r="C5" t="n">
-        <v>36.7361</v>
+        <v>36.7726</v>
       </c>
       <c r="D5" t="n">
-        <v>45.2873</v>
+        <v>45.5721</v>
       </c>
     </row>
     <row r="6">
@@ -5463,13 +5463,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>26.3202</v>
+        <v>26.3989</v>
       </c>
       <c r="C6" t="n">
-        <v>42.7704</v>
+        <v>42.8877</v>
       </c>
       <c r="D6" t="n">
-        <v>54.3466</v>
+        <v>54.384</v>
       </c>
     </row>
     <row r="7">
@@ -5477,13 +5477,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>31.9729</v>
+        <v>31.87</v>
       </c>
       <c r="C7" t="n">
-        <v>50.9237</v>
+        <v>50.9308</v>
       </c>
       <c r="D7" t="n">
-        <v>63.4382</v>
+        <v>63.1615</v>
       </c>
     </row>
     <row r="8">
@@ -5491,13 +5491,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>29.1417</v>
+        <v>29.3743</v>
       </c>
       <c r="C8" t="n">
-        <v>47.5273</v>
+        <v>47.8187</v>
       </c>
       <c r="D8" t="n">
-        <v>58.8635</v>
+        <v>59.5166</v>
       </c>
     </row>
     <row r="9">
@@ -5505,13 +5505,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>30.2618</v>
+        <v>29.7123</v>
       </c>
       <c r="C9" t="n">
-        <v>47.9667</v>
+        <v>47.0487</v>
       </c>
       <c r="D9" t="n">
-        <v>59.6599</v>
+        <v>60.2832</v>
       </c>
     </row>
     <row r="10">
@@ -5519,13 +5519,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>30.0469</v>
+        <v>29.7848</v>
       </c>
       <c r="C10" t="n">
-        <v>46.8679</v>
+        <v>47.8781</v>
       </c>
       <c r="D10" t="n">
-        <v>60.7092</v>
+        <v>60.4148</v>
       </c>
     </row>
     <row r="11">
@@ -5533,13 +5533,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>30.5296</v>
+        <v>30.4194</v>
       </c>
       <c r="C11" t="n">
-        <v>48.3724</v>
+        <v>47.573</v>
       </c>
       <c r="D11" t="n">
-        <v>61.4344</v>
+        <v>61.1496</v>
       </c>
     </row>
     <row r="12">
@@ -5547,13 +5547,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>30.3386</v>
+        <v>30.349</v>
       </c>
       <c r="C12" t="n">
-        <v>47.4116</v>
+        <v>48.4269</v>
       </c>
       <c r="D12" t="n">
-        <v>60.0363</v>
+        <v>61.4376</v>
       </c>
     </row>
     <row r="13">
@@ -5561,13 +5561,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>30.538</v>
+        <v>30.4195</v>
       </c>
       <c r="C13" t="n">
-        <v>48.7574</v>
+        <v>48.8587</v>
       </c>
       <c r="D13" t="n">
-        <v>61.7171</v>
+        <v>61.213</v>
       </c>
     </row>
     <row r="14">
@@ -5575,13 +5575,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>30.8347</v>
+        <v>30.6493</v>
       </c>
       <c r="C14" t="n">
-        <v>47.5794</v>
+        <v>48.4647</v>
       </c>
       <c r="D14" t="n">
-        <v>61.6138</v>
+        <v>59.7214</v>
       </c>
     </row>
     <row r="15">
@@ -5589,13 +5589,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>30.4409</v>
+        <v>30.484</v>
       </c>
       <c r="C15" t="n">
-        <v>48.2022</v>
+        <v>48.1086</v>
       </c>
       <c r="D15" t="n">
-        <v>61.2804</v>
+        <v>61.5068</v>
       </c>
     </row>
     <row r="16">
@@ -5603,13 +5603,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>30.2585</v>
+        <v>30.6342</v>
       </c>
       <c r="C16" t="n">
-        <v>48.9684</v>
+        <v>49.2319</v>
       </c>
       <c r="D16" t="n">
-        <v>60.2299</v>
+        <v>61.724</v>
       </c>
     </row>
     <row r="17">
@@ -5617,13 +5617,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>30.9266</v>
+        <v>30.2989</v>
       </c>
       <c r="C17" t="n">
-        <v>48.6417</v>
+        <v>48.3036</v>
       </c>
       <c r="D17" t="n">
-        <v>61.1411</v>
+        <v>62.4834</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Parallel workload.xlsx
+++ b/vs-x86/Parallel workload.xlsx
@@ -4087,13 +4087,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>9.309519999999999</v>
+        <v>9.26201</v>
       </c>
       <c r="C2" t="n">
-        <v>13.1887</v>
+        <v>13.1364</v>
       </c>
       <c r="D2" t="n">
-        <v>14.7003</v>
+        <v>14.7235</v>
       </c>
     </row>
     <row r="3">
@@ -4101,13 +4101,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>17.3374</v>
+        <v>17.4204</v>
       </c>
       <c r="C3" t="n">
-        <v>21.4051</v>
+        <v>21.7138</v>
       </c>
       <c r="D3" t="n">
-        <v>24.2687</v>
+        <v>23.3731</v>
       </c>
     </row>
     <row r="4">
@@ -4115,13 +4115,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>23.6749</v>
+        <v>23.7076</v>
       </c>
       <c r="C4" t="n">
-        <v>26.6028</v>
+        <v>27.0168</v>
       </c>
       <c r="D4" t="n">
-        <v>31.6754</v>
+        <v>31.599</v>
       </c>
     </row>
     <row r="5">
@@ -4129,13 +4129,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>18.9547</v>
+        <v>19.0248</v>
       </c>
       <c r="C5" t="n">
-        <v>29.7609</v>
+        <v>29.7616</v>
       </c>
       <c r="D5" t="n">
-        <v>32.4568</v>
+        <v>32.6912</v>
       </c>
     </row>
     <row r="6">
@@ -4143,13 +4143,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>22.4703</v>
+        <v>22.5625</v>
       </c>
       <c r="C6" t="n">
-        <v>31.8211</v>
+        <v>31.7193</v>
       </c>
       <c r="D6" t="n">
-        <v>39.2945</v>
+        <v>39.5839</v>
       </c>
     </row>
     <row r="7">
@@ -4157,13 +4157,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>26.4378</v>
+        <v>26.4876</v>
       </c>
       <c r="C7" t="n">
-        <v>38.7227</v>
+        <v>35.4419</v>
       </c>
       <c r="D7" t="n">
-        <v>43.9579</v>
+        <v>39.3979</v>
       </c>
     </row>
     <row r="8">
@@ -4171,13 +4171,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>19.8688</v>
+        <v>20.0596</v>
       </c>
       <c r="C8" t="n">
-        <v>37.169</v>
+        <v>36.1841</v>
       </c>
       <c r="D8" t="n">
-        <v>40.3787</v>
+        <v>39.601</v>
       </c>
     </row>
     <row r="9">
@@ -4185,13 +4185,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>22.441</v>
+        <v>22.3621</v>
       </c>
       <c r="C9" t="n">
-        <v>37.6117</v>
+        <v>39.4177</v>
       </c>
       <c r="D9" t="n">
-        <v>45.7214</v>
+        <v>45.6564</v>
       </c>
     </row>
     <row r="10">
@@ -4199,13 +4199,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>24.4783</v>
+        <v>24.692</v>
       </c>
       <c r="C10" t="n">
-        <v>40.9834</v>
+        <v>40.8168</v>
       </c>
       <c r="D10" t="n">
-        <v>46.9911</v>
+        <v>46.0669</v>
       </c>
     </row>
     <row r="11">
@@ -4213,13 +4213,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>22.6861</v>
+        <v>22.3796</v>
       </c>
       <c r="C11" t="n">
-        <v>43.7297</v>
+        <v>41.6447</v>
       </c>
       <c r="D11" t="n">
-        <v>49.2577</v>
+        <v>48.1473</v>
       </c>
     </row>
     <row r="12">
@@ -4227,13 +4227,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>24.3223</v>
+        <v>24.366</v>
       </c>
       <c r="C12" t="n">
-        <v>43.7743</v>
+        <v>42.8711</v>
       </c>
       <c r="D12" t="n">
-        <v>52.0368</v>
+        <v>51.8273</v>
       </c>
     </row>
     <row r="13">
@@ -4241,13 +4241,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>26.4417</v>
+        <v>26.412</v>
       </c>
       <c r="C13" t="n">
-        <v>44.8978</v>
+        <v>44.0907</v>
       </c>
       <c r="D13" t="n">
-        <v>54.3434</v>
+        <v>52.333</v>
       </c>
     </row>
     <row r="14">
@@ -4255,13 +4255,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>22.2103</v>
+        <v>22.1006</v>
       </c>
       <c r="C14" t="n">
-        <v>44.5401</v>
+        <v>43.8318</v>
       </c>
       <c r="D14" t="n">
-        <v>53.9911</v>
+        <v>51.7727</v>
       </c>
     </row>
     <row r="15">
@@ -4269,13 +4269,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>23.6832</v>
+        <v>23.8038</v>
       </c>
       <c r="C15" t="n">
-        <v>44.7839</v>
+        <v>45.1907</v>
       </c>
       <c r="D15" t="n">
-        <v>53.853</v>
+        <v>51.9251</v>
       </c>
     </row>
     <row r="16">
@@ -4283,13 +4283,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>24.8864</v>
+        <v>25.1598</v>
       </c>
       <c r="C16" t="n">
-        <v>44.3225</v>
+        <v>44.6568</v>
       </c>
       <c r="D16" t="n">
-        <v>53.7099</v>
+        <v>51.8564</v>
       </c>
     </row>
     <row r="17">
@@ -4297,13 +4297,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>23.9817</v>
+        <v>23.6436</v>
       </c>
       <c r="C17" t="n">
-        <v>45.2284</v>
+        <v>45.7902</v>
       </c>
       <c r="D17" t="n">
-        <v>53.1681</v>
+        <v>53.5535</v>
       </c>
     </row>
   </sheetData>
@@ -4351,13 +4351,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>9.34857</v>
+        <v>9.31165</v>
       </c>
       <c r="C2" t="n">
-        <v>13.1017</v>
+        <v>12.988</v>
       </c>
       <c r="D2" t="n">
-        <v>14.5679</v>
+        <v>14.5883</v>
       </c>
     </row>
     <row r="3">
@@ -4365,13 +4365,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>17.3783</v>
+        <v>17.3899</v>
       </c>
       <c r="C3" t="n">
-        <v>21.6981</v>
+        <v>21.536</v>
       </c>
       <c r="D3" t="n">
-        <v>24.166</v>
+        <v>24.0898</v>
       </c>
     </row>
     <row r="4">
@@ -4379,13 +4379,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>23.3225</v>
+        <v>23.8433</v>
       </c>
       <c r="C4" t="n">
-        <v>26.1273</v>
+        <v>26.1197</v>
       </c>
       <c r="D4" t="n">
-        <v>30.2588</v>
+        <v>29.7057</v>
       </c>
     </row>
     <row r="5">
@@ -4393,13 +4393,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>19.1347</v>
+        <v>19.3108</v>
       </c>
       <c r="C5" t="n">
-        <v>27.8245</v>
+        <v>27.9293</v>
       </c>
       <c r="D5" t="n">
-        <v>34.9752</v>
+        <v>34.8897</v>
       </c>
     </row>
     <row r="6">
@@ -4407,13 +4407,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>22.9435</v>
+        <v>22.8749</v>
       </c>
       <c r="C6" t="n">
-        <v>34.6557</v>
+        <v>35.1363</v>
       </c>
       <c r="D6" t="n">
-        <v>35.2813</v>
+        <v>35.3915</v>
       </c>
     </row>
     <row r="7">
@@ -4421,13 +4421,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>27.0867</v>
+        <v>27.0899</v>
       </c>
       <c r="C7" t="n">
-        <v>37.8883</v>
+        <v>35.1933</v>
       </c>
       <c r="D7" t="n">
-        <v>44.2296</v>
+        <v>45.022</v>
       </c>
     </row>
     <row r="8">
@@ -4435,13 +4435,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>20.1373</v>
+        <v>20.1931</v>
       </c>
       <c r="C8" t="n">
-        <v>33.9576</v>
+        <v>34.8337</v>
       </c>
       <c r="D8" t="n">
-        <v>39.826</v>
+        <v>41.1642</v>
       </c>
     </row>
     <row r="9">
@@ -4449,13 +4449,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>22.7534</v>
+        <v>22.7749</v>
       </c>
       <c r="C9" t="n">
-        <v>36.3849</v>
+        <v>35.8043</v>
       </c>
       <c r="D9" t="n">
-        <v>41.6286</v>
+        <v>46.2136</v>
       </c>
     </row>
     <row r="10">
@@ -4463,13 +4463,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>24.497</v>
+        <v>24.3314</v>
       </c>
       <c r="C10" t="n">
-        <v>38.3793</v>
+        <v>37.467</v>
       </c>
       <c r="D10" t="n">
-        <v>48.2972</v>
+        <v>46.4157</v>
       </c>
     </row>
     <row r="11">
@@ -4477,13 +4477,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>22.8757</v>
+        <v>22.6762</v>
       </c>
       <c r="C11" t="n">
-        <v>41.1398</v>
+        <v>40.7084</v>
       </c>
       <c r="D11" t="n">
-        <v>50.2572</v>
+        <v>50.0354</v>
       </c>
     </row>
     <row r="12">
@@ -4491,13 +4491,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>24.9612</v>
+        <v>24.881</v>
       </c>
       <c r="C12" t="n">
-        <v>43.5441</v>
+        <v>42.377</v>
       </c>
       <c r="D12" t="n">
-        <v>51.5086</v>
+        <v>52.8652</v>
       </c>
     </row>
     <row r="13">
@@ -4505,13 +4505,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>27.0271</v>
+        <v>26.9944</v>
       </c>
       <c r="C13" t="n">
-        <v>43.5396</v>
+        <v>41.0571</v>
       </c>
       <c r="D13" t="n">
-        <v>50.8741</v>
+        <v>53.483</v>
       </c>
     </row>
     <row r="14">
@@ -4519,13 +4519,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>22.2347</v>
+        <v>22.419</v>
       </c>
       <c r="C14" t="n">
-        <v>43.4514</v>
+        <v>43.9281</v>
       </c>
       <c r="D14" t="n">
-        <v>52.1758</v>
+        <v>51.5722</v>
       </c>
     </row>
     <row r="15">
@@ -4533,13 +4533,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>24.1429</v>
+        <v>24.1059</v>
       </c>
       <c r="C15" t="n">
-        <v>45.3014</v>
+        <v>43.5103</v>
       </c>
       <c r="D15" t="n">
-        <v>51.6642</v>
+        <v>52.1742</v>
       </c>
     </row>
     <row r="16">
@@ -4547,13 +4547,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>25.2251</v>
+        <v>25.3952</v>
       </c>
       <c r="C16" t="n">
-        <v>44.8922</v>
+        <v>43.8085</v>
       </c>
       <c r="D16" t="n">
-        <v>53.7242</v>
+        <v>52.714</v>
       </c>
     </row>
     <row r="17">
@@ -4561,13 +4561,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>24.3262</v>
+        <v>24.1594</v>
       </c>
       <c r="C17" t="n">
-        <v>44.9502</v>
+        <v>45.2204</v>
       </c>
       <c r="D17" t="n">
-        <v>53.4206</v>
+        <v>54.2852</v>
       </c>
     </row>
   </sheetData>
@@ -4615,13 +4615,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>10.9135</v>
+        <v>10.8857</v>
       </c>
       <c r="C2" t="n">
-        <v>13.9924</v>
+        <v>13.8067</v>
       </c>
       <c r="D2" t="n">
-        <v>15.0079</v>
+        <v>14.9761</v>
       </c>
     </row>
     <row r="3">
@@ -4629,13 +4629,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>19.2994</v>
+        <v>19.4631</v>
       </c>
       <c r="C3" t="n">
-        <v>22.1459</v>
+        <v>21.986</v>
       </c>
       <c r="D3" t="n">
-        <v>24.494</v>
+        <v>23.9252</v>
       </c>
     </row>
     <row r="4">
@@ -4643,13 +4643,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>27.0777</v>
+        <v>26.7887</v>
       </c>
       <c r="C4" t="n">
-        <v>31.4647</v>
+        <v>29.0003</v>
       </c>
       <c r="D4" t="n">
-        <v>32.0166</v>
+        <v>31.5572</v>
       </c>
     </row>
     <row r="5">
@@ -4657,13 +4657,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>23.1273</v>
+        <v>23.7155</v>
       </c>
       <c r="C5" t="n">
-        <v>31.7603</v>
+        <v>30.881</v>
       </c>
       <c r="D5" t="n">
-        <v>35.0378</v>
+        <v>34.9162</v>
       </c>
     </row>
     <row r="6">
@@ -4671,13 +4671,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>28.024</v>
+        <v>28.0171</v>
       </c>
       <c r="C6" t="n">
-        <v>35.1681</v>
+        <v>33.5894</v>
       </c>
       <c r="D6" t="n">
-        <v>38.9206</v>
+        <v>38.9777</v>
       </c>
     </row>
     <row r="7">
@@ -4685,13 +4685,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>33.137</v>
+        <v>33.1279</v>
       </c>
       <c r="C7" t="n">
-        <v>35.2556</v>
+        <v>35.0268</v>
       </c>
       <c r="D7" t="n">
-        <v>52.2568</v>
+        <v>45.1885</v>
       </c>
     </row>
     <row r="8">
@@ -4699,13 +4699,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>29.4797</v>
+        <v>29.62</v>
       </c>
       <c r="C8" t="n">
-        <v>35.4866</v>
+        <v>34.8296</v>
       </c>
       <c r="D8" t="n">
-        <v>45.2393</v>
+        <v>44.8532</v>
       </c>
     </row>
     <row r="9">
@@ -4713,13 +4713,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>29.5618</v>
+        <v>30.5118</v>
       </c>
       <c r="C9" t="n">
-        <v>39.6992</v>
+        <v>38.8861</v>
       </c>
       <c r="D9" t="n">
-        <v>47.7366</v>
+        <v>49.8691</v>
       </c>
     </row>
     <row r="10">
@@ -4727,13 +4727,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>30.4852</v>
+        <v>30.6296</v>
       </c>
       <c r="C10" t="n">
-        <v>43.3131</v>
+        <v>42.5551</v>
       </c>
       <c r="D10" t="n">
-        <v>49.9861</v>
+        <v>52.1504</v>
       </c>
     </row>
     <row r="11">
@@ -4741,13 +4741,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>29.8497</v>
+        <v>30.5546</v>
       </c>
       <c r="C11" t="n">
-        <v>44.6786</v>
+        <v>44.245</v>
       </c>
       <c r="D11" t="n">
-        <v>51.6641</v>
+        <v>52.2215</v>
       </c>
     </row>
     <row r="12">
@@ -4755,13 +4755,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>31.1973</v>
+        <v>30.8184</v>
       </c>
       <c r="C12" t="n">
-        <v>43.3642</v>
+        <v>43.6758</v>
       </c>
       <c r="D12" t="n">
-        <v>52.5482</v>
+        <v>51.445</v>
       </c>
     </row>
     <row r="13">
@@ -4769,13 +4769,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>30.9747</v>
+        <v>30.3863</v>
       </c>
       <c r="C13" t="n">
-        <v>45.2623</v>
+        <v>42.4899</v>
       </c>
       <c r="D13" t="n">
-        <v>52.9639</v>
+        <v>52.0385</v>
       </c>
     </row>
     <row r="14">
@@ -4783,13 +4783,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>30.9453</v>
+        <v>31.0005</v>
       </c>
       <c r="C14" t="n">
-        <v>45.339</v>
+        <v>44.6117</v>
       </c>
       <c r="D14" t="n">
-        <v>51.5508</v>
+        <v>52.8103</v>
       </c>
     </row>
     <row r="15">
@@ -4797,13 +4797,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>30.9774</v>
+        <v>31.2392</v>
       </c>
       <c r="C15" t="n">
-        <v>44.8368</v>
+        <v>44.6943</v>
       </c>
       <c r="D15" t="n">
-        <v>52.5074</v>
+        <v>52.8014</v>
       </c>
     </row>
     <row r="16">
@@ -4811,13 +4811,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>31.4316</v>
+        <v>31.2914</v>
       </c>
       <c r="C16" t="n">
-        <v>43.7359</v>
+        <v>45.4259</v>
       </c>
       <c r="D16" t="n">
-        <v>52.7041</v>
+        <v>52.2915</v>
       </c>
     </row>
     <row r="17">
@@ -4825,13 +4825,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>31.4838</v>
+        <v>31.6673</v>
       </c>
       <c r="C17" t="n">
-        <v>44.9672</v>
+        <v>44.7538</v>
       </c>
       <c r="D17" t="n">
-        <v>52.8583</v>
+        <v>52.3476</v>
       </c>
     </row>
   </sheetData>
@@ -4879,13 +4879,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4.90369</v>
+        <v>4.88409</v>
       </c>
       <c r="C2" t="n">
-        <v>10.9975</v>
+        <v>10.8452</v>
       </c>
       <c r="D2" t="n">
-        <v>13.6817</v>
+        <v>13.6144</v>
       </c>
     </row>
     <row r="3">
@@ -4893,13 +4893,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.589370000000001</v>
+        <v>9.550890000000001</v>
       </c>
       <c r="C3" t="n">
-        <v>20.7105</v>
+        <v>20.7131</v>
       </c>
       <c r="D3" t="n">
-        <v>25.9682</v>
+        <v>25.9162</v>
       </c>
     </row>
     <row r="4">
@@ -4907,13 +4907,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>13.8157</v>
+        <v>13.7746</v>
       </c>
       <c r="C4" t="n">
-        <v>29.9049</v>
+        <v>29.7621</v>
       </c>
       <c r="D4" t="n">
-        <v>37.4505</v>
+        <v>37.3642</v>
       </c>
     </row>
     <row r="5">
@@ -4921,13 +4921,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>15.6097</v>
+        <v>15.7009</v>
       </c>
       <c r="C5" t="n">
-        <v>33.9267</v>
+        <v>34.0084</v>
       </c>
       <c r="D5" t="n">
-        <v>43.2758</v>
+        <v>42.9231</v>
       </c>
     </row>
     <row r="6">
@@ -4935,13 +4935,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>18.8657</v>
+        <v>18.7627</v>
       </c>
       <c r="C6" t="n">
-        <v>41.0703</v>
+        <v>41.0263</v>
       </c>
       <c r="D6" t="n">
-        <v>52.0516</v>
+        <v>51.6718</v>
       </c>
     </row>
     <row r="7">
@@ -4949,13 +4949,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>22.1347</v>
+        <v>22.0485</v>
       </c>
       <c r="C7" t="n">
-        <v>47.9088</v>
+        <v>47.5281</v>
       </c>
       <c r="D7" t="n">
-        <v>62.0741</v>
+        <v>61.0852</v>
       </c>
     </row>
     <row r="8">
@@ -4963,13 +4963,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>19.7723</v>
+        <v>20.0049</v>
       </c>
       <c r="C8" t="n">
-        <v>44.3347</v>
+        <v>42.6304</v>
       </c>
       <c r="D8" t="n">
-        <v>53.8429</v>
+        <v>53.9541</v>
       </c>
     </row>
     <row r="9">
@@ -4977,13 +4977,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>20.6777</v>
+        <v>20.3945</v>
       </c>
       <c r="C9" t="n">
-        <v>43.3872</v>
+        <v>44.0366</v>
       </c>
       <c r="D9" t="n">
-        <v>53.633</v>
+        <v>53.9308</v>
       </c>
     </row>
     <row r="10">
@@ -4991,13 +4991,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>20.8231</v>
+        <v>20.6962</v>
       </c>
       <c r="C10" t="n">
-        <v>42.8707</v>
+        <v>43.9247</v>
       </c>
       <c r="D10" t="n">
-        <v>54.4424</v>
+        <v>52.8433</v>
       </c>
     </row>
     <row r="11">
@@ -5005,13 +5005,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>21.1217</v>
+        <v>21.1467</v>
       </c>
       <c r="C11" t="n">
-        <v>42.9204</v>
+        <v>43.2995</v>
       </c>
       <c r="D11" t="n">
-        <v>55.6276</v>
+        <v>55.7726</v>
       </c>
     </row>
     <row r="12">
@@ -5019,13 +5019,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>21.0921</v>
+        <v>21.024</v>
       </c>
       <c r="C12" t="n">
-        <v>44.4669</v>
+        <v>45.0203</v>
       </c>
       <c r="D12" t="n">
-        <v>57.5748</v>
+        <v>55.5713</v>
       </c>
     </row>
     <row r="13">
@@ -5033,13 +5033,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>21.0935</v>
+        <v>21.1629</v>
       </c>
       <c r="C13" t="n">
-        <v>44.0717</v>
+        <v>44.0819</v>
       </c>
       <c r="D13" t="n">
-        <v>56.8209</v>
+        <v>56.0989</v>
       </c>
     </row>
     <row r="14">
@@ -5047,13 +5047,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>21.0448</v>
+        <v>20.8165</v>
       </c>
       <c r="C14" t="n">
-        <v>46.9068</v>
+        <v>45.306</v>
       </c>
       <c r="D14" t="n">
-        <v>57.3644</v>
+        <v>58.3187</v>
       </c>
     </row>
     <row r="15">
@@ -5061,13 +5061,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>21.1933</v>
+        <v>20.744</v>
       </c>
       <c r="C15" t="n">
-        <v>44.8303</v>
+        <v>46.0905</v>
       </c>
       <c r="D15" t="n">
-        <v>58.6018</v>
+        <v>57.8035</v>
       </c>
     </row>
     <row r="16">
@@ -5075,13 +5075,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>21.0186</v>
+        <v>21.0958</v>
       </c>
       <c r="C16" t="n">
-        <v>45.7577</v>
+        <v>46.2207</v>
       </c>
       <c r="D16" t="n">
-        <v>58.7881</v>
+        <v>58.4845</v>
       </c>
     </row>
     <row r="17">
@@ -5089,13 +5089,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>20.8889</v>
+        <v>21.1085</v>
       </c>
       <c r="C17" t="n">
-        <v>46.1082</v>
+        <v>44.7319</v>
       </c>
       <c r="D17" t="n">
-        <v>58.6176</v>
+        <v>57.2878</v>
       </c>
     </row>
   </sheetData>
@@ -5143,13 +5143,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>5.00381</v>
+        <v>4.96638</v>
       </c>
       <c r="C2" t="n">
-        <v>11.1482</v>
+        <v>10.8519</v>
       </c>
       <c r="D2" t="n">
-        <v>13.7024</v>
+        <v>13.7114</v>
       </c>
     </row>
     <row r="3">
@@ -5157,13 +5157,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.76023</v>
+        <v>9.770989999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>20.6969</v>
+        <v>20.644</v>
       </c>
       <c r="D3" t="n">
-        <v>25.9535</v>
+        <v>25.9669</v>
       </c>
     </row>
     <row r="4">
@@ -5171,13 +5171,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>14.1734</v>
+        <v>14.1346</v>
       </c>
       <c r="C4" t="n">
-        <v>29.5846</v>
+        <v>29.7386</v>
       </c>
       <c r="D4" t="n">
-        <v>37.2749</v>
+        <v>37.6999</v>
       </c>
     </row>
     <row r="5">
@@ -5185,13 +5185,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>16.1994</v>
+        <v>15.861</v>
       </c>
       <c r="C5" t="n">
-        <v>33.6503</v>
+        <v>33.8043</v>
       </c>
       <c r="D5" t="n">
-        <v>43.2928</v>
+        <v>42.959</v>
       </c>
     </row>
     <row r="6">
@@ -5199,13 +5199,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>19.3138</v>
+        <v>19.1789</v>
       </c>
       <c r="C6" t="n">
-        <v>40.2864</v>
+        <v>39.6385</v>
       </c>
       <c r="D6" t="n">
-        <v>51.1423</v>
+        <v>51.5822</v>
       </c>
     </row>
     <row r="7">
@@ -5213,13 +5213,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>22.7669</v>
+        <v>22.7154</v>
       </c>
       <c r="C7" t="n">
-        <v>47.6574</v>
+        <v>46.9892</v>
       </c>
       <c r="D7" t="n">
-        <v>58.8704</v>
+        <v>59.0282</v>
       </c>
     </row>
     <row r="8">
@@ -5227,13 +5227,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>20.4882</v>
+        <v>20.2299</v>
       </c>
       <c r="C8" t="n">
-        <v>43.5647</v>
+        <v>42.5338</v>
       </c>
       <c r="D8" t="n">
-        <v>51.7389</v>
+        <v>52.7622</v>
       </c>
     </row>
     <row r="9">
@@ -5241,13 +5241,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>21.2566</v>
+        <v>21.1477</v>
       </c>
       <c r="C9" t="n">
-        <v>43.0398</v>
+        <v>43.3507</v>
       </c>
       <c r="D9" t="n">
-        <v>52.3805</v>
+        <v>54.6105</v>
       </c>
     </row>
     <row r="10">
@@ -5255,13 +5255,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>21.4283</v>
+        <v>21.5272</v>
       </c>
       <c r="C10" t="n">
-        <v>42.3402</v>
+        <v>44.3923</v>
       </c>
       <c r="D10" t="n">
-        <v>54.945</v>
+        <v>54.7184</v>
       </c>
     </row>
     <row r="11">
@@ -5269,13 +5269,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>21.7353</v>
+        <v>21.3797</v>
       </c>
       <c r="C11" t="n">
-        <v>44.1206</v>
+        <v>43.8648</v>
       </c>
       <c r="D11" t="n">
-        <v>54.0853</v>
+        <v>54.6152</v>
       </c>
     </row>
     <row r="12">
@@ -5283,13 +5283,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>21.8316</v>
+        <v>21.451</v>
       </c>
       <c r="C12" t="n">
-        <v>44.4747</v>
+        <v>43.2308</v>
       </c>
       <c r="D12" t="n">
-        <v>55.9284</v>
+        <v>55.6737</v>
       </c>
     </row>
     <row r="13">
@@ -5297,13 +5297,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>21.417</v>
+        <v>21.4046</v>
       </c>
       <c r="C13" t="n">
-        <v>44.478</v>
+        <v>44.4985</v>
       </c>
       <c r="D13" t="n">
-        <v>55.2253</v>
+        <v>55.7831</v>
       </c>
     </row>
     <row r="14">
@@ -5311,13 +5311,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>21.569</v>
+        <v>21.6157</v>
       </c>
       <c r="C14" t="n">
-        <v>45.0713</v>
+        <v>45.2374</v>
       </c>
       <c r="D14" t="n">
-        <v>57.1377</v>
+        <v>55.6529</v>
       </c>
     </row>
     <row r="15">
@@ -5325,13 +5325,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>21.5625</v>
+        <v>21.8011</v>
       </c>
       <c r="C15" t="n">
-        <v>45.2942</v>
+        <v>45.0142</v>
       </c>
       <c r="D15" t="n">
-        <v>56.4318</v>
+        <v>55.9933</v>
       </c>
     </row>
     <row r="16">
@@ -5339,13 +5339,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>21.5759</v>
+        <v>21.5768</v>
       </c>
       <c r="C16" t="n">
-        <v>45.0459</v>
+        <v>46.0812</v>
       </c>
       <c r="D16" t="n">
-        <v>57.1183</v>
+        <v>57.3494</v>
       </c>
     </row>
     <row r="17">
@@ -5353,13 +5353,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>21.7362</v>
+        <v>21.2401</v>
       </c>
       <c r="C17" t="n">
-        <v>44.5297</v>
+        <v>45.081</v>
       </c>
       <c r="D17" t="n">
-        <v>58.0295</v>
+        <v>58.4815</v>
       </c>
     </row>
   </sheetData>
@@ -5407,13 +5407,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.62908</v>
+        <v>8.7408</v>
       </c>
       <c r="C2" t="n">
-        <v>13.171</v>
+        <v>13.1342</v>
       </c>
       <c r="D2" t="n">
-        <v>14.8121</v>
+        <v>14.9031</v>
       </c>
     </row>
     <row r="3">
@@ -5421,13 +5421,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>15.9283</v>
+        <v>16.4439</v>
       </c>
       <c r="C3" t="n">
-        <v>24.2295</v>
+        <v>24.3399</v>
       </c>
       <c r="D3" t="n">
-        <v>27.9243</v>
+        <v>28.1109</v>
       </c>
     </row>
     <row r="4">
@@ -5435,13 +5435,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>23.1498</v>
+        <v>23.7706</v>
       </c>
       <c r="C4" t="n">
-        <v>34.5799</v>
+        <v>34.654</v>
       </c>
       <c r="D4" t="n">
-        <v>39.9427</v>
+        <v>39.895</v>
       </c>
     </row>
     <row r="5">
@@ -5449,13 +5449,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>23.2197</v>
+        <v>22.8694</v>
       </c>
       <c r="C5" t="n">
-        <v>36.7726</v>
+        <v>36.497</v>
       </c>
       <c r="D5" t="n">
-        <v>45.5721</v>
+        <v>45.3931</v>
       </c>
     </row>
     <row r="6">
@@ -5463,13 +5463,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>26.3989</v>
+        <v>26.3301</v>
       </c>
       <c r="C6" t="n">
-        <v>42.8877</v>
+        <v>42.7481</v>
       </c>
       <c r="D6" t="n">
-        <v>54.384</v>
+        <v>54.5654</v>
       </c>
     </row>
     <row r="7">
@@ -5477,13 +5477,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>31.87</v>
+        <v>31.9343</v>
       </c>
       <c r="C7" t="n">
-        <v>50.9308</v>
+        <v>50.6471</v>
       </c>
       <c r="D7" t="n">
-        <v>63.1615</v>
+        <v>63.2155</v>
       </c>
     </row>
     <row r="8">
@@ -5491,13 +5491,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>29.3743</v>
+        <v>29.0049</v>
       </c>
       <c r="C8" t="n">
-        <v>47.8187</v>
+        <v>47.254</v>
       </c>
       <c r="D8" t="n">
-        <v>59.5166</v>
+        <v>58.9375</v>
       </c>
     </row>
     <row r="9">
@@ -5505,13 +5505,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>29.7123</v>
+        <v>29.3912</v>
       </c>
       <c r="C9" t="n">
-        <v>47.0487</v>
+        <v>46.8056</v>
       </c>
       <c r="D9" t="n">
-        <v>60.2832</v>
+        <v>59.3121</v>
       </c>
     </row>
     <row r="10">
@@ -5519,13 +5519,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>29.7848</v>
+        <v>30.0939</v>
       </c>
       <c r="C10" t="n">
-        <v>47.8781</v>
+        <v>47.5558</v>
       </c>
       <c r="D10" t="n">
-        <v>60.4148</v>
+        <v>59.4561</v>
       </c>
     </row>
     <row r="11">
@@ -5533,13 +5533,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>30.4194</v>
+        <v>30.1751</v>
       </c>
       <c r="C11" t="n">
-        <v>47.573</v>
+        <v>47.8963</v>
       </c>
       <c r="D11" t="n">
-        <v>61.1496</v>
+        <v>60.7306</v>
       </c>
     </row>
     <row r="12">
@@ -5547,13 +5547,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>30.349</v>
+        <v>30.1344</v>
       </c>
       <c r="C12" t="n">
-        <v>48.4269</v>
+        <v>48.1696</v>
       </c>
       <c r="D12" t="n">
-        <v>61.4376</v>
+        <v>60.4985</v>
       </c>
     </row>
     <row r="13">
@@ -5561,13 +5561,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>30.4195</v>
+        <v>30.3604</v>
       </c>
       <c r="C13" t="n">
-        <v>48.8587</v>
+        <v>47.2648</v>
       </c>
       <c r="D13" t="n">
-        <v>61.213</v>
+        <v>59.8377</v>
       </c>
     </row>
     <row r="14">
@@ -5575,13 +5575,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>30.6493</v>
+        <v>30.4381</v>
       </c>
       <c r="C14" t="n">
-        <v>48.4647</v>
+        <v>47.9831</v>
       </c>
       <c r="D14" t="n">
-        <v>59.7214</v>
+        <v>60.6544</v>
       </c>
     </row>
     <row r="15">
@@ -5589,13 +5589,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>30.484</v>
+        <v>30.6246</v>
       </c>
       <c r="C15" t="n">
-        <v>48.1086</v>
+        <v>48.9671</v>
       </c>
       <c r="D15" t="n">
-        <v>61.5068</v>
+        <v>60.8598</v>
       </c>
     </row>
     <row r="16">
@@ -5603,13 +5603,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>30.6342</v>
+        <v>30.8769</v>
       </c>
       <c r="C16" t="n">
-        <v>49.2319</v>
+        <v>48.7922</v>
       </c>
       <c r="D16" t="n">
-        <v>61.724</v>
+        <v>61.1778</v>
       </c>
     </row>
     <row r="17">
@@ -5617,13 +5617,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>30.2989</v>
+        <v>30.674</v>
       </c>
       <c r="C17" t="n">
-        <v>48.3036</v>
+        <v>48.9321</v>
       </c>
       <c r="D17" t="n">
-        <v>62.4834</v>
+        <v>61.8716</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Parallel workload.xlsx
+++ b/vs-x86/Parallel workload.xlsx
@@ -4087,13 +4087,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>9.26201</v>
+        <v>9.339969999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>13.1364</v>
+        <v>13.1219</v>
       </c>
       <c r="D2" t="n">
-        <v>14.7235</v>
+        <v>15.1707</v>
       </c>
     </row>
     <row r="3">
@@ -4101,13 +4101,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>17.4204</v>
+        <v>17.3643</v>
       </c>
       <c r="C3" t="n">
-        <v>21.7138</v>
+        <v>22.0089</v>
       </c>
       <c r="D3" t="n">
-        <v>23.3731</v>
+        <v>24.3021</v>
       </c>
     </row>
     <row r="4">
@@ -4115,13 +4115,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>23.7076</v>
+        <v>23.7607</v>
       </c>
       <c r="C4" t="n">
-        <v>27.0168</v>
+        <v>26.8884</v>
       </c>
       <c r="D4" t="n">
-        <v>31.599</v>
+        <v>31.6011</v>
       </c>
     </row>
     <row r="5">
@@ -4129,13 +4129,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>19.0248</v>
+        <v>19.0273</v>
       </c>
       <c r="C5" t="n">
-        <v>29.7616</v>
+        <v>30.2004</v>
       </c>
       <c r="D5" t="n">
-        <v>32.6912</v>
+        <v>32.7438</v>
       </c>
     </row>
     <row r="6">
@@ -4143,13 +4143,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>22.5625</v>
+        <v>22.5673</v>
       </c>
       <c r="C6" t="n">
-        <v>31.7193</v>
+        <v>31.5524</v>
       </c>
       <c r="D6" t="n">
-        <v>39.5839</v>
+        <v>39.4524</v>
       </c>
     </row>
     <row r="7">
@@ -4157,13 +4157,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>26.4876</v>
+        <v>26.4984</v>
       </c>
       <c r="C7" t="n">
-        <v>35.4419</v>
+        <v>36.079</v>
       </c>
       <c r="D7" t="n">
-        <v>39.3979</v>
+        <v>39.4713</v>
       </c>
     </row>
     <row r="8">
@@ -4171,13 +4171,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>20.0596</v>
+        <v>19.9719</v>
       </c>
       <c r="C8" t="n">
-        <v>36.1841</v>
+        <v>36.8991</v>
       </c>
       <c r="D8" t="n">
-        <v>39.601</v>
+        <v>40.371</v>
       </c>
     </row>
     <row r="9">
@@ -4185,13 +4185,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>22.3621</v>
+        <v>22.4905</v>
       </c>
       <c r="C9" t="n">
-        <v>39.4177</v>
+        <v>39.127</v>
       </c>
       <c r="D9" t="n">
-        <v>45.6564</v>
+        <v>45.4603</v>
       </c>
     </row>
     <row r="10">
@@ -4199,13 +4199,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>24.692</v>
+        <v>24.5994</v>
       </c>
       <c r="C10" t="n">
-        <v>40.8168</v>
+        <v>40.3091</v>
       </c>
       <c r="D10" t="n">
-        <v>46.0669</v>
+        <v>46.8682</v>
       </c>
     </row>
     <row r="11">
@@ -4213,13 +4213,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>22.3796</v>
+        <v>22.6549</v>
       </c>
       <c r="C11" t="n">
-        <v>41.6447</v>
+        <v>44.3023</v>
       </c>
       <c r="D11" t="n">
-        <v>48.1473</v>
+        <v>50.6647</v>
       </c>
     </row>
     <row r="12">
@@ -4227,13 +4227,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>24.366</v>
+        <v>24.3229</v>
       </c>
       <c r="C12" t="n">
-        <v>42.8711</v>
+        <v>45.4102</v>
       </c>
       <c r="D12" t="n">
-        <v>51.8273</v>
+        <v>52.393</v>
       </c>
     </row>
     <row r="13">
@@ -4241,13 +4241,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>26.412</v>
+        <v>26.4695</v>
       </c>
       <c r="C13" t="n">
-        <v>44.0907</v>
+        <v>43.8362</v>
       </c>
       <c r="D13" t="n">
-        <v>52.333</v>
+        <v>51.4788</v>
       </c>
     </row>
     <row r="14">
@@ -4255,13 +4255,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>22.1006</v>
+        <v>22.261</v>
       </c>
       <c r="C14" t="n">
-        <v>43.8318</v>
+        <v>43.3451</v>
       </c>
       <c r="D14" t="n">
-        <v>51.7727</v>
+        <v>52.0374</v>
       </c>
     </row>
     <row r="15">
@@ -4269,13 +4269,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>23.8038</v>
+        <v>23.8136</v>
       </c>
       <c r="C15" t="n">
-        <v>45.1907</v>
+        <v>43.8077</v>
       </c>
       <c r="D15" t="n">
-        <v>51.9251</v>
+        <v>54.1044</v>
       </c>
     </row>
     <row r="16">
@@ -4283,13 +4283,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>25.1598</v>
+        <v>24.8089</v>
       </c>
       <c r="C16" t="n">
-        <v>44.6568</v>
+        <v>45.0079</v>
       </c>
       <c r="D16" t="n">
-        <v>51.8564</v>
+        <v>54.8992</v>
       </c>
     </row>
     <row r="17">
@@ -4297,13 +4297,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>23.6436</v>
+        <v>23.7093</v>
       </c>
       <c r="C17" t="n">
-        <v>45.7902</v>
+        <v>44.7911</v>
       </c>
       <c r="D17" t="n">
-        <v>53.5535</v>
+        <v>53.4832</v>
       </c>
     </row>
   </sheetData>
@@ -4351,13 +4351,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>9.31165</v>
+        <v>9.359389999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>12.988</v>
+        <v>13.0597</v>
       </c>
       <c r="D2" t="n">
-        <v>14.5883</v>
+        <v>15.2982</v>
       </c>
     </row>
     <row r="3">
@@ -4365,13 +4365,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>17.3899</v>
+        <v>17.4356</v>
       </c>
       <c r="C3" t="n">
-        <v>21.536</v>
+        <v>20.9524</v>
       </c>
       <c r="D3" t="n">
-        <v>24.0898</v>
+        <v>23.8001</v>
       </c>
     </row>
     <row r="4">
@@ -4379,13 +4379,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>23.8433</v>
+        <v>24.1751</v>
       </c>
       <c r="C4" t="n">
-        <v>26.1197</v>
+        <v>26.3003</v>
       </c>
       <c r="D4" t="n">
-        <v>29.7057</v>
+        <v>30.5204</v>
       </c>
     </row>
     <row r="5">
@@ -4393,13 +4393,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>19.3108</v>
+        <v>19.354</v>
       </c>
       <c r="C5" t="n">
-        <v>27.9293</v>
+        <v>28.1873</v>
       </c>
       <c r="D5" t="n">
-        <v>34.8897</v>
+        <v>35.2269</v>
       </c>
     </row>
     <row r="6">
@@ -4407,13 +4407,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>22.8749</v>
+        <v>23.037</v>
       </c>
       <c r="C6" t="n">
-        <v>35.1363</v>
+        <v>34.8829</v>
       </c>
       <c r="D6" t="n">
-        <v>35.3915</v>
+        <v>39.3277</v>
       </c>
     </row>
     <row r="7">
@@ -4421,13 +4421,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>27.0899</v>
+        <v>27.1034</v>
       </c>
       <c r="C7" t="n">
-        <v>35.1933</v>
+        <v>35.2073</v>
       </c>
       <c r="D7" t="n">
-        <v>45.022</v>
+        <v>44.9825</v>
       </c>
     </row>
     <row r="8">
@@ -4435,13 +4435,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>20.1931</v>
+        <v>20.169</v>
       </c>
       <c r="C8" t="n">
-        <v>34.8337</v>
+        <v>33.9414</v>
       </c>
       <c r="D8" t="n">
-        <v>41.1642</v>
+        <v>43.1853</v>
       </c>
     </row>
     <row r="9">
@@ -4449,13 +4449,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>22.7749</v>
+        <v>22.7992</v>
       </c>
       <c r="C9" t="n">
-        <v>35.8043</v>
+        <v>37.6899</v>
       </c>
       <c r="D9" t="n">
-        <v>46.2136</v>
+        <v>46.6889</v>
       </c>
     </row>
     <row r="10">
@@ -4463,13 +4463,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>24.3314</v>
+        <v>25.0608</v>
       </c>
       <c r="C10" t="n">
-        <v>37.467</v>
+        <v>37.2013</v>
       </c>
       <c r="D10" t="n">
-        <v>46.4157</v>
+        <v>45.7632</v>
       </c>
     </row>
     <row r="11">
@@ -4477,13 +4477,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>22.6762</v>
+        <v>22.7416</v>
       </c>
       <c r="C11" t="n">
-        <v>40.7084</v>
+        <v>38.5019</v>
       </c>
       <c r="D11" t="n">
-        <v>50.0354</v>
+        <v>52.5911</v>
       </c>
     </row>
     <row r="12">
@@ -4491,13 +4491,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>24.881</v>
+        <v>24.8448</v>
       </c>
       <c r="C12" t="n">
-        <v>42.377</v>
+        <v>41.9828</v>
       </c>
       <c r="D12" t="n">
-        <v>52.8652</v>
+        <v>51.8472</v>
       </c>
     </row>
     <row r="13">
@@ -4505,13 +4505,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>26.9944</v>
+        <v>27.0838</v>
       </c>
       <c r="C13" t="n">
-        <v>41.0571</v>
+        <v>43.1921</v>
       </c>
       <c r="D13" t="n">
-        <v>53.483</v>
+        <v>53.0228</v>
       </c>
     </row>
     <row r="14">
@@ -4519,13 +4519,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>22.419</v>
+        <v>22.3042</v>
       </c>
       <c r="C14" t="n">
-        <v>43.9281</v>
+        <v>44.5471</v>
       </c>
       <c r="D14" t="n">
-        <v>51.5722</v>
+        <v>53.0825</v>
       </c>
     </row>
     <row r="15">
@@ -4533,13 +4533,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>24.1059</v>
+        <v>24.2676</v>
       </c>
       <c r="C15" t="n">
-        <v>43.5103</v>
+        <v>43.9893</v>
       </c>
       <c r="D15" t="n">
-        <v>52.1742</v>
+        <v>53.1487</v>
       </c>
     </row>
     <row r="16">
@@ -4547,13 +4547,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>25.3952</v>
+        <v>25.2998</v>
       </c>
       <c r="C16" t="n">
-        <v>43.8085</v>
+        <v>45.3411</v>
       </c>
       <c r="D16" t="n">
-        <v>52.714</v>
+        <v>54.3247</v>
       </c>
     </row>
     <row r="17">
@@ -4561,13 +4561,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>24.1594</v>
+        <v>24.3071</v>
       </c>
       <c r="C17" t="n">
-        <v>45.2204</v>
+        <v>45.4729</v>
       </c>
       <c r="D17" t="n">
-        <v>54.2852</v>
+        <v>56.0696</v>
       </c>
     </row>
   </sheetData>
@@ -4615,13 +4615,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>10.8857</v>
+        <v>10.9142</v>
       </c>
       <c r="C2" t="n">
-        <v>13.8067</v>
+        <v>13.9116</v>
       </c>
       <c r="D2" t="n">
-        <v>14.9761</v>
+        <v>15.5941</v>
       </c>
     </row>
     <row r="3">
@@ -4629,13 +4629,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>19.4631</v>
+        <v>19.4778</v>
       </c>
       <c r="C3" t="n">
-        <v>21.986</v>
+        <v>22.1436</v>
       </c>
       <c r="D3" t="n">
-        <v>23.9252</v>
+        <v>25.0932</v>
       </c>
     </row>
     <row r="4">
@@ -4643,13 +4643,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>26.7887</v>
+        <v>27.0421</v>
       </c>
       <c r="C4" t="n">
-        <v>29.0003</v>
+        <v>28.4251</v>
       </c>
       <c r="D4" t="n">
-        <v>31.5572</v>
+        <v>32.4011</v>
       </c>
     </row>
     <row r="5">
@@ -4657,13 +4657,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>23.7155</v>
+        <v>23.2023</v>
       </c>
       <c r="C5" t="n">
-        <v>30.881</v>
+        <v>30.9491</v>
       </c>
       <c r="D5" t="n">
-        <v>34.9162</v>
+        <v>35.1139</v>
       </c>
     </row>
     <row r="6">
@@ -4671,13 +4671,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>28.0171</v>
+        <v>28.0346</v>
       </c>
       <c r="C6" t="n">
-        <v>33.5894</v>
+        <v>34.0451</v>
       </c>
       <c r="D6" t="n">
-        <v>38.9777</v>
+        <v>35.9235</v>
       </c>
     </row>
     <row r="7">
@@ -4685,13 +4685,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>33.1279</v>
+        <v>33.1371</v>
       </c>
       <c r="C7" t="n">
-        <v>35.0268</v>
+        <v>35.399</v>
       </c>
       <c r="D7" t="n">
-        <v>45.1885</v>
+        <v>45.245</v>
       </c>
     </row>
     <row r="8">
@@ -4699,13 +4699,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>29.62</v>
+        <v>29.8004</v>
       </c>
       <c r="C8" t="n">
-        <v>34.8296</v>
+        <v>34.6885</v>
       </c>
       <c r="D8" t="n">
-        <v>44.8532</v>
+        <v>44.7651</v>
       </c>
     </row>
     <row r="9">
@@ -4713,13 +4713,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>30.5118</v>
+        <v>29.7369</v>
       </c>
       <c r="C9" t="n">
-        <v>38.8861</v>
+        <v>40.3567</v>
       </c>
       <c r="D9" t="n">
-        <v>49.8691</v>
+        <v>51.4533</v>
       </c>
     </row>
     <row r="10">
@@ -4727,13 +4727,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>30.6296</v>
+        <v>30.2734</v>
       </c>
       <c r="C10" t="n">
-        <v>42.5551</v>
+        <v>42.4741</v>
       </c>
       <c r="D10" t="n">
-        <v>52.1504</v>
+        <v>51.5938</v>
       </c>
     </row>
     <row r="11">
@@ -4741,13 +4741,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>30.5546</v>
+        <v>30.1939</v>
       </c>
       <c r="C11" t="n">
-        <v>44.245</v>
+        <v>43.5568</v>
       </c>
       <c r="D11" t="n">
-        <v>52.2215</v>
+        <v>52.2095</v>
       </c>
     </row>
     <row r="12">
@@ -4755,13 +4755,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>30.8184</v>
+        <v>30.8969</v>
       </c>
       <c r="C12" t="n">
-        <v>43.6758</v>
+        <v>44.3651</v>
       </c>
       <c r="D12" t="n">
-        <v>51.445</v>
+        <v>52.9893</v>
       </c>
     </row>
     <row r="13">
@@ -4769,13 +4769,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>30.3863</v>
+        <v>31.2578</v>
       </c>
       <c r="C13" t="n">
-        <v>42.4899</v>
+        <v>44.8098</v>
       </c>
       <c r="D13" t="n">
-        <v>52.0385</v>
+        <v>52.5847</v>
       </c>
     </row>
     <row r="14">
@@ -4783,13 +4783,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>31.0005</v>
+        <v>31.5359</v>
       </c>
       <c r="C14" t="n">
-        <v>44.6117</v>
+        <v>44.491</v>
       </c>
       <c r="D14" t="n">
-        <v>52.8103</v>
+        <v>53.8548</v>
       </c>
     </row>
     <row r="15">
@@ -4797,13 +4797,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>31.2392</v>
+        <v>31.9402</v>
       </c>
       <c r="C15" t="n">
-        <v>44.6943</v>
+        <v>44.5694</v>
       </c>
       <c r="D15" t="n">
-        <v>52.8014</v>
+        <v>52.8372</v>
       </c>
     </row>
     <row r="16">
@@ -4811,13 +4811,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>31.2914</v>
+        <v>31.1225</v>
       </c>
       <c r="C16" t="n">
-        <v>45.4259</v>
+        <v>43.9452</v>
       </c>
       <c r="D16" t="n">
-        <v>52.2915</v>
+        <v>52.7225</v>
       </c>
     </row>
     <row r="17">
@@ -4825,13 +4825,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>31.6673</v>
+        <v>31.6003</v>
       </c>
       <c r="C17" t="n">
-        <v>44.7538</v>
+        <v>44.6833</v>
       </c>
       <c r="D17" t="n">
-        <v>52.3476</v>
+        <v>52.5437</v>
       </c>
     </row>
   </sheetData>
@@ -4879,13 +4879,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4.88409</v>
+        <v>4.90115</v>
       </c>
       <c r="C2" t="n">
-        <v>10.8452</v>
+        <v>10.8846</v>
       </c>
       <c r="D2" t="n">
-        <v>13.6144</v>
+        <v>14.0661</v>
       </c>
     </row>
     <row r="3">
@@ -4893,13 +4893,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.550890000000001</v>
+        <v>9.58034</v>
       </c>
       <c r="C3" t="n">
-        <v>20.7131</v>
+        <v>20.8472</v>
       </c>
       <c r="D3" t="n">
-        <v>25.9162</v>
+        <v>26.8659</v>
       </c>
     </row>
     <row r="4">
@@ -4907,13 +4907,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>13.7746</v>
+        <v>13.9225</v>
       </c>
       <c r="C4" t="n">
-        <v>29.7621</v>
+        <v>30.1529</v>
       </c>
       <c r="D4" t="n">
-        <v>37.3642</v>
+        <v>38.3126</v>
       </c>
     </row>
     <row r="5">
@@ -4921,13 +4921,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>15.7009</v>
+        <v>15.525</v>
       </c>
       <c r="C5" t="n">
-        <v>34.0084</v>
+        <v>33.5764</v>
       </c>
       <c r="D5" t="n">
-        <v>42.9231</v>
+        <v>44.2801</v>
       </c>
     </row>
     <row r="6">
@@ -4935,13 +4935,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>18.7627</v>
+        <v>18.869</v>
       </c>
       <c r="C6" t="n">
-        <v>41.0263</v>
+        <v>40.9301</v>
       </c>
       <c r="D6" t="n">
-        <v>51.6718</v>
+        <v>52.3859</v>
       </c>
     </row>
     <row r="7">
@@ -4949,13 +4949,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>22.0485</v>
+        <v>22.0688</v>
       </c>
       <c r="C7" t="n">
-        <v>47.5281</v>
+        <v>48.0571</v>
       </c>
       <c r="D7" t="n">
-        <v>61.0852</v>
+        <v>62.0935</v>
       </c>
     </row>
     <row r="8">
@@ -4963,13 +4963,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>20.0049</v>
+        <v>19.9692</v>
       </c>
       <c r="C8" t="n">
-        <v>42.6304</v>
+        <v>42.4825</v>
       </c>
       <c r="D8" t="n">
-        <v>53.9541</v>
+        <v>54.28</v>
       </c>
     </row>
     <row r="9">
@@ -4977,13 +4977,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>20.3945</v>
+        <v>20.5919</v>
       </c>
       <c r="C9" t="n">
-        <v>44.0366</v>
+        <v>42.2161</v>
       </c>
       <c r="D9" t="n">
-        <v>53.9308</v>
+        <v>53.396</v>
       </c>
     </row>
     <row r="10">
@@ -4991,13 +4991,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>20.6962</v>
+        <v>20.7834</v>
       </c>
       <c r="C10" t="n">
-        <v>43.9247</v>
+        <v>43.3399</v>
       </c>
       <c r="D10" t="n">
-        <v>52.8433</v>
+        <v>56.1949</v>
       </c>
     </row>
     <row r="11">
@@ -5005,13 +5005,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>21.1467</v>
+        <v>21.1846</v>
       </c>
       <c r="C11" t="n">
-        <v>43.2995</v>
+        <v>43.5445</v>
       </c>
       <c r="D11" t="n">
-        <v>55.7726</v>
+        <v>56.045</v>
       </c>
     </row>
     <row r="12">
@@ -5019,13 +5019,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>21.024</v>
+        <v>20.7975</v>
       </c>
       <c r="C12" t="n">
-        <v>45.0203</v>
+        <v>44.9689</v>
       </c>
       <c r="D12" t="n">
-        <v>55.5713</v>
+        <v>57.4627</v>
       </c>
     </row>
     <row r="13">
@@ -5033,13 +5033,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>21.1629</v>
+        <v>20.6764</v>
       </c>
       <c r="C13" t="n">
-        <v>44.0819</v>
+        <v>44.8194</v>
       </c>
       <c r="D13" t="n">
-        <v>56.0989</v>
+        <v>57.575</v>
       </c>
     </row>
     <row r="14">
@@ -5047,13 +5047,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>20.8165</v>
+        <v>21.0117</v>
       </c>
       <c r="C14" t="n">
-        <v>45.306</v>
+        <v>45.6648</v>
       </c>
       <c r="D14" t="n">
-        <v>58.3187</v>
+        <v>58.8587</v>
       </c>
     </row>
     <row r="15">
@@ -5061,13 +5061,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>20.744</v>
+        <v>20.9832</v>
       </c>
       <c r="C15" t="n">
-        <v>46.0905</v>
+        <v>44.9409</v>
       </c>
       <c r="D15" t="n">
-        <v>57.8035</v>
+        <v>57.5527</v>
       </c>
     </row>
     <row r="16">
@@ -5075,13 +5075,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>21.0958</v>
+        <v>20.6592</v>
       </c>
       <c r="C16" t="n">
-        <v>46.2207</v>
+        <v>45.6106</v>
       </c>
       <c r="D16" t="n">
-        <v>58.4845</v>
+        <v>59.3722</v>
       </c>
     </row>
     <row r="17">
@@ -5089,13 +5089,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>21.1085</v>
+        <v>21.184</v>
       </c>
       <c r="C17" t="n">
-        <v>44.7319</v>
+        <v>45.19</v>
       </c>
       <c r="D17" t="n">
-        <v>57.2878</v>
+        <v>58.0221</v>
       </c>
     </row>
   </sheetData>
@@ -5143,13 +5143,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4.96638</v>
+        <v>5.00495</v>
       </c>
       <c r="C2" t="n">
-        <v>10.8519</v>
+        <v>10.8842</v>
       </c>
       <c r="D2" t="n">
-        <v>13.7114</v>
+        <v>14.1217</v>
       </c>
     </row>
     <row r="3">
@@ -5157,13 +5157,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.770989999999999</v>
+        <v>9.833629999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>20.644</v>
+        <v>20.7207</v>
       </c>
       <c r="D3" t="n">
-        <v>25.9669</v>
+        <v>26.7661</v>
       </c>
     </row>
     <row r="4">
@@ -5171,13 +5171,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>14.1346</v>
+        <v>14.2558</v>
       </c>
       <c r="C4" t="n">
-        <v>29.7386</v>
+        <v>30.1543</v>
       </c>
       <c r="D4" t="n">
-        <v>37.6999</v>
+        <v>38.5208</v>
       </c>
     </row>
     <row r="5">
@@ -5185,13 +5185,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>15.861</v>
+        <v>15.7191</v>
       </c>
       <c r="C5" t="n">
-        <v>33.8043</v>
+        <v>33.1281</v>
       </c>
       <c r="D5" t="n">
-        <v>42.959</v>
+        <v>43.6609</v>
       </c>
     </row>
     <row r="6">
@@ -5199,13 +5199,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>19.1789</v>
+        <v>19.2062</v>
       </c>
       <c r="C6" t="n">
-        <v>39.6385</v>
+        <v>39.927</v>
       </c>
       <c r="D6" t="n">
-        <v>51.5822</v>
+        <v>51.9911</v>
       </c>
     </row>
     <row r="7">
@@ -5213,13 +5213,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>22.7154</v>
+        <v>22.7256</v>
       </c>
       <c r="C7" t="n">
-        <v>46.9892</v>
+        <v>47.6952</v>
       </c>
       <c r="D7" t="n">
-        <v>59.0282</v>
+        <v>61.8208</v>
       </c>
     </row>
     <row r="8">
@@ -5227,13 +5227,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>20.2299</v>
+        <v>20.3453</v>
       </c>
       <c r="C8" t="n">
-        <v>42.5338</v>
+        <v>43.1753</v>
       </c>
       <c r="D8" t="n">
-        <v>52.7622</v>
+        <v>55.2125</v>
       </c>
     </row>
     <row r="9">
@@ -5241,13 +5241,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>21.1477</v>
+        <v>21.3679</v>
       </c>
       <c r="C9" t="n">
-        <v>43.3507</v>
+        <v>43.0755</v>
       </c>
       <c r="D9" t="n">
-        <v>54.6105</v>
+        <v>53.0657</v>
       </c>
     </row>
     <row r="10">
@@ -5255,13 +5255,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>21.5272</v>
+        <v>21.6355</v>
       </c>
       <c r="C10" t="n">
-        <v>44.3923</v>
+        <v>43.7695</v>
       </c>
       <c r="D10" t="n">
-        <v>54.7184</v>
+        <v>55.2484</v>
       </c>
     </row>
     <row r="11">
@@ -5269,13 +5269,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>21.3797</v>
+        <v>21.4597</v>
       </c>
       <c r="C11" t="n">
-        <v>43.8648</v>
+        <v>43.7722</v>
       </c>
       <c r="D11" t="n">
-        <v>54.6152</v>
+        <v>57.8692</v>
       </c>
     </row>
     <row r="12">
@@ -5283,13 +5283,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>21.451</v>
+        <v>21.3634</v>
       </c>
       <c r="C12" t="n">
-        <v>43.2308</v>
+        <v>44.7144</v>
       </c>
       <c r="D12" t="n">
-        <v>55.6737</v>
+        <v>56.8091</v>
       </c>
     </row>
     <row r="13">
@@ -5297,13 +5297,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>21.4046</v>
+        <v>21.6145</v>
       </c>
       <c r="C13" t="n">
-        <v>44.4985</v>
+        <v>44.1424</v>
       </c>
       <c r="D13" t="n">
-        <v>55.7831</v>
+        <v>57.1272</v>
       </c>
     </row>
     <row r="14">
@@ -5311,13 +5311,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>21.6157</v>
+        <v>21.639</v>
       </c>
       <c r="C14" t="n">
-        <v>45.2374</v>
+        <v>44.3381</v>
       </c>
       <c r="D14" t="n">
-        <v>55.6529</v>
+        <v>56.9857</v>
       </c>
     </row>
     <row r="15">
@@ -5325,13 +5325,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>21.8011</v>
+        <v>21.8405</v>
       </c>
       <c r="C15" t="n">
-        <v>45.0142</v>
+        <v>45.3818</v>
       </c>
       <c r="D15" t="n">
-        <v>55.9933</v>
+        <v>57.7117</v>
       </c>
     </row>
     <row r="16">
@@ -5339,13 +5339,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>21.5768</v>
+        <v>21.7878</v>
       </c>
       <c r="C16" t="n">
-        <v>46.0812</v>
+        <v>45.7091</v>
       </c>
       <c r="D16" t="n">
-        <v>57.3494</v>
+        <v>58.6501</v>
       </c>
     </row>
     <row r="17">
@@ -5353,13 +5353,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>21.2401</v>
+        <v>21.6747</v>
       </c>
       <c r="C17" t="n">
-        <v>45.081</v>
+        <v>45.6753</v>
       </c>
       <c r="D17" t="n">
-        <v>58.4815</v>
+        <v>58.939</v>
       </c>
     </row>
   </sheetData>
@@ -5407,13 +5407,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.7408</v>
+        <v>8.73997</v>
       </c>
       <c r="C2" t="n">
-        <v>13.1342</v>
+        <v>13.1908</v>
       </c>
       <c r="D2" t="n">
-        <v>14.9031</v>
+        <v>15.4536</v>
       </c>
     </row>
     <row r="3">
@@ -5421,13 +5421,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>16.4439</v>
+        <v>16.4807</v>
       </c>
       <c r="C3" t="n">
-        <v>24.3399</v>
+        <v>24.5244</v>
       </c>
       <c r="D3" t="n">
-        <v>28.1109</v>
+        <v>29.0971</v>
       </c>
     </row>
     <row r="4">
@@ -5435,13 +5435,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>23.7706</v>
+        <v>23.5467</v>
       </c>
       <c r="C4" t="n">
-        <v>34.654</v>
+        <v>34.8016</v>
       </c>
       <c r="D4" t="n">
-        <v>39.895</v>
+        <v>41.5333</v>
       </c>
     </row>
     <row r="5">
@@ -5449,13 +5449,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>22.8694</v>
+        <v>22.7902</v>
       </c>
       <c r="C5" t="n">
-        <v>36.497</v>
+        <v>36.5349</v>
       </c>
       <c r="D5" t="n">
-        <v>45.3931</v>
+        <v>46.6538</v>
       </c>
     </row>
     <row r="6">
@@ -5463,13 +5463,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>26.3301</v>
+        <v>26.4649</v>
       </c>
       <c r="C6" t="n">
-        <v>42.7481</v>
+        <v>42.9698</v>
       </c>
       <c r="D6" t="n">
-        <v>54.5654</v>
+        <v>56.3822</v>
       </c>
     </row>
     <row r="7">
@@ -5477,13 +5477,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>31.9343</v>
+        <v>31.9179</v>
       </c>
       <c r="C7" t="n">
-        <v>50.6471</v>
+        <v>50.7802</v>
       </c>
       <c r="D7" t="n">
-        <v>63.2155</v>
+        <v>64.9406</v>
       </c>
     </row>
     <row r="8">
@@ -5491,13 +5491,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>29.0049</v>
+        <v>29.1715</v>
       </c>
       <c r="C8" t="n">
-        <v>47.254</v>
+        <v>47.7002</v>
       </c>
       <c r="D8" t="n">
-        <v>58.9375</v>
+        <v>60.0126</v>
       </c>
     </row>
     <row r="9">
@@ -5505,13 +5505,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>29.3912</v>
+        <v>30.129</v>
       </c>
       <c r="C9" t="n">
-        <v>46.8056</v>
+        <v>46.8781</v>
       </c>
       <c r="D9" t="n">
-        <v>59.3121</v>
+        <v>60.7389</v>
       </c>
     </row>
     <row r="10">
@@ -5519,13 +5519,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>30.0939</v>
+        <v>29.8748</v>
       </c>
       <c r="C10" t="n">
-        <v>47.5558</v>
+        <v>48.5709</v>
       </c>
       <c r="D10" t="n">
-        <v>59.4561</v>
+        <v>62.1337</v>
       </c>
     </row>
     <row r="11">
@@ -5533,13 +5533,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>30.1751</v>
+        <v>30.512</v>
       </c>
       <c r="C11" t="n">
-        <v>47.8963</v>
+        <v>47.519</v>
       </c>
       <c r="D11" t="n">
-        <v>60.7306</v>
+        <v>61.287</v>
       </c>
     </row>
     <row r="12">
@@ -5547,13 +5547,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>30.1344</v>
+        <v>30.284</v>
       </c>
       <c r="C12" t="n">
-        <v>48.1696</v>
+        <v>49.0297</v>
       </c>
       <c r="D12" t="n">
-        <v>60.4985</v>
+        <v>61.0415</v>
       </c>
     </row>
     <row r="13">
@@ -5561,13 +5561,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>30.3604</v>
+        <v>30.2497</v>
       </c>
       <c r="C13" t="n">
-        <v>47.2648</v>
+        <v>47.6683</v>
       </c>
       <c r="D13" t="n">
-        <v>59.8377</v>
+        <v>62.8449</v>
       </c>
     </row>
     <row r="14">
@@ -5575,13 +5575,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>30.4381</v>
+        <v>30.3664</v>
       </c>
       <c r="C14" t="n">
-        <v>47.9831</v>
+        <v>48.4489</v>
       </c>
       <c r="D14" t="n">
-        <v>60.6544</v>
+        <v>63.4221</v>
       </c>
     </row>
     <row r="15">
@@ -5589,13 +5589,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>30.6246</v>
+        <v>30.1618</v>
       </c>
       <c r="C15" t="n">
-        <v>48.9671</v>
+        <v>48.7662</v>
       </c>
       <c r="D15" t="n">
-        <v>60.8598</v>
+        <v>62.4362</v>
       </c>
     </row>
     <row r="16">
@@ -5603,13 +5603,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>30.8769</v>
+        <v>30.364</v>
       </c>
       <c r="C16" t="n">
-        <v>48.7922</v>
+        <v>48.6953</v>
       </c>
       <c r="D16" t="n">
-        <v>61.1778</v>
+        <v>63.7713</v>
       </c>
     </row>
     <row r="17">
@@ -5617,13 +5617,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>30.674</v>
+        <v>30.9286</v>
       </c>
       <c r="C17" t="n">
-        <v>48.9321</v>
+        <v>48.4913</v>
       </c>
       <c r="D17" t="n">
-        <v>61.8716</v>
+        <v>63.043</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Parallel workload.xlsx
+++ b/vs-x86/Parallel workload.xlsx
@@ -4087,13 +4087,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>9.339969999999999</v>
+        <v>9.38162</v>
       </c>
       <c r="C2" t="n">
-        <v>13.1219</v>
+        <v>13.2014</v>
       </c>
       <c r="D2" t="n">
-        <v>15.1707</v>
+        <v>14.5178</v>
       </c>
     </row>
     <row r="3">
@@ -4101,13 +4101,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>17.3643</v>
+        <v>17.3531</v>
       </c>
       <c r="C3" t="n">
-        <v>22.0089</v>
+        <v>21.5822</v>
       </c>
       <c r="D3" t="n">
-        <v>24.3021</v>
+        <v>22.8085</v>
       </c>
     </row>
     <row r="4">
@@ -4115,13 +4115,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>23.7607</v>
+        <v>24.3608</v>
       </c>
       <c r="C4" t="n">
-        <v>26.8884</v>
+        <v>27.3261</v>
       </c>
       <c r="D4" t="n">
-        <v>31.6011</v>
+        <v>31.8685</v>
       </c>
     </row>
     <row r="5">
@@ -4129,13 +4129,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>19.0273</v>
+        <v>19.1904</v>
       </c>
       <c r="C5" t="n">
-        <v>30.2004</v>
+        <v>30.5092</v>
       </c>
       <c r="D5" t="n">
-        <v>32.7438</v>
+        <v>31.9474</v>
       </c>
     </row>
     <row r="6">
@@ -4143,13 +4143,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>22.5673</v>
+        <v>22.6216</v>
       </c>
       <c r="C6" t="n">
-        <v>31.5524</v>
+        <v>31.5119</v>
       </c>
       <c r="D6" t="n">
-        <v>39.4524</v>
+        <v>39.41</v>
       </c>
     </row>
     <row r="7">
@@ -4157,13 +4157,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>26.4984</v>
+        <v>26.4242</v>
       </c>
       <c r="C7" t="n">
-        <v>36.079</v>
+        <v>39.4004</v>
       </c>
       <c r="D7" t="n">
-        <v>39.4713</v>
+        <v>39.4862</v>
       </c>
     </row>
     <row r="8">
@@ -4171,13 +4171,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>19.9719</v>
+        <v>20.2869</v>
       </c>
       <c r="C8" t="n">
-        <v>36.8991</v>
+        <v>36.3558</v>
       </c>
       <c r="D8" t="n">
-        <v>40.371</v>
+        <v>39.9566</v>
       </c>
     </row>
     <row r="9">
@@ -4185,13 +4185,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>22.4905</v>
+        <v>22.4252</v>
       </c>
       <c r="C9" t="n">
-        <v>39.127</v>
+        <v>41.0263</v>
       </c>
       <c r="D9" t="n">
-        <v>45.4603</v>
+        <v>45.6478</v>
       </c>
     </row>
     <row r="10">
@@ -4199,13 +4199,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>24.5994</v>
+        <v>24.4539</v>
       </c>
       <c r="C10" t="n">
-        <v>40.3091</v>
+        <v>39.7781</v>
       </c>
       <c r="D10" t="n">
-        <v>46.8682</v>
+        <v>47.0454</v>
       </c>
     </row>
     <row r="11">
@@ -4213,13 +4213,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>22.6549</v>
+        <v>22.4781</v>
       </c>
       <c r="C11" t="n">
-        <v>44.3023</v>
+        <v>42.8346</v>
       </c>
       <c r="D11" t="n">
-        <v>50.6647</v>
+        <v>50.21</v>
       </c>
     </row>
     <row r="12">
@@ -4227,13 +4227,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>24.3229</v>
+        <v>24.3985</v>
       </c>
       <c r="C12" t="n">
-        <v>45.4102</v>
+        <v>44.5478</v>
       </c>
       <c r="D12" t="n">
-        <v>52.393</v>
+        <v>52.385</v>
       </c>
     </row>
     <row r="13">
@@ -4241,13 +4241,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>26.4695</v>
+        <v>26.471</v>
       </c>
       <c r="C13" t="n">
-        <v>43.8362</v>
+        <v>44.932</v>
       </c>
       <c r="D13" t="n">
-        <v>51.4788</v>
+        <v>51.182</v>
       </c>
     </row>
     <row r="14">
@@ -4255,13 +4255,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>22.261</v>
+        <v>22.2572</v>
       </c>
       <c r="C14" t="n">
-        <v>43.3451</v>
+        <v>43.9748</v>
       </c>
       <c r="D14" t="n">
-        <v>52.0374</v>
+        <v>51.5768</v>
       </c>
     </row>
     <row r="15">
@@ -4269,13 +4269,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>23.8136</v>
+        <v>23.7726</v>
       </c>
       <c r="C15" t="n">
-        <v>43.8077</v>
+        <v>44.9238</v>
       </c>
       <c r="D15" t="n">
-        <v>54.1044</v>
+        <v>52.5616</v>
       </c>
     </row>
     <row r="16">
@@ -4283,13 +4283,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>24.8089</v>
+        <v>24.7353</v>
       </c>
       <c r="C16" t="n">
-        <v>45.0079</v>
+        <v>45.4728</v>
       </c>
       <c r="D16" t="n">
-        <v>54.8992</v>
+        <v>52.4847</v>
       </c>
     </row>
     <row r="17">
@@ -4297,13 +4297,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>23.7093</v>
+        <v>23.5536</v>
       </c>
       <c r="C17" t="n">
-        <v>44.7911</v>
+        <v>45.1533</v>
       </c>
       <c r="D17" t="n">
-        <v>53.4832</v>
+        <v>53.1632</v>
       </c>
     </row>
   </sheetData>
@@ -4351,13 +4351,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>9.359389999999999</v>
+        <v>9.4018</v>
       </c>
       <c r="C2" t="n">
-        <v>13.0597</v>
+        <v>13.0785</v>
       </c>
       <c r="D2" t="n">
-        <v>15.2982</v>
+        <v>14.4224</v>
       </c>
     </row>
     <row r="3">
@@ -4365,13 +4365,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>17.4356</v>
+        <v>17.3539</v>
       </c>
       <c r="C3" t="n">
-        <v>20.9524</v>
+        <v>21.3498</v>
       </c>
       <c r="D3" t="n">
-        <v>23.8001</v>
+        <v>24.059</v>
       </c>
     </row>
     <row r="4">
@@ -4379,13 +4379,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>24.1751</v>
+        <v>23.7991</v>
       </c>
       <c r="C4" t="n">
-        <v>26.3003</v>
+        <v>26.6229</v>
       </c>
       <c r="D4" t="n">
-        <v>30.5204</v>
+        <v>29.8434</v>
       </c>
     </row>
     <row r="5">
@@ -4393,13 +4393,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>19.354</v>
+        <v>19.0343</v>
       </c>
       <c r="C5" t="n">
-        <v>28.1873</v>
+        <v>28.7099</v>
       </c>
       <c r="D5" t="n">
-        <v>35.2269</v>
+        <v>35.239</v>
       </c>
     </row>
     <row r="6">
@@ -4407,13 +4407,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>23.037</v>
+        <v>22.9261</v>
       </c>
       <c r="C6" t="n">
-        <v>34.8829</v>
+        <v>34.9384</v>
       </c>
       <c r="D6" t="n">
-        <v>39.3277</v>
+        <v>35.6235</v>
       </c>
     </row>
     <row r="7">
@@ -4421,13 +4421,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>27.1034</v>
+        <v>27.0941</v>
       </c>
       <c r="C7" t="n">
-        <v>35.2073</v>
+        <v>35.0286</v>
       </c>
       <c r="D7" t="n">
-        <v>44.9825</v>
+        <v>45.0199</v>
       </c>
     </row>
     <row r="8">
@@ -4435,13 +4435,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>20.169</v>
+        <v>20.152</v>
       </c>
       <c r="C8" t="n">
-        <v>33.9414</v>
+        <v>34.7011</v>
       </c>
       <c r="D8" t="n">
-        <v>43.1853</v>
+        <v>43.338</v>
       </c>
     </row>
     <row r="9">
@@ -4449,13 +4449,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>22.7992</v>
+        <v>22.8306</v>
       </c>
       <c r="C9" t="n">
-        <v>37.6899</v>
+        <v>37.9411</v>
       </c>
       <c r="D9" t="n">
-        <v>46.6889</v>
+        <v>44.7583</v>
       </c>
     </row>
     <row r="10">
@@ -4463,13 +4463,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>25.0608</v>
+        <v>24.8516</v>
       </c>
       <c r="C10" t="n">
-        <v>37.2013</v>
+        <v>38.327</v>
       </c>
       <c r="D10" t="n">
-        <v>45.7632</v>
+        <v>46.7265</v>
       </c>
     </row>
     <row r="11">
@@ -4477,13 +4477,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>22.7416</v>
+        <v>22.9442</v>
       </c>
       <c r="C11" t="n">
-        <v>38.5019</v>
+        <v>40.022</v>
       </c>
       <c r="D11" t="n">
-        <v>52.5911</v>
+        <v>49.7766</v>
       </c>
     </row>
     <row r="12">
@@ -4491,13 +4491,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>24.8448</v>
+        <v>24.885</v>
       </c>
       <c r="C12" t="n">
-        <v>41.9828</v>
+        <v>41.0507</v>
       </c>
       <c r="D12" t="n">
-        <v>51.8472</v>
+        <v>52.5391</v>
       </c>
     </row>
     <row r="13">
@@ -4505,13 +4505,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>27.0838</v>
+        <v>27.0338</v>
       </c>
       <c r="C13" t="n">
-        <v>43.1921</v>
+        <v>42.676</v>
       </c>
       <c r="D13" t="n">
-        <v>53.0228</v>
+        <v>51.3589</v>
       </c>
     </row>
     <row r="14">
@@ -4519,13 +4519,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>22.3042</v>
+        <v>22.2871</v>
       </c>
       <c r="C14" t="n">
-        <v>44.5471</v>
+        <v>44.3146</v>
       </c>
       <c r="D14" t="n">
-        <v>53.0825</v>
+        <v>52.3026</v>
       </c>
     </row>
     <row r="15">
@@ -4533,13 +4533,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>24.2676</v>
+        <v>24.1325</v>
       </c>
       <c r="C15" t="n">
-        <v>43.9893</v>
+        <v>42.9681</v>
       </c>
       <c r="D15" t="n">
-        <v>53.1487</v>
+        <v>52.2191</v>
       </c>
     </row>
     <row r="16">
@@ -4547,13 +4547,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>25.2998</v>
+        <v>25.6875</v>
       </c>
       <c r="C16" t="n">
-        <v>45.3411</v>
+        <v>43.7238</v>
       </c>
       <c r="D16" t="n">
-        <v>54.3247</v>
+        <v>52.5685</v>
       </c>
     </row>
     <row r="17">
@@ -4561,13 +4561,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>24.3071</v>
+        <v>24.1134</v>
       </c>
       <c r="C17" t="n">
-        <v>45.4729</v>
+        <v>45.0859</v>
       </c>
       <c r="D17" t="n">
-        <v>56.0696</v>
+        <v>52.5182</v>
       </c>
     </row>
   </sheetData>
@@ -4615,13 +4615,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>10.9142</v>
+        <v>10.9788</v>
       </c>
       <c r="C2" t="n">
-        <v>13.9116</v>
+        <v>13.9043</v>
       </c>
       <c r="D2" t="n">
-        <v>15.5941</v>
+        <v>14.8273</v>
       </c>
     </row>
     <row r="3">
@@ -4629,13 +4629,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>19.4778</v>
+        <v>19.4886</v>
       </c>
       <c r="C3" t="n">
-        <v>22.1436</v>
+        <v>22.8829</v>
       </c>
       <c r="D3" t="n">
-        <v>25.0932</v>
+        <v>24.5408</v>
       </c>
     </row>
     <row r="4">
@@ -4643,13 +4643,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>27.0421</v>
+        <v>27.219</v>
       </c>
       <c r="C4" t="n">
-        <v>28.4251</v>
+        <v>31.0013</v>
       </c>
       <c r="D4" t="n">
-        <v>32.4011</v>
+        <v>31.8811</v>
       </c>
     </row>
     <row r="5">
@@ -4657,13 +4657,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>23.2023</v>
+        <v>23.1561</v>
       </c>
       <c r="C5" t="n">
-        <v>30.9491</v>
+        <v>31.5576</v>
       </c>
       <c r="D5" t="n">
-        <v>35.1139</v>
+        <v>35.4615</v>
       </c>
     </row>
     <row r="6">
@@ -4671,13 +4671,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>28.0346</v>
+        <v>28.0013</v>
       </c>
       <c r="C6" t="n">
-        <v>34.0451</v>
+        <v>34.9093</v>
       </c>
       <c r="D6" t="n">
-        <v>35.9235</v>
+        <v>36.8808</v>
       </c>
     </row>
     <row r="7">
@@ -4685,13 +4685,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>33.1371</v>
+        <v>33.1784</v>
       </c>
       <c r="C7" t="n">
-        <v>35.399</v>
+        <v>35.2854</v>
       </c>
       <c r="D7" t="n">
-        <v>45.245</v>
+        <v>52.2975</v>
       </c>
     </row>
     <row r="8">
@@ -4699,13 +4699,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>29.8004</v>
+        <v>30.3931</v>
       </c>
       <c r="C8" t="n">
-        <v>34.6885</v>
+        <v>36.0839</v>
       </c>
       <c r="D8" t="n">
-        <v>44.7651</v>
+        <v>45.6067</v>
       </c>
     </row>
     <row r="9">
@@ -4713,13 +4713,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>29.7369</v>
+        <v>29.7143</v>
       </c>
       <c r="C9" t="n">
-        <v>40.3567</v>
+        <v>41.2474</v>
       </c>
       <c r="D9" t="n">
-        <v>51.4533</v>
+        <v>49.2307</v>
       </c>
     </row>
     <row r="10">
@@ -4727,13 +4727,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>30.2734</v>
+        <v>30.7684</v>
       </c>
       <c r="C10" t="n">
-        <v>42.4741</v>
+        <v>40.4491</v>
       </c>
       <c r="D10" t="n">
-        <v>51.5938</v>
+        <v>49.9439</v>
       </c>
     </row>
     <row r="11">
@@ -4741,13 +4741,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>30.1939</v>
+        <v>30.8523</v>
       </c>
       <c r="C11" t="n">
-        <v>43.5568</v>
+        <v>42.2627</v>
       </c>
       <c r="D11" t="n">
-        <v>52.2095</v>
+        <v>51.8513</v>
       </c>
     </row>
     <row r="12">
@@ -4755,13 +4755,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>30.8969</v>
+        <v>30.6429</v>
       </c>
       <c r="C12" t="n">
-        <v>44.3651</v>
+        <v>44.0903</v>
       </c>
       <c r="D12" t="n">
-        <v>52.9893</v>
+        <v>51.5993</v>
       </c>
     </row>
     <row r="13">
@@ -4769,13 +4769,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>31.2578</v>
+        <v>30.8499</v>
       </c>
       <c r="C13" t="n">
-        <v>44.8098</v>
+        <v>43.4067</v>
       </c>
       <c r="D13" t="n">
-        <v>52.5847</v>
+        <v>50.7792</v>
       </c>
     </row>
     <row r="14">
@@ -4783,13 +4783,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>31.5359</v>
+        <v>31.5722</v>
       </c>
       <c r="C14" t="n">
-        <v>44.491</v>
+        <v>44.8713</v>
       </c>
       <c r="D14" t="n">
-        <v>53.8548</v>
+        <v>51.2953</v>
       </c>
     </row>
     <row r="15">
@@ -4797,13 +4797,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>31.9402</v>
+        <v>31.2895</v>
       </c>
       <c r="C15" t="n">
-        <v>44.5694</v>
+        <v>44.878</v>
       </c>
       <c r="D15" t="n">
-        <v>52.8372</v>
+        <v>51.7855</v>
       </c>
     </row>
     <row r="16">
@@ -4811,13 +4811,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>31.1225</v>
+        <v>31.4556</v>
       </c>
       <c r="C16" t="n">
-        <v>43.9452</v>
+        <v>44.7099</v>
       </c>
       <c r="D16" t="n">
-        <v>52.7225</v>
+        <v>52.3467</v>
       </c>
     </row>
     <row r="17">
@@ -4825,13 +4825,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>31.6003</v>
+        <v>31.1393</v>
       </c>
       <c r="C17" t="n">
-        <v>44.6833</v>
+        <v>44.2263</v>
       </c>
       <c r="D17" t="n">
-        <v>52.5437</v>
+        <v>52.779</v>
       </c>
     </row>
   </sheetData>
@@ -4879,13 +4879,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4.90115</v>
+        <v>4.91316</v>
       </c>
       <c r="C2" t="n">
-        <v>10.8846</v>
+        <v>10.8926</v>
       </c>
       <c r="D2" t="n">
-        <v>14.0661</v>
+        <v>13.5328</v>
       </c>
     </row>
     <row r="3">
@@ -4893,13 +4893,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.58034</v>
+        <v>9.64601</v>
       </c>
       <c r="C3" t="n">
-        <v>20.8472</v>
+        <v>20.9249</v>
       </c>
       <c r="D3" t="n">
-        <v>26.8659</v>
+        <v>25.7486</v>
       </c>
     </row>
     <row r="4">
@@ -4907,13 +4907,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>13.9225</v>
+        <v>13.897</v>
       </c>
       <c r="C4" t="n">
-        <v>30.1529</v>
+        <v>29.9112</v>
       </c>
       <c r="D4" t="n">
-        <v>38.3126</v>
+        <v>37.0597</v>
       </c>
     </row>
     <row r="5">
@@ -4921,13 +4921,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>15.525</v>
+        <v>15.5743</v>
       </c>
       <c r="C5" t="n">
-        <v>33.5764</v>
+        <v>33.7853</v>
       </c>
       <c r="D5" t="n">
-        <v>44.2801</v>
+        <v>43.192</v>
       </c>
     </row>
     <row r="6">
@@ -4935,13 +4935,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>18.869</v>
+        <v>18.8569</v>
       </c>
       <c r="C6" t="n">
-        <v>40.9301</v>
+        <v>41.29</v>
       </c>
       <c r="D6" t="n">
-        <v>52.3859</v>
+        <v>51.2424</v>
       </c>
     </row>
     <row r="7">
@@ -4949,13 +4949,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>22.0688</v>
+        <v>22.0808</v>
       </c>
       <c r="C7" t="n">
-        <v>48.0571</v>
+        <v>48.0053</v>
       </c>
       <c r="D7" t="n">
-        <v>62.0935</v>
+        <v>60.957</v>
       </c>
     </row>
     <row r="8">
@@ -4963,13 +4963,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>19.9692</v>
+        <v>19.8252</v>
       </c>
       <c r="C8" t="n">
-        <v>42.4825</v>
+        <v>43.6127</v>
       </c>
       <c r="D8" t="n">
-        <v>54.28</v>
+        <v>54.3757</v>
       </c>
     </row>
     <row r="9">
@@ -4977,13 +4977,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>20.5919</v>
+        <v>20.4579</v>
       </c>
       <c r="C9" t="n">
-        <v>42.2161</v>
+        <v>43.6896</v>
       </c>
       <c r="D9" t="n">
-        <v>53.396</v>
+        <v>53.2338</v>
       </c>
     </row>
     <row r="10">
@@ -4991,13 +4991,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>20.7834</v>
+        <v>20.7311</v>
       </c>
       <c r="C10" t="n">
-        <v>43.3399</v>
+        <v>42.8206</v>
       </c>
       <c r="D10" t="n">
-        <v>56.1949</v>
+        <v>53.5386</v>
       </c>
     </row>
     <row r="11">
@@ -5005,13 +5005,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>21.1846</v>
+        <v>20.7385</v>
       </c>
       <c r="C11" t="n">
-        <v>43.5445</v>
+        <v>43.6412</v>
       </c>
       <c r="D11" t="n">
-        <v>56.045</v>
+        <v>55.7155</v>
       </c>
     </row>
     <row r="12">
@@ -5019,13 +5019,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>20.7975</v>
+        <v>20.7799</v>
       </c>
       <c r="C12" t="n">
-        <v>44.9689</v>
+        <v>43.5895</v>
       </c>
       <c r="D12" t="n">
-        <v>57.4627</v>
+        <v>56.375</v>
       </c>
     </row>
     <row r="13">
@@ -5033,13 +5033,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>20.6764</v>
+        <v>21.1506</v>
       </c>
       <c r="C13" t="n">
-        <v>44.8194</v>
+        <v>45.0099</v>
       </c>
       <c r="D13" t="n">
-        <v>57.575</v>
+        <v>55.958</v>
       </c>
     </row>
     <row r="14">
@@ -5047,13 +5047,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>21.0117</v>
+        <v>21.3098</v>
       </c>
       <c r="C14" t="n">
-        <v>45.6648</v>
+        <v>44.8385</v>
       </c>
       <c r="D14" t="n">
-        <v>58.8587</v>
+        <v>57.0106</v>
       </c>
     </row>
     <row r="15">
@@ -5061,13 +5061,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>20.9832</v>
+        <v>20.7622</v>
       </c>
       <c r="C15" t="n">
-        <v>44.9409</v>
+        <v>45.6206</v>
       </c>
       <c r="D15" t="n">
-        <v>57.5527</v>
+        <v>57.8489</v>
       </c>
     </row>
     <row r="16">
@@ -5075,13 +5075,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>20.6592</v>
+        <v>21.0098</v>
       </c>
       <c r="C16" t="n">
-        <v>45.6106</v>
+        <v>44.999</v>
       </c>
       <c r="D16" t="n">
-        <v>59.3722</v>
+        <v>57.5853</v>
       </c>
     </row>
     <row r="17">
@@ -5089,13 +5089,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>21.184</v>
+        <v>20.9625</v>
       </c>
       <c r="C17" t="n">
-        <v>45.19</v>
+        <v>45.6828</v>
       </c>
       <c r="D17" t="n">
-        <v>58.0221</v>
+        <v>57.9547</v>
       </c>
     </row>
   </sheetData>
@@ -5143,13 +5143,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>5.00495</v>
+        <v>5.01092</v>
       </c>
       <c r="C2" t="n">
-        <v>10.8842</v>
+        <v>10.9041</v>
       </c>
       <c r="D2" t="n">
-        <v>14.1217</v>
+        <v>13.5733</v>
       </c>
     </row>
     <row r="3">
@@ -5157,13 +5157,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.833629999999999</v>
+        <v>9.856009999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>20.7207</v>
+        <v>20.9405</v>
       </c>
       <c r="D3" t="n">
-        <v>26.7661</v>
+        <v>25.8736</v>
       </c>
     </row>
     <row r="4">
@@ -5171,13 +5171,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>14.2558</v>
+        <v>14.2492</v>
       </c>
       <c r="C4" t="n">
-        <v>30.1543</v>
+        <v>30.0848</v>
       </c>
       <c r="D4" t="n">
-        <v>38.5208</v>
+        <v>37.2517</v>
       </c>
     </row>
     <row r="5">
@@ -5185,13 +5185,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>15.7191</v>
+        <v>16.0143</v>
       </c>
       <c r="C5" t="n">
-        <v>33.1281</v>
+        <v>33.3659</v>
       </c>
       <c r="D5" t="n">
-        <v>43.6609</v>
+        <v>42.663</v>
       </c>
     </row>
     <row r="6">
@@ -5199,13 +5199,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>19.2062</v>
+        <v>19.287</v>
       </c>
       <c r="C6" t="n">
-        <v>39.927</v>
+        <v>40.2726</v>
       </c>
       <c r="D6" t="n">
-        <v>51.9911</v>
+        <v>51.3899</v>
       </c>
     </row>
     <row r="7">
@@ -5213,13 +5213,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>22.7256</v>
+        <v>22.7461</v>
       </c>
       <c r="C7" t="n">
-        <v>47.6952</v>
+        <v>47.7338</v>
       </c>
       <c r="D7" t="n">
-        <v>61.8208</v>
+        <v>59.0423</v>
       </c>
     </row>
     <row r="8">
@@ -5227,13 +5227,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>20.3453</v>
+        <v>20.5266</v>
       </c>
       <c r="C8" t="n">
-        <v>43.1753</v>
+        <v>43.1166</v>
       </c>
       <c r="D8" t="n">
-        <v>55.2125</v>
+        <v>53.2655</v>
       </c>
     </row>
     <row r="9">
@@ -5241,13 +5241,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>21.3679</v>
+        <v>21.2641</v>
       </c>
       <c r="C9" t="n">
-        <v>43.0755</v>
+        <v>42.3689</v>
       </c>
       <c r="D9" t="n">
-        <v>53.0657</v>
+        <v>51.9085</v>
       </c>
     </row>
     <row r="10">
@@ -5255,13 +5255,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>21.6355</v>
+        <v>21.4516</v>
       </c>
       <c r="C10" t="n">
-        <v>43.7695</v>
+        <v>43.2584</v>
       </c>
       <c r="D10" t="n">
-        <v>55.2484</v>
+        <v>54.5411</v>
       </c>
     </row>
     <row r="11">
@@ -5269,13 +5269,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>21.4597</v>
+        <v>21.5442</v>
       </c>
       <c r="C11" t="n">
-        <v>43.7722</v>
+        <v>43.3766</v>
       </c>
       <c r="D11" t="n">
-        <v>57.8692</v>
+        <v>54.6818</v>
       </c>
     </row>
     <row r="12">
@@ -5283,13 +5283,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>21.3634</v>
+        <v>21.3786</v>
       </c>
       <c r="C12" t="n">
-        <v>44.7144</v>
+        <v>44.2749</v>
       </c>
       <c r="D12" t="n">
-        <v>56.8091</v>
+        <v>54.7888</v>
       </c>
     </row>
     <row r="13">
@@ -5297,13 +5297,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>21.6145</v>
+        <v>21.7185</v>
       </c>
       <c r="C13" t="n">
-        <v>44.1424</v>
+        <v>45.0951</v>
       </c>
       <c r="D13" t="n">
-        <v>57.1272</v>
+        <v>56.9042</v>
       </c>
     </row>
     <row r="14">
@@ -5311,13 +5311,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>21.639</v>
+        <v>21.5653</v>
       </c>
       <c r="C14" t="n">
-        <v>44.3381</v>
+        <v>45.2462</v>
       </c>
       <c r="D14" t="n">
-        <v>56.9857</v>
+        <v>56.9434</v>
       </c>
     </row>
     <row r="15">
@@ -5325,13 +5325,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>21.8405</v>
+        <v>21.5967</v>
       </c>
       <c r="C15" t="n">
-        <v>45.3818</v>
+        <v>45.0216</v>
       </c>
       <c r="D15" t="n">
-        <v>57.7117</v>
+        <v>56.0468</v>
       </c>
     </row>
     <row r="16">
@@ -5339,13 +5339,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>21.7878</v>
+        <v>21.6982</v>
       </c>
       <c r="C16" t="n">
-        <v>45.7091</v>
+        <v>44.4151</v>
       </c>
       <c r="D16" t="n">
-        <v>58.6501</v>
+        <v>56.5928</v>
       </c>
     </row>
     <row r="17">
@@ -5353,13 +5353,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>21.6747</v>
+        <v>21.8879</v>
       </c>
       <c r="C17" t="n">
-        <v>45.6753</v>
+        <v>45.7558</v>
       </c>
       <c r="D17" t="n">
-        <v>58.939</v>
+        <v>57.4849</v>
       </c>
     </row>
   </sheetData>
@@ -5407,13 +5407,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.73997</v>
+        <v>8.786799999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>13.1908</v>
+        <v>13.2</v>
       </c>
       <c r="D2" t="n">
-        <v>15.4536</v>
+        <v>14.7114</v>
       </c>
     </row>
     <row r="3">
@@ -5421,13 +5421,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>16.4807</v>
+        <v>16.5847</v>
       </c>
       <c r="C3" t="n">
-        <v>24.5244</v>
+        <v>24.4785</v>
       </c>
       <c r="D3" t="n">
-        <v>29.0971</v>
+        <v>27.8277</v>
       </c>
     </row>
     <row r="4">
@@ -5435,13 +5435,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>23.5467</v>
+        <v>23.7268</v>
       </c>
       <c r="C4" t="n">
-        <v>34.8016</v>
+        <v>34.6168</v>
       </c>
       <c r="D4" t="n">
-        <v>41.5333</v>
+        <v>39.8585</v>
       </c>
     </row>
     <row r="5">
@@ -5449,13 +5449,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>22.7902</v>
+        <v>22.4502</v>
       </c>
       <c r="C5" t="n">
-        <v>36.5349</v>
+        <v>36.7484</v>
       </c>
       <c r="D5" t="n">
-        <v>46.6538</v>
+        <v>45.5512</v>
       </c>
     </row>
     <row r="6">
@@ -5463,13 +5463,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>26.4649</v>
+        <v>26.4297</v>
       </c>
       <c r="C6" t="n">
-        <v>42.9698</v>
+        <v>42.8964</v>
       </c>
       <c r="D6" t="n">
-        <v>56.3822</v>
+        <v>54.0818</v>
       </c>
     </row>
     <row r="7">
@@ -5477,13 +5477,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>31.9179</v>
+        <v>31.8897</v>
       </c>
       <c r="C7" t="n">
-        <v>50.7802</v>
+        <v>50.4837</v>
       </c>
       <c r="D7" t="n">
-        <v>64.9406</v>
+        <v>63.1395</v>
       </c>
     </row>
     <row r="8">
@@ -5491,13 +5491,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>29.1715</v>
+        <v>29.3021</v>
       </c>
       <c r="C8" t="n">
-        <v>47.7002</v>
+        <v>47.0357</v>
       </c>
       <c r="D8" t="n">
-        <v>60.0126</v>
+        <v>59.2473</v>
       </c>
     </row>
     <row r="9">
@@ -5505,13 +5505,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>30.129</v>
+        <v>30.0762</v>
       </c>
       <c r="C9" t="n">
-        <v>46.8781</v>
+        <v>46.8192</v>
       </c>
       <c r="D9" t="n">
-        <v>60.7389</v>
+        <v>59.095</v>
       </c>
     </row>
     <row r="10">
@@ -5519,13 +5519,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>29.8748</v>
+        <v>30.1864</v>
       </c>
       <c r="C10" t="n">
-        <v>48.5709</v>
+        <v>47.8003</v>
       </c>
       <c r="D10" t="n">
-        <v>62.1337</v>
+        <v>60.3696</v>
       </c>
     </row>
     <row r="11">
@@ -5533,13 +5533,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>30.512</v>
+        <v>30.4739</v>
       </c>
       <c r="C11" t="n">
-        <v>47.519</v>
+        <v>46.9401</v>
       </c>
       <c r="D11" t="n">
-        <v>61.287</v>
+        <v>60.4188</v>
       </c>
     </row>
     <row r="12">
@@ -5547,13 +5547,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>30.284</v>
+        <v>30.0771</v>
       </c>
       <c r="C12" t="n">
-        <v>49.0297</v>
+        <v>48.1052</v>
       </c>
       <c r="D12" t="n">
-        <v>61.0415</v>
+        <v>59.6654</v>
       </c>
     </row>
     <row r="13">
@@ -5561,13 +5561,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>30.2497</v>
+        <v>30.1345</v>
       </c>
       <c r="C13" t="n">
-        <v>47.6683</v>
+        <v>48.2176</v>
       </c>
       <c r="D13" t="n">
-        <v>62.8449</v>
+        <v>60.8162</v>
       </c>
     </row>
     <row r="14">
@@ -5575,13 +5575,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>30.3664</v>
+        <v>30.8313</v>
       </c>
       <c r="C14" t="n">
-        <v>48.4489</v>
+        <v>48.22</v>
       </c>
       <c r="D14" t="n">
-        <v>63.4221</v>
+        <v>59.9507</v>
       </c>
     </row>
     <row r="15">
@@ -5589,13 +5589,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>30.1618</v>
+        <v>30.9034</v>
       </c>
       <c r="C15" t="n">
-        <v>48.7662</v>
+        <v>48.5564</v>
       </c>
       <c r="D15" t="n">
-        <v>62.4362</v>
+        <v>60.2892</v>
       </c>
     </row>
     <row r="16">
@@ -5603,13 +5603,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>30.364</v>
+        <v>30.4121</v>
       </c>
       <c r="C16" t="n">
-        <v>48.6953</v>
+        <v>48.8574</v>
       </c>
       <c r="D16" t="n">
-        <v>63.7713</v>
+        <v>60.9454</v>
       </c>
     </row>
     <row r="17">
@@ -5617,13 +5617,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>30.9286</v>
+        <v>30.9</v>
       </c>
       <c r="C17" t="n">
-        <v>48.4913</v>
+        <v>48.2072</v>
       </c>
       <c r="D17" t="n">
-        <v>63.043</v>
+        <v>61.7087</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Parallel workload.xlsx
+++ b/vs-x86/Parallel workload.xlsx
@@ -4087,13 +4087,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>9.38162</v>
+        <v>9.38761</v>
       </c>
       <c r="C2" t="n">
-        <v>13.2014</v>
+        <v>13.1599</v>
       </c>
       <c r="D2" t="n">
-        <v>14.5178</v>
+        <v>14.4972</v>
       </c>
     </row>
     <row r="3">
@@ -4101,13 +4101,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>17.3531</v>
+        <v>17.0131</v>
       </c>
       <c r="C3" t="n">
-        <v>21.5822</v>
+        <v>21.7904</v>
       </c>
       <c r="D3" t="n">
-        <v>22.8085</v>
+        <v>23.8099</v>
       </c>
     </row>
     <row r="4">
@@ -4115,13 +4115,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>24.3608</v>
+        <v>23.1164</v>
       </c>
       <c r="C4" t="n">
-        <v>27.3261</v>
+        <v>26.4416</v>
       </c>
       <c r="D4" t="n">
-        <v>31.8685</v>
+        <v>30.3904</v>
       </c>
     </row>
     <row r="5">
@@ -4129,13 +4129,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>19.1904</v>
+        <v>19.2667</v>
       </c>
       <c r="C5" t="n">
-        <v>30.5092</v>
+        <v>31.0999</v>
       </c>
       <c r="D5" t="n">
-        <v>31.9474</v>
+        <v>32.8405</v>
       </c>
     </row>
     <row r="6">
@@ -4143,13 +4143,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>22.6216</v>
+        <v>22.6018</v>
       </c>
       <c r="C6" t="n">
-        <v>31.5119</v>
+        <v>31.6671</v>
       </c>
       <c r="D6" t="n">
-        <v>39.41</v>
+        <v>39.3906</v>
       </c>
     </row>
     <row r="7">
@@ -4157,13 +4157,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>26.4242</v>
+        <v>26.4319</v>
       </c>
       <c r="C7" t="n">
-        <v>39.4004</v>
+        <v>38.71</v>
       </c>
       <c r="D7" t="n">
-        <v>39.4862</v>
+        <v>39.6293</v>
       </c>
     </row>
     <row r="8">
@@ -4171,13 +4171,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>20.2869</v>
+        <v>19.956</v>
       </c>
       <c r="C8" t="n">
-        <v>36.3558</v>
+        <v>36.3223</v>
       </c>
       <c r="D8" t="n">
-        <v>39.9566</v>
+        <v>40.6117</v>
       </c>
     </row>
     <row r="9">
@@ -4185,13 +4185,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>22.4252</v>
+        <v>22.1799</v>
       </c>
       <c r="C9" t="n">
-        <v>41.0263</v>
+        <v>39.936</v>
       </c>
       <c r="D9" t="n">
-        <v>45.6478</v>
+        <v>43.6107</v>
       </c>
     </row>
     <row r="10">
@@ -4199,13 +4199,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>24.4539</v>
+        <v>24.0382</v>
       </c>
       <c r="C10" t="n">
-        <v>39.7781</v>
+        <v>40.499</v>
       </c>
       <c r="D10" t="n">
-        <v>47.0454</v>
+        <v>47.2572</v>
       </c>
     </row>
     <row r="11">
@@ -4213,13 +4213,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>22.4781</v>
+        <v>22.4673</v>
       </c>
       <c r="C11" t="n">
-        <v>42.8346</v>
+        <v>42.4019</v>
       </c>
       <c r="D11" t="n">
-        <v>50.21</v>
+        <v>50.908</v>
       </c>
     </row>
     <row r="12">
@@ -4227,13 +4227,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>24.3985</v>
+        <v>24.2509</v>
       </c>
       <c r="C12" t="n">
-        <v>44.5478</v>
+        <v>44.7295</v>
       </c>
       <c r="D12" t="n">
-        <v>52.385</v>
+        <v>50.4135</v>
       </c>
     </row>
     <row r="13">
@@ -4241,13 +4241,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>26.471</v>
+        <v>26.4581</v>
       </c>
       <c r="C13" t="n">
-        <v>44.932</v>
+        <v>44.4568</v>
       </c>
       <c r="D13" t="n">
-        <v>51.182</v>
+        <v>51.7535</v>
       </c>
     </row>
     <row r="14">
@@ -4255,13 +4255,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>22.2572</v>
+        <v>22.2105</v>
       </c>
       <c r="C14" t="n">
-        <v>43.9748</v>
+        <v>44.398</v>
       </c>
       <c r="D14" t="n">
-        <v>51.5768</v>
+        <v>52.5049</v>
       </c>
     </row>
     <row r="15">
@@ -4269,13 +4269,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>23.7726</v>
+        <v>23.8651</v>
       </c>
       <c r="C15" t="n">
-        <v>44.9238</v>
+        <v>45.7327</v>
       </c>
       <c r="D15" t="n">
-        <v>52.5616</v>
+        <v>53.3674</v>
       </c>
     </row>
     <row r="16">
@@ -4283,13 +4283,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>24.7353</v>
+        <v>24.1332</v>
       </c>
       <c r="C16" t="n">
-        <v>45.4728</v>
+        <v>43.7821</v>
       </c>
       <c r="D16" t="n">
-        <v>52.4847</v>
+        <v>52.2967</v>
       </c>
     </row>
     <row r="17">
@@ -4297,13 +4297,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>23.5536</v>
+        <v>23.625</v>
       </c>
       <c r="C17" t="n">
-        <v>45.1533</v>
+        <v>44.0707</v>
       </c>
       <c r="D17" t="n">
-        <v>53.1632</v>
+        <v>53.0555</v>
       </c>
     </row>
   </sheetData>
@@ -4351,13 +4351,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>9.4018</v>
+        <v>9.3795</v>
       </c>
       <c r="C2" t="n">
-        <v>13.0785</v>
+        <v>13.0352</v>
       </c>
       <c r="D2" t="n">
-        <v>14.4224</v>
+        <v>14.4126</v>
       </c>
     </row>
     <row r="3">
@@ -4365,13 +4365,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>17.3539</v>
+        <v>17.4639</v>
       </c>
       <c r="C3" t="n">
-        <v>21.3498</v>
+        <v>21.0644</v>
       </c>
       <c r="D3" t="n">
-        <v>24.059</v>
+        <v>23.7123</v>
       </c>
     </row>
     <row r="4">
@@ -4379,13 +4379,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>23.7991</v>
+        <v>23.4486</v>
       </c>
       <c r="C4" t="n">
-        <v>26.6229</v>
+        <v>25.9111</v>
       </c>
       <c r="D4" t="n">
-        <v>29.8434</v>
+        <v>29.8145</v>
       </c>
     </row>
     <row r="5">
@@ -4393,13 +4393,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>19.0343</v>
+        <v>18.9056</v>
       </c>
       <c r="C5" t="n">
-        <v>28.7099</v>
+        <v>28.8717</v>
       </c>
       <c r="D5" t="n">
-        <v>35.239</v>
+        <v>35.4831</v>
       </c>
     </row>
     <row r="6">
@@ -4407,13 +4407,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>22.9261</v>
+        <v>22.8743</v>
       </c>
       <c r="C6" t="n">
-        <v>34.9384</v>
+        <v>34.9824</v>
       </c>
       <c r="D6" t="n">
-        <v>35.6235</v>
+        <v>37.0491</v>
       </c>
     </row>
     <row r="7">
@@ -4421,13 +4421,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>27.0941</v>
+        <v>27.0358</v>
       </c>
       <c r="C7" t="n">
-        <v>35.0286</v>
+        <v>35.2145</v>
       </c>
       <c r="D7" t="n">
-        <v>45.0199</v>
+        <v>44.738</v>
       </c>
     </row>
     <row r="8">
@@ -4435,13 +4435,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>20.152</v>
+        <v>20.2518</v>
       </c>
       <c r="C8" t="n">
-        <v>34.7011</v>
+        <v>33.5388</v>
       </c>
       <c r="D8" t="n">
-        <v>43.338</v>
+        <v>41.8638</v>
       </c>
     </row>
     <row r="9">
@@ -4449,13 +4449,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>22.8306</v>
+        <v>22.4702</v>
       </c>
       <c r="C9" t="n">
-        <v>37.9411</v>
+        <v>36.8384</v>
       </c>
       <c r="D9" t="n">
-        <v>44.7583</v>
+        <v>45.9577</v>
       </c>
     </row>
     <row r="10">
@@ -4463,13 +4463,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>24.8516</v>
+        <v>24.9807</v>
       </c>
       <c r="C10" t="n">
-        <v>38.327</v>
+        <v>37.866</v>
       </c>
       <c r="D10" t="n">
-        <v>46.7265</v>
+        <v>48.7446</v>
       </c>
     </row>
     <row r="11">
@@ -4477,13 +4477,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>22.9442</v>
+        <v>22.8557</v>
       </c>
       <c r="C11" t="n">
-        <v>40.022</v>
+        <v>39.7934</v>
       </c>
       <c r="D11" t="n">
-        <v>49.7766</v>
+        <v>50.7302</v>
       </c>
     </row>
     <row r="12">
@@ -4491,13 +4491,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>24.885</v>
+        <v>24.8752</v>
       </c>
       <c r="C12" t="n">
-        <v>41.0507</v>
+        <v>40.9546</v>
       </c>
       <c r="D12" t="n">
-        <v>52.5391</v>
+        <v>51.9456</v>
       </c>
     </row>
     <row r="13">
@@ -4505,13 +4505,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>27.0338</v>
+        <v>27.0492</v>
       </c>
       <c r="C13" t="n">
-        <v>42.676</v>
+        <v>43.6762</v>
       </c>
       <c r="D13" t="n">
-        <v>51.3589</v>
+        <v>50.0194</v>
       </c>
     </row>
     <row r="14">
@@ -4519,13 +4519,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>22.2871</v>
+        <v>22.6285</v>
       </c>
       <c r="C14" t="n">
-        <v>44.3146</v>
+        <v>43.9154</v>
       </c>
       <c r="D14" t="n">
-        <v>52.3026</v>
+        <v>50.8503</v>
       </c>
     </row>
     <row r="15">
@@ -4533,13 +4533,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>24.1325</v>
+        <v>24.2677</v>
       </c>
       <c r="C15" t="n">
-        <v>42.9681</v>
+        <v>44.381</v>
       </c>
       <c r="D15" t="n">
-        <v>52.2191</v>
+        <v>52.7164</v>
       </c>
     </row>
     <row r="16">
@@ -4547,13 +4547,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>25.6875</v>
+        <v>24.7176</v>
       </c>
       <c r="C16" t="n">
-        <v>43.7238</v>
+        <v>43.9125</v>
       </c>
       <c r="D16" t="n">
-        <v>52.5685</v>
+        <v>52.6401</v>
       </c>
     </row>
     <row r="17">
@@ -4561,13 +4561,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>24.1134</v>
+        <v>24.459</v>
       </c>
       <c r="C17" t="n">
-        <v>45.0859</v>
+        <v>45.0271</v>
       </c>
       <c r="D17" t="n">
-        <v>52.5182</v>
+        <v>52.8728</v>
       </c>
     </row>
   </sheetData>
@@ -4615,13 +4615,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>10.9788</v>
+        <v>10.9481</v>
       </c>
       <c r="C2" t="n">
-        <v>13.9043</v>
+        <v>13.8492</v>
       </c>
       <c r="D2" t="n">
-        <v>14.8273</v>
+        <v>14.7882</v>
       </c>
     </row>
     <row r="3">
@@ -4629,13 +4629,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>19.4886</v>
+        <v>19.4155</v>
       </c>
       <c r="C3" t="n">
-        <v>22.8829</v>
+        <v>22.3766</v>
       </c>
       <c r="D3" t="n">
-        <v>24.5408</v>
+        <v>24.4414</v>
       </c>
     </row>
     <row r="4">
@@ -4643,13 +4643,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>27.219</v>
+        <v>25.9527</v>
       </c>
       <c r="C4" t="n">
-        <v>31.0013</v>
+        <v>30.421</v>
       </c>
       <c r="D4" t="n">
-        <v>31.8811</v>
+        <v>30.0116</v>
       </c>
     </row>
     <row r="5">
@@ -4657,13 +4657,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>23.1561</v>
+        <v>23.2331</v>
       </c>
       <c r="C5" t="n">
-        <v>31.5576</v>
+        <v>31.4385</v>
       </c>
       <c r="D5" t="n">
-        <v>35.4615</v>
+        <v>35.3008</v>
       </c>
     </row>
     <row r="6">
@@ -4671,13 +4671,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>28.0013</v>
+        <v>27.9914</v>
       </c>
       <c r="C6" t="n">
-        <v>34.9093</v>
+        <v>34.9614</v>
       </c>
       <c r="D6" t="n">
-        <v>36.8808</v>
+        <v>36.4197</v>
       </c>
     </row>
     <row r="7">
@@ -4685,13 +4685,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>33.1784</v>
+        <v>33.124</v>
       </c>
       <c r="C7" t="n">
-        <v>35.2854</v>
+        <v>35.0116</v>
       </c>
       <c r="D7" t="n">
-        <v>52.2975</v>
+        <v>45.2744</v>
       </c>
     </row>
     <row r="8">
@@ -4699,13 +4699,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>30.3931</v>
+        <v>30.0236</v>
       </c>
       <c r="C8" t="n">
-        <v>36.0839</v>
+        <v>35.4866</v>
       </c>
       <c r="D8" t="n">
-        <v>45.6067</v>
+        <v>44.7655</v>
       </c>
     </row>
     <row r="9">
@@ -4713,13 +4713,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>29.7143</v>
+        <v>30.3085</v>
       </c>
       <c r="C9" t="n">
-        <v>41.2474</v>
+        <v>39.6827</v>
       </c>
       <c r="D9" t="n">
-        <v>49.2307</v>
+        <v>51.3653</v>
       </c>
     </row>
     <row r="10">
@@ -4727,13 +4727,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>30.7684</v>
+        <v>30.0079</v>
       </c>
       <c r="C10" t="n">
-        <v>40.4491</v>
+        <v>42.136</v>
       </c>
       <c r="D10" t="n">
-        <v>49.9439</v>
+        <v>48.4666</v>
       </c>
     </row>
     <row r="11">
@@ -4741,13 +4741,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>30.8523</v>
+        <v>31.0724</v>
       </c>
       <c r="C11" t="n">
-        <v>42.2627</v>
+        <v>44.3678</v>
       </c>
       <c r="D11" t="n">
-        <v>51.8513</v>
+        <v>50.4741</v>
       </c>
     </row>
     <row r="12">
@@ -4755,13 +4755,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>30.6429</v>
+        <v>31.1762</v>
       </c>
       <c r="C12" t="n">
-        <v>44.0903</v>
+        <v>43.9874</v>
       </c>
       <c r="D12" t="n">
-        <v>51.5993</v>
+        <v>51.3093</v>
       </c>
     </row>
     <row r="13">
@@ -4769,13 +4769,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>30.8499</v>
+        <v>31.2222</v>
       </c>
       <c r="C13" t="n">
-        <v>43.4067</v>
+        <v>44.8993</v>
       </c>
       <c r="D13" t="n">
-        <v>50.7792</v>
+        <v>52.5049</v>
       </c>
     </row>
     <row r="14">
@@ -4783,13 +4783,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>31.5722</v>
+        <v>30.9439</v>
       </c>
       <c r="C14" t="n">
-        <v>44.8713</v>
+        <v>43.7979</v>
       </c>
       <c r="D14" t="n">
-        <v>51.2953</v>
+        <v>52.8854</v>
       </c>
     </row>
     <row r="15">
@@ -4797,13 +4797,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>31.2895</v>
+        <v>31.1549</v>
       </c>
       <c r="C15" t="n">
-        <v>44.878</v>
+        <v>44.765</v>
       </c>
       <c r="D15" t="n">
-        <v>51.7855</v>
+        <v>53.514</v>
       </c>
     </row>
     <row r="16">
@@ -4811,13 +4811,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>31.4556</v>
+        <v>31.0256</v>
       </c>
       <c r="C16" t="n">
-        <v>44.7099</v>
+        <v>45.3262</v>
       </c>
       <c r="D16" t="n">
-        <v>52.3467</v>
+        <v>52.9471</v>
       </c>
     </row>
     <row r="17">
@@ -4825,13 +4825,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>31.1393</v>
+        <v>31.1492</v>
       </c>
       <c r="C17" t="n">
-        <v>44.2263</v>
+        <v>44.1858</v>
       </c>
       <c r="D17" t="n">
-        <v>52.779</v>
+        <v>52.8863</v>
       </c>
     </row>
   </sheetData>
@@ -4879,13 +4879,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4.91316</v>
+        <v>4.91003</v>
       </c>
       <c r="C2" t="n">
-        <v>10.8926</v>
+        <v>10.8811</v>
       </c>
       <c r="D2" t="n">
-        <v>13.5328</v>
+        <v>13.5427</v>
       </c>
     </row>
     <row r="3">
@@ -4893,13 +4893,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.64601</v>
+        <v>9.63998</v>
       </c>
       <c r="C3" t="n">
-        <v>20.9249</v>
+        <v>20.9108</v>
       </c>
       <c r="D3" t="n">
-        <v>25.7486</v>
+        <v>25.728</v>
       </c>
     </row>
     <row r="4">
@@ -4907,13 +4907,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>13.897</v>
+        <v>13.824</v>
       </c>
       <c r="C4" t="n">
-        <v>29.9112</v>
+        <v>29.8877</v>
       </c>
       <c r="D4" t="n">
-        <v>37.0597</v>
+        <v>36.6326</v>
       </c>
     </row>
     <row r="5">
@@ -4921,13 +4921,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>15.5743</v>
+        <v>15.7746</v>
       </c>
       <c r="C5" t="n">
-        <v>33.7853</v>
+        <v>33.1889</v>
       </c>
       <c r="D5" t="n">
-        <v>43.192</v>
+        <v>42.2073</v>
       </c>
     </row>
     <row r="6">
@@ -4935,13 +4935,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>18.8569</v>
+        <v>18.7757</v>
       </c>
       <c r="C6" t="n">
-        <v>41.29</v>
+        <v>41.1991</v>
       </c>
       <c r="D6" t="n">
-        <v>51.2424</v>
+        <v>51.6813</v>
       </c>
     </row>
     <row r="7">
@@ -4949,13 +4949,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>22.0808</v>
+        <v>22.0649</v>
       </c>
       <c r="C7" t="n">
-        <v>48.0053</v>
+        <v>48.0882</v>
       </c>
       <c r="D7" t="n">
-        <v>60.957</v>
+        <v>60.967</v>
       </c>
     </row>
     <row r="8">
@@ -4963,13 +4963,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>19.8252</v>
+        <v>19.8694</v>
       </c>
       <c r="C8" t="n">
-        <v>43.6127</v>
+        <v>41.2861</v>
       </c>
       <c r="D8" t="n">
-        <v>54.3757</v>
+        <v>54.3753</v>
       </c>
     </row>
     <row r="9">
@@ -4977,13 +4977,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>20.4579</v>
+        <v>20.6952</v>
       </c>
       <c r="C9" t="n">
-        <v>43.6896</v>
+        <v>43.8492</v>
       </c>
       <c r="D9" t="n">
-        <v>53.2338</v>
+        <v>53.9816</v>
       </c>
     </row>
     <row r="10">
@@ -4991,13 +4991,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>20.7311</v>
+        <v>20.7602</v>
       </c>
       <c r="C10" t="n">
-        <v>42.8206</v>
+        <v>43.429</v>
       </c>
       <c r="D10" t="n">
-        <v>53.5386</v>
+        <v>53.0924</v>
       </c>
     </row>
     <row r="11">
@@ -5005,13 +5005,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>20.7385</v>
+        <v>20.7821</v>
       </c>
       <c r="C11" t="n">
-        <v>43.6412</v>
+        <v>43.9832</v>
       </c>
       <c r="D11" t="n">
-        <v>55.7155</v>
+        <v>54.3197</v>
       </c>
     </row>
     <row r="12">
@@ -5019,13 +5019,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>20.7799</v>
+        <v>20.7339</v>
       </c>
       <c r="C12" t="n">
-        <v>43.5895</v>
+        <v>45.1916</v>
       </c>
       <c r="D12" t="n">
-        <v>56.375</v>
+        <v>55.4125</v>
       </c>
     </row>
     <row r="13">
@@ -5033,13 +5033,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>21.1506</v>
+        <v>20.9372</v>
       </c>
       <c r="C13" t="n">
-        <v>45.0099</v>
+        <v>44.0571</v>
       </c>
       <c r="D13" t="n">
-        <v>55.958</v>
+        <v>57.4431</v>
       </c>
     </row>
     <row r="14">
@@ -5047,13 +5047,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>21.3098</v>
+        <v>21.1601</v>
       </c>
       <c r="C14" t="n">
-        <v>44.8385</v>
+        <v>45.5207</v>
       </c>
       <c r="D14" t="n">
-        <v>57.0106</v>
+        <v>57.5492</v>
       </c>
     </row>
     <row r="15">
@@ -5061,13 +5061,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>20.7622</v>
+        <v>21.2863</v>
       </c>
       <c r="C15" t="n">
-        <v>45.6206</v>
+        <v>45.1889</v>
       </c>
       <c r="D15" t="n">
-        <v>57.8489</v>
+        <v>57.1149</v>
       </c>
     </row>
     <row r="16">
@@ -5075,13 +5075,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>21.0098</v>
+        <v>21.1936</v>
       </c>
       <c r="C16" t="n">
-        <v>44.999</v>
+        <v>46.4145</v>
       </c>
       <c r="D16" t="n">
-        <v>57.5853</v>
+        <v>58.2167</v>
       </c>
     </row>
     <row r="17">
@@ -5089,13 +5089,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>20.9625</v>
+        <v>20.9659</v>
       </c>
       <c r="C17" t="n">
-        <v>45.6828</v>
+        <v>45.2105</v>
       </c>
       <c r="D17" t="n">
-        <v>57.9547</v>
+        <v>57.5276</v>
       </c>
     </row>
   </sheetData>
@@ -5143,13 +5143,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>5.01092</v>
+        <v>5.00833</v>
       </c>
       <c r="C2" t="n">
-        <v>10.9041</v>
+        <v>10.915</v>
       </c>
       <c r="D2" t="n">
-        <v>13.5733</v>
+        <v>13.5433</v>
       </c>
     </row>
     <row r="3">
@@ -5157,13 +5157,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.856009999999999</v>
+        <v>9.843</v>
       </c>
       <c r="C3" t="n">
-        <v>20.9405</v>
+        <v>20.8966</v>
       </c>
       <c r="D3" t="n">
-        <v>25.8736</v>
+        <v>25.934</v>
       </c>
     </row>
     <row r="4">
@@ -5171,13 +5171,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>14.2492</v>
+        <v>14.202</v>
       </c>
       <c r="C4" t="n">
-        <v>30.0848</v>
+        <v>29.956</v>
       </c>
       <c r="D4" t="n">
-        <v>37.2517</v>
+        <v>36.8546</v>
       </c>
     </row>
     <row r="5">
@@ -5185,13 +5185,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>16.0143</v>
+        <v>16.2</v>
       </c>
       <c r="C5" t="n">
-        <v>33.3659</v>
+        <v>33.9726</v>
       </c>
       <c r="D5" t="n">
-        <v>42.663</v>
+        <v>42.8709</v>
       </c>
     </row>
     <row r="6">
@@ -5199,13 +5199,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>19.287</v>
+        <v>19.2677</v>
       </c>
       <c r="C6" t="n">
-        <v>40.2726</v>
+        <v>40.1528</v>
       </c>
       <c r="D6" t="n">
-        <v>51.3899</v>
+        <v>51.3408</v>
       </c>
     </row>
     <row r="7">
@@ -5213,13 +5213,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>22.7461</v>
+        <v>22.7343</v>
       </c>
       <c r="C7" t="n">
-        <v>47.7338</v>
+        <v>47.8887</v>
       </c>
       <c r="D7" t="n">
-        <v>59.0423</v>
+        <v>58.7364</v>
       </c>
     </row>
     <row r="8">
@@ -5227,13 +5227,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>20.5266</v>
+        <v>20.4463</v>
       </c>
       <c r="C8" t="n">
-        <v>43.1166</v>
+        <v>42.8563</v>
       </c>
       <c r="D8" t="n">
-        <v>53.2655</v>
+        <v>52.0923</v>
       </c>
     </row>
     <row r="9">
@@ -5241,13 +5241,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>21.2641</v>
+        <v>21.1711</v>
       </c>
       <c r="C9" t="n">
-        <v>42.3689</v>
+        <v>43.5774</v>
       </c>
       <c r="D9" t="n">
-        <v>51.9085</v>
+        <v>53.1502</v>
       </c>
     </row>
     <row r="10">
@@ -5255,13 +5255,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>21.4516</v>
+        <v>21.459</v>
       </c>
       <c r="C10" t="n">
-        <v>43.2584</v>
+        <v>43.8155</v>
       </c>
       <c r="D10" t="n">
-        <v>54.5411</v>
+        <v>54.6698</v>
       </c>
     </row>
     <row r="11">
@@ -5269,13 +5269,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>21.5442</v>
+        <v>21.5382</v>
       </c>
       <c r="C11" t="n">
-        <v>43.3766</v>
+        <v>43.1422</v>
       </c>
       <c r="D11" t="n">
-        <v>54.6818</v>
+        <v>54.4454</v>
       </c>
     </row>
     <row r="12">
@@ -5283,13 +5283,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>21.3786</v>
+        <v>20.9296</v>
       </c>
       <c r="C12" t="n">
-        <v>44.2749</v>
+        <v>44.3045</v>
       </c>
       <c r="D12" t="n">
-        <v>54.7888</v>
+        <v>54.5009</v>
       </c>
     </row>
     <row r="13">
@@ -5297,13 +5297,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>21.7185</v>
+        <v>21.7165</v>
       </c>
       <c r="C13" t="n">
-        <v>45.0951</v>
+        <v>44.7715</v>
       </c>
       <c r="D13" t="n">
-        <v>56.9042</v>
+        <v>54.8475</v>
       </c>
     </row>
     <row r="14">
@@ -5311,13 +5311,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>21.5653</v>
+        <v>21.5173</v>
       </c>
       <c r="C14" t="n">
-        <v>45.2462</v>
+        <v>46.6157</v>
       </c>
       <c r="D14" t="n">
-        <v>56.9434</v>
+        <v>55.7656</v>
       </c>
     </row>
     <row r="15">
@@ -5325,13 +5325,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>21.5967</v>
+        <v>21.7682</v>
       </c>
       <c r="C15" t="n">
-        <v>45.0216</v>
+        <v>45.4231</v>
       </c>
       <c r="D15" t="n">
-        <v>56.0468</v>
+        <v>56.5757</v>
       </c>
     </row>
     <row r="16">
@@ -5339,13 +5339,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>21.6982</v>
+        <v>21.6238</v>
       </c>
       <c r="C16" t="n">
-        <v>44.4151</v>
+        <v>46.064</v>
       </c>
       <c r="D16" t="n">
-        <v>56.5928</v>
+        <v>55.6267</v>
       </c>
     </row>
     <row r="17">
@@ -5353,13 +5353,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>21.8879</v>
+        <v>21.6998</v>
       </c>
       <c r="C17" t="n">
-        <v>45.7558</v>
+        <v>46.3874</v>
       </c>
       <c r="D17" t="n">
-        <v>57.4849</v>
+        <v>56.0278</v>
       </c>
     </row>
   </sheetData>
@@ -5407,13 +5407,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.786799999999999</v>
+        <v>8.74512</v>
       </c>
       <c r="C2" t="n">
-        <v>13.2</v>
+        <v>13.2102</v>
       </c>
       <c r="D2" t="n">
-        <v>14.7114</v>
+        <v>14.7379</v>
       </c>
     </row>
     <row r="3">
@@ -5421,13 +5421,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>16.5847</v>
+        <v>16.5868</v>
       </c>
       <c r="C3" t="n">
-        <v>24.4785</v>
+        <v>24.5147</v>
       </c>
       <c r="D3" t="n">
-        <v>27.8277</v>
+        <v>27.7904</v>
       </c>
     </row>
     <row r="4">
@@ -5435,13 +5435,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>23.7268</v>
+        <v>23.8029</v>
       </c>
       <c r="C4" t="n">
-        <v>34.6168</v>
+        <v>34.5736</v>
       </c>
       <c r="D4" t="n">
-        <v>39.8585</v>
+        <v>40.0876</v>
       </c>
     </row>
     <row r="5">
@@ -5449,13 +5449,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>22.4502</v>
+        <v>22.9079</v>
       </c>
       <c r="C5" t="n">
-        <v>36.7484</v>
+        <v>36.7666</v>
       </c>
       <c r="D5" t="n">
-        <v>45.5512</v>
+        <v>45.3735</v>
       </c>
     </row>
     <row r="6">
@@ -5463,13 +5463,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>26.4297</v>
+        <v>26.2965</v>
       </c>
       <c r="C6" t="n">
-        <v>42.8964</v>
+        <v>42.8145</v>
       </c>
       <c r="D6" t="n">
-        <v>54.0818</v>
+        <v>54.1791</v>
       </c>
     </row>
     <row r="7">
@@ -5477,13 +5477,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>31.8897</v>
+        <v>31.8896</v>
       </c>
       <c r="C7" t="n">
-        <v>50.4837</v>
+        <v>50.7611</v>
       </c>
       <c r="D7" t="n">
-        <v>63.1395</v>
+        <v>63.2862</v>
       </c>
     </row>
     <row r="8">
@@ -5491,13 +5491,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>29.3021</v>
+        <v>29.4442</v>
       </c>
       <c r="C8" t="n">
-        <v>47.0357</v>
+        <v>46.3407</v>
       </c>
       <c r="D8" t="n">
-        <v>59.2473</v>
+        <v>59.0098</v>
       </c>
     </row>
     <row r="9">
@@ -5505,13 +5505,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>30.0762</v>
+        <v>29.5729</v>
       </c>
       <c r="C9" t="n">
-        <v>46.8192</v>
+        <v>47.4554</v>
       </c>
       <c r="D9" t="n">
-        <v>59.095</v>
+        <v>58.9563</v>
       </c>
     </row>
     <row r="10">
@@ -5519,13 +5519,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>30.1864</v>
+        <v>30.4869</v>
       </c>
       <c r="C10" t="n">
-        <v>47.8003</v>
+        <v>47.0727</v>
       </c>
       <c r="D10" t="n">
-        <v>60.3696</v>
+        <v>60.0084</v>
       </c>
     </row>
     <row r="11">
@@ -5533,13 +5533,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>30.4739</v>
+        <v>29.9841</v>
       </c>
       <c r="C11" t="n">
-        <v>46.9401</v>
+        <v>47.4822</v>
       </c>
       <c r="D11" t="n">
-        <v>60.4188</v>
+        <v>60.484</v>
       </c>
     </row>
     <row r="12">
@@ -5547,13 +5547,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>30.0771</v>
+        <v>30.6963</v>
       </c>
       <c r="C12" t="n">
-        <v>48.1052</v>
+        <v>48.146</v>
       </c>
       <c r="D12" t="n">
-        <v>59.6654</v>
+        <v>61.1235</v>
       </c>
     </row>
     <row r="13">
@@ -5561,13 +5561,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>30.1345</v>
+        <v>30.1522</v>
       </c>
       <c r="C13" t="n">
-        <v>48.2176</v>
+        <v>48.6066</v>
       </c>
       <c r="D13" t="n">
-        <v>60.8162</v>
+        <v>60.8053</v>
       </c>
     </row>
     <row r="14">
@@ -5575,13 +5575,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>30.8313</v>
+        <v>30.8063</v>
       </c>
       <c r="C14" t="n">
-        <v>48.22</v>
+        <v>48.2958</v>
       </c>
       <c r="D14" t="n">
-        <v>59.9507</v>
+        <v>60.2655</v>
       </c>
     </row>
     <row r="15">
@@ -5589,13 +5589,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>30.9034</v>
+        <v>30.9622</v>
       </c>
       <c r="C15" t="n">
-        <v>48.5564</v>
+        <v>48.6256</v>
       </c>
       <c r="D15" t="n">
-        <v>60.2892</v>
+        <v>62.3595</v>
       </c>
     </row>
     <row r="16">
@@ -5603,13 +5603,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>30.4121</v>
+        <v>30.718</v>
       </c>
       <c r="C16" t="n">
-        <v>48.8574</v>
+        <v>48.9131</v>
       </c>
       <c r="D16" t="n">
-        <v>60.9454</v>
+        <v>61.3457</v>
       </c>
     </row>
     <row r="17">
@@ -5617,13 +5617,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>30.9</v>
+        <v>30.7675</v>
       </c>
       <c r="C17" t="n">
-        <v>48.2072</v>
+        <v>48.7134</v>
       </c>
       <c r="D17" t="n">
-        <v>61.7087</v>
+        <v>61.2625</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Parallel workload.xlsx
+++ b/vs-x86/Parallel workload.xlsx
@@ -4087,13 +4087,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>9.38761</v>
+        <v>9.401009999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>13.1599</v>
+        <v>13.1932</v>
       </c>
       <c r="D2" t="n">
-        <v>14.4972</v>
+        <v>14.527</v>
       </c>
     </row>
     <row r="3">
@@ -4101,13 +4101,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>17.0131</v>
+        <v>17.2054</v>
       </c>
       <c r="C3" t="n">
-        <v>21.7904</v>
+        <v>22.0726</v>
       </c>
       <c r="D3" t="n">
-        <v>23.8099</v>
+        <v>23.9452</v>
       </c>
     </row>
     <row r="4">
@@ -4115,13 +4115,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>23.1164</v>
+        <v>23.2787</v>
       </c>
       <c r="C4" t="n">
-        <v>26.4416</v>
+        <v>28.4947</v>
       </c>
       <c r="D4" t="n">
-        <v>30.3904</v>
+        <v>30.4584</v>
       </c>
     </row>
     <row r="5">
@@ -4129,13 +4129,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>19.2667</v>
+        <v>19.0136</v>
       </c>
       <c r="C5" t="n">
-        <v>31.0999</v>
+        <v>29.8986</v>
       </c>
       <c r="D5" t="n">
-        <v>32.8405</v>
+        <v>32.5014</v>
       </c>
     </row>
     <row r="6">
@@ -4143,13 +4143,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>22.6018</v>
+        <v>22.4385</v>
       </c>
       <c r="C6" t="n">
-        <v>31.6671</v>
+        <v>31.7068</v>
       </c>
       <c r="D6" t="n">
-        <v>39.3906</v>
+        <v>39.2218</v>
       </c>
     </row>
     <row r="7">
@@ -4157,13 +4157,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>26.4319</v>
+        <v>26.3486</v>
       </c>
       <c r="C7" t="n">
-        <v>38.71</v>
+        <v>35.8154</v>
       </c>
       <c r="D7" t="n">
-        <v>39.6293</v>
+        <v>39.5278</v>
       </c>
     </row>
     <row r="8">
@@ -4171,13 +4171,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>19.956</v>
+        <v>20.0367</v>
       </c>
       <c r="C8" t="n">
-        <v>36.3223</v>
+        <v>37.8384</v>
       </c>
       <c r="D8" t="n">
-        <v>40.6117</v>
+        <v>40.4712</v>
       </c>
     </row>
     <row r="9">
@@ -4185,13 +4185,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>22.1799</v>
+        <v>22.5517</v>
       </c>
       <c r="C9" t="n">
-        <v>39.936</v>
+        <v>39.1579</v>
       </c>
       <c r="D9" t="n">
-        <v>43.6107</v>
+        <v>42.8102</v>
       </c>
     </row>
     <row r="10">
@@ -4199,13 +4199,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>24.0382</v>
+        <v>24.3392</v>
       </c>
       <c r="C10" t="n">
-        <v>40.499</v>
+        <v>41.5703</v>
       </c>
       <c r="D10" t="n">
-        <v>47.2572</v>
+        <v>44.7884</v>
       </c>
     </row>
     <row r="11">
@@ -4213,13 +4213,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>22.4673</v>
+        <v>22.3375</v>
       </c>
       <c r="C11" t="n">
-        <v>42.4019</v>
+        <v>44.76</v>
       </c>
       <c r="D11" t="n">
-        <v>50.908</v>
+        <v>49.028</v>
       </c>
     </row>
     <row r="12">
@@ -4227,13 +4227,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>24.2509</v>
+        <v>24.2214</v>
       </c>
       <c r="C12" t="n">
-        <v>44.7295</v>
+        <v>44.9589</v>
       </c>
       <c r="D12" t="n">
-        <v>50.4135</v>
+        <v>51.0123</v>
       </c>
     </row>
     <row r="13">
@@ -4241,13 +4241,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>26.4581</v>
+        <v>26.3495</v>
       </c>
       <c r="C13" t="n">
-        <v>44.4568</v>
+        <v>44.1219</v>
       </c>
       <c r="D13" t="n">
-        <v>51.7535</v>
+        <v>52.2789</v>
       </c>
     </row>
     <row r="14">
@@ -4255,13 +4255,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>22.2105</v>
+        <v>22.5279</v>
       </c>
       <c r="C14" t="n">
-        <v>44.398</v>
+        <v>43.5971</v>
       </c>
       <c r="D14" t="n">
-        <v>52.5049</v>
+        <v>52.4658</v>
       </c>
     </row>
     <row r="15">
@@ -4269,13 +4269,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>23.8651</v>
+        <v>23.6683</v>
       </c>
       <c r="C15" t="n">
-        <v>45.7327</v>
+        <v>44.5788</v>
       </c>
       <c r="D15" t="n">
-        <v>53.3674</v>
+        <v>53.052</v>
       </c>
     </row>
     <row r="16">
@@ -4283,13 +4283,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>24.1332</v>
+        <v>25.1376</v>
       </c>
       <c r="C16" t="n">
-        <v>43.7821</v>
+        <v>45.4527</v>
       </c>
       <c r="D16" t="n">
-        <v>52.2967</v>
+        <v>52.2193</v>
       </c>
     </row>
     <row r="17">
@@ -4297,13 +4297,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>23.625</v>
+        <v>23.8588</v>
       </c>
       <c r="C17" t="n">
-        <v>44.0707</v>
+        <v>44.2859</v>
       </c>
       <c r="D17" t="n">
-        <v>53.0555</v>
+        <v>52.5413</v>
       </c>
     </row>
   </sheetData>
@@ -4351,13 +4351,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>9.3795</v>
+        <v>9.40476</v>
       </c>
       <c r="C2" t="n">
-        <v>13.0352</v>
+        <v>13.1193</v>
       </c>
       <c r="D2" t="n">
-        <v>14.4126</v>
+        <v>14.4456</v>
       </c>
     </row>
     <row r="3">
@@ -4365,13 +4365,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>17.4639</v>
+        <v>17.5214</v>
       </c>
       <c r="C3" t="n">
-        <v>21.0644</v>
+        <v>21.5892</v>
       </c>
       <c r="D3" t="n">
-        <v>23.7123</v>
+        <v>23.2738</v>
       </c>
     </row>
     <row r="4">
@@ -4379,13 +4379,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>23.4486</v>
+        <v>24.4553</v>
       </c>
       <c r="C4" t="n">
-        <v>25.9111</v>
+        <v>26.3903</v>
       </c>
       <c r="D4" t="n">
-        <v>29.8145</v>
+        <v>29.3324</v>
       </c>
     </row>
     <row r="5">
@@ -4393,13 +4393,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>18.9056</v>
+        <v>19.031</v>
       </c>
       <c r="C5" t="n">
-        <v>28.8717</v>
+        <v>28.5377</v>
       </c>
       <c r="D5" t="n">
-        <v>35.4831</v>
+        <v>35.315</v>
       </c>
     </row>
     <row r="6">
@@ -4407,13 +4407,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>22.8743</v>
+        <v>22.7139</v>
       </c>
       <c r="C6" t="n">
-        <v>34.9824</v>
+        <v>35.2431</v>
       </c>
       <c r="D6" t="n">
-        <v>37.0491</v>
+        <v>35.6398</v>
       </c>
     </row>
     <row r="7">
@@ -4421,13 +4421,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>27.0358</v>
+        <v>26.9696</v>
       </c>
       <c r="C7" t="n">
-        <v>35.2145</v>
+        <v>35.0573</v>
       </c>
       <c r="D7" t="n">
-        <v>44.738</v>
+        <v>44.9</v>
       </c>
     </row>
     <row r="8">
@@ -4435,13 +4435,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>20.2518</v>
+        <v>20.1484</v>
       </c>
       <c r="C8" t="n">
-        <v>33.5388</v>
+        <v>35.7844</v>
       </c>
       <c r="D8" t="n">
-        <v>41.8638</v>
+        <v>41.5803</v>
       </c>
     </row>
     <row r="9">
@@ -4449,13 +4449,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>22.4702</v>
+        <v>22.7486</v>
       </c>
       <c r="C9" t="n">
-        <v>36.8384</v>
+        <v>36.3734</v>
       </c>
       <c r="D9" t="n">
-        <v>45.9577</v>
+        <v>45.4779</v>
       </c>
     </row>
     <row r="10">
@@ -4463,13 +4463,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>24.9807</v>
+        <v>24.9207</v>
       </c>
       <c r="C10" t="n">
-        <v>37.866</v>
+        <v>38.1054</v>
       </c>
       <c r="D10" t="n">
-        <v>48.7446</v>
+        <v>46.3075</v>
       </c>
     </row>
     <row r="11">
@@ -4477,13 +4477,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>22.8557</v>
+        <v>22.8126</v>
       </c>
       <c r="C11" t="n">
-        <v>39.7934</v>
+        <v>40.2</v>
       </c>
       <c r="D11" t="n">
-        <v>50.7302</v>
+        <v>50.7989</v>
       </c>
     </row>
     <row r="12">
@@ -4491,13 +4491,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>24.8752</v>
+        <v>24.8189</v>
       </c>
       <c r="C12" t="n">
-        <v>40.9546</v>
+        <v>41.1086</v>
       </c>
       <c r="D12" t="n">
-        <v>51.9456</v>
+        <v>52.7435</v>
       </c>
     </row>
     <row r="13">
@@ -4505,13 +4505,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>27.0492</v>
+        <v>26.8916</v>
       </c>
       <c r="C13" t="n">
-        <v>43.6762</v>
+        <v>41.8391</v>
       </c>
       <c r="D13" t="n">
-        <v>50.0194</v>
+        <v>52.0374</v>
       </c>
     </row>
     <row r="14">
@@ -4519,13 +4519,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>22.6285</v>
+        <v>22.4397</v>
       </c>
       <c r="C14" t="n">
-        <v>43.9154</v>
+        <v>42.9696</v>
       </c>
       <c r="D14" t="n">
-        <v>50.8503</v>
+        <v>52.5618</v>
       </c>
     </row>
     <row r="15">
@@ -4533,13 +4533,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>24.2677</v>
+        <v>24.0559</v>
       </c>
       <c r="C15" t="n">
-        <v>44.381</v>
+        <v>43.1342</v>
       </c>
       <c r="D15" t="n">
-        <v>52.7164</v>
+        <v>52.4571</v>
       </c>
     </row>
     <row r="16">
@@ -4547,13 +4547,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>24.7176</v>
+        <v>25.3303</v>
       </c>
       <c r="C16" t="n">
-        <v>43.9125</v>
+        <v>44.8965</v>
       </c>
       <c r="D16" t="n">
-        <v>52.6401</v>
+        <v>52.5215</v>
       </c>
     </row>
     <row r="17">
@@ -4561,13 +4561,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>24.459</v>
+        <v>24.2694</v>
       </c>
       <c r="C17" t="n">
-        <v>45.0271</v>
+        <v>45.2356</v>
       </c>
       <c r="D17" t="n">
-        <v>52.8728</v>
+        <v>52.5115</v>
       </c>
     </row>
   </sheetData>
@@ -4615,13 +4615,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>10.9481</v>
+        <v>10.9866</v>
       </c>
       <c r="C2" t="n">
-        <v>13.8492</v>
+        <v>13.9494</v>
       </c>
       <c r="D2" t="n">
-        <v>14.7882</v>
+        <v>14.8323</v>
       </c>
     </row>
     <row r="3">
@@ -4629,13 +4629,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>19.4155</v>
+        <v>19.6085</v>
       </c>
       <c r="C3" t="n">
-        <v>22.3766</v>
+        <v>22.6684</v>
       </c>
       <c r="D3" t="n">
-        <v>24.4414</v>
+        <v>24.2902</v>
       </c>
     </row>
     <row r="4">
@@ -4643,13 +4643,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>25.9527</v>
+        <v>26.9529</v>
       </c>
       <c r="C4" t="n">
-        <v>30.421</v>
+        <v>30.2508</v>
       </c>
       <c r="D4" t="n">
-        <v>30.0116</v>
+        <v>31.0101</v>
       </c>
     </row>
     <row r="5">
@@ -4657,13 +4657,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>23.2331</v>
+        <v>23.2451</v>
       </c>
       <c r="C5" t="n">
-        <v>31.4385</v>
+        <v>31.2929</v>
       </c>
       <c r="D5" t="n">
-        <v>35.3008</v>
+        <v>35.0228</v>
       </c>
     </row>
     <row r="6">
@@ -4671,13 +4671,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>27.9914</v>
+        <v>27.9096</v>
       </c>
       <c r="C6" t="n">
-        <v>34.9614</v>
+        <v>34.7235</v>
       </c>
       <c r="D6" t="n">
-        <v>36.4197</v>
+        <v>35.1271</v>
       </c>
     </row>
     <row r="7">
@@ -4685,13 +4685,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>33.124</v>
+        <v>33.0704</v>
       </c>
       <c r="C7" t="n">
         <v>35.0116</v>
       </c>
       <c r="D7" t="n">
-        <v>45.2744</v>
+        <v>45.0379</v>
       </c>
     </row>
     <row r="8">
@@ -4699,13 +4699,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>30.0236</v>
+        <v>29.4322</v>
       </c>
       <c r="C8" t="n">
-        <v>35.4866</v>
+        <v>34.9607</v>
       </c>
       <c r="D8" t="n">
-        <v>44.7655</v>
+        <v>44.8865</v>
       </c>
     </row>
     <row r="9">
@@ -4713,13 +4713,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>30.3085</v>
+        <v>29.7482</v>
       </c>
       <c r="C9" t="n">
-        <v>39.6827</v>
+        <v>39.7357</v>
       </c>
       <c r="D9" t="n">
-        <v>51.3653</v>
+        <v>48.5756</v>
       </c>
     </row>
     <row r="10">
@@ -4727,13 +4727,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>30.0079</v>
+        <v>29.9836</v>
       </c>
       <c r="C10" t="n">
-        <v>42.136</v>
+        <v>42.137</v>
       </c>
       <c r="D10" t="n">
-        <v>48.4666</v>
+        <v>49.3931</v>
       </c>
     </row>
     <row r="11">
@@ -4741,13 +4741,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>31.0724</v>
+        <v>30.6949</v>
       </c>
       <c r="C11" t="n">
-        <v>44.3678</v>
+        <v>43.8733</v>
       </c>
       <c r="D11" t="n">
-        <v>50.4741</v>
+        <v>53.0081</v>
       </c>
     </row>
     <row r="12">
@@ -4755,13 +4755,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>31.1762</v>
+        <v>30.9396</v>
       </c>
       <c r="C12" t="n">
-        <v>43.9874</v>
+        <v>44.6185</v>
       </c>
       <c r="D12" t="n">
-        <v>51.3093</v>
+        <v>52.3002</v>
       </c>
     </row>
     <row r="13">
@@ -4769,13 +4769,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>31.2222</v>
+        <v>31.4045</v>
       </c>
       <c r="C13" t="n">
-        <v>44.8993</v>
+        <v>44.0115</v>
       </c>
       <c r="D13" t="n">
-        <v>52.5049</v>
+        <v>52.5468</v>
       </c>
     </row>
     <row r="14">
@@ -4783,13 +4783,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>30.9439</v>
+        <v>30.7586</v>
       </c>
       <c r="C14" t="n">
-        <v>43.7979</v>
+        <v>44.1075</v>
       </c>
       <c r="D14" t="n">
-        <v>52.8854</v>
+        <v>52.4425</v>
       </c>
     </row>
     <row r="15">
@@ -4797,13 +4797,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>31.1549</v>
+        <v>31.4875</v>
       </c>
       <c r="C15" t="n">
-        <v>44.765</v>
+        <v>44.8666</v>
       </c>
       <c r="D15" t="n">
-        <v>53.514</v>
+        <v>52.9557</v>
       </c>
     </row>
     <row r="16">
@@ -4811,13 +4811,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>31.0256</v>
+        <v>30.7914</v>
       </c>
       <c r="C16" t="n">
-        <v>45.3262</v>
+        <v>44.9078</v>
       </c>
       <c r="D16" t="n">
-        <v>52.9471</v>
+        <v>52.4466</v>
       </c>
     </row>
     <row r="17">
@@ -4825,13 +4825,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>31.1492</v>
+        <v>31.56</v>
       </c>
       <c r="C17" t="n">
-        <v>44.1858</v>
+        <v>44.9132</v>
       </c>
       <c r="D17" t="n">
-        <v>52.8863</v>
+        <v>52.2501</v>
       </c>
     </row>
   </sheetData>
@@ -4879,13 +4879,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4.91003</v>
+        <v>4.90757</v>
       </c>
       <c r="C2" t="n">
-        <v>10.8811</v>
+        <v>10.8537</v>
       </c>
       <c r="D2" t="n">
-        <v>13.5427</v>
+        <v>13.5056</v>
       </c>
     </row>
     <row r="3">
@@ -4893,13 +4893,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.63998</v>
+        <v>9.584899999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>20.9108</v>
+        <v>20.7518</v>
       </c>
       <c r="D3" t="n">
-        <v>25.728</v>
+        <v>25.7634</v>
       </c>
     </row>
     <row r="4">
@@ -4907,13 +4907,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>13.824</v>
+        <v>13.8352</v>
       </c>
       <c r="C4" t="n">
-        <v>29.8877</v>
+        <v>30.0949</v>
       </c>
       <c r="D4" t="n">
-        <v>36.6326</v>
+        <v>36.778</v>
       </c>
     </row>
     <row r="5">
@@ -4921,13 +4921,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>15.7746</v>
+        <v>15.4327</v>
       </c>
       <c r="C5" t="n">
-        <v>33.1889</v>
+        <v>33.7793</v>
       </c>
       <c r="D5" t="n">
-        <v>42.2073</v>
+        <v>42.5209</v>
       </c>
     </row>
     <row r="6">
@@ -4935,13 +4935,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>18.7757</v>
+        <v>18.6847</v>
       </c>
       <c r="C6" t="n">
-        <v>41.1991</v>
+        <v>40.8527</v>
       </c>
       <c r="D6" t="n">
-        <v>51.6813</v>
+        <v>51.393</v>
       </c>
     </row>
     <row r="7">
@@ -4949,13 +4949,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>22.0649</v>
+        <v>22.0155</v>
       </c>
       <c r="C7" t="n">
-        <v>48.0882</v>
+        <v>48.123</v>
       </c>
       <c r="D7" t="n">
-        <v>60.967</v>
+        <v>60.7886</v>
       </c>
     </row>
     <row r="8">
@@ -4963,13 +4963,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>19.8694</v>
+        <v>19.5981</v>
       </c>
       <c r="C8" t="n">
-        <v>41.2861</v>
+        <v>43.3422</v>
       </c>
       <c r="D8" t="n">
-        <v>54.3753</v>
+        <v>55.0909</v>
       </c>
     </row>
     <row r="9">
@@ -4977,13 +4977,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>20.6952</v>
+        <v>20.5201</v>
       </c>
       <c r="C9" t="n">
-        <v>43.8492</v>
+        <v>43.756</v>
       </c>
       <c r="D9" t="n">
-        <v>53.9816</v>
+        <v>55.9844</v>
       </c>
     </row>
     <row r="10">
@@ -4991,13 +4991,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>20.7602</v>
+        <v>20.4785</v>
       </c>
       <c r="C10" t="n">
-        <v>43.429</v>
+        <v>43.0598</v>
       </c>
       <c r="D10" t="n">
-        <v>53.0924</v>
+        <v>53.6106</v>
       </c>
     </row>
     <row r="11">
@@ -5005,13 +5005,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>20.7821</v>
+        <v>21.036</v>
       </c>
       <c r="C11" t="n">
-        <v>43.9832</v>
+        <v>43.5406</v>
       </c>
       <c r="D11" t="n">
-        <v>54.3197</v>
+        <v>55.7665</v>
       </c>
     </row>
     <row r="12">
@@ -5019,13 +5019,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>20.7339</v>
+        <v>20.9164</v>
       </c>
       <c r="C12" t="n">
-        <v>45.1916</v>
+        <v>44.194</v>
       </c>
       <c r="D12" t="n">
-        <v>55.4125</v>
+        <v>55.2626</v>
       </c>
     </row>
     <row r="13">
@@ -5033,13 +5033,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>20.9372</v>
+        <v>21.0104</v>
       </c>
       <c r="C13" t="n">
-        <v>44.0571</v>
+        <v>45.6589</v>
       </c>
       <c r="D13" t="n">
-        <v>57.4431</v>
+        <v>56.8793</v>
       </c>
     </row>
     <row r="14">
@@ -5047,13 +5047,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>21.1601</v>
+        <v>21.0512</v>
       </c>
       <c r="C14" t="n">
-        <v>45.5207</v>
+        <v>46.0678</v>
       </c>
       <c r="D14" t="n">
-        <v>57.5492</v>
+        <v>57.1295</v>
       </c>
     </row>
     <row r="15">
@@ -5061,13 +5061,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>21.2863</v>
+        <v>21.2059</v>
       </c>
       <c r="C15" t="n">
-        <v>45.1889</v>
+        <v>45.4257</v>
       </c>
       <c r="D15" t="n">
-        <v>57.1149</v>
+        <v>57.4654</v>
       </c>
     </row>
     <row r="16">
@@ -5075,13 +5075,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>21.1936</v>
+        <v>20.8839</v>
       </c>
       <c r="C16" t="n">
-        <v>46.4145</v>
+        <v>45.5176</v>
       </c>
       <c r="D16" t="n">
-        <v>58.2167</v>
+        <v>57.574</v>
       </c>
     </row>
     <row r="17">
@@ -5089,13 +5089,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>20.9659</v>
+        <v>21.2051</v>
       </c>
       <c r="C17" t="n">
-        <v>45.2105</v>
+        <v>46.0985</v>
       </c>
       <c r="D17" t="n">
-        <v>57.5276</v>
+        <v>57.5421</v>
       </c>
     </row>
   </sheetData>
@@ -5143,13 +5143,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>5.00833</v>
+        <v>5.00175</v>
       </c>
       <c r="C2" t="n">
-        <v>10.915</v>
+        <v>10.898</v>
       </c>
       <c r="D2" t="n">
-        <v>13.5433</v>
+        <v>13.5829</v>
       </c>
     </row>
     <row r="3">
@@ -5157,13 +5157,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.843</v>
+        <v>9.797510000000001</v>
       </c>
       <c r="C3" t="n">
-        <v>20.8966</v>
+        <v>20.843</v>
       </c>
       <c r="D3" t="n">
-        <v>25.934</v>
+        <v>25.7327</v>
       </c>
     </row>
     <row r="4">
@@ -5171,13 +5171,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>14.202</v>
+        <v>14.177</v>
       </c>
       <c r="C4" t="n">
-        <v>29.956</v>
+        <v>29.703</v>
       </c>
       <c r="D4" t="n">
-        <v>36.8546</v>
+        <v>36.7153</v>
       </c>
     </row>
     <row r="5">
@@ -5185,13 +5185,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>16.2</v>
+        <v>16.0807</v>
       </c>
       <c r="C5" t="n">
-        <v>33.9726</v>
+        <v>33.6996</v>
       </c>
       <c r="D5" t="n">
-        <v>42.8709</v>
+        <v>42.6946</v>
       </c>
     </row>
     <row r="6">
@@ -5199,13 +5199,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>19.2677</v>
+        <v>19.1444</v>
       </c>
       <c r="C6" t="n">
-        <v>40.1528</v>
+        <v>40.3281</v>
       </c>
       <c r="D6" t="n">
-        <v>51.3408</v>
+        <v>51.4398</v>
       </c>
     </row>
     <row r="7">
@@ -5213,13 +5213,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>22.7343</v>
+        <v>22.6452</v>
       </c>
       <c r="C7" t="n">
-        <v>47.8887</v>
+        <v>47.4434</v>
       </c>
       <c r="D7" t="n">
-        <v>58.7364</v>
+        <v>58.7603</v>
       </c>
     </row>
     <row r="8">
@@ -5227,13 +5227,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>20.4463</v>
+        <v>20.4423</v>
       </c>
       <c r="C8" t="n">
-        <v>42.8563</v>
+        <v>43.2523</v>
       </c>
       <c r="D8" t="n">
-        <v>52.0923</v>
+        <v>51.2278</v>
       </c>
     </row>
     <row r="9">
@@ -5241,13 +5241,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>21.1711</v>
+        <v>21.047</v>
       </c>
       <c r="C9" t="n">
-        <v>43.5774</v>
+        <v>42.6105</v>
       </c>
       <c r="D9" t="n">
-        <v>53.1502</v>
+        <v>49.5654</v>
       </c>
     </row>
     <row r="10">
@@ -5255,13 +5255,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>21.459</v>
+        <v>21.4745</v>
       </c>
       <c r="C10" t="n">
-        <v>43.8155</v>
+        <v>42.4617</v>
       </c>
       <c r="D10" t="n">
-        <v>54.6698</v>
+        <v>54.928</v>
       </c>
     </row>
     <row r="11">
@@ -5269,13 +5269,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>21.5382</v>
+        <v>21.5637</v>
       </c>
       <c r="C11" t="n">
-        <v>43.1422</v>
+        <v>44.981</v>
       </c>
       <c r="D11" t="n">
-        <v>54.4454</v>
+        <v>54.8662</v>
       </c>
     </row>
     <row r="12">
@@ -5283,13 +5283,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>20.9296</v>
+        <v>21.601</v>
       </c>
       <c r="C12" t="n">
-        <v>44.3045</v>
+        <v>44.4715</v>
       </c>
       <c r="D12" t="n">
-        <v>54.5009</v>
+        <v>56.1409</v>
       </c>
     </row>
     <row r="13">
@@ -5297,13 +5297,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>21.7165</v>
+        <v>21.6363</v>
       </c>
       <c r="C13" t="n">
-        <v>44.7715</v>
+        <v>44.7451</v>
       </c>
       <c r="D13" t="n">
-        <v>54.8475</v>
+        <v>54.5062</v>
       </c>
     </row>
     <row r="14">
@@ -5311,13 +5311,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>21.5173</v>
+        <v>21.5546</v>
       </c>
       <c r="C14" t="n">
-        <v>46.6157</v>
+        <v>43.1652</v>
       </c>
       <c r="D14" t="n">
-        <v>55.7656</v>
+        <v>55.1314</v>
       </c>
     </row>
     <row r="15">
@@ -5325,13 +5325,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>21.7682</v>
+        <v>21.4854</v>
       </c>
       <c r="C15" t="n">
-        <v>45.4231</v>
+        <v>44.1059</v>
       </c>
       <c r="D15" t="n">
-        <v>56.5757</v>
+        <v>56.722</v>
       </c>
     </row>
     <row r="16">
@@ -5339,13 +5339,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>21.6238</v>
+        <v>21.7967</v>
       </c>
       <c r="C16" t="n">
-        <v>46.064</v>
+        <v>46.6726</v>
       </c>
       <c r="D16" t="n">
-        <v>55.6267</v>
+        <v>57.1833</v>
       </c>
     </row>
     <row r="17">
@@ -5353,13 +5353,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>21.6998</v>
+        <v>21.405</v>
       </c>
       <c r="C17" t="n">
-        <v>46.3874</v>
+        <v>45.0372</v>
       </c>
       <c r="D17" t="n">
-        <v>56.0278</v>
+        <v>57.482</v>
       </c>
     </row>
   </sheetData>
@@ -5407,13 +5407,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.74512</v>
+        <v>8.833170000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>13.2102</v>
+        <v>13.2494</v>
       </c>
       <c r="D2" t="n">
-        <v>14.7379</v>
+        <v>14.7458</v>
       </c>
     </row>
     <row r="3">
@@ -5421,13 +5421,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>16.5868</v>
+        <v>16.5078</v>
       </c>
       <c r="C3" t="n">
-        <v>24.5147</v>
+        <v>24.6431</v>
       </c>
       <c r="D3" t="n">
-        <v>27.7904</v>
+        <v>27.7241</v>
       </c>
     </row>
     <row r="4">
@@ -5435,13 +5435,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>23.8029</v>
+        <v>23.575</v>
       </c>
       <c r="C4" t="n">
-        <v>34.5736</v>
+        <v>34.7161</v>
       </c>
       <c r="D4" t="n">
-        <v>40.0876</v>
+        <v>39.4398</v>
       </c>
     </row>
     <row r="5">
@@ -5449,13 +5449,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>22.9079</v>
+        <v>22.5364</v>
       </c>
       <c r="C5" t="n">
-        <v>36.7666</v>
+        <v>36.8507</v>
       </c>
       <c r="D5" t="n">
-        <v>45.3735</v>
+        <v>45.3692</v>
       </c>
     </row>
     <row r="6">
@@ -5463,13 +5463,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>26.2965</v>
+        <v>26.2047</v>
       </c>
       <c r="C6" t="n">
-        <v>42.8145</v>
+        <v>42.9081</v>
       </c>
       <c r="D6" t="n">
-        <v>54.1791</v>
+        <v>54.2032</v>
       </c>
     </row>
     <row r="7">
@@ -5477,13 +5477,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>31.8896</v>
+        <v>31.7947</v>
       </c>
       <c r="C7" t="n">
-        <v>50.7611</v>
+        <v>50.9209</v>
       </c>
       <c r="D7" t="n">
-        <v>63.2862</v>
+        <v>62.8963</v>
       </c>
     </row>
     <row r="8">
@@ -5491,13 +5491,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>29.4442</v>
+        <v>29.4702</v>
       </c>
       <c r="C8" t="n">
-        <v>46.3407</v>
+        <v>47.2287</v>
       </c>
       <c r="D8" t="n">
-        <v>59.0098</v>
+        <v>58.723</v>
       </c>
     </row>
     <row r="9">
@@ -5505,13 +5505,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>29.5729</v>
+        <v>29.4963</v>
       </c>
       <c r="C9" t="n">
-        <v>47.4554</v>
+        <v>47.5275</v>
       </c>
       <c r="D9" t="n">
-        <v>58.9563</v>
+        <v>59.8662</v>
       </c>
     </row>
     <row r="10">
@@ -5519,13 +5519,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>30.4869</v>
+        <v>29.8367</v>
       </c>
       <c r="C10" t="n">
-        <v>47.0727</v>
+        <v>47.4039</v>
       </c>
       <c r="D10" t="n">
-        <v>60.0084</v>
+        <v>59.8902</v>
       </c>
     </row>
     <row r="11">
@@ -5533,13 +5533,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>29.9841</v>
+        <v>30.5385</v>
       </c>
       <c r="C11" t="n">
-        <v>47.4822</v>
+        <v>47.6025</v>
       </c>
       <c r="D11" t="n">
-        <v>60.484</v>
+        <v>60.0551</v>
       </c>
     </row>
     <row r="12">
@@ -5547,13 +5547,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>30.6963</v>
+        <v>30.3464</v>
       </c>
       <c r="C12" t="n">
-        <v>48.146</v>
+        <v>47.3085</v>
       </c>
       <c r="D12" t="n">
-        <v>61.1235</v>
+        <v>59.9911</v>
       </c>
     </row>
     <row r="13">
@@ -5561,13 +5561,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>30.1522</v>
+        <v>30.6906</v>
       </c>
       <c r="C13" t="n">
-        <v>48.6066</v>
+        <v>48.1201</v>
       </c>
       <c r="D13" t="n">
-        <v>60.8053</v>
+        <v>60.8799</v>
       </c>
     </row>
     <row r="14">
@@ -5575,13 +5575,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>30.8063</v>
+        <v>30.5266</v>
       </c>
       <c r="C14" t="n">
-        <v>48.2958</v>
+        <v>48.6693</v>
       </c>
       <c r="D14" t="n">
-        <v>60.2655</v>
+        <v>60.3976</v>
       </c>
     </row>
     <row r="15">
@@ -5589,13 +5589,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>30.9622</v>
+        <v>30.3174</v>
       </c>
       <c r="C15" t="n">
-        <v>48.6256</v>
+        <v>48.246</v>
       </c>
       <c r="D15" t="n">
-        <v>62.3595</v>
+        <v>61.2555</v>
       </c>
     </row>
     <row r="16">
@@ -5603,13 +5603,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>30.718</v>
+        <v>30.5859</v>
       </c>
       <c r="C16" t="n">
-        <v>48.9131</v>
+        <v>48.0882</v>
       </c>
       <c r="D16" t="n">
-        <v>61.3457</v>
+        <v>60.5335</v>
       </c>
     </row>
     <row r="17">
@@ -5617,13 +5617,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>30.7675</v>
+        <v>31.1087</v>
       </c>
       <c r="C17" t="n">
-        <v>48.7134</v>
+        <v>49.709</v>
       </c>
       <c r="D17" t="n">
-        <v>61.2625</v>
+        <v>61.1276</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Parallel workload.xlsx
+++ b/vs-x86/Parallel workload.xlsx
@@ -4087,13 +4087,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>9.401009999999999</v>
+        <v>9.40727</v>
       </c>
       <c r="C2" t="n">
-        <v>13.1932</v>
+        <v>13.1674</v>
       </c>
       <c r="D2" t="n">
-        <v>14.527</v>
+        <v>14.5465</v>
       </c>
     </row>
     <row r="3">
@@ -4101,13 +4101,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>17.2054</v>
+        <v>17.3898</v>
       </c>
       <c r="C3" t="n">
-        <v>22.0726</v>
+        <v>22.0954</v>
       </c>
       <c r="D3" t="n">
-        <v>23.9452</v>
+        <v>23.7336</v>
       </c>
     </row>
     <row r="4">
@@ -4115,13 +4115,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>23.2787</v>
+        <v>23.6013</v>
       </c>
       <c r="C4" t="n">
-        <v>28.4947</v>
+        <v>26.7361</v>
       </c>
       <c r="D4" t="n">
-        <v>30.4584</v>
+        <v>31.2569</v>
       </c>
     </row>
     <row r="5">
@@ -4129,13 +4129,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>19.0136</v>
+        <v>19.3512</v>
       </c>
       <c r="C5" t="n">
-        <v>29.8986</v>
+        <v>30.5366</v>
       </c>
       <c r="D5" t="n">
-        <v>32.5014</v>
+        <v>33.3163</v>
       </c>
     </row>
     <row r="6">
@@ -4143,13 +4143,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>22.4385</v>
+        <v>22.6119</v>
       </c>
       <c r="C6" t="n">
-        <v>31.7068</v>
+        <v>31.6188</v>
       </c>
       <c r="D6" t="n">
-        <v>39.2218</v>
+        <v>39.3521</v>
       </c>
     </row>
     <row r="7">
@@ -4157,13 +4157,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>26.3486</v>
+        <v>26.6008</v>
       </c>
       <c r="C7" t="n">
-        <v>35.8154</v>
+        <v>39.2979</v>
       </c>
       <c r="D7" t="n">
-        <v>39.5278</v>
+        <v>39.383</v>
       </c>
     </row>
     <row r="8">
@@ -4171,13 +4171,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>20.0367</v>
+        <v>20.142</v>
       </c>
       <c r="C8" t="n">
-        <v>37.8384</v>
+        <v>35.7274</v>
       </c>
       <c r="D8" t="n">
-        <v>40.4712</v>
+        <v>40.4456</v>
       </c>
     </row>
     <row r="9">
@@ -4185,13 +4185,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>22.5517</v>
+        <v>22.804</v>
       </c>
       <c r="C9" t="n">
-        <v>39.1579</v>
+        <v>38.439</v>
       </c>
       <c r="D9" t="n">
-        <v>42.8102</v>
+        <v>46.189</v>
       </c>
     </row>
     <row r="10">
@@ -4199,13 +4199,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>24.3392</v>
+        <v>24.1816</v>
       </c>
       <c r="C10" t="n">
-        <v>41.5703</v>
+        <v>42.1753</v>
       </c>
       <c r="D10" t="n">
-        <v>44.7884</v>
+        <v>47.2064</v>
       </c>
     </row>
     <row r="11">
@@ -4213,13 +4213,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>22.3375</v>
+        <v>22.5438</v>
       </c>
       <c r="C11" t="n">
-        <v>44.76</v>
+        <v>42.9178</v>
       </c>
       <c r="D11" t="n">
-        <v>49.028</v>
+        <v>50.0275</v>
       </c>
     </row>
     <row r="12">
@@ -4227,13 +4227,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>24.2214</v>
+        <v>24.4774</v>
       </c>
       <c r="C12" t="n">
-        <v>44.9589</v>
+        <v>42.3242</v>
       </c>
       <c r="D12" t="n">
-        <v>51.0123</v>
+        <v>52.7583</v>
       </c>
     </row>
     <row r="13">
@@ -4241,13 +4241,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>26.3495</v>
+        <v>26.522</v>
       </c>
       <c r="C13" t="n">
-        <v>44.1219</v>
+        <v>44.8923</v>
       </c>
       <c r="D13" t="n">
-        <v>52.2789</v>
+        <v>51.7039</v>
       </c>
     </row>
     <row r="14">
@@ -4255,13 +4255,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>22.5279</v>
+        <v>22.3884</v>
       </c>
       <c r="C14" t="n">
-        <v>43.5971</v>
+        <v>44.1662</v>
       </c>
       <c r="D14" t="n">
-        <v>52.4658</v>
+        <v>53.0065</v>
       </c>
     </row>
     <row r="15">
@@ -4269,13 +4269,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>23.6683</v>
+        <v>24.0384</v>
       </c>
       <c r="C15" t="n">
-        <v>44.5788</v>
+        <v>44.0082</v>
       </c>
       <c r="D15" t="n">
-        <v>53.052</v>
+        <v>51.5901</v>
       </c>
     </row>
     <row r="16">
@@ -4283,13 +4283,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>25.1376</v>
+        <v>25.3548</v>
       </c>
       <c r="C16" t="n">
-        <v>45.4527</v>
+        <v>45.2486</v>
       </c>
       <c r="D16" t="n">
-        <v>52.2193</v>
+        <v>52.7089</v>
       </c>
     </row>
     <row r="17">
@@ -4297,13 +4297,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>23.8588</v>
+        <v>23.6312</v>
       </c>
       <c r="C17" t="n">
-        <v>44.2859</v>
+        <v>45.2448</v>
       </c>
       <c r="D17" t="n">
-        <v>52.5413</v>
+        <v>50.9155</v>
       </c>
     </row>
   </sheetData>
@@ -4351,13 +4351,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>9.40476</v>
+        <v>9.40831</v>
       </c>
       <c r="C2" t="n">
-        <v>13.1193</v>
+        <v>13.0908</v>
       </c>
       <c r="D2" t="n">
-        <v>14.4456</v>
+        <v>14.4745</v>
       </c>
     </row>
     <row r="3">
@@ -4365,13 +4365,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>17.5214</v>
+        <v>17.5092</v>
       </c>
       <c r="C3" t="n">
-        <v>21.5892</v>
+        <v>21.879</v>
       </c>
       <c r="D3" t="n">
-        <v>23.2738</v>
+        <v>23.026</v>
       </c>
     </row>
     <row r="4">
@@ -4379,13 +4379,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>24.4553</v>
+        <v>24.6961</v>
       </c>
       <c r="C4" t="n">
-        <v>26.3903</v>
+        <v>26.3971</v>
       </c>
       <c r="D4" t="n">
-        <v>29.3324</v>
+        <v>30.4242</v>
       </c>
     </row>
     <row r="5">
@@ -4393,13 +4393,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>19.031</v>
+        <v>19.6093</v>
       </c>
       <c r="C5" t="n">
-        <v>28.5377</v>
+        <v>28.2851</v>
       </c>
       <c r="D5" t="n">
-        <v>35.315</v>
+        <v>34.9966</v>
       </c>
     </row>
     <row r="6">
@@ -4407,13 +4407,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>22.7139</v>
+        <v>23.0322</v>
       </c>
       <c r="C6" t="n">
-        <v>35.2431</v>
+        <v>35.023</v>
       </c>
       <c r="D6" t="n">
-        <v>35.6398</v>
+        <v>36.1996</v>
       </c>
     </row>
     <row r="7">
@@ -4421,13 +4421,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>26.9696</v>
+        <v>27.1124</v>
       </c>
       <c r="C7" t="n">
-        <v>35.0573</v>
+        <v>35.5239</v>
       </c>
       <c r="D7" t="n">
-        <v>44.9</v>
+        <v>44.9646</v>
       </c>
     </row>
     <row r="8">
@@ -4435,13 +4435,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>20.1484</v>
+        <v>20.2913</v>
       </c>
       <c r="C8" t="n">
-        <v>35.7844</v>
+        <v>34.9128</v>
       </c>
       <c r="D8" t="n">
-        <v>41.5803</v>
+        <v>42.4659</v>
       </c>
     </row>
     <row r="9">
@@ -4449,13 +4449,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>22.7486</v>
+        <v>22.9083</v>
       </c>
       <c r="C9" t="n">
-        <v>36.3734</v>
+        <v>37.6601</v>
       </c>
       <c r="D9" t="n">
-        <v>45.4779</v>
+        <v>43.12</v>
       </c>
     </row>
     <row r="10">
@@ -4463,13 +4463,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>24.9207</v>
+        <v>24.9179</v>
       </c>
       <c r="C10" t="n">
-        <v>38.1054</v>
+        <v>38.9744</v>
       </c>
       <c r="D10" t="n">
-        <v>46.3075</v>
+        <v>46.8466</v>
       </c>
     </row>
     <row r="11">
@@ -4477,13 +4477,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>22.8126</v>
+        <v>22.8156</v>
       </c>
       <c r="C11" t="n">
-        <v>40.2</v>
+        <v>39.5899</v>
       </c>
       <c r="D11" t="n">
-        <v>50.7989</v>
+        <v>51.097</v>
       </c>
     </row>
     <row r="12">
@@ -4491,13 +4491,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>24.8189</v>
+        <v>24.8278</v>
       </c>
       <c r="C12" t="n">
-        <v>41.1086</v>
+        <v>44.3818</v>
       </c>
       <c r="D12" t="n">
-        <v>52.7435</v>
+        <v>50.3297</v>
       </c>
     </row>
     <row r="13">
@@ -4505,13 +4505,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>26.8916</v>
+        <v>27.1387</v>
       </c>
       <c r="C13" t="n">
-        <v>41.8391</v>
+        <v>44.5407</v>
       </c>
       <c r="D13" t="n">
-        <v>52.0374</v>
+        <v>53.1614</v>
       </c>
     </row>
     <row r="14">
@@ -4519,13 +4519,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>22.4397</v>
+        <v>22.7175</v>
       </c>
       <c r="C14" t="n">
-        <v>42.9696</v>
+        <v>43.9592</v>
       </c>
       <c r="D14" t="n">
-        <v>52.5618</v>
+        <v>54.0428</v>
       </c>
     </row>
     <row r="15">
@@ -4533,13 +4533,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>24.0559</v>
+        <v>24.2144</v>
       </c>
       <c r="C15" t="n">
-        <v>43.1342</v>
+        <v>45.0592</v>
       </c>
       <c r="D15" t="n">
-        <v>52.4571</v>
+        <v>52.6726</v>
       </c>
     </row>
     <row r="16">
@@ -4547,13 +4547,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>25.3303</v>
+        <v>25.4166</v>
       </c>
       <c r="C16" t="n">
-        <v>44.8965</v>
+        <v>44.408</v>
       </c>
       <c r="D16" t="n">
-        <v>52.5215</v>
+        <v>52.0429</v>
       </c>
     </row>
     <row r="17">
@@ -4561,13 +4561,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>24.2694</v>
+        <v>24.1792</v>
       </c>
       <c r="C17" t="n">
-        <v>45.2356</v>
+        <v>45.4648</v>
       </c>
       <c r="D17" t="n">
-        <v>52.5115</v>
+        <v>53.4233</v>
       </c>
     </row>
   </sheetData>
@@ -4615,13 +4615,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>10.9866</v>
+        <v>10.9862</v>
       </c>
       <c r="C2" t="n">
-        <v>13.9494</v>
+        <v>13.92</v>
       </c>
       <c r="D2" t="n">
-        <v>14.8323</v>
+        <v>14.8666</v>
       </c>
     </row>
     <row r="3">
@@ -4629,13 +4629,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>19.6085</v>
+        <v>19.5034</v>
       </c>
       <c r="C3" t="n">
-        <v>22.6684</v>
+        <v>22.7008</v>
       </c>
       <c r="D3" t="n">
-        <v>24.2902</v>
+        <v>24.6274</v>
       </c>
     </row>
     <row r="4">
@@ -4643,13 +4643,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>26.9529</v>
+        <v>26.9034</v>
       </c>
       <c r="C4" t="n">
-        <v>30.2508</v>
+        <v>31.8009</v>
       </c>
       <c r="D4" t="n">
-        <v>31.0101</v>
+        <v>31.4915</v>
       </c>
     </row>
     <row r="5">
@@ -4657,13 +4657,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>23.2451</v>
+        <v>23.6344</v>
       </c>
       <c r="C5" t="n">
-        <v>31.2929</v>
+        <v>30.8686</v>
       </c>
       <c r="D5" t="n">
-        <v>35.0228</v>
+        <v>34.8291</v>
       </c>
     </row>
     <row r="6">
@@ -4671,13 +4671,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>27.9096</v>
+        <v>28.0938</v>
       </c>
       <c r="C6" t="n">
-        <v>34.7235</v>
+        <v>34.3456</v>
       </c>
       <c r="D6" t="n">
-        <v>35.1271</v>
+        <v>36.3549</v>
       </c>
     </row>
     <row r="7">
@@ -4685,13 +4685,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>33.0704</v>
+        <v>33.209</v>
       </c>
       <c r="C7" t="n">
-        <v>35.0116</v>
+        <v>35.3589</v>
       </c>
       <c r="D7" t="n">
-        <v>45.0379</v>
+        <v>52.3455</v>
       </c>
     </row>
     <row r="8">
@@ -4699,13 +4699,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>29.4322</v>
+        <v>29.77</v>
       </c>
       <c r="C8" t="n">
-        <v>34.9607</v>
+        <v>34.2756</v>
       </c>
       <c r="D8" t="n">
-        <v>44.8865</v>
+        <v>44.0269</v>
       </c>
     </row>
     <row r="9">
@@ -4713,13 +4713,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>29.7482</v>
+        <v>29.4786</v>
       </c>
       <c r="C9" t="n">
-        <v>39.7357</v>
+        <v>36.8661</v>
       </c>
       <c r="D9" t="n">
-        <v>48.5756</v>
+        <v>48.7775</v>
       </c>
     </row>
     <row r="10">
@@ -4727,13 +4727,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>29.9836</v>
+        <v>30.2407</v>
       </c>
       <c r="C10" t="n">
-        <v>42.137</v>
+        <v>43.4387</v>
       </c>
       <c r="D10" t="n">
-        <v>49.3931</v>
+        <v>49.1763</v>
       </c>
     </row>
     <row r="11">
@@ -4741,13 +4741,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>30.6949</v>
+        <v>31.2071</v>
       </c>
       <c r="C11" t="n">
-        <v>43.8733</v>
+        <v>44.3741</v>
       </c>
       <c r="D11" t="n">
-        <v>53.0081</v>
+        <v>52.4775</v>
       </c>
     </row>
     <row r="12">
@@ -4755,13 +4755,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>30.9396</v>
+        <v>31.152</v>
       </c>
       <c r="C12" t="n">
-        <v>44.6185</v>
+        <v>44.9538</v>
       </c>
       <c r="D12" t="n">
-        <v>52.3002</v>
+        <v>52.5319</v>
       </c>
     </row>
     <row r="13">
@@ -4769,13 +4769,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>31.4045</v>
+        <v>31.0619</v>
       </c>
       <c r="C13" t="n">
-        <v>44.0115</v>
+        <v>44.8212</v>
       </c>
       <c r="D13" t="n">
-        <v>52.5468</v>
+        <v>52.866</v>
       </c>
     </row>
     <row r="14">
@@ -4783,13 +4783,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>30.7586</v>
+        <v>31.2248</v>
       </c>
       <c r="C14" t="n">
-        <v>44.1075</v>
+        <v>43.4707</v>
       </c>
       <c r="D14" t="n">
-        <v>52.4425</v>
+        <v>53.504</v>
       </c>
     </row>
     <row r="15">
@@ -4797,13 +4797,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>31.4875</v>
+        <v>31.3309</v>
       </c>
       <c r="C15" t="n">
-        <v>44.8666</v>
+        <v>43.8415</v>
       </c>
       <c r="D15" t="n">
-        <v>52.9557</v>
+        <v>52.4639</v>
       </c>
     </row>
     <row r="16">
@@ -4811,13 +4811,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>30.7914</v>
+        <v>31.4404</v>
       </c>
       <c r="C16" t="n">
-        <v>44.9078</v>
+        <v>44.3238</v>
       </c>
       <c r="D16" t="n">
-        <v>52.4466</v>
+        <v>52.8599</v>
       </c>
     </row>
     <row r="17">
@@ -4825,13 +4825,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>31.56</v>
+        <v>32.1407</v>
       </c>
       <c r="C17" t="n">
-        <v>44.9132</v>
+        <v>44.9839</v>
       </c>
       <c r="D17" t="n">
-        <v>52.2501</v>
+        <v>53.0361</v>
       </c>
     </row>
   </sheetData>
@@ -4879,13 +4879,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4.90757</v>
+        <v>4.89769</v>
       </c>
       <c r="C2" t="n">
-        <v>10.8537</v>
+        <v>10.8246</v>
       </c>
       <c r="D2" t="n">
-        <v>13.5056</v>
+        <v>13.5259</v>
       </c>
     </row>
     <row r="3">
@@ -4893,13 +4893,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.584899999999999</v>
+        <v>9.635149999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>20.7518</v>
+        <v>20.9051</v>
       </c>
       <c r="D3" t="n">
-        <v>25.7634</v>
+        <v>25.844</v>
       </c>
     </row>
     <row r="4">
@@ -4907,13 +4907,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>13.8352</v>
+        <v>13.8172</v>
       </c>
       <c r="C4" t="n">
-        <v>30.0949</v>
+        <v>29.8273</v>
       </c>
       <c r="D4" t="n">
-        <v>36.778</v>
+        <v>36.7175</v>
       </c>
     </row>
     <row r="5">
@@ -4921,13 +4921,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>15.4327</v>
+        <v>15.8309</v>
       </c>
       <c r="C5" t="n">
-        <v>33.7793</v>
+        <v>34.0105</v>
       </c>
       <c r="D5" t="n">
-        <v>42.5209</v>
+        <v>43.1388</v>
       </c>
     </row>
     <row r="6">
@@ -4935,13 +4935,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>18.6847</v>
+        <v>18.8564</v>
       </c>
       <c r="C6" t="n">
-        <v>40.8527</v>
+        <v>41.0371</v>
       </c>
       <c r="D6" t="n">
-        <v>51.393</v>
+        <v>51.6117</v>
       </c>
     </row>
     <row r="7">
@@ -4949,13 +4949,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>22.0155</v>
+        <v>22.1169</v>
       </c>
       <c r="C7" t="n">
-        <v>48.123</v>
+        <v>48.1396</v>
       </c>
       <c r="D7" t="n">
-        <v>60.7886</v>
+        <v>60.9607</v>
       </c>
     </row>
     <row r="8">
@@ -4963,13 +4963,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>19.5981</v>
+        <v>20.0696</v>
       </c>
       <c r="C8" t="n">
-        <v>43.3422</v>
+        <v>42.2264</v>
       </c>
       <c r="D8" t="n">
-        <v>55.0909</v>
+        <v>54.4888</v>
       </c>
     </row>
     <row r="9">
@@ -4977,13 +4977,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>20.5201</v>
+        <v>20.2253</v>
       </c>
       <c r="C9" t="n">
-        <v>43.756</v>
+        <v>44.3231</v>
       </c>
       <c r="D9" t="n">
-        <v>55.9844</v>
+        <v>53.1843</v>
       </c>
     </row>
     <row r="10">
@@ -4991,13 +4991,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>20.4785</v>
+        <v>20.6697</v>
       </c>
       <c r="C10" t="n">
-        <v>43.0598</v>
+        <v>43.3156</v>
       </c>
       <c r="D10" t="n">
-        <v>53.6106</v>
+        <v>52.8935</v>
       </c>
     </row>
     <row r="11">
@@ -5005,13 +5005,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>21.036</v>
+        <v>20.672</v>
       </c>
       <c r="C11" t="n">
-        <v>43.5406</v>
+        <v>42.8691</v>
       </c>
       <c r="D11" t="n">
-        <v>55.7665</v>
+        <v>53.7582</v>
       </c>
     </row>
     <row r="12">
@@ -5019,13 +5019,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>20.9164</v>
+        <v>20.6717</v>
       </c>
       <c r="C12" t="n">
-        <v>44.194</v>
+        <v>43.4504</v>
       </c>
       <c r="D12" t="n">
-        <v>55.2626</v>
+        <v>54.9485</v>
       </c>
     </row>
     <row r="13">
@@ -5033,13 +5033,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>21.0104</v>
+        <v>21.3221</v>
       </c>
       <c r="C13" t="n">
-        <v>45.6589</v>
+        <v>45.3961</v>
       </c>
       <c r="D13" t="n">
-        <v>56.8793</v>
+        <v>56.7055</v>
       </c>
     </row>
     <row r="14">
@@ -5047,13 +5047,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>21.0512</v>
+        <v>20.8215</v>
       </c>
       <c r="C14" t="n">
-        <v>46.0678</v>
+        <v>45.6893</v>
       </c>
       <c r="D14" t="n">
-        <v>57.1295</v>
+        <v>57.4639</v>
       </c>
     </row>
     <row r="15">
@@ -5061,13 +5061,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>21.2059</v>
+        <v>21.1373</v>
       </c>
       <c r="C15" t="n">
-        <v>45.4257</v>
+        <v>44.6887</v>
       </c>
       <c r="D15" t="n">
-        <v>57.4654</v>
+        <v>57.9513</v>
       </c>
     </row>
     <row r="16">
@@ -5075,13 +5075,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>20.8839</v>
+        <v>20.8528</v>
       </c>
       <c r="C16" t="n">
-        <v>45.5176</v>
+        <v>45.7408</v>
       </c>
       <c r="D16" t="n">
-        <v>57.574</v>
+        <v>59.2798</v>
       </c>
     </row>
     <row r="17">
@@ -5089,13 +5089,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>21.2051</v>
+        <v>21.1637</v>
       </c>
       <c r="C17" t="n">
-        <v>46.0985</v>
+        <v>46.7288</v>
       </c>
       <c r="D17" t="n">
-        <v>57.5421</v>
+        <v>56.8768</v>
       </c>
     </row>
   </sheetData>
@@ -5143,13 +5143,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>5.00175</v>
+        <v>4.9874</v>
       </c>
       <c r="C2" t="n">
-        <v>10.898</v>
+        <v>10.8607</v>
       </c>
       <c r="D2" t="n">
-        <v>13.5829</v>
+        <v>13.7048</v>
       </c>
     </row>
     <row r="3">
@@ -5157,13 +5157,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.797510000000001</v>
+        <v>9.837199999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>20.843</v>
+        <v>20.7918</v>
       </c>
       <c r="D3" t="n">
-        <v>25.7327</v>
+        <v>25.9025</v>
       </c>
     </row>
     <row r="4">
@@ -5171,13 +5171,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>14.177</v>
+        <v>14.1578</v>
       </c>
       <c r="C4" t="n">
-        <v>29.703</v>
+        <v>29.5851</v>
       </c>
       <c r="D4" t="n">
-        <v>36.7153</v>
+        <v>36.9448</v>
       </c>
     </row>
     <row r="5">
@@ -5185,13 +5185,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>16.0807</v>
+        <v>16.0758</v>
       </c>
       <c r="C5" t="n">
-        <v>33.6996</v>
+        <v>33.6911</v>
       </c>
       <c r="D5" t="n">
-        <v>42.6946</v>
+        <v>42.5958</v>
       </c>
     </row>
     <row r="6">
@@ -5199,13 +5199,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>19.1444</v>
+        <v>19.3167</v>
       </c>
       <c r="C6" t="n">
-        <v>40.3281</v>
+        <v>40.4208</v>
       </c>
       <c r="D6" t="n">
-        <v>51.4398</v>
+        <v>51.4939</v>
       </c>
     </row>
     <row r="7">
@@ -5213,13 +5213,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>22.6452</v>
+        <v>22.7429</v>
       </c>
       <c r="C7" t="n">
-        <v>47.4434</v>
+        <v>47.9874</v>
       </c>
       <c r="D7" t="n">
-        <v>58.7603</v>
+        <v>58.8006</v>
       </c>
     </row>
     <row r="8">
@@ -5227,13 +5227,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>20.4423</v>
+        <v>20.517</v>
       </c>
       <c r="C8" t="n">
-        <v>43.2523</v>
+        <v>43.5536</v>
       </c>
       <c r="D8" t="n">
-        <v>51.2278</v>
+        <v>52.9086</v>
       </c>
     </row>
     <row r="9">
@@ -5241,13 +5241,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>21.047</v>
+        <v>20.9761</v>
       </c>
       <c r="C9" t="n">
-        <v>42.6105</v>
+        <v>44.0221</v>
       </c>
       <c r="D9" t="n">
-        <v>49.5654</v>
+        <v>53.3361</v>
       </c>
     </row>
     <row r="10">
@@ -5255,13 +5255,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>21.4745</v>
+        <v>21.2986</v>
       </c>
       <c r="C10" t="n">
-        <v>42.4617</v>
+        <v>43.6604</v>
       </c>
       <c r="D10" t="n">
-        <v>54.928</v>
+        <v>52.9999</v>
       </c>
     </row>
     <row r="11">
@@ -5269,13 +5269,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>21.5637</v>
+        <v>21.6547</v>
       </c>
       <c r="C11" t="n">
-        <v>44.981</v>
+        <v>43.5236</v>
       </c>
       <c r="D11" t="n">
-        <v>54.8662</v>
+        <v>55.2264</v>
       </c>
     </row>
     <row r="12">
@@ -5283,13 +5283,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>21.601</v>
+        <v>21.6309</v>
       </c>
       <c r="C12" t="n">
-        <v>44.4715</v>
+        <v>44.5569</v>
       </c>
       <c r="D12" t="n">
-        <v>56.1409</v>
+        <v>55.0838</v>
       </c>
     </row>
     <row r="13">
@@ -5297,13 +5297,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>21.6363</v>
+        <v>21.5488</v>
       </c>
       <c r="C13" t="n">
-        <v>44.7451</v>
+        <v>44.8233</v>
       </c>
       <c r="D13" t="n">
-        <v>54.5062</v>
+        <v>54.4942</v>
       </c>
     </row>
     <row r="14">
@@ -5311,13 +5311,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>21.5546</v>
+        <v>21.44</v>
       </c>
       <c r="C14" t="n">
-        <v>43.1652</v>
+        <v>44.2711</v>
       </c>
       <c r="D14" t="n">
-        <v>55.1314</v>
+        <v>56.2501</v>
       </c>
     </row>
     <row r="15">
@@ -5325,13 +5325,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>21.4854</v>
+        <v>21.7547</v>
       </c>
       <c r="C15" t="n">
-        <v>44.1059</v>
+        <v>45.5741</v>
       </c>
       <c r="D15" t="n">
-        <v>56.722</v>
+        <v>58.0682</v>
       </c>
     </row>
     <row r="16">
@@ -5339,13 +5339,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>21.7967</v>
+        <v>21.2077</v>
       </c>
       <c r="C16" t="n">
-        <v>46.6726</v>
+        <v>44.8609</v>
       </c>
       <c r="D16" t="n">
-        <v>57.1833</v>
+        <v>56.2465</v>
       </c>
     </row>
     <row r="17">
@@ -5353,13 +5353,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>21.405</v>
+        <v>21.6703</v>
       </c>
       <c r="C17" t="n">
-        <v>45.0372</v>
+        <v>45.927</v>
       </c>
       <c r="D17" t="n">
-        <v>57.482</v>
+        <v>56.4555</v>
       </c>
     </row>
   </sheetData>
@@ -5407,13 +5407,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.833170000000001</v>
+        <v>8.73132</v>
       </c>
       <c r="C2" t="n">
-        <v>13.2494</v>
+        <v>13.1589</v>
       </c>
       <c r="D2" t="n">
-        <v>14.7458</v>
+        <v>14.7526</v>
       </c>
     </row>
     <row r="3">
@@ -5421,13 +5421,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>16.5078</v>
+        <v>16.4525</v>
       </c>
       <c r="C3" t="n">
-        <v>24.6431</v>
+        <v>24.4037</v>
       </c>
       <c r="D3" t="n">
-        <v>27.7241</v>
+        <v>27.7766</v>
       </c>
     </row>
     <row r="4">
@@ -5435,13 +5435,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>23.575</v>
+        <v>23.2328</v>
       </c>
       <c r="C4" t="n">
-        <v>34.7161</v>
+        <v>34.3773</v>
       </c>
       <c r="D4" t="n">
-        <v>39.4398</v>
+        <v>39.6755</v>
       </c>
     </row>
     <row r="5">
@@ -5449,13 +5449,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>22.5364</v>
+        <v>23.2987</v>
       </c>
       <c r="C5" t="n">
-        <v>36.8507</v>
+        <v>36.5291</v>
       </c>
       <c r="D5" t="n">
-        <v>45.3692</v>
+        <v>45.4603</v>
       </c>
     </row>
     <row r="6">
@@ -5463,13 +5463,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>26.2047</v>
+        <v>26.651</v>
       </c>
       <c r="C6" t="n">
-        <v>42.9081</v>
+        <v>42.9176</v>
       </c>
       <c r="D6" t="n">
-        <v>54.2032</v>
+        <v>54.0304</v>
       </c>
     </row>
     <row r="7">
@@ -5477,13 +5477,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>31.7947</v>
+        <v>31.9094</v>
       </c>
       <c r="C7" t="n">
-        <v>50.9209</v>
+        <v>50.981</v>
       </c>
       <c r="D7" t="n">
-        <v>62.8963</v>
+        <v>62.899</v>
       </c>
     </row>
     <row r="8">
@@ -5491,13 +5491,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>29.4702</v>
+        <v>29.2281</v>
       </c>
       <c r="C8" t="n">
-        <v>47.2287</v>
+        <v>47.5381</v>
       </c>
       <c r="D8" t="n">
-        <v>58.723</v>
+        <v>58.1293</v>
       </c>
     </row>
     <row r="9">
@@ -5505,13 +5505,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>29.4963</v>
+        <v>30.3139</v>
       </c>
       <c r="C9" t="n">
-        <v>47.5275</v>
+        <v>47.3382</v>
       </c>
       <c r="D9" t="n">
-        <v>59.8662</v>
+        <v>58.3314</v>
       </c>
     </row>
     <row r="10">
@@ -5519,13 +5519,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>29.8367</v>
+        <v>29.8959</v>
       </c>
       <c r="C10" t="n">
-        <v>47.4039</v>
+        <v>48.2216</v>
       </c>
       <c r="D10" t="n">
-        <v>59.8902</v>
+        <v>60.1076</v>
       </c>
     </row>
     <row r="11">
@@ -5533,13 +5533,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>30.5385</v>
+        <v>30.2637</v>
       </c>
       <c r="C11" t="n">
-        <v>47.6025</v>
+        <v>47.4824</v>
       </c>
       <c r="D11" t="n">
-        <v>60.0551</v>
+        <v>60.2689</v>
       </c>
     </row>
     <row r="12">
@@ -5547,13 +5547,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>30.3464</v>
+        <v>30.1239</v>
       </c>
       <c r="C12" t="n">
-        <v>47.3085</v>
+        <v>48.2084</v>
       </c>
       <c r="D12" t="n">
-        <v>59.9911</v>
+        <v>59.0888</v>
       </c>
     </row>
     <row r="13">
@@ -5561,13 +5561,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>30.6906</v>
+        <v>30.4906</v>
       </c>
       <c r="C13" t="n">
-        <v>48.1201</v>
+        <v>48.6307</v>
       </c>
       <c r="D13" t="n">
-        <v>60.8799</v>
+        <v>60.5103</v>
       </c>
     </row>
     <row r="14">
@@ -5575,13 +5575,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>30.5266</v>
+        <v>30.6683</v>
       </c>
       <c r="C14" t="n">
-        <v>48.6693</v>
+        <v>47.8259</v>
       </c>
       <c r="D14" t="n">
-        <v>60.3976</v>
+        <v>60.2496</v>
       </c>
     </row>
     <row r="15">
@@ -5589,13 +5589,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>30.3174</v>
+        <v>30.6489</v>
       </c>
       <c r="C15" t="n">
-        <v>48.246</v>
+        <v>48.0671</v>
       </c>
       <c r="D15" t="n">
-        <v>61.2555</v>
+        <v>61.323</v>
       </c>
     </row>
     <row r="16">
@@ -5603,13 +5603,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>30.5859</v>
+        <v>30.8364</v>
       </c>
       <c r="C16" t="n">
-        <v>48.0882</v>
+        <v>46.9356</v>
       </c>
       <c r="D16" t="n">
-        <v>60.5335</v>
+        <v>61.8141</v>
       </c>
     </row>
     <row r="17">
@@ -5617,13 +5617,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>31.1087</v>
+        <v>30.9665</v>
       </c>
       <c r="C17" t="n">
-        <v>49.709</v>
+        <v>49.2648</v>
       </c>
       <c r="D17" t="n">
-        <v>61.1276</v>
+        <v>61.7111</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Parallel workload.xlsx
+++ b/vs-x86/Parallel workload.xlsx
@@ -4087,13 +4087,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>9.40727</v>
+        <v>9.37424</v>
       </c>
       <c r="C2" t="n">
-        <v>13.1674</v>
+        <v>13.1856</v>
       </c>
       <c r="D2" t="n">
-        <v>14.5465</v>
+        <v>14.539</v>
       </c>
     </row>
     <row r="3">
@@ -4101,13 +4101,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>17.3898</v>
+        <v>17.2536</v>
       </c>
       <c r="C3" t="n">
-        <v>22.0954</v>
+        <v>21.2947</v>
       </c>
       <c r="D3" t="n">
-        <v>23.7336</v>
+        <v>22.4932</v>
       </c>
     </row>
     <row r="4">
@@ -4115,13 +4115,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>23.6013</v>
+        <v>23.7686</v>
       </c>
       <c r="C4" t="n">
-        <v>26.7361</v>
+        <v>27.211</v>
       </c>
       <c r="D4" t="n">
-        <v>31.2569</v>
+        <v>31.6798</v>
       </c>
     </row>
     <row r="5">
@@ -4129,13 +4129,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>19.3512</v>
+        <v>19.6326</v>
       </c>
       <c r="C5" t="n">
-        <v>30.5366</v>
+        <v>30.3058</v>
       </c>
       <c r="D5" t="n">
-        <v>33.3163</v>
+        <v>33.0768</v>
       </c>
     </row>
     <row r="6">
@@ -4143,13 +4143,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>22.6119</v>
+        <v>22.5027</v>
       </c>
       <c r="C6" t="n">
-        <v>31.6188</v>
+        <v>31.8425</v>
       </c>
       <c r="D6" t="n">
-        <v>39.3521</v>
+        <v>39.3693</v>
       </c>
     </row>
     <row r="7">
@@ -4157,13 +4157,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>26.6008</v>
+        <v>26.4147</v>
       </c>
       <c r="C7" t="n">
-        <v>39.2979</v>
+        <v>37.9085</v>
       </c>
       <c r="D7" t="n">
-        <v>39.383</v>
+        <v>39.8322</v>
       </c>
     </row>
     <row r="8">
@@ -4171,13 +4171,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>20.142</v>
+        <v>19.8065</v>
       </c>
       <c r="C8" t="n">
-        <v>35.7274</v>
+        <v>37.3792</v>
       </c>
       <c r="D8" t="n">
-        <v>40.4456</v>
+        <v>40.62</v>
       </c>
     </row>
     <row r="9">
@@ -4185,13 +4185,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>22.804</v>
+        <v>22.321</v>
       </c>
       <c r="C9" t="n">
-        <v>38.439</v>
+        <v>39.5421</v>
       </c>
       <c r="D9" t="n">
-        <v>46.189</v>
+        <v>44.5277</v>
       </c>
     </row>
     <row r="10">
@@ -4199,13 +4199,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>24.1816</v>
+        <v>24.4192</v>
       </c>
       <c r="C10" t="n">
-        <v>42.1753</v>
+        <v>42.3082</v>
       </c>
       <c r="D10" t="n">
-        <v>47.2064</v>
+        <v>47.5598</v>
       </c>
     </row>
     <row r="11">
@@ -4213,13 +4213,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>22.5438</v>
+        <v>22.7539</v>
       </c>
       <c r="C11" t="n">
-        <v>42.9178</v>
+        <v>41.914</v>
       </c>
       <c r="D11" t="n">
-        <v>50.0275</v>
+        <v>48.7912</v>
       </c>
     </row>
     <row r="12">
@@ -4227,13 +4227,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>24.4774</v>
+        <v>24.34</v>
       </c>
       <c r="C12" t="n">
-        <v>42.3242</v>
+        <v>44.968</v>
       </c>
       <c r="D12" t="n">
-        <v>52.7583</v>
+        <v>50.1703</v>
       </c>
     </row>
     <row r="13">
@@ -4241,13 +4241,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>26.522</v>
+        <v>26.3632</v>
       </c>
       <c r="C13" t="n">
-        <v>44.8923</v>
+        <v>44.5417</v>
       </c>
       <c r="D13" t="n">
-        <v>51.7039</v>
+        <v>52.0249</v>
       </c>
     </row>
     <row r="14">
@@ -4255,13 +4255,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>22.3884</v>
+        <v>22.3318</v>
       </c>
       <c r="C14" t="n">
-        <v>44.1662</v>
+        <v>44.4</v>
       </c>
       <c r="D14" t="n">
-        <v>53.0065</v>
+        <v>51.3646</v>
       </c>
     </row>
     <row r="15">
@@ -4269,13 +4269,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>24.0384</v>
+        <v>23.7148</v>
       </c>
       <c r="C15" t="n">
-        <v>44.0082</v>
+        <v>44.1725</v>
       </c>
       <c r="D15" t="n">
-        <v>51.5901</v>
+        <v>52.9728</v>
       </c>
     </row>
     <row r="16">
@@ -4283,13 +4283,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>25.3548</v>
+        <v>24.9099</v>
       </c>
       <c r="C16" t="n">
-        <v>45.2486</v>
+        <v>45.4442</v>
       </c>
       <c r="D16" t="n">
-        <v>52.7089</v>
+        <v>52.5231</v>
       </c>
     </row>
     <row r="17">
@@ -4297,13 +4297,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>23.6312</v>
+        <v>23.7378</v>
       </c>
       <c r="C17" t="n">
-        <v>45.2448</v>
+        <v>44.4622</v>
       </c>
       <c r="D17" t="n">
-        <v>50.9155</v>
+        <v>53.5419</v>
       </c>
     </row>
   </sheetData>
@@ -4351,13 +4351,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>9.40831</v>
+        <v>9.36476</v>
       </c>
       <c r="C2" t="n">
-        <v>13.0908</v>
+        <v>13.0702</v>
       </c>
       <c r="D2" t="n">
-        <v>14.4745</v>
+        <v>14.4083</v>
       </c>
     </row>
     <row r="3">
@@ -4365,13 +4365,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>17.5092</v>
+        <v>17.2766</v>
       </c>
       <c r="C3" t="n">
-        <v>21.879</v>
+        <v>21.0038</v>
       </c>
       <c r="D3" t="n">
-        <v>23.026</v>
+        <v>23.6222</v>
       </c>
     </row>
     <row r="4">
@@ -4379,13 +4379,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>24.6961</v>
+        <v>23.9028</v>
       </c>
       <c r="C4" t="n">
-        <v>26.3971</v>
+        <v>26.0947</v>
       </c>
       <c r="D4" t="n">
-        <v>30.4242</v>
+        <v>29.5025</v>
       </c>
     </row>
     <row r="5">
@@ -4393,13 +4393,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>19.6093</v>
+        <v>19.2111</v>
       </c>
       <c r="C5" t="n">
-        <v>28.2851</v>
+        <v>28.2208</v>
       </c>
       <c r="D5" t="n">
-        <v>34.9966</v>
+        <v>33.9173</v>
       </c>
     </row>
     <row r="6">
@@ -4407,13 +4407,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>23.0322</v>
+        <v>22.8988</v>
       </c>
       <c r="C6" t="n">
-        <v>35.023</v>
+        <v>35.1365</v>
       </c>
       <c r="D6" t="n">
-        <v>36.1996</v>
+        <v>35.1456</v>
       </c>
     </row>
     <row r="7">
@@ -4421,13 +4421,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>27.1124</v>
+        <v>27.015</v>
       </c>
       <c r="C7" t="n">
-        <v>35.5239</v>
+        <v>35.0692</v>
       </c>
       <c r="D7" t="n">
-        <v>44.9646</v>
+        <v>44.9497</v>
       </c>
     </row>
     <row r="8">
@@ -4435,13 +4435,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>20.2913</v>
+        <v>20.2458</v>
       </c>
       <c r="C8" t="n">
-        <v>34.9128</v>
+        <v>33.3399</v>
       </c>
       <c r="D8" t="n">
-        <v>42.4659</v>
+        <v>40.0065</v>
       </c>
     </row>
     <row r="9">
@@ -4449,13 +4449,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>22.9083</v>
+        <v>22.9194</v>
       </c>
       <c r="C9" t="n">
-        <v>37.6601</v>
+        <v>38.4067</v>
       </c>
       <c r="D9" t="n">
-        <v>43.12</v>
+        <v>44.1861</v>
       </c>
     </row>
     <row r="10">
@@ -4463,13 +4463,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>24.9179</v>
+        <v>24.8669</v>
       </c>
       <c r="C10" t="n">
-        <v>38.9744</v>
+        <v>37.3044</v>
       </c>
       <c r="D10" t="n">
-        <v>46.8466</v>
+        <v>47.3677</v>
       </c>
     </row>
     <row r="11">
@@ -4477,13 +4477,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>22.8156</v>
+        <v>22.7386</v>
       </c>
       <c r="C11" t="n">
-        <v>39.5899</v>
+        <v>40.3414</v>
       </c>
       <c r="D11" t="n">
-        <v>51.097</v>
+        <v>50.8666</v>
       </c>
     </row>
     <row r="12">
@@ -4491,13 +4491,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>24.8278</v>
+        <v>24.734</v>
       </c>
       <c r="C12" t="n">
-        <v>44.3818</v>
+        <v>42.6051</v>
       </c>
       <c r="D12" t="n">
-        <v>50.3297</v>
+        <v>50.436</v>
       </c>
     </row>
     <row r="13">
@@ -4505,13 +4505,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>27.1387</v>
+        <v>26.9741</v>
       </c>
       <c r="C13" t="n">
-        <v>44.5407</v>
+        <v>43.0725</v>
       </c>
       <c r="D13" t="n">
-        <v>53.1614</v>
+        <v>51.3349</v>
       </c>
     </row>
     <row r="14">
@@ -4519,13 +4519,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>22.7175</v>
+        <v>22.7123</v>
       </c>
       <c r="C14" t="n">
-        <v>43.9592</v>
+        <v>44.5442</v>
       </c>
       <c r="D14" t="n">
-        <v>54.0428</v>
+        <v>51.7248</v>
       </c>
     </row>
     <row r="15">
@@ -4533,13 +4533,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>24.2144</v>
+        <v>24.2307</v>
       </c>
       <c r="C15" t="n">
-        <v>45.0592</v>
+        <v>44.3491</v>
       </c>
       <c r="D15" t="n">
-        <v>52.6726</v>
+        <v>51.65</v>
       </c>
     </row>
     <row r="16">
@@ -4547,13 +4547,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>25.4166</v>
+        <v>25.1832</v>
       </c>
       <c r="C16" t="n">
-        <v>44.408</v>
+        <v>44.3157</v>
       </c>
       <c r="D16" t="n">
-        <v>52.0429</v>
+        <v>52.5841</v>
       </c>
     </row>
     <row r="17">
@@ -4561,13 +4561,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>24.1792</v>
+        <v>24.2689</v>
       </c>
       <c r="C17" t="n">
-        <v>45.4648</v>
+        <v>44.8031</v>
       </c>
       <c r="D17" t="n">
-        <v>53.4233</v>
+        <v>53.2815</v>
       </c>
     </row>
   </sheetData>
@@ -4615,13 +4615,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>10.9862</v>
+        <v>10.9305</v>
       </c>
       <c r="C2" t="n">
-        <v>13.92</v>
+        <v>13.9745</v>
       </c>
       <c r="D2" t="n">
-        <v>14.8666</v>
+        <v>14.8429</v>
       </c>
     </row>
     <row r="3">
@@ -4629,13 +4629,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>19.5034</v>
+        <v>19.5633</v>
       </c>
       <c r="C3" t="n">
-        <v>22.7008</v>
+        <v>22.6612</v>
       </c>
       <c r="D3" t="n">
-        <v>24.6274</v>
+        <v>24.2442</v>
       </c>
     </row>
     <row r="4">
@@ -4643,13 +4643,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>26.9034</v>
+        <v>26.6872</v>
       </c>
       <c r="C4" t="n">
-        <v>31.8009</v>
+        <v>28.6508</v>
       </c>
       <c r="D4" t="n">
-        <v>31.4915</v>
+        <v>30.8003</v>
       </c>
     </row>
     <row r="5">
@@ -4657,13 +4657,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>23.6344</v>
+        <v>23.2724</v>
       </c>
       <c r="C5" t="n">
-        <v>30.8686</v>
+        <v>30.1802</v>
       </c>
       <c r="D5" t="n">
-        <v>34.8291</v>
+        <v>34.9807</v>
       </c>
     </row>
     <row r="6">
@@ -4671,13 +4671,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>28.0938</v>
+        <v>28.0805</v>
       </c>
       <c r="C6" t="n">
-        <v>34.3456</v>
+        <v>35.1224</v>
       </c>
       <c r="D6" t="n">
-        <v>36.3549</v>
+        <v>37.3318</v>
       </c>
     </row>
     <row r="7">
@@ -4685,13 +4685,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>33.209</v>
+        <v>33.0608</v>
       </c>
       <c r="C7" t="n">
-        <v>35.3589</v>
+        <v>35.1223</v>
       </c>
       <c r="D7" t="n">
-        <v>52.3455</v>
+        <v>44.9656</v>
       </c>
     </row>
     <row r="8">
@@ -4699,13 +4699,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>29.77</v>
+        <v>29.5082</v>
       </c>
       <c r="C8" t="n">
-        <v>34.2756</v>
+        <v>34.9393</v>
       </c>
       <c r="D8" t="n">
-        <v>44.0269</v>
+        <v>44.516</v>
       </c>
     </row>
     <row r="9">
@@ -4713,13 +4713,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>29.4786</v>
+        <v>29.9641</v>
       </c>
       <c r="C9" t="n">
-        <v>36.8661</v>
+        <v>41.2796</v>
       </c>
       <c r="D9" t="n">
-        <v>48.7775</v>
+        <v>46.2365</v>
       </c>
     </row>
     <row r="10">
@@ -4727,13 +4727,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>30.2407</v>
+        <v>30.0457</v>
       </c>
       <c r="C10" t="n">
-        <v>43.4387</v>
+        <v>40.7157</v>
       </c>
       <c r="D10" t="n">
-        <v>49.1763</v>
+        <v>49.5131</v>
       </c>
     </row>
     <row r="11">
@@ -4741,13 +4741,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>31.2071</v>
+        <v>30.84</v>
       </c>
       <c r="C11" t="n">
-        <v>44.3741</v>
+        <v>43.7898</v>
       </c>
       <c r="D11" t="n">
-        <v>52.4775</v>
+        <v>51.943</v>
       </c>
     </row>
     <row r="12">
@@ -4755,13 +4755,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>31.152</v>
+        <v>31.136</v>
       </c>
       <c r="C12" t="n">
-        <v>44.9538</v>
+        <v>44.5558</v>
       </c>
       <c r="D12" t="n">
-        <v>52.5319</v>
+        <v>52.6828</v>
       </c>
     </row>
     <row r="13">
@@ -4769,13 +4769,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>31.0619</v>
+        <v>30.9614</v>
       </c>
       <c r="C13" t="n">
-        <v>44.8212</v>
+        <v>45.1733</v>
       </c>
       <c r="D13" t="n">
-        <v>52.866</v>
+        <v>52.9018</v>
       </c>
     </row>
     <row r="14">
@@ -4783,13 +4783,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>31.2248</v>
+        <v>30.6647</v>
       </c>
       <c r="C14" t="n">
-        <v>43.4707</v>
+        <v>43.9534</v>
       </c>
       <c r="D14" t="n">
-        <v>53.504</v>
+        <v>52.8858</v>
       </c>
     </row>
     <row r="15">
@@ -4797,13 +4797,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>31.3309</v>
+        <v>31.1711</v>
       </c>
       <c r="C15" t="n">
-        <v>43.8415</v>
+        <v>43.7792</v>
       </c>
       <c r="D15" t="n">
-        <v>52.4639</v>
+        <v>52.6856</v>
       </c>
     </row>
     <row r="16">
@@ -4811,13 +4811,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>31.4404</v>
+        <v>31.2291</v>
       </c>
       <c r="C16" t="n">
-        <v>44.3238</v>
+        <v>43.8898</v>
       </c>
       <c r="D16" t="n">
-        <v>52.8599</v>
+        <v>52.9931</v>
       </c>
     </row>
     <row r="17">
@@ -4825,13 +4825,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>32.1407</v>
+        <v>31.3814</v>
       </c>
       <c r="C17" t="n">
-        <v>44.9839</v>
+        <v>45.4315</v>
       </c>
       <c r="D17" t="n">
-        <v>53.0361</v>
+        <v>51.7544</v>
       </c>
     </row>
   </sheetData>
@@ -4879,13 +4879,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4.89769</v>
+        <v>4.91162</v>
       </c>
       <c r="C2" t="n">
-        <v>10.8246</v>
+        <v>10.8658</v>
       </c>
       <c r="D2" t="n">
-        <v>13.5259</v>
+        <v>13.5518</v>
       </c>
     </row>
     <row r="3">
@@ -4893,13 +4893,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.635149999999999</v>
+        <v>9.57775</v>
       </c>
       <c r="C3" t="n">
-        <v>20.9051</v>
+        <v>20.6953</v>
       </c>
       <c r="D3" t="n">
-        <v>25.844</v>
+        <v>25.7615</v>
       </c>
     </row>
     <row r="4">
@@ -4907,13 +4907,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>13.8172</v>
+        <v>13.8241</v>
       </c>
       <c r="C4" t="n">
-        <v>29.8273</v>
+        <v>29.7047</v>
       </c>
       <c r="D4" t="n">
-        <v>36.7175</v>
+        <v>36.9538</v>
       </c>
     </row>
     <row r="5">
@@ -4921,13 +4921,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>15.8309</v>
+        <v>15.7243</v>
       </c>
       <c r="C5" t="n">
-        <v>34.0105</v>
+        <v>33.5048</v>
       </c>
       <c r="D5" t="n">
-        <v>43.1388</v>
+        <v>42.9104</v>
       </c>
     </row>
     <row r="6">
@@ -4935,13 +4935,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>18.8564</v>
+        <v>18.8725</v>
       </c>
       <c r="C6" t="n">
-        <v>41.0371</v>
+        <v>41.1018</v>
       </c>
       <c r="D6" t="n">
-        <v>51.6117</v>
+        <v>51.2541</v>
       </c>
     </row>
     <row r="7">
@@ -4949,13 +4949,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>22.1169</v>
+        <v>22.1382</v>
       </c>
       <c r="C7" t="n">
-        <v>48.1396</v>
+        <v>47.6934</v>
       </c>
       <c r="D7" t="n">
-        <v>60.9607</v>
+        <v>60.7876</v>
       </c>
     </row>
     <row r="8">
@@ -4963,13 +4963,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>20.0696</v>
+        <v>20.1173</v>
       </c>
       <c r="C8" t="n">
-        <v>42.2264</v>
+        <v>42.7893</v>
       </c>
       <c r="D8" t="n">
-        <v>54.4888</v>
+        <v>54.7131</v>
       </c>
     </row>
     <row r="9">
@@ -4977,13 +4977,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>20.2253</v>
+        <v>20.6867</v>
       </c>
       <c r="C9" t="n">
-        <v>44.3231</v>
+        <v>41.509</v>
       </c>
       <c r="D9" t="n">
-        <v>53.1843</v>
+        <v>52.9353</v>
       </c>
     </row>
     <row r="10">
@@ -4991,13 +4991,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>20.6697</v>
+        <v>20.8363</v>
       </c>
       <c r="C10" t="n">
-        <v>43.3156</v>
+        <v>42.1363</v>
       </c>
       <c r="D10" t="n">
-        <v>52.8935</v>
+        <v>51.9134</v>
       </c>
     </row>
     <row r="11">
@@ -5005,13 +5005,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>20.672</v>
+        <v>20.9661</v>
       </c>
       <c r="C11" t="n">
-        <v>42.8691</v>
+        <v>42.4881</v>
       </c>
       <c r="D11" t="n">
-        <v>53.7582</v>
+        <v>55.4624</v>
       </c>
     </row>
     <row r="12">
@@ -5019,13 +5019,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>20.6717</v>
+        <v>20.9717</v>
       </c>
       <c r="C12" t="n">
-        <v>43.4504</v>
+        <v>43.4783</v>
       </c>
       <c r="D12" t="n">
-        <v>54.9485</v>
+        <v>55.5134</v>
       </c>
     </row>
     <row r="13">
@@ -5033,13 +5033,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>21.3221</v>
+        <v>21.1072</v>
       </c>
       <c r="C13" t="n">
-        <v>45.3961</v>
+        <v>44.536</v>
       </c>
       <c r="D13" t="n">
-        <v>56.7055</v>
+        <v>56.3306</v>
       </c>
     </row>
     <row r="14">
@@ -5047,13 +5047,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>20.8215</v>
+        <v>20.951</v>
       </c>
       <c r="C14" t="n">
-        <v>45.6893</v>
+        <v>44.1624</v>
       </c>
       <c r="D14" t="n">
-        <v>57.4639</v>
+        <v>55.1502</v>
       </c>
     </row>
     <row r="15">
@@ -5061,13 +5061,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>21.1373</v>
+        <v>21.3053</v>
       </c>
       <c r="C15" t="n">
-        <v>44.6887</v>
+        <v>44.4113</v>
       </c>
       <c r="D15" t="n">
-        <v>57.9513</v>
+        <v>56.7036</v>
       </c>
     </row>
     <row r="16">
@@ -5075,13 +5075,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>20.8528</v>
+        <v>21.1289</v>
       </c>
       <c r="C16" t="n">
-        <v>45.7408</v>
+        <v>45.4892</v>
       </c>
       <c r="D16" t="n">
-        <v>59.2798</v>
+        <v>57.0392</v>
       </c>
     </row>
     <row r="17">
@@ -5089,13 +5089,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>21.1637</v>
+        <v>21.2298</v>
       </c>
       <c r="C17" t="n">
-        <v>46.7288</v>
+        <v>44.7496</v>
       </c>
       <c r="D17" t="n">
-        <v>56.8768</v>
+        <v>57.6181</v>
       </c>
     </row>
   </sheetData>
@@ -5143,13 +5143,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4.9874</v>
+        <v>5.0091</v>
       </c>
       <c r="C2" t="n">
-        <v>10.8607</v>
+        <v>10.8642</v>
       </c>
       <c r="D2" t="n">
-        <v>13.7048</v>
+        <v>13.5727</v>
       </c>
     </row>
     <row r="3">
@@ -5157,13 +5157,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.837199999999999</v>
+        <v>9.74483</v>
       </c>
       <c r="C3" t="n">
-        <v>20.7918</v>
+        <v>20.6801</v>
       </c>
       <c r="D3" t="n">
-        <v>25.9025</v>
+        <v>25.533</v>
       </c>
     </row>
     <row r="4">
@@ -5171,13 +5171,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>14.1578</v>
+        <v>14.0903</v>
       </c>
       <c r="C4" t="n">
-        <v>29.5851</v>
+        <v>29.3483</v>
       </c>
       <c r="D4" t="n">
-        <v>36.9448</v>
+        <v>36.7692</v>
       </c>
     </row>
     <row r="5">
@@ -5185,13 +5185,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>16.0758</v>
+        <v>16.0406</v>
       </c>
       <c r="C5" t="n">
-        <v>33.6911</v>
+        <v>33.7528</v>
       </c>
       <c r="D5" t="n">
-        <v>42.5958</v>
+        <v>43.1015</v>
       </c>
     </row>
     <row r="6">
@@ -5199,13 +5199,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>19.3167</v>
+        <v>19.4448</v>
       </c>
       <c r="C6" t="n">
-        <v>40.4208</v>
+        <v>39.8508</v>
       </c>
       <c r="D6" t="n">
-        <v>51.4939</v>
+        <v>51.2172</v>
       </c>
     </row>
     <row r="7">
@@ -5213,13 +5213,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>22.7429</v>
+        <v>22.7715</v>
       </c>
       <c r="C7" t="n">
-        <v>47.9874</v>
+        <v>47.2509</v>
       </c>
       <c r="D7" t="n">
-        <v>58.8006</v>
+        <v>58.8959</v>
       </c>
     </row>
     <row r="8">
@@ -5227,13 +5227,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>20.517</v>
+        <v>20.5995</v>
       </c>
       <c r="C8" t="n">
-        <v>43.5536</v>
+        <v>42.2365</v>
       </c>
       <c r="D8" t="n">
-        <v>52.9086</v>
+        <v>52.373</v>
       </c>
     </row>
     <row r="9">
@@ -5241,13 +5241,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>20.9761</v>
+        <v>21.2446</v>
       </c>
       <c r="C9" t="n">
-        <v>44.0221</v>
+        <v>43.1244</v>
       </c>
       <c r="D9" t="n">
-        <v>53.3361</v>
+        <v>52.0667</v>
       </c>
     </row>
     <row r="10">
@@ -5255,13 +5255,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>21.2986</v>
+        <v>21.4846</v>
       </c>
       <c r="C10" t="n">
-        <v>43.6604</v>
+        <v>44.0967</v>
       </c>
       <c r="D10" t="n">
-        <v>52.9999</v>
+        <v>52.9434</v>
       </c>
     </row>
     <row r="11">
@@ -5269,13 +5269,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>21.6547</v>
+        <v>21.7546</v>
       </c>
       <c r="C11" t="n">
-        <v>43.5236</v>
+        <v>42.9304</v>
       </c>
       <c r="D11" t="n">
-        <v>55.2264</v>
+        <v>52.8904</v>
       </c>
     </row>
     <row r="12">
@@ -5283,13 +5283,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>21.6309</v>
+        <v>21.7843</v>
       </c>
       <c r="C12" t="n">
-        <v>44.5569</v>
+        <v>43.0856</v>
       </c>
       <c r="D12" t="n">
-        <v>55.0838</v>
+        <v>55.8564</v>
       </c>
     </row>
     <row r="13">
@@ -5297,13 +5297,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>21.5488</v>
+        <v>21.557</v>
       </c>
       <c r="C13" t="n">
-        <v>44.8233</v>
+        <v>44.6502</v>
       </c>
       <c r="D13" t="n">
-        <v>54.4942</v>
+        <v>53.6086</v>
       </c>
     </row>
     <row r="14">
@@ -5311,13 +5311,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>21.44</v>
+        <v>21.5555</v>
       </c>
       <c r="C14" t="n">
-        <v>44.2711</v>
+        <v>43.3443</v>
       </c>
       <c r="D14" t="n">
-        <v>56.2501</v>
+        <v>54.9332</v>
       </c>
     </row>
     <row r="15">
@@ -5325,13 +5325,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>21.7547</v>
+        <v>21.6186</v>
       </c>
       <c r="C15" t="n">
-        <v>45.5741</v>
+        <v>45.8338</v>
       </c>
       <c r="D15" t="n">
-        <v>58.0682</v>
+        <v>54.3279</v>
       </c>
     </row>
     <row r="16">
@@ -5339,13 +5339,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>21.2077</v>
+        <v>21.2794</v>
       </c>
       <c r="C16" t="n">
-        <v>44.8609</v>
+        <v>45.4358</v>
       </c>
       <c r="D16" t="n">
-        <v>56.2465</v>
+        <v>57.4398</v>
       </c>
     </row>
     <row r="17">
@@ -5353,13 +5353,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>21.6703</v>
+        <v>21.7744</v>
       </c>
       <c r="C17" t="n">
-        <v>45.927</v>
+        <v>45.9311</v>
       </c>
       <c r="D17" t="n">
-        <v>56.4555</v>
+        <v>56.0481</v>
       </c>
     </row>
   </sheetData>
@@ -5407,13 +5407,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.73132</v>
+        <v>8.7448</v>
       </c>
       <c r="C2" t="n">
-        <v>13.1589</v>
+        <v>13.2237</v>
       </c>
       <c r="D2" t="n">
-        <v>14.7526</v>
+        <v>14.7667</v>
       </c>
     </row>
     <row r="3">
@@ -5421,13 +5421,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>16.4525</v>
+        <v>16.5332</v>
       </c>
       <c r="C3" t="n">
-        <v>24.4037</v>
+        <v>24.6403</v>
       </c>
       <c r="D3" t="n">
-        <v>27.7766</v>
+        <v>27.9872</v>
       </c>
     </row>
     <row r="4">
@@ -5435,13 +5435,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>23.2328</v>
+        <v>23.8059</v>
       </c>
       <c r="C4" t="n">
-        <v>34.3773</v>
+        <v>34.7123</v>
       </c>
       <c r="D4" t="n">
-        <v>39.6755</v>
+        <v>39.8737</v>
       </c>
     </row>
     <row r="5">
@@ -5449,13 +5449,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>23.2987</v>
+        <v>23.2935</v>
       </c>
       <c r="C5" t="n">
-        <v>36.5291</v>
+        <v>36.6902</v>
       </c>
       <c r="D5" t="n">
-        <v>45.4603</v>
+        <v>45.5413</v>
       </c>
     </row>
     <row r="6">
@@ -5463,13 +5463,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>26.651</v>
+        <v>26.4034</v>
       </c>
       <c r="C6" t="n">
-        <v>42.9176</v>
+        <v>43.1025</v>
       </c>
       <c r="D6" t="n">
-        <v>54.0304</v>
+        <v>54.1229</v>
       </c>
     </row>
     <row r="7">
@@ -5477,13 +5477,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>31.9094</v>
+        <v>31.9383</v>
       </c>
       <c r="C7" t="n">
-        <v>50.981</v>
+        <v>50.6712</v>
       </c>
       <c r="D7" t="n">
-        <v>62.899</v>
+        <v>63.2779</v>
       </c>
     </row>
     <row r="8">
@@ -5491,13 +5491,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>29.2281</v>
+        <v>29.232</v>
       </c>
       <c r="C8" t="n">
-        <v>47.5381</v>
+        <v>47.2329</v>
       </c>
       <c r="D8" t="n">
-        <v>58.1293</v>
+        <v>58.7961</v>
       </c>
     </row>
     <row r="9">
@@ -5505,13 +5505,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>30.3139</v>
+        <v>29.2756</v>
       </c>
       <c r="C9" t="n">
-        <v>47.3382</v>
+        <v>46.155</v>
       </c>
       <c r="D9" t="n">
-        <v>58.3314</v>
+        <v>58.7454</v>
       </c>
     </row>
     <row r="10">
@@ -5519,13 +5519,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>29.8959</v>
+        <v>30.5835</v>
       </c>
       <c r="C10" t="n">
-        <v>48.2216</v>
+        <v>47.8618</v>
       </c>
       <c r="D10" t="n">
-        <v>60.1076</v>
+        <v>60.575</v>
       </c>
     </row>
     <row r="11">
@@ -5533,13 +5533,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>30.2637</v>
+        <v>30.8561</v>
       </c>
       <c r="C11" t="n">
-        <v>47.4824</v>
+        <v>47.6869</v>
       </c>
       <c r="D11" t="n">
-        <v>60.2689</v>
+        <v>60.3078</v>
       </c>
     </row>
     <row r="12">
@@ -5547,13 +5547,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>30.1239</v>
+        <v>30.2987</v>
       </c>
       <c r="C12" t="n">
-        <v>48.2084</v>
+        <v>47.7733</v>
       </c>
       <c r="D12" t="n">
-        <v>59.0888</v>
+        <v>60.2167</v>
       </c>
     </row>
     <row r="13">
@@ -5561,13 +5561,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>30.4906</v>
+        <v>30.7272</v>
       </c>
       <c r="C13" t="n">
-        <v>48.6307</v>
+        <v>48.1066</v>
       </c>
       <c r="D13" t="n">
-        <v>60.5103</v>
+        <v>61.1482</v>
       </c>
     </row>
     <row r="14">
@@ -5575,13 +5575,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>30.6683</v>
+        <v>30.7333</v>
       </c>
       <c r="C14" t="n">
-        <v>47.8259</v>
+        <v>48.1587</v>
       </c>
       <c r="D14" t="n">
-        <v>60.2496</v>
+        <v>60.705</v>
       </c>
     </row>
     <row r="15">
@@ -5589,13 +5589,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>30.6489</v>
+        <v>30.9573</v>
       </c>
       <c r="C15" t="n">
-        <v>48.0671</v>
+        <v>48.9467</v>
       </c>
       <c r="D15" t="n">
-        <v>61.323</v>
+        <v>61.1525</v>
       </c>
     </row>
     <row r="16">
@@ -5603,13 +5603,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>30.8364</v>
+        <v>30.9132</v>
       </c>
       <c r="C16" t="n">
-        <v>46.9356</v>
+        <v>48.8185</v>
       </c>
       <c r="D16" t="n">
-        <v>61.8141</v>
+        <v>60.0797</v>
       </c>
     </row>
     <row r="17">
@@ -5617,13 +5617,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>30.9665</v>
+        <v>30.6068</v>
       </c>
       <c r="C17" t="n">
-        <v>49.2648</v>
+        <v>49.0352</v>
       </c>
       <c r="D17" t="n">
-        <v>61.7111</v>
+        <v>60.6907</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Parallel workload.xlsx
+++ b/vs-x86/Parallel workload.xlsx
@@ -4087,13 +4087,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>9.37424</v>
+        <v>9.404450000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>13.1856</v>
+        <v>13.1637</v>
       </c>
       <c r="D2" t="n">
-        <v>14.539</v>
+        <v>14.5103</v>
       </c>
     </row>
     <row r="3">
@@ -4101,13 +4101,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>17.2536</v>
+        <v>17.4556</v>
       </c>
       <c r="C3" t="n">
-        <v>21.2947</v>
+        <v>21.8685</v>
       </c>
       <c r="D3" t="n">
-        <v>22.4932</v>
+        <v>23.7157</v>
       </c>
     </row>
     <row r="4">
@@ -4115,13 +4115,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>23.7686</v>
+        <v>23.964</v>
       </c>
       <c r="C4" t="n">
-        <v>27.211</v>
+        <v>26.5616</v>
       </c>
       <c r="D4" t="n">
-        <v>31.6798</v>
+        <v>31.5407</v>
       </c>
     </row>
     <row r="5">
@@ -4129,13 +4129,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>19.6326</v>
+        <v>19.115</v>
       </c>
       <c r="C5" t="n">
-        <v>30.3058</v>
+        <v>29.3148</v>
       </c>
       <c r="D5" t="n">
-        <v>33.0768</v>
+        <v>33.6157</v>
       </c>
     </row>
     <row r="6">
@@ -4143,13 +4143,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>22.5027</v>
+        <v>22.4016</v>
       </c>
       <c r="C6" t="n">
-        <v>31.8425</v>
+        <v>32.1436</v>
       </c>
       <c r="D6" t="n">
-        <v>39.3693</v>
+        <v>39.4186</v>
       </c>
     </row>
     <row r="7">
@@ -4157,13 +4157,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>26.4147</v>
+        <v>26.4991</v>
       </c>
       <c r="C7" t="n">
-        <v>37.9085</v>
+        <v>39.5803</v>
       </c>
       <c r="D7" t="n">
-        <v>39.8322</v>
+        <v>40.7801</v>
       </c>
     </row>
     <row r="8">
@@ -4171,13 +4171,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>19.8065</v>
+        <v>20.036</v>
       </c>
       <c r="C8" t="n">
-        <v>37.3792</v>
+        <v>36.6837</v>
       </c>
       <c r="D8" t="n">
-        <v>40.62</v>
+        <v>39.8705</v>
       </c>
     </row>
     <row r="9">
@@ -4185,13 +4185,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>22.321</v>
+        <v>22.571</v>
       </c>
       <c r="C9" t="n">
-        <v>39.5421</v>
+        <v>39.4946</v>
       </c>
       <c r="D9" t="n">
-        <v>44.5277</v>
+        <v>46.0815</v>
       </c>
     </row>
     <row r="10">
@@ -4199,13 +4199,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>24.4192</v>
+        <v>24.3253</v>
       </c>
       <c r="C10" t="n">
-        <v>42.3082</v>
+        <v>41.3186</v>
       </c>
       <c r="D10" t="n">
-        <v>47.5598</v>
+        <v>47.7671</v>
       </c>
     </row>
     <row r="11">
@@ -4213,13 +4213,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>22.7539</v>
+        <v>22.4128</v>
       </c>
       <c r="C11" t="n">
-        <v>41.914</v>
+        <v>41.203</v>
       </c>
       <c r="D11" t="n">
-        <v>48.7912</v>
+        <v>49.6787</v>
       </c>
     </row>
     <row r="12">
@@ -4227,13 +4227,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>24.34</v>
+        <v>24.396</v>
       </c>
       <c r="C12" t="n">
-        <v>44.968</v>
+        <v>44.2593</v>
       </c>
       <c r="D12" t="n">
-        <v>50.1703</v>
+        <v>51.3586</v>
       </c>
     </row>
     <row r="13">
@@ -4241,13 +4241,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>26.3632</v>
+        <v>26.4999</v>
       </c>
       <c r="C13" t="n">
-        <v>44.5417</v>
+        <v>43.6916</v>
       </c>
       <c r="D13" t="n">
-        <v>52.0249</v>
+        <v>51.0772</v>
       </c>
     </row>
     <row r="14">
@@ -4255,13 +4255,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>22.3318</v>
+        <v>22.5778</v>
       </c>
       <c r="C14" t="n">
-        <v>44.4</v>
+        <v>44.1638</v>
       </c>
       <c r="D14" t="n">
-        <v>51.3646</v>
+        <v>51.8331</v>
       </c>
     </row>
     <row r="15">
@@ -4269,13 +4269,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>23.7148</v>
+        <v>23.7661</v>
       </c>
       <c r="C15" t="n">
-        <v>44.1725</v>
+        <v>43.62</v>
       </c>
       <c r="D15" t="n">
-        <v>52.9728</v>
+        <v>51.836</v>
       </c>
     </row>
     <row r="16">
@@ -4283,13 +4283,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>24.9099</v>
+        <v>25.2024</v>
       </c>
       <c r="C16" t="n">
-        <v>45.4442</v>
+        <v>44.1566</v>
       </c>
       <c r="D16" t="n">
-        <v>52.5231</v>
+        <v>52.0121</v>
       </c>
     </row>
     <row r="17">
@@ -4297,13 +4297,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>23.7378</v>
+        <v>23.7148</v>
       </c>
       <c r="C17" t="n">
-        <v>44.4622</v>
+        <v>45.4556</v>
       </c>
       <c r="D17" t="n">
-        <v>53.5419</v>
+        <v>53.8021</v>
       </c>
     </row>
   </sheetData>
@@ -4351,13 +4351,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>9.36476</v>
+        <v>9.38011</v>
       </c>
       <c r="C2" t="n">
-        <v>13.0702</v>
+        <v>13.0635</v>
       </c>
       <c r="D2" t="n">
-        <v>14.4083</v>
+        <v>14.3734</v>
       </c>
     </row>
     <row r="3">
@@ -4365,13 +4365,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>17.2766</v>
+        <v>17.4629</v>
       </c>
       <c r="C3" t="n">
-        <v>21.0038</v>
+        <v>21.1134</v>
       </c>
       <c r="D3" t="n">
-        <v>23.6222</v>
+        <v>23.3298</v>
       </c>
     </row>
     <row r="4">
@@ -4379,13 +4379,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>23.9028</v>
+        <v>23.7655</v>
       </c>
       <c r="C4" t="n">
-        <v>26.0947</v>
+        <v>26.1164</v>
       </c>
       <c r="D4" t="n">
-        <v>29.5025</v>
+        <v>29.9753</v>
       </c>
     </row>
     <row r="5">
@@ -4393,13 +4393,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>19.2111</v>
+        <v>19.0989</v>
       </c>
       <c r="C5" t="n">
-        <v>28.2208</v>
+        <v>28.71</v>
       </c>
       <c r="D5" t="n">
-        <v>33.9173</v>
+        <v>35.3589</v>
       </c>
     </row>
     <row r="6">
@@ -4407,13 +4407,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>22.8988</v>
+        <v>22.8938</v>
       </c>
       <c r="C6" t="n">
-        <v>35.1365</v>
+        <v>35.0695</v>
       </c>
       <c r="D6" t="n">
-        <v>35.1456</v>
+        <v>35.1204</v>
       </c>
     </row>
     <row r="7">
@@ -4421,13 +4421,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>27.015</v>
+        <v>27.1016</v>
       </c>
       <c r="C7" t="n">
-        <v>35.0692</v>
+        <v>35.2875</v>
       </c>
       <c r="D7" t="n">
-        <v>44.9497</v>
+        <v>43.0093</v>
       </c>
     </row>
     <row r="8">
@@ -4435,13 +4435,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>20.2458</v>
+        <v>20.2407</v>
       </c>
       <c r="C8" t="n">
-        <v>33.3399</v>
+        <v>35.6702</v>
       </c>
       <c r="D8" t="n">
-        <v>40.0065</v>
+        <v>40.167</v>
       </c>
     </row>
     <row r="9">
@@ -4449,13 +4449,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>22.9194</v>
+        <v>22.8397</v>
       </c>
       <c r="C9" t="n">
-        <v>38.4067</v>
+        <v>37.1547</v>
       </c>
       <c r="D9" t="n">
-        <v>44.1861</v>
+        <v>44.0775</v>
       </c>
     </row>
     <row r="10">
@@ -4463,13 +4463,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>24.8669</v>
+        <v>24.9759</v>
       </c>
       <c r="C10" t="n">
-        <v>37.3044</v>
+        <v>38.7105</v>
       </c>
       <c r="D10" t="n">
-        <v>47.3677</v>
+        <v>46.6186</v>
       </c>
     </row>
     <row r="11">
@@ -4477,13 +4477,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>22.7386</v>
+        <v>23.119</v>
       </c>
       <c r="C11" t="n">
-        <v>40.3414</v>
+        <v>40.0669</v>
       </c>
       <c r="D11" t="n">
-        <v>50.8666</v>
+        <v>48.5867</v>
       </c>
     </row>
     <row r="12">
@@ -4491,13 +4491,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>24.734</v>
+        <v>24.8884</v>
       </c>
       <c r="C12" t="n">
-        <v>42.6051</v>
+        <v>41.5131</v>
       </c>
       <c r="D12" t="n">
-        <v>50.436</v>
+        <v>50.6634</v>
       </c>
     </row>
     <row r="13">
@@ -4505,13 +4505,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>26.9741</v>
+        <v>27.1025</v>
       </c>
       <c r="C13" t="n">
-        <v>43.0725</v>
+        <v>44.1033</v>
       </c>
       <c r="D13" t="n">
-        <v>51.3349</v>
+        <v>53.2007</v>
       </c>
     </row>
     <row r="14">
@@ -4519,13 +4519,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>22.7123</v>
+        <v>22.5323</v>
       </c>
       <c r="C14" t="n">
-        <v>44.5442</v>
+        <v>43.8128</v>
       </c>
       <c r="D14" t="n">
-        <v>51.7248</v>
+        <v>52.5737</v>
       </c>
     </row>
     <row r="15">
@@ -4533,13 +4533,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>24.2307</v>
+        <v>24.3354</v>
       </c>
       <c r="C15" t="n">
-        <v>44.3491</v>
+        <v>43.4885</v>
       </c>
       <c r="D15" t="n">
-        <v>51.65</v>
+        <v>52.7496</v>
       </c>
     </row>
     <row r="16">
@@ -4547,13 +4547,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>25.1832</v>
+        <v>25.4657</v>
       </c>
       <c r="C16" t="n">
-        <v>44.3157</v>
+        <v>44.9338</v>
       </c>
       <c r="D16" t="n">
-        <v>52.5841</v>
+        <v>52.546</v>
       </c>
     </row>
     <row r="17">
@@ -4561,13 +4561,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>24.2689</v>
+        <v>24.278</v>
       </c>
       <c r="C17" t="n">
-        <v>44.8031</v>
+        <v>43.7563</v>
       </c>
       <c r="D17" t="n">
-        <v>53.2815</v>
+        <v>52.858</v>
       </c>
     </row>
   </sheetData>
@@ -4615,13 +4615,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>10.9305</v>
+        <v>10.986</v>
       </c>
       <c r="C2" t="n">
-        <v>13.9745</v>
+        <v>13.9143</v>
       </c>
       <c r="D2" t="n">
-        <v>14.8429</v>
+        <v>14.8375</v>
       </c>
     </row>
     <row r="3">
@@ -4629,13 +4629,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>19.5633</v>
+        <v>19.6563</v>
       </c>
       <c r="C3" t="n">
-        <v>22.6612</v>
+        <v>22.1235</v>
       </c>
       <c r="D3" t="n">
-        <v>24.2442</v>
+        <v>23.8643</v>
       </c>
     </row>
     <row r="4">
@@ -4643,13 +4643,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>26.6872</v>
+        <v>26.683</v>
       </c>
       <c r="C4" t="n">
-        <v>28.6508</v>
+        <v>29.8649</v>
       </c>
       <c r="D4" t="n">
-        <v>30.8003</v>
+        <v>30.7177</v>
       </c>
     </row>
     <row r="5">
@@ -4657,13 +4657,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>23.2724</v>
+        <v>23.2701</v>
       </c>
       <c r="C5" t="n">
-        <v>30.1802</v>
+        <v>29.6349</v>
       </c>
       <c r="D5" t="n">
-        <v>34.9807</v>
+        <v>34.9773</v>
       </c>
     </row>
     <row r="6">
@@ -4671,13 +4671,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>28.0805</v>
+        <v>27.9768</v>
       </c>
       <c r="C6" t="n">
-        <v>35.1224</v>
+        <v>34.6153</v>
       </c>
       <c r="D6" t="n">
-        <v>37.3318</v>
+        <v>35.869</v>
       </c>
     </row>
     <row r="7">
@@ -4685,13 +4685,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>33.0608</v>
+        <v>33.2463</v>
       </c>
       <c r="C7" t="n">
-        <v>35.1223</v>
+        <v>35.1005</v>
       </c>
       <c r="D7" t="n">
-        <v>44.9656</v>
+        <v>45.0161</v>
       </c>
     </row>
     <row r="8">
@@ -4699,13 +4699,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>29.5082</v>
+        <v>29.3553</v>
       </c>
       <c r="C8" t="n">
-        <v>34.9393</v>
+        <v>35.1777</v>
       </c>
       <c r="D8" t="n">
-        <v>44.516</v>
+        <v>46.2882</v>
       </c>
     </row>
     <row r="9">
@@ -4713,13 +4713,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>29.9641</v>
+        <v>30.1235</v>
       </c>
       <c r="C9" t="n">
-        <v>41.2796</v>
+        <v>42.3429</v>
       </c>
       <c r="D9" t="n">
-        <v>46.2365</v>
+        <v>46.6638</v>
       </c>
     </row>
     <row r="10">
@@ -4727,13 +4727,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>30.0457</v>
+        <v>30.792</v>
       </c>
       <c r="C10" t="n">
-        <v>40.7157</v>
+        <v>42.6993</v>
       </c>
       <c r="D10" t="n">
-        <v>49.5131</v>
+        <v>49.256</v>
       </c>
     </row>
     <row r="11">
@@ -4741,13 +4741,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>30.84</v>
+        <v>30.7098</v>
       </c>
       <c r="C11" t="n">
-        <v>43.7898</v>
+        <v>44.1695</v>
       </c>
       <c r="D11" t="n">
-        <v>51.943</v>
+        <v>53.2388</v>
       </c>
     </row>
     <row r="12">
@@ -4755,13 +4755,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>31.136</v>
+        <v>30.5012</v>
       </c>
       <c r="C12" t="n">
-        <v>44.5558</v>
+        <v>44.5745</v>
       </c>
       <c r="D12" t="n">
-        <v>52.6828</v>
+        <v>52.1793</v>
       </c>
     </row>
     <row r="13">
@@ -4769,13 +4769,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>30.9614</v>
+        <v>30.8979</v>
       </c>
       <c r="C13" t="n">
-        <v>45.1733</v>
+        <v>43.5544</v>
       </c>
       <c r="D13" t="n">
-        <v>52.9018</v>
+        <v>51.5312</v>
       </c>
     </row>
     <row r="14">
@@ -4783,13 +4783,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>30.6647</v>
+        <v>31.0469</v>
       </c>
       <c r="C14" t="n">
-        <v>43.9534</v>
+        <v>43.3127</v>
       </c>
       <c r="D14" t="n">
-        <v>52.8858</v>
+        <v>52.5406</v>
       </c>
     </row>
     <row r="15">
@@ -4797,13 +4797,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>31.1711</v>
+        <v>31.1352</v>
       </c>
       <c r="C15" t="n">
-        <v>43.7792</v>
+        <v>43.94</v>
       </c>
       <c r="D15" t="n">
-        <v>52.6856</v>
+        <v>51.5982</v>
       </c>
     </row>
     <row r="16">
@@ -4811,13 +4811,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>31.2291</v>
+        <v>31.4056</v>
       </c>
       <c r="C16" t="n">
-        <v>43.8898</v>
+        <v>45.5553</v>
       </c>
       <c r="D16" t="n">
-        <v>52.9931</v>
+        <v>53.606</v>
       </c>
     </row>
     <row r="17">
@@ -4825,13 +4825,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>31.3814</v>
+        <v>31.8215</v>
       </c>
       <c r="C17" t="n">
-        <v>45.4315</v>
+        <v>44.9416</v>
       </c>
       <c r="D17" t="n">
-        <v>51.7544</v>
+        <v>53.5486</v>
       </c>
     </row>
   </sheetData>
@@ -4879,13 +4879,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4.91162</v>
+        <v>4.88312</v>
       </c>
       <c r="C2" t="n">
-        <v>10.8658</v>
+        <v>10.841</v>
       </c>
       <c r="D2" t="n">
-        <v>13.5518</v>
+        <v>13.4408</v>
       </c>
     </row>
     <row r="3">
@@ -4893,13 +4893,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.57775</v>
+        <v>9.554779999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>20.6953</v>
+        <v>20.5579</v>
       </c>
       <c r="D3" t="n">
-        <v>25.7615</v>
+        <v>25.5522</v>
       </c>
     </row>
     <row r="4">
@@ -4907,13 +4907,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>13.8241</v>
+        <v>13.8235</v>
       </c>
       <c r="C4" t="n">
-        <v>29.7047</v>
+        <v>29.7966</v>
       </c>
       <c r="D4" t="n">
-        <v>36.9538</v>
+        <v>36.8977</v>
       </c>
     </row>
     <row r="5">
@@ -4921,13 +4921,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>15.7243</v>
+        <v>15.693</v>
       </c>
       <c r="C5" t="n">
-        <v>33.5048</v>
+        <v>33.7564</v>
       </c>
       <c r="D5" t="n">
-        <v>42.9104</v>
+        <v>42.6253</v>
       </c>
     </row>
     <row r="6">
@@ -4935,13 +4935,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>18.8725</v>
+        <v>18.8047</v>
       </c>
       <c r="C6" t="n">
-        <v>41.1018</v>
+        <v>41.1539</v>
       </c>
       <c r="D6" t="n">
-        <v>51.2541</v>
+        <v>50.9701</v>
       </c>
     </row>
     <row r="7">
@@ -4949,13 +4949,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>22.1382</v>
+        <v>22.0711</v>
       </c>
       <c r="C7" t="n">
-        <v>47.6934</v>
+        <v>47.9476</v>
       </c>
       <c r="D7" t="n">
-        <v>60.7876</v>
+        <v>60.9209</v>
       </c>
     </row>
     <row r="8">
@@ -4963,13 +4963,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>20.1173</v>
+        <v>19.9315</v>
       </c>
       <c r="C8" t="n">
-        <v>42.7893</v>
+        <v>42.4658</v>
       </c>
       <c r="D8" t="n">
-        <v>54.7131</v>
+        <v>52.261</v>
       </c>
     </row>
     <row r="9">
@@ -4977,13 +4977,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>20.6867</v>
+        <v>20.8229</v>
       </c>
       <c r="C9" t="n">
-        <v>41.509</v>
+        <v>41.9161</v>
       </c>
       <c r="D9" t="n">
-        <v>52.9353</v>
+        <v>53.7682</v>
       </c>
     </row>
     <row r="10">
@@ -4991,13 +4991,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>20.8363</v>
+        <v>20.5619</v>
       </c>
       <c r="C10" t="n">
-        <v>42.1363</v>
+        <v>42.2133</v>
       </c>
       <c r="D10" t="n">
-        <v>51.9134</v>
+        <v>55.0269</v>
       </c>
     </row>
     <row r="11">
@@ -5005,13 +5005,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>20.9661</v>
+        <v>21.1347</v>
       </c>
       <c r="C11" t="n">
-        <v>42.4881</v>
+        <v>43.3117</v>
       </c>
       <c r="D11" t="n">
-        <v>55.4624</v>
+        <v>55.38</v>
       </c>
     </row>
     <row r="12">
@@ -5019,13 +5019,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>20.9717</v>
+        <v>20.9826</v>
       </c>
       <c r="C12" t="n">
-        <v>43.4783</v>
+        <v>44.6641</v>
       </c>
       <c r="D12" t="n">
-        <v>55.5134</v>
+        <v>55.4332</v>
       </c>
     </row>
     <row r="13">
@@ -5033,13 +5033,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>21.1072</v>
+        <v>20.8932</v>
       </c>
       <c r="C13" t="n">
-        <v>44.536</v>
+        <v>45.2033</v>
       </c>
       <c r="D13" t="n">
-        <v>56.3306</v>
+        <v>56.3885</v>
       </c>
     </row>
     <row r="14">
@@ -5047,13 +5047,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>20.951</v>
+        <v>21.0281</v>
       </c>
       <c r="C14" t="n">
-        <v>44.1624</v>
+        <v>44.0362</v>
       </c>
       <c r="D14" t="n">
-        <v>55.1502</v>
+        <v>57.6787</v>
       </c>
     </row>
     <row r="15">
@@ -5061,13 +5061,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>21.3053</v>
+        <v>21.3462</v>
       </c>
       <c r="C15" t="n">
-        <v>44.4113</v>
+        <v>46.1762</v>
       </c>
       <c r="D15" t="n">
-        <v>56.7036</v>
+        <v>55.392</v>
       </c>
     </row>
     <row r="16">
@@ -5075,13 +5075,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>21.1289</v>
+        <v>21.1304</v>
       </c>
       <c r="C16" t="n">
-        <v>45.4892</v>
+        <v>45.3327</v>
       </c>
       <c r="D16" t="n">
-        <v>57.0392</v>
+        <v>57.9291</v>
       </c>
     </row>
     <row r="17">
@@ -5089,13 +5089,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>21.2298</v>
+        <v>21.198</v>
       </c>
       <c r="C17" t="n">
-        <v>44.7496</v>
+        <v>46.6602</v>
       </c>
       <c r="D17" t="n">
-        <v>57.6181</v>
+        <v>58.6465</v>
       </c>
     </row>
   </sheetData>
@@ -5143,13 +5143,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>5.0091</v>
+        <v>4.97905</v>
       </c>
       <c r="C2" t="n">
-        <v>10.8642</v>
+        <v>10.8577</v>
       </c>
       <c r="D2" t="n">
-        <v>13.5727</v>
+        <v>13.5362</v>
       </c>
     </row>
     <row r="3">
@@ -5157,13 +5157,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.74483</v>
+        <v>9.74234</v>
       </c>
       <c r="C3" t="n">
-        <v>20.6801</v>
+        <v>20.5886</v>
       </c>
       <c r="D3" t="n">
-        <v>25.533</v>
+        <v>25.4259</v>
       </c>
     </row>
     <row r="4">
@@ -5171,13 +5171,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>14.0903</v>
+        <v>14.0994</v>
       </c>
       <c r="C4" t="n">
-        <v>29.3483</v>
+        <v>29.6361</v>
       </c>
       <c r="D4" t="n">
-        <v>36.7692</v>
+        <v>36.7729</v>
       </c>
     </row>
     <row r="5">
@@ -5185,13 +5185,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>16.0406</v>
+        <v>16.0848</v>
       </c>
       <c r="C5" t="n">
-        <v>33.7528</v>
+        <v>34.0024</v>
       </c>
       <c r="D5" t="n">
-        <v>43.1015</v>
+        <v>42.8068</v>
       </c>
     </row>
     <row r="6">
@@ -5199,13 +5199,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>19.4448</v>
+        <v>19.2156</v>
       </c>
       <c r="C6" t="n">
-        <v>39.8508</v>
+        <v>40.3403</v>
       </c>
       <c r="D6" t="n">
-        <v>51.2172</v>
+        <v>50.905</v>
       </c>
     </row>
     <row r="7">
@@ -5213,13 +5213,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>22.7715</v>
+        <v>22.7386</v>
       </c>
       <c r="C7" t="n">
-        <v>47.2509</v>
+        <v>47.6282</v>
       </c>
       <c r="D7" t="n">
-        <v>58.8959</v>
+        <v>58.6746</v>
       </c>
     </row>
     <row r="8">
@@ -5227,13 +5227,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>20.5995</v>
+        <v>20.4926</v>
       </c>
       <c r="C8" t="n">
-        <v>42.2365</v>
+        <v>42.9869</v>
       </c>
       <c r="D8" t="n">
-        <v>52.373</v>
+        <v>52.2356</v>
       </c>
     </row>
     <row r="9">
@@ -5241,13 +5241,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>21.2446</v>
+        <v>21.0095</v>
       </c>
       <c r="C9" t="n">
-        <v>43.1244</v>
+        <v>43.0965</v>
       </c>
       <c r="D9" t="n">
-        <v>52.0667</v>
+        <v>52.3005</v>
       </c>
     </row>
     <row r="10">
@@ -5255,13 +5255,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>21.4846</v>
+        <v>21.1707</v>
       </c>
       <c r="C10" t="n">
-        <v>44.0967</v>
+        <v>43.9996</v>
       </c>
       <c r="D10" t="n">
-        <v>52.9434</v>
+        <v>51.5632</v>
       </c>
     </row>
     <row r="11">
@@ -5269,13 +5269,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>21.7546</v>
+        <v>21.9133</v>
       </c>
       <c r="C11" t="n">
-        <v>42.9304</v>
+        <v>42.9788</v>
       </c>
       <c r="D11" t="n">
-        <v>52.8904</v>
+        <v>52.8661</v>
       </c>
     </row>
     <row r="12">
@@ -5283,13 +5283,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>21.7843</v>
+        <v>21.7217</v>
       </c>
       <c r="C12" t="n">
-        <v>43.0856</v>
+        <v>44.2545</v>
       </c>
       <c r="D12" t="n">
-        <v>55.8564</v>
+        <v>56.4149</v>
       </c>
     </row>
     <row r="13">
@@ -5297,13 +5297,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>21.557</v>
+        <v>21.3931</v>
       </c>
       <c r="C13" t="n">
-        <v>44.6502</v>
+        <v>45.1296</v>
       </c>
       <c r="D13" t="n">
-        <v>53.6086</v>
+        <v>56.097</v>
       </c>
     </row>
     <row r="14">
@@ -5311,13 +5311,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>21.5555</v>
+        <v>21.409</v>
       </c>
       <c r="C14" t="n">
-        <v>43.3443</v>
+        <v>44.7046</v>
       </c>
       <c r="D14" t="n">
-        <v>54.9332</v>
+        <v>56.628</v>
       </c>
     </row>
     <row r="15">
@@ -5325,13 +5325,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>21.6186</v>
+        <v>21.9173</v>
       </c>
       <c r="C15" t="n">
-        <v>45.8338</v>
+        <v>44.9611</v>
       </c>
       <c r="D15" t="n">
-        <v>54.3279</v>
+        <v>56.1339</v>
       </c>
     </row>
     <row r="16">
@@ -5339,13 +5339,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>21.2794</v>
+        <v>21.617</v>
       </c>
       <c r="C16" t="n">
-        <v>45.4358</v>
+        <v>45.6843</v>
       </c>
       <c r="D16" t="n">
-        <v>57.4398</v>
+        <v>56.3604</v>
       </c>
     </row>
     <row r="17">
@@ -5353,13 +5353,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>21.7744</v>
+        <v>21.7709</v>
       </c>
       <c r="C17" t="n">
-        <v>45.9311</v>
+        <v>46.1813</v>
       </c>
       <c r="D17" t="n">
-        <v>56.0481</v>
+        <v>56.4436</v>
       </c>
     </row>
   </sheetData>
@@ -5407,13 +5407,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.7448</v>
+        <v>8.70473</v>
       </c>
       <c r="C2" t="n">
-        <v>13.2237</v>
+        <v>13.1824</v>
       </c>
       <c r="D2" t="n">
-        <v>14.7667</v>
+        <v>14.6885</v>
       </c>
     </row>
     <row r="3">
@@ -5421,13 +5421,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>16.5332</v>
+        <v>16.3328</v>
       </c>
       <c r="C3" t="n">
-        <v>24.6403</v>
+        <v>24.4153</v>
       </c>
       <c r="D3" t="n">
-        <v>27.9872</v>
+        <v>27.6657</v>
       </c>
     </row>
     <row r="4">
@@ -5435,13 +5435,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>23.8059</v>
+        <v>23.3039</v>
       </c>
       <c r="C4" t="n">
-        <v>34.7123</v>
+        <v>34.7302</v>
       </c>
       <c r="D4" t="n">
-        <v>39.8737</v>
+        <v>39.7939</v>
       </c>
     </row>
     <row r="5">
@@ -5449,13 +5449,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>23.2935</v>
+        <v>23.1338</v>
       </c>
       <c r="C5" t="n">
-        <v>36.6902</v>
+        <v>36.9577</v>
       </c>
       <c r="D5" t="n">
-        <v>45.5413</v>
+        <v>45.7116</v>
       </c>
     </row>
     <row r="6">
@@ -5463,13 +5463,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>26.4034</v>
+        <v>26.4454</v>
       </c>
       <c r="C6" t="n">
-        <v>43.1025</v>
+        <v>42.9381</v>
       </c>
       <c r="D6" t="n">
-        <v>54.1229</v>
+        <v>54.5383</v>
       </c>
     </row>
     <row r="7">
@@ -5477,13 +5477,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>31.9383</v>
+        <v>31.8613</v>
       </c>
       <c r="C7" t="n">
-        <v>50.6712</v>
+        <v>50.8583</v>
       </c>
       <c r="D7" t="n">
-        <v>63.2779</v>
+        <v>63.1994</v>
       </c>
     </row>
     <row r="8">
@@ -5491,13 +5491,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>29.232</v>
+        <v>29.3295</v>
       </c>
       <c r="C8" t="n">
-        <v>47.2329</v>
+        <v>47.6068</v>
       </c>
       <c r="D8" t="n">
-        <v>58.7961</v>
+        <v>57.8889</v>
       </c>
     </row>
     <row r="9">
@@ -5505,13 +5505,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>29.2756</v>
+        <v>29.5985</v>
       </c>
       <c r="C9" t="n">
-        <v>46.155</v>
+        <v>47.3674</v>
       </c>
       <c r="D9" t="n">
-        <v>58.7454</v>
+        <v>58.8339</v>
       </c>
     </row>
     <row r="10">
@@ -5519,13 +5519,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>30.5835</v>
+        <v>30.1852</v>
       </c>
       <c r="C10" t="n">
-        <v>47.8618</v>
+        <v>48.2173</v>
       </c>
       <c r="D10" t="n">
-        <v>60.575</v>
+        <v>60.7788</v>
       </c>
     </row>
     <row r="11">
@@ -5533,13 +5533,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>30.8561</v>
+        <v>30.5761</v>
       </c>
       <c r="C11" t="n">
-        <v>47.6869</v>
+        <v>47.274</v>
       </c>
       <c r="D11" t="n">
-        <v>60.3078</v>
+        <v>60.2848</v>
       </c>
     </row>
     <row r="12">
@@ -5547,13 +5547,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>30.2987</v>
+        <v>30.5703</v>
       </c>
       <c r="C12" t="n">
-        <v>47.7733</v>
+        <v>47.9705</v>
       </c>
       <c r="D12" t="n">
-        <v>60.2167</v>
+        <v>60.5055</v>
       </c>
     </row>
     <row r="13">
@@ -5561,13 +5561,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>30.7272</v>
+        <v>30.5446</v>
       </c>
       <c r="C13" t="n">
-        <v>48.1066</v>
+        <v>47.0432</v>
       </c>
       <c r="D13" t="n">
-        <v>61.1482</v>
+        <v>60.3414</v>
       </c>
     </row>
     <row r="14">
@@ -5575,13 +5575,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>30.7333</v>
+        <v>30.2291</v>
       </c>
       <c r="C14" t="n">
-        <v>48.1587</v>
+        <v>48.1132</v>
       </c>
       <c r="D14" t="n">
-        <v>60.705</v>
+        <v>61.0098</v>
       </c>
     </row>
     <row r="15">
@@ -5589,13 +5589,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>30.9573</v>
+        <v>30.5454</v>
       </c>
       <c r="C15" t="n">
-        <v>48.9467</v>
+        <v>47.9266</v>
       </c>
       <c r="D15" t="n">
-        <v>61.1525</v>
+        <v>60.1692</v>
       </c>
     </row>
     <row r="16">
@@ -5603,13 +5603,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>30.9132</v>
+        <v>30.3394</v>
       </c>
       <c r="C16" t="n">
-        <v>48.8185</v>
+        <v>48.662</v>
       </c>
       <c r="D16" t="n">
-        <v>60.0797</v>
+        <v>61.0516</v>
       </c>
     </row>
     <row r="17">
@@ -5617,13 +5617,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>30.6068</v>
+        <v>30.6019</v>
       </c>
       <c r="C17" t="n">
-        <v>49.0352</v>
+        <v>49.1151</v>
       </c>
       <c r="D17" t="n">
-        <v>60.6907</v>
+        <v>61.6498</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Parallel workload.xlsx
+++ b/vs-x86/Parallel workload.xlsx
@@ -4087,13 +4087,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>9.404450000000001</v>
+        <v>9.46522</v>
       </c>
       <c r="C2" t="n">
-        <v>13.1637</v>
+        <v>10.8714</v>
       </c>
       <c r="D2" t="n">
-        <v>14.5103</v>
+        <v>14.445</v>
       </c>
     </row>
     <row r="3">
@@ -4101,13 +4101,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>17.4556</v>
+        <v>17.4578</v>
       </c>
       <c r="C3" t="n">
-        <v>21.8685</v>
+        <v>16.5034</v>
       </c>
       <c r="D3" t="n">
-        <v>23.7157</v>
+        <v>24.1194</v>
       </c>
     </row>
     <row r="4">
@@ -4115,13 +4115,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>23.964</v>
+        <v>23.7848</v>
       </c>
       <c r="C4" t="n">
-        <v>26.5616</v>
+        <v>21.5347</v>
       </c>
       <c r="D4" t="n">
-        <v>31.5407</v>
+        <v>31.763</v>
       </c>
     </row>
     <row r="5">
@@ -4129,13 +4129,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>19.115</v>
+        <v>19.0442</v>
       </c>
       <c r="C5" t="n">
-        <v>29.3148</v>
+        <v>24.2265</v>
       </c>
       <c r="D5" t="n">
-        <v>33.6157</v>
+        <v>33.9354</v>
       </c>
     </row>
     <row r="6">
@@ -4143,13 +4143,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>22.4016</v>
+        <v>22.532</v>
       </c>
       <c r="C6" t="n">
-        <v>32.1436</v>
+        <v>27.9187</v>
       </c>
       <c r="D6" t="n">
-        <v>39.4186</v>
+        <v>39.3934</v>
       </c>
     </row>
     <row r="7">
@@ -4157,13 +4157,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>26.4991</v>
+        <v>26.5231</v>
       </c>
       <c r="C7" t="n">
-        <v>39.5803</v>
+        <v>32.8409</v>
       </c>
       <c r="D7" t="n">
-        <v>40.7801</v>
+        <v>40.7913</v>
       </c>
     </row>
     <row r="8">
@@ -4171,13 +4171,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>20.036</v>
+        <v>20.2463</v>
       </c>
       <c r="C8" t="n">
-        <v>36.6837</v>
+        <v>30.0769</v>
       </c>
       <c r="D8" t="n">
-        <v>39.8705</v>
+        <v>40.8912</v>
       </c>
     </row>
     <row r="9">
@@ -4185,13 +4185,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>22.571</v>
+        <v>22.5418</v>
       </c>
       <c r="C9" t="n">
-        <v>39.4946</v>
+        <v>30.4682</v>
       </c>
       <c r="D9" t="n">
-        <v>46.0815</v>
+        <v>44.1641</v>
       </c>
     </row>
     <row r="10">
@@ -4199,13 +4199,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>24.3253</v>
+        <v>24.6093</v>
       </c>
       <c r="C10" t="n">
-        <v>41.3186</v>
+        <v>30.3967</v>
       </c>
       <c r="D10" t="n">
-        <v>47.7671</v>
+        <v>48.9061</v>
       </c>
     </row>
     <row r="11">
@@ -4213,13 +4213,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>22.4128</v>
+        <v>22.5467</v>
       </c>
       <c r="C11" t="n">
-        <v>41.203</v>
+        <v>30.8333</v>
       </c>
       <c r="D11" t="n">
-        <v>49.6787</v>
+        <v>49.533</v>
       </c>
     </row>
     <row r="12">
@@ -4227,13 +4227,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>24.396</v>
+        <v>24.4507</v>
       </c>
       <c r="C12" t="n">
-        <v>44.2593</v>
+        <v>30.9929</v>
       </c>
       <c r="D12" t="n">
-        <v>51.3586</v>
+        <v>51.4837</v>
       </c>
     </row>
     <row r="13">
@@ -4241,13 +4241,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>26.4999</v>
+        <v>26.5133</v>
       </c>
       <c r="C13" t="n">
-        <v>43.6916</v>
+        <v>31.3538</v>
       </c>
       <c r="D13" t="n">
-        <v>51.0772</v>
+        <v>51.542</v>
       </c>
     </row>
     <row r="14">
@@ -4255,13 +4255,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>22.5778</v>
+        <v>22.4904</v>
       </c>
       <c r="C14" t="n">
-        <v>44.1638</v>
+        <v>31.2283</v>
       </c>
       <c r="D14" t="n">
-        <v>51.8331</v>
+        <v>52.0386</v>
       </c>
     </row>
     <row r="15">
@@ -4269,13 +4269,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>23.7661</v>
+        <v>23.5813</v>
       </c>
       <c r="C15" t="n">
-        <v>43.62</v>
+        <v>30.6077</v>
       </c>
       <c r="D15" t="n">
-        <v>51.836</v>
+        <v>52.9368</v>
       </c>
     </row>
     <row r="16">
@@ -4283,13 +4283,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>25.2024</v>
+        <v>24.9408</v>
       </c>
       <c r="C16" t="n">
-        <v>44.1566</v>
+        <v>31.3285</v>
       </c>
       <c r="D16" t="n">
-        <v>52.0121</v>
+        <v>52.9675</v>
       </c>
     </row>
     <row r="17">
@@ -4297,13 +4297,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>23.7148</v>
+        <v>23.6431</v>
       </c>
       <c r="C17" t="n">
-        <v>45.4556</v>
+        <v>31.4177</v>
       </c>
       <c r="D17" t="n">
-        <v>53.8021</v>
+        <v>53.1024</v>
       </c>
     </row>
   </sheetData>
@@ -4351,13 +4351,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>9.38011</v>
+        <v>9.39395</v>
       </c>
       <c r="C2" t="n">
-        <v>13.0635</v>
+        <v>10.8543</v>
       </c>
       <c r="D2" t="n">
-        <v>14.3734</v>
+        <v>14.3439</v>
       </c>
     </row>
     <row r="3">
@@ -4365,13 +4365,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>17.4629</v>
+        <v>17.3546</v>
       </c>
       <c r="C3" t="n">
-        <v>21.1134</v>
+        <v>17.1092</v>
       </c>
       <c r="D3" t="n">
-        <v>23.3298</v>
+        <v>23.7031</v>
       </c>
     </row>
     <row r="4">
@@ -4379,13 +4379,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>23.7655</v>
+        <v>24.1482</v>
       </c>
       <c r="C4" t="n">
-        <v>26.1164</v>
+        <v>22.6535</v>
       </c>
       <c r="D4" t="n">
-        <v>29.9753</v>
+        <v>30.869</v>
       </c>
     </row>
     <row r="5">
@@ -4393,13 +4393,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>19.0989</v>
+        <v>18.9099</v>
       </c>
       <c r="C5" t="n">
-        <v>28.71</v>
+        <v>24.0029</v>
       </c>
       <c r="D5" t="n">
-        <v>35.3589</v>
+        <v>35.1896</v>
       </c>
     </row>
     <row r="6">
@@ -4407,13 +4407,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>22.8938</v>
+        <v>22.9042</v>
       </c>
       <c r="C6" t="n">
-        <v>35.0695</v>
+        <v>27.8956</v>
       </c>
       <c r="D6" t="n">
-        <v>35.1204</v>
+        <v>35.7205</v>
       </c>
     </row>
     <row r="7">
@@ -4421,13 +4421,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>27.1016</v>
+        <v>27.0984</v>
       </c>
       <c r="C7" t="n">
-        <v>35.2875</v>
+        <v>32.6862</v>
       </c>
       <c r="D7" t="n">
-        <v>43.0093</v>
+        <v>45.0194</v>
       </c>
     </row>
     <row r="8">
@@ -4435,13 +4435,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>20.2407</v>
+        <v>20.2119</v>
       </c>
       <c r="C8" t="n">
-        <v>35.6702</v>
+        <v>29.5891</v>
       </c>
       <c r="D8" t="n">
-        <v>40.167</v>
+        <v>41.3785</v>
       </c>
     </row>
     <row r="9">
@@ -4449,13 +4449,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>22.8397</v>
+        <v>22.9287</v>
       </c>
       <c r="C9" t="n">
-        <v>37.1547</v>
+        <v>29.1141</v>
       </c>
       <c r="D9" t="n">
-        <v>44.0775</v>
+        <v>44.2349</v>
       </c>
     </row>
     <row r="10">
@@ -4463,13 +4463,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>24.9759</v>
+        <v>25.2643</v>
       </c>
       <c r="C10" t="n">
-        <v>38.7105</v>
+        <v>29.7323</v>
       </c>
       <c r="D10" t="n">
-        <v>46.6186</v>
+        <v>47.4063</v>
       </c>
     </row>
     <row r="11">
@@ -4477,13 +4477,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>23.119</v>
+        <v>22.6396</v>
       </c>
       <c r="C11" t="n">
-        <v>40.0669</v>
+        <v>30.1646</v>
       </c>
       <c r="D11" t="n">
-        <v>48.5867</v>
+        <v>51.9918</v>
       </c>
     </row>
     <row r="12">
@@ -4491,13 +4491,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>24.8884</v>
+        <v>24.932</v>
       </c>
       <c r="C12" t="n">
-        <v>41.5131</v>
+        <v>30.9588</v>
       </c>
       <c r="D12" t="n">
-        <v>50.6634</v>
+        <v>50.6592</v>
       </c>
     </row>
     <row r="13">
@@ -4505,13 +4505,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>27.1025</v>
+        <v>27.0905</v>
       </c>
       <c r="C13" t="n">
-        <v>44.1033</v>
+        <v>31.4021</v>
       </c>
       <c r="D13" t="n">
-        <v>53.2007</v>
+        <v>52.3926</v>
       </c>
     </row>
     <row r="14">
@@ -4519,13 +4519,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>22.5323</v>
+        <v>22.2536</v>
       </c>
       <c r="C14" t="n">
-        <v>43.8128</v>
+        <v>31.3246</v>
       </c>
       <c r="D14" t="n">
-        <v>52.5737</v>
+        <v>53.1111</v>
       </c>
     </row>
     <row r="15">
@@ -4533,13 +4533,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>24.3354</v>
+        <v>24.2877</v>
       </c>
       <c r="C15" t="n">
-        <v>43.4885</v>
+        <v>31.2503</v>
       </c>
       <c r="D15" t="n">
-        <v>52.7496</v>
+        <v>52.6399</v>
       </c>
     </row>
     <row r="16">
@@ -4547,13 +4547,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>25.4657</v>
+        <v>25.5033</v>
       </c>
       <c r="C16" t="n">
-        <v>44.9338</v>
+        <v>31.4161</v>
       </c>
       <c r="D16" t="n">
-        <v>52.546</v>
+        <v>52.5909</v>
       </c>
     </row>
     <row r="17">
@@ -4561,13 +4561,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>24.278</v>
+        <v>24.0907</v>
       </c>
       <c r="C17" t="n">
-        <v>43.7563</v>
+        <v>31.6287</v>
       </c>
       <c r="D17" t="n">
-        <v>52.858</v>
+        <v>52.7402</v>
       </c>
     </row>
   </sheetData>
@@ -4615,13 +4615,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>10.986</v>
+        <v>10.9632</v>
       </c>
       <c r="C2" t="n">
-        <v>13.9143</v>
+        <v>11.7543</v>
       </c>
       <c r="D2" t="n">
-        <v>14.8375</v>
+        <v>14.7727</v>
       </c>
     </row>
     <row r="3">
@@ -4629,13 +4629,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>19.6563</v>
+        <v>19.5116</v>
       </c>
       <c r="C3" t="n">
-        <v>22.1235</v>
+        <v>20.1864</v>
       </c>
       <c r="D3" t="n">
-        <v>23.8643</v>
+        <v>24.5812</v>
       </c>
     </row>
     <row r="4">
@@ -4643,13 +4643,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>26.683</v>
+        <v>26.9547</v>
       </c>
       <c r="C4" t="n">
-        <v>29.8649</v>
+        <v>25.5529</v>
       </c>
       <c r="D4" t="n">
-        <v>30.7177</v>
+        <v>31.8111</v>
       </c>
     </row>
     <row r="5">
@@ -4657,13 +4657,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>23.2701</v>
+        <v>23.2594</v>
       </c>
       <c r="C5" t="n">
-        <v>29.6349</v>
+        <v>25.0833</v>
       </c>
       <c r="D5" t="n">
-        <v>34.9773</v>
+        <v>35.138</v>
       </c>
     </row>
     <row r="6">
@@ -4671,13 +4671,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>27.9768</v>
+        <v>28.0139</v>
       </c>
       <c r="C6" t="n">
-        <v>34.6153</v>
+        <v>28.7859</v>
       </c>
       <c r="D6" t="n">
-        <v>35.869</v>
+        <v>36.4494</v>
       </c>
     </row>
     <row r="7">
@@ -4685,13 +4685,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>33.2463</v>
+        <v>33.2217</v>
       </c>
       <c r="C7" t="n">
-        <v>35.1005</v>
+        <v>33.7193</v>
       </c>
       <c r="D7" t="n">
-        <v>45.0161</v>
+        <v>52.3672</v>
       </c>
     </row>
     <row r="8">
@@ -4699,13 +4699,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>29.3553</v>
+        <v>29.6864</v>
       </c>
       <c r="C8" t="n">
-        <v>35.1777</v>
+        <v>30.3181</v>
       </c>
       <c r="D8" t="n">
-        <v>46.2882</v>
+        <v>45.1903</v>
       </c>
     </row>
     <row r="9">
@@ -4713,13 +4713,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>30.1235</v>
+        <v>29.8246</v>
       </c>
       <c r="C9" t="n">
-        <v>42.3429</v>
+        <v>29.9121</v>
       </c>
       <c r="D9" t="n">
-        <v>46.6638</v>
+        <v>47.2706</v>
       </c>
     </row>
     <row r="10">
@@ -4727,13 +4727,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>30.792</v>
+        <v>30.0727</v>
       </c>
       <c r="C10" t="n">
-        <v>42.6993</v>
+        <v>30.8861</v>
       </c>
       <c r="D10" t="n">
-        <v>49.256</v>
+        <v>52.2457</v>
       </c>
     </row>
     <row r="11">
@@ -4741,13 +4741,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>30.7098</v>
+        <v>30.6325</v>
       </c>
       <c r="C11" t="n">
-        <v>44.1695</v>
+        <v>30.9072</v>
       </c>
       <c r="D11" t="n">
-        <v>53.2388</v>
+        <v>50.6256</v>
       </c>
     </row>
     <row r="12">
@@ -4755,13 +4755,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>30.5012</v>
+        <v>30.6803</v>
       </c>
       <c r="C12" t="n">
-        <v>44.5745</v>
+        <v>31.0344</v>
       </c>
       <c r="D12" t="n">
-        <v>52.1793</v>
+        <v>51.6697</v>
       </c>
     </row>
     <row r="13">
@@ -4769,13 +4769,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>30.8979</v>
+        <v>30.5291</v>
       </c>
       <c r="C13" t="n">
-        <v>43.5544</v>
+        <v>31.354</v>
       </c>
       <c r="D13" t="n">
-        <v>51.5312</v>
+        <v>51.7574</v>
       </c>
     </row>
     <row r="14">
@@ -4783,13 +4783,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>31.0469</v>
+        <v>30.8884</v>
       </c>
       <c r="C14" t="n">
-        <v>43.3127</v>
+        <v>31.5408</v>
       </c>
       <c r="D14" t="n">
-        <v>52.5406</v>
+        <v>51.0038</v>
       </c>
     </row>
     <row r="15">
@@ -4797,13 +4797,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>31.1352</v>
+        <v>31.3648</v>
       </c>
       <c r="C15" t="n">
-        <v>43.94</v>
+        <v>31.4307</v>
       </c>
       <c r="D15" t="n">
-        <v>51.5982</v>
+        <v>52.9066</v>
       </c>
     </row>
     <row r="16">
@@ -4811,13 +4811,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>31.4056</v>
+        <v>31.1575</v>
       </c>
       <c r="C16" t="n">
-        <v>45.5553</v>
+        <v>31.3392</v>
       </c>
       <c r="D16" t="n">
-        <v>53.606</v>
+        <v>52.0372</v>
       </c>
     </row>
     <row r="17">
@@ -4825,13 +4825,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>31.8215</v>
+        <v>31.3111</v>
       </c>
       <c r="C17" t="n">
-        <v>44.9416</v>
+        <v>32.0688</v>
       </c>
       <c r="D17" t="n">
-        <v>53.5486</v>
+        <v>52.7543</v>
       </c>
     </row>
   </sheetData>
@@ -4879,13 +4879,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4.88312</v>
+        <v>4.90636</v>
       </c>
       <c r="C2" t="n">
-        <v>10.841</v>
+        <v>9.016819999999999</v>
       </c>
       <c r="D2" t="n">
-        <v>13.4408</v>
+        <v>13.6354</v>
       </c>
     </row>
     <row r="3">
@@ -4893,13 +4893,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.554779999999999</v>
+        <v>9.62219</v>
       </c>
       <c r="C3" t="n">
-        <v>20.5579</v>
+        <v>15.941</v>
       </c>
       <c r="D3" t="n">
-        <v>25.5522</v>
+        <v>25.6263</v>
       </c>
     </row>
     <row r="4">
@@ -4907,13 +4907,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>13.8235</v>
+        <v>13.8749</v>
       </c>
       <c r="C4" t="n">
-        <v>29.7966</v>
+        <v>22.154</v>
       </c>
       <c r="D4" t="n">
-        <v>36.8977</v>
+        <v>37.0471</v>
       </c>
     </row>
     <row r="5">
@@ -4921,13 +4921,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>15.693</v>
+        <v>15.6568</v>
       </c>
       <c r="C5" t="n">
-        <v>33.7564</v>
+        <v>22.8516</v>
       </c>
       <c r="D5" t="n">
-        <v>42.6253</v>
+        <v>43.0487</v>
       </c>
     </row>
     <row r="6">
@@ -4935,13 +4935,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>18.8047</v>
+        <v>18.7345</v>
       </c>
       <c r="C6" t="n">
-        <v>41.1539</v>
+        <v>26.4718</v>
       </c>
       <c r="D6" t="n">
-        <v>50.9701</v>
+        <v>51.7003</v>
       </c>
     </row>
     <row r="7">
@@ -4949,13 +4949,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>22.0711</v>
+        <v>22.0918</v>
       </c>
       <c r="C7" t="n">
-        <v>47.9476</v>
+        <v>31.3441</v>
       </c>
       <c r="D7" t="n">
-        <v>60.9209</v>
+        <v>60.9584</v>
       </c>
     </row>
     <row r="8">
@@ -4963,13 +4963,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>19.9315</v>
+        <v>19.7569</v>
       </c>
       <c r="C8" t="n">
-        <v>42.4658</v>
+        <v>29.7225</v>
       </c>
       <c r="D8" t="n">
-        <v>52.261</v>
+        <v>53.9222</v>
       </c>
     </row>
     <row r="9">
@@ -4977,13 +4977,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>20.8229</v>
+        <v>20.5595</v>
       </c>
       <c r="C9" t="n">
-        <v>41.9161</v>
+        <v>29.8973</v>
       </c>
       <c r="D9" t="n">
-        <v>53.7682</v>
+        <v>52.0414</v>
       </c>
     </row>
     <row r="10">
@@ -4991,13 +4991,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>20.5619</v>
+        <v>20.7086</v>
       </c>
       <c r="C10" t="n">
-        <v>42.2133</v>
+        <v>30.1329</v>
       </c>
       <c r="D10" t="n">
-        <v>55.0269</v>
+        <v>54.1996</v>
       </c>
     </row>
     <row r="11">
@@ -5005,13 +5005,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>21.1347</v>
+        <v>20.906</v>
       </c>
       <c r="C11" t="n">
-        <v>43.3117</v>
+        <v>29.9336</v>
       </c>
       <c r="D11" t="n">
-        <v>55.38</v>
+        <v>55.0864</v>
       </c>
     </row>
     <row r="12">
@@ -5019,13 +5019,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>20.9826</v>
+        <v>20.9092</v>
       </c>
       <c r="C12" t="n">
-        <v>44.6641</v>
+        <v>29.9274</v>
       </c>
       <c r="D12" t="n">
-        <v>55.4332</v>
+        <v>55.5915</v>
       </c>
     </row>
     <row r="13">
@@ -5033,13 +5033,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>20.8932</v>
+        <v>20.8893</v>
       </c>
       <c r="C13" t="n">
-        <v>45.2033</v>
+        <v>30.6007</v>
       </c>
       <c r="D13" t="n">
-        <v>56.3885</v>
+        <v>56.1002</v>
       </c>
     </row>
     <row r="14">
@@ -5047,13 +5047,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>21.0281</v>
+        <v>20.9118</v>
       </c>
       <c r="C14" t="n">
-        <v>44.0362</v>
+        <v>30.6585</v>
       </c>
       <c r="D14" t="n">
-        <v>57.6787</v>
+        <v>57.174</v>
       </c>
     </row>
     <row r="15">
@@ -5061,13 +5061,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>21.3462</v>
+        <v>20.9527</v>
       </c>
       <c r="C15" t="n">
-        <v>46.1762</v>
+        <v>30.799</v>
       </c>
       <c r="D15" t="n">
-        <v>55.392</v>
+        <v>56.7456</v>
       </c>
     </row>
     <row r="16">
@@ -5075,13 +5075,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>21.1304</v>
+        <v>21.2559</v>
       </c>
       <c r="C16" t="n">
-        <v>45.3327</v>
+        <v>30.267</v>
       </c>
       <c r="D16" t="n">
-        <v>57.9291</v>
+        <v>57.7374</v>
       </c>
     </row>
     <row r="17">
@@ -5089,13 +5089,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>21.198</v>
+        <v>21.3668</v>
       </c>
       <c r="C17" t="n">
-        <v>46.6602</v>
+        <v>30.5857</v>
       </c>
       <c r="D17" t="n">
-        <v>58.6465</v>
+        <v>58.2692</v>
       </c>
     </row>
   </sheetData>
@@ -5143,13 +5143,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4.97905</v>
+        <v>4.98</v>
       </c>
       <c r="C2" t="n">
-        <v>10.8577</v>
+        <v>9.066280000000001</v>
       </c>
       <c r="D2" t="n">
-        <v>13.5362</v>
+        <v>13.5287</v>
       </c>
     </row>
     <row r="3">
@@ -5157,13 +5157,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.74234</v>
+        <v>9.838369999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>20.5886</v>
+        <v>16.0356</v>
       </c>
       <c r="D3" t="n">
-        <v>25.4259</v>
+        <v>25.7488</v>
       </c>
     </row>
     <row r="4">
@@ -5171,13 +5171,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>14.0994</v>
+        <v>14.2001</v>
       </c>
       <c r="C4" t="n">
-        <v>29.6361</v>
+        <v>22.2485</v>
       </c>
       <c r="D4" t="n">
-        <v>36.7729</v>
+        <v>36.8817</v>
       </c>
     </row>
     <row r="5">
@@ -5185,13 +5185,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>16.0848</v>
+        <v>16.0731</v>
       </c>
       <c r="C5" t="n">
-        <v>34.0024</v>
+        <v>22.8055</v>
       </c>
       <c r="D5" t="n">
-        <v>42.8068</v>
+        <v>42.6931</v>
       </c>
     </row>
     <row r="6">
@@ -5199,13 +5199,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>19.2156</v>
+        <v>19.2473</v>
       </c>
       <c r="C6" t="n">
-        <v>40.3403</v>
+        <v>26.5748</v>
       </c>
       <c r="D6" t="n">
-        <v>50.905</v>
+        <v>51.1201</v>
       </c>
     </row>
     <row r="7">
@@ -5213,13 +5213,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>22.7386</v>
+        <v>22.763</v>
       </c>
       <c r="C7" t="n">
-        <v>47.6282</v>
+        <v>31.3895</v>
       </c>
       <c r="D7" t="n">
-        <v>58.6746</v>
+        <v>59.0316</v>
       </c>
     </row>
     <row r="8">
@@ -5227,13 +5227,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>20.4926</v>
+        <v>20.4978</v>
       </c>
       <c r="C8" t="n">
-        <v>42.9869</v>
+        <v>30.2298</v>
       </c>
       <c r="D8" t="n">
-        <v>52.2356</v>
+        <v>52.876</v>
       </c>
     </row>
     <row r="9">
@@ -5241,13 +5241,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>21.0095</v>
+        <v>21.4562</v>
       </c>
       <c r="C9" t="n">
-        <v>43.0965</v>
+        <v>30.4715</v>
       </c>
       <c r="D9" t="n">
-        <v>52.3005</v>
+        <v>51.312</v>
       </c>
     </row>
     <row r="10">
@@ -5255,13 +5255,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>21.1707</v>
+        <v>21.4549</v>
       </c>
       <c r="C10" t="n">
-        <v>43.9996</v>
+        <v>30.2761</v>
       </c>
       <c r="D10" t="n">
-        <v>51.5632</v>
+        <v>53.1912</v>
       </c>
     </row>
     <row r="11">
@@ -5269,13 +5269,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>21.9133</v>
+        <v>21.4311</v>
       </c>
       <c r="C11" t="n">
-        <v>42.9788</v>
+        <v>30.0696</v>
       </c>
       <c r="D11" t="n">
-        <v>52.8661</v>
+        <v>54.1711</v>
       </c>
     </row>
     <row r="12">
@@ -5283,13 +5283,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>21.7217</v>
+        <v>21.7021</v>
       </c>
       <c r="C12" t="n">
-        <v>44.2545</v>
+        <v>30.319</v>
       </c>
       <c r="D12" t="n">
-        <v>56.4149</v>
+        <v>54.8868</v>
       </c>
     </row>
     <row r="13">
@@ -5297,13 +5297,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>21.3931</v>
+        <v>21.4601</v>
       </c>
       <c r="C13" t="n">
-        <v>45.1296</v>
+        <v>30.4668</v>
       </c>
       <c r="D13" t="n">
-        <v>56.097</v>
+        <v>54.4906</v>
       </c>
     </row>
     <row r="14">
@@ -5311,13 +5311,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>21.409</v>
+        <v>21.6583</v>
       </c>
       <c r="C14" t="n">
-        <v>44.7046</v>
+        <v>30.7651</v>
       </c>
       <c r="D14" t="n">
-        <v>56.628</v>
+        <v>54.7855</v>
       </c>
     </row>
     <row r="15">
@@ -5325,13 +5325,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>21.9173</v>
+        <v>21.9177</v>
       </c>
       <c r="C15" t="n">
-        <v>44.9611</v>
+        <v>30.3026</v>
       </c>
       <c r="D15" t="n">
-        <v>56.1339</v>
+        <v>55.924</v>
       </c>
     </row>
     <row r="16">
@@ -5339,13 +5339,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>21.617</v>
+        <v>21.5444</v>
       </c>
       <c r="C16" t="n">
-        <v>45.6843</v>
+        <v>30.7455</v>
       </c>
       <c r="D16" t="n">
-        <v>56.3604</v>
+        <v>57.1191</v>
       </c>
     </row>
     <row r="17">
@@ -5353,13 +5353,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>21.7709</v>
+        <v>21.9089</v>
       </c>
       <c r="C17" t="n">
-        <v>46.1813</v>
+        <v>30.6301</v>
       </c>
       <c r="D17" t="n">
-        <v>56.4436</v>
+        <v>57.3395</v>
       </c>
     </row>
   </sheetData>
@@ -5374,7 +5374,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
       <selection activeCell="F27" sqref="F27"/>
@@ -5407,13 +5407,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.70473</v>
+        <v>8.75423</v>
       </c>
       <c r="C2" t="n">
-        <v>13.1824</v>
+        <v>10.9577</v>
       </c>
       <c r="D2" t="n">
-        <v>14.6885</v>
+        <v>14.6872</v>
       </c>
     </row>
     <row r="3">
@@ -5421,13 +5421,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>16.3328</v>
+        <v>16.4729</v>
       </c>
       <c r="C3" t="n">
-        <v>24.4153</v>
+        <v>18.5824</v>
       </c>
       <c r="D3" t="n">
-        <v>27.6657</v>
+        <v>27.6661</v>
       </c>
     </row>
     <row r="4">
@@ -5435,13 +5435,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>23.3039</v>
+        <v>23.424</v>
       </c>
       <c r="C4" t="n">
-        <v>34.7302</v>
+        <v>25.3581</v>
       </c>
       <c r="D4" t="n">
-        <v>39.7939</v>
+        <v>39.2661</v>
       </c>
     </row>
     <row r="5">
@@ -5449,13 +5449,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>23.1338</v>
+        <v>23.3545</v>
       </c>
       <c r="C5" t="n">
-        <v>36.9577</v>
+        <v>25.3427</v>
       </c>
       <c r="D5" t="n">
-        <v>45.7116</v>
+        <v>45.2003</v>
       </c>
     </row>
     <row r="6">
@@ -5463,13 +5463,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>26.4454</v>
+        <v>26.4218</v>
       </c>
       <c r="C6" t="n">
-        <v>42.9381</v>
+        <v>28.6862</v>
       </c>
       <c r="D6" t="n">
-        <v>54.5383</v>
+        <v>54.2751</v>
       </c>
     </row>
     <row r="7">
@@ -5477,13 +5477,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>31.8613</v>
+        <v>31.8479</v>
       </c>
       <c r="C7" t="n">
-        <v>50.8583</v>
+        <v>33.2615</v>
       </c>
       <c r="D7" t="n">
-        <v>63.1994</v>
+        <v>63.2058</v>
       </c>
     </row>
     <row r="8">
@@ -5491,13 +5491,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>29.3295</v>
+        <v>29.0654</v>
       </c>
       <c r="C8" t="n">
-        <v>47.6068</v>
+        <v>32.0831</v>
       </c>
       <c r="D8" t="n">
-        <v>57.8889</v>
+        <v>59.5956</v>
       </c>
     </row>
     <row r="9">
@@ -5505,13 +5505,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>29.5985</v>
+        <v>29.7535</v>
       </c>
       <c r="C9" t="n">
-        <v>47.3674</v>
+        <v>31.8209</v>
       </c>
       <c r="D9" t="n">
-        <v>58.8339</v>
+        <v>59.2116</v>
       </c>
     </row>
     <row r="10">
@@ -5519,13 +5519,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>30.1852</v>
+        <v>30.375</v>
       </c>
       <c r="C10" t="n">
-        <v>48.2173</v>
+        <v>31.9849</v>
       </c>
       <c r="D10" t="n">
-        <v>60.7788</v>
+        <v>59.3054</v>
       </c>
     </row>
     <row r="11">
@@ -5533,13 +5533,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>30.5761</v>
+        <v>30.2537</v>
       </c>
       <c r="C11" t="n">
-        <v>47.274</v>
+        <v>32.6754</v>
       </c>
       <c r="D11" t="n">
-        <v>60.2848</v>
+        <v>59.7724</v>
       </c>
     </row>
     <row r="12">
@@ -5547,13 +5547,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>30.5703</v>
+        <v>30.3177</v>
       </c>
       <c r="C12" t="n">
-        <v>47.9705</v>
+        <v>32.5023</v>
       </c>
       <c r="D12" t="n">
-        <v>60.5055</v>
+        <v>60.1265</v>
       </c>
     </row>
     <row r="13">
@@ -5561,13 +5561,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>30.5446</v>
+        <v>30.1999</v>
       </c>
       <c r="C13" t="n">
-        <v>47.0432</v>
+        <v>32.4419</v>
       </c>
       <c r="D13" t="n">
-        <v>60.3414</v>
+        <v>61.1015</v>
       </c>
     </row>
     <row r="14">
@@ -5575,13 +5575,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>30.2291</v>
+        <v>29.9426</v>
       </c>
       <c r="C14" t="n">
-        <v>48.1132</v>
+        <v>32.4445</v>
       </c>
       <c r="D14" t="n">
-        <v>61.0098</v>
+        <v>59.8643</v>
       </c>
     </row>
     <row r="15">
@@ -5589,13 +5589,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>30.5454</v>
+        <v>30.1363</v>
       </c>
       <c r="C15" t="n">
-        <v>47.9266</v>
+        <v>32.5709</v>
       </c>
       <c r="D15" t="n">
-        <v>60.1692</v>
+        <v>60.0354</v>
       </c>
     </row>
     <row r="16">
@@ -5603,13 +5603,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>30.3394</v>
+        <v>30.5097</v>
       </c>
       <c r="C16" t="n">
-        <v>48.662</v>
+        <v>32.2021</v>
       </c>
       <c r="D16" t="n">
-        <v>61.0516</v>
+        <v>60.7848</v>
       </c>
     </row>
     <row r="17">
@@ -5617,13 +5617,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>30.6019</v>
+        <v>30.7585</v>
       </c>
       <c r="C17" t="n">
-        <v>49.1151</v>
+        <v>32.327</v>
       </c>
       <c r="D17" t="n">
-        <v>61.6498</v>
+        <v>62.1618</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Parallel workload.xlsx
+++ b/vs-x86/Parallel workload.xlsx
@@ -115,9 +115,9 @@
           <wMode val="factor"/>
           <hMode val="factor"/>
           <x val="0.09111301681349238"/>
-          <y val="0.03800606309402162"/>
+          <y val="0.1645017834309173"/>
           <w val="0.8736779189729996"/>
-          <h val="0.8283126059471367"/>
+          <h val="0.698398007941315"/>
         </manualLayout>
       </layout>
       <scatterChart>
@@ -217,52 +217,52 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>10.8155</v>
+                  <v>13.8891</v>
                 </pt>
                 <pt idx="1">
-                  <v>20.9806</v>
+                  <v>26.7801</v>
                 </pt>
                 <pt idx="2">
-                  <v>29.2169</v>
+                  <v>31.3916</v>
                 </pt>
                 <pt idx="3">
-                  <v>33.1888</v>
+                  <v>42.1114</v>
                 </pt>
                 <pt idx="4">
-                  <v>30.3287</v>
+                  <v>40.0238</v>
                 </pt>
                 <pt idx="5">
-                  <v>32.0105</v>
+                  <v>39.5469</v>
                 </pt>
                 <pt idx="6">
-                  <v>34.9483</v>
+                  <v>37.7463</v>
                 </pt>
                 <pt idx="7">
-                  <v>36.5799</v>
+                  <v>39.7074</v>
                 </pt>
                 <pt idx="8">
-                  <v>35.6174</v>
+                  <v>46.2775</v>
                 </pt>
                 <pt idx="9">
-                  <v>35.6067</v>
+                  <v>47.6475</v>
                 </pt>
                 <pt idx="10">
-                  <v>37.923</v>
+                  <v>41.1897</v>
                 </pt>
                 <pt idx="11">
-                  <v>35.1742</v>
+                  <v>44.6059</v>
                 </pt>
                 <pt idx="12">
-                  <v>37.5687</v>
+                  <v>42.3724</v>
                 </pt>
                 <pt idx="13">
-                  <v>33.547</v>
+                  <v>46.0471</v>
                 </pt>
                 <pt idx="14">
-                  <v>34.5465</v>
+                  <v>44.8912</v>
                 </pt>
                 <pt idx="15">
-                  <v>33.7523</v>
+                  <v>49.0374</v>
                 </pt>
               </numCache>
             </numRef>
@@ -278,7 +278,7 @@
               <strCache>
                 <ptCount val="1"/>
                 <pt idx="0">
-                  <v>boost::concurrent_flat_map</v>
+                  <v>gtl::parallel_flat_hash_map</v>
                 </pt>
               </strCache>
             </strRef>
@@ -363,52 +363,52 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>14.0237</v>
+                  <v>18.6855</v>
                 </pt>
                 <pt idx="1">
-                  <v>24.5483</v>
+                  <v>31.0102</v>
                 </pt>
                 <pt idx="2">
-                  <v>30.7479</v>
+                  <v>35.7257</v>
                 </pt>
                 <pt idx="3">
-                  <v>33.4058</v>
+                  <v>50.8404</v>
                 </pt>
                 <pt idx="4">
-                  <v>34.3727</v>
+                  <v>40.4798</v>
                 </pt>
                 <pt idx="5">
-                  <v>32.4698</v>
+                  <v>40.7141</v>
                 </pt>
                 <pt idx="6">
-                  <v>36.0389</v>
+                  <v>37.2463</v>
                 </pt>
                 <pt idx="7">
-                  <v>33.9232</v>
+                  <v>39.2744</v>
                 </pt>
                 <pt idx="8">
-                  <v>34.4942</v>
+                  <v>40.4141</v>
                 </pt>
                 <pt idx="9">
-                  <v>35.0776</v>
+                  <v>42.6102</v>
                 </pt>
                 <pt idx="10">
-                  <v>34.1283</v>
+                  <v>39.5541</v>
                 </pt>
                 <pt idx="11">
-                  <v>34.2963</v>
+                  <v>43.5443</v>
                 </pt>
                 <pt idx="12">
-                  <v>36.9511</v>
+                  <v>48.8967</v>
                 </pt>
                 <pt idx="13">
-                  <v>32.9614</v>
+                  <v>45.6242</v>
                 </pt>
                 <pt idx="14">
-                  <v>34.9461</v>
+                  <v>49.8071</v>
                 </pt>
                 <pt idx="15">
-                  <v>36.1476</v>
+                  <v>46.0208</v>
                 </pt>
               </numCache>
             </numRef>
@@ -424,7 +424,7 @@
               <strCache>
                 <ptCount val="1"/>
                 <pt idx="0">
-                  <v>boost::concurrent_flat_map bulk</v>
+                  <v>boost::concurrent_flat_map</v>
                 </pt>
               </strCache>
             </strRef>
@@ -509,52 +509,195 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>18.3402</v>
+                  <v>25.1245</v>
                 </pt>
                 <pt idx="1">
-                  <v>30.0421</v>
+                  <v>33.3849</v>
                 </pt>
                 <pt idx="2">
-                  <v>31.4251</v>
+                  <v>48.2392</v>
                 </pt>
                 <pt idx="3">
-                  <v>45.4028</v>
+                  <v>61.9033</v>
                 </pt>
                 <pt idx="4">
-                  <v>40.8164</v>
+                  <v>51.4984</v>
                 </pt>
                 <pt idx="5">
-                  <v>40.9466</v>
+                  <v>49.997</v>
                 </pt>
                 <pt idx="6">
-                  <v>38.5062</v>
+                  <v>53.5658</v>
                 </pt>
                 <pt idx="7">
-                  <v>42.9299</v>
+                  <v>49.8046</v>
                 </pt>
                 <pt idx="8">
-                  <v>35.7653</v>
+                  <v>51.2952</v>
                 </pt>
                 <pt idx="9">
-                  <v>40.7763</v>
+                  <v>55.992</v>
                 </pt>
                 <pt idx="10">
-                  <v>42.2757</v>
+                  <v>51.6304</v>
                 </pt>
                 <pt idx="11">
-                  <v>42.4834</v>
+                  <v>54.8665</v>
                 </pt>
                 <pt idx="12">
-                  <v>42.3856</v>
+                  <v>54.975</v>
                 </pt>
                 <pt idx="13">
-                  <v>44.812</v>
+                  <v>55.5807</v>
                 </pt>
                 <pt idx="14">
-                  <v>41.5151</v>
+                  <v>44.9125</v>
                 </pt>
                 <pt idx="15">
-                  <v>40.17</v>
+                  <v>55.7518</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </yVal>
+          <smooth val="0"/>
+        </ser>
+        <ser>
+          <idx val="3"/>
+          <order val="3"/>
+          <tx>
+            <strRef>
+              <f>'500k, 0.01'!$E$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>boost::concurrent_flat_map bulk</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>'500k, 0.01'!$A$2:$A$33</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="32"/>
+                <pt idx="0">
+                  <v>1</v>
+                </pt>
+                <pt idx="1">
+                  <v>2</v>
+                </pt>
+                <pt idx="2">
+                  <v>3</v>
+                </pt>
+                <pt idx="3">
+                  <v>4</v>
+                </pt>
+                <pt idx="4">
+                  <v>5</v>
+                </pt>
+                <pt idx="5">
+                  <v>6</v>
+                </pt>
+                <pt idx="6">
+                  <v>7</v>
+                </pt>
+                <pt idx="7">
+                  <v>8</v>
+                </pt>
+                <pt idx="8">
+                  <v>9</v>
+                </pt>
+                <pt idx="9">
+                  <v>10</v>
+                </pt>
+                <pt idx="10">
+                  <v>11</v>
+                </pt>
+                <pt idx="11">
+                  <v>12</v>
+                </pt>
+                <pt idx="12">
+                  <v>13</v>
+                </pt>
+                <pt idx="13">
+                  <v>14</v>
+                </pt>
+                <pt idx="14">
+                  <v>15</v>
+                </pt>
+                <pt idx="15">
+                  <v>16</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>'500k, 0.01'!$E$2:$E$33</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="32"/>
+                <pt idx="0">
+                  <v>29.8425</v>
+                </pt>
+                <pt idx="1">
+                  <v>44.9754</v>
+                </pt>
+                <pt idx="2">
+                  <v>55.1248</v>
+                </pt>
+                <pt idx="3">
+                  <v>74.3052</v>
+                </pt>
+                <pt idx="4">
+                  <v>61.2846</v>
+                </pt>
+                <pt idx="5">
+                  <v>63.3506</v>
+                </pt>
+                <pt idx="6">
+                  <v>69.6906</v>
+                </pt>
+                <pt idx="7">
+                  <v>60.9708</v>
+                </pt>
+                <pt idx="8">
+                  <v>59.1547</v>
+                </pt>
+                <pt idx="9">
+                  <v>65.57989999999999</v>
+                </pt>
+                <pt idx="10">
+                  <v>55.923</v>
+                </pt>
+                <pt idx="11">
+                  <v>59.4605</v>
+                </pt>
+                <pt idx="12">
+                  <v>56.9516</v>
+                </pt>
+                <pt idx="13">
+                  <v>58.594</v>
+                </pt>
+                <pt idx="14">
+                  <v>60.4237</v>
+                </pt>
+                <pt idx="15">
+                  <v>59.0957</v>
                 </pt>
               </numCache>
             </numRef>
@@ -647,33 +790,8 @@
       </valAx>
     </plotArea>
     <legend>
-      <legendPos val="r"/>
-      <layout>
-        <manualLayout>
-          <xMode val="edge"/>
-          <yMode val="edge"/>
-          <wMode val="factor"/>
-          <hMode val="factor"/>
-          <x val="0.5636849354226762"/>
-          <y val="0.6254994279561209"/>
-          <w val="0.3836870143707284"/>
-          <h val="0.2236395450568679"/>
-        </manualLayout>
-      </layout>
+      <legendPos val="t"/>
       <overlay val="0"/>
-      <spPr>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="bg1">
-              <a:lumMod val="65000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </spPr>
     </legend>
     <plotVisOnly val="1"/>
     <dispBlanksAs val="gap"/>
@@ -693,9 +811,9 @@
           <wMode val="factor"/>
           <hMode val="factor"/>
           <x val="0.09111301681349238"/>
-          <y val="0.03800606309402162"/>
+          <y val="0.1645017834309173"/>
           <w val="0.8736779189729996"/>
-          <h val="0.8283126059471367"/>
+          <h val="0.698398007941315"/>
         </manualLayout>
       </layout>
       <scatterChart>
@@ -795,52 +913,52 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>11.3115</v>
+                  <v>13.8891</v>
                 </pt>
                 <pt idx="1">
-                  <v>21.3377</v>
+                  <v>26.7801</v>
                 </pt>
                 <pt idx="2">
-                  <v>29.9759</v>
+                  <v>31.3916</v>
                 </pt>
                 <pt idx="3">
-                  <v>36.9453</v>
+                  <v>42.1114</v>
                 </pt>
                 <pt idx="4">
-                  <v>32.0078</v>
+                  <v>40.0238</v>
                 </pt>
                 <pt idx="5">
-                  <v>32.567</v>
+                  <v>39.5469</v>
                 </pt>
                 <pt idx="6">
-                  <v>32.0236</v>
+                  <v>37.7463</v>
                 </pt>
                 <pt idx="7">
-                  <v>36.7934</v>
+                  <v>39.7074</v>
                 </pt>
                 <pt idx="8">
-                  <v>38.1537</v>
+                  <v>46.2775</v>
                 </pt>
                 <pt idx="9">
-                  <v>41.2269</v>
+                  <v>47.6475</v>
                 </pt>
                 <pt idx="10">
-                  <v>37.044</v>
+                  <v>41.1897</v>
                 </pt>
                 <pt idx="11">
-                  <v>35.2941</v>
+                  <v>44.6059</v>
                 </pt>
                 <pt idx="12">
-                  <v>32.4397</v>
+                  <v>42.3724</v>
                 </pt>
                 <pt idx="13">
-                  <v>37.4343</v>
+                  <v>46.0471</v>
                 </pt>
                 <pt idx="14">
-                  <v>32.9971</v>
+                  <v>44.8912</v>
                 </pt>
                 <pt idx="15">
-                  <v>39.2668</v>
+                  <v>49.0374</v>
                 </pt>
               </numCache>
             </numRef>
@@ -856,7 +974,7 @@
               <strCache>
                 <ptCount val="1"/>
                 <pt idx="0">
-                  <v>boost::concurrent_flat_map</v>
+                  <v>gtl::parallel_flat_hash_map</v>
                 </pt>
               </strCache>
             </strRef>
@@ -941,52 +1059,52 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>13.8756</v>
+                  <v>18.6855</v>
                 </pt>
                 <pt idx="1">
-                  <v>24.3022</v>
+                  <v>31.0102</v>
                 </pt>
                 <pt idx="2">
-                  <v>30.7141</v>
+                  <v>35.7257</v>
                 </pt>
                 <pt idx="3">
-                  <v>32.7353</v>
+                  <v>50.8404</v>
                 </pt>
                 <pt idx="4">
-                  <v>36.4842</v>
+                  <v>40.4798</v>
                 </pt>
                 <pt idx="5">
-                  <v>37.8729</v>
+                  <v>40.7141</v>
                 </pt>
                 <pt idx="6">
-                  <v>31.3784</v>
+                  <v>37.2463</v>
                 </pt>
                 <pt idx="7">
-                  <v>30.8949</v>
+                  <v>39.2744</v>
                 </pt>
                 <pt idx="8">
-                  <v>33.2611</v>
+                  <v>40.4141</v>
                 </pt>
                 <pt idx="9">
-                  <v>33.1615</v>
+                  <v>42.6102</v>
                 </pt>
                 <pt idx="10">
-                  <v>32.3131</v>
+                  <v>39.5541</v>
                 </pt>
                 <pt idx="11">
-                  <v>35.6816</v>
+                  <v>43.5443</v>
                 </pt>
                 <pt idx="12">
-                  <v>40.4094</v>
+                  <v>48.8967</v>
                 </pt>
                 <pt idx="13">
-                  <v>34.4607</v>
+                  <v>45.6242</v>
                 </pt>
                 <pt idx="14">
-                  <v>33.6837</v>
+                  <v>49.8071</v>
                 </pt>
                 <pt idx="15">
-                  <v>35.4533</v>
+                  <v>46.0208</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1002,7 +1120,7 @@
               <strCache>
                 <ptCount val="1"/>
                 <pt idx="0">
-                  <v>boost::concurrent_flat_map bulk</v>
+                  <v>boost::concurrent_flat_map</v>
                 </pt>
               </strCache>
             </strRef>
@@ -1087,52 +1205,195 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>18.2281</v>
+                  <v>25.1245</v>
                 </pt>
                 <pt idx="1">
-                  <v>29.3131</v>
+                  <v>33.3849</v>
                 </pt>
                 <pt idx="2">
-                  <v>32.0279</v>
+                  <v>48.2392</v>
                 </pt>
                 <pt idx="3">
-                  <v>43.3401</v>
+                  <v>61.9033</v>
                 </pt>
                 <pt idx="4">
-                  <v>37.9461</v>
+                  <v>51.4984</v>
                 </pt>
                 <pt idx="5">
-                  <v>40.324</v>
+                  <v>49.997</v>
                 </pt>
                 <pt idx="6">
-                  <v>36.3256</v>
+                  <v>53.5658</v>
                 </pt>
                 <pt idx="7">
-                  <v>42.357</v>
+                  <v>49.8046</v>
                 </pt>
                 <pt idx="8">
-                  <v>42.9263</v>
+                  <v>51.2952</v>
                 </pt>
                 <pt idx="9">
-                  <v>44.4764</v>
+                  <v>55.992</v>
                 </pt>
                 <pt idx="10">
-                  <v>42.4995</v>
+                  <v>51.6304</v>
                 </pt>
                 <pt idx="11">
-                  <v>38.8887</v>
+                  <v>54.8665</v>
                 </pt>
                 <pt idx="12">
-                  <v>39.0915</v>
+                  <v>54.975</v>
                 </pt>
                 <pt idx="13">
-                  <v>53.1451</v>
+                  <v>55.5807</v>
                 </pt>
                 <pt idx="14">
-                  <v>46.3253</v>
+                  <v>44.9125</v>
                 </pt>
                 <pt idx="15">
-                  <v>39.6415</v>
+                  <v>55.7518</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </yVal>
+          <smooth val="0"/>
+        </ser>
+        <ser>
+          <idx val="3"/>
+          <order val="3"/>
+          <tx>
+            <strRef>
+              <f>'500k, 0.5'!$E$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>boost::concurrent_flat_map bulk</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>'500k, 0.5'!$A$2:$A$33</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="32"/>
+                <pt idx="0">
+                  <v>1</v>
+                </pt>
+                <pt idx="1">
+                  <v>2</v>
+                </pt>
+                <pt idx="2">
+                  <v>3</v>
+                </pt>
+                <pt idx="3">
+                  <v>4</v>
+                </pt>
+                <pt idx="4">
+                  <v>5</v>
+                </pt>
+                <pt idx="5">
+                  <v>6</v>
+                </pt>
+                <pt idx="6">
+                  <v>7</v>
+                </pt>
+                <pt idx="7">
+                  <v>8</v>
+                </pt>
+                <pt idx="8">
+                  <v>9</v>
+                </pt>
+                <pt idx="9">
+                  <v>10</v>
+                </pt>
+                <pt idx="10">
+                  <v>11</v>
+                </pt>
+                <pt idx="11">
+                  <v>12</v>
+                </pt>
+                <pt idx="12">
+                  <v>13</v>
+                </pt>
+                <pt idx="13">
+                  <v>14</v>
+                </pt>
+                <pt idx="14">
+                  <v>15</v>
+                </pt>
+                <pt idx="15">
+                  <v>16</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>'500k, 0.5'!$E$2:$E$33</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="32"/>
+                <pt idx="0">
+                  <v>29.8425</v>
+                </pt>
+                <pt idx="1">
+                  <v>44.9754</v>
+                </pt>
+                <pt idx="2">
+                  <v>55.1248</v>
+                </pt>
+                <pt idx="3">
+                  <v>74.3052</v>
+                </pt>
+                <pt idx="4">
+                  <v>61.2846</v>
+                </pt>
+                <pt idx="5">
+                  <v>63.3506</v>
+                </pt>
+                <pt idx="6">
+                  <v>69.6906</v>
+                </pt>
+                <pt idx="7">
+                  <v>60.9708</v>
+                </pt>
+                <pt idx="8">
+                  <v>59.1547</v>
+                </pt>
+                <pt idx="9">
+                  <v>65.57989999999999</v>
+                </pt>
+                <pt idx="10">
+                  <v>55.923</v>
+                </pt>
+                <pt idx="11">
+                  <v>59.4605</v>
+                </pt>
+                <pt idx="12">
+                  <v>56.9516</v>
+                </pt>
+                <pt idx="13">
+                  <v>58.594</v>
+                </pt>
+                <pt idx="14">
+                  <v>60.4237</v>
+                </pt>
+                <pt idx="15">
+                  <v>59.0957</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1225,33 +1486,8 @@
       </valAx>
     </plotArea>
     <legend>
-      <legendPos val="r"/>
-      <layout>
-        <manualLayout>
-          <xMode val="edge"/>
-          <yMode val="edge"/>
-          <wMode val="factor"/>
-          <hMode val="factor"/>
-          <x val="0.5636849354226762"/>
-          <y val="0.6254994279561209"/>
-          <w val="0.3836870143707284"/>
-          <h val="0.2236395450568679"/>
-        </manualLayout>
-      </layout>
+      <legendPos val="t"/>
       <overlay val="0"/>
-      <spPr>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="bg1">
-              <a:lumMod val="65000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </spPr>
     </legend>
     <plotVisOnly val="1"/>
     <dispBlanksAs val="gap"/>
@@ -1271,9 +1507,9 @@
           <wMode val="factor"/>
           <hMode val="factor"/>
           <x val="0.09111301681349238"/>
-          <y val="0.03800606309402162"/>
+          <y val="0.1645017834309173"/>
           <w val="0.8736779189729996"/>
-          <h val="0.8283126059471367"/>
+          <h val="0.698398007941315"/>
         </manualLayout>
       </layout>
       <scatterChart>
@@ -1373,52 +1609,52 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>13.38</v>
+                  <v>13.8891</v>
                 </pt>
                 <pt idx="1">
-                  <v>24.6113</v>
+                  <v>26.7801</v>
                 </pt>
                 <pt idx="2">
-                  <v>31.9767</v>
+                  <v>31.3916</v>
                 </pt>
                 <pt idx="3">
-                  <v>34.9982</v>
+                  <v>42.1114</v>
                 </pt>
                 <pt idx="4">
-                  <v>31.855</v>
+                  <v>40.0238</v>
                 </pt>
                 <pt idx="5">
-                  <v>32.9548</v>
+                  <v>39.5469</v>
                 </pt>
                 <pt idx="6">
-                  <v>34.3225</v>
+                  <v>37.7463</v>
                 </pt>
                 <pt idx="7">
-                  <v>33.5931</v>
+                  <v>39.7074</v>
                 </pt>
                 <pt idx="8">
-                  <v>37.1243</v>
+                  <v>46.2775</v>
                 </pt>
                 <pt idx="9">
-                  <v>33.0461</v>
+                  <v>47.6475</v>
                 </pt>
                 <pt idx="10">
-                  <v>33.6745</v>
+                  <v>41.1897</v>
                 </pt>
                 <pt idx="11">
-                  <v>37.6163</v>
+                  <v>44.6059</v>
                 </pt>
                 <pt idx="12">
-                  <v>36.7882</v>
+                  <v>42.3724</v>
                 </pt>
                 <pt idx="13">
-                  <v>34.093</v>
+                  <v>46.0471</v>
                 </pt>
                 <pt idx="14">
-                  <v>34.0737</v>
+                  <v>44.8912</v>
                 </pt>
                 <pt idx="15">
-                  <v>33.2469</v>
+                  <v>49.0374</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1434,7 +1670,7 @@
               <strCache>
                 <ptCount val="1"/>
                 <pt idx="0">
-                  <v>boost::concurrent_flat_map</v>
+                  <v>gtl::parallel_flat_hash_map</v>
                 </pt>
               </strCache>
             </strRef>
@@ -1519,52 +1755,52 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>15.6187</v>
+                  <v>18.6855</v>
                 </pt>
                 <pt idx="1">
-                  <v>26.3232</v>
+                  <v>31.0102</v>
                 </pt>
                 <pt idx="2">
-                  <v>32.0667</v>
+                  <v>35.7257</v>
                 </pt>
                 <pt idx="3">
-                  <v>42.0206</v>
+                  <v>50.8404</v>
                 </pt>
                 <pt idx="4">
-                  <v>36.439</v>
+                  <v>40.4798</v>
                 </pt>
                 <pt idx="5">
-                  <v>33.6879</v>
+                  <v>40.7141</v>
                 </pt>
                 <pt idx="6">
-                  <v>32.8504</v>
+                  <v>37.2463</v>
                 </pt>
                 <pt idx="7">
-                  <v>32.7418</v>
+                  <v>39.2744</v>
                 </pt>
                 <pt idx="8">
-                  <v>33.4355</v>
+                  <v>40.4141</v>
                 </pt>
                 <pt idx="9">
-                  <v>35.636</v>
+                  <v>42.6102</v>
                 </pt>
                 <pt idx="10">
-                  <v>33.676</v>
+                  <v>39.5541</v>
                 </pt>
                 <pt idx="11">
-                  <v>34.8253</v>
+                  <v>43.5443</v>
                 </pt>
                 <pt idx="12">
-                  <v>32.4019</v>
+                  <v>48.8967</v>
                 </pt>
                 <pt idx="13">
-                  <v>32.7958</v>
+                  <v>45.6242</v>
                 </pt>
                 <pt idx="14">
-                  <v>32.7958</v>
+                  <v>49.8071</v>
                 </pt>
                 <pt idx="15">
-                  <v>31.9247</v>
+                  <v>46.0208</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1580,7 +1816,7 @@
               <strCache>
                 <ptCount val="1"/>
                 <pt idx="0">
-                  <v>boost::concurrent_flat_map bulk</v>
+                  <v>boost::concurrent_flat_map</v>
                 </pt>
               </strCache>
             </strRef>
@@ -1665,52 +1901,195 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>19.4058</v>
+                  <v>25.1245</v>
                 </pt>
                 <pt idx="1">
-                  <v>28.4519</v>
+                  <v>33.3849</v>
                 </pt>
                 <pt idx="2">
-                  <v>36.4547</v>
+                  <v>48.2392</v>
                 </pt>
                 <pt idx="3">
-                  <v>51.6131</v>
+                  <v>61.9033</v>
                 </pt>
                 <pt idx="4">
-                  <v>36.8486</v>
+                  <v>51.4984</v>
                 </pt>
                 <pt idx="5">
-                  <v>39.9607</v>
+                  <v>49.997</v>
                 </pt>
                 <pt idx="6">
-                  <v>38.7581</v>
+                  <v>53.5658</v>
                 </pt>
                 <pt idx="7">
-                  <v>35.3177</v>
+                  <v>49.8046</v>
                 </pt>
                 <pt idx="8">
-                  <v>35.5044</v>
+                  <v>51.2952</v>
                 </pt>
                 <pt idx="9">
-                  <v>39.2708</v>
+                  <v>55.992</v>
                 </pt>
                 <pt idx="10">
-                  <v>37.9998</v>
+                  <v>51.6304</v>
                 </pt>
                 <pt idx="11">
-                  <v>42.7806</v>
+                  <v>54.8665</v>
                 </pt>
                 <pt idx="12">
-                  <v>45.4542</v>
+                  <v>54.975</v>
                 </pt>
                 <pt idx="13">
-                  <v>40.6207</v>
+                  <v>55.5807</v>
                 </pt>
                 <pt idx="14">
-                  <v>42.0763</v>
+                  <v>44.9125</v>
                 </pt>
                 <pt idx="15">
-                  <v>47.8814</v>
+                  <v>55.7518</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </yVal>
+          <smooth val="0"/>
+        </ser>
+        <ser>
+          <idx val="3"/>
+          <order val="3"/>
+          <tx>
+            <strRef>
+              <f>'500k, 0.99'!$E$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>boost::concurrent_flat_map bulk</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>'500k, 0.99'!$A$2:$A$33</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="32"/>
+                <pt idx="0">
+                  <v>1</v>
+                </pt>
+                <pt idx="1">
+                  <v>2</v>
+                </pt>
+                <pt idx="2">
+                  <v>3</v>
+                </pt>
+                <pt idx="3">
+                  <v>4</v>
+                </pt>
+                <pt idx="4">
+                  <v>5</v>
+                </pt>
+                <pt idx="5">
+                  <v>6</v>
+                </pt>
+                <pt idx="6">
+                  <v>7</v>
+                </pt>
+                <pt idx="7">
+                  <v>8</v>
+                </pt>
+                <pt idx="8">
+                  <v>9</v>
+                </pt>
+                <pt idx="9">
+                  <v>10</v>
+                </pt>
+                <pt idx="10">
+                  <v>11</v>
+                </pt>
+                <pt idx="11">
+                  <v>12</v>
+                </pt>
+                <pt idx="12">
+                  <v>13</v>
+                </pt>
+                <pt idx="13">
+                  <v>14</v>
+                </pt>
+                <pt idx="14">
+                  <v>15</v>
+                </pt>
+                <pt idx="15">
+                  <v>16</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>'500k, 0.99'!$E$2:$E$33</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="32"/>
+                <pt idx="0">
+                  <v>29.8425</v>
+                </pt>
+                <pt idx="1">
+                  <v>44.9754</v>
+                </pt>
+                <pt idx="2">
+                  <v>55.1248</v>
+                </pt>
+                <pt idx="3">
+                  <v>74.3052</v>
+                </pt>
+                <pt idx="4">
+                  <v>61.2846</v>
+                </pt>
+                <pt idx="5">
+                  <v>63.3506</v>
+                </pt>
+                <pt idx="6">
+                  <v>69.6906</v>
+                </pt>
+                <pt idx="7">
+                  <v>60.9708</v>
+                </pt>
+                <pt idx="8">
+                  <v>59.1547</v>
+                </pt>
+                <pt idx="9">
+                  <v>65.57989999999999</v>
+                </pt>
+                <pt idx="10">
+                  <v>55.923</v>
+                </pt>
+                <pt idx="11">
+                  <v>59.4605</v>
+                </pt>
+                <pt idx="12">
+                  <v>56.9516</v>
+                </pt>
+                <pt idx="13">
+                  <v>58.594</v>
+                </pt>
+                <pt idx="14">
+                  <v>60.4237</v>
+                </pt>
+                <pt idx="15">
+                  <v>59.0957</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1803,33 +2182,8 @@
       </valAx>
     </plotArea>
     <legend>
-      <legendPos val="r"/>
-      <layout>
-        <manualLayout>
-          <xMode val="edge"/>
-          <yMode val="edge"/>
-          <wMode val="factor"/>
-          <hMode val="factor"/>
-          <x val="0.5636849354226762"/>
-          <y val="0.6254994279561209"/>
-          <w val="0.3836870143707284"/>
-          <h val="0.2236395450568679"/>
-        </manualLayout>
-      </layout>
+      <legendPos val="t"/>
       <overlay val="0"/>
-      <spPr>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="bg1">
-              <a:lumMod val="65000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </spPr>
     </legend>
     <plotVisOnly val="1"/>
     <dispBlanksAs val="gap"/>
@@ -1849,9 +2203,9 @@
           <wMode val="factor"/>
           <hMode val="factor"/>
           <x val="0.09111301681349238"/>
-          <y val="0.03800606309402162"/>
+          <y val="0.1645017834309173"/>
           <w val="0.8736779189729996"/>
-          <h val="0.8283126059471367"/>
+          <h val="0.698398007941315"/>
         </manualLayout>
       </layout>
       <scatterChart>
@@ -1951,52 +2305,52 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>6.80876</v>
+                  <v>13.8891</v>
                 </pt>
                 <pt idx="1">
-                  <v>13.074</v>
+                  <v>26.7801</v>
                 </pt>
                 <pt idx="2">
-                  <v>18.7496</v>
+                  <v>31.3916</v>
                 </pt>
                 <pt idx="3">
-                  <v>24.5411</v>
+                  <v>42.1114</v>
                 </pt>
                 <pt idx="4">
-                  <v>26.8405</v>
+                  <v>40.0238</v>
                 </pt>
                 <pt idx="5">
-                  <v>29.3267</v>
+                  <v>39.5469</v>
                 </pt>
                 <pt idx="6">
-                  <v>31.6785</v>
+                  <v>37.7463</v>
                 </pt>
                 <pt idx="7">
-                  <v>33.1948</v>
+                  <v>39.7074</v>
                 </pt>
                 <pt idx="8">
-                  <v>33.5386</v>
+                  <v>46.2775</v>
                 </pt>
                 <pt idx="9">
-                  <v>33.7248</v>
+                  <v>47.6475</v>
                 </pt>
                 <pt idx="10">
-                  <v>33.7471</v>
+                  <v>41.1897</v>
                 </pt>
                 <pt idx="11">
-                  <v>33.862</v>
+                  <v>44.6059</v>
                 </pt>
                 <pt idx="12">
-                  <v>33.8593</v>
+                  <v>42.3724</v>
                 </pt>
                 <pt idx="13">
-                  <v>33.8689</v>
+                  <v>46.0471</v>
                 </pt>
                 <pt idx="14">
-                  <v>33.765</v>
+                  <v>44.8912</v>
                 </pt>
                 <pt idx="15">
-                  <v>33.7869</v>
+                  <v>49.0374</v>
                 </pt>
               </numCache>
             </numRef>
@@ -2012,7 +2366,7 @@
               <strCache>
                 <ptCount val="1"/>
                 <pt idx="0">
-                  <v>boost::concurrent_flat_map</v>
+                  <v>gtl::parallel_flat_hash_map</v>
                 </pt>
               </strCache>
             </strRef>
@@ -2097,52 +2451,52 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>12.6049</v>
+                  <v>18.6855</v>
                 </pt>
                 <pt idx="1">
-                  <v>22.5666</v>
+                  <v>31.0102</v>
                 </pt>
                 <pt idx="2">
-                  <v>31.408</v>
+                  <v>35.7257</v>
                 </pt>
                 <pt idx="3">
-                  <v>40.1723</v>
+                  <v>50.8404</v>
                 </pt>
                 <pt idx="4">
-                  <v>35.6446</v>
+                  <v>40.4798</v>
                 </pt>
                 <pt idx="5">
-                  <v>35.8439</v>
+                  <v>40.7141</v>
                 </pt>
                 <pt idx="6">
-                  <v>36.6128</v>
+                  <v>37.2463</v>
                 </pt>
                 <pt idx="7">
-                  <v>37.0986</v>
+                  <v>39.2744</v>
                 </pt>
                 <pt idx="8">
-                  <v>40.8964</v>
+                  <v>40.4141</v>
                 </pt>
                 <pt idx="9">
-                  <v>42.4847</v>
+                  <v>42.6102</v>
                 </pt>
                 <pt idx="10">
-                  <v>43.5297</v>
+                  <v>39.5541</v>
                 </pt>
                 <pt idx="11">
-                  <v>43.2206</v>
+                  <v>43.5443</v>
                 </pt>
                 <pt idx="12">
-                  <v>43.8155</v>
+                  <v>48.8967</v>
                 </pt>
                 <pt idx="13">
-                  <v>43.8653</v>
+                  <v>45.6242</v>
                 </pt>
                 <pt idx="14">
-                  <v>43.6721</v>
+                  <v>49.8071</v>
                 </pt>
                 <pt idx="15">
-                  <v>44.1658</v>
+                  <v>46.0208</v>
                 </pt>
               </numCache>
             </numRef>
@@ -2158,7 +2512,7 @@
               <strCache>
                 <ptCount val="1"/>
                 <pt idx="0">
-                  <v>boost::concurrent_flat_map bulk</v>
+                  <v>boost::concurrent_flat_map</v>
                 </pt>
               </strCache>
             </strRef>
@@ -2243,52 +2597,195 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>16.5764</v>
+                  <v>25.1245</v>
                 </pt>
                 <pt idx="1">
-                  <v>31.8358</v>
+                  <v>33.3849</v>
                 </pt>
                 <pt idx="2">
-                  <v>45.2819</v>
+                  <v>48.2392</v>
                 </pt>
                 <pt idx="3">
-                  <v>59.1192</v>
+                  <v>61.9033</v>
                 </pt>
                 <pt idx="4">
-                  <v>54.0172</v>
+                  <v>51.4984</v>
                 </pt>
                 <pt idx="5">
-                  <v>54.4127</v>
+                  <v>49.997</v>
                 </pt>
                 <pt idx="6">
-                  <v>50.4742</v>
+                  <v>53.5658</v>
                 </pt>
                 <pt idx="7">
-                  <v>51.9251</v>
+                  <v>49.8046</v>
                 </pt>
                 <pt idx="8">
-                  <v>51.902</v>
+                  <v>51.2952</v>
                 </pt>
                 <pt idx="9">
-                  <v>56.1517</v>
+                  <v>55.992</v>
                 </pt>
                 <pt idx="10">
-                  <v>56.5848</v>
+                  <v>51.6304</v>
                 </pt>
                 <pt idx="11">
-                  <v>58.5013</v>
+                  <v>54.8665</v>
                 </pt>
                 <pt idx="12">
-                  <v>58.9038</v>
+                  <v>54.975</v>
                 </pt>
                 <pt idx="13">
-                  <v>60.0247</v>
+                  <v>55.5807</v>
                 </pt>
                 <pt idx="14">
-                  <v>59.7863</v>
+                  <v>44.9125</v>
                 </pt>
                 <pt idx="15">
-                  <v>60.8409</v>
+                  <v>55.7518</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </yVal>
+          <smooth val="0"/>
+        </ser>
+        <ser>
+          <idx val="3"/>
+          <order val="3"/>
+          <tx>
+            <strRef>
+              <f>'5M, 0.01'!$E$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>boost::concurrent_flat_map bulk</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>'5M, 0.01'!$A$2:$A$33</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="32"/>
+                <pt idx="0">
+                  <v>1</v>
+                </pt>
+                <pt idx="1">
+                  <v>2</v>
+                </pt>
+                <pt idx="2">
+                  <v>3</v>
+                </pt>
+                <pt idx="3">
+                  <v>4</v>
+                </pt>
+                <pt idx="4">
+                  <v>5</v>
+                </pt>
+                <pt idx="5">
+                  <v>6</v>
+                </pt>
+                <pt idx="6">
+                  <v>7</v>
+                </pt>
+                <pt idx="7">
+                  <v>8</v>
+                </pt>
+                <pt idx="8">
+                  <v>9</v>
+                </pt>
+                <pt idx="9">
+                  <v>10</v>
+                </pt>
+                <pt idx="10">
+                  <v>11</v>
+                </pt>
+                <pt idx="11">
+                  <v>12</v>
+                </pt>
+                <pt idx="12">
+                  <v>13</v>
+                </pt>
+                <pt idx="13">
+                  <v>14</v>
+                </pt>
+                <pt idx="14">
+                  <v>15</v>
+                </pt>
+                <pt idx="15">
+                  <v>16</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>'5M, 0.01'!$E$2:$E$33</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="32"/>
+                <pt idx="0">
+                  <v>29.8425</v>
+                </pt>
+                <pt idx="1">
+                  <v>44.9754</v>
+                </pt>
+                <pt idx="2">
+                  <v>55.1248</v>
+                </pt>
+                <pt idx="3">
+                  <v>74.3052</v>
+                </pt>
+                <pt idx="4">
+                  <v>61.2846</v>
+                </pt>
+                <pt idx="5">
+                  <v>63.3506</v>
+                </pt>
+                <pt idx="6">
+                  <v>69.6906</v>
+                </pt>
+                <pt idx="7">
+                  <v>60.9708</v>
+                </pt>
+                <pt idx="8">
+                  <v>59.1547</v>
+                </pt>
+                <pt idx="9">
+                  <v>65.57989999999999</v>
+                </pt>
+                <pt idx="10">
+                  <v>55.923</v>
+                </pt>
+                <pt idx="11">
+                  <v>59.4605</v>
+                </pt>
+                <pt idx="12">
+                  <v>56.9516</v>
+                </pt>
+                <pt idx="13">
+                  <v>58.594</v>
+                </pt>
+                <pt idx="14">
+                  <v>60.4237</v>
+                </pt>
+                <pt idx="15">
+                  <v>59.0957</v>
                 </pt>
               </numCache>
             </numRef>
@@ -2381,33 +2878,8 @@
       </valAx>
     </plotArea>
     <legend>
-      <legendPos val="r"/>
-      <layout>
-        <manualLayout>
-          <xMode val="edge"/>
-          <yMode val="edge"/>
-          <wMode val="factor"/>
-          <hMode val="factor"/>
-          <x val="0.5636849354226762"/>
-          <y val="0.6254994279561209"/>
-          <w val="0.3836870143707284"/>
-          <h val="0.2236395450568679"/>
-        </manualLayout>
-      </layout>
+      <legendPos val="t"/>
       <overlay val="0"/>
-      <spPr>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="bg1">
-              <a:lumMod val="65000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </spPr>
     </legend>
     <plotVisOnly val="1"/>
     <dispBlanksAs val="gap"/>
@@ -2427,9 +2899,9 @@
           <wMode val="factor"/>
           <hMode val="factor"/>
           <x val="0.09111301681349238"/>
-          <y val="0.03800606309402162"/>
+          <y val="0.1645017834309173"/>
           <w val="0.8736779189729996"/>
-          <h val="0.8283126059471367"/>
+          <h val="0.698398007941315"/>
         </manualLayout>
       </layout>
       <scatterChart>
@@ -2529,52 +3001,52 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>6.7868</v>
+                  <v>13.8891</v>
                 </pt>
                 <pt idx="1">
-                  <v>13.0767</v>
+                  <v>26.7801</v>
                 </pt>
                 <pt idx="2">
-                  <v>18.7607</v>
+                  <v>31.3916</v>
                 </pt>
                 <pt idx="3">
-                  <v>24.7009</v>
+                  <v>42.1114</v>
                 </pt>
                 <pt idx="4">
-                  <v>27.0746</v>
+                  <v>40.0238</v>
                 </pt>
                 <pt idx="5">
-                  <v>29.6125</v>
+                  <v>39.5469</v>
                 </pt>
                 <pt idx="6">
-                  <v>31.971</v>
+                  <v>37.7463</v>
                 </pt>
                 <pt idx="7">
-                  <v>33.3573</v>
+                  <v>39.7074</v>
                 </pt>
                 <pt idx="8">
-                  <v>33.8574</v>
+                  <v>46.2775</v>
                 </pt>
                 <pt idx="9">
-                  <v>34.0887</v>
+                  <v>47.6475</v>
                 </pt>
                 <pt idx="10">
-                  <v>34.2369</v>
+                  <v>41.1897</v>
                 </pt>
                 <pt idx="11">
-                  <v>34.2309</v>
+                  <v>44.6059</v>
                 </pt>
                 <pt idx="12">
-                  <v>34.1931</v>
+                  <v>42.3724</v>
                 </pt>
                 <pt idx="13">
-                  <v>34.1652</v>
+                  <v>46.0471</v>
                 </pt>
                 <pt idx="14">
-                  <v>34.2482</v>
+                  <v>44.8912</v>
                 </pt>
                 <pt idx="15">
-                  <v>34.2526</v>
+                  <v>49.0374</v>
                 </pt>
               </numCache>
             </numRef>
@@ -2590,7 +3062,7 @@
               <strCache>
                 <ptCount val="1"/>
                 <pt idx="0">
-                  <v>boost::concurrent_flat_map</v>
+                  <v>gtl::parallel_flat_hash_map</v>
                 </pt>
               </strCache>
             </strRef>
@@ -2675,52 +3147,52 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>12.6582</v>
+                  <v>18.6855</v>
                 </pt>
                 <pt idx="1">
-                  <v>22.6945</v>
+                  <v>31.0102</v>
                 </pt>
                 <pt idx="2">
-                  <v>31.5816</v>
+                  <v>35.7257</v>
                 </pt>
                 <pt idx="3">
-                  <v>40.5794</v>
+                  <v>50.8404</v>
                 </pt>
                 <pt idx="4">
-                  <v>36.116</v>
+                  <v>40.4798</v>
                 </pt>
                 <pt idx="5">
-                  <v>36.2347</v>
+                  <v>40.7141</v>
                 </pt>
                 <pt idx="6">
-                  <v>36.8983</v>
+                  <v>37.2463</v>
                 </pt>
                 <pt idx="7">
-                  <v>37.4908</v>
+                  <v>39.2744</v>
                 </pt>
                 <pt idx="8">
-                  <v>40.6198</v>
+                  <v>40.4141</v>
                 </pt>
                 <pt idx="9">
-                  <v>43.3567</v>
+                  <v>42.6102</v>
                 </pt>
                 <pt idx="10">
-                  <v>43.8296</v>
+                  <v>39.5541</v>
                 </pt>
                 <pt idx="11">
-                  <v>44.0611</v>
+                  <v>43.5443</v>
                 </pt>
                 <pt idx="12">
-                  <v>44.0334</v>
+                  <v>48.8967</v>
                 </pt>
                 <pt idx="13">
-                  <v>44.3743</v>
+                  <v>45.6242</v>
                 </pt>
                 <pt idx="14">
-                  <v>44.3181</v>
+                  <v>49.8071</v>
                 </pt>
                 <pt idx="15">
-                  <v>44.2489</v>
+                  <v>46.0208</v>
                 </pt>
               </numCache>
             </numRef>
@@ -2736,7 +3208,7 @@
               <strCache>
                 <ptCount val="1"/>
                 <pt idx="0">
-                  <v>boost::concurrent_flat_map bulk</v>
+                  <v>boost::concurrent_flat_map</v>
                 </pt>
               </strCache>
             </strRef>
@@ -2821,52 +3293,195 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>16.2903</v>
+                  <v>25.1245</v>
                 </pt>
                 <pt idx="1">
-                  <v>31.3309</v>
+                  <v>33.3849</v>
                 </pt>
                 <pt idx="2">
-                  <v>44.6355</v>
+                  <v>48.2392</v>
                 </pt>
                 <pt idx="3">
-                  <v>58.5385</v>
+                  <v>61.9033</v>
                 </pt>
                 <pt idx="4">
-                  <v>53.488</v>
+                  <v>51.4984</v>
                 </pt>
                 <pt idx="5">
-                  <v>53.6234</v>
+                  <v>49.997</v>
                 </pt>
                 <pt idx="6">
-                  <v>49.8641</v>
+                  <v>53.5658</v>
                 </pt>
                 <pt idx="7">
-                  <v>52.2535</v>
+                  <v>49.8046</v>
                 </pt>
                 <pt idx="8">
-                  <v>52.3654</v>
+                  <v>51.2952</v>
                 </pt>
                 <pt idx="9">
-                  <v>55.1198</v>
+                  <v>55.992</v>
                 </pt>
                 <pt idx="10">
-                  <v>56.0094</v>
+                  <v>51.6304</v>
                 </pt>
                 <pt idx="11">
-                  <v>57.4396</v>
+                  <v>54.8665</v>
                 </pt>
                 <pt idx="12">
-                  <v>58.1217</v>
+                  <v>54.975</v>
                 </pt>
                 <pt idx="13">
-                  <v>59.5574</v>
+                  <v>55.5807</v>
                 </pt>
                 <pt idx="14">
-                  <v>59.7426</v>
+                  <v>44.9125</v>
                 </pt>
                 <pt idx="15">
-                  <v>60.2745</v>
+                  <v>55.7518</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </yVal>
+          <smooth val="0"/>
+        </ser>
+        <ser>
+          <idx val="3"/>
+          <order val="3"/>
+          <tx>
+            <strRef>
+              <f>'5M, 0.5'!$E$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>boost::concurrent_flat_map bulk</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>'5M, 0.5'!$A$2:$A$33</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="32"/>
+                <pt idx="0">
+                  <v>1</v>
+                </pt>
+                <pt idx="1">
+                  <v>2</v>
+                </pt>
+                <pt idx="2">
+                  <v>3</v>
+                </pt>
+                <pt idx="3">
+                  <v>4</v>
+                </pt>
+                <pt idx="4">
+                  <v>5</v>
+                </pt>
+                <pt idx="5">
+                  <v>6</v>
+                </pt>
+                <pt idx="6">
+                  <v>7</v>
+                </pt>
+                <pt idx="7">
+                  <v>8</v>
+                </pt>
+                <pt idx="8">
+                  <v>9</v>
+                </pt>
+                <pt idx="9">
+                  <v>10</v>
+                </pt>
+                <pt idx="10">
+                  <v>11</v>
+                </pt>
+                <pt idx="11">
+                  <v>12</v>
+                </pt>
+                <pt idx="12">
+                  <v>13</v>
+                </pt>
+                <pt idx="13">
+                  <v>14</v>
+                </pt>
+                <pt idx="14">
+                  <v>15</v>
+                </pt>
+                <pt idx="15">
+                  <v>16</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>'5M, 0.5'!$E$2:$E$33</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="32"/>
+                <pt idx="0">
+                  <v>29.8425</v>
+                </pt>
+                <pt idx="1">
+                  <v>44.9754</v>
+                </pt>
+                <pt idx="2">
+                  <v>55.1248</v>
+                </pt>
+                <pt idx="3">
+                  <v>74.3052</v>
+                </pt>
+                <pt idx="4">
+                  <v>61.2846</v>
+                </pt>
+                <pt idx="5">
+                  <v>63.3506</v>
+                </pt>
+                <pt idx="6">
+                  <v>69.6906</v>
+                </pt>
+                <pt idx="7">
+                  <v>60.9708</v>
+                </pt>
+                <pt idx="8">
+                  <v>59.1547</v>
+                </pt>
+                <pt idx="9">
+                  <v>65.57989999999999</v>
+                </pt>
+                <pt idx="10">
+                  <v>55.923</v>
+                </pt>
+                <pt idx="11">
+                  <v>59.4605</v>
+                </pt>
+                <pt idx="12">
+                  <v>56.9516</v>
+                </pt>
+                <pt idx="13">
+                  <v>58.594</v>
+                </pt>
+                <pt idx="14">
+                  <v>60.4237</v>
+                </pt>
+                <pt idx="15">
+                  <v>59.0957</v>
                 </pt>
               </numCache>
             </numRef>
@@ -2959,33 +3574,8 @@
       </valAx>
     </plotArea>
     <legend>
-      <legendPos val="r"/>
-      <layout>
-        <manualLayout>
-          <xMode val="edge"/>
-          <yMode val="edge"/>
-          <wMode val="factor"/>
-          <hMode val="factor"/>
-          <x val="0.5636849354226762"/>
-          <y val="0.6254994279561209"/>
-          <w val="0.3836870143707284"/>
-          <h val="0.2236395450568679"/>
-        </manualLayout>
-      </layout>
+      <legendPos val="t"/>
       <overlay val="0"/>
-      <spPr>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="bg1">
-              <a:lumMod val="65000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </spPr>
     </legend>
     <plotVisOnly val="1"/>
     <dispBlanksAs val="gap"/>
@@ -3005,9 +3595,9 @@
           <wMode val="factor"/>
           <hMode val="factor"/>
           <x val="0.09111301681349238"/>
-          <y val="0.03800606309402162"/>
+          <y val="0.1645017834309173"/>
           <w val="0.8736779189729996"/>
-          <h val="0.8283126059471367"/>
+          <h val="0.698398007941315"/>
         </manualLayout>
       </layout>
       <scatterChart>
@@ -3107,52 +3697,52 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>10.4883</v>
+                  <v>13.8891</v>
                 </pt>
                 <pt idx="1">
-                  <v>20.1754</v>
+                  <v>26.7801</v>
                 </pt>
                 <pt idx="2">
-                  <v>29.4118</v>
+                  <v>31.3916</v>
                 </pt>
                 <pt idx="3">
-                  <v>38.4961</v>
+                  <v>42.1114</v>
                 </pt>
                 <pt idx="4">
-                  <v>39.4254</v>
+                  <v>40.0238</v>
                 </pt>
                 <pt idx="5">
-                  <v>41.5705</v>
+                  <v>39.5469</v>
                 </pt>
                 <pt idx="6">
-                  <v>43.5271</v>
+                  <v>37.7463</v>
                 </pt>
                 <pt idx="7">
-                  <v>45.6261</v>
+                  <v>39.7074</v>
                 </pt>
                 <pt idx="8">
-                  <v>45.7379</v>
+                  <v>46.2775</v>
                 </pt>
                 <pt idx="9">
-                  <v>45.3791</v>
+                  <v>47.6475</v>
                 </pt>
                 <pt idx="10">
-                  <v>45.8115</v>
+                  <v>41.1897</v>
                 </pt>
                 <pt idx="11">
-                  <v>45.6403</v>
+                  <v>44.6059</v>
                 </pt>
                 <pt idx="12">
-                  <v>45.7812</v>
+                  <v>42.3724</v>
                 </pt>
                 <pt idx="13">
-                  <v>45.4357</v>
+                  <v>46.0471</v>
                 </pt>
                 <pt idx="14">
-                  <v>45.5424</v>
+                  <v>44.8912</v>
                 </pt>
                 <pt idx="15">
-                  <v>45.8045</v>
+                  <v>49.0374</v>
                 </pt>
               </numCache>
             </numRef>
@@ -3168,7 +3758,7 @@
               <strCache>
                 <ptCount val="1"/>
                 <pt idx="0">
-                  <v>boost::concurrent_flat_map</v>
+                  <v>gtl::parallel_flat_hash_map</v>
                 </pt>
               </strCache>
             </strRef>
@@ -3253,52 +3843,52 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>15.5867</v>
+                  <v>18.6855</v>
                 </pt>
                 <pt idx="1">
-                  <v>27.3727</v>
+                  <v>31.0102</v>
                 </pt>
                 <pt idx="2">
-                  <v>37.9749</v>
+                  <v>35.7257</v>
                 </pt>
                 <pt idx="3">
-                  <v>48.9446</v>
+                  <v>50.8404</v>
                 </pt>
                 <pt idx="4">
-                  <v>41.8231</v>
+                  <v>40.4798</v>
                 </pt>
                 <pt idx="5">
-                  <v>40.5591</v>
+                  <v>40.7141</v>
                 </pt>
                 <pt idx="6">
-                  <v>40.3313</v>
+                  <v>37.2463</v>
                 </pt>
                 <pt idx="7">
-                  <v>39.9787</v>
+                  <v>39.2744</v>
                 </pt>
                 <pt idx="8">
-                  <v>43.3113</v>
+                  <v>40.4141</v>
                 </pt>
                 <pt idx="9">
-                  <v>45.4197</v>
+                  <v>42.6102</v>
                 </pt>
                 <pt idx="10">
-                  <v>45.7413</v>
+                  <v>39.5541</v>
                 </pt>
                 <pt idx="11">
-                  <v>45.7938</v>
+                  <v>43.5443</v>
                 </pt>
                 <pt idx="12">
-                  <v>45.9366</v>
+                  <v>48.8967</v>
                 </pt>
                 <pt idx="13">
-                  <v>46.0147</v>
+                  <v>45.6242</v>
                 </pt>
                 <pt idx="14">
-                  <v>46.0135</v>
+                  <v>49.8071</v>
                 </pt>
                 <pt idx="15">
-                  <v>46.1628</v>
+                  <v>46.0208</v>
                 </pt>
               </numCache>
             </numRef>
@@ -3314,7 +3904,7 @@
               <strCache>
                 <ptCount val="1"/>
                 <pt idx="0">
-                  <v>boost::concurrent_flat_map bulk</v>
+                  <v>boost::concurrent_flat_map</v>
                 </pt>
               </strCache>
             </strRef>
@@ -3399,52 +3989,195 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>20.0769</v>
+                  <v>25.1245</v>
                 </pt>
                 <pt idx="1">
-                  <v>37.848</v>
+                  <v>33.3849</v>
                 </pt>
                 <pt idx="2">
-                  <v>53.4698</v>
+                  <v>48.2392</v>
                 </pt>
                 <pt idx="3">
-                  <v>70.1417</v>
+                  <v>61.9033</v>
                 </pt>
                 <pt idx="4">
-                  <v>61.037</v>
+                  <v>51.4984</v>
                 </pt>
                 <pt idx="5">
-                  <v>59.6639</v>
+                  <v>49.997</v>
                 </pt>
                 <pt idx="6">
-                  <v>51.8797</v>
+                  <v>53.5658</v>
                 </pt>
                 <pt idx="7">
-                  <v>54.1691</v>
+                  <v>49.8046</v>
                 </pt>
                 <pt idx="8">
-                  <v>51.4956</v>
+                  <v>51.2952</v>
                 </pt>
                 <pt idx="9">
-                  <v>54.8678</v>
+                  <v>55.992</v>
                 </pt>
                 <pt idx="10">
-                  <v>54.8131</v>
+                  <v>51.6304</v>
                 </pt>
                 <pt idx="11">
-                  <v>57.006</v>
+                  <v>54.8665</v>
                 </pt>
                 <pt idx="12">
-                  <v>56.6955</v>
+                  <v>54.975</v>
                 </pt>
                 <pt idx="13">
-                  <v>58.2771</v>
+                  <v>55.5807</v>
                 </pt>
                 <pt idx="14">
-                  <v>58.3954</v>
+                  <v>44.9125</v>
                 </pt>
                 <pt idx="15">
-                  <v>59.4764</v>
+                  <v>55.7518</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </yVal>
+          <smooth val="0"/>
+        </ser>
+        <ser>
+          <idx val="3"/>
+          <order val="3"/>
+          <tx>
+            <strRef>
+              <f>'5M, 0.99'!$E$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>boost::concurrent_flat_map bulk</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>'5M, 0.99'!$A$2:$A$33</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="32"/>
+                <pt idx="0">
+                  <v>1</v>
+                </pt>
+                <pt idx="1">
+                  <v>2</v>
+                </pt>
+                <pt idx="2">
+                  <v>3</v>
+                </pt>
+                <pt idx="3">
+                  <v>4</v>
+                </pt>
+                <pt idx="4">
+                  <v>5</v>
+                </pt>
+                <pt idx="5">
+                  <v>6</v>
+                </pt>
+                <pt idx="6">
+                  <v>7</v>
+                </pt>
+                <pt idx="7">
+                  <v>8</v>
+                </pt>
+                <pt idx="8">
+                  <v>9</v>
+                </pt>
+                <pt idx="9">
+                  <v>10</v>
+                </pt>
+                <pt idx="10">
+                  <v>11</v>
+                </pt>
+                <pt idx="11">
+                  <v>12</v>
+                </pt>
+                <pt idx="12">
+                  <v>13</v>
+                </pt>
+                <pt idx="13">
+                  <v>14</v>
+                </pt>
+                <pt idx="14">
+                  <v>15</v>
+                </pt>
+                <pt idx="15">
+                  <v>16</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>'5M, 0.99'!$E$2:$E$33</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="32"/>
+                <pt idx="0">
+                  <v>29.8425</v>
+                </pt>
+                <pt idx="1">
+                  <v>44.9754</v>
+                </pt>
+                <pt idx="2">
+                  <v>55.1248</v>
+                </pt>
+                <pt idx="3">
+                  <v>74.3052</v>
+                </pt>
+                <pt idx="4">
+                  <v>61.2846</v>
+                </pt>
+                <pt idx="5">
+                  <v>63.3506</v>
+                </pt>
+                <pt idx="6">
+                  <v>69.6906</v>
+                </pt>
+                <pt idx="7">
+                  <v>60.9708</v>
+                </pt>
+                <pt idx="8">
+                  <v>59.1547</v>
+                </pt>
+                <pt idx="9">
+                  <v>65.57989999999999</v>
+                </pt>
+                <pt idx="10">
+                  <v>55.923</v>
+                </pt>
+                <pt idx="11">
+                  <v>59.4605</v>
+                </pt>
+                <pt idx="12">
+                  <v>56.9516</v>
+                </pt>
+                <pt idx="13">
+                  <v>58.594</v>
+                </pt>
+                <pt idx="14">
+                  <v>60.4237</v>
+                </pt>
+                <pt idx="15">
+                  <v>59.0957</v>
                 </pt>
               </numCache>
             </numRef>
@@ -3537,33 +4270,8 @@
       </valAx>
     </plotArea>
     <legend>
-      <legendPos val="r"/>
-      <layout>
-        <manualLayout>
-          <xMode val="edge"/>
-          <yMode val="edge"/>
-          <wMode val="factor"/>
-          <hMode val="factor"/>
-          <x val="0.5636849354226762"/>
-          <y val="0.6254994279561209"/>
-          <w val="0.3836870143707284"/>
-          <h val="0.2236395450568679"/>
-        </manualLayout>
-      </layout>
+      <legendPos val="t"/>
       <overlay val="0"/>
-      <spPr>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="bg1">
-              <a:lumMod val="65000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </spPr>
     </legend>
     <plotVisOnly val="1"/>
     <dispBlanksAs val="gap"/>
@@ -4050,14 +4758,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr codeName="Hoja1">
+  <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
-      <selection activeCell="C1" sqref="C1:D1"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4073,10 +4781,15 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
+          <t>gtl::parallel_flat_hash_map</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
           <t>boost::concurrent_flat_map</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>boost::concurrent_flat_map bulk</t>
         </is>
@@ -4093,6 +4806,9 @@
         <v>10.8714</v>
       </c>
       <c r="D2" t="n">
+        <v>13.1852</v>
+      </c>
+      <c r="E2" t="n">
         <v>14.445</v>
       </c>
     </row>
@@ -4107,6 +4823,9 @@
         <v>16.5034</v>
       </c>
       <c r="D3" t="n">
+        <v>21.9534</v>
+      </c>
+      <c r="E3" t="n">
         <v>24.1194</v>
       </c>
     </row>
@@ -4121,6 +4840,9 @@
         <v>21.5347</v>
       </c>
       <c r="D4" t="n">
+        <v>28.1176</v>
+      </c>
+      <c r="E4" t="n">
         <v>31.763</v>
       </c>
     </row>
@@ -4135,6 +4857,9 @@
         <v>24.2265</v>
       </c>
       <c r="D5" t="n">
+        <v>30.1588</v>
+      </c>
+      <c r="E5" t="n">
         <v>33.9354</v>
       </c>
     </row>
@@ -4149,6 +4874,9 @@
         <v>27.9187</v>
       </c>
       <c r="D6" t="n">
+        <v>32.0582</v>
+      </c>
+      <c r="E6" t="n">
         <v>39.3934</v>
       </c>
     </row>
@@ -4163,6 +4891,9 @@
         <v>32.8409</v>
       </c>
       <c r="D7" t="n">
+        <v>39.2816</v>
+      </c>
+      <c r="E7" t="n">
         <v>40.7913</v>
       </c>
     </row>
@@ -4177,6 +4908,9 @@
         <v>30.0769</v>
       </c>
       <c r="D8" t="n">
+        <v>35.7132</v>
+      </c>
+      <c r="E8" t="n">
         <v>40.8912</v>
       </c>
     </row>
@@ -4191,6 +4925,9 @@
         <v>30.4682</v>
       </c>
       <c r="D9" t="n">
+        <v>38.9497</v>
+      </c>
+      <c r="E9" t="n">
         <v>44.1641</v>
       </c>
     </row>
@@ -4205,6 +4942,9 @@
         <v>30.3967</v>
       </c>
       <c r="D10" t="n">
+        <v>39.8247</v>
+      </c>
+      <c r="E10" t="n">
         <v>48.9061</v>
       </c>
     </row>
@@ -4219,6 +4959,9 @@
         <v>30.8333</v>
       </c>
       <c r="D11" t="n">
+        <v>43.9979</v>
+      </c>
+      <c r="E11" t="n">
         <v>49.533</v>
       </c>
     </row>
@@ -4233,6 +4976,9 @@
         <v>30.9929</v>
       </c>
       <c r="D12" t="n">
+        <v>44.5184</v>
+      </c>
+      <c r="E12" t="n">
         <v>51.4837</v>
       </c>
     </row>
@@ -4247,6 +4993,9 @@
         <v>31.3538</v>
       </c>
       <c r="D13" t="n">
+        <v>44.0699</v>
+      </c>
+      <c r="E13" t="n">
         <v>51.542</v>
       </c>
     </row>
@@ -4261,6 +5010,9 @@
         <v>31.2283</v>
       </c>
       <c r="D14" t="n">
+        <v>43.1789</v>
+      </c>
+      <c r="E14" t="n">
         <v>52.0386</v>
       </c>
     </row>
@@ -4275,6 +5027,9 @@
         <v>30.6077</v>
       </c>
       <c r="D15" t="n">
+        <v>45.0811</v>
+      </c>
+      <c r="E15" t="n">
         <v>52.9368</v>
       </c>
     </row>
@@ -4289,6 +5044,9 @@
         <v>31.3285</v>
       </c>
       <c r="D16" t="n">
+        <v>44.2418</v>
+      </c>
+      <c r="E16" t="n">
         <v>52.9675</v>
       </c>
     </row>
@@ -4303,6 +5061,9 @@
         <v>31.4177</v>
       </c>
       <c r="D17" t="n">
+        <v>44.7739</v>
+      </c>
+      <c r="E17" t="n">
         <v>53.1024</v>
       </c>
     </row>
@@ -4318,10 +5079,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
-      <selection activeCell="C1" sqref="C1:D1"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4337,10 +5098,15 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
+          <t>gtl::parallel_flat_hash_map</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
           <t>boost::concurrent_flat_map</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>boost::concurrent_flat_map bulk</t>
         </is>
@@ -4357,6 +5123,9 @@
         <v>10.8543</v>
       </c>
       <c r="D2" t="n">
+        <v>13.0986</v>
+      </c>
+      <c r="E2" t="n">
         <v>14.3439</v>
       </c>
     </row>
@@ -4371,6 +5140,9 @@
         <v>17.1092</v>
       </c>
       <c r="D3" t="n">
+        <v>21.5116</v>
+      </c>
+      <c r="E3" t="n">
         <v>23.7031</v>
       </c>
     </row>
@@ -4385,6 +5157,9 @@
         <v>22.6535</v>
       </c>
       <c r="D4" t="n">
+        <v>26.2614</v>
+      </c>
+      <c r="E4" t="n">
         <v>30.869</v>
       </c>
     </row>
@@ -4399,6 +5174,9 @@
         <v>24.0029</v>
       </c>
       <c r="D5" t="n">
+        <v>28.0298</v>
+      </c>
+      <c r="E5" t="n">
         <v>35.1896</v>
       </c>
     </row>
@@ -4413,6 +5191,9 @@
         <v>27.8956</v>
       </c>
       <c r="D6" t="n">
+        <v>35.0381</v>
+      </c>
+      <c r="E6" t="n">
         <v>35.7205</v>
       </c>
     </row>
@@ -4427,6 +5208,9 @@
         <v>32.6862</v>
       </c>
       <c r="D7" t="n">
+        <v>37.9087</v>
+      </c>
+      <c r="E7" t="n">
         <v>45.0194</v>
       </c>
     </row>
@@ -4441,6 +5225,9 @@
         <v>29.5891</v>
       </c>
       <c r="D8" t="n">
+        <v>35.2728</v>
+      </c>
+      <c r="E8" t="n">
         <v>41.3785</v>
       </c>
     </row>
@@ -4455,6 +5242,9 @@
         <v>29.1141</v>
       </c>
       <c r="D9" t="n">
+        <v>36.0526</v>
+      </c>
+      <c r="E9" t="n">
         <v>44.2349</v>
       </c>
     </row>
@@ -4469,6 +5259,9 @@
         <v>29.7323</v>
       </c>
       <c r="D10" t="n">
+        <v>39.1511</v>
+      </c>
+      <c r="E10" t="n">
         <v>47.4063</v>
       </c>
     </row>
@@ -4483,6 +5276,9 @@
         <v>30.1646</v>
       </c>
       <c r="D11" t="n">
+        <v>39.8069</v>
+      </c>
+      <c r="E11" t="n">
         <v>51.9918</v>
       </c>
     </row>
@@ -4497,6 +5293,9 @@
         <v>30.9588</v>
       </c>
       <c r="D12" t="n">
+        <v>40.7237</v>
+      </c>
+      <c r="E12" t="n">
         <v>50.6592</v>
       </c>
     </row>
@@ -4511,6 +5310,9 @@
         <v>31.4021</v>
       </c>
       <c r="D13" t="n">
+        <v>43.493</v>
+      </c>
+      <c r="E13" t="n">
         <v>52.3926</v>
       </c>
     </row>
@@ -4525,6 +5327,9 @@
         <v>31.3246</v>
       </c>
       <c r="D14" t="n">
+        <v>43.6443</v>
+      </c>
+      <c r="E14" t="n">
         <v>53.1111</v>
       </c>
     </row>
@@ -4539,6 +5344,9 @@
         <v>31.2503</v>
       </c>
       <c r="D15" t="n">
+        <v>44.9686</v>
+      </c>
+      <c r="E15" t="n">
         <v>52.6399</v>
       </c>
     </row>
@@ -4553,6 +5361,9 @@
         <v>31.4161</v>
       </c>
       <c r="D16" t="n">
+        <v>45.2454</v>
+      </c>
+      <c r="E16" t="n">
         <v>52.5909</v>
       </c>
     </row>
@@ -4567,6 +5378,9 @@
         <v>31.6287</v>
       </c>
       <c r="D17" t="n">
+        <v>44.4331</v>
+      </c>
+      <c r="E17" t="n">
         <v>52.7402</v>
       </c>
     </row>
@@ -4582,10 +5396,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
-      <selection activeCell="C1" sqref="C1:D1"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4601,10 +5415,15 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
+          <t>gtl::parallel_flat_hash_map</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
           <t>boost::concurrent_flat_map</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>boost::concurrent_flat_map bulk</t>
         </is>
@@ -4621,6 +5440,9 @@
         <v>11.7543</v>
       </c>
       <c r="D2" t="n">
+        <v>13.9508</v>
+      </c>
+      <c r="E2" t="n">
         <v>14.7727</v>
       </c>
     </row>
@@ -4635,6 +5457,9 @@
         <v>20.1864</v>
       </c>
       <c r="D3" t="n">
+        <v>22.6461</v>
+      </c>
+      <c r="E3" t="n">
         <v>24.5812</v>
       </c>
     </row>
@@ -4649,6 +5474,9 @@
         <v>25.5529</v>
       </c>
       <c r="D4" t="n">
+        <v>31.1483</v>
+      </c>
+      <c r="E4" t="n">
         <v>31.8111</v>
       </c>
     </row>
@@ -4663,6 +5491,9 @@
         <v>25.0833</v>
       </c>
       <c r="D5" t="n">
+        <v>29.1881</v>
+      </c>
+      <c r="E5" t="n">
         <v>35.138</v>
       </c>
     </row>
@@ -4677,6 +5508,9 @@
         <v>28.7859</v>
       </c>
       <c r="D6" t="n">
+        <v>34.9274</v>
+      </c>
+      <c r="E6" t="n">
         <v>36.4494</v>
       </c>
     </row>
@@ -4691,6 +5525,9 @@
         <v>33.7193</v>
       </c>
       <c r="D7" t="n">
+        <v>35.0443</v>
+      </c>
+      <c r="E7" t="n">
         <v>52.3672</v>
       </c>
     </row>
@@ -4705,6 +5542,9 @@
         <v>30.3181</v>
       </c>
       <c r="D8" t="n">
+        <v>35.4652</v>
+      </c>
+      <c r="E8" t="n">
         <v>45.1903</v>
       </c>
     </row>
@@ -4719,6 +5559,9 @@
         <v>29.9121</v>
       </c>
       <c r="D9" t="n">
+        <v>38.8842</v>
+      </c>
+      <c r="E9" t="n">
         <v>47.2706</v>
       </c>
     </row>
@@ -4733,6 +5576,9 @@
         <v>30.8861</v>
       </c>
       <c r="D10" t="n">
+        <v>42.8668</v>
+      </c>
+      <c r="E10" t="n">
         <v>52.2457</v>
       </c>
     </row>
@@ -4747,6 +5593,9 @@
         <v>30.9072</v>
       </c>
       <c r="D11" t="n">
+        <v>43.6578</v>
+      </c>
+      <c r="E11" t="n">
         <v>50.6256</v>
       </c>
     </row>
@@ -4761,6 +5610,9 @@
         <v>31.0344</v>
       </c>
       <c r="D12" t="n">
+        <v>43.342</v>
+      </c>
+      <c r="E12" t="n">
         <v>51.6697</v>
       </c>
     </row>
@@ -4775,6 +5627,9 @@
         <v>31.354</v>
       </c>
       <c r="D13" t="n">
+        <v>43.9429</v>
+      </c>
+      <c r="E13" t="n">
         <v>51.7574</v>
       </c>
     </row>
@@ -4789,6 +5644,9 @@
         <v>31.5408</v>
       </c>
       <c r="D14" t="n">
+        <v>44.8083</v>
+      </c>
+      <c r="E14" t="n">
         <v>51.0038</v>
       </c>
     </row>
@@ -4803,6 +5661,9 @@
         <v>31.4307</v>
       </c>
       <c r="D15" t="n">
+        <v>45.1399</v>
+      </c>
+      <c r="E15" t="n">
         <v>52.9066</v>
       </c>
     </row>
@@ -4817,6 +5678,9 @@
         <v>31.3392</v>
       </c>
       <c r="D16" t="n">
+        <v>45.3195</v>
+      </c>
+      <c r="E16" t="n">
         <v>52.0372</v>
       </c>
     </row>
@@ -4831,6 +5695,9 @@
         <v>32.0688</v>
       </c>
       <c r="D17" t="n">
+        <v>44.3416</v>
+      </c>
+      <c r="E17" t="n">
         <v>52.7543</v>
       </c>
     </row>
@@ -4846,10 +5713,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
-      <selection activeCell="C1" sqref="C1:D1"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4865,10 +5732,15 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
+          <t>gtl::parallel_flat_hash_map</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
           <t>boost::concurrent_flat_map</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>boost::concurrent_flat_map bulk</t>
         </is>
@@ -4885,6 +5757,9 @@
         <v>9.016819999999999</v>
       </c>
       <c r="D2" t="n">
+        <v>10.8566</v>
+      </c>
+      <c r="E2" t="n">
         <v>13.6354</v>
       </c>
     </row>
@@ -4899,6 +5774,9 @@
         <v>15.941</v>
       </c>
       <c r="D3" t="n">
+        <v>20.9128</v>
+      </c>
+      <c r="E3" t="n">
         <v>25.6263</v>
       </c>
     </row>
@@ -4913,6 +5791,9 @@
         <v>22.154</v>
       </c>
       <c r="D4" t="n">
+        <v>29.9931</v>
+      </c>
+      <c r="E4" t="n">
         <v>37.0471</v>
       </c>
     </row>
@@ -4927,6 +5808,9 @@
         <v>22.8516</v>
       </c>
       <c r="D5" t="n">
+        <v>33.7751</v>
+      </c>
+      <c r="E5" t="n">
         <v>43.0487</v>
       </c>
     </row>
@@ -4941,6 +5825,9 @@
         <v>26.4718</v>
       </c>
       <c r="D6" t="n">
+        <v>41.1498</v>
+      </c>
+      <c r="E6" t="n">
         <v>51.7003</v>
       </c>
     </row>
@@ -4955,6 +5842,9 @@
         <v>31.3441</v>
       </c>
       <c r="D7" t="n">
+        <v>48.0548</v>
+      </c>
+      <c r="E7" t="n">
         <v>60.9584</v>
       </c>
     </row>
@@ -4969,6 +5859,9 @@
         <v>29.7225</v>
       </c>
       <c r="D8" t="n">
+        <v>43.3073</v>
+      </c>
+      <c r="E8" t="n">
         <v>53.9222</v>
       </c>
     </row>
@@ -4983,6 +5876,9 @@
         <v>29.8973</v>
       </c>
       <c r="D9" t="n">
+        <v>43.5422</v>
+      </c>
+      <c r="E9" t="n">
         <v>52.0414</v>
       </c>
     </row>
@@ -4997,6 +5893,9 @@
         <v>30.1329</v>
       </c>
       <c r="D10" t="n">
+        <v>43.2939</v>
+      </c>
+      <c r="E10" t="n">
         <v>54.1996</v>
       </c>
     </row>
@@ -5011,6 +5910,9 @@
         <v>29.9336</v>
       </c>
       <c r="D11" t="n">
+        <v>43.1949</v>
+      </c>
+      <c r="E11" t="n">
         <v>55.0864</v>
       </c>
     </row>
@@ -5025,6 +5927,9 @@
         <v>29.9274</v>
       </c>
       <c r="D12" t="n">
+        <v>44.3308</v>
+      </c>
+      <c r="E12" t="n">
         <v>55.5915</v>
       </c>
     </row>
@@ -5039,6 +5944,9 @@
         <v>30.6007</v>
       </c>
       <c r="D13" t="n">
+        <v>45.6007</v>
+      </c>
+      <c r="E13" t="n">
         <v>56.1002</v>
       </c>
     </row>
@@ -5053,6 +5961,9 @@
         <v>30.6585</v>
       </c>
       <c r="D14" t="n">
+        <v>45.29</v>
+      </c>
+      <c r="E14" t="n">
         <v>57.174</v>
       </c>
     </row>
@@ -5067,6 +5978,9 @@
         <v>30.799</v>
       </c>
       <c r="D15" t="n">
+        <v>44.6805</v>
+      </c>
+      <c r="E15" t="n">
         <v>56.7456</v>
       </c>
     </row>
@@ -5081,6 +5995,9 @@
         <v>30.267</v>
       </c>
       <c r="D16" t="n">
+        <v>46.3281</v>
+      </c>
+      <c r="E16" t="n">
         <v>57.7374</v>
       </c>
     </row>
@@ -5095,6 +6012,9 @@
         <v>30.5857</v>
       </c>
       <c r="D17" t="n">
+        <v>45.8664</v>
+      </c>
+      <c r="E17" t="n">
         <v>58.2692</v>
       </c>
     </row>
@@ -5110,10 +6030,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
-      <selection activeCell="C1" sqref="C1:D1"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -5129,10 +6049,15 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
+          <t>gtl::parallel_flat_hash_map</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
           <t>boost::concurrent_flat_map</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>boost::concurrent_flat_map bulk</t>
         </is>
@@ -5149,6 +6074,9 @@
         <v>9.066280000000001</v>
       </c>
       <c r="D2" t="n">
+        <v>10.9094</v>
+      </c>
+      <c r="E2" t="n">
         <v>13.5287</v>
       </c>
     </row>
@@ -5163,6 +6091,9 @@
         <v>16.0356</v>
       </c>
       <c r="D3" t="n">
+        <v>20.7849</v>
+      </c>
+      <c r="E3" t="n">
         <v>25.7488</v>
       </c>
     </row>
@@ -5177,6 +6108,9 @@
         <v>22.2485</v>
       </c>
       <c r="D4" t="n">
+        <v>29.7471</v>
+      </c>
+      <c r="E4" t="n">
         <v>36.8817</v>
       </c>
     </row>
@@ -5191,6 +6125,9 @@
         <v>22.8055</v>
       </c>
       <c r="D5" t="n">
+        <v>33.6442</v>
+      </c>
+      <c r="E5" t="n">
         <v>42.6931</v>
       </c>
     </row>
@@ -5205,6 +6142,9 @@
         <v>26.5748</v>
       </c>
       <c r="D6" t="n">
+        <v>40.3109</v>
+      </c>
+      <c r="E6" t="n">
         <v>51.1201</v>
       </c>
     </row>
@@ -5219,6 +6159,9 @@
         <v>31.3895</v>
       </c>
       <c r="D7" t="n">
+        <v>47.5282</v>
+      </c>
+      <c r="E7" t="n">
         <v>59.0316</v>
       </c>
     </row>
@@ -5233,6 +6176,9 @@
         <v>30.2298</v>
       </c>
       <c r="D8" t="n">
+        <v>43.7678</v>
+      </c>
+      <c r="E8" t="n">
         <v>52.876</v>
       </c>
     </row>
@@ -5247,6 +6193,9 @@
         <v>30.4715</v>
       </c>
       <c r="D9" t="n">
+        <v>42.2449</v>
+      </c>
+      <c r="E9" t="n">
         <v>51.312</v>
       </c>
     </row>
@@ -5261,6 +6210,9 @@
         <v>30.2761</v>
       </c>
       <c r="D10" t="n">
+        <v>42.5737</v>
+      </c>
+      <c r="E10" t="n">
         <v>53.1912</v>
       </c>
     </row>
@@ -5275,6 +6227,9 @@
         <v>30.0696</v>
       </c>
       <c r="D11" t="n">
+        <v>43.7735</v>
+      </c>
+      <c r="E11" t="n">
         <v>54.1711</v>
       </c>
     </row>
@@ -5289,6 +6244,9 @@
         <v>30.319</v>
       </c>
       <c r="D12" t="n">
+        <v>44.2048</v>
+      </c>
+      <c r="E12" t="n">
         <v>54.8868</v>
       </c>
     </row>
@@ -5303,6 +6261,9 @@
         <v>30.4668</v>
       </c>
       <c r="D13" t="n">
+        <v>44.6872</v>
+      </c>
+      <c r="E13" t="n">
         <v>54.4906</v>
       </c>
     </row>
@@ -5317,6 +6278,9 @@
         <v>30.7651</v>
       </c>
       <c r="D14" t="n">
+        <v>45.8431</v>
+      </c>
+      <c r="E14" t="n">
         <v>54.7855</v>
       </c>
     </row>
@@ -5331,6 +6295,9 @@
         <v>30.3026</v>
       </c>
       <c r="D15" t="n">
+        <v>45.3583</v>
+      </c>
+      <c r="E15" t="n">
         <v>55.924</v>
       </c>
     </row>
@@ -5345,6 +6312,9 @@
         <v>30.7455</v>
       </c>
       <c r="D16" t="n">
+        <v>46.0021</v>
+      </c>
+      <c r="E16" t="n">
         <v>57.1191</v>
       </c>
     </row>
@@ -5359,6 +6329,9 @@
         <v>30.6301</v>
       </c>
       <c r="D17" t="n">
+        <v>45.4596</v>
+      </c>
+      <c r="E17" t="n">
         <v>57.3395</v>
       </c>
     </row>
@@ -5377,7 +6350,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -5393,10 +6366,15 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
+          <t>gtl::parallel_flat_hash_map</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
           <t>boost::concurrent_flat_map</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>boost::concurrent_flat_map bulk</t>
         </is>
@@ -5413,6 +6391,9 @@
         <v>10.9577</v>
       </c>
       <c r="D2" t="n">
+        <v>13.2368</v>
+      </c>
+      <c r="E2" t="n">
         <v>14.6872</v>
       </c>
     </row>
@@ -5427,6 +6408,9 @@
         <v>18.5824</v>
       </c>
       <c r="D3" t="n">
+        <v>24.5717</v>
+      </c>
+      <c r="E3" t="n">
         <v>27.6661</v>
       </c>
     </row>
@@ -5441,6 +6425,9 @@
         <v>25.3581</v>
       </c>
       <c r="D4" t="n">
+        <v>34.4417</v>
+      </c>
+      <c r="E4" t="n">
         <v>39.2661</v>
       </c>
     </row>
@@ -5455,6 +6442,9 @@
         <v>25.3427</v>
       </c>
       <c r="D5" t="n">
+        <v>37.0888</v>
+      </c>
+      <c r="E5" t="n">
         <v>45.2003</v>
       </c>
     </row>
@@ -5469,6 +6459,9 @@
         <v>28.6862</v>
       </c>
       <c r="D6" t="n">
+        <v>42.7897</v>
+      </c>
+      <c r="E6" t="n">
         <v>54.2751</v>
       </c>
     </row>
@@ -5483,6 +6476,9 @@
         <v>33.2615</v>
       </c>
       <c r="D7" t="n">
+        <v>50.5322</v>
+      </c>
+      <c r="E7" t="n">
         <v>63.2058</v>
       </c>
     </row>
@@ -5497,6 +6493,9 @@
         <v>32.0831</v>
       </c>
       <c r="D8" t="n">
+        <v>47.5565</v>
+      </c>
+      <c r="E8" t="n">
         <v>59.5956</v>
       </c>
     </row>
@@ -5511,6 +6510,9 @@
         <v>31.8209</v>
       </c>
       <c r="D9" t="n">
+        <v>47.6744</v>
+      </c>
+      <c r="E9" t="n">
         <v>59.2116</v>
       </c>
     </row>
@@ -5525,6 +6527,9 @@
         <v>31.9849</v>
       </c>
       <c r="D10" t="n">
+        <v>47.1729</v>
+      </c>
+      <c r="E10" t="n">
         <v>59.3054</v>
       </c>
     </row>
@@ -5539,6 +6544,9 @@
         <v>32.6754</v>
       </c>
       <c r="D11" t="n">
+        <v>48.0941</v>
+      </c>
+      <c r="E11" t="n">
         <v>59.7724</v>
       </c>
     </row>
@@ -5553,6 +6561,9 @@
         <v>32.5023</v>
       </c>
       <c r="D12" t="n">
+        <v>47.1188</v>
+      </c>
+      <c r="E12" t="n">
         <v>60.1265</v>
       </c>
     </row>
@@ -5567,6 +6578,9 @@
         <v>32.4419</v>
       </c>
       <c r="D13" t="n">
+        <v>48.3429</v>
+      </c>
+      <c r="E13" t="n">
         <v>61.1015</v>
       </c>
     </row>
@@ -5581,6 +6595,9 @@
         <v>32.4445</v>
       </c>
       <c r="D14" t="n">
+        <v>48.6051</v>
+      </c>
+      <c r="E14" t="n">
         <v>59.8643</v>
       </c>
     </row>
@@ -5595,6 +6612,9 @@
         <v>32.5709</v>
       </c>
       <c r="D15" t="n">
+        <v>48.9108</v>
+      </c>
+      <c r="E15" t="n">
         <v>60.0354</v>
       </c>
     </row>
@@ -5609,6 +6629,9 @@
         <v>32.2021</v>
       </c>
       <c r="D16" t="n">
+        <v>48.7424</v>
+      </c>
+      <c r="E16" t="n">
         <v>60.7848</v>
       </c>
     </row>
@@ -5623,6 +6646,9 @@
         <v>32.327</v>
       </c>
       <c r="D17" t="n">
+        <v>47.8855</v>
+      </c>
+      <c r="E17" t="n">
         <v>62.1618</v>
       </c>
     </row>

--- a/vs-x86/Parallel workload.xlsx
+++ b/vs-x86/Parallel workload.xlsx
@@ -4800,16 +4800,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>9.46522</v>
+        <v>10.2711</v>
       </c>
       <c r="C2" t="n">
-        <v>10.8714</v>
+        <v>12.8083</v>
       </c>
       <c r="D2" t="n">
-        <v>13.1852</v>
+        <v>17.4358</v>
       </c>
       <c r="E2" t="n">
-        <v>14.445</v>
+        <v>20.5152</v>
       </c>
     </row>
     <row r="3">
@@ -4817,16 +4817,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>17.4578</v>
+        <v>19.3455</v>
       </c>
       <c r="C3" t="n">
-        <v>16.5034</v>
+        <v>19.2718</v>
       </c>
       <c r="D3" t="n">
-        <v>21.9534</v>
+        <v>27.3501</v>
       </c>
       <c r="E3" t="n">
-        <v>24.1194</v>
+        <v>32.3152</v>
       </c>
     </row>
     <row r="4">
@@ -4834,16 +4834,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>23.7848</v>
+        <v>26.7266</v>
       </c>
       <c r="C4" t="n">
-        <v>21.5347</v>
+        <v>24.2265</v>
       </c>
       <c r="D4" t="n">
-        <v>28.1176</v>
+        <v>33.5064</v>
       </c>
       <c r="E4" t="n">
-        <v>31.763</v>
+        <v>38.5635</v>
       </c>
     </row>
     <row r="5">
@@ -4851,16 +4851,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>19.0442</v>
+        <v>20.9071</v>
       </c>
       <c r="C5" t="n">
-        <v>24.2265</v>
+        <v>26.5423</v>
       </c>
       <c r="D5" t="n">
-        <v>30.1588</v>
+        <v>34.8923</v>
       </c>
       <c r="E5" t="n">
-        <v>33.9354</v>
+        <v>41.379</v>
       </c>
     </row>
     <row r="6">
@@ -4868,16 +4868,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>22.532</v>
+        <v>24.5012</v>
       </c>
       <c r="C6" t="n">
-        <v>27.9187</v>
+        <v>31.3507</v>
       </c>
       <c r="D6" t="n">
-        <v>32.0582</v>
+        <v>38.6797</v>
       </c>
       <c r="E6" t="n">
-        <v>39.3934</v>
+        <v>43.8691</v>
       </c>
     </row>
     <row r="7">
@@ -4885,16 +4885,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>26.5231</v>
+        <v>29.0687</v>
       </c>
       <c r="C7" t="n">
-        <v>32.8409</v>
+        <v>36.4824</v>
       </c>
       <c r="D7" t="n">
-        <v>39.2816</v>
+        <v>38.7791</v>
       </c>
       <c r="E7" t="n">
-        <v>40.7913</v>
+        <v>45.1668</v>
       </c>
     </row>
     <row r="8">
@@ -4902,16 +4902,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>20.2463</v>
+        <v>21.0553</v>
       </c>
       <c r="C8" t="n">
-        <v>30.0769</v>
+        <v>34.1809</v>
       </c>
       <c r="D8" t="n">
-        <v>35.7132</v>
+        <v>39.3387</v>
       </c>
       <c r="E8" t="n">
-        <v>40.8912</v>
+        <v>47.349</v>
       </c>
     </row>
     <row r="9">
@@ -4919,16 +4919,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>22.5418</v>
+        <v>23.9072</v>
       </c>
       <c r="C9" t="n">
-        <v>30.4682</v>
+        <v>34.3058</v>
       </c>
       <c r="D9" t="n">
-        <v>38.9497</v>
+        <v>44.2821</v>
       </c>
       <c r="E9" t="n">
-        <v>44.1641</v>
+        <v>50.5457</v>
       </c>
     </row>
     <row r="10">
@@ -4936,16 +4936,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>24.6093</v>
+        <v>26.1731</v>
       </c>
       <c r="C10" t="n">
-        <v>30.3967</v>
+        <v>34.5459</v>
       </c>
       <c r="D10" t="n">
-        <v>39.8247</v>
+        <v>44.3191</v>
       </c>
       <c r="E10" t="n">
-        <v>48.9061</v>
+        <v>53.6258</v>
       </c>
     </row>
     <row r="11">
@@ -4953,16 +4953,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>22.5467</v>
+        <v>24.4921</v>
       </c>
       <c r="C11" t="n">
-        <v>30.8333</v>
+        <v>34.5717</v>
       </c>
       <c r="D11" t="n">
-        <v>43.9979</v>
+        <v>48.9748</v>
       </c>
       <c r="E11" t="n">
-        <v>49.533</v>
+        <v>59.2026</v>
       </c>
     </row>
     <row r="12">
@@ -4970,16 +4970,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>24.4507</v>
+        <v>26.5016</v>
       </c>
       <c r="C12" t="n">
-        <v>30.9929</v>
+        <v>34.7009</v>
       </c>
       <c r="D12" t="n">
-        <v>44.5184</v>
+        <v>50.9267</v>
       </c>
       <c r="E12" t="n">
-        <v>51.4837</v>
+        <v>58.6405</v>
       </c>
     </row>
     <row r="13">
@@ -4987,16 +4987,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>26.5133</v>
+        <v>29.0265</v>
       </c>
       <c r="C13" t="n">
-        <v>31.3538</v>
+        <v>35.118</v>
       </c>
       <c r="D13" t="n">
-        <v>44.0699</v>
+        <v>50.9898</v>
       </c>
       <c r="E13" t="n">
-        <v>51.542</v>
+        <v>56.8515</v>
       </c>
     </row>
     <row r="14">
@@ -5004,16 +5004,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>22.4904</v>
+        <v>23.9415</v>
       </c>
       <c r="C14" t="n">
-        <v>31.2283</v>
+        <v>34.7226</v>
       </c>
       <c r="D14" t="n">
-        <v>43.1789</v>
+        <v>51.1311</v>
       </c>
       <c r="E14" t="n">
-        <v>52.0386</v>
+        <v>59.5203</v>
       </c>
     </row>
     <row r="15">
@@ -5021,16 +5021,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>23.5813</v>
+        <v>25.5249</v>
       </c>
       <c r="C15" t="n">
-        <v>30.6077</v>
+        <v>34.3691</v>
       </c>
       <c r="D15" t="n">
-        <v>45.0811</v>
+        <v>50.975</v>
       </c>
       <c r="E15" t="n">
-        <v>52.9368</v>
+        <v>59.1194</v>
       </c>
     </row>
     <row r="16">
@@ -5038,16 +5038,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>24.9408</v>
+        <v>26.6359</v>
       </c>
       <c r="C16" t="n">
-        <v>31.3285</v>
+        <v>34.4982</v>
       </c>
       <c r="D16" t="n">
-        <v>44.2418</v>
+        <v>50.7326</v>
       </c>
       <c r="E16" t="n">
-        <v>52.9675</v>
+        <v>60.7012</v>
       </c>
     </row>
     <row r="17">
@@ -5055,16 +5055,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>23.6431</v>
+        <v>25.7136</v>
       </c>
       <c r="C17" t="n">
-        <v>31.4177</v>
+        <v>35.0004</v>
       </c>
       <c r="D17" t="n">
-        <v>44.7739</v>
+        <v>50.7491</v>
       </c>
       <c r="E17" t="n">
-        <v>53.1024</v>
+        <v>60.6902</v>
       </c>
     </row>
   </sheetData>
@@ -5117,16 +5117,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>9.39395</v>
+        <v>10.661</v>
       </c>
       <c r="C2" t="n">
-        <v>10.8543</v>
+        <v>12.8204</v>
       </c>
       <c r="D2" t="n">
-        <v>13.0986</v>
+        <v>17.2873</v>
       </c>
       <c r="E2" t="n">
-        <v>14.3439</v>
+        <v>20.348</v>
       </c>
     </row>
     <row r="3">
@@ -5134,16 +5134,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>17.3546</v>
+        <v>19.9721</v>
       </c>
       <c r="C3" t="n">
-        <v>17.1092</v>
+        <v>19.4497</v>
       </c>
       <c r="D3" t="n">
-        <v>21.5116</v>
+        <v>27.0321</v>
       </c>
       <c r="E3" t="n">
-        <v>23.7031</v>
+        <v>31.5167</v>
       </c>
     </row>
     <row r="4">
@@ -5151,16 +5151,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>24.1482</v>
+        <v>27.3309</v>
       </c>
       <c r="C4" t="n">
-        <v>22.6535</v>
+        <v>25.774</v>
       </c>
       <c r="D4" t="n">
-        <v>26.2614</v>
+        <v>33.9514</v>
       </c>
       <c r="E4" t="n">
-        <v>30.869</v>
+        <v>37.103</v>
       </c>
     </row>
     <row r="5">
@@ -5168,16 +5168,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>18.9099</v>
+        <v>21.1728</v>
       </c>
       <c r="C5" t="n">
-        <v>24.0029</v>
+        <v>26.6094</v>
       </c>
       <c r="D5" t="n">
-        <v>28.0298</v>
+        <v>35.3386</v>
       </c>
       <c r="E5" t="n">
-        <v>35.1896</v>
+        <v>39.1034</v>
       </c>
     </row>
     <row r="6">
@@ -5185,16 +5185,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>22.9042</v>
+        <v>24.9234</v>
       </c>
       <c r="C6" t="n">
-        <v>27.8956</v>
+        <v>31.2433</v>
       </c>
       <c r="D6" t="n">
-        <v>35.0381</v>
+        <v>38.1885</v>
       </c>
       <c r="E6" t="n">
-        <v>35.7205</v>
+        <v>43.9571</v>
       </c>
     </row>
     <row r="7">
@@ -5202,16 +5202,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>27.0984</v>
+        <v>29.9292</v>
       </c>
       <c r="C7" t="n">
-        <v>32.6862</v>
+        <v>36.3921</v>
       </c>
       <c r="D7" t="n">
-        <v>37.9087</v>
+        <v>43.703</v>
       </c>
       <c r="E7" t="n">
-        <v>45.0194</v>
+        <v>49.0484</v>
       </c>
     </row>
     <row r="8">
@@ -5219,16 +5219,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>20.2119</v>
+        <v>21.608</v>
       </c>
       <c r="C8" t="n">
-        <v>29.5891</v>
+        <v>33.4521</v>
       </c>
       <c r="D8" t="n">
-        <v>35.2728</v>
+        <v>40.5064</v>
       </c>
       <c r="E8" t="n">
-        <v>41.3785</v>
+        <v>45.325</v>
       </c>
     </row>
     <row r="9">
@@ -5236,16 +5236,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>22.9287</v>
+        <v>25.1358</v>
       </c>
       <c r="C9" t="n">
-        <v>29.1141</v>
+        <v>33.7052</v>
       </c>
       <c r="D9" t="n">
-        <v>36.0526</v>
+        <v>43.137</v>
       </c>
       <c r="E9" t="n">
-        <v>44.2349</v>
+        <v>51.3433</v>
       </c>
     </row>
     <row r="10">
@@ -5253,16 +5253,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>25.2643</v>
+        <v>27.6291</v>
       </c>
       <c r="C10" t="n">
-        <v>29.7323</v>
+        <v>34.0653</v>
       </c>
       <c r="D10" t="n">
-        <v>39.1511</v>
+        <v>43.9042</v>
       </c>
       <c r="E10" t="n">
-        <v>47.4063</v>
+        <v>51.9853</v>
       </c>
     </row>
     <row r="11">
@@ -5270,16 +5270,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>22.6396</v>
+        <v>25.0643</v>
       </c>
       <c r="C11" t="n">
-        <v>30.1646</v>
+        <v>34.2718</v>
       </c>
       <c r="D11" t="n">
-        <v>39.8069</v>
+        <v>46.647</v>
       </c>
       <c r="E11" t="n">
-        <v>51.9918</v>
+        <v>56.4307</v>
       </c>
     </row>
     <row r="12">
@@ -5287,16 +5287,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>24.932</v>
+        <v>27.2965</v>
       </c>
       <c r="C12" t="n">
-        <v>30.9588</v>
+        <v>34.2922</v>
       </c>
       <c r="D12" t="n">
-        <v>40.7237</v>
+        <v>47.4647</v>
       </c>
       <c r="E12" t="n">
-        <v>50.6592</v>
+        <v>59.4107</v>
       </c>
     </row>
     <row r="13">
@@ -5304,16 +5304,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>27.0905</v>
+        <v>29.8985</v>
       </c>
       <c r="C13" t="n">
-        <v>31.4021</v>
+        <v>35.2007</v>
       </c>
       <c r="D13" t="n">
-        <v>43.493</v>
+        <v>50.537</v>
       </c>
       <c r="E13" t="n">
-        <v>52.3926</v>
+        <v>60.756</v>
       </c>
     </row>
     <row r="14">
@@ -5321,16 +5321,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>22.2536</v>
+        <v>24.1769</v>
       </c>
       <c r="C14" t="n">
-        <v>31.3246</v>
+        <v>35.237</v>
       </c>
       <c r="D14" t="n">
-        <v>43.6443</v>
+        <v>50.5324</v>
       </c>
       <c r="E14" t="n">
-        <v>53.1111</v>
+        <v>61.5467</v>
       </c>
     </row>
     <row r="15">
@@ -5338,16 +5338,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>24.2877</v>
+        <v>26.2253</v>
       </c>
       <c r="C15" t="n">
-        <v>31.2503</v>
+        <v>35.2501</v>
       </c>
       <c r="D15" t="n">
-        <v>44.9686</v>
+        <v>49.1045</v>
       </c>
       <c r="E15" t="n">
-        <v>52.6399</v>
+        <v>60.4429</v>
       </c>
     </row>
     <row r="16">
@@ -5355,16 +5355,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>25.5033</v>
+        <v>27.6508</v>
       </c>
       <c r="C16" t="n">
-        <v>31.4161</v>
+        <v>35.5346</v>
       </c>
       <c r="D16" t="n">
-        <v>45.2454</v>
+        <v>51.0998</v>
       </c>
       <c r="E16" t="n">
-        <v>52.5909</v>
+        <v>60.749</v>
       </c>
     </row>
     <row r="17">
@@ -5372,16 +5372,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>24.0907</v>
+        <v>26.4761</v>
       </c>
       <c r="C17" t="n">
-        <v>31.6287</v>
+        <v>35.2048</v>
       </c>
       <c r="D17" t="n">
-        <v>44.4331</v>
+        <v>51.1652</v>
       </c>
       <c r="E17" t="n">
-        <v>52.7402</v>
+        <v>61.3501</v>
       </c>
     </row>
   </sheetData>
@@ -5434,16 +5434,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>10.9632</v>
+        <v>13.0083</v>
       </c>
       <c r="C2" t="n">
-        <v>11.7543</v>
+        <v>13.9459</v>
       </c>
       <c r="D2" t="n">
-        <v>13.9508</v>
+        <v>18.9873</v>
       </c>
       <c r="E2" t="n">
-        <v>14.7727</v>
+        <v>21.7064</v>
       </c>
     </row>
     <row r="3">
@@ -5451,16 +5451,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>19.5116</v>
+        <v>22.9786</v>
       </c>
       <c r="C3" t="n">
-        <v>20.1864</v>
+        <v>23.4016</v>
       </c>
       <c r="D3" t="n">
-        <v>22.6461</v>
+        <v>31.0015</v>
       </c>
       <c r="E3" t="n">
-        <v>24.5812</v>
+        <v>31.7249</v>
       </c>
     </row>
     <row r="4">
@@ -5468,16 +5468,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>26.9547</v>
+        <v>32.101</v>
       </c>
       <c r="C4" t="n">
-        <v>25.5529</v>
+        <v>28.9839</v>
       </c>
       <c r="D4" t="n">
-        <v>31.1483</v>
+        <v>35.3673</v>
       </c>
       <c r="E4" t="n">
-        <v>31.8111</v>
+        <v>38.9314</v>
       </c>
     </row>
     <row r="5">
@@ -5485,16 +5485,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>23.2594</v>
+        <v>26.4702</v>
       </c>
       <c r="C5" t="n">
-        <v>25.0833</v>
+        <v>28.8626</v>
       </c>
       <c r="D5" t="n">
-        <v>29.1881</v>
+        <v>37.1374</v>
       </c>
       <c r="E5" t="n">
-        <v>35.138</v>
+        <v>48.2309</v>
       </c>
     </row>
     <row r="6">
@@ -5502,16 +5502,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>28.0139</v>
+        <v>31.712</v>
       </c>
       <c r="C6" t="n">
-        <v>28.7859</v>
+        <v>32.5498</v>
       </c>
       <c r="D6" t="n">
-        <v>34.9274</v>
+        <v>40.0507</v>
       </c>
       <c r="E6" t="n">
-        <v>36.4494</v>
+        <v>50.5176</v>
       </c>
     </row>
     <row r="7">
@@ -5519,16 +5519,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>33.2217</v>
+        <v>37.6113</v>
       </c>
       <c r="C7" t="n">
-        <v>33.7193</v>
+        <v>38.1161</v>
       </c>
       <c r="D7" t="n">
-        <v>35.0443</v>
+        <v>43.7335</v>
       </c>
       <c r="E7" t="n">
-        <v>52.3672</v>
+        <v>50.4311</v>
       </c>
     </row>
     <row r="8">
@@ -5536,16 +5536,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>29.6864</v>
+        <v>34.9515</v>
       </c>
       <c r="C8" t="n">
-        <v>30.3181</v>
+        <v>34.2038</v>
       </c>
       <c r="D8" t="n">
-        <v>35.4652</v>
+        <v>47.2993</v>
       </c>
       <c r="E8" t="n">
-        <v>45.1903</v>
+        <v>49.1009</v>
       </c>
     </row>
     <row r="9">
@@ -5553,16 +5553,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>29.8246</v>
+        <v>34.5171</v>
       </c>
       <c r="C9" t="n">
-        <v>29.9121</v>
+        <v>34.0999</v>
       </c>
       <c r="D9" t="n">
-        <v>38.8842</v>
+        <v>49.3686</v>
       </c>
       <c r="E9" t="n">
-        <v>47.2706</v>
+        <v>60.2487</v>
       </c>
     </row>
     <row r="10">
@@ -5570,16 +5570,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>30.0727</v>
+        <v>34.2258</v>
       </c>
       <c r="C10" t="n">
-        <v>30.8861</v>
+        <v>35.2269</v>
       </c>
       <c r="D10" t="n">
-        <v>42.8668</v>
+        <v>50.0165</v>
       </c>
       <c r="E10" t="n">
-        <v>52.2457</v>
+        <v>59.8412</v>
       </c>
     </row>
     <row r="11">
@@ -5587,16 +5587,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>30.6325</v>
+        <v>34.7933</v>
       </c>
       <c r="C11" t="n">
-        <v>30.9072</v>
+        <v>35.257</v>
       </c>
       <c r="D11" t="n">
-        <v>43.6578</v>
+        <v>50.8355</v>
       </c>
       <c r="E11" t="n">
-        <v>50.6256</v>
+        <v>60.606</v>
       </c>
     </row>
     <row r="12">
@@ -5604,16 +5604,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>30.6803</v>
+        <v>35.0413</v>
       </c>
       <c r="C12" t="n">
-        <v>31.0344</v>
+        <v>35.7027</v>
       </c>
       <c r="D12" t="n">
-        <v>43.342</v>
+        <v>50.9048</v>
       </c>
       <c r="E12" t="n">
-        <v>51.6697</v>
+        <v>60.5947</v>
       </c>
     </row>
     <row r="13">
@@ -5621,16 +5621,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>30.5291</v>
+        <v>35.3304</v>
       </c>
       <c r="C13" t="n">
-        <v>31.354</v>
+        <v>35.0834</v>
       </c>
       <c r="D13" t="n">
-        <v>43.9429</v>
+        <v>50.8061</v>
       </c>
       <c r="E13" t="n">
-        <v>51.7574</v>
+        <v>60.3045</v>
       </c>
     </row>
     <row r="14">
@@ -5638,16 +5638,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>30.8884</v>
+        <v>34.7663</v>
       </c>
       <c r="C14" t="n">
-        <v>31.5408</v>
+        <v>36.3501</v>
       </c>
       <c r="D14" t="n">
-        <v>44.8083</v>
+        <v>51.0733</v>
       </c>
       <c r="E14" t="n">
-        <v>51.0038</v>
+        <v>60.7548</v>
       </c>
     </row>
     <row r="15">
@@ -5655,16 +5655,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>31.3648</v>
+        <v>35.7253</v>
       </c>
       <c r="C15" t="n">
-        <v>31.4307</v>
+        <v>35.939</v>
       </c>
       <c r="D15" t="n">
-        <v>45.1399</v>
+        <v>51.5156</v>
       </c>
       <c r="E15" t="n">
-        <v>52.9066</v>
+        <v>56.8495</v>
       </c>
     </row>
     <row r="16">
@@ -5672,16 +5672,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>31.1575</v>
+        <v>35.8282</v>
       </c>
       <c r="C16" t="n">
-        <v>31.3392</v>
+        <v>35.9393</v>
       </c>
       <c r="D16" t="n">
-        <v>45.3195</v>
+        <v>50.3564</v>
       </c>
       <c r="E16" t="n">
-        <v>52.0372</v>
+        <v>58.3078</v>
       </c>
     </row>
     <row r="17">
@@ -5689,16 +5689,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>31.3111</v>
+        <v>35.644</v>
       </c>
       <c r="C17" t="n">
-        <v>32.0688</v>
+        <v>35.992</v>
       </c>
       <c r="D17" t="n">
-        <v>44.3416</v>
+        <v>50.8308</v>
       </c>
       <c r="E17" t="n">
-        <v>52.7543</v>
+        <v>59.6086</v>
       </c>
     </row>
   </sheetData>
@@ -5751,16 +5751,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4.90636</v>
+        <v>4.76071</v>
       </c>
       <c r="C2" t="n">
-        <v>9.016819999999999</v>
+        <v>10.8387</v>
       </c>
       <c r="D2" t="n">
-        <v>10.8566</v>
+        <v>14.6286</v>
       </c>
       <c r="E2" t="n">
-        <v>13.6354</v>
+        <v>18.9649</v>
       </c>
     </row>
     <row r="3">
@@ -5768,16 +5768,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.62219</v>
+        <v>9.31786</v>
       </c>
       <c r="C3" t="n">
-        <v>15.941</v>
+        <v>18.8869</v>
       </c>
       <c r="D3" t="n">
-        <v>20.9128</v>
+        <v>27.8316</v>
       </c>
       <c r="E3" t="n">
-        <v>25.6263</v>
+        <v>35.6505</v>
       </c>
     </row>
     <row r="4">
@@ -5785,16 +5785,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>13.8749</v>
+        <v>13.4257</v>
       </c>
       <c r="C4" t="n">
-        <v>22.154</v>
+        <v>25.8305</v>
       </c>
       <c r="D4" t="n">
-        <v>29.9931</v>
+        <v>39.75</v>
       </c>
       <c r="E4" t="n">
-        <v>37.0471</v>
+        <v>50.1569</v>
       </c>
     </row>
     <row r="5">
@@ -5802,16 +5802,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>15.6568</v>
+        <v>15.9284</v>
       </c>
       <c r="C5" t="n">
-        <v>22.8516</v>
+        <v>26.3741</v>
       </c>
       <c r="D5" t="n">
-        <v>33.7751</v>
+        <v>43.0469</v>
       </c>
       <c r="E5" t="n">
-        <v>43.0487</v>
+        <v>56.3537</v>
       </c>
     </row>
     <row r="6">
@@ -5819,16 +5819,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>18.7345</v>
+        <v>19.2105</v>
       </c>
       <c r="C6" t="n">
-        <v>26.4718</v>
+        <v>30.0506</v>
       </c>
       <c r="D6" t="n">
-        <v>41.1498</v>
+        <v>51.4518</v>
       </c>
       <c r="E6" t="n">
-        <v>51.7003</v>
+        <v>65.92310000000001</v>
       </c>
     </row>
     <row r="7">
@@ -5836,16 +5836,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>22.0918</v>
+        <v>22.4609</v>
       </c>
       <c r="C7" t="n">
-        <v>31.3441</v>
+        <v>35.0248</v>
       </c>
       <c r="D7" t="n">
-        <v>48.0548</v>
+        <v>61.0965</v>
       </c>
       <c r="E7" t="n">
-        <v>60.9584</v>
+        <v>79.22450000000001</v>
       </c>
     </row>
     <row r="8">
@@ -5853,16 +5853,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>19.7569</v>
+        <v>19.8028</v>
       </c>
       <c r="C8" t="n">
-        <v>29.7225</v>
+        <v>33.6405</v>
       </c>
       <c r="D8" t="n">
-        <v>43.3073</v>
+        <v>55.3013</v>
       </c>
       <c r="E8" t="n">
-        <v>53.9222</v>
+        <v>65.8403</v>
       </c>
     </row>
     <row r="9">
@@ -5870,16 +5870,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>20.5595</v>
+        <v>20.8224</v>
       </c>
       <c r="C9" t="n">
-        <v>29.8973</v>
+        <v>33.5449</v>
       </c>
       <c r="D9" t="n">
-        <v>43.5422</v>
+        <v>56.5532</v>
       </c>
       <c r="E9" t="n">
-        <v>52.0414</v>
+        <v>71.6511</v>
       </c>
     </row>
     <row r="10">
@@ -5887,16 +5887,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>20.7086</v>
+        <v>20.9956</v>
       </c>
       <c r="C10" t="n">
-        <v>30.1329</v>
+        <v>33.5259</v>
       </c>
       <c r="D10" t="n">
-        <v>43.2939</v>
+        <v>54.9581</v>
       </c>
       <c r="E10" t="n">
-        <v>54.1996</v>
+        <v>68.8831</v>
       </c>
     </row>
     <row r="11">
@@ -5904,16 +5904,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>20.906</v>
+        <v>21.0377</v>
       </c>
       <c r="C11" t="n">
-        <v>29.9336</v>
+        <v>34.0078</v>
       </c>
       <c r="D11" t="n">
-        <v>43.1949</v>
+        <v>56.4733</v>
       </c>
       <c r="E11" t="n">
-        <v>55.0864</v>
+        <v>72.77030000000001</v>
       </c>
     </row>
     <row r="12">
@@ -5921,16 +5921,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>20.9092</v>
+        <v>21.4126</v>
       </c>
       <c r="C12" t="n">
-        <v>29.9274</v>
+        <v>33.9513</v>
       </c>
       <c r="D12" t="n">
-        <v>44.3308</v>
+        <v>55.8851</v>
       </c>
       <c r="E12" t="n">
-        <v>55.5915</v>
+        <v>71.96769999999999</v>
       </c>
     </row>
     <row r="13">
@@ -5938,16 +5938,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>20.8893</v>
+        <v>21.4873</v>
       </c>
       <c r="C13" t="n">
-        <v>30.6007</v>
+        <v>34.2747</v>
       </c>
       <c r="D13" t="n">
-        <v>45.6007</v>
+        <v>57.5386</v>
       </c>
       <c r="E13" t="n">
-        <v>56.1002</v>
+        <v>73.04859999999999</v>
       </c>
     </row>
     <row r="14">
@@ -5955,16 +5955,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>20.9118</v>
+        <v>21.004</v>
       </c>
       <c r="C14" t="n">
-        <v>30.6585</v>
+        <v>34.0186</v>
       </c>
       <c r="D14" t="n">
-        <v>45.29</v>
+        <v>57.7387</v>
       </c>
       <c r="E14" t="n">
-        <v>57.174</v>
+        <v>73.9962</v>
       </c>
     </row>
     <row r="15">
@@ -5972,16 +5972,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>20.9527</v>
+        <v>21.4921</v>
       </c>
       <c r="C15" t="n">
-        <v>30.799</v>
+        <v>34.2024</v>
       </c>
       <c r="D15" t="n">
-        <v>44.6805</v>
+        <v>59.3141</v>
       </c>
       <c r="E15" t="n">
-        <v>56.7456</v>
+        <v>75.9251</v>
       </c>
     </row>
     <row r="16">
@@ -5989,16 +5989,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>21.2559</v>
+        <v>21.1301</v>
       </c>
       <c r="C16" t="n">
-        <v>30.267</v>
+        <v>34.3513</v>
       </c>
       <c r="D16" t="n">
-        <v>46.3281</v>
+        <v>57.914</v>
       </c>
       <c r="E16" t="n">
-        <v>57.7374</v>
+        <v>74.4586</v>
       </c>
     </row>
     <row r="17">
@@ -6006,16 +6006,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>21.3668</v>
+        <v>21.3192</v>
       </c>
       <c r="C17" t="n">
-        <v>30.5857</v>
+        <v>34.5028</v>
       </c>
       <c r="D17" t="n">
-        <v>45.8664</v>
+        <v>60.5013</v>
       </c>
       <c r="E17" t="n">
-        <v>58.2692</v>
+        <v>77.0757</v>
       </c>
     </row>
   </sheetData>
@@ -6068,16 +6068,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4.98</v>
+        <v>4.77801</v>
       </c>
       <c r="C2" t="n">
-        <v>9.066280000000001</v>
+        <v>10.9284</v>
       </c>
       <c r="D2" t="n">
-        <v>10.9094</v>
+        <v>14.5059</v>
       </c>
       <c r="E2" t="n">
-        <v>13.5287</v>
+        <v>18.9706</v>
       </c>
     </row>
     <row r="3">
@@ -6085,16 +6085,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.838369999999999</v>
+        <v>9.35154</v>
       </c>
       <c r="C3" t="n">
-        <v>16.0356</v>
+        <v>18.8689</v>
       </c>
       <c r="D3" t="n">
-        <v>20.7849</v>
+        <v>27.4306</v>
       </c>
       <c r="E3" t="n">
-        <v>25.7488</v>
+        <v>35.4986</v>
       </c>
     </row>
     <row r="4">
@@ -6102,16 +6102,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>14.2001</v>
+        <v>13.51</v>
       </c>
       <c r="C4" t="n">
-        <v>22.2485</v>
+        <v>26.2395</v>
       </c>
       <c r="D4" t="n">
-        <v>29.7471</v>
+        <v>38.856</v>
       </c>
       <c r="E4" t="n">
-        <v>36.8817</v>
+        <v>50.0393</v>
       </c>
     </row>
     <row r="5">
@@ -6119,16 +6119,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>16.0731</v>
+        <v>16.0542</v>
       </c>
       <c r="C5" t="n">
-        <v>22.8055</v>
+        <v>26.3132</v>
       </c>
       <c r="D5" t="n">
-        <v>33.6442</v>
+        <v>42.0801</v>
       </c>
       <c r="E5" t="n">
-        <v>42.6931</v>
+        <v>56.0544</v>
       </c>
     </row>
     <row r="6">
@@ -6136,16 +6136,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>19.2473</v>
+        <v>19.4391</v>
       </c>
       <c r="C6" t="n">
-        <v>26.5748</v>
+        <v>30.0124</v>
       </c>
       <c r="D6" t="n">
-        <v>40.3109</v>
+        <v>50.142</v>
       </c>
       <c r="E6" t="n">
-        <v>51.1201</v>
+        <v>66.8305</v>
       </c>
     </row>
     <row r="7">
@@ -6153,16 +6153,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>22.763</v>
+        <v>22.844</v>
       </c>
       <c r="C7" t="n">
-        <v>31.3895</v>
+        <v>35.0091</v>
       </c>
       <c r="D7" t="n">
-        <v>47.5282</v>
+        <v>59.6886</v>
       </c>
       <c r="E7" t="n">
-        <v>59.0316</v>
+        <v>78.2064</v>
       </c>
     </row>
     <row r="8">
@@ -6170,16 +6170,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>20.4978</v>
+        <v>20.3636</v>
       </c>
       <c r="C8" t="n">
-        <v>30.2298</v>
+        <v>34.0131</v>
       </c>
       <c r="D8" t="n">
-        <v>43.7678</v>
+        <v>52.0688</v>
       </c>
       <c r="E8" t="n">
-        <v>52.876</v>
+        <v>67.63509999999999</v>
       </c>
     </row>
     <row r="9">
@@ -6187,16 +6187,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>21.4562</v>
+        <v>20.9885</v>
       </c>
       <c r="C9" t="n">
-        <v>30.4715</v>
+        <v>33.4795</v>
       </c>
       <c r="D9" t="n">
-        <v>42.2449</v>
+        <v>53.2794</v>
       </c>
       <c r="E9" t="n">
-        <v>51.312</v>
+        <v>71.59610000000001</v>
       </c>
     </row>
     <row r="10">
@@ -6204,16 +6204,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>21.4549</v>
+        <v>21.587</v>
       </c>
       <c r="C10" t="n">
-        <v>30.2761</v>
+        <v>33.3703</v>
       </c>
       <c r="D10" t="n">
-        <v>42.5737</v>
+        <v>52.7845</v>
       </c>
       <c r="E10" t="n">
-        <v>53.1912</v>
+        <v>70.1782</v>
       </c>
     </row>
     <row r="11">
@@ -6221,16 +6221,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>21.4311</v>
+        <v>21.4733</v>
       </c>
       <c r="C11" t="n">
-        <v>30.0696</v>
+        <v>33.7608</v>
       </c>
       <c r="D11" t="n">
-        <v>43.7735</v>
+        <v>54.8578</v>
       </c>
       <c r="E11" t="n">
-        <v>54.1711</v>
+        <v>73.64619999999999</v>
       </c>
     </row>
     <row r="12">
@@ -6238,16 +6238,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>21.7021</v>
+        <v>21.4421</v>
       </c>
       <c r="C12" t="n">
-        <v>30.319</v>
+        <v>33.4206</v>
       </c>
       <c r="D12" t="n">
-        <v>44.2048</v>
+        <v>55.4625</v>
       </c>
       <c r="E12" t="n">
-        <v>54.8868</v>
+        <v>72.92059999999999</v>
       </c>
     </row>
     <row r="13">
@@ -6255,16 +6255,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>21.4601</v>
+        <v>21.2024</v>
       </c>
       <c r="C13" t="n">
-        <v>30.4668</v>
+        <v>34.2812</v>
       </c>
       <c r="D13" t="n">
-        <v>44.6872</v>
+        <v>55.5691</v>
       </c>
       <c r="E13" t="n">
-        <v>54.4906</v>
+        <v>72.59229999999999</v>
       </c>
     </row>
     <row r="14">
@@ -6272,16 +6272,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>21.6583</v>
+        <v>21.0995</v>
       </c>
       <c r="C14" t="n">
-        <v>30.7651</v>
+        <v>34.3746</v>
       </c>
       <c r="D14" t="n">
-        <v>45.8431</v>
+        <v>56.3953</v>
       </c>
       <c r="E14" t="n">
-        <v>54.7855</v>
+        <v>74.12869999999999</v>
       </c>
     </row>
     <row r="15">
@@ -6289,16 +6289,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>21.9177</v>
+        <v>21.5001</v>
       </c>
       <c r="C15" t="n">
-        <v>30.3026</v>
+        <v>34.2372</v>
       </c>
       <c r="D15" t="n">
-        <v>45.3583</v>
+        <v>56.4311</v>
       </c>
       <c r="E15" t="n">
-        <v>55.924</v>
+        <v>72.1369</v>
       </c>
     </row>
     <row r="16">
@@ -6306,16 +6306,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>21.5444</v>
+        <v>21.2131</v>
       </c>
       <c r="C16" t="n">
-        <v>30.7455</v>
+        <v>34.2645</v>
       </c>
       <c r="D16" t="n">
-        <v>46.0021</v>
+        <v>56.5277</v>
       </c>
       <c r="E16" t="n">
-        <v>57.1191</v>
+        <v>74.39879999999999</v>
       </c>
     </row>
     <row r="17">
@@ -6323,16 +6323,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>21.9089</v>
+        <v>21.902</v>
       </c>
       <c r="C17" t="n">
-        <v>30.6301</v>
+        <v>34.5736</v>
       </c>
       <c r="D17" t="n">
-        <v>45.4596</v>
+        <v>57.2934</v>
       </c>
       <c r="E17" t="n">
-        <v>57.3395</v>
+        <v>74.9462</v>
       </c>
     </row>
   </sheetData>
@@ -6385,16 +6385,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.75423</v>
+        <v>8.870469999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>10.9577</v>
+        <v>13.4133</v>
       </c>
       <c r="D2" t="n">
-        <v>13.2368</v>
+        <v>18.3068</v>
       </c>
       <c r="E2" t="n">
-        <v>14.6872</v>
+        <v>21.6555</v>
       </c>
     </row>
     <row r="3">
@@ -6402,16 +6402,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>16.4729</v>
+        <v>16.9216</v>
       </c>
       <c r="C3" t="n">
-        <v>18.5824</v>
+        <v>22.587</v>
       </c>
       <c r="D3" t="n">
-        <v>24.5717</v>
+        <v>33.6805</v>
       </c>
       <c r="E3" t="n">
-        <v>27.6661</v>
+        <v>39.6454</v>
       </c>
     </row>
     <row r="4">
@@ -6419,16 +6419,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>23.424</v>
+        <v>24.4975</v>
       </c>
       <c r="C4" t="n">
-        <v>25.3581</v>
+        <v>29.9124</v>
       </c>
       <c r="D4" t="n">
-        <v>34.4417</v>
+        <v>47.8567</v>
       </c>
       <c r="E4" t="n">
-        <v>39.2661</v>
+        <v>55.9103</v>
       </c>
     </row>
     <row r="5">
@@ -6436,16 +6436,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>23.3545</v>
+        <v>24.4495</v>
       </c>
       <c r="C5" t="n">
-        <v>25.3427</v>
+        <v>29.6541</v>
       </c>
       <c r="D5" t="n">
-        <v>37.0888</v>
+        <v>46.4764</v>
       </c>
       <c r="E5" t="n">
-        <v>45.2003</v>
+        <v>59.9127</v>
       </c>
     </row>
     <row r="6">
@@ -6453,16 +6453,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>26.4218</v>
+        <v>28.2256</v>
       </c>
       <c r="C6" t="n">
-        <v>28.6862</v>
+        <v>32.5731</v>
       </c>
       <c r="D6" t="n">
-        <v>42.7897</v>
+        <v>54.0891</v>
       </c>
       <c r="E6" t="n">
-        <v>54.2751</v>
+        <v>69.286</v>
       </c>
     </row>
     <row r="7">
@@ -6470,16 +6470,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>31.8479</v>
+        <v>34.3733</v>
       </c>
       <c r="C7" t="n">
-        <v>33.2615</v>
+        <v>37.4078</v>
       </c>
       <c r="D7" t="n">
-        <v>50.5322</v>
+        <v>62.1626</v>
       </c>
       <c r="E7" t="n">
-        <v>63.2058</v>
+        <v>79.2778</v>
       </c>
     </row>
     <row r="8">
@@ -6487,16 +6487,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>29.0654</v>
+        <v>31.0774</v>
       </c>
       <c r="C8" t="n">
-        <v>32.0831</v>
+        <v>36.4674</v>
       </c>
       <c r="D8" t="n">
-        <v>47.5565</v>
+        <v>58.6218</v>
       </c>
       <c r="E8" t="n">
-        <v>59.5956</v>
+        <v>76.79940000000001</v>
       </c>
     </row>
     <row r="9">
@@ -6504,16 +6504,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>29.7535</v>
+        <v>31.8634</v>
       </c>
       <c r="C9" t="n">
-        <v>31.8209</v>
+        <v>36.3286</v>
       </c>
       <c r="D9" t="n">
-        <v>47.6744</v>
+        <v>60.1451</v>
       </c>
       <c r="E9" t="n">
-        <v>59.2116</v>
+        <v>79.1083</v>
       </c>
     </row>
     <row r="10">
@@ -6521,16 +6521,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>30.375</v>
+        <v>32.2003</v>
       </c>
       <c r="C10" t="n">
-        <v>31.9849</v>
+        <v>36.9115</v>
       </c>
       <c r="D10" t="n">
-        <v>47.1729</v>
+        <v>59.6824</v>
       </c>
       <c r="E10" t="n">
-        <v>59.3054</v>
+        <v>79.62</v>
       </c>
     </row>
     <row r="11">
@@ -6538,16 +6538,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>30.2537</v>
+        <v>32.9201</v>
       </c>
       <c r="C11" t="n">
-        <v>32.6754</v>
+        <v>36.5166</v>
       </c>
       <c r="D11" t="n">
-        <v>48.0941</v>
+        <v>60.6083</v>
       </c>
       <c r="E11" t="n">
-        <v>59.7724</v>
+        <v>80.6015</v>
       </c>
     </row>
     <row r="12">
@@ -6555,16 +6555,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>30.3177</v>
+        <v>32.4338</v>
       </c>
       <c r="C12" t="n">
-        <v>32.5023</v>
+        <v>36.7351</v>
       </c>
       <c r="D12" t="n">
-        <v>47.1188</v>
+        <v>61.3122</v>
       </c>
       <c r="E12" t="n">
-        <v>60.1265</v>
+        <v>80.3639</v>
       </c>
     </row>
     <row r="13">
@@ -6572,16 +6572,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>30.1999</v>
+        <v>33.0005</v>
       </c>
       <c r="C13" t="n">
-        <v>32.4419</v>
+        <v>36.9404</v>
       </c>
       <c r="D13" t="n">
-        <v>48.3429</v>
+        <v>62.382</v>
       </c>
       <c r="E13" t="n">
-        <v>61.1015</v>
+        <v>81.01609999999999</v>
       </c>
     </row>
     <row r="14">
@@ -6589,16 +6589,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>29.9426</v>
+        <v>32.6301</v>
       </c>
       <c r="C14" t="n">
-        <v>32.4445</v>
+        <v>36.8024</v>
       </c>
       <c r="D14" t="n">
-        <v>48.6051</v>
+        <v>61.8953</v>
       </c>
       <c r="E14" t="n">
-        <v>59.8643</v>
+        <v>80.2826</v>
       </c>
     </row>
     <row r="15">
@@ -6606,16 +6606,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>30.1363</v>
+        <v>33.0886</v>
       </c>
       <c r="C15" t="n">
-        <v>32.5709</v>
+        <v>36.9063</v>
       </c>
       <c r="D15" t="n">
-        <v>48.9108</v>
+        <v>61.8366</v>
       </c>
       <c r="E15" t="n">
-        <v>60.0354</v>
+        <v>79.1139</v>
       </c>
     </row>
     <row r="16">
@@ -6623,16 +6623,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>30.5097</v>
+        <v>32.7895</v>
       </c>
       <c r="C16" t="n">
-        <v>32.2021</v>
+        <v>36.8232</v>
       </c>
       <c r="D16" t="n">
-        <v>48.7424</v>
+        <v>60.9882</v>
       </c>
       <c r="E16" t="n">
-        <v>60.7848</v>
+        <v>79.2668</v>
       </c>
     </row>
     <row r="17">
@@ -6640,16 +6640,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>30.7585</v>
+        <v>32.6306</v>
       </c>
       <c r="C17" t="n">
-        <v>32.327</v>
+        <v>36.8827</v>
       </c>
       <c r="D17" t="n">
-        <v>47.8855</v>
+        <v>61.7387</v>
       </c>
       <c r="E17" t="n">
-        <v>62.1618</v>
+        <v>80.2306</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Parallel workload.xlsx
+++ b/vs-x86/Parallel workload.xlsx
@@ -4800,16 +4800,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>10.2711</v>
+        <v>9.34953</v>
       </c>
       <c r="C2" t="n">
-        <v>12.8083</v>
+        <v>10.8391</v>
       </c>
       <c r="D2" t="n">
-        <v>17.4358</v>
+        <v>13.156</v>
       </c>
       <c r="E2" t="n">
-        <v>20.5152</v>
+        <v>15.0995</v>
       </c>
     </row>
     <row r="3">
@@ -4817,16 +4817,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>19.3455</v>
+        <v>17.3678</v>
       </c>
       <c r="C3" t="n">
-        <v>19.2718</v>
+        <v>16.4512</v>
       </c>
       <c r="D3" t="n">
-        <v>27.3501</v>
+        <v>21.5529</v>
       </c>
       <c r="E3" t="n">
-        <v>32.3152</v>
+        <v>23.9675</v>
       </c>
     </row>
     <row r="4">
@@ -4834,16 +4834,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>26.7266</v>
+        <v>23.1622</v>
       </c>
       <c r="C4" t="n">
-        <v>24.2265</v>
+        <v>21.4238</v>
       </c>
       <c r="D4" t="n">
-        <v>33.5064</v>
+        <v>26.999</v>
       </c>
       <c r="E4" t="n">
-        <v>38.5635</v>
+        <v>31.9609</v>
       </c>
     </row>
     <row r="5">
@@ -4851,16 +4851,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>20.9071</v>
+        <v>19.0157</v>
       </c>
       <c r="C5" t="n">
-        <v>26.5423</v>
+        <v>23.7803</v>
       </c>
       <c r="D5" t="n">
-        <v>34.8923</v>
+        <v>31.1148</v>
       </c>
       <c r="E5" t="n">
-        <v>41.379</v>
+        <v>34.8032</v>
       </c>
     </row>
     <row r="6">
@@ -4868,16 +4868,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>24.5012</v>
+        <v>22.589</v>
       </c>
       <c r="C6" t="n">
-        <v>31.3507</v>
+        <v>27.6083</v>
       </c>
       <c r="D6" t="n">
-        <v>38.6797</v>
+        <v>32.0092</v>
       </c>
       <c r="E6" t="n">
-        <v>43.8691</v>
+        <v>39.3988</v>
       </c>
     </row>
     <row r="7">
@@ -4885,16 +4885,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>29.0687</v>
+        <v>26.4649</v>
       </c>
       <c r="C7" t="n">
-        <v>36.4824</v>
+        <v>32.6526</v>
       </c>
       <c r="D7" t="n">
-        <v>38.7791</v>
+        <v>37.2691</v>
       </c>
       <c r="E7" t="n">
-        <v>45.1668</v>
+        <v>39.6371</v>
       </c>
     </row>
     <row r="8">
@@ -4902,16 +4902,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>21.0553</v>
+        <v>20.1709</v>
       </c>
       <c r="C8" t="n">
-        <v>34.1809</v>
+        <v>30.1256</v>
       </c>
       <c r="D8" t="n">
-        <v>39.3387</v>
+        <v>34.8663</v>
       </c>
       <c r="E8" t="n">
-        <v>47.349</v>
+        <v>39.6922</v>
       </c>
     </row>
     <row r="9">
@@ -4919,16 +4919,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>23.9072</v>
+        <v>22.4233</v>
       </c>
       <c r="C9" t="n">
-        <v>34.3058</v>
+        <v>30.688</v>
       </c>
       <c r="D9" t="n">
-        <v>44.2821</v>
+        <v>37.4306</v>
       </c>
       <c r="E9" t="n">
-        <v>50.5457</v>
+        <v>44.3162</v>
       </c>
     </row>
     <row r="10">
@@ -4936,16 +4936,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>26.1731</v>
+        <v>24.7735</v>
       </c>
       <c r="C10" t="n">
-        <v>34.5459</v>
+        <v>30.6563</v>
       </c>
       <c r="D10" t="n">
-        <v>44.3191</v>
+        <v>40.0676</v>
       </c>
       <c r="E10" t="n">
-        <v>53.6258</v>
+        <v>50.8924</v>
       </c>
     </row>
     <row r="11">
@@ -4953,16 +4953,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>24.4921</v>
+        <v>22.464</v>
       </c>
       <c r="C11" t="n">
-        <v>34.5717</v>
+        <v>30.5839</v>
       </c>
       <c r="D11" t="n">
-        <v>48.9748</v>
+        <v>42.5247</v>
       </c>
       <c r="E11" t="n">
-        <v>59.2026</v>
+        <v>50.7239</v>
       </c>
     </row>
     <row r="12">
@@ -4970,16 +4970,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>26.5016</v>
+        <v>24.2925</v>
       </c>
       <c r="C12" t="n">
-        <v>34.7009</v>
+        <v>31.2273</v>
       </c>
       <c r="D12" t="n">
-        <v>50.9267</v>
+        <v>44.6435</v>
       </c>
       <c r="E12" t="n">
-        <v>58.6405</v>
+        <v>51.9758</v>
       </c>
     </row>
     <row r="13">
@@ -4987,16 +4987,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>29.0265</v>
+        <v>26.4924</v>
       </c>
       <c r="C13" t="n">
-        <v>35.118</v>
+        <v>31.7063</v>
       </c>
       <c r="D13" t="n">
-        <v>50.9898</v>
+        <v>43.8606</v>
       </c>
       <c r="E13" t="n">
-        <v>56.8515</v>
+        <v>53.2188</v>
       </c>
     </row>
     <row r="14">
@@ -5004,16 +5004,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>23.9415</v>
+        <v>22.3294</v>
       </c>
       <c r="C14" t="n">
-        <v>34.7226</v>
+        <v>30.6773</v>
       </c>
       <c r="D14" t="n">
-        <v>51.1311</v>
+        <v>43.6981</v>
       </c>
       <c r="E14" t="n">
-        <v>59.5203</v>
+        <v>52.8694</v>
       </c>
     </row>
     <row r="15">
@@ -5021,16 +5021,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>25.5249</v>
+        <v>23.8318</v>
       </c>
       <c r="C15" t="n">
-        <v>34.3691</v>
+        <v>30.5527</v>
       </c>
       <c r="D15" t="n">
-        <v>50.975</v>
+        <v>44.1403</v>
       </c>
       <c r="E15" t="n">
-        <v>59.1194</v>
+        <v>54.2912</v>
       </c>
     </row>
     <row r="16">
@@ -5038,16 +5038,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>26.6359</v>
+        <v>24.9351</v>
       </c>
       <c r="C16" t="n">
-        <v>34.4982</v>
+        <v>30.7364</v>
       </c>
       <c r="D16" t="n">
-        <v>50.7326</v>
+        <v>44.5934</v>
       </c>
       <c r="E16" t="n">
-        <v>60.7012</v>
+        <v>54.3332</v>
       </c>
     </row>
     <row r="17">
@@ -5055,16 +5055,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>25.7136</v>
+        <v>23.9571</v>
       </c>
       <c r="C17" t="n">
-        <v>35.0004</v>
+        <v>30.8845</v>
       </c>
       <c r="D17" t="n">
-        <v>50.7491</v>
+        <v>44.6222</v>
       </c>
       <c r="E17" t="n">
-        <v>60.6902</v>
+        <v>52.9461</v>
       </c>
     </row>
   </sheetData>
@@ -5117,16 +5117,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>10.661</v>
+        <v>9.337389999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>12.8204</v>
+        <v>10.8012</v>
       </c>
       <c r="D2" t="n">
-        <v>17.2873</v>
+        <v>13.0512</v>
       </c>
       <c r="E2" t="n">
-        <v>20.348</v>
+        <v>14.9702</v>
       </c>
     </row>
     <row r="3">
@@ -5134,16 +5134,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>19.9721</v>
+        <v>17.4172</v>
       </c>
       <c r="C3" t="n">
-        <v>19.4497</v>
+        <v>16.7751</v>
       </c>
       <c r="D3" t="n">
-        <v>27.0321</v>
+        <v>21.3602</v>
       </c>
       <c r="E3" t="n">
-        <v>31.5167</v>
+        <v>24.1143</v>
       </c>
     </row>
     <row r="4">
@@ -5151,16 +5151,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>27.3309</v>
+        <v>24.0624</v>
       </c>
       <c r="C4" t="n">
-        <v>25.774</v>
+        <v>22.4205</v>
       </c>
       <c r="D4" t="n">
-        <v>33.9514</v>
+        <v>25.7823</v>
       </c>
       <c r="E4" t="n">
-        <v>37.103</v>
+        <v>30.2231</v>
       </c>
     </row>
     <row r="5">
@@ -5168,16 +5168,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>21.1728</v>
+        <v>18.8984</v>
       </c>
       <c r="C5" t="n">
-        <v>26.6094</v>
+        <v>23.9158</v>
       </c>
       <c r="D5" t="n">
-        <v>35.3386</v>
+        <v>28.1356</v>
       </c>
       <c r="E5" t="n">
-        <v>39.1034</v>
+        <v>35.1442</v>
       </c>
     </row>
     <row r="6">
@@ -5185,16 +5185,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>24.9234</v>
+        <v>22.9314</v>
       </c>
       <c r="C6" t="n">
-        <v>31.2433</v>
+        <v>27.8365</v>
       </c>
       <c r="D6" t="n">
-        <v>38.1885</v>
+        <v>35.0744</v>
       </c>
       <c r="E6" t="n">
-        <v>43.9571</v>
+        <v>39.196</v>
       </c>
     </row>
     <row r="7">
@@ -5202,16 +5202,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>29.9292</v>
+        <v>27.0893</v>
       </c>
       <c r="C7" t="n">
-        <v>36.3921</v>
+        <v>32.5544</v>
       </c>
       <c r="D7" t="n">
-        <v>43.703</v>
+        <v>35.2851</v>
       </c>
       <c r="E7" t="n">
-        <v>49.0484</v>
+        <v>44.8685</v>
       </c>
     </row>
     <row r="8">
@@ -5219,16 +5219,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>21.608</v>
+        <v>20.0209</v>
       </c>
       <c r="C8" t="n">
-        <v>33.4521</v>
+        <v>29.3613</v>
       </c>
       <c r="D8" t="n">
-        <v>40.5064</v>
+        <v>34.0117</v>
       </c>
       <c r="E8" t="n">
-        <v>45.325</v>
+        <v>40.4371</v>
       </c>
     </row>
     <row r="9">
@@ -5236,16 +5236,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>25.1358</v>
+        <v>22.7672</v>
       </c>
       <c r="C9" t="n">
-        <v>33.7052</v>
+        <v>29.6565</v>
       </c>
       <c r="D9" t="n">
-        <v>43.137</v>
+        <v>35.9433</v>
       </c>
       <c r="E9" t="n">
-        <v>51.3433</v>
+        <v>46.1263</v>
       </c>
     </row>
     <row r="10">
@@ -5253,16 +5253,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>27.6291</v>
+        <v>24.7803</v>
       </c>
       <c r="C10" t="n">
-        <v>34.0653</v>
+        <v>30.3929</v>
       </c>
       <c r="D10" t="n">
-        <v>43.9042</v>
+        <v>38.3641</v>
       </c>
       <c r="E10" t="n">
-        <v>51.9853</v>
+        <v>50.1125</v>
       </c>
     </row>
     <row r="11">
@@ -5270,16 +5270,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>25.0643</v>
+        <v>23.0637</v>
       </c>
       <c r="C11" t="n">
-        <v>34.2718</v>
+        <v>30.45</v>
       </c>
       <c r="D11" t="n">
-        <v>46.647</v>
+        <v>39.3608</v>
       </c>
       <c r="E11" t="n">
-        <v>56.4307</v>
+        <v>52.7341</v>
       </c>
     </row>
     <row r="12">
@@ -5287,16 +5287,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>27.2965</v>
+        <v>24.9587</v>
       </c>
       <c r="C12" t="n">
-        <v>34.2922</v>
+        <v>30.5396</v>
       </c>
       <c r="D12" t="n">
-        <v>47.4647</v>
+        <v>42.2874</v>
       </c>
       <c r="E12" t="n">
-        <v>59.4107</v>
+        <v>52.7751</v>
       </c>
     </row>
     <row r="13">
@@ -5304,16 +5304,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>29.8985</v>
+        <v>27.0535</v>
       </c>
       <c r="C13" t="n">
-        <v>35.2007</v>
+        <v>31.4656</v>
       </c>
       <c r="D13" t="n">
-        <v>50.537</v>
+        <v>43.6683</v>
       </c>
       <c r="E13" t="n">
-        <v>60.756</v>
+        <v>52.9471</v>
       </c>
     </row>
     <row r="14">
@@ -5321,16 +5321,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>24.1769</v>
+        <v>22.2402</v>
       </c>
       <c r="C14" t="n">
-        <v>35.237</v>
+        <v>31.174</v>
       </c>
       <c r="D14" t="n">
-        <v>50.5324</v>
+        <v>42.3264</v>
       </c>
       <c r="E14" t="n">
-        <v>61.5467</v>
+        <v>53.0281</v>
       </c>
     </row>
     <row r="15">
@@ -5338,16 +5338,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>26.2253</v>
+        <v>24.2973</v>
       </c>
       <c r="C15" t="n">
-        <v>35.2501</v>
+        <v>31.2629</v>
       </c>
       <c r="D15" t="n">
-        <v>49.1045</v>
+        <v>44.4616</v>
       </c>
       <c r="E15" t="n">
-        <v>60.4429</v>
+        <v>53.6469</v>
       </c>
     </row>
     <row r="16">
@@ -5355,16 +5355,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>27.6508</v>
+        <v>25.4304</v>
       </c>
       <c r="C16" t="n">
-        <v>35.5346</v>
+        <v>31.1069</v>
       </c>
       <c r="D16" t="n">
-        <v>51.0998</v>
+        <v>44.5706</v>
       </c>
       <c r="E16" t="n">
-        <v>60.749</v>
+        <v>54.92</v>
       </c>
     </row>
     <row r="17">
@@ -5372,16 +5372,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>26.4761</v>
+        <v>24.2849</v>
       </c>
       <c r="C17" t="n">
-        <v>35.2048</v>
+        <v>31.5596</v>
       </c>
       <c r="D17" t="n">
-        <v>51.1652</v>
+        <v>44.714</v>
       </c>
       <c r="E17" t="n">
-        <v>61.3501</v>
+        <v>53.3211</v>
       </c>
     </row>
   </sheetData>
@@ -5434,16 +5434,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>13.0083</v>
+        <v>10.9459</v>
       </c>
       <c r="C2" t="n">
-        <v>13.9459</v>
+        <v>11.6336</v>
       </c>
       <c r="D2" t="n">
-        <v>18.9873</v>
+        <v>13.846</v>
       </c>
       <c r="E2" t="n">
-        <v>21.7064</v>
+        <v>15.4905</v>
       </c>
     </row>
     <row r="3">
@@ -5451,16 +5451,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>22.9786</v>
+        <v>19.5297</v>
       </c>
       <c r="C3" t="n">
-        <v>23.4016</v>
+        <v>19.3319</v>
       </c>
       <c r="D3" t="n">
-        <v>31.0015</v>
+        <v>22.7845</v>
       </c>
       <c r="E3" t="n">
-        <v>31.7249</v>
+        <v>25.9423</v>
       </c>
     </row>
     <row r="4">
@@ -5468,16 +5468,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>32.101</v>
+        <v>26.9705</v>
       </c>
       <c r="C4" t="n">
-        <v>28.9839</v>
+        <v>25.0272</v>
       </c>
       <c r="D4" t="n">
-        <v>35.3673</v>
+        <v>31.2623</v>
       </c>
       <c r="E4" t="n">
-        <v>38.9314</v>
+        <v>34.7048</v>
       </c>
     </row>
     <row r="5">
@@ -5485,16 +5485,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>26.4702</v>
+        <v>23.2217</v>
       </c>
       <c r="C5" t="n">
-        <v>28.8626</v>
+        <v>24.7101</v>
       </c>
       <c r="D5" t="n">
-        <v>37.1374</v>
+        <v>30.4848</v>
       </c>
       <c r="E5" t="n">
-        <v>48.2309</v>
+        <v>35.1538</v>
       </c>
     </row>
     <row r="6">
@@ -5502,16 +5502,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>31.712</v>
+        <v>28.0642</v>
       </c>
       <c r="C6" t="n">
-        <v>32.5498</v>
+        <v>28.809</v>
       </c>
       <c r="D6" t="n">
-        <v>40.0507</v>
+        <v>33.7545</v>
       </c>
       <c r="E6" t="n">
-        <v>50.5176</v>
+        <v>37.2014</v>
       </c>
     </row>
     <row r="7">
@@ -5519,16 +5519,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>37.6113</v>
+        <v>33.1833</v>
       </c>
       <c r="C7" t="n">
-        <v>38.1161</v>
+        <v>33.615</v>
       </c>
       <c r="D7" t="n">
-        <v>43.7335</v>
+        <v>35.0576</v>
       </c>
       <c r="E7" t="n">
-        <v>50.4311</v>
+        <v>44.9472</v>
       </c>
     </row>
     <row r="8">
@@ -5536,16 +5536,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>34.9515</v>
+        <v>29.7625</v>
       </c>
       <c r="C8" t="n">
-        <v>34.2038</v>
+        <v>29.3266</v>
       </c>
       <c r="D8" t="n">
-        <v>47.2993</v>
+        <v>36.1173</v>
       </c>
       <c r="E8" t="n">
-        <v>49.1009</v>
+        <v>45.467</v>
       </c>
     </row>
     <row r="9">
@@ -5553,16 +5553,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>34.5171</v>
+        <v>29.4215</v>
       </c>
       <c r="C9" t="n">
-        <v>34.0999</v>
+        <v>29.4943</v>
       </c>
       <c r="D9" t="n">
-        <v>49.3686</v>
+        <v>39.1096</v>
       </c>
       <c r="E9" t="n">
-        <v>60.2487</v>
+        <v>47.3076</v>
       </c>
     </row>
     <row r="10">
@@ -5570,16 +5570,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>34.2258</v>
+        <v>29.9134</v>
       </c>
       <c r="C10" t="n">
-        <v>35.2269</v>
+        <v>30.2256</v>
       </c>
       <c r="D10" t="n">
-        <v>50.0165</v>
+        <v>41.9878</v>
       </c>
       <c r="E10" t="n">
-        <v>59.8412</v>
+        <v>51.5984</v>
       </c>
     </row>
     <row r="11">
@@ -5587,16 +5587,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>34.7933</v>
+        <v>30.853</v>
       </c>
       <c r="C11" t="n">
-        <v>35.257</v>
+        <v>30.6449</v>
       </c>
       <c r="D11" t="n">
-        <v>50.8355</v>
+        <v>44.7496</v>
       </c>
       <c r="E11" t="n">
-        <v>60.606</v>
+        <v>53.4531</v>
       </c>
     </row>
     <row r="12">
@@ -5604,16 +5604,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>35.0413</v>
+        <v>30.7497</v>
       </c>
       <c r="C12" t="n">
-        <v>35.7027</v>
+        <v>30.7301</v>
       </c>
       <c r="D12" t="n">
-        <v>50.9048</v>
+        <v>44.6979</v>
       </c>
       <c r="E12" t="n">
-        <v>60.5947</v>
+        <v>52.1873</v>
       </c>
     </row>
     <row r="13">
@@ -5621,16 +5621,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>35.3304</v>
+        <v>31.2485</v>
       </c>
       <c r="C13" t="n">
-        <v>35.0834</v>
+        <v>31.2054</v>
       </c>
       <c r="D13" t="n">
-        <v>50.8061</v>
+        <v>44.8674</v>
       </c>
       <c r="E13" t="n">
-        <v>60.3045</v>
+        <v>52.4514</v>
       </c>
     </row>
     <row r="14">
@@ -5638,16 +5638,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>34.7663</v>
+        <v>31.2507</v>
       </c>
       <c r="C14" t="n">
-        <v>36.3501</v>
+        <v>31.3035</v>
       </c>
       <c r="D14" t="n">
-        <v>51.0733</v>
+        <v>44.3073</v>
       </c>
       <c r="E14" t="n">
-        <v>60.7548</v>
+        <v>52.8005</v>
       </c>
     </row>
     <row r="15">
@@ -5655,16 +5655,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>35.7253</v>
+        <v>30.9761</v>
       </c>
       <c r="C15" t="n">
-        <v>35.939</v>
+        <v>31.2463</v>
       </c>
       <c r="D15" t="n">
-        <v>51.5156</v>
+        <v>44.9198</v>
       </c>
       <c r="E15" t="n">
-        <v>56.8495</v>
+        <v>52.6157</v>
       </c>
     </row>
     <row r="16">
@@ -5672,16 +5672,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>35.8282</v>
+        <v>31.4857</v>
       </c>
       <c r="C16" t="n">
-        <v>35.9393</v>
+        <v>31.0522</v>
       </c>
       <c r="D16" t="n">
-        <v>50.3564</v>
+        <v>44.4065</v>
       </c>
       <c r="E16" t="n">
-        <v>58.3078</v>
+        <v>52.4503</v>
       </c>
     </row>
     <row r="17">
@@ -5689,16 +5689,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>35.644</v>
+        <v>31.3684</v>
       </c>
       <c r="C17" t="n">
-        <v>35.992</v>
+        <v>31.3977</v>
       </c>
       <c r="D17" t="n">
-        <v>50.8308</v>
+        <v>44.5341</v>
       </c>
       <c r="E17" t="n">
-        <v>59.6086</v>
+        <v>53.1165</v>
       </c>
     </row>
   </sheetData>
@@ -5751,16 +5751,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4.76071</v>
+        <v>4.89494</v>
       </c>
       <c r="C2" t="n">
-        <v>10.8387</v>
+        <v>8.987209999999999</v>
       </c>
       <c r="D2" t="n">
-        <v>14.6286</v>
+        <v>10.8159</v>
       </c>
       <c r="E2" t="n">
-        <v>18.9649</v>
+        <v>13.9527</v>
       </c>
     </row>
     <row r="3">
@@ -5768,16 +5768,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.31786</v>
+        <v>9.561540000000001</v>
       </c>
       <c r="C3" t="n">
-        <v>18.8869</v>
+        <v>15.5981</v>
       </c>
       <c r="D3" t="n">
-        <v>27.8316</v>
+        <v>20.677</v>
       </c>
       <c r="E3" t="n">
-        <v>35.6505</v>
+        <v>26.6652</v>
       </c>
     </row>
     <row r="4">
@@ -5785,16 +5785,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>13.4257</v>
+        <v>13.8643</v>
       </c>
       <c r="C4" t="n">
-        <v>25.8305</v>
+        <v>22.0338</v>
       </c>
       <c r="D4" t="n">
-        <v>39.75</v>
+        <v>29.7371</v>
       </c>
       <c r="E4" t="n">
-        <v>50.1569</v>
+        <v>37.9585</v>
       </c>
     </row>
     <row r="5">
@@ -5802,16 +5802,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>15.9284</v>
+        <v>15.7039</v>
       </c>
       <c r="C5" t="n">
-        <v>26.3741</v>
+        <v>23.1921</v>
       </c>
       <c r="D5" t="n">
-        <v>43.0469</v>
+        <v>34.2933</v>
       </c>
       <c r="E5" t="n">
-        <v>56.3537</v>
+        <v>44.3881</v>
       </c>
     </row>
     <row r="6">
@@ -5819,16 +5819,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>19.2105</v>
+        <v>18.8074</v>
       </c>
       <c r="C6" t="n">
-        <v>30.0506</v>
+        <v>26.3121</v>
       </c>
       <c r="D6" t="n">
-        <v>51.4518</v>
+        <v>41.1657</v>
       </c>
       <c r="E6" t="n">
-        <v>65.92310000000001</v>
+        <v>52.369</v>
       </c>
     </row>
     <row r="7">
@@ -5836,16 +5836,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>22.4609</v>
+        <v>22.0772</v>
       </c>
       <c r="C7" t="n">
-        <v>35.0248</v>
+        <v>31.25</v>
       </c>
       <c r="D7" t="n">
-        <v>61.0965</v>
+        <v>47.9772</v>
       </c>
       <c r="E7" t="n">
-        <v>79.22450000000001</v>
+        <v>62.1458</v>
       </c>
     </row>
     <row r="8">
@@ -5853,16 +5853,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>19.8028</v>
+        <v>19.8604</v>
       </c>
       <c r="C8" t="n">
-        <v>33.6405</v>
+        <v>30.0355</v>
       </c>
       <c r="D8" t="n">
-        <v>55.3013</v>
+        <v>42.6881</v>
       </c>
       <c r="E8" t="n">
-        <v>65.8403</v>
+        <v>53.9509</v>
       </c>
     </row>
     <row r="9">
@@ -5870,16 +5870,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>20.8224</v>
+        <v>20.6714</v>
       </c>
       <c r="C9" t="n">
-        <v>33.5449</v>
+        <v>30.09</v>
       </c>
       <c r="D9" t="n">
-        <v>56.5532</v>
+        <v>44.0266</v>
       </c>
       <c r="E9" t="n">
-        <v>71.6511</v>
+        <v>55.1616</v>
       </c>
     </row>
     <row r="10">
@@ -5887,16 +5887,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>20.9956</v>
+        <v>20.7548</v>
       </c>
       <c r="C10" t="n">
-        <v>33.5259</v>
+        <v>29.7143</v>
       </c>
       <c r="D10" t="n">
-        <v>54.9581</v>
+        <v>43.6115</v>
       </c>
       <c r="E10" t="n">
-        <v>68.8831</v>
+        <v>56.9111</v>
       </c>
     </row>
     <row r="11">
@@ -5904,16 +5904,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>21.0377</v>
+        <v>21.1708</v>
       </c>
       <c r="C11" t="n">
-        <v>34.0078</v>
+        <v>30.1903</v>
       </c>
       <c r="D11" t="n">
-        <v>56.4733</v>
+        <v>42.7925</v>
       </c>
       <c r="E11" t="n">
-        <v>72.77030000000001</v>
+        <v>54.8717</v>
       </c>
     </row>
     <row r="12">
@@ -5921,16 +5921,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>21.4126</v>
+        <v>20.9013</v>
       </c>
       <c r="C12" t="n">
-        <v>33.9513</v>
+        <v>29.9154</v>
       </c>
       <c r="D12" t="n">
-        <v>55.8851</v>
+        <v>44.94</v>
       </c>
       <c r="E12" t="n">
-        <v>71.96769999999999</v>
+        <v>55.8454</v>
       </c>
     </row>
     <row r="13">
@@ -5938,16 +5938,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>21.4873</v>
+        <v>20.923</v>
       </c>
       <c r="C13" t="n">
-        <v>34.2747</v>
+        <v>30.5042</v>
       </c>
       <c r="D13" t="n">
-        <v>57.5386</v>
+        <v>44.1071</v>
       </c>
       <c r="E13" t="n">
-        <v>73.04859999999999</v>
+        <v>58.7626</v>
       </c>
     </row>
     <row r="14">
@@ -5955,16 +5955,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>21.004</v>
+        <v>21.0125</v>
       </c>
       <c r="C14" t="n">
-        <v>34.0186</v>
+        <v>30.566</v>
       </c>
       <c r="D14" t="n">
-        <v>57.7387</v>
+        <v>44.2621</v>
       </c>
       <c r="E14" t="n">
-        <v>73.9962</v>
+        <v>58.1527</v>
       </c>
     </row>
     <row r="15">
@@ -5972,16 +5972,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>21.4921</v>
+        <v>20.9089</v>
       </c>
       <c r="C15" t="n">
-        <v>34.2024</v>
+        <v>30.487</v>
       </c>
       <c r="D15" t="n">
-        <v>59.3141</v>
+        <v>44.7656</v>
       </c>
       <c r="E15" t="n">
-        <v>75.9251</v>
+        <v>59.6006</v>
       </c>
     </row>
     <row r="16">
@@ -5989,16 +5989,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>21.1301</v>
+        <v>21.1737</v>
       </c>
       <c r="C16" t="n">
-        <v>34.3513</v>
+        <v>30.6171</v>
       </c>
       <c r="D16" t="n">
-        <v>57.914</v>
+        <v>46.5876</v>
       </c>
       <c r="E16" t="n">
-        <v>74.4586</v>
+        <v>60.3415</v>
       </c>
     </row>
     <row r="17">
@@ -6006,16 +6006,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>21.3192</v>
+        <v>20.8028</v>
       </c>
       <c r="C17" t="n">
-        <v>34.5028</v>
+        <v>30.5473</v>
       </c>
       <c r="D17" t="n">
-        <v>60.5013</v>
+        <v>45.0709</v>
       </c>
       <c r="E17" t="n">
-        <v>77.0757</v>
+        <v>60.0524</v>
       </c>
     </row>
   </sheetData>
@@ -6068,16 +6068,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4.77801</v>
+        <v>5.00371</v>
       </c>
       <c r="C2" t="n">
-        <v>10.9284</v>
+        <v>9.0078</v>
       </c>
       <c r="D2" t="n">
-        <v>14.5059</v>
+        <v>10.8657</v>
       </c>
       <c r="E2" t="n">
-        <v>18.9706</v>
+        <v>14.0418</v>
       </c>
     </row>
     <row r="3">
@@ -6085,16 +6085,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.35154</v>
+        <v>9.744289999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>18.8689</v>
+        <v>15.5987</v>
       </c>
       <c r="D3" t="n">
-        <v>27.4306</v>
+        <v>20.6543</v>
       </c>
       <c r="E3" t="n">
-        <v>35.4986</v>
+        <v>26.5172</v>
       </c>
     </row>
     <row r="4">
@@ -6102,16 +6102,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>13.51</v>
+        <v>14.1409</v>
       </c>
       <c r="C4" t="n">
-        <v>26.2395</v>
+        <v>21.9363</v>
       </c>
       <c r="D4" t="n">
-        <v>38.856</v>
+        <v>29.5108</v>
       </c>
       <c r="E4" t="n">
-        <v>50.0393</v>
+        <v>38.2014</v>
       </c>
     </row>
     <row r="5">
@@ -6119,16 +6119,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>16.0542</v>
+        <v>15.9947</v>
       </c>
       <c r="C5" t="n">
-        <v>26.3132</v>
+        <v>22.8674</v>
       </c>
       <c r="D5" t="n">
-        <v>42.0801</v>
+        <v>33.9901</v>
       </c>
       <c r="E5" t="n">
-        <v>56.0544</v>
+        <v>43.5839</v>
       </c>
     </row>
     <row r="6">
@@ -6136,16 +6136,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>19.4391</v>
+        <v>19.2277</v>
       </c>
       <c r="C6" t="n">
-        <v>30.0124</v>
+        <v>26.4461</v>
       </c>
       <c r="D6" t="n">
-        <v>50.142</v>
+        <v>40.031</v>
       </c>
       <c r="E6" t="n">
-        <v>66.8305</v>
+        <v>51.9231</v>
       </c>
     </row>
     <row r="7">
@@ -6153,16 +6153,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>22.844</v>
+        <v>22.7174</v>
       </c>
       <c r="C7" t="n">
-        <v>35.0091</v>
+        <v>31.3395</v>
       </c>
       <c r="D7" t="n">
-        <v>59.6886</v>
+        <v>47.4855</v>
       </c>
       <c r="E7" t="n">
-        <v>78.2064</v>
+        <v>60.8532</v>
       </c>
     </row>
     <row r="8">
@@ -6170,16 +6170,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>20.3636</v>
+        <v>20.4274</v>
       </c>
       <c r="C8" t="n">
-        <v>34.0131</v>
+        <v>30.4092</v>
       </c>
       <c r="D8" t="n">
-        <v>52.0688</v>
+        <v>42.2094</v>
       </c>
       <c r="E8" t="n">
-        <v>67.63509999999999</v>
+        <v>53.9419</v>
       </c>
     </row>
     <row r="9">
@@ -6187,16 +6187,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>20.9885</v>
+        <v>20.9897</v>
       </c>
       <c r="C9" t="n">
-        <v>33.4795</v>
+        <v>30.5984</v>
       </c>
       <c r="D9" t="n">
-        <v>53.2794</v>
+        <v>41.7061</v>
       </c>
       <c r="E9" t="n">
-        <v>71.59610000000001</v>
+        <v>55.9888</v>
       </c>
     </row>
     <row r="10">
@@ -6204,16 +6204,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>21.587</v>
+        <v>21.676</v>
       </c>
       <c r="C10" t="n">
-        <v>33.3703</v>
+        <v>30.0501</v>
       </c>
       <c r="D10" t="n">
-        <v>52.7845</v>
+        <v>43.7108</v>
       </c>
       <c r="E10" t="n">
-        <v>70.1782</v>
+        <v>55.6254</v>
       </c>
     </row>
     <row r="11">
@@ -6221,16 +6221,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>21.4733</v>
+        <v>21.5392</v>
       </c>
       <c r="C11" t="n">
-        <v>33.7608</v>
+        <v>30.3417</v>
       </c>
       <c r="D11" t="n">
-        <v>54.8578</v>
+        <v>44.2138</v>
       </c>
       <c r="E11" t="n">
-        <v>73.64619999999999</v>
+        <v>56.8699</v>
       </c>
     </row>
     <row r="12">
@@ -6238,16 +6238,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>21.4421</v>
+        <v>21.7985</v>
       </c>
       <c r="C12" t="n">
-        <v>33.4206</v>
+        <v>30.035</v>
       </c>
       <c r="D12" t="n">
-        <v>55.4625</v>
+        <v>44.437</v>
       </c>
       <c r="E12" t="n">
-        <v>72.92059999999999</v>
+        <v>57.2138</v>
       </c>
     </row>
     <row r="13">
@@ -6255,16 +6255,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>21.2024</v>
+        <v>21.5422</v>
       </c>
       <c r="C13" t="n">
-        <v>34.2812</v>
+        <v>30.4316</v>
       </c>
       <c r="D13" t="n">
-        <v>55.5691</v>
+        <v>43.8066</v>
       </c>
       <c r="E13" t="n">
-        <v>72.59229999999999</v>
+        <v>57.116</v>
       </c>
     </row>
     <row r="14">
@@ -6272,16 +6272,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>21.0995</v>
+        <v>21.3781</v>
       </c>
       <c r="C14" t="n">
-        <v>34.3746</v>
+        <v>30.6516</v>
       </c>
       <c r="D14" t="n">
-        <v>56.3953</v>
+        <v>45.0629</v>
       </c>
       <c r="E14" t="n">
-        <v>74.12869999999999</v>
+        <v>58.2051</v>
       </c>
     </row>
     <row r="15">
@@ -6289,16 +6289,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>21.5001</v>
+        <v>21.6694</v>
       </c>
       <c r="C15" t="n">
-        <v>34.2372</v>
+        <v>30.4046</v>
       </c>
       <c r="D15" t="n">
-        <v>56.4311</v>
+        <v>44.8907</v>
       </c>
       <c r="E15" t="n">
-        <v>72.1369</v>
+        <v>58.8703</v>
       </c>
     </row>
     <row r="16">
@@ -6306,16 +6306,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>21.2131</v>
+        <v>21.5012</v>
       </c>
       <c r="C16" t="n">
-        <v>34.2645</v>
+        <v>30.5833</v>
       </c>
       <c r="D16" t="n">
-        <v>56.5277</v>
+        <v>45.9584</v>
       </c>
       <c r="E16" t="n">
-        <v>74.39879999999999</v>
+        <v>58.8924</v>
       </c>
     </row>
     <row r="17">
@@ -6323,16 +6323,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>21.902</v>
+        <v>21.9503</v>
       </c>
       <c r="C17" t="n">
-        <v>34.5736</v>
+        <v>30.8203</v>
       </c>
       <c r="D17" t="n">
-        <v>57.2934</v>
+        <v>44.9205</v>
       </c>
       <c r="E17" t="n">
-        <v>74.9462</v>
+        <v>59.1285</v>
       </c>
     </row>
   </sheetData>
@@ -6385,16 +6385,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.870469999999999</v>
+        <v>8.73897</v>
       </c>
       <c r="C2" t="n">
-        <v>13.4133</v>
+        <v>10.9297</v>
       </c>
       <c r="D2" t="n">
-        <v>18.3068</v>
+        <v>13.1636</v>
       </c>
       <c r="E2" t="n">
-        <v>21.6555</v>
+        <v>15.3912</v>
       </c>
     </row>
     <row r="3">
@@ -6402,16 +6402,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>16.9216</v>
+        <v>16.4866</v>
       </c>
       <c r="C3" t="n">
-        <v>22.587</v>
+        <v>18.3877</v>
       </c>
       <c r="D3" t="n">
-        <v>33.6805</v>
+        <v>24.2805</v>
       </c>
       <c r="E3" t="n">
-        <v>39.6454</v>
+        <v>28.9162</v>
       </c>
     </row>
     <row r="4">
@@ -6419,16 +6419,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>24.4975</v>
+        <v>23.4099</v>
       </c>
       <c r="C4" t="n">
-        <v>29.9124</v>
+        <v>25.4255</v>
       </c>
       <c r="D4" t="n">
-        <v>47.8567</v>
+        <v>34.3449</v>
       </c>
       <c r="E4" t="n">
-        <v>55.9103</v>
+        <v>41.2478</v>
       </c>
     </row>
     <row r="5">
@@ -6436,16 +6436,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>24.4495</v>
+        <v>23.0562</v>
       </c>
       <c r="C5" t="n">
-        <v>29.6541</v>
+        <v>25.2666</v>
       </c>
       <c r="D5" t="n">
-        <v>46.4764</v>
+        <v>36.8516</v>
       </c>
       <c r="E5" t="n">
-        <v>59.9127</v>
+        <v>46.8406</v>
       </c>
     </row>
     <row r="6">
@@ -6453,16 +6453,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>28.2256</v>
+        <v>26.357</v>
       </c>
       <c r="C6" t="n">
-        <v>32.5731</v>
+        <v>28.4436</v>
       </c>
       <c r="D6" t="n">
-        <v>54.0891</v>
+        <v>42.7412</v>
       </c>
       <c r="E6" t="n">
-        <v>69.286</v>
+        <v>56.2947</v>
       </c>
     </row>
     <row r="7">
@@ -6470,16 +6470,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>34.3733</v>
+        <v>31.8779</v>
       </c>
       <c r="C7" t="n">
-        <v>37.4078</v>
+        <v>33.0812</v>
       </c>
       <c r="D7" t="n">
-        <v>62.1626</v>
+        <v>50.85</v>
       </c>
       <c r="E7" t="n">
-        <v>79.2778</v>
+        <v>64.36</v>
       </c>
     </row>
     <row r="8">
@@ -6487,16 +6487,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>31.0774</v>
+        <v>29.4331</v>
       </c>
       <c r="C8" t="n">
-        <v>36.4674</v>
+        <v>31.9393</v>
       </c>
       <c r="D8" t="n">
-        <v>58.6218</v>
+        <v>46.7668</v>
       </c>
       <c r="E8" t="n">
-        <v>76.79940000000001</v>
+        <v>60.3323</v>
       </c>
     </row>
     <row r="9">
@@ -6504,16 +6504,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>31.8634</v>
+        <v>29.7228</v>
       </c>
       <c r="C9" t="n">
-        <v>36.3286</v>
+        <v>31.7116</v>
       </c>
       <c r="D9" t="n">
-        <v>60.1451</v>
+        <v>47.5464</v>
       </c>
       <c r="E9" t="n">
-        <v>79.1083</v>
+        <v>61.54</v>
       </c>
     </row>
     <row r="10">
@@ -6521,16 +6521,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>32.2003</v>
+        <v>30.6091</v>
       </c>
       <c r="C10" t="n">
-        <v>36.9115</v>
+        <v>32.1623</v>
       </c>
       <c r="D10" t="n">
-        <v>59.6824</v>
+        <v>47.2281</v>
       </c>
       <c r="E10" t="n">
-        <v>79.62</v>
+        <v>60.0768</v>
       </c>
     </row>
     <row r="11">
@@ -6538,16 +6538,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>32.9201</v>
+        <v>30.3133</v>
       </c>
       <c r="C11" t="n">
-        <v>36.5166</v>
+        <v>32.5635</v>
       </c>
       <c r="D11" t="n">
-        <v>60.6083</v>
+        <v>47.327</v>
       </c>
       <c r="E11" t="n">
-        <v>80.6015</v>
+        <v>62.7931</v>
       </c>
     </row>
     <row r="12">
@@ -6555,16 +6555,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>32.4338</v>
+        <v>30.4888</v>
       </c>
       <c r="C12" t="n">
-        <v>36.7351</v>
+        <v>32.1677</v>
       </c>
       <c r="D12" t="n">
-        <v>61.3122</v>
+        <v>46.9117</v>
       </c>
       <c r="E12" t="n">
-        <v>80.3639</v>
+        <v>61.9323</v>
       </c>
     </row>
     <row r="13">
@@ -6572,16 +6572,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>33.0005</v>
+        <v>30.5596</v>
       </c>
       <c r="C13" t="n">
-        <v>36.9404</v>
+        <v>32.2744</v>
       </c>
       <c r="D13" t="n">
-        <v>62.382</v>
+        <v>47.7334</v>
       </c>
       <c r="E13" t="n">
-        <v>81.01609999999999</v>
+        <v>62.0891</v>
       </c>
     </row>
     <row r="14">
@@ -6589,16 +6589,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>32.6301</v>
+        <v>30.4424</v>
       </c>
       <c r="C14" t="n">
-        <v>36.8024</v>
+        <v>32.1537</v>
       </c>
       <c r="D14" t="n">
-        <v>61.8953</v>
+        <v>48.6386</v>
       </c>
       <c r="E14" t="n">
-        <v>80.2826</v>
+        <v>62.7418</v>
       </c>
     </row>
     <row r="15">
@@ -6606,16 +6606,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>33.0886</v>
+        <v>30.5785</v>
       </c>
       <c r="C15" t="n">
-        <v>36.9063</v>
+        <v>32.78</v>
       </c>
       <c r="D15" t="n">
-        <v>61.8366</v>
+        <v>48.6318</v>
       </c>
       <c r="E15" t="n">
-        <v>79.1139</v>
+        <v>64.0638</v>
       </c>
     </row>
     <row r="16">
@@ -6623,16 +6623,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>32.7895</v>
+        <v>30.4479</v>
       </c>
       <c r="C16" t="n">
-        <v>36.8232</v>
+        <v>32.2619</v>
       </c>
       <c r="D16" t="n">
-        <v>60.9882</v>
+        <v>48.9757</v>
       </c>
       <c r="E16" t="n">
-        <v>79.2668</v>
+        <v>63.0233</v>
       </c>
     </row>
     <row r="17">
@@ -6640,16 +6640,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>32.6306</v>
+        <v>30.434</v>
       </c>
       <c r="C17" t="n">
-        <v>36.8827</v>
+        <v>32.107</v>
       </c>
       <c r="D17" t="n">
-        <v>61.7387</v>
+        <v>48.9111</v>
       </c>
       <c r="E17" t="n">
-        <v>80.2306</v>
+        <v>63.8357</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Parallel workload.xlsx
+++ b/vs-x86/Parallel workload.xlsx
@@ -4762,7 +4762,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E17"/>
+  <dimension ref="B1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
       <selection activeCell="I24" sqref="I24"/>
@@ -4795,278 +4795,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>9.34953</v>
-      </c>
-      <c r="C2" t="n">
-        <v>10.8391</v>
-      </c>
-      <c r="D2" t="n">
-        <v>13.156</v>
-      </c>
-      <c r="E2" t="n">
-        <v>15.0995</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="n">
-        <v>17.3678</v>
-      </c>
-      <c r="C3" t="n">
-        <v>16.4512</v>
-      </c>
-      <c r="D3" t="n">
-        <v>21.5529</v>
-      </c>
-      <c r="E3" t="n">
-        <v>23.9675</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="n">
-        <v>23.1622</v>
-      </c>
-      <c r="C4" t="n">
-        <v>21.4238</v>
-      </c>
-      <c r="D4" t="n">
-        <v>26.999</v>
-      </c>
-      <c r="E4" t="n">
-        <v>31.9609</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="n">
-        <v>19.0157</v>
-      </c>
-      <c r="C5" t="n">
-        <v>23.7803</v>
-      </c>
-      <c r="D5" t="n">
-        <v>31.1148</v>
-      </c>
-      <c r="E5" t="n">
-        <v>34.8032</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="n">
-        <v>22.589</v>
-      </c>
-      <c r="C6" t="n">
-        <v>27.6083</v>
-      </c>
-      <c r="D6" t="n">
-        <v>32.0092</v>
-      </c>
-      <c r="E6" t="n">
-        <v>39.3988</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" t="n">
-        <v>26.4649</v>
-      </c>
-      <c r="C7" t="n">
-        <v>32.6526</v>
-      </c>
-      <c r="D7" t="n">
-        <v>37.2691</v>
-      </c>
-      <c r="E7" t="n">
-        <v>39.6371</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" t="n">
-        <v>20.1709</v>
-      </c>
-      <c r="C8" t="n">
-        <v>30.1256</v>
-      </c>
-      <c r="D8" t="n">
-        <v>34.8663</v>
-      </c>
-      <c r="E8" t="n">
-        <v>39.6922</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" t="n">
-        <v>22.4233</v>
-      </c>
-      <c r="C9" t="n">
-        <v>30.688</v>
-      </c>
-      <c r="D9" t="n">
-        <v>37.4306</v>
-      </c>
-      <c r="E9" t="n">
-        <v>44.3162</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" t="n">
-        <v>24.7735</v>
-      </c>
-      <c r="C10" t="n">
-        <v>30.6563</v>
-      </c>
-      <c r="D10" t="n">
-        <v>40.0676</v>
-      </c>
-      <c r="E10" t="n">
-        <v>50.8924</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" t="n">
-        <v>22.464</v>
-      </c>
-      <c r="C11" t="n">
-        <v>30.5839</v>
-      </c>
-      <c r="D11" t="n">
-        <v>42.5247</v>
-      </c>
-      <c r="E11" t="n">
-        <v>50.7239</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>11</v>
-      </c>
-      <c r="B12" t="n">
-        <v>24.2925</v>
-      </c>
-      <c r="C12" t="n">
-        <v>31.2273</v>
-      </c>
-      <c r="D12" t="n">
-        <v>44.6435</v>
-      </c>
-      <c r="E12" t="n">
-        <v>51.9758</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>12</v>
-      </c>
-      <c r="B13" t="n">
-        <v>26.4924</v>
-      </c>
-      <c r="C13" t="n">
-        <v>31.7063</v>
-      </c>
-      <c r="D13" t="n">
-        <v>43.8606</v>
-      </c>
-      <c r="E13" t="n">
-        <v>53.2188</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>13</v>
-      </c>
-      <c r="B14" t="n">
-        <v>22.3294</v>
-      </c>
-      <c r="C14" t="n">
-        <v>30.6773</v>
-      </c>
-      <c r="D14" t="n">
-        <v>43.6981</v>
-      </c>
-      <c r="E14" t="n">
-        <v>52.8694</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>14</v>
-      </c>
-      <c r="B15" t="n">
-        <v>23.8318</v>
-      </c>
-      <c r="C15" t="n">
-        <v>30.5527</v>
-      </c>
-      <c r="D15" t="n">
-        <v>44.1403</v>
-      </c>
-      <c r="E15" t="n">
-        <v>54.2912</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>15</v>
-      </c>
-      <c r="B16" t="n">
-        <v>24.9351</v>
-      </c>
-      <c r="C16" t="n">
-        <v>30.7364</v>
-      </c>
-      <c r="D16" t="n">
-        <v>44.5934</v>
-      </c>
-      <c r="E16" t="n">
-        <v>54.3332</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>16</v>
-      </c>
-      <c r="B17" t="n">
-        <v>23.9571</v>
-      </c>
-      <c r="C17" t="n">
-        <v>30.8845</v>
-      </c>
-      <c r="D17" t="n">
-        <v>44.6222</v>
-      </c>
-      <c r="E17" t="n">
-        <v>52.9461</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <drawing r:id="rId1"/>
@@ -5079,7 +4807,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E17"/>
+  <dimension ref="B1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
       <selection activeCell="I24" sqref="I24"/>
@@ -5112,278 +4840,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>9.337389999999999</v>
-      </c>
-      <c r="C2" t="n">
-        <v>10.8012</v>
-      </c>
-      <c r="D2" t="n">
-        <v>13.0512</v>
-      </c>
-      <c r="E2" t="n">
-        <v>14.9702</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="n">
-        <v>17.4172</v>
-      </c>
-      <c r="C3" t="n">
-        <v>16.7751</v>
-      </c>
-      <c r="D3" t="n">
-        <v>21.3602</v>
-      </c>
-      <c r="E3" t="n">
-        <v>24.1143</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="n">
-        <v>24.0624</v>
-      </c>
-      <c r="C4" t="n">
-        <v>22.4205</v>
-      </c>
-      <c r="D4" t="n">
-        <v>25.7823</v>
-      </c>
-      <c r="E4" t="n">
-        <v>30.2231</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="n">
-        <v>18.8984</v>
-      </c>
-      <c r="C5" t="n">
-        <v>23.9158</v>
-      </c>
-      <c r="D5" t="n">
-        <v>28.1356</v>
-      </c>
-      <c r="E5" t="n">
-        <v>35.1442</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="n">
-        <v>22.9314</v>
-      </c>
-      <c r="C6" t="n">
-        <v>27.8365</v>
-      </c>
-      <c r="D6" t="n">
-        <v>35.0744</v>
-      </c>
-      <c r="E6" t="n">
-        <v>39.196</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" t="n">
-        <v>27.0893</v>
-      </c>
-      <c r="C7" t="n">
-        <v>32.5544</v>
-      </c>
-      <c r="D7" t="n">
-        <v>35.2851</v>
-      </c>
-      <c r="E7" t="n">
-        <v>44.8685</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" t="n">
-        <v>20.0209</v>
-      </c>
-      <c r="C8" t="n">
-        <v>29.3613</v>
-      </c>
-      <c r="D8" t="n">
-        <v>34.0117</v>
-      </c>
-      <c r="E8" t="n">
-        <v>40.4371</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" t="n">
-        <v>22.7672</v>
-      </c>
-      <c r="C9" t="n">
-        <v>29.6565</v>
-      </c>
-      <c r="D9" t="n">
-        <v>35.9433</v>
-      </c>
-      <c r="E9" t="n">
-        <v>46.1263</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" t="n">
-        <v>24.7803</v>
-      </c>
-      <c r="C10" t="n">
-        <v>30.3929</v>
-      </c>
-      <c r="D10" t="n">
-        <v>38.3641</v>
-      </c>
-      <c r="E10" t="n">
-        <v>50.1125</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" t="n">
-        <v>23.0637</v>
-      </c>
-      <c r="C11" t="n">
-        <v>30.45</v>
-      </c>
-      <c r="D11" t="n">
-        <v>39.3608</v>
-      </c>
-      <c r="E11" t="n">
-        <v>52.7341</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>11</v>
-      </c>
-      <c r="B12" t="n">
-        <v>24.9587</v>
-      </c>
-      <c r="C12" t="n">
-        <v>30.5396</v>
-      </c>
-      <c r="D12" t="n">
-        <v>42.2874</v>
-      </c>
-      <c r="E12" t="n">
-        <v>52.7751</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>12</v>
-      </c>
-      <c r="B13" t="n">
-        <v>27.0535</v>
-      </c>
-      <c r="C13" t="n">
-        <v>31.4656</v>
-      </c>
-      <c r="D13" t="n">
-        <v>43.6683</v>
-      </c>
-      <c r="E13" t="n">
-        <v>52.9471</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>13</v>
-      </c>
-      <c r="B14" t="n">
-        <v>22.2402</v>
-      </c>
-      <c r="C14" t="n">
-        <v>31.174</v>
-      </c>
-      <c r="D14" t="n">
-        <v>42.3264</v>
-      </c>
-      <c r="E14" t="n">
-        <v>53.0281</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>14</v>
-      </c>
-      <c r="B15" t="n">
-        <v>24.2973</v>
-      </c>
-      <c r="C15" t="n">
-        <v>31.2629</v>
-      </c>
-      <c r="D15" t="n">
-        <v>44.4616</v>
-      </c>
-      <c r="E15" t="n">
-        <v>53.6469</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>15</v>
-      </c>
-      <c r="B16" t="n">
-        <v>25.4304</v>
-      </c>
-      <c r="C16" t="n">
-        <v>31.1069</v>
-      </c>
-      <c r="D16" t="n">
-        <v>44.5706</v>
-      </c>
-      <c r="E16" t="n">
-        <v>54.92</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>16</v>
-      </c>
-      <c r="B17" t="n">
-        <v>24.2849</v>
-      </c>
-      <c r="C17" t="n">
-        <v>31.5596</v>
-      </c>
-      <c r="D17" t="n">
-        <v>44.714</v>
-      </c>
-      <c r="E17" t="n">
-        <v>53.3211</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <drawing r:id="rId1"/>
@@ -5396,7 +4852,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E17"/>
+  <dimension ref="B1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
       <selection activeCell="I24" sqref="I24"/>
@@ -5429,278 +4885,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>10.9459</v>
-      </c>
-      <c r="C2" t="n">
-        <v>11.6336</v>
-      </c>
-      <c r="D2" t="n">
-        <v>13.846</v>
-      </c>
-      <c r="E2" t="n">
-        <v>15.4905</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="n">
-        <v>19.5297</v>
-      </c>
-      <c r="C3" t="n">
-        <v>19.3319</v>
-      </c>
-      <c r="D3" t="n">
-        <v>22.7845</v>
-      </c>
-      <c r="E3" t="n">
-        <v>25.9423</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="n">
-        <v>26.9705</v>
-      </c>
-      <c r="C4" t="n">
-        <v>25.0272</v>
-      </c>
-      <c r="D4" t="n">
-        <v>31.2623</v>
-      </c>
-      <c r="E4" t="n">
-        <v>34.7048</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="n">
-        <v>23.2217</v>
-      </c>
-      <c r="C5" t="n">
-        <v>24.7101</v>
-      </c>
-      <c r="D5" t="n">
-        <v>30.4848</v>
-      </c>
-      <c r="E5" t="n">
-        <v>35.1538</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="n">
-        <v>28.0642</v>
-      </c>
-      <c r="C6" t="n">
-        <v>28.809</v>
-      </c>
-      <c r="D6" t="n">
-        <v>33.7545</v>
-      </c>
-      <c r="E6" t="n">
-        <v>37.2014</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" t="n">
-        <v>33.1833</v>
-      </c>
-      <c r="C7" t="n">
-        <v>33.615</v>
-      </c>
-      <c r="D7" t="n">
-        <v>35.0576</v>
-      </c>
-      <c r="E7" t="n">
-        <v>44.9472</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" t="n">
-        <v>29.7625</v>
-      </c>
-      <c r="C8" t="n">
-        <v>29.3266</v>
-      </c>
-      <c r="D8" t="n">
-        <v>36.1173</v>
-      </c>
-      <c r="E8" t="n">
-        <v>45.467</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" t="n">
-        <v>29.4215</v>
-      </c>
-      <c r="C9" t="n">
-        <v>29.4943</v>
-      </c>
-      <c r="D9" t="n">
-        <v>39.1096</v>
-      </c>
-      <c r="E9" t="n">
-        <v>47.3076</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" t="n">
-        <v>29.9134</v>
-      </c>
-      <c r="C10" t="n">
-        <v>30.2256</v>
-      </c>
-      <c r="D10" t="n">
-        <v>41.9878</v>
-      </c>
-      <c r="E10" t="n">
-        <v>51.5984</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" t="n">
-        <v>30.853</v>
-      </c>
-      <c r="C11" t="n">
-        <v>30.6449</v>
-      </c>
-      <c r="D11" t="n">
-        <v>44.7496</v>
-      </c>
-      <c r="E11" t="n">
-        <v>53.4531</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>11</v>
-      </c>
-      <c r="B12" t="n">
-        <v>30.7497</v>
-      </c>
-      <c r="C12" t="n">
-        <v>30.7301</v>
-      </c>
-      <c r="D12" t="n">
-        <v>44.6979</v>
-      </c>
-      <c r="E12" t="n">
-        <v>52.1873</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>12</v>
-      </c>
-      <c r="B13" t="n">
-        <v>31.2485</v>
-      </c>
-      <c r="C13" t="n">
-        <v>31.2054</v>
-      </c>
-      <c r="D13" t="n">
-        <v>44.8674</v>
-      </c>
-      <c r="E13" t="n">
-        <v>52.4514</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>13</v>
-      </c>
-      <c r="B14" t="n">
-        <v>31.2507</v>
-      </c>
-      <c r="C14" t="n">
-        <v>31.3035</v>
-      </c>
-      <c r="D14" t="n">
-        <v>44.3073</v>
-      </c>
-      <c r="E14" t="n">
-        <v>52.8005</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>14</v>
-      </c>
-      <c r="B15" t="n">
-        <v>30.9761</v>
-      </c>
-      <c r="C15" t="n">
-        <v>31.2463</v>
-      </c>
-      <c r="D15" t="n">
-        <v>44.9198</v>
-      </c>
-      <c r="E15" t="n">
-        <v>52.6157</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>15</v>
-      </c>
-      <c r="B16" t="n">
-        <v>31.4857</v>
-      </c>
-      <c r="C16" t="n">
-        <v>31.0522</v>
-      </c>
-      <c r="D16" t="n">
-        <v>44.4065</v>
-      </c>
-      <c r="E16" t="n">
-        <v>52.4503</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>16</v>
-      </c>
-      <c r="B17" t="n">
-        <v>31.3684</v>
-      </c>
-      <c r="C17" t="n">
-        <v>31.3977</v>
-      </c>
-      <c r="D17" t="n">
-        <v>44.5341</v>
-      </c>
-      <c r="E17" t="n">
-        <v>53.1165</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <drawing r:id="rId1"/>
@@ -5713,7 +4897,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E17"/>
+  <dimension ref="B1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
       <selection activeCell="I24" sqref="I24"/>
@@ -5746,278 +4930,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>4.89494</v>
-      </c>
-      <c r="C2" t="n">
-        <v>8.987209999999999</v>
-      </c>
-      <c r="D2" t="n">
-        <v>10.8159</v>
-      </c>
-      <c r="E2" t="n">
-        <v>13.9527</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="n">
-        <v>9.561540000000001</v>
-      </c>
-      <c r="C3" t="n">
-        <v>15.5981</v>
-      </c>
-      <c r="D3" t="n">
-        <v>20.677</v>
-      </c>
-      <c r="E3" t="n">
-        <v>26.6652</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="n">
-        <v>13.8643</v>
-      </c>
-      <c r="C4" t="n">
-        <v>22.0338</v>
-      </c>
-      <c r="D4" t="n">
-        <v>29.7371</v>
-      </c>
-      <c r="E4" t="n">
-        <v>37.9585</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="n">
-        <v>15.7039</v>
-      </c>
-      <c r="C5" t="n">
-        <v>23.1921</v>
-      </c>
-      <c r="D5" t="n">
-        <v>34.2933</v>
-      </c>
-      <c r="E5" t="n">
-        <v>44.3881</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="n">
-        <v>18.8074</v>
-      </c>
-      <c r="C6" t="n">
-        <v>26.3121</v>
-      </c>
-      <c r="D6" t="n">
-        <v>41.1657</v>
-      </c>
-      <c r="E6" t="n">
-        <v>52.369</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" t="n">
-        <v>22.0772</v>
-      </c>
-      <c r="C7" t="n">
-        <v>31.25</v>
-      </c>
-      <c r="D7" t="n">
-        <v>47.9772</v>
-      </c>
-      <c r="E7" t="n">
-        <v>62.1458</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" t="n">
-        <v>19.8604</v>
-      </c>
-      <c r="C8" t="n">
-        <v>30.0355</v>
-      </c>
-      <c r="D8" t="n">
-        <v>42.6881</v>
-      </c>
-      <c r="E8" t="n">
-        <v>53.9509</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" t="n">
-        <v>20.6714</v>
-      </c>
-      <c r="C9" t="n">
-        <v>30.09</v>
-      </c>
-      <c r="D9" t="n">
-        <v>44.0266</v>
-      </c>
-      <c r="E9" t="n">
-        <v>55.1616</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" t="n">
-        <v>20.7548</v>
-      </c>
-      <c r="C10" t="n">
-        <v>29.7143</v>
-      </c>
-      <c r="D10" t="n">
-        <v>43.6115</v>
-      </c>
-      <c r="E10" t="n">
-        <v>56.9111</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" t="n">
-        <v>21.1708</v>
-      </c>
-      <c r="C11" t="n">
-        <v>30.1903</v>
-      </c>
-      <c r="D11" t="n">
-        <v>42.7925</v>
-      </c>
-      <c r="E11" t="n">
-        <v>54.8717</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>11</v>
-      </c>
-      <c r="B12" t="n">
-        <v>20.9013</v>
-      </c>
-      <c r="C12" t="n">
-        <v>29.9154</v>
-      </c>
-      <c r="D12" t="n">
-        <v>44.94</v>
-      </c>
-      <c r="E12" t="n">
-        <v>55.8454</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>12</v>
-      </c>
-      <c r="B13" t="n">
-        <v>20.923</v>
-      </c>
-      <c r="C13" t="n">
-        <v>30.5042</v>
-      </c>
-      <c r="D13" t="n">
-        <v>44.1071</v>
-      </c>
-      <c r="E13" t="n">
-        <v>58.7626</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>13</v>
-      </c>
-      <c r="B14" t="n">
-        <v>21.0125</v>
-      </c>
-      <c r="C14" t="n">
-        <v>30.566</v>
-      </c>
-      <c r="D14" t="n">
-        <v>44.2621</v>
-      </c>
-      <c r="E14" t="n">
-        <v>58.1527</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>14</v>
-      </c>
-      <c r="B15" t="n">
-        <v>20.9089</v>
-      </c>
-      <c r="C15" t="n">
-        <v>30.487</v>
-      </c>
-      <c r="D15" t="n">
-        <v>44.7656</v>
-      </c>
-      <c r="E15" t="n">
-        <v>59.6006</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>15</v>
-      </c>
-      <c r="B16" t="n">
-        <v>21.1737</v>
-      </c>
-      <c r="C16" t="n">
-        <v>30.6171</v>
-      </c>
-      <c r="D16" t="n">
-        <v>46.5876</v>
-      </c>
-      <c r="E16" t="n">
-        <v>60.3415</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>16</v>
-      </c>
-      <c r="B17" t="n">
-        <v>20.8028</v>
-      </c>
-      <c r="C17" t="n">
-        <v>30.5473</v>
-      </c>
-      <c r="D17" t="n">
-        <v>45.0709</v>
-      </c>
-      <c r="E17" t="n">
-        <v>60.0524</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <drawing r:id="rId1"/>
@@ -6030,7 +4942,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E17"/>
+  <dimension ref="B1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
       <selection activeCell="I24" sqref="I24"/>
@@ -6061,278 +4973,6 @@
         <is>
           <t>boost::concurrent_flat_map bulk</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>5.00371</v>
-      </c>
-      <c r="C2" t="n">
-        <v>9.0078</v>
-      </c>
-      <c r="D2" t="n">
-        <v>10.8657</v>
-      </c>
-      <c r="E2" t="n">
-        <v>14.0418</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="n">
-        <v>9.744289999999999</v>
-      </c>
-      <c r="C3" t="n">
-        <v>15.5987</v>
-      </c>
-      <c r="D3" t="n">
-        <v>20.6543</v>
-      </c>
-      <c r="E3" t="n">
-        <v>26.5172</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="n">
-        <v>14.1409</v>
-      </c>
-      <c r="C4" t="n">
-        <v>21.9363</v>
-      </c>
-      <c r="D4" t="n">
-        <v>29.5108</v>
-      </c>
-      <c r="E4" t="n">
-        <v>38.2014</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="n">
-        <v>15.9947</v>
-      </c>
-      <c r="C5" t="n">
-        <v>22.8674</v>
-      </c>
-      <c r="D5" t="n">
-        <v>33.9901</v>
-      </c>
-      <c r="E5" t="n">
-        <v>43.5839</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="n">
-        <v>19.2277</v>
-      </c>
-      <c r="C6" t="n">
-        <v>26.4461</v>
-      </c>
-      <c r="D6" t="n">
-        <v>40.031</v>
-      </c>
-      <c r="E6" t="n">
-        <v>51.9231</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" t="n">
-        <v>22.7174</v>
-      </c>
-      <c r="C7" t="n">
-        <v>31.3395</v>
-      </c>
-      <c r="D7" t="n">
-        <v>47.4855</v>
-      </c>
-      <c r="E7" t="n">
-        <v>60.8532</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" t="n">
-        <v>20.4274</v>
-      </c>
-      <c r="C8" t="n">
-        <v>30.4092</v>
-      </c>
-      <c r="D8" t="n">
-        <v>42.2094</v>
-      </c>
-      <c r="E8" t="n">
-        <v>53.9419</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" t="n">
-        <v>20.9897</v>
-      </c>
-      <c r="C9" t="n">
-        <v>30.5984</v>
-      </c>
-      <c r="D9" t="n">
-        <v>41.7061</v>
-      </c>
-      <c r="E9" t="n">
-        <v>55.9888</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" t="n">
-        <v>21.676</v>
-      </c>
-      <c r="C10" t="n">
-        <v>30.0501</v>
-      </c>
-      <c r="D10" t="n">
-        <v>43.7108</v>
-      </c>
-      <c r="E10" t="n">
-        <v>55.6254</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" t="n">
-        <v>21.5392</v>
-      </c>
-      <c r="C11" t="n">
-        <v>30.3417</v>
-      </c>
-      <c r="D11" t="n">
-        <v>44.2138</v>
-      </c>
-      <c r="E11" t="n">
-        <v>56.8699</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>11</v>
-      </c>
-      <c r="B12" t="n">
-        <v>21.7985</v>
-      </c>
-      <c r="C12" t="n">
-        <v>30.035</v>
-      </c>
-      <c r="D12" t="n">
-        <v>44.437</v>
-      </c>
-      <c r="E12" t="n">
-        <v>57.2138</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>12</v>
-      </c>
-      <c r="B13" t="n">
-        <v>21.5422</v>
-      </c>
-      <c r="C13" t="n">
-        <v>30.4316</v>
-      </c>
-      <c r="D13" t="n">
-        <v>43.8066</v>
-      </c>
-      <c r="E13" t="n">
-        <v>57.116</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>13</v>
-      </c>
-      <c r="B14" t="n">
-        <v>21.3781</v>
-      </c>
-      <c r="C14" t="n">
-        <v>30.6516</v>
-      </c>
-      <c r="D14" t="n">
-        <v>45.0629</v>
-      </c>
-      <c r="E14" t="n">
-        <v>58.2051</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>14</v>
-      </c>
-      <c r="B15" t="n">
-        <v>21.6694</v>
-      </c>
-      <c r="C15" t="n">
-        <v>30.4046</v>
-      </c>
-      <c r="D15" t="n">
-        <v>44.8907</v>
-      </c>
-      <c r="E15" t="n">
-        <v>58.8703</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>15</v>
-      </c>
-      <c r="B16" t="n">
-        <v>21.5012</v>
-      </c>
-      <c r="C16" t="n">
-        <v>30.5833</v>
-      </c>
-      <c r="D16" t="n">
-        <v>45.9584</v>
-      </c>
-      <c r="E16" t="n">
-        <v>58.8924</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>16</v>
-      </c>
-      <c r="B17" t="n">
-        <v>21.9503</v>
-      </c>
-      <c r="C17" t="n">
-        <v>30.8203</v>
-      </c>
-      <c r="D17" t="n">
-        <v>44.9205</v>
-      </c>
-      <c r="E17" t="n">
-        <v>59.1285</v>
       </c>
     </row>
   </sheetData>
@@ -6380,278 +5020,22 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>8.73897</v>
-      </c>
-      <c r="C2" t="n">
-        <v>10.9297</v>
-      </c>
-      <c r="D2" t="n">
-        <v>13.1636</v>
-      </c>
-      <c r="E2" t="n">
-        <v>15.3912</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="n">
-        <v>16.4866</v>
-      </c>
-      <c r="C3" t="n">
-        <v>18.3877</v>
-      </c>
-      <c r="D3" t="n">
-        <v>24.2805</v>
-      </c>
-      <c r="E3" t="n">
-        <v>28.9162</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="n">
-        <v>23.4099</v>
-      </c>
-      <c r="C4" t="n">
-        <v>25.4255</v>
-      </c>
-      <c r="D4" t="n">
-        <v>34.3449</v>
-      </c>
-      <c r="E4" t="n">
-        <v>41.2478</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="n">
-        <v>23.0562</v>
-      </c>
-      <c r="C5" t="n">
-        <v>25.2666</v>
-      </c>
-      <c r="D5" t="n">
-        <v>36.8516</v>
-      </c>
-      <c r="E5" t="n">
-        <v>46.8406</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="n">
-        <v>26.357</v>
-      </c>
-      <c r="C6" t="n">
-        <v>28.4436</v>
-      </c>
-      <c r="D6" t="n">
-        <v>42.7412</v>
-      </c>
-      <c r="E6" t="n">
-        <v>56.2947</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" t="n">
-        <v>31.8779</v>
-      </c>
-      <c r="C7" t="n">
-        <v>33.0812</v>
-      </c>
-      <c r="D7" t="n">
-        <v>50.85</v>
-      </c>
-      <c r="E7" t="n">
-        <v>64.36</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" t="n">
-        <v>29.4331</v>
-      </c>
-      <c r="C8" t="n">
-        <v>31.9393</v>
-      </c>
-      <c r="D8" t="n">
-        <v>46.7668</v>
-      </c>
-      <c r="E8" t="n">
-        <v>60.3323</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" t="n">
-        <v>29.7228</v>
-      </c>
-      <c r="C9" t="n">
-        <v>31.7116</v>
-      </c>
-      <c r="D9" t="n">
-        <v>47.5464</v>
-      </c>
-      <c r="E9" t="n">
-        <v>61.54</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" t="n">
-        <v>30.6091</v>
-      </c>
-      <c r="C10" t="n">
-        <v>32.1623</v>
-      </c>
-      <c r="D10" t="n">
-        <v>47.2281</v>
-      </c>
-      <c r="E10" t="n">
-        <v>60.0768</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" t="n">
-        <v>30.3133</v>
-      </c>
-      <c r="C11" t="n">
-        <v>32.5635</v>
-      </c>
-      <c r="D11" t="n">
-        <v>47.327</v>
-      </c>
-      <c r="E11" t="n">
-        <v>62.7931</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>11</v>
-      </c>
-      <c r="B12" t="n">
-        <v>30.4888</v>
-      </c>
-      <c r="C12" t="n">
-        <v>32.1677</v>
-      </c>
-      <c r="D12" t="n">
-        <v>46.9117</v>
-      </c>
-      <c r="E12" t="n">
-        <v>61.9323</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>12</v>
-      </c>
-      <c r="B13" t="n">
-        <v>30.5596</v>
-      </c>
-      <c r="C13" t="n">
-        <v>32.2744</v>
-      </c>
-      <c r="D13" t="n">
-        <v>47.7334</v>
-      </c>
-      <c r="E13" t="n">
-        <v>62.0891</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>13</v>
-      </c>
-      <c r="B14" t="n">
-        <v>30.4424</v>
-      </c>
-      <c r="C14" t="n">
-        <v>32.1537</v>
-      </c>
-      <c r="D14" t="n">
-        <v>48.6386</v>
-      </c>
-      <c r="E14" t="n">
-        <v>62.7418</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>14</v>
-      </c>
-      <c r="B15" t="n">
-        <v>30.5785</v>
-      </c>
-      <c r="C15" t="n">
-        <v>32.78</v>
-      </c>
-      <c r="D15" t="n">
-        <v>48.6318</v>
-      </c>
-      <c r="E15" t="n">
-        <v>64.0638</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>15</v>
-      </c>
-      <c r="B16" t="n">
-        <v>30.4479</v>
-      </c>
-      <c r="C16" t="n">
-        <v>32.2619</v>
-      </c>
-      <c r="D16" t="n">
-        <v>48.9757</v>
-      </c>
-      <c r="E16" t="n">
-        <v>63.0233</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>16</v>
-      </c>
-      <c r="B17" t="n">
-        <v>30.434</v>
-      </c>
-      <c r="C17" t="n">
-        <v>32.107</v>
-      </c>
-      <c r="D17" t="n">
-        <v>48.9111</v>
-      </c>
-      <c r="E17" t="n">
-        <v>63.8357</v>
-      </c>
-    </row>
+    <row r="2"/>
+    <row r="3"/>
+    <row r="4"/>
+    <row r="5"/>
+    <row r="6"/>
+    <row r="7"/>
+    <row r="8"/>
+    <row r="9"/>
+    <row r="10"/>
+    <row r="11"/>
+    <row r="12"/>
+    <row r="13"/>
+    <row r="14"/>
+    <row r="15"/>
+    <row r="16"/>
+    <row r="17"/>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <drawing r:id="rId1"/>

--- a/vs-x86/Parallel workload.xlsx
+++ b/vs-x86/Parallel workload.xlsx
@@ -4762,7 +4762,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:E1"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
       <selection activeCell="I24" sqref="I24"/>
@@ -4795,6 +4795,278 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>9.31147</v>
+      </c>
+      <c r="C2" t="n">
+        <v>10.8082</v>
+      </c>
+      <c r="D2" t="n">
+        <v>13.1043</v>
+      </c>
+      <c r="E2" t="n">
+        <v>15.0561</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>17.1107</v>
+      </c>
+      <c r="C3" t="n">
+        <v>16.9352</v>
+      </c>
+      <c r="D3" t="n">
+        <v>21.6317</v>
+      </c>
+      <c r="E3" t="n">
+        <v>24.0089</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>23.3607</v>
+      </c>
+      <c r="C4" t="n">
+        <v>21.0397</v>
+      </c>
+      <c r="D4" t="n">
+        <v>27.4983</v>
+      </c>
+      <c r="E4" t="n">
+        <v>32.7281</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>19.6338</v>
+      </c>
+      <c r="C5" t="n">
+        <v>23.4032</v>
+      </c>
+      <c r="D5" t="n">
+        <v>30.3445</v>
+      </c>
+      <c r="E5" t="n">
+        <v>34.3508</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>22.5639</v>
+      </c>
+      <c r="C6" t="n">
+        <v>27.7733</v>
+      </c>
+      <c r="D6" t="n">
+        <v>33.4629</v>
+      </c>
+      <c r="E6" t="n">
+        <v>39.6882</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>26.4549</v>
+      </c>
+      <c r="C7" t="n">
+        <v>32.5999</v>
+      </c>
+      <c r="D7" t="n">
+        <v>35.5488</v>
+      </c>
+      <c r="E7" t="n">
+        <v>39.4796</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>20.0042</v>
+      </c>
+      <c r="C8" t="n">
+        <v>30.3405</v>
+      </c>
+      <c r="D8" t="n">
+        <v>37.8271</v>
+      </c>
+      <c r="E8" t="n">
+        <v>40.0259</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>22.2181</v>
+      </c>
+      <c r="C9" t="n">
+        <v>30.0982</v>
+      </c>
+      <c r="D9" t="n">
+        <v>39.6479</v>
+      </c>
+      <c r="E9" t="n">
+        <v>45.0861</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>24.6312</v>
+      </c>
+      <c r="C10" t="n">
+        <v>30.22</v>
+      </c>
+      <c r="D10" t="n">
+        <v>40.984</v>
+      </c>
+      <c r="E10" t="n">
+        <v>51.7739</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>22.3029</v>
+      </c>
+      <c r="C11" t="n">
+        <v>30.5642</v>
+      </c>
+      <c r="D11" t="n">
+        <v>45.0092</v>
+      </c>
+      <c r="E11" t="n">
+        <v>49.4556</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
+        <v>24.4169</v>
+      </c>
+      <c r="C12" t="n">
+        <v>31.011</v>
+      </c>
+      <c r="D12" t="n">
+        <v>43.4044</v>
+      </c>
+      <c r="E12" t="n">
+        <v>51.2834</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
+        <v>26.4198</v>
+      </c>
+      <c r="C13" t="n">
+        <v>31.7496</v>
+      </c>
+      <c r="D13" t="n">
+        <v>44.7189</v>
+      </c>
+      <c r="E13" t="n">
+        <v>53.5349</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
+        <v>22.2568</v>
+      </c>
+      <c r="C14" t="n">
+        <v>30.4308</v>
+      </c>
+      <c r="D14" t="n">
+        <v>43.7719</v>
+      </c>
+      <c r="E14" t="n">
+        <v>52.7737</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="n">
+        <v>23.6149</v>
+      </c>
+      <c r="C15" t="n">
+        <v>30.7989</v>
+      </c>
+      <c r="D15" t="n">
+        <v>44.6717</v>
+      </c>
+      <c r="E15" t="n">
+        <v>56.1492</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="n">
+        <v>24.8275</v>
+      </c>
+      <c r="C16" t="n">
+        <v>30.7615</v>
+      </c>
+      <c r="D16" t="n">
+        <v>45.208</v>
+      </c>
+      <c r="E16" t="n">
+        <v>54.2043</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="n">
+        <v>23.9265</v>
+      </c>
+      <c r="C17" t="n">
+        <v>30.8902</v>
+      </c>
+      <c r="D17" t="n">
+        <v>44.956</v>
+      </c>
+      <c r="E17" t="n">
+        <v>53.3828</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <drawing r:id="rId1"/>
@@ -4807,7 +5079,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:E1"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
       <selection activeCell="I24" sqref="I24"/>
@@ -4840,6 +5112,278 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>9.33399</v>
+      </c>
+      <c r="C2" t="n">
+        <v>10.8157</v>
+      </c>
+      <c r="D2" t="n">
+        <v>13.0184</v>
+      </c>
+      <c r="E2" t="n">
+        <v>14.9342</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>17.2543</v>
+      </c>
+      <c r="C3" t="n">
+        <v>17.1945</v>
+      </c>
+      <c r="D3" t="n">
+        <v>21.0009</v>
+      </c>
+      <c r="E3" t="n">
+        <v>24.009</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>23.3105</v>
+      </c>
+      <c r="C4" t="n">
+        <v>21.7839</v>
+      </c>
+      <c r="D4" t="n">
+        <v>26.4149</v>
+      </c>
+      <c r="E4" t="n">
+        <v>29.4068</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>19.0321</v>
+      </c>
+      <c r="C5" t="n">
+        <v>23.4235</v>
+      </c>
+      <c r="D5" t="n">
+        <v>27.5415</v>
+      </c>
+      <c r="E5" t="n">
+        <v>35.194</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>22.9988</v>
+      </c>
+      <c r="C6" t="n">
+        <v>27.7766</v>
+      </c>
+      <c r="D6" t="n">
+        <v>34.6979</v>
+      </c>
+      <c r="E6" t="n">
+        <v>38.9458</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>27.0853</v>
+      </c>
+      <c r="C7" t="n">
+        <v>32.4921</v>
+      </c>
+      <c r="D7" t="n">
+        <v>38.2111</v>
+      </c>
+      <c r="E7" t="n">
+        <v>45.0796</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>19.9482</v>
+      </c>
+      <c r="C8" t="n">
+        <v>29.604</v>
+      </c>
+      <c r="D8" t="n">
+        <v>35.5268</v>
+      </c>
+      <c r="E8" t="n">
+        <v>42.827</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>22.8243</v>
+      </c>
+      <c r="C9" t="n">
+        <v>29.4048</v>
+      </c>
+      <c r="D9" t="n">
+        <v>37.7723</v>
+      </c>
+      <c r="E9" t="n">
+        <v>48.015</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>24.3484</v>
+      </c>
+      <c r="C10" t="n">
+        <v>30.3038</v>
+      </c>
+      <c r="D10" t="n">
+        <v>38.9284</v>
+      </c>
+      <c r="E10" t="n">
+        <v>46.9853</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>22.8086</v>
+      </c>
+      <c r="C11" t="n">
+        <v>30.009</v>
+      </c>
+      <c r="D11" t="n">
+        <v>39.5142</v>
+      </c>
+      <c r="E11" t="n">
+        <v>52.5587</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
+        <v>24.8154</v>
+      </c>
+      <c r="C12" t="n">
+        <v>30.7298</v>
+      </c>
+      <c r="D12" t="n">
+        <v>41.1633</v>
+      </c>
+      <c r="E12" t="n">
+        <v>51.5596</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
+        <v>26.9976</v>
+      </c>
+      <c r="C13" t="n">
+        <v>31.3667</v>
+      </c>
+      <c r="D13" t="n">
+        <v>40.4943</v>
+      </c>
+      <c r="E13" t="n">
+        <v>52.7693</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
+        <v>22.2598</v>
+      </c>
+      <c r="C14" t="n">
+        <v>31.3792</v>
+      </c>
+      <c r="D14" t="n">
+        <v>43.6812</v>
+      </c>
+      <c r="E14" t="n">
+        <v>52.1722</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="n">
+        <v>24.124</v>
+      </c>
+      <c r="C15" t="n">
+        <v>31.1495</v>
+      </c>
+      <c r="D15" t="n">
+        <v>44.0242</v>
+      </c>
+      <c r="E15" t="n">
+        <v>52.4791</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="n">
+        <v>25.4146</v>
+      </c>
+      <c r="C16" t="n">
+        <v>31.2737</v>
+      </c>
+      <c r="D16" t="n">
+        <v>44.378</v>
+      </c>
+      <c r="E16" t="n">
+        <v>52.7752</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="n">
+        <v>24.1901</v>
+      </c>
+      <c r="C17" t="n">
+        <v>31.6231</v>
+      </c>
+      <c r="D17" t="n">
+        <v>45.0772</v>
+      </c>
+      <c r="E17" t="n">
+        <v>53.4543</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <drawing r:id="rId1"/>
@@ -4852,7 +5396,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:E1"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
       <selection activeCell="I24" sqref="I24"/>
@@ -4885,6 +5429,278 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>10.9376</v>
+      </c>
+      <c r="C2" t="n">
+        <v>11.6329</v>
+      </c>
+      <c r="D2" t="n">
+        <v>13.8449</v>
+      </c>
+      <c r="E2" t="n">
+        <v>15.7262</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>19.3897</v>
+      </c>
+      <c r="C3" t="n">
+        <v>19.5134</v>
+      </c>
+      <c r="D3" t="n">
+        <v>22.0548</v>
+      </c>
+      <c r="E3" t="n">
+        <v>24.1289</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>26.8028</v>
+      </c>
+      <c r="C4" t="n">
+        <v>25.4517</v>
+      </c>
+      <c r="D4" t="n">
+        <v>30.5782</v>
+      </c>
+      <c r="E4" t="n">
+        <v>34.65</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>23.1209</v>
+      </c>
+      <c r="C5" t="n">
+        <v>24.92</v>
+      </c>
+      <c r="D5" t="n">
+        <v>31.1603</v>
+      </c>
+      <c r="E5" t="n">
+        <v>35.1516</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>28.0565</v>
+      </c>
+      <c r="C6" t="n">
+        <v>28.5526</v>
+      </c>
+      <c r="D6" t="n">
+        <v>34.6059</v>
+      </c>
+      <c r="E6" t="n">
+        <v>36.947</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>33.2021</v>
+      </c>
+      <c r="C7" t="n">
+        <v>33.5978</v>
+      </c>
+      <c r="D7" t="n">
+        <v>35.1185</v>
+      </c>
+      <c r="E7" t="n">
+        <v>52.1082</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>29.1922</v>
+      </c>
+      <c r="C8" t="n">
+        <v>30.1022</v>
+      </c>
+      <c r="D8" t="n">
+        <v>36.0097</v>
+      </c>
+      <c r="E8" t="n">
+        <v>47.2716</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>30.2901</v>
+      </c>
+      <c r="C9" t="n">
+        <v>30.1734</v>
+      </c>
+      <c r="D9" t="n">
+        <v>42.1705</v>
+      </c>
+      <c r="E9" t="n">
+        <v>49.5186</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>29.9487</v>
+      </c>
+      <c r="C10" t="n">
+        <v>30.3648</v>
+      </c>
+      <c r="D10" t="n">
+        <v>42.0829</v>
+      </c>
+      <c r="E10" t="n">
+        <v>50.6262</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>31.1335</v>
+      </c>
+      <c r="C11" t="n">
+        <v>30.1256</v>
+      </c>
+      <c r="D11" t="n">
+        <v>41.8844</v>
+      </c>
+      <c r="E11" t="n">
+        <v>52.6194</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
+        <v>30.8807</v>
+      </c>
+      <c r="C12" t="n">
+        <v>31.1178</v>
+      </c>
+      <c r="D12" t="n">
+        <v>43.754</v>
+      </c>
+      <c r="E12" t="n">
+        <v>51.852</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
+        <v>30.9027</v>
+      </c>
+      <c r="C13" t="n">
+        <v>31.3909</v>
+      </c>
+      <c r="D13" t="n">
+        <v>43.5404</v>
+      </c>
+      <c r="E13" t="n">
+        <v>53.1235</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
+        <v>30.9881</v>
+      </c>
+      <c r="C14" t="n">
+        <v>31.1669</v>
+      </c>
+      <c r="D14" t="n">
+        <v>44.0003</v>
+      </c>
+      <c r="E14" t="n">
+        <v>52.8864</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="n">
+        <v>31.166</v>
+      </c>
+      <c r="C15" t="n">
+        <v>31.5178</v>
+      </c>
+      <c r="D15" t="n">
+        <v>45.1941</v>
+      </c>
+      <c r="E15" t="n">
+        <v>54.8312</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="n">
+        <v>31.2079</v>
+      </c>
+      <c r="C16" t="n">
+        <v>31.9482</v>
+      </c>
+      <c r="D16" t="n">
+        <v>44.7939</v>
+      </c>
+      <c r="E16" t="n">
+        <v>52.8737</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="n">
+        <v>31.3281</v>
+      </c>
+      <c r="C17" t="n">
+        <v>32.1713</v>
+      </c>
+      <c r="D17" t="n">
+        <v>44.4447</v>
+      </c>
+      <c r="E17" t="n">
+        <v>52.8766</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <drawing r:id="rId1"/>
@@ -4897,7 +5713,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:E1"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
       <selection activeCell="I24" sqref="I24"/>
@@ -4930,6 +5746,278 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>4.88922</v>
+      </c>
+      <c r="C2" t="n">
+        <v>8.95867</v>
+      </c>
+      <c r="D2" t="n">
+        <v>10.8224</v>
+      </c>
+      <c r="E2" t="n">
+        <v>13.9801</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>9.51728</v>
+      </c>
+      <c r="C3" t="n">
+        <v>15.6482</v>
+      </c>
+      <c r="D3" t="n">
+        <v>20.5565</v>
+      </c>
+      <c r="E3" t="n">
+        <v>26.4662</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>13.7852</v>
+      </c>
+      <c r="C4" t="n">
+        <v>21.853</v>
+      </c>
+      <c r="D4" t="n">
+        <v>29.8244</v>
+      </c>
+      <c r="E4" t="n">
+        <v>37.8403</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>15.6431</v>
+      </c>
+      <c r="C5" t="n">
+        <v>23.0398</v>
+      </c>
+      <c r="D5" t="n">
+        <v>34.1038</v>
+      </c>
+      <c r="E5" t="n">
+        <v>44.3526</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>18.784</v>
+      </c>
+      <c r="C6" t="n">
+        <v>26.371</v>
+      </c>
+      <c r="D6" t="n">
+        <v>41.2316</v>
+      </c>
+      <c r="E6" t="n">
+        <v>52.2186</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>22.0313</v>
+      </c>
+      <c r="C7" t="n">
+        <v>31.1264</v>
+      </c>
+      <c r="D7" t="n">
+        <v>47.6236</v>
+      </c>
+      <c r="E7" t="n">
+        <v>62.1582</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>19.9783</v>
+      </c>
+      <c r="C8" t="n">
+        <v>29.6897</v>
+      </c>
+      <c r="D8" t="n">
+        <v>44.23</v>
+      </c>
+      <c r="E8" t="n">
+        <v>55.1002</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>20.5161</v>
+      </c>
+      <c r="C9" t="n">
+        <v>29.9321</v>
+      </c>
+      <c r="D9" t="n">
+        <v>43.1581</v>
+      </c>
+      <c r="E9" t="n">
+        <v>55.3474</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>20.8338</v>
+      </c>
+      <c r="C10" t="n">
+        <v>29.3197</v>
+      </c>
+      <c r="D10" t="n">
+        <v>42.6291</v>
+      </c>
+      <c r="E10" t="n">
+        <v>55.1194</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>21.09</v>
+      </c>
+      <c r="C11" t="n">
+        <v>30.1034</v>
+      </c>
+      <c r="D11" t="n">
+        <v>43.1449</v>
+      </c>
+      <c r="E11" t="n">
+        <v>55.8471</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
+        <v>20.7977</v>
+      </c>
+      <c r="C12" t="n">
+        <v>29.9973</v>
+      </c>
+      <c r="D12" t="n">
+        <v>44.6323</v>
+      </c>
+      <c r="E12" t="n">
+        <v>55.8305</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
+        <v>20.9247</v>
+      </c>
+      <c r="C13" t="n">
+        <v>30.3863</v>
+      </c>
+      <c r="D13" t="n">
+        <v>44.6036</v>
+      </c>
+      <c r="E13" t="n">
+        <v>58.6067</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
+        <v>21.1173</v>
+      </c>
+      <c r="C14" t="n">
+        <v>30.3502</v>
+      </c>
+      <c r="D14" t="n">
+        <v>43.8457</v>
+      </c>
+      <c r="E14" t="n">
+        <v>57.6873</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="n">
+        <v>21.0199</v>
+      </c>
+      <c r="C15" t="n">
+        <v>30.5612</v>
+      </c>
+      <c r="D15" t="n">
+        <v>44.7511</v>
+      </c>
+      <c r="E15" t="n">
+        <v>57.3878</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="n">
+        <v>21.1111</v>
+      </c>
+      <c r="C16" t="n">
+        <v>30.3487</v>
+      </c>
+      <c r="D16" t="n">
+        <v>46.1586</v>
+      </c>
+      <c r="E16" t="n">
+        <v>59.4165</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="n">
+        <v>21.2359</v>
+      </c>
+      <c r="C17" t="n">
+        <v>30.4374</v>
+      </c>
+      <c r="D17" t="n">
+        <v>45.6566</v>
+      </c>
+      <c r="E17" t="n">
+        <v>58.563</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <drawing r:id="rId1"/>
@@ -4942,7 +6030,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:E1"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
       <selection activeCell="I24" sqref="I24"/>
@@ -4973,6 +6061,278 @@
         <is>
           <t>boost::concurrent_flat_map bulk</t>
         </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>4.99526</v>
+      </c>
+      <c r="C2" t="n">
+        <v>9.004709999999999</v>
+      </c>
+      <c r="D2" t="n">
+        <v>10.869</v>
+      </c>
+      <c r="E2" t="n">
+        <v>14.0367</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>9.73725</v>
+      </c>
+      <c r="C3" t="n">
+        <v>15.6834</v>
+      </c>
+      <c r="D3" t="n">
+        <v>20.5546</v>
+      </c>
+      <c r="E3" t="n">
+        <v>26.4798</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>14.0535</v>
+      </c>
+      <c r="C4" t="n">
+        <v>22.0226</v>
+      </c>
+      <c r="D4" t="n">
+        <v>29.7436</v>
+      </c>
+      <c r="E4" t="n">
+        <v>37.8873</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>16.1684</v>
+      </c>
+      <c r="C5" t="n">
+        <v>22.8789</v>
+      </c>
+      <c r="D5" t="n">
+        <v>33.6968</v>
+      </c>
+      <c r="E5" t="n">
+        <v>43.7547</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>19.2636</v>
+      </c>
+      <c r="C6" t="n">
+        <v>26.4478</v>
+      </c>
+      <c r="D6" t="n">
+        <v>40.0961</v>
+      </c>
+      <c r="E6" t="n">
+        <v>52.0785</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>22.6867</v>
+      </c>
+      <c r="C7" t="n">
+        <v>31.2459</v>
+      </c>
+      <c r="D7" t="n">
+        <v>47.5224</v>
+      </c>
+      <c r="E7" t="n">
+        <v>61.2264</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>20.3801</v>
+      </c>
+      <c r="C8" t="n">
+        <v>29.8331</v>
+      </c>
+      <c r="D8" t="n">
+        <v>43.1255</v>
+      </c>
+      <c r="E8" t="n">
+        <v>53.9367</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>20.9085</v>
+      </c>
+      <c r="C9" t="n">
+        <v>30.0526</v>
+      </c>
+      <c r="D9" t="n">
+        <v>43.8428</v>
+      </c>
+      <c r="E9" t="n">
+        <v>52.4652</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>21.116</v>
+      </c>
+      <c r="C10" t="n">
+        <v>29.6968</v>
+      </c>
+      <c r="D10" t="n">
+        <v>44.7055</v>
+      </c>
+      <c r="E10" t="n">
+        <v>55.9807</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>21.683</v>
+      </c>
+      <c r="C11" t="n">
+        <v>30.1899</v>
+      </c>
+      <c r="D11" t="n">
+        <v>44.2929</v>
+      </c>
+      <c r="E11" t="n">
+        <v>56.7472</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
+        <v>21.7305</v>
+      </c>
+      <c r="C12" t="n">
+        <v>30.0363</v>
+      </c>
+      <c r="D12" t="n">
+        <v>44.6571</v>
+      </c>
+      <c r="E12" t="n">
+        <v>57.7302</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
+        <v>21.4647</v>
+      </c>
+      <c r="C13" t="n">
+        <v>30.1617</v>
+      </c>
+      <c r="D13" t="n">
+        <v>45.5719</v>
+      </c>
+      <c r="E13" t="n">
+        <v>55.326</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
+        <v>21.3255</v>
+      </c>
+      <c r="C14" t="n">
+        <v>30.2739</v>
+      </c>
+      <c r="D14" t="n">
+        <v>44.4897</v>
+      </c>
+      <c r="E14" t="n">
+        <v>58.4032</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="n">
+        <v>21.8226</v>
+      </c>
+      <c r="C15" t="n">
+        <v>30.3808</v>
+      </c>
+      <c r="D15" t="n">
+        <v>46.1618</v>
+      </c>
+      <c r="E15" t="n">
+        <v>58.0179</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="n">
+        <v>21.5498</v>
+      </c>
+      <c r="C16" t="n">
+        <v>30.4961</v>
+      </c>
+      <c r="D16" t="n">
+        <v>45.6256</v>
+      </c>
+      <c r="E16" t="n">
+        <v>58.6167</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="n">
+        <v>21.511</v>
+      </c>
+      <c r="C17" t="n">
+        <v>30.5062</v>
+      </c>
+      <c r="D17" t="n">
+        <v>46.108</v>
+      </c>
+      <c r="E17" t="n">
+        <v>58.6795</v>
       </c>
     </row>
   </sheetData>
@@ -5020,22 +6380,278 @@
         </is>
       </c>
     </row>
-    <row r="2"/>
-    <row r="3"/>
-    <row r="4"/>
-    <row r="5"/>
-    <row r="6"/>
-    <row r="7"/>
-    <row r="8"/>
-    <row r="9"/>
-    <row r="10"/>
-    <row r="11"/>
-    <row r="12"/>
-    <row r="13"/>
-    <row r="14"/>
-    <row r="15"/>
-    <row r="16"/>
-    <row r="17"/>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>8.727349999999999</v>
+      </c>
+      <c r="C2" t="n">
+        <v>10.9438</v>
+      </c>
+      <c r="D2" t="n">
+        <v>13.1203</v>
+      </c>
+      <c r="E2" t="n">
+        <v>15.3515</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>16.3734</v>
+      </c>
+      <c r="C3" t="n">
+        <v>18.2939</v>
+      </c>
+      <c r="D3" t="n">
+        <v>24.4121</v>
+      </c>
+      <c r="E3" t="n">
+        <v>28.8536</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>23.2992</v>
+      </c>
+      <c r="C4" t="n">
+        <v>25.1473</v>
+      </c>
+      <c r="D4" t="n">
+        <v>34.3366</v>
+      </c>
+      <c r="E4" t="n">
+        <v>41.0536</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>23.1425</v>
+      </c>
+      <c r="C5" t="n">
+        <v>25.3777</v>
+      </c>
+      <c r="D5" t="n">
+        <v>36.7042</v>
+      </c>
+      <c r="E5" t="n">
+        <v>47.1737</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>26.5075</v>
+      </c>
+      <c r="C6" t="n">
+        <v>28.6705</v>
+      </c>
+      <c r="D6" t="n">
+        <v>42.5348</v>
+      </c>
+      <c r="E6" t="n">
+        <v>56.3231</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>31.8456</v>
+      </c>
+      <c r="C7" t="n">
+        <v>33.0741</v>
+      </c>
+      <c r="D7" t="n">
+        <v>50.3095</v>
+      </c>
+      <c r="E7" t="n">
+        <v>64.14</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>29.285</v>
+      </c>
+      <c r="C8" t="n">
+        <v>31.8553</v>
+      </c>
+      <c r="D8" t="n">
+        <v>46.769</v>
+      </c>
+      <c r="E8" t="n">
+        <v>60.1215</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>30.2964</v>
+      </c>
+      <c r="C9" t="n">
+        <v>31.3613</v>
+      </c>
+      <c r="D9" t="n">
+        <v>48.0327</v>
+      </c>
+      <c r="E9" t="n">
+        <v>61.3576</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>30.1364</v>
+      </c>
+      <c r="C10" t="n">
+        <v>32.0957</v>
+      </c>
+      <c r="D10" t="n">
+        <v>46.8291</v>
+      </c>
+      <c r="E10" t="n">
+        <v>61.9171</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>30.5607</v>
+      </c>
+      <c r="C11" t="n">
+        <v>32.4934</v>
+      </c>
+      <c r="D11" t="n">
+        <v>47.3696</v>
+      </c>
+      <c r="E11" t="n">
+        <v>60.7382</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
+        <v>30.3848</v>
+      </c>
+      <c r="C12" t="n">
+        <v>32.4469</v>
+      </c>
+      <c r="D12" t="n">
+        <v>47.5033</v>
+      </c>
+      <c r="E12" t="n">
+        <v>62.8896</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
+        <v>30.4898</v>
+      </c>
+      <c r="C13" t="n">
+        <v>32.2027</v>
+      </c>
+      <c r="D13" t="n">
+        <v>48.0666</v>
+      </c>
+      <c r="E13" t="n">
+        <v>61.9716</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
+        <v>30.0996</v>
+      </c>
+      <c r="C14" t="n">
+        <v>32.3379</v>
+      </c>
+      <c r="D14" t="n">
+        <v>48.352</v>
+      </c>
+      <c r="E14" t="n">
+        <v>63.2419</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="n">
+        <v>30.4107</v>
+      </c>
+      <c r="C15" t="n">
+        <v>32.5086</v>
+      </c>
+      <c r="D15" t="n">
+        <v>47.5119</v>
+      </c>
+      <c r="E15" t="n">
+        <v>62.4152</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="n">
+        <v>30.6088</v>
+      </c>
+      <c r="C16" t="n">
+        <v>31.9975</v>
+      </c>
+      <c r="D16" t="n">
+        <v>48.5858</v>
+      </c>
+      <c r="E16" t="n">
+        <v>62.0226</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="n">
+        <v>30.5339</v>
+      </c>
+      <c r="C17" t="n">
+        <v>32.3667</v>
+      </c>
+      <c r="D17" t="n">
+        <v>48.6715</v>
+      </c>
+      <c r="E17" t="n">
+        <v>62.5262</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <drawing r:id="rId1"/>

--- a/vs-x86/Parallel workload.xlsx
+++ b/vs-x86/Parallel workload.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="15840" windowWidth="29040" xWindow="-120" yWindow="-120"/>
+    <workbookView activeTab="5" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="15840" windowWidth="29040" xWindow="-120" yWindow="-120"/>
   </bookViews>
   <sheets>
     <sheet name="500k, 0.01" sheetId="1" state="visible" r:id="rId1"/>
@@ -115,9 +115,9 @@
           <wMode val="factor"/>
           <hMode val="factor"/>
           <x val="0.09111301681349238"/>
-          <y val="0.03800606309402162"/>
+          <y val="0.1645017834309173"/>
           <w val="0.8736779189729996"/>
-          <h val="0.8283126059471367"/>
+          <h val="0.698398007941315"/>
         </manualLayout>
       </layout>
       <scatterChart>
@@ -217,52 +217,52 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>9.04196</v>
+                  <v>13.8891</v>
                 </pt>
                 <pt idx="1">
-                  <v>16.7548</v>
+                  <v>26.7801</v>
                 </pt>
                 <pt idx="2">
-                  <v>23.5965</v>
+                  <v>31.3916</v>
                 </pt>
                 <pt idx="3">
-                  <v>29.1211</v>
+                  <v>42.1114</v>
                 </pt>
                 <pt idx="4">
-                  <v>23.9593</v>
+                  <v>40.0238</v>
                 </pt>
                 <pt idx="5">
-                  <v>28.1952</v>
+                  <v>39.5469</v>
                 </pt>
                 <pt idx="6">
-                  <v>29.9931</v>
+                  <v>37.7463</v>
                 </pt>
                 <pt idx="7">
-                  <v>30.6191</v>
+                  <v>39.7074</v>
                 </pt>
                 <pt idx="8">
-                  <v>31.8691</v>
+                  <v>46.2775</v>
                 </pt>
                 <pt idx="9">
-                  <v>29.1933</v>
+                  <v>47.6475</v>
                 </pt>
                 <pt idx="10">
-                  <v>32.0212</v>
+                  <v>41.1897</v>
                 </pt>
                 <pt idx="11">
-                  <v>32.0733</v>
+                  <v>44.6059</v>
                 </pt>
                 <pt idx="12">
-                  <v>30.7886</v>
+                  <v>42.3724</v>
                 </pt>
                 <pt idx="13">
-                  <v>31.0243</v>
+                  <v>46.0471</v>
                 </pt>
                 <pt idx="14">
-                  <v>30.3046</v>
+                  <v>44.8912</v>
                 </pt>
                 <pt idx="15">
-                  <v>32.2738</v>
+                  <v>49.0374</v>
                 </pt>
               </numCache>
             </numRef>
@@ -363,52 +363,52 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>11.8239</v>
+                  <v>18.6855</v>
                 </pt>
                 <pt idx="1">
-                  <v>19.1098</v>
+                  <v>31.0102</v>
                 </pt>
                 <pt idx="2">
-                  <v>24.4315</v>
+                  <v>35.7257</v>
                 </pt>
                 <pt idx="3">
-                  <v>29.4453</v>
+                  <v>50.8404</v>
                 </pt>
                 <pt idx="4">
-                  <v>22.8333</v>
+                  <v>40.4798</v>
                 </pt>
                 <pt idx="5">
-                  <v>19.6506</v>
+                  <v>40.7141</v>
                 </pt>
                 <pt idx="6">
-                  <v>17.7991</v>
+                  <v>37.2463</v>
                 </pt>
                 <pt idx="7">
-                  <v>16.586</v>
+                  <v>39.2744</v>
                 </pt>
                 <pt idx="8">
-                  <v>16.6552</v>
+                  <v>40.4141</v>
                 </pt>
                 <pt idx="9">
-                  <v>16.9317</v>
+                  <v>42.6102</v>
                 </pt>
                 <pt idx="10">
-                  <v>16.0848</v>
+                  <v>39.5541</v>
                 </pt>
                 <pt idx="11">
-                  <v>16.3772</v>
+                  <v>43.5443</v>
                 </pt>
                 <pt idx="12">
-                  <v>15.8073</v>
+                  <v>48.8967</v>
                 </pt>
                 <pt idx="13">
-                  <v>16.3375</v>
+                  <v>45.6242</v>
                 </pt>
                 <pt idx="14">
-                  <v>16.3003</v>
+                  <v>49.8071</v>
                 </pt>
                 <pt idx="15">
-                  <v>16.4925</v>
+                  <v>46.0208</v>
                 </pt>
               </numCache>
             </numRef>
@@ -509,52 +509,195 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>14.8698</v>
+                  <v>25.1245</v>
                 </pt>
                 <pt idx="1">
-                  <v>26.1979</v>
+                  <v>33.3849</v>
                 </pt>
                 <pt idx="2">
-                  <v>36.226</v>
+                  <v>48.2392</v>
                 </pt>
                 <pt idx="3">
-                  <v>46.5083</v>
+                  <v>61.9033</v>
                 </pt>
                 <pt idx="4">
-                  <v>37.2833</v>
+                  <v>51.4984</v>
                 </pt>
                 <pt idx="5">
-                  <v>37.809</v>
+                  <v>49.997</v>
                 </pt>
                 <pt idx="6">
-                  <v>36.5411</v>
+                  <v>53.5658</v>
                 </pt>
                 <pt idx="7">
-                  <v>31.648</v>
+                  <v>49.8046</v>
                 </pt>
                 <pt idx="8">
-                  <v>37.5141</v>
+                  <v>51.2952</v>
                 </pt>
                 <pt idx="9">
-                  <v>38.696</v>
+                  <v>55.992</v>
                 </pt>
                 <pt idx="10">
-                  <v>38.562</v>
+                  <v>51.6304</v>
                 </pt>
                 <pt idx="11">
-                  <v>36.6898</v>
+                  <v>54.8665</v>
                 </pt>
                 <pt idx="12">
-                  <v>39.7771</v>
+                  <v>54.975</v>
                 </pt>
                 <pt idx="13">
-                  <v>34.6172</v>
+                  <v>55.5807</v>
                 </pt>
                 <pt idx="14">
-                  <v>40.1725</v>
+                  <v>44.9125</v>
                 </pt>
                 <pt idx="15">
-                  <v>40.233</v>
+                  <v>55.7518</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </yVal>
+          <smooth val="0"/>
+        </ser>
+        <ser>
+          <idx val="3"/>
+          <order val="3"/>
+          <tx>
+            <strRef>
+              <f>'500k, 0.01'!$E$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>boost::concurrent_flat_map bulk</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>'500k, 0.01'!$A$2:$A$33</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="32"/>
+                <pt idx="0">
+                  <v>1</v>
+                </pt>
+                <pt idx="1">
+                  <v>2</v>
+                </pt>
+                <pt idx="2">
+                  <v>3</v>
+                </pt>
+                <pt idx="3">
+                  <v>4</v>
+                </pt>
+                <pt idx="4">
+                  <v>5</v>
+                </pt>
+                <pt idx="5">
+                  <v>6</v>
+                </pt>
+                <pt idx="6">
+                  <v>7</v>
+                </pt>
+                <pt idx="7">
+                  <v>8</v>
+                </pt>
+                <pt idx="8">
+                  <v>9</v>
+                </pt>
+                <pt idx="9">
+                  <v>10</v>
+                </pt>
+                <pt idx="10">
+                  <v>11</v>
+                </pt>
+                <pt idx="11">
+                  <v>12</v>
+                </pt>
+                <pt idx="12">
+                  <v>13</v>
+                </pt>
+                <pt idx="13">
+                  <v>14</v>
+                </pt>
+                <pt idx="14">
+                  <v>15</v>
+                </pt>
+                <pt idx="15">
+                  <v>16</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>'500k, 0.01'!$E$2:$E$33</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="32"/>
+                <pt idx="0">
+                  <v>29.8425</v>
+                </pt>
+                <pt idx="1">
+                  <v>44.9754</v>
+                </pt>
+                <pt idx="2">
+                  <v>55.1248</v>
+                </pt>
+                <pt idx="3">
+                  <v>74.3052</v>
+                </pt>
+                <pt idx="4">
+                  <v>61.2846</v>
+                </pt>
+                <pt idx="5">
+                  <v>63.3506</v>
+                </pt>
+                <pt idx="6">
+                  <v>69.6906</v>
+                </pt>
+                <pt idx="7">
+                  <v>60.9708</v>
+                </pt>
+                <pt idx="8">
+                  <v>59.1547</v>
+                </pt>
+                <pt idx="9">
+                  <v>65.57989999999999</v>
+                </pt>
+                <pt idx="10">
+                  <v>55.923</v>
+                </pt>
+                <pt idx="11">
+                  <v>59.4605</v>
+                </pt>
+                <pt idx="12">
+                  <v>56.9516</v>
+                </pt>
+                <pt idx="13">
+                  <v>58.594</v>
+                </pt>
+                <pt idx="14">
+                  <v>60.4237</v>
+                </pt>
+                <pt idx="15">
+                  <v>59.0957</v>
                 </pt>
               </numCache>
             </numRef>
@@ -647,33 +790,8 @@
       </valAx>
     </plotArea>
     <legend>
-      <legendPos val="r"/>
-      <layout>
-        <manualLayout>
-          <xMode val="edge"/>
-          <yMode val="edge"/>
-          <wMode val="factor"/>
-          <hMode val="factor"/>
-          <x val="0.5636849354226762"/>
-          <y val="0.6254994279561209"/>
-          <w val="0.3836870143707284"/>
-          <h val="0.2236395450568679"/>
-        </manualLayout>
-      </layout>
+      <legendPos val="t"/>
       <overlay val="0"/>
-      <spPr>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="bg1">
-              <a:lumMod val="65000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </spPr>
     </legend>
     <plotVisOnly val="1"/>
     <dispBlanksAs val="gap"/>
@@ -693,9 +811,9 @@
           <wMode val="factor"/>
           <hMode val="factor"/>
           <x val="0.09111301681349238"/>
-          <y val="0.03800606309402162"/>
+          <y val="0.1645017834309173"/>
           <w val="0.8736779189729996"/>
-          <h val="0.8283126059471367"/>
+          <h val="0.698398007941315"/>
         </manualLayout>
       </layout>
       <scatterChart>
@@ -795,52 +913,52 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>9.014760000000001</v>
+                  <v>13.8891</v>
                 </pt>
                 <pt idx="1">
-                  <v>16.7253</v>
+                  <v>26.7801</v>
                 </pt>
                 <pt idx="2">
-                  <v>23.2607</v>
+                  <v>31.3916</v>
                 </pt>
                 <pt idx="3">
-                  <v>29.5955</v>
+                  <v>42.1114</v>
                 </pt>
                 <pt idx="4">
-                  <v>25.8655</v>
+                  <v>40.0238</v>
                 </pt>
                 <pt idx="5">
-                  <v>27.8528</v>
+                  <v>39.5469</v>
                 </pt>
                 <pt idx="6">
-                  <v>29.2896</v>
+                  <v>37.7463</v>
                 </pt>
                 <pt idx="7">
-                  <v>31.4791</v>
+                  <v>39.7074</v>
                 </pt>
                 <pt idx="8">
-                  <v>32.5906</v>
+                  <v>46.2775</v>
                 </pt>
                 <pt idx="9">
-                  <v>32.0825</v>
+                  <v>47.6475</v>
                 </pt>
                 <pt idx="10">
-                  <v>32.1665</v>
+                  <v>41.1897</v>
                 </pt>
                 <pt idx="11">
-                  <v>32.3791</v>
+                  <v>44.6059</v>
                 </pt>
                 <pt idx="12">
-                  <v>32.3403</v>
+                  <v>42.3724</v>
                 </pt>
                 <pt idx="13">
-                  <v>32.6472</v>
+                  <v>46.0471</v>
                 </pt>
                 <pt idx="14">
-                  <v>32.7387</v>
+                  <v>44.8912</v>
                 </pt>
                 <pt idx="15">
-                  <v>32.6481</v>
+                  <v>49.0374</v>
                 </pt>
               </numCache>
             </numRef>
@@ -941,52 +1059,52 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>11.7263</v>
+                  <v>18.6855</v>
                 </pt>
                 <pt idx="1">
-                  <v>18.9888</v>
+                  <v>31.0102</v>
                 </pt>
                 <pt idx="2">
-                  <v>24.1975</v>
+                  <v>35.7257</v>
                 </pt>
                 <pt idx="3">
-                  <v>29.3554</v>
+                  <v>50.8404</v>
                 </pt>
                 <pt idx="4">
-                  <v>23.0146</v>
+                  <v>40.4798</v>
                 </pt>
                 <pt idx="5">
-                  <v>19.4836</v>
+                  <v>40.7141</v>
                 </pt>
                 <pt idx="6">
-                  <v>17.1334</v>
+                  <v>37.2463</v>
                 </pt>
                 <pt idx="7">
-                  <v>16.3752</v>
+                  <v>39.2744</v>
                 </pt>
                 <pt idx="8">
-                  <v>16.058</v>
+                  <v>40.4141</v>
                 </pt>
                 <pt idx="9">
-                  <v>15.4598</v>
+                  <v>42.6102</v>
                 </pt>
                 <pt idx="10">
-                  <v>15.3131</v>
+                  <v>39.5541</v>
                 </pt>
                 <pt idx="11">
-                  <v>15.4539</v>
+                  <v>43.5443</v>
                 </pt>
                 <pt idx="12">
-                  <v>15.2711</v>
+                  <v>48.8967</v>
                 </pt>
                 <pt idx="13">
-                  <v>15.6766</v>
+                  <v>45.6242</v>
                 </pt>
                 <pt idx="14">
-                  <v>15.4165</v>
+                  <v>49.8071</v>
                 </pt>
                 <pt idx="15">
-                  <v>15.297</v>
+                  <v>46.0208</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1087,52 +1205,195 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>14.5872</v>
+                  <v>25.1245</v>
                 </pt>
                 <pt idx="1">
-                  <v>25.867</v>
+                  <v>33.3849</v>
                 </pt>
                 <pt idx="2">
-                  <v>35.8568</v>
+                  <v>48.2392</v>
                 </pt>
                 <pt idx="3">
-                  <v>46.0436</v>
+                  <v>61.9033</v>
                 </pt>
                 <pt idx="4">
-                  <v>34.7699</v>
+                  <v>51.4984</v>
                 </pt>
                 <pt idx="5">
-                  <v>28.3931</v>
+                  <v>49.997</v>
                 </pt>
                 <pt idx="6">
-                  <v>12.9162</v>
+                  <v>53.5658</v>
                 </pt>
                 <pt idx="7">
-                  <v>25.3072</v>
+                  <v>49.8046</v>
                 </pt>
                 <pt idx="8">
-                  <v>36.1843</v>
+                  <v>51.2952</v>
                 </pt>
                 <pt idx="9">
-                  <v>33.6761</v>
+                  <v>55.992</v>
                 </pt>
                 <pt idx="10">
-                  <v>24.4303</v>
+                  <v>51.6304</v>
                 </pt>
                 <pt idx="11">
-                  <v>36.3513</v>
+                  <v>54.8665</v>
                 </pt>
                 <pt idx="12">
-                  <v>31.213</v>
+                  <v>54.975</v>
                 </pt>
                 <pt idx="13">
-                  <v>38.823</v>
+                  <v>55.5807</v>
                 </pt>
                 <pt idx="14">
-                  <v>37.8533</v>
+                  <v>44.9125</v>
                 </pt>
                 <pt idx="15">
-                  <v>40.6766</v>
+                  <v>55.7518</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </yVal>
+          <smooth val="0"/>
+        </ser>
+        <ser>
+          <idx val="3"/>
+          <order val="3"/>
+          <tx>
+            <strRef>
+              <f>'500k, 0.5'!$E$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>boost::concurrent_flat_map bulk</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>'500k, 0.5'!$A$2:$A$33</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="32"/>
+                <pt idx="0">
+                  <v>1</v>
+                </pt>
+                <pt idx="1">
+                  <v>2</v>
+                </pt>
+                <pt idx="2">
+                  <v>3</v>
+                </pt>
+                <pt idx="3">
+                  <v>4</v>
+                </pt>
+                <pt idx="4">
+                  <v>5</v>
+                </pt>
+                <pt idx="5">
+                  <v>6</v>
+                </pt>
+                <pt idx="6">
+                  <v>7</v>
+                </pt>
+                <pt idx="7">
+                  <v>8</v>
+                </pt>
+                <pt idx="8">
+                  <v>9</v>
+                </pt>
+                <pt idx="9">
+                  <v>10</v>
+                </pt>
+                <pt idx="10">
+                  <v>11</v>
+                </pt>
+                <pt idx="11">
+                  <v>12</v>
+                </pt>
+                <pt idx="12">
+                  <v>13</v>
+                </pt>
+                <pt idx="13">
+                  <v>14</v>
+                </pt>
+                <pt idx="14">
+                  <v>15</v>
+                </pt>
+                <pt idx="15">
+                  <v>16</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>'500k, 0.5'!$E$2:$E$33</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="32"/>
+                <pt idx="0">
+                  <v>29.8425</v>
+                </pt>
+                <pt idx="1">
+                  <v>44.9754</v>
+                </pt>
+                <pt idx="2">
+                  <v>55.1248</v>
+                </pt>
+                <pt idx="3">
+                  <v>74.3052</v>
+                </pt>
+                <pt idx="4">
+                  <v>61.2846</v>
+                </pt>
+                <pt idx="5">
+                  <v>63.3506</v>
+                </pt>
+                <pt idx="6">
+                  <v>69.6906</v>
+                </pt>
+                <pt idx="7">
+                  <v>60.9708</v>
+                </pt>
+                <pt idx="8">
+                  <v>59.1547</v>
+                </pt>
+                <pt idx="9">
+                  <v>65.57989999999999</v>
+                </pt>
+                <pt idx="10">
+                  <v>55.923</v>
+                </pt>
+                <pt idx="11">
+                  <v>59.4605</v>
+                </pt>
+                <pt idx="12">
+                  <v>56.9516</v>
+                </pt>
+                <pt idx="13">
+                  <v>58.594</v>
+                </pt>
+                <pt idx="14">
+                  <v>60.4237</v>
+                </pt>
+                <pt idx="15">
+                  <v>59.0957</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1225,33 +1486,8 @@
       </valAx>
     </plotArea>
     <legend>
-      <legendPos val="r"/>
-      <layout>
-        <manualLayout>
-          <xMode val="edge"/>
-          <yMode val="edge"/>
-          <wMode val="factor"/>
-          <hMode val="factor"/>
-          <x val="0.5636849354226762"/>
-          <y val="0.6254994279561209"/>
-          <w val="0.3836870143707284"/>
-          <h val="0.2236395450568679"/>
-        </manualLayout>
-      </layout>
+      <legendPos val="t"/>
       <overlay val="0"/>
-      <spPr>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="bg1">
-              <a:lumMod val="65000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </spPr>
     </legend>
     <plotVisOnly val="1"/>
     <dispBlanksAs val="gap"/>
@@ -1271,9 +1507,9 @@
           <wMode val="factor"/>
           <hMode val="factor"/>
           <x val="0.09111301681349238"/>
-          <y val="0.03800606309402162"/>
+          <y val="0.1645017834309173"/>
           <w val="0.8736779189729996"/>
-          <h val="0.8283126059471367"/>
+          <h val="0.698398007941315"/>
         </manualLayout>
       </layout>
       <scatterChart>
@@ -1373,52 +1609,52 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>9.75653</v>
+                  <v>13.8891</v>
                 </pt>
                 <pt idx="1">
-                  <v>17.6313</v>
+                  <v>26.7801</v>
                 </pt>
                 <pt idx="2">
-                  <v>24.9494</v>
+                  <v>31.3916</v>
                 </pt>
                 <pt idx="3">
-                  <v>31.5999</v>
+                  <v>42.1114</v>
                 </pt>
                 <pt idx="4">
-                  <v>26.3215</v>
+                  <v>40.0238</v>
                 </pt>
                 <pt idx="5">
-                  <v>29.0275</v>
+                  <v>39.5469</v>
                 </pt>
                 <pt idx="6">
-                  <v>31.7959</v>
+                  <v>37.7463</v>
                 </pt>
                 <pt idx="7">
-                  <v>34.2449</v>
+                  <v>39.7074</v>
                 </pt>
                 <pt idx="8">
-                  <v>34.0444</v>
+                  <v>46.2775</v>
                 </pt>
                 <pt idx="9">
-                  <v>34.5689</v>
+                  <v>47.6475</v>
                 </pt>
                 <pt idx="10">
-                  <v>34.7024</v>
+                  <v>41.1897</v>
                 </pt>
                 <pt idx="11">
-                  <v>34.6463</v>
+                  <v>44.6059</v>
                 </pt>
                 <pt idx="12">
-                  <v>34.7974</v>
+                  <v>42.3724</v>
                 </pt>
                 <pt idx="13">
-                  <v>34.8285</v>
+                  <v>46.0471</v>
                 </pt>
                 <pt idx="14">
-                  <v>34.7665</v>
+                  <v>44.8912</v>
                 </pt>
                 <pt idx="15">
-                  <v>34.8454</v>
+                  <v>49.0374</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1519,52 +1755,52 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>11.5546</v>
+                  <v>18.6855</v>
                 </pt>
                 <pt idx="1">
-                  <v>19.373</v>
+                  <v>31.0102</v>
                 </pt>
                 <pt idx="2">
-                  <v>25.1499</v>
+                  <v>35.7257</v>
                 </pt>
                 <pt idx="3">
-                  <v>29.8795</v>
+                  <v>50.8404</v>
                 </pt>
                 <pt idx="4">
-                  <v>18.456</v>
+                  <v>40.4798</v>
                 </pt>
                 <pt idx="5">
-                  <v>16.4204</v>
+                  <v>40.7141</v>
                 </pt>
                 <pt idx="6">
-                  <v>15.7672</v>
+                  <v>37.2463</v>
                 </pt>
                 <pt idx="7">
-                  <v>14.967</v>
+                  <v>39.2744</v>
                 </pt>
                 <pt idx="8">
-                  <v>15.9969</v>
+                  <v>40.4141</v>
                 </pt>
                 <pt idx="9">
-                  <v>15.8365</v>
+                  <v>42.6102</v>
                 </pt>
                 <pt idx="10">
-                  <v>15.5373</v>
+                  <v>39.5541</v>
                 </pt>
                 <pt idx="11">
-                  <v>15.3003</v>
+                  <v>43.5443</v>
                 </pt>
                 <pt idx="12">
-                  <v>15.3664</v>
+                  <v>48.8967</v>
                 </pt>
                 <pt idx="13">
-                  <v>15.3564</v>
+                  <v>45.6242</v>
                 </pt>
                 <pt idx="14">
-                  <v>15.6061</v>
+                  <v>49.8071</v>
                 </pt>
                 <pt idx="15">
-                  <v>15.5156</v>
+                  <v>46.0208</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1665,52 +1901,195 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>13.2155</v>
+                  <v>25.1245</v>
                 </pt>
                 <pt idx="1">
-                  <v>24.1683</v>
+                  <v>33.3849</v>
                 </pt>
                 <pt idx="2">
-                  <v>34.1297</v>
+                  <v>48.2392</v>
                 </pt>
                 <pt idx="3">
-                  <v>44.6755</v>
+                  <v>61.9033</v>
                 </pt>
                 <pt idx="4">
-                  <v>34.6211</v>
+                  <v>51.4984</v>
                 </pt>
                 <pt idx="5">
-                  <v>35.7039</v>
+                  <v>49.997</v>
                 </pt>
                 <pt idx="6">
-                  <v>33.2518</v>
+                  <v>53.5658</v>
                 </pt>
                 <pt idx="7">
-                  <v>34.6154</v>
+                  <v>49.8046</v>
                 </pt>
                 <pt idx="8">
-                  <v>34.9122</v>
+                  <v>51.2952</v>
                 </pt>
                 <pt idx="9">
-                  <v>35.0458</v>
+                  <v>55.992</v>
                 </pt>
                 <pt idx="10">
-                  <v>34.0682</v>
+                  <v>51.6304</v>
                 </pt>
                 <pt idx="11">
-                  <v>36.9944</v>
+                  <v>54.8665</v>
                 </pt>
                 <pt idx="12">
-                  <v>36.1704</v>
+                  <v>54.975</v>
                 </pt>
                 <pt idx="13">
-                  <v>38.0711</v>
+                  <v>55.5807</v>
                 </pt>
                 <pt idx="14">
-                  <v>36.2356</v>
+                  <v>44.9125</v>
                 </pt>
                 <pt idx="15">
-                  <v>39.2473</v>
+                  <v>55.7518</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </yVal>
+          <smooth val="0"/>
+        </ser>
+        <ser>
+          <idx val="3"/>
+          <order val="3"/>
+          <tx>
+            <strRef>
+              <f>'500k, 0.99'!$E$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>boost::concurrent_flat_map bulk</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>'500k, 0.99'!$A$2:$A$33</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="32"/>
+                <pt idx="0">
+                  <v>1</v>
+                </pt>
+                <pt idx="1">
+                  <v>2</v>
+                </pt>
+                <pt idx="2">
+                  <v>3</v>
+                </pt>
+                <pt idx="3">
+                  <v>4</v>
+                </pt>
+                <pt idx="4">
+                  <v>5</v>
+                </pt>
+                <pt idx="5">
+                  <v>6</v>
+                </pt>
+                <pt idx="6">
+                  <v>7</v>
+                </pt>
+                <pt idx="7">
+                  <v>8</v>
+                </pt>
+                <pt idx="8">
+                  <v>9</v>
+                </pt>
+                <pt idx="9">
+                  <v>10</v>
+                </pt>
+                <pt idx="10">
+                  <v>11</v>
+                </pt>
+                <pt idx="11">
+                  <v>12</v>
+                </pt>
+                <pt idx="12">
+                  <v>13</v>
+                </pt>
+                <pt idx="13">
+                  <v>14</v>
+                </pt>
+                <pt idx="14">
+                  <v>15</v>
+                </pt>
+                <pt idx="15">
+                  <v>16</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>'500k, 0.99'!$E$2:$E$33</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="32"/>
+                <pt idx="0">
+                  <v>29.8425</v>
+                </pt>
+                <pt idx="1">
+                  <v>44.9754</v>
+                </pt>
+                <pt idx="2">
+                  <v>55.1248</v>
+                </pt>
+                <pt idx="3">
+                  <v>74.3052</v>
+                </pt>
+                <pt idx="4">
+                  <v>61.2846</v>
+                </pt>
+                <pt idx="5">
+                  <v>63.3506</v>
+                </pt>
+                <pt idx="6">
+                  <v>69.6906</v>
+                </pt>
+                <pt idx="7">
+                  <v>60.9708</v>
+                </pt>
+                <pt idx="8">
+                  <v>59.1547</v>
+                </pt>
+                <pt idx="9">
+                  <v>65.57989999999999</v>
+                </pt>
+                <pt idx="10">
+                  <v>55.923</v>
+                </pt>
+                <pt idx="11">
+                  <v>59.4605</v>
+                </pt>
+                <pt idx="12">
+                  <v>56.9516</v>
+                </pt>
+                <pt idx="13">
+                  <v>58.594</v>
+                </pt>
+                <pt idx="14">
+                  <v>60.4237</v>
+                </pt>
+                <pt idx="15">
+                  <v>59.0957</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1803,33 +2182,8 @@
       </valAx>
     </plotArea>
     <legend>
-      <legendPos val="r"/>
-      <layout>
-        <manualLayout>
-          <xMode val="edge"/>
-          <yMode val="edge"/>
-          <wMode val="factor"/>
-          <hMode val="factor"/>
-          <x val="0.5636849354226762"/>
-          <y val="0.6254994279561209"/>
-          <w val="0.3836870143707284"/>
-          <h val="0.2236395450568679"/>
-        </manualLayout>
-      </layout>
+      <legendPos val="t"/>
       <overlay val="0"/>
-      <spPr>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="bg1">
-              <a:lumMod val="65000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </spPr>
     </legend>
     <plotVisOnly val="1"/>
     <dispBlanksAs val="gap"/>
@@ -1849,9 +2203,9 @@
           <wMode val="factor"/>
           <hMode val="factor"/>
           <x val="0.09111301681349238"/>
-          <y val="0.03800606309402162"/>
+          <y val="0.1645017834309173"/>
           <w val="0.8736779189729996"/>
-          <h val="0.8283126059471367"/>
+          <h val="0.698398007941315"/>
         </manualLayout>
       </layout>
       <scatterChart>
@@ -1951,52 +2305,52 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>8.08628</v>
+                  <v>13.8891</v>
                 </pt>
                 <pt idx="1">
-                  <v>15.2805</v>
+                  <v>26.7801</v>
                 </pt>
                 <pt idx="2">
-                  <v>21.6583</v>
+                  <v>31.3916</v>
                 </pt>
                 <pt idx="3">
-                  <v>28.0278</v>
+                  <v>42.1114</v>
                 </pt>
                 <pt idx="4">
-                  <v>29.3115</v>
+                  <v>40.0238</v>
                 </pt>
                 <pt idx="5">
-                  <v>30.9464</v>
+                  <v>39.5469</v>
                 </pt>
                 <pt idx="6">
-                  <v>32.429</v>
+                  <v>37.7463</v>
                 </pt>
                 <pt idx="7">
-                  <v>33.6642</v>
+                  <v>39.7074</v>
                 </pt>
                 <pt idx="8">
-                  <v>33.6046</v>
+                  <v>46.2775</v>
                 </pt>
                 <pt idx="9">
-                  <v>33.5257</v>
+                  <v>47.6475</v>
                 </pt>
                 <pt idx="10">
-                  <v>33.8832</v>
+                  <v>41.1897</v>
                 </pt>
                 <pt idx="11">
-                  <v>33.5263</v>
+                  <v>44.6059</v>
                 </pt>
                 <pt idx="12">
-                  <v>33.4168</v>
+                  <v>42.3724</v>
                 </pt>
                 <pt idx="13">
-                  <v>33.5133</v>
+                  <v>46.0471</v>
                 </pt>
                 <pt idx="14">
-                  <v>33.9753</v>
+                  <v>44.8912</v>
                 </pt>
                 <pt idx="15">
-                  <v>33.5673</v>
+                  <v>49.0374</v>
                 </pt>
               </numCache>
             </numRef>
@@ -2097,52 +2451,52 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>11.224</v>
+                  <v>18.6855</v>
                 </pt>
                 <pt idx="1">
-                  <v>18.5179</v>
+                  <v>31.0102</v>
                 </pt>
                 <pt idx="2">
-                  <v>24.1107</v>
+                  <v>35.7257</v>
                 </pt>
                 <pt idx="3">
-                  <v>28.0303</v>
+                  <v>50.8404</v>
                 </pt>
                 <pt idx="4">
-                  <v>18.4426</v>
+                  <v>40.4798</v>
                 </pt>
                 <pt idx="5">
-                  <v>17.1139</v>
+                  <v>40.7141</v>
                 </pt>
                 <pt idx="6">
-                  <v>16.4737</v>
+                  <v>37.2463</v>
                 </pt>
                 <pt idx="7">
-                  <v>16.5707</v>
+                  <v>39.2744</v>
                 </pt>
                 <pt idx="8">
-                  <v>18.4397</v>
+                  <v>40.4141</v>
                 </pt>
                 <pt idx="9">
-                  <v>18.7371</v>
+                  <v>42.6102</v>
                 </pt>
                 <pt idx="10">
-                  <v>17.9475</v>
+                  <v>39.5541</v>
                 </pt>
                 <pt idx="11">
-                  <v>17.448</v>
+                  <v>43.5443</v>
                 </pt>
                 <pt idx="12">
-                  <v>17.6857</v>
+                  <v>48.8967</v>
                 </pt>
                 <pt idx="13">
-                  <v>17.489</v>
+                  <v>45.6242</v>
                 </pt>
                 <pt idx="14">
-                  <v>17.5141</v>
+                  <v>49.8071</v>
                 </pt>
                 <pt idx="15">
-                  <v>17.358</v>
+                  <v>46.0208</v>
                 </pt>
               </numCache>
             </numRef>
@@ -2243,52 +2597,195 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>14.4487</v>
+                  <v>25.1245</v>
                 </pt>
                 <pt idx="1">
-                  <v>26.2258</v>
+                  <v>33.3849</v>
                 </pt>
                 <pt idx="2">
-                  <v>36.5025</v>
+                  <v>48.2392</v>
                 </pt>
                 <pt idx="3">
-                  <v>46.9713</v>
+                  <v>61.9033</v>
                 </pt>
                 <pt idx="4">
-                  <v>39.5319</v>
+                  <v>51.4984</v>
                 </pt>
                 <pt idx="5">
-                  <v>36.4495</v>
+                  <v>49.997</v>
                 </pt>
                 <pt idx="6">
-                  <v>38.2362</v>
+                  <v>53.5658</v>
                 </pt>
                 <pt idx="7">
-                  <v>36.7844</v>
+                  <v>49.8046</v>
                 </pt>
                 <pt idx="8">
-                  <v>37.7962</v>
+                  <v>51.2952</v>
                 </pt>
                 <pt idx="9">
-                  <v>38.9492</v>
+                  <v>55.992</v>
                 </pt>
                 <pt idx="10">
-                  <v>40.1088</v>
+                  <v>51.6304</v>
                 </pt>
                 <pt idx="11">
-                  <v>40.8895</v>
+                  <v>54.8665</v>
                 </pt>
                 <pt idx="12">
-                  <v>41.5491</v>
+                  <v>54.975</v>
                 </pt>
                 <pt idx="13">
-                  <v>41.5762</v>
+                  <v>55.5807</v>
                 </pt>
                 <pt idx="14">
-                  <v>42.7578</v>
+                  <v>44.9125</v>
                 </pt>
                 <pt idx="15">
-                  <v>40.7522</v>
+                  <v>55.7518</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </yVal>
+          <smooth val="0"/>
+        </ser>
+        <ser>
+          <idx val="3"/>
+          <order val="3"/>
+          <tx>
+            <strRef>
+              <f>'5M, 0.01'!$E$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>boost::concurrent_flat_map bulk</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>'5M, 0.01'!$A$2:$A$33</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="32"/>
+                <pt idx="0">
+                  <v>1</v>
+                </pt>
+                <pt idx="1">
+                  <v>2</v>
+                </pt>
+                <pt idx="2">
+                  <v>3</v>
+                </pt>
+                <pt idx="3">
+                  <v>4</v>
+                </pt>
+                <pt idx="4">
+                  <v>5</v>
+                </pt>
+                <pt idx="5">
+                  <v>6</v>
+                </pt>
+                <pt idx="6">
+                  <v>7</v>
+                </pt>
+                <pt idx="7">
+                  <v>8</v>
+                </pt>
+                <pt idx="8">
+                  <v>9</v>
+                </pt>
+                <pt idx="9">
+                  <v>10</v>
+                </pt>
+                <pt idx="10">
+                  <v>11</v>
+                </pt>
+                <pt idx="11">
+                  <v>12</v>
+                </pt>
+                <pt idx="12">
+                  <v>13</v>
+                </pt>
+                <pt idx="13">
+                  <v>14</v>
+                </pt>
+                <pt idx="14">
+                  <v>15</v>
+                </pt>
+                <pt idx="15">
+                  <v>16</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>'5M, 0.01'!$E$2:$E$33</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="32"/>
+                <pt idx="0">
+                  <v>29.8425</v>
+                </pt>
+                <pt idx="1">
+                  <v>44.9754</v>
+                </pt>
+                <pt idx="2">
+                  <v>55.1248</v>
+                </pt>
+                <pt idx="3">
+                  <v>74.3052</v>
+                </pt>
+                <pt idx="4">
+                  <v>61.2846</v>
+                </pt>
+                <pt idx="5">
+                  <v>63.3506</v>
+                </pt>
+                <pt idx="6">
+                  <v>69.6906</v>
+                </pt>
+                <pt idx="7">
+                  <v>60.9708</v>
+                </pt>
+                <pt idx="8">
+                  <v>59.1547</v>
+                </pt>
+                <pt idx="9">
+                  <v>65.57989999999999</v>
+                </pt>
+                <pt idx="10">
+                  <v>55.923</v>
+                </pt>
+                <pt idx="11">
+                  <v>59.4605</v>
+                </pt>
+                <pt idx="12">
+                  <v>56.9516</v>
+                </pt>
+                <pt idx="13">
+                  <v>58.594</v>
+                </pt>
+                <pt idx="14">
+                  <v>60.4237</v>
+                </pt>
+                <pt idx="15">
+                  <v>59.0957</v>
                 </pt>
               </numCache>
             </numRef>
@@ -2381,33 +2878,8 @@
       </valAx>
     </plotArea>
     <legend>
-      <legendPos val="r"/>
-      <layout>
-        <manualLayout>
-          <xMode val="edge"/>
-          <yMode val="edge"/>
-          <wMode val="factor"/>
-          <hMode val="factor"/>
-          <x val="0.5636849354226762"/>
-          <y val="0.6254994279561209"/>
-          <w val="0.3836870143707284"/>
-          <h val="0.2236395450568679"/>
-        </manualLayout>
-      </layout>
+      <legendPos val="t"/>
       <overlay val="0"/>
-      <spPr>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="bg1">
-              <a:lumMod val="65000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </spPr>
     </legend>
     <plotVisOnly val="1"/>
     <dispBlanksAs val="gap"/>
@@ -2427,9 +2899,9 @@
           <wMode val="factor"/>
           <hMode val="factor"/>
           <x val="0.09111301681349238"/>
-          <y val="0.03800606309402162"/>
+          <y val="0.1645017834309173"/>
           <w val="0.8736779189729996"/>
-          <h val="0.8283126059471367"/>
+          <h val="0.698398007941315"/>
         </manualLayout>
       </layout>
       <scatterChart>
@@ -2529,52 +3001,52 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>8.09909</v>
+                  <v>13.8891</v>
                 </pt>
                 <pt idx="1">
-                  <v>15.3101</v>
+                  <v>26.7801</v>
                 </pt>
                 <pt idx="2">
-                  <v>21.7179</v>
+                  <v>31.3916</v>
                 </pt>
                 <pt idx="3">
-                  <v>28.2652</v>
+                  <v>42.1114</v>
                 </pt>
                 <pt idx="4">
-                  <v>29.5296</v>
+                  <v>40.0238</v>
                 </pt>
                 <pt idx="5">
-                  <v>30.98</v>
+                  <v>39.5469</v>
                 </pt>
                 <pt idx="6">
-                  <v>32.674</v>
+                  <v>37.7463</v>
                 </pt>
                 <pt idx="7">
-                  <v>34.0632</v>
+                  <v>39.7074</v>
                 </pt>
                 <pt idx="8">
-                  <v>33.8636</v>
+                  <v>46.2775</v>
                 </pt>
                 <pt idx="9">
-                  <v>34.1339</v>
+                  <v>47.6475</v>
                 </pt>
                 <pt idx="10">
-                  <v>33.7174</v>
+                  <v>41.1897</v>
                 </pt>
                 <pt idx="11">
-                  <v>33.6251</v>
+                  <v>44.6059</v>
                 </pt>
                 <pt idx="12">
-                  <v>34.1161</v>
+                  <v>42.3724</v>
                 </pt>
                 <pt idx="13">
-                  <v>33.9719</v>
+                  <v>46.0471</v>
                 </pt>
                 <pt idx="14">
-                  <v>33.9311</v>
+                  <v>44.8912</v>
                 </pt>
                 <pt idx="15">
-                  <v>33.909</v>
+                  <v>49.0374</v>
                 </pt>
               </numCache>
             </numRef>
@@ -2675,52 +3147,52 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>11.1984</v>
+                  <v>18.6855</v>
                 </pt>
                 <pt idx="1">
-                  <v>18.6114</v>
+                  <v>31.0102</v>
                 </pt>
                 <pt idx="2">
-                  <v>24.403</v>
+                  <v>35.7257</v>
                 </pt>
                 <pt idx="3">
-                  <v>28.5845</v>
+                  <v>50.8404</v>
                 </pt>
                 <pt idx="4">
-                  <v>18.4644</v>
+                  <v>40.4798</v>
                 </pt>
                 <pt idx="5">
-                  <v>17.2278</v>
+                  <v>40.7141</v>
                 </pt>
                 <pt idx="6">
-                  <v>16.4989</v>
+                  <v>37.2463</v>
                 </pt>
                 <pt idx="7">
-                  <v>16.2178</v>
+                  <v>39.2744</v>
                 </pt>
                 <pt idx="8">
-                  <v>19.597</v>
+                  <v>40.4141</v>
                 </pt>
                 <pt idx="9">
-                  <v>18.323</v>
+                  <v>42.6102</v>
                 </pt>
                 <pt idx="10">
-                  <v>17.3089</v>
+                  <v>39.5541</v>
                 </pt>
                 <pt idx="11">
-                  <v>17.4284</v>
+                  <v>43.5443</v>
                 </pt>
                 <pt idx="12">
-                  <v>17.3952</v>
+                  <v>48.8967</v>
                 </pt>
                 <pt idx="13">
-                  <v>17.2446</v>
+                  <v>45.6242</v>
                 </pt>
                 <pt idx="14">
-                  <v>17.7765</v>
+                  <v>49.8071</v>
                 </pt>
                 <pt idx="15">
-                  <v>17.6216</v>
+                  <v>46.0208</v>
                 </pt>
               </numCache>
             </numRef>
@@ -2821,52 +3293,195 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>14.1478</v>
+                  <v>25.1245</v>
                 </pt>
                 <pt idx="1">
-                  <v>25.7691</v>
+                  <v>33.3849</v>
                 </pt>
                 <pt idx="2">
-                  <v>35.9245</v>
+                  <v>48.2392</v>
                 </pt>
                 <pt idx="3">
-                  <v>46.2667</v>
+                  <v>61.9033</v>
                 </pt>
                 <pt idx="4">
-                  <v>38.9787</v>
+                  <v>51.4984</v>
                 </pt>
                 <pt idx="5">
-                  <v>36.5341</v>
+                  <v>49.997</v>
                 </pt>
                 <pt idx="6">
-                  <v>36.6022</v>
+                  <v>53.5658</v>
                 </pt>
                 <pt idx="7">
-                  <v>36.4625</v>
+                  <v>49.8046</v>
                 </pt>
                 <pt idx="8">
-                  <v>38.1908</v>
+                  <v>51.2952</v>
                 </pt>
                 <pt idx="9">
-                  <v>38.5839</v>
+                  <v>55.992</v>
                 </pt>
                 <pt idx="10">
-                  <v>40.3806</v>
+                  <v>51.6304</v>
                 </pt>
                 <pt idx="11">
-                  <v>41.092</v>
+                  <v>54.8665</v>
                 </pt>
                 <pt idx="12">
-                  <v>40.9808</v>
+                  <v>54.975</v>
                 </pt>
                 <pt idx="13">
-                  <v>41.5043</v>
+                  <v>55.5807</v>
                 </pt>
                 <pt idx="14">
-                  <v>41.8637</v>
+                  <v>44.9125</v>
                 </pt>
                 <pt idx="15">
-                  <v>41.843</v>
+                  <v>55.7518</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </yVal>
+          <smooth val="0"/>
+        </ser>
+        <ser>
+          <idx val="3"/>
+          <order val="3"/>
+          <tx>
+            <strRef>
+              <f>'5M, 0.5'!$E$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>boost::concurrent_flat_map bulk</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>'5M, 0.5'!$A$2:$A$33</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="32"/>
+                <pt idx="0">
+                  <v>1</v>
+                </pt>
+                <pt idx="1">
+                  <v>2</v>
+                </pt>
+                <pt idx="2">
+                  <v>3</v>
+                </pt>
+                <pt idx="3">
+                  <v>4</v>
+                </pt>
+                <pt idx="4">
+                  <v>5</v>
+                </pt>
+                <pt idx="5">
+                  <v>6</v>
+                </pt>
+                <pt idx="6">
+                  <v>7</v>
+                </pt>
+                <pt idx="7">
+                  <v>8</v>
+                </pt>
+                <pt idx="8">
+                  <v>9</v>
+                </pt>
+                <pt idx="9">
+                  <v>10</v>
+                </pt>
+                <pt idx="10">
+                  <v>11</v>
+                </pt>
+                <pt idx="11">
+                  <v>12</v>
+                </pt>
+                <pt idx="12">
+                  <v>13</v>
+                </pt>
+                <pt idx="13">
+                  <v>14</v>
+                </pt>
+                <pt idx="14">
+                  <v>15</v>
+                </pt>
+                <pt idx="15">
+                  <v>16</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>'5M, 0.5'!$E$2:$E$33</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="32"/>
+                <pt idx="0">
+                  <v>29.8425</v>
+                </pt>
+                <pt idx="1">
+                  <v>44.9754</v>
+                </pt>
+                <pt idx="2">
+                  <v>55.1248</v>
+                </pt>
+                <pt idx="3">
+                  <v>74.3052</v>
+                </pt>
+                <pt idx="4">
+                  <v>61.2846</v>
+                </pt>
+                <pt idx="5">
+                  <v>63.3506</v>
+                </pt>
+                <pt idx="6">
+                  <v>69.6906</v>
+                </pt>
+                <pt idx="7">
+                  <v>60.9708</v>
+                </pt>
+                <pt idx="8">
+                  <v>59.1547</v>
+                </pt>
+                <pt idx="9">
+                  <v>65.57989999999999</v>
+                </pt>
+                <pt idx="10">
+                  <v>55.923</v>
+                </pt>
+                <pt idx="11">
+                  <v>59.4605</v>
+                </pt>
+                <pt idx="12">
+                  <v>56.9516</v>
+                </pt>
+                <pt idx="13">
+                  <v>58.594</v>
+                </pt>
+                <pt idx="14">
+                  <v>60.4237</v>
+                </pt>
+                <pt idx="15">
+                  <v>59.0957</v>
                 </pt>
               </numCache>
             </numRef>
@@ -2959,33 +3574,8 @@
       </valAx>
     </plotArea>
     <legend>
-      <legendPos val="r"/>
-      <layout>
-        <manualLayout>
-          <xMode val="edge"/>
-          <yMode val="edge"/>
-          <wMode val="factor"/>
-          <hMode val="factor"/>
-          <x val="0.5636849354226762"/>
-          <y val="0.6254994279561209"/>
-          <w val="0.3836870143707284"/>
-          <h val="0.2236395450568679"/>
-        </manualLayout>
-      </layout>
+      <legendPos val="t"/>
       <overlay val="0"/>
-      <spPr>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="bg1">
-              <a:lumMod val="65000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </spPr>
     </legend>
     <plotVisOnly val="1"/>
     <dispBlanksAs val="gap"/>
@@ -3005,9 +3595,9 @@
           <wMode val="factor"/>
           <hMode val="factor"/>
           <x val="0.09111301681349238"/>
-          <y val="0.03800606309402162"/>
+          <y val="0.1645017834309173"/>
           <w val="0.8736779189729996"/>
-          <h val="0.8283126059471367"/>
+          <h val="0.698398007941315"/>
         </manualLayout>
       </layout>
       <scatterChart>
@@ -3107,52 +3697,52 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>9.50034</v>
+                  <v>13.8891</v>
                 </pt>
                 <pt idx="1">
-                  <v>17.8289</v>
+                  <v>26.7801</v>
                 </pt>
                 <pt idx="2">
-                  <v>25.3146</v>
+                  <v>31.3916</v>
                 </pt>
                 <pt idx="3">
-                  <v>33.209</v>
+                  <v>42.1114</v>
                 </pt>
                 <pt idx="4">
-                  <v>32.955</v>
+                  <v>40.0238</v>
                 </pt>
                 <pt idx="5">
-                  <v>34.7817</v>
+                  <v>39.5469</v>
                 </pt>
                 <pt idx="6">
-                  <v>36.3239</v>
+                  <v>37.7463</v>
                 </pt>
                 <pt idx="7">
-                  <v>38.1812</v>
+                  <v>39.7074</v>
                 </pt>
                 <pt idx="8">
-                  <v>37.8878</v>
+                  <v>46.2775</v>
                 </pt>
                 <pt idx="9">
-                  <v>38.009</v>
+                  <v>47.6475</v>
                 </pt>
                 <pt idx="10">
-                  <v>38.3024</v>
+                  <v>41.1897</v>
                 </pt>
                 <pt idx="11">
-                  <v>37.8075</v>
+                  <v>44.6059</v>
                 </pt>
                 <pt idx="12">
-                  <v>38.1555</v>
+                  <v>42.3724</v>
                 </pt>
                 <pt idx="13">
-                  <v>37.9911</v>
+                  <v>46.0471</v>
                 </pt>
                 <pt idx="14">
-                  <v>37.8898</v>
+                  <v>44.8912</v>
                 </pt>
                 <pt idx="15">
-                  <v>38.1378</v>
+                  <v>49.0374</v>
                 </pt>
               </numCache>
             </numRef>
@@ -3253,52 +3843,52 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>11.5142</v>
+                  <v>18.6855</v>
                 </pt>
                 <pt idx="1">
-                  <v>19.5052</v>
+                  <v>31.0102</v>
                 </pt>
                 <pt idx="2">
-                  <v>25.8285</v>
+                  <v>35.7257</v>
                 </pt>
                 <pt idx="3">
-                  <v>30.4771</v>
+                  <v>50.8404</v>
                 </pt>
                 <pt idx="4">
-                  <v>19.2644</v>
+                  <v>40.4798</v>
                 </pt>
                 <pt idx="5">
-                  <v>17.907</v>
+                  <v>40.7141</v>
                 </pt>
                 <pt idx="6">
-                  <v>17.0008</v>
+                  <v>37.2463</v>
                 </pt>
                 <pt idx="7">
-                  <v>16.8152</v>
+                  <v>39.2744</v>
                 </pt>
                 <pt idx="8">
-                  <v>20.8086</v>
+                  <v>40.4141</v>
                 </pt>
                 <pt idx="9">
-                  <v>19.8123</v>
+                  <v>42.6102</v>
                 </pt>
                 <pt idx="10">
-                  <v>18.3327</v>
+                  <v>39.5541</v>
                 </pt>
                 <pt idx="11">
-                  <v>18.6433</v>
+                  <v>43.5443</v>
                 </pt>
                 <pt idx="12">
-                  <v>17.6417</v>
+                  <v>48.8967</v>
                 </pt>
                 <pt idx="13">
-                  <v>17.8255</v>
+                  <v>45.6242</v>
                 </pt>
                 <pt idx="14">
-                  <v>17.8327</v>
+                  <v>49.8071</v>
                 </pt>
                 <pt idx="15">
-                  <v>17.8783</v>
+                  <v>46.0208</v>
                 </pt>
               </numCache>
             </numRef>
@@ -3399,52 +3989,195 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>13.4315</v>
+                  <v>25.1245</v>
                 </pt>
                 <pt idx="1">
-                  <v>24.88</v>
+                  <v>33.3849</v>
                 </pt>
                 <pt idx="2">
-                  <v>35.26</v>
+                  <v>48.2392</v>
                 </pt>
                 <pt idx="3">
-                  <v>46.293</v>
+                  <v>61.9033</v>
                 </pt>
                 <pt idx="4">
-                  <v>39.9577</v>
+                  <v>51.4984</v>
                 </pt>
                 <pt idx="5">
-                  <v>39.6963</v>
+                  <v>49.997</v>
                 </pt>
                 <pt idx="6">
-                  <v>36.2567</v>
+                  <v>53.5658</v>
                 </pt>
                 <pt idx="7">
-                  <v>39.0037</v>
+                  <v>49.8046</v>
                 </pt>
                 <pt idx="8">
-                  <v>38.8414</v>
+                  <v>51.2952</v>
                 </pt>
                 <pt idx="9">
-                  <v>39.8774</v>
+                  <v>55.992</v>
                 </pt>
                 <pt idx="10">
-                  <v>41.0872</v>
+                  <v>51.6304</v>
                 </pt>
                 <pt idx="11">
-                  <v>40.7784</v>
+                  <v>54.8665</v>
                 </pt>
                 <pt idx="12">
-                  <v>42.3415</v>
+                  <v>54.975</v>
                 </pt>
                 <pt idx="13">
-                  <v>42.2976</v>
+                  <v>55.5807</v>
                 </pt>
                 <pt idx="14">
-                  <v>44.8443</v>
+                  <v>44.9125</v>
                 </pt>
                 <pt idx="15">
-                  <v>42.8458</v>
+                  <v>55.7518</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </yVal>
+          <smooth val="0"/>
+        </ser>
+        <ser>
+          <idx val="3"/>
+          <order val="3"/>
+          <tx>
+            <strRef>
+              <f>'5M, 0.99'!$E$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>boost::concurrent_flat_map bulk</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>'5M, 0.99'!$A$2:$A$33</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="32"/>
+                <pt idx="0">
+                  <v>1</v>
+                </pt>
+                <pt idx="1">
+                  <v>2</v>
+                </pt>
+                <pt idx="2">
+                  <v>3</v>
+                </pt>
+                <pt idx="3">
+                  <v>4</v>
+                </pt>
+                <pt idx="4">
+                  <v>5</v>
+                </pt>
+                <pt idx="5">
+                  <v>6</v>
+                </pt>
+                <pt idx="6">
+                  <v>7</v>
+                </pt>
+                <pt idx="7">
+                  <v>8</v>
+                </pt>
+                <pt idx="8">
+                  <v>9</v>
+                </pt>
+                <pt idx="9">
+                  <v>10</v>
+                </pt>
+                <pt idx="10">
+                  <v>11</v>
+                </pt>
+                <pt idx="11">
+                  <v>12</v>
+                </pt>
+                <pt idx="12">
+                  <v>13</v>
+                </pt>
+                <pt idx="13">
+                  <v>14</v>
+                </pt>
+                <pt idx="14">
+                  <v>15</v>
+                </pt>
+                <pt idx="15">
+                  <v>16</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>'5M, 0.99'!$E$2:$E$33</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="32"/>
+                <pt idx="0">
+                  <v>29.8425</v>
+                </pt>
+                <pt idx="1">
+                  <v>44.9754</v>
+                </pt>
+                <pt idx="2">
+                  <v>55.1248</v>
+                </pt>
+                <pt idx="3">
+                  <v>74.3052</v>
+                </pt>
+                <pt idx="4">
+                  <v>61.2846</v>
+                </pt>
+                <pt idx="5">
+                  <v>63.3506</v>
+                </pt>
+                <pt idx="6">
+                  <v>69.6906</v>
+                </pt>
+                <pt idx="7">
+                  <v>60.9708</v>
+                </pt>
+                <pt idx="8">
+                  <v>59.1547</v>
+                </pt>
+                <pt idx="9">
+                  <v>65.57989999999999</v>
+                </pt>
+                <pt idx="10">
+                  <v>55.923</v>
+                </pt>
+                <pt idx="11">
+                  <v>59.4605</v>
+                </pt>
+                <pt idx="12">
+                  <v>56.9516</v>
+                </pt>
+                <pt idx="13">
+                  <v>58.594</v>
+                </pt>
+                <pt idx="14">
+                  <v>60.4237</v>
+                </pt>
+                <pt idx="15">
+                  <v>59.0957</v>
                 </pt>
               </numCache>
             </numRef>
@@ -3537,33 +4270,8 @@
       </valAx>
     </plotArea>
     <legend>
-      <legendPos val="r"/>
-      <layout>
-        <manualLayout>
-          <xMode val="edge"/>
-          <yMode val="edge"/>
-          <wMode val="factor"/>
-          <hMode val="factor"/>
-          <x val="0.5636849354226762"/>
-          <y val="0.6254994279561209"/>
-          <w val="0.3836870143707284"/>
-          <h val="0.2236395450568679"/>
-        </manualLayout>
-      </layout>
+      <legendPos val="t"/>
       <overlay val="0"/>
-      <spPr>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="bg1">
-              <a:lumMod val="65000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </spPr>
     </legend>
     <plotVisOnly val="1"/>
     <dispBlanksAs val="gap"/>
@@ -4050,14 +4758,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr codeName="Hoja1">
+  <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4081,19 +4789,27 @@
           <t>boost::concurrent_flat_map</t>
         </is>
       </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>boost::concurrent_flat_map bulk</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>9.37229</v>
+        <v>9.31147</v>
       </c>
       <c r="C2" t="n">
-        <v>10.8485</v>
+        <v>10.8082</v>
       </c>
       <c r="D2" t="n">
-        <v>13.1944</v>
+        <v>13.1043</v>
+      </c>
+      <c r="E2" t="n">
+        <v>15.0561</v>
       </c>
     </row>
     <row r="3">
@@ -4101,13 +4817,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>17.5226</v>
+        <v>17.1107</v>
       </c>
       <c r="C3" t="n">
-        <v>16.7446</v>
+        <v>16.9352</v>
       </c>
       <c r="D3" t="n">
-        <v>21.7675</v>
+        <v>21.6317</v>
+      </c>
+      <c r="E3" t="n">
+        <v>24.0089</v>
       </c>
     </row>
     <row r="4">
@@ -4115,13 +4834,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>24.2661</v>
+        <v>23.3607</v>
       </c>
       <c r="C4" t="n">
-        <v>21.595</v>
+        <v>21.0397</v>
       </c>
       <c r="D4" t="n">
-        <v>26.0945</v>
+        <v>27.4983</v>
+      </c>
+      <c r="E4" t="n">
+        <v>32.7281</v>
       </c>
     </row>
     <row r="5">
@@ -4129,13 +4851,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>19.1192</v>
+        <v>19.6338</v>
       </c>
       <c r="C5" t="n">
-        <v>23.8781</v>
+        <v>23.4032</v>
       </c>
       <c r="D5" t="n">
-        <v>29.4313</v>
+        <v>30.3445</v>
+      </c>
+      <c r="E5" t="n">
+        <v>34.3508</v>
       </c>
     </row>
     <row r="6">
@@ -4143,13 +4868,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>22.5631</v>
+        <v>22.5639</v>
       </c>
       <c r="C6" t="n">
-        <v>27.8326</v>
+        <v>27.7733</v>
       </c>
       <c r="D6" t="n">
-        <v>31.8142</v>
+        <v>33.4629</v>
+      </c>
+      <c r="E6" t="n">
+        <v>39.6882</v>
       </c>
     </row>
     <row r="7">
@@ -4157,13 +4885,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>26.5171</v>
+        <v>26.4549</v>
       </c>
       <c r="C7" t="n">
-        <v>32.6743</v>
+        <v>32.5999</v>
       </c>
       <c r="D7" t="n">
-        <v>34.956</v>
+        <v>35.5488</v>
+      </c>
+      <c r="E7" t="n">
+        <v>39.4796</v>
       </c>
     </row>
     <row r="8">
@@ -4171,13 +4902,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>20.2473</v>
+        <v>20.0042</v>
       </c>
       <c r="C8" t="n">
-        <v>30.1214</v>
+        <v>30.3405</v>
       </c>
       <c r="D8" t="n">
-        <v>36.2754</v>
+        <v>37.8271</v>
+      </c>
+      <c r="E8" t="n">
+        <v>40.0259</v>
       </c>
     </row>
     <row r="9">
@@ -4185,13 +4919,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>22.5627</v>
+        <v>22.2181</v>
       </c>
       <c r="C9" t="n">
-        <v>30.0551</v>
+        <v>30.0982</v>
       </c>
       <c r="D9" t="n">
-        <v>39.7516</v>
+        <v>39.6479</v>
+      </c>
+      <c r="E9" t="n">
+        <v>45.0861</v>
       </c>
     </row>
     <row r="10">
@@ -4199,13 +4936,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>24.5595</v>
+        <v>24.6312</v>
       </c>
       <c r="C10" t="n">
-        <v>30.4774</v>
+        <v>30.22</v>
       </c>
       <c r="D10" t="n">
-        <v>41.5111</v>
+        <v>40.984</v>
+      </c>
+      <c r="E10" t="n">
+        <v>51.7739</v>
       </c>
     </row>
     <row r="11">
@@ -4213,13 +4953,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>22.4404</v>
+        <v>22.3029</v>
       </c>
       <c r="C11" t="n">
-        <v>30.5816</v>
+        <v>30.5642</v>
       </c>
       <c r="D11" t="n">
-        <v>42.8821</v>
+        <v>45.0092</v>
+      </c>
+      <c r="E11" t="n">
+        <v>49.4556</v>
       </c>
     </row>
     <row r="12">
@@ -4227,13 +4970,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>24.4656</v>
+        <v>24.4169</v>
       </c>
       <c r="C12" t="n">
-        <v>30.4579</v>
+        <v>31.011</v>
       </c>
       <c r="D12" t="n">
-        <v>43.7714</v>
+        <v>43.4044</v>
+      </c>
+      <c r="E12" t="n">
+        <v>51.2834</v>
       </c>
     </row>
     <row r="13">
@@ -4241,13 +4987,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>26.4885</v>
+        <v>26.4198</v>
       </c>
       <c r="C13" t="n">
-        <v>30.8716</v>
+        <v>31.7496</v>
       </c>
       <c r="D13" t="n">
-        <v>44.6766</v>
+        <v>44.7189</v>
+      </c>
+      <c r="E13" t="n">
+        <v>53.5349</v>
       </c>
     </row>
     <row r="14">
@@ -4255,13 +5004,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>22.3412</v>
+        <v>22.2568</v>
       </c>
       <c r="C14" t="n">
-        <v>30.8401</v>
+        <v>30.4308</v>
       </c>
       <c r="D14" t="n">
-        <v>44.3202</v>
+        <v>43.7719</v>
+      </c>
+      <c r="E14" t="n">
+        <v>52.7737</v>
       </c>
     </row>
     <row r="15">
@@ -4269,13 +5021,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>23.8044</v>
+        <v>23.6149</v>
       </c>
       <c r="C15" t="n">
-        <v>31.1524</v>
+        <v>30.7989</v>
       </c>
       <c r="D15" t="n">
-        <v>44.8502</v>
+        <v>44.6717</v>
+      </c>
+      <c r="E15" t="n">
+        <v>56.1492</v>
       </c>
     </row>
     <row r="16">
@@ -4283,13 +5038,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>25.0529</v>
+        <v>24.8275</v>
       </c>
       <c r="C16" t="n">
-        <v>30.8357</v>
+        <v>30.7615</v>
       </c>
       <c r="D16" t="n">
-        <v>44.4876</v>
+        <v>45.208</v>
+      </c>
+      <c r="E16" t="n">
+        <v>54.2043</v>
       </c>
     </row>
     <row r="17">
@@ -4297,13 +5055,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>23.8686</v>
+        <v>23.9265</v>
       </c>
       <c r="C17" t="n">
-        <v>31.3669</v>
+        <v>30.8902</v>
       </c>
       <c r="D17" t="n">
-        <v>45.0643</v>
+        <v>44.956</v>
+      </c>
+      <c r="E17" t="n">
+        <v>53.3828</v>
       </c>
     </row>
   </sheetData>
@@ -4318,10 +5079,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4345,19 +5106,27 @@
           <t>boost::concurrent_flat_map</t>
         </is>
       </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>boost::concurrent_flat_map bulk</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>9.35272</v>
+        <v>9.33399</v>
       </c>
       <c r="C2" t="n">
-        <v>10.84</v>
+        <v>10.8157</v>
       </c>
       <c r="D2" t="n">
-        <v>13.0604</v>
+        <v>13.0184</v>
+      </c>
+      <c r="E2" t="n">
+        <v>14.9342</v>
       </c>
     </row>
     <row r="3">
@@ -4365,13 +5134,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>17.5103</v>
+        <v>17.2543</v>
       </c>
       <c r="C3" t="n">
-        <v>16.8061</v>
+        <v>17.1945</v>
       </c>
       <c r="D3" t="n">
-        <v>20.921</v>
+        <v>21.0009</v>
+      </c>
+      <c r="E3" t="n">
+        <v>24.009</v>
       </c>
     </row>
     <row r="4">
@@ -4379,13 +5151,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>24.4689</v>
+        <v>23.3105</v>
       </c>
       <c r="C4" t="n">
-        <v>21.3809</v>
+        <v>21.7839</v>
       </c>
       <c r="D4" t="n">
-        <v>26.9621</v>
+        <v>26.4149</v>
+      </c>
+      <c r="E4" t="n">
+        <v>29.4068</v>
       </c>
     </row>
     <row r="5">
@@ -4393,13 +5168,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>18.9722</v>
+        <v>19.0321</v>
       </c>
       <c r="C5" t="n">
-        <v>23.5562</v>
+        <v>23.4235</v>
       </c>
       <c r="D5" t="n">
-        <v>28.4559</v>
+        <v>27.5415</v>
+      </c>
+      <c r="E5" t="n">
+        <v>35.194</v>
       </c>
     </row>
     <row r="6">
@@ -4407,13 +5185,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>23.0543</v>
+        <v>22.9988</v>
       </c>
       <c r="C6" t="n">
-        <v>27.7886</v>
+        <v>27.7766</v>
       </c>
       <c r="D6" t="n">
-        <v>35.164</v>
+        <v>34.6979</v>
+      </c>
+      <c r="E6" t="n">
+        <v>38.9458</v>
       </c>
     </row>
     <row r="7">
@@ -4421,13 +5202,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>27.0921</v>
+        <v>27.0853</v>
       </c>
       <c r="C7" t="n">
-        <v>32.5615</v>
+        <v>32.4921</v>
       </c>
       <c r="D7" t="n">
-        <v>35.3092</v>
+        <v>38.2111</v>
+      </c>
+      <c r="E7" t="n">
+        <v>45.0796</v>
       </c>
     </row>
     <row r="8">
@@ -4435,13 +5219,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>20.1957</v>
+        <v>19.9482</v>
       </c>
       <c r="C8" t="n">
-        <v>29.3933</v>
+        <v>29.604</v>
       </c>
       <c r="D8" t="n">
-        <v>34.7576</v>
+        <v>35.5268</v>
+      </c>
+      <c r="E8" t="n">
+        <v>42.827</v>
       </c>
     </row>
     <row r="9">
@@ -4449,13 +5236,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>22.8345</v>
+        <v>22.8243</v>
       </c>
       <c r="C9" t="n">
-        <v>30.0414</v>
+        <v>29.4048</v>
       </c>
       <c r="D9" t="n">
-        <v>35.8017</v>
+        <v>37.7723</v>
+      </c>
+      <c r="E9" t="n">
+        <v>48.015</v>
       </c>
     </row>
     <row r="10">
@@ -4463,13 +5253,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>24.7545</v>
+        <v>24.3484</v>
       </c>
       <c r="C10" t="n">
-        <v>30.3893</v>
+        <v>30.3038</v>
       </c>
       <c r="D10" t="n">
-        <v>37.7617</v>
+        <v>38.9284</v>
+      </c>
+      <c r="E10" t="n">
+        <v>46.9853</v>
       </c>
     </row>
     <row r="11">
@@ -4477,13 +5270,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>22.8262</v>
+        <v>22.8086</v>
       </c>
       <c r="C11" t="n">
-        <v>30.0136</v>
+        <v>30.009</v>
       </c>
       <c r="D11" t="n">
-        <v>40.0042</v>
+        <v>39.5142</v>
+      </c>
+      <c r="E11" t="n">
+        <v>52.5587</v>
       </c>
     </row>
     <row r="12">
@@ -4491,13 +5287,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>24.9225</v>
+        <v>24.8154</v>
       </c>
       <c r="C12" t="n">
-        <v>30.3444</v>
+        <v>30.7298</v>
       </c>
       <c r="D12" t="n">
-        <v>40.7082</v>
+        <v>41.1633</v>
+      </c>
+      <c r="E12" t="n">
+        <v>51.5596</v>
       </c>
     </row>
     <row r="13">
@@ -4505,13 +5304,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>27.0886</v>
+        <v>26.9976</v>
       </c>
       <c r="C13" t="n">
-        <v>31.2964</v>
+        <v>31.3667</v>
       </c>
       <c r="D13" t="n">
-        <v>43.3247</v>
+        <v>40.4943</v>
+      </c>
+      <c r="E13" t="n">
+        <v>52.7693</v>
       </c>
     </row>
     <row r="14">
@@ -4519,13 +5321,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>22.5926</v>
+        <v>22.2598</v>
       </c>
       <c r="C14" t="n">
-        <v>31.5612</v>
+        <v>31.3792</v>
       </c>
       <c r="D14" t="n">
-        <v>44.4129</v>
+        <v>43.6812</v>
+      </c>
+      <c r="E14" t="n">
+        <v>52.1722</v>
       </c>
     </row>
     <row r="15">
@@ -4533,13 +5338,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>24.3019</v>
+        <v>24.124</v>
       </c>
       <c r="C15" t="n">
-        <v>31.3539</v>
+        <v>31.1495</v>
       </c>
       <c r="D15" t="n">
-        <v>43.2084</v>
+        <v>44.0242</v>
+      </c>
+      <c r="E15" t="n">
+        <v>52.4791</v>
       </c>
     </row>
     <row r="16">
@@ -4547,13 +5355,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>25.1342</v>
+        <v>25.4146</v>
       </c>
       <c r="C16" t="n">
-        <v>31.6479</v>
+        <v>31.2737</v>
       </c>
       <c r="D16" t="n">
-        <v>43.9093</v>
+        <v>44.378</v>
+      </c>
+      <c r="E16" t="n">
+        <v>52.7752</v>
       </c>
     </row>
     <row r="17">
@@ -4561,13 +5372,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>24.4367</v>
+        <v>24.1901</v>
       </c>
       <c r="C17" t="n">
-        <v>31.6769</v>
+        <v>31.6231</v>
       </c>
       <c r="D17" t="n">
-        <v>44.8195</v>
+        <v>45.0772</v>
+      </c>
+      <c r="E17" t="n">
+        <v>53.4543</v>
       </c>
     </row>
   </sheetData>
@@ -4582,10 +5396,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4609,19 +5423,27 @@
           <t>boost::concurrent_flat_map</t>
         </is>
       </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>boost::concurrent_flat_map bulk</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>10.9198</v>
+        <v>10.9376</v>
       </c>
       <c r="C2" t="n">
-        <v>11.5984</v>
+        <v>11.6329</v>
       </c>
       <c r="D2" t="n">
-        <v>13.8814</v>
+        <v>13.8449</v>
+      </c>
+      <c r="E2" t="n">
+        <v>15.7262</v>
       </c>
     </row>
     <row r="3">
@@ -4629,13 +5451,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>19.5583</v>
+        <v>19.3897</v>
       </c>
       <c r="C3" t="n">
-        <v>19.4837</v>
+        <v>19.5134</v>
       </c>
       <c r="D3" t="n">
-        <v>22.0462</v>
+        <v>22.0548</v>
+      </c>
+      <c r="E3" t="n">
+        <v>24.1289</v>
       </c>
     </row>
     <row r="4">
@@ -4643,13 +5468,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>26.9745</v>
+        <v>26.8028</v>
       </c>
       <c r="C4" t="n">
-        <v>24.7524</v>
+        <v>25.4517</v>
       </c>
       <c r="D4" t="n">
-        <v>31.5766</v>
+        <v>30.5782</v>
+      </c>
+      <c r="E4" t="n">
+        <v>34.65</v>
       </c>
     </row>
     <row r="5">
@@ -4657,13 +5485,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>23.165</v>
+        <v>23.1209</v>
       </c>
       <c r="C5" t="n">
-        <v>24.7052</v>
+        <v>24.92</v>
       </c>
       <c r="D5" t="n">
-        <v>31.4042</v>
+        <v>31.1603</v>
+      </c>
+      <c r="E5" t="n">
+        <v>35.1516</v>
       </c>
     </row>
     <row r="6">
@@ -4671,13 +5502,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>28.0552</v>
+        <v>28.0565</v>
       </c>
       <c r="C6" t="n">
-        <v>28.7796</v>
+        <v>28.5526</v>
       </c>
       <c r="D6" t="n">
-        <v>33.9055</v>
+        <v>34.6059</v>
+      </c>
+      <c r="E6" t="n">
+        <v>36.947</v>
       </c>
     </row>
     <row r="7">
@@ -4685,13 +5519,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>33.2156</v>
+        <v>33.2021</v>
       </c>
       <c r="C7" t="n">
-        <v>33.6116</v>
+        <v>33.5978</v>
       </c>
       <c r="D7" t="n">
-        <v>35.0818</v>
+        <v>35.1185</v>
+      </c>
+      <c r="E7" t="n">
+        <v>52.1082</v>
       </c>
     </row>
     <row r="8">
@@ -4699,13 +5536,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>30.3589</v>
+        <v>29.1922</v>
       </c>
       <c r="C8" t="n">
-        <v>29.4224</v>
+        <v>30.1022</v>
       </c>
       <c r="D8" t="n">
-        <v>35.2828</v>
+        <v>36.0097</v>
+      </c>
+      <c r="E8" t="n">
+        <v>47.2716</v>
       </c>
     </row>
     <row r="9">
@@ -4713,13 +5553,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>30.1494</v>
+        <v>30.2901</v>
       </c>
       <c r="C9" t="n">
-        <v>30.3251</v>
+        <v>30.1734</v>
       </c>
       <c r="D9" t="n">
-        <v>37.9561</v>
+        <v>42.1705</v>
+      </c>
+      <c r="E9" t="n">
+        <v>49.5186</v>
       </c>
     </row>
     <row r="10">
@@ -4727,13 +5570,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>30.0965</v>
+        <v>29.9487</v>
       </c>
       <c r="C10" t="n">
-        <v>30.6278</v>
+        <v>30.3648</v>
       </c>
       <c r="D10" t="n">
-        <v>42.4264</v>
+        <v>42.0829</v>
+      </c>
+      <c r="E10" t="n">
+        <v>50.6262</v>
       </c>
     </row>
     <row r="11">
@@ -4741,13 +5587,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>30.8187</v>
+        <v>31.1335</v>
       </c>
       <c r="C11" t="n">
-        <v>31.0266</v>
+        <v>30.1256</v>
       </c>
       <c r="D11" t="n">
-        <v>45.2086</v>
+        <v>41.8844</v>
+      </c>
+      <c r="E11" t="n">
+        <v>52.6194</v>
       </c>
     </row>
     <row r="12">
@@ -4755,13 +5604,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>31.2426</v>
+        <v>30.8807</v>
       </c>
       <c r="C12" t="n">
-        <v>31.0037</v>
+        <v>31.1178</v>
       </c>
       <c r="D12" t="n">
-        <v>44.5341</v>
+        <v>43.754</v>
+      </c>
+      <c r="E12" t="n">
+        <v>51.852</v>
       </c>
     </row>
     <row r="13">
@@ -4769,13 +5621,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>31.4587</v>
+        <v>30.9027</v>
       </c>
       <c r="C13" t="n">
-        <v>30.8265</v>
+        <v>31.3909</v>
       </c>
       <c r="D13" t="n">
-        <v>43.9641</v>
+        <v>43.5404</v>
+      </c>
+      <c r="E13" t="n">
+        <v>53.1235</v>
       </c>
     </row>
     <row r="14">
@@ -4783,13 +5638,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>31.3775</v>
+        <v>30.9881</v>
       </c>
       <c r="C14" t="n">
-        <v>31.4903</v>
+        <v>31.1669</v>
       </c>
       <c r="D14" t="n">
-        <v>44.8467</v>
+        <v>44.0003</v>
+      </c>
+      <c r="E14" t="n">
+        <v>52.8864</v>
       </c>
     </row>
     <row r="15">
@@ -4797,13 +5655,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>31.1772</v>
+        <v>31.166</v>
       </c>
       <c r="C15" t="n">
-        <v>31.4844</v>
+        <v>31.5178</v>
       </c>
       <c r="D15" t="n">
-        <v>45.1507</v>
+        <v>45.1941</v>
+      </c>
+      <c r="E15" t="n">
+        <v>54.8312</v>
       </c>
     </row>
     <row r="16">
@@ -4811,13 +5672,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>30.848</v>
+        <v>31.2079</v>
       </c>
       <c r="C16" t="n">
-        <v>30.9101</v>
+        <v>31.9482</v>
       </c>
       <c r="D16" t="n">
-        <v>44.8127</v>
+        <v>44.7939</v>
+      </c>
+      <c r="E16" t="n">
+        <v>52.8737</v>
       </c>
     </row>
     <row r="17">
@@ -4825,13 +5689,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>31.1531</v>
+        <v>31.3281</v>
       </c>
       <c r="C17" t="n">
-        <v>31.9492</v>
+        <v>32.1713</v>
       </c>
       <c r="D17" t="n">
-        <v>45.4191</v>
+        <v>44.4447</v>
+      </c>
+      <c r="E17" t="n">
+        <v>52.8766</v>
       </c>
     </row>
   </sheetData>
@@ -4846,10 +5713,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4873,19 +5740,27 @@
           <t>boost::concurrent_flat_map</t>
         </is>
       </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>boost::concurrent_flat_map bulk</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4.91372</v>
+        <v>4.88922</v>
       </c>
       <c r="C2" t="n">
-        <v>9.06756</v>
+        <v>8.95867</v>
       </c>
       <c r="D2" t="n">
-        <v>10.8773</v>
+        <v>10.8224</v>
+      </c>
+      <c r="E2" t="n">
+        <v>13.9801</v>
       </c>
     </row>
     <row r="3">
@@ -4893,13 +5768,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.59661</v>
+        <v>9.51728</v>
       </c>
       <c r="C3" t="n">
-        <v>15.8278</v>
+        <v>15.6482</v>
       </c>
       <c r="D3" t="n">
-        <v>20.8114</v>
+        <v>20.5565</v>
+      </c>
+      <c r="E3" t="n">
+        <v>26.4662</v>
       </c>
     </row>
     <row r="4">
@@ -4907,13 +5785,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>13.9489</v>
+        <v>13.7852</v>
       </c>
       <c r="C4" t="n">
-        <v>22.4159</v>
+        <v>21.853</v>
       </c>
       <c r="D4" t="n">
-        <v>30.1353</v>
+        <v>29.8244</v>
+      </c>
+      <c r="E4" t="n">
+        <v>37.8403</v>
       </c>
     </row>
     <row r="5">
@@ -4921,13 +5802,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>15.6749</v>
+        <v>15.6431</v>
       </c>
       <c r="C5" t="n">
-        <v>22.91</v>
+        <v>23.0398</v>
       </c>
       <c r="D5" t="n">
-        <v>34.157</v>
+        <v>34.1038</v>
+      </c>
+      <c r="E5" t="n">
+        <v>44.3526</v>
       </c>
     </row>
     <row r="6">
@@ -4935,13 +5819,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>18.7811</v>
+        <v>18.784</v>
       </c>
       <c r="C6" t="n">
-        <v>26.209</v>
+        <v>26.371</v>
       </c>
       <c r="D6" t="n">
-        <v>40.7245</v>
+        <v>41.2316</v>
+      </c>
+      <c r="E6" t="n">
+        <v>52.2186</v>
       </c>
     </row>
     <row r="7">
@@ -4949,13 +5836,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>22.1178</v>
+        <v>22.0313</v>
       </c>
       <c r="C7" t="n">
-        <v>31.2518</v>
+        <v>31.1264</v>
       </c>
       <c r="D7" t="n">
-        <v>47.4751</v>
+        <v>47.6236</v>
+      </c>
+      <c r="E7" t="n">
+        <v>62.1582</v>
       </c>
     </row>
     <row r="8">
@@ -4963,13 +5853,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>19.9016</v>
+        <v>19.9783</v>
       </c>
       <c r="C8" t="n">
-        <v>29.8321</v>
+        <v>29.6897</v>
       </c>
       <c r="D8" t="n">
-        <v>43.2637</v>
+        <v>44.23</v>
+      </c>
+      <c r="E8" t="n">
+        <v>55.1002</v>
       </c>
     </row>
     <row r="9">
@@ -4977,13 +5870,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>20.5425</v>
+        <v>20.5161</v>
       </c>
       <c r="C9" t="n">
-        <v>29.9134</v>
+        <v>29.9321</v>
       </c>
       <c r="D9" t="n">
-        <v>42.546</v>
+        <v>43.1581</v>
+      </c>
+      <c r="E9" t="n">
+        <v>55.3474</v>
       </c>
     </row>
     <row r="10">
@@ -4991,13 +5887,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>20.4792</v>
+        <v>20.8338</v>
       </c>
       <c r="C10" t="n">
-        <v>29.9168</v>
+        <v>29.3197</v>
       </c>
       <c r="D10" t="n">
-        <v>43.235</v>
+        <v>42.6291</v>
+      </c>
+      <c r="E10" t="n">
+        <v>55.1194</v>
       </c>
     </row>
     <row r="11">
@@ -5005,13 +5904,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>21.0705</v>
+        <v>21.09</v>
       </c>
       <c r="C11" t="n">
-        <v>30.5507</v>
+        <v>30.1034</v>
       </c>
       <c r="D11" t="n">
-        <v>43.3138</v>
+        <v>43.1449</v>
+      </c>
+      <c r="E11" t="n">
+        <v>55.8471</v>
       </c>
     </row>
     <row r="12">
@@ -5019,13 +5921,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>20.9867</v>
+        <v>20.7977</v>
       </c>
       <c r="C12" t="n">
-        <v>30.0993</v>
+        <v>29.9973</v>
       </c>
       <c r="D12" t="n">
-        <v>45.4752</v>
+        <v>44.6323</v>
+      </c>
+      <c r="E12" t="n">
+        <v>55.8305</v>
       </c>
     </row>
     <row r="13">
@@ -5033,13 +5938,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>21.094</v>
+        <v>20.9247</v>
       </c>
       <c r="C13" t="n">
-        <v>30.3744</v>
+        <v>30.3863</v>
       </c>
       <c r="D13" t="n">
-        <v>43.8643</v>
+        <v>44.6036</v>
+      </c>
+      <c r="E13" t="n">
+        <v>58.6067</v>
       </c>
     </row>
     <row r="14">
@@ -5047,13 +5955,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>20.8768</v>
+        <v>21.1173</v>
       </c>
       <c r="C14" t="n">
-        <v>30.6265</v>
+        <v>30.3502</v>
       </c>
       <c r="D14" t="n">
-        <v>45.2242</v>
+        <v>43.8457</v>
+      </c>
+      <c r="E14" t="n">
+        <v>57.6873</v>
       </c>
     </row>
     <row r="15">
@@ -5061,13 +5972,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>21.0776</v>
+        <v>21.0199</v>
       </c>
       <c r="C15" t="n">
-        <v>30.3133</v>
+        <v>30.5612</v>
       </c>
       <c r="D15" t="n">
-        <v>45.2091</v>
+        <v>44.7511</v>
+      </c>
+      <c r="E15" t="n">
+        <v>57.3878</v>
       </c>
     </row>
     <row r="16">
@@ -5075,13 +5989,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>21.0095</v>
+        <v>21.1111</v>
       </c>
       <c r="C16" t="n">
-        <v>30.6765</v>
+        <v>30.3487</v>
       </c>
       <c r="D16" t="n">
-        <v>45.6738</v>
+        <v>46.1586</v>
+      </c>
+      <c r="E16" t="n">
+        <v>59.4165</v>
       </c>
     </row>
     <row r="17">
@@ -5089,13 +6006,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>20.8351</v>
+        <v>21.2359</v>
       </c>
       <c r="C17" t="n">
-        <v>30.5022</v>
+        <v>30.4374</v>
       </c>
       <c r="D17" t="n">
-        <v>45.6992</v>
+        <v>45.6566</v>
+      </c>
+      <c r="E17" t="n">
+        <v>58.563</v>
       </c>
     </row>
   </sheetData>
@@ -5110,10 +6030,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -5137,19 +6057,27 @@
           <t>boost::concurrent_flat_map</t>
         </is>
       </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>boost::concurrent_flat_map bulk</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4.9922</v>
+        <v>4.99526</v>
       </c>
       <c r="C2" t="n">
-        <v>9.09036</v>
+        <v>9.004709999999999</v>
       </c>
       <c r="D2" t="n">
-        <v>10.8892</v>
+        <v>10.869</v>
+      </c>
+      <c r="E2" t="n">
+        <v>14.0367</v>
       </c>
     </row>
     <row r="3">
@@ -5157,13 +6085,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.769679999999999</v>
+        <v>9.73725</v>
       </c>
       <c r="C3" t="n">
-        <v>15.8352</v>
+        <v>15.6834</v>
       </c>
       <c r="D3" t="n">
-        <v>20.7242</v>
+        <v>20.5546</v>
+      </c>
+      <c r="E3" t="n">
+        <v>26.4798</v>
       </c>
     </row>
     <row r="4">
@@ -5171,13 +6102,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>14.194</v>
+        <v>14.0535</v>
       </c>
       <c r="C4" t="n">
-        <v>21.9172</v>
+        <v>22.0226</v>
       </c>
       <c r="D4" t="n">
-        <v>29.8959</v>
+        <v>29.7436</v>
+      </c>
+      <c r="E4" t="n">
+        <v>37.8873</v>
       </c>
     </row>
     <row r="5">
@@ -5185,13 +6119,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>16.0565</v>
+        <v>16.1684</v>
       </c>
       <c r="C5" t="n">
-        <v>23.0199</v>
+        <v>22.8789</v>
       </c>
       <c r="D5" t="n">
-        <v>33.5269</v>
+        <v>33.6968</v>
+      </c>
+      <c r="E5" t="n">
+        <v>43.7547</v>
       </c>
     </row>
     <row r="6">
@@ -5199,13 +6136,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>19.2958</v>
+        <v>19.2636</v>
       </c>
       <c r="C6" t="n">
-        <v>26.4488</v>
+        <v>26.4478</v>
       </c>
       <c r="D6" t="n">
-        <v>39.7958</v>
+        <v>40.0961</v>
+      </c>
+      <c r="E6" t="n">
+        <v>52.0785</v>
       </c>
     </row>
     <row r="7">
@@ -5213,13 +6153,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>22.738</v>
+        <v>22.6867</v>
       </c>
       <c r="C7" t="n">
-        <v>31.2553</v>
+        <v>31.2459</v>
       </c>
       <c r="D7" t="n">
-        <v>46.971</v>
+        <v>47.5224</v>
+      </c>
+      <c r="E7" t="n">
+        <v>61.2264</v>
       </c>
     </row>
     <row r="8">
@@ -5227,13 +6170,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>20.309</v>
+        <v>20.3801</v>
       </c>
       <c r="C8" t="n">
-        <v>30.5119</v>
+        <v>29.8331</v>
       </c>
       <c r="D8" t="n">
-        <v>44.1661</v>
+        <v>43.1255</v>
+      </c>
+      <c r="E8" t="n">
+        <v>53.9367</v>
       </c>
     </row>
     <row r="9">
@@ -5241,13 +6187,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>21.3146</v>
+        <v>20.9085</v>
       </c>
       <c r="C9" t="n">
-        <v>29.8137</v>
+        <v>30.0526</v>
       </c>
       <c r="D9" t="n">
-        <v>42.8168</v>
+        <v>43.8428</v>
+      </c>
+      <c r="E9" t="n">
+        <v>52.4652</v>
       </c>
     </row>
     <row r="10">
@@ -5255,13 +6204,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>21.2984</v>
+        <v>21.116</v>
       </c>
       <c r="C10" t="n">
-        <v>30.0255</v>
+        <v>29.6968</v>
       </c>
       <c r="D10" t="n">
-        <v>43.0541</v>
+        <v>44.7055</v>
+      </c>
+      <c r="E10" t="n">
+        <v>55.9807</v>
       </c>
     </row>
     <row r="11">
@@ -5269,13 +6221,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>21.6928</v>
+        <v>21.683</v>
       </c>
       <c r="C11" t="n">
-        <v>29.7305</v>
+        <v>30.1899</v>
       </c>
       <c r="D11" t="n">
-        <v>43.3155</v>
+        <v>44.2929</v>
+      </c>
+      <c r="E11" t="n">
+        <v>56.7472</v>
       </c>
     </row>
     <row r="12">
@@ -5283,13 +6238,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>21.1134</v>
+        <v>21.7305</v>
       </c>
       <c r="C12" t="n">
-        <v>30.4019</v>
+        <v>30.0363</v>
       </c>
       <c r="D12" t="n">
-        <v>42.9132</v>
+        <v>44.6571</v>
+      </c>
+      <c r="E12" t="n">
+        <v>57.7302</v>
       </c>
     </row>
     <row r="13">
@@ -5297,13 +6255,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>21.474</v>
+        <v>21.4647</v>
       </c>
       <c r="C13" t="n">
-        <v>30.0659</v>
+        <v>30.1617</v>
       </c>
       <c r="D13" t="n">
-        <v>44.1568</v>
+        <v>45.5719</v>
+      </c>
+      <c r="E13" t="n">
+        <v>55.326</v>
       </c>
     </row>
     <row r="14">
@@ -5311,13 +6272,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>21.4201</v>
+        <v>21.3255</v>
       </c>
       <c r="C14" t="n">
-        <v>30.5602</v>
+        <v>30.2739</v>
       </c>
       <c r="D14" t="n">
-        <v>44.273</v>
+        <v>44.4897</v>
+      </c>
+      <c r="E14" t="n">
+        <v>58.4032</v>
       </c>
     </row>
     <row r="15">
@@ -5325,13 +6289,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>21.4926</v>
+        <v>21.8226</v>
       </c>
       <c r="C15" t="n">
-        <v>30.4617</v>
+        <v>30.3808</v>
       </c>
       <c r="D15" t="n">
-        <v>44.7772</v>
+        <v>46.1618</v>
+      </c>
+      <c r="E15" t="n">
+        <v>58.0179</v>
       </c>
     </row>
     <row r="16">
@@ -5339,13 +6306,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>21.5791</v>
+        <v>21.5498</v>
       </c>
       <c r="C16" t="n">
-        <v>30.31</v>
+        <v>30.4961</v>
       </c>
       <c r="D16" t="n">
-        <v>46.6109</v>
+        <v>45.6256</v>
+      </c>
+      <c r="E16" t="n">
+        <v>58.6167</v>
       </c>
     </row>
     <row r="17">
@@ -5353,13 +6323,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>21.0103</v>
+        <v>21.511</v>
       </c>
       <c r="C17" t="n">
-        <v>30.6857</v>
+        <v>30.5062</v>
       </c>
       <c r="D17" t="n">
-        <v>45.314</v>
+        <v>46.108</v>
+      </c>
+      <c r="E17" t="n">
+        <v>58.6795</v>
       </c>
     </row>
   </sheetData>
@@ -5374,10 +6347,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -5401,19 +6374,27 @@
           <t>boost::concurrent_flat_map</t>
         </is>
       </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>boost::concurrent_flat_map bulk</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.763669999999999</v>
+        <v>8.727349999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>11.013</v>
+        <v>10.9438</v>
       </c>
       <c r="D2" t="n">
-        <v>13.1963</v>
+        <v>13.1203</v>
+      </c>
+      <c r="E2" t="n">
+        <v>15.3515</v>
       </c>
     </row>
     <row r="3">
@@ -5421,13 +6402,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>16.5197</v>
+        <v>16.3734</v>
       </c>
       <c r="C3" t="n">
-        <v>18.5679</v>
+        <v>18.2939</v>
       </c>
       <c r="D3" t="n">
-        <v>24.4785</v>
+        <v>24.4121</v>
+      </c>
+      <c r="E3" t="n">
+        <v>28.8536</v>
       </c>
     </row>
     <row r="4">
@@ -5435,13 +6419,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>23.7039</v>
+        <v>23.2992</v>
       </c>
       <c r="C4" t="n">
-        <v>25.2509</v>
+        <v>25.1473</v>
       </c>
       <c r="D4" t="n">
-        <v>34.8075</v>
+        <v>34.3366</v>
+      </c>
+      <c r="E4" t="n">
+        <v>41.0536</v>
       </c>
     </row>
     <row r="5">
@@ -5449,13 +6436,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>22.7185</v>
+        <v>23.1425</v>
       </c>
       <c r="C5" t="n">
-        <v>25.3691</v>
+        <v>25.3777</v>
       </c>
       <c r="D5" t="n">
-        <v>36.6795</v>
+        <v>36.7042</v>
+      </c>
+      <c r="E5" t="n">
+        <v>47.1737</v>
       </c>
     </row>
     <row r="6">
@@ -5463,13 +6453,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>26.3693</v>
+        <v>26.5075</v>
       </c>
       <c r="C6" t="n">
-        <v>28.5895</v>
+        <v>28.6705</v>
       </c>
       <c r="D6" t="n">
-        <v>42.9347</v>
+        <v>42.5348</v>
+      </c>
+      <c r="E6" t="n">
+        <v>56.3231</v>
       </c>
     </row>
     <row r="7">
@@ -5477,13 +6470,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>31.9274</v>
+        <v>31.8456</v>
       </c>
       <c r="C7" t="n">
-        <v>33.0681</v>
+        <v>33.0741</v>
       </c>
       <c r="D7" t="n">
-        <v>50.6687</v>
+        <v>50.3095</v>
+      </c>
+      <c r="E7" t="n">
+        <v>64.14</v>
       </c>
     </row>
     <row r="8">
@@ -5491,13 +6487,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>29.4762</v>
+        <v>29.285</v>
       </c>
       <c r="C8" t="n">
-        <v>32.2026</v>
+        <v>31.8553</v>
       </c>
       <c r="D8" t="n">
-        <v>46.8217</v>
+        <v>46.769</v>
+      </c>
+      <c r="E8" t="n">
+        <v>60.1215</v>
       </c>
     </row>
     <row r="9">
@@ -5505,13 +6504,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>30.0424</v>
+        <v>30.2964</v>
       </c>
       <c r="C9" t="n">
-        <v>31.4701</v>
+        <v>31.3613</v>
       </c>
       <c r="D9" t="n">
-        <v>47.637</v>
+        <v>48.0327</v>
+      </c>
+      <c r="E9" t="n">
+        <v>61.3576</v>
       </c>
     </row>
     <row r="10">
@@ -5519,13 +6521,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>30.2411</v>
+        <v>30.1364</v>
       </c>
       <c r="C10" t="n">
-        <v>32.1401</v>
+        <v>32.0957</v>
       </c>
       <c r="D10" t="n">
-        <v>47.2495</v>
+        <v>46.8291</v>
+      </c>
+      <c r="E10" t="n">
+        <v>61.9171</v>
       </c>
     </row>
     <row r="11">
@@ -5533,13 +6538,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>30.468</v>
+        <v>30.5607</v>
       </c>
       <c r="C11" t="n">
-        <v>32.3456</v>
+        <v>32.4934</v>
       </c>
       <c r="D11" t="n">
-        <v>47.4953</v>
+        <v>47.3696</v>
+      </c>
+      <c r="E11" t="n">
+        <v>60.7382</v>
       </c>
     </row>
     <row r="12">
@@ -5547,13 +6555,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>30.4468</v>
+        <v>30.3848</v>
       </c>
       <c r="C12" t="n">
-        <v>32.838</v>
+        <v>32.4469</v>
       </c>
       <c r="D12" t="n">
-        <v>48.4881</v>
+        <v>47.5033</v>
+      </c>
+      <c r="E12" t="n">
+        <v>62.8896</v>
       </c>
     </row>
     <row r="13">
@@ -5561,13 +6572,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>30.8083</v>
+        <v>30.4898</v>
       </c>
       <c r="C13" t="n">
-        <v>32.5746</v>
+        <v>32.2027</v>
       </c>
       <c r="D13" t="n">
-        <v>47.3093</v>
+        <v>48.0666</v>
+      </c>
+      <c r="E13" t="n">
+        <v>61.9716</v>
       </c>
     </row>
     <row r="14">
@@ -5575,13 +6589,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>30.5664</v>
+        <v>30.0996</v>
       </c>
       <c r="C14" t="n">
-        <v>32.4295</v>
+        <v>32.3379</v>
       </c>
       <c r="D14" t="n">
-        <v>48.2545</v>
+        <v>48.352</v>
+      </c>
+      <c r="E14" t="n">
+        <v>63.2419</v>
       </c>
     </row>
     <row r="15">
@@ -5589,13 +6606,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>30.7133</v>
+        <v>30.4107</v>
       </c>
       <c r="C15" t="n">
-        <v>32.8618</v>
+        <v>32.5086</v>
       </c>
       <c r="D15" t="n">
-        <v>48.5633</v>
+        <v>47.5119</v>
+      </c>
+      <c r="E15" t="n">
+        <v>62.4152</v>
       </c>
     </row>
     <row r="16">
@@ -5603,13 +6623,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>30.7419</v>
+        <v>30.6088</v>
       </c>
       <c r="C16" t="n">
-        <v>32.4524</v>
+        <v>31.9975</v>
       </c>
       <c r="D16" t="n">
-        <v>48.0723</v>
+        <v>48.5858</v>
+      </c>
+      <c r="E16" t="n">
+        <v>62.0226</v>
       </c>
     </row>
     <row r="17">
@@ -5617,13 +6640,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>30.6363</v>
+        <v>30.5339</v>
       </c>
       <c r="C17" t="n">
-        <v>32.2953</v>
+        <v>32.3667</v>
       </c>
       <c r="D17" t="n">
-        <v>47.7769</v>
+        <v>48.6715</v>
+      </c>
+      <c r="E17" t="n">
+        <v>62.5262</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Parallel workload.xlsx
+++ b/vs-x86/Parallel workload.xlsx
@@ -4800,16 +4800,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>9.31147</v>
+        <v>9.38916</v>
       </c>
       <c r="C2" t="n">
-        <v>10.8082</v>
+        <v>10.783</v>
       </c>
       <c r="D2" t="n">
-        <v>13.1043</v>
+        <v>13.1566</v>
       </c>
       <c r="E2" t="n">
-        <v>15.0561</v>
+        <v>15.4858</v>
       </c>
     </row>
     <row r="3">
@@ -4817,16 +4817,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>17.1107</v>
+        <v>17.5992</v>
       </c>
       <c r="C3" t="n">
-        <v>16.9352</v>
+        <v>16.6376</v>
       </c>
       <c r="D3" t="n">
-        <v>21.6317</v>
+        <v>22.0265</v>
       </c>
       <c r="E3" t="n">
-        <v>24.0089</v>
+        <v>23.6548</v>
       </c>
     </row>
     <row r="4">
@@ -4834,16 +4834,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>23.3607</v>
+        <v>23.9474</v>
       </c>
       <c r="C4" t="n">
-        <v>21.0397</v>
+        <v>21.4995</v>
       </c>
       <c r="D4" t="n">
-        <v>27.4983</v>
+        <v>27.2441</v>
       </c>
       <c r="E4" t="n">
-        <v>32.7281</v>
+        <v>31.6799</v>
       </c>
     </row>
     <row r="5">
@@ -4851,16 +4851,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>19.6338</v>
+        <v>19.2506</v>
       </c>
       <c r="C5" t="n">
-        <v>23.4032</v>
+        <v>23.6031</v>
       </c>
       <c r="D5" t="n">
-        <v>30.3445</v>
+        <v>30.5067</v>
       </c>
       <c r="E5" t="n">
-        <v>34.3508</v>
+        <v>33.8167</v>
       </c>
     </row>
     <row r="6">
@@ -4868,16 +4868,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>22.5639</v>
+        <v>22.667</v>
       </c>
       <c r="C6" t="n">
-        <v>27.7733</v>
+        <v>27.6688</v>
       </c>
       <c r="D6" t="n">
-        <v>33.4629</v>
+        <v>31.6376</v>
       </c>
       <c r="E6" t="n">
-        <v>39.6882</v>
+        <v>39.4379</v>
       </c>
     </row>
     <row r="7">
@@ -4885,16 +4885,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>26.4549</v>
+        <v>26.4604</v>
       </c>
       <c r="C7" t="n">
-        <v>32.5999</v>
+        <v>32.532</v>
       </c>
       <c r="D7" t="n">
-        <v>35.5488</v>
+        <v>36.137</v>
       </c>
       <c r="E7" t="n">
-        <v>39.4796</v>
+        <v>42.689</v>
       </c>
     </row>
     <row r="8">
@@ -4902,16 +4902,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>20.0042</v>
+        <v>20.0312</v>
       </c>
       <c r="C8" t="n">
-        <v>30.3405</v>
+        <v>29.9975</v>
       </c>
       <c r="D8" t="n">
-        <v>37.8271</v>
+        <v>36.1893</v>
       </c>
       <c r="E8" t="n">
-        <v>40.0259</v>
+        <v>41.0291</v>
       </c>
     </row>
     <row r="9">
@@ -4919,16 +4919,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>22.2181</v>
+        <v>22.4077</v>
       </c>
       <c r="C9" t="n">
-        <v>30.0982</v>
+        <v>29.8939</v>
       </c>
       <c r="D9" t="n">
-        <v>39.6479</v>
+        <v>38.8195</v>
       </c>
       <c r="E9" t="n">
-        <v>45.0861</v>
+        <v>45.5652</v>
       </c>
     </row>
     <row r="10">
@@ -4936,16 +4936,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>24.6312</v>
+        <v>24.221</v>
       </c>
       <c r="C10" t="n">
-        <v>30.22</v>
+        <v>30.0816</v>
       </c>
       <c r="D10" t="n">
-        <v>40.984</v>
+        <v>41.0026</v>
       </c>
       <c r="E10" t="n">
-        <v>51.7739</v>
+        <v>47.419</v>
       </c>
     </row>
     <row r="11">
@@ -4953,16 +4953,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>22.3029</v>
+        <v>22.7023</v>
       </c>
       <c r="C11" t="n">
-        <v>30.5642</v>
+        <v>30.4265</v>
       </c>
       <c r="D11" t="n">
-        <v>45.0092</v>
+        <v>43.2485</v>
       </c>
       <c r="E11" t="n">
-        <v>49.4556</v>
+        <v>51.0736</v>
       </c>
     </row>
     <row r="12">
@@ -4970,16 +4970,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>24.4169</v>
+        <v>24.3751</v>
       </c>
       <c r="C12" t="n">
-        <v>31.011</v>
+        <v>30.3954</v>
       </c>
       <c r="D12" t="n">
-        <v>43.4044</v>
+        <v>43.5474</v>
       </c>
       <c r="E12" t="n">
-        <v>51.2834</v>
+        <v>50.9881</v>
       </c>
     </row>
     <row r="13">
@@ -4987,16 +4987,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>26.4198</v>
+        <v>26.436</v>
       </c>
       <c r="C13" t="n">
-        <v>31.7496</v>
+        <v>31.3455</v>
       </c>
       <c r="D13" t="n">
-        <v>44.7189</v>
+        <v>43.869</v>
       </c>
       <c r="E13" t="n">
-        <v>53.5349</v>
+        <v>52.3839</v>
       </c>
     </row>
     <row r="14">
@@ -5004,16 +5004,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>22.2568</v>
+        <v>22.5617</v>
       </c>
       <c r="C14" t="n">
-        <v>30.4308</v>
+        <v>30.6984</v>
       </c>
       <c r="D14" t="n">
-        <v>43.7719</v>
+        <v>44.3625</v>
       </c>
       <c r="E14" t="n">
-        <v>52.7737</v>
+        <v>53.7104</v>
       </c>
     </row>
     <row r="15">
@@ -5021,16 +5021,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>23.6149</v>
+        <v>23.4805</v>
       </c>
       <c r="C15" t="n">
-        <v>30.7989</v>
+        <v>31.0454</v>
       </c>
       <c r="D15" t="n">
-        <v>44.6717</v>
+        <v>45.6759</v>
       </c>
       <c r="E15" t="n">
-        <v>56.1492</v>
+        <v>53.2068</v>
       </c>
     </row>
     <row r="16">
@@ -5038,16 +5038,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>24.8275</v>
+        <v>24.8918</v>
       </c>
       <c r="C16" t="n">
-        <v>30.7615</v>
+        <v>31.2611</v>
       </c>
       <c r="D16" t="n">
-        <v>45.208</v>
+        <v>43.905</v>
       </c>
       <c r="E16" t="n">
-        <v>54.2043</v>
+        <v>53.4148</v>
       </c>
     </row>
     <row r="17">
@@ -5055,16 +5055,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>23.9265</v>
+        <v>23.8571</v>
       </c>
       <c r="C17" t="n">
-        <v>30.8902</v>
+        <v>31.0555</v>
       </c>
       <c r="D17" t="n">
-        <v>44.956</v>
+        <v>45.0726</v>
       </c>
       <c r="E17" t="n">
-        <v>53.3828</v>
+        <v>52.7236</v>
       </c>
     </row>
   </sheetData>
@@ -5117,16 +5117,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>9.33399</v>
+        <v>9.36012</v>
       </c>
       <c r="C2" t="n">
-        <v>10.8157</v>
+        <v>10.7531</v>
       </c>
       <c r="D2" t="n">
-        <v>13.0184</v>
+        <v>13.0279</v>
       </c>
       <c r="E2" t="n">
-        <v>14.9342</v>
+        <v>14.9392</v>
       </c>
     </row>
     <row r="3">
@@ -5134,16 +5134,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>17.2543</v>
+        <v>17.2678</v>
       </c>
       <c r="C3" t="n">
-        <v>17.1945</v>
+        <v>16.9643</v>
       </c>
       <c r="D3" t="n">
-        <v>21.0009</v>
+        <v>21.047</v>
       </c>
       <c r="E3" t="n">
-        <v>24.009</v>
+        <v>24.0872</v>
       </c>
     </row>
     <row r="4">
@@ -5151,16 +5151,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>23.3105</v>
+        <v>23.8483</v>
       </c>
       <c r="C4" t="n">
-        <v>21.7839</v>
+        <v>22.413</v>
       </c>
       <c r="D4" t="n">
-        <v>26.4149</v>
+        <v>26.6519</v>
       </c>
       <c r="E4" t="n">
-        <v>29.4068</v>
+        <v>29.826</v>
       </c>
     </row>
     <row r="5">
@@ -5168,16 +5168,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>19.0321</v>
+        <v>19.4006</v>
       </c>
       <c r="C5" t="n">
-        <v>23.4235</v>
+        <v>23.5293</v>
       </c>
       <c r="D5" t="n">
-        <v>27.5415</v>
+        <v>28.0842</v>
       </c>
       <c r="E5" t="n">
-        <v>35.194</v>
+        <v>36.226</v>
       </c>
     </row>
     <row r="6">
@@ -5185,16 +5185,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>22.9988</v>
+        <v>22.8811</v>
       </c>
       <c r="C6" t="n">
-        <v>27.7766</v>
+        <v>27.7058</v>
       </c>
       <c r="D6" t="n">
-        <v>34.6979</v>
+        <v>35.1115</v>
       </c>
       <c r="E6" t="n">
-        <v>38.9458</v>
+        <v>39.3142</v>
       </c>
     </row>
     <row r="7">
@@ -5202,16 +5202,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>27.0853</v>
+        <v>27.0204</v>
       </c>
       <c r="C7" t="n">
-        <v>32.4921</v>
+        <v>32.5081</v>
       </c>
       <c r="D7" t="n">
-        <v>38.2111</v>
+        <v>36.1412</v>
       </c>
       <c r="E7" t="n">
-        <v>45.0796</v>
+        <v>44.9394</v>
       </c>
     </row>
     <row r="8">
@@ -5219,16 +5219,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>19.9482</v>
+        <v>20.1325</v>
       </c>
       <c r="C8" t="n">
-        <v>29.604</v>
+        <v>28.9914</v>
       </c>
       <c r="D8" t="n">
-        <v>35.5268</v>
+        <v>34.5527</v>
       </c>
       <c r="E8" t="n">
-        <v>42.827</v>
+        <v>43.0504</v>
       </c>
     </row>
     <row r="9">
@@ -5236,16 +5236,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>22.8243</v>
+        <v>22.804</v>
       </c>
       <c r="C9" t="n">
-        <v>29.4048</v>
+        <v>29.73</v>
       </c>
       <c r="D9" t="n">
-        <v>37.7723</v>
+        <v>35.1684</v>
       </c>
       <c r="E9" t="n">
-        <v>48.015</v>
+        <v>45.3824</v>
       </c>
     </row>
     <row r="10">
@@ -5253,16 +5253,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>24.3484</v>
+        <v>25.0137</v>
       </c>
       <c r="C10" t="n">
-        <v>30.3038</v>
+        <v>30.0967</v>
       </c>
       <c r="D10" t="n">
-        <v>38.9284</v>
+        <v>38.8576</v>
       </c>
       <c r="E10" t="n">
-        <v>46.9853</v>
+        <v>48.7893</v>
       </c>
     </row>
     <row r="11">
@@ -5270,16 +5270,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>22.8086</v>
+        <v>23.0119</v>
       </c>
       <c r="C11" t="n">
-        <v>30.009</v>
+        <v>30.1293</v>
       </c>
       <c r="D11" t="n">
-        <v>39.5142</v>
+        <v>40.1002</v>
       </c>
       <c r="E11" t="n">
-        <v>52.5587</v>
+        <v>50.3553</v>
       </c>
     </row>
     <row r="12">
@@ -5287,16 +5287,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>24.8154</v>
+        <v>24.9175</v>
       </c>
       <c r="C12" t="n">
-        <v>30.7298</v>
+        <v>30.4813</v>
       </c>
       <c r="D12" t="n">
-        <v>41.1633</v>
+        <v>41.0793</v>
       </c>
       <c r="E12" t="n">
-        <v>51.5596</v>
+        <v>52.4548</v>
       </c>
     </row>
     <row r="13">
@@ -5304,16 +5304,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>26.9976</v>
+        <v>27.0262</v>
       </c>
       <c r="C13" t="n">
-        <v>31.3667</v>
+        <v>30.9199</v>
       </c>
       <c r="D13" t="n">
-        <v>40.4943</v>
+        <v>44.9298</v>
       </c>
       <c r="E13" t="n">
-        <v>52.7693</v>
+        <v>53.4556</v>
       </c>
     </row>
     <row r="14">
@@ -5321,16 +5321,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>22.2598</v>
+        <v>22.3331</v>
       </c>
       <c r="C14" t="n">
-        <v>31.3792</v>
+        <v>30.8275</v>
       </c>
       <c r="D14" t="n">
-        <v>43.6812</v>
+        <v>44.4355</v>
       </c>
       <c r="E14" t="n">
-        <v>52.1722</v>
+        <v>52.6371</v>
       </c>
     </row>
     <row r="15">
@@ -5338,16 +5338,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>24.124</v>
+        <v>24.2149</v>
       </c>
       <c r="C15" t="n">
-        <v>31.1495</v>
+        <v>31.5633</v>
       </c>
       <c r="D15" t="n">
-        <v>44.0242</v>
+        <v>45.1018</v>
       </c>
       <c r="E15" t="n">
-        <v>52.4791</v>
+        <v>53.2389</v>
       </c>
     </row>
     <row r="16">
@@ -5355,16 +5355,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>25.4146</v>
+        <v>25.3379</v>
       </c>
       <c r="C16" t="n">
-        <v>31.2737</v>
+        <v>31.3329</v>
       </c>
       <c r="D16" t="n">
-        <v>44.378</v>
+        <v>44.4489</v>
       </c>
       <c r="E16" t="n">
-        <v>52.7752</v>
+        <v>53.1813</v>
       </c>
     </row>
     <row r="17">
@@ -5372,16 +5372,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>24.1901</v>
+        <v>24.2596</v>
       </c>
       <c r="C17" t="n">
-        <v>31.6231</v>
+        <v>31.2713</v>
       </c>
       <c r="D17" t="n">
-        <v>45.0772</v>
+        <v>45.3367</v>
       </c>
       <c r="E17" t="n">
-        <v>53.4543</v>
+        <v>52.7498</v>
       </c>
     </row>
   </sheetData>
@@ -5434,16 +5434,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>10.9376</v>
+        <v>10.8877</v>
       </c>
       <c r="C2" t="n">
-        <v>11.6329</v>
+        <v>11.5824</v>
       </c>
       <c r="D2" t="n">
-        <v>13.8449</v>
+        <v>13.8021</v>
       </c>
       <c r="E2" t="n">
-        <v>15.7262</v>
+        <v>15.4596</v>
       </c>
     </row>
     <row r="3">
@@ -5451,16 +5451,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>19.3897</v>
+        <v>19.4259</v>
       </c>
       <c r="C3" t="n">
-        <v>19.5134</v>
+        <v>19.0748</v>
       </c>
       <c r="D3" t="n">
-        <v>22.0548</v>
+        <v>22.7746</v>
       </c>
       <c r="E3" t="n">
-        <v>24.1289</v>
+        <v>26.2525</v>
       </c>
     </row>
     <row r="4">
@@ -5468,16 +5468,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>26.8028</v>
+        <v>26.5044</v>
       </c>
       <c r="C4" t="n">
-        <v>25.4517</v>
+        <v>25.3565</v>
       </c>
       <c r="D4" t="n">
-        <v>30.5782</v>
+        <v>31.6208</v>
       </c>
       <c r="E4" t="n">
-        <v>34.65</v>
+        <v>34.613</v>
       </c>
     </row>
     <row r="5">
@@ -5485,16 +5485,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>23.1209</v>
+        <v>23.2121</v>
       </c>
       <c r="C5" t="n">
-        <v>24.92</v>
+        <v>24.9455</v>
       </c>
       <c r="D5" t="n">
-        <v>31.1603</v>
+        <v>31.206</v>
       </c>
       <c r="E5" t="n">
-        <v>35.1516</v>
+        <v>34.9004</v>
       </c>
     </row>
     <row r="6">
@@ -5502,16 +5502,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>28.0565</v>
+        <v>28.0345</v>
       </c>
       <c r="C6" t="n">
-        <v>28.5526</v>
+        <v>28.6031</v>
       </c>
       <c r="D6" t="n">
-        <v>34.6059</v>
+        <v>35.056</v>
       </c>
       <c r="E6" t="n">
-        <v>36.947</v>
+        <v>36.1997</v>
       </c>
     </row>
     <row r="7">
@@ -5519,16 +5519,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>33.2021</v>
+        <v>33.1144</v>
       </c>
       <c r="C7" t="n">
-        <v>33.5978</v>
+        <v>33.5116</v>
       </c>
       <c r="D7" t="n">
-        <v>35.1185</v>
+        <v>35.1143</v>
       </c>
       <c r="E7" t="n">
-        <v>52.1082</v>
+        <v>44.9534</v>
       </c>
     </row>
     <row r="8">
@@ -5536,16 +5536,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>29.1922</v>
+        <v>29.5159</v>
       </c>
       <c r="C8" t="n">
-        <v>30.1022</v>
+        <v>29.7571</v>
       </c>
       <c r="D8" t="n">
-        <v>36.0097</v>
+        <v>34.6345</v>
       </c>
       <c r="E8" t="n">
-        <v>47.2716</v>
+        <v>46.6735</v>
       </c>
     </row>
     <row r="9">
@@ -5553,16 +5553,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>30.2901</v>
+        <v>29.6342</v>
       </c>
       <c r="C9" t="n">
-        <v>30.1734</v>
+        <v>29.3376</v>
       </c>
       <c r="D9" t="n">
-        <v>42.1705</v>
+        <v>37.7443</v>
       </c>
       <c r="E9" t="n">
-        <v>49.5186</v>
+        <v>49.0944</v>
       </c>
     </row>
     <row r="10">
@@ -5570,16 +5570,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>29.9487</v>
+        <v>30.3723</v>
       </c>
       <c r="C10" t="n">
-        <v>30.3648</v>
+        <v>29.6561</v>
       </c>
       <c r="D10" t="n">
-        <v>42.0829</v>
+        <v>41.4168</v>
       </c>
       <c r="E10" t="n">
-        <v>50.6262</v>
+        <v>50.7026</v>
       </c>
     </row>
     <row r="11">
@@ -5587,16 +5587,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>31.1335</v>
+        <v>30.4365</v>
       </c>
       <c r="C11" t="n">
-        <v>30.1256</v>
+        <v>30.2107</v>
       </c>
       <c r="D11" t="n">
-        <v>41.8844</v>
+        <v>43.6244</v>
       </c>
       <c r="E11" t="n">
-        <v>52.6194</v>
+        <v>52.2983</v>
       </c>
     </row>
     <row r="12">
@@ -5604,16 +5604,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>30.8807</v>
+        <v>30.9676</v>
       </c>
       <c r="C12" t="n">
-        <v>31.1178</v>
+        <v>31.2704</v>
       </c>
       <c r="D12" t="n">
-        <v>43.754</v>
+        <v>43.3684</v>
       </c>
       <c r="E12" t="n">
-        <v>51.852</v>
+        <v>52.6728</v>
       </c>
     </row>
     <row r="13">
@@ -5621,16 +5621,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>30.9027</v>
+        <v>31.6335</v>
       </c>
       <c r="C13" t="n">
-        <v>31.3909</v>
+        <v>31.008</v>
       </c>
       <c r="D13" t="n">
-        <v>43.5404</v>
+        <v>44.8364</v>
       </c>
       <c r="E13" t="n">
-        <v>53.1235</v>
+        <v>52.2913</v>
       </c>
     </row>
     <row r="14">
@@ -5638,16 +5638,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>30.9881</v>
+        <v>30.9625</v>
       </c>
       <c r="C14" t="n">
-        <v>31.1669</v>
+        <v>31.0521</v>
       </c>
       <c r="D14" t="n">
-        <v>44.0003</v>
+        <v>43.992</v>
       </c>
       <c r="E14" t="n">
-        <v>52.8864</v>
+        <v>52.1999</v>
       </c>
     </row>
     <row r="15">
@@ -5655,16 +5655,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>31.166</v>
+        <v>31.4245</v>
       </c>
       <c r="C15" t="n">
-        <v>31.5178</v>
+        <v>31.2407</v>
       </c>
       <c r="D15" t="n">
-        <v>45.1941</v>
+        <v>45.0055</v>
       </c>
       <c r="E15" t="n">
-        <v>54.8312</v>
+        <v>51.7846</v>
       </c>
     </row>
     <row r="16">
@@ -5672,16 +5672,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>31.2079</v>
+        <v>31.2814</v>
       </c>
       <c r="C16" t="n">
-        <v>31.9482</v>
+        <v>31.6339</v>
       </c>
       <c r="D16" t="n">
-        <v>44.7939</v>
+        <v>45.5364</v>
       </c>
       <c r="E16" t="n">
-        <v>52.8737</v>
+        <v>52.2582</v>
       </c>
     </row>
     <row r="17">
@@ -5689,16 +5689,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>31.3281</v>
+        <v>31.5554</v>
       </c>
       <c r="C17" t="n">
-        <v>32.1713</v>
+        <v>31.6687</v>
       </c>
       <c r="D17" t="n">
-        <v>44.4447</v>
+        <v>45.3185</v>
       </c>
       <c r="E17" t="n">
-        <v>52.8766</v>
+        <v>51.8989</v>
       </c>
     </row>
   </sheetData>
@@ -5751,16 +5751,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4.88922</v>
+        <v>4.92064</v>
       </c>
       <c r="C2" t="n">
-        <v>8.95867</v>
+        <v>9.03769</v>
       </c>
       <c r="D2" t="n">
-        <v>10.8224</v>
+        <v>10.7793</v>
       </c>
       <c r="E2" t="n">
-        <v>13.9801</v>
+        <v>13.8261</v>
       </c>
     </row>
     <row r="3">
@@ -5768,16 +5768,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.51728</v>
+        <v>9.64733</v>
       </c>
       <c r="C3" t="n">
-        <v>15.6482</v>
+        <v>15.8116</v>
       </c>
       <c r="D3" t="n">
-        <v>20.5565</v>
+        <v>20.6383</v>
       </c>
       <c r="E3" t="n">
-        <v>26.4662</v>
+        <v>26.5542</v>
       </c>
     </row>
     <row r="4">
@@ -5785,16 +5785,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>13.7852</v>
+        <v>14.0035</v>
       </c>
       <c r="C4" t="n">
-        <v>21.853</v>
+        <v>22.0142</v>
       </c>
       <c r="D4" t="n">
-        <v>29.8244</v>
+        <v>29.4147</v>
       </c>
       <c r="E4" t="n">
-        <v>37.8403</v>
+        <v>37.754</v>
       </c>
     </row>
     <row r="5">
@@ -5802,16 +5802,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>15.6431</v>
+        <v>15.6073</v>
       </c>
       <c r="C5" t="n">
-        <v>23.0398</v>
+        <v>23.0235</v>
       </c>
       <c r="D5" t="n">
-        <v>34.1038</v>
+        <v>33.7568</v>
       </c>
       <c r="E5" t="n">
-        <v>44.3526</v>
+        <v>44.2618</v>
       </c>
     </row>
     <row r="6">
@@ -5819,16 +5819,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>18.784</v>
+        <v>18.9626</v>
       </c>
       <c r="C6" t="n">
-        <v>26.371</v>
+        <v>26.5003</v>
       </c>
       <c r="D6" t="n">
-        <v>41.2316</v>
+        <v>41.0439</v>
       </c>
       <c r="E6" t="n">
-        <v>52.2186</v>
+        <v>52.0964</v>
       </c>
     </row>
     <row r="7">
@@ -5836,16 +5836,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>22.0313</v>
+        <v>22.182</v>
       </c>
       <c r="C7" t="n">
-        <v>31.1264</v>
+        <v>31.2507</v>
       </c>
       <c r="D7" t="n">
-        <v>47.6236</v>
+        <v>47.6942</v>
       </c>
       <c r="E7" t="n">
-        <v>62.1582</v>
+        <v>62.1868</v>
       </c>
     </row>
     <row r="8">
@@ -5853,16 +5853,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>19.9783</v>
+        <v>20.0698</v>
       </c>
       <c r="C8" t="n">
-        <v>29.6897</v>
+        <v>29.884</v>
       </c>
       <c r="D8" t="n">
-        <v>44.23</v>
+        <v>43.1537</v>
       </c>
       <c r="E8" t="n">
-        <v>55.1002</v>
+        <v>55.8478</v>
       </c>
     </row>
     <row r="9">
@@ -5870,16 +5870,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>20.5161</v>
+        <v>20.6964</v>
       </c>
       <c r="C9" t="n">
-        <v>29.9321</v>
+        <v>30.0703</v>
       </c>
       <c r="D9" t="n">
-        <v>43.1581</v>
+        <v>42.96</v>
       </c>
       <c r="E9" t="n">
-        <v>55.3474</v>
+        <v>57.033</v>
       </c>
     </row>
     <row r="10">
@@ -5887,16 +5887,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>20.8338</v>
+        <v>20.6043</v>
       </c>
       <c r="C10" t="n">
-        <v>29.3197</v>
+        <v>29.7747</v>
       </c>
       <c r="D10" t="n">
-        <v>42.6291</v>
+        <v>43.8666</v>
       </c>
       <c r="E10" t="n">
-        <v>55.1194</v>
+        <v>54.977</v>
       </c>
     </row>
     <row r="11">
@@ -5904,16 +5904,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>21.09</v>
+        <v>21.3678</v>
       </c>
       <c r="C11" t="n">
-        <v>30.1034</v>
+        <v>29.7815</v>
       </c>
       <c r="D11" t="n">
-        <v>43.1449</v>
+        <v>43.6328</v>
       </c>
       <c r="E11" t="n">
-        <v>55.8471</v>
+        <v>56.0629</v>
       </c>
     </row>
     <row r="12">
@@ -5921,16 +5921,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>20.7977</v>
+        <v>21.0777</v>
       </c>
       <c r="C12" t="n">
-        <v>29.9973</v>
+        <v>29.774</v>
       </c>
       <c r="D12" t="n">
-        <v>44.6323</v>
+        <v>42.7521</v>
       </c>
       <c r="E12" t="n">
-        <v>55.8305</v>
+        <v>55.6791</v>
       </c>
     </row>
     <row r="13">
@@ -5938,16 +5938,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>20.9247</v>
+        <v>21.2622</v>
       </c>
       <c r="C13" t="n">
-        <v>30.3863</v>
+        <v>30.5675</v>
       </c>
       <c r="D13" t="n">
-        <v>44.6036</v>
+        <v>44.662</v>
       </c>
       <c r="E13" t="n">
-        <v>58.6067</v>
+        <v>57.7788</v>
       </c>
     </row>
     <row r="14">
@@ -5955,16 +5955,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>21.1173</v>
+        <v>20.8571</v>
       </c>
       <c r="C14" t="n">
-        <v>30.3502</v>
+        <v>30.27</v>
       </c>
       <c r="D14" t="n">
-        <v>43.8457</v>
+        <v>44.7687</v>
       </c>
       <c r="E14" t="n">
-        <v>57.6873</v>
+        <v>56.5609</v>
       </c>
     </row>
     <row r="15">
@@ -5972,16 +5972,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>21.0199</v>
+        <v>21.3474</v>
       </c>
       <c r="C15" t="n">
-        <v>30.5612</v>
+        <v>30.4231</v>
       </c>
       <c r="D15" t="n">
-        <v>44.7511</v>
+        <v>43.2596</v>
       </c>
       <c r="E15" t="n">
-        <v>57.3878</v>
+        <v>58.824</v>
       </c>
     </row>
     <row r="16">
@@ -5989,16 +5989,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>21.1111</v>
+        <v>20.8314</v>
       </c>
       <c r="C16" t="n">
-        <v>30.3487</v>
+        <v>30.4637</v>
       </c>
       <c r="D16" t="n">
-        <v>46.1586</v>
+        <v>45.2172</v>
       </c>
       <c r="E16" t="n">
-        <v>59.4165</v>
+        <v>57.6748</v>
       </c>
     </row>
     <row r="17">
@@ -6006,16 +6006,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>21.2359</v>
+        <v>21.2164</v>
       </c>
       <c r="C17" t="n">
-        <v>30.4374</v>
+        <v>30.6508</v>
       </c>
       <c r="D17" t="n">
-        <v>45.6566</v>
+        <v>44.8083</v>
       </c>
       <c r="E17" t="n">
-        <v>58.563</v>
+        <v>59.9018</v>
       </c>
     </row>
   </sheetData>
@@ -6068,16 +6068,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4.99526</v>
+        <v>5.01217</v>
       </c>
       <c r="C2" t="n">
-        <v>9.004709999999999</v>
+        <v>9.06324</v>
       </c>
       <c r="D2" t="n">
-        <v>10.869</v>
+        <v>10.7337</v>
       </c>
       <c r="E2" t="n">
-        <v>14.0367</v>
+        <v>13.9079</v>
       </c>
     </row>
     <row r="3">
@@ -6085,16 +6085,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.73725</v>
+        <v>9.828200000000001</v>
       </c>
       <c r="C3" t="n">
-        <v>15.6834</v>
+        <v>15.9392</v>
       </c>
       <c r="D3" t="n">
-        <v>20.5546</v>
+        <v>20.3506</v>
       </c>
       <c r="E3" t="n">
-        <v>26.4798</v>
+        <v>26.0614</v>
       </c>
     </row>
     <row r="4">
@@ -6102,16 +6102,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>14.0535</v>
+        <v>14.2115</v>
       </c>
       <c r="C4" t="n">
-        <v>22.0226</v>
+        <v>22.1002</v>
       </c>
       <c r="D4" t="n">
-        <v>29.7436</v>
+        <v>29.6372</v>
       </c>
       <c r="E4" t="n">
-        <v>37.8873</v>
+        <v>38.1514</v>
       </c>
     </row>
     <row r="5">
@@ -6119,16 +6119,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>16.1684</v>
+        <v>16.1896</v>
       </c>
       <c r="C5" t="n">
-        <v>22.8789</v>
+        <v>22.8032</v>
       </c>
       <c r="D5" t="n">
-        <v>33.6968</v>
+        <v>33.2262</v>
       </c>
       <c r="E5" t="n">
-        <v>43.7547</v>
+        <v>43.6037</v>
       </c>
     </row>
     <row r="6">
@@ -6136,16 +6136,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>19.2636</v>
+        <v>19.3333</v>
       </c>
       <c r="C6" t="n">
-        <v>26.4478</v>
+        <v>26.4427</v>
       </c>
       <c r="D6" t="n">
-        <v>40.0961</v>
+        <v>39.9051</v>
       </c>
       <c r="E6" t="n">
-        <v>52.0785</v>
+        <v>51.3664</v>
       </c>
     </row>
     <row r="7">
@@ -6153,16 +6153,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>22.6867</v>
+        <v>22.8578</v>
       </c>
       <c r="C7" t="n">
-        <v>31.2459</v>
+        <v>31.2952</v>
       </c>
       <c r="D7" t="n">
-        <v>47.5224</v>
+        <v>47.3648</v>
       </c>
       <c r="E7" t="n">
-        <v>61.2264</v>
+        <v>60.6329</v>
       </c>
     </row>
     <row r="8">
@@ -6170,16 +6170,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>20.3801</v>
+        <v>20.548</v>
       </c>
       <c r="C8" t="n">
-        <v>29.8331</v>
+        <v>29.7156</v>
       </c>
       <c r="D8" t="n">
-        <v>43.1255</v>
+        <v>42.2873</v>
       </c>
       <c r="E8" t="n">
-        <v>53.9367</v>
+        <v>53.6559</v>
       </c>
     </row>
     <row r="9">
@@ -6187,16 +6187,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>20.9085</v>
+        <v>21.3739</v>
       </c>
       <c r="C9" t="n">
-        <v>30.0526</v>
+        <v>30.2671</v>
       </c>
       <c r="D9" t="n">
-        <v>43.8428</v>
+        <v>42.962</v>
       </c>
       <c r="E9" t="n">
-        <v>52.4652</v>
+        <v>54.2881</v>
       </c>
     </row>
     <row r="10">
@@ -6204,16 +6204,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>21.116</v>
+        <v>21.5481</v>
       </c>
       <c r="C10" t="n">
-        <v>29.6968</v>
+        <v>29.9247</v>
       </c>
       <c r="D10" t="n">
-        <v>44.7055</v>
+        <v>43.6384</v>
       </c>
       <c r="E10" t="n">
-        <v>55.9807</v>
+        <v>55.3357</v>
       </c>
     </row>
     <row r="11">
@@ -6221,16 +6221,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>21.683</v>
+        <v>21.8286</v>
       </c>
       <c r="C11" t="n">
-        <v>30.1899</v>
+        <v>30.5476</v>
       </c>
       <c r="D11" t="n">
-        <v>44.2929</v>
+        <v>43.4197</v>
       </c>
       <c r="E11" t="n">
-        <v>56.7472</v>
+        <v>55.5772</v>
       </c>
     </row>
     <row r="12">
@@ -6238,16 +6238,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>21.7305</v>
+        <v>21.6594</v>
       </c>
       <c r="C12" t="n">
-        <v>30.0363</v>
+        <v>30.452</v>
       </c>
       <c r="D12" t="n">
-        <v>44.6571</v>
+        <v>45.0208</v>
       </c>
       <c r="E12" t="n">
-        <v>57.7302</v>
+        <v>56.2253</v>
       </c>
     </row>
     <row r="13">
@@ -6255,16 +6255,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>21.4647</v>
+        <v>21.5228</v>
       </c>
       <c r="C13" t="n">
-        <v>30.1617</v>
+        <v>30.4304</v>
       </c>
       <c r="D13" t="n">
-        <v>45.5719</v>
+        <v>43.8849</v>
       </c>
       <c r="E13" t="n">
-        <v>55.326</v>
+        <v>56.9786</v>
       </c>
     </row>
     <row r="14">
@@ -6272,16 +6272,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>21.3255</v>
+        <v>21.2986</v>
       </c>
       <c r="C14" t="n">
-        <v>30.2739</v>
+        <v>30.3597</v>
       </c>
       <c r="D14" t="n">
-        <v>44.4897</v>
+        <v>44.1602</v>
       </c>
       <c r="E14" t="n">
-        <v>58.4032</v>
+        <v>58.6712</v>
       </c>
     </row>
     <row r="15">
@@ -6289,16 +6289,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>21.8226</v>
+        <v>21.7085</v>
       </c>
       <c r="C15" t="n">
-        <v>30.3808</v>
+        <v>30.4648</v>
       </c>
       <c r="D15" t="n">
-        <v>46.1618</v>
+        <v>45.1961</v>
       </c>
       <c r="E15" t="n">
-        <v>58.0179</v>
+        <v>57.2168</v>
       </c>
     </row>
     <row r="16">
@@ -6306,16 +6306,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>21.5498</v>
+        <v>21.7331</v>
       </c>
       <c r="C16" t="n">
-        <v>30.4961</v>
+        <v>30.5823</v>
       </c>
       <c r="D16" t="n">
-        <v>45.6256</v>
+        <v>45.0543</v>
       </c>
       <c r="E16" t="n">
-        <v>58.6167</v>
+        <v>58.406</v>
       </c>
     </row>
     <row r="17">
@@ -6323,16 +6323,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>21.511</v>
+        <v>21.559</v>
       </c>
       <c r="C17" t="n">
-        <v>30.5062</v>
+        <v>30.7326</v>
       </c>
       <c r="D17" t="n">
-        <v>46.108</v>
+        <v>45.7981</v>
       </c>
       <c r="E17" t="n">
-        <v>58.6795</v>
+        <v>59.0696</v>
       </c>
     </row>
   </sheetData>
@@ -6385,16 +6385,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.727349999999999</v>
+        <v>8.81517</v>
       </c>
       <c r="C2" t="n">
-        <v>10.9438</v>
+        <v>10.9203</v>
       </c>
       <c r="D2" t="n">
-        <v>13.1203</v>
+        <v>13.1081</v>
       </c>
       <c r="E2" t="n">
-        <v>15.3515</v>
+        <v>15.3672</v>
       </c>
     </row>
     <row r="3">
@@ -6402,16 +6402,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>16.3734</v>
+        <v>16.5343</v>
       </c>
       <c r="C3" t="n">
-        <v>18.2939</v>
+        <v>18.2795</v>
       </c>
       <c r="D3" t="n">
-        <v>24.4121</v>
+        <v>24.3214</v>
       </c>
       <c r="E3" t="n">
-        <v>28.8536</v>
+        <v>28.8799</v>
       </c>
     </row>
     <row r="4">
@@ -6419,16 +6419,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>23.2992</v>
+        <v>23.6649</v>
       </c>
       <c r="C4" t="n">
-        <v>25.1473</v>
+        <v>25.5441</v>
       </c>
       <c r="D4" t="n">
-        <v>34.3366</v>
+        <v>34.6749</v>
       </c>
       <c r="E4" t="n">
-        <v>41.0536</v>
+        <v>41.3144</v>
       </c>
     </row>
     <row r="5">
@@ -6436,16 +6436,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>23.1425</v>
+        <v>23.5631</v>
       </c>
       <c r="C5" t="n">
-        <v>25.3777</v>
+        <v>25.1938</v>
       </c>
       <c r="D5" t="n">
-        <v>36.7042</v>
+        <v>35.5583</v>
       </c>
       <c r="E5" t="n">
-        <v>47.1737</v>
+        <v>46.5513</v>
       </c>
     </row>
     <row r="6">
@@ -6453,16 +6453,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>26.5075</v>
+        <v>26.3334</v>
       </c>
       <c r="C6" t="n">
-        <v>28.6705</v>
+        <v>28.4049</v>
       </c>
       <c r="D6" t="n">
-        <v>42.5348</v>
+        <v>43.0075</v>
       </c>
       <c r="E6" t="n">
-        <v>56.3231</v>
+        <v>56.256</v>
       </c>
     </row>
     <row r="7">
@@ -6470,16 +6470,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>31.8456</v>
+        <v>31.9607</v>
       </c>
       <c r="C7" t="n">
-        <v>33.0741</v>
+        <v>33.0335</v>
       </c>
       <c r="D7" t="n">
-        <v>50.3095</v>
+        <v>50.3814</v>
       </c>
       <c r="E7" t="n">
-        <v>64.14</v>
+        <v>63.7729</v>
       </c>
     </row>
     <row r="8">
@@ -6487,16 +6487,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>29.285</v>
+        <v>29.3109</v>
       </c>
       <c r="C8" t="n">
-        <v>31.8553</v>
+        <v>31.8998</v>
       </c>
       <c r="D8" t="n">
-        <v>46.769</v>
+        <v>46.8583</v>
       </c>
       <c r="E8" t="n">
-        <v>60.1215</v>
+        <v>60.9853</v>
       </c>
     </row>
     <row r="9">
@@ -6504,16 +6504,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>30.2964</v>
+        <v>30.1229</v>
       </c>
       <c r="C9" t="n">
-        <v>31.3613</v>
+        <v>31.5888</v>
       </c>
       <c r="D9" t="n">
-        <v>48.0327</v>
+        <v>46.973</v>
       </c>
       <c r="E9" t="n">
-        <v>61.3576</v>
+        <v>59.9648</v>
       </c>
     </row>
     <row r="10">
@@ -6521,16 +6521,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>30.1364</v>
+        <v>30.169</v>
       </c>
       <c r="C10" t="n">
-        <v>32.0957</v>
+        <v>32.1212</v>
       </c>
       <c r="D10" t="n">
-        <v>46.8291</v>
+        <v>47.9185</v>
       </c>
       <c r="E10" t="n">
-        <v>61.9171</v>
+        <v>61.3369</v>
       </c>
     </row>
     <row r="11">
@@ -6538,16 +6538,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>30.5607</v>
+        <v>30.5782</v>
       </c>
       <c r="C11" t="n">
-        <v>32.4934</v>
+        <v>32.6971</v>
       </c>
       <c r="D11" t="n">
-        <v>47.3696</v>
+        <v>47.1839</v>
       </c>
       <c r="E11" t="n">
-        <v>60.7382</v>
+        <v>62.5926</v>
       </c>
     </row>
     <row r="12">
@@ -6555,16 +6555,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>30.3848</v>
+        <v>30.5697</v>
       </c>
       <c r="C12" t="n">
-        <v>32.4469</v>
+        <v>32.1726</v>
       </c>
       <c r="D12" t="n">
-        <v>47.5033</v>
+        <v>48.4003</v>
       </c>
       <c r="E12" t="n">
-        <v>62.8896</v>
+        <v>61.5415</v>
       </c>
     </row>
     <row r="13">
@@ -6572,16 +6572,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>30.4898</v>
+        <v>30.801</v>
       </c>
       <c r="C13" t="n">
-        <v>32.2027</v>
+        <v>32.4484</v>
       </c>
       <c r="D13" t="n">
-        <v>48.0666</v>
+        <v>47.5917</v>
       </c>
       <c r="E13" t="n">
-        <v>61.9716</v>
+        <v>61.7075</v>
       </c>
     </row>
     <row r="14">
@@ -6589,16 +6589,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>30.0996</v>
+        <v>30.4369</v>
       </c>
       <c r="C14" t="n">
-        <v>32.3379</v>
+        <v>32.3159</v>
       </c>
       <c r="D14" t="n">
-        <v>48.352</v>
+        <v>48.8674</v>
       </c>
       <c r="E14" t="n">
-        <v>63.2419</v>
+        <v>61.4629</v>
       </c>
     </row>
     <row r="15">
@@ -6606,16 +6606,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>30.4107</v>
+        <v>30.6284</v>
       </c>
       <c r="C15" t="n">
-        <v>32.5086</v>
+        <v>32.6158</v>
       </c>
       <c r="D15" t="n">
-        <v>47.5119</v>
+        <v>48.2914</v>
       </c>
       <c r="E15" t="n">
-        <v>62.4152</v>
+        <v>63.235</v>
       </c>
     </row>
     <row r="16">
@@ -6623,16 +6623,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>30.6088</v>
+        <v>30.8242</v>
       </c>
       <c r="C16" t="n">
-        <v>31.9975</v>
+        <v>32.1235</v>
       </c>
       <c r="D16" t="n">
-        <v>48.5858</v>
+        <v>48.8523</v>
       </c>
       <c r="E16" t="n">
-        <v>62.0226</v>
+        <v>62.6027</v>
       </c>
     </row>
     <row r="17">
@@ -6640,16 +6640,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>30.5339</v>
+        <v>30.8498</v>
       </c>
       <c r="C17" t="n">
-        <v>32.3667</v>
+        <v>32.2279</v>
       </c>
       <c r="D17" t="n">
-        <v>48.6715</v>
+        <v>48.5922</v>
       </c>
       <c r="E17" t="n">
-        <v>62.5262</v>
+        <v>62.9481</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Parallel workload.xlsx
+++ b/vs-x86/Parallel workload.xlsx
@@ -4800,16 +4800,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>9.31147</v>
+        <v>9.3322</v>
       </c>
       <c r="C2" t="n">
-        <v>10.8082</v>
+        <v>10.9522</v>
       </c>
       <c r="D2" t="n">
-        <v>13.1043</v>
+        <v>13.1489</v>
       </c>
       <c r="E2" t="n">
-        <v>15.0561</v>
+        <v>15.0216</v>
       </c>
     </row>
     <row r="3">
@@ -4817,16 +4817,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>17.1107</v>
+        <v>17.2392</v>
       </c>
       <c r="C3" t="n">
-        <v>16.9352</v>
+        <v>16.7132</v>
       </c>
       <c r="D3" t="n">
-        <v>21.6317</v>
+        <v>21.649</v>
       </c>
       <c r="E3" t="n">
-        <v>24.0089</v>
+        <v>23.7758</v>
       </c>
     </row>
     <row r="4">
@@ -4834,16 +4834,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>23.3607</v>
+        <v>22.9272</v>
       </c>
       <c r="C4" t="n">
-        <v>21.0397</v>
+        <v>21.1286</v>
       </c>
       <c r="D4" t="n">
-        <v>27.4983</v>
+        <v>26.9619</v>
       </c>
       <c r="E4" t="n">
-        <v>32.7281</v>
+        <v>32.5911</v>
       </c>
     </row>
     <row r="5">
@@ -4851,16 +4851,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>19.6338</v>
+        <v>19.4521</v>
       </c>
       <c r="C5" t="n">
-        <v>23.4032</v>
+        <v>23.3959</v>
       </c>
       <c r="D5" t="n">
-        <v>30.3445</v>
+        <v>29.8027</v>
       </c>
       <c r="E5" t="n">
-        <v>34.3508</v>
+        <v>33.5095</v>
       </c>
     </row>
     <row r="6">
@@ -4868,16 +4868,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>22.5639</v>
+        <v>22.5523</v>
       </c>
       <c r="C6" t="n">
-        <v>27.7733</v>
+        <v>27.633</v>
       </c>
       <c r="D6" t="n">
-        <v>33.4629</v>
+        <v>31.99</v>
       </c>
       <c r="E6" t="n">
-        <v>39.6882</v>
+        <v>39.3696</v>
       </c>
     </row>
     <row r="7">
@@ -4885,16 +4885,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>26.4549</v>
+        <v>26.4495</v>
       </c>
       <c r="C7" t="n">
-        <v>32.5999</v>
+        <v>32.5284</v>
       </c>
       <c r="D7" t="n">
-        <v>35.5488</v>
+        <v>37.7424</v>
       </c>
       <c r="E7" t="n">
-        <v>39.4796</v>
+        <v>43.5334</v>
       </c>
     </row>
     <row r="8">
@@ -4902,16 +4902,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>20.0042</v>
+        <v>20.1036</v>
       </c>
       <c r="C8" t="n">
-        <v>30.3405</v>
+        <v>30.2598</v>
       </c>
       <c r="D8" t="n">
-        <v>37.8271</v>
+        <v>35.9388</v>
       </c>
       <c r="E8" t="n">
-        <v>40.0259</v>
+        <v>39.8007</v>
       </c>
     </row>
     <row r="9">
@@ -4919,16 +4919,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>22.2181</v>
+        <v>22.3244</v>
       </c>
       <c r="C9" t="n">
-        <v>30.0982</v>
+        <v>30.1523</v>
       </c>
       <c r="D9" t="n">
-        <v>39.6479</v>
+        <v>39.5658</v>
       </c>
       <c r="E9" t="n">
-        <v>45.0861</v>
+        <v>48.4481</v>
       </c>
     </row>
     <row r="10">
@@ -4936,16 +4936,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>24.6312</v>
+        <v>24.0725</v>
       </c>
       <c r="C10" t="n">
-        <v>30.22</v>
+        <v>30.2668</v>
       </c>
       <c r="D10" t="n">
-        <v>40.984</v>
+        <v>41.4115</v>
       </c>
       <c r="E10" t="n">
-        <v>51.7739</v>
+        <v>47.601</v>
       </c>
     </row>
     <row r="11">
@@ -4953,16 +4953,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>22.3029</v>
+        <v>22.6267</v>
       </c>
       <c r="C11" t="n">
-        <v>30.5642</v>
+        <v>30.4362</v>
       </c>
       <c r="D11" t="n">
-        <v>45.0092</v>
+        <v>42.407</v>
       </c>
       <c r="E11" t="n">
-        <v>49.4556</v>
+        <v>50.6694</v>
       </c>
     </row>
     <row r="12">
@@ -4970,16 +4970,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>24.4169</v>
+        <v>24.4067</v>
       </c>
       <c r="C12" t="n">
-        <v>31.011</v>
+        <v>30.7852</v>
       </c>
       <c r="D12" t="n">
-        <v>43.4044</v>
+        <v>42.5642</v>
       </c>
       <c r="E12" t="n">
-        <v>51.2834</v>
+        <v>52.8442</v>
       </c>
     </row>
     <row r="13">
@@ -4987,16 +4987,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>26.4198</v>
+        <v>26.3678</v>
       </c>
       <c r="C13" t="n">
-        <v>31.7496</v>
+        <v>31.265</v>
       </c>
       <c r="D13" t="n">
-        <v>44.7189</v>
+        <v>44.767</v>
       </c>
       <c r="E13" t="n">
-        <v>53.5349</v>
+        <v>52.0865</v>
       </c>
     </row>
     <row r="14">
@@ -5004,16 +5004,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>22.2568</v>
+        <v>22.2455</v>
       </c>
       <c r="C14" t="n">
-        <v>30.4308</v>
+        <v>30.7135</v>
       </c>
       <c r="D14" t="n">
-        <v>43.7719</v>
+        <v>44.3624</v>
       </c>
       <c r="E14" t="n">
-        <v>52.7737</v>
+        <v>52.862</v>
       </c>
     </row>
     <row r="15">
@@ -5021,16 +5021,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>23.6149</v>
+        <v>23.682</v>
       </c>
       <c r="C15" t="n">
-        <v>30.7989</v>
+        <v>30.4994</v>
       </c>
       <c r="D15" t="n">
-        <v>44.6717</v>
+        <v>45.1131</v>
       </c>
       <c r="E15" t="n">
-        <v>56.1492</v>
+        <v>52.6982</v>
       </c>
     </row>
     <row r="16">
@@ -5038,16 +5038,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>24.8275</v>
+        <v>24.9455</v>
       </c>
       <c r="C16" t="n">
-        <v>30.7615</v>
+        <v>30.5866</v>
       </c>
       <c r="D16" t="n">
-        <v>45.208</v>
+        <v>43.744</v>
       </c>
       <c r="E16" t="n">
-        <v>54.2043</v>
+        <v>53.8953</v>
       </c>
     </row>
     <row r="17">
@@ -5055,16 +5055,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>23.9265</v>
+        <v>23.7277</v>
       </c>
       <c r="C17" t="n">
-        <v>30.8902</v>
+        <v>31.1537</v>
       </c>
       <c r="D17" t="n">
-        <v>44.956</v>
+        <v>45.0947</v>
       </c>
       <c r="E17" t="n">
-        <v>53.3828</v>
+        <v>54.3237</v>
       </c>
     </row>
   </sheetData>
@@ -5117,16 +5117,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>9.33399</v>
+        <v>9.33333</v>
       </c>
       <c r="C2" t="n">
-        <v>10.8157</v>
+        <v>10.7622</v>
       </c>
       <c r="D2" t="n">
-        <v>13.0184</v>
+        <v>13.0035</v>
       </c>
       <c r="E2" t="n">
-        <v>14.9342</v>
+        <v>14.8952</v>
       </c>
     </row>
     <row r="3">
@@ -5134,16 +5134,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>17.2543</v>
+        <v>17.261</v>
       </c>
       <c r="C3" t="n">
-        <v>17.1945</v>
+        <v>17.0018</v>
       </c>
       <c r="D3" t="n">
-        <v>21.0009</v>
+        <v>21.1949</v>
       </c>
       <c r="E3" t="n">
-        <v>24.009</v>
+        <v>24.2547</v>
       </c>
     </row>
     <row r="4">
@@ -5151,16 +5151,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>23.3105</v>
+        <v>23.7468</v>
       </c>
       <c r="C4" t="n">
-        <v>21.7839</v>
+        <v>22.5644</v>
       </c>
       <c r="D4" t="n">
-        <v>26.4149</v>
+        <v>27.0291</v>
       </c>
       <c r="E4" t="n">
-        <v>29.4068</v>
+        <v>29.8834</v>
       </c>
     </row>
     <row r="5">
@@ -5168,16 +5168,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>19.0321</v>
+        <v>19.2046</v>
       </c>
       <c r="C5" t="n">
-        <v>23.4235</v>
+        <v>23.0625</v>
       </c>
       <c r="D5" t="n">
-        <v>27.5415</v>
+        <v>28.2246</v>
       </c>
       <c r="E5" t="n">
-        <v>35.194</v>
+        <v>35.1589</v>
       </c>
     </row>
     <row r="6">
@@ -5185,16 +5185,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>22.9988</v>
+        <v>22.9401</v>
       </c>
       <c r="C6" t="n">
-        <v>27.7766</v>
+        <v>27.6132</v>
       </c>
       <c r="D6" t="n">
-        <v>34.6979</v>
+        <v>34.8848</v>
       </c>
       <c r="E6" t="n">
-        <v>38.9458</v>
+        <v>39.4757</v>
       </c>
     </row>
     <row r="7">
@@ -5202,16 +5202,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>27.0853</v>
+        <v>26.9936</v>
       </c>
       <c r="C7" t="n">
-        <v>32.4921</v>
+        <v>32.5107</v>
       </c>
       <c r="D7" t="n">
-        <v>38.2111</v>
+        <v>36.1274</v>
       </c>
       <c r="E7" t="n">
-        <v>45.0796</v>
+        <v>45.0228</v>
       </c>
     </row>
     <row r="8">
@@ -5219,16 +5219,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>19.9482</v>
+        <v>20.0373</v>
       </c>
       <c r="C8" t="n">
-        <v>29.604</v>
+        <v>29.3133</v>
       </c>
       <c r="D8" t="n">
-        <v>35.5268</v>
+        <v>34.3015</v>
       </c>
       <c r="E8" t="n">
-        <v>42.827</v>
+        <v>43.9242</v>
       </c>
     </row>
     <row r="9">
@@ -5236,16 +5236,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>22.8243</v>
+        <v>22.7661</v>
       </c>
       <c r="C9" t="n">
-        <v>29.4048</v>
+        <v>29.1794</v>
       </c>
       <c r="D9" t="n">
-        <v>37.7723</v>
+        <v>35.0764</v>
       </c>
       <c r="E9" t="n">
-        <v>48.015</v>
+        <v>47.7224</v>
       </c>
     </row>
     <row r="10">
@@ -5253,16 +5253,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>24.3484</v>
+        <v>25.0736</v>
       </c>
       <c r="C10" t="n">
-        <v>30.3038</v>
+        <v>29.6982</v>
       </c>
       <c r="D10" t="n">
-        <v>38.9284</v>
+        <v>37.3278</v>
       </c>
       <c r="E10" t="n">
-        <v>46.9853</v>
+        <v>48.9469</v>
       </c>
     </row>
     <row r="11">
@@ -5270,16 +5270,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>22.8086</v>
+        <v>22.9555</v>
       </c>
       <c r="C11" t="n">
-        <v>30.009</v>
+        <v>30.0974</v>
       </c>
       <c r="D11" t="n">
-        <v>39.5142</v>
+        <v>37.8851</v>
       </c>
       <c r="E11" t="n">
-        <v>52.5587</v>
+        <v>51.5347</v>
       </c>
     </row>
     <row r="12">
@@ -5287,16 +5287,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>24.8154</v>
+        <v>24.8969</v>
       </c>
       <c r="C12" t="n">
-        <v>30.7298</v>
+        <v>30.8203</v>
       </c>
       <c r="D12" t="n">
-        <v>41.1633</v>
+        <v>41.6487</v>
       </c>
       <c r="E12" t="n">
-        <v>51.5596</v>
+        <v>53.3759</v>
       </c>
     </row>
     <row r="13">
@@ -5304,16 +5304,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>26.9976</v>
+        <v>26.9699</v>
       </c>
       <c r="C13" t="n">
-        <v>31.3667</v>
+        <v>31.1182</v>
       </c>
       <c r="D13" t="n">
-        <v>40.4943</v>
+        <v>43.2898</v>
       </c>
       <c r="E13" t="n">
-        <v>52.7693</v>
+        <v>52.3574</v>
       </c>
     </row>
     <row r="14">
@@ -5321,16 +5321,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>22.2598</v>
+        <v>22.5939</v>
       </c>
       <c r="C14" t="n">
-        <v>31.3792</v>
+        <v>31.0326</v>
       </c>
       <c r="D14" t="n">
-        <v>43.6812</v>
+        <v>44.1499</v>
       </c>
       <c r="E14" t="n">
-        <v>52.1722</v>
+        <v>52.934</v>
       </c>
     </row>
     <row r="15">
@@ -5338,16 +5338,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>24.124</v>
+        <v>24.2913</v>
       </c>
       <c r="C15" t="n">
-        <v>31.1495</v>
+        <v>31.3744</v>
       </c>
       <c r="D15" t="n">
-        <v>44.0242</v>
+        <v>44.1297</v>
       </c>
       <c r="E15" t="n">
-        <v>52.4791</v>
+        <v>52.3028</v>
       </c>
     </row>
     <row r="16">
@@ -5355,16 +5355,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>25.4146</v>
+        <v>25.151</v>
       </c>
       <c r="C16" t="n">
-        <v>31.2737</v>
+        <v>31.4505</v>
       </c>
       <c r="D16" t="n">
-        <v>44.378</v>
+        <v>44.8113</v>
       </c>
       <c r="E16" t="n">
-        <v>52.7752</v>
+        <v>55.364</v>
       </c>
     </row>
     <row r="17">
@@ -5372,16 +5372,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>24.1901</v>
+        <v>24.0957</v>
       </c>
       <c r="C17" t="n">
-        <v>31.6231</v>
+        <v>31.4269</v>
       </c>
       <c r="D17" t="n">
-        <v>45.0772</v>
+        <v>45.162</v>
       </c>
       <c r="E17" t="n">
-        <v>53.4543</v>
+        <v>53.3737</v>
       </c>
     </row>
   </sheetData>
@@ -5434,16 +5434,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>10.9376</v>
+        <v>10.8885</v>
       </c>
       <c r="C2" t="n">
-        <v>11.6329</v>
+        <v>11.6127</v>
       </c>
       <c r="D2" t="n">
-        <v>13.8449</v>
+        <v>13.7809</v>
       </c>
       <c r="E2" t="n">
-        <v>15.7262</v>
+        <v>15.3826</v>
       </c>
     </row>
     <row r="3">
@@ -5451,16 +5451,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>19.3897</v>
+        <v>19.3775</v>
       </c>
       <c r="C3" t="n">
-        <v>19.5134</v>
+        <v>19.7305</v>
       </c>
       <c r="D3" t="n">
-        <v>22.0548</v>
+        <v>22.4384</v>
       </c>
       <c r="E3" t="n">
-        <v>24.1289</v>
+        <v>25.1877</v>
       </c>
     </row>
     <row r="4">
@@ -5468,16 +5468,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>26.8028</v>
+        <v>27.1254</v>
       </c>
       <c r="C4" t="n">
-        <v>25.4517</v>
+        <v>25.4183</v>
       </c>
       <c r="D4" t="n">
-        <v>30.5782</v>
+        <v>31.0348</v>
       </c>
       <c r="E4" t="n">
-        <v>34.65</v>
+        <v>32.5033</v>
       </c>
     </row>
     <row r="5">
@@ -5485,16 +5485,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>23.1209</v>
+        <v>23.1218</v>
       </c>
       <c r="C5" t="n">
-        <v>24.92</v>
+        <v>24.7095</v>
       </c>
       <c r="D5" t="n">
-        <v>31.1603</v>
+        <v>30.8143</v>
       </c>
       <c r="E5" t="n">
-        <v>35.1516</v>
+        <v>34.9089</v>
       </c>
     </row>
     <row r="6">
@@ -5502,16 +5502,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>28.0565</v>
+        <v>28.0439</v>
       </c>
       <c r="C6" t="n">
-        <v>28.5526</v>
+        <v>28.5225</v>
       </c>
       <c r="D6" t="n">
-        <v>34.6059</v>
+        <v>34.6797</v>
       </c>
       <c r="E6" t="n">
-        <v>36.947</v>
+        <v>37.3037</v>
       </c>
     </row>
     <row r="7">
@@ -5519,16 +5519,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>33.2021</v>
+        <v>33.1317</v>
       </c>
       <c r="C7" t="n">
-        <v>33.5978</v>
+        <v>33.5428</v>
       </c>
       <c r="D7" t="n">
-        <v>35.1185</v>
+        <v>35.1446</v>
       </c>
       <c r="E7" t="n">
-        <v>52.1082</v>
+        <v>52.2351</v>
       </c>
     </row>
     <row r="8">
@@ -5536,16 +5536,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>29.1922</v>
+        <v>29.2543</v>
       </c>
       <c r="C8" t="n">
-        <v>30.1022</v>
+        <v>29.4926</v>
       </c>
       <c r="D8" t="n">
-        <v>36.0097</v>
+        <v>35.6741</v>
       </c>
       <c r="E8" t="n">
-        <v>47.2716</v>
+        <v>45.654</v>
       </c>
     </row>
     <row r="9">
@@ -5553,16 +5553,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>30.2901</v>
+        <v>30.5161</v>
       </c>
       <c r="C9" t="n">
-        <v>30.1734</v>
+        <v>29.5343</v>
       </c>
       <c r="D9" t="n">
-        <v>42.1705</v>
+        <v>40.7083</v>
       </c>
       <c r="E9" t="n">
-        <v>49.5186</v>
+        <v>50.0881</v>
       </c>
     </row>
     <row r="10">
@@ -5570,16 +5570,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>29.9487</v>
+        <v>30.2233</v>
       </c>
       <c r="C10" t="n">
-        <v>30.3648</v>
+        <v>30.6535</v>
       </c>
       <c r="D10" t="n">
-        <v>42.0829</v>
+        <v>41.2131</v>
       </c>
       <c r="E10" t="n">
-        <v>50.6262</v>
+        <v>50.0847</v>
       </c>
     </row>
     <row r="11">
@@ -5587,16 +5587,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>31.1335</v>
+        <v>30.7285</v>
       </c>
       <c r="C11" t="n">
-        <v>30.1256</v>
+        <v>30.6131</v>
       </c>
       <c r="D11" t="n">
-        <v>41.8844</v>
+        <v>43.4698</v>
       </c>
       <c r="E11" t="n">
-        <v>52.6194</v>
+        <v>53.2598</v>
       </c>
     </row>
     <row r="12">
@@ -5604,16 +5604,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>30.8807</v>
+        <v>30.8785</v>
       </c>
       <c r="C12" t="n">
-        <v>31.1178</v>
+        <v>30.7323</v>
       </c>
       <c r="D12" t="n">
-        <v>43.754</v>
+        <v>45.0427</v>
       </c>
       <c r="E12" t="n">
-        <v>51.852</v>
+        <v>53.0746</v>
       </c>
     </row>
     <row r="13">
@@ -5621,16 +5621,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>30.9027</v>
+        <v>31.2538</v>
       </c>
       <c r="C13" t="n">
-        <v>31.3909</v>
+        <v>31.1677</v>
       </c>
       <c r="D13" t="n">
-        <v>43.5404</v>
+        <v>45.2033</v>
       </c>
       <c r="E13" t="n">
-        <v>53.1235</v>
+        <v>53.1278</v>
       </c>
     </row>
     <row r="14">
@@ -5638,16 +5638,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>30.9881</v>
+        <v>30.8966</v>
       </c>
       <c r="C14" t="n">
-        <v>31.1669</v>
+        <v>30.8025</v>
       </c>
       <c r="D14" t="n">
-        <v>44.0003</v>
+        <v>44.4869</v>
       </c>
       <c r="E14" t="n">
-        <v>52.8864</v>
+        <v>54.3015</v>
       </c>
     </row>
     <row r="15">
@@ -5655,16 +5655,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>31.166</v>
+        <v>31.4847</v>
       </c>
       <c r="C15" t="n">
-        <v>31.5178</v>
+        <v>30.6371</v>
       </c>
       <c r="D15" t="n">
-        <v>45.1941</v>
+        <v>43.9276</v>
       </c>
       <c r="E15" t="n">
-        <v>54.8312</v>
+        <v>53.1568</v>
       </c>
     </row>
     <row r="16">
@@ -5672,16 +5672,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>31.2079</v>
+        <v>30.6822</v>
       </c>
       <c r="C16" t="n">
-        <v>31.9482</v>
+        <v>31.4236</v>
       </c>
       <c r="D16" t="n">
-        <v>44.7939</v>
+        <v>44.4164</v>
       </c>
       <c r="E16" t="n">
-        <v>52.8737</v>
+        <v>54.0856</v>
       </c>
     </row>
     <row r="17">
@@ -5689,16 +5689,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>31.3281</v>
+        <v>31.2568</v>
       </c>
       <c r="C17" t="n">
-        <v>32.1713</v>
+        <v>31.8403</v>
       </c>
       <c r="D17" t="n">
-        <v>44.4447</v>
+        <v>45.3381</v>
       </c>
       <c r="E17" t="n">
-        <v>52.8766</v>
+        <v>54.7191</v>
       </c>
     </row>
   </sheetData>
@@ -5751,16 +5751,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4.88922</v>
+        <v>4.93935</v>
       </c>
       <c r="C2" t="n">
-        <v>8.95867</v>
+        <v>9.07931</v>
       </c>
       <c r="D2" t="n">
-        <v>10.8224</v>
+        <v>10.831</v>
       </c>
       <c r="E2" t="n">
-        <v>13.9801</v>
+        <v>14.0378</v>
       </c>
     </row>
     <row r="3">
@@ -5768,16 +5768,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.51728</v>
+        <v>9.65666</v>
       </c>
       <c r="C3" t="n">
-        <v>15.6482</v>
+        <v>15.701</v>
       </c>
       <c r="D3" t="n">
-        <v>20.5565</v>
+        <v>20.7047</v>
       </c>
       <c r="E3" t="n">
-        <v>26.4662</v>
+        <v>26.7349</v>
       </c>
     </row>
     <row r="4">
@@ -5785,16 +5785,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>13.7852</v>
+        <v>13.9535</v>
       </c>
       <c r="C4" t="n">
-        <v>21.853</v>
+        <v>22.1263</v>
       </c>
       <c r="D4" t="n">
-        <v>29.8244</v>
+        <v>29.8629</v>
       </c>
       <c r="E4" t="n">
-        <v>37.8403</v>
+        <v>38.0727</v>
       </c>
     </row>
     <row r="5">
@@ -5802,16 +5802,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>15.6431</v>
+        <v>15.8304</v>
       </c>
       <c r="C5" t="n">
-        <v>23.0398</v>
+        <v>23.0819</v>
       </c>
       <c r="D5" t="n">
-        <v>34.1038</v>
+        <v>33.9715</v>
       </c>
       <c r="E5" t="n">
-        <v>44.3526</v>
+        <v>43.9549</v>
       </c>
     </row>
     <row r="6">
@@ -5819,16 +5819,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>18.784</v>
+        <v>18.9581</v>
       </c>
       <c r="C6" t="n">
-        <v>26.371</v>
+        <v>26.5618</v>
       </c>
       <c r="D6" t="n">
-        <v>41.2316</v>
+        <v>40.8501</v>
       </c>
       <c r="E6" t="n">
-        <v>52.2186</v>
+        <v>52.2755</v>
       </c>
     </row>
     <row r="7">
@@ -5836,16 +5836,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>22.0313</v>
+        <v>22.1686</v>
       </c>
       <c r="C7" t="n">
-        <v>31.1264</v>
+        <v>31.2515</v>
       </c>
       <c r="D7" t="n">
-        <v>47.6236</v>
+        <v>47.4601</v>
       </c>
       <c r="E7" t="n">
-        <v>62.1582</v>
+        <v>61.7673</v>
       </c>
     </row>
     <row r="8">
@@ -5853,16 +5853,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>19.9783</v>
+        <v>19.8567</v>
       </c>
       <c r="C8" t="n">
-        <v>29.6897</v>
+        <v>30.0561</v>
       </c>
       <c r="D8" t="n">
-        <v>44.23</v>
+        <v>42.938</v>
       </c>
       <c r="E8" t="n">
-        <v>55.1002</v>
+        <v>54.4488</v>
       </c>
     </row>
     <row r="9">
@@ -5870,16 +5870,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>20.5161</v>
+        <v>20.6201</v>
       </c>
       <c r="C9" t="n">
-        <v>29.9321</v>
+        <v>29.8099</v>
       </c>
       <c r="D9" t="n">
-        <v>43.1581</v>
+        <v>43.6902</v>
       </c>
       <c r="E9" t="n">
-        <v>55.3474</v>
+        <v>55.8038</v>
       </c>
     </row>
     <row r="10">
@@ -5887,16 +5887,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>20.8338</v>
+        <v>20.8573</v>
       </c>
       <c r="C10" t="n">
-        <v>29.3197</v>
+        <v>29.9248</v>
       </c>
       <c r="D10" t="n">
-        <v>42.6291</v>
+        <v>44.0289</v>
       </c>
       <c r="E10" t="n">
-        <v>55.1194</v>
+        <v>55.6447</v>
       </c>
     </row>
     <row r="11">
@@ -5904,16 +5904,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>21.09</v>
+        <v>21.1091</v>
       </c>
       <c r="C11" t="n">
-        <v>30.1034</v>
+        <v>30.3001</v>
       </c>
       <c r="D11" t="n">
-        <v>43.1449</v>
+        <v>44.3138</v>
       </c>
       <c r="E11" t="n">
-        <v>55.8471</v>
+        <v>57.9441</v>
       </c>
     </row>
     <row r="12">
@@ -5921,16 +5921,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>20.7977</v>
+        <v>20.682</v>
       </c>
       <c r="C12" t="n">
-        <v>29.9973</v>
+        <v>29.9422</v>
       </c>
       <c r="D12" t="n">
-        <v>44.6323</v>
+        <v>44.1167</v>
       </c>
       <c r="E12" t="n">
-        <v>55.8305</v>
+        <v>58.0811</v>
       </c>
     </row>
     <row r="13">
@@ -5938,16 +5938,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>20.9247</v>
+        <v>21.283</v>
       </c>
       <c r="C13" t="n">
-        <v>30.3863</v>
+        <v>30.7203</v>
       </c>
       <c r="D13" t="n">
-        <v>44.6036</v>
+        <v>46.0671</v>
       </c>
       <c r="E13" t="n">
-        <v>58.6067</v>
+        <v>57.5831</v>
       </c>
     </row>
     <row r="14">
@@ -5955,16 +5955,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>21.1173</v>
+        <v>21.2839</v>
       </c>
       <c r="C14" t="n">
-        <v>30.3502</v>
+        <v>30.5421</v>
       </c>
       <c r="D14" t="n">
-        <v>43.8457</v>
+        <v>44.2011</v>
       </c>
       <c r="E14" t="n">
-        <v>57.6873</v>
+        <v>59.5585</v>
       </c>
     </row>
     <row r="15">
@@ -5972,16 +5972,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>21.0199</v>
+        <v>21.1238</v>
       </c>
       <c r="C15" t="n">
-        <v>30.5612</v>
+        <v>30.8052</v>
       </c>
       <c r="D15" t="n">
-        <v>44.7511</v>
+        <v>44.6561</v>
       </c>
       <c r="E15" t="n">
-        <v>57.3878</v>
+        <v>59.1993</v>
       </c>
     </row>
     <row r="16">
@@ -5989,16 +5989,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>21.1111</v>
+        <v>21.0202</v>
       </c>
       <c r="C16" t="n">
-        <v>30.3487</v>
+        <v>30.4369</v>
       </c>
       <c r="D16" t="n">
-        <v>46.1586</v>
+        <v>46.0974</v>
       </c>
       <c r="E16" t="n">
-        <v>59.4165</v>
+        <v>58.308</v>
       </c>
     </row>
     <row r="17">
@@ -6006,16 +6006,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>21.2359</v>
+        <v>21.4397</v>
       </c>
       <c r="C17" t="n">
-        <v>30.4374</v>
+        <v>30.8961</v>
       </c>
       <c r="D17" t="n">
-        <v>45.6566</v>
+        <v>44.3281</v>
       </c>
       <c r="E17" t="n">
-        <v>58.563</v>
+        <v>58.3717</v>
       </c>
     </row>
   </sheetData>
@@ -6068,16 +6068,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4.99526</v>
+        <v>5.05101</v>
       </c>
       <c r="C2" t="n">
-        <v>9.004709999999999</v>
+        <v>9.169600000000001</v>
       </c>
       <c r="D2" t="n">
-        <v>10.869</v>
+        <v>10.8963</v>
       </c>
       <c r="E2" t="n">
-        <v>14.0367</v>
+        <v>14.1035</v>
       </c>
     </row>
     <row r="3">
@@ -6085,16 +6085,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.73725</v>
+        <v>9.884510000000001</v>
       </c>
       <c r="C3" t="n">
-        <v>15.6834</v>
+        <v>15.7209</v>
       </c>
       <c r="D3" t="n">
-        <v>20.5546</v>
+        <v>20.7307</v>
       </c>
       <c r="E3" t="n">
-        <v>26.4798</v>
+        <v>26.5413</v>
       </c>
     </row>
     <row r="4">
@@ -6102,16 +6102,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>14.0535</v>
+        <v>14.157</v>
       </c>
       <c r="C4" t="n">
-        <v>22.0226</v>
+        <v>21.9128</v>
       </c>
       <c r="D4" t="n">
-        <v>29.7436</v>
+        <v>29.6024</v>
       </c>
       <c r="E4" t="n">
-        <v>37.8873</v>
+        <v>37.7964</v>
       </c>
     </row>
     <row r="5">
@@ -6119,16 +6119,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>16.1684</v>
+        <v>16.0985</v>
       </c>
       <c r="C5" t="n">
-        <v>22.8789</v>
+        <v>23.3717</v>
       </c>
       <c r="D5" t="n">
-        <v>33.6968</v>
+        <v>33.5727</v>
       </c>
       <c r="E5" t="n">
-        <v>43.7547</v>
+        <v>43.752</v>
       </c>
     </row>
     <row r="6">
@@ -6136,16 +6136,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>19.2636</v>
+        <v>19.4864</v>
       </c>
       <c r="C6" t="n">
-        <v>26.4478</v>
+        <v>26.6219</v>
       </c>
       <c r="D6" t="n">
-        <v>40.0961</v>
+        <v>40.0417</v>
       </c>
       <c r="E6" t="n">
-        <v>52.0785</v>
+        <v>52.2997</v>
       </c>
     </row>
     <row r="7">
@@ -6153,16 +6153,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>22.6867</v>
+        <v>22.8686</v>
       </c>
       <c r="C7" t="n">
-        <v>31.2459</v>
+        <v>31.3441</v>
       </c>
       <c r="D7" t="n">
-        <v>47.5224</v>
+        <v>47.3905</v>
       </c>
       <c r="E7" t="n">
-        <v>61.2264</v>
+        <v>60.5414</v>
       </c>
     </row>
     <row r="8">
@@ -6170,16 +6170,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>20.3801</v>
+        <v>20.7884</v>
       </c>
       <c r="C8" t="n">
-        <v>29.8331</v>
+        <v>30.1681</v>
       </c>
       <c r="D8" t="n">
-        <v>43.1255</v>
+        <v>41.0274</v>
       </c>
       <c r="E8" t="n">
-        <v>53.9367</v>
+        <v>53.8561</v>
       </c>
     </row>
     <row r="9">
@@ -6187,16 +6187,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>20.9085</v>
+        <v>21.512</v>
       </c>
       <c r="C9" t="n">
-        <v>30.0526</v>
+        <v>29.903</v>
       </c>
       <c r="D9" t="n">
-        <v>43.8428</v>
+        <v>42.055</v>
       </c>
       <c r="E9" t="n">
-        <v>52.4652</v>
+        <v>53.5138</v>
       </c>
     </row>
     <row r="10">
@@ -6204,16 +6204,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>21.116</v>
+        <v>21.698</v>
       </c>
       <c r="C10" t="n">
-        <v>29.6968</v>
+        <v>30.2672</v>
       </c>
       <c r="D10" t="n">
-        <v>44.7055</v>
+        <v>43.1441</v>
       </c>
       <c r="E10" t="n">
-        <v>55.9807</v>
+        <v>56.6085</v>
       </c>
     </row>
     <row r="11">
@@ -6221,16 +6221,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>21.683</v>
+        <v>21.5883</v>
       </c>
       <c r="C11" t="n">
-        <v>30.1899</v>
+        <v>30.353</v>
       </c>
       <c r="D11" t="n">
-        <v>44.2929</v>
+        <v>44.4222</v>
       </c>
       <c r="E11" t="n">
-        <v>56.7472</v>
+        <v>55.0411</v>
       </c>
     </row>
     <row r="12">
@@ -6238,16 +6238,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>21.7305</v>
+        <v>21.6035</v>
       </c>
       <c r="C12" t="n">
-        <v>30.0363</v>
+        <v>30.003</v>
       </c>
       <c r="D12" t="n">
-        <v>44.6571</v>
+        <v>43.6284</v>
       </c>
       <c r="E12" t="n">
-        <v>57.7302</v>
+        <v>55.7799</v>
       </c>
     </row>
     <row r="13">
@@ -6255,16 +6255,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>21.4647</v>
+        <v>21.5803</v>
       </c>
       <c r="C13" t="n">
-        <v>30.1617</v>
+        <v>30.6851</v>
       </c>
       <c r="D13" t="n">
-        <v>45.5719</v>
+        <v>43.9466</v>
       </c>
       <c r="E13" t="n">
-        <v>55.326</v>
+        <v>59.0695</v>
       </c>
     </row>
     <row r="14">
@@ -6272,16 +6272,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>21.3255</v>
+        <v>21.6972</v>
       </c>
       <c r="C14" t="n">
-        <v>30.2739</v>
+        <v>30.42</v>
       </c>
       <c r="D14" t="n">
-        <v>44.4897</v>
+        <v>44.8472</v>
       </c>
       <c r="E14" t="n">
-        <v>58.4032</v>
+        <v>56.5706</v>
       </c>
     </row>
     <row r="15">
@@ -6289,16 +6289,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>21.8226</v>
+        <v>21.8405</v>
       </c>
       <c r="C15" t="n">
-        <v>30.3808</v>
+        <v>30.5794</v>
       </c>
       <c r="D15" t="n">
-        <v>46.1618</v>
+        <v>44.8761</v>
       </c>
       <c r="E15" t="n">
-        <v>58.0179</v>
+        <v>58.1638</v>
       </c>
     </row>
     <row r="16">
@@ -6306,16 +6306,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>21.5498</v>
+        <v>21.7234</v>
       </c>
       <c r="C16" t="n">
-        <v>30.4961</v>
+        <v>30.5753</v>
       </c>
       <c r="D16" t="n">
-        <v>45.6256</v>
+        <v>44.7678</v>
       </c>
       <c r="E16" t="n">
-        <v>58.6167</v>
+        <v>58.0389</v>
       </c>
     </row>
     <row r="17">
@@ -6323,16 +6323,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>21.511</v>
+        <v>21.8032</v>
       </c>
       <c r="C17" t="n">
-        <v>30.5062</v>
+        <v>30.7483</v>
       </c>
       <c r="D17" t="n">
-        <v>46.108</v>
+        <v>44.6054</v>
       </c>
       <c r="E17" t="n">
-        <v>58.6795</v>
+        <v>59.4415</v>
       </c>
     </row>
   </sheetData>
@@ -6385,16 +6385,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.727349999999999</v>
+        <v>8.80067</v>
       </c>
       <c r="C2" t="n">
-        <v>10.9438</v>
+        <v>10.9383</v>
       </c>
       <c r="D2" t="n">
-        <v>13.1203</v>
+        <v>13.1172</v>
       </c>
       <c r="E2" t="n">
-        <v>15.3515</v>
+        <v>15.3309</v>
       </c>
     </row>
     <row r="3">
@@ -6402,16 +6402,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>16.3734</v>
+        <v>16.5959</v>
       </c>
       <c r="C3" t="n">
-        <v>18.2939</v>
+        <v>18.4174</v>
       </c>
       <c r="D3" t="n">
-        <v>24.4121</v>
+        <v>24.2812</v>
       </c>
       <c r="E3" t="n">
-        <v>28.8536</v>
+        <v>28.6453</v>
       </c>
     </row>
     <row r="4">
@@ -6419,16 +6419,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>23.2992</v>
+        <v>23.7541</v>
       </c>
       <c r="C4" t="n">
-        <v>25.1473</v>
+        <v>25.0866</v>
       </c>
       <c r="D4" t="n">
-        <v>34.3366</v>
+        <v>34.6571</v>
       </c>
       <c r="E4" t="n">
-        <v>41.0536</v>
+        <v>41.2911</v>
       </c>
     </row>
     <row r="5">
@@ -6436,16 +6436,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>23.1425</v>
+        <v>23.1246</v>
       </c>
       <c r="C5" t="n">
-        <v>25.3777</v>
+        <v>25.552</v>
       </c>
       <c r="D5" t="n">
-        <v>36.7042</v>
+        <v>36.8608</v>
       </c>
       <c r="E5" t="n">
-        <v>47.1737</v>
+        <v>46.5859</v>
       </c>
     </row>
     <row r="6">
@@ -6453,16 +6453,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>26.5075</v>
+        <v>26.357</v>
       </c>
       <c r="C6" t="n">
-        <v>28.6705</v>
+        <v>28.5742</v>
       </c>
       <c r="D6" t="n">
-        <v>42.5348</v>
+        <v>42.4666</v>
       </c>
       <c r="E6" t="n">
-        <v>56.3231</v>
+        <v>56.1929</v>
       </c>
     </row>
     <row r="7">
@@ -6470,16 +6470,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>31.8456</v>
+        <v>31.9355</v>
       </c>
       <c r="C7" t="n">
-        <v>33.0741</v>
+        <v>33.09</v>
       </c>
       <c r="D7" t="n">
-        <v>50.3095</v>
+        <v>50.5191</v>
       </c>
       <c r="E7" t="n">
-        <v>64.14</v>
+        <v>64.3146</v>
       </c>
     </row>
     <row r="8">
@@ -6487,16 +6487,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>29.285</v>
+        <v>29.5357</v>
       </c>
       <c r="C8" t="n">
-        <v>31.8553</v>
+        <v>32.2875</v>
       </c>
       <c r="D8" t="n">
-        <v>46.769</v>
+        <v>47.5825</v>
       </c>
       <c r="E8" t="n">
-        <v>60.1215</v>
+        <v>60.2976</v>
       </c>
     </row>
     <row r="9">
@@ -6504,16 +6504,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>30.2964</v>
+        <v>29.5619</v>
       </c>
       <c r="C9" t="n">
-        <v>31.3613</v>
+        <v>32.2393</v>
       </c>
       <c r="D9" t="n">
-        <v>48.0327</v>
+        <v>47.3383</v>
       </c>
       <c r="E9" t="n">
-        <v>61.3576</v>
+        <v>59.7958</v>
       </c>
     </row>
     <row r="10">
@@ -6521,16 +6521,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>30.1364</v>
+        <v>30.3923</v>
       </c>
       <c r="C10" t="n">
-        <v>32.0957</v>
+        <v>32.1472</v>
       </c>
       <c r="D10" t="n">
-        <v>46.8291</v>
+        <v>46.6942</v>
       </c>
       <c r="E10" t="n">
-        <v>61.9171</v>
+        <v>61.4216</v>
       </c>
     </row>
     <row r="11">
@@ -6538,16 +6538,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>30.5607</v>
+        <v>30.7536</v>
       </c>
       <c r="C11" t="n">
-        <v>32.4934</v>
+        <v>32.4206</v>
       </c>
       <c r="D11" t="n">
-        <v>47.3696</v>
+        <v>47.6945</v>
       </c>
       <c r="E11" t="n">
-        <v>60.7382</v>
+        <v>61.8123</v>
       </c>
     </row>
     <row r="12">
@@ -6555,16 +6555,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>30.3848</v>
+        <v>30.0211</v>
       </c>
       <c r="C12" t="n">
-        <v>32.4469</v>
+        <v>32.6127</v>
       </c>
       <c r="D12" t="n">
-        <v>47.5033</v>
+        <v>47.0453</v>
       </c>
       <c r="E12" t="n">
-        <v>62.8896</v>
+        <v>62.1269</v>
       </c>
     </row>
     <row r="13">
@@ -6572,16 +6572,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>30.4898</v>
+        <v>30.9059</v>
       </c>
       <c r="C13" t="n">
-        <v>32.2027</v>
+        <v>32.3669</v>
       </c>
       <c r="D13" t="n">
-        <v>48.0666</v>
+        <v>48.2448</v>
       </c>
       <c r="E13" t="n">
-        <v>61.9716</v>
+        <v>62.4773</v>
       </c>
     </row>
     <row r="14">
@@ -6589,16 +6589,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>30.0996</v>
+        <v>30.9512</v>
       </c>
       <c r="C14" t="n">
-        <v>32.3379</v>
+        <v>32.4282</v>
       </c>
       <c r="D14" t="n">
-        <v>48.352</v>
+        <v>47.9111</v>
       </c>
       <c r="E14" t="n">
-        <v>63.2419</v>
+        <v>60.6816</v>
       </c>
     </row>
     <row r="15">
@@ -6606,16 +6606,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>30.4107</v>
+        <v>30.5052</v>
       </c>
       <c r="C15" t="n">
-        <v>32.5086</v>
+        <v>32.2203</v>
       </c>
       <c r="D15" t="n">
-        <v>47.5119</v>
+        <v>48.5982</v>
       </c>
       <c r="E15" t="n">
-        <v>62.4152</v>
+        <v>62.9664</v>
       </c>
     </row>
     <row r="16">
@@ -6623,16 +6623,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>30.6088</v>
+        <v>30.7064</v>
       </c>
       <c r="C16" t="n">
-        <v>31.9975</v>
+        <v>32.2776</v>
       </c>
       <c r="D16" t="n">
-        <v>48.5858</v>
+        <v>48.6202</v>
       </c>
       <c r="E16" t="n">
-        <v>62.0226</v>
+        <v>62.1709</v>
       </c>
     </row>
     <row r="17">
@@ -6640,16 +6640,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>30.5339</v>
+        <v>30.9017</v>
       </c>
       <c r="C17" t="n">
-        <v>32.3667</v>
+        <v>32.441</v>
       </c>
       <c r="D17" t="n">
-        <v>48.6715</v>
+        <v>48.7469</v>
       </c>
       <c r="E17" t="n">
-        <v>62.5262</v>
+        <v>62.0192</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Parallel workload.xlsx
+++ b/vs-x86/Parallel workload.xlsx
@@ -4800,16 +4800,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>9.38916</v>
+        <v>9.27434</v>
       </c>
       <c r="C2" t="n">
-        <v>10.783</v>
+        <v>10.7105</v>
       </c>
       <c r="D2" t="n">
-        <v>13.1566</v>
+        <v>12.975</v>
       </c>
       <c r="E2" t="n">
-        <v>15.4858</v>
+        <v>14.6394</v>
       </c>
     </row>
     <row r="3">
@@ -4817,16 +4817,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>17.5992</v>
+        <v>17.3389</v>
       </c>
       <c r="C3" t="n">
-        <v>16.6376</v>
+        <v>16.2501</v>
       </c>
       <c r="D3" t="n">
-        <v>22.0265</v>
+        <v>22.2253</v>
       </c>
       <c r="E3" t="n">
-        <v>23.6548</v>
+        <v>23.4277</v>
       </c>
     </row>
     <row r="4">
@@ -4834,16 +4834,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>23.9474</v>
+        <v>24.169</v>
       </c>
       <c r="C4" t="n">
-        <v>21.4995</v>
+        <v>21.3848</v>
       </c>
       <c r="D4" t="n">
-        <v>27.2441</v>
+        <v>26.8275</v>
       </c>
       <c r="E4" t="n">
-        <v>31.6799</v>
+        <v>32.8031</v>
       </c>
     </row>
     <row r="5">
@@ -4851,16 +4851,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>19.2506</v>
+        <v>19.2338</v>
       </c>
       <c r="C5" t="n">
-        <v>23.6031</v>
+        <v>23.8137</v>
       </c>
       <c r="D5" t="n">
-        <v>30.5067</v>
+        <v>31.5607</v>
       </c>
       <c r="E5" t="n">
-        <v>33.8167</v>
+        <v>33.4221</v>
       </c>
     </row>
     <row r="6">
@@ -4868,16 +4868,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>22.667</v>
+        <v>22.4538</v>
       </c>
       <c r="C6" t="n">
-        <v>27.6688</v>
+        <v>27.6753</v>
       </c>
       <c r="D6" t="n">
-        <v>31.6376</v>
+        <v>31.8575</v>
       </c>
       <c r="E6" t="n">
-        <v>39.4379</v>
+        <v>39.5806</v>
       </c>
     </row>
     <row r="7">
@@ -4885,16 +4885,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>26.4604</v>
+        <v>26.3304</v>
       </c>
       <c r="C7" t="n">
-        <v>32.532</v>
+        <v>32.4624</v>
       </c>
       <c r="D7" t="n">
-        <v>36.137</v>
+        <v>37.8806</v>
       </c>
       <c r="E7" t="n">
-        <v>42.689</v>
+        <v>39.8982</v>
       </c>
     </row>
     <row r="8">
@@ -4902,16 +4902,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>20.0312</v>
+        <v>20.1694</v>
       </c>
       <c r="C8" t="n">
-        <v>29.9975</v>
+        <v>29.6303</v>
       </c>
       <c r="D8" t="n">
-        <v>36.1893</v>
+        <v>37.0235</v>
       </c>
       <c r="E8" t="n">
-        <v>41.0291</v>
+        <v>41.6823</v>
       </c>
     </row>
     <row r="9">
@@ -4919,16 +4919,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>22.4077</v>
+        <v>22.2702</v>
       </c>
       <c r="C9" t="n">
-        <v>29.8939</v>
+        <v>29.6825</v>
       </c>
       <c r="D9" t="n">
-        <v>38.8195</v>
+        <v>39.6196</v>
       </c>
       <c r="E9" t="n">
-        <v>45.5652</v>
+        <v>42.8572</v>
       </c>
     </row>
     <row r="10">
@@ -4936,16 +4936,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>24.221</v>
+        <v>24.2277</v>
       </c>
       <c r="C10" t="n">
-        <v>30.0816</v>
+        <v>30.3049</v>
       </c>
       <c r="D10" t="n">
-        <v>41.0026</v>
+        <v>40.9461</v>
       </c>
       <c r="E10" t="n">
-        <v>47.419</v>
+        <v>47.6018</v>
       </c>
     </row>
     <row r="11">
@@ -4953,16 +4953,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>22.7023</v>
+        <v>22.5344</v>
       </c>
       <c r="C11" t="n">
-        <v>30.4265</v>
+        <v>30.4238</v>
       </c>
       <c r="D11" t="n">
-        <v>43.2485</v>
+        <v>43.2436</v>
       </c>
       <c r="E11" t="n">
-        <v>51.0736</v>
+        <v>49.1017</v>
       </c>
     </row>
     <row r="12">
@@ -4970,16 +4970,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>24.3751</v>
+        <v>24.3237</v>
       </c>
       <c r="C12" t="n">
-        <v>30.3954</v>
+        <v>30.7659</v>
       </c>
       <c r="D12" t="n">
-        <v>43.5474</v>
+        <v>44.4493</v>
       </c>
       <c r="E12" t="n">
-        <v>50.9881</v>
+        <v>52.4188</v>
       </c>
     </row>
     <row r="13">
@@ -4987,16 +4987,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>26.436</v>
+        <v>26.3159</v>
       </c>
       <c r="C13" t="n">
-        <v>31.3455</v>
+        <v>31.084</v>
       </c>
       <c r="D13" t="n">
-        <v>43.869</v>
+        <v>44.2043</v>
       </c>
       <c r="E13" t="n">
-        <v>52.3839</v>
+        <v>52.0846</v>
       </c>
     </row>
     <row r="14">
@@ -5004,16 +5004,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>22.5617</v>
+        <v>22.3172</v>
       </c>
       <c r="C14" t="n">
-        <v>30.6984</v>
+        <v>30.8551</v>
       </c>
       <c r="D14" t="n">
-        <v>44.3625</v>
+        <v>42.3191</v>
       </c>
       <c r="E14" t="n">
-        <v>53.7104</v>
+        <v>56.4646</v>
       </c>
     </row>
     <row r="15">
@@ -5021,16 +5021,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>23.4805</v>
+        <v>23.6045</v>
       </c>
       <c r="C15" t="n">
-        <v>31.0454</v>
+        <v>30.6452</v>
       </c>
       <c r="D15" t="n">
-        <v>45.6759</v>
+        <v>45.3143</v>
       </c>
       <c r="E15" t="n">
-        <v>53.2068</v>
+        <v>52.8203</v>
       </c>
     </row>
     <row r="16">
@@ -5038,16 +5038,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>24.8918</v>
+        <v>24.5359</v>
       </c>
       <c r="C16" t="n">
-        <v>31.2611</v>
+        <v>30.5955</v>
       </c>
       <c r="D16" t="n">
-        <v>43.905</v>
+        <v>45.3079</v>
       </c>
       <c r="E16" t="n">
-        <v>53.4148</v>
+        <v>53.9116</v>
       </c>
     </row>
     <row r="17">
@@ -5055,16 +5055,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>23.8571</v>
+        <v>23.6553</v>
       </c>
       <c r="C17" t="n">
-        <v>31.0555</v>
+        <v>30.758</v>
       </c>
       <c r="D17" t="n">
-        <v>45.0726</v>
+        <v>43.1855</v>
       </c>
       <c r="E17" t="n">
-        <v>52.7236</v>
+        <v>53.0942</v>
       </c>
     </row>
   </sheetData>
@@ -5117,16 +5117,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>9.36012</v>
+        <v>9.292859999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>10.7531</v>
+        <v>10.7279</v>
       </c>
       <c r="D2" t="n">
-        <v>13.0279</v>
+        <v>12.9039</v>
       </c>
       <c r="E2" t="n">
-        <v>14.9392</v>
+        <v>14.8068</v>
       </c>
     </row>
     <row r="3">
@@ -5134,16 +5134,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>17.2678</v>
+        <v>17.1033</v>
       </c>
       <c r="C3" t="n">
-        <v>16.9643</v>
+        <v>16.7298</v>
       </c>
       <c r="D3" t="n">
-        <v>21.047</v>
+        <v>20.7859</v>
       </c>
       <c r="E3" t="n">
-        <v>24.0872</v>
+        <v>24.1726</v>
       </c>
     </row>
     <row r="4">
@@ -5151,16 +5151,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>23.8483</v>
+        <v>23.7176</v>
       </c>
       <c r="C4" t="n">
-        <v>22.413</v>
+        <v>21.9129</v>
       </c>
       <c r="D4" t="n">
-        <v>26.6519</v>
+        <v>27.282</v>
       </c>
       <c r="E4" t="n">
-        <v>29.826</v>
+        <v>30.4619</v>
       </c>
     </row>
     <row r="5">
@@ -5168,16 +5168,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>19.4006</v>
+        <v>19.0226</v>
       </c>
       <c r="C5" t="n">
-        <v>23.5293</v>
+        <v>23.6985</v>
       </c>
       <c r="D5" t="n">
-        <v>28.0842</v>
+        <v>26.998</v>
       </c>
       <c r="E5" t="n">
-        <v>36.226</v>
+        <v>35.5789</v>
       </c>
     </row>
     <row r="6">
@@ -5185,16 +5185,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>22.8811</v>
+        <v>22.892</v>
       </c>
       <c r="C6" t="n">
-        <v>27.7058</v>
+        <v>27.5971</v>
       </c>
       <c r="D6" t="n">
-        <v>35.1115</v>
+        <v>34.8208</v>
       </c>
       <c r="E6" t="n">
-        <v>39.3142</v>
+        <v>37.7142</v>
       </c>
     </row>
     <row r="7">
@@ -5202,16 +5202,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>27.0204</v>
+        <v>26.9228</v>
       </c>
       <c r="C7" t="n">
-        <v>32.5081</v>
+        <v>32.3054</v>
       </c>
       <c r="D7" t="n">
-        <v>36.1412</v>
+        <v>36.8492</v>
       </c>
       <c r="E7" t="n">
-        <v>44.9394</v>
+        <v>44.5535</v>
       </c>
     </row>
     <row r="8">
@@ -5219,16 +5219,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>20.1325</v>
+        <v>20.1185</v>
       </c>
       <c r="C8" t="n">
-        <v>28.9914</v>
+        <v>29.1406</v>
       </c>
       <c r="D8" t="n">
-        <v>34.5527</v>
+        <v>34.773</v>
       </c>
       <c r="E8" t="n">
-        <v>43.0504</v>
+        <v>43.6126</v>
       </c>
     </row>
     <row r="9">
@@ -5236,16 +5236,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>22.804</v>
+        <v>22.5648</v>
       </c>
       <c r="C9" t="n">
-        <v>29.73</v>
+        <v>29.5007</v>
       </c>
       <c r="D9" t="n">
-        <v>35.1684</v>
+        <v>35.1455</v>
       </c>
       <c r="E9" t="n">
-        <v>45.3824</v>
+        <v>43.7419</v>
       </c>
     </row>
     <row r="10">
@@ -5253,16 +5253,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>25.0137</v>
+        <v>24.2856</v>
       </c>
       <c r="C10" t="n">
-        <v>30.0967</v>
+        <v>29.6313</v>
       </c>
       <c r="D10" t="n">
-        <v>38.8576</v>
+        <v>37.783</v>
       </c>
       <c r="E10" t="n">
-        <v>48.7893</v>
+        <v>48.5886</v>
       </c>
     </row>
     <row r="11">
@@ -5270,16 +5270,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>23.0119</v>
+        <v>22.8336</v>
       </c>
       <c r="C11" t="n">
-        <v>30.1293</v>
+        <v>29.9871</v>
       </c>
       <c r="D11" t="n">
-        <v>40.1002</v>
+        <v>40.1183</v>
       </c>
       <c r="E11" t="n">
-        <v>50.3553</v>
+        <v>52.585</v>
       </c>
     </row>
     <row r="12">
@@ -5287,16 +5287,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>24.9175</v>
+        <v>24.8387</v>
       </c>
       <c r="C12" t="n">
-        <v>30.4813</v>
+        <v>30.2641</v>
       </c>
       <c r="D12" t="n">
-        <v>41.0793</v>
+        <v>40.6225</v>
       </c>
       <c r="E12" t="n">
-        <v>52.4548</v>
+        <v>52.8257</v>
       </c>
     </row>
     <row r="13">
@@ -5304,16 +5304,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>27.0262</v>
+        <v>26.9349</v>
       </c>
       <c r="C13" t="n">
-        <v>30.9199</v>
+        <v>30.8511</v>
       </c>
       <c r="D13" t="n">
-        <v>44.9298</v>
+        <v>41.617</v>
       </c>
       <c r="E13" t="n">
-        <v>53.4556</v>
+        <v>51.0441</v>
       </c>
     </row>
     <row r="14">
@@ -5321,16 +5321,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>22.3331</v>
+        <v>22.1642</v>
       </c>
       <c r="C14" t="n">
-        <v>30.8275</v>
+        <v>30.9736</v>
       </c>
       <c r="D14" t="n">
-        <v>44.4355</v>
+        <v>42.622</v>
       </c>
       <c r="E14" t="n">
-        <v>52.6371</v>
+        <v>52.0437</v>
       </c>
     </row>
     <row r="15">
@@ -5338,16 +5338,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>24.2149</v>
+        <v>24.1939</v>
       </c>
       <c r="C15" t="n">
-        <v>31.5633</v>
+        <v>30.8834</v>
       </c>
       <c r="D15" t="n">
-        <v>45.1018</v>
+        <v>45.2175</v>
       </c>
       <c r="E15" t="n">
-        <v>53.2389</v>
+        <v>53.1101</v>
       </c>
     </row>
     <row r="16">
@@ -5355,16 +5355,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>25.3379</v>
+        <v>25.36</v>
       </c>
       <c r="C16" t="n">
-        <v>31.3329</v>
+        <v>30.9982</v>
       </c>
       <c r="D16" t="n">
-        <v>44.4489</v>
+        <v>44.082</v>
       </c>
       <c r="E16" t="n">
-        <v>53.1813</v>
+        <v>53.5685</v>
       </c>
     </row>
     <row r="17">
@@ -5372,16 +5372,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>24.2596</v>
+        <v>24.2879</v>
       </c>
       <c r="C17" t="n">
-        <v>31.2713</v>
+        <v>31.4569</v>
       </c>
       <c r="D17" t="n">
-        <v>45.3367</v>
+        <v>45.6674</v>
       </c>
       <c r="E17" t="n">
-        <v>52.7498</v>
+        <v>53.2886</v>
       </c>
     </row>
   </sheetData>
@@ -5434,16 +5434,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>10.8877</v>
+        <v>10.8366</v>
       </c>
       <c r="C2" t="n">
-        <v>11.5824</v>
+        <v>11.5557</v>
       </c>
       <c r="D2" t="n">
-        <v>13.8021</v>
+        <v>13.7644</v>
       </c>
       <c r="E2" t="n">
-        <v>15.4596</v>
+        <v>15.3404</v>
       </c>
     </row>
     <row r="3">
@@ -5451,16 +5451,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>19.4259</v>
+        <v>19.3217</v>
       </c>
       <c r="C3" t="n">
-        <v>19.0748</v>
+        <v>19.4921</v>
       </c>
       <c r="D3" t="n">
-        <v>22.7746</v>
+        <v>22.676</v>
       </c>
       <c r="E3" t="n">
-        <v>26.2525</v>
+        <v>25.7471</v>
       </c>
     </row>
     <row r="4">
@@ -5468,16 +5468,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>26.5044</v>
+        <v>26.8413</v>
       </c>
       <c r="C4" t="n">
-        <v>25.3565</v>
+        <v>25.3133</v>
       </c>
       <c r="D4" t="n">
-        <v>31.6208</v>
+        <v>31.2393</v>
       </c>
       <c r="E4" t="n">
-        <v>34.613</v>
+        <v>31.9056</v>
       </c>
     </row>
     <row r="5">
@@ -5485,16 +5485,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>23.2121</v>
+        <v>23.4356</v>
       </c>
       <c r="C5" t="n">
-        <v>24.9455</v>
+        <v>24.6905</v>
       </c>
       <c r="D5" t="n">
-        <v>31.206</v>
+        <v>31.1095</v>
       </c>
       <c r="E5" t="n">
-        <v>34.9004</v>
+        <v>35.0081</v>
       </c>
     </row>
     <row r="6">
@@ -5502,16 +5502,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>28.0345</v>
+        <v>27.8495</v>
       </c>
       <c r="C6" t="n">
-        <v>28.6031</v>
+        <v>28.653</v>
       </c>
       <c r="D6" t="n">
-        <v>35.056</v>
+        <v>34.9914</v>
       </c>
       <c r="E6" t="n">
-        <v>36.1997</v>
+        <v>36.9914</v>
       </c>
     </row>
     <row r="7">
@@ -5519,16 +5519,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>33.1144</v>
+        <v>32.9562</v>
       </c>
       <c r="C7" t="n">
-        <v>33.5116</v>
+        <v>33.3775</v>
       </c>
       <c r="D7" t="n">
-        <v>35.1143</v>
+        <v>35.0833</v>
       </c>
       <c r="E7" t="n">
-        <v>44.9534</v>
+        <v>45.5514</v>
       </c>
     </row>
     <row r="8">
@@ -5536,16 +5536,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>29.5159</v>
+        <v>29.5274</v>
       </c>
       <c r="C8" t="n">
-        <v>29.7571</v>
+        <v>29.6602</v>
       </c>
       <c r="D8" t="n">
-        <v>34.6345</v>
+        <v>34.9479</v>
       </c>
       <c r="E8" t="n">
-        <v>46.6735</v>
+        <v>46.6214</v>
       </c>
     </row>
     <row r="9">
@@ -5553,16 +5553,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>29.6342</v>
+        <v>29.055</v>
       </c>
       <c r="C9" t="n">
-        <v>29.3376</v>
+        <v>30.1256</v>
       </c>
       <c r="D9" t="n">
-        <v>37.7443</v>
+        <v>39.3519</v>
       </c>
       <c r="E9" t="n">
-        <v>49.0944</v>
+        <v>48.019</v>
       </c>
     </row>
     <row r="10">
@@ -5570,16 +5570,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>30.3723</v>
+        <v>30.003</v>
       </c>
       <c r="C10" t="n">
-        <v>29.6561</v>
+        <v>30.5596</v>
       </c>
       <c r="D10" t="n">
-        <v>41.4168</v>
+        <v>42.9938</v>
       </c>
       <c r="E10" t="n">
-        <v>50.7026</v>
+        <v>50.0773</v>
       </c>
     </row>
     <row r="11">
@@ -5587,16 +5587,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>30.4365</v>
+        <v>30.4455</v>
       </c>
       <c r="C11" t="n">
-        <v>30.2107</v>
+        <v>30.5497</v>
       </c>
       <c r="D11" t="n">
-        <v>43.6244</v>
+        <v>43.8964</v>
       </c>
       <c r="E11" t="n">
-        <v>52.2983</v>
+        <v>52.8691</v>
       </c>
     </row>
     <row r="12">
@@ -5604,16 +5604,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>30.9676</v>
+        <v>30.6411</v>
       </c>
       <c r="C12" t="n">
-        <v>31.2704</v>
+        <v>30.6474</v>
       </c>
       <c r="D12" t="n">
-        <v>43.3684</v>
+        <v>43.3</v>
       </c>
       <c r="E12" t="n">
-        <v>52.6728</v>
+        <v>51.5199</v>
       </c>
     </row>
     <row r="13">
@@ -5621,16 +5621,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>31.6335</v>
+        <v>31.0973</v>
       </c>
       <c r="C13" t="n">
-        <v>31.008</v>
+        <v>31.0937</v>
       </c>
       <c r="D13" t="n">
-        <v>44.8364</v>
+        <v>44.6441</v>
       </c>
       <c r="E13" t="n">
-        <v>52.2913</v>
+        <v>54.4482</v>
       </c>
     </row>
     <row r="14">
@@ -5638,16 +5638,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>30.9625</v>
+        <v>30.7981</v>
       </c>
       <c r="C14" t="n">
-        <v>31.0521</v>
+        <v>30.9277</v>
       </c>
       <c r="D14" t="n">
-        <v>43.992</v>
+        <v>44.8685</v>
       </c>
       <c r="E14" t="n">
-        <v>52.1999</v>
+        <v>52.5756</v>
       </c>
     </row>
     <row r="15">
@@ -5655,16 +5655,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>31.4245</v>
+        <v>30.6801</v>
       </c>
       <c r="C15" t="n">
-        <v>31.2407</v>
+        <v>31.3972</v>
       </c>
       <c r="D15" t="n">
-        <v>45.0055</v>
+        <v>45.2652</v>
       </c>
       <c r="E15" t="n">
-        <v>51.7846</v>
+        <v>52.2329</v>
       </c>
     </row>
     <row r="16">
@@ -5672,16 +5672,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>31.2814</v>
+        <v>31.1298</v>
       </c>
       <c r="C16" t="n">
-        <v>31.6339</v>
+        <v>31.4943</v>
       </c>
       <c r="D16" t="n">
-        <v>45.5364</v>
+        <v>44.662</v>
       </c>
       <c r="E16" t="n">
-        <v>52.2582</v>
+        <v>52.3222</v>
       </c>
     </row>
     <row r="17">
@@ -5689,16 +5689,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>31.5554</v>
+        <v>30.9456</v>
       </c>
       <c r="C17" t="n">
-        <v>31.6687</v>
+        <v>31.4691</v>
       </c>
       <c r="D17" t="n">
-        <v>45.3185</v>
+        <v>43.2797</v>
       </c>
       <c r="E17" t="n">
-        <v>51.8989</v>
+        <v>53.1421</v>
       </c>
     </row>
   </sheetData>
@@ -5751,16 +5751,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4.92064</v>
+        <v>4.92393</v>
       </c>
       <c r="C2" t="n">
-        <v>9.03769</v>
+        <v>9.00825</v>
       </c>
       <c r="D2" t="n">
-        <v>10.7793</v>
+        <v>10.7943</v>
       </c>
       <c r="E2" t="n">
-        <v>13.8261</v>
+        <v>13.9874</v>
       </c>
     </row>
     <row r="3">
@@ -5768,16 +5768,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.64733</v>
+        <v>9.63067</v>
       </c>
       <c r="C3" t="n">
-        <v>15.8116</v>
+        <v>15.7286</v>
       </c>
       <c r="D3" t="n">
-        <v>20.6383</v>
+        <v>20.6216</v>
       </c>
       <c r="E3" t="n">
-        <v>26.5542</v>
+        <v>26.6173</v>
       </c>
     </row>
     <row r="4">
@@ -5785,16 +5785,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>14.0035</v>
+        <v>13.9171</v>
       </c>
       <c r="C4" t="n">
-        <v>22.0142</v>
+        <v>22.0476</v>
       </c>
       <c r="D4" t="n">
-        <v>29.4147</v>
+        <v>29.6168</v>
       </c>
       <c r="E4" t="n">
-        <v>37.754</v>
+        <v>37.6746</v>
       </c>
     </row>
     <row r="5">
@@ -5802,16 +5802,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>15.6073</v>
+        <v>15.763</v>
       </c>
       <c r="C5" t="n">
-        <v>23.0235</v>
+        <v>23.0997</v>
       </c>
       <c r="D5" t="n">
-        <v>33.7568</v>
+        <v>33.5926</v>
       </c>
       <c r="E5" t="n">
-        <v>44.2618</v>
+        <v>44.038</v>
       </c>
     </row>
     <row r="6">
@@ -5819,16 +5819,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>18.9626</v>
+        <v>18.874</v>
       </c>
       <c r="C6" t="n">
-        <v>26.5003</v>
+        <v>26.3957</v>
       </c>
       <c r="D6" t="n">
-        <v>41.0439</v>
+        <v>40.8375</v>
       </c>
       <c r="E6" t="n">
-        <v>52.0964</v>
+        <v>51.9737</v>
       </c>
     </row>
     <row r="7">
@@ -5836,16 +5836,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>22.182</v>
+        <v>22.0648</v>
       </c>
       <c r="C7" t="n">
-        <v>31.2507</v>
+        <v>31.0488</v>
       </c>
       <c r="D7" t="n">
-        <v>47.6942</v>
+        <v>47.5775</v>
       </c>
       <c r="E7" t="n">
-        <v>62.1868</v>
+        <v>61.8424</v>
       </c>
     </row>
     <row r="8">
@@ -5853,16 +5853,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>20.0698</v>
+        <v>20.0624</v>
       </c>
       <c r="C8" t="n">
-        <v>29.884</v>
+        <v>29.8905</v>
       </c>
       <c r="D8" t="n">
-        <v>43.1537</v>
+        <v>43.1774</v>
       </c>
       <c r="E8" t="n">
-        <v>55.8478</v>
+        <v>55.1168</v>
       </c>
     </row>
     <row r="9">
@@ -5870,16 +5870,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>20.6964</v>
+        <v>20.2103</v>
       </c>
       <c r="C9" t="n">
-        <v>30.0703</v>
+        <v>29.7696</v>
       </c>
       <c r="D9" t="n">
-        <v>42.96</v>
+        <v>42.3259</v>
       </c>
       <c r="E9" t="n">
-        <v>57.033</v>
+        <v>54.7072</v>
       </c>
     </row>
     <row r="10">
@@ -5887,16 +5887,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>20.6043</v>
+        <v>20.8836</v>
       </c>
       <c r="C10" t="n">
-        <v>29.7747</v>
+        <v>30.0584</v>
       </c>
       <c r="D10" t="n">
-        <v>43.8666</v>
+        <v>43.5031</v>
       </c>
       <c r="E10" t="n">
-        <v>54.977</v>
+        <v>53.678</v>
       </c>
     </row>
     <row r="11">
@@ -5904,16 +5904,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>21.3678</v>
+        <v>21.4044</v>
       </c>
       <c r="C11" t="n">
-        <v>29.7815</v>
+        <v>29.8486</v>
       </c>
       <c r="D11" t="n">
-        <v>43.6328</v>
+        <v>44.0156</v>
       </c>
       <c r="E11" t="n">
-        <v>56.0629</v>
+        <v>56.2434</v>
       </c>
     </row>
     <row r="12">
@@ -5921,16 +5921,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>21.0777</v>
+        <v>20.7738</v>
       </c>
       <c r="C12" t="n">
-        <v>29.774</v>
+        <v>30.3002</v>
       </c>
       <c r="D12" t="n">
-        <v>42.7521</v>
+        <v>43.508</v>
       </c>
       <c r="E12" t="n">
-        <v>55.6791</v>
+        <v>56.5524</v>
       </c>
     </row>
     <row r="13">
@@ -5938,16 +5938,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>21.2622</v>
+        <v>21.023</v>
       </c>
       <c r="C13" t="n">
-        <v>30.5675</v>
+        <v>30.0886</v>
       </c>
       <c r="D13" t="n">
-        <v>44.662</v>
+        <v>44.2225</v>
       </c>
       <c r="E13" t="n">
-        <v>57.7788</v>
+        <v>58.4979</v>
       </c>
     </row>
     <row r="14">
@@ -5955,16 +5955,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>20.8571</v>
+        <v>20.8528</v>
       </c>
       <c r="C14" t="n">
-        <v>30.27</v>
+        <v>30.3628</v>
       </c>
       <c r="D14" t="n">
-        <v>44.7687</v>
+        <v>44.7552</v>
       </c>
       <c r="E14" t="n">
-        <v>56.5609</v>
+        <v>57.9617</v>
       </c>
     </row>
     <row r="15">
@@ -5972,16 +5972,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>21.3474</v>
+        <v>20.9518</v>
       </c>
       <c r="C15" t="n">
-        <v>30.4231</v>
+        <v>30.0571</v>
       </c>
       <c r="D15" t="n">
-        <v>43.2596</v>
+        <v>45.6363</v>
       </c>
       <c r="E15" t="n">
-        <v>58.824</v>
+        <v>58.8115</v>
       </c>
     </row>
     <row r="16">
@@ -5989,16 +5989,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>20.8314</v>
+        <v>20.7685</v>
       </c>
       <c r="C16" t="n">
-        <v>30.4637</v>
+        <v>30.4232</v>
       </c>
       <c r="D16" t="n">
-        <v>45.2172</v>
+        <v>44.815</v>
       </c>
       <c r="E16" t="n">
-        <v>57.6748</v>
+        <v>59.1592</v>
       </c>
     </row>
     <row r="17">
@@ -6006,16 +6006,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>21.2164</v>
+        <v>21.2837</v>
       </c>
       <c r="C17" t="n">
-        <v>30.6508</v>
+        <v>30.566</v>
       </c>
       <c r="D17" t="n">
-        <v>44.8083</v>
+        <v>45.0055</v>
       </c>
       <c r="E17" t="n">
-        <v>59.9018</v>
+        <v>58.7363</v>
       </c>
     </row>
   </sheetData>
@@ -6068,16 +6068,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>5.01217</v>
+        <v>5.02423</v>
       </c>
       <c r="C2" t="n">
-        <v>9.06324</v>
+        <v>9.100149999999999</v>
       </c>
       <c r="D2" t="n">
-        <v>10.7337</v>
+        <v>10.8246</v>
       </c>
       <c r="E2" t="n">
-        <v>13.9079</v>
+        <v>14.0341</v>
       </c>
     </row>
     <row r="3">
@@ -6085,16 +6085,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.828200000000001</v>
+        <v>9.850989999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>15.9392</v>
+        <v>15.7566</v>
       </c>
       <c r="D3" t="n">
-        <v>20.3506</v>
+        <v>20.6718</v>
       </c>
       <c r="E3" t="n">
-        <v>26.0614</v>
+        <v>26.6109</v>
       </c>
     </row>
     <row r="4">
@@ -6102,16 +6102,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>14.2115</v>
+        <v>14.2944</v>
       </c>
       <c r="C4" t="n">
-        <v>22.1002</v>
+        <v>21.9605</v>
       </c>
       <c r="D4" t="n">
-        <v>29.6372</v>
+        <v>29.2086</v>
       </c>
       <c r="E4" t="n">
-        <v>38.1514</v>
+        <v>38.0288</v>
       </c>
     </row>
     <row r="5">
@@ -6119,16 +6119,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>16.1896</v>
+        <v>16.2123</v>
       </c>
       <c r="C5" t="n">
-        <v>22.8032</v>
+        <v>22.9484</v>
       </c>
       <c r="D5" t="n">
-        <v>33.2262</v>
+        <v>33.4218</v>
       </c>
       <c r="E5" t="n">
-        <v>43.6037</v>
+        <v>43.4119</v>
       </c>
     </row>
     <row r="6">
@@ -6136,16 +6136,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>19.3333</v>
+        <v>19.4303</v>
       </c>
       <c r="C6" t="n">
-        <v>26.4427</v>
+        <v>26.6097</v>
       </c>
       <c r="D6" t="n">
-        <v>39.9051</v>
+        <v>39.8475</v>
       </c>
       <c r="E6" t="n">
-        <v>51.3664</v>
+        <v>51.8841</v>
       </c>
     </row>
     <row r="7">
@@ -6153,16 +6153,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>22.8578</v>
+        <v>22.7864</v>
       </c>
       <c r="C7" t="n">
-        <v>31.2952</v>
+        <v>31.0218</v>
       </c>
       <c r="D7" t="n">
-        <v>47.3648</v>
+        <v>47.2316</v>
       </c>
       <c r="E7" t="n">
-        <v>60.6329</v>
+        <v>59.9067</v>
       </c>
     </row>
     <row r="8">
@@ -6170,16 +6170,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>20.548</v>
+        <v>20.5561</v>
       </c>
       <c r="C8" t="n">
-        <v>29.7156</v>
+        <v>29.6944</v>
       </c>
       <c r="D8" t="n">
-        <v>42.2873</v>
+        <v>42.2069</v>
       </c>
       <c r="E8" t="n">
-        <v>53.6559</v>
+        <v>53.2312</v>
       </c>
     </row>
     <row r="9">
@@ -6187,16 +6187,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>21.3739</v>
+        <v>21.1259</v>
       </c>
       <c r="C9" t="n">
-        <v>30.2671</v>
+        <v>29.6362</v>
       </c>
       <c r="D9" t="n">
-        <v>42.962</v>
+        <v>41.4057</v>
       </c>
       <c r="E9" t="n">
-        <v>54.2881</v>
+        <v>52.6972</v>
       </c>
     </row>
     <row r="10">
@@ -6204,16 +6204,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>21.5481</v>
+        <v>21.4457</v>
       </c>
       <c r="C10" t="n">
-        <v>29.9247</v>
+        <v>29.8164</v>
       </c>
       <c r="D10" t="n">
-        <v>43.6384</v>
+        <v>42.4424</v>
       </c>
       <c r="E10" t="n">
-        <v>55.3357</v>
+        <v>54.674</v>
       </c>
     </row>
     <row r="11">
@@ -6221,16 +6221,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>21.8286</v>
+        <v>21.9904</v>
       </c>
       <c r="C11" t="n">
-        <v>30.5476</v>
+        <v>30.1203</v>
       </c>
       <c r="D11" t="n">
-        <v>43.4197</v>
+        <v>42.4095</v>
       </c>
       <c r="E11" t="n">
-        <v>55.5772</v>
+        <v>57.0391</v>
       </c>
     </row>
     <row r="12">
@@ -6238,16 +6238,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>21.6594</v>
+        <v>21.4631</v>
       </c>
       <c r="C12" t="n">
-        <v>30.452</v>
+        <v>29.8019</v>
       </c>
       <c r="D12" t="n">
-        <v>45.0208</v>
+        <v>44.118</v>
       </c>
       <c r="E12" t="n">
-        <v>56.2253</v>
+        <v>57.123</v>
       </c>
     </row>
     <row r="13">
@@ -6255,16 +6255,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>21.5228</v>
+        <v>21.5144</v>
       </c>
       <c r="C13" t="n">
-        <v>30.4304</v>
+        <v>30.3508</v>
       </c>
       <c r="D13" t="n">
-        <v>43.8849</v>
+        <v>44.1029</v>
       </c>
       <c r="E13" t="n">
-        <v>56.9786</v>
+        <v>57.7728</v>
       </c>
     </row>
     <row r="14">
@@ -6272,16 +6272,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>21.2986</v>
+        <v>21.4849</v>
       </c>
       <c r="C14" t="n">
-        <v>30.3597</v>
+        <v>30.3674</v>
       </c>
       <c r="D14" t="n">
-        <v>44.1602</v>
+        <v>45.3521</v>
       </c>
       <c r="E14" t="n">
-        <v>58.6712</v>
+        <v>56.3864</v>
       </c>
     </row>
     <row r="15">
@@ -6289,16 +6289,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>21.7085</v>
+        <v>21.7896</v>
       </c>
       <c r="C15" t="n">
-        <v>30.4648</v>
+        <v>30.3759</v>
       </c>
       <c r="D15" t="n">
-        <v>45.1961</v>
+        <v>44.9749</v>
       </c>
       <c r="E15" t="n">
-        <v>57.2168</v>
+        <v>58.7311</v>
       </c>
     </row>
     <row r="16">
@@ -6306,16 +6306,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>21.7331</v>
+        <v>21.7468</v>
       </c>
       <c r="C16" t="n">
-        <v>30.5823</v>
+        <v>30.3906</v>
       </c>
       <c r="D16" t="n">
-        <v>45.0543</v>
+        <v>45.5758</v>
       </c>
       <c r="E16" t="n">
-        <v>58.406</v>
+        <v>58.4599</v>
       </c>
     </row>
     <row r="17">
@@ -6323,16 +6323,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>21.559</v>
+        <v>21.7426</v>
       </c>
       <c r="C17" t="n">
-        <v>30.7326</v>
+        <v>30.4073</v>
       </c>
       <c r="D17" t="n">
-        <v>45.7981</v>
+        <v>45.2278</v>
       </c>
       <c r="E17" t="n">
-        <v>59.0696</v>
+        <v>58.4337</v>
       </c>
     </row>
   </sheetData>
@@ -6385,16 +6385,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.81517</v>
+        <v>8.71772</v>
       </c>
       <c r="C2" t="n">
-        <v>10.9203</v>
+        <v>10.8556</v>
       </c>
       <c r="D2" t="n">
-        <v>13.1081</v>
+        <v>13.0106</v>
       </c>
       <c r="E2" t="n">
-        <v>15.3672</v>
+        <v>15.2183</v>
       </c>
     </row>
     <row r="3">
@@ -6402,16 +6402,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>16.5343</v>
+        <v>16.4497</v>
       </c>
       <c r="C3" t="n">
-        <v>18.2795</v>
+        <v>18.2672</v>
       </c>
       <c r="D3" t="n">
-        <v>24.3214</v>
+        <v>24.147</v>
       </c>
       <c r="E3" t="n">
-        <v>28.8799</v>
+        <v>28.6277</v>
       </c>
     </row>
     <row r="4">
@@ -6419,16 +6419,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>23.6649</v>
+        <v>23.2007</v>
       </c>
       <c r="C4" t="n">
-        <v>25.5441</v>
+        <v>24.6383</v>
       </c>
       <c r="D4" t="n">
-        <v>34.6749</v>
+        <v>34.104</v>
       </c>
       <c r="E4" t="n">
-        <v>41.3144</v>
+        <v>40.6064</v>
       </c>
     </row>
     <row r="5">
@@ -6436,16 +6436,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>23.5631</v>
+        <v>22.9351</v>
       </c>
       <c r="C5" t="n">
-        <v>25.1938</v>
+        <v>25.1842</v>
       </c>
       <c r="D5" t="n">
-        <v>35.5583</v>
+        <v>36.5801</v>
       </c>
       <c r="E5" t="n">
-        <v>46.5513</v>
+        <v>46.2197</v>
       </c>
     </row>
     <row r="6">
@@ -6453,16 +6453,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>26.3334</v>
+        <v>26.5996</v>
       </c>
       <c r="C6" t="n">
-        <v>28.4049</v>
+        <v>28.4068</v>
       </c>
       <c r="D6" t="n">
-        <v>43.0075</v>
+        <v>42.5557</v>
       </c>
       <c r="E6" t="n">
-        <v>56.256</v>
+        <v>55.5273</v>
       </c>
     </row>
     <row r="7">
@@ -6470,16 +6470,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>31.9607</v>
+        <v>31.6426</v>
       </c>
       <c r="C7" t="n">
-        <v>33.0335</v>
+        <v>32.9424</v>
       </c>
       <c r="D7" t="n">
-        <v>50.3814</v>
+        <v>50.1583</v>
       </c>
       <c r="E7" t="n">
-        <v>63.7729</v>
+        <v>63.636</v>
       </c>
     </row>
     <row r="8">
@@ -6487,16 +6487,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>29.3109</v>
+        <v>29.1602</v>
       </c>
       <c r="C8" t="n">
-        <v>31.8998</v>
+        <v>31.8672</v>
       </c>
       <c r="D8" t="n">
-        <v>46.8583</v>
+        <v>45.5812</v>
       </c>
       <c r="E8" t="n">
-        <v>60.9853</v>
+        <v>60.0178</v>
       </c>
     </row>
     <row r="9">
@@ -6504,16 +6504,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>30.1229</v>
+        <v>29.3526</v>
       </c>
       <c r="C9" t="n">
-        <v>31.5888</v>
+        <v>31.3446</v>
       </c>
       <c r="D9" t="n">
-        <v>46.973</v>
+        <v>46.1158</v>
       </c>
       <c r="E9" t="n">
-        <v>59.9648</v>
+        <v>59.3645</v>
       </c>
     </row>
     <row r="10">
@@ -6521,16 +6521,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>30.169</v>
+        <v>30.3607</v>
       </c>
       <c r="C10" t="n">
-        <v>32.1212</v>
+        <v>31.9331</v>
       </c>
       <c r="D10" t="n">
-        <v>47.9185</v>
+        <v>47.2345</v>
       </c>
       <c r="E10" t="n">
-        <v>61.3369</v>
+        <v>61.4763</v>
       </c>
     </row>
     <row r="11">
@@ -6538,16 +6538,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>30.5782</v>
+        <v>30.5518</v>
       </c>
       <c r="C11" t="n">
-        <v>32.6971</v>
+        <v>32.0083</v>
       </c>
       <c r="D11" t="n">
-        <v>47.1839</v>
+        <v>47.3613</v>
       </c>
       <c r="E11" t="n">
-        <v>62.5926</v>
+        <v>62.5788</v>
       </c>
     </row>
     <row r="12">
@@ -6555,16 +6555,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>30.5697</v>
+        <v>30.4196</v>
       </c>
       <c r="C12" t="n">
-        <v>32.1726</v>
+        <v>32.0269</v>
       </c>
       <c r="D12" t="n">
-        <v>48.4003</v>
+        <v>47.5182</v>
       </c>
       <c r="E12" t="n">
-        <v>61.5415</v>
+        <v>61.0313</v>
       </c>
     </row>
     <row r="13">
@@ -6572,16 +6572,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>30.801</v>
+        <v>30.773</v>
       </c>
       <c r="C13" t="n">
-        <v>32.4484</v>
+        <v>32.1628</v>
       </c>
       <c r="D13" t="n">
-        <v>47.5917</v>
+        <v>47.9806</v>
       </c>
       <c r="E13" t="n">
-        <v>61.7075</v>
+        <v>61.118</v>
       </c>
     </row>
     <row r="14">
@@ -6589,16 +6589,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>30.4369</v>
+        <v>30.6577</v>
       </c>
       <c r="C14" t="n">
-        <v>32.3159</v>
+        <v>32.1447</v>
       </c>
       <c r="D14" t="n">
-        <v>48.8674</v>
+        <v>48.2241</v>
       </c>
       <c r="E14" t="n">
-        <v>61.4629</v>
+        <v>61.0678</v>
       </c>
     </row>
     <row r="15">
@@ -6606,16 +6606,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>30.6284</v>
+        <v>30.5561</v>
       </c>
       <c r="C15" t="n">
-        <v>32.6158</v>
+        <v>32.3352</v>
       </c>
       <c r="D15" t="n">
-        <v>48.2914</v>
+        <v>48.86</v>
       </c>
       <c r="E15" t="n">
-        <v>63.235</v>
+        <v>62.9078</v>
       </c>
     </row>
     <row r="16">
@@ -6623,16 +6623,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>30.8242</v>
+        <v>30.4771</v>
       </c>
       <c r="C16" t="n">
-        <v>32.1235</v>
+        <v>32.2797</v>
       </c>
       <c r="D16" t="n">
-        <v>48.8523</v>
+        <v>47.8017</v>
       </c>
       <c r="E16" t="n">
-        <v>62.6027</v>
+        <v>62.8021</v>
       </c>
     </row>
     <row r="17">
@@ -6640,16 +6640,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>30.8498</v>
+        <v>30.4041</v>
       </c>
       <c r="C17" t="n">
-        <v>32.2279</v>
+        <v>31.9711</v>
       </c>
       <c r="D17" t="n">
-        <v>48.5922</v>
+        <v>48.2585</v>
       </c>
       <c r="E17" t="n">
-        <v>62.9481</v>
+        <v>62.9536</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Parallel workload.xlsx
+++ b/vs-x86/Parallel workload.xlsx
@@ -4800,16 +4800,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>9.27434</v>
+        <v>9.402340000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>10.7105</v>
+        <v>10.7255</v>
       </c>
       <c r="D2" t="n">
-        <v>12.975</v>
+        <v>13.1452</v>
       </c>
       <c r="E2" t="n">
-        <v>14.6394</v>
+        <v>14.9205</v>
       </c>
     </row>
     <row r="3">
@@ -4817,16 +4817,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>17.3389</v>
+        <v>17.5677</v>
       </c>
       <c r="C3" t="n">
-        <v>16.2501</v>
+        <v>16.735</v>
       </c>
       <c r="D3" t="n">
-        <v>22.2253</v>
+        <v>21.6951</v>
       </c>
       <c r="E3" t="n">
-        <v>23.4277</v>
+        <v>23.5664</v>
       </c>
     </row>
     <row r="4">
@@ -4834,16 +4834,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>24.169</v>
+        <v>24.6925</v>
       </c>
       <c r="C4" t="n">
-        <v>21.3848</v>
+        <v>21.294</v>
       </c>
       <c r="D4" t="n">
-        <v>26.8275</v>
+        <v>26.76</v>
       </c>
       <c r="E4" t="n">
-        <v>32.8031</v>
+        <v>32.1607</v>
       </c>
     </row>
     <row r="5">
@@ -4851,16 +4851,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>19.2338</v>
+        <v>19.0778</v>
       </c>
       <c r="C5" t="n">
-        <v>23.8137</v>
+        <v>23.2381</v>
       </c>
       <c r="D5" t="n">
-        <v>31.5607</v>
+        <v>30.9774</v>
       </c>
       <c r="E5" t="n">
-        <v>33.4221</v>
+        <v>34.6073</v>
       </c>
     </row>
     <row r="6">
@@ -4868,16 +4868,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>22.4538</v>
+        <v>22.6143</v>
       </c>
       <c r="C6" t="n">
-        <v>27.6753</v>
+        <v>27.6772</v>
       </c>
       <c r="D6" t="n">
-        <v>31.8575</v>
+        <v>32.1203</v>
       </c>
       <c r="E6" t="n">
-        <v>39.5806</v>
+        <v>39.4647</v>
       </c>
     </row>
     <row r="7">
@@ -4885,16 +4885,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>26.3304</v>
+        <v>26.3817</v>
       </c>
       <c r="C7" t="n">
-        <v>32.4624</v>
+        <v>32.7349</v>
       </c>
       <c r="D7" t="n">
-        <v>37.8806</v>
+        <v>39.3156</v>
       </c>
       <c r="E7" t="n">
-        <v>39.8982</v>
+        <v>45.1268</v>
       </c>
     </row>
     <row r="8">
@@ -4902,16 +4902,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>20.1694</v>
+        <v>20.1124</v>
       </c>
       <c r="C8" t="n">
-        <v>29.6303</v>
+        <v>29.981</v>
       </c>
       <c r="D8" t="n">
-        <v>37.0235</v>
+        <v>35.9754</v>
       </c>
       <c r="E8" t="n">
-        <v>41.6823</v>
+        <v>39.6797</v>
       </c>
     </row>
     <row r="9">
@@ -4919,16 +4919,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>22.2702</v>
+        <v>22.4819</v>
       </c>
       <c r="C9" t="n">
-        <v>29.6825</v>
+        <v>30.24</v>
       </c>
       <c r="D9" t="n">
-        <v>39.6196</v>
+        <v>39.4769</v>
       </c>
       <c r="E9" t="n">
-        <v>42.8572</v>
+        <v>43.9554</v>
       </c>
     </row>
     <row r="10">
@@ -4936,16 +4936,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>24.2277</v>
+        <v>24.4857</v>
       </c>
       <c r="C10" t="n">
-        <v>30.3049</v>
+        <v>30.2745</v>
       </c>
       <c r="D10" t="n">
-        <v>40.9461</v>
+        <v>41.5865</v>
       </c>
       <c r="E10" t="n">
-        <v>47.6018</v>
+        <v>49.2508</v>
       </c>
     </row>
     <row r="11">
@@ -4953,16 +4953,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>22.5344</v>
+        <v>22.3699</v>
       </c>
       <c r="C11" t="n">
-        <v>30.4238</v>
+        <v>30.6283</v>
       </c>
       <c r="D11" t="n">
-        <v>43.2436</v>
+        <v>43.8964</v>
       </c>
       <c r="E11" t="n">
-        <v>49.1017</v>
+        <v>49.7817</v>
       </c>
     </row>
     <row r="12">
@@ -4970,16 +4970,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>24.3237</v>
+        <v>24.3024</v>
       </c>
       <c r="C12" t="n">
-        <v>30.7659</v>
+        <v>31.2113</v>
       </c>
       <c r="D12" t="n">
-        <v>44.4493</v>
+        <v>42.8249</v>
       </c>
       <c r="E12" t="n">
-        <v>52.4188</v>
+        <v>51.7242</v>
       </c>
     </row>
     <row r="13">
@@ -4987,16 +4987,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>26.3159</v>
+        <v>26.3743</v>
       </c>
       <c r="C13" t="n">
-        <v>31.084</v>
+        <v>31.2856</v>
       </c>
       <c r="D13" t="n">
-        <v>44.2043</v>
+        <v>45.3481</v>
       </c>
       <c r="E13" t="n">
-        <v>52.0846</v>
+        <v>52.4941</v>
       </c>
     </row>
     <row r="14">
@@ -5004,16 +5004,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>22.3172</v>
+        <v>22.171</v>
       </c>
       <c r="C14" t="n">
-        <v>30.8551</v>
+        <v>30.5197</v>
       </c>
       <c r="D14" t="n">
-        <v>42.3191</v>
+        <v>45.0391</v>
       </c>
       <c r="E14" t="n">
-        <v>56.4646</v>
+        <v>54.3749</v>
       </c>
     </row>
     <row r="15">
@@ -5021,16 +5021,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>23.6045</v>
+        <v>23.8977</v>
       </c>
       <c r="C15" t="n">
-        <v>30.6452</v>
+        <v>30.504</v>
       </c>
       <c r="D15" t="n">
-        <v>45.3143</v>
+        <v>43.6273</v>
       </c>
       <c r="E15" t="n">
-        <v>52.8203</v>
+        <v>52.1843</v>
       </c>
     </row>
     <row r="16">
@@ -5038,16 +5038,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>24.5359</v>
+        <v>25.2289</v>
       </c>
       <c r="C16" t="n">
-        <v>30.5955</v>
+        <v>30.6887</v>
       </c>
       <c r="D16" t="n">
-        <v>45.3079</v>
+        <v>43.7102</v>
       </c>
       <c r="E16" t="n">
-        <v>53.9116</v>
+        <v>54.133</v>
       </c>
     </row>
     <row r="17">
@@ -5055,16 +5055,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>23.6553</v>
+        <v>23.5608</v>
       </c>
       <c r="C17" t="n">
-        <v>30.758</v>
+        <v>30.87</v>
       </c>
       <c r="D17" t="n">
-        <v>43.1855</v>
+        <v>44.5486</v>
       </c>
       <c r="E17" t="n">
-        <v>53.0942</v>
+        <v>53.4766</v>
       </c>
     </row>
   </sheetData>
@@ -5117,16 +5117,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>9.292859999999999</v>
+        <v>9.363160000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>10.7279</v>
+        <v>10.7448</v>
       </c>
       <c r="D2" t="n">
-        <v>12.9039</v>
+        <v>13.0686</v>
       </c>
       <c r="E2" t="n">
-        <v>14.8068</v>
+        <v>14.8314</v>
       </c>
     </row>
     <row r="3">
@@ -5134,16 +5134,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>17.1033</v>
+        <v>17.4</v>
       </c>
       <c r="C3" t="n">
-        <v>16.7298</v>
+        <v>16.967</v>
       </c>
       <c r="D3" t="n">
-        <v>20.7859</v>
+        <v>21.2023</v>
       </c>
       <c r="E3" t="n">
-        <v>24.1726</v>
+        <v>23.8317</v>
       </c>
     </row>
     <row r="4">
@@ -5151,16 +5151,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>23.7176</v>
+        <v>24.5028</v>
       </c>
       <c r="C4" t="n">
-        <v>21.9129</v>
+        <v>21.5743</v>
       </c>
       <c r="D4" t="n">
-        <v>27.282</v>
+        <v>26.8083</v>
       </c>
       <c r="E4" t="n">
-        <v>30.4619</v>
+        <v>30.2464</v>
       </c>
     </row>
     <row r="5">
@@ -5168,16 +5168,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>19.0226</v>
+        <v>19.1499</v>
       </c>
       <c r="C5" t="n">
-        <v>23.6985</v>
+        <v>23.0152</v>
       </c>
       <c r="D5" t="n">
-        <v>26.998</v>
+        <v>28.5456</v>
       </c>
       <c r="E5" t="n">
-        <v>35.5789</v>
+        <v>35.2527</v>
       </c>
     </row>
     <row r="6">
@@ -5185,16 +5185,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>22.892</v>
+        <v>22.9603</v>
       </c>
       <c r="C6" t="n">
-        <v>27.5971</v>
+        <v>27.9085</v>
       </c>
       <c r="D6" t="n">
-        <v>34.8208</v>
+        <v>35.0965</v>
       </c>
       <c r="E6" t="n">
-        <v>37.7142</v>
+        <v>38.6042</v>
       </c>
     </row>
     <row r="7">
@@ -5202,16 +5202,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>26.9228</v>
+        <v>26.9982</v>
       </c>
       <c r="C7" t="n">
-        <v>32.3054</v>
+        <v>32.7143</v>
       </c>
       <c r="D7" t="n">
-        <v>36.8492</v>
+        <v>35.4148</v>
       </c>
       <c r="E7" t="n">
-        <v>44.5535</v>
+        <v>44.9626</v>
       </c>
     </row>
     <row r="8">
@@ -5219,16 +5219,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>20.1185</v>
+        <v>20.2176</v>
       </c>
       <c r="C8" t="n">
-        <v>29.1406</v>
+        <v>29.2226</v>
       </c>
       <c r="D8" t="n">
-        <v>34.773</v>
+        <v>35.1231</v>
       </c>
       <c r="E8" t="n">
-        <v>43.6126</v>
+        <v>43.2899</v>
       </c>
     </row>
     <row r="9">
@@ -5236,16 +5236,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>22.5648</v>
+        <v>23.0281</v>
       </c>
       <c r="C9" t="n">
-        <v>29.5007</v>
+        <v>30.1852</v>
       </c>
       <c r="D9" t="n">
-        <v>35.1455</v>
+        <v>36.8398</v>
       </c>
       <c r="E9" t="n">
-        <v>43.7419</v>
+        <v>48.8148</v>
       </c>
     </row>
     <row r="10">
@@ -5253,16 +5253,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>24.2856</v>
+        <v>25.0928</v>
       </c>
       <c r="C10" t="n">
-        <v>29.6313</v>
+        <v>29.9008</v>
       </c>
       <c r="D10" t="n">
-        <v>37.783</v>
+        <v>36.7787</v>
       </c>
       <c r="E10" t="n">
-        <v>48.5886</v>
+        <v>48.3341</v>
       </c>
     </row>
     <row r="11">
@@ -5270,16 +5270,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>22.8336</v>
+        <v>22.9701</v>
       </c>
       <c r="C11" t="n">
-        <v>29.9871</v>
+        <v>30.5752</v>
       </c>
       <c r="D11" t="n">
-        <v>40.1183</v>
+        <v>41.2287</v>
       </c>
       <c r="E11" t="n">
-        <v>52.585</v>
+        <v>51.963</v>
       </c>
     </row>
     <row r="12">
@@ -5287,16 +5287,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>24.8387</v>
+        <v>24.7539</v>
       </c>
       <c r="C12" t="n">
-        <v>30.2641</v>
+        <v>30.7457</v>
       </c>
       <c r="D12" t="n">
-        <v>40.6225</v>
+        <v>41.4802</v>
       </c>
       <c r="E12" t="n">
-        <v>52.8257</v>
+        <v>52.7218</v>
       </c>
     </row>
     <row r="13">
@@ -5304,16 +5304,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>26.9349</v>
+        <v>26.9822</v>
       </c>
       <c r="C13" t="n">
-        <v>30.8511</v>
+        <v>31.162</v>
       </c>
       <c r="D13" t="n">
-        <v>41.617</v>
+        <v>42.1244</v>
       </c>
       <c r="E13" t="n">
-        <v>51.0441</v>
+        <v>51.7648</v>
       </c>
     </row>
     <row r="14">
@@ -5321,16 +5321,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>22.1642</v>
+        <v>22.4264</v>
       </c>
       <c r="C14" t="n">
-        <v>30.9736</v>
+        <v>31.4184</v>
       </c>
       <c r="D14" t="n">
-        <v>42.622</v>
+        <v>42.9597</v>
       </c>
       <c r="E14" t="n">
-        <v>52.0437</v>
+        <v>53.0411</v>
       </c>
     </row>
     <row r="15">
@@ -5338,16 +5338,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>24.1939</v>
+        <v>24.2275</v>
       </c>
       <c r="C15" t="n">
-        <v>30.8834</v>
+        <v>31.4906</v>
       </c>
       <c r="D15" t="n">
-        <v>45.2175</v>
+        <v>44.2124</v>
       </c>
       <c r="E15" t="n">
-        <v>53.1101</v>
+        <v>52.8954</v>
       </c>
     </row>
     <row r="16">
@@ -5355,16 +5355,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>25.36</v>
+        <v>25.4899</v>
       </c>
       <c r="C16" t="n">
-        <v>30.9982</v>
+        <v>31.5355</v>
       </c>
       <c r="D16" t="n">
-        <v>44.082</v>
+        <v>44.7067</v>
       </c>
       <c r="E16" t="n">
-        <v>53.5685</v>
+        <v>55.1317</v>
       </c>
     </row>
     <row r="17">
@@ -5372,16 +5372,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>24.2879</v>
+        <v>24.1263</v>
       </c>
       <c r="C17" t="n">
-        <v>31.4569</v>
+        <v>31.7683</v>
       </c>
       <c r="D17" t="n">
-        <v>45.6674</v>
+        <v>44.0519</v>
       </c>
       <c r="E17" t="n">
-        <v>53.2886</v>
+        <v>53.8817</v>
       </c>
     </row>
   </sheetData>
@@ -5434,16 +5434,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>10.8366</v>
+        <v>10.923</v>
       </c>
       <c r="C2" t="n">
-        <v>11.5557</v>
+        <v>11.684</v>
       </c>
       <c r="D2" t="n">
-        <v>13.7644</v>
+        <v>13.9073</v>
       </c>
       <c r="E2" t="n">
-        <v>15.3404</v>
+        <v>15.4022</v>
       </c>
     </row>
     <row r="3">
@@ -5451,16 +5451,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>19.3217</v>
+        <v>19.4385</v>
       </c>
       <c r="C3" t="n">
-        <v>19.4921</v>
+        <v>19.288</v>
       </c>
       <c r="D3" t="n">
-        <v>22.676</v>
+        <v>22.1887</v>
       </c>
       <c r="E3" t="n">
-        <v>25.7471</v>
+        <v>24.9214</v>
       </c>
     </row>
     <row r="4">
@@ -5468,16 +5468,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>26.8413</v>
+        <v>26.8895</v>
       </c>
       <c r="C4" t="n">
-        <v>25.3133</v>
+        <v>25.308</v>
       </c>
       <c r="D4" t="n">
-        <v>31.2393</v>
+        <v>29.2867</v>
       </c>
       <c r="E4" t="n">
-        <v>31.9056</v>
+        <v>33.0544</v>
       </c>
     </row>
     <row r="5">
@@ -5485,16 +5485,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>23.4356</v>
+        <v>23.2561</v>
       </c>
       <c r="C5" t="n">
-        <v>24.6905</v>
+        <v>24.7257</v>
       </c>
       <c r="D5" t="n">
-        <v>31.1095</v>
+        <v>31.5616</v>
       </c>
       <c r="E5" t="n">
-        <v>35.0081</v>
+        <v>35.1582</v>
       </c>
     </row>
     <row r="6">
@@ -5502,16 +5502,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>27.8495</v>
+        <v>28.0597</v>
       </c>
       <c r="C6" t="n">
-        <v>28.653</v>
+        <v>28.6628</v>
       </c>
       <c r="D6" t="n">
-        <v>34.9914</v>
+        <v>35.1731</v>
       </c>
       <c r="E6" t="n">
-        <v>36.9914</v>
+        <v>37.2204</v>
       </c>
     </row>
     <row r="7">
@@ -5519,16 +5519,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>32.9562</v>
+        <v>33.2002</v>
       </c>
       <c r="C7" t="n">
-        <v>33.3775</v>
+        <v>33.7843</v>
       </c>
       <c r="D7" t="n">
-        <v>35.0833</v>
+        <v>35.2284</v>
       </c>
       <c r="E7" t="n">
-        <v>45.5514</v>
+        <v>45.0306</v>
       </c>
     </row>
     <row r="8">
@@ -5536,16 +5536,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>29.5274</v>
+        <v>29.532</v>
       </c>
       <c r="C8" t="n">
-        <v>29.6602</v>
+        <v>29.5266</v>
       </c>
       <c r="D8" t="n">
-        <v>34.9479</v>
+        <v>35.2826</v>
       </c>
       <c r="E8" t="n">
-        <v>46.6214</v>
+        <v>45.3284</v>
       </c>
     </row>
     <row r="9">
@@ -5553,16 +5553,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>29.055</v>
+        <v>30.9429</v>
       </c>
       <c r="C9" t="n">
-        <v>30.1256</v>
+        <v>30.0925</v>
       </c>
       <c r="D9" t="n">
-        <v>39.3519</v>
+        <v>40.6842</v>
       </c>
       <c r="E9" t="n">
-        <v>48.019</v>
+        <v>52.2281</v>
       </c>
     </row>
     <row r="10">
@@ -5570,16 +5570,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>30.003</v>
+        <v>30.0054</v>
       </c>
       <c r="C10" t="n">
-        <v>30.5596</v>
+        <v>30.5667</v>
       </c>
       <c r="D10" t="n">
-        <v>42.9938</v>
+        <v>40.8373</v>
       </c>
       <c r="E10" t="n">
-        <v>50.0773</v>
+        <v>49.6382</v>
       </c>
     </row>
     <row r="11">
@@ -5587,16 +5587,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>30.4455</v>
+        <v>30.814</v>
       </c>
       <c r="C11" t="n">
-        <v>30.5497</v>
+        <v>30.8758</v>
       </c>
       <c r="D11" t="n">
-        <v>43.8964</v>
+        <v>45.0863</v>
       </c>
       <c r="E11" t="n">
-        <v>52.8691</v>
+        <v>52.0656</v>
       </c>
     </row>
     <row r="12">
@@ -5604,16 +5604,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>30.6411</v>
+        <v>30.4833</v>
       </c>
       <c r="C12" t="n">
-        <v>30.6474</v>
+        <v>31.2971</v>
       </c>
       <c r="D12" t="n">
-        <v>43.3</v>
+        <v>42.1937</v>
       </c>
       <c r="E12" t="n">
-        <v>51.5199</v>
+        <v>53.0576</v>
       </c>
     </row>
     <row r="13">
@@ -5621,16 +5621,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>31.0973</v>
+        <v>31.1288</v>
       </c>
       <c r="C13" t="n">
-        <v>31.0937</v>
+        <v>31.5426</v>
       </c>
       <c r="D13" t="n">
-        <v>44.6441</v>
+        <v>44.6779</v>
       </c>
       <c r="E13" t="n">
-        <v>54.4482</v>
+        <v>51.4809</v>
       </c>
     </row>
     <row r="14">
@@ -5638,16 +5638,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>30.7981</v>
+        <v>31.3764</v>
       </c>
       <c r="C14" t="n">
-        <v>30.9277</v>
+        <v>31.4875</v>
       </c>
       <c r="D14" t="n">
-        <v>44.8685</v>
+        <v>44.7312</v>
       </c>
       <c r="E14" t="n">
-        <v>52.5756</v>
+        <v>52.5674</v>
       </c>
     </row>
     <row r="15">
@@ -5655,16 +5655,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>30.6801</v>
+        <v>31.2846</v>
       </c>
       <c r="C15" t="n">
-        <v>31.3972</v>
+        <v>31.2946</v>
       </c>
       <c r="D15" t="n">
-        <v>45.2652</v>
+        <v>44.2087</v>
       </c>
       <c r="E15" t="n">
-        <v>52.2329</v>
+        <v>53.5345</v>
       </c>
     </row>
     <row r="16">
@@ -5672,16 +5672,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>31.1298</v>
+        <v>31.1906</v>
       </c>
       <c r="C16" t="n">
-        <v>31.4943</v>
+        <v>31.9074</v>
       </c>
       <c r="D16" t="n">
-        <v>44.662</v>
+        <v>45.1106</v>
       </c>
       <c r="E16" t="n">
-        <v>52.3222</v>
+        <v>55.3739</v>
       </c>
     </row>
     <row r="17">
@@ -5689,16 +5689,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>30.9456</v>
+        <v>31.8153</v>
       </c>
       <c r="C17" t="n">
-        <v>31.4691</v>
+        <v>32.3369</v>
       </c>
       <c r="D17" t="n">
-        <v>43.2797</v>
+        <v>44.8237</v>
       </c>
       <c r="E17" t="n">
-        <v>53.1421</v>
+        <v>53.2444</v>
       </c>
     </row>
   </sheetData>
@@ -5751,16 +5751,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4.92393</v>
+        <v>4.96171</v>
       </c>
       <c r="C2" t="n">
-        <v>9.00825</v>
+        <v>9.07301</v>
       </c>
       <c r="D2" t="n">
-        <v>10.7943</v>
+        <v>10.8418</v>
       </c>
       <c r="E2" t="n">
-        <v>13.9874</v>
+        <v>14.0111</v>
       </c>
     </row>
     <row r="3">
@@ -5768,16 +5768,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.63067</v>
+        <v>9.690720000000001</v>
       </c>
       <c r="C3" t="n">
-        <v>15.7286</v>
+        <v>15.8052</v>
       </c>
       <c r="D3" t="n">
-        <v>20.6216</v>
+        <v>20.5613</v>
       </c>
       <c r="E3" t="n">
-        <v>26.6173</v>
+        <v>26.407</v>
       </c>
     </row>
     <row r="4">
@@ -5785,16 +5785,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>13.9171</v>
+        <v>13.9583</v>
       </c>
       <c r="C4" t="n">
-        <v>22.0476</v>
+        <v>21.9146</v>
       </c>
       <c r="D4" t="n">
-        <v>29.6168</v>
+        <v>28.7937</v>
       </c>
       <c r="E4" t="n">
-        <v>37.6746</v>
+        <v>37.7597</v>
       </c>
     </row>
     <row r="5">
@@ -5802,16 +5802,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>15.763</v>
+        <v>15.8227</v>
       </c>
       <c r="C5" t="n">
-        <v>23.0997</v>
+        <v>22.818</v>
       </c>
       <c r="D5" t="n">
-        <v>33.5926</v>
+        <v>33.812</v>
       </c>
       <c r="E5" t="n">
-        <v>44.038</v>
+        <v>44.0531</v>
       </c>
     </row>
     <row r="6">
@@ -5819,16 +5819,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>18.874</v>
+        <v>18.9568</v>
       </c>
       <c r="C6" t="n">
-        <v>26.3957</v>
+        <v>26.567</v>
       </c>
       <c r="D6" t="n">
-        <v>40.8375</v>
+        <v>40.649</v>
       </c>
       <c r="E6" t="n">
-        <v>51.9737</v>
+        <v>52.0312</v>
       </c>
     </row>
     <row r="7">
@@ -5836,16 +5836,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>22.0648</v>
+        <v>22.192</v>
       </c>
       <c r="C7" t="n">
-        <v>31.0488</v>
+        <v>31.335</v>
       </c>
       <c r="D7" t="n">
-        <v>47.5775</v>
+        <v>47.4757</v>
       </c>
       <c r="E7" t="n">
-        <v>61.8424</v>
+        <v>62.0347</v>
       </c>
     </row>
     <row r="8">
@@ -5853,16 +5853,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>20.0624</v>
+        <v>20.136</v>
       </c>
       <c r="C8" t="n">
-        <v>29.8905</v>
+        <v>30.1136</v>
       </c>
       <c r="D8" t="n">
-        <v>43.1774</v>
+        <v>41.5204</v>
       </c>
       <c r="E8" t="n">
-        <v>55.1168</v>
+        <v>56.604</v>
       </c>
     </row>
     <row r="9">
@@ -5870,16 +5870,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>20.2103</v>
+        <v>20.524</v>
       </c>
       <c r="C9" t="n">
-        <v>29.7696</v>
+        <v>29.9012</v>
       </c>
       <c r="D9" t="n">
-        <v>42.3259</v>
+        <v>43.128</v>
       </c>
       <c r="E9" t="n">
-        <v>54.7072</v>
+        <v>53.8517</v>
       </c>
     </row>
     <row r="10">
@@ -5887,16 +5887,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>20.8836</v>
+        <v>20.6284</v>
       </c>
       <c r="C10" t="n">
-        <v>30.0584</v>
+        <v>30.0364</v>
       </c>
       <c r="D10" t="n">
-        <v>43.5031</v>
+        <v>42.7377</v>
       </c>
       <c r="E10" t="n">
-        <v>53.678</v>
+        <v>53.484</v>
       </c>
     </row>
     <row r="11">
@@ -5904,16 +5904,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>21.4044</v>
+        <v>21.1533</v>
       </c>
       <c r="C11" t="n">
-        <v>29.8486</v>
+        <v>30.2527</v>
       </c>
       <c r="D11" t="n">
-        <v>44.0156</v>
+        <v>42.5764</v>
       </c>
       <c r="E11" t="n">
-        <v>56.2434</v>
+        <v>57.4629</v>
       </c>
     </row>
     <row r="12">
@@ -5921,16 +5921,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>20.7738</v>
+        <v>21.1376</v>
       </c>
       <c r="C12" t="n">
-        <v>30.3002</v>
+        <v>30.1294</v>
       </c>
       <c r="D12" t="n">
-        <v>43.508</v>
+        <v>44.3053</v>
       </c>
       <c r="E12" t="n">
-        <v>56.5524</v>
+        <v>55.7047</v>
       </c>
     </row>
     <row r="13">
@@ -5938,16 +5938,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>21.023</v>
+        <v>21.1295</v>
       </c>
       <c r="C13" t="n">
-        <v>30.0886</v>
+        <v>30.3953</v>
       </c>
       <c r="D13" t="n">
-        <v>44.2225</v>
+        <v>45.0095</v>
       </c>
       <c r="E13" t="n">
-        <v>58.4979</v>
+        <v>58.1368</v>
       </c>
     </row>
     <row r="14">
@@ -5955,16 +5955,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>20.8528</v>
+        <v>21.2066</v>
       </c>
       <c r="C14" t="n">
-        <v>30.3628</v>
+        <v>30.2145</v>
       </c>
       <c r="D14" t="n">
-        <v>44.7552</v>
+        <v>43.4318</v>
       </c>
       <c r="E14" t="n">
-        <v>57.9617</v>
+        <v>58.4132</v>
       </c>
     </row>
     <row r="15">
@@ -5972,16 +5972,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>20.9518</v>
+        <v>21.0148</v>
       </c>
       <c r="C15" t="n">
-        <v>30.0571</v>
+        <v>30.5919</v>
       </c>
       <c r="D15" t="n">
-        <v>45.6363</v>
+        <v>44.6126</v>
       </c>
       <c r="E15" t="n">
-        <v>58.8115</v>
+        <v>58.9783</v>
       </c>
     </row>
     <row r="16">
@@ -5989,16 +5989,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>20.7685</v>
+        <v>21.07</v>
       </c>
       <c r="C16" t="n">
-        <v>30.4232</v>
+        <v>30.4343</v>
       </c>
       <c r="D16" t="n">
-        <v>44.815</v>
+        <v>45.9563</v>
       </c>
       <c r="E16" t="n">
-        <v>59.1592</v>
+        <v>59.225</v>
       </c>
     </row>
     <row r="17">
@@ -6006,16 +6006,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>21.2837</v>
+        <v>21.0685</v>
       </c>
       <c r="C17" t="n">
-        <v>30.566</v>
+        <v>30.2523</v>
       </c>
       <c r="D17" t="n">
-        <v>45.0055</v>
+        <v>45.5898</v>
       </c>
       <c r="E17" t="n">
-        <v>58.7363</v>
+        <v>58.3396</v>
       </c>
     </row>
   </sheetData>
@@ -6068,16 +6068,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>5.02423</v>
+        <v>5.03985</v>
       </c>
       <c r="C2" t="n">
-        <v>9.100149999999999</v>
+        <v>9.08051</v>
       </c>
       <c r="D2" t="n">
-        <v>10.8246</v>
+        <v>10.8371</v>
       </c>
       <c r="E2" t="n">
-        <v>14.0341</v>
+        <v>14.0515</v>
       </c>
     </row>
     <row r="3">
@@ -6085,16 +6085,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.850989999999999</v>
+        <v>9.899480000000001</v>
       </c>
       <c r="C3" t="n">
-        <v>15.7566</v>
+        <v>15.7231</v>
       </c>
       <c r="D3" t="n">
-        <v>20.6718</v>
+        <v>20.6014</v>
       </c>
       <c r="E3" t="n">
-        <v>26.6109</v>
+        <v>26.4543</v>
       </c>
     </row>
     <row r="4">
@@ -6102,16 +6102,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>14.2944</v>
+        <v>14.3698</v>
       </c>
       <c r="C4" t="n">
-        <v>21.9605</v>
+        <v>22.28</v>
       </c>
       <c r="D4" t="n">
-        <v>29.2086</v>
+        <v>29.1123</v>
       </c>
       <c r="E4" t="n">
-        <v>38.0288</v>
+        <v>38.0871</v>
       </c>
     </row>
     <row r="5">
@@ -6119,16 +6119,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>16.2123</v>
+        <v>16.0805</v>
       </c>
       <c r="C5" t="n">
-        <v>22.9484</v>
+        <v>23.2484</v>
       </c>
       <c r="D5" t="n">
-        <v>33.4218</v>
+        <v>33.4748</v>
       </c>
       <c r="E5" t="n">
-        <v>43.4119</v>
+        <v>44.0177</v>
       </c>
     </row>
     <row r="6">
@@ -6136,16 +6136,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>19.4303</v>
+        <v>19.5134</v>
       </c>
       <c r="C6" t="n">
-        <v>26.6097</v>
+        <v>26.5474</v>
       </c>
       <c r="D6" t="n">
-        <v>39.8475</v>
+        <v>39.8665</v>
       </c>
       <c r="E6" t="n">
-        <v>51.8841</v>
+        <v>51.9539</v>
       </c>
     </row>
     <row r="7">
@@ -6153,16 +6153,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>22.7864</v>
+        <v>22.8767</v>
       </c>
       <c r="C7" t="n">
-        <v>31.0218</v>
+        <v>31.4216</v>
       </c>
       <c r="D7" t="n">
-        <v>47.2316</v>
+        <v>47.0304</v>
       </c>
       <c r="E7" t="n">
-        <v>59.9067</v>
+        <v>60.0042</v>
       </c>
     </row>
     <row r="8">
@@ -6170,16 +6170,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>20.5561</v>
+        <v>20.4566</v>
       </c>
       <c r="C8" t="n">
-        <v>29.6944</v>
+        <v>30.2811</v>
       </c>
       <c r="D8" t="n">
-        <v>42.2069</v>
+        <v>41.1099</v>
       </c>
       <c r="E8" t="n">
-        <v>53.2312</v>
+        <v>53.2663</v>
       </c>
     </row>
     <row r="9">
@@ -6187,16 +6187,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>21.1259</v>
+        <v>21.576</v>
       </c>
       <c r="C9" t="n">
-        <v>29.6362</v>
+        <v>29.9204</v>
       </c>
       <c r="D9" t="n">
-        <v>41.4057</v>
+        <v>42.8965</v>
       </c>
       <c r="E9" t="n">
-        <v>52.6972</v>
+        <v>54.5684</v>
       </c>
     </row>
     <row r="10">
@@ -6204,16 +6204,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>21.4457</v>
+        <v>21.4582</v>
       </c>
       <c r="C10" t="n">
-        <v>29.8164</v>
+        <v>30.2186</v>
       </c>
       <c r="D10" t="n">
-        <v>42.4424</v>
+        <v>42.0788</v>
       </c>
       <c r="E10" t="n">
-        <v>54.674</v>
+        <v>52.6571</v>
       </c>
     </row>
     <row r="11">
@@ -6221,16 +6221,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>21.9904</v>
+        <v>21.8237</v>
       </c>
       <c r="C11" t="n">
-        <v>30.1203</v>
+        <v>29.8672</v>
       </c>
       <c r="D11" t="n">
-        <v>42.4095</v>
+        <v>44.3713</v>
       </c>
       <c r="E11" t="n">
-        <v>57.0391</v>
+        <v>56.2204</v>
       </c>
     </row>
     <row r="12">
@@ -6238,16 +6238,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>21.4631</v>
+        <v>21.2542</v>
       </c>
       <c r="C12" t="n">
-        <v>29.8019</v>
+        <v>30.3048</v>
       </c>
       <c r="D12" t="n">
-        <v>44.118</v>
+        <v>43.2695</v>
       </c>
       <c r="E12" t="n">
-        <v>57.123</v>
+        <v>56.4705</v>
       </c>
     </row>
     <row r="13">
@@ -6255,16 +6255,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>21.5144</v>
+        <v>21.8397</v>
       </c>
       <c r="C13" t="n">
-        <v>30.3508</v>
+        <v>30.635</v>
       </c>
       <c r="D13" t="n">
-        <v>44.1029</v>
+        <v>44.3685</v>
       </c>
       <c r="E13" t="n">
-        <v>57.7728</v>
+        <v>57.1112</v>
       </c>
     </row>
     <row r="14">
@@ -6272,16 +6272,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>21.4849</v>
+        <v>21.6294</v>
       </c>
       <c r="C14" t="n">
-        <v>30.3674</v>
+        <v>30.4808</v>
       </c>
       <c r="D14" t="n">
-        <v>45.3521</v>
+        <v>45.5677</v>
       </c>
       <c r="E14" t="n">
-        <v>56.3864</v>
+        <v>57.7664</v>
       </c>
     </row>
     <row r="15">
@@ -6289,16 +6289,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>21.7896</v>
+        <v>22.0506</v>
       </c>
       <c r="C15" t="n">
-        <v>30.3759</v>
+        <v>30.3534</v>
       </c>
       <c r="D15" t="n">
-        <v>44.9749</v>
+        <v>45.1004</v>
       </c>
       <c r="E15" t="n">
-        <v>58.7311</v>
+        <v>58.252</v>
       </c>
     </row>
     <row r="16">
@@ -6306,16 +6306,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>21.7468</v>
+        <v>21.8831</v>
       </c>
       <c r="C16" t="n">
-        <v>30.3906</v>
+        <v>30.4486</v>
       </c>
       <c r="D16" t="n">
-        <v>45.5758</v>
+        <v>43.7638</v>
       </c>
       <c r="E16" t="n">
-        <v>58.4599</v>
+        <v>59.5257</v>
       </c>
     </row>
     <row r="17">
@@ -6323,16 +6323,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>21.7426</v>
+        <v>21.6162</v>
       </c>
       <c r="C17" t="n">
-        <v>30.4073</v>
+        <v>30.7264</v>
       </c>
       <c r="D17" t="n">
-        <v>45.2278</v>
+        <v>45.2319</v>
       </c>
       <c r="E17" t="n">
-        <v>58.4337</v>
+        <v>57.7992</v>
       </c>
     </row>
   </sheetData>
@@ -6385,16 +6385,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.71772</v>
+        <v>8.82399</v>
       </c>
       <c r="C2" t="n">
-        <v>10.8556</v>
+        <v>10.8828</v>
       </c>
       <c r="D2" t="n">
-        <v>13.0106</v>
+        <v>13.2394</v>
       </c>
       <c r="E2" t="n">
-        <v>15.2183</v>
+        <v>15.33</v>
       </c>
     </row>
     <row r="3">
@@ -6402,16 +6402,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>16.4497</v>
+        <v>16.6412</v>
       </c>
       <c r="C3" t="n">
-        <v>18.2672</v>
+        <v>18.2883</v>
       </c>
       <c r="D3" t="n">
-        <v>24.147</v>
+        <v>24.5707</v>
       </c>
       <c r="E3" t="n">
-        <v>28.6277</v>
+        <v>28.7463</v>
       </c>
     </row>
     <row r="4">
@@ -6419,16 +6419,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>23.2007</v>
+        <v>23.7205</v>
       </c>
       <c r="C4" t="n">
-        <v>24.6383</v>
+        <v>25.5231</v>
       </c>
       <c r="D4" t="n">
-        <v>34.104</v>
+        <v>34.4709</v>
       </c>
       <c r="E4" t="n">
-        <v>40.6064</v>
+        <v>40.9679</v>
       </c>
     </row>
     <row r="5">
@@ -6436,16 +6436,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>22.9351</v>
+        <v>23.2481</v>
       </c>
       <c r="C5" t="n">
-        <v>25.1842</v>
+        <v>25.3323</v>
       </c>
       <c r="D5" t="n">
-        <v>36.5801</v>
+        <v>37.0027</v>
       </c>
       <c r="E5" t="n">
-        <v>46.2197</v>
+        <v>46.8452</v>
       </c>
     </row>
     <row r="6">
@@ -6453,16 +6453,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>26.5996</v>
+        <v>26.6867</v>
       </c>
       <c r="C6" t="n">
-        <v>28.4068</v>
+        <v>28.6762</v>
       </c>
       <c r="D6" t="n">
-        <v>42.5557</v>
+        <v>42.9469</v>
       </c>
       <c r="E6" t="n">
-        <v>55.5273</v>
+        <v>56.5398</v>
       </c>
     </row>
     <row r="7">
@@ -6470,16 +6470,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>31.6426</v>
+        <v>31.9276</v>
       </c>
       <c r="C7" t="n">
-        <v>32.9424</v>
+        <v>33.3049</v>
       </c>
       <c r="D7" t="n">
-        <v>50.1583</v>
+        <v>50.9829</v>
       </c>
       <c r="E7" t="n">
-        <v>63.636</v>
+        <v>64.02070000000001</v>
       </c>
     </row>
     <row r="8">
@@ -6487,16 +6487,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>29.1602</v>
+        <v>29.2409</v>
       </c>
       <c r="C8" t="n">
-        <v>31.8672</v>
+        <v>32.3958</v>
       </c>
       <c r="D8" t="n">
-        <v>45.5812</v>
+        <v>47.039</v>
       </c>
       <c r="E8" t="n">
-        <v>60.0178</v>
+        <v>60.3073</v>
       </c>
     </row>
     <row r="9">
@@ -6504,16 +6504,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>29.3526</v>
+        <v>29.7943</v>
       </c>
       <c r="C9" t="n">
-        <v>31.3446</v>
+        <v>31.7063</v>
       </c>
       <c r="D9" t="n">
-        <v>46.1158</v>
+        <v>47.4283</v>
       </c>
       <c r="E9" t="n">
-        <v>59.3645</v>
+        <v>60.355</v>
       </c>
     </row>
     <row r="10">
@@ -6521,16 +6521,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>30.3607</v>
+        <v>30.302</v>
       </c>
       <c r="C10" t="n">
-        <v>31.9331</v>
+        <v>32.1071</v>
       </c>
       <c r="D10" t="n">
-        <v>47.2345</v>
+        <v>47.1347</v>
       </c>
       <c r="E10" t="n">
-        <v>61.4763</v>
+        <v>60.3751</v>
       </c>
     </row>
     <row r="11">
@@ -6538,16 +6538,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>30.5518</v>
+        <v>30.717</v>
       </c>
       <c r="C11" t="n">
-        <v>32.0083</v>
+        <v>32.6587</v>
       </c>
       <c r="D11" t="n">
-        <v>47.3613</v>
+        <v>48.3098</v>
       </c>
       <c r="E11" t="n">
-        <v>62.5788</v>
+        <v>61.0853</v>
       </c>
     </row>
     <row r="12">
@@ -6555,16 +6555,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>30.4196</v>
+        <v>30.3894</v>
       </c>
       <c r="C12" t="n">
-        <v>32.0269</v>
+        <v>32.2756</v>
       </c>
       <c r="D12" t="n">
-        <v>47.5182</v>
+        <v>47.9196</v>
       </c>
       <c r="E12" t="n">
-        <v>61.0313</v>
+        <v>60.7971</v>
       </c>
     </row>
     <row r="13">
@@ -6572,16 +6572,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>30.773</v>
+        <v>30.5178</v>
       </c>
       <c r="C13" t="n">
-        <v>32.1628</v>
+        <v>32.3039</v>
       </c>
       <c r="D13" t="n">
-        <v>47.9806</v>
+        <v>48.9658</v>
       </c>
       <c r="E13" t="n">
-        <v>61.118</v>
+        <v>61.6943</v>
       </c>
     </row>
     <row r="14">
@@ -6589,16 +6589,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>30.6577</v>
+        <v>30.5374</v>
       </c>
       <c r="C14" t="n">
-        <v>32.1447</v>
+        <v>32.7271</v>
       </c>
       <c r="D14" t="n">
-        <v>48.2241</v>
+        <v>48.1479</v>
       </c>
       <c r="E14" t="n">
-        <v>61.0678</v>
+        <v>60.7892</v>
       </c>
     </row>
     <row r="15">
@@ -6606,16 +6606,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>30.5561</v>
+        <v>30.5504</v>
       </c>
       <c r="C15" t="n">
-        <v>32.3352</v>
+        <v>32.9432</v>
       </c>
       <c r="D15" t="n">
-        <v>48.86</v>
+        <v>48.6126</v>
       </c>
       <c r="E15" t="n">
-        <v>62.9078</v>
+        <v>62.4938</v>
       </c>
     </row>
     <row r="16">
@@ -6623,16 +6623,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>30.4771</v>
+        <v>30.6048</v>
       </c>
       <c r="C16" t="n">
-        <v>32.2797</v>
+        <v>32.2764</v>
       </c>
       <c r="D16" t="n">
-        <v>47.8017</v>
+        <v>49.1742</v>
       </c>
       <c r="E16" t="n">
-        <v>62.8021</v>
+        <v>62.2302</v>
       </c>
     </row>
     <row r="17">
@@ -6640,16 +6640,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>30.4041</v>
+        <v>30.7843</v>
       </c>
       <c r="C17" t="n">
-        <v>31.9711</v>
+        <v>32.3436</v>
       </c>
       <c r="D17" t="n">
-        <v>48.2585</v>
+        <v>48.7223</v>
       </c>
       <c r="E17" t="n">
-        <v>62.9536</v>
+        <v>62.3805</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Parallel workload.xlsx
+++ b/vs-x86/Parallel workload.xlsx
@@ -4800,16 +4800,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>9.402340000000001</v>
+        <v>9.376950000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>10.7255</v>
+        <v>10.7972</v>
       </c>
       <c r="D2" t="n">
-        <v>13.1452</v>
+        <v>13.1519</v>
       </c>
       <c r="E2" t="n">
-        <v>14.9205</v>
+        <v>14.9694</v>
       </c>
     </row>
     <row r="3">
@@ -4817,16 +4817,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>17.5677</v>
+        <v>17.3756</v>
       </c>
       <c r="C3" t="n">
-        <v>16.735</v>
+        <v>16.7993</v>
       </c>
       <c r="D3" t="n">
-        <v>21.6951</v>
+        <v>22.1408</v>
       </c>
       <c r="E3" t="n">
-        <v>23.5664</v>
+        <v>23.7625</v>
       </c>
     </row>
     <row r="4">
@@ -4834,16 +4834,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>24.6925</v>
+        <v>23.9518</v>
       </c>
       <c r="C4" t="n">
-        <v>21.294</v>
+        <v>21.7593</v>
       </c>
       <c r="D4" t="n">
-        <v>26.76</v>
+        <v>28.1478</v>
       </c>
       <c r="E4" t="n">
-        <v>32.1607</v>
+        <v>33.0204</v>
       </c>
     </row>
     <row r="5">
@@ -4851,16 +4851,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>19.0778</v>
+        <v>19.1569</v>
       </c>
       <c r="C5" t="n">
-        <v>23.2381</v>
+        <v>23.4648</v>
       </c>
       <c r="D5" t="n">
-        <v>30.9774</v>
+        <v>30.5211</v>
       </c>
       <c r="E5" t="n">
-        <v>34.6073</v>
+        <v>33.1702</v>
       </c>
     </row>
     <row r="6">
@@ -4868,16 +4868,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>22.6143</v>
+        <v>22.4886</v>
       </c>
       <c r="C6" t="n">
-        <v>27.6772</v>
+        <v>27.8385</v>
       </c>
       <c r="D6" t="n">
-        <v>32.1203</v>
+        <v>31.5255</v>
       </c>
       <c r="E6" t="n">
-        <v>39.4647</v>
+        <v>39.4694</v>
       </c>
     </row>
     <row r="7">
@@ -4885,16 +4885,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>26.3817</v>
+        <v>26.3873</v>
       </c>
       <c r="C7" t="n">
-        <v>32.7349</v>
+        <v>32.7052</v>
       </c>
       <c r="D7" t="n">
-        <v>39.3156</v>
+        <v>39.3722</v>
       </c>
       <c r="E7" t="n">
-        <v>45.1268</v>
+        <v>41.604</v>
       </c>
     </row>
     <row r="8">
@@ -4902,16 +4902,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>20.1124</v>
+        <v>19.9959</v>
       </c>
       <c r="C8" t="n">
-        <v>29.981</v>
+        <v>29.9642</v>
       </c>
       <c r="D8" t="n">
-        <v>35.9754</v>
+        <v>37.6994</v>
       </c>
       <c r="E8" t="n">
-        <v>39.6797</v>
+        <v>40.7687</v>
       </c>
     </row>
     <row r="9">
@@ -4919,16 +4919,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>22.4819</v>
+        <v>22.3428</v>
       </c>
       <c r="C9" t="n">
-        <v>30.24</v>
+        <v>30.233</v>
       </c>
       <c r="D9" t="n">
-        <v>39.4769</v>
+        <v>39.6928</v>
       </c>
       <c r="E9" t="n">
-        <v>43.9554</v>
+        <v>45.7395</v>
       </c>
     </row>
     <row r="10">
@@ -4936,16 +4936,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>24.4857</v>
+        <v>24.486</v>
       </c>
       <c r="C10" t="n">
-        <v>30.2745</v>
+        <v>30.1421</v>
       </c>
       <c r="D10" t="n">
-        <v>41.5865</v>
+        <v>41.4307</v>
       </c>
       <c r="E10" t="n">
-        <v>49.2508</v>
+        <v>47.4495</v>
       </c>
     </row>
     <row r="11">
@@ -4953,16 +4953,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>22.3699</v>
+        <v>22.508</v>
       </c>
       <c r="C11" t="n">
-        <v>30.6283</v>
+        <v>30.6643</v>
       </c>
       <c r="D11" t="n">
-        <v>43.8964</v>
+        <v>43.4392</v>
       </c>
       <c r="E11" t="n">
-        <v>49.7817</v>
+        <v>50.5106</v>
       </c>
     </row>
     <row r="12">
@@ -4970,16 +4970,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>24.3024</v>
+        <v>24.2417</v>
       </c>
       <c r="C12" t="n">
-        <v>31.2113</v>
+        <v>30.7436</v>
       </c>
       <c r="D12" t="n">
-        <v>42.8249</v>
+        <v>44.4321</v>
       </c>
       <c r="E12" t="n">
-        <v>51.7242</v>
+        <v>52.3063</v>
       </c>
     </row>
     <row r="13">
@@ -4987,16 +4987,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>26.3743</v>
+        <v>26.353</v>
       </c>
       <c r="C13" t="n">
-        <v>31.2856</v>
+        <v>31.4244</v>
       </c>
       <c r="D13" t="n">
-        <v>45.3481</v>
+        <v>44.6908</v>
       </c>
       <c r="E13" t="n">
-        <v>52.4941</v>
+        <v>52.3457</v>
       </c>
     </row>
     <row r="14">
@@ -5004,16 +5004,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>22.171</v>
+        <v>22.0667</v>
       </c>
       <c r="C14" t="n">
-        <v>30.5197</v>
+        <v>31.0105</v>
       </c>
       <c r="D14" t="n">
-        <v>45.0391</v>
+        <v>44.8115</v>
       </c>
       <c r="E14" t="n">
-        <v>54.3749</v>
+        <v>53.8095</v>
       </c>
     </row>
     <row r="15">
@@ -5021,16 +5021,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>23.8977</v>
+        <v>23.6849</v>
       </c>
       <c r="C15" t="n">
-        <v>30.504</v>
+        <v>30.7814</v>
       </c>
       <c r="D15" t="n">
-        <v>43.6273</v>
+        <v>44.7965</v>
       </c>
       <c r="E15" t="n">
-        <v>52.1843</v>
+        <v>54.5266</v>
       </c>
     </row>
     <row r="16">
@@ -5038,16 +5038,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>25.2289</v>
+        <v>25.0014</v>
       </c>
       <c r="C16" t="n">
-        <v>30.6887</v>
+        <v>30.8278</v>
       </c>
       <c r="D16" t="n">
-        <v>43.7102</v>
+        <v>45.0097</v>
       </c>
       <c r="E16" t="n">
-        <v>54.133</v>
+        <v>52.11</v>
       </c>
     </row>
     <row r="17">
@@ -5055,16 +5055,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>23.5608</v>
+        <v>23.801</v>
       </c>
       <c r="C17" t="n">
-        <v>30.87</v>
+        <v>31.1248</v>
       </c>
       <c r="D17" t="n">
-        <v>44.5486</v>
+        <v>44.8812</v>
       </c>
       <c r="E17" t="n">
-        <v>53.4766</v>
+        <v>53.7694</v>
       </c>
     </row>
   </sheetData>
@@ -5117,16 +5117,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>9.363160000000001</v>
+        <v>9.267799999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>10.7448</v>
+        <v>10.7567</v>
       </c>
       <c r="D2" t="n">
-        <v>13.0686</v>
+        <v>13.013</v>
       </c>
       <c r="E2" t="n">
-        <v>14.8314</v>
+        <v>14.8027</v>
       </c>
     </row>
     <row r="3">
@@ -5134,16 +5134,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>17.4</v>
+        <v>17.3747</v>
       </c>
       <c r="C3" t="n">
-        <v>16.967</v>
+        <v>16.864</v>
       </c>
       <c r="D3" t="n">
-        <v>21.2023</v>
+        <v>21.0731</v>
       </c>
       <c r="E3" t="n">
-        <v>23.8317</v>
+        <v>24.5676</v>
       </c>
     </row>
     <row r="4">
@@ -5151,16 +5151,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>24.5028</v>
+        <v>24.0151</v>
       </c>
       <c r="C4" t="n">
-        <v>21.5743</v>
+        <v>21.6069</v>
       </c>
       <c r="D4" t="n">
-        <v>26.8083</v>
+        <v>26.3292</v>
       </c>
       <c r="E4" t="n">
-        <v>30.2464</v>
+        <v>30.0289</v>
       </c>
     </row>
     <row r="5">
@@ -5168,16 +5168,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>19.1499</v>
+        <v>19.3633</v>
       </c>
       <c r="C5" t="n">
-        <v>23.0152</v>
+        <v>23.2172</v>
       </c>
       <c r="D5" t="n">
-        <v>28.5456</v>
+        <v>28.1055</v>
       </c>
       <c r="E5" t="n">
-        <v>35.2527</v>
+        <v>35.4897</v>
       </c>
     </row>
     <row r="6">
@@ -5185,16 +5185,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>22.9603</v>
+        <v>22.8773</v>
       </c>
       <c r="C6" t="n">
-        <v>27.9085</v>
+        <v>27.6871</v>
       </c>
       <c r="D6" t="n">
-        <v>35.0965</v>
+        <v>34.8682</v>
       </c>
       <c r="E6" t="n">
-        <v>38.6042</v>
+        <v>38.2118</v>
       </c>
     </row>
     <row r="7">
@@ -5202,16 +5202,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>26.9982</v>
+        <v>26.949</v>
       </c>
       <c r="C7" t="n">
-        <v>32.7143</v>
+        <v>32.5933</v>
       </c>
       <c r="D7" t="n">
-        <v>35.4148</v>
+        <v>35.5235</v>
       </c>
       <c r="E7" t="n">
-        <v>44.9626</v>
+        <v>45.012</v>
       </c>
     </row>
     <row r="8">
@@ -5219,16 +5219,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>20.2176</v>
+        <v>19.9838</v>
       </c>
       <c r="C8" t="n">
-        <v>29.2226</v>
+        <v>29.5888</v>
       </c>
       <c r="D8" t="n">
-        <v>35.1231</v>
+        <v>34.9564</v>
       </c>
       <c r="E8" t="n">
-        <v>43.2899</v>
+        <v>43.2938</v>
       </c>
     </row>
     <row r="9">
@@ -5236,16 +5236,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>23.0281</v>
+        <v>22.6908</v>
       </c>
       <c r="C9" t="n">
-        <v>30.1852</v>
+        <v>29.7382</v>
       </c>
       <c r="D9" t="n">
-        <v>36.8398</v>
+        <v>37.709</v>
       </c>
       <c r="E9" t="n">
-        <v>48.8148</v>
+        <v>46.7862</v>
       </c>
     </row>
     <row r="10">
@@ -5253,16 +5253,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>25.0928</v>
+        <v>25.1795</v>
       </c>
       <c r="C10" t="n">
-        <v>29.9008</v>
+        <v>29.7394</v>
       </c>
       <c r="D10" t="n">
-        <v>36.7787</v>
+        <v>37.4404</v>
       </c>
       <c r="E10" t="n">
-        <v>48.3341</v>
+        <v>49.5136</v>
       </c>
     </row>
     <row r="11">
@@ -5270,16 +5270,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>22.9701</v>
+        <v>22.9949</v>
       </c>
       <c r="C11" t="n">
-        <v>30.5752</v>
+        <v>30.2754</v>
       </c>
       <c r="D11" t="n">
-        <v>41.2287</v>
+        <v>39.1018</v>
       </c>
       <c r="E11" t="n">
-        <v>51.963</v>
+        <v>52.0895</v>
       </c>
     </row>
     <row r="12">
@@ -5287,16 +5287,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>24.7539</v>
+        <v>24.8364</v>
       </c>
       <c r="C12" t="n">
-        <v>30.7457</v>
+        <v>30.9472</v>
       </c>
       <c r="D12" t="n">
-        <v>41.4802</v>
+        <v>43.5144</v>
       </c>
       <c r="E12" t="n">
-        <v>52.7218</v>
+        <v>52.3292</v>
       </c>
     </row>
     <row r="13">
@@ -5304,16 +5304,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>26.9822</v>
+        <v>26.9811</v>
       </c>
       <c r="C13" t="n">
-        <v>31.162</v>
+        <v>30.9151</v>
       </c>
       <c r="D13" t="n">
-        <v>42.1244</v>
+        <v>41.7733</v>
       </c>
       <c r="E13" t="n">
-        <v>51.7648</v>
+        <v>52.4581</v>
       </c>
     </row>
     <row r="14">
@@ -5321,16 +5321,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>22.4264</v>
+        <v>22.1677</v>
       </c>
       <c r="C14" t="n">
-        <v>31.4184</v>
+        <v>31.2653</v>
       </c>
       <c r="D14" t="n">
-        <v>42.9597</v>
+        <v>44.4125</v>
       </c>
       <c r="E14" t="n">
-        <v>53.0411</v>
+        <v>52.457</v>
       </c>
     </row>
     <row r="15">
@@ -5338,16 +5338,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>24.2275</v>
+        <v>24.2272</v>
       </c>
       <c r="C15" t="n">
-        <v>31.4906</v>
+        <v>31.4808</v>
       </c>
       <c r="D15" t="n">
-        <v>44.2124</v>
+        <v>45.3214</v>
       </c>
       <c r="E15" t="n">
-        <v>52.8954</v>
+        <v>53.5239</v>
       </c>
     </row>
     <row r="16">
@@ -5355,16 +5355,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>25.4899</v>
+        <v>25.1899</v>
       </c>
       <c r="C16" t="n">
-        <v>31.5355</v>
+        <v>31.3483</v>
       </c>
       <c r="D16" t="n">
-        <v>44.7067</v>
+        <v>44.0603</v>
       </c>
       <c r="E16" t="n">
-        <v>55.1317</v>
+        <v>53.1887</v>
       </c>
     </row>
     <row r="17">
@@ -5372,16 +5372,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>24.1263</v>
+        <v>24.4067</v>
       </c>
       <c r="C17" t="n">
-        <v>31.7683</v>
+        <v>31.3545</v>
       </c>
       <c r="D17" t="n">
-        <v>44.0519</v>
+        <v>45.0676</v>
       </c>
       <c r="E17" t="n">
-        <v>53.8817</v>
+        <v>54.1156</v>
       </c>
     </row>
   </sheetData>
@@ -5434,16 +5434,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>10.923</v>
+        <v>10.8591</v>
       </c>
       <c r="C2" t="n">
-        <v>11.684</v>
+        <v>11.6402</v>
       </c>
       <c r="D2" t="n">
-        <v>13.9073</v>
+        <v>13.84</v>
       </c>
       <c r="E2" t="n">
-        <v>15.4022</v>
+        <v>15.3401</v>
       </c>
     </row>
     <row r="3">
@@ -5451,16 +5451,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>19.4385</v>
+        <v>19.356</v>
       </c>
       <c r="C3" t="n">
-        <v>19.288</v>
+        <v>19.1385</v>
       </c>
       <c r="D3" t="n">
-        <v>22.1887</v>
+        <v>22.5944</v>
       </c>
       <c r="E3" t="n">
-        <v>24.9214</v>
+        <v>25.4594</v>
       </c>
     </row>
     <row r="4">
@@ -5468,16 +5468,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>26.8895</v>
+        <v>27.2266</v>
       </c>
       <c r="C4" t="n">
-        <v>25.308</v>
+        <v>25.1847</v>
       </c>
       <c r="D4" t="n">
-        <v>29.2867</v>
+        <v>29.1288</v>
       </c>
       <c r="E4" t="n">
-        <v>33.0544</v>
+        <v>32.4152</v>
       </c>
     </row>
     <row r="5">
@@ -5485,16 +5485,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>23.2561</v>
+        <v>23.1383</v>
       </c>
       <c r="C5" t="n">
-        <v>24.7257</v>
+        <v>24.7012</v>
       </c>
       <c r="D5" t="n">
-        <v>31.5616</v>
+        <v>31.1009</v>
       </c>
       <c r="E5" t="n">
-        <v>35.1582</v>
+        <v>34.5124</v>
       </c>
     </row>
     <row r="6">
@@ -5502,16 +5502,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>28.0597</v>
+        <v>27.9854</v>
       </c>
       <c r="C6" t="n">
-        <v>28.6628</v>
+        <v>28.8661</v>
       </c>
       <c r="D6" t="n">
-        <v>35.1731</v>
+        <v>34.9158</v>
       </c>
       <c r="E6" t="n">
-        <v>37.2204</v>
+        <v>37.3297</v>
       </c>
     </row>
     <row r="7">
@@ -5519,16 +5519,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>33.2002</v>
+        <v>33.1144</v>
       </c>
       <c r="C7" t="n">
-        <v>33.7843</v>
+        <v>33.668</v>
       </c>
       <c r="D7" t="n">
-        <v>35.2284</v>
+        <v>35.3404</v>
       </c>
       <c r="E7" t="n">
-        <v>45.0306</v>
+        <v>52.2207</v>
       </c>
     </row>
     <row r="8">
@@ -5536,16 +5536,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>29.532</v>
+        <v>29.8455</v>
       </c>
       <c r="C8" t="n">
-        <v>29.5266</v>
+        <v>29.6387</v>
       </c>
       <c r="D8" t="n">
-        <v>35.2826</v>
+        <v>35.4578</v>
       </c>
       <c r="E8" t="n">
-        <v>45.3284</v>
+        <v>46.7812</v>
       </c>
     </row>
     <row r="9">
@@ -5553,16 +5553,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>30.9429</v>
+        <v>30.3973</v>
       </c>
       <c r="C9" t="n">
-        <v>30.0925</v>
+        <v>30.682</v>
       </c>
       <c r="D9" t="n">
-        <v>40.6842</v>
+        <v>41.1724</v>
       </c>
       <c r="E9" t="n">
-        <v>52.2281</v>
+        <v>48.9498</v>
       </c>
     </row>
     <row r="10">
@@ -5570,16 +5570,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>30.0054</v>
+        <v>30.2347</v>
       </c>
       <c r="C10" t="n">
-        <v>30.5667</v>
+        <v>30.25</v>
       </c>
       <c r="D10" t="n">
-        <v>40.8373</v>
+        <v>41.7863</v>
       </c>
       <c r="E10" t="n">
-        <v>49.6382</v>
+        <v>51.4219</v>
       </c>
     </row>
     <row r="11">
@@ -5587,16 +5587,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>30.814</v>
+        <v>30.6329</v>
       </c>
       <c r="C11" t="n">
-        <v>30.8758</v>
+        <v>30.9966</v>
       </c>
       <c r="D11" t="n">
-        <v>45.0863</v>
+        <v>43.7816</v>
       </c>
       <c r="E11" t="n">
-        <v>52.0656</v>
+        <v>52.9629</v>
       </c>
     </row>
     <row r="12">
@@ -5604,16 +5604,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>30.4833</v>
+        <v>30.8196</v>
       </c>
       <c r="C12" t="n">
-        <v>31.2971</v>
+        <v>30.8697</v>
       </c>
       <c r="D12" t="n">
-        <v>42.1937</v>
+        <v>44.7425</v>
       </c>
       <c r="E12" t="n">
-        <v>53.0576</v>
+        <v>53.4766</v>
       </c>
     </row>
     <row r="13">
@@ -5621,16 +5621,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>31.1288</v>
+        <v>30.7425</v>
       </c>
       <c r="C13" t="n">
-        <v>31.5426</v>
+        <v>31.3267</v>
       </c>
       <c r="D13" t="n">
-        <v>44.6779</v>
+        <v>44.8572</v>
       </c>
       <c r="E13" t="n">
-        <v>51.4809</v>
+        <v>52.2988</v>
       </c>
     </row>
     <row r="14">
@@ -5638,16 +5638,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>31.3764</v>
+        <v>30.6481</v>
       </c>
       <c r="C14" t="n">
-        <v>31.4875</v>
+        <v>30.8278</v>
       </c>
       <c r="D14" t="n">
-        <v>44.7312</v>
+        <v>44.9284</v>
       </c>
       <c r="E14" t="n">
-        <v>52.5674</v>
+        <v>52.3073</v>
       </c>
     </row>
     <row r="15">
@@ -5655,16 +5655,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>31.2846</v>
+        <v>31.1781</v>
       </c>
       <c r="C15" t="n">
-        <v>31.2946</v>
+        <v>32.0095</v>
       </c>
       <c r="D15" t="n">
-        <v>44.2087</v>
+        <v>44.9648</v>
       </c>
       <c r="E15" t="n">
-        <v>53.5345</v>
+        <v>53.3345</v>
       </c>
     </row>
     <row r="16">
@@ -5672,16 +5672,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>31.1906</v>
+        <v>30.9411</v>
       </c>
       <c r="C16" t="n">
-        <v>31.9074</v>
+        <v>31.7751</v>
       </c>
       <c r="D16" t="n">
-        <v>45.1106</v>
+        <v>43.7445</v>
       </c>
       <c r="E16" t="n">
-        <v>55.3739</v>
+        <v>52.8208</v>
       </c>
     </row>
     <row r="17">
@@ -5689,16 +5689,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>31.8153</v>
+        <v>31.3271</v>
       </c>
       <c r="C17" t="n">
-        <v>32.3369</v>
+        <v>31.4505</v>
       </c>
       <c r="D17" t="n">
-        <v>44.8237</v>
+        <v>45.594</v>
       </c>
       <c r="E17" t="n">
-        <v>53.2444</v>
+        <v>53.391</v>
       </c>
     </row>
   </sheetData>
@@ -5751,16 +5751,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4.96171</v>
+        <v>4.9234</v>
       </c>
       <c r="C2" t="n">
-        <v>9.07301</v>
+        <v>9.02704</v>
       </c>
       <c r="D2" t="n">
-        <v>10.8418</v>
+        <v>10.8433</v>
       </c>
       <c r="E2" t="n">
-        <v>14.0111</v>
+        <v>14.0457</v>
       </c>
     </row>
     <row r="3">
@@ -5768,16 +5768,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.690720000000001</v>
+        <v>9.628170000000001</v>
       </c>
       <c r="C3" t="n">
-        <v>15.8052</v>
+        <v>15.7704</v>
       </c>
       <c r="D3" t="n">
-        <v>20.5613</v>
+        <v>20.7385</v>
       </c>
       <c r="E3" t="n">
-        <v>26.407</v>
+        <v>26.6228</v>
       </c>
     </row>
     <row r="4">
@@ -5785,16 +5785,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>13.9583</v>
+        <v>13.9394</v>
       </c>
       <c r="C4" t="n">
-        <v>21.9146</v>
+        <v>22.1262</v>
       </c>
       <c r="D4" t="n">
-        <v>28.7937</v>
+        <v>29.7554</v>
       </c>
       <c r="E4" t="n">
-        <v>37.7597</v>
+        <v>38.1265</v>
       </c>
     </row>
     <row r="5">
@@ -5802,16 +5802,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>15.8227</v>
+        <v>15.7399</v>
       </c>
       <c r="C5" t="n">
-        <v>22.818</v>
+        <v>22.9555</v>
       </c>
       <c r="D5" t="n">
-        <v>33.812</v>
+        <v>34.0016</v>
       </c>
       <c r="E5" t="n">
-        <v>44.0531</v>
+        <v>44.176</v>
       </c>
     </row>
     <row r="6">
@@ -5819,16 +5819,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>18.9568</v>
+        <v>18.8592</v>
       </c>
       <c r="C6" t="n">
-        <v>26.567</v>
+        <v>26.466</v>
       </c>
       <c r="D6" t="n">
-        <v>40.649</v>
+        <v>41.0468</v>
       </c>
       <c r="E6" t="n">
-        <v>52.0312</v>
+        <v>51.7705</v>
       </c>
     </row>
     <row r="7">
@@ -5836,16 +5836,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>22.192</v>
+        <v>22.13</v>
       </c>
       <c r="C7" t="n">
-        <v>31.335</v>
+        <v>31.2739</v>
       </c>
       <c r="D7" t="n">
-        <v>47.4757</v>
+        <v>47.6964</v>
       </c>
       <c r="E7" t="n">
-        <v>62.0347</v>
+        <v>61.6822</v>
       </c>
     </row>
     <row r="8">
@@ -5853,16 +5853,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>20.136</v>
+        <v>20.0719</v>
       </c>
       <c r="C8" t="n">
-        <v>30.1136</v>
+        <v>29.8931</v>
       </c>
       <c r="D8" t="n">
-        <v>41.5204</v>
+        <v>43.2772</v>
       </c>
       <c r="E8" t="n">
-        <v>56.604</v>
+        <v>53.505</v>
       </c>
     </row>
     <row r="9">
@@ -5870,16 +5870,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>20.524</v>
+        <v>20.5752</v>
       </c>
       <c r="C9" t="n">
-        <v>29.9012</v>
+        <v>30.0814</v>
       </c>
       <c r="D9" t="n">
-        <v>43.128</v>
+        <v>44.2554</v>
       </c>
       <c r="E9" t="n">
-        <v>53.8517</v>
+        <v>54.4082</v>
       </c>
     </row>
     <row r="10">
@@ -5887,16 +5887,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>20.6284</v>
+        <v>20.8777</v>
       </c>
       <c r="C10" t="n">
-        <v>30.0364</v>
+        <v>29.5849</v>
       </c>
       <c r="D10" t="n">
-        <v>42.7377</v>
+        <v>44.0511</v>
       </c>
       <c r="E10" t="n">
-        <v>53.484</v>
+        <v>56.2158</v>
       </c>
     </row>
     <row r="11">
@@ -5904,16 +5904,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>21.1533</v>
+        <v>21.1799</v>
       </c>
       <c r="C11" t="n">
-        <v>30.2527</v>
+        <v>29.8954</v>
       </c>
       <c r="D11" t="n">
-        <v>42.5764</v>
+        <v>44.1543</v>
       </c>
       <c r="E11" t="n">
-        <v>57.4629</v>
+        <v>56.7283</v>
       </c>
     </row>
     <row r="12">
@@ -5921,16 +5921,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>21.1376</v>
+        <v>20.9076</v>
       </c>
       <c r="C12" t="n">
-        <v>30.1294</v>
+        <v>30.5573</v>
       </c>
       <c r="D12" t="n">
-        <v>44.3053</v>
+        <v>44.7416</v>
       </c>
       <c r="E12" t="n">
-        <v>55.7047</v>
+        <v>57.1378</v>
       </c>
     </row>
     <row r="13">
@@ -5938,16 +5938,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>21.1295</v>
+        <v>21.0472</v>
       </c>
       <c r="C13" t="n">
-        <v>30.3953</v>
+        <v>30.1248</v>
       </c>
       <c r="D13" t="n">
-        <v>45.0095</v>
+        <v>44.9443</v>
       </c>
       <c r="E13" t="n">
-        <v>58.1368</v>
+        <v>58.3357</v>
       </c>
     </row>
     <row r="14">
@@ -5955,16 +5955,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>21.2066</v>
+        <v>21.216</v>
       </c>
       <c r="C14" t="n">
-        <v>30.2145</v>
+        <v>30.5865</v>
       </c>
       <c r="D14" t="n">
-        <v>43.4318</v>
+        <v>44.7409</v>
       </c>
       <c r="E14" t="n">
-        <v>58.4132</v>
+        <v>57.9402</v>
       </c>
     </row>
     <row r="15">
@@ -5972,16 +5972,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>21.0148</v>
+        <v>20.9835</v>
       </c>
       <c r="C15" t="n">
-        <v>30.5919</v>
+        <v>30.2997</v>
       </c>
       <c r="D15" t="n">
-        <v>44.6126</v>
+        <v>45.6464</v>
       </c>
       <c r="E15" t="n">
-        <v>58.9783</v>
+        <v>58.274</v>
       </c>
     </row>
     <row r="16">
@@ -5989,16 +5989,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>21.07</v>
+        <v>21.0788</v>
       </c>
       <c r="C16" t="n">
-        <v>30.4343</v>
+        <v>30.3901</v>
       </c>
       <c r="D16" t="n">
-        <v>45.9563</v>
+        <v>45.9631</v>
       </c>
       <c r="E16" t="n">
-        <v>59.225</v>
+        <v>57.8436</v>
       </c>
     </row>
     <row r="17">
@@ -6006,16 +6006,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>21.0685</v>
+        <v>21.1188</v>
       </c>
       <c r="C17" t="n">
-        <v>30.2523</v>
+        <v>30.3811</v>
       </c>
       <c r="D17" t="n">
-        <v>45.5898</v>
+        <v>46.2663</v>
       </c>
       <c r="E17" t="n">
-        <v>58.3396</v>
+        <v>58.0998</v>
       </c>
     </row>
   </sheetData>
@@ -6068,16 +6068,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>5.03985</v>
+        <v>5.02092</v>
       </c>
       <c r="C2" t="n">
-        <v>9.08051</v>
+        <v>9.03407</v>
       </c>
       <c r="D2" t="n">
-        <v>10.8371</v>
+        <v>10.8869</v>
       </c>
       <c r="E2" t="n">
-        <v>14.0515</v>
+        <v>14.0951</v>
       </c>
     </row>
     <row r="3">
@@ -6085,16 +6085,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.899480000000001</v>
+        <v>9.830310000000001</v>
       </c>
       <c r="C3" t="n">
-        <v>15.7231</v>
+        <v>15.7986</v>
       </c>
       <c r="D3" t="n">
-        <v>20.6014</v>
+        <v>20.7267</v>
       </c>
       <c r="E3" t="n">
-        <v>26.4543</v>
+        <v>26.3748</v>
       </c>
     </row>
     <row r="4">
@@ -6102,16 +6102,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>14.3698</v>
+        <v>14.2847</v>
       </c>
       <c r="C4" t="n">
-        <v>22.28</v>
+        <v>22.3133</v>
       </c>
       <c r="D4" t="n">
-        <v>29.1123</v>
+        <v>29.8544</v>
       </c>
       <c r="E4" t="n">
-        <v>38.0871</v>
+        <v>38.5853</v>
       </c>
     </row>
     <row r="5">
@@ -6119,16 +6119,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>16.0805</v>
+        <v>16.0113</v>
       </c>
       <c r="C5" t="n">
-        <v>23.2484</v>
+        <v>22.9125</v>
       </c>
       <c r="D5" t="n">
-        <v>33.4748</v>
+        <v>33.3208</v>
       </c>
       <c r="E5" t="n">
-        <v>44.0177</v>
+        <v>43.9037</v>
       </c>
     </row>
     <row r="6">
@@ -6136,16 +6136,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>19.5134</v>
+        <v>19.3481</v>
       </c>
       <c r="C6" t="n">
-        <v>26.5474</v>
+        <v>26.4176</v>
       </c>
       <c r="D6" t="n">
-        <v>39.8665</v>
+        <v>40.0761</v>
       </c>
       <c r="E6" t="n">
-        <v>51.9539</v>
+        <v>51.7755</v>
       </c>
     </row>
     <row r="7">
@@ -6153,16 +6153,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>22.8767</v>
+        <v>22.7937</v>
       </c>
       <c r="C7" t="n">
-        <v>31.4216</v>
+        <v>31.3503</v>
       </c>
       <c r="D7" t="n">
-        <v>47.0304</v>
+        <v>47.181</v>
       </c>
       <c r="E7" t="n">
-        <v>60.0042</v>
+        <v>60.4486</v>
       </c>
     </row>
     <row r="8">
@@ -6170,16 +6170,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>20.4566</v>
+        <v>20.5919</v>
       </c>
       <c r="C8" t="n">
-        <v>30.2811</v>
+        <v>29.9994</v>
       </c>
       <c r="D8" t="n">
-        <v>41.1099</v>
+        <v>42.4594</v>
       </c>
       <c r="E8" t="n">
-        <v>53.2663</v>
+        <v>53.1464</v>
       </c>
     </row>
     <row r="9">
@@ -6187,16 +6187,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>21.576</v>
+        <v>20.7153</v>
       </c>
       <c r="C9" t="n">
-        <v>29.9204</v>
+        <v>30.0677</v>
       </c>
       <c r="D9" t="n">
-        <v>42.8965</v>
+        <v>44.5962</v>
       </c>
       <c r="E9" t="n">
-        <v>54.5684</v>
+        <v>53.0739</v>
       </c>
     </row>
     <row r="10">
@@ -6204,16 +6204,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>21.4582</v>
+        <v>21.7205</v>
       </c>
       <c r="C10" t="n">
-        <v>30.2186</v>
+        <v>30.1584</v>
       </c>
       <c r="D10" t="n">
-        <v>42.0788</v>
+        <v>41.6979</v>
       </c>
       <c r="E10" t="n">
-        <v>52.6571</v>
+        <v>53.6588</v>
       </c>
     </row>
     <row r="11">
@@ -6221,16 +6221,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>21.8237</v>
+        <v>21.3316</v>
       </c>
       <c r="C11" t="n">
-        <v>29.8672</v>
+        <v>30.4359</v>
       </c>
       <c r="D11" t="n">
-        <v>44.3713</v>
+        <v>43.0803</v>
       </c>
       <c r="E11" t="n">
-        <v>56.2204</v>
+        <v>56.145</v>
       </c>
     </row>
     <row r="12">
@@ -6238,16 +6238,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>21.2542</v>
+        <v>21.5293</v>
       </c>
       <c r="C12" t="n">
-        <v>30.3048</v>
+        <v>30.0884</v>
       </c>
       <c r="D12" t="n">
-        <v>43.2695</v>
+        <v>44.1119</v>
       </c>
       <c r="E12" t="n">
-        <v>56.4705</v>
+        <v>56.2152</v>
       </c>
     </row>
     <row r="13">
@@ -6255,16 +6255,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>21.8397</v>
+        <v>21.6512</v>
       </c>
       <c r="C13" t="n">
-        <v>30.635</v>
+        <v>30.3771</v>
       </c>
       <c r="D13" t="n">
-        <v>44.3685</v>
+        <v>44.8812</v>
       </c>
       <c r="E13" t="n">
-        <v>57.1112</v>
+        <v>57.3348</v>
       </c>
     </row>
     <row r="14">
@@ -6272,16 +6272,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>21.6294</v>
+        <v>21.5976</v>
       </c>
       <c r="C14" t="n">
-        <v>30.4808</v>
+        <v>30.4867</v>
       </c>
       <c r="D14" t="n">
-        <v>45.5677</v>
+        <v>44.5118</v>
       </c>
       <c r="E14" t="n">
-        <v>57.7664</v>
+        <v>57.2626</v>
       </c>
     </row>
     <row r="15">
@@ -6289,16 +6289,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>22.0506</v>
+        <v>21.7644</v>
       </c>
       <c r="C15" t="n">
-        <v>30.3534</v>
+        <v>30.1643</v>
       </c>
       <c r="D15" t="n">
-        <v>45.1004</v>
+        <v>45.4931</v>
       </c>
       <c r="E15" t="n">
-        <v>58.252</v>
+        <v>58.6916</v>
       </c>
     </row>
     <row r="16">
@@ -6306,16 +6306,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>21.8831</v>
+        <v>21.761</v>
       </c>
       <c r="C16" t="n">
-        <v>30.4486</v>
+        <v>30.4016</v>
       </c>
       <c r="D16" t="n">
-        <v>43.7638</v>
+        <v>46.1615</v>
       </c>
       <c r="E16" t="n">
-        <v>59.5257</v>
+        <v>58.4145</v>
       </c>
     </row>
     <row r="17">
@@ -6323,16 +6323,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>21.6162</v>
+        <v>21.8501</v>
       </c>
       <c r="C17" t="n">
-        <v>30.7264</v>
+        <v>30.6869</v>
       </c>
       <c r="D17" t="n">
-        <v>45.2319</v>
+        <v>45.697</v>
       </c>
       <c r="E17" t="n">
-        <v>57.7992</v>
+        <v>58.4125</v>
       </c>
     </row>
   </sheetData>
@@ -6385,16 +6385,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.82399</v>
+        <v>8.74274</v>
       </c>
       <c r="C2" t="n">
-        <v>10.8828</v>
+        <v>10.9185</v>
       </c>
       <c r="D2" t="n">
-        <v>13.2394</v>
+        <v>13.1883</v>
       </c>
       <c r="E2" t="n">
-        <v>15.33</v>
+        <v>15.2599</v>
       </c>
     </row>
     <row r="3">
@@ -6402,16 +6402,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>16.6412</v>
+        <v>16.2342</v>
       </c>
       <c r="C3" t="n">
-        <v>18.2883</v>
+        <v>18.2237</v>
       </c>
       <c r="D3" t="n">
-        <v>24.5707</v>
+        <v>24.1612</v>
       </c>
       <c r="E3" t="n">
-        <v>28.7463</v>
+        <v>28.4874</v>
       </c>
     </row>
     <row r="4">
@@ -6419,16 +6419,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>23.7205</v>
+        <v>23.4241</v>
       </c>
       <c r="C4" t="n">
-        <v>25.5231</v>
+        <v>25.0892</v>
       </c>
       <c r="D4" t="n">
-        <v>34.4709</v>
+        <v>34.1971</v>
       </c>
       <c r="E4" t="n">
-        <v>40.9679</v>
+        <v>40.3806</v>
       </c>
     </row>
     <row r="5">
@@ -6436,16 +6436,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>23.2481</v>
+        <v>23.2453</v>
       </c>
       <c r="C5" t="n">
-        <v>25.3323</v>
+        <v>25.2994</v>
       </c>
       <c r="D5" t="n">
-        <v>37.0027</v>
+        <v>36.2227</v>
       </c>
       <c r="E5" t="n">
-        <v>46.8452</v>
+        <v>46.6389</v>
       </c>
     </row>
     <row r="6">
@@ -6453,16 +6453,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>26.6867</v>
+        <v>26.3611</v>
       </c>
       <c r="C6" t="n">
-        <v>28.6762</v>
+        <v>28.618</v>
       </c>
       <c r="D6" t="n">
-        <v>42.9469</v>
+        <v>42.9267</v>
       </c>
       <c r="E6" t="n">
-        <v>56.5398</v>
+        <v>56.0699</v>
       </c>
     </row>
     <row r="7">
@@ -6470,16 +6470,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>31.9276</v>
+        <v>31.8376</v>
       </c>
       <c r="C7" t="n">
-        <v>33.3049</v>
+        <v>33.261</v>
       </c>
       <c r="D7" t="n">
-        <v>50.9829</v>
+        <v>50.3301</v>
       </c>
       <c r="E7" t="n">
-        <v>64.02070000000001</v>
+        <v>63.6572</v>
       </c>
     </row>
     <row r="8">
@@ -6487,16 +6487,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>29.2409</v>
+        <v>29.4677</v>
       </c>
       <c r="C8" t="n">
-        <v>32.3958</v>
+        <v>31.7403</v>
       </c>
       <c r="D8" t="n">
-        <v>47.039</v>
+        <v>47.3814</v>
       </c>
       <c r="E8" t="n">
-        <v>60.3073</v>
+        <v>59.8779</v>
       </c>
     </row>
     <row r="9">
@@ -6504,16 +6504,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>29.7943</v>
+        <v>29.9728</v>
       </c>
       <c r="C9" t="n">
-        <v>31.7063</v>
+        <v>31.7979</v>
       </c>
       <c r="D9" t="n">
-        <v>47.4283</v>
+        <v>47.9075</v>
       </c>
       <c r="E9" t="n">
-        <v>60.355</v>
+        <v>60.6245</v>
       </c>
     </row>
     <row r="10">
@@ -6521,16 +6521,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>30.302</v>
+        <v>30.4766</v>
       </c>
       <c r="C10" t="n">
-        <v>32.1071</v>
+        <v>32.244</v>
       </c>
       <c r="D10" t="n">
-        <v>47.1347</v>
+        <v>46.443</v>
       </c>
       <c r="E10" t="n">
-        <v>60.3751</v>
+        <v>60.5673</v>
       </c>
     </row>
     <row r="11">
@@ -6538,16 +6538,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>30.717</v>
+        <v>30.7077</v>
       </c>
       <c r="C11" t="n">
-        <v>32.6587</v>
+        <v>32.4256</v>
       </c>
       <c r="D11" t="n">
-        <v>48.3098</v>
+        <v>48.106</v>
       </c>
       <c r="E11" t="n">
-        <v>61.0853</v>
+        <v>61.6587</v>
       </c>
     </row>
     <row r="12">
@@ -6555,16 +6555,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>30.3894</v>
+        <v>29.974</v>
       </c>
       <c r="C12" t="n">
-        <v>32.2756</v>
+        <v>32.3707</v>
       </c>
       <c r="D12" t="n">
-        <v>47.9196</v>
+        <v>47.6102</v>
       </c>
       <c r="E12" t="n">
-        <v>60.7971</v>
+        <v>61.1767</v>
       </c>
     </row>
     <row r="13">
@@ -6572,16 +6572,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>30.5178</v>
+        <v>30.4162</v>
       </c>
       <c r="C13" t="n">
-        <v>32.3039</v>
+        <v>32.4713</v>
       </c>
       <c r="D13" t="n">
-        <v>48.9658</v>
+        <v>48.6076</v>
       </c>
       <c r="E13" t="n">
-        <v>61.6943</v>
+        <v>61.4313</v>
       </c>
     </row>
     <row r="14">
@@ -6589,16 +6589,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>30.5374</v>
+        <v>30.5244</v>
       </c>
       <c r="C14" t="n">
-        <v>32.7271</v>
+        <v>32.2854</v>
       </c>
       <c r="D14" t="n">
-        <v>48.1479</v>
+        <v>48.8023</v>
       </c>
       <c r="E14" t="n">
-        <v>60.7892</v>
+        <v>61.7159</v>
       </c>
     </row>
     <row r="15">
@@ -6606,16 +6606,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>30.5504</v>
+        <v>30.8327</v>
       </c>
       <c r="C15" t="n">
-        <v>32.9432</v>
+        <v>32.6905</v>
       </c>
       <c r="D15" t="n">
-        <v>48.6126</v>
+        <v>48.913</v>
       </c>
       <c r="E15" t="n">
-        <v>62.4938</v>
+        <v>61.2748</v>
       </c>
     </row>
     <row r="16">
@@ -6623,16 +6623,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>30.6048</v>
+        <v>30.5979</v>
       </c>
       <c r="C16" t="n">
-        <v>32.2764</v>
+        <v>31.995</v>
       </c>
       <c r="D16" t="n">
-        <v>49.1742</v>
+        <v>47.7674</v>
       </c>
       <c r="E16" t="n">
-        <v>62.2302</v>
+        <v>61.6958</v>
       </c>
     </row>
     <row r="17">
@@ -6640,16 +6640,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>30.7843</v>
+        <v>30.6043</v>
       </c>
       <c r="C17" t="n">
-        <v>32.3436</v>
+        <v>32.2266</v>
       </c>
       <c r="D17" t="n">
-        <v>48.7223</v>
+        <v>48.9196</v>
       </c>
       <c r="E17" t="n">
-        <v>62.3805</v>
+        <v>61.7529</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Parallel workload.xlsx
+++ b/vs-x86/Parallel workload.xlsx
@@ -4800,16 +4800,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>9.376950000000001</v>
+        <v>9.29527</v>
       </c>
       <c r="C2" t="n">
-        <v>10.7972</v>
+        <v>10.7578</v>
       </c>
       <c r="D2" t="n">
-        <v>13.1519</v>
+        <v>13.1458</v>
       </c>
       <c r="E2" t="n">
-        <v>14.9694</v>
+        <v>14.9475</v>
       </c>
     </row>
     <row r="3">
@@ -4817,16 +4817,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>17.3756</v>
+        <v>17.2265</v>
       </c>
       <c r="C3" t="n">
-        <v>16.7993</v>
+        <v>16.8903</v>
       </c>
       <c r="D3" t="n">
-        <v>22.1408</v>
+        <v>21.5712</v>
       </c>
       <c r="E3" t="n">
-        <v>23.7625</v>
+        <v>23.7499</v>
       </c>
     </row>
     <row r="4">
@@ -4834,16 +4834,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>23.9518</v>
+        <v>24.367</v>
       </c>
       <c r="C4" t="n">
-        <v>21.7593</v>
+        <v>21.2632</v>
       </c>
       <c r="D4" t="n">
-        <v>28.1478</v>
+        <v>27.2153</v>
       </c>
       <c r="E4" t="n">
-        <v>33.0204</v>
+        <v>32.0638</v>
       </c>
     </row>
     <row r="5">
@@ -4851,16 +4851,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>19.1569</v>
+        <v>18.9282</v>
       </c>
       <c r="C5" t="n">
-        <v>23.4648</v>
+        <v>23.6537</v>
       </c>
       <c r="D5" t="n">
-        <v>30.5211</v>
+        <v>29.8534</v>
       </c>
       <c r="E5" t="n">
-        <v>33.1702</v>
+        <v>33.3399</v>
       </c>
     </row>
     <row r="6">
@@ -4868,16 +4868,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>22.4886</v>
+        <v>22.6285</v>
       </c>
       <c r="C6" t="n">
-        <v>27.8385</v>
+        <v>27.694</v>
       </c>
       <c r="D6" t="n">
-        <v>31.5255</v>
+        <v>31.7688</v>
       </c>
       <c r="E6" t="n">
-        <v>39.4694</v>
+        <v>39.4703</v>
       </c>
     </row>
     <row r="7">
@@ -4885,16 +4885,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>26.3873</v>
+        <v>26.3774</v>
       </c>
       <c r="C7" t="n">
-        <v>32.7052</v>
+        <v>32.6978</v>
       </c>
       <c r="D7" t="n">
-        <v>39.3722</v>
+        <v>37.5866</v>
       </c>
       <c r="E7" t="n">
-        <v>41.604</v>
+        <v>39.6882</v>
       </c>
     </row>
     <row r="8">
@@ -4902,16 +4902,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>19.9959</v>
+        <v>19.9753</v>
       </c>
       <c r="C8" t="n">
-        <v>29.9642</v>
+        <v>29.8596</v>
       </c>
       <c r="D8" t="n">
-        <v>37.6994</v>
+        <v>36.0224</v>
       </c>
       <c r="E8" t="n">
-        <v>40.7687</v>
+        <v>41.8895</v>
       </c>
     </row>
     <row r="9">
@@ -4919,16 +4919,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>22.3428</v>
+        <v>22.4374</v>
       </c>
       <c r="C9" t="n">
-        <v>30.233</v>
+        <v>30.6083</v>
       </c>
       <c r="D9" t="n">
-        <v>39.6928</v>
+        <v>39.1867</v>
       </c>
       <c r="E9" t="n">
-        <v>45.7395</v>
+        <v>47.4854</v>
       </c>
     </row>
     <row r="10">
@@ -4936,16 +4936,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>24.486</v>
+        <v>24.6689</v>
       </c>
       <c r="C10" t="n">
-        <v>30.1421</v>
+        <v>30.2466</v>
       </c>
       <c r="D10" t="n">
-        <v>41.4307</v>
+        <v>42.1284</v>
       </c>
       <c r="E10" t="n">
-        <v>47.4495</v>
+        <v>48.9622</v>
       </c>
     </row>
     <row r="11">
@@ -4953,16 +4953,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>22.508</v>
+        <v>22.5135</v>
       </c>
       <c r="C11" t="n">
-        <v>30.6643</v>
+        <v>30.2017</v>
       </c>
       <c r="D11" t="n">
-        <v>43.4392</v>
+        <v>43.2197</v>
       </c>
       <c r="E11" t="n">
-        <v>50.5106</v>
+        <v>49.4876</v>
       </c>
     </row>
     <row r="12">
@@ -4970,16 +4970,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>24.2417</v>
+        <v>24.5118</v>
       </c>
       <c r="C12" t="n">
-        <v>30.7436</v>
+        <v>30.485</v>
       </c>
       <c r="D12" t="n">
-        <v>44.4321</v>
+        <v>45.5754</v>
       </c>
       <c r="E12" t="n">
-        <v>52.3063</v>
+        <v>51.2537</v>
       </c>
     </row>
     <row r="13">
@@ -4987,16 +4987,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>26.353</v>
+        <v>26.369</v>
       </c>
       <c r="C13" t="n">
-        <v>31.4244</v>
+        <v>31.5819</v>
       </c>
       <c r="D13" t="n">
-        <v>44.6908</v>
+        <v>44.0243</v>
       </c>
       <c r="E13" t="n">
-        <v>52.3457</v>
+        <v>51.2935</v>
       </c>
     </row>
     <row r="14">
@@ -5004,16 +5004,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>22.0667</v>
+        <v>22.1251</v>
       </c>
       <c r="C14" t="n">
-        <v>31.0105</v>
+        <v>30.6789</v>
       </c>
       <c r="D14" t="n">
-        <v>44.8115</v>
+        <v>44.1921</v>
       </c>
       <c r="E14" t="n">
-        <v>53.8095</v>
+        <v>52.7581</v>
       </c>
     </row>
     <row r="15">
@@ -5021,16 +5021,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>23.6849</v>
+        <v>23.7153</v>
       </c>
       <c r="C15" t="n">
-        <v>30.7814</v>
+        <v>30.8139</v>
       </c>
       <c r="D15" t="n">
-        <v>44.7965</v>
+        <v>45.2207</v>
       </c>
       <c r="E15" t="n">
-        <v>54.5266</v>
+        <v>53.2038</v>
       </c>
     </row>
     <row r="16">
@@ -5038,16 +5038,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>25.0014</v>
+        <v>24.9961</v>
       </c>
       <c r="C16" t="n">
-        <v>30.8278</v>
+        <v>30.4188</v>
       </c>
       <c r="D16" t="n">
-        <v>45.0097</v>
+        <v>44.4052</v>
       </c>
       <c r="E16" t="n">
-        <v>52.11</v>
+        <v>52.6454</v>
       </c>
     </row>
     <row r="17">
@@ -5055,16 +5055,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>23.801</v>
+        <v>23.8185</v>
       </c>
       <c r="C17" t="n">
-        <v>31.1248</v>
+        <v>30.748</v>
       </c>
       <c r="D17" t="n">
-        <v>44.8812</v>
+        <v>44.6295</v>
       </c>
       <c r="E17" t="n">
-        <v>53.7694</v>
+        <v>52.8076</v>
       </c>
     </row>
   </sheetData>
@@ -5117,16 +5117,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>9.267799999999999</v>
+        <v>9.3042</v>
       </c>
       <c r="C2" t="n">
-        <v>10.7567</v>
+        <v>10.7424</v>
       </c>
       <c r="D2" t="n">
-        <v>13.013</v>
+        <v>13.0242</v>
       </c>
       <c r="E2" t="n">
-        <v>14.8027</v>
+        <v>14.7901</v>
       </c>
     </row>
     <row r="3">
@@ -5134,16 +5134,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>17.3747</v>
+        <v>17.3035</v>
       </c>
       <c r="C3" t="n">
-        <v>16.864</v>
+        <v>17.2095</v>
       </c>
       <c r="D3" t="n">
-        <v>21.0731</v>
+        <v>20.971</v>
       </c>
       <c r="E3" t="n">
-        <v>24.5676</v>
+        <v>24.3555</v>
       </c>
     </row>
     <row r="4">
@@ -5151,16 +5151,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>24.0151</v>
+        <v>24.4124</v>
       </c>
       <c r="C4" t="n">
-        <v>21.6069</v>
+        <v>22.0339</v>
       </c>
       <c r="D4" t="n">
-        <v>26.3292</v>
+        <v>26.0693</v>
       </c>
       <c r="E4" t="n">
-        <v>30.0289</v>
+        <v>30.776</v>
       </c>
     </row>
     <row r="5">
@@ -5168,16 +5168,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>19.3633</v>
+        <v>19.2345</v>
       </c>
       <c r="C5" t="n">
-        <v>23.2172</v>
+        <v>23.7572</v>
       </c>
       <c r="D5" t="n">
-        <v>28.1055</v>
+        <v>28.0638</v>
       </c>
       <c r="E5" t="n">
-        <v>35.4897</v>
+        <v>35.4553</v>
       </c>
     </row>
     <row r="6">
@@ -5185,16 +5185,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>22.8773</v>
+        <v>22.8281</v>
       </c>
       <c r="C6" t="n">
-        <v>27.6871</v>
+        <v>27.7491</v>
       </c>
       <c r="D6" t="n">
-        <v>34.8682</v>
+        <v>34.9734</v>
       </c>
       <c r="E6" t="n">
-        <v>38.2118</v>
+        <v>37.3376</v>
       </c>
     </row>
     <row r="7">
@@ -5202,16 +5202,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>26.949</v>
+        <v>26.9873</v>
       </c>
       <c r="C7" t="n">
-        <v>32.5933</v>
+        <v>32.5684</v>
       </c>
       <c r="D7" t="n">
-        <v>35.5235</v>
+        <v>38.6181</v>
       </c>
       <c r="E7" t="n">
-        <v>45.012</v>
+        <v>45.0741</v>
       </c>
     </row>
     <row r="8">
@@ -5219,16 +5219,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>19.9838</v>
+        <v>20.1767</v>
       </c>
       <c r="C8" t="n">
-        <v>29.5888</v>
+        <v>29.2045</v>
       </c>
       <c r="D8" t="n">
-        <v>34.9564</v>
+        <v>33.7283</v>
       </c>
       <c r="E8" t="n">
-        <v>43.2938</v>
+        <v>42.8361</v>
       </c>
     </row>
     <row r="9">
@@ -5236,16 +5236,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>22.6908</v>
+        <v>22.7863</v>
       </c>
       <c r="C9" t="n">
-        <v>29.7382</v>
+        <v>29.2999</v>
       </c>
       <c r="D9" t="n">
-        <v>37.709</v>
+        <v>36.4498</v>
       </c>
       <c r="E9" t="n">
-        <v>46.7862</v>
+        <v>47.518</v>
       </c>
     </row>
     <row r="10">
@@ -5253,16 +5253,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>25.1795</v>
+        <v>25.2151</v>
       </c>
       <c r="C10" t="n">
-        <v>29.7394</v>
+        <v>29.588</v>
       </c>
       <c r="D10" t="n">
-        <v>37.4404</v>
+        <v>37.8207</v>
       </c>
       <c r="E10" t="n">
-        <v>49.5136</v>
+        <v>47.6303</v>
       </c>
     </row>
     <row r="11">
@@ -5270,16 +5270,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>22.9949</v>
+        <v>22.7522</v>
       </c>
       <c r="C11" t="n">
-        <v>30.2754</v>
+        <v>29.9666</v>
       </c>
       <c r="D11" t="n">
-        <v>39.1018</v>
+        <v>40.4741</v>
       </c>
       <c r="E11" t="n">
-        <v>52.0895</v>
+        <v>51.6228</v>
       </c>
     </row>
     <row r="12">
@@ -5287,16 +5287,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>24.8364</v>
+        <v>24.8923</v>
       </c>
       <c r="C12" t="n">
-        <v>30.9472</v>
+        <v>30.4043</v>
       </c>
       <c r="D12" t="n">
-        <v>43.5144</v>
+        <v>41.4822</v>
       </c>
       <c r="E12" t="n">
-        <v>52.3292</v>
+        <v>52.4809</v>
       </c>
     </row>
     <row r="13">
@@ -5304,16 +5304,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>26.9811</v>
+        <v>26.939</v>
       </c>
       <c r="C13" t="n">
-        <v>30.9151</v>
+        <v>31.2967</v>
       </c>
       <c r="D13" t="n">
-        <v>41.7733</v>
+        <v>44.931</v>
       </c>
       <c r="E13" t="n">
-        <v>52.4581</v>
+        <v>52.3039</v>
       </c>
     </row>
     <row r="14">
@@ -5321,16 +5321,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>22.1677</v>
+        <v>22.2062</v>
       </c>
       <c r="C14" t="n">
-        <v>31.2653</v>
+        <v>31.1292</v>
       </c>
       <c r="D14" t="n">
-        <v>44.4125</v>
+        <v>42.6956</v>
       </c>
       <c r="E14" t="n">
-        <v>52.457</v>
+        <v>52.8837</v>
       </c>
     </row>
     <row r="15">
@@ -5338,16 +5338,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>24.2272</v>
+        <v>24.0158</v>
       </c>
       <c r="C15" t="n">
-        <v>31.4808</v>
+        <v>31.1656</v>
       </c>
       <c r="D15" t="n">
-        <v>45.3214</v>
+        <v>44.5994</v>
       </c>
       <c r="E15" t="n">
-        <v>53.5239</v>
+        <v>52.3317</v>
       </c>
     </row>
     <row r="16">
@@ -5355,16 +5355,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>25.1899</v>
+        <v>25.4854</v>
       </c>
       <c r="C16" t="n">
-        <v>31.3483</v>
+        <v>31.168</v>
       </c>
       <c r="D16" t="n">
-        <v>44.0603</v>
+        <v>44.3176</v>
       </c>
       <c r="E16" t="n">
-        <v>53.1887</v>
+        <v>53.2343</v>
       </c>
     </row>
     <row r="17">
@@ -5372,16 +5372,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>24.4067</v>
+        <v>24.2316</v>
       </c>
       <c r="C17" t="n">
-        <v>31.3545</v>
+        <v>31.5922</v>
       </c>
       <c r="D17" t="n">
-        <v>45.0676</v>
+        <v>43.289</v>
       </c>
       <c r="E17" t="n">
-        <v>54.1156</v>
+        <v>54.7914</v>
       </c>
     </row>
   </sheetData>
@@ -5434,16 +5434,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>10.8591</v>
+        <v>10.8699</v>
       </c>
       <c r="C2" t="n">
-        <v>11.6402</v>
+        <v>11.6441</v>
       </c>
       <c r="D2" t="n">
-        <v>13.84</v>
+        <v>13.8946</v>
       </c>
       <c r="E2" t="n">
-        <v>15.3401</v>
+        <v>15.3772</v>
       </c>
     </row>
     <row r="3">
@@ -5451,16 +5451,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>19.356</v>
+        <v>19.4225</v>
       </c>
       <c r="C3" t="n">
-        <v>19.1385</v>
+        <v>19.5269</v>
       </c>
       <c r="D3" t="n">
-        <v>22.5944</v>
+        <v>22.8329</v>
       </c>
       <c r="E3" t="n">
-        <v>25.4594</v>
+        <v>25.5684</v>
       </c>
     </row>
     <row r="4">
@@ -5468,16 +5468,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>27.2266</v>
+        <v>26.6809</v>
       </c>
       <c r="C4" t="n">
-        <v>25.1847</v>
+        <v>24.9823</v>
       </c>
       <c r="D4" t="n">
-        <v>29.1288</v>
+        <v>31.4489</v>
       </c>
       <c r="E4" t="n">
-        <v>32.4152</v>
+        <v>32.896</v>
       </c>
     </row>
     <row r="5">
@@ -5485,16 +5485,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>23.1383</v>
+        <v>23.1352</v>
       </c>
       <c r="C5" t="n">
-        <v>24.7012</v>
+        <v>24.5228</v>
       </c>
       <c r="D5" t="n">
-        <v>31.1009</v>
+        <v>31.7012</v>
       </c>
       <c r="E5" t="n">
-        <v>34.5124</v>
+        <v>35.4784</v>
       </c>
     </row>
     <row r="6">
@@ -5502,16 +5502,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>27.9854</v>
+        <v>28.0249</v>
       </c>
       <c r="C6" t="n">
-        <v>28.8661</v>
+        <v>28.6741</v>
       </c>
       <c r="D6" t="n">
-        <v>34.9158</v>
+        <v>34.3181</v>
       </c>
       <c r="E6" t="n">
-        <v>37.3297</v>
+        <v>38.2653</v>
       </c>
     </row>
     <row r="7">
@@ -5519,16 +5519,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>33.1144</v>
+        <v>33.0023</v>
       </c>
       <c r="C7" t="n">
-        <v>33.668</v>
+        <v>33.6615</v>
       </c>
       <c r="D7" t="n">
-        <v>35.3404</v>
+        <v>35.1003</v>
       </c>
       <c r="E7" t="n">
-        <v>52.2207</v>
+        <v>52.3602</v>
       </c>
     </row>
     <row r="8">
@@ -5536,16 +5536,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>29.8455</v>
+        <v>29.3726</v>
       </c>
       <c r="C8" t="n">
-        <v>29.6387</v>
+        <v>29.8022</v>
       </c>
       <c r="D8" t="n">
-        <v>35.4578</v>
+        <v>35.2787</v>
       </c>
       <c r="E8" t="n">
-        <v>46.7812</v>
+        <v>44.6677</v>
       </c>
     </row>
     <row r="9">
@@ -5553,16 +5553,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>30.3973</v>
+        <v>29.8401</v>
       </c>
       <c r="C9" t="n">
-        <v>30.682</v>
+        <v>29.5408</v>
       </c>
       <c r="D9" t="n">
-        <v>41.1724</v>
+        <v>40.9271</v>
       </c>
       <c r="E9" t="n">
-        <v>48.9498</v>
+        <v>52.305</v>
       </c>
     </row>
     <row r="10">
@@ -5570,16 +5570,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>30.2347</v>
+        <v>30.1684</v>
       </c>
       <c r="C10" t="n">
-        <v>30.25</v>
+        <v>30.2922</v>
       </c>
       <c r="D10" t="n">
-        <v>41.7863</v>
+        <v>42.3251</v>
       </c>
       <c r="E10" t="n">
-        <v>51.4219</v>
+        <v>52.2885</v>
       </c>
     </row>
     <row r="11">
@@ -5587,16 +5587,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>30.6329</v>
+        <v>29.9395</v>
       </c>
       <c r="C11" t="n">
-        <v>30.9966</v>
+        <v>30.7717</v>
       </c>
       <c r="D11" t="n">
-        <v>43.7816</v>
+        <v>43.6909</v>
       </c>
       <c r="E11" t="n">
-        <v>52.9629</v>
+        <v>52.8347</v>
       </c>
     </row>
     <row r="12">
@@ -5604,16 +5604,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>30.8196</v>
+        <v>30.6991</v>
       </c>
       <c r="C12" t="n">
-        <v>30.8697</v>
+        <v>30.6465</v>
       </c>
       <c r="D12" t="n">
-        <v>44.7425</v>
+        <v>44.3982</v>
       </c>
       <c r="E12" t="n">
-        <v>53.4766</v>
+        <v>52.9414</v>
       </c>
     </row>
     <row r="13">
@@ -5621,16 +5621,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>30.7425</v>
+        <v>30.7194</v>
       </c>
       <c r="C13" t="n">
-        <v>31.3267</v>
+        <v>31.0135</v>
       </c>
       <c r="D13" t="n">
-        <v>44.8572</v>
+        <v>45.0307</v>
       </c>
       <c r="E13" t="n">
-        <v>52.2988</v>
+        <v>52.9897</v>
       </c>
     </row>
     <row r="14">
@@ -5638,16 +5638,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>30.6481</v>
+        <v>30.9124</v>
       </c>
       <c r="C14" t="n">
-        <v>30.8278</v>
+        <v>31.4363</v>
       </c>
       <c r="D14" t="n">
-        <v>44.9284</v>
+        <v>45.2706</v>
       </c>
       <c r="E14" t="n">
-        <v>52.3073</v>
+        <v>52.5942</v>
       </c>
     </row>
     <row r="15">
@@ -5655,16 +5655,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>31.1781</v>
+        <v>30.999</v>
       </c>
       <c r="C15" t="n">
-        <v>32.0095</v>
+        <v>31.6355</v>
       </c>
       <c r="D15" t="n">
-        <v>44.9648</v>
+        <v>43.2997</v>
       </c>
       <c r="E15" t="n">
-        <v>53.3345</v>
+        <v>53.1456</v>
       </c>
     </row>
     <row r="16">
@@ -5672,16 +5672,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>30.9411</v>
+        <v>30.7</v>
       </c>
       <c r="C16" t="n">
-        <v>31.7751</v>
+        <v>31.8468</v>
       </c>
       <c r="D16" t="n">
-        <v>43.7445</v>
+        <v>44.6915</v>
       </c>
       <c r="E16" t="n">
-        <v>52.8208</v>
+        <v>52.7332</v>
       </c>
     </row>
     <row r="17">
@@ -5689,16 +5689,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>31.3271</v>
+        <v>31.3963</v>
       </c>
       <c r="C17" t="n">
-        <v>31.4505</v>
+        <v>31.3184</v>
       </c>
       <c r="D17" t="n">
-        <v>45.594</v>
+        <v>45.3028</v>
       </c>
       <c r="E17" t="n">
-        <v>53.391</v>
+        <v>53.2398</v>
       </c>
     </row>
   </sheetData>
@@ -5751,16 +5751,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4.9234</v>
+        <v>4.93706</v>
       </c>
       <c r="C2" t="n">
-        <v>9.02704</v>
+        <v>9.044309999999999</v>
       </c>
       <c r="D2" t="n">
-        <v>10.8433</v>
+        <v>10.8891</v>
       </c>
       <c r="E2" t="n">
-        <v>14.0457</v>
+        <v>14.0518</v>
       </c>
     </row>
     <row r="3">
@@ -5768,16 +5768,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.628170000000001</v>
+        <v>9.65451</v>
       </c>
       <c r="C3" t="n">
-        <v>15.7704</v>
+        <v>15.7031</v>
       </c>
       <c r="D3" t="n">
-        <v>20.7385</v>
+        <v>20.8148</v>
       </c>
       <c r="E3" t="n">
-        <v>26.6228</v>
+        <v>26.4127</v>
       </c>
     </row>
     <row r="4">
@@ -5785,16 +5785,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>13.9394</v>
+        <v>13.9811</v>
       </c>
       <c r="C4" t="n">
-        <v>22.1262</v>
+        <v>22.1932</v>
       </c>
       <c r="D4" t="n">
-        <v>29.7554</v>
+        <v>30.0493</v>
       </c>
       <c r="E4" t="n">
-        <v>38.1265</v>
+        <v>38.1669</v>
       </c>
     </row>
     <row r="5">
@@ -5802,16 +5802,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>15.7399</v>
+        <v>15.7623</v>
       </c>
       <c r="C5" t="n">
-        <v>22.9555</v>
+        <v>22.9882</v>
       </c>
       <c r="D5" t="n">
-        <v>34.0016</v>
+        <v>33.3594</v>
       </c>
       <c r="E5" t="n">
-        <v>44.176</v>
+        <v>43.9898</v>
       </c>
     </row>
     <row r="6">
@@ -5819,16 +5819,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>18.8592</v>
+        <v>18.8504</v>
       </c>
       <c r="C6" t="n">
-        <v>26.466</v>
+        <v>26.1577</v>
       </c>
       <c r="D6" t="n">
-        <v>41.0468</v>
+        <v>40.8987</v>
       </c>
       <c r="E6" t="n">
-        <v>51.7705</v>
+        <v>51.9391</v>
       </c>
     </row>
     <row r="7">
@@ -5836,16 +5836,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>22.13</v>
+        <v>22.1159</v>
       </c>
       <c r="C7" t="n">
-        <v>31.2739</v>
+        <v>31.2554</v>
       </c>
       <c r="D7" t="n">
-        <v>47.6964</v>
+        <v>47.5665</v>
       </c>
       <c r="E7" t="n">
-        <v>61.6822</v>
+        <v>62.2046</v>
       </c>
     </row>
     <row r="8">
@@ -5853,16 +5853,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>20.0719</v>
+        <v>20.1212</v>
       </c>
       <c r="C8" t="n">
-        <v>29.8931</v>
+        <v>30.031</v>
       </c>
       <c r="D8" t="n">
-        <v>43.2772</v>
+        <v>42.903</v>
       </c>
       <c r="E8" t="n">
-        <v>53.505</v>
+        <v>54.2521</v>
       </c>
     </row>
     <row r="9">
@@ -5870,16 +5870,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>20.5752</v>
+        <v>20.4804</v>
       </c>
       <c r="C9" t="n">
-        <v>30.0814</v>
+        <v>30.035</v>
       </c>
       <c r="D9" t="n">
-        <v>44.2554</v>
+        <v>42.3329</v>
       </c>
       <c r="E9" t="n">
-        <v>54.4082</v>
+        <v>55.1027</v>
       </c>
     </row>
     <row r="10">
@@ -5887,16 +5887,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>20.8777</v>
+        <v>20.975</v>
       </c>
       <c r="C10" t="n">
-        <v>29.5849</v>
+        <v>29.6007</v>
       </c>
       <c r="D10" t="n">
-        <v>44.0511</v>
+        <v>43.5122</v>
       </c>
       <c r="E10" t="n">
-        <v>56.2158</v>
+        <v>57.745</v>
       </c>
     </row>
     <row r="11">
@@ -5904,16 +5904,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>21.1799</v>
+        <v>21.1501</v>
       </c>
       <c r="C11" t="n">
-        <v>29.8954</v>
+        <v>30.0388</v>
       </c>
       <c r="D11" t="n">
-        <v>44.1543</v>
+        <v>43.4553</v>
       </c>
       <c r="E11" t="n">
-        <v>56.7283</v>
+        <v>56.9188</v>
       </c>
     </row>
     <row r="12">
@@ -5921,16 +5921,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>20.9076</v>
+        <v>20.8016</v>
       </c>
       <c r="C12" t="n">
-        <v>30.5573</v>
+        <v>29.9443</v>
       </c>
       <c r="D12" t="n">
-        <v>44.7416</v>
+        <v>44.9833</v>
       </c>
       <c r="E12" t="n">
-        <v>57.1378</v>
+        <v>57.6235</v>
       </c>
     </row>
     <row r="13">
@@ -5938,16 +5938,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>21.0472</v>
+        <v>21.2358</v>
       </c>
       <c r="C13" t="n">
-        <v>30.1248</v>
+        <v>30.25</v>
       </c>
       <c r="D13" t="n">
-        <v>44.9443</v>
+        <v>44.8935</v>
       </c>
       <c r="E13" t="n">
-        <v>58.3357</v>
+        <v>58.7487</v>
       </c>
     </row>
     <row r="14">
@@ -5955,16 +5955,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>21.216</v>
+        <v>21.0949</v>
       </c>
       <c r="C14" t="n">
-        <v>30.5865</v>
+        <v>30.3137</v>
       </c>
       <c r="D14" t="n">
-        <v>44.7409</v>
+        <v>45.4962</v>
       </c>
       <c r="E14" t="n">
-        <v>57.9402</v>
+        <v>58.9538</v>
       </c>
     </row>
     <row r="15">
@@ -5972,16 +5972,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>20.9835</v>
+        <v>21.0096</v>
       </c>
       <c r="C15" t="n">
-        <v>30.2997</v>
+        <v>30.3785</v>
       </c>
       <c r="D15" t="n">
-        <v>45.6464</v>
+        <v>46.0111</v>
       </c>
       <c r="E15" t="n">
-        <v>58.274</v>
+        <v>58.3093</v>
       </c>
     </row>
     <row r="16">
@@ -5989,16 +5989,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>21.0788</v>
+        <v>20.8667</v>
       </c>
       <c r="C16" t="n">
-        <v>30.3901</v>
+        <v>30.1408</v>
       </c>
       <c r="D16" t="n">
-        <v>45.9631</v>
+        <v>45.006</v>
       </c>
       <c r="E16" t="n">
-        <v>57.8436</v>
+        <v>59.6751</v>
       </c>
     </row>
     <row r="17">
@@ -6006,16 +6006,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>21.1188</v>
+        <v>21.3396</v>
       </c>
       <c r="C17" t="n">
-        <v>30.3811</v>
+        <v>30.2038</v>
       </c>
       <c r="D17" t="n">
-        <v>46.2663</v>
+        <v>46.403</v>
       </c>
       <c r="E17" t="n">
-        <v>58.0998</v>
+        <v>59.4081</v>
       </c>
     </row>
   </sheetData>
@@ -6068,16 +6068,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>5.02092</v>
+        <v>5.02975</v>
       </c>
       <c r="C2" t="n">
-        <v>9.03407</v>
+        <v>9.05729</v>
       </c>
       <c r="D2" t="n">
-        <v>10.8869</v>
+        <v>10.8874</v>
       </c>
       <c r="E2" t="n">
-        <v>14.0951</v>
+        <v>14.0574</v>
       </c>
     </row>
     <row r="3">
@@ -6085,16 +6085,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.830310000000001</v>
+        <v>9.83338</v>
       </c>
       <c r="C3" t="n">
-        <v>15.7986</v>
+        <v>15.7303</v>
       </c>
       <c r="D3" t="n">
-        <v>20.7267</v>
+        <v>20.6785</v>
       </c>
       <c r="E3" t="n">
-        <v>26.3748</v>
+        <v>26.5418</v>
       </c>
     </row>
     <row r="4">
@@ -6102,16 +6102,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>14.2847</v>
+        <v>14.2941</v>
       </c>
       <c r="C4" t="n">
-        <v>22.3133</v>
+        <v>22.3443</v>
       </c>
       <c r="D4" t="n">
-        <v>29.8544</v>
+        <v>29.9047</v>
       </c>
       <c r="E4" t="n">
-        <v>38.5853</v>
+        <v>38.4466</v>
       </c>
     </row>
     <row r="5">
@@ -6119,16 +6119,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>16.0113</v>
+        <v>16.0833</v>
       </c>
       <c r="C5" t="n">
-        <v>22.9125</v>
+        <v>23.1057</v>
       </c>
       <c r="D5" t="n">
-        <v>33.3208</v>
+        <v>33.2123</v>
       </c>
       <c r="E5" t="n">
-        <v>43.9037</v>
+        <v>43.3211</v>
       </c>
     </row>
     <row r="6">
@@ -6136,16 +6136,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>19.3481</v>
+        <v>19.2962</v>
       </c>
       <c r="C6" t="n">
-        <v>26.4176</v>
+        <v>26.437</v>
       </c>
       <c r="D6" t="n">
-        <v>40.0761</v>
+        <v>39.813</v>
       </c>
       <c r="E6" t="n">
-        <v>51.7755</v>
+        <v>51.8795</v>
       </c>
     </row>
     <row r="7">
@@ -6153,16 +6153,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>22.7937</v>
+        <v>22.7772</v>
       </c>
       <c r="C7" t="n">
-        <v>31.3503</v>
+        <v>31.3266</v>
       </c>
       <c r="D7" t="n">
-        <v>47.181</v>
+        <v>47.1203</v>
       </c>
       <c r="E7" t="n">
-        <v>60.4486</v>
+        <v>60.156</v>
       </c>
     </row>
     <row r="8">
@@ -6170,16 +6170,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>20.5919</v>
+        <v>20.4456</v>
       </c>
       <c r="C8" t="n">
-        <v>29.9994</v>
+        <v>29.9611</v>
       </c>
       <c r="D8" t="n">
-        <v>42.4594</v>
+        <v>42.1228</v>
       </c>
       <c r="E8" t="n">
-        <v>53.1464</v>
+        <v>52.2626</v>
       </c>
     </row>
     <row r="9">
@@ -6187,16 +6187,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>20.7153</v>
+        <v>21.1515</v>
       </c>
       <c r="C9" t="n">
-        <v>30.0677</v>
+        <v>29.9027</v>
       </c>
       <c r="D9" t="n">
-        <v>44.5962</v>
+        <v>42.5477</v>
       </c>
       <c r="E9" t="n">
-        <v>53.0739</v>
+        <v>55.02</v>
       </c>
     </row>
     <row r="10">
@@ -6204,16 +6204,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>21.7205</v>
+        <v>21.0217</v>
       </c>
       <c r="C10" t="n">
-        <v>30.1584</v>
+        <v>29.5728</v>
       </c>
       <c r="D10" t="n">
-        <v>41.6979</v>
+        <v>42.7182</v>
       </c>
       <c r="E10" t="n">
-        <v>53.6588</v>
+        <v>56.7668</v>
       </c>
     </row>
     <row r="11">
@@ -6221,16 +6221,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>21.3316</v>
+        <v>21.6536</v>
       </c>
       <c r="C11" t="n">
-        <v>30.4359</v>
+        <v>30.3874</v>
       </c>
       <c r="D11" t="n">
-        <v>43.0803</v>
+        <v>42.3774</v>
       </c>
       <c r="E11" t="n">
-        <v>56.145</v>
+        <v>54.6555</v>
       </c>
     </row>
     <row r="12">
@@ -6238,16 +6238,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>21.5293</v>
+        <v>21.4442</v>
       </c>
       <c r="C12" t="n">
-        <v>30.0884</v>
+        <v>30.1641</v>
       </c>
       <c r="D12" t="n">
-        <v>44.1119</v>
+        <v>44.4471</v>
       </c>
       <c r="E12" t="n">
-        <v>56.2152</v>
+        <v>56.2133</v>
       </c>
     </row>
     <row r="13">
@@ -6255,16 +6255,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>21.6512</v>
+        <v>21.8017</v>
       </c>
       <c r="C13" t="n">
-        <v>30.3771</v>
+        <v>30.1966</v>
       </c>
       <c r="D13" t="n">
-        <v>44.8812</v>
+        <v>45.0421</v>
       </c>
       <c r="E13" t="n">
-        <v>57.3348</v>
+        <v>57.6121</v>
       </c>
     </row>
     <row r="14">
@@ -6272,16 +6272,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>21.5976</v>
+        <v>21.5191</v>
       </c>
       <c r="C14" t="n">
-        <v>30.4867</v>
+        <v>30.0527</v>
       </c>
       <c r="D14" t="n">
-        <v>44.5118</v>
+        <v>45.4557</v>
       </c>
       <c r="E14" t="n">
-        <v>57.2626</v>
+        <v>56.7791</v>
       </c>
     </row>
     <row r="15">
@@ -6289,16 +6289,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>21.7644</v>
+        <v>21.726</v>
       </c>
       <c r="C15" t="n">
-        <v>30.1643</v>
+        <v>30.5416</v>
       </c>
       <c r="D15" t="n">
-        <v>45.4931</v>
+        <v>45.9213</v>
       </c>
       <c r="E15" t="n">
-        <v>58.6916</v>
+        <v>57.3305</v>
       </c>
     </row>
     <row r="16">
@@ -6306,16 +6306,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>21.761</v>
+        <v>21.9526</v>
       </c>
       <c r="C16" t="n">
-        <v>30.4016</v>
+        <v>30.446</v>
       </c>
       <c r="D16" t="n">
-        <v>46.1615</v>
+        <v>45.2699</v>
       </c>
       <c r="E16" t="n">
-        <v>58.4145</v>
+        <v>56.9535</v>
       </c>
     </row>
     <row r="17">
@@ -6323,16 +6323,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>21.8501</v>
+        <v>22.0574</v>
       </c>
       <c r="C17" t="n">
-        <v>30.6869</v>
+        <v>30.6848</v>
       </c>
       <c r="D17" t="n">
-        <v>45.697</v>
+        <v>45.7259</v>
       </c>
       <c r="E17" t="n">
-        <v>58.4125</v>
+        <v>58.8952</v>
       </c>
     </row>
   </sheetData>
@@ -6385,16 +6385,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.74274</v>
+        <v>8.8817</v>
       </c>
       <c r="C2" t="n">
-        <v>10.9185</v>
+        <v>10.8319</v>
       </c>
       <c r="D2" t="n">
-        <v>13.1883</v>
+        <v>13.1917</v>
       </c>
       <c r="E2" t="n">
-        <v>15.2599</v>
+        <v>15.2415</v>
       </c>
     </row>
     <row r="3">
@@ -6402,16 +6402,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>16.2342</v>
+        <v>16.4082</v>
       </c>
       <c r="C3" t="n">
-        <v>18.2237</v>
+        <v>17.9941</v>
       </c>
       <c r="D3" t="n">
-        <v>24.1612</v>
+        <v>24.3412</v>
       </c>
       <c r="E3" t="n">
-        <v>28.4874</v>
+        <v>28.6664</v>
       </c>
     </row>
     <row r="4">
@@ -6419,16 +6419,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>23.4241</v>
+        <v>23.8604</v>
       </c>
       <c r="C4" t="n">
-        <v>25.0892</v>
+        <v>25.4563</v>
       </c>
       <c r="D4" t="n">
-        <v>34.1971</v>
+        <v>34.842</v>
       </c>
       <c r="E4" t="n">
-        <v>40.3806</v>
+        <v>41.3036</v>
       </c>
     </row>
     <row r="5">
@@ -6436,16 +6436,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>23.2453</v>
+        <v>22.8069</v>
       </c>
       <c r="C5" t="n">
-        <v>25.2994</v>
+        <v>25.0498</v>
       </c>
       <c r="D5" t="n">
-        <v>36.2227</v>
+        <v>36.598</v>
       </c>
       <c r="E5" t="n">
-        <v>46.6389</v>
+        <v>46.7085</v>
       </c>
     </row>
     <row r="6">
@@ -6453,16 +6453,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>26.3611</v>
+        <v>26.6076</v>
       </c>
       <c r="C6" t="n">
-        <v>28.618</v>
+        <v>28.5537</v>
       </c>
       <c r="D6" t="n">
-        <v>42.9267</v>
+        <v>42.8594</v>
       </c>
       <c r="E6" t="n">
-        <v>56.0699</v>
+        <v>55.5829</v>
       </c>
     </row>
     <row r="7">
@@ -6470,16 +6470,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>31.8376</v>
+        <v>31.9049</v>
       </c>
       <c r="C7" t="n">
-        <v>33.261</v>
+        <v>33.1173</v>
       </c>
       <c r="D7" t="n">
-        <v>50.3301</v>
+        <v>50.3664</v>
       </c>
       <c r="E7" t="n">
-        <v>63.6572</v>
+        <v>63.878</v>
       </c>
     </row>
     <row r="8">
@@ -6487,16 +6487,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>29.4677</v>
+        <v>29.2116</v>
       </c>
       <c r="C8" t="n">
-        <v>31.7403</v>
+        <v>31.7511</v>
       </c>
       <c r="D8" t="n">
-        <v>47.3814</v>
+        <v>46.4695</v>
       </c>
       <c r="E8" t="n">
-        <v>59.8779</v>
+        <v>60.0393</v>
       </c>
     </row>
     <row r="9">
@@ -6504,16 +6504,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>29.9728</v>
+        <v>30.1863</v>
       </c>
       <c r="C9" t="n">
-        <v>31.7979</v>
+        <v>31.7475</v>
       </c>
       <c r="D9" t="n">
-        <v>47.9075</v>
+        <v>46.033</v>
       </c>
       <c r="E9" t="n">
-        <v>60.6245</v>
+        <v>60.1093</v>
       </c>
     </row>
     <row r="10">
@@ -6521,16 +6521,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>30.4766</v>
+        <v>30.2703</v>
       </c>
       <c r="C10" t="n">
-        <v>32.244</v>
+        <v>31.9063</v>
       </c>
       <c r="D10" t="n">
-        <v>46.443</v>
+        <v>45.7586</v>
       </c>
       <c r="E10" t="n">
-        <v>60.5673</v>
+        <v>60.3863</v>
       </c>
     </row>
     <row r="11">
@@ -6538,16 +6538,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>30.7077</v>
+        <v>30.8113</v>
       </c>
       <c r="C11" t="n">
-        <v>32.4256</v>
+        <v>32.4416</v>
       </c>
       <c r="D11" t="n">
-        <v>48.106</v>
+        <v>46.8734</v>
       </c>
       <c r="E11" t="n">
-        <v>61.6587</v>
+        <v>61.5309</v>
       </c>
     </row>
     <row r="12">
@@ -6555,16 +6555,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>29.974</v>
+        <v>30.0234</v>
       </c>
       <c r="C12" t="n">
-        <v>32.3707</v>
+        <v>32.3587</v>
       </c>
       <c r="D12" t="n">
-        <v>47.6102</v>
+        <v>47.3085</v>
       </c>
       <c r="E12" t="n">
-        <v>61.1767</v>
+        <v>60.7269</v>
       </c>
     </row>
     <row r="13">
@@ -6572,16 +6572,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>30.4162</v>
+        <v>30.6335</v>
       </c>
       <c r="C13" t="n">
-        <v>32.4713</v>
+        <v>32.3083</v>
       </c>
       <c r="D13" t="n">
-        <v>48.6076</v>
+        <v>48.0152</v>
       </c>
       <c r="E13" t="n">
-        <v>61.4313</v>
+        <v>61.1338</v>
       </c>
     </row>
     <row r="14">
@@ -6589,16 +6589,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>30.5244</v>
+        <v>30.5084</v>
       </c>
       <c r="C14" t="n">
-        <v>32.2854</v>
+        <v>32.3758</v>
       </c>
       <c r="D14" t="n">
-        <v>48.8023</v>
+        <v>48.0119</v>
       </c>
       <c r="E14" t="n">
-        <v>61.7159</v>
+        <v>62.4089</v>
       </c>
     </row>
     <row r="15">
@@ -6606,16 +6606,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>30.8327</v>
+        <v>30.6369</v>
       </c>
       <c r="C15" t="n">
-        <v>32.6905</v>
+        <v>32.3767</v>
       </c>
       <c r="D15" t="n">
-        <v>48.913</v>
+        <v>48.3284</v>
       </c>
       <c r="E15" t="n">
-        <v>61.2748</v>
+        <v>62.1939</v>
       </c>
     </row>
     <row r="16">
@@ -6623,16 +6623,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>30.5979</v>
+        <v>30.6197</v>
       </c>
       <c r="C16" t="n">
-        <v>31.995</v>
+        <v>32.0801</v>
       </c>
       <c r="D16" t="n">
-        <v>47.7674</v>
+        <v>48.6381</v>
       </c>
       <c r="E16" t="n">
-        <v>61.6958</v>
+        <v>62.0163</v>
       </c>
     </row>
     <row r="17">
@@ -6640,16 +6640,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>30.6043</v>
+        <v>30.836</v>
       </c>
       <c r="C17" t="n">
-        <v>32.2266</v>
+        <v>32.3119</v>
       </c>
       <c r="D17" t="n">
-        <v>48.9196</v>
+        <v>48.1648</v>
       </c>
       <c r="E17" t="n">
-        <v>61.7529</v>
+        <v>61.5972</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Parallel workload.xlsx
+++ b/vs-x86/Parallel workload.xlsx
@@ -4800,16 +4800,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>9.27434</v>
+        <v>9.313969999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>10.7105</v>
+        <v>10.7045</v>
       </c>
       <c r="D2" t="n">
-        <v>12.975</v>
+        <v>13.0522</v>
       </c>
       <c r="E2" t="n">
-        <v>14.6394</v>
+        <v>14.8959</v>
       </c>
     </row>
     <row r="3">
@@ -4817,16 +4817,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>17.3389</v>
+        <v>17.6411</v>
       </c>
       <c r="C3" t="n">
-        <v>16.2501</v>
+        <v>16.3781</v>
       </c>
       <c r="D3" t="n">
-        <v>22.2253</v>
+        <v>21.9661</v>
       </c>
       <c r="E3" t="n">
-        <v>23.4277</v>
+        <v>23.7932</v>
       </c>
     </row>
     <row r="4">
@@ -4834,16 +4834,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>24.169</v>
+        <v>24.9284</v>
       </c>
       <c r="C4" t="n">
-        <v>21.3848</v>
+        <v>21.5234</v>
       </c>
       <c r="D4" t="n">
-        <v>26.8275</v>
+        <v>25.9763</v>
       </c>
       <c r="E4" t="n">
-        <v>32.8031</v>
+        <v>31.8704</v>
       </c>
     </row>
     <row r="5">
@@ -4851,16 +4851,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>19.2338</v>
+        <v>21.1799</v>
       </c>
       <c r="C5" t="n">
-        <v>23.8137</v>
+        <v>23.867</v>
       </c>
       <c r="D5" t="n">
-        <v>31.5607</v>
+        <v>30.7537</v>
       </c>
       <c r="E5" t="n">
-        <v>33.4221</v>
+        <v>32.1095</v>
       </c>
     </row>
     <row r="6">
@@ -4868,16 +4868,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>22.4538</v>
+        <v>26.0485</v>
       </c>
       <c r="C6" t="n">
-        <v>27.6753</v>
+        <v>27.6887</v>
       </c>
       <c r="D6" t="n">
-        <v>31.8575</v>
+        <v>31.8593</v>
       </c>
       <c r="E6" t="n">
-        <v>39.5806</v>
+        <v>39.0275</v>
       </c>
     </row>
     <row r="7">
@@ -4885,16 +4885,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>26.3304</v>
+        <v>31.9562</v>
       </c>
       <c r="C7" t="n">
-        <v>32.4624</v>
+        <v>32.5971</v>
       </c>
       <c r="D7" t="n">
-        <v>37.8806</v>
+        <v>37.1641</v>
       </c>
       <c r="E7" t="n">
-        <v>39.8982</v>
+        <v>39.5304</v>
       </c>
     </row>
     <row r="8">
@@ -4902,16 +4902,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>20.1694</v>
+        <v>22.8384</v>
       </c>
       <c r="C8" t="n">
-        <v>29.6303</v>
+        <v>29.8394</v>
       </c>
       <c r="D8" t="n">
-        <v>37.0235</v>
+        <v>35.6492</v>
       </c>
       <c r="E8" t="n">
-        <v>41.6823</v>
+        <v>39.3232</v>
       </c>
     </row>
     <row r="9">
@@ -4919,16 +4919,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>22.2702</v>
+        <v>25.6039</v>
       </c>
       <c r="C9" t="n">
-        <v>29.6825</v>
+        <v>30.2115</v>
       </c>
       <c r="D9" t="n">
-        <v>39.6196</v>
+        <v>37.913</v>
       </c>
       <c r="E9" t="n">
-        <v>42.8572</v>
+        <v>47.1051</v>
       </c>
     </row>
     <row r="10">
@@ -4936,16 +4936,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>24.2277</v>
+        <v>28.7384</v>
       </c>
       <c r="C10" t="n">
-        <v>30.3049</v>
+        <v>30.2542</v>
       </c>
       <c r="D10" t="n">
-        <v>40.9461</v>
+        <v>41.539</v>
       </c>
       <c r="E10" t="n">
-        <v>47.6018</v>
+        <v>48.9771</v>
       </c>
     </row>
     <row r="11">
@@ -4953,16 +4953,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>22.5344</v>
+        <v>25.9331</v>
       </c>
       <c r="C11" t="n">
-        <v>30.4238</v>
+        <v>30.181</v>
       </c>
       <c r="D11" t="n">
-        <v>43.2436</v>
+        <v>42.2601</v>
       </c>
       <c r="E11" t="n">
-        <v>49.1017</v>
+        <v>50.2678</v>
       </c>
     </row>
     <row r="12">
@@ -4970,16 +4970,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>24.3237</v>
+        <v>28.8054</v>
       </c>
       <c r="C12" t="n">
-        <v>30.7659</v>
+        <v>30.8752</v>
       </c>
       <c r="D12" t="n">
-        <v>44.4493</v>
+        <v>43.8655</v>
       </c>
       <c r="E12" t="n">
-        <v>52.4188</v>
+        <v>51.6184</v>
       </c>
     </row>
     <row r="13">
@@ -4987,16 +4987,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>26.3159</v>
+        <v>32.0016</v>
       </c>
       <c r="C13" t="n">
-        <v>31.084</v>
+        <v>31.0817</v>
       </c>
       <c r="D13" t="n">
-        <v>44.2043</v>
+        <v>44.095</v>
       </c>
       <c r="E13" t="n">
-        <v>52.0846</v>
+        <v>52.5657</v>
       </c>
     </row>
     <row r="14">
@@ -5004,16 +5004,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>22.3172</v>
+        <v>25.9822</v>
       </c>
       <c r="C14" t="n">
-        <v>30.8551</v>
+        <v>30.5811</v>
       </c>
       <c r="D14" t="n">
-        <v>42.3191</v>
+        <v>45.4027</v>
       </c>
       <c r="E14" t="n">
-        <v>56.4646</v>
+        <v>52.836</v>
       </c>
     </row>
     <row r="15">
@@ -5021,16 +5021,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>23.6045</v>
+        <v>27.9161</v>
       </c>
       <c r="C15" t="n">
-        <v>30.6452</v>
+        <v>30.6824</v>
       </c>
       <c r="D15" t="n">
-        <v>45.3143</v>
+        <v>42.6542</v>
       </c>
       <c r="E15" t="n">
-        <v>52.8203</v>
+        <v>51.2506</v>
       </c>
     </row>
     <row r="16">
@@ -5038,16 +5038,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>24.5359</v>
+        <v>28.9354</v>
       </c>
       <c r="C16" t="n">
-        <v>30.5955</v>
+        <v>31.0651</v>
       </c>
       <c r="D16" t="n">
-        <v>45.3079</v>
+        <v>45.1802</v>
       </c>
       <c r="E16" t="n">
-        <v>53.9116</v>
+        <v>53.0864</v>
       </c>
     </row>
     <row r="17">
@@ -5055,16 +5055,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>23.6553</v>
+        <v>27.7336</v>
       </c>
       <c r="C17" t="n">
-        <v>30.758</v>
+        <v>31.2477</v>
       </c>
       <c r="D17" t="n">
-        <v>43.1855</v>
+        <v>45.2622</v>
       </c>
       <c r="E17" t="n">
-        <v>53.0942</v>
+        <v>54.408</v>
       </c>
     </row>
   </sheetData>
@@ -5117,16 +5117,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>9.292859999999999</v>
+        <v>9.28814</v>
       </c>
       <c r="C2" t="n">
-        <v>10.7279</v>
+        <v>10.7203</v>
       </c>
       <c r="D2" t="n">
-        <v>12.9039</v>
+        <v>12.9409</v>
       </c>
       <c r="E2" t="n">
-        <v>14.8068</v>
+        <v>14.7977</v>
       </c>
     </row>
     <row r="3">
@@ -5134,16 +5134,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>17.1033</v>
+        <v>17.5244</v>
       </c>
       <c r="C3" t="n">
-        <v>16.7298</v>
+        <v>16.6935</v>
       </c>
       <c r="D3" t="n">
-        <v>20.7859</v>
+        <v>21.0229</v>
       </c>
       <c r="E3" t="n">
-        <v>24.1726</v>
+        <v>23.9054</v>
       </c>
     </row>
     <row r="4">
@@ -5151,16 +5151,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>23.7176</v>
+        <v>25.0434</v>
       </c>
       <c r="C4" t="n">
-        <v>21.9129</v>
+        <v>22.6004</v>
       </c>
       <c r="D4" t="n">
-        <v>27.282</v>
+        <v>26.5503</v>
       </c>
       <c r="E4" t="n">
-        <v>30.4619</v>
+        <v>29.5693</v>
       </c>
     </row>
     <row r="5">
@@ -5168,16 +5168,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>19.0226</v>
+        <v>21.3112</v>
       </c>
       <c r="C5" t="n">
-        <v>23.6985</v>
+        <v>23.4849</v>
       </c>
       <c r="D5" t="n">
-        <v>26.998</v>
+        <v>28.058</v>
       </c>
       <c r="E5" t="n">
-        <v>35.5789</v>
+        <v>35.236</v>
       </c>
     </row>
     <row r="6">
@@ -5185,16 +5185,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>22.892</v>
+        <v>25.9227</v>
       </c>
       <c r="C6" t="n">
-        <v>27.5971</v>
+        <v>27.5373</v>
       </c>
       <c r="D6" t="n">
-        <v>34.8208</v>
+        <v>34.9039</v>
       </c>
       <c r="E6" t="n">
-        <v>37.7142</v>
+        <v>39.5105</v>
       </c>
     </row>
     <row r="7">
@@ -5202,16 +5202,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>26.9228</v>
+        <v>32.0543</v>
       </c>
       <c r="C7" t="n">
-        <v>32.3054</v>
+        <v>32.6072</v>
       </c>
       <c r="D7" t="n">
-        <v>36.8492</v>
+        <v>35.1664</v>
       </c>
       <c r="E7" t="n">
-        <v>44.5535</v>
+        <v>45.1172</v>
       </c>
     </row>
     <row r="8">
@@ -5219,16 +5219,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>20.1185</v>
+        <v>22.6108</v>
       </c>
       <c r="C8" t="n">
-        <v>29.1406</v>
+        <v>29.8132</v>
       </c>
       <c r="D8" t="n">
-        <v>34.773</v>
+        <v>33.7432</v>
       </c>
       <c r="E8" t="n">
-        <v>43.6126</v>
+        <v>42.9212</v>
       </c>
     </row>
     <row r="9">
@@ -5236,16 +5236,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>22.5648</v>
+        <v>25.7823</v>
       </c>
       <c r="C9" t="n">
-        <v>29.5007</v>
+        <v>29.7057</v>
       </c>
       <c r="D9" t="n">
-        <v>35.1455</v>
+        <v>34.9014</v>
       </c>
       <c r="E9" t="n">
-        <v>43.7419</v>
+        <v>45.3302</v>
       </c>
     </row>
     <row r="10">
@@ -5253,16 +5253,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>24.2856</v>
+        <v>28.6822</v>
       </c>
       <c r="C10" t="n">
-        <v>29.6313</v>
+        <v>29.7567</v>
       </c>
       <c r="D10" t="n">
-        <v>37.783</v>
+        <v>38.1873</v>
       </c>
       <c r="E10" t="n">
-        <v>48.5886</v>
+        <v>46.0386</v>
       </c>
     </row>
     <row r="11">
@@ -5270,16 +5270,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>22.8336</v>
+        <v>26.3409</v>
       </c>
       <c r="C11" t="n">
-        <v>29.9871</v>
+        <v>30.088</v>
       </c>
       <c r="D11" t="n">
-        <v>40.1183</v>
+        <v>39.4891</v>
       </c>
       <c r="E11" t="n">
-        <v>52.585</v>
+        <v>51.9913</v>
       </c>
     </row>
     <row r="12">
@@ -5287,16 +5287,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>24.8387</v>
+        <v>28.7631</v>
       </c>
       <c r="C12" t="n">
-        <v>30.2641</v>
+        <v>30.4311</v>
       </c>
       <c r="D12" t="n">
-        <v>40.6225</v>
+        <v>40.2127</v>
       </c>
       <c r="E12" t="n">
-        <v>52.8257</v>
+        <v>52.3863</v>
       </c>
     </row>
     <row r="13">
@@ -5304,16 +5304,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>26.9349</v>
+        <v>32.0754</v>
       </c>
       <c r="C13" t="n">
-        <v>30.8511</v>
+        <v>31.4534</v>
       </c>
       <c r="D13" t="n">
-        <v>41.617</v>
+        <v>41.7154</v>
       </c>
       <c r="E13" t="n">
-        <v>51.0441</v>
+        <v>52.7595</v>
       </c>
     </row>
     <row r="14">
@@ -5321,16 +5321,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>22.1642</v>
+        <v>25.636</v>
       </c>
       <c r="C14" t="n">
-        <v>30.9736</v>
+        <v>31.3971</v>
       </c>
       <c r="D14" t="n">
-        <v>42.622</v>
+        <v>44.0594</v>
       </c>
       <c r="E14" t="n">
-        <v>52.0437</v>
+        <v>52.7384</v>
       </c>
     </row>
     <row r="15">
@@ -5338,16 +5338,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>24.1939</v>
+        <v>27.5467</v>
       </c>
       <c r="C15" t="n">
-        <v>30.8834</v>
+        <v>31.3172</v>
       </c>
       <c r="D15" t="n">
-        <v>45.2175</v>
+        <v>44.7627</v>
       </c>
       <c r="E15" t="n">
-        <v>53.1101</v>
+        <v>54.3059</v>
       </c>
     </row>
     <row r="16">
@@ -5355,16 +5355,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>25.36</v>
+        <v>29.5419</v>
       </c>
       <c r="C16" t="n">
-        <v>30.9982</v>
+        <v>31.2045</v>
       </c>
       <c r="D16" t="n">
-        <v>44.082</v>
+        <v>44.3866</v>
       </c>
       <c r="E16" t="n">
-        <v>53.5685</v>
+        <v>52.8613</v>
       </c>
     </row>
     <row r="17">
@@ -5372,16 +5372,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>24.2879</v>
+        <v>27.7964</v>
       </c>
       <c r="C17" t="n">
-        <v>31.4569</v>
+        <v>31.5285</v>
       </c>
       <c r="D17" t="n">
-        <v>45.6674</v>
+        <v>45.3694</v>
       </c>
       <c r="E17" t="n">
-        <v>53.2886</v>
+        <v>53.534</v>
       </c>
     </row>
   </sheetData>
@@ -5434,16 +5434,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>10.8366</v>
+        <v>10.8423</v>
       </c>
       <c r="C2" t="n">
-        <v>11.5557</v>
+        <v>11.6134</v>
       </c>
       <c r="D2" t="n">
-        <v>13.7644</v>
+        <v>13.7399</v>
       </c>
       <c r="E2" t="n">
-        <v>15.3404</v>
+        <v>15.3547</v>
       </c>
     </row>
     <row r="3">
@@ -5451,16 +5451,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>19.3217</v>
+        <v>19.5026</v>
       </c>
       <c r="C3" t="n">
-        <v>19.4921</v>
+        <v>19.2052</v>
       </c>
       <c r="D3" t="n">
-        <v>22.676</v>
+        <v>22.6054</v>
       </c>
       <c r="E3" t="n">
-        <v>25.7471</v>
+        <v>25.5701</v>
       </c>
     </row>
     <row r="4">
@@ -5468,16 +5468,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>26.8413</v>
+        <v>27.2514</v>
       </c>
       <c r="C4" t="n">
-        <v>25.3133</v>
+        <v>25.1004</v>
       </c>
       <c r="D4" t="n">
-        <v>31.2393</v>
+        <v>29.9234</v>
       </c>
       <c r="E4" t="n">
-        <v>31.9056</v>
+        <v>31.4293</v>
       </c>
     </row>
     <row r="5">
@@ -5485,16 +5485,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>23.4356</v>
+        <v>24.053</v>
       </c>
       <c r="C5" t="n">
-        <v>24.6905</v>
+        <v>24.8062</v>
       </c>
       <c r="D5" t="n">
-        <v>31.1095</v>
+        <v>31.6518</v>
       </c>
       <c r="E5" t="n">
-        <v>35.0081</v>
+        <v>35.3194</v>
       </c>
     </row>
     <row r="6">
@@ -5502,16 +5502,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>27.8495</v>
+        <v>29.3049</v>
       </c>
       <c r="C6" t="n">
-        <v>28.653</v>
+        <v>28.6498</v>
       </c>
       <c r="D6" t="n">
-        <v>34.9914</v>
+        <v>34.7693</v>
       </c>
       <c r="E6" t="n">
-        <v>36.9914</v>
+        <v>39.2263</v>
       </c>
     </row>
     <row r="7">
@@ -5519,16 +5519,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>32.9562</v>
+        <v>35.1533</v>
       </c>
       <c r="C7" t="n">
-        <v>33.3775</v>
+        <v>33.7268</v>
       </c>
       <c r="D7" t="n">
-        <v>35.0833</v>
+        <v>35.1814</v>
       </c>
       <c r="E7" t="n">
-        <v>45.5514</v>
+        <v>45.2583</v>
       </c>
     </row>
     <row r="8">
@@ -5536,16 +5536,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>29.5274</v>
+        <v>30.9563</v>
       </c>
       <c r="C8" t="n">
-        <v>29.6602</v>
+        <v>29.9465</v>
       </c>
       <c r="D8" t="n">
-        <v>34.9479</v>
+        <v>34.6614</v>
       </c>
       <c r="E8" t="n">
-        <v>46.6214</v>
+        <v>45.4389</v>
       </c>
     </row>
     <row r="9">
@@ -5553,16 +5553,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>29.055</v>
+        <v>31.5022</v>
       </c>
       <c r="C9" t="n">
-        <v>30.1256</v>
+        <v>29.4795</v>
       </c>
       <c r="D9" t="n">
-        <v>39.3519</v>
+        <v>39.6554</v>
       </c>
       <c r="E9" t="n">
-        <v>48.019</v>
+        <v>47.8143</v>
       </c>
     </row>
     <row r="10">
@@ -5570,16 +5570,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>30.003</v>
+        <v>32.4335</v>
       </c>
       <c r="C10" t="n">
-        <v>30.5596</v>
+        <v>30.3768</v>
       </c>
       <c r="D10" t="n">
-        <v>42.9938</v>
+        <v>41.9017</v>
       </c>
       <c r="E10" t="n">
-        <v>50.0773</v>
+        <v>47.7404</v>
       </c>
     </row>
     <row r="11">
@@ -5587,16 +5587,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>30.4455</v>
+        <v>32.3243</v>
       </c>
       <c r="C11" t="n">
-        <v>30.5497</v>
+        <v>30.4748</v>
       </c>
       <c r="D11" t="n">
-        <v>43.8964</v>
+        <v>43.0941</v>
       </c>
       <c r="E11" t="n">
-        <v>52.8691</v>
+        <v>52.6481</v>
       </c>
     </row>
     <row r="12">
@@ -5604,16 +5604,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>30.6411</v>
+        <v>32.9952</v>
       </c>
       <c r="C12" t="n">
-        <v>30.6474</v>
+        <v>31.241</v>
       </c>
       <c r="D12" t="n">
-        <v>43.3</v>
+        <v>44.2566</v>
       </c>
       <c r="E12" t="n">
-        <v>51.5199</v>
+        <v>53.3289</v>
       </c>
     </row>
     <row r="13">
@@ -5621,16 +5621,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>31.0973</v>
+        <v>32.3996</v>
       </c>
       <c r="C13" t="n">
-        <v>31.0937</v>
+        <v>31.2481</v>
       </c>
       <c r="D13" t="n">
-        <v>44.6441</v>
+        <v>44.178</v>
       </c>
       <c r="E13" t="n">
-        <v>54.4482</v>
+        <v>53.1002</v>
       </c>
     </row>
     <row r="14">
@@ -5638,16 +5638,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>30.7981</v>
+        <v>32.9217</v>
       </c>
       <c r="C14" t="n">
-        <v>30.9277</v>
+        <v>31.5929</v>
       </c>
       <c r="D14" t="n">
-        <v>44.8685</v>
+        <v>44.9353</v>
       </c>
       <c r="E14" t="n">
-        <v>52.5756</v>
+        <v>54.2695</v>
       </c>
     </row>
     <row r="15">
@@ -5655,16 +5655,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>30.6801</v>
+        <v>32.7786</v>
       </c>
       <c r="C15" t="n">
-        <v>31.3972</v>
+        <v>31.63</v>
       </c>
       <c r="D15" t="n">
-        <v>45.2652</v>
+        <v>44.4837</v>
       </c>
       <c r="E15" t="n">
-        <v>52.2329</v>
+        <v>52.0822</v>
       </c>
     </row>
     <row r="16">
@@ -5672,16 +5672,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>31.1298</v>
+        <v>33.2378</v>
       </c>
       <c r="C16" t="n">
-        <v>31.4943</v>
+        <v>31.6477</v>
       </c>
       <c r="D16" t="n">
-        <v>44.662</v>
+        <v>45.5734</v>
       </c>
       <c r="E16" t="n">
-        <v>52.3222</v>
+        <v>52.4162</v>
       </c>
     </row>
     <row r="17">
@@ -5689,16 +5689,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>30.9456</v>
+        <v>33.2326</v>
       </c>
       <c r="C17" t="n">
-        <v>31.4691</v>
+        <v>31.7433</v>
       </c>
       <c r="D17" t="n">
-        <v>43.2797</v>
+        <v>45.1009</v>
       </c>
       <c r="E17" t="n">
-        <v>53.1421</v>
+        <v>54.2023</v>
       </c>
     </row>
   </sheetData>
@@ -5751,16 +5751,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4.92393</v>
+        <v>4.92904</v>
       </c>
       <c r="C2" t="n">
-        <v>9.00825</v>
+        <v>9.051460000000001</v>
       </c>
       <c r="D2" t="n">
-        <v>10.7943</v>
+        <v>10.8273</v>
       </c>
       <c r="E2" t="n">
-        <v>13.9874</v>
+        <v>13.7446</v>
       </c>
     </row>
     <row r="3">
@@ -5768,16 +5768,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.63067</v>
+        <v>9.74446</v>
       </c>
       <c r="C3" t="n">
-        <v>15.7286</v>
+        <v>15.9257</v>
       </c>
       <c r="D3" t="n">
-        <v>20.6216</v>
+        <v>20.4647</v>
       </c>
       <c r="E3" t="n">
-        <v>26.6173</v>
+        <v>26.0639</v>
       </c>
     </row>
     <row r="4">
@@ -5785,16 +5785,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>13.9171</v>
+        <v>14.2905</v>
       </c>
       <c r="C4" t="n">
-        <v>22.0476</v>
+        <v>22.3036</v>
       </c>
       <c r="D4" t="n">
-        <v>29.6168</v>
+        <v>29.3693</v>
       </c>
       <c r="E4" t="n">
-        <v>37.6746</v>
+        <v>37.4493</v>
       </c>
     </row>
     <row r="5">
@@ -5802,16 +5802,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>15.763</v>
+        <v>16.9949</v>
       </c>
       <c r="C5" t="n">
-        <v>23.0997</v>
+        <v>23.1149</v>
       </c>
       <c r="D5" t="n">
-        <v>33.5926</v>
+        <v>33.1541</v>
       </c>
       <c r="E5" t="n">
-        <v>44.038</v>
+        <v>43.7366</v>
       </c>
     </row>
     <row r="6">
@@ -5819,16 +5819,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>18.874</v>
+        <v>21.1001</v>
       </c>
       <c r="C6" t="n">
-        <v>26.3957</v>
+        <v>26.4287</v>
       </c>
       <c r="D6" t="n">
-        <v>40.8375</v>
+        <v>40.0883</v>
       </c>
       <c r="E6" t="n">
-        <v>51.9737</v>
+        <v>51.6518</v>
       </c>
     </row>
     <row r="7">
@@ -5836,16 +5836,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>22.0648</v>
+        <v>25.6356</v>
       </c>
       <c r="C7" t="n">
-        <v>31.0488</v>
+        <v>31.172</v>
       </c>
       <c r="D7" t="n">
-        <v>47.5775</v>
+        <v>47.2641</v>
       </c>
       <c r="E7" t="n">
-        <v>61.8424</v>
+        <v>61.3067</v>
       </c>
     </row>
     <row r="8">
@@ -5853,16 +5853,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>20.0624</v>
+        <v>22.1688</v>
       </c>
       <c r="C8" t="n">
-        <v>29.8905</v>
+        <v>29.7432</v>
       </c>
       <c r="D8" t="n">
-        <v>43.1774</v>
+        <v>43.2405</v>
       </c>
       <c r="E8" t="n">
-        <v>55.1168</v>
+        <v>55.1882</v>
       </c>
     </row>
     <row r="9">
@@ -5870,16 +5870,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>20.2103</v>
+        <v>22.8209</v>
       </c>
       <c r="C9" t="n">
-        <v>29.7696</v>
+        <v>29.6769</v>
       </c>
       <c r="D9" t="n">
-        <v>42.3259</v>
+        <v>42.1825</v>
       </c>
       <c r="E9" t="n">
-        <v>54.7072</v>
+        <v>54.2341</v>
       </c>
     </row>
     <row r="10">
@@ -5887,16 +5887,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>20.8836</v>
+        <v>23.676</v>
       </c>
       <c r="C10" t="n">
-        <v>30.0584</v>
+        <v>29.9277</v>
       </c>
       <c r="D10" t="n">
-        <v>43.5031</v>
+        <v>42.5238</v>
       </c>
       <c r="E10" t="n">
-        <v>53.678</v>
+        <v>57.0488</v>
       </c>
     </row>
     <row r="11">
@@ -5904,16 +5904,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>21.4044</v>
+        <v>23.5521</v>
       </c>
       <c r="C11" t="n">
-        <v>29.8486</v>
+        <v>29.9053</v>
       </c>
       <c r="D11" t="n">
-        <v>44.0156</v>
+        <v>42.4879</v>
       </c>
       <c r="E11" t="n">
-        <v>56.2434</v>
+        <v>55.4374</v>
       </c>
     </row>
     <row r="12">
@@ -5921,16 +5921,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>20.7738</v>
+        <v>23.3853</v>
       </c>
       <c r="C12" t="n">
-        <v>30.3002</v>
+        <v>30.1856</v>
       </c>
       <c r="D12" t="n">
-        <v>43.508</v>
+        <v>43.8322</v>
       </c>
       <c r="E12" t="n">
-        <v>56.5524</v>
+        <v>56.4056</v>
       </c>
     </row>
     <row r="13">
@@ -5938,16 +5938,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>21.023</v>
+        <v>23.6014</v>
       </c>
       <c r="C13" t="n">
-        <v>30.0886</v>
+        <v>30.0951</v>
       </c>
       <c r="D13" t="n">
-        <v>44.2225</v>
+        <v>43.9789</v>
       </c>
       <c r="E13" t="n">
-        <v>58.4979</v>
+        <v>56.0285</v>
       </c>
     </row>
     <row r="14">
@@ -5955,16 +5955,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>20.8528</v>
+        <v>23.2601</v>
       </c>
       <c r="C14" t="n">
-        <v>30.3628</v>
+        <v>30.4081</v>
       </c>
       <c r="D14" t="n">
-        <v>44.7552</v>
+        <v>44.7985</v>
       </c>
       <c r="E14" t="n">
-        <v>57.9617</v>
+        <v>58.0303</v>
       </c>
     </row>
     <row r="15">
@@ -5972,16 +5972,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>20.9518</v>
+        <v>23.8888</v>
       </c>
       <c r="C15" t="n">
-        <v>30.0571</v>
+        <v>30.4938</v>
       </c>
       <c r="D15" t="n">
-        <v>45.6363</v>
+        <v>44.66</v>
       </c>
       <c r="E15" t="n">
-        <v>58.8115</v>
+        <v>58.8988</v>
       </c>
     </row>
     <row r="16">
@@ -5989,16 +5989,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>20.7685</v>
+        <v>23.9138</v>
       </c>
       <c r="C16" t="n">
-        <v>30.4232</v>
+        <v>30.3683</v>
       </c>
       <c r="D16" t="n">
-        <v>44.815</v>
+        <v>44.3457</v>
       </c>
       <c r="E16" t="n">
-        <v>59.1592</v>
+        <v>57.9233</v>
       </c>
     </row>
     <row r="17">
@@ -6006,16 +6006,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>21.2837</v>
+        <v>23.575</v>
       </c>
       <c r="C17" t="n">
-        <v>30.566</v>
+        <v>30.4505</v>
       </c>
       <c r="D17" t="n">
-        <v>45.0055</v>
+        <v>45.0407</v>
       </c>
       <c r="E17" t="n">
-        <v>58.7363</v>
+        <v>58.3762</v>
       </c>
     </row>
   </sheetData>
@@ -6068,16 +6068,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>5.02423</v>
+        <v>5.02905</v>
       </c>
       <c r="C2" t="n">
-        <v>9.100149999999999</v>
+        <v>9.044969999999999</v>
       </c>
       <c r="D2" t="n">
-        <v>10.8246</v>
+        <v>10.7423</v>
       </c>
       <c r="E2" t="n">
-        <v>14.0341</v>
+        <v>13.9021</v>
       </c>
     </row>
     <row r="3">
@@ -6085,16 +6085,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.850989999999999</v>
+        <v>9.893940000000001</v>
       </c>
       <c r="C3" t="n">
-        <v>15.7566</v>
+        <v>15.8849</v>
       </c>
       <c r="D3" t="n">
-        <v>20.6718</v>
+        <v>20.3772</v>
       </c>
       <c r="E3" t="n">
-        <v>26.6109</v>
+        <v>26.0514</v>
       </c>
     </row>
     <row r="4">
@@ -6102,16 +6102,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>14.2944</v>
+        <v>14.5942</v>
       </c>
       <c r="C4" t="n">
-        <v>21.9605</v>
+        <v>22.2983</v>
       </c>
       <c r="D4" t="n">
-        <v>29.2086</v>
+        <v>29.2482</v>
       </c>
       <c r="E4" t="n">
-        <v>38.0288</v>
+        <v>37.7696</v>
       </c>
     </row>
     <row r="5">
@@ -6119,16 +6119,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>16.2123</v>
+        <v>17.4957</v>
       </c>
       <c r="C5" t="n">
-        <v>22.9484</v>
+        <v>23.1672</v>
       </c>
       <c r="D5" t="n">
-        <v>33.4218</v>
+        <v>32.1945</v>
       </c>
       <c r="E5" t="n">
-        <v>43.4119</v>
+        <v>43.4059</v>
       </c>
     </row>
     <row r="6">
@@ -6136,16 +6136,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>19.4303</v>
+        <v>21.3466</v>
       </c>
       <c r="C6" t="n">
-        <v>26.6097</v>
+        <v>26.4157</v>
       </c>
       <c r="D6" t="n">
-        <v>39.8475</v>
+        <v>38.9489</v>
       </c>
       <c r="E6" t="n">
-        <v>51.8841</v>
+        <v>51.5499</v>
       </c>
     </row>
     <row r="7">
@@ -6153,16 +6153,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>22.7864</v>
+        <v>25.9665</v>
       </c>
       <c r="C7" t="n">
-        <v>31.0218</v>
+        <v>31.2571</v>
       </c>
       <c r="D7" t="n">
-        <v>47.2316</v>
+        <v>46.511</v>
       </c>
       <c r="E7" t="n">
-        <v>59.9067</v>
+        <v>59.3406</v>
       </c>
     </row>
     <row r="8">
@@ -6170,16 +6170,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>20.5561</v>
+        <v>22.5919</v>
       </c>
       <c r="C8" t="n">
-        <v>29.6944</v>
+        <v>29.7333</v>
       </c>
       <c r="D8" t="n">
-        <v>42.2069</v>
+        <v>43.064</v>
       </c>
       <c r="E8" t="n">
-        <v>53.2312</v>
+        <v>52.021</v>
       </c>
     </row>
     <row r="9">
@@ -6187,16 +6187,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>21.1259</v>
+        <v>23.4998</v>
       </c>
       <c r="C9" t="n">
-        <v>29.6362</v>
+        <v>29.4361</v>
       </c>
       <c r="D9" t="n">
-        <v>41.4057</v>
+        <v>42.1165</v>
       </c>
       <c r="E9" t="n">
-        <v>52.6972</v>
+        <v>55.6557</v>
       </c>
     </row>
     <row r="10">
@@ -6204,16 +6204,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>21.4457</v>
+        <v>23.5495</v>
       </c>
       <c r="C10" t="n">
-        <v>29.8164</v>
+        <v>30.1129</v>
       </c>
       <c r="D10" t="n">
-        <v>42.4424</v>
+        <v>41.1896</v>
       </c>
       <c r="E10" t="n">
-        <v>54.674</v>
+        <v>55.9298</v>
       </c>
     </row>
     <row r="11">
@@ -6221,16 +6221,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>21.9904</v>
+        <v>24.1912</v>
       </c>
       <c r="C11" t="n">
-        <v>30.1203</v>
+        <v>29.8693</v>
       </c>
       <c r="D11" t="n">
-        <v>42.4095</v>
+        <v>43.1124</v>
       </c>
       <c r="E11" t="n">
-        <v>57.0391</v>
+        <v>54.3778</v>
       </c>
     </row>
     <row r="12">
@@ -6238,16 +6238,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>21.4631</v>
+        <v>24.1896</v>
       </c>
       <c r="C12" t="n">
-        <v>29.8019</v>
+        <v>30.0018</v>
       </c>
       <c r="D12" t="n">
-        <v>44.118</v>
+        <v>42.7906</v>
       </c>
       <c r="E12" t="n">
-        <v>57.123</v>
+        <v>53.885</v>
       </c>
     </row>
     <row r="13">
@@ -6255,16 +6255,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>21.5144</v>
+        <v>23.9484</v>
       </c>
       <c r="C13" t="n">
-        <v>30.3508</v>
+        <v>30.0523</v>
       </c>
       <c r="D13" t="n">
-        <v>44.1029</v>
+        <v>44.3599</v>
       </c>
       <c r="E13" t="n">
-        <v>57.7728</v>
+        <v>56.025</v>
       </c>
     </row>
     <row r="14">
@@ -6272,16 +6272,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>21.4849</v>
+        <v>24.276</v>
       </c>
       <c r="C14" t="n">
-        <v>30.3674</v>
+        <v>30.3621</v>
       </c>
       <c r="D14" t="n">
-        <v>45.3521</v>
+        <v>44.5403</v>
       </c>
       <c r="E14" t="n">
-        <v>56.3864</v>
+        <v>56.971</v>
       </c>
     </row>
     <row r="15">
@@ -6289,16 +6289,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>21.7896</v>
+        <v>24.3837</v>
       </c>
       <c r="C15" t="n">
-        <v>30.3759</v>
+        <v>30.4455</v>
       </c>
       <c r="D15" t="n">
-        <v>44.9749</v>
+        <v>43.5556</v>
       </c>
       <c r="E15" t="n">
-        <v>58.7311</v>
+        <v>57.3664</v>
       </c>
     </row>
     <row r="16">
@@ -6306,16 +6306,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>21.7468</v>
+        <v>24.2842</v>
       </c>
       <c r="C16" t="n">
-        <v>30.3906</v>
+        <v>30.3181</v>
       </c>
       <c r="D16" t="n">
-        <v>45.5758</v>
+        <v>44.5391</v>
       </c>
       <c r="E16" t="n">
-        <v>58.4599</v>
+        <v>58.4928</v>
       </c>
     </row>
     <row r="17">
@@ -6323,16 +6323,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>21.7426</v>
+        <v>24.5985</v>
       </c>
       <c r="C17" t="n">
-        <v>30.4073</v>
+        <v>30.3847</v>
       </c>
       <c r="D17" t="n">
-        <v>45.2278</v>
+        <v>44.4302</v>
       </c>
       <c r="E17" t="n">
-        <v>58.4337</v>
+        <v>56.4187</v>
       </c>
     </row>
   </sheetData>
@@ -6385,16 +6385,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.71772</v>
+        <v>8.7712</v>
       </c>
       <c r="C2" t="n">
-        <v>10.8556</v>
+        <v>10.8536</v>
       </c>
       <c r="D2" t="n">
-        <v>13.0106</v>
+        <v>13.0849</v>
       </c>
       <c r="E2" t="n">
-        <v>15.2183</v>
+        <v>15.2548</v>
       </c>
     </row>
     <row r="3">
@@ -6402,16 +6402,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>16.4497</v>
+        <v>16.672</v>
       </c>
       <c r="C3" t="n">
-        <v>18.2672</v>
+        <v>18.3088</v>
       </c>
       <c r="D3" t="n">
-        <v>24.147</v>
+        <v>24.378</v>
       </c>
       <c r="E3" t="n">
-        <v>28.6277</v>
+        <v>28.7189</v>
       </c>
     </row>
     <row r="4">
@@ -6419,16 +6419,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>23.2007</v>
+        <v>24.1115</v>
       </c>
       <c r="C4" t="n">
-        <v>24.6383</v>
+        <v>25.6372</v>
       </c>
       <c r="D4" t="n">
-        <v>34.104</v>
+        <v>34.4691</v>
       </c>
       <c r="E4" t="n">
-        <v>40.6064</v>
+        <v>40.9549</v>
       </c>
     </row>
     <row r="5">
@@ -6436,16 +6436,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>22.9351</v>
+        <v>24.4791</v>
       </c>
       <c r="C5" t="n">
-        <v>25.1842</v>
+        <v>25.2847</v>
       </c>
       <c r="D5" t="n">
-        <v>36.5801</v>
+        <v>36.4301</v>
       </c>
       <c r="E5" t="n">
-        <v>46.2197</v>
+        <v>46.4663</v>
       </c>
     </row>
     <row r="6">
@@ -6453,16 +6453,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>26.5996</v>
+        <v>27.4889</v>
       </c>
       <c r="C6" t="n">
-        <v>28.4068</v>
+        <v>28.444</v>
       </c>
       <c r="D6" t="n">
-        <v>42.5557</v>
+        <v>42.6771</v>
       </c>
       <c r="E6" t="n">
-        <v>55.5273</v>
+        <v>55.4678</v>
       </c>
     </row>
     <row r="7">
@@ -6470,16 +6470,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>31.6426</v>
+        <v>33.6978</v>
       </c>
       <c r="C7" t="n">
-        <v>32.9424</v>
+        <v>33.1359</v>
       </c>
       <c r="D7" t="n">
-        <v>50.1583</v>
+        <v>50.5333</v>
       </c>
       <c r="E7" t="n">
-        <v>63.636</v>
+        <v>63.3579</v>
       </c>
     </row>
     <row r="8">
@@ -6487,16 +6487,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>29.1602</v>
+        <v>30.6459</v>
       </c>
       <c r="C8" t="n">
-        <v>31.8672</v>
+        <v>32.0663</v>
       </c>
       <c r="D8" t="n">
-        <v>45.5812</v>
+        <v>47.5871</v>
       </c>
       <c r="E8" t="n">
-        <v>60.0178</v>
+        <v>60.1213</v>
       </c>
     </row>
     <row r="9">
@@ -6504,16 +6504,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>29.3526</v>
+        <v>30.7542</v>
       </c>
       <c r="C9" t="n">
-        <v>31.3446</v>
+        <v>31.7556</v>
       </c>
       <c r="D9" t="n">
-        <v>46.1158</v>
+        <v>47.7439</v>
       </c>
       <c r="E9" t="n">
-        <v>59.3645</v>
+        <v>60.3344</v>
       </c>
     </row>
     <row r="10">
@@ -6521,16 +6521,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>30.3607</v>
+        <v>31.9388</v>
       </c>
       <c r="C10" t="n">
-        <v>31.9331</v>
+        <v>32.0737</v>
       </c>
       <c r="D10" t="n">
-        <v>47.2345</v>
+        <v>47.6517</v>
       </c>
       <c r="E10" t="n">
-        <v>61.4763</v>
+        <v>60.0834</v>
       </c>
     </row>
     <row r="11">
@@ -6538,16 +6538,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>30.5518</v>
+        <v>31.8786</v>
       </c>
       <c r="C11" t="n">
-        <v>32.0083</v>
+        <v>32.3842</v>
       </c>
       <c r="D11" t="n">
-        <v>47.3613</v>
+        <v>47.4764</v>
       </c>
       <c r="E11" t="n">
-        <v>62.5788</v>
+        <v>61.2014</v>
       </c>
     </row>
     <row r="12">
@@ -6555,16 +6555,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>30.4196</v>
+        <v>31.8361</v>
       </c>
       <c r="C12" t="n">
-        <v>32.0269</v>
+        <v>32.1142</v>
       </c>
       <c r="D12" t="n">
-        <v>47.5182</v>
+        <v>47.4284</v>
       </c>
       <c r="E12" t="n">
-        <v>61.0313</v>
+        <v>60.1776</v>
       </c>
     </row>
     <row r="13">
@@ -6572,16 +6572,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>30.773</v>
+        <v>31.8075</v>
       </c>
       <c r="C13" t="n">
-        <v>32.1628</v>
+        <v>32.2991</v>
       </c>
       <c r="D13" t="n">
-        <v>47.9806</v>
+        <v>47.3199</v>
       </c>
       <c r="E13" t="n">
-        <v>61.118</v>
+        <v>61.3917</v>
       </c>
     </row>
     <row r="14">
@@ -6589,16 +6589,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>30.6577</v>
+        <v>31.8323</v>
       </c>
       <c r="C14" t="n">
-        <v>32.1447</v>
+        <v>32.3723</v>
       </c>
       <c r="D14" t="n">
-        <v>48.2241</v>
+        <v>47.912</v>
       </c>
       <c r="E14" t="n">
-        <v>61.0678</v>
+        <v>61.7133</v>
       </c>
     </row>
     <row r="15">
@@ -6606,16 +6606,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>30.5561</v>
+        <v>32.0799</v>
       </c>
       <c r="C15" t="n">
-        <v>32.3352</v>
+        <v>32.3056</v>
       </c>
       <c r="D15" t="n">
-        <v>48.86</v>
+        <v>47.9434</v>
       </c>
       <c r="E15" t="n">
-        <v>62.9078</v>
+        <v>61.9205</v>
       </c>
     </row>
     <row r="16">
@@ -6623,16 +6623,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>30.4771</v>
+        <v>32.0118</v>
       </c>
       <c r="C16" t="n">
-        <v>32.2797</v>
+        <v>32.1847</v>
       </c>
       <c r="D16" t="n">
-        <v>47.8017</v>
+        <v>48.1739</v>
       </c>
       <c r="E16" t="n">
-        <v>62.8021</v>
+        <v>60.4271</v>
       </c>
     </row>
     <row r="17">
@@ -6640,16 +6640,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>30.4041</v>
+        <v>32.2193</v>
       </c>
       <c r="C17" t="n">
-        <v>31.9711</v>
+        <v>32.2302</v>
       </c>
       <c r="D17" t="n">
-        <v>48.2585</v>
+        <v>48.5432</v>
       </c>
       <c r="E17" t="n">
-        <v>62.9536</v>
+        <v>61.5571</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Parallel workload.xlsx
+++ b/vs-x86/Parallel workload.xlsx
@@ -4800,16 +4800,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>9.313969999999999</v>
+        <v>9.362349999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>10.7045</v>
+        <v>10.737</v>
       </c>
       <c r="D2" t="n">
-        <v>13.0522</v>
+        <v>13.1011</v>
       </c>
       <c r="E2" t="n">
-        <v>14.8959</v>
+        <v>14.9344</v>
       </c>
     </row>
     <row r="3">
@@ -4817,16 +4817,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>17.6411</v>
+        <v>17.328</v>
       </c>
       <c r="C3" t="n">
-        <v>16.3781</v>
+        <v>16.658</v>
       </c>
       <c r="D3" t="n">
-        <v>21.9661</v>
+        <v>22.3652</v>
       </c>
       <c r="E3" t="n">
-        <v>23.7932</v>
+        <v>24.3159</v>
       </c>
     </row>
     <row r="4">
@@ -4834,16 +4834,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>24.9284</v>
+        <v>24.4184</v>
       </c>
       <c r="C4" t="n">
-        <v>21.5234</v>
+        <v>21.5286</v>
       </c>
       <c r="D4" t="n">
-        <v>25.9763</v>
+        <v>26.8029</v>
       </c>
       <c r="E4" t="n">
-        <v>31.8704</v>
+        <v>31.4371</v>
       </c>
     </row>
     <row r="5">
@@ -4851,16 +4851,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>21.1799</v>
+        <v>21.3088</v>
       </c>
       <c r="C5" t="n">
-        <v>23.867</v>
+        <v>23.7089</v>
       </c>
       <c r="D5" t="n">
-        <v>30.7537</v>
+        <v>29.6082</v>
       </c>
       <c r="E5" t="n">
-        <v>32.1095</v>
+        <v>32.2855</v>
       </c>
     </row>
     <row r="6">
@@ -4868,16 +4868,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>26.0485</v>
+        <v>25.9432</v>
       </c>
       <c r="C6" t="n">
-        <v>27.6887</v>
+        <v>27.7908</v>
       </c>
       <c r="D6" t="n">
-        <v>31.8593</v>
+        <v>31.9537</v>
       </c>
       <c r="E6" t="n">
-        <v>39.0275</v>
+        <v>39.2534</v>
       </c>
     </row>
     <row r="7">
@@ -4885,16 +4885,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>31.9562</v>
+        <v>32.0448</v>
       </c>
       <c r="C7" t="n">
-        <v>32.5971</v>
+        <v>32.6031</v>
       </c>
       <c r="D7" t="n">
-        <v>37.1641</v>
+        <v>37.1448</v>
       </c>
       <c r="E7" t="n">
-        <v>39.5304</v>
+        <v>40.59</v>
       </c>
     </row>
     <row r="8">
@@ -4902,16 +4902,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>22.8384</v>
+        <v>23.0861</v>
       </c>
       <c r="C8" t="n">
-        <v>29.8394</v>
+        <v>30.2994</v>
       </c>
       <c r="D8" t="n">
-        <v>35.6492</v>
+        <v>35.955</v>
       </c>
       <c r="E8" t="n">
-        <v>39.3232</v>
+        <v>39.3971</v>
       </c>
     </row>
     <row r="9">
@@ -4919,16 +4919,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>25.6039</v>
+        <v>25.4899</v>
       </c>
       <c r="C9" t="n">
-        <v>30.2115</v>
+        <v>30.5324</v>
       </c>
       <c r="D9" t="n">
-        <v>37.913</v>
+        <v>39.2353</v>
       </c>
       <c r="E9" t="n">
-        <v>47.1051</v>
+        <v>46.4984</v>
       </c>
     </row>
     <row r="10">
@@ -4936,16 +4936,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>28.7384</v>
+        <v>28.27</v>
       </c>
       <c r="C10" t="n">
-        <v>30.2542</v>
+        <v>30.1118</v>
       </c>
       <c r="D10" t="n">
-        <v>41.539</v>
+        <v>42.1475</v>
       </c>
       <c r="E10" t="n">
-        <v>48.9771</v>
+        <v>48.2113</v>
       </c>
     </row>
     <row r="11">
@@ -4953,16 +4953,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>25.9331</v>
+        <v>26.2939</v>
       </c>
       <c r="C11" t="n">
-        <v>30.181</v>
+        <v>30.3576</v>
       </c>
       <c r="D11" t="n">
-        <v>42.2601</v>
+        <v>42.3104</v>
       </c>
       <c r="E11" t="n">
-        <v>50.2678</v>
+        <v>49.0507</v>
       </c>
     </row>
     <row r="12">
@@ -4970,16 +4970,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>28.8054</v>
+        <v>28.775</v>
       </c>
       <c r="C12" t="n">
-        <v>30.8752</v>
+        <v>31.0485</v>
       </c>
       <c r="D12" t="n">
-        <v>43.8655</v>
+        <v>42.8277</v>
       </c>
       <c r="E12" t="n">
-        <v>51.6184</v>
+        <v>51.1859</v>
       </c>
     </row>
     <row r="13">
@@ -4987,16 +4987,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>32.0016</v>
+        <v>31.8655</v>
       </c>
       <c r="C13" t="n">
-        <v>31.0817</v>
+        <v>31.4473</v>
       </c>
       <c r="D13" t="n">
-        <v>44.095</v>
+        <v>43.7264</v>
       </c>
       <c r="E13" t="n">
-        <v>52.5657</v>
+        <v>53.0306</v>
       </c>
     </row>
     <row r="14">
@@ -5004,16 +5004,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>25.9822</v>
+        <v>26.0431</v>
       </c>
       <c r="C14" t="n">
-        <v>30.5811</v>
+        <v>30.6142</v>
       </c>
       <c r="D14" t="n">
-        <v>45.4027</v>
+        <v>41.731</v>
       </c>
       <c r="E14" t="n">
-        <v>52.836</v>
+        <v>53.4584</v>
       </c>
     </row>
     <row r="15">
@@ -5021,16 +5021,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>27.9161</v>
+        <v>27.7677</v>
       </c>
       <c r="C15" t="n">
-        <v>30.6824</v>
+        <v>30.7879</v>
       </c>
       <c r="D15" t="n">
-        <v>42.6542</v>
+        <v>44.6406</v>
       </c>
       <c r="E15" t="n">
-        <v>51.2506</v>
+        <v>53.9098</v>
       </c>
     </row>
     <row r="16">
@@ -5038,16 +5038,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>28.9354</v>
+        <v>29.4585</v>
       </c>
       <c r="C16" t="n">
-        <v>31.0651</v>
+        <v>30.6398</v>
       </c>
       <c r="D16" t="n">
-        <v>45.1802</v>
+        <v>44.1989</v>
       </c>
       <c r="E16" t="n">
-        <v>53.0864</v>
+        <v>53.029</v>
       </c>
     </row>
     <row r="17">
@@ -5055,16 +5055,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>27.7336</v>
+        <v>27.6735</v>
       </c>
       <c r="C17" t="n">
-        <v>31.2477</v>
+        <v>30.8423</v>
       </c>
       <c r="D17" t="n">
-        <v>45.2622</v>
+        <v>44.5512</v>
       </c>
       <c r="E17" t="n">
-        <v>54.408</v>
+        <v>52.4457</v>
       </c>
     </row>
   </sheetData>
@@ -5117,16 +5117,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>9.28814</v>
+        <v>9.253220000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>10.7203</v>
+        <v>10.7422</v>
       </c>
       <c r="D2" t="n">
-        <v>12.9409</v>
+        <v>12.9916</v>
       </c>
       <c r="E2" t="n">
-        <v>14.7977</v>
+        <v>14.8165</v>
       </c>
     </row>
     <row r="3">
@@ -5134,16 +5134,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>17.5244</v>
+        <v>17.2241</v>
       </c>
       <c r="C3" t="n">
-        <v>16.6935</v>
+        <v>16.738</v>
       </c>
       <c r="D3" t="n">
-        <v>21.0229</v>
+        <v>21.1138</v>
       </c>
       <c r="E3" t="n">
-        <v>23.9054</v>
+        <v>23.3687</v>
       </c>
     </row>
     <row r="4">
@@ -5151,16 +5151,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>25.0434</v>
+        <v>24.3892</v>
       </c>
       <c r="C4" t="n">
-        <v>22.6004</v>
+        <v>22.3151</v>
       </c>
       <c r="D4" t="n">
-        <v>26.5503</v>
+        <v>26.42</v>
       </c>
       <c r="E4" t="n">
-        <v>29.5693</v>
+        <v>30.6981</v>
       </c>
     </row>
     <row r="5">
@@ -5168,16 +5168,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>21.3112</v>
+        <v>21.5258</v>
       </c>
       <c r="C5" t="n">
-        <v>23.4849</v>
+        <v>23.399</v>
       </c>
       <c r="D5" t="n">
-        <v>28.058</v>
+        <v>28.6905</v>
       </c>
       <c r="E5" t="n">
-        <v>35.236</v>
+        <v>35.775</v>
       </c>
     </row>
     <row r="6">
@@ -5185,16 +5185,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>25.9227</v>
+        <v>25.8339</v>
       </c>
       <c r="C6" t="n">
-        <v>27.5373</v>
+        <v>27.7877</v>
       </c>
       <c r="D6" t="n">
-        <v>34.9039</v>
+        <v>34.9583</v>
       </c>
       <c r="E6" t="n">
-        <v>39.5105</v>
+        <v>39.4605</v>
       </c>
     </row>
     <row r="7">
@@ -5202,16 +5202,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>32.0543</v>
+        <v>31.9805</v>
       </c>
       <c r="C7" t="n">
-        <v>32.6072</v>
+        <v>32.5209</v>
       </c>
       <c r="D7" t="n">
-        <v>35.1664</v>
+        <v>36.3505</v>
       </c>
       <c r="E7" t="n">
-        <v>45.1172</v>
+        <v>45.1422</v>
       </c>
     </row>
     <row r="8">
@@ -5219,16 +5219,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>22.6108</v>
+        <v>22.3024</v>
       </c>
       <c r="C8" t="n">
-        <v>29.8132</v>
+        <v>29.1517</v>
       </c>
       <c r="D8" t="n">
-        <v>33.7432</v>
+        <v>32.6928</v>
       </c>
       <c r="E8" t="n">
-        <v>42.9212</v>
+        <v>41.1279</v>
       </c>
     </row>
     <row r="9">
@@ -5236,16 +5236,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>25.7823</v>
+        <v>25.7093</v>
       </c>
       <c r="C9" t="n">
-        <v>29.7057</v>
+        <v>29.6484</v>
       </c>
       <c r="D9" t="n">
-        <v>34.9014</v>
+        <v>37.3217</v>
       </c>
       <c r="E9" t="n">
-        <v>45.3302</v>
+        <v>48.1654</v>
       </c>
     </row>
     <row r="10">
@@ -5253,16 +5253,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>28.6822</v>
+        <v>28.0132</v>
       </c>
       <c r="C10" t="n">
-        <v>29.7567</v>
+        <v>30.0313</v>
       </c>
       <c r="D10" t="n">
-        <v>38.1873</v>
+        <v>37.564</v>
       </c>
       <c r="E10" t="n">
-        <v>46.0386</v>
+        <v>46.1097</v>
       </c>
     </row>
     <row r="11">
@@ -5270,16 +5270,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>26.3409</v>
+        <v>25.694</v>
       </c>
       <c r="C11" t="n">
-        <v>30.088</v>
+        <v>29.7136</v>
       </c>
       <c r="D11" t="n">
-        <v>39.4891</v>
+        <v>40.0606</v>
       </c>
       <c r="E11" t="n">
-        <v>51.9913</v>
+        <v>49.7953</v>
       </c>
     </row>
     <row r="12">
@@ -5287,16 +5287,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>28.7631</v>
+        <v>28.6502</v>
       </c>
       <c r="C12" t="n">
-        <v>30.4311</v>
+        <v>30.7717</v>
       </c>
       <c r="D12" t="n">
-        <v>40.2127</v>
+        <v>41.0504</v>
       </c>
       <c r="E12" t="n">
-        <v>52.3863</v>
+        <v>52.643</v>
       </c>
     </row>
     <row r="13">
@@ -5304,16 +5304,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>32.0754</v>
+        <v>31.9508</v>
       </c>
       <c r="C13" t="n">
-        <v>31.4534</v>
+        <v>31.2932</v>
       </c>
       <c r="D13" t="n">
-        <v>41.7154</v>
+        <v>43.001</v>
       </c>
       <c r="E13" t="n">
-        <v>52.7595</v>
+        <v>51.379</v>
       </c>
     </row>
     <row r="14">
@@ -5321,16 +5321,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>25.636</v>
+        <v>26.3361</v>
       </c>
       <c r="C14" t="n">
-        <v>31.3971</v>
+        <v>31.2925</v>
       </c>
       <c r="D14" t="n">
-        <v>44.0594</v>
+        <v>42.0901</v>
       </c>
       <c r="E14" t="n">
-        <v>52.7384</v>
+        <v>53.2781</v>
       </c>
     </row>
     <row r="15">
@@ -5338,16 +5338,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>27.5467</v>
+        <v>27.7169</v>
       </c>
       <c r="C15" t="n">
-        <v>31.3172</v>
+        <v>31.3072</v>
       </c>
       <c r="D15" t="n">
-        <v>44.7627</v>
+        <v>45.1512</v>
       </c>
       <c r="E15" t="n">
-        <v>54.3059</v>
+        <v>52.4487</v>
       </c>
     </row>
     <row r="16">
@@ -5355,16 +5355,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>29.5419</v>
+        <v>29.8353</v>
       </c>
       <c r="C16" t="n">
-        <v>31.2045</v>
+        <v>31.5</v>
       </c>
       <c r="D16" t="n">
-        <v>44.3866</v>
+        <v>45.4055</v>
       </c>
       <c r="E16" t="n">
-        <v>52.8613</v>
+        <v>53.5325</v>
       </c>
     </row>
     <row r="17">
@@ -5372,16 +5372,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>27.7964</v>
+        <v>28.0115</v>
       </c>
       <c r="C17" t="n">
-        <v>31.5285</v>
+        <v>31.3948</v>
       </c>
       <c r="D17" t="n">
-        <v>45.3694</v>
+        <v>44.9387</v>
       </c>
       <c r="E17" t="n">
-        <v>53.534</v>
+        <v>53.5876</v>
       </c>
     </row>
   </sheetData>
@@ -5434,16 +5434,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>10.8423</v>
+        <v>10.7838</v>
       </c>
       <c r="C2" t="n">
-        <v>11.6134</v>
+        <v>11.5393</v>
       </c>
       <c r="D2" t="n">
-        <v>13.7399</v>
+        <v>13.687</v>
       </c>
       <c r="E2" t="n">
-        <v>15.3547</v>
+        <v>15.3387</v>
       </c>
     </row>
     <row r="3">
@@ -5451,16 +5451,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>19.5026</v>
+        <v>19.3198</v>
       </c>
       <c r="C3" t="n">
-        <v>19.2052</v>
+        <v>19.2323</v>
       </c>
       <c r="D3" t="n">
-        <v>22.6054</v>
+        <v>22.0852</v>
       </c>
       <c r="E3" t="n">
-        <v>25.5701</v>
+        <v>24.8012</v>
       </c>
     </row>
     <row r="4">
@@ -5468,16 +5468,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>27.2514</v>
+        <v>26.5587</v>
       </c>
       <c r="C4" t="n">
-        <v>25.1004</v>
+        <v>25.1034</v>
       </c>
       <c r="D4" t="n">
-        <v>29.9234</v>
+        <v>29.3439</v>
       </c>
       <c r="E4" t="n">
-        <v>31.4293</v>
+        <v>32.3026</v>
       </c>
     </row>
     <row r="5">
@@ -5485,16 +5485,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>24.053</v>
+        <v>23.9943</v>
       </c>
       <c r="C5" t="n">
-        <v>24.8062</v>
+        <v>24.6919</v>
       </c>
       <c r="D5" t="n">
-        <v>31.6518</v>
+        <v>30.7446</v>
       </c>
       <c r="E5" t="n">
-        <v>35.3194</v>
+        <v>35.7804</v>
       </c>
     </row>
     <row r="6">
@@ -5502,16 +5502,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>29.3049</v>
+        <v>29.1133</v>
       </c>
       <c r="C6" t="n">
-        <v>28.6498</v>
+        <v>28.7416</v>
       </c>
       <c r="D6" t="n">
-        <v>34.7693</v>
+        <v>32.9962</v>
       </c>
       <c r="E6" t="n">
-        <v>39.2263</v>
+        <v>36.891</v>
       </c>
     </row>
     <row r="7">
@@ -5519,16 +5519,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>35.1533</v>
+        <v>34.9563</v>
       </c>
       <c r="C7" t="n">
-        <v>33.7268</v>
+        <v>33.7275</v>
       </c>
       <c r="D7" t="n">
-        <v>35.1814</v>
+        <v>35.1871</v>
       </c>
       <c r="E7" t="n">
-        <v>45.2583</v>
+        <v>52.3057</v>
       </c>
     </row>
     <row r="8">
@@ -5536,16 +5536,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>30.9563</v>
+        <v>30.2905</v>
       </c>
       <c r="C8" t="n">
-        <v>29.9465</v>
+        <v>29.7016</v>
       </c>
       <c r="D8" t="n">
-        <v>34.6614</v>
+        <v>35.8626</v>
       </c>
       <c r="E8" t="n">
-        <v>45.4389</v>
+        <v>45.0979</v>
       </c>
     </row>
     <row r="9">
@@ -5553,16 +5553,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>31.5022</v>
+        <v>31.5283</v>
       </c>
       <c r="C9" t="n">
-        <v>29.4795</v>
+        <v>30.2366</v>
       </c>
       <c r="D9" t="n">
-        <v>39.6554</v>
+        <v>39.1577</v>
       </c>
       <c r="E9" t="n">
-        <v>47.8143</v>
+        <v>51.78</v>
       </c>
     </row>
     <row r="10">
@@ -5570,16 +5570,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>32.4335</v>
+        <v>31.4925</v>
       </c>
       <c r="C10" t="n">
-        <v>30.3768</v>
+        <v>30.4141</v>
       </c>
       <c r="D10" t="n">
-        <v>41.9017</v>
+        <v>41.6058</v>
       </c>
       <c r="E10" t="n">
-        <v>47.7404</v>
+        <v>50.6418</v>
       </c>
     </row>
     <row r="11">
@@ -5587,16 +5587,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>32.3243</v>
+        <v>31.8168</v>
       </c>
       <c r="C11" t="n">
-        <v>30.4748</v>
+        <v>30.8634</v>
       </c>
       <c r="D11" t="n">
-        <v>43.0941</v>
+        <v>42.2064</v>
       </c>
       <c r="E11" t="n">
-        <v>52.6481</v>
+        <v>52.303</v>
       </c>
     </row>
     <row r="12">
@@ -5604,16 +5604,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>32.9952</v>
+        <v>32.7766</v>
       </c>
       <c r="C12" t="n">
-        <v>31.241</v>
+        <v>31.4136</v>
       </c>
       <c r="D12" t="n">
-        <v>44.2566</v>
+        <v>44.6669</v>
       </c>
       <c r="E12" t="n">
-        <v>53.3289</v>
+        <v>50.5341</v>
       </c>
     </row>
     <row r="13">
@@ -5621,16 +5621,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>32.3996</v>
+        <v>32.6084</v>
       </c>
       <c r="C13" t="n">
-        <v>31.2481</v>
+        <v>30.7447</v>
       </c>
       <c r="D13" t="n">
-        <v>44.178</v>
+        <v>44.5428</v>
       </c>
       <c r="E13" t="n">
-        <v>53.1002</v>
+        <v>51.1782</v>
       </c>
     </row>
     <row r="14">
@@ -5638,16 +5638,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>32.9217</v>
+        <v>32.7207</v>
       </c>
       <c r="C14" t="n">
-        <v>31.5929</v>
+        <v>31.5336</v>
       </c>
       <c r="D14" t="n">
-        <v>44.9353</v>
+        <v>44.3707</v>
       </c>
       <c r="E14" t="n">
-        <v>54.2695</v>
+        <v>52.5422</v>
       </c>
     </row>
     <row r="15">
@@ -5655,16 +5655,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>32.7786</v>
+        <v>32.8596</v>
       </c>
       <c r="C15" t="n">
-        <v>31.63</v>
+        <v>31.636</v>
       </c>
       <c r="D15" t="n">
-        <v>44.4837</v>
+        <v>45.3266</v>
       </c>
       <c r="E15" t="n">
-        <v>52.0822</v>
+        <v>52.3224</v>
       </c>
     </row>
     <row r="16">
@@ -5672,16 +5672,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>33.2378</v>
+        <v>32.836</v>
       </c>
       <c r="C16" t="n">
-        <v>31.6477</v>
+        <v>31.7384</v>
       </c>
       <c r="D16" t="n">
-        <v>45.5734</v>
+        <v>44.7053</v>
       </c>
       <c r="E16" t="n">
-        <v>52.4162</v>
+        <v>53.0968</v>
       </c>
     </row>
     <row r="17">
@@ -5689,16 +5689,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>33.2326</v>
+        <v>33.3097</v>
       </c>
       <c r="C17" t="n">
-        <v>31.7433</v>
+        <v>31.9197</v>
       </c>
       <c r="D17" t="n">
-        <v>45.1009</v>
+        <v>43.2555</v>
       </c>
       <c r="E17" t="n">
-        <v>54.2023</v>
+        <v>52.7112</v>
       </c>
     </row>
   </sheetData>
@@ -5751,16 +5751,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4.92904</v>
+        <v>4.88584</v>
       </c>
       <c r="C2" t="n">
-        <v>9.051460000000001</v>
+        <v>9.015470000000001</v>
       </c>
       <c r="D2" t="n">
-        <v>10.8273</v>
+        <v>10.799</v>
       </c>
       <c r="E2" t="n">
-        <v>13.7446</v>
+        <v>13.9145</v>
       </c>
     </row>
     <row r="3">
@@ -5768,16 +5768,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.74446</v>
+        <v>9.71597</v>
       </c>
       <c r="C3" t="n">
-        <v>15.9257</v>
+        <v>15.6606</v>
       </c>
       <c r="D3" t="n">
-        <v>20.4647</v>
+        <v>20.5821</v>
       </c>
       <c r="E3" t="n">
-        <v>26.0639</v>
+        <v>26.4526</v>
       </c>
     </row>
     <row r="4">
@@ -5785,16 +5785,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>14.2905</v>
+        <v>14.1244</v>
       </c>
       <c r="C4" t="n">
-        <v>22.3036</v>
+        <v>21.8419</v>
       </c>
       <c r="D4" t="n">
-        <v>29.3693</v>
+        <v>29.6594</v>
       </c>
       <c r="E4" t="n">
-        <v>37.4493</v>
+        <v>37.6492</v>
       </c>
     </row>
     <row r="5">
@@ -5802,16 +5802,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>16.9949</v>
+        <v>17.248</v>
       </c>
       <c r="C5" t="n">
-        <v>23.1149</v>
+        <v>22.9451</v>
       </c>
       <c r="D5" t="n">
-        <v>33.1541</v>
+        <v>33.7852</v>
       </c>
       <c r="E5" t="n">
-        <v>43.7366</v>
+        <v>43.9746</v>
       </c>
     </row>
     <row r="6">
@@ -5819,16 +5819,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>21.1001</v>
+        <v>21.1605</v>
       </c>
       <c r="C6" t="n">
-        <v>26.4287</v>
+        <v>26.3317</v>
       </c>
       <c r="D6" t="n">
-        <v>40.0883</v>
+        <v>40.9233</v>
       </c>
       <c r="E6" t="n">
-        <v>51.6518</v>
+        <v>51.9684</v>
       </c>
     </row>
     <row r="7">
@@ -5836,16 +5836,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>25.6356</v>
+        <v>25.5745</v>
       </c>
       <c r="C7" t="n">
-        <v>31.172</v>
+        <v>31.061</v>
       </c>
       <c r="D7" t="n">
-        <v>47.2641</v>
+        <v>47.6236</v>
       </c>
       <c r="E7" t="n">
-        <v>61.3067</v>
+        <v>61.8226</v>
       </c>
     </row>
     <row r="8">
@@ -5853,16 +5853,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>22.1688</v>
+        <v>21.7984</v>
       </c>
       <c r="C8" t="n">
-        <v>29.7432</v>
+        <v>29.7784</v>
       </c>
       <c r="D8" t="n">
-        <v>43.2405</v>
+        <v>43.7309</v>
       </c>
       <c r="E8" t="n">
-        <v>55.1882</v>
+        <v>55.959</v>
       </c>
     </row>
     <row r="9">
@@ -5870,16 +5870,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>22.8209</v>
+        <v>22.7829</v>
       </c>
       <c r="C9" t="n">
-        <v>29.6769</v>
+        <v>29.4377</v>
       </c>
       <c r="D9" t="n">
-        <v>42.1825</v>
+        <v>42.6918</v>
       </c>
       <c r="E9" t="n">
-        <v>54.2341</v>
+        <v>55.14</v>
       </c>
     </row>
     <row r="10">
@@ -5887,16 +5887,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>23.676</v>
+        <v>23.1043</v>
       </c>
       <c r="C10" t="n">
-        <v>29.9277</v>
+        <v>29.7768</v>
       </c>
       <c r="D10" t="n">
-        <v>42.5238</v>
+        <v>42.7109</v>
       </c>
       <c r="E10" t="n">
-        <v>57.0488</v>
+        <v>54.4832</v>
       </c>
     </row>
     <row r="11">
@@ -5904,16 +5904,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>23.5521</v>
+        <v>23.8297</v>
       </c>
       <c r="C11" t="n">
-        <v>29.9053</v>
+        <v>29.6118</v>
       </c>
       <c r="D11" t="n">
-        <v>42.4879</v>
+        <v>42.9193</v>
       </c>
       <c r="E11" t="n">
-        <v>55.4374</v>
+        <v>56.2474</v>
       </c>
     </row>
     <row r="12">
@@ -5921,16 +5921,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>23.3853</v>
+        <v>23.4713</v>
       </c>
       <c r="C12" t="n">
-        <v>30.1856</v>
+        <v>30.0117</v>
       </c>
       <c r="D12" t="n">
-        <v>43.8322</v>
+        <v>44.0965</v>
       </c>
       <c r="E12" t="n">
-        <v>56.4056</v>
+        <v>57.3377</v>
       </c>
     </row>
     <row r="13">
@@ -5938,16 +5938,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>23.6014</v>
+        <v>24.2219</v>
       </c>
       <c r="C13" t="n">
-        <v>30.0951</v>
+        <v>30.2342</v>
       </c>
       <c r="D13" t="n">
-        <v>43.9789</v>
+        <v>43.343</v>
       </c>
       <c r="E13" t="n">
-        <v>56.0285</v>
+        <v>58.1306</v>
       </c>
     </row>
     <row r="14">
@@ -5955,16 +5955,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>23.2601</v>
+        <v>23.9232</v>
       </c>
       <c r="C14" t="n">
-        <v>30.4081</v>
+        <v>30.3624</v>
       </c>
       <c r="D14" t="n">
-        <v>44.7985</v>
+        <v>45.8467</v>
       </c>
       <c r="E14" t="n">
-        <v>58.0303</v>
+        <v>58.2122</v>
       </c>
     </row>
     <row r="15">
@@ -5972,16 +5972,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>23.8888</v>
+        <v>23.83</v>
       </c>
       <c r="C15" t="n">
-        <v>30.4938</v>
+        <v>30.2195</v>
       </c>
       <c r="D15" t="n">
-        <v>44.66</v>
+        <v>45.6894</v>
       </c>
       <c r="E15" t="n">
-        <v>58.8988</v>
+        <v>58.813</v>
       </c>
     </row>
     <row r="16">
@@ -5989,16 +5989,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>23.9138</v>
+        <v>24.0111</v>
       </c>
       <c r="C16" t="n">
-        <v>30.3683</v>
+        <v>30.4261</v>
       </c>
       <c r="D16" t="n">
-        <v>44.3457</v>
+        <v>45.1253</v>
       </c>
       <c r="E16" t="n">
-        <v>57.9233</v>
+        <v>58.372</v>
       </c>
     </row>
     <row r="17">
@@ -6006,16 +6006,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>23.575</v>
+        <v>24.1974</v>
       </c>
       <c r="C17" t="n">
-        <v>30.4505</v>
+        <v>30.522</v>
       </c>
       <c r="D17" t="n">
-        <v>45.0407</v>
+        <v>44.7246</v>
       </c>
       <c r="E17" t="n">
-        <v>58.3762</v>
+        <v>59.1876</v>
       </c>
     </row>
   </sheetData>
@@ -6068,16 +6068,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>5.02905</v>
+        <v>5.02781</v>
       </c>
       <c r="C2" t="n">
-        <v>9.044969999999999</v>
+        <v>9.054740000000001</v>
       </c>
       <c r="D2" t="n">
-        <v>10.7423</v>
+        <v>10.8942</v>
       </c>
       <c r="E2" t="n">
-        <v>13.9021</v>
+        <v>13.9799</v>
       </c>
     </row>
     <row r="3">
@@ -6085,16 +6085,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.893940000000001</v>
+        <v>9.97296</v>
       </c>
       <c r="C3" t="n">
-        <v>15.8849</v>
+        <v>15.82</v>
       </c>
       <c r="D3" t="n">
-        <v>20.3772</v>
+        <v>20.5966</v>
       </c>
       <c r="E3" t="n">
-        <v>26.0514</v>
+        <v>26.445</v>
       </c>
     </row>
     <row r="4">
@@ -6102,16 +6102,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>14.5942</v>
+        <v>14.5711</v>
       </c>
       <c r="C4" t="n">
-        <v>22.2983</v>
+        <v>22.3759</v>
       </c>
       <c r="D4" t="n">
-        <v>29.2482</v>
+        <v>29.7535</v>
       </c>
       <c r="E4" t="n">
-        <v>37.7696</v>
+        <v>38.1421</v>
       </c>
     </row>
     <row r="5">
@@ -6119,16 +6119,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>17.4957</v>
+        <v>17.3684</v>
       </c>
       <c r="C5" t="n">
-        <v>23.1672</v>
+        <v>23.1121</v>
       </c>
       <c r="D5" t="n">
-        <v>32.1945</v>
+        <v>32.8864</v>
       </c>
       <c r="E5" t="n">
-        <v>43.4059</v>
+        <v>43.3097</v>
       </c>
     </row>
     <row r="6">
@@ -6136,16 +6136,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>21.3466</v>
+        <v>21.3712</v>
       </c>
       <c r="C6" t="n">
-        <v>26.4157</v>
+        <v>26.5008</v>
       </c>
       <c r="D6" t="n">
-        <v>38.9489</v>
+        <v>39.545</v>
       </c>
       <c r="E6" t="n">
-        <v>51.5499</v>
+        <v>51.7867</v>
       </c>
     </row>
     <row r="7">
@@ -6153,16 +6153,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>25.9665</v>
+        <v>25.9115</v>
       </c>
       <c r="C7" t="n">
-        <v>31.2571</v>
+        <v>31.2967</v>
       </c>
       <c r="D7" t="n">
-        <v>46.511</v>
+        <v>47.1447</v>
       </c>
       <c r="E7" t="n">
-        <v>59.3406</v>
+        <v>60.0585</v>
       </c>
     </row>
     <row r="8">
@@ -6170,16 +6170,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>22.5919</v>
+        <v>23.0761</v>
       </c>
       <c r="C8" t="n">
-        <v>29.7333</v>
+        <v>29.8242</v>
       </c>
       <c r="D8" t="n">
-        <v>43.064</v>
+        <v>42.1193</v>
       </c>
       <c r="E8" t="n">
-        <v>52.021</v>
+        <v>53.7759</v>
       </c>
     </row>
     <row r="9">
@@ -6187,16 +6187,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>23.4998</v>
+        <v>23.5204</v>
       </c>
       <c r="C9" t="n">
-        <v>29.4361</v>
+        <v>30.115</v>
       </c>
       <c r="D9" t="n">
-        <v>42.1165</v>
+        <v>42.1778</v>
       </c>
       <c r="E9" t="n">
-        <v>55.6557</v>
+        <v>52.1983</v>
       </c>
     </row>
     <row r="10">
@@ -6204,16 +6204,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>23.5495</v>
+        <v>23.7542</v>
       </c>
       <c r="C10" t="n">
-        <v>30.1129</v>
+        <v>29.4359</v>
       </c>
       <c r="D10" t="n">
-        <v>41.1896</v>
+        <v>42.0005</v>
       </c>
       <c r="E10" t="n">
-        <v>55.9298</v>
+        <v>53.2207</v>
       </c>
     </row>
     <row r="11">
@@ -6221,16 +6221,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>24.1912</v>
+        <v>24.2728</v>
       </c>
       <c r="C11" t="n">
-        <v>29.8693</v>
+        <v>29.9028</v>
       </c>
       <c r="D11" t="n">
-        <v>43.1124</v>
+        <v>43.2673</v>
       </c>
       <c r="E11" t="n">
-        <v>54.3778</v>
+        <v>55.0544</v>
       </c>
     </row>
     <row r="12">
@@ -6238,16 +6238,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>24.1896</v>
+        <v>23.8539</v>
       </c>
       <c r="C12" t="n">
-        <v>30.0018</v>
+        <v>30.0203</v>
       </c>
       <c r="D12" t="n">
-        <v>42.7906</v>
+        <v>43.7054</v>
       </c>
       <c r="E12" t="n">
-        <v>53.885</v>
+        <v>57.881</v>
       </c>
     </row>
     <row r="13">
@@ -6255,16 +6255,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>23.9484</v>
+        <v>23.9802</v>
       </c>
       <c r="C13" t="n">
-        <v>30.0523</v>
+        <v>30.2605</v>
       </c>
       <c r="D13" t="n">
-        <v>44.3599</v>
+        <v>43.0493</v>
       </c>
       <c r="E13" t="n">
-        <v>56.025</v>
+        <v>56.1733</v>
       </c>
     </row>
     <row r="14">
@@ -6272,16 +6272,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>24.276</v>
+        <v>24.1353</v>
       </c>
       <c r="C14" t="n">
-        <v>30.3621</v>
+        <v>30.0196</v>
       </c>
       <c r="D14" t="n">
-        <v>44.5403</v>
+        <v>44.4762</v>
       </c>
       <c r="E14" t="n">
-        <v>56.971</v>
+        <v>56.3427</v>
       </c>
     </row>
     <row r="15">
@@ -6289,16 +6289,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>24.3837</v>
+        <v>23.9939</v>
       </c>
       <c r="C15" t="n">
-        <v>30.4455</v>
+        <v>30.4996</v>
       </c>
       <c r="D15" t="n">
-        <v>43.5556</v>
+        <v>45.8223</v>
       </c>
       <c r="E15" t="n">
-        <v>57.3664</v>
+        <v>57.3554</v>
       </c>
     </row>
     <row r="16">
@@ -6306,16 +6306,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>24.2842</v>
+        <v>24.4695</v>
       </c>
       <c r="C16" t="n">
-        <v>30.3181</v>
+        <v>30.1648</v>
       </c>
       <c r="D16" t="n">
-        <v>44.5391</v>
+        <v>45.3276</v>
       </c>
       <c r="E16" t="n">
-        <v>58.4928</v>
+        <v>57.9244</v>
       </c>
     </row>
     <row r="17">
@@ -6323,16 +6323,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>24.5985</v>
+        <v>24.1985</v>
       </c>
       <c r="C17" t="n">
-        <v>30.3847</v>
+        <v>30.2717</v>
       </c>
       <c r="D17" t="n">
-        <v>44.4302</v>
+        <v>45.567</v>
       </c>
       <c r="E17" t="n">
-        <v>56.4187</v>
+        <v>58.7703</v>
       </c>
     </row>
   </sheetData>
@@ -6385,16 +6385,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.7712</v>
+        <v>8.740830000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>10.8536</v>
+        <v>10.8235</v>
       </c>
       <c r="D2" t="n">
-        <v>13.0849</v>
+        <v>13.093</v>
       </c>
       <c r="E2" t="n">
-        <v>15.2548</v>
+        <v>15.2396</v>
       </c>
     </row>
     <row r="3">
@@ -6402,16 +6402,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>16.672</v>
+        <v>16.5743</v>
       </c>
       <c r="C3" t="n">
-        <v>18.3088</v>
+        <v>18.2523</v>
       </c>
       <c r="D3" t="n">
-        <v>24.378</v>
+        <v>24.2656</v>
       </c>
       <c r="E3" t="n">
-        <v>28.7189</v>
+        <v>28.5759</v>
       </c>
     </row>
     <row r="4">
@@ -6419,16 +6419,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>24.1115</v>
+        <v>23.7419</v>
       </c>
       <c r="C4" t="n">
-        <v>25.6372</v>
+        <v>25.4325</v>
       </c>
       <c r="D4" t="n">
-        <v>34.4691</v>
+        <v>34.6822</v>
       </c>
       <c r="E4" t="n">
-        <v>40.9549</v>
+        <v>40.7204</v>
       </c>
     </row>
     <row r="5">
@@ -6436,16 +6436,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>24.4791</v>
+        <v>24.0262</v>
       </c>
       <c r="C5" t="n">
-        <v>25.2847</v>
+        <v>25.3072</v>
       </c>
       <c r="D5" t="n">
-        <v>36.4301</v>
+        <v>36.5694</v>
       </c>
       <c r="E5" t="n">
-        <v>46.4663</v>
+        <v>46.3813</v>
       </c>
     </row>
     <row r="6">
@@ -6453,16 +6453,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>27.4889</v>
+        <v>27.5885</v>
       </c>
       <c r="C6" t="n">
-        <v>28.444</v>
+        <v>28.4848</v>
       </c>
       <c r="D6" t="n">
-        <v>42.6771</v>
+        <v>42.5923</v>
       </c>
       <c r="E6" t="n">
-        <v>55.4678</v>
+        <v>55.0816</v>
       </c>
     </row>
     <row r="7">
@@ -6470,16 +6470,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>33.6978</v>
+        <v>33.5415</v>
       </c>
       <c r="C7" t="n">
-        <v>33.1359</v>
+        <v>33.1003</v>
       </c>
       <c r="D7" t="n">
-        <v>50.5333</v>
+        <v>50.2936</v>
       </c>
       <c r="E7" t="n">
-        <v>63.3579</v>
+        <v>63.3259</v>
       </c>
     </row>
     <row r="8">
@@ -6487,16 +6487,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>30.6459</v>
+        <v>30.8785</v>
       </c>
       <c r="C8" t="n">
-        <v>32.0663</v>
+        <v>32.1391</v>
       </c>
       <c r="D8" t="n">
-        <v>47.5871</v>
+        <v>46.208</v>
       </c>
       <c r="E8" t="n">
-        <v>60.1213</v>
+        <v>59.0363</v>
       </c>
     </row>
     <row r="9">
@@ -6504,16 +6504,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>30.7542</v>
+        <v>30.7971</v>
       </c>
       <c r="C9" t="n">
-        <v>31.7556</v>
+        <v>31.6537</v>
       </c>
       <c r="D9" t="n">
-        <v>47.7439</v>
+        <v>46.3669</v>
       </c>
       <c r="E9" t="n">
-        <v>60.3344</v>
+        <v>59.9364</v>
       </c>
     </row>
     <row r="10">
@@ -6521,16 +6521,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>31.9388</v>
+        <v>31.4959</v>
       </c>
       <c r="C10" t="n">
-        <v>32.0737</v>
+        <v>32.2387</v>
       </c>
       <c r="D10" t="n">
-        <v>47.6517</v>
+        <v>47.6405</v>
       </c>
       <c r="E10" t="n">
-        <v>60.0834</v>
+        <v>59.6474</v>
       </c>
     </row>
     <row r="11">
@@ -6538,16 +6538,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>31.8786</v>
+        <v>32.1953</v>
       </c>
       <c r="C11" t="n">
-        <v>32.3842</v>
+        <v>32.4574</v>
       </c>
       <c r="D11" t="n">
-        <v>47.4764</v>
+        <v>47.5258</v>
       </c>
       <c r="E11" t="n">
-        <v>61.2014</v>
+        <v>61.0733</v>
       </c>
     </row>
     <row r="12">
@@ -6555,16 +6555,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>31.8361</v>
+        <v>31.9712</v>
       </c>
       <c r="C12" t="n">
-        <v>32.1142</v>
+        <v>32.4061</v>
       </c>
       <c r="D12" t="n">
-        <v>47.4284</v>
+        <v>48.2067</v>
       </c>
       <c r="E12" t="n">
-        <v>60.1776</v>
+        <v>61.5249</v>
       </c>
     </row>
     <row r="13">
@@ -6572,16 +6572,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>31.8075</v>
+        <v>32.1248</v>
       </c>
       <c r="C13" t="n">
-        <v>32.2991</v>
+        <v>32.3853</v>
       </c>
       <c r="D13" t="n">
-        <v>47.3199</v>
+        <v>47.9796</v>
       </c>
       <c r="E13" t="n">
-        <v>61.3917</v>
+        <v>61.7644</v>
       </c>
     </row>
     <row r="14">
@@ -6589,16 +6589,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>31.8323</v>
+        <v>32.1243</v>
       </c>
       <c r="C14" t="n">
-        <v>32.3723</v>
+        <v>32.118</v>
       </c>
       <c r="D14" t="n">
-        <v>47.912</v>
+        <v>47.3257</v>
       </c>
       <c r="E14" t="n">
-        <v>61.7133</v>
+        <v>61.3714</v>
       </c>
     </row>
     <row r="15">
@@ -6606,16 +6606,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>32.0799</v>
+        <v>31.8907</v>
       </c>
       <c r="C15" t="n">
-        <v>32.3056</v>
+        <v>32.4233</v>
       </c>
       <c r="D15" t="n">
-        <v>47.9434</v>
+        <v>48.506</v>
       </c>
       <c r="E15" t="n">
-        <v>61.9205</v>
+        <v>61.3648</v>
       </c>
     </row>
     <row r="16">
@@ -6623,16 +6623,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>32.0118</v>
+        <v>32.1541</v>
       </c>
       <c r="C16" t="n">
-        <v>32.1847</v>
+        <v>32.4711</v>
       </c>
       <c r="D16" t="n">
-        <v>48.1739</v>
+        <v>49.0894</v>
       </c>
       <c r="E16" t="n">
-        <v>60.4271</v>
+        <v>61.4399</v>
       </c>
     </row>
     <row r="17">
@@ -6640,16 +6640,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>32.2193</v>
+        <v>32.4315</v>
       </c>
       <c r="C17" t="n">
-        <v>32.2302</v>
+        <v>32.359</v>
       </c>
       <c r="D17" t="n">
-        <v>48.5432</v>
+        <v>47.6766</v>
       </c>
       <c r="E17" t="n">
-        <v>61.5571</v>
+        <v>61.469</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Parallel workload.xlsx
+++ b/vs-x86/Parallel workload.xlsx
@@ -4800,16 +4800,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>9.362349999999999</v>
+        <v>9.39127</v>
       </c>
       <c r="C2" t="n">
-        <v>10.737</v>
+        <v>10.7963</v>
       </c>
       <c r="D2" t="n">
-        <v>13.1011</v>
+        <v>13.1448</v>
       </c>
       <c r="E2" t="n">
-        <v>14.9344</v>
+        <v>15.0131</v>
       </c>
     </row>
     <row r="3">
@@ -4817,16 +4817,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>17.328</v>
+        <v>17.6404</v>
       </c>
       <c r="C3" t="n">
-        <v>16.658</v>
+        <v>17.0608</v>
       </c>
       <c r="D3" t="n">
-        <v>22.3652</v>
+        <v>22.1122</v>
       </c>
       <c r="E3" t="n">
-        <v>24.3159</v>
+        <v>23.4186</v>
       </c>
     </row>
     <row r="4">
@@ -4834,16 +4834,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>24.4184</v>
+        <v>24.8582</v>
       </c>
       <c r="C4" t="n">
-        <v>21.5286</v>
+        <v>21.2892</v>
       </c>
       <c r="D4" t="n">
-        <v>26.8029</v>
+        <v>27.419</v>
       </c>
       <c r="E4" t="n">
-        <v>31.4371</v>
+        <v>31.7655</v>
       </c>
     </row>
     <row r="5">
@@ -4851,16 +4851,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>21.3088</v>
+        <v>21.2574</v>
       </c>
       <c r="C5" t="n">
-        <v>23.7089</v>
+        <v>23.7956</v>
       </c>
       <c r="D5" t="n">
-        <v>29.6082</v>
+        <v>29.8223</v>
       </c>
       <c r="E5" t="n">
-        <v>32.2855</v>
+        <v>33.0971</v>
       </c>
     </row>
     <row r="6">
@@ -4868,16 +4868,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>25.9432</v>
+        <v>26.1493</v>
       </c>
       <c r="C6" t="n">
-        <v>27.7908</v>
+        <v>27.7457</v>
       </c>
       <c r="D6" t="n">
-        <v>31.9537</v>
+        <v>33.152</v>
       </c>
       <c r="E6" t="n">
-        <v>39.2534</v>
+        <v>39.5835</v>
       </c>
     </row>
     <row r="7">
@@ -4885,16 +4885,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>32.0448</v>
+        <v>32.1933</v>
       </c>
       <c r="C7" t="n">
-        <v>32.6031</v>
+        <v>32.7207</v>
       </c>
       <c r="D7" t="n">
-        <v>37.1448</v>
+        <v>39.293</v>
       </c>
       <c r="E7" t="n">
-        <v>40.59</v>
+        <v>39.4904</v>
       </c>
     </row>
     <row r="8">
@@ -4902,16 +4902,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>23.0861</v>
+        <v>23.3295</v>
       </c>
       <c r="C8" t="n">
-        <v>30.2994</v>
+        <v>29.92</v>
       </c>
       <c r="D8" t="n">
-        <v>35.955</v>
+        <v>36.2229</v>
       </c>
       <c r="E8" t="n">
-        <v>39.3971</v>
+        <v>40.6595</v>
       </c>
     </row>
     <row r="9">
@@ -4919,16 +4919,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>25.4899</v>
+        <v>26.1107</v>
       </c>
       <c r="C9" t="n">
-        <v>30.5324</v>
+        <v>30.2258</v>
       </c>
       <c r="D9" t="n">
-        <v>39.2353</v>
+        <v>37.8846</v>
       </c>
       <c r="E9" t="n">
-        <v>46.4984</v>
+        <v>44.3911</v>
       </c>
     </row>
     <row r="10">
@@ -4936,16 +4936,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>28.27</v>
+        <v>28.6253</v>
       </c>
       <c r="C10" t="n">
-        <v>30.1118</v>
+        <v>30.106</v>
       </c>
       <c r="D10" t="n">
-        <v>42.1475</v>
+        <v>41.7841</v>
       </c>
       <c r="E10" t="n">
-        <v>48.2113</v>
+        <v>48.3488</v>
       </c>
     </row>
     <row r="11">
@@ -4953,16 +4953,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>26.2939</v>
+        <v>26.2607</v>
       </c>
       <c r="C11" t="n">
-        <v>30.3576</v>
+        <v>30.5498</v>
       </c>
       <c r="D11" t="n">
-        <v>42.3104</v>
+        <v>41.9582</v>
       </c>
       <c r="E11" t="n">
-        <v>49.0507</v>
+        <v>51.5687</v>
       </c>
     </row>
     <row r="12">
@@ -4970,16 +4970,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>28.775</v>
+        <v>28.8981</v>
       </c>
       <c r="C12" t="n">
-        <v>31.0485</v>
+        <v>30.9735</v>
       </c>
       <c r="D12" t="n">
-        <v>42.8277</v>
+        <v>42.118</v>
       </c>
       <c r="E12" t="n">
-        <v>51.1859</v>
+        <v>49.8807</v>
       </c>
     </row>
     <row r="13">
@@ -4987,16 +4987,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>31.8655</v>
+        <v>32.135</v>
       </c>
       <c r="C13" t="n">
-        <v>31.4473</v>
+        <v>31.2191</v>
       </c>
       <c r="D13" t="n">
-        <v>43.7264</v>
+        <v>44.8142</v>
       </c>
       <c r="E13" t="n">
-        <v>53.0306</v>
+        <v>50.5282</v>
       </c>
     </row>
     <row r="14">
@@ -5004,16 +5004,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>26.0431</v>
+        <v>25.9967</v>
       </c>
       <c r="C14" t="n">
-        <v>30.6142</v>
+        <v>30.7459</v>
       </c>
       <c r="D14" t="n">
-        <v>41.731</v>
+        <v>44.1522</v>
       </c>
       <c r="E14" t="n">
-        <v>53.4584</v>
+        <v>52.5079</v>
       </c>
     </row>
     <row r="15">
@@ -5021,16 +5021,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>27.7677</v>
+        <v>28.0757</v>
       </c>
       <c r="C15" t="n">
-        <v>30.7879</v>
+        <v>31.0369</v>
       </c>
       <c r="D15" t="n">
-        <v>44.6406</v>
+        <v>44.6691</v>
       </c>
       <c r="E15" t="n">
-        <v>53.9098</v>
+        <v>51.15</v>
       </c>
     </row>
     <row r="16">
@@ -5038,16 +5038,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>29.4585</v>
+        <v>29.191</v>
       </c>
       <c r="C16" t="n">
-        <v>30.6398</v>
+        <v>31.0365</v>
       </c>
       <c r="D16" t="n">
-        <v>44.1989</v>
+        <v>45.4569</v>
       </c>
       <c r="E16" t="n">
-        <v>53.029</v>
+        <v>53.7823</v>
       </c>
     </row>
     <row r="17">
@@ -5055,16 +5055,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>27.6735</v>
+        <v>27.8366</v>
       </c>
       <c r="C17" t="n">
-        <v>30.8423</v>
+        <v>30.9936</v>
       </c>
       <c r="D17" t="n">
-        <v>44.5512</v>
+        <v>45.0244</v>
       </c>
       <c r="E17" t="n">
-        <v>52.4457</v>
+        <v>53.3582</v>
       </c>
     </row>
   </sheetData>
@@ -5117,16 +5117,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>9.253220000000001</v>
+        <v>9.35948</v>
       </c>
       <c r="C2" t="n">
-        <v>10.7422</v>
+        <v>10.8014</v>
       </c>
       <c r="D2" t="n">
-        <v>12.9916</v>
+        <v>13.0223</v>
       </c>
       <c r="E2" t="n">
-        <v>14.8165</v>
+        <v>14.889</v>
       </c>
     </row>
     <row r="3">
@@ -5134,16 +5134,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>17.2241</v>
+        <v>17.6114</v>
       </c>
       <c r="C3" t="n">
-        <v>16.738</v>
+        <v>17.0186</v>
       </c>
       <c r="D3" t="n">
-        <v>21.1138</v>
+        <v>21.0345</v>
       </c>
       <c r="E3" t="n">
-        <v>23.3687</v>
+        <v>23.2854</v>
       </c>
     </row>
     <row r="4">
@@ -5151,16 +5151,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>24.3892</v>
+        <v>24.636</v>
       </c>
       <c r="C4" t="n">
-        <v>22.3151</v>
+        <v>22.4219</v>
       </c>
       <c r="D4" t="n">
-        <v>26.42</v>
+        <v>26.4573</v>
       </c>
       <c r="E4" t="n">
-        <v>30.6981</v>
+        <v>29.5149</v>
       </c>
     </row>
     <row r="5">
@@ -5168,16 +5168,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>21.5258</v>
+        <v>21.5831</v>
       </c>
       <c r="C5" t="n">
-        <v>23.399</v>
+        <v>23.6698</v>
       </c>
       <c r="D5" t="n">
-        <v>28.6905</v>
+        <v>28.7184</v>
       </c>
       <c r="E5" t="n">
-        <v>35.775</v>
+        <v>35.2504</v>
       </c>
     </row>
     <row r="6">
@@ -5185,16 +5185,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>25.8339</v>
+        <v>25.9575</v>
       </c>
       <c r="C6" t="n">
-        <v>27.7877</v>
+        <v>27.8855</v>
       </c>
       <c r="D6" t="n">
-        <v>34.9583</v>
+        <v>34.8851</v>
       </c>
       <c r="E6" t="n">
-        <v>39.4605</v>
+        <v>35.181</v>
       </c>
     </row>
     <row r="7">
@@ -5202,16 +5202,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>31.9805</v>
+        <v>32.2714</v>
       </c>
       <c r="C7" t="n">
-        <v>32.5209</v>
+        <v>32.6631</v>
       </c>
       <c r="D7" t="n">
-        <v>36.3505</v>
+        <v>35.7067</v>
       </c>
       <c r="E7" t="n">
-        <v>45.1422</v>
+        <v>45.0018</v>
       </c>
     </row>
     <row r="8">
@@ -5219,16 +5219,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>22.3024</v>
+        <v>22.7162</v>
       </c>
       <c r="C8" t="n">
-        <v>29.1517</v>
+        <v>29.7112</v>
       </c>
       <c r="D8" t="n">
-        <v>32.6928</v>
+        <v>35.8406</v>
       </c>
       <c r="E8" t="n">
-        <v>41.1279</v>
+        <v>43.0339</v>
       </c>
     </row>
     <row r="9">
@@ -5236,16 +5236,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>25.7093</v>
+        <v>25.9169</v>
       </c>
       <c r="C9" t="n">
-        <v>29.6484</v>
+        <v>30.1392</v>
       </c>
       <c r="D9" t="n">
-        <v>37.3217</v>
+        <v>36.1075</v>
       </c>
       <c r="E9" t="n">
-        <v>48.1654</v>
+        <v>45.2129</v>
       </c>
     </row>
     <row r="10">
@@ -5253,16 +5253,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>28.0132</v>
+        <v>27.9618</v>
       </c>
       <c r="C10" t="n">
-        <v>30.0313</v>
+        <v>30.8603</v>
       </c>
       <c r="D10" t="n">
-        <v>37.564</v>
+        <v>37.1942</v>
       </c>
       <c r="E10" t="n">
-        <v>46.1097</v>
+        <v>48.5527</v>
       </c>
     </row>
     <row r="11">
@@ -5270,16 +5270,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>25.694</v>
+        <v>26.0735</v>
       </c>
       <c r="C11" t="n">
-        <v>29.7136</v>
+        <v>30.1682</v>
       </c>
       <c r="D11" t="n">
-        <v>40.0606</v>
+        <v>39.6074</v>
       </c>
       <c r="E11" t="n">
-        <v>49.7953</v>
+        <v>51.236</v>
       </c>
     </row>
     <row r="12">
@@ -5287,16 +5287,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>28.6502</v>
+        <v>28.9499</v>
       </c>
       <c r="C12" t="n">
-        <v>30.7717</v>
+        <v>30.997</v>
       </c>
       <c r="D12" t="n">
-        <v>41.0504</v>
+        <v>41.8192</v>
       </c>
       <c r="E12" t="n">
-        <v>52.643</v>
+        <v>52.5653</v>
       </c>
     </row>
     <row r="13">
@@ -5304,16 +5304,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>31.9508</v>
+        <v>32.1494</v>
       </c>
       <c r="C13" t="n">
-        <v>31.2932</v>
+        <v>31.02</v>
       </c>
       <c r="D13" t="n">
-        <v>43.001</v>
+        <v>44.5551</v>
       </c>
       <c r="E13" t="n">
-        <v>51.379</v>
+        <v>52.5499</v>
       </c>
     </row>
     <row r="14">
@@ -5321,16 +5321,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>26.3361</v>
+        <v>25.7277</v>
       </c>
       <c r="C14" t="n">
-        <v>31.2925</v>
+        <v>31.334</v>
       </c>
       <c r="D14" t="n">
-        <v>42.0901</v>
+        <v>44.6948</v>
       </c>
       <c r="E14" t="n">
-        <v>53.2781</v>
+        <v>53.0123</v>
       </c>
     </row>
     <row r="15">
@@ -5338,16 +5338,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>27.7169</v>
+        <v>28.1972</v>
       </c>
       <c r="C15" t="n">
-        <v>31.3072</v>
+        <v>31.7718</v>
       </c>
       <c r="D15" t="n">
-        <v>45.1512</v>
+        <v>44.8652</v>
       </c>
       <c r="E15" t="n">
-        <v>52.4487</v>
+        <v>52.7212</v>
       </c>
     </row>
     <row r="16">
@@ -5355,16 +5355,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>29.8353</v>
+        <v>28.8545</v>
       </c>
       <c r="C16" t="n">
-        <v>31.5</v>
+        <v>31.4942</v>
       </c>
       <c r="D16" t="n">
-        <v>45.4055</v>
+        <v>44.6782</v>
       </c>
       <c r="E16" t="n">
-        <v>53.5325</v>
+        <v>52.5277</v>
       </c>
     </row>
     <row r="17">
@@ -5372,16 +5372,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>28.0115</v>
+        <v>28.0773</v>
       </c>
       <c r="C17" t="n">
-        <v>31.3948</v>
+        <v>31.6886</v>
       </c>
       <c r="D17" t="n">
-        <v>44.9387</v>
+        <v>42.6516</v>
       </c>
       <c r="E17" t="n">
-        <v>53.5876</v>
+        <v>53.8106</v>
       </c>
     </row>
   </sheetData>
@@ -5434,16 +5434,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>10.7838</v>
+        <v>10.9117</v>
       </c>
       <c r="C2" t="n">
-        <v>11.5393</v>
+        <v>11.6503</v>
       </c>
       <c r="D2" t="n">
-        <v>13.687</v>
+        <v>13.8186</v>
       </c>
       <c r="E2" t="n">
-        <v>15.3387</v>
+        <v>15.4529</v>
       </c>
     </row>
     <row r="3">
@@ -5451,16 +5451,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>19.3198</v>
+        <v>19.4706</v>
       </c>
       <c r="C3" t="n">
-        <v>19.2323</v>
+        <v>19.4998</v>
       </c>
       <c r="D3" t="n">
-        <v>22.0852</v>
+        <v>23.1552</v>
       </c>
       <c r="E3" t="n">
-        <v>24.8012</v>
+        <v>25.2854</v>
       </c>
     </row>
     <row r="4">
@@ -5468,16 +5468,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>26.5587</v>
+        <v>26.9304</v>
       </c>
       <c r="C4" t="n">
-        <v>25.1034</v>
+        <v>24.7231</v>
       </c>
       <c r="D4" t="n">
-        <v>29.3439</v>
+        <v>31.2389</v>
       </c>
       <c r="E4" t="n">
-        <v>32.3026</v>
+        <v>34.3524</v>
       </c>
     </row>
     <row r="5">
@@ -5485,16 +5485,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>23.9943</v>
+        <v>24.2687</v>
       </c>
       <c r="C5" t="n">
-        <v>24.6919</v>
+        <v>24.6542</v>
       </c>
       <c r="D5" t="n">
-        <v>30.7446</v>
+        <v>31.3892</v>
       </c>
       <c r="E5" t="n">
-        <v>35.7804</v>
+        <v>35.1294</v>
       </c>
     </row>
     <row r="6">
@@ -5502,16 +5502,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>29.1133</v>
+        <v>29.3919</v>
       </c>
       <c r="C6" t="n">
-        <v>28.7416</v>
+        <v>28.4679</v>
       </c>
       <c r="D6" t="n">
-        <v>32.9962</v>
+        <v>35.0404</v>
       </c>
       <c r="E6" t="n">
-        <v>36.891</v>
+        <v>36.7284</v>
       </c>
     </row>
     <row r="7">
@@ -5519,16 +5519,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>34.9563</v>
+        <v>35.2644</v>
       </c>
       <c r="C7" t="n">
-        <v>33.7275</v>
+        <v>33.7144</v>
       </c>
       <c r="D7" t="n">
-        <v>35.1871</v>
+        <v>35.168</v>
       </c>
       <c r="E7" t="n">
-        <v>52.3057</v>
+        <v>45.0926</v>
       </c>
     </row>
     <row r="8">
@@ -5536,16 +5536,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>30.2905</v>
+        <v>31.5673</v>
       </c>
       <c r="C8" t="n">
-        <v>29.7016</v>
+        <v>29.7615</v>
       </c>
       <c r="D8" t="n">
-        <v>35.8626</v>
+        <v>35.2015</v>
       </c>
       <c r="E8" t="n">
-        <v>45.0979</v>
+        <v>45.6412</v>
       </c>
     </row>
     <row r="9">
@@ -5553,16 +5553,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>31.5283</v>
+        <v>30.9675</v>
       </c>
       <c r="C9" t="n">
-        <v>30.2366</v>
+        <v>30.3862</v>
       </c>
       <c r="D9" t="n">
-        <v>39.1577</v>
+        <v>37.7467</v>
       </c>
       <c r="E9" t="n">
-        <v>51.78</v>
+        <v>47.1447</v>
       </c>
     </row>
     <row r="10">
@@ -5570,16 +5570,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>31.4925</v>
+        <v>31.9398</v>
       </c>
       <c r="C10" t="n">
-        <v>30.4141</v>
+        <v>30.6789</v>
       </c>
       <c r="D10" t="n">
-        <v>41.6058</v>
+        <v>41.9708</v>
       </c>
       <c r="E10" t="n">
-        <v>50.6418</v>
+        <v>51.689</v>
       </c>
     </row>
     <row r="11">
@@ -5587,16 +5587,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>31.8168</v>
+        <v>32.3977</v>
       </c>
       <c r="C11" t="n">
-        <v>30.8634</v>
+        <v>30.7415</v>
       </c>
       <c r="D11" t="n">
-        <v>42.2064</v>
+        <v>44.5588</v>
       </c>
       <c r="E11" t="n">
-        <v>52.303</v>
+        <v>52.1155</v>
       </c>
     </row>
     <row r="12">
@@ -5604,16 +5604,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>32.7766</v>
+        <v>32.3118</v>
       </c>
       <c r="C12" t="n">
-        <v>31.4136</v>
+        <v>31.0194</v>
       </c>
       <c r="D12" t="n">
-        <v>44.6669</v>
+        <v>43.8928</v>
       </c>
       <c r="E12" t="n">
-        <v>50.5341</v>
+        <v>51.8835</v>
       </c>
     </row>
     <row r="13">
@@ -5621,16 +5621,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>32.6084</v>
+        <v>32.854</v>
       </c>
       <c r="C13" t="n">
-        <v>30.7447</v>
+        <v>30.9645</v>
       </c>
       <c r="D13" t="n">
-        <v>44.5428</v>
+        <v>44.5618</v>
       </c>
       <c r="E13" t="n">
-        <v>51.1782</v>
+        <v>52.545</v>
       </c>
     </row>
     <row r="14">
@@ -5638,16 +5638,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>32.7207</v>
+        <v>33.1962</v>
       </c>
       <c r="C14" t="n">
-        <v>31.5336</v>
+        <v>31.6972</v>
       </c>
       <c r="D14" t="n">
-        <v>44.3707</v>
+        <v>43.9351</v>
       </c>
       <c r="E14" t="n">
-        <v>52.5422</v>
+        <v>53.6249</v>
       </c>
     </row>
     <row r="15">
@@ -5655,16 +5655,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>32.8596</v>
+        <v>33.1125</v>
       </c>
       <c r="C15" t="n">
-        <v>31.636</v>
+        <v>31.0429</v>
       </c>
       <c r="D15" t="n">
-        <v>45.3266</v>
+        <v>44.4272</v>
       </c>
       <c r="E15" t="n">
-        <v>52.3224</v>
+        <v>53.4835</v>
       </c>
     </row>
     <row r="16">
@@ -5672,16 +5672,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>32.836</v>
+        <v>33.404</v>
       </c>
       <c r="C16" t="n">
-        <v>31.7384</v>
+        <v>31.7943</v>
       </c>
       <c r="D16" t="n">
-        <v>44.7053</v>
+        <v>44.7424</v>
       </c>
       <c r="E16" t="n">
-        <v>53.0968</v>
+        <v>52.6913</v>
       </c>
     </row>
     <row r="17">
@@ -5689,16 +5689,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>33.3097</v>
+        <v>33.3655</v>
       </c>
       <c r="C17" t="n">
-        <v>31.9197</v>
+        <v>31.9037</v>
       </c>
       <c r="D17" t="n">
-        <v>43.2555</v>
+        <v>44.3705</v>
       </c>
       <c r="E17" t="n">
-        <v>52.7112</v>
+        <v>52.2208</v>
       </c>
     </row>
   </sheetData>
@@ -5751,16 +5751,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4.88584</v>
+        <v>4.95254</v>
       </c>
       <c r="C2" t="n">
-        <v>9.015470000000001</v>
+        <v>9.084619999999999</v>
       </c>
       <c r="D2" t="n">
-        <v>10.799</v>
+        <v>10.8645</v>
       </c>
       <c r="E2" t="n">
-        <v>13.9145</v>
+        <v>13.977</v>
       </c>
     </row>
     <row r="3">
@@ -5768,16 +5768,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.71597</v>
+        <v>9.79284</v>
       </c>
       <c r="C3" t="n">
-        <v>15.6606</v>
+        <v>15.8217</v>
       </c>
       <c r="D3" t="n">
-        <v>20.5821</v>
+        <v>20.6383</v>
       </c>
       <c r="E3" t="n">
-        <v>26.4526</v>
+        <v>26.2208</v>
       </c>
     </row>
     <row r="4">
@@ -5785,16 +5785,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>14.1244</v>
+        <v>14.3314</v>
       </c>
       <c r="C4" t="n">
-        <v>21.8419</v>
+        <v>22.2369</v>
       </c>
       <c r="D4" t="n">
-        <v>29.6594</v>
+        <v>29.615</v>
       </c>
       <c r="E4" t="n">
-        <v>37.6492</v>
+        <v>37.776</v>
       </c>
     </row>
     <row r="5">
@@ -5802,16 +5802,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>17.248</v>
+        <v>17.368</v>
       </c>
       <c r="C5" t="n">
-        <v>22.9451</v>
+        <v>22.8418</v>
       </c>
       <c r="D5" t="n">
-        <v>33.7852</v>
+        <v>33.4853</v>
       </c>
       <c r="E5" t="n">
-        <v>43.9746</v>
+        <v>43.6912</v>
       </c>
     </row>
     <row r="6">
@@ -5819,16 +5819,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>21.1605</v>
+        <v>21.3034</v>
       </c>
       <c r="C6" t="n">
-        <v>26.3317</v>
+        <v>26.48</v>
       </c>
       <c r="D6" t="n">
-        <v>40.9233</v>
+        <v>40.8033</v>
       </c>
       <c r="E6" t="n">
-        <v>51.9684</v>
+        <v>52.1516</v>
       </c>
     </row>
     <row r="7">
@@ -5836,16 +5836,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>25.5745</v>
+        <v>25.883</v>
       </c>
       <c r="C7" t="n">
-        <v>31.061</v>
+        <v>31.3329</v>
       </c>
       <c r="D7" t="n">
-        <v>47.6236</v>
+        <v>48.1846</v>
       </c>
       <c r="E7" t="n">
-        <v>61.8226</v>
+        <v>62.1176</v>
       </c>
     </row>
     <row r="8">
@@ -5853,16 +5853,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>21.7984</v>
+        <v>22.6044</v>
       </c>
       <c r="C8" t="n">
-        <v>29.7784</v>
+        <v>29.9823</v>
       </c>
       <c r="D8" t="n">
-        <v>43.7309</v>
+        <v>44.3064</v>
       </c>
       <c r="E8" t="n">
-        <v>55.959</v>
+        <v>56.079</v>
       </c>
     </row>
     <row r="9">
@@ -5870,16 +5870,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>22.7829</v>
+        <v>23.258</v>
       </c>
       <c r="C9" t="n">
-        <v>29.4377</v>
+        <v>30.1337</v>
       </c>
       <c r="D9" t="n">
-        <v>42.6918</v>
+        <v>42.8119</v>
       </c>
       <c r="E9" t="n">
-        <v>55.14</v>
+        <v>54.0169</v>
       </c>
     </row>
     <row r="10">
@@ -5887,16 +5887,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>23.1043</v>
+        <v>23.7967</v>
       </c>
       <c r="C10" t="n">
-        <v>29.7768</v>
+        <v>29.8422</v>
       </c>
       <c r="D10" t="n">
-        <v>42.7109</v>
+        <v>43.8234</v>
       </c>
       <c r="E10" t="n">
-        <v>54.4832</v>
+        <v>55.2641</v>
       </c>
     </row>
     <row r="11">
@@ -5904,16 +5904,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>23.8297</v>
+        <v>23.8482</v>
       </c>
       <c r="C11" t="n">
-        <v>29.6118</v>
+        <v>30.1944</v>
       </c>
       <c r="D11" t="n">
-        <v>42.9193</v>
+        <v>44.0521</v>
       </c>
       <c r="E11" t="n">
-        <v>56.2474</v>
+        <v>56.2076</v>
       </c>
     </row>
     <row r="12">
@@ -5921,16 +5921,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>23.4713</v>
+        <v>23.7794</v>
       </c>
       <c r="C12" t="n">
-        <v>30.0117</v>
+        <v>30.2323</v>
       </c>
       <c r="D12" t="n">
-        <v>44.0965</v>
+        <v>44.8493</v>
       </c>
       <c r="E12" t="n">
-        <v>57.3377</v>
+        <v>57.1175</v>
       </c>
     </row>
     <row r="13">
@@ -5938,16 +5938,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>24.2219</v>
+        <v>23.7023</v>
       </c>
       <c r="C13" t="n">
-        <v>30.2342</v>
+        <v>30.5008</v>
       </c>
       <c r="D13" t="n">
-        <v>43.343</v>
+        <v>44.8086</v>
       </c>
       <c r="E13" t="n">
-        <v>58.1306</v>
+        <v>58.6369</v>
       </c>
     </row>
     <row r="14">
@@ -5955,16 +5955,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>23.9232</v>
+        <v>24.2477</v>
       </c>
       <c r="C14" t="n">
-        <v>30.3624</v>
+        <v>30.662</v>
       </c>
       <c r="D14" t="n">
-        <v>45.8467</v>
+        <v>45.6613</v>
       </c>
       <c r="E14" t="n">
-        <v>58.2122</v>
+        <v>57.6566</v>
       </c>
     </row>
     <row r="15">
@@ -5972,16 +5972,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>23.83</v>
+        <v>24.3438</v>
       </c>
       <c r="C15" t="n">
-        <v>30.2195</v>
+        <v>30.4576</v>
       </c>
       <c r="D15" t="n">
-        <v>45.6894</v>
+        <v>45.0058</v>
       </c>
       <c r="E15" t="n">
-        <v>58.813</v>
+        <v>58.3031</v>
       </c>
     </row>
     <row r="16">
@@ -5989,16 +5989,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>24.0111</v>
+        <v>24.3632</v>
       </c>
       <c r="C16" t="n">
-        <v>30.4261</v>
+        <v>30.7198</v>
       </c>
       <c r="D16" t="n">
-        <v>45.1253</v>
+        <v>46.0423</v>
       </c>
       <c r="E16" t="n">
-        <v>58.372</v>
+        <v>58.954</v>
       </c>
     </row>
     <row r="17">
@@ -6006,16 +6006,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>24.1974</v>
+        <v>24.3529</v>
       </c>
       <c r="C17" t="n">
-        <v>30.522</v>
+        <v>30.427</v>
       </c>
       <c r="D17" t="n">
-        <v>44.7246</v>
+        <v>45.0647</v>
       </c>
       <c r="E17" t="n">
-        <v>59.1876</v>
+        <v>59.7088</v>
       </c>
     </row>
   </sheetData>
@@ -6068,16 +6068,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>5.02781</v>
+        <v>5.07376</v>
       </c>
       <c r="C2" t="n">
-        <v>9.054740000000001</v>
+        <v>9.145390000000001</v>
       </c>
       <c r="D2" t="n">
-        <v>10.8942</v>
+        <v>10.9216</v>
       </c>
       <c r="E2" t="n">
-        <v>13.9799</v>
+        <v>14.015</v>
       </c>
     </row>
     <row r="3">
@@ -6085,16 +6085,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.97296</v>
+        <v>10.0577</v>
       </c>
       <c r="C3" t="n">
-        <v>15.82</v>
+        <v>16.047</v>
       </c>
       <c r="D3" t="n">
-        <v>20.5966</v>
+        <v>20.8551</v>
       </c>
       <c r="E3" t="n">
-        <v>26.445</v>
+        <v>26.6194</v>
       </c>
     </row>
     <row r="4">
@@ -6102,16 +6102,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>14.5711</v>
+        <v>14.7797</v>
       </c>
       <c r="C4" t="n">
-        <v>22.3759</v>
+        <v>22.6347</v>
       </c>
       <c r="D4" t="n">
-        <v>29.7535</v>
+        <v>29.5276</v>
       </c>
       <c r="E4" t="n">
-        <v>38.1421</v>
+        <v>38.1377</v>
       </c>
     </row>
     <row r="5">
@@ -6119,16 +6119,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>17.3684</v>
+        <v>17.3007</v>
       </c>
       <c r="C5" t="n">
-        <v>23.1121</v>
+        <v>23.1678</v>
       </c>
       <c r="D5" t="n">
-        <v>32.8864</v>
+        <v>33.8079</v>
       </c>
       <c r="E5" t="n">
-        <v>43.3097</v>
+        <v>43.4361</v>
       </c>
     </row>
     <row r="6">
@@ -6136,16 +6136,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>21.3712</v>
+        <v>21.5321</v>
       </c>
       <c r="C6" t="n">
-        <v>26.5008</v>
+        <v>26.5145</v>
       </c>
       <c r="D6" t="n">
-        <v>39.545</v>
+        <v>39.9443</v>
       </c>
       <c r="E6" t="n">
-        <v>51.7867</v>
+        <v>51.9493</v>
       </c>
     </row>
     <row r="7">
@@ -6153,16 +6153,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>25.9115</v>
+        <v>26.2223</v>
       </c>
       <c r="C7" t="n">
-        <v>31.2967</v>
+        <v>31.465</v>
       </c>
       <c r="D7" t="n">
-        <v>47.1447</v>
+        <v>47.4693</v>
       </c>
       <c r="E7" t="n">
-        <v>60.0585</v>
+        <v>60.1305</v>
       </c>
     </row>
     <row r="8">
@@ -6170,16 +6170,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>23.0761</v>
+        <v>23.3128</v>
       </c>
       <c r="C8" t="n">
-        <v>29.8242</v>
+        <v>30.1341</v>
       </c>
       <c r="D8" t="n">
-        <v>42.1193</v>
+        <v>44.0366</v>
       </c>
       <c r="E8" t="n">
-        <v>53.7759</v>
+        <v>53.6611</v>
       </c>
     </row>
     <row r="9">
@@ -6187,16 +6187,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>23.5204</v>
+        <v>24.0767</v>
       </c>
       <c r="C9" t="n">
-        <v>30.115</v>
+        <v>29.757</v>
       </c>
       <c r="D9" t="n">
-        <v>42.1778</v>
+        <v>42.4443</v>
       </c>
       <c r="E9" t="n">
-        <v>52.1983</v>
+        <v>53.7425</v>
       </c>
     </row>
     <row r="10">
@@ -6204,16 +6204,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>23.7542</v>
+        <v>24.2154</v>
       </c>
       <c r="C10" t="n">
-        <v>29.4359</v>
+        <v>30.0748</v>
       </c>
       <c r="D10" t="n">
-        <v>42.0005</v>
+        <v>42.5375</v>
       </c>
       <c r="E10" t="n">
-        <v>53.2207</v>
+        <v>52.8454</v>
       </c>
     </row>
     <row r="11">
@@ -6221,16 +6221,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>24.2728</v>
+        <v>24.2019</v>
       </c>
       <c r="C11" t="n">
-        <v>29.9028</v>
+        <v>30.587</v>
       </c>
       <c r="D11" t="n">
-        <v>43.2673</v>
+        <v>41.7124</v>
       </c>
       <c r="E11" t="n">
-        <v>55.0544</v>
+        <v>55.2453</v>
       </c>
     </row>
     <row r="12">
@@ -6238,16 +6238,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>23.8539</v>
+        <v>24.5647</v>
       </c>
       <c r="C12" t="n">
-        <v>30.0203</v>
+        <v>30.4118</v>
       </c>
       <c r="D12" t="n">
-        <v>43.7054</v>
+        <v>44.2367</v>
       </c>
       <c r="E12" t="n">
-        <v>57.881</v>
+        <v>57.367</v>
       </c>
     </row>
     <row r="13">
@@ -6255,16 +6255,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>23.9802</v>
+        <v>24.5155</v>
       </c>
       <c r="C13" t="n">
-        <v>30.2605</v>
+        <v>30.2797</v>
       </c>
       <c r="D13" t="n">
-        <v>43.0493</v>
+        <v>43.8878</v>
       </c>
       <c r="E13" t="n">
-        <v>56.1733</v>
+        <v>57.8731</v>
       </c>
     </row>
     <row r="14">
@@ -6272,16 +6272,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>24.1353</v>
+        <v>24.4491</v>
       </c>
       <c r="C14" t="n">
-        <v>30.0196</v>
+        <v>30.3681</v>
       </c>
       <c r="D14" t="n">
-        <v>44.4762</v>
+        <v>44.5221</v>
       </c>
       <c r="E14" t="n">
-        <v>56.3427</v>
+        <v>58.2331</v>
       </c>
     </row>
     <row r="15">
@@ -6289,16 +6289,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>23.9939</v>
+        <v>24.1684</v>
       </c>
       <c r="C15" t="n">
-        <v>30.4996</v>
+        <v>30.5817</v>
       </c>
       <c r="D15" t="n">
-        <v>45.8223</v>
+        <v>44.9647</v>
       </c>
       <c r="E15" t="n">
-        <v>57.3554</v>
+        <v>57.0451</v>
       </c>
     </row>
     <row r="16">
@@ -6306,16 +6306,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>24.4695</v>
+        <v>24.7912</v>
       </c>
       <c r="C16" t="n">
-        <v>30.1648</v>
+        <v>30.815</v>
       </c>
       <c r="D16" t="n">
-        <v>45.3276</v>
+        <v>45.3982</v>
       </c>
       <c r="E16" t="n">
-        <v>57.9244</v>
+        <v>57.707</v>
       </c>
     </row>
     <row r="17">
@@ -6323,16 +6323,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>24.1985</v>
+        <v>24.9484</v>
       </c>
       <c r="C17" t="n">
-        <v>30.2717</v>
+        <v>30.7842</v>
       </c>
       <c r="D17" t="n">
-        <v>45.567</v>
+        <v>45.4611</v>
       </c>
       <c r="E17" t="n">
-        <v>58.7703</v>
+        <v>57.7964</v>
       </c>
     </row>
   </sheetData>
@@ -6385,16 +6385,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.740830000000001</v>
+        <v>8.921060000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>10.8235</v>
+        <v>10.9181</v>
       </c>
       <c r="D2" t="n">
-        <v>13.093</v>
+        <v>13.1837</v>
       </c>
       <c r="E2" t="n">
-        <v>15.2396</v>
+        <v>15.3642</v>
       </c>
     </row>
     <row r="3">
@@ -6402,16 +6402,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>16.5743</v>
+        <v>16.7816</v>
       </c>
       <c r="C3" t="n">
-        <v>18.2523</v>
+        <v>18.6414</v>
       </c>
       <c r="D3" t="n">
-        <v>24.2656</v>
+        <v>24.4383</v>
       </c>
       <c r="E3" t="n">
-        <v>28.5759</v>
+        <v>28.813</v>
       </c>
     </row>
     <row r="4">
@@ -6419,16 +6419,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>23.7419</v>
+        <v>24.2278</v>
       </c>
       <c r="C4" t="n">
-        <v>25.4325</v>
+        <v>25.3934</v>
       </c>
       <c r="D4" t="n">
-        <v>34.6822</v>
+        <v>34.5968</v>
       </c>
       <c r="E4" t="n">
-        <v>40.7204</v>
+        <v>41.5161</v>
       </c>
     </row>
     <row r="5">
@@ -6436,16 +6436,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>24.0262</v>
+        <v>24.1296</v>
       </c>
       <c r="C5" t="n">
-        <v>25.3072</v>
+        <v>25.3898</v>
       </c>
       <c r="D5" t="n">
-        <v>36.5694</v>
+        <v>36.6606</v>
       </c>
       <c r="E5" t="n">
-        <v>46.3813</v>
+        <v>46.76</v>
       </c>
     </row>
     <row r="6">
@@ -6453,16 +6453,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>27.5885</v>
+        <v>27.7132</v>
       </c>
       <c r="C6" t="n">
-        <v>28.4848</v>
+        <v>28.6344</v>
       </c>
       <c r="D6" t="n">
-        <v>42.5923</v>
+        <v>42.783</v>
       </c>
       <c r="E6" t="n">
-        <v>55.0816</v>
+        <v>56.307</v>
       </c>
     </row>
     <row r="7">
@@ -6470,16 +6470,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>33.5415</v>
+        <v>33.9866</v>
       </c>
       <c r="C7" t="n">
-        <v>33.1003</v>
+        <v>33.2648</v>
       </c>
       <c r="D7" t="n">
-        <v>50.2936</v>
+        <v>50.7811</v>
       </c>
       <c r="E7" t="n">
-        <v>63.3259</v>
+        <v>63.2843</v>
       </c>
     </row>
     <row r="8">
@@ -6487,16 +6487,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>30.8785</v>
+        <v>31.1437</v>
       </c>
       <c r="C8" t="n">
-        <v>32.1391</v>
+        <v>31.5992</v>
       </c>
       <c r="D8" t="n">
-        <v>46.208</v>
+        <v>47.8274</v>
       </c>
       <c r="E8" t="n">
-        <v>59.0363</v>
+        <v>61.3911</v>
       </c>
     </row>
     <row r="9">
@@ -6504,16 +6504,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>30.7971</v>
+        <v>31.2733</v>
       </c>
       <c r="C9" t="n">
-        <v>31.6537</v>
+        <v>32.0642</v>
       </c>
       <c r="D9" t="n">
-        <v>46.3669</v>
+        <v>47.0502</v>
       </c>
       <c r="E9" t="n">
-        <v>59.9364</v>
+        <v>61.1424</v>
       </c>
     </row>
     <row r="10">
@@ -6521,16 +6521,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>31.4959</v>
+        <v>31.6642</v>
       </c>
       <c r="C10" t="n">
-        <v>32.2387</v>
+        <v>32.3714</v>
       </c>
       <c r="D10" t="n">
-        <v>47.6405</v>
+        <v>48.5067</v>
       </c>
       <c r="E10" t="n">
-        <v>59.6474</v>
+        <v>60.3278</v>
       </c>
     </row>
     <row r="11">
@@ -6538,16 +6538,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>32.1953</v>
+        <v>32.3758</v>
       </c>
       <c r="C11" t="n">
-        <v>32.4574</v>
+        <v>32.5428</v>
       </c>
       <c r="D11" t="n">
-        <v>47.5258</v>
+        <v>48.2326</v>
       </c>
       <c r="E11" t="n">
-        <v>61.0733</v>
+        <v>61.2307</v>
       </c>
     </row>
     <row r="12">
@@ -6555,16 +6555,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>31.9712</v>
+        <v>32.2855</v>
       </c>
       <c r="C12" t="n">
-        <v>32.4061</v>
+        <v>32.6185</v>
       </c>
       <c r="D12" t="n">
-        <v>48.2067</v>
+        <v>48.1929</v>
       </c>
       <c r="E12" t="n">
-        <v>61.5249</v>
+        <v>62.2603</v>
       </c>
     </row>
     <row r="13">
@@ -6572,16 +6572,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>32.1248</v>
+        <v>31.8227</v>
       </c>
       <c r="C13" t="n">
-        <v>32.3853</v>
+        <v>32.3699</v>
       </c>
       <c r="D13" t="n">
-        <v>47.9796</v>
+        <v>47.9903</v>
       </c>
       <c r="E13" t="n">
-        <v>61.7644</v>
+        <v>59.6741</v>
       </c>
     </row>
     <row r="14">
@@ -6589,16 +6589,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>32.1243</v>
+        <v>32.4279</v>
       </c>
       <c r="C14" t="n">
-        <v>32.118</v>
+        <v>32.2841</v>
       </c>
       <c r="D14" t="n">
-        <v>47.3257</v>
+        <v>48.4952</v>
       </c>
       <c r="E14" t="n">
-        <v>61.3714</v>
+        <v>62.9014</v>
       </c>
     </row>
     <row r="15">
@@ -6606,16 +6606,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>31.8907</v>
+        <v>32.5265</v>
       </c>
       <c r="C15" t="n">
-        <v>32.4233</v>
+        <v>32.6126</v>
       </c>
       <c r="D15" t="n">
-        <v>48.506</v>
+        <v>47.9591</v>
       </c>
       <c r="E15" t="n">
-        <v>61.3648</v>
+        <v>62.6839</v>
       </c>
     </row>
     <row r="16">
@@ -6623,16 +6623,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>32.1541</v>
+        <v>32.7364</v>
       </c>
       <c r="C16" t="n">
-        <v>32.4711</v>
+        <v>32.464</v>
       </c>
       <c r="D16" t="n">
-        <v>49.0894</v>
+        <v>48.4598</v>
       </c>
       <c r="E16" t="n">
-        <v>61.4399</v>
+        <v>62.8684</v>
       </c>
     </row>
     <row r="17">
@@ -6640,16 +6640,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>32.4315</v>
+        <v>32.6188</v>
       </c>
       <c r="C17" t="n">
-        <v>32.359</v>
+        <v>32.5507</v>
       </c>
       <c r="D17" t="n">
-        <v>47.6766</v>
+        <v>49.0036</v>
       </c>
       <c r="E17" t="n">
-        <v>61.469</v>
+        <v>61.8457</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Parallel workload.xlsx
+++ b/vs-x86/Parallel workload.xlsx
@@ -57,7 +57,7 @@
     <definedName localSheetId="5" name="k">#REF!</definedName>
     <definedName name="k">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="0" fullCalcOnLoad="1" iterate="1"/>
+  <calcPr calcId="181029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -115,9 +115,9 @@
           <wMode val="factor"/>
           <hMode val="factor"/>
           <x val="0.09111301681349238"/>
-          <y val="0.1645017834309173"/>
+          <y val="0.2260402449693788"/>
           <w val="0.8736779189729996"/>
-          <h val="0.698398007941315"/>
+          <h val="0.6368595464028535"/>
         </manualLayout>
       </layout>
       <scatterChart>
@@ -140,7 +140,7 @@
           <spPr>
             <a:ln>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:srgbClr val="4F81BD"/>
               </a:solidFill>
               <a:prstDash val="solid"/>
             </a:ln>
@@ -217,52 +217,52 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>13.8891</v>
+                  <v>8.20299</v>
                 </pt>
                 <pt idx="1">
-                  <v>26.7801</v>
+                  <v>9.389849999999999</v>
                 </pt>
                 <pt idx="2">
-                  <v>31.3916</v>
+                  <v>12.0727</v>
                 </pt>
                 <pt idx="3">
-                  <v>42.1114</v>
+                  <v>14.6073</v>
                 </pt>
                 <pt idx="4">
-                  <v>40.0238</v>
+                  <v>17.1935</v>
                 </pt>
                 <pt idx="5">
-                  <v>39.5469</v>
+                  <v>19.8483</v>
                 </pt>
                 <pt idx="6">
-                  <v>37.7463</v>
+                  <v>22.8172</v>
                 </pt>
                 <pt idx="7">
-                  <v>39.7074</v>
+                  <v>26.6472</v>
                 </pt>
                 <pt idx="8">
-                  <v>46.2775</v>
+                  <v>25.3853</v>
                 </pt>
                 <pt idx="9">
-                  <v>47.6475</v>
+                  <v>24.7784</v>
                 </pt>
                 <pt idx="10">
-                  <v>41.1897</v>
+                  <v>25.0753</v>
                 </pt>
                 <pt idx="11">
-                  <v>44.6059</v>
+                  <v>25.5717</v>
                 </pt>
                 <pt idx="12">
-                  <v>42.3724</v>
+                  <v>24.5607</v>
                 </pt>
                 <pt idx="13">
-                  <v>46.0471</v>
+                  <v>25.4459</v>
                 </pt>
                 <pt idx="14">
-                  <v>44.8912</v>
+                  <v>25.3329</v>
                 </pt>
                 <pt idx="15">
-                  <v>49.0374</v>
+                  <v>25.5239</v>
                 </pt>
               </numCache>
             </numRef>
@@ -363,52 +363,52 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>18.6855</v>
+                  <v>14.2208</v>
                 </pt>
                 <pt idx="1">
-                  <v>31.0102</v>
+                  <v>11.3833</v>
                 </pt>
                 <pt idx="2">
-                  <v>35.7257</v>
+                  <v>13.6758</v>
                 </pt>
                 <pt idx="3">
-                  <v>50.8404</v>
+                  <v>16.128</v>
                 </pt>
                 <pt idx="4">
-                  <v>40.4798</v>
+                  <v>18.953</v>
                 </pt>
                 <pt idx="5">
-                  <v>40.7141</v>
+                  <v>21.8342</v>
                 </pt>
                 <pt idx="6">
-                  <v>37.2463</v>
+                  <v>24.8069</v>
                 </pt>
                 <pt idx="7">
-                  <v>39.2744</v>
+                  <v>27.6407</v>
                 </pt>
                 <pt idx="8">
-                  <v>40.4141</v>
+                  <v>26.3983</v>
                 </pt>
                 <pt idx="9">
-                  <v>42.6102</v>
+                  <v>26.5376</v>
                 </pt>
                 <pt idx="10">
-                  <v>39.5541</v>
+                  <v>26.8507</v>
                 </pt>
                 <pt idx="11">
-                  <v>43.5443</v>
+                  <v>27.2319</v>
                 </pt>
                 <pt idx="12">
-                  <v>48.8967</v>
+                  <v>27.6185</v>
                 </pt>
                 <pt idx="13">
-                  <v>45.6242</v>
+                  <v>28.2216</v>
                 </pt>
                 <pt idx="14">
-                  <v>49.8071</v>
+                  <v>29.0785</v>
                 </pt>
                 <pt idx="15">
-                  <v>46.0208</v>
+                  <v>29.9475</v>
                 </pt>
               </numCache>
             </numRef>
@@ -509,52 +509,52 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>25.1245</v>
+                  <v>17.3158</v>
                 </pt>
                 <pt idx="1">
-                  <v>33.3849</v>
+                  <v>18.7617</v>
                 </pt>
                 <pt idx="2">
-                  <v>48.2392</v>
+                  <v>24.3687</v>
                 </pt>
                 <pt idx="3">
-                  <v>61.9033</v>
+                  <v>30.1578</v>
                 </pt>
                 <pt idx="4">
-                  <v>51.4984</v>
+                  <v>36.2994</v>
                 </pt>
                 <pt idx="5">
-                  <v>49.997</v>
+                  <v>42.8669</v>
                 </pt>
                 <pt idx="6">
-                  <v>53.5658</v>
+                  <v>49.1907</v>
                 </pt>
                 <pt idx="7">
-                  <v>49.8046</v>
+                  <v>56.7097</v>
                 </pt>
                 <pt idx="8">
-                  <v>51.2952</v>
+                  <v>52.3473</v>
                 </pt>
                 <pt idx="9">
-                  <v>55.992</v>
+                  <v>52.6285</v>
                 </pt>
                 <pt idx="10">
-                  <v>51.6304</v>
+                  <v>53.5332</v>
                 </pt>
                 <pt idx="11">
-                  <v>54.8665</v>
+                  <v>54.2073</v>
                 </pt>
                 <pt idx="12">
-                  <v>54.975</v>
+                  <v>53.7503</v>
                 </pt>
                 <pt idx="13">
-                  <v>55.5807</v>
+                  <v>54.2351</v>
                 </pt>
                 <pt idx="14">
-                  <v>44.9125</v>
+                  <v>54.8631</v>
                 </pt>
                 <pt idx="15">
-                  <v>55.7518</v>
+                  <v>54.454</v>
                 </pt>
               </numCache>
             </numRef>
@@ -577,6 +577,9 @@
           </tx>
           <spPr>
             <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -652,52 +655,344 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>29.8425</v>
+                  <v>21.0957</v>
                 </pt>
                 <pt idx="1">
-                  <v>44.9754</v>
+                  <v>27.2162</v>
                 </pt>
                 <pt idx="2">
-                  <v>55.1248</v>
+                  <v>36.9017</v>
                 </pt>
                 <pt idx="3">
-                  <v>74.3052</v>
+                  <v>45.911</v>
                 </pt>
                 <pt idx="4">
-                  <v>61.2846</v>
+                  <v>54.4618</v>
                 </pt>
                 <pt idx="5">
-                  <v>63.3506</v>
+                  <v>62.3184</v>
                 </pt>
                 <pt idx="6">
-                  <v>69.6906</v>
+                  <v>69.42010000000001</v>
                 </pt>
                 <pt idx="7">
-                  <v>60.9708</v>
+                  <v>76.9066</v>
                 </pt>
                 <pt idx="8">
-                  <v>59.1547</v>
+                  <v>68.25709999999999</v>
                 </pt>
                 <pt idx="9">
-                  <v>65.57989999999999</v>
+                  <v>70.1614</v>
                 </pt>
                 <pt idx="10">
-                  <v>55.923</v>
+                  <v>73.2282</v>
                 </pt>
                 <pt idx="11">
-                  <v>59.4605</v>
+                  <v>72.19070000000001</v>
                 </pt>
                 <pt idx="12">
-                  <v>56.9516</v>
+                  <v>73.5599</v>
                 </pt>
                 <pt idx="13">
-                  <v>58.594</v>
+                  <v>73.66079999999999</v>
                 </pt>
                 <pt idx="14">
-                  <v>60.4237</v>
+                  <v>74.1058</v>
                 </pt>
                 <pt idx="15">
-                  <v>59.0957</v>
+                  <v>73.2501</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </yVal>
+          <smooth val="0"/>
+        </ser>
+        <ser>
+          <idx val="4"/>
+          <order val="4"/>
+          <tx>
+            <strRef>
+              <f>'500k, 0.01'!$F$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>boost::concurrent_node_map</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF66FF"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>'500k, 0.01'!$A$2:$A$33</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="32"/>
+                <pt idx="0">
+                  <v>1</v>
+                </pt>
+                <pt idx="1">
+                  <v>2</v>
+                </pt>
+                <pt idx="2">
+                  <v>3</v>
+                </pt>
+                <pt idx="3">
+                  <v>4</v>
+                </pt>
+                <pt idx="4">
+                  <v>5</v>
+                </pt>
+                <pt idx="5">
+                  <v>6</v>
+                </pt>
+                <pt idx="6">
+                  <v>7</v>
+                </pt>
+                <pt idx="7">
+                  <v>8</v>
+                </pt>
+                <pt idx="8">
+                  <v>9</v>
+                </pt>
+                <pt idx="9">
+                  <v>10</v>
+                </pt>
+                <pt idx="10">
+                  <v>11</v>
+                </pt>
+                <pt idx="11">
+                  <v>12</v>
+                </pt>
+                <pt idx="12">
+                  <v>13</v>
+                </pt>
+                <pt idx="13">
+                  <v>14</v>
+                </pt>
+                <pt idx="14">
+                  <v>15</v>
+                </pt>
+                <pt idx="15">
+                  <v>16</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>'500k, 0.01'!$F$2:$F$33</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="32"/>
+                <pt idx="0">
+                  <v>13.6924</v>
+                </pt>
+                <pt idx="1">
+                  <v>14.902</v>
+                </pt>
+                <pt idx="2">
+                  <v>19.2338</v>
+                </pt>
+                <pt idx="3">
+                  <v>23.5306</v>
+                </pt>
+                <pt idx="4">
+                  <v>27.7246</v>
+                </pt>
+                <pt idx="5">
+                  <v>32.1492</v>
+                </pt>
+                <pt idx="6">
+                  <v>36.5763</v>
+                </pt>
+                <pt idx="7">
+                  <v>42.4242</v>
+                </pt>
+                <pt idx="8">
+                  <v>39.9018</v>
+                </pt>
+                <pt idx="9">
+                  <v>39.0165</v>
+                </pt>
+                <pt idx="10">
+                  <v>39.8279</v>
+                </pt>
+                <pt idx="11">
+                  <v>40.0588</v>
+                </pt>
+                <pt idx="12">
+                  <v>39.1545</v>
+                </pt>
+                <pt idx="13">
+                  <v>40.1554</v>
+                </pt>
+                <pt idx="14">
+                  <v>39.8148</v>
+                </pt>
+                <pt idx="15">
+                  <v>39.4034</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </yVal>
+          <smooth val="0"/>
+        </ser>
+        <ser>
+          <idx val="5"/>
+          <order val="5"/>
+          <tx>
+            <strRef>
+              <f>'500k, 0.01'!$G$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>boost::concurrent_node_map bulk</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="C0C0C0"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>'500k, 0.01'!$A$2:$A$33</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="32"/>
+                <pt idx="0">
+                  <v>1</v>
+                </pt>
+                <pt idx="1">
+                  <v>2</v>
+                </pt>
+                <pt idx="2">
+                  <v>3</v>
+                </pt>
+                <pt idx="3">
+                  <v>4</v>
+                </pt>
+                <pt idx="4">
+                  <v>5</v>
+                </pt>
+                <pt idx="5">
+                  <v>6</v>
+                </pt>
+                <pt idx="6">
+                  <v>7</v>
+                </pt>
+                <pt idx="7">
+                  <v>8</v>
+                </pt>
+                <pt idx="8">
+                  <v>9</v>
+                </pt>
+                <pt idx="9">
+                  <v>10</v>
+                </pt>
+                <pt idx="10">
+                  <v>11</v>
+                </pt>
+                <pt idx="11">
+                  <v>12</v>
+                </pt>
+                <pt idx="12">
+                  <v>13</v>
+                </pt>
+                <pt idx="13">
+                  <v>14</v>
+                </pt>
+                <pt idx="14">
+                  <v>15</v>
+                </pt>
+                <pt idx="15">
+                  <v>16</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>'500k, 0.01'!$G$2:$G$33</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="32"/>
+                <pt idx="0">
+                  <v>17.4443</v>
+                </pt>
+                <pt idx="1">
+                  <v>21.1943</v>
+                </pt>
+                <pt idx="2">
+                  <v>27.9436</v>
+                </pt>
+                <pt idx="3">
+                  <v>34.1858</v>
+                </pt>
+                <pt idx="4">
+                  <v>40.1865</v>
+                </pt>
+                <pt idx="5">
+                  <v>45.4989</v>
+                </pt>
+                <pt idx="6">
+                  <v>50.6155</v>
+                </pt>
+                <pt idx="7">
+                  <v>56.5033</v>
+                </pt>
+                <pt idx="8">
+                  <v>51.806</v>
+                </pt>
+                <pt idx="9">
+                  <v>52.5616</v>
+                </pt>
+                <pt idx="10">
+                  <v>52.622</v>
+                </pt>
+                <pt idx="11">
+                  <v>53.4704</v>
+                </pt>
+                <pt idx="12">
+                  <v>51.174</v>
+                </pt>
+                <pt idx="13">
+                  <v>52.0867</v>
+                </pt>
+                <pt idx="14">
+                  <v>51.2377</v>
+                </pt>
+                <pt idx="15">
+                  <v>51.6826</v>
                 </pt>
               </numCache>
             </numRef>
@@ -811,9 +1106,9 @@
           <wMode val="factor"/>
           <hMode val="factor"/>
           <x val="0.09111301681349238"/>
-          <y val="0.1645017834309173"/>
+          <y val="0.2260402449693788"/>
           <w val="0.8736779189729996"/>
-          <h val="0.698398007941315"/>
+          <h val="0.6368595464028535"/>
         </manualLayout>
       </layout>
       <scatterChart>
@@ -836,7 +1131,7 @@
           <spPr>
             <a:ln>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:srgbClr val="4F81BD"/>
               </a:solidFill>
               <a:prstDash val="solid"/>
             </a:ln>
@@ -913,52 +1208,52 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>13.8891</v>
+                  <v>8.20299</v>
                 </pt>
                 <pt idx="1">
-                  <v>26.7801</v>
+                  <v>9.389849999999999</v>
                 </pt>
                 <pt idx="2">
-                  <v>31.3916</v>
+                  <v>12.0727</v>
                 </pt>
                 <pt idx="3">
-                  <v>42.1114</v>
+                  <v>14.6073</v>
                 </pt>
                 <pt idx="4">
-                  <v>40.0238</v>
+                  <v>17.1935</v>
                 </pt>
                 <pt idx="5">
-                  <v>39.5469</v>
+                  <v>19.8483</v>
                 </pt>
                 <pt idx="6">
-                  <v>37.7463</v>
+                  <v>22.8172</v>
                 </pt>
                 <pt idx="7">
-                  <v>39.7074</v>
+                  <v>26.6472</v>
                 </pt>
                 <pt idx="8">
-                  <v>46.2775</v>
+                  <v>25.3853</v>
                 </pt>
                 <pt idx="9">
-                  <v>47.6475</v>
+                  <v>24.7784</v>
                 </pt>
                 <pt idx="10">
-                  <v>41.1897</v>
+                  <v>25.0753</v>
                 </pt>
                 <pt idx="11">
-                  <v>44.6059</v>
+                  <v>25.5717</v>
                 </pt>
                 <pt idx="12">
-                  <v>42.3724</v>
+                  <v>24.5607</v>
                 </pt>
                 <pt idx="13">
-                  <v>46.0471</v>
+                  <v>25.4459</v>
                 </pt>
                 <pt idx="14">
-                  <v>44.8912</v>
+                  <v>25.3329</v>
                 </pt>
                 <pt idx="15">
-                  <v>49.0374</v>
+                  <v>25.5239</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1059,52 +1354,52 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>18.6855</v>
+                  <v>14.2208</v>
                 </pt>
                 <pt idx="1">
-                  <v>31.0102</v>
+                  <v>11.3833</v>
                 </pt>
                 <pt idx="2">
-                  <v>35.7257</v>
+                  <v>13.6758</v>
                 </pt>
                 <pt idx="3">
-                  <v>50.8404</v>
+                  <v>16.128</v>
                 </pt>
                 <pt idx="4">
-                  <v>40.4798</v>
+                  <v>18.953</v>
                 </pt>
                 <pt idx="5">
-                  <v>40.7141</v>
+                  <v>21.8342</v>
                 </pt>
                 <pt idx="6">
-                  <v>37.2463</v>
+                  <v>24.8069</v>
                 </pt>
                 <pt idx="7">
-                  <v>39.2744</v>
+                  <v>27.6407</v>
                 </pt>
                 <pt idx="8">
-                  <v>40.4141</v>
+                  <v>26.3983</v>
                 </pt>
                 <pt idx="9">
-                  <v>42.6102</v>
+                  <v>26.5376</v>
                 </pt>
                 <pt idx="10">
-                  <v>39.5541</v>
+                  <v>26.8507</v>
                 </pt>
                 <pt idx="11">
-                  <v>43.5443</v>
+                  <v>27.2319</v>
                 </pt>
                 <pt idx="12">
-                  <v>48.8967</v>
+                  <v>27.6185</v>
                 </pt>
                 <pt idx="13">
-                  <v>45.6242</v>
+                  <v>28.2216</v>
                 </pt>
                 <pt idx="14">
-                  <v>49.8071</v>
+                  <v>29.0785</v>
                 </pt>
                 <pt idx="15">
-                  <v>46.0208</v>
+                  <v>29.9475</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1205,52 +1500,52 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>25.1245</v>
+                  <v>17.3158</v>
                 </pt>
                 <pt idx="1">
-                  <v>33.3849</v>
+                  <v>18.7617</v>
                 </pt>
                 <pt idx="2">
-                  <v>48.2392</v>
+                  <v>24.3687</v>
                 </pt>
                 <pt idx="3">
-                  <v>61.9033</v>
+                  <v>30.1578</v>
                 </pt>
                 <pt idx="4">
-                  <v>51.4984</v>
+                  <v>36.2994</v>
                 </pt>
                 <pt idx="5">
-                  <v>49.997</v>
+                  <v>42.8669</v>
                 </pt>
                 <pt idx="6">
-                  <v>53.5658</v>
+                  <v>49.1907</v>
                 </pt>
                 <pt idx="7">
-                  <v>49.8046</v>
+                  <v>56.7097</v>
                 </pt>
                 <pt idx="8">
-                  <v>51.2952</v>
+                  <v>52.3473</v>
                 </pt>
                 <pt idx="9">
-                  <v>55.992</v>
+                  <v>52.6285</v>
                 </pt>
                 <pt idx="10">
-                  <v>51.6304</v>
+                  <v>53.5332</v>
                 </pt>
                 <pt idx="11">
-                  <v>54.8665</v>
+                  <v>54.2073</v>
                 </pt>
                 <pt idx="12">
-                  <v>54.975</v>
+                  <v>53.7503</v>
                 </pt>
                 <pt idx="13">
-                  <v>55.5807</v>
+                  <v>54.2351</v>
                 </pt>
                 <pt idx="14">
-                  <v>44.9125</v>
+                  <v>54.8631</v>
                 </pt>
                 <pt idx="15">
-                  <v>55.7518</v>
+                  <v>54.454</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1273,6 +1568,9 @@
           </tx>
           <spPr>
             <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -1348,52 +1646,344 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>29.8425</v>
+                  <v>21.0957</v>
                 </pt>
                 <pt idx="1">
-                  <v>44.9754</v>
+                  <v>27.2162</v>
                 </pt>
                 <pt idx="2">
-                  <v>55.1248</v>
+                  <v>36.9017</v>
                 </pt>
                 <pt idx="3">
-                  <v>74.3052</v>
+                  <v>45.911</v>
                 </pt>
                 <pt idx="4">
-                  <v>61.2846</v>
+                  <v>54.4618</v>
                 </pt>
                 <pt idx="5">
-                  <v>63.3506</v>
+                  <v>62.3184</v>
                 </pt>
                 <pt idx="6">
-                  <v>69.6906</v>
+                  <v>69.42010000000001</v>
                 </pt>
                 <pt idx="7">
-                  <v>60.9708</v>
+                  <v>76.9066</v>
                 </pt>
                 <pt idx="8">
-                  <v>59.1547</v>
+                  <v>68.25709999999999</v>
                 </pt>
                 <pt idx="9">
-                  <v>65.57989999999999</v>
+                  <v>70.1614</v>
                 </pt>
                 <pt idx="10">
-                  <v>55.923</v>
+                  <v>73.2282</v>
                 </pt>
                 <pt idx="11">
-                  <v>59.4605</v>
+                  <v>72.19070000000001</v>
                 </pt>
                 <pt idx="12">
-                  <v>56.9516</v>
+                  <v>73.5599</v>
                 </pt>
                 <pt idx="13">
-                  <v>58.594</v>
+                  <v>73.66079999999999</v>
                 </pt>
                 <pt idx="14">
-                  <v>60.4237</v>
+                  <v>74.1058</v>
                 </pt>
                 <pt idx="15">
-                  <v>59.0957</v>
+                  <v>73.2501</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </yVal>
+          <smooth val="0"/>
+        </ser>
+        <ser>
+          <idx val="4"/>
+          <order val="4"/>
+          <tx>
+            <strRef>
+              <f>'500k, 0.5'!$F$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>boost::concurrent_node_map</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF66FF"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>'500k, 0.5'!$A$2:$A$33</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="32"/>
+                <pt idx="0">
+                  <v>1</v>
+                </pt>
+                <pt idx="1">
+                  <v>2</v>
+                </pt>
+                <pt idx="2">
+                  <v>3</v>
+                </pt>
+                <pt idx="3">
+                  <v>4</v>
+                </pt>
+                <pt idx="4">
+                  <v>5</v>
+                </pt>
+                <pt idx="5">
+                  <v>6</v>
+                </pt>
+                <pt idx="6">
+                  <v>7</v>
+                </pt>
+                <pt idx="7">
+                  <v>8</v>
+                </pt>
+                <pt idx="8">
+                  <v>9</v>
+                </pt>
+                <pt idx="9">
+                  <v>10</v>
+                </pt>
+                <pt idx="10">
+                  <v>11</v>
+                </pt>
+                <pt idx="11">
+                  <v>12</v>
+                </pt>
+                <pt idx="12">
+                  <v>13</v>
+                </pt>
+                <pt idx="13">
+                  <v>14</v>
+                </pt>
+                <pt idx="14">
+                  <v>15</v>
+                </pt>
+                <pt idx="15">
+                  <v>16</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>'500k, 0.5'!$F$2:$F$33</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="32"/>
+                <pt idx="0">
+                  <v>13.6924</v>
+                </pt>
+                <pt idx="1">
+                  <v>14.902</v>
+                </pt>
+                <pt idx="2">
+                  <v>19.2338</v>
+                </pt>
+                <pt idx="3">
+                  <v>23.5306</v>
+                </pt>
+                <pt idx="4">
+                  <v>27.7246</v>
+                </pt>
+                <pt idx="5">
+                  <v>32.1492</v>
+                </pt>
+                <pt idx="6">
+                  <v>36.5763</v>
+                </pt>
+                <pt idx="7">
+                  <v>42.4242</v>
+                </pt>
+                <pt idx="8">
+                  <v>39.9018</v>
+                </pt>
+                <pt idx="9">
+                  <v>39.0165</v>
+                </pt>
+                <pt idx="10">
+                  <v>39.8279</v>
+                </pt>
+                <pt idx="11">
+                  <v>40.0588</v>
+                </pt>
+                <pt idx="12">
+                  <v>39.1545</v>
+                </pt>
+                <pt idx="13">
+                  <v>40.1554</v>
+                </pt>
+                <pt idx="14">
+                  <v>39.8148</v>
+                </pt>
+                <pt idx="15">
+                  <v>39.4034</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </yVal>
+          <smooth val="0"/>
+        </ser>
+        <ser>
+          <idx val="5"/>
+          <order val="5"/>
+          <tx>
+            <strRef>
+              <f>'500k, 0.5'!$G$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>boost::concurrent_node_map bulk</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="C0C0C0"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>'500k, 0.5'!$A$2:$A$33</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="32"/>
+                <pt idx="0">
+                  <v>1</v>
+                </pt>
+                <pt idx="1">
+                  <v>2</v>
+                </pt>
+                <pt idx="2">
+                  <v>3</v>
+                </pt>
+                <pt idx="3">
+                  <v>4</v>
+                </pt>
+                <pt idx="4">
+                  <v>5</v>
+                </pt>
+                <pt idx="5">
+                  <v>6</v>
+                </pt>
+                <pt idx="6">
+                  <v>7</v>
+                </pt>
+                <pt idx="7">
+                  <v>8</v>
+                </pt>
+                <pt idx="8">
+                  <v>9</v>
+                </pt>
+                <pt idx="9">
+                  <v>10</v>
+                </pt>
+                <pt idx="10">
+                  <v>11</v>
+                </pt>
+                <pt idx="11">
+                  <v>12</v>
+                </pt>
+                <pt idx="12">
+                  <v>13</v>
+                </pt>
+                <pt idx="13">
+                  <v>14</v>
+                </pt>
+                <pt idx="14">
+                  <v>15</v>
+                </pt>
+                <pt idx="15">
+                  <v>16</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>'500k, 0.5'!$G$2:$G$33</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="32"/>
+                <pt idx="0">
+                  <v>17.4443</v>
+                </pt>
+                <pt idx="1">
+                  <v>21.1943</v>
+                </pt>
+                <pt idx="2">
+                  <v>27.9436</v>
+                </pt>
+                <pt idx="3">
+                  <v>34.1858</v>
+                </pt>
+                <pt idx="4">
+                  <v>40.1865</v>
+                </pt>
+                <pt idx="5">
+                  <v>45.4989</v>
+                </pt>
+                <pt idx="6">
+                  <v>50.6155</v>
+                </pt>
+                <pt idx="7">
+                  <v>56.5033</v>
+                </pt>
+                <pt idx="8">
+                  <v>51.806</v>
+                </pt>
+                <pt idx="9">
+                  <v>52.5616</v>
+                </pt>
+                <pt idx="10">
+                  <v>52.622</v>
+                </pt>
+                <pt idx="11">
+                  <v>53.4704</v>
+                </pt>
+                <pt idx="12">
+                  <v>51.174</v>
+                </pt>
+                <pt idx="13">
+                  <v>52.0867</v>
+                </pt>
+                <pt idx="14">
+                  <v>51.2377</v>
+                </pt>
+                <pt idx="15">
+                  <v>51.6826</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1507,9 +2097,9 @@
           <wMode val="factor"/>
           <hMode val="factor"/>
           <x val="0.09111301681349238"/>
-          <y val="0.1645017834309173"/>
+          <y val="0.2260402449693788"/>
           <w val="0.8736779189729996"/>
-          <h val="0.698398007941315"/>
+          <h val="0.6368595464028535"/>
         </manualLayout>
       </layout>
       <scatterChart>
@@ -1532,7 +2122,7 @@
           <spPr>
             <a:ln>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:srgbClr val="4F81BD"/>
               </a:solidFill>
               <a:prstDash val="solid"/>
             </a:ln>
@@ -1609,52 +2199,52 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>13.8891</v>
+                  <v>8.20299</v>
                 </pt>
                 <pt idx="1">
-                  <v>26.7801</v>
+                  <v>9.389849999999999</v>
                 </pt>
                 <pt idx="2">
-                  <v>31.3916</v>
+                  <v>12.0727</v>
                 </pt>
                 <pt idx="3">
-                  <v>42.1114</v>
+                  <v>14.6073</v>
                 </pt>
                 <pt idx="4">
-                  <v>40.0238</v>
+                  <v>17.1935</v>
                 </pt>
                 <pt idx="5">
-                  <v>39.5469</v>
+                  <v>19.8483</v>
                 </pt>
                 <pt idx="6">
-                  <v>37.7463</v>
+                  <v>22.8172</v>
                 </pt>
                 <pt idx="7">
-                  <v>39.7074</v>
+                  <v>26.6472</v>
                 </pt>
                 <pt idx="8">
-                  <v>46.2775</v>
+                  <v>25.3853</v>
                 </pt>
                 <pt idx="9">
-                  <v>47.6475</v>
+                  <v>24.7784</v>
                 </pt>
                 <pt idx="10">
-                  <v>41.1897</v>
+                  <v>25.0753</v>
                 </pt>
                 <pt idx="11">
-                  <v>44.6059</v>
+                  <v>25.5717</v>
                 </pt>
                 <pt idx="12">
-                  <v>42.3724</v>
+                  <v>24.5607</v>
                 </pt>
                 <pt idx="13">
-                  <v>46.0471</v>
+                  <v>25.4459</v>
                 </pt>
                 <pt idx="14">
-                  <v>44.8912</v>
+                  <v>25.3329</v>
                 </pt>
                 <pt idx="15">
-                  <v>49.0374</v>
+                  <v>25.5239</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1755,52 +2345,52 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>18.6855</v>
+                  <v>14.2208</v>
                 </pt>
                 <pt idx="1">
-                  <v>31.0102</v>
+                  <v>11.3833</v>
                 </pt>
                 <pt idx="2">
-                  <v>35.7257</v>
+                  <v>13.6758</v>
                 </pt>
                 <pt idx="3">
-                  <v>50.8404</v>
+                  <v>16.128</v>
                 </pt>
                 <pt idx="4">
-                  <v>40.4798</v>
+                  <v>18.953</v>
                 </pt>
                 <pt idx="5">
-                  <v>40.7141</v>
+                  <v>21.8342</v>
                 </pt>
                 <pt idx="6">
-                  <v>37.2463</v>
+                  <v>24.8069</v>
                 </pt>
                 <pt idx="7">
-                  <v>39.2744</v>
+                  <v>27.6407</v>
                 </pt>
                 <pt idx="8">
-                  <v>40.4141</v>
+                  <v>26.3983</v>
                 </pt>
                 <pt idx="9">
-                  <v>42.6102</v>
+                  <v>26.5376</v>
                 </pt>
                 <pt idx="10">
-                  <v>39.5541</v>
+                  <v>26.8507</v>
                 </pt>
                 <pt idx="11">
-                  <v>43.5443</v>
+                  <v>27.2319</v>
                 </pt>
                 <pt idx="12">
-                  <v>48.8967</v>
+                  <v>27.6185</v>
                 </pt>
                 <pt idx="13">
-                  <v>45.6242</v>
+                  <v>28.2216</v>
                 </pt>
                 <pt idx="14">
-                  <v>49.8071</v>
+                  <v>29.0785</v>
                 </pt>
                 <pt idx="15">
-                  <v>46.0208</v>
+                  <v>29.9475</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1901,52 +2491,52 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>25.1245</v>
+                  <v>17.3158</v>
                 </pt>
                 <pt idx="1">
-                  <v>33.3849</v>
+                  <v>18.7617</v>
                 </pt>
                 <pt idx="2">
-                  <v>48.2392</v>
+                  <v>24.3687</v>
                 </pt>
                 <pt idx="3">
-                  <v>61.9033</v>
+                  <v>30.1578</v>
                 </pt>
                 <pt idx="4">
-                  <v>51.4984</v>
+                  <v>36.2994</v>
                 </pt>
                 <pt idx="5">
-                  <v>49.997</v>
+                  <v>42.8669</v>
                 </pt>
                 <pt idx="6">
-                  <v>53.5658</v>
+                  <v>49.1907</v>
                 </pt>
                 <pt idx="7">
-                  <v>49.8046</v>
+                  <v>56.7097</v>
                 </pt>
                 <pt idx="8">
-                  <v>51.2952</v>
+                  <v>52.3473</v>
                 </pt>
                 <pt idx="9">
-                  <v>55.992</v>
+                  <v>52.6285</v>
                 </pt>
                 <pt idx="10">
-                  <v>51.6304</v>
+                  <v>53.5332</v>
                 </pt>
                 <pt idx="11">
-                  <v>54.8665</v>
+                  <v>54.2073</v>
                 </pt>
                 <pt idx="12">
-                  <v>54.975</v>
+                  <v>53.7503</v>
                 </pt>
                 <pt idx="13">
-                  <v>55.5807</v>
+                  <v>54.2351</v>
                 </pt>
                 <pt idx="14">
-                  <v>44.9125</v>
+                  <v>54.8631</v>
                 </pt>
                 <pt idx="15">
-                  <v>55.7518</v>
+                  <v>54.454</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1969,6 +2559,9 @@
           </tx>
           <spPr>
             <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -2044,52 +2637,344 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>29.8425</v>
+                  <v>21.0957</v>
                 </pt>
                 <pt idx="1">
-                  <v>44.9754</v>
+                  <v>27.2162</v>
                 </pt>
                 <pt idx="2">
-                  <v>55.1248</v>
+                  <v>36.9017</v>
                 </pt>
                 <pt idx="3">
-                  <v>74.3052</v>
+                  <v>45.911</v>
                 </pt>
                 <pt idx="4">
-                  <v>61.2846</v>
+                  <v>54.4618</v>
                 </pt>
                 <pt idx="5">
-                  <v>63.3506</v>
+                  <v>62.3184</v>
                 </pt>
                 <pt idx="6">
-                  <v>69.6906</v>
+                  <v>69.42010000000001</v>
                 </pt>
                 <pt idx="7">
-                  <v>60.9708</v>
+                  <v>76.9066</v>
                 </pt>
                 <pt idx="8">
-                  <v>59.1547</v>
+                  <v>68.25709999999999</v>
                 </pt>
                 <pt idx="9">
-                  <v>65.57989999999999</v>
+                  <v>70.1614</v>
                 </pt>
                 <pt idx="10">
-                  <v>55.923</v>
+                  <v>73.2282</v>
                 </pt>
                 <pt idx="11">
-                  <v>59.4605</v>
+                  <v>72.19070000000001</v>
                 </pt>
                 <pt idx="12">
-                  <v>56.9516</v>
+                  <v>73.5599</v>
                 </pt>
                 <pt idx="13">
-                  <v>58.594</v>
+                  <v>73.66079999999999</v>
                 </pt>
                 <pt idx="14">
-                  <v>60.4237</v>
+                  <v>74.1058</v>
                 </pt>
                 <pt idx="15">
-                  <v>59.0957</v>
+                  <v>73.2501</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </yVal>
+          <smooth val="0"/>
+        </ser>
+        <ser>
+          <idx val="4"/>
+          <order val="4"/>
+          <tx>
+            <strRef>
+              <f>'500k, 0.99'!$F$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>boost::concurrent_node_map</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF66FF"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>'500k, 0.99'!$A$2:$A$33</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="32"/>
+                <pt idx="0">
+                  <v>1</v>
+                </pt>
+                <pt idx="1">
+                  <v>2</v>
+                </pt>
+                <pt idx="2">
+                  <v>3</v>
+                </pt>
+                <pt idx="3">
+                  <v>4</v>
+                </pt>
+                <pt idx="4">
+                  <v>5</v>
+                </pt>
+                <pt idx="5">
+                  <v>6</v>
+                </pt>
+                <pt idx="6">
+                  <v>7</v>
+                </pt>
+                <pt idx="7">
+                  <v>8</v>
+                </pt>
+                <pt idx="8">
+                  <v>9</v>
+                </pt>
+                <pt idx="9">
+                  <v>10</v>
+                </pt>
+                <pt idx="10">
+                  <v>11</v>
+                </pt>
+                <pt idx="11">
+                  <v>12</v>
+                </pt>
+                <pt idx="12">
+                  <v>13</v>
+                </pt>
+                <pt idx="13">
+                  <v>14</v>
+                </pt>
+                <pt idx="14">
+                  <v>15</v>
+                </pt>
+                <pt idx="15">
+                  <v>16</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>'500k, 0.99'!$F$2:$F$33</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="32"/>
+                <pt idx="0">
+                  <v>13.6924</v>
+                </pt>
+                <pt idx="1">
+                  <v>14.902</v>
+                </pt>
+                <pt idx="2">
+                  <v>19.2338</v>
+                </pt>
+                <pt idx="3">
+                  <v>23.5306</v>
+                </pt>
+                <pt idx="4">
+                  <v>27.7246</v>
+                </pt>
+                <pt idx="5">
+                  <v>32.1492</v>
+                </pt>
+                <pt idx="6">
+                  <v>36.5763</v>
+                </pt>
+                <pt idx="7">
+                  <v>42.4242</v>
+                </pt>
+                <pt idx="8">
+                  <v>39.9018</v>
+                </pt>
+                <pt idx="9">
+                  <v>39.0165</v>
+                </pt>
+                <pt idx="10">
+                  <v>39.8279</v>
+                </pt>
+                <pt idx="11">
+                  <v>40.0588</v>
+                </pt>
+                <pt idx="12">
+                  <v>39.1545</v>
+                </pt>
+                <pt idx="13">
+                  <v>40.1554</v>
+                </pt>
+                <pt idx="14">
+                  <v>39.8148</v>
+                </pt>
+                <pt idx="15">
+                  <v>39.4034</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </yVal>
+          <smooth val="0"/>
+        </ser>
+        <ser>
+          <idx val="5"/>
+          <order val="5"/>
+          <tx>
+            <strRef>
+              <f>'500k, 0.99'!$G$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>boost::concurrent_node_map bulk</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="C0C0C0"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>'500k, 0.99'!$A$2:$A$33</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="32"/>
+                <pt idx="0">
+                  <v>1</v>
+                </pt>
+                <pt idx="1">
+                  <v>2</v>
+                </pt>
+                <pt idx="2">
+                  <v>3</v>
+                </pt>
+                <pt idx="3">
+                  <v>4</v>
+                </pt>
+                <pt idx="4">
+                  <v>5</v>
+                </pt>
+                <pt idx="5">
+                  <v>6</v>
+                </pt>
+                <pt idx="6">
+                  <v>7</v>
+                </pt>
+                <pt idx="7">
+                  <v>8</v>
+                </pt>
+                <pt idx="8">
+                  <v>9</v>
+                </pt>
+                <pt idx="9">
+                  <v>10</v>
+                </pt>
+                <pt idx="10">
+                  <v>11</v>
+                </pt>
+                <pt idx="11">
+                  <v>12</v>
+                </pt>
+                <pt idx="12">
+                  <v>13</v>
+                </pt>
+                <pt idx="13">
+                  <v>14</v>
+                </pt>
+                <pt idx="14">
+                  <v>15</v>
+                </pt>
+                <pt idx="15">
+                  <v>16</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>'500k, 0.99'!$G$2:$G$33</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="32"/>
+                <pt idx="0">
+                  <v>17.4443</v>
+                </pt>
+                <pt idx="1">
+                  <v>21.1943</v>
+                </pt>
+                <pt idx="2">
+                  <v>27.9436</v>
+                </pt>
+                <pt idx="3">
+                  <v>34.1858</v>
+                </pt>
+                <pt idx="4">
+                  <v>40.1865</v>
+                </pt>
+                <pt idx="5">
+                  <v>45.4989</v>
+                </pt>
+                <pt idx="6">
+                  <v>50.6155</v>
+                </pt>
+                <pt idx="7">
+                  <v>56.5033</v>
+                </pt>
+                <pt idx="8">
+                  <v>51.806</v>
+                </pt>
+                <pt idx="9">
+                  <v>52.5616</v>
+                </pt>
+                <pt idx="10">
+                  <v>52.622</v>
+                </pt>
+                <pt idx="11">
+                  <v>53.4704</v>
+                </pt>
+                <pt idx="12">
+                  <v>51.174</v>
+                </pt>
+                <pt idx="13">
+                  <v>52.0867</v>
+                </pt>
+                <pt idx="14">
+                  <v>51.2377</v>
+                </pt>
+                <pt idx="15">
+                  <v>51.6826</v>
                 </pt>
               </numCache>
             </numRef>
@@ -2203,9 +3088,9 @@
           <wMode val="factor"/>
           <hMode val="factor"/>
           <x val="0.09111301681349238"/>
-          <y val="0.1645017834309173"/>
+          <y val="0.2260402449693788"/>
           <w val="0.8736779189729996"/>
-          <h val="0.698398007941315"/>
+          <h val="0.6368595464028535"/>
         </manualLayout>
       </layout>
       <scatterChart>
@@ -2228,7 +3113,7 @@
           <spPr>
             <a:ln>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:srgbClr val="4F81BD"/>
               </a:solidFill>
               <a:prstDash val="solid"/>
             </a:ln>
@@ -2305,52 +3190,52 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>13.8891</v>
+                  <v>8.20299</v>
                 </pt>
                 <pt idx="1">
-                  <v>26.7801</v>
+                  <v>9.389849999999999</v>
                 </pt>
                 <pt idx="2">
-                  <v>31.3916</v>
+                  <v>12.0727</v>
                 </pt>
                 <pt idx="3">
-                  <v>42.1114</v>
+                  <v>14.6073</v>
                 </pt>
                 <pt idx="4">
-                  <v>40.0238</v>
+                  <v>17.1935</v>
                 </pt>
                 <pt idx="5">
-                  <v>39.5469</v>
+                  <v>19.8483</v>
                 </pt>
                 <pt idx="6">
-                  <v>37.7463</v>
+                  <v>22.8172</v>
                 </pt>
                 <pt idx="7">
-                  <v>39.7074</v>
+                  <v>26.6472</v>
                 </pt>
                 <pt idx="8">
-                  <v>46.2775</v>
+                  <v>25.3853</v>
                 </pt>
                 <pt idx="9">
-                  <v>47.6475</v>
+                  <v>24.7784</v>
                 </pt>
                 <pt idx="10">
-                  <v>41.1897</v>
+                  <v>25.0753</v>
                 </pt>
                 <pt idx="11">
-                  <v>44.6059</v>
+                  <v>25.5717</v>
                 </pt>
                 <pt idx="12">
-                  <v>42.3724</v>
+                  <v>24.5607</v>
                 </pt>
                 <pt idx="13">
-                  <v>46.0471</v>
+                  <v>25.4459</v>
                 </pt>
                 <pt idx="14">
-                  <v>44.8912</v>
+                  <v>25.3329</v>
                 </pt>
                 <pt idx="15">
-                  <v>49.0374</v>
+                  <v>25.5239</v>
                 </pt>
               </numCache>
             </numRef>
@@ -2451,52 +3336,52 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>18.6855</v>
+                  <v>14.2208</v>
                 </pt>
                 <pt idx="1">
-                  <v>31.0102</v>
+                  <v>11.3833</v>
                 </pt>
                 <pt idx="2">
-                  <v>35.7257</v>
+                  <v>13.6758</v>
                 </pt>
                 <pt idx="3">
-                  <v>50.8404</v>
+                  <v>16.128</v>
                 </pt>
                 <pt idx="4">
-                  <v>40.4798</v>
+                  <v>18.953</v>
                 </pt>
                 <pt idx="5">
-                  <v>40.7141</v>
+                  <v>21.8342</v>
                 </pt>
                 <pt idx="6">
-                  <v>37.2463</v>
+                  <v>24.8069</v>
                 </pt>
                 <pt idx="7">
-                  <v>39.2744</v>
+                  <v>27.6407</v>
                 </pt>
                 <pt idx="8">
-                  <v>40.4141</v>
+                  <v>26.3983</v>
                 </pt>
                 <pt idx="9">
-                  <v>42.6102</v>
+                  <v>26.5376</v>
                 </pt>
                 <pt idx="10">
-                  <v>39.5541</v>
+                  <v>26.8507</v>
                 </pt>
                 <pt idx="11">
-                  <v>43.5443</v>
+                  <v>27.2319</v>
                 </pt>
                 <pt idx="12">
-                  <v>48.8967</v>
+                  <v>27.6185</v>
                 </pt>
                 <pt idx="13">
-                  <v>45.6242</v>
+                  <v>28.2216</v>
                 </pt>
                 <pt idx="14">
-                  <v>49.8071</v>
+                  <v>29.0785</v>
                 </pt>
                 <pt idx="15">
-                  <v>46.0208</v>
+                  <v>29.9475</v>
                 </pt>
               </numCache>
             </numRef>
@@ -2597,52 +3482,52 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>25.1245</v>
+                  <v>17.3158</v>
                 </pt>
                 <pt idx="1">
-                  <v>33.3849</v>
+                  <v>18.7617</v>
                 </pt>
                 <pt idx="2">
-                  <v>48.2392</v>
+                  <v>24.3687</v>
                 </pt>
                 <pt idx="3">
-                  <v>61.9033</v>
+                  <v>30.1578</v>
                 </pt>
                 <pt idx="4">
-                  <v>51.4984</v>
+                  <v>36.2994</v>
                 </pt>
                 <pt idx="5">
-                  <v>49.997</v>
+                  <v>42.8669</v>
                 </pt>
                 <pt idx="6">
-                  <v>53.5658</v>
+                  <v>49.1907</v>
                 </pt>
                 <pt idx="7">
-                  <v>49.8046</v>
+                  <v>56.7097</v>
                 </pt>
                 <pt idx="8">
-                  <v>51.2952</v>
+                  <v>52.3473</v>
                 </pt>
                 <pt idx="9">
-                  <v>55.992</v>
+                  <v>52.6285</v>
                 </pt>
                 <pt idx="10">
-                  <v>51.6304</v>
+                  <v>53.5332</v>
                 </pt>
                 <pt idx="11">
-                  <v>54.8665</v>
+                  <v>54.2073</v>
                 </pt>
                 <pt idx="12">
-                  <v>54.975</v>
+                  <v>53.7503</v>
                 </pt>
                 <pt idx="13">
-                  <v>55.5807</v>
+                  <v>54.2351</v>
                 </pt>
                 <pt idx="14">
-                  <v>44.9125</v>
+                  <v>54.8631</v>
                 </pt>
                 <pt idx="15">
-                  <v>55.7518</v>
+                  <v>54.454</v>
                 </pt>
               </numCache>
             </numRef>
@@ -2665,6 +3550,9 @@
           </tx>
           <spPr>
             <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -2740,52 +3628,344 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>29.8425</v>
+                  <v>21.0957</v>
                 </pt>
                 <pt idx="1">
-                  <v>44.9754</v>
+                  <v>27.2162</v>
                 </pt>
                 <pt idx="2">
-                  <v>55.1248</v>
+                  <v>36.9017</v>
                 </pt>
                 <pt idx="3">
-                  <v>74.3052</v>
+                  <v>45.911</v>
                 </pt>
                 <pt idx="4">
-                  <v>61.2846</v>
+                  <v>54.4618</v>
                 </pt>
                 <pt idx="5">
-                  <v>63.3506</v>
+                  <v>62.3184</v>
                 </pt>
                 <pt idx="6">
-                  <v>69.6906</v>
+                  <v>69.42010000000001</v>
                 </pt>
                 <pt idx="7">
-                  <v>60.9708</v>
+                  <v>76.9066</v>
                 </pt>
                 <pt idx="8">
-                  <v>59.1547</v>
+                  <v>68.25709999999999</v>
                 </pt>
                 <pt idx="9">
-                  <v>65.57989999999999</v>
+                  <v>70.1614</v>
                 </pt>
                 <pt idx="10">
-                  <v>55.923</v>
+                  <v>73.2282</v>
                 </pt>
                 <pt idx="11">
-                  <v>59.4605</v>
+                  <v>72.19070000000001</v>
                 </pt>
                 <pt idx="12">
-                  <v>56.9516</v>
+                  <v>73.5599</v>
                 </pt>
                 <pt idx="13">
-                  <v>58.594</v>
+                  <v>73.66079999999999</v>
                 </pt>
                 <pt idx="14">
-                  <v>60.4237</v>
+                  <v>74.1058</v>
                 </pt>
                 <pt idx="15">
-                  <v>59.0957</v>
+                  <v>73.2501</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </yVal>
+          <smooth val="0"/>
+        </ser>
+        <ser>
+          <idx val="4"/>
+          <order val="4"/>
+          <tx>
+            <strRef>
+              <f>'5M, 0.01'!$F$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>boost::concurrent_node_map</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF66FF"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>'5M, 0.01'!$A$2:$A$33</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="32"/>
+                <pt idx="0">
+                  <v>1</v>
+                </pt>
+                <pt idx="1">
+                  <v>2</v>
+                </pt>
+                <pt idx="2">
+                  <v>3</v>
+                </pt>
+                <pt idx="3">
+                  <v>4</v>
+                </pt>
+                <pt idx="4">
+                  <v>5</v>
+                </pt>
+                <pt idx="5">
+                  <v>6</v>
+                </pt>
+                <pt idx="6">
+                  <v>7</v>
+                </pt>
+                <pt idx="7">
+                  <v>8</v>
+                </pt>
+                <pt idx="8">
+                  <v>9</v>
+                </pt>
+                <pt idx="9">
+                  <v>10</v>
+                </pt>
+                <pt idx="10">
+                  <v>11</v>
+                </pt>
+                <pt idx="11">
+                  <v>12</v>
+                </pt>
+                <pt idx="12">
+                  <v>13</v>
+                </pt>
+                <pt idx="13">
+                  <v>14</v>
+                </pt>
+                <pt idx="14">
+                  <v>15</v>
+                </pt>
+                <pt idx="15">
+                  <v>16</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>'5M, 0.01'!$F$2:$F$33</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="32"/>
+                <pt idx="0">
+                  <v>13.6924</v>
+                </pt>
+                <pt idx="1">
+                  <v>14.902</v>
+                </pt>
+                <pt idx="2">
+                  <v>19.2338</v>
+                </pt>
+                <pt idx="3">
+                  <v>23.5306</v>
+                </pt>
+                <pt idx="4">
+                  <v>27.7246</v>
+                </pt>
+                <pt idx="5">
+                  <v>32.1492</v>
+                </pt>
+                <pt idx="6">
+                  <v>36.5763</v>
+                </pt>
+                <pt idx="7">
+                  <v>42.4242</v>
+                </pt>
+                <pt idx="8">
+                  <v>39.9018</v>
+                </pt>
+                <pt idx="9">
+                  <v>39.0165</v>
+                </pt>
+                <pt idx="10">
+                  <v>39.8279</v>
+                </pt>
+                <pt idx="11">
+                  <v>40.0588</v>
+                </pt>
+                <pt idx="12">
+                  <v>39.1545</v>
+                </pt>
+                <pt idx="13">
+                  <v>40.1554</v>
+                </pt>
+                <pt idx="14">
+                  <v>39.8148</v>
+                </pt>
+                <pt idx="15">
+                  <v>39.4034</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </yVal>
+          <smooth val="0"/>
+        </ser>
+        <ser>
+          <idx val="5"/>
+          <order val="5"/>
+          <tx>
+            <strRef>
+              <f>'5M, 0.01'!$G$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>boost::concurrent_node_map bulk</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="C0C0C0"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>'5M, 0.01'!$A$2:$A$33</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="32"/>
+                <pt idx="0">
+                  <v>1</v>
+                </pt>
+                <pt idx="1">
+                  <v>2</v>
+                </pt>
+                <pt idx="2">
+                  <v>3</v>
+                </pt>
+                <pt idx="3">
+                  <v>4</v>
+                </pt>
+                <pt idx="4">
+                  <v>5</v>
+                </pt>
+                <pt idx="5">
+                  <v>6</v>
+                </pt>
+                <pt idx="6">
+                  <v>7</v>
+                </pt>
+                <pt idx="7">
+                  <v>8</v>
+                </pt>
+                <pt idx="8">
+                  <v>9</v>
+                </pt>
+                <pt idx="9">
+                  <v>10</v>
+                </pt>
+                <pt idx="10">
+                  <v>11</v>
+                </pt>
+                <pt idx="11">
+                  <v>12</v>
+                </pt>
+                <pt idx="12">
+                  <v>13</v>
+                </pt>
+                <pt idx="13">
+                  <v>14</v>
+                </pt>
+                <pt idx="14">
+                  <v>15</v>
+                </pt>
+                <pt idx="15">
+                  <v>16</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>'5M, 0.01'!$G$2:$G$33</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="32"/>
+                <pt idx="0">
+                  <v>17.4443</v>
+                </pt>
+                <pt idx="1">
+                  <v>21.1943</v>
+                </pt>
+                <pt idx="2">
+                  <v>27.9436</v>
+                </pt>
+                <pt idx="3">
+                  <v>34.1858</v>
+                </pt>
+                <pt idx="4">
+                  <v>40.1865</v>
+                </pt>
+                <pt idx="5">
+                  <v>45.4989</v>
+                </pt>
+                <pt idx="6">
+                  <v>50.6155</v>
+                </pt>
+                <pt idx="7">
+                  <v>56.5033</v>
+                </pt>
+                <pt idx="8">
+                  <v>51.806</v>
+                </pt>
+                <pt idx="9">
+                  <v>52.5616</v>
+                </pt>
+                <pt idx="10">
+                  <v>52.622</v>
+                </pt>
+                <pt idx="11">
+                  <v>53.4704</v>
+                </pt>
+                <pt idx="12">
+                  <v>51.174</v>
+                </pt>
+                <pt idx="13">
+                  <v>52.0867</v>
+                </pt>
+                <pt idx="14">
+                  <v>51.2377</v>
+                </pt>
+                <pt idx="15">
+                  <v>51.6826</v>
                 </pt>
               </numCache>
             </numRef>
@@ -2899,9 +4079,9 @@
           <wMode val="factor"/>
           <hMode val="factor"/>
           <x val="0.09111301681349238"/>
-          <y val="0.1645017834309173"/>
+          <y val="0.2260402449693788"/>
           <w val="0.8736779189729996"/>
-          <h val="0.698398007941315"/>
+          <h val="0.6368595464028535"/>
         </manualLayout>
       </layout>
       <scatterChart>
@@ -2924,7 +4104,7 @@
           <spPr>
             <a:ln>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:srgbClr val="4F81BD"/>
               </a:solidFill>
               <a:prstDash val="solid"/>
             </a:ln>
@@ -3001,52 +4181,52 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>13.8891</v>
+                  <v>8.20299</v>
                 </pt>
                 <pt idx="1">
-                  <v>26.7801</v>
+                  <v>9.389849999999999</v>
                 </pt>
                 <pt idx="2">
-                  <v>31.3916</v>
+                  <v>12.0727</v>
                 </pt>
                 <pt idx="3">
-                  <v>42.1114</v>
+                  <v>14.6073</v>
                 </pt>
                 <pt idx="4">
-                  <v>40.0238</v>
+                  <v>17.1935</v>
                 </pt>
                 <pt idx="5">
-                  <v>39.5469</v>
+                  <v>19.8483</v>
                 </pt>
                 <pt idx="6">
-                  <v>37.7463</v>
+                  <v>22.8172</v>
                 </pt>
                 <pt idx="7">
-                  <v>39.7074</v>
+                  <v>26.6472</v>
                 </pt>
                 <pt idx="8">
-                  <v>46.2775</v>
+                  <v>25.3853</v>
                 </pt>
                 <pt idx="9">
-                  <v>47.6475</v>
+                  <v>24.7784</v>
                 </pt>
                 <pt idx="10">
-                  <v>41.1897</v>
+                  <v>25.0753</v>
                 </pt>
                 <pt idx="11">
-                  <v>44.6059</v>
+                  <v>25.5717</v>
                 </pt>
                 <pt idx="12">
-                  <v>42.3724</v>
+                  <v>24.5607</v>
                 </pt>
                 <pt idx="13">
-                  <v>46.0471</v>
+                  <v>25.4459</v>
                 </pt>
                 <pt idx="14">
-                  <v>44.8912</v>
+                  <v>25.3329</v>
                 </pt>
                 <pt idx="15">
-                  <v>49.0374</v>
+                  <v>25.5239</v>
                 </pt>
               </numCache>
             </numRef>
@@ -3147,52 +4327,52 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>18.6855</v>
+                  <v>14.2208</v>
                 </pt>
                 <pt idx="1">
-                  <v>31.0102</v>
+                  <v>11.3833</v>
                 </pt>
                 <pt idx="2">
-                  <v>35.7257</v>
+                  <v>13.6758</v>
                 </pt>
                 <pt idx="3">
-                  <v>50.8404</v>
+                  <v>16.128</v>
                 </pt>
                 <pt idx="4">
-                  <v>40.4798</v>
+                  <v>18.953</v>
                 </pt>
                 <pt idx="5">
-                  <v>40.7141</v>
+                  <v>21.8342</v>
                 </pt>
                 <pt idx="6">
-                  <v>37.2463</v>
+                  <v>24.8069</v>
                 </pt>
                 <pt idx="7">
-                  <v>39.2744</v>
+                  <v>27.6407</v>
                 </pt>
                 <pt idx="8">
-                  <v>40.4141</v>
+                  <v>26.3983</v>
                 </pt>
                 <pt idx="9">
-                  <v>42.6102</v>
+                  <v>26.5376</v>
                 </pt>
                 <pt idx="10">
-                  <v>39.5541</v>
+                  <v>26.8507</v>
                 </pt>
                 <pt idx="11">
-                  <v>43.5443</v>
+                  <v>27.2319</v>
                 </pt>
                 <pt idx="12">
-                  <v>48.8967</v>
+                  <v>27.6185</v>
                 </pt>
                 <pt idx="13">
-                  <v>45.6242</v>
+                  <v>28.2216</v>
                 </pt>
                 <pt idx="14">
-                  <v>49.8071</v>
+                  <v>29.0785</v>
                 </pt>
                 <pt idx="15">
-                  <v>46.0208</v>
+                  <v>29.9475</v>
                 </pt>
               </numCache>
             </numRef>
@@ -3293,52 +4473,52 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>25.1245</v>
+                  <v>17.3158</v>
                 </pt>
                 <pt idx="1">
-                  <v>33.3849</v>
+                  <v>18.7617</v>
                 </pt>
                 <pt idx="2">
-                  <v>48.2392</v>
+                  <v>24.3687</v>
                 </pt>
                 <pt idx="3">
-                  <v>61.9033</v>
+                  <v>30.1578</v>
                 </pt>
                 <pt idx="4">
-                  <v>51.4984</v>
+                  <v>36.2994</v>
                 </pt>
                 <pt idx="5">
-                  <v>49.997</v>
+                  <v>42.8669</v>
                 </pt>
                 <pt idx="6">
-                  <v>53.5658</v>
+                  <v>49.1907</v>
                 </pt>
                 <pt idx="7">
-                  <v>49.8046</v>
+                  <v>56.7097</v>
                 </pt>
                 <pt idx="8">
-                  <v>51.2952</v>
+                  <v>52.3473</v>
                 </pt>
                 <pt idx="9">
-                  <v>55.992</v>
+                  <v>52.6285</v>
                 </pt>
                 <pt idx="10">
-                  <v>51.6304</v>
+                  <v>53.5332</v>
                 </pt>
                 <pt idx="11">
-                  <v>54.8665</v>
+                  <v>54.2073</v>
                 </pt>
                 <pt idx="12">
-                  <v>54.975</v>
+                  <v>53.7503</v>
                 </pt>
                 <pt idx="13">
-                  <v>55.5807</v>
+                  <v>54.2351</v>
                 </pt>
                 <pt idx="14">
-                  <v>44.9125</v>
+                  <v>54.8631</v>
                 </pt>
                 <pt idx="15">
-                  <v>55.7518</v>
+                  <v>54.454</v>
                 </pt>
               </numCache>
             </numRef>
@@ -3361,6 +4541,9 @@
           </tx>
           <spPr>
             <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -3436,52 +4619,344 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>29.8425</v>
+                  <v>21.0957</v>
                 </pt>
                 <pt idx="1">
-                  <v>44.9754</v>
+                  <v>27.2162</v>
                 </pt>
                 <pt idx="2">
-                  <v>55.1248</v>
+                  <v>36.9017</v>
                 </pt>
                 <pt idx="3">
-                  <v>74.3052</v>
+                  <v>45.911</v>
                 </pt>
                 <pt idx="4">
-                  <v>61.2846</v>
+                  <v>54.4618</v>
                 </pt>
                 <pt idx="5">
-                  <v>63.3506</v>
+                  <v>62.3184</v>
                 </pt>
                 <pt idx="6">
-                  <v>69.6906</v>
+                  <v>69.42010000000001</v>
                 </pt>
                 <pt idx="7">
-                  <v>60.9708</v>
+                  <v>76.9066</v>
                 </pt>
                 <pt idx="8">
-                  <v>59.1547</v>
+                  <v>68.25709999999999</v>
                 </pt>
                 <pt idx="9">
-                  <v>65.57989999999999</v>
+                  <v>70.1614</v>
                 </pt>
                 <pt idx="10">
-                  <v>55.923</v>
+                  <v>73.2282</v>
                 </pt>
                 <pt idx="11">
-                  <v>59.4605</v>
+                  <v>72.19070000000001</v>
                 </pt>
                 <pt idx="12">
-                  <v>56.9516</v>
+                  <v>73.5599</v>
                 </pt>
                 <pt idx="13">
-                  <v>58.594</v>
+                  <v>73.66079999999999</v>
                 </pt>
                 <pt idx="14">
-                  <v>60.4237</v>
+                  <v>74.1058</v>
                 </pt>
                 <pt idx="15">
-                  <v>59.0957</v>
+                  <v>73.2501</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </yVal>
+          <smooth val="0"/>
+        </ser>
+        <ser>
+          <idx val="4"/>
+          <order val="4"/>
+          <tx>
+            <strRef>
+              <f>'5M, 0.5'!$F$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>boost::concurrent_node_map</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF66FF"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>'5M, 0.5'!$A$2:$A$33</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="32"/>
+                <pt idx="0">
+                  <v>1</v>
+                </pt>
+                <pt idx="1">
+                  <v>2</v>
+                </pt>
+                <pt idx="2">
+                  <v>3</v>
+                </pt>
+                <pt idx="3">
+                  <v>4</v>
+                </pt>
+                <pt idx="4">
+                  <v>5</v>
+                </pt>
+                <pt idx="5">
+                  <v>6</v>
+                </pt>
+                <pt idx="6">
+                  <v>7</v>
+                </pt>
+                <pt idx="7">
+                  <v>8</v>
+                </pt>
+                <pt idx="8">
+                  <v>9</v>
+                </pt>
+                <pt idx="9">
+                  <v>10</v>
+                </pt>
+                <pt idx="10">
+                  <v>11</v>
+                </pt>
+                <pt idx="11">
+                  <v>12</v>
+                </pt>
+                <pt idx="12">
+                  <v>13</v>
+                </pt>
+                <pt idx="13">
+                  <v>14</v>
+                </pt>
+                <pt idx="14">
+                  <v>15</v>
+                </pt>
+                <pt idx="15">
+                  <v>16</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>'5M, 0.5'!$F$2:$F$33</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="32"/>
+                <pt idx="0">
+                  <v>13.6924</v>
+                </pt>
+                <pt idx="1">
+                  <v>14.902</v>
+                </pt>
+                <pt idx="2">
+                  <v>19.2338</v>
+                </pt>
+                <pt idx="3">
+                  <v>23.5306</v>
+                </pt>
+                <pt idx="4">
+                  <v>27.7246</v>
+                </pt>
+                <pt idx="5">
+                  <v>32.1492</v>
+                </pt>
+                <pt idx="6">
+                  <v>36.5763</v>
+                </pt>
+                <pt idx="7">
+                  <v>42.4242</v>
+                </pt>
+                <pt idx="8">
+                  <v>39.9018</v>
+                </pt>
+                <pt idx="9">
+                  <v>39.0165</v>
+                </pt>
+                <pt idx="10">
+                  <v>39.8279</v>
+                </pt>
+                <pt idx="11">
+                  <v>40.0588</v>
+                </pt>
+                <pt idx="12">
+                  <v>39.1545</v>
+                </pt>
+                <pt idx="13">
+                  <v>40.1554</v>
+                </pt>
+                <pt idx="14">
+                  <v>39.8148</v>
+                </pt>
+                <pt idx="15">
+                  <v>39.4034</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </yVal>
+          <smooth val="0"/>
+        </ser>
+        <ser>
+          <idx val="5"/>
+          <order val="5"/>
+          <tx>
+            <strRef>
+              <f>'5M, 0.5'!$G$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>boost::concurrent_node_map bulk</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="C0C0C0"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>'5M, 0.5'!$A$2:$A$33</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="32"/>
+                <pt idx="0">
+                  <v>1</v>
+                </pt>
+                <pt idx="1">
+                  <v>2</v>
+                </pt>
+                <pt idx="2">
+                  <v>3</v>
+                </pt>
+                <pt idx="3">
+                  <v>4</v>
+                </pt>
+                <pt idx="4">
+                  <v>5</v>
+                </pt>
+                <pt idx="5">
+                  <v>6</v>
+                </pt>
+                <pt idx="6">
+                  <v>7</v>
+                </pt>
+                <pt idx="7">
+                  <v>8</v>
+                </pt>
+                <pt idx="8">
+                  <v>9</v>
+                </pt>
+                <pt idx="9">
+                  <v>10</v>
+                </pt>
+                <pt idx="10">
+                  <v>11</v>
+                </pt>
+                <pt idx="11">
+                  <v>12</v>
+                </pt>
+                <pt idx="12">
+                  <v>13</v>
+                </pt>
+                <pt idx="13">
+                  <v>14</v>
+                </pt>
+                <pt idx="14">
+                  <v>15</v>
+                </pt>
+                <pt idx="15">
+                  <v>16</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>'5M, 0.5'!$G$2:$G$33</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="32"/>
+                <pt idx="0">
+                  <v>17.4443</v>
+                </pt>
+                <pt idx="1">
+                  <v>21.1943</v>
+                </pt>
+                <pt idx="2">
+                  <v>27.9436</v>
+                </pt>
+                <pt idx="3">
+                  <v>34.1858</v>
+                </pt>
+                <pt idx="4">
+                  <v>40.1865</v>
+                </pt>
+                <pt idx="5">
+                  <v>45.4989</v>
+                </pt>
+                <pt idx="6">
+                  <v>50.6155</v>
+                </pt>
+                <pt idx="7">
+                  <v>56.5033</v>
+                </pt>
+                <pt idx="8">
+                  <v>51.806</v>
+                </pt>
+                <pt idx="9">
+                  <v>52.5616</v>
+                </pt>
+                <pt idx="10">
+                  <v>52.622</v>
+                </pt>
+                <pt idx="11">
+                  <v>53.4704</v>
+                </pt>
+                <pt idx="12">
+                  <v>51.174</v>
+                </pt>
+                <pt idx="13">
+                  <v>52.0867</v>
+                </pt>
+                <pt idx="14">
+                  <v>51.2377</v>
+                </pt>
+                <pt idx="15">
+                  <v>51.6826</v>
                 </pt>
               </numCache>
             </numRef>
@@ -3595,9 +5070,9 @@
           <wMode val="factor"/>
           <hMode val="factor"/>
           <x val="0.09111301681349238"/>
-          <y val="0.1645017834309173"/>
+          <y val="0.2260402449693788"/>
           <w val="0.8736779189729996"/>
-          <h val="0.698398007941315"/>
+          <h val="0.6368595464028535"/>
         </manualLayout>
       </layout>
       <scatterChart>
@@ -3620,7 +5095,7 @@
           <spPr>
             <a:ln>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:srgbClr val="4F81BD"/>
               </a:solidFill>
               <a:prstDash val="solid"/>
             </a:ln>
@@ -3697,52 +5172,52 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>13.8891</v>
+                  <v>8.20299</v>
                 </pt>
                 <pt idx="1">
-                  <v>26.7801</v>
+                  <v>9.389849999999999</v>
                 </pt>
                 <pt idx="2">
-                  <v>31.3916</v>
+                  <v>12.0727</v>
                 </pt>
                 <pt idx="3">
-                  <v>42.1114</v>
+                  <v>14.6073</v>
                 </pt>
                 <pt idx="4">
-                  <v>40.0238</v>
+                  <v>17.1935</v>
                 </pt>
                 <pt idx="5">
-                  <v>39.5469</v>
+                  <v>19.8483</v>
                 </pt>
                 <pt idx="6">
-                  <v>37.7463</v>
+                  <v>22.8172</v>
                 </pt>
                 <pt idx="7">
-                  <v>39.7074</v>
+                  <v>26.6472</v>
                 </pt>
                 <pt idx="8">
-                  <v>46.2775</v>
+                  <v>25.3853</v>
                 </pt>
                 <pt idx="9">
-                  <v>47.6475</v>
+                  <v>24.7784</v>
                 </pt>
                 <pt idx="10">
-                  <v>41.1897</v>
+                  <v>25.0753</v>
                 </pt>
                 <pt idx="11">
-                  <v>44.6059</v>
+                  <v>25.5717</v>
                 </pt>
                 <pt idx="12">
-                  <v>42.3724</v>
+                  <v>24.5607</v>
                 </pt>
                 <pt idx="13">
-                  <v>46.0471</v>
+                  <v>25.4459</v>
                 </pt>
                 <pt idx="14">
-                  <v>44.8912</v>
+                  <v>25.3329</v>
                 </pt>
                 <pt idx="15">
-                  <v>49.0374</v>
+                  <v>25.5239</v>
                 </pt>
               </numCache>
             </numRef>
@@ -3843,52 +5318,52 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>18.6855</v>
+                  <v>14.2208</v>
                 </pt>
                 <pt idx="1">
-                  <v>31.0102</v>
+                  <v>11.3833</v>
                 </pt>
                 <pt idx="2">
-                  <v>35.7257</v>
+                  <v>13.6758</v>
                 </pt>
                 <pt idx="3">
-                  <v>50.8404</v>
+                  <v>16.128</v>
                 </pt>
                 <pt idx="4">
-                  <v>40.4798</v>
+                  <v>18.953</v>
                 </pt>
                 <pt idx="5">
-                  <v>40.7141</v>
+                  <v>21.8342</v>
                 </pt>
                 <pt idx="6">
-                  <v>37.2463</v>
+                  <v>24.8069</v>
                 </pt>
                 <pt idx="7">
-                  <v>39.2744</v>
+                  <v>27.6407</v>
                 </pt>
                 <pt idx="8">
-                  <v>40.4141</v>
+                  <v>26.3983</v>
                 </pt>
                 <pt idx="9">
-                  <v>42.6102</v>
+                  <v>26.5376</v>
                 </pt>
                 <pt idx="10">
-                  <v>39.5541</v>
+                  <v>26.8507</v>
                 </pt>
                 <pt idx="11">
-                  <v>43.5443</v>
+                  <v>27.2319</v>
                 </pt>
                 <pt idx="12">
-                  <v>48.8967</v>
+                  <v>27.6185</v>
                 </pt>
                 <pt idx="13">
-                  <v>45.6242</v>
+                  <v>28.2216</v>
                 </pt>
                 <pt idx="14">
-                  <v>49.8071</v>
+                  <v>29.0785</v>
                 </pt>
                 <pt idx="15">
-                  <v>46.0208</v>
+                  <v>29.9475</v>
                 </pt>
               </numCache>
             </numRef>
@@ -3989,52 +5464,52 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>25.1245</v>
+                  <v>17.3158</v>
                 </pt>
                 <pt idx="1">
-                  <v>33.3849</v>
+                  <v>18.7617</v>
                 </pt>
                 <pt idx="2">
-                  <v>48.2392</v>
+                  <v>24.3687</v>
                 </pt>
                 <pt idx="3">
-                  <v>61.9033</v>
+                  <v>30.1578</v>
                 </pt>
                 <pt idx="4">
-                  <v>51.4984</v>
+                  <v>36.2994</v>
                 </pt>
                 <pt idx="5">
-                  <v>49.997</v>
+                  <v>42.8669</v>
                 </pt>
                 <pt idx="6">
-                  <v>53.5658</v>
+                  <v>49.1907</v>
                 </pt>
                 <pt idx="7">
-                  <v>49.8046</v>
+                  <v>56.7097</v>
                 </pt>
                 <pt idx="8">
-                  <v>51.2952</v>
+                  <v>52.3473</v>
                 </pt>
                 <pt idx="9">
-                  <v>55.992</v>
+                  <v>52.6285</v>
                 </pt>
                 <pt idx="10">
-                  <v>51.6304</v>
+                  <v>53.5332</v>
                 </pt>
                 <pt idx="11">
-                  <v>54.8665</v>
+                  <v>54.2073</v>
                 </pt>
                 <pt idx="12">
-                  <v>54.975</v>
+                  <v>53.7503</v>
                 </pt>
                 <pt idx="13">
-                  <v>55.5807</v>
+                  <v>54.2351</v>
                 </pt>
                 <pt idx="14">
-                  <v>44.9125</v>
+                  <v>54.8631</v>
                 </pt>
                 <pt idx="15">
-                  <v>55.7518</v>
+                  <v>54.454</v>
                 </pt>
               </numCache>
             </numRef>
@@ -4057,6 +5532,9 @@
           </tx>
           <spPr>
             <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -4132,52 +5610,344 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>29.8425</v>
+                  <v>21.0957</v>
                 </pt>
                 <pt idx="1">
-                  <v>44.9754</v>
+                  <v>27.2162</v>
                 </pt>
                 <pt idx="2">
-                  <v>55.1248</v>
+                  <v>36.9017</v>
                 </pt>
                 <pt idx="3">
-                  <v>74.3052</v>
+                  <v>45.911</v>
                 </pt>
                 <pt idx="4">
-                  <v>61.2846</v>
+                  <v>54.4618</v>
                 </pt>
                 <pt idx="5">
-                  <v>63.3506</v>
+                  <v>62.3184</v>
                 </pt>
                 <pt idx="6">
-                  <v>69.6906</v>
+                  <v>69.42010000000001</v>
                 </pt>
                 <pt idx="7">
-                  <v>60.9708</v>
+                  <v>76.9066</v>
                 </pt>
                 <pt idx="8">
-                  <v>59.1547</v>
+                  <v>68.25709999999999</v>
                 </pt>
                 <pt idx="9">
-                  <v>65.57989999999999</v>
+                  <v>70.1614</v>
                 </pt>
                 <pt idx="10">
-                  <v>55.923</v>
+                  <v>73.2282</v>
                 </pt>
                 <pt idx="11">
-                  <v>59.4605</v>
+                  <v>72.19070000000001</v>
                 </pt>
                 <pt idx="12">
-                  <v>56.9516</v>
+                  <v>73.5599</v>
                 </pt>
                 <pt idx="13">
-                  <v>58.594</v>
+                  <v>73.66079999999999</v>
                 </pt>
                 <pt idx="14">
-                  <v>60.4237</v>
+                  <v>74.1058</v>
                 </pt>
                 <pt idx="15">
-                  <v>59.0957</v>
+                  <v>73.2501</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </yVal>
+          <smooth val="0"/>
+        </ser>
+        <ser>
+          <idx val="4"/>
+          <order val="4"/>
+          <tx>
+            <strRef>
+              <f>'5M, 0.99'!$F$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>boost::concurrent_node_map</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF66FF"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>'5M, 0.99'!$A$2:$A$33</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="32"/>
+                <pt idx="0">
+                  <v>1</v>
+                </pt>
+                <pt idx="1">
+                  <v>2</v>
+                </pt>
+                <pt idx="2">
+                  <v>3</v>
+                </pt>
+                <pt idx="3">
+                  <v>4</v>
+                </pt>
+                <pt idx="4">
+                  <v>5</v>
+                </pt>
+                <pt idx="5">
+                  <v>6</v>
+                </pt>
+                <pt idx="6">
+                  <v>7</v>
+                </pt>
+                <pt idx="7">
+                  <v>8</v>
+                </pt>
+                <pt idx="8">
+                  <v>9</v>
+                </pt>
+                <pt idx="9">
+                  <v>10</v>
+                </pt>
+                <pt idx="10">
+                  <v>11</v>
+                </pt>
+                <pt idx="11">
+                  <v>12</v>
+                </pt>
+                <pt idx="12">
+                  <v>13</v>
+                </pt>
+                <pt idx="13">
+                  <v>14</v>
+                </pt>
+                <pt idx="14">
+                  <v>15</v>
+                </pt>
+                <pt idx="15">
+                  <v>16</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>'5M, 0.99'!$F$2:$F$33</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="32"/>
+                <pt idx="0">
+                  <v>13.6924</v>
+                </pt>
+                <pt idx="1">
+                  <v>14.902</v>
+                </pt>
+                <pt idx="2">
+                  <v>19.2338</v>
+                </pt>
+                <pt idx="3">
+                  <v>23.5306</v>
+                </pt>
+                <pt idx="4">
+                  <v>27.7246</v>
+                </pt>
+                <pt idx="5">
+                  <v>32.1492</v>
+                </pt>
+                <pt idx="6">
+                  <v>36.5763</v>
+                </pt>
+                <pt idx="7">
+                  <v>42.4242</v>
+                </pt>
+                <pt idx="8">
+                  <v>39.9018</v>
+                </pt>
+                <pt idx="9">
+                  <v>39.0165</v>
+                </pt>
+                <pt idx="10">
+                  <v>39.8279</v>
+                </pt>
+                <pt idx="11">
+                  <v>40.0588</v>
+                </pt>
+                <pt idx="12">
+                  <v>39.1545</v>
+                </pt>
+                <pt idx="13">
+                  <v>40.1554</v>
+                </pt>
+                <pt idx="14">
+                  <v>39.8148</v>
+                </pt>
+                <pt idx="15">
+                  <v>39.4034</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </yVal>
+          <smooth val="0"/>
+        </ser>
+        <ser>
+          <idx val="5"/>
+          <order val="5"/>
+          <tx>
+            <strRef>
+              <f>'5M, 0.99'!$G$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>boost::concurrent_node_map bulk</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="C0C0C0"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>'5M, 0.99'!$A$2:$A$33</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="32"/>
+                <pt idx="0">
+                  <v>1</v>
+                </pt>
+                <pt idx="1">
+                  <v>2</v>
+                </pt>
+                <pt idx="2">
+                  <v>3</v>
+                </pt>
+                <pt idx="3">
+                  <v>4</v>
+                </pt>
+                <pt idx="4">
+                  <v>5</v>
+                </pt>
+                <pt idx="5">
+                  <v>6</v>
+                </pt>
+                <pt idx="6">
+                  <v>7</v>
+                </pt>
+                <pt idx="7">
+                  <v>8</v>
+                </pt>
+                <pt idx="8">
+                  <v>9</v>
+                </pt>
+                <pt idx="9">
+                  <v>10</v>
+                </pt>
+                <pt idx="10">
+                  <v>11</v>
+                </pt>
+                <pt idx="11">
+                  <v>12</v>
+                </pt>
+                <pt idx="12">
+                  <v>13</v>
+                </pt>
+                <pt idx="13">
+                  <v>14</v>
+                </pt>
+                <pt idx="14">
+                  <v>15</v>
+                </pt>
+                <pt idx="15">
+                  <v>16</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>'5M, 0.99'!$G$2:$G$33</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="32"/>
+                <pt idx="0">
+                  <v>17.4443</v>
+                </pt>
+                <pt idx="1">
+                  <v>21.1943</v>
+                </pt>
+                <pt idx="2">
+                  <v>27.9436</v>
+                </pt>
+                <pt idx="3">
+                  <v>34.1858</v>
+                </pt>
+                <pt idx="4">
+                  <v>40.1865</v>
+                </pt>
+                <pt idx="5">
+                  <v>45.4989</v>
+                </pt>
+                <pt idx="6">
+                  <v>50.6155</v>
+                </pt>
+                <pt idx="7">
+                  <v>56.5033</v>
+                </pt>
+                <pt idx="8">
+                  <v>51.806</v>
+                </pt>
+                <pt idx="9">
+                  <v>52.5616</v>
+                </pt>
+                <pt idx="10">
+                  <v>52.622</v>
+                </pt>
+                <pt idx="11">
+                  <v>53.4704</v>
+                </pt>
+                <pt idx="12">
+                  <v>51.174</v>
+                </pt>
+                <pt idx="13">
+                  <v>52.0867</v>
+                </pt>
+                <pt idx="14">
+                  <v>51.2377</v>
+                </pt>
+                <pt idx="15">
+                  <v>51.6826</v>
                 </pt>
               </numCache>
             </numRef>
@@ -4283,16 +6053,16 @@
 <wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor>
     <from>
-      <col>5</col>
-      <colOff>533400</colOff>
-      <row>0</row>
-      <rowOff>142875</rowOff>
+      <col>8</col>
+      <colOff>11596</colOff>
+      <row>1</row>
+      <rowOff>2071</rowOff>
     </from>
     <to>
-      <col>13</col>
-      <colOff>209550</colOff>
+      <col>15</col>
+      <colOff>449746</colOff>
       <row>20</row>
-      <rowOff>47625</rowOff>
+      <rowOff>97321</rowOff>
     </to>
     <graphicFrame>
       <nvGraphicFramePr>
@@ -4315,16 +6085,16 @@
 <wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor>
     <from>
-      <col>5</col>
-      <colOff>533400</colOff>
-      <row>0</row>
-      <rowOff>142875</rowOff>
+      <col>8</col>
+      <colOff>11596</colOff>
+      <row>1</row>
+      <rowOff>2071</rowOff>
     </from>
     <to>
-      <col>13</col>
-      <colOff>209550</colOff>
+      <col>15</col>
+      <colOff>449746</colOff>
       <row>20</row>
-      <rowOff>47625</rowOff>
+      <rowOff>97321</rowOff>
     </to>
     <graphicFrame>
       <nvGraphicFramePr>
@@ -4347,16 +6117,16 @@
 <wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor>
     <from>
-      <col>5</col>
-      <colOff>533400</colOff>
-      <row>0</row>
-      <rowOff>142875</rowOff>
+      <col>8</col>
+      <colOff>11596</colOff>
+      <row>1</row>
+      <rowOff>2071</rowOff>
     </from>
     <to>
-      <col>13</col>
-      <colOff>209550</colOff>
+      <col>15</col>
+      <colOff>449746</colOff>
       <row>20</row>
-      <rowOff>47625</rowOff>
+      <rowOff>97321</rowOff>
     </to>
     <graphicFrame>
       <nvGraphicFramePr>
@@ -4379,16 +6149,16 @@
 <wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor>
     <from>
-      <col>5</col>
-      <colOff>533400</colOff>
-      <row>0</row>
-      <rowOff>142875</rowOff>
+      <col>8</col>
+      <colOff>11596</colOff>
+      <row>1</row>
+      <rowOff>2071</rowOff>
     </from>
     <to>
-      <col>13</col>
-      <colOff>209550</colOff>
+      <col>15</col>
+      <colOff>449746</colOff>
       <row>20</row>
-      <rowOff>47625</rowOff>
+      <rowOff>97321</rowOff>
     </to>
     <graphicFrame>
       <nvGraphicFramePr>
@@ -4411,16 +6181,16 @@
 <wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor>
     <from>
-      <col>5</col>
-      <colOff>533400</colOff>
-      <row>0</row>
-      <rowOff>142875</rowOff>
+      <col>8</col>
+      <colOff>11596</colOff>
+      <row>1</row>
+      <rowOff>2071</rowOff>
     </from>
     <to>
-      <col>13</col>
-      <colOff>209550</colOff>
+      <col>15</col>
+      <colOff>449746</colOff>
       <row>20</row>
-      <rowOff>47625</rowOff>
+      <rowOff>97321</rowOff>
     </to>
     <graphicFrame>
       <nvGraphicFramePr>
@@ -4443,16 +6213,16 @@
 <wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor>
     <from>
-      <col>5</col>
-      <colOff>533400</colOff>
-      <row>0</row>
-      <rowOff>142875</rowOff>
+      <col>8</col>
+      <colOff>11596</colOff>
+      <row>1</row>
+      <rowOff>2071</rowOff>
     </from>
     <to>
-      <col>13</col>
-      <colOff>209550</colOff>
+      <col>15</col>
+      <colOff>449746</colOff>
       <row>20</row>
-      <rowOff>47625</rowOff>
+      <rowOff>97321</rowOff>
     </to>
     <graphicFrame>
       <nvGraphicFramePr>
@@ -4762,10 +6532,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="O27" sqref="O27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4794,22 +6564,38 @@
           <t>boost::concurrent_flat_map bulk</t>
         </is>
       </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>boost::concurrent_node_map</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>boost::concurrent_node_map bulk</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>9.362349999999999</v>
+        <v>9.39537</v>
       </c>
       <c r="C2" t="n">
-        <v>10.737</v>
+        <v>10.7005</v>
       </c>
       <c r="D2" t="n">
-        <v>13.1011</v>
+        <v>13.1238</v>
       </c>
       <c r="E2" t="n">
-        <v>14.9344</v>
+        <v>14.8961</v>
+      </c>
+      <c r="F2" t="n">
+        <v>12.3385</v>
+      </c>
+      <c r="G2" t="n">
+        <v>14.1225</v>
       </c>
     </row>
     <row r="3">
@@ -4817,16 +6603,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>17.328</v>
+        <v>17.7831</v>
       </c>
       <c r="C3" t="n">
-        <v>16.658</v>
+        <v>16.6781</v>
       </c>
       <c r="D3" t="n">
-        <v>22.3652</v>
+        <v>21.9219</v>
       </c>
       <c r="E3" t="n">
-        <v>24.3159</v>
+        <v>23.6878</v>
+      </c>
+      <c r="F3" t="n">
+        <v>20.3601</v>
+      </c>
+      <c r="G3" t="n">
+        <v>23.0364</v>
       </c>
     </row>
     <row r="4">
@@ -4834,16 +6626,22 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>24.4184</v>
+        <v>25.3224</v>
       </c>
       <c r="C4" t="n">
-        <v>21.5286</v>
+        <v>21.6504</v>
       </c>
       <c r="D4" t="n">
-        <v>26.8029</v>
+        <v>26.7424</v>
       </c>
       <c r="E4" t="n">
-        <v>31.4371</v>
+        <v>31.7017</v>
+      </c>
+      <c r="F4" t="n">
+        <v>25.6794</v>
+      </c>
+      <c r="G4" t="n">
+        <v>28.6228</v>
       </c>
     </row>
     <row r="5">
@@ -4851,16 +6649,22 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>21.3088</v>
+        <v>22.4012</v>
       </c>
       <c r="C5" t="n">
-        <v>23.7089</v>
+        <v>23.7851</v>
       </c>
       <c r="D5" t="n">
-        <v>29.6082</v>
+        <v>31.0172</v>
       </c>
       <c r="E5" t="n">
-        <v>32.2855</v>
+        <v>32.6671</v>
+      </c>
+      <c r="F5" t="n">
+        <v>27.2981</v>
+      </c>
+      <c r="G5" t="n">
+        <v>31.0664</v>
       </c>
     </row>
     <row r="6">
@@ -4868,16 +6672,22 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>25.9432</v>
+        <v>26.3344</v>
       </c>
       <c r="C6" t="n">
-        <v>27.7908</v>
+        <v>27.8169</v>
       </c>
       <c r="D6" t="n">
-        <v>31.9537</v>
+        <v>31.5306</v>
       </c>
       <c r="E6" t="n">
-        <v>39.2534</v>
+        <v>39.4318</v>
+      </c>
+      <c r="F6" t="n">
+        <v>31.2408</v>
+      </c>
+      <c r="G6" t="n">
+        <v>34.6047</v>
       </c>
     </row>
     <row r="7">
@@ -4885,16 +6695,22 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>32.0448</v>
+        <v>32.5894</v>
       </c>
       <c r="C7" t="n">
-        <v>32.6031</v>
+        <v>32.7465</v>
       </c>
       <c r="D7" t="n">
-        <v>37.1448</v>
+        <v>39.0381</v>
       </c>
       <c r="E7" t="n">
-        <v>40.59</v>
+        <v>41.0022</v>
+      </c>
+      <c r="F7" t="n">
+        <v>32.0671</v>
+      </c>
+      <c r="G7" t="n">
+        <v>38.7364</v>
       </c>
     </row>
     <row r="8">
@@ -4902,16 +6718,22 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>23.0861</v>
+        <v>23.2845</v>
       </c>
       <c r="C8" t="n">
-        <v>30.2994</v>
+        <v>30.5868</v>
       </c>
       <c r="D8" t="n">
-        <v>35.955</v>
+        <v>38.6483</v>
       </c>
       <c r="E8" t="n">
-        <v>39.3971</v>
+        <v>40.0827</v>
+      </c>
+      <c r="F8" t="n">
+        <v>32.4406</v>
+      </c>
+      <c r="G8" t="n">
+        <v>41.0667</v>
       </c>
     </row>
     <row r="9">
@@ -4919,16 +6741,22 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>25.4899</v>
+        <v>26.0629</v>
       </c>
       <c r="C9" t="n">
-        <v>30.5324</v>
+        <v>30.075</v>
       </c>
       <c r="D9" t="n">
-        <v>39.2353</v>
+        <v>37.3534</v>
       </c>
       <c r="E9" t="n">
-        <v>46.4984</v>
+        <v>47.0487</v>
+      </c>
+      <c r="F9" t="n">
+        <v>34.3384</v>
+      </c>
+      <c r="G9" t="n">
+        <v>42.2564</v>
       </c>
     </row>
     <row r="10">
@@ -4936,16 +6764,22 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>28.27</v>
+        <v>28.8913</v>
       </c>
       <c r="C10" t="n">
-        <v>30.1118</v>
+        <v>29.9125</v>
       </c>
       <c r="D10" t="n">
-        <v>42.1475</v>
+        <v>41.4053</v>
       </c>
       <c r="E10" t="n">
-        <v>48.2113</v>
+        <v>48.1508</v>
+      </c>
+      <c r="F10" t="n">
+        <v>35.3454</v>
+      </c>
+      <c r="G10" t="n">
+        <v>46.2208</v>
       </c>
     </row>
     <row r="11">
@@ -4953,16 +6787,22 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>26.2939</v>
+        <v>27.0631</v>
       </c>
       <c r="C11" t="n">
-        <v>30.3576</v>
+        <v>30.3973</v>
       </c>
       <c r="D11" t="n">
-        <v>42.3104</v>
+        <v>42.8621</v>
       </c>
       <c r="E11" t="n">
-        <v>49.0507</v>
+        <v>52.2595</v>
+      </c>
+      <c r="F11" t="n">
+        <v>35.6503</v>
+      </c>
+      <c r="G11" t="n">
+        <v>46.2822</v>
       </c>
     </row>
     <row r="12">
@@ -4970,16 +6810,22 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>28.775</v>
+        <v>29.3638</v>
       </c>
       <c r="C12" t="n">
-        <v>31.0485</v>
+        <v>31.0543</v>
       </c>
       <c r="D12" t="n">
-        <v>42.8277</v>
+        <v>44.5805</v>
       </c>
       <c r="E12" t="n">
-        <v>51.1859</v>
+        <v>52.5176</v>
+      </c>
+      <c r="F12" t="n">
+        <v>36.593</v>
+      </c>
+      <c r="G12" t="n">
+        <v>44.9757</v>
       </c>
     </row>
     <row r="13">
@@ -4987,16 +6833,22 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>31.8655</v>
+        <v>32.5104</v>
       </c>
       <c r="C13" t="n">
-        <v>31.4473</v>
+        <v>31.3237</v>
       </c>
       <c r="D13" t="n">
-        <v>43.7264</v>
+        <v>43.3055</v>
       </c>
       <c r="E13" t="n">
-        <v>53.0306</v>
+        <v>52.4727</v>
+      </c>
+      <c r="F13" t="n">
+        <v>38.7045</v>
+      </c>
+      <c r="G13" t="n">
+        <v>48.028</v>
       </c>
     </row>
     <row r="14">
@@ -5004,16 +6856,22 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>26.0431</v>
+        <v>26.5894</v>
       </c>
       <c r="C14" t="n">
-        <v>30.6142</v>
+        <v>30.4533</v>
       </c>
       <c r="D14" t="n">
-        <v>41.731</v>
+        <v>43.6886</v>
       </c>
       <c r="E14" t="n">
-        <v>53.4584</v>
+        <v>52.8628</v>
+      </c>
+      <c r="F14" t="n">
+        <v>37.3371</v>
+      </c>
+      <c r="G14" t="n">
+        <v>46.4496</v>
       </c>
     </row>
     <row r="15">
@@ -5021,16 +6879,22 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>27.7677</v>
+        <v>27.9561</v>
       </c>
       <c r="C15" t="n">
-        <v>30.7879</v>
+        <v>31.1798</v>
       </c>
       <c r="D15" t="n">
-        <v>44.6406</v>
+        <v>43.9113</v>
       </c>
       <c r="E15" t="n">
-        <v>53.9098</v>
+        <v>52.5017</v>
+      </c>
+      <c r="F15" t="n">
+        <v>38.1587</v>
+      </c>
+      <c r="G15" t="n">
+        <v>45.4224</v>
       </c>
     </row>
     <row r="16">
@@ -5038,16 +6902,22 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>29.4585</v>
+        <v>29.8405</v>
       </c>
       <c r="C16" t="n">
-        <v>30.6398</v>
+        <v>31.0063</v>
       </c>
       <c r="D16" t="n">
-        <v>44.1989</v>
+        <v>45.0748</v>
       </c>
       <c r="E16" t="n">
-        <v>53.029</v>
+        <v>54.3596</v>
+      </c>
+      <c r="F16" t="n">
+        <v>38.0393</v>
+      </c>
+      <c r="G16" t="n">
+        <v>47.7994</v>
       </c>
     </row>
     <row r="17">
@@ -5055,16 +6925,22 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>27.6735</v>
+        <v>28.2311</v>
       </c>
       <c r="C17" t="n">
-        <v>30.8423</v>
+        <v>30.8836</v>
       </c>
       <c r="D17" t="n">
-        <v>44.5512</v>
+        <v>44.4409</v>
       </c>
       <c r="E17" t="n">
-        <v>52.4457</v>
+        <v>54.3605</v>
+      </c>
+      <c r="F17" t="n">
+        <v>38.4126</v>
+      </c>
+      <c r="G17" t="n">
+        <v>49.7699</v>
       </c>
     </row>
   </sheetData>
@@ -5079,10 +6955,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -5111,22 +6987,38 @@
           <t>boost::concurrent_flat_map bulk</t>
         </is>
       </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>boost::concurrent_node_map</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>boost::concurrent_node_map bulk</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>9.253220000000001</v>
+        <v>9.38017</v>
       </c>
       <c r="C2" t="n">
-        <v>10.7422</v>
+        <v>10.7013</v>
       </c>
       <c r="D2" t="n">
-        <v>12.9916</v>
+        <v>13.0207</v>
       </c>
       <c r="E2" t="n">
-        <v>14.8165</v>
+        <v>14.7992</v>
+      </c>
+      <c r="F2" t="n">
+        <v>12.2537</v>
+      </c>
+      <c r="G2" t="n">
+        <v>14.0775</v>
       </c>
     </row>
     <row r="3">
@@ -5134,16 +7026,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>17.2241</v>
+        <v>17.6367</v>
       </c>
       <c r="C3" t="n">
-        <v>16.738</v>
+        <v>17.0509</v>
       </c>
       <c r="D3" t="n">
-        <v>21.1138</v>
+        <v>21.5808</v>
       </c>
       <c r="E3" t="n">
-        <v>23.3687</v>
+        <v>24.0188</v>
+      </c>
+      <c r="F3" t="n">
+        <v>19.9246</v>
+      </c>
+      <c r="G3" t="n">
+        <v>23.5011</v>
       </c>
     </row>
     <row r="4">
@@ -5151,16 +7049,22 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>24.3892</v>
+        <v>24.8717</v>
       </c>
       <c r="C4" t="n">
-        <v>22.3151</v>
+        <v>21.6433</v>
       </c>
       <c r="D4" t="n">
-        <v>26.42</v>
+        <v>27.5057</v>
       </c>
       <c r="E4" t="n">
-        <v>30.6981</v>
+        <v>30.2509</v>
+      </c>
+      <c r="F4" t="n">
+        <v>26.3507</v>
+      </c>
+      <c r="G4" t="n">
+        <v>27.6426</v>
       </c>
     </row>
     <row r="5">
@@ -5168,16 +7072,22 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>21.5258</v>
+        <v>21.6485</v>
       </c>
       <c r="C5" t="n">
-        <v>23.399</v>
+        <v>23.853</v>
       </c>
       <c r="D5" t="n">
-        <v>28.6905</v>
+        <v>28.7398</v>
       </c>
       <c r="E5" t="n">
-        <v>35.775</v>
+        <v>35.2255</v>
+      </c>
+      <c r="F5" t="n">
+        <v>26.2432</v>
+      </c>
+      <c r="G5" t="n">
+        <v>31.132</v>
       </c>
     </row>
     <row r="6">
@@ -5185,16 +7095,22 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>25.8339</v>
+        <v>26.2875</v>
       </c>
       <c r="C6" t="n">
-        <v>27.7877</v>
+        <v>27.8246</v>
       </c>
       <c r="D6" t="n">
-        <v>34.9583</v>
+        <v>35.2428</v>
       </c>
       <c r="E6" t="n">
-        <v>39.4605</v>
+        <v>37.473</v>
+      </c>
+      <c r="F6" t="n">
+        <v>29.5529</v>
+      </c>
+      <c r="G6" t="n">
+        <v>35.4932</v>
       </c>
     </row>
     <row r="7">
@@ -5202,16 +7118,22 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>31.9805</v>
+        <v>32.7225</v>
       </c>
       <c r="C7" t="n">
-        <v>32.5209</v>
+        <v>32.7072</v>
       </c>
       <c r="D7" t="n">
-        <v>36.3505</v>
+        <v>38.0548</v>
       </c>
       <c r="E7" t="n">
-        <v>45.1422</v>
+        <v>45.0013</v>
+      </c>
+      <c r="F7" t="n">
+        <v>34.2871</v>
+      </c>
+      <c r="G7" t="n">
+        <v>38.1695</v>
       </c>
     </row>
     <row r="8">
@@ -5219,16 +7141,22 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>22.3024</v>
+        <v>22.6935</v>
       </c>
       <c r="C8" t="n">
-        <v>29.1517</v>
+        <v>29.99</v>
       </c>
       <c r="D8" t="n">
-        <v>32.6928</v>
+        <v>35.0138</v>
       </c>
       <c r="E8" t="n">
-        <v>41.1279</v>
+        <v>41.958</v>
+      </c>
+      <c r="F8" t="n">
+        <v>34.1605</v>
+      </c>
+      <c r="G8" t="n">
+        <v>36.6765</v>
       </c>
     </row>
     <row r="9">
@@ -5236,16 +7164,22 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>25.7093</v>
+        <v>26.0463</v>
       </c>
       <c r="C9" t="n">
-        <v>29.6484</v>
+        <v>29.7211</v>
       </c>
       <c r="D9" t="n">
-        <v>37.3217</v>
+        <v>35.1466</v>
       </c>
       <c r="E9" t="n">
-        <v>48.1654</v>
+        <v>43.9371</v>
+      </c>
+      <c r="F9" t="n">
+        <v>35.8244</v>
+      </c>
+      <c r="G9" t="n">
+        <v>39.4524</v>
       </c>
     </row>
     <row r="10">
@@ -5253,16 +7187,22 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>28.0132</v>
+        <v>28.8581</v>
       </c>
       <c r="C10" t="n">
-        <v>30.0313</v>
+        <v>30.1146</v>
       </c>
       <c r="D10" t="n">
-        <v>37.564</v>
+        <v>37.8523</v>
       </c>
       <c r="E10" t="n">
-        <v>46.1097</v>
+        <v>48.0806</v>
+      </c>
+      <c r="F10" t="n">
+        <v>36.5479</v>
+      </c>
+      <c r="G10" t="n">
+        <v>40.4098</v>
       </c>
     </row>
     <row r="11">
@@ -5270,16 +7210,22 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>25.694</v>
+        <v>26.7903</v>
       </c>
       <c r="C11" t="n">
-        <v>29.7136</v>
+        <v>29.9355</v>
       </c>
       <c r="D11" t="n">
-        <v>40.0606</v>
+        <v>39.3352</v>
       </c>
       <c r="E11" t="n">
-        <v>49.7953</v>
+        <v>51.754</v>
+      </c>
+      <c r="F11" t="n">
+        <v>37.6765</v>
+      </c>
+      <c r="G11" t="n">
+        <v>42.5435</v>
       </c>
     </row>
     <row r="12">
@@ -5287,16 +7233,22 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>28.6502</v>
+        <v>29.352</v>
       </c>
       <c r="C12" t="n">
-        <v>30.7717</v>
+        <v>30.9121</v>
       </c>
       <c r="D12" t="n">
-        <v>41.0504</v>
+        <v>39.5576</v>
       </c>
       <c r="E12" t="n">
-        <v>52.643</v>
+        <v>52.2833</v>
+      </c>
+      <c r="F12" t="n">
+        <v>37.5073</v>
+      </c>
+      <c r="G12" t="n">
+        <v>41.4071</v>
       </c>
     </row>
     <row r="13">
@@ -5304,16 +7256,22 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>31.9508</v>
+        <v>32.6192</v>
       </c>
       <c r="C13" t="n">
-        <v>31.2932</v>
+        <v>31.2695</v>
       </c>
       <c r="D13" t="n">
-        <v>43.001</v>
+        <v>40.9257</v>
       </c>
       <c r="E13" t="n">
-        <v>51.379</v>
+        <v>53.1747</v>
+      </c>
+      <c r="F13" t="n">
+        <v>39.4327</v>
+      </c>
+      <c r="G13" t="n">
+        <v>43.7727</v>
       </c>
     </row>
     <row r="14">
@@ -5321,16 +7279,22 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>26.3361</v>
+        <v>26.2666</v>
       </c>
       <c r="C14" t="n">
-        <v>31.2925</v>
+        <v>31.2743</v>
       </c>
       <c r="D14" t="n">
-        <v>42.0901</v>
+        <v>43.3814</v>
       </c>
       <c r="E14" t="n">
-        <v>53.2781</v>
+        <v>53.1383</v>
+      </c>
+      <c r="F14" t="n">
+        <v>38.0213</v>
+      </c>
+      <c r="G14" t="n">
+        <v>44.4307</v>
       </c>
     </row>
     <row r="15">
@@ -5338,16 +7302,22 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>27.7169</v>
+        <v>28.0789</v>
       </c>
       <c r="C15" t="n">
-        <v>31.3072</v>
+        <v>31.3117</v>
       </c>
       <c r="D15" t="n">
-        <v>45.1512</v>
+        <v>44.1427</v>
       </c>
       <c r="E15" t="n">
-        <v>52.4487</v>
+        <v>53.1663</v>
+      </c>
+      <c r="F15" t="n">
+        <v>38.7798</v>
+      </c>
+      <c r="G15" t="n">
+        <v>44.659</v>
       </c>
     </row>
     <row r="16">
@@ -5355,16 +7325,22 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>29.8353</v>
+        <v>29.7033</v>
       </c>
       <c r="C16" t="n">
-        <v>31.5</v>
+        <v>31.2958</v>
       </c>
       <c r="D16" t="n">
-        <v>45.4055</v>
+        <v>45.3921</v>
       </c>
       <c r="E16" t="n">
-        <v>53.5325</v>
+        <v>53.3091</v>
+      </c>
+      <c r="F16" t="n">
+        <v>39.6422</v>
+      </c>
+      <c r="G16" t="n">
+        <v>45.5161</v>
       </c>
     </row>
     <row r="17">
@@ -5372,16 +7348,22 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>28.0115</v>
+        <v>28.7928</v>
       </c>
       <c r="C17" t="n">
-        <v>31.3948</v>
+        <v>31.6069</v>
       </c>
       <c r="D17" t="n">
-        <v>44.9387</v>
+        <v>45.3144</v>
       </c>
       <c r="E17" t="n">
-        <v>53.5876</v>
+        <v>53.7436</v>
+      </c>
+      <c r="F17" t="n">
+        <v>40.5856</v>
+      </c>
+      <c r="G17" t="n">
+        <v>48.5067</v>
       </c>
     </row>
   </sheetData>
@@ -5396,10 +7378,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -5428,22 +7410,38 @@
           <t>boost::concurrent_flat_map bulk</t>
         </is>
       </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>boost::concurrent_node_map</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>boost::concurrent_node_map bulk</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>10.7838</v>
+        <v>10.9293</v>
       </c>
       <c r="C2" t="n">
-        <v>11.5393</v>
+        <v>11.5946</v>
       </c>
       <c r="D2" t="n">
-        <v>13.687</v>
+        <v>13.9082</v>
       </c>
       <c r="E2" t="n">
-        <v>15.3387</v>
+        <v>15.3093</v>
+      </c>
+      <c r="F2" t="n">
+        <v>13.3833</v>
+      </c>
+      <c r="G2" t="n">
+        <v>14.9287</v>
       </c>
     </row>
     <row r="3">
@@ -5451,16 +7449,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>19.3198</v>
+        <v>19.4893</v>
       </c>
       <c r="C3" t="n">
-        <v>19.2323</v>
+        <v>18.9145</v>
       </c>
       <c r="D3" t="n">
-        <v>22.0852</v>
+        <v>22.7742</v>
       </c>
       <c r="E3" t="n">
-        <v>24.8012</v>
+        <v>26.1788</v>
+      </c>
+      <c r="F3" t="n">
+        <v>21.9963</v>
+      </c>
+      <c r="G3" t="n">
+        <v>24.8795</v>
       </c>
     </row>
     <row r="4">
@@ -5468,16 +7472,22 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>26.5587</v>
+        <v>26.8988</v>
       </c>
       <c r="C4" t="n">
-        <v>25.1034</v>
+        <v>25.0084</v>
       </c>
       <c r="D4" t="n">
-        <v>29.3439</v>
+        <v>28.9273</v>
       </c>
       <c r="E4" t="n">
-        <v>32.3026</v>
+        <v>32.0426</v>
+      </c>
+      <c r="F4" t="n">
+        <v>29.1947</v>
+      </c>
+      <c r="G4" t="n">
+        <v>31.2489</v>
       </c>
     </row>
     <row r="5">
@@ -5485,16 +7495,22 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>23.9943</v>
+        <v>24.3961</v>
       </c>
       <c r="C5" t="n">
-        <v>24.6919</v>
+        <v>25.0438</v>
       </c>
       <c r="D5" t="n">
-        <v>30.7446</v>
+        <v>30.0618</v>
       </c>
       <c r="E5" t="n">
-        <v>35.7804</v>
+        <v>35.2141</v>
+      </c>
+      <c r="F5" t="n">
+        <v>29.7399</v>
+      </c>
+      <c r="G5" t="n">
+        <v>35.9879</v>
       </c>
     </row>
     <row r="6">
@@ -5502,16 +7518,22 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>29.1133</v>
+        <v>29.4746</v>
       </c>
       <c r="C6" t="n">
-        <v>28.7416</v>
+        <v>28.7151</v>
       </c>
       <c r="D6" t="n">
-        <v>32.9962</v>
+        <v>34.4547</v>
       </c>
       <c r="E6" t="n">
-        <v>36.891</v>
+        <v>38.0006</v>
+      </c>
+      <c r="F6" t="n">
+        <v>32.4641</v>
+      </c>
+      <c r="G6" t="n">
+        <v>36.5142</v>
       </c>
     </row>
     <row r="7">
@@ -5519,16 +7541,22 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>34.9563</v>
+        <v>35.4785</v>
       </c>
       <c r="C7" t="n">
-        <v>33.7275</v>
+        <v>33.8383</v>
       </c>
       <c r="D7" t="n">
-        <v>35.1871</v>
+        <v>35.0717</v>
       </c>
       <c r="E7" t="n">
-        <v>52.3057</v>
+        <v>52.3349</v>
+      </c>
+      <c r="F7" t="n">
+        <v>36.3303</v>
+      </c>
+      <c r="G7" t="n">
+        <v>43.8403</v>
       </c>
     </row>
     <row r="8">
@@ -5536,16 +7564,22 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>30.2905</v>
+        <v>31.9827</v>
       </c>
       <c r="C8" t="n">
-        <v>29.7016</v>
+        <v>29.3589</v>
       </c>
       <c r="D8" t="n">
-        <v>35.8626</v>
+        <v>34.7808</v>
       </c>
       <c r="E8" t="n">
-        <v>45.0979</v>
+        <v>45.3183</v>
+      </c>
+      <c r="F8" t="n">
+        <v>36.49</v>
+      </c>
+      <c r="G8" t="n">
+        <v>44.9725</v>
       </c>
     </row>
     <row r="9">
@@ -5553,16 +7587,22 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>31.5283</v>
+        <v>30.8601</v>
       </c>
       <c r="C9" t="n">
-        <v>30.2366</v>
+        <v>29.857</v>
       </c>
       <c r="D9" t="n">
-        <v>39.1577</v>
+        <v>41.6305</v>
       </c>
       <c r="E9" t="n">
-        <v>51.78</v>
+        <v>45.2906</v>
+      </c>
+      <c r="F9" t="n">
+        <v>37.3358</v>
+      </c>
+      <c r="G9" t="n">
+        <v>47.0307</v>
       </c>
     </row>
     <row r="10">
@@ -5570,16 +7610,22 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>31.4925</v>
+        <v>31.8624</v>
       </c>
       <c r="C10" t="n">
-        <v>30.4141</v>
+        <v>30.4713</v>
       </c>
       <c r="D10" t="n">
-        <v>41.6058</v>
+        <v>41.82</v>
       </c>
       <c r="E10" t="n">
-        <v>50.6418</v>
+        <v>51.6565</v>
+      </c>
+      <c r="F10" t="n">
+        <v>40.4614</v>
+      </c>
+      <c r="G10" t="n">
+        <v>51.4397</v>
       </c>
     </row>
     <row r="11">
@@ -5587,16 +7633,22 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>31.8168</v>
+        <v>31.9005</v>
       </c>
       <c r="C11" t="n">
-        <v>30.8634</v>
+        <v>30.2803</v>
       </c>
       <c r="D11" t="n">
-        <v>42.2064</v>
+        <v>44.6906</v>
       </c>
       <c r="E11" t="n">
-        <v>52.303</v>
+        <v>52.1872</v>
+      </c>
+      <c r="F11" t="n">
+        <v>41.3663</v>
+      </c>
+      <c r="G11" t="n">
+        <v>48.0228</v>
       </c>
     </row>
     <row r="12">
@@ -5604,16 +7656,22 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>32.7766</v>
+        <v>32.6636</v>
       </c>
       <c r="C12" t="n">
-        <v>31.4136</v>
+        <v>30.6051</v>
       </c>
       <c r="D12" t="n">
-        <v>44.6669</v>
+        <v>43.4323</v>
       </c>
       <c r="E12" t="n">
-        <v>50.5341</v>
+        <v>53.1446</v>
+      </c>
+      <c r="F12" t="n">
+        <v>40.7946</v>
+      </c>
+      <c r="G12" t="n">
+        <v>48.87</v>
       </c>
     </row>
     <row r="13">
@@ -5621,16 +7679,22 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>32.6084</v>
+        <v>33.5891</v>
       </c>
       <c r="C13" t="n">
-        <v>30.7447</v>
+        <v>30.9498</v>
       </c>
       <c r="D13" t="n">
-        <v>44.5428</v>
+        <v>44.389</v>
       </c>
       <c r="E13" t="n">
-        <v>51.1782</v>
+        <v>53.2159</v>
+      </c>
+      <c r="F13" t="n">
+        <v>41.843</v>
+      </c>
+      <c r="G13" t="n">
+        <v>48.7248</v>
       </c>
     </row>
     <row r="14">
@@ -5638,16 +7702,22 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>32.7207</v>
+        <v>32.8143</v>
       </c>
       <c r="C14" t="n">
-        <v>31.5336</v>
+        <v>30.8483</v>
       </c>
       <c r="D14" t="n">
-        <v>44.3707</v>
+        <v>43.5889</v>
       </c>
       <c r="E14" t="n">
-        <v>52.5422</v>
+        <v>52.249</v>
+      </c>
+      <c r="F14" t="n">
+        <v>40.8661</v>
+      </c>
+      <c r="G14" t="n">
+        <v>48.9017</v>
       </c>
     </row>
     <row r="15">
@@ -5655,16 +7725,22 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>32.8596</v>
+        <v>32.7155</v>
       </c>
       <c r="C15" t="n">
-        <v>31.636</v>
+        <v>31.6121</v>
       </c>
       <c r="D15" t="n">
-        <v>45.3266</v>
+        <v>44.0737</v>
       </c>
       <c r="E15" t="n">
-        <v>52.3224</v>
+        <v>53.0893</v>
+      </c>
+      <c r="F15" t="n">
+        <v>41.6969</v>
+      </c>
+      <c r="G15" t="n">
+        <v>48.5375</v>
       </c>
     </row>
     <row r="16">
@@ -5672,16 +7748,22 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>32.836</v>
+        <v>33.5682</v>
       </c>
       <c r="C16" t="n">
-        <v>31.7384</v>
+        <v>31.6521</v>
       </c>
       <c r="D16" t="n">
-        <v>44.7053</v>
+        <v>44.6175</v>
       </c>
       <c r="E16" t="n">
-        <v>53.0968</v>
+        <v>52.9922</v>
+      </c>
+      <c r="F16" t="n">
+        <v>40.5006</v>
+      </c>
+      <c r="G16" t="n">
+        <v>50.2811</v>
       </c>
     </row>
     <row r="17">
@@ -5689,16 +7771,22 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>33.3097</v>
+        <v>33.515</v>
       </c>
       <c r="C17" t="n">
-        <v>31.9197</v>
+        <v>31.6704</v>
       </c>
       <c r="D17" t="n">
-        <v>43.2555</v>
+        <v>45.0184</v>
       </c>
       <c r="E17" t="n">
-        <v>52.7112</v>
+        <v>52.2963</v>
+      </c>
+      <c r="F17" t="n">
+        <v>41.737</v>
+      </c>
+      <c r="G17" t="n">
+        <v>51.4477</v>
       </c>
     </row>
   </sheetData>
@@ -5713,10 +7801,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -5745,22 +7833,38 @@
           <t>boost::concurrent_flat_map bulk</t>
         </is>
       </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>boost::concurrent_node_map</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>boost::concurrent_node_map bulk</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4.88584</v>
+        <v>4.91706</v>
       </c>
       <c r="C2" t="n">
-        <v>9.015470000000001</v>
+        <v>9.053979999999999</v>
       </c>
       <c r="D2" t="n">
-        <v>10.799</v>
+        <v>10.7533</v>
       </c>
       <c r="E2" t="n">
-        <v>13.9145</v>
+        <v>13.9041</v>
+      </c>
+      <c r="F2" t="n">
+        <v>8.59421</v>
+      </c>
+      <c r="G2" t="n">
+        <v>11.478</v>
       </c>
     </row>
     <row r="3">
@@ -5768,16 +7872,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.71597</v>
+        <v>9.732670000000001</v>
       </c>
       <c r="C3" t="n">
-        <v>15.6606</v>
+        <v>15.7069</v>
       </c>
       <c r="D3" t="n">
-        <v>20.5821</v>
+        <v>19.671</v>
       </c>
       <c r="E3" t="n">
-        <v>26.4526</v>
+        <v>26.0904</v>
+      </c>
+      <c r="F3" t="n">
+        <v>16.1107</v>
+      </c>
+      <c r="G3" t="n">
+        <v>21.3146</v>
       </c>
     </row>
     <row r="4">
@@ -5785,16 +7895,22 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>14.1244</v>
+        <v>14.2898</v>
       </c>
       <c r="C4" t="n">
-        <v>21.8419</v>
+        <v>22.0209</v>
       </c>
       <c r="D4" t="n">
-        <v>29.6594</v>
+        <v>29.5806</v>
       </c>
       <c r="E4" t="n">
-        <v>37.6492</v>
+        <v>37.0063</v>
+      </c>
+      <c r="F4" t="n">
+        <v>22.9383</v>
+      </c>
+      <c r="G4" t="n">
+        <v>30.4028</v>
       </c>
     </row>
     <row r="5">
@@ -5802,16 +7918,22 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>17.248</v>
+        <v>17.3831</v>
       </c>
       <c r="C5" t="n">
-        <v>22.9451</v>
+        <v>23.1209</v>
       </c>
       <c r="D5" t="n">
-        <v>33.7852</v>
+        <v>29.3956</v>
       </c>
       <c r="E5" t="n">
-        <v>43.9746</v>
+        <v>43.6517</v>
+      </c>
+      <c r="F5" t="n">
+        <v>26.9991</v>
+      </c>
+      <c r="G5" t="n">
+        <v>35.7628</v>
       </c>
     </row>
     <row r="6">
@@ -5819,16 +7941,22 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>21.1605</v>
+        <v>21.3171</v>
       </c>
       <c r="C6" t="n">
-        <v>26.3317</v>
+        <v>26.4228</v>
       </c>
       <c r="D6" t="n">
-        <v>40.9233</v>
+        <v>37.3745</v>
       </c>
       <c r="E6" t="n">
-        <v>51.9684</v>
+        <v>52.1396</v>
+      </c>
+      <c r="F6" t="n">
+        <v>32.0707</v>
+      </c>
+      <c r="G6" t="n">
+        <v>41.7231</v>
       </c>
     </row>
     <row r="7">
@@ -5836,16 +7964,22 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>25.5745</v>
+        <v>25.7111</v>
       </c>
       <c r="C7" t="n">
-        <v>31.061</v>
+        <v>31.2382</v>
       </c>
       <c r="D7" t="n">
-        <v>47.6236</v>
+        <v>45.7532</v>
       </c>
       <c r="E7" t="n">
-        <v>61.8226</v>
+        <v>61.3136</v>
+      </c>
+      <c r="F7" t="n">
+        <v>37.2306</v>
+      </c>
+      <c r="G7" t="n">
+        <v>48.0048</v>
       </c>
     </row>
     <row r="8">
@@ -5853,16 +7987,22 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>21.7984</v>
+        <v>22.4624</v>
       </c>
       <c r="C8" t="n">
-        <v>29.7784</v>
+        <v>30.2458</v>
       </c>
       <c r="D8" t="n">
-        <v>43.7309</v>
+        <v>40.1609</v>
       </c>
       <c r="E8" t="n">
-        <v>55.959</v>
+        <v>53.806</v>
+      </c>
+      <c r="F8" t="n">
+        <v>33.0166</v>
+      </c>
+      <c r="G8" t="n">
+        <v>43.1474</v>
       </c>
     </row>
     <row r="9">
@@ -5870,16 +8010,22 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>22.7829</v>
+        <v>23.2997</v>
       </c>
       <c r="C9" t="n">
-        <v>29.4377</v>
+        <v>30.0085</v>
       </c>
       <c r="D9" t="n">
-        <v>42.6918</v>
+        <v>40.4568</v>
       </c>
       <c r="E9" t="n">
-        <v>55.14</v>
+        <v>55.8971</v>
+      </c>
+      <c r="F9" t="n">
+        <v>33.5928</v>
+      </c>
+      <c r="G9" t="n">
+        <v>43.4745</v>
       </c>
     </row>
     <row r="10">
@@ -5887,16 +8033,22 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>23.1043</v>
+        <v>23.6537</v>
       </c>
       <c r="C10" t="n">
-        <v>29.7768</v>
+        <v>29.6455</v>
       </c>
       <c r="D10" t="n">
-        <v>42.7109</v>
+        <v>41.3516</v>
       </c>
       <c r="E10" t="n">
-        <v>54.4832</v>
+        <v>54.5117</v>
+      </c>
+      <c r="F10" t="n">
+        <v>33.6994</v>
+      </c>
+      <c r="G10" t="n">
+        <v>43.562</v>
       </c>
     </row>
     <row r="11">
@@ -5904,16 +8056,22 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>23.8297</v>
+        <v>23.4596</v>
       </c>
       <c r="C11" t="n">
-        <v>29.6118</v>
+        <v>29.7877</v>
       </c>
       <c r="D11" t="n">
-        <v>42.9193</v>
+        <v>41.3691</v>
       </c>
       <c r="E11" t="n">
-        <v>56.2474</v>
+        <v>58.6624</v>
+      </c>
+      <c r="F11" t="n">
+        <v>34.3448</v>
+      </c>
+      <c r="G11" t="n">
+        <v>43.5915</v>
       </c>
     </row>
     <row r="12">
@@ -5921,16 +8079,22 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>23.4713</v>
+        <v>24.0285</v>
       </c>
       <c r="C12" t="n">
-        <v>30.0117</v>
+        <v>29.8727</v>
       </c>
       <c r="D12" t="n">
-        <v>44.0965</v>
+        <v>39.9013</v>
       </c>
       <c r="E12" t="n">
-        <v>57.3377</v>
+        <v>57.1009</v>
+      </c>
+      <c r="F12" t="n">
+        <v>34.2546</v>
+      </c>
+      <c r="G12" t="n">
+        <v>44.4797</v>
       </c>
     </row>
     <row r="13">
@@ -5938,16 +8102,22 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>24.2219</v>
+        <v>24.1595</v>
       </c>
       <c r="C13" t="n">
-        <v>30.2342</v>
+        <v>30.2759</v>
       </c>
       <c r="D13" t="n">
-        <v>43.343</v>
+        <v>40.777</v>
       </c>
       <c r="E13" t="n">
-        <v>58.1306</v>
+        <v>57.172</v>
+      </c>
+      <c r="F13" t="n">
+        <v>34.9529</v>
+      </c>
+      <c r="G13" t="n">
+        <v>47.1412</v>
       </c>
     </row>
     <row r="14">
@@ -5955,16 +8125,22 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>23.9232</v>
+        <v>23.5582</v>
       </c>
       <c r="C14" t="n">
-        <v>30.3624</v>
+        <v>30.5096</v>
       </c>
       <c r="D14" t="n">
-        <v>45.8467</v>
+        <v>42.195</v>
       </c>
       <c r="E14" t="n">
-        <v>58.2122</v>
+        <v>57.1752</v>
+      </c>
+      <c r="F14" t="n">
+        <v>34.3059</v>
+      </c>
+      <c r="G14" t="n">
+        <v>45.6237</v>
       </c>
     </row>
     <row r="15">
@@ -5972,16 +8148,22 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>23.83</v>
+        <v>24.0633</v>
       </c>
       <c r="C15" t="n">
-        <v>30.2195</v>
+        <v>30.1595</v>
       </c>
       <c r="D15" t="n">
-        <v>45.6894</v>
+        <v>42.9774</v>
       </c>
       <c r="E15" t="n">
-        <v>58.813</v>
+        <v>58.2155</v>
+      </c>
+      <c r="F15" t="n">
+        <v>34.6207</v>
+      </c>
+      <c r="G15" t="n">
+        <v>44.8169</v>
       </c>
     </row>
     <row r="16">
@@ -5989,16 +8171,22 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>24.0111</v>
+        <v>24.1265</v>
       </c>
       <c r="C16" t="n">
-        <v>30.4261</v>
+        <v>30.4613</v>
       </c>
       <c r="D16" t="n">
-        <v>45.1253</v>
+        <v>42.8738</v>
       </c>
       <c r="E16" t="n">
-        <v>58.372</v>
+        <v>58.0419</v>
+      </c>
+      <c r="F16" t="n">
+        <v>34.4918</v>
+      </c>
+      <c r="G16" t="n">
+        <v>45.3341</v>
       </c>
     </row>
     <row r="17">
@@ -6006,16 +8194,22 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>24.1974</v>
+        <v>23.9172</v>
       </c>
       <c r="C17" t="n">
-        <v>30.522</v>
+        <v>30.5868</v>
       </c>
       <c r="D17" t="n">
-        <v>44.7246</v>
+        <v>43.0209</v>
       </c>
       <c r="E17" t="n">
-        <v>59.1876</v>
+        <v>58.0439</v>
+      </c>
+      <c r="F17" t="n">
+        <v>34.8293</v>
+      </c>
+      <c r="G17" t="n">
+        <v>45.9477</v>
       </c>
     </row>
   </sheetData>
@@ -6030,10 +8224,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -6062,22 +8256,38 @@
           <t>boost::concurrent_flat_map bulk</t>
         </is>
       </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>boost::concurrent_node_map</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>boost::concurrent_node_map bulk</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>5.02781</v>
+        <v>5.03933</v>
       </c>
       <c r="C2" t="n">
-        <v>9.054740000000001</v>
+        <v>9.072649999999999</v>
       </c>
       <c r="D2" t="n">
-        <v>10.8942</v>
+        <v>10.7308</v>
       </c>
       <c r="E2" t="n">
-        <v>13.9799</v>
+        <v>13.9837</v>
+      </c>
+      <c r="F2" t="n">
+        <v>8.55289</v>
+      </c>
+      <c r="G2" t="n">
+        <v>11.541</v>
       </c>
     </row>
     <row r="3">
@@ -6085,16 +8295,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.97296</v>
+        <v>9.95119</v>
       </c>
       <c r="C3" t="n">
-        <v>15.82</v>
+        <v>15.7423</v>
       </c>
       <c r="D3" t="n">
-        <v>20.5966</v>
+        <v>20.4299</v>
       </c>
       <c r="E3" t="n">
-        <v>26.445</v>
+        <v>26.2774</v>
+      </c>
+      <c r="F3" t="n">
+        <v>16.191</v>
+      </c>
+      <c r="G3" t="n">
+        <v>21.5063</v>
       </c>
     </row>
     <row r="4">
@@ -6102,16 +8318,22 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>14.5711</v>
+        <v>14.5039</v>
       </c>
       <c r="C4" t="n">
-        <v>22.3759</v>
+        <v>21.9996</v>
       </c>
       <c r="D4" t="n">
-        <v>29.7535</v>
+        <v>29.4733</v>
       </c>
       <c r="E4" t="n">
-        <v>38.1421</v>
+        <v>37.5108</v>
+      </c>
+      <c r="F4" t="n">
+        <v>23.0394</v>
+      </c>
+      <c r="G4" t="n">
+        <v>30.5204</v>
       </c>
     </row>
     <row r="5">
@@ -6119,16 +8341,22 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>17.3684</v>
+        <v>17.43</v>
       </c>
       <c r="C5" t="n">
-        <v>23.1121</v>
+        <v>22.8872</v>
       </c>
       <c r="D5" t="n">
-        <v>32.8864</v>
+        <v>29.8469</v>
       </c>
       <c r="E5" t="n">
-        <v>43.3097</v>
+        <v>43.0505</v>
+      </c>
+      <c r="F5" t="n">
+        <v>26.2691</v>
+      </c>
+      <c r="G5" t="n">
+        <v>35.6731</v>
       </c>
     </row>
     <row r="6">
@@ -6136,16 +8364,22 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>21.3712</v>
+        <v>21.6237</v>
       </c>
       <c r="C6" t="n">
-        <v>26.5008</v>
+        <v>26.559</v>
       </c>
       <c r="D6" t="n">
-        <v>39.545</v>
+        <v>38.2845</v>
       </c>
       <c r="E6" t="n">
-        <v>51.7867</v>
+        <v>51.5483</v>
+      </c>
+      <c r="F6" t="n">
+        <v>32.3704</v>
+      </c>
+      <c r="G6" t="n">
+        <v>42.2268</v>
       </c>
     </row>
     <row r="7">
@@ -6153,16 +8387,22 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>25.9115</v>
+        <v>26.0537</v>
       </c>
       <c r="C7" t="n">
-        <v>31.2967</v>
+        <v>31.3338</v>
       </c>
       <c r="D7" t="n">
-        <v>47.1447</v>
+        <v>45.1908</v>
       </c>
       <c r="E7" t="n">
-        <v>60.0585</v>
+        <v>59.7615</v>
+      </c>
+      <c r="F7" t="n">
+        <v>36.1121</v>
+      </c>
+      <c r="G7" t="n">
+        <v>48.3883</v>
       </c>
     </row>
     <row r="8">
@@ -6170,16 +8410,22 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>23.0761</v>
+        <v>22.7255</v>
       </c>
       <c r="C8" t="n">
-        <v>29.8242</v>
+        <v>30.1047</v>
       </c>
       <c r="D8" t="n">
-        <v>42.1193</v>
+        <v>42.3235</v>
       </c>
       <c r="E8" t="n">
-        <v>53.7759</v>
+        <v>53.9175</v>
+      </c>
+      <c r="F8" t="n">
+        <v>32.6449</v>
+      </c>
+      <c r="G8" t="n">
+        <v>43.3213</v>
       </c>
     </row>
     <row r="9">
@@ -6187,16 +8433,22 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>23.5204</v>
+        <v>23.1932</v>
       </c>
       <c r="C9" t="n">
-        <v>30.115</v>
+        <v>30.1303</v>
       </c>
       <c r="D9" t="n">
-        <v>42.1778</v>
+        <v>41.264</v>
       </c>
       <c r="E9" t="n">
-        <v>52.1983</v>
+        <v>52.03</v>
+      </c>
+      <c r="F9" t="n">
+        <v>32.7009</v>
+      </c>
+      <c r="G9" t="n">
+        <v>44.2295</v>
       </c>
     </row>
     <row r="10">
@@ -6204,16 +8456,22 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>23.7542</v>
+        <v>24.0267</v>
       </c>
       <c r="C10" t="n">
-        <v>29.4359</v>
+        <v>29.9815</v>
       </c>
       <c r="D10" t="n">
-        <v>42.0005</v>
+        <v>40.7339</v>
       </c>
       <c r="E10" t="n">
-        <v>53.2207</v>
+        <v>53.1607</v>
+      </c>
+      <c r="F10" t="n">
+        <v>33.6559</v>
+      </c>
+      <c r="G10" t="n">
+        <v>42.1913</v>
       </c>
     </row>
     <row r="11">
@@ -6221,16 +8479,22 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>24.2728</v>
+        <v>24.4654</v>
       </c>
       <c r="C11" t="n">
-        <v>29.9028</v>
+        <v>30.1413</v>
       </c>
       <c r="D11" t="n">
-        <v>43.2673</v>
+        <v>41.3355</v>
       </c>
       <c r="E11" t="n">
-        <v>55.0544</v>
+        <v>56.203</v>
+      </c>
+      <c r="F11" t="n">
+        <v>34.1036</v>
+      </c>
+      <c r="G11" t="n">
+        <v>44.4782</v>
       </c>
     </row>
     <row r="12">
@@ -6238,16 +8502,22 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>23.8539</v>
+        <v>24.365</v>
       </c>
       <c r="C12" t="n">
-        <v>30.0203</v>
+        <v>30.5168</v>
       </c>
       <c r="D12" t="n">
-        <v>43.7054</v>
+        <v>41.185</v>
       </c>
       <c r="E12" t="n">
-        <v>57.881</v>
+        <v>55.8637</v>
+      </c>
+      <c r="F12" t="n">
+        <v>34.5715</v>
+      </c>
+      <c r="G12" t="n">
+        <v>45.772</v>
       </c>
     </row>
     <row r="13">
@@ -6255,16 +8525,22 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>23.9802</v>
+        <v>24.3907</v>
       </c>
       <c r="C13" t="n">
-        <v>30.2605</v>
+        <v>30.5232</v>
       </c>
       <c r="D13" t="n">
-        <v>43.0493</v>
+        <v>42.3948</v>
       </c>
       <c r="E13" t="n">
-        <v>56.1733</v>
+        <v>57.1584</v>
+      </c>
+      <c r="F13" t="n">
+        <v>32.9391</v>
+      </c>
+      <c r="G13" t="n">
+        <v>45.6046</v>
       </c>
     </row>
     <row r="14">
@@ -6272,16 +8548,22 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>24.1353</v>
+        <v>24.4347</v>
       </c>
       <c r="C14" t="n">
-        <v>30.0196</v>
+        <v>30.3624</v>
       </c>
       <c r="D14" t="n">
-        <v>44.4762</v>
+        <v>42.0916</v>
       </c>
       <c r="E14" t="n">
-        <v>56.3427</v>
+        <v>56.3889</v>
+      </c>
+      <c r="F14" t="n">
+        <v>34.4873</v>
+      </c>
+      <c r="G14" t="n">
+        <v>44.9324</v>
       </c>
     </row>
     <row r="15">
@@ -6289,16 +8571,22 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>23.9939</v>
+        <v>24.2381</v>
       </c>
       <c r="C15" t="n">
-        <v>30.4996</v>
+        <v>30.496</v>
       </c>
       <c r="D15" t="n">
-        <v>45.8223</v>
+        <v>42.4483</v>
       </c>
       <c r="E15" t="n">
-        <v>57.3554</v>
+        <v>57.5051</v>
+      </c>
+      <c r="F15" t="n">
+        <v>34.0965</v>
+      </c>
+      <c r="G15" t="n">
+        <v>46.3779</v>
       </c>
     </row>
     <row r="16">
@@ -6306,16 +8594,22 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>24.4695</v>
+        <v>24.4522</v>
       </c>
       <c r="C16" t="n">
-        <v>30.1648</v>
+        <v>30.6404</v>
       </c>
       <c r="D16" t="n">
-        <v>45.3276</v>
+        <v>41.5367</v>
       </c>
       <c r="E16" t="n">
-        <v>57.9244</v>
+        <v>59.1183</v>
+      </c>
+      <c r="F16" t="n">
+        <v>34.6826</v>
+      </c>
+      <c r="G16" t="n">
+        <v>47.2246</v>
       </c>
     </row>
     <row r="17">
@@ -6323,16 +8617,22 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>24.1985</v>
+        <v>25.0733</v>
       </c>
       <c r="C17" t="n">
-        <v>30.2717</v>
+        <v>30.5133</v>
       </c>
       <c r="D17" t="n">
-        <v>45.567</v>
+        <v>42.1826</v>
       </c>
       <c r="E17" t="n">
-        <v>58.7703</v>
+        <v>58.1456</v>
+      </c>
+      <c r="F17" t="n">
+        <v>34.5249</v>
+      </c>
+      <c r="G17" t="n">
+        <v>47.247</v>
       </c>
     </row>
   </sheetData>
@@ -6347,10 +8647,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -6379,22 +8679,38 @@
           <t>boost::concurrent_flat_map bulk</t>
         </is>
       </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>boost::concurrent_node_map</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>boost::concurrent_node_map bulk</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.740830000000001</v>
+        <v>8.84169</v>
       </c>
       <c r="C2" t="n">
-        <v>10.8235</v>
+        <v>10.885</v>
       </c>
       <c r="D2" t="n">
-        <v>13.093</v>
+        <v>13.211</v>
       </c>
       <c r="E2" t="n">
-        <v>15.2396</v>
+        <v>15.2715</v>
+      </c>
+      <c r="F2" t="n">
+        <v>12.2776</v>
+      </c>
+      <c r="G2" t="n">
+        <v>14.4516</v>
       </c>
     </row>
     <row r="3">
@@ -6402,16 +8718,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>16.5743</v>
+        <v>16.7328</v>
       </c>
       <c r="C3" t="n">
-        <v>18.2523</v>
+        <v>18.4244</v>
       </c>
       <c r="D3" t="n">
-        <v>24.2656</v>
+        <v>24.4543</v>
       </c>
       <c r="E3" t="n">
-        <v>28.5759</v>
+        <v>28.5707</v>
+      </c>
+      <c r="F3" t="n">
+        <v>22.7542</v>
+      </c>
+      <c r="G3" t="n">
+        <v>26.7171</v>
       </c>
     </row>
     <row r="4">
@@ -6419,16 +8741,22 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>23.7419</v>
+        <v>24.1489</v>
       </c>
       <c r="C4" t="n">
-        <v>25.4325</v>
+        <v>25.09</v>
       </c>
       <c r="D4" t="n">
-        <v>34.6822</v>
+        <v>34.6293</v>
       </c>
       <c r="E4" t="n">
-        <v>40.7204</v>
+        <v>40.6409</v>
+      </c>
+      <c r="F4" t="n">
+        <v>32.1904</v>
+      </c>
+      <c r="G4" t="n">
+        <v>37.77</v>
       </c>
     </row>
     <row r="5">
@@ -6436,16 +8764,22 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>24.0262</v>
+        <v>24.2946</v>
       </c>
       <c r="C5" t="n">
-        <v>25.3072</v>
+        <v>25.1831</v>
       </c>
       <c r="D5" t="n">
-        <v>36.5694</v>
+        <v>36.4413</v>
       </c>
       <c r="E5" t="n">
-        <v>46.3813</v>
+        <v>46.7028</v>
+      </c>
+      <c r="F5" t="n">
+        <v>33.4802</v>
+      </c>
+      <c r="G5" t="n">
+        <v>41.5035</v>
       </c>
     </row>
     <row r="6">
@@ -6453,16 +8787,22 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>27.5885</v>
+        <v>28.2415</v>
       </c>
       <c r="C6" t="n">
-        <v>28.4848</v>
+        <v>28.7198</v>
       </c>
       <c r="D6" t="n">
-        <v>42.5923</v>
+        <v>42.8585</v>
       </c>
       <c r="E6" t="n">
-        <v>55.0816</v>
+        <v>55.5839</v>
+      </c>
+      <c r="F6" t="n">
+        <v>39.2085</v>
+      </c>
+      <c r="G6" t="n">
+        <v>49.2115</v>
       </c>
     </row>
     <row r="7">
@@ -6470,16 +8810,22 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>33.5415</v>
+        <v>33.9748</v>
       </c>
       <c r="C7" t="n">
-        <v>33.1003</v>
+        <v>33.3286</v>
       </c>
       <c r="D7" t="n">
-        <v>50.2936</v>
+        <v>50.3391</v>
       </c>
       <c r="E7" t="n">
-        <v>63.3259</v>
+        <v>63.5712</v>
+      </c>
+      <c r="F7" t="n">
+        <v>46.5122</v>
+      </c>
+      <c r="G7" t="n">
+        <v>57.3368</v>
       </c>
     </row>
     <row r="8">
@@ -6487,16 +8833,22 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>30.8785</v>
+        <v>31.3347</v>
       </c>
       <c r="C8" t="n">
-        <v>32.1391</v>
+        <v>31.8309</v>
       </c>
       <c r="D8" t="n">
-        <v>46.208</v>
+        <v>46.8185</v>
       </c>
       <c r="E8" t="n">
-        <v>59.0363</v>
+        <v>60.5973</v>
+      </c>
+      <c r="F8" t="n">
+        <v>43.5855</v>
+      </c>
+      <c r="G8" t="n">
+        <v>55.0227</v>
       </c>
     </row>
     <row r="9">
@@ -6504,16 +8856,22 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>30.7971</v>
+        <v>31.3029</v>
       </c>
       <c r="C9" t="n">
-        <v>31.6537</v>
+        <v>31.8606</v>
       </c>
       <c r="D9" t="n">
-        <v>46.3669</v>
+        <v>47.2047</v>
       </c>
       <c r="E9" t="n">
-        <v>59.9364</v>
+        <v>60.7153</v>
+      </c>
+      <c r="F9" t="n">
+        <v>43.7247</v>
+      </c>
+      <c r="G9" t="n">
+        <v>56.2681</v>
       </c>
     </row>
     <row r="10">
@@ -6521,16 +8879,22 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>31.4959</v>
+        <v>32.0178</v>
       </c>
       <c r="C10" t="n">
-        <v>32.2387</v>
+        <v>32.1252</v>
       </c>
       <c r="D10" t="n">
-        <v>47.6405</v>
+        <v>46.6808</v>
       </c>
       <c r="E10" t="n">
-        <v>59.6474</v>
+        <v>61.0264</v>
+      </c>
+      <c r="F10" t="n">
+        <v>44.4381</v>
+      </c>
+      <c r="G10" t="n">
+        <v>55.7196</v>
       </c>
     </row>
     <row r="11">
@@ -6538,16 +8902,22 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>32.1953</v>
+        <v>32.2212</v>
       </c>
       <c r="C11" t="n">
-        <v>32.4574</v>
+        <v>32.6725</v>
       </c>
       <c r="D11" t="n">
-        <v>47.5258</v>
+        <v>48.8737</v>
       </c>
       <c r="E11" t="n">
-        <v>61.0733</v>
+        <v>60.8678</v>
+      </c>
+      <c r="F11" t="n">
+        <v>44.8158</v>
+      </c>
+      <c r="G11" t="n">
+        <v>56.1785</v>
       </c>
     </row>
     <row r="12">
@@ -6555,16 +8925,22 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>31.9712</v>
+        <v>32.2222</v>
       </c>
       <c r="C12" t="n">
-        <v>32.4061</v>
+        <v>32.3307</v>
       </c>
       <c r="D12" t="n">
-        <v>48.2067</v>
+        <v>48.114</v>
       </c>
       <c r="E12" t="n">
-        <v>61.5249</v>
+        <v>60.477</v>
+      </c>
+      <c r="F12" t="n">
+        <v>44.4979</v>
+      </c>
+      <c r="G12" t="n">
+        <v>56.7573</v>
       </c>
     </row>
     <row r="13">
@@ -6572,16 +8948,22 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>32.1248</v>
+        <v>32.695</v>
       </c>
       <c r="C13" t="n">
-        <v>32.3853</v>
+        <v>32.5089</v>
       </c>
       <c r="D13" t="n">
-        <v>47.9796</v>
+        <v>47.3695</v>
       </c>
       <c r="E13" t="n">
-        <v>61.7644</v>
+        <v>61.2323</v>
+      </c>
+      <c r="F13" t="n">
+        <v>44.7426</v>
+      </c>
+      <c r="G13" t="n">
+        <v>57.2191</v>
       </c>
     </row>
     <row r="14">
@@ -6589,16 +8971,22 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>32.1243</v>
+        <v>32.3939</v>
       </c>
       <c r="C14" t="n">
-        <v>32.118</v>
+        <v>32.7728</v>
       </c>
       <c r="D14" t="n">
-        <v>47.3257</v>
+        <v>47.8712</v>
       </c>
       <c r="E14" t="n">
-        <v>61.3714</v>
+        <v>60.6816</v>
+      </c>
+      <c r="F14" t="n">
+        <v>44.0519</v>
+      </c>
+      <c r="G14" t="n">
+        <v>57.3002</v>
       </c>
     </row>
     <row r="15">
@@ -6606,16 +8994,22 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>31.8907</v>
+        <v>32.7624</v>
       </c>
       <c r="C15" t="n">
-        <v>32.4233</v>
+        <v>32.4773</v>
       </c>
       <c r="D15" t="n">
-        <v>48.506</v>
+        <v>48.202</v>
       </c>
       <c r="E15" t="n">
-        <v>61.3648</v>
+        <v>60.0358</v>
+      </c>
+      <c r="F15" t="n">
+        <v>44.8433</v>
+      </c>
+      <c r="G15" t="n">
+        <v>56.5517</v>
       </c>
     </row>
     <row r="16">
@@ -6623,16 +9017,22 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>32.1541</v>
+        <v>32.6136</v>
       </c>
       <c r="C16" t="n">
-        <v>32.4711</v>
+        <v>32.1818</v>
       </c>
       <c r="D16" t="n">
-        <v>49.0894</v>
+        <v>48.3948</v>
       </c>
       <c r="E16" t="n">
-        <v>61.4399</v>
+        <v>61.7874</v>
+      </c>
+      <c r="F16" t="n">
+        <v>44.569</v>
+      </c>
+      <c r="G16" t="n">
+        <v>57.1002</v>
       </c>
     </row>
     <row r="17">
@@ -6640,16 +9040,22 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>32.4315</v>
+        <v>32.5718</v>
       </c>
       <c r="C17" t="n">
-        <v>32.359</v>
+        <v>32.4963</v>
       </c>
       <c r="D17" t="n">
-        <v>47.6766</v>
+        <v>49.1967</v>
       </c>
       <c r="E17" t="n">
-        <v>61.469</v>
+        <v>62.4623</v>
+      </c>
+      <c r="F17" t="n">
+        <v>45.1936</v>
+      </c>
+      <c r="G17" t="n">
+        <v>56.8944</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Parallel workload.xlsx
+++ b/vs-x86/Parallel workload.xlsx
@@ -6580,22 +6580,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>9.39537</v>
+        <v>9.334770000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>10.7005</v>
+        <v>10.7555</v>
       </c>
       <c r="D2" t="n">
-        <v>13.1238</v>
+        <v>13.1336</v>
       </c>
       <c r="E2" t="n">
-        <v>14.8961</v>
+        <v>14.8993</v>
       </c>
       <c r="F2" t="n">
-        <v>12.3385</v>
+        <v>12.2851</v>
       </c>
       <c r="G2" t="n">
-        <v>14.1225</v>
+        <v>14.0553</v>
       </c>
     </row>
     <row r="3">
@@ -6603,22 +6603,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>17.7831</v>
+        <v>17.6918</v>
       </c>
       <c r="C3" t="n">
-        <v>16.6781</v>
+        <v>16.6684</v>
       </c>
       <c r="D3" t="n">
-        <v>21.9219</v>
+        <v>22.1787</v>
       </c>
       <c r="E3" t="n">
-        <v>23.6878</v>
+        <v>23.3896</v>
       </c>
       <c r="F3" t="n">
-        <v>20.3601</v>
+        <v>19.9688</v>
       </c>
       <c r="G3" t="n">
-        <v>23.0364</v>
+        <v>22.7693</v>
       </c>
     </row>
     <row r="4">
@@ -6626,22 +6626,22 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>25.3224</v>
+        <v>24.946</v>
       </c>
       <c r="C4" t="n">
-        <v>21.6504</v>
+        <v>21.7966</v>
       </c>
       <c r="D4" t="n">
-        <v>26.7424</v>
+        <v>26.7159</v>
       </c>
       <c r="E4" t="n">
-        <v>31.7017</v>
+        <v>31.3725</v>
       </c>
       <c r="F4" t="n">
-        <v>25.6794</v>
+        <v>26.1012</v>
       </c>
       <c r="G4" t="n">
-        <v>28.6228</v>
+        <v>28.9214</v>
       </c>
     </row>
     <row r="5">
@@ -6649,22 +6649,22 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>22.4012</v>
+        <v>21.5911</v>
       </c>
       <c r="C5" t="n">
-        <v>23.7851</v>
+        <v>23.5509</v>
       </c>
       <c r="D5" t="n">
-        <v>31.0172</v>
+        <v>30.1617</v>
       </c>
       <c r="E5" t="n">
-        <v>32.6671</v>
+        <v>34.7065</v>
       </c>
       <c r="F5" t="n">
-        <v>27.2981</v>
+        <v>26.8376</v>
       </c>
       <c r="G5" t="n">
-        <v>31.0664</v>
+        <v>31.272</v>
       </c>
     </row>
     <row r="6">
@@ -6672,22 +6672,22 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>26.3344</v>
+        <v>26.3645</v>
       </c>
       <c r="C6" t="n">
-        <v>27.8169</v>
+        <v>27.9244</v>
       </c>
       <c r="D6" t="n">
-        <v>31.5306</v>
+        <v>32.5974</v>
       </c>
       <c r="E6" t="n">
-        <v>39.4318</v>
+        <v>39.501</v>
       </c>
       <c r="F6" t="n">
-        <v>31.2408</v>
+        <v>31.2588</v>
       </c>
       <c r="G6" t="n">
-        <v>34.6047</v>
+        <v>34.6947</v>
       </c>
     </row>
     <row r="7">
@@ -6695,22 +6695,22 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>32.5894</v>
+        <v>32.5291</v>
       </c>
       <c r="C7" t="n">
-        <v>32.7465</v>
+        <v>32.7749</v>
       </c>
       <c r="D7" t="n">
-        <v>39.0381</v>
+        <v>37.8202</v>
       </c>
       <c r="E7" t="n">
-        <v>41.0022</v>
+        <v>40.9293</v>
       </c>
       <c r="F7" t="n">
-        <v>32.0671</v>
+        <v>31.3919</v>
       </c>
       <c r="G7" t="n">
-        <v>38.7364</v>
+        <v>38.6723</v>
       </c>
     </row>
     <row r="8">
@@ -6718,22 +6718,22 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>23.2845</v>
+        <v>22.6928</v>
       </c>
       <c r="C8" t="n">
-        <v>30.5868</v>
+        <v>30.4647</v>
       </c>
       <c r="D8" t="n">
-        <v>38.6483</v>
+        <v>37.251</v>
       </c>
       <c r="E8" t="n">
-        <v>40.0827</v>
+        <v>41.5319</v>
       </c>
       <c r="F8" t="n">
-        <v>32.4406</v>
+        <v>33.1102</v>
       </c>
       <c r="G8" t="n">
-        <v>41.0667</v>
+        <v>39.7718</v>
       </c>
     </row>
     <row r="9">
@@ -6741,22 +6741,22 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>26.0629</v>
+        <v>26.0918</v>
       </c>
       <c r="C9" t="n">
-        <v>30.075</v>
+        <v>30.2729</v>
       </c>
       <c r="D9" t="n">
-        <v>37.3534</v>
+        <v>36.988</v>
       </c>
       <c r="E9" t="n">
-        <v>47.0487</v>
+        <v>49.2932</v>
       </c>
       <c r="F9" t="n">
-        <v>34.3384</v>
+        <v>33.1408</v>
       </c>
       <c r="G9" t="n">
-        <v>42.2564</v>
+        <v>42.8997</v>
       </c>
     </row>
     <row r="10">
@@ -6764,22 +6764,22 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>28.8913</v>
+        <v>28.9879</v>
       </c>
       <c r="C10" t="n">
-        <v>29.9125</v>
+        <v>30.5951</v>
       </c>
       <c r="D10" t="n">
-        <v>41.4053</v>
+        <v>40.3908</v>
       </c>
       <c r="E10" t="n">
-        <v>48.1508</v>
+        <v>47.9875</v>
       </c>
       <c r="F10" t="n">
-        <v>35.3454</v>
+        <v>34.9215</v>
       </c>
       <c r="G10" t="n">
-        <v>46.2208</v>
+        <v>44.3964</v>
       </c>
     </row>
     <row r="11">
@@ -6787,22 +6787,22 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>27.0631</v>
+        <v>26.2124</v>
       </c>
       <c r="C11" t="n">
-        <v>30.3973</v>
+        <v>30.029</v>
       </c>
       <c r="D11" t="n">
-        <v>42.8621</v>
+        <v>44.3653</v>
       </c>
       <c r="E11" t="n">
-        <v>52.2595</v>
+        <v>51.1492</v>
       </c>
       <c r="F11" t="n">
-        <v>35.6503</v>
+        <v>36.2607</v>
       </c>
       <c r="G11" t="n">
-        <v>46.2822</v>
+        <v>45.6163</v>
       </c>
     </row>
     <row r="12">
@@ -6810,22 +6810,22 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>29.3638</v>
+        <v>29.2387</v>
       </c>
       <c r="C12" t="n">
-        <v>31.0543</v>
+        <v>30.9095</v>
       </c>
       <c r="D12" t="n">
-        <v>44.5805</v>
+        <v>44.0435</v>
       </c>
       <c r="E12" t="n">
-        <v>52.5176</v>
+        <v>50.3606</v>
       </c>
       <c r="F12" t="n">
-        <v>36.593</v>
+        <v>37.313</v>
       </c>
       <c r="G12" t="n">
-        <v>44.9757</v>
+        <v>48.1207</v>
       </c>
     </row>
     <row r="13">
@@ -6833,22 +6833,22 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>32.5104</v>
+        <v>32.4852</v>
       </c>
       <c r="C13" t="n">
-        <v>31.3237</v>
+        <v>31.473</v>
       </c>
       <c r="D13" t="n">
-        <v>43.3055</v>
+        <v>44.2904</v>
       </c>
       <c r="E13" t="n">
-        <v>52.4727</v>
+        <v>54.3213</v>
       </c>
       <c r="F13" t="n">
-        <v>38.7045</v>
+        <v>38.4253</v>
       </c>
       <c r="G13" t="n">
-        <v>48.028</v>
+        <v>45.7526</v>
       </c>
     </row>
     <row r="14">
@@ -6856,22 +6856,22 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>26.5894</v>
+        <v>26.3789</v>
       </c>
       <c r="C14" t="n">
-        <v>30.4533</v>
+        <v>30.9225</v>
       </c>
       <c r="D14" t="n">
-        <v>43.6886</v>
+        <v>44.0704</v>
       </c>
       <c r="E14" t="n">
-        <v>52.8628</v>
+        <v>52.9167</v>
       </c>
       <c r="F14" t="n">
-        <v>37.3371</v>
+        <v>36.9591</v>
       </c>
       <c r="G14" t="n">
-        <v>46.4496</v>
+        <v>46.5278</v>
       </c>
     </row>
     <row r="15">
@@ -6879,22 +6879,22 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>27.9561</v>
+        <v>28.1445</v>
       </c>
       <c r="C15" t="n">
-        <v>31.1798</v>
+        <v>30.6596</v>
       </c>
       <c r="D15" t="n">
-        <v>43.9113</v>
+        <v>44.7075</v>
       </c>
       <c r="E15" t="n">
-        <v>52.5017</v>
+        <v>54.6148</v>
       </c>
       <c r="F15" t="n">
-        <v>38.1587</v>
+        <v>36.9099</v>
       </c>
       <c r="G15" t="n">
-        <v>45.4224</v>
+        <v>47.5703</v>
       </c>
     </row>
     <row r="16">
@@ -6902,22 +6902,22 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>29.8405</v>
+        <v>29.6457</v>
       </c>
       <c r="C16" t="n">
-        <v>31.0063</v>
+        <v>30.8945</v>
       </c>
       <c r="D16" t="n">
-        <v>45.0748</v>
+        <v>43.8432</v>
       </c>
       <c r="E16" t="n">
-        <v>54.3596</v>
+        <v>52.3502</v>
       </c>
       <c r="F16" t="n">
-        <v>38.0393</v>
+        <v>39.0517</v>
       </c>
       <c r="G16" t="n">
-        <v>47.7994</v>
+        <v>46.0346</v>
       </c>
     </row>
     <row r="17">
@@ -6925,22 +6925,22 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>28.2311</v>
+        <v>28.6838</v>
       </c>
       <c r="C17" t="n">
-        <v>30.8836</v>
+        <v>30.8494</v>
       </c>
       <c r="D17" t="n">
-        <v>44.4409</v>
+        <v>44.7147</v>
       </c>
       <c r="E17" t="n">
-        <v>54.3605</v>
+        <v>52.3596</v>
       </c>
       <c r="F17" t="n">
-        <v>38.4126</v>
+        <v>38.6483</v>
       </c>
       <c r="G17" t="n">
-        <v>49.7699</v>
+        <v>49.5987</v>
       </c>
     </row>
   </sheetData>
@@ -7003,22 +7003,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>9.38017</v>
+        <v>9.348420000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>10.7013</v>
+        <v>10.6402</v>
       </c>
       <c r="D2" t="n">
-        <v>13.0207</v>
+        <v>13.0205</v>
       </c>
       <c r="E2" t="n">
-        <v>14.7992</v>
+        <v>14.7993</v>
       </c>
       <c r="F2" t="n">
-        <v>12.2537</v>
+        <v>12.2215</v>
       </c>
       <c r="G2" t="n">
-        <v>14.0775</v>
+        <v>14.049</v>
       </c>
     </row>
     <row r="3">
@@ -7026,22 +7026,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>17.6367</v>
+        <v>17.7791</v>
       </c>
       <c r="C3" t="n">
-        <v>17.0509</v>
+        <v>16.8261</v>
       </c>
       <c r="D3" t="n">
-        <v>21.5808</v>
+        <v>21.7339</v>
       </c>
       <c r="E3" t="n">
-        <v>24.0188</v>
+        <v>24.0004</v>
       </c>
       <c r="F3" t="n">
-        <v>19.9246</v>
+        <v>20.4698</v>
       </c>
       <c r="G3" t="n">
-        <v>23.5011</v>
+        <v>23.2212</v>
       </c>
     </row>
     <row r="4">
@@ -7049,22 +7049,22 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>24.8717</v>
+        <v>24.8002</v>
       </c>
       <c r="C4" t="n">
-        <v>21.6433</v>
+        <v>21.5273</v>
       </c>
       <c r="D4" t="n">
-        <v>27.5057</v>
+        <v>26.5225</v>
       </c>
       <c r="E4" t="n">
-        <v>30.2509</v>
+        <v>30.6587</v>
       </c>
       <c r="F4" t="n">
-        <v>26.3507</v>
+        <v>26.8473</v>
       </c>
       <c r="G4" t="n">
-        <v>27.6426</v>
+        <v>27.7041</v>
       </c>
     </row>
     <row r="5">
@@ -7072,22 +7072,22 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>21.6485</v>
+        <v>21.6711</v>
       </c>
       <c r="C5" t="n">
-        <v>23.853</v>
+        <v>23.4513</v>
       </c>
       <c r="D5" t="n">
-        <v>28.7398</v>
+        <v>27.5124</v>
       </c>
       <c r="E5" t="n">
-        <v>35.2255</v>
+        <v>35.3207</v>
       </c>
       <c r="F5" t="n">
-        <v>26.2432</v>
+        <v>26.3947</v>
       </c>
       <c r="G5" t="n">
-        <v>31.132</v>
+        <v>30.9527</v>
       </c>
     </row>
     <row r="6">
@@ -7095,22 +7095,22 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>26.2875</v>
+        <v>26.3796</v>
       </c>
       <c r="C6" t="n">
-        <v>27.8246</v>
+        <v>27.8836</v>
       </c>
       <c r="D6" t="n">
-        <v>35.2428</v>
+        <v>35.2527</v>
       </c>
       <c r="E6" t="n">
-        <v>37.473</v>
+        <v>35.1464</v>
       </c>
       <c r="F6" t="n">
-        <v>29.5529</v>
+        <v>29.5562</v>
       </c>
       <c r="G6" t="n">
-        <v>35.4932</v>
+        <v>36.834</v>
       </c>
     </row>
     <row r="7">
@@ -7118,22 +7118,22 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>32.7225</v>
+        <v>32.6174</v>
       </c>
       <c r="C7" t="n">
-        <v>32.7072</v>
+        <v>32.7295</v>
       </c>
       <c r="D7" t="n">
-        <v>38.0548</v>
+        <v>36.5913</v>
       </c>
       <c r="E7" t="n">
-        <v>45.0013</v>
+        <v>45.1076</v>
       </c>
       <c r="F7" t="n">
-        <v>34.2871</v>
+        <v>34.278</v>
       </c>
       <c r="G7" t="n">
-        <v>38.1695</v>
+        <v>38.2026</v>
       </c>
     </row>
     <row r="8">
@@ -7141,22 +7141,22 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>22.6935</v>
+        <v>22.8356</v>
       </c>
       <c r="C8" t="n">
-        <v>29.99</v>
+        <v>29.6231</v>
       </c>
       <c r="D8" t="n">
-        <v>35.0138</v>
+        <v>35.3208</v>
       </c>
       <c r="E8" t="n">
-        <v>41.958</v>
+        <v>41.7323</v>
       </c>
       <c r="F8" t="n">
-        <v>34.1605</v>
+        <v>33.1035</v>
       </c>
       <c r="G8" t="n">
-        <v>36.6765</v>
+        <v>35.9799</v>
       </c>
     </row>
     <row r="9">
@@ -7164,22 +7164,22 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>26.0463</v>
+        <v>25.9099</v>
       </c>
       <c r="C9" t="n">
-        <v>29.7211</v>
+        <v>29.7456</v>
       </c>
       <c r="D9" t="n">
-        <v>35.1466</v>
+        <v>37.0041</v>
       </c>
       <c r="E9" t="n">
-        <v>43.9371</v>
+        <v>46.7027</v>
       </c>
       <c r="F9" t="n">
-        <v>35.8244</v>
+        <v>34.6741</v>
       </c>
       <c r="G9" t="n">
-        <v>39.4524</v>
+        <v>40.6216</v>
       </c>
     </row>
     <row r="10">
@@ -7187,22 +7187,22 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>28.8581</v>
+        <v>28.3008</v>
       </c>
       <c r="C10" t="n">
-        <v>30.1146</v>
+        <v>30.1761</v>
       </c>
       <c r="D10" t="n">
-        <v>37.8523</v>
+        <v>39.5775</v>
       </c>
       <c r="E10" t="n">
-        <v>48.0806</v>
+        <v>48.8132</v>
       </c>
       <c r="F10" t="n">
-        <v>36.5479</v>
+        <v>37.5783</v>
       </c>
       <c r="G10" t="n">
-        <v>40.4098</v>
+        <v>38.9207</v>
       </c>
     </row>
     <row r="11">
@@ -7210,22 +7210,22 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>26.7903</v>
+        <v>26.2012</v>
       </c>
       <c r="C11" t="n">
-        <v>29.9355</v>
+        <v>30.4044</v>
       </c>
       <c r="D11" t="n">
-        <v>39.3352</v>
+        <v>39.6821</v>
       </c>
       <c r="E11" t="n">
-        <v>51.754</v>
+        <v>52.459</v>
       </c>
       <c r="F11" t="n">
-        <v>37.6765</v>
+        <v>36.9631</v>
       </c>
       <c r="G11" t="n">
-        <v>42.5435</v>
+        <v>42.3679</v>
       </c>
     </row>
     <row r="12">
@@ -7233,22 +7233,22 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>29.352</v>
+        <v>29.4061</v>
       </c>
       <c r="C12" t="n">
-        <v>30.9121</v>
+        <v>30.4353</v>
       </c>
       <c r="D12" t="n">
-        <v>39.5576</v>
+        <v>40.284</v>
       </c>
       <c r="E12" t="n">
-        <v>52.2833</v>
+        <v>51.776</v>
       </c>
       <c r="F12" t="n">
-        <v>37.5073</v>
+        <v>38.4964</v>
       </c>
       <c r="G12" t="n">
-        <v>41.4071</v>
+        <v>42.2557</v>
       </c>
     </row>
     <row r="13">
@@ -7256,22 +7256,22 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>32.6192</v>
+        <v>32.555</v>
       </c>
       <c r="C13" t="n">
-        <v>31.2695</v>
+        <v>31.1438</v>
       </c>
       <c r="D13" t="n">
-        <v>40.9257</v>
+        <v>44.278</v>
       </c>
       <c r="E13" t="n">
-        <v>53.1747</v>
+        <v>52.6871</v>
       </c>
       <c r="F13" t="n">
-        <v>39.4327</v>
+        <v>37.7928</v>
       </c>
       <c r="G13" t="n">
-        <v>43.7727</v>
+        <v>43.7688</v>
       </c>
     </row>
     <row r="14">
@@ -7279,22 +7279,22 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>26.2666</v>
+        <v>25.7612</v>
       </c>
       <c r="C14" t="n">
-        <v>31.2743</v>
+        <v>31.342</v>
       </c>
       <c r="D14" t="n">
-        <v>43.3814</v>
+        <v>43.5757</v>
       </c>
       <c r="E14" t="n">
-        <v>53.1383</v>
+        <v>52.6527</v>
       </c>
       <c r="F14" t="n">
-        <v>38.0213</v>
+        <v>38.1547</v>
       </c>
       <c r="G14" t="n">
-        <v>44.4307</v>
+        <v>43.3022</v>
       </c>
     </row>
     <row r="15">
@@ -7302,22 +7302,22 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>28.0789</v>
+        <v>27.9838</v>
       </c>
       <c r="C15" t="n">
-        <v>31.3117</v>
+        <v>31.6318</v>
       </c>
       <c r="D15" t="n">
-        <v>44.1427</v>
+        <v>44.7181</v>
       </c>
       <c r="E15" t="n">
-        <v>53.1663</v>
+        <v>52.3321</v>
       </c>
       <c r="F15" t="n">
-        <v>38.7798</v>
+        <v>38.1008</v>
       </c>
       <c r="G15" t="n">
-        <v>44.659</v>
+        <v>45.162</v>
       </c>
     </row>
     <row r="16">
@@ -7325,22 +7325,22 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>29.7033</v>
+        <v>29.765</v>
       </c>
       <c r="C16" t="n">
-        <v>31.2958</v>
+        <v>31.6786</v>
       </c>
       <c r="D16" t="n">
-        <v>45.3921</v>
+        <v>45.2939</v>
       </c>
       <c r="E16" t="n">
-        <v>53.3091</v>
+        <v>51.941</v>
       </c>
       <c r="F16" t="n">
-        <v>39.6422</v>
+        <v>38.0617</v>
       </c>
       <c r="G16" t="n">
-        <v>45.5161</v>
+        <v>44.4689</v>
       </c>
     </row>
     <row r="17">
@@ -7348,22 +7348,22 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>28.7928</v>
+        <v>28.6384</v>
       </c>
       <c r="C17" t="n">
-        <v>31.6069</v>
+        <v>31.7837</v>
       </c>
       <c r="D17" t="n">
-        <v>45.3144</v>
+        <v>44.9507</v>
       </c>
       <c r="E17" t="n">
-        <v>53.7436</v>
+        <v>54.6035</v>
       </c>
       <c r="F17" t="n">
-        <v>40.5856</v>
+        <v>38.5668</v>
       </c>
       <c r="G17" t="n">
-        <v>48.5067</v>
+        <v>44.67</v>
       </c>
     </row>
   </sheetData>
@@ -7426,22 +7426,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>10.9293</v>
+        <v>10.8825</v>
       </c>
       <c r="C2" t="n">
-        <v>11.5946</v>
+        <v>11.6565</v>
       </c>
       <c r="D2" t="n">
-        <v>13.9082</v>
+        <v>13.9115</v>
       </c>
       <c r="E2" t="n">
-        <v>15.3093</v>
+        <v>15.3205</v>
       </c>
       <c r="F2" t="n">
-        <v>13.3833</v>
+        <v>13.3577</v>
       </c>
       <c r="G2" t="n">
-        <v>14.9287</v>
+        <v>14.9112</v>
       </c>
     </row>
     <row r="3">
@@ -7449,22 +7449,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>19.4893</v>
+        <v>19.4121</v>
       </c>
       <c r="C3" t="n">
-        <v>18.9145</v>
+        <v>19.136</v>
       </c>
       <c r="D3" t="n">
-        <v>22.7742</v>
+        <v>22.8815</v>
       </c>
       <c r="E3" t="n">
-        <v>26.1788</v>
+        <v>25.6249</v>
       </c>
       <c r="F3" t="n">
-        <v>21.9963</v>
+        <v>22.1532</v>
       </c>
       <c r="G3" t="n">
-        <v>24.8795</v>
+        <v>25.0218</v>
       </c>
     </row>
     <row r="4">
@@ -7472,22 +7472,22 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>26.8988</v>
+        <v>27.1196</v>
       </c>
       <c r="C4" t="n">
-        <v>25.0084</v>
+        <v>25.0283</v>
       </c>
       <c r="D4" t="n">
-        <v>28.9273</v>
+        <v>31.506</v>
       </c>
       <c r="E4" t="n">
-        <v>32.0426</v>
+        <v>32.8531</v>
       </c>
       <c r="F4" t="n">
-        <v>29.1947</v>
+        <v>29.0509</v>
       </c>
       <c r="G4" t="n">
-        <v>31.2489</v>
+        <v>32.1848</v>
       </c>
     </row>
     <row r="5">
@@ -7495,22 +7495,22 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>24.3961</v>
+        <v>24.4232</v>
       </c>
       <c r="C5" t="n">
-        <v>25.0438</v>
+        <v>24.9468</v>
       </c>
       <c r="D5" t="n">
-        <v>30.0618</v>
+        <v>30.925</v>
       </c>
       <c r="E5" t="n">
-        <v>35.2141</v>
+        <v>35.3646</v>
       </c>
       <c r="F5" t="n">
-        <v>29.7399</v>
+        <v>30.6414</v>
       </c>
       <c r="G5" t="n">
-        <v>35.9879</v>
+        <v>35.8852</v>
       </c>
     </row>
     <row r="6">
@@ -7518,22 +7518,22 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>29.4746</v>
+        <v>29.413</v>
       </c>
       <c r="C6" t="n">
-        <v>28.7151</v>
+        <v>28.9124</v>
       </c>
       <c r="D6" t="n">
-        <v>34.4547</v>
+        <v>34.8746</v>
       </c>
       <c r="E6" t="n">
-        <v>38.0006</v>
+        <v>37.17</v>
       </c>
       <c r="F6" t="n">
-        <v>32.4641</v>
+        <v>32.8007</v>
       </c>
       <c r="G6" t="n">
-        <v>36.5142</v>
+        <v>36.2898</v>
       </c>
     </row>
     <row r="7">
@@ -7541,22 +7541,22 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>35.4785</v>
+        <v>35.423</v>
       </c>
       <c r="C7" t="n">
-        <v>33.8383</v>
+        <v>33.8239</v>
       </c>
       <c r="D7" t="n">
-        <v>35.0717</v>
+        <v>34.892</v>
       </c>
       <c r="E7" t="n">
-        <v>52.3349</v>
+        <v>52.2677</v>
       </c>
       <c r="F7" t="n">
-        <v>36.3303</v>
+        <v>36.0279</v>
       </c>
       <c r="G7" t="n">
-        <v>43.8403</v>
+        <v>41.5524</v>
       </c>
     </row>
     <row r="8">
@@ -7564,22 +7564,22 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>31.9827</v>
+        <v>31.5014</v>
       </c>
       <c r="C8" t="n">
-        <v>29.3589</v>
+        <v>29.6798</v>
       </c>
       <c r="D8" t="n">
-        <v>34.7808</v>
+        <v>35.8075</v>
       </c>
       <c r="E8" t="n">
-        <v>45.3183</v>
+        <v>45.1291</v>
       </c>
       <c r="F8" t="n">
-        <v>36.49</v>
+        <v>35.4306</v>
       </c>
       <c r="G8" t="n">
-        <v>44.9725</v>
+        <v>46.338</v>
       </c>
     </row>
     <row r="9">
@@ -7587,22 +7587,22 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>30.8601</v>
+        <v>32.2949</v>
       </c>
       <c r="C9" t="n">
-        <v>29.857</v>
+        <v>30.3253</v>
       </c>
       <c r="D9" t="n">
-        <v>41.6305</v>
+        <v>41.5774</v>
       </c>
       <c r="E9" t="n">
-        <v>45.2906</v>
+        <v>52.25</v>
       </c>
       <c r="F9" t="n">
-        <v>37.3358</v>
+        <v>37.7147</v>
       </c>
       <c r="G9" t="n">
-        <v>47.0307</v>
+        <v>45.9062</v>
       </c>
     </row>
     <row r="10">
@@ -7610,22 +7610,22 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>31.8624</v>
+        <v>31.5094</v>
       </c>
       <c r="C10" t="n">
-        <v>30.4713</v>
+        <v>30.2445</v>
       </c>
       <c r="D10" t="n">
-        <v>41.82</v>
+        <v>43.3295</v>
       </c>
       <c r="E10" t="n">
-        <v>51.6565</v>
+        <v>50.4423</v>
       </c>
       <c r="F10" t="n">
-        <v>40.4614</v>
+        <v>41.5414</v>
       </c>
       <c r="G10" t="n">
-        <v>51.4397</v>
+        <v>48.1136</v>
       </c>
     </row>
     <row r="11">
@@ -7633,22 +7633,22 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>31.9005</v>
+        <v>32.1072</v>
       </c>
       <c r="C11" t="n">
-        <v>30.2803</v>
+        <v>30.6715</v>
       </c>
       <c r="D11" t="n">
-        <v>44.6906</v>
+        <v>43.2721</v>
       </c>
       <c r="E11" t="n">
-        <v>52.1872</v>
+        <v>53.1585</v>
       </c>
       <c r="F11" t="n">
-        <v>41.3663</v>
+        <v>40.4826</v>
       </c>
       <c r="G11" t="n">
-        <v>48.0228</v>
+        <v>47.7443</v>
       </c>
     </row>
     <row r="12">
@@ -7656,22 +7656,22 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>32.6636</v>
+        <v>32.6574</v>
       </c>
       <c r="C12" t="n">
-        <v>30.6051</v>
+        <v>30.9422</v>
       </c>
       <c r="D12" t="n">
-        <v>43.4323</v>
+        <v>43.2606</v>
       </c>
       <c r="E12" t="n">
-        <v>53.1446</v>
+        <v>53.0483</v>
       </c>
       <c r="F12" t="n">
-        <v>40.7946</v>
+        <v>41.646</v>
       </c>
       <c r="G12" t="n">
-        <v>48.87</v>
+        <v>49.0832</v>
       </c>
     </row>
     <row r="13">
@@ -7679,22 +7679,22 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>33.5891</v>
+        <v>32.7159</v>
       </c>
       <c r="C13" t="n">
-        <v>30.9498</v>
+        <v>31.3989</v>
       </c>
       <c r="D13" t="n">
-        <v>44.389</v>
+        <v>44.4271</v>
       </c>
       <c r="E13" t="n">
-        <v>53.2159</v>
+        <v>52.7318</v>
       </c>
       <c r="F13" t="n">
-        <v>41.843</v>
+        <v>41.0274</v>
       </c>
       <c r="G13" t="n">
-        <v>48.7248</v>
+        <v>49.5616</v>
       </c>
     </row>
     <row r="14">
@@ -7702,22 +7702,22 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>32.8143</v>
+        <v>32.8781</v>
       </c>
       <c r="C14" t="n">
-        <v>30.8483</v>
+        <v>31.4392</v>
       </c>
       <c r="D14" t="n">
-        <v>43.5889</v>
+        <v>44.0729</v>
       </c>
       <c r="E14" t="n">
-        <v>52.249</v>
+        <v>53.6851</v>
       </c>
       <c r="F14" t="n">
-        <v>40.8661</v>
+        <v>41.3793</v>
       </c>
       <c r="G14" t="n">
-        <v>48.9017</v>
+        <v>48.9388</v>
       </c>
     </row>
     <row r="15">
@@ -7725,22 +7725,22 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>32.7155</v>
+        <v>33.398</v>
       </c>
       <c r="C15" t="n">
-        <v>31.6121</v>
+        <v>31.9111</v>
       </c>
       <c r="D15" t="n">
-        <v>44.0737</v>
+        <v>44.6779</v>
       </c>
       <c r="E15" t="n">
-        <v>53.0893</v>
+        <v>54.6354</v>
       </c>
       <c r="F15" t="n">
-        <v>41.6969</v>
+        <v>40.5659</v>
       </c>
       <c r="G15" t="n">
-        <v>48.5375</v>
+        <v>48.2275</v>
       </c>
     </row>
     <row r="16">
@@ -7748,22 +7748,22 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>33.5682</v>
+        <v>33.2911</v>
       </c>
       <c r="C16" t="n">
-        <v>31.6521</v>
+        <v>32.0885</v>
       </c>
       <c r="D16" t="n">
-        <v>44.6175</v>
+        <v>44.6855</v>
       </c>
       <c r="E16" t="n">
-        <v>52.9922</v>
+        <v>52.4699</v>
       </c>
       <c r="F16" t="n">
-        <v>40.5006</v>
+        <v>40.8042</v>
       </c>
       <c r="G16" t="n">
-        <v>50.2811</v>
+        <v>49.1771</v>
       </c>
     </row>
     <row r="17">
@@ -7771,22 +7771,22 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>33.515</v>
+        <v>32.8811</v>
       </c>
       <c r="C17" t="n">
-        <v>31.6704</v>
+        <v>31.8201</v>
       </c>
       <c r="D17" t="n">
-        <v>45.0184</v>
+        <v>45.107</v>
       </c>
       <c r="E17" t="n">
-        <v>52.2963</v>
+        <v>52.7777</v>
       </c>
       <c r="F17" t="n">
-        <v>41.737</v>
+        <v>41.6879</v>
       </c>
       <c r="G17" t="n">
-        <v>51.4477</v>
+        <v>49.9363</v>
       </c>
     </row>
   </sheetData>
@@ -7849,22 +7849,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4.91706</v>
+        <v>4.93375</v>
       </c>
       <c r="C2" t="n">
-        <v>9.053979999999999</v>
+        <v>9.052429999999999</v>
       </c>
       <c r="D2" t="n">
-        <v>10.7533</v>
+        <v>10.7781</v>
       </c>
       <c r="E2" t="n">
-        <v>13.9041</v>
+        <v>13.9643</v>
       </c>
       <c r="F2" t="n">
-        <v>8.59421</v>
+        <v>8.614330000000001</v>
       </c>
       <c r="G2" t="n">
-        <v>11.478</v>
+        <v>11.4877</v>
       </c>
     </row>
     <row r="3">
@@ -7872,22 +7872,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.732670000000001</v>
+        <v>9.75703</v>
       </c>
       <c r="C3" t="n">
-        <v>15.7069</v>
+        <v>15.7186</v>
       </c>
       <c r="D3" t="n">
-        <v>19.671</v>
+        <v>20.5214</v>
       </c>
       <c r="E3" t="n">
-        <v>26.0904</v>
+        <v>26.4341</v>
       </c>
       <c r="F3" t="n">
-        <v>16.1107</v>
+        <v>16.3155</v>
       </c>
       <c r="G3" t="n">
-        <v>21.3146</v>
+        <v>21.3985</v>
       </c>
     </row>
     <row r="4">
@@ -7895,22 +7895,22 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>14.2898</v>
+        <v>14.277</v>
       </c>
       <c r="C4" t="n">
-        <v>22.0209</v>
+        <v>21.9873</v>
       </c>
       <c r="D4" t="n">
-        <v>29.5806</v>
+        <v>28.8041</v>
       </c>
       <c r="E4" t="n">
-        <v>37.0063</v>
+        <v>37.7553</v>
       </c>
       <c r="F4" t="n">
-        <v>22.9383</v>
+        <v>23.2569</v>
       </c>
       <c r="G4" t="n">
-        <v>30.4028</v>
+        <v>30.4252</v>
       </c>
     </row>
     <row r="5">
@@ -7918,22 +7918,22 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>17.3831</v>
+        <v>17.1846</v>
       </c>
       <c r="C5" t="n">
-        <v>23.1209</v>
+        <v>22.8661</v>
       </c>
       <c r="D5" t="n">
-        <v>29.3956</v>
+        <v>33.2366</v>
       </c>
       <c r="E5" t="n">
-        <v>43.6517</v>
+        <v>44.3464</v>
       </c>
       <c r="F5" t="n">
-        <v>26.9991</v>
+        <v>27.2761</v>
       </c>
       <c r="G5" t="n">
-        <v>35.7628</v>
+        <v>35.3932</v>
       </c>
     </row>
     <row r="6">
@@ -7941,22 +7941,22 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>21.3171</v>
+        <v>21.3687</v>
       </c>
       <c r="C6" t="n">
-        <v>26.4228</v>
+        <v>26.3725</v>
       </c>
       <c r="D6" t="n">
-        <v>37.3745</v>
+        <v>40.7344</v>
       </c>
       <c r="E6" t="n">
-        <v>52.1396</v>
+        <v>52.2471</v>
       </c>
       <c r="F6" t="n">
-        <v>32.0707</v>
+        <v>32.7604</v>
       </c>
       <c r="G6" t="n">
-        <v>41.7231</v>
+        <v>41.4294</v>
       </c>
     </row>
     <row r="7">
@@ -7964,22 +7964,22 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>25.7111</v>
+        <v>25.7617</v>
       </c>
       <c r="C7" t="n">
-        <v>31.2382</v>
+        <v>31.1072</v>
       </c>
       <c r="D7" t="n">
-        <v>45.7532</v>
+        <v>47.1728</v>
       </c>
       <c r="E7" t="n">
-        <v>61.3136</v>
+        <v>61.8248</v>
       </c>
       <c r="F7" t="n">
-        <v>37.2306</v>
+        <v>37.9285</v>
       </c>
       <c r="G7" t="n">
-        <v>48.0048</v>
+        <v>48.0522</v>
       </c>
     </row>
     <row r="8">
@@ -7987,22 +7987,22 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>22.4624</v>
+        <v>21.8426</v>
       </c>
       <c r="C8" t="n">
-        <v>30.2458</v>
+        <v>29.8995</v>
       </c>
       <c r="D8" t="n">
-        <v>40.1609</v>
+        <v>42.7063</v>
       </c>
       <c r="E8" t="n">
-        <v>53.806</v>
+        <v>55.2425</v>
       </c>
       <c r="F8" t="n">
-        <v>33.0166</v>
+        <v>34.0009</v>
       </c>
       <c r="G8" t="n">
-        <v>43.1474</v>
+        <v>43.7139</v>
       </c>
     </row>
     <row r="9">
@@ -8010,22 +8010,22 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>23.2997</v>
+        <v>23.3885</v>
       </c>
       <c r="C9" t="n">
-        <v>30.0085</v>
+        <v>29.4548</v>
       </c>
       <c r="D9" t="n">
-        <v>40.4568</v>
+        <v>41.7538</v>
       </c>
       <c r="E9" t="n">
-        <v>55.8971</v>
+        <v>52.4073</v>
       </c>
       <c r="F9" t="n">
-        <v>33.5928</v>
+        <v>34.3704</v>
       </c>
       <c r="G9" t="n">
-        <v>43.4745</v>
+        <v>44.0375</v>
       </c>
     </row>
     <row r="10">
@@ -8033,22 +8033,22 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>23.6537</v>
+        <v>24.3211</v>
       </c>
       <c r="C10" t="n">
-        <v>29.6455</v>
+        <v>30.1833</v>
       </c>
       <c r="D10" t="n">
-        <v>41.3516</v>
+        <v>42.6283</v>
       </c>
       <c r="E10" t="n">
-        <v>54.5117</v>
+        <v>55.3859</v>
       </c>
       <c r="F10" t="n">
-        <v>33.6994</v>
+        <v>34.3981</v>
       </c>
       <c r="G10" t="n">
-        <v>43.562</v>
+        <v>43.8343</v>
       </c>
     </row>
     <row r="11">
@@ -8056,22 +8056,22 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>23.4596</v>
+        <v>24.3149</v>
       </c>
       <c r="C11" t="n">
-        <v>29.7877</v>
+        <v>29.7051</v>
       </c>
       <c r="D11" t="n">
-        <v>41.3691</v>
+        <v>44.1908</v>
       </c>
       <c r="E11" t="n">
-        <v>58.6624</v>
+        <v>56.7937</v>
       </c>
       <c r="F11" t="n">
-        <v>34.3448</v>
+        <v>35.0855</v>
       </c>
       <c r="G11" t="n">
-        <v>43.5915</v>
+        <v>44.008</v>
       </c>
     </row>
     <row r="12">
@@ -8079,22 +8079,22 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>24.0285</v>
+        <v>23.8917</v>
       </c>
       <c r="C12" t="n">
-        <v>29.8727</v>
+        <v>30.1989</v>
       </c>
       <c r="D12" t="n">
-        <v>39.9013</v>
+        <v>45.2175</v>
       </c>
       <c r="E12" t="n">
-        <v>57.1009</v>
+        <v>56.8216</v>
       </c>
       <c r="F12" t="n">
-        <v>34.2546</v>
+        <v>35.5476</v>
       </c>
       <c r="G12" t="n">
-        <v>44.4797</v>
+        <v>45.9401</v>
       </c>
     </row>
     <row r="13">
@@ -8102,22 +8102,22 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>24.1595</v>
+        <v>23.8473</v>
       </c>
       <c r="C13" t="n">
-        <v>30.2759</v>
+        <v>30.3602</v>
       </c>
       <c r="D13" t="n">
-        <v>40.777</v>
+        <v>43.8012</v>
       </c>
       <c r="E13" t="n">
-        <v>57.172</v>
+        <v>57.4151</v>
       </c>
       <c r="F13" t="n">
-        <v>34.9529</v>
+        <v>34.2719</v>
       </c>
       <c r="G13" t="n">
-        <v>47.1412</v>
+        <v>45.8917</v>
       </c>
     </row>
     <row r="14">
@@ -8125,22 +8125,22 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>23.5582</v>
+        <v>23.473</v>
       </c>
       <c r="C14" t="n">
-        <v>30.5096</v>
+        <v>30.3675</v>
       </c>
       <c r="D14" t="n">
-        <v>42.195</v>
+        <v>45.0921</v>
       </c>
       <c r="E14" t="n">
-        <v>57.1752</v>
+        <v>56.4521</v>
       </c>
       <c r="F14" t="n">
-        <v>34.3059</v>
+        <v>35.6141</v>
       </c>
       <c r="G14" t="n">
-        <v>45.6237</v>
+        <v>45.7677</v>
       </c>
     </row>
     <row r="15">
@@ -8148,22 +8148,22 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>24.0633</v>
+        <v>24.2479</v>
       </c>
       <c r="C15" t="n">
-        <v>30.1595</v>
+        <v>30.2245</v>
       </c>
       <c r="D15" t="n">
-        <v>42.9774</v>
+        <v>44.1288</v>
       </c>
       <c r="E15" t="n">
-        <v>58.2155</v>
+        <v>58.2955</v>
       </c>
       <c r="F15" t="n">
-        <v>34.6207</v>
+        <v>34.8899</v>
       </c>
       <c r="G15" t="n">
-        <v>44.8169</v>
+        <v>46.2476</v>
       </c>
     </row>
     <row r="16">
@@ -8171,22 +8171,22 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>24.1265</v>
+        <v>23.849</v>
       </c>
       <c r="C16" t="n">
-        <v>30.4613</v>
+        <v>30.217</v>
       </c>
       <c r="D16" t="n">
-        <v>42.8738</v>
+        <v>45.4359</v>
       </c>
       <c r="E16" t="n">
-        <v>58.0419</v>
+        <v>58.2618</v>
       </c>
       <c r="F16" t="n">
-        <v>34.4918</v>
+        <v>35.4672</v>
       </c>
       <c r="G16" t="n">
-        <v>45.3341</v>
+        <v>45.623</v>
       </c>
     </row>
     <row r="17">
@@ -8194,22 +8194,22 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>23.9172</v>
+        <v>23.6965</v>
       </c>
       <c r="C17" t="n">
-        <v>30.5868</v>
+        <v>30.2993</v>
       </c>
       <c r="D17" t="n">
-        <v>43.0209</v>
+        <v>44.0467</v>
       </c>
       <c r="E17" t="n">
-        <v>58.0439</v>
+        <v>59.5636</v>
       </c>
       <c r="F17" t="n">
-        <v>34.8293</v>
+        <v>36.1908</v>
       </c>
       <c r="G17" t="n">
-        <v>45.9477</v>
+        <v>45.8595</v>
       </c>
     </row>
   </sheetData>
@@ -8272,22 +8272,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>5.03933</v>
+        <v>5.00771</v>
       </c>
       <c r="C2" t="n">
-        <v>9.072649999999999</v>
+        <v>9.006130000000001</v>
       </c>
       <c r="D2" t="n">
-        <v>10.7308</v>
+        <v>10.7899</v>
       </c>
       <c r="E2" t="n">
-        <v>13.9837</v>
+        <v>14.013</v>
       </c>
       <c r="F2" t="n">
-        <v>8.55289</v>
+        <v>8.573029999999999</v>
       </c>
       <c r="G2" t="n">
-        <v>11.541</v>
+        <v>11.5342</v>
       </c>
     </row>
     <row r="3">
@@ -8295,22 +8295,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.95119</v>
+        <v>9.96993</v>
       </c>
       <c r="C3" t="n">
-        <v>15.7423</v>
+        <v>15.8333</v>
       </c>
       <c r="D3" t="n">
-        <v>20.4299</v>
+        <v>20.5403</v>
       </c>
       <c r="E3" t="n">
-        <v>26.2774</v>
+        <v>26.4919</v>
       </c>
       <c r="F3" t="n">
-        <v>16.191</v>
+        <v>16.2635</v>
       </c>
       <c r="G3" t="n">
-        <v>21.5063</v>
+        <v>21.5351</v>
       </c>
     </row>
     <row r="4">
@@ -8318,22 +8318,22 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>14.5039</v>
+        <v>14.4517</v>
       </c>
       <c r="C4" t="n">
-        <v>21.9996</v>
+        <v>21.8869</v>
       </c>
       <c r="D4" t="n">
-        <v>29.4733</v>
+        <v>29.5711</v>
       </c>
       <c r="E4" t="n">
-        <v>37.5108</v>
+        <v>38.1089</v>
       </c>
       <c r="F4" t="n">
-        <v>23.0394</v>
+        <v>23.2685</v>
       </c>
       <c r="G4" t="n">
-        <v>30.5204</v>
+        <v>30.6129</v>
       </c>
     </row>
     <row r="5">
@@ -8341,22 +8341,22 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>17.43</v>
+        <v>17.4214</v>
       </c>
       <c r="C5" t="n">
-        <v>22.8872</v>
+        <v>22.8385</v>
       </c>
       <c r="D5" t="n">
-        <v>29.8469</v>
+        <v>32.7344</v>
       </c>
       <c r="E5" t="n">
-        <v>43.0505</v>
+        <v>43.4946</v>
       </c>
       <c r="F5" t="n">
-        <v>26.2691</v>
+        <v>26.9691</v>
       </c>
       <c r="G5" t="n">
-        <v>35.6731</v>
+        <v>35.4393</v>
       </c>
     </row>
     <row r="6">
@@ -8364,22 +8364,22 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>21.6237</v>
+        <v>21.5813</v>
       </c>
       <c r="C6" t="n">
-        <v>26.559</v>
+        <v>26.3802</v>
       </c>
       <c r="D6" t="n">
-        <v>38.2845</v>
+        <v>39.5926</v>
       </c>
       <c r="E6" t="n">
-        <v>51.5483</v>
+        <v>51.7072</v>
       </c>
       <c r="F6" t="n">
-        <v>32.3704</v>
+        <v>32.4994</v>
       </c>
       <c r="G6" t="n">
-        <v>42.2268</v>
+        <v>42.0389</v>
       </c>
     </row>
     <row r="7">
@@ -8387,22 +8387,22 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>26.0537</v>
+        <v>26.1475</v>
       </c>
       <c r="C7" t="n">
-        <v>31.3338</v>
+        <v>31.3395</v>
       </c>
       <c r="D7" t="n">
-        <v>45.1908</v>
+        <v>46.9335</v>
       </c>
       <c r="E7" t="n">
-        <v>59.7615</v>
+        <v>59.6047</v>
       </c>
       <c r="F7" t="n">
-        <v>36.1121</v>
+        <v>37.678</v>
       </c>
       <c r="G7" t="n">
-        <v>48.3883</v>
+        <v>48.2164</v>
       </c>
     </row>
     <row r="8">
@@ -8410,22 +8410,22 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>22.7255</v>
+        <v>22.7671</v>
       </c>
       <c r="C8" t="n">
-        <v>30.1047</v>
+        <v>30.3696</v>
       </c>
       <c r="D8" t="n">
-        <v>42.3235</v>
+        <v>41.69</v>
       </c>
       <c r="E8" t="n">
-        <v>53.9175</v>
+        <v>54.5366</v>
       </c>
       <c r="F8" t="n">
-        <v>32.6449</v>
+        <v>33.1244</v>
       </c>
       <c r="G8" t="n">
-        <v>43.3213</v>
+        <v>44.9748</v>
       </c>
     </row>
     <row r="9">
@@ -8433,22 +8433,22 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>23.1932</v>
+        <v>23.3977</v>
       </c>
       <c r="C9" t="n">
-        <v>30.1303</v>
+        <v>30.2638</v>
       </c>
       <c r="D9" t="n">
-        <v>41.264</v>
+        <v>41.2972</v>
       </c>
       <c r="E9" t="n">
-        <v>52.03</v>
+        <v>53.2621</v>
       </c>
       <c r="F9" t="n">
-        <v>32.7009</v>
+        <v>33.3566</v>
       </c>
       <c r="G9" t="n">
-        <v>44.2295</v>
+        <v>43.7796</v>
       </c>
     </row>
     <row r="10">
@@ -8456,22 +8456,22 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>24.0267</v>
+        <v>23.7814</v>
       </c>
       <c r="C10" t="n">
-        <v>29.9815</v>
+        <v>30.1227</v>
       </c>
       <c r="D10" t="n">
-        <v>40.7339</v>
+        <v>40.7823</v>
       </c>
       <c r="E10" t="n">
-        <v>53.1607</v>
+        <v>54.8988</v>
       </c>
       <c r="F10" t="n">
-        <v>33.6559</v>
+        <v>35.3805</v>
       </c>
       <c r="G10" t="n">
-        <v>42.1913</v>
+        <v>44.5741</v>
       </c>
     </row>
     <row r="11">
@@ -8479,22 +8479,22 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>24.4654</v>
+        <v>24.503</v>
       </c>
       <c r="C11" t="n">
-        <v>30.1413</v>
+        <v>30.4906</v>
       </c>
       <c r="D11" t="n">
-        <v>41.3355</v>
+        <v>43.4526</v>
       </c>
       <c r="E11" t="n">
-        <v>56.203</v>
+        <v>56.7099</v>
       </c>
       <c r="F11" t="n">
-        <v>34.1036</v>
+        <v>35.6522</v>
       </c>
       <c r="G11" t="n">
-        <v>44.4782</v>
+        <v>45.5042</v>
       </c>
     </row>
     <row r="12">
@@ -8502,22 +8502,22 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>24.365</v>
+        <v>24.3707</v>
       </c>
       <c r="C12" t="n">
-        <v>30.5168</v>
+        <v>30.4469</v>
       </c>
       <c r="D12" t="n">
-        <v>41.185</v>
+        <v>43.1404</v>
       </c>
       <c r="E12" t="n">
-        <v>55.8637</v>
+        <v>57.5311</v>
       </c>
       <c r="F12" t="n">
-        <v>34.5715</v>
+        <v>34.3142</v>
       </c>
       <c r="G12" t="n">
-        <v>45.772</v>
+        <v>46.4204</v>
       </c>
     </row>
     <row r="13">
@@ -8525,22 +8525,22 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>24.3907</v>
+        <v>24.3114</v>
       </c>
       <c r="C13" t="n">
-        <v>30.5232</v>
+        <v>30.364</v>
       </c>
       <c r="D13" t="n">
-        <v>42.3948</v>
+        <v>44.2693</v>
       </c>
       <c r="E13" t="n">
-        <v>57.1584</v>
+        <v>57.3954</v>
       </c>
       <c r="F13" t="n">
-        <v>32.9391</v>
+        <v>34.5388</v>
       </c>
       <c r="G13" t="n">
-        <v>45.6046</v>
+        <v>46.334</v>
       </c>
     </row>
     <row r="14">
@@ -8548,22 +8548,22 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>24.4347</v>
+        <v>24.1797</v>
       </c>
       <c r="C14" t="n">
-        <v>30.3624</v>
+        <v>30.2707</v>
       </c>
       <c r="D14" t="n">
-        <v>42.0916</v>
+        <v>43.9103</v>
       </c>
       <c r="E14" t="n">
-        <v>56.3889</v>
+        <v>58.0072</v>
       </c>
       <c r="F14" t="n">
-        <v>34.4873</v>
+        <v>35.43</v>
       </c>
       <c r="G14" t="n">
-        <v>44.9324</v>
+        <v>45.9505</v>
       </c>
     </row>
     <row r="15">
@@ -8571,22 +8571,22 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>24.2381</v>
+        <v>24.5112</v>
       </c>
       <c r="C15" t="n">
-        <v>30.496</v>
+        <v>30.5634</v>
       </c>
       <c r="D15" t="n">
-        <v>42.4483</v>
+        <v>44.6769</v>
       </c>
       <c r="E15" t="n">
-        <v>57.5051</v>
+        <v>56.9652</v>
       </c>
       <c r="F15" t="n">
-        <v>34.0965</v>
+        <v>35.6339</v>
       </c>
       <c r="G15" t="n">
-        <v>46.3779</v>
+        <v>46.8143</v>
       </c>
     </row>
     <row r="16">
@@ -8594,22 +8594,22 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>24.4522</v>
+        <v>23.9354</v>
       </c>
       <c r="C16" t="n">
-        <v>30.6404</v>
+        <v>30.516</v>
       </c>
       <c r="D16" t="n">
-        <v>41.5367</v>
+        <v>44.343</v>
       </c>
       <c r="E16" t="n">
-        <v>59.1183</v>
+        <v>58.1087</v>
       </c>
       <c r="F16" t="n">
-        <v>34.6826</v>
+        <v>35.8832</v>
       </c>
       <c r="G16" t="n">
-        <v>47.2246</v>
+        <v>46.4574</v>
       </c>
     </row>
     <row r="17">
@@ -8617,22 +8617,22 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>25.0733</v>
+        <v>24.2783</v>
       </c>
       <c r="C17" t="n">
-        <v>30.5133</v>
+        <v>30.8842</v>
       </c>
       <c r="D17" t="n">
-        <v>42.1826</v>
+        <v>45.9702</v>
       </c>
       <c r="E17" t="n">
-        <v>58.1456</v>
+        <v>57.9153</v>
       </c>
       <c r="F17" t="n">
-        <v>34.5249</v>
+        <v>34.9436</v>
       </c>
       <c r="G17" t="n">
-        <v>47.247</v>
+        <v>46.5468</v>
       </c>
     </row>
   </sheetData>
@@ -8695,22 +8695,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.84169</v>
+        <v>8.8256</v>
       </c>
       <c r="C2" t="n">
-        <v>10.885</v>
+        <v>10.9058</v>
       </c>
       <c r="D2" t="n">
-        <v>13.211</v>
+        <v>13.2535</v>
       </c>
       <c r="E2" t="n">
-        <v>15.2715</v>
+        <v>15.2982</v>
       </c>
       <c r="F2" t="n">
-        <v>12.2776</v>
+        <v>12.2514</v>
       </c>
       <c r="G2" t="n">
-        <v>14.4516</v>
+        <v>14.4101</v>
       </c>
     </row>
     <row r="3">
@@ -8718,22 +8718,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>16.7328</v>
+        <v>16.7333</v>
       </c>
       <c r="C3" t="n">
-        <v>18.4244</v>
+        <v>18.205</v>
       </c>
       <c r="D3" t="n">
-        <v>24.4543</v>
+        <v>24.5681</v>
       </c>
       <c r="E3" t="n">
-        <v>28.5707</v>
+        <v>28.6427</v>
       </c>
       <c r="F3" t="n">
-        <v>22.7542</v>
+        <v>22.7182</v>
       </c>
       <c r="G3" t="n">
-        <v>26.7171</v>
+        <v>26.7133</v>
       </c>
     </row>
     <row r="4">
@@ -8741,22 +8741,22 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>24.1489</v>
+        <v>23.8587</v>
       </c>
       <c r="C4" t="n">
-        <v>25.09</v>
+        <v>24.7877</v>
       </c>
       <c r="D4" t="n">
-        <v>34.6293</v>
+        <v>34.4894</v>
       </c>
       <c r="E4" t="n">
-        <v>40.6409</v>
+        <v>40.6577</v>
       </c>
       <c r="F4" t="n">
-        <v>32.1904</v>
+        <v>31.8826</v>
       </c>
       <c r="G4" t="n">
-        <v>37.77</v>
+        <v>37.927</v>
       </c>
     </row>
     <row r="5">
@@ -8764,22 +8764,22 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>24.2946</v>
+        <v>24.0476</v>
       </c>
       <c r="C5" t="n">
-        <v>25.1831</v>
+        <v>25.4586</v>
       </c>
       <c r="D5" t="n">
-        <v>36.4413</v>
+        <v>36.4595</v>
       </c>
       <c r="E5" t="n">
-        <v>46.7028</v>
+        <v>46.7361</v>
       </c>
       <c r="F5" t="n">
-        <v>33.4802</v>
+        <v>33.7122</v>
       </c>
       <c r="G5" t="n">
-        <v>41.5035</v>
+        <v>41.272</v>
       </c>
     </row>
     <row r="6">
@@ -8787,22 +8787,22 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>28.2415</v>
+        <v>27.6296</v>
       </c>
       <c r="C6" t="n">
-        <v>28.7198</v>
+        <v>28.5947</v>
       </c>
       <c r="D6" t="n">
-        <v>42.8585</v>
+        <v>42.773</v>
       </c>
       <c r="E6" t="n">
-        <v>55.5839</v>
+        <v>55.3704</v>
       </c>
       <c r="F6" t="n">
-        <v>39.2085</v>
+        <v>39.1213</v>
       </c>
       <c r="G6" t="n">
-        <v>49.2115</v>
+        <v>49.5409</v>
       </c>
     </row>
     <row r="7">
@@ -8810,22 +8810,22 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>33.9748</v>
+        <v>33.8969</v>
       </c>
       <c r="C7" t="n">
-        <v>33.3286</v>
+        <v>33.3211</v>
       </c>
       <c r="D7" t="n">
-        <v>50.3391</v>
+        <v>50.4164</v>
       </c>
       <c r="E7" t="n">
-        <v>63.5712</v>
+        <v>63.9148</v>
       </c>
       <c r="F7" t="n">
-        <v>46.5122</v>
+        <v>46.3774</v>
       </c>
       <c r="G7" t="n">
-        <v>57.3368</v>
+        <v>57.1551</v>
       </c>
     </row>
     <row r="8">
@@ -8833,22 +8833,22 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>31.3347</v>
+        <v>31.0969</v>
       </c>
       <c r="C8" t="n">
-        <v>31.8309</v>
+        <v>31.8874</v>
       </c>
       <c r="D8" t="n">
-        <v>46.8185</v>
+        <v>46.8027</v>
       </c>
       <c r="E8" t="n">
-        <v>60.5973</v>
+        <v>59.1537</v>
       </c>
       <c r="F8" t="n">
-        <v>43.5855</v>
+        <v>43.803</v>
       </c>
       <c r="G8" t="n">
-        <v>55.0227</v>
+        <v>54.3295</v>
       </c>
     </row>
     <row r="9">
@@ -8856,22 +8856,22 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>31.3029</v>
+        <v>31.3205</v>
       </c>
       <c r="C9" t="n">
-        <v>31.8606</v>
+        <v>32.0271</v>
       </c>
       <c r="D9" t="n">
-        <v>47.2047</v>
+        <v>46.4534</v>
       </c>
       <c r="E9" t="n">
-        <v>60.7153</v>
+        <v>59.27</v>
       </c>
       <c r="F9" t="n">
-        <v>43.7247</v>
+        <v>44.6202</v>
       </c>
       <c r="G9" t="n">
-        <v>56.2681</v>
+        <v>55.7399</v>
       </c>
     </row>
     <row r="10">
@@ -8879,22 +8879,22 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>32.0178</v>
+        <v>31.7414</v>
       </c>
       <c r="C10" t="n">
-        <v>32.1252</v>
+        <v>32.2292</v>
       </c>
       <c r="D10" t="n">
-        <v>46.6808</v>
+        <v>47.318</v>
       </c>
       <c r="E10" t="n">
-        <v>61.0264</v>
+        <v>60.2721</v>
       </c>
       <c r="F10" t="n">
-        <v>44.4381</v>
+        <v>44.7218</v>
       </c>
       <c r="G10" t="n">
-        <v>55.7196</v>
+        <v>56.0016</v>
       </c>
     </row>
     <row r="11">
@@ -8902,22 +8902,22 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>32.2212</v>
+        <v>32.3831</v>
       </c>
       <c r="C11" t="n">
-        <v>32.6725</v>
+        <v>32.7106</v>
       </c>
       <c r="D11" t="n">
-        <v>48.8737</v>
+        <v>47.8116</v>
       </c>
       <c r="E11" t="n">
-        <v>60.8678</v>
+        <v>60.8535</v>
       </c>
       <c r="F11" t="n">
-        <v>44.8158</v>
+        <v>44.7863</v>
       </c>
       <c r="G11" t="n">
-        <v>56.1785</v>
+        <v>56.7204</v>
       </c>
     </row>
     <row r="12">
@@ -8925,22 +8925,22 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>32.2222</v>
+        <v>32.3001</v>
       </c>
       <c r="C12" t="n">
-        <v>32.3307</v>
+        <v>32.2906</v>
       </c>
       <c r="D12" t="n">
-        <v>48.114</v>
+        <v>47.6997</v>
       </c>
       <c r="E12" t="n">
-        <v>60.477</v>
+        <v>61.9752</v>
       </c>
       <c r="F12" t="n">
-        <v>44.4979</v>
+        <v>44.5302</v>
       </c>
       <c r="G12" t="n">
-        <v>56.7573</v>
+        <v>55.711</v>
       </c>
     </row>
     <row r="13">
@@ -8948,22 +8948,22 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>32.695</v>
+        <v>32.514</v>
       </c>
       <c r="C13" t="n">
-        <v>32.5089</v>
+        <v>32.5213</v>
       </c>
       <c r="D13" t="n">
-        <v>47.3695</v>
+        <v>47.3794</v>
       </c>
       <c r="E13" t="n">
-        <v>61.2323</v>
+        <v>60.4537</v>
       </c>
       <c r="F13" t="n">
-        <v>44.7426</v>
+        <v>44.6813</v>
       </c>
       <c r="G13" t="n">
-        <v>57.2191</v>
+        <v>56.3449</v>
       </c>
     </row>
     <row r="14">
@@ -8971,22 +8971,22 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>32.3939</v>
+        <v>32.3152</v>
       </c>
       <c r="C14" t="n">
-        <v>32.7728</v>
+        <v>32.6752</v>
       </c>
       <c r="D14" t="n">
-        <v>47.8712</v>
+        <v>47.9793</v>
       </c>
       <c r="E14" t="n">
-        <v>60.6816</v>
+        <v>61.7011</v>
       </c>
       <c r="F14" t="n">
-        <v>44.0519</v>
+        <v>45.1701</v>
       </c>
       <c r="G14" t="n">
-        <v>57.3002</v>
+        <v>55.7806</v>
       </c>
     </row>
     <row r="15">
@@ -8994,22 +8994,22 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>32.7624</v>
+        <v>32.3329</v>
       </c>
       <c r="C15" t="n">
-        <v>32.4773</v>
+        <v>32.7193</v>
       </c>
       <c r="D15" t="n">
-        <v>48.202</v>
+        <v>47.8815</v>
       </c>
       <c r="E15" t="n">
-        <v>60.0358</v>
+        <v>61.9771</v>
       </c>
       <c r="F15" t="n">
-        <v>44.8433</v>
+        <v>45.0903</v>
       </c>
       <c r="G15" t="n">
-        <v>56.5517</v>
+        <v>56.2884</v>
       </c>
     </row>
     <row r="16">
@@ -9017,22 +9017,22 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>32.6136</v>
+        <v>32.4384</v>
       </c>
       <c r="C16" t="n">
-        <v>32.1818</v>
+        <v>32.1706</v>
       </c>
       <c r="D16" t="n">
-        <v>48.3948</v>
+        <v>47.9633</v>
       </c>
       <c r="E16" t="n">
-        <v>61.7874</v>
+        <v>61.7026</v>
       </c>
       <c r="F16" t="n">
-        <v>44.569</v>
+        <v>45.3511</v>
       </c>
       <c r="G16" t="n">
-        <v>57.1002</v>
+        <v>55.7797</v>
       </c>
     </row>
     <row r="17">
@@ -9040,22 +9040,22 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>32.5718</v>
+        <v>32.4772</v>
       </c>
       <c r="C17" t="n">
-        <v>32.4963</v>
+        <v>32.4943</v>
       </c>
       <c r="D17" t="n">
-        <v>49.1967</v>
+        <v>48.7479</v>
       </c>
       <c r="E17" t="n">
-        <v>62.4623</v>
+        <v>61.803</v>
       </c>
       <c r="F17" t="n">
-        <v>45.1936</v>
+        <v>45.1836</v>
       </c>
       <c r="G17" t="n">
-        <v>56.8944</v>
+        <v>56.3244</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Parallel workload.xlsx
+++ b/vs-x86/Parallel workload.xlsx
@@ -6580,22 +6580,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>9.334770000000001</v>
+        <v>9.426159999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>10.7555</v>
+        <v>10.819</v>
       </c>
       <c r="D2" t="n">
-        <v>13.1336</v>
+        <v>13.1809</v>
       </c>
       <c r="E2" t="n">
-        <v>14.8993</v>
+        <v>15.3906</v>
       </c>
       <c r="F2" t="n">
-        <v>12.2851</v>
+        <v>12.4939</v>
       </c>
       <c r="G2" t="n">
-        <v>14.0553</v>
+        <v>14.1844</v>
       </c>
     </row>
     <row r="3">
@@ -6603,22 +6603,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>17.6918</v>
+        <v>17.7689</v>
       </c>
       <c r="C3" t="n">
-        <v>16.6684</v>
+        <v>17.0058</v>
       </c>
       <c r="D3" t="n">
-        <v>22.1787</v>
+        <v>22.0072</v>
       </c>
       <c r="E3" t="n">
-        <v>23.3896</v>
+        <v>24.0896</v>
       </c>
       <c r="F3" t="n">
-        <v>19.9688</v>
+        <v>20.0919</v>
       </c>
       <c r="G3" t="n">
-        <v>22.7693</v>
+        <v>23.5605</v>
       </c>
     </row>
     <row r="4">
@@ -6626,22 +6626,22 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>24.946</v>
+        <v>25.328</v>
       </c>
       <c r="C4" t="n">
-        <v>21.7966</v>
+        <v>21.5582</v>
       </c>
       <c r="D4" t="n">
-        <v>26.7159</v>
+        <v>28.2481</v>
       </c>
       <c r="E4" t="n">
-        <v>31.3725</v>
+        <v>31.7015</v>
       </c>
       <c r="F4" t="n">
-        <v>26.1012</v>
+        <v>26.0944</v>
       </c>
       <c r="G4" t="n">
-        <v>28.9214</v>
+        <v>29.5812</v>
       </c>
     </row>
     <row r="5">
@@ -6649,22 +6649,22 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>21.5911</v>
+        <v>21.6213</v>
       </c>
       <c r="C5" t="n">
-        <v>23.5509</v>
+        <v>23.5162</v>
       </c>
       <c r="D5" t="n">
-        <v>30.1617</v>
+        <v>30.8833</v>
       </c>
       <c r="E5" t="n">
-        <v>34.7065</v>
+        <v>35.2788</v>
       </c>
       <c r="F5" t="n">
-        <v>26.8376</v>
+        <v>32.2846</v>
       </c>
       <c r="G5" t="n">
-        <v>31.272</v>
+        <v>31.2795</v>
       </c>
     </row>
     <row r="6">
@@ -6672,22 +6672,22 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>26.3645</v>
+        <v>26.2251</v>
       </c>
       <c r="C6" t="n">
-        <v>27.9244</v>
+        <v>27.7354</v>
       </c>
       <c r="D6" t="n">
-        <v>32.5974</v>
+        <v>32.0709</v>
       </c>
       <c r="E6" t="n">
-        <v>39.501</v>
+        <v>39.3912</v>
       </c>
       <c r="F6" t="n">
-        <v>31.2588</v>
+        <v>31.1597</v>
       </c>
       <c r="G6" t="n">
-        <v>34.6947</v>
+        <v>33.0365</v>
       </c>
     </row>
     <row r="7">
@@ -6695,22 +6695,22 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>32.5291</v>
+        <v>32.4094</v>
       </c>
       <c r="C7" t="n">
-        <v>32.7749</v>
+        <v>32.5978</v>
       </c>
       <c r="D7" t="n">
-        <v>37.8202</v>
+        <v>39.1524</v>
       </c>
       <c r="E7" t="n">
-        <v>40.9293</v>
+        <v>42.9362</v>
       </c>
       <c r="F7" t="n">
-        <v>31.3919</v>
+        <v>31.9469</v>
       </c>
       <c r="G7" t="n">
-        <v>38.6723</v>
+        <v>38.7145</v>
       </c>
     </row>
     <row r="8">
@@ -6718,22 +6718,22 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>22.6928</v>
+        <v>23.0803</v>
       </c>
       <c r="C8" t="n">
-        <v>30.4647</v>
+        <v>31.6472</v>
       </c>
       <c r="D8" t="n">
-        <v>37.251</v>
+        <v>35.9166</v>
       </c>
       <c r="E8" t="n">
-        <v>41.5319</v>
+        <v>40.8547</v>
       </c>
       <c r="F8" t="n">
-        <v>33.1102</v>
+        <v>32.0355</v>
       </c>
       <c r="G8" t="n">
-        <v>39.7718</v>
+        <v>41.0558</v>
       </c>
     </row>
     <row r="9">
@@ -6741,22 +6741,22 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>26.0918</v>
+        <v>25.7217</v>
       </c>
       <c r="C9" t="n">
-        <v>30.2729</v>
+        <v>31.1463</v>
       </c>
       <c r="D9" t="n">
-        <v>36.988</v>
+        <v>37.6882</v>
       </c>
       <c r="E9" t="n">
-        <v>49.2932</v>
+        <v>44.1941</v>
       </c>
       <c r="F9" t="n">
-        <v>33.1408</v>
+        <v>33.5627</v>
       </c>
       <c r="G9" t="n">
-        <v>42.8997</v>
+        <v>42.687</v>
       </c>
     </row>
     <row r="10">
@@ -6764,22 +6764,22 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>28.9879</v>
+        <v>28.6712</v>
       </c>
       <c r="C10" t="n">
-        <v>30.5951</v>
+        <v>31.5561</v>
       </c>
       <c r="D10" t="n">
-        <v>40.3908</v>
+        <v>40.5856</v>
       </c>
       <c r="E10" t="n">
-        <v>47.9875</v>
+        <v>47.4226</v>
       </c>
       <c r="F10" t="n">
-        <v>34.9215</v>
+        <v>35.0712</v>
       </c>
       <c r="G10" t="n">
-        <v>44.3964</v>
+        <v>44.4635</v>
       </c>
     </row>
     <row r="11">
@@ -6787,22 +6787,22 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>26.2124</v>
+        <v>26.3805</v>
       </c>
       <c r="C11" t="n">
-        <v>30.029</v>
+        <v>30.5291</v>
       </c>
       <c r="D11" t="n">
-        <v>44.3653</v>
+        <v>41.9841</v>
       </c>
       <c r="E11" t="n">
-        <v>51.1492</v>
+        <v>51.4957</v>
       </c>
       <c r="F11" t="n">
-        <v>36.2607</v>
+        <v>36.9194</v>
       </c>
       <c r="G11" t="n">
-        <v>45.6163</v>
+        <v>45.195</v>
       </c>
     </row>
     <row r="12">
@@ -6810,22 +6810,22 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>29.2387</v>
+        <v>29.4182</v>
       </c>
       <c r="C12" t="n">
-        <v>30.9095</v>
+        <v>30.8492</v>
       </c>
       <c r="D12" t="n">
-        <v>44.0435</v>
+        <v>42.2124</v>
       </c>
       <c r="E12" t="n">
-        <v>50.3606</v>
+        <v>53.1795</v>
       </c>
       <c r="F12" t="n">
-        <v>37.313</v>
+        <v>35.1978</v>
       </c>
       <c r="G12" t="n">
-        <v>48.1207</v>
+        <v>46.9114</v>
       </c>
     </row>
     <row r="13">
@@ -6833,22 +6833,22 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>32.4852</v>
+        <v>32.4955</v>
       </c>
       <c r="C13" t="n">
-        <v>31.473</v>
+        <v>31.5321</v>
       </c>
       <c r="D13" t="n">
-        <v>44.2904</v>
+        <v>44.7387</v>
       </c>
       <c r="E13" t="n">
-        <v>54.3213</v>
+        <v>52.5778</v>
       </c>
       <c r="F13" t="n">
-        <v>38.4253</v>
+        <v>38.3852</v>
       </c>
       <c r="G13" t="n">
-        <v>45.7526</v>
+        <v>45.6823</v>
       </c>
     </row>
     <row r="14">
@@ -6856,22 +6856,22 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>26.3789</v>
+        <v>26.0484</v>
       </c>
       <c r="C14" t="n">
-        <v>30.9225</v>
+        <v>30.2994</v>
       </c>
       <c r="D14" t="n">
-        <v>44.0704</v>
+        <v>44.7594</v>
       </c>
       <c r="E14" t="n">
-        <v>52.9167</v>
+        <v>51.1672</v>
       </c>
       <c r="F14" t="n">
-        <v>36.9591</v>
+        <v>39.5664</v>
       </c>
       <c r="G14" t="n">
-        <v>46.5278</v>
+        <v>46.6771</v>
       </c>
     </row>
     <row r="15">
@@ -6879,22 +6879,22 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>28.1445</v>
+        <v>28.0862</v>
       </c>
       <c r="C15" t="n">
-        <v>30.6596</v>
+        <v>30.8582</v>
       </c>
       <c r="D15" t="n">
-        <v>44.7075</v>
+        <v>43.3292</v>
       </c>
       <c r="E15" t="n">
-        <v>54.6148</v>
+        <v>51.5118</v>
       </c>
       <c r="F15" t="n">
-        <v>36.9099</v>
+        <v>37.5589</v>
       </c>
       <c r="G15" t="n">
-        <v>47.5703</v>
+        <v>46.2456</v>
       </c>
     </row>
     <row r="16">
@@ -6902,22 +6902,22 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>29.6457</v>
+        <v>29.5708</v>
       </c>
       <c r="C16" t="n">
-        <v>30.8945</v>
+        <v>30.6282</v>
       </c>
       <c r="D16" t="n">
-        <v>43.8432</v>
+        <v>44.946</v>
       </c>
       <c r="E16" t="n">
-        <v>52.3502</v>
+        <v>51.9439</v>
       </c>
       <c r="F16" t="n">
-        <v>39.0517</v>
+        <v>38.8711</v>
       </c>
       <c r="G16" t="n">
-        <v>46.0346</v>
+        <v>47.5447</v>
       </c>
     </row>
     <row r="17">
@@ -6925,22 +6925,22 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>28.6838</v>
+        <v>28.438</v>
       </c>
       <c r="C17" t="n">
-        <v>30.8494</v>
+        <v>30.9457</v>
       </c>
       <c r="D17" t="n">
-        <v>44.7147</v>
+        <v>44.3636</v>
       </c>
       <c r="E17" t="n">
-        <v>52.3596</v>
+        <v>53.136</v>
       </c>
       <c r="F17" t="n">
-        <v>38.6483</v>
+        <v>39.7958</v>
       </c>
       <c r="G17" t="n">
-        <v>49.5987</v>
+        <v>50.4466</v>
       </c>
     </row>
   </sheetData>
@@ -7003,22 +7003,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>9.348420000000001</v>
+        <v>9.371969999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>10.6402</v>
+        <v>10.8601</v>
       </c>
       <c r="D2" t="n">
-        <v>13.0205</v>
+        <v>13.086</v>
       </c>
       <c r="E2" t="n">
-        <v>14.7993</v>
+        <v>14.8201</v>
       </c>
       <c r="F2" t="n">
-        <v>12.2215</v>
+        <v>12.2717</v>
       </c>
       <c r="G2" t="n">
-        <v>14.049</v>
+        <v>14.1143</v>
       </c>
     </row>
     <row r="3">
@@ -7026,22 +7026,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>17.7791</v>
+        <v>17.771</v>
       </c>
       <c r="C3" t="n">
-        <v>16.8261</v>
+        <v>17.3894</v>
       </c>
       <c r="D3" t="n">
-        <v>21.7339</v>
+        <v>21.3418</v>
       </c>
       <c r="E3" t="n">
-        <v>24.0004</v>
+        <v>23.8166</v>
       </c>
       <c r="F3" t="n">
-        <v>20.4698</v>
+        <v>20.6653</v>
       </c>
       <c r="G3" t="n">
-        <v>23.2212</v>
+        <v>23.4102</v>
       </c>
     </row>
     <row r="4">
@@ -7049,22 +7049,22 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>24.8002</v>
+        <v>24</v>
       </c>
       <c r="C4" t="n">
-        <v>21.5273</v>
+        <v>20.7875</v>
       </c>
       <c r="D4" t="n">
-        <v>26.5225</v>
+        <v>26.6661</v>
       </c>
       <c r="E4" t="n">
-        <v>30.6587</v>
+        <v>30.0533</v>
       </c>
       <c r="F4" t="n">
-        <v>26.8473</v>
+        <v>26.2393</v>
       </c>
       <c r="G4" t="n">
-        <v>27.7041</v>
+        <v>28.31</v>
       </c>
     </row>
     <row r="5">
@@ -7072,22 +7072,22 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>21.6711</v>
+        <v>21.3833</v>
       </c>
       <c r="C5" t="n">
-        <v>23.4513</v>
+        <v>23.6534</v>
       </c>
       <c r="D5" t="n">
-        <v>27.5124</v>
+        <v>28.9914</v>
       </c>
       <c r="E5" t="n">
-        <v>35.3207</v>
+        <v>35.6176</v>
       </c>
       <c r="F5" t="n">
-        <v>26.3947</v>
+        <v>26.0899</v>
       </c>
       <c r="G5" t="n">
-        <v>30.9527</v>
+        <v>30.9969</v>
       </c>
     </row>
     <row r="6">
@@ -7095,22 +7095,22 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>26.3796</v>
+        <v>26.3604</v>
       </c>
       <c r="C6" t="n">
-        <v>27.8836</v>
+        <v>27.6741</v>
       </c>
       <c r="D6" t="n">
-        <v>35.2527</v>
+        <v>34.6823</v>
       </c>
       <c r="E6" t="n">
-        <v>35.1464</v>
+        <v>35.1258</v>
       </c>
       <c r="F6" t="n">
-        <v>29.5562</v>
+        <v>30.1763</v>
       </c>
       <c r="G6" t="n">
-        <v>36.834</v>
+        <v>35.1957</v>
       </c>
     </row>
     <row r="7">
@@ -7118,22 +7118,22 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>32.6174</v>
+        <v>32.6127</v>
       </c>
       <c r="C7" t="n">
-        <v>32.7295</v>
+        <v>32.7632</v>
       </c>
       <c r="D7" t="n">
-        <v>36.5913</v>
+        <v>35.0781</v>
       </c>
       <c r="E7" t="n">
-        <v>45.1076</v>
+        <v>44.9659</v>
       </c>
       <c r="F7" t="n">
-        <v>34.278</v>
+        <v>34.272</v>
       </c>
       <c r="G7" t="n">
-        <v>38.2026</v>
+        <v>38.2279</v>
       </c>
     </row>
     <row r="8">
@@ -7141,22 +7141,22 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>22.8356</v>
+        <v>22.7809</v>
       </c>
       <c r="C8" t="n">
-        <v>29.6231</v>
+        <v>29.6064</v>
       </c>
       <c r="D8" t="n">
-        <v>35.3208</v>
+        <v>35.2449</v>
       </c>
       <c r="E8" t="n">
-        <v>41.7323</v>
+        <v>42.0516</v>
       </c>
       <c r="F8" t="n">
-        <v>33.1035</v>
+        <v>34.901</v>
       </c>
       <c r="G8" t="n">
-        <v>35.9799</v>
+        <v>36.9831</v>
       </c>
     </row>
     <row r="9">
@@ -7164,22 +7164,22 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>25.9099</v>
+        <v>26.1075</v>
       </c>
       <c r="C9" t="n">
-        <v>29.7456</v>
+        <v>29.491</v>
       </c>
       <c r="D9" t="n">
-        <v>37.0041</v>
+        <v>36.2781</v>
       </c>
       <c r="E9" t="n">
-        <v>46.7027</v>
+        <v>44.5344</v>
       </c>
       <c r="F9" t="n">
-        <v>34.6741</v>
+        <v>34.6966</v>
       </c>
       <c r="G9" t="n">
-        <v>40.6216</v>
+        <v>38.2999</v>
       </c>
     </row>
     <row r="10">
@@ -7187,22 +7187,22 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>28.3008</v>
+        <v>28.4003</v>
       </c>
       <c r="C10" t="n">
-        <v>30.1761</v>
+        <v>30.0745</v>
       </c>
       <c r="D10" t="n">
-        <v>39.5775</v>
+        <v>39.9783</v>
       </c>
       <c r="E10" t="n">
-        <v>48.8132</v>
+        <v>48.897</v>
       </c>
       <c r="F10" t="n">
-        <v>37.5783</v>
+        <v>36.2925</v>
       </c>
       <c r="G10" t="n">
-        <v>38.9207</v>
+        <v>40.8668</v>
       </c>
     </row>
     <row r="11">
@@ -7210,22 +7210,22 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>26.2012</v>
+        <v>26.4466</v>
       </c>
       <c r="C11" t="n">
-        <v>30.4044</v>
+        <v>30.5235</v>
       </c>
       <c r="D11" t="n">
-        <v>39.6821</v>
+        <v>40.0069</v>
       </c>
       <c r="E11" t="n">
-        <v>52.459</v>
+        <v>51.2151</v>
       </c>
       <c r="F11" t="n">
-        <v>36.9631</v>
+        <v>36.945</v>
       </c>
       <c r="G11" t="n">
-        <v>42.3679</v>
+        <v>42.8536</v>
       </c>
     </row>
     <row r="12">
@@ -7233,22 +7233,22 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>29.4061</v>
+        <v>29.2498</v>
       </c>
       <c r="C12" t="n">
-        <v>30.4353</v>
+        <v>30.7101</v>
       </c>
       <c r="D12" t="n">
-        <v>40.284</v>
+        <v>42.5119</v>
       </c>
       <c r="E12" t="n">
-        <v>51.776</v>
+        <v>52.1738</v>
       </c>
       <c r="F12" t="n">
-        <v>38.4964</v>
+        <v>36.8876</v>
       </c>
       <c r="G12" t="n">
-        <v>42.2557</v>
+        <v>41.3799</v>
       </c>
     </row>
     <row r="13">
@@ -7256,22 +7256,22 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>32.555</v>
+        <v>32.6122</v>
       </c>
       <c r="C13" t="n">
-        <v>31.1438</v>
+        <v>31.2455</v>
       </c>
       <c r="D13" t="n">
-        <v>44.278</v>
+        <v>43.1606</v>
       </c>
       <c r="E13" t="n">
-        <v>52.6871</v>
+        <v>52.2293</v>
       </c>
       <c r="F13" t="n">
-        <v>37.7928</v>
+        <v>38.6772</v>
       </c>
       <c r="G13" t="n">
-        <v>43.7688</v>
+        <v>43.0276</v>
       </c>
     </row>
     <row r="14">
@@ -7279,22 +7279,22 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>25.7612</v>
+        <v>26.0613</v>
       </c>
       <c r="C14" t="n">
-        <v>31.342</v>
+        <v>31.659</v>
       </c>
       <c r="D14" t="n">
-        <v>43.5757</v>
+        <v>42.6182</v>
       </c>
       <c r="E14" t="n">
-        <v>52.6527</v>
+        <v>52.9645</v>
       </c>
       <c r="F14" t="n">
-        <v>38.1547</v>
+        <v>37.6043</v>
       </c>
       <c r="G14" t="n">
-        <v>43.3022</v>
+        <v>43.9367</v>
       </c>
     </row>
     <row r="15">
@@ -7302,22 +7302,22 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>27.9838</v>
+        <v>28.2885</v>
       </c>
       <c r="C15" t="n">
-        <v>31.6318</v>
+        <v>31.9189</v>
       </c>
       <c r="D15" t="n">
-        <v>44.7181</v>
+        <v>42.6232</v>
       </c>
       <c r="E15" t="n">
-        <v>52.3321</v>
+        <v>52.9834</v>
       </c>
       <c r="F15" t="n">
-        <v>38.1008</v>
+        <v>37.7392</v>
       </c>
       <c r="G15" t="n">
-        <v>45.162</v>
+        <v>44.5334</v>
       </c>
     </row>
     <row r="16">
@@ -7325,22 +7325,22 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>29.765</v>
+        <v>29.845</v>
       </c>
       <c r="C16" t="n">
-        <v>31.6786</v>
+        <v>31.5647</v>
       </c>
       <c r="D16" t="n">
-        <v>45.2939</v>
+        <v>44.675</v>
       </c>
       <c r="E16" t="n">
-        <v>51.941</v>
+        <v>54.2401</v>
       </c>
       <c r="F16" t="n">
-        <v>38.0617</v>
+        <v>39.2921</v>
       </c>
       <c r="G16" t="n">
-        <v>44.4689</v>
+        <v>44.1213</v>
       </c>
     </row>
     <row r="17">
@@ -7348,22 +7348,22 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>28.6384</v>
+        <v>28.5179</v>
       </c>
       <c r="C17" t="n">
-        <v>31.7837</v>
+        <v>31.8089</v>
       </c>
       <c r="D17" t="n">
-        <v>44.9507</v>
+        <v>43.8951</v>
       </c>
       <c r="E17" t="n">
-        <v>54.6035</v>
+        <v>53.5395</v>
       </c>
       <c r="F17" t="n">
-        <v>38.5668</v>
+        <v>39.6659</v>
       </c>
       <c r="G17" t="n">
-        <v>44.67</v>
+        <v>48.9331</v>
       </c>
     </row>
   </sheetData>
@@ -7426,22 +7426,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>10.8825</v>
+        <v>10.9366</v>
       </c>
       <c r="C2" t="n">
-        <v>11.6565</v>
+        <v>11.7395</v>
       </c>
       <c r="D2" t="n">
-        <v>13.9115</v>
+        <v>13.9314</v>
       </c>
       <c r="E2" t="n">
-        <v>15.3205</v>
+        <v>15.3597</v>
       </c>
       <c r="F2" t="n">
-        <v>13.3577</v>
+        <v>13.406</v>
       </c>
       <c r="G2" t="n">
-        <v>14.9112</v>
+        <v>14.9303</v>
       </c>
     </row>
     <row r="3">
@@ -7449,22 +7449,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>19.4121</v>
+        <v>19.4465</v>
       </c>
       <c r="C3" t="n">
-        <v>19.136</v>
+        <v>19.4137</v>
       </c>
       <c r="D3" t="n">
-        <v>22.8815</v>
+        <v>22.9532</v>
       </c>
       <c r="E3" t="n">
-        <v>25.6249</v>
+        <v>25.6343</v>
       </c>
       <c r="F3" t="n">
-        <v>22.1532</v>
+        <v>22.2624</v>
       </c>
       <c r="G3" t="n">
-        <v>25.0218</v>
+        <v>24.4559</v>
       </c>
     </row>
     <row r="4">
@@ -7472,22 +7472,22 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>27.1196</v>
+        <v>27.025</v>
       </c>
       <c r="C4" t="n">
-        <v>25.0283</v>
+        <v>25.4595</v>
       </c>
       <c r="D4" t="n">
-        <v>31.506</v>
+        <v>31.5616</v>
       </c>
       <c r="E4" t="n">
-        <v>32.8531</v>
+        <v>33.9322</v>
       </c>
       <c r="F4" t="n">
-        <v>29.0509</v>
+        <v>29.3657</v>
       </c>
       <c r="G4" t="n">
-        <v>32.1848</v>
+        <v>31.4484</v>
       </c>
     </row>
     <row r="5">
@@ -7495,22 +7495,22 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>24.4232</v>
+        <v>24.3704</v>
       </c>
       <c r="C5" t="n">
-        <v>24.9468</v>
+        <v>24.9495</v>
       </c>
       <c r="D5" t="n">
-        <v>30.925</v>
+        <v>31.4962</v>
       </c>
       <c r="E5" t="n">
-        <v>35.3646</v>
+        <v>35.316</v>
       </c>
       <c r="F5" t="n">
-        <v>30.6414</v>
+        <v>31.2349</v>
       </c>
       <c r="G5" t="n">
-        <v>35.8852</v>
+        <v>35.5343</v>
       </c>
     </row>
     <row r="6">
@@ -7518,22 +7518,22 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>29.413</v>
+        <v>29.3208</v>
       </c>
       <c r="C6" t="n">
-        <v>28.9124</v>
+        <v>28.7312</v>
       </c>
       <c r="D6" t="n">
-        <v>34.8746</v>
+        <v>34.1517</v>
       </c>
       <c r="E6" t="n">
-        <v>37.17</v>
+        <v>38.0584</v>
       </c>
       <c r="F6" t="n">
-        <v>32.8007</v>
+        <v>33.0004</v>
       </c>
       <c r="G6" t="n">
-        <v>36.2898</v>
+        <v>36.2778</v>
       </c>
     </row>
     <row r="7">
@@ -7541,22 +7541,22 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>35.423</v>
+        <v>35.4431</v>
       </c>
       <c r="C7" t="n">
-        <v>33.8239</v>
+        <v>33.8508</v>
       </c>
       <c r="D7" t="n">
-        <v>34.892</v>
+        <v>35.0536</v>
       </c>
       <c r="E7" t="n">
-        <v>52.2677</v>
+        <v>52.2559</v>
       </c>
       <c r="F7" t="n">
-        <v>36.0279</v>
+        <v>36.2814</v>
       </c>
       <c r="G7" t="n">
-        <v>41.5524</v>
+        <v>43.9175</v>
       </c>
     </row>
     <row r="8">
@@ -7564,22 +7564,22 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>31.5014</v>
+        <v>32.1857</v>
       </c>
       <c r="C8" t="n">
-        <v>29.6798</v>
+        <v>29.5803</v>
       </c>
       <c r="D8" t="n">
-        <v>35.8075</v>
+        <v>35.1858</v>
       </c>
       <c r="E8" t="n">
-        <v>45.1291</v>
+        <v>47.7431</v>
       </c>
       <c r="F8" t="n">
-        <v>35.4306</v>
+        <v>35.6325</v>
       </c>
       <c r="G8" t="n">
-        <v>46.338</v>
+        <v>45.9202</v>
       </c>
     </row>
     <row r="9">
@@ -7587,22 +7587,22 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>32.2949</v>
+        <v>31.1744</v>
       </c>
       <c r="C9" t="n">
-        <v>30.3253</v>
+        <v>30.3195</v>
       </c>
       <c r="D9" t="n">
-        <v>41.5774</v>
+        <v>39.1572</v>
       </c>
       <c r="E9" t="n">
-        <v>52.25</v>
+        <v>47.9559</v>
       </c>
       <c r="F9" t="n">
-        <v>37.7147</v>
+        <v>38.0151</v>
       </c>
       <c r="G9" t="n">
-        <v>45.9062</v>
+        <v>46.4966</v>
       </c>
     </row>
     <row r="10">
@@ -7610,22 +7610,22 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>31.5094</v>
+        <v>31.5645</v>
       </c>
       <c r="C10" t="n">
-        <v>30.2445</v>
+        <v>30.496</v>
       </c>
       <c r="D10" t="n">
-        <v>43.3295</v>
+        <v>43.4596</v>
       </c>
       <c r="E10" t="n">
-        <v>50.4423</v>
+        <v>53.5744</v>
       </c>
       <c r="F10" t="n">
-        <v>41.5414</v>
+        <v>40.4157</v>
       </c>
       <c r="G10" t="n">
-        <v>48.1136</v>
+        <v>47.7459</v>
       </c>
     </row>
     <row r="11">
@@ -7633,22 +7633,22 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>32.1072</v>
+        <v>32.5657</v>
       </c>
       <c r="C11" t="n">
-        <v>30.6715</v>
+        <v>31.017</v>
       </c>
       <c r="D11" t="n">
-        <v>43.2721</v>
+        <v>43.7059</v>
       </c>
       <c r="E11" t="n">
-        <v>53.1585</v>
+        <v>51.5369</v>
       </c>
       <c r="F11" t="n">
-        <v>40.4826</v>
+        <v>40.6265</v>
       </c>
       <c r="G11" t="n">
-        <v>47.7443</v>
+        <v>51.3284</v>
       </c>
     </row>
     <row r="12">
@@ -7656,22 +7656,22 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>32.6574</v>
+        <v>32.4432</v>
       </c>
       <c r="C12" t="n">
-        <v>30.9422</v>
+        <v>31.3022</v>
       </c>
       <c r="D12" t="n">
-        <v>43.2606</v>
+        <v>43.3547</v>
       </c>
       <c r="E12" t="n">
-        <v>53.0483</v>
+        <v>51.1376</v>
       </c>
       <c r="F12" t="n">
-        <v>41.646</v>
+        <v>41.1918</v>
       </c>
       <c r="G12" t="n">
-        <v>49.0832</v>
+        <v>47.3897</v>
       </c>
     </row>
     <row r="13">
@@ -7679,22 +7679,22 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>32.7159</v>
+        <v>32.6239</v>
       </c>
       <c r="C13" t="n">
-        <v>31.3989</v>
+        <v>31.6998</v>
       </c>
       <c r="D13" t="n">
-        <v>44.4271</v>
+        <v>44.883</v>
       </c>
       <c r="E13" t="n">
-        <v>52.7318</v>
+        <v>53.8706</v>
       </c>
       <c r="F13" t="n">
-        <v>41.0274</v>
+        <v>41.6878</v>
       </c>
       <c r="G13" t="n">
-        <v>49.5616</v>
+        <v>49.6814</v>
       </c>
     </row>
     <row r="14">
@@ -7702,22 +7702,22 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>32.8781</v>
+        <v>32.6952</v>
       </c>
       <c r="C14" t="n">
-        <v>31.4392</v>
+        <v>31.2635</v>
       </c>
       <c r="D14" t="n">
-        <v>44.0729</v>
+        <v>44.9195</v>
       </c>
       <c r="E14" t="n">
-        <v>53.6851</v>
+        <v>53.6457</v>
       </c>
       <c r="F14" t="n">
-        <v>41.3793</v>
+        <v>41.3228</v>
       </c>
       <c r="G14" t="n">
-        <v>48.9388</v>
+        <v>49.9859</v>
       </c>
     </row>
     <row r="15">
@@ -7725,22 +7725,22 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>33.398</v>
+        <v>32.726</v>
       </c>
       <c r="C15" t="n">
-        <v>31.9111</v>
+        <v>31.5054</v>
       </c>
       <c r="D15" t="n">
-        <v>44.6779</v>
+        <v>44.0423</v>
       </c>
       <c r="E15" t="n">
-        <v>54.6354</v>
+        <v>52.8216</v>
       </c>
       <c r="F15" t="n">
-        <v>40.5659</v>
+        <v>42.0081</v>
       </c>
       <c r="G15" t="n">
-        <v>48.2275</v>
+        <v>48.6467</v>
       </c>
     </row>
     <row r="16">
@@ -7748,22 +7748,22 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>33.2911</v>
+        <v>33.5437</v>
       </c>
       <c r="C16" t="n">
-        <v>32.0885</v>
+        <v>32.0905</v>
       </c>
       <c r="D16" t="n">
-        <v>44.6855</v>
+        <v>44.4865</v>
       </c>
       <c r="E16" t="n">
-        <v>52.4699</v>
+        <v>52.5249</v>
       </c>
       <c r="F16" t="n">
-        <v>40.8042</v>
+        <v>41.6455</v>
       </c>
       <c r="G16" t="n">
-        <v>49.1771</v>
+        <v>49.5435</v>
       </c>
     </row>
     <row r="17">
@@ -7771,22 +7771,22 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>32.8811</v>
+        <v>33.4928</v>
       </c>
       <c r="C17" t="n">
-        <v>31.8201</v>
+        <v>32.0295</v>
       </c>
       <c r="D17" t="n">
-        <v>45.107</v>
+        <v>45.4337</v>
       </c>
       <c r="E17" t="n">
-        <v>52.7777</v>
+        <v>52.6557</v>
       </c>
       <c r="F17" t="n">
-        <v>41.6879</v>
+        <v>41.2234</v>
       </c>
       <c r="G17" t="n">
-        <v>49.9363</v>
+        <v>49.2144</v>
       </c>
     </row>
   </sheetData>
@@ -7849,22 +7849,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4.93375</v>
+        <v>4.95252</v>
       </c>
       <c r="C2" t="n">
-        <v>9.052429999999999</v>
+        <v>9.08559</v>
       </c>
       <c r="D2" t="n">
-        <v>10.7781</v>
+        <v>10.8873</v>
       </c>
       <c r="E2" t="n">
-        <v>13.9643</v>
+        <v>13.9867</v>
       </c>
       <c r="F2" t="n">
-        <v>8.614330000000001</v>
+        <v>8.6638</v>
       </c>
       <c r="G2" t="n">
-        <v>11.4877</v>
+        <v>11.5349</v>
       </c>
     </row>
     <row r="3">
@@ -7872,22 +7872,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.75703</v>
+        <v>9.80148</v>
       </c>
       <c r="C3" t="n">
-        <v>15.7186</v>
+        <v>15.8275</v>
       </c>
       <c r="D3" t="n">
-        <v>20.5214</v>
+        <v>20.8263</v>
       </c>
       <c r="E3" t="n">
-        <v>26.4341</v>
+        <v>26.6851</v>
       </c>
       <c r="F3" t="n">
-        <v>16.3155</v>
+        <v>16.4322</v>
       </c>
       <c r="G3" t="n">
-        <v>21.3985</v>
+        <v>21.6927</v>
       </c>
     </row>
     <row r="4">
@@ -7895,22 +7895,22 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>14.277</v>
+        <v>14.359</v>
       </c>
       <c r="C4" t="n">
-        <v>21.9873</v>
+        <v>22.1034</v>
       </c>
       <c r="D4" t="n">
-        <v>28.8041</v>
+        <v>29.6428</v>
       </c>
       <c r="E4" t="n">
-        <v>37.7553</v>
+        <v>38.1638</v>
       </c>
       <c r="F4" t="n">
-        <v>23.2569</v>
+        <v>23.3902</v>
       </c>
       <c r="G4" t="n">
-        <v>30.4252</v>
+        <v>30.7022</v>
       </c>
     </row>
     <row r="5">
@@ -7918,22 +7918,22 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>17.1846</v>
+        <v>17.3529</v>
       </c>
       <c r="C5" t="n">
-        <v>22.8661</v>
+        <v>23.0336</v>
       </c>
       <c r="D5" t="n">
-        <v>33.2366</v>
+        <v>33.8532</v>
       </c>
       <c r="E5" t="n">
-        <v>44.3464</v>
+        <v>44.0664</v>
       </c>
       <c r="F5" t="n">
-        <v>27.2761</v>
+        <v>27.1463</v>
       </c>
       <c r="G5" t="n">
-        <v>35.3932</v>
+        <v>35.6641</v>
       </c>
     </row>
     <row r="6">
@@ -7941,22 +7941,22 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>21.3687</v>
+        <v>21.383</v>
       </c>
       <c r="C6" t="n">
-        <v>26.3725</v>
+        <v>26.2803</v>
       </c>
       <c r="D6" t="n">
-        <v>40.7344</v>
+        <v>40.9494</v>
       </c>
       <c r="E6" t="n">
-        <v>52.2471</v>
+        <v>52.0359</v>
       </c>
       <c r="F6" t="n">
-        <v>32.7604</v>
+        <v>32.9032</v>
       </c>
       <c r="G6" t="n">
-        <v>41.4294</v>
+        <v>42.2643</v>
       </c>
     </row>
     <row r="7">
@@ -7964,22 +7964,22 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>25.7617</v>
+        <v>25.9045</v>
       </c>
       <c r="C7" t="n">
-        <v>31.1072</v>
+        <v>31.3022</v>
       </c>
       <c r="D7" t="n">
-        <v>47.1728</v>
+        <v>47.8117</v>
       </c>
       <c r="E7" t="n">
-        <v>61.8248</v>
+        <v>62.2829</v>
       </c>
       <c r="F7" t="n">
-        <v>37.9285</v>
+        <v>38.2846</v>
       </c>
       <c r="G7" t="n">
-        <v>48.0522</v>
+        <v>48.6591</v>
       </c>
     </row>
     <row r="8">
@@ -7987,22 +7987,22 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>21.8426</v>
+        <v>22.2604</v>
       </c>
       <c r="C8" t="n">
-        <v>29.8995</v>
+        <v>29.7095</v>
       </c>
       <c r="D8" t="n">
-        <v>42.7063</v>
+        <v>44.3885</v>
       </c>
       <c r="E8" t="n">
-        <v>55.2425</v>
+        <v>53.8804</v>
       </c>
       <c r="F8" t="n">
-        <v>34.0009</v>
+        <v>35.346</v>
       </c>
       <c r="G8" t="n">
-        <v>43.7139</v>
+        <v>41.2211</v>
       </c>
     </row>
     <row r="9">
@@ -8010,22 +8010,22 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>23.3885</v>
+        <v>23.953</v>
       </c>
       <c r="C9" t="n">
-        <v>29.4548</v>
+        <v>30.0469</v>
       </c>
       <c r="D9" t="n">
-        <v>41.7538</v>
+        <v>43.6287</v>
       </c>
       <c r="E9" t="n">
-        <v>52.4073</v>
+        <v>56.2675</v>
       </c>
       <c r="F9" t="n">
-        <v>34.3704</v>
+        <v>34.1878</v>
       </c>
       <c r="G9" t="n">
-        <v>44.0375</v>
+        <v>44.9894</v>
       </c>
     </row>
     <row r="10">
@@ -8033,22 +8033,22 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>24.3211</v>
+        <v>24.0924</v>
       </c>
       <c r="C10" t="n">
-        <v>30.1833</v>
+        <v>30.0961</v>
       </c>
       <c r="D10" t="n">
-        <v>42.6283</v>
+        <v>43.1896</v>
       </c>
       <c r="E10" t="n">
-        <v>55.3859</v>
+        <v>55.7363</v>
       </c>
       <c r="F10" t="n">
-        <v>34.3981</v>
+        <v>34.2189</v>
       </c>
       <c r="G10" t="n">
-        <v>43.8343</v>
+        <v>44.8264</v>
       </c>
     </row>
     <row r="11">
@@ -8056,22 +8056,22 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>24.3149</v>
+        <v>24.2591</v>
       </c>
       <c r="C11" t="n">
-        <v>29.7051</v>
+        <v>29.9163</v>
       </c>
       <c r="D11" t="n">
-        <v>44.1908</v>
+        <v>43.8751</v>
       </c>
       <c r="E11" t="n">
-        <v>56.7937</v>
+        <v>57.3258</v>
       </c>
       <c r="F11" t="n">
-        <v>35.0855</v>
+        <v>36.1282</v>
       </c>
       <c r="G11" t="n">
-        <v>44.008</v>
+        <v>44.9135</v>
       </c>
     </row>
     <row r="12">
@@ -8079,22 +8079,22 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>23.8917</v>
+        <v>24.3443</v>
       </c>
       <c r="C12" t="n">
-        <v>30.1989</v>
+        <v>30.0513</v>
       </c>
       <c r="D12" t="n">
-        <v>45.2175</v>
+        <v>44.0207</v>
       </c>
       <c r="E12" t="n">
-        <v>56.8216</v>
+        <v>55.9509</v>
       </c>
       <c r="F12" t="n">
-        <v>35.5476</v>
+        <v>33.6486</v>
       </c>
       <c r="G12" t="n">
-        <v>45.9401</v>
+        <v>45.1014</v>
       </c>
     </row>
     <row r="13">
@@ -8102,22 +8102,22 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>23.8473</v>
+        <v>24.4532</v>
       </c>
       <c r="C13" t="n">
-        <v>30.3602</v>
+        <v>30.4155</v>
       </c>
       <c r="D13" t="n">
-        <v>43.8012</v>
+        <v>44.319</v>
       </c>
       <c r="E13" t="n">
-        <v>57.4151</v>
+        <v>58.8975</v>
       </c>
       <c r="F13" t="n">
-        <v>34.2719</v>
+        <v>36.3913</v>
       </c>
       <c r="G13" t="n">
-        <v>45.8917</v>
+        <v>45.7732</v>
       </c>
     </row>
     <row r="14">
@@ -8125,22 +8125,22 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>23.473</v>
+        <v>24.1605</v>
       </c>
       <c r="C14" t="n">
-        <v>30.3675</v>
+        <v>30.5329</v>
       </c>
       <c r="D14" t="n">
-        <v>45.0921</v>
+        <v>44.951</v>
       </c>
       <c r="E14" t="n">
-        <v>56.4521</v>
+        <v>59.6073</v>
       </c>
       <c r="F14" t="n">
-        <v>35.6141</v>
+        <v>36.2377</v>
       </c>
       <c r="G14" t="n">
-        <v>45.7677</v>
+        <v>45.8287</v>
       </c>
     </row>
     <row r="15">
@@ -8148,22 +8148,22 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>24.2479</v>
+        <v>24.3149</v>
       </c>
       <c r="C15" t="n">
-        <v>30.2245</v>
+        <v>30.6277</v>
       </c>
       <c r="D15" t="n">
-        <v>44.1288</v>
+        <v>45.8175</v>
       </c>
       <c r="E15" t="n">
-        <v>58.2955</v>
+        <v>58.3485</v>
       </c>
       <c r="F15" t="n">
-        <v>34.8899</v>
+        <v>35.2669</v>
       </c>
       <c r="G15" t="n">
-        <v>46.2476</v>
+        <v>45.5096</v>
       </c>
     </row>
     <row r="16">
@@ -8171,22 +8171,22 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>23.849</v>
+        <v>24.082</v>
       </c>
       <c r="C16" t="n">
-        <v>30.217</v>
+        <v>30.4487</v>
       </c>
       <c r="D16" t="n">
-        <v>45.4359</v>
+        <v>45.5449</v>
       </c>
       <c r="E16" t="n">
-        <v>58.2618</v>
+        <v>58.8967</v>
       </c>
       <c r="F16" t="n">
-        <v>35.4672</v>
+        <v>36.4667</v>
       </c>
       <c r="G16" t="n">
-        <v>45.623</v>
+        <v>46.3967</v>
       </c>
     </row>
     <row r="17">
@@ -8194,22 +8194,22 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>23.6965</v>
+        <v>24.3038</v>
       </c>
       <c r="C17" t="n">
-        <v>30.2993</v>
+        <v>30.3561</v>
       </c>
       <c r="D17" t="n">
-        <v>44.0467</v>
+        <v>45.8407</v>
       </c>
       <c r="E17" t="n">
-        <v>59.5636</v>
+        <v>58.8881</v>
       </c>
       <c r="F17" t="n">
-        <v>36.1908</v>
+        <v>36.5572</v>
       </c>
       <c r="G17" t="n">
-        <v>45.8595</v>
+        <v>47.2387</v>
       </c>
     </row>
   </sheetData>
@@ -8272,22 +8272,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>5.00771</v>
+        <v>5.0492</v>
       </c>
       <c r="C2" t="n">
-        <v>9.006130000000001</v>
+        <v>9.100949999999999</v>
       </c>
       <c r="D2" t="n">
-        <v>10.7899</v>
+        <v>10.9035</v>
       </c>
       <c r="E2" t="n">
-        <v>14.013</v>
+        <v>14.0585</v>
       </c>
       <c r="F2" t="n">
-        <v>8.573029999999999</v>
+        <v>8.602639999999999</v>
       </c>
       <c r="G2" t="n">
-        <v>11.5342</v>
+        <v>11.5773</v>
       </c>
     </row>
     <row r="3">
@@ -8295,22 +8295,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.96993</v>
+        <v>9.99567</v>
       </c>
       <c r="C3" t="n">
-        <v>15.8333</v>
+        <v>15.9734</v>
       </c>
       <c r="D3" t="n">
-        <v>20.5403</v>
+        <v>20.8279</v>
       </c>
       <c r="E3" t="n">
-        <v>26.4919</v>
+        <v>26.572</v>
       </c>
       <c r="F3" t="n">
-        <v>16.2635</v>
+        <v>16.4189</v>
       </c>
       <c r="G3" t="n">
-        <v>21.5351</v>
+        <v>21.6831</v>
       </c>
     </row>
     <row r="4">
@@ -8318,22 +8318,22 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>14.4517</v>
+        <v>14.6642</v>
       </c>
       <c r="C4" t="n">
-        <v>21.8869</v>
+        <v>22.1062</v>
       </c>
       <c r="D4" t="n">
-        <v>29.5711</v>
+        <v>30.2411</v>
       </c>
       <c r="E4" t="n">
-        <v>38.1089</v>
+        <v>38.3737</v>
       </c>
       <c r="F4" t="n">
-        <v>23.2685</v>
+        <v>23.4565</v>
       </c>
       <c r="G4" t="n">
-        <v>30.6129</v>
+        <v>30.7802</v>
       </c>
     </row>
     <row r="5">
@@ -8341,22 +8341,22 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>17.4214</v>
+        <v>17.4852</v>
       </c>
       <c r="C5" t="n">
-        <v>22.8385</v>
+        <v>23.0085</v>
       </c>
       <c r="D5" t="n">
-        <v>32.7344</v>
+        <v>33.5998</v>
       </c>
       <c r="E5" t="n">
-        <v>43.4946</v>
+        <v>43.8794</v>
       </c>
       <c r="F5" t="n">
-        <v>26.9691</v>
+        <v>27.1154</v>
       </c>
       <c r="G5" t="n">
-        <v>35.4393</v>
+        <v>35.9366</v>
       </c>
     </row>
     <row r="6">
@@ -8364,22 +8364,22 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>21.5813</v>
+        <v>21.6651</v>
       </c>
       <c r="C6" t="n">
-        <v>26.3802</v>
+        <v>26.3487</v>
       </c>
       <c r="D6" t="n">
-        <v>39.5926</v>
+        <v>39.6798</v>
       </c>
       <c r="E6" t="n">
-        <v>51.7072</v>
+        <v>51.7746</v>
       </c>
       <c r="F6" t="n">
-        <v>32.4994</v>
+        <v>33.0233</v>
       </c>
       <c r="G6" t="n">
-        <v>42.0389</v>
+        <v>42.2815</v>
       </c>
     </row>
     <row r="7">
@@ -8387,22 +8387,22 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>26.1475</v>
+        <v>26.2241</v>
       </c>
       <c r="C7" t="n">
-        <v>31.3395</v>
+        <v>31.3503</v>
       </c>
       <c r="D7" t="n">
-        <v>46.9335</v>
+        <v>47.4015</v>
       </c>
       <c r="E7" t="n">
-        <v>59.6047</v>
+        <v>59.9628</v>
       </c>
       <c r="F7" t="n">
-        <v>37.678</v>
+        <v>38.0013</v>
       </c>
       <c r="G7" t="n">
-        <v>48.2164</v>
+        <v>49.727</v>
       </c>
     </row>
     <row r="8">
@@ -8410,22 +8410,22 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>22.7671</v>
+        <v>23.1167</v>
       </c>
       <c r="C8" t="n">
-        <v>30.3696</v>
+        <v>29.872</v>
       </c>
       <c r="D8" t="n">
-        <v>41.69</v>
+        <v>42.511</v>
       </c>
       <c r="E8" t="n">
-        <v>54.5366</v>
+        <v>53.1566</v>
       </c>
       <c r="F8" t="n">
-        <v>33.1244</v>
+        <v>34.5368</v>
       </c>
       <c r="G8" t="n">
-        <v>44.9748</v>
+        <v>43.7216</v>
       </c>
     </row>
     <row r="9">
@@ -8433,22 +8433,22 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>23.3977</v>
+        <v>23.3465</v>
       </c>
       <c r="C9" t="n">
-        <v>30.2638</v>
+        <v>29.9939</v>
       </c>
       <c r="D9" t="n">
-        <v>41.2972</v>
+        <v>42.7779</v>
       </c>
       <c r="E9" t="n">
-        <v>53.2621</v>
+        <v>55.3334</v>
       </c>
       <c r="F9" t="n">
-        <v>33.3566</v>
+        <v>34.658</v>
       </c>
       <c r="G9" t="n">
-        <v>43.7796</v>
+        <v>45.331</v>
       </c>
     </row>
     <row r="10">
@@ -8456,22 +8456,22 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>23.7814</v>
+        <v>24.2348</v>
       </c>
       <c r="C10" t="n">
-        <v>30.1227</v>
+        <v>30.0677</v>
       </c>
       <c r="D10" t="n">
-        <v>40.7823</v>
+        <v>42.7322</v>
       </c>
       <c r="E10" t="n">
-        <v>54.8988</v>
+        <v>55.8497</v>
       </c>
       <c r="F10" t="n">
-        <v>35.3805</v>
+        <v>34.6715</v>
       </c>
       <c r="G10" t="n">
-        <v>44.5741</v>
+        <v>43.6852</v>
       </c>
     </row>
     <row r="11">
@@ -8479,22 +8479,22 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>24.503</v>
+        <v>24.5491</v>
       </c>
       <c r="C11" t="n">
-        <v>30.4906</v>
+        <v>30.3388</v>
       </c>
       <c r="D11" t="n">
-        <v>43.4526</v>
+        <v>43.1013</v>
       </c>
       <c r="E11" t="n">
-        <v>56.7099</v>
+        <v>56.8577</v>
       </c>
       <c r="F11" t="n">
-        <v>35.6522</v>
+        <v>35.8699</v>
       </c>
       <c r="G11" t="n">
-        <v>45.5042</v>
+        <v>43.8159</v>
       </c>
     </row>
     <row r="12">
@@ -8502,22 +8502,22 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>24.3707</v>
+        <v>24.1642</v>
       </c>
       <c r="C12" t="n">
-        <v>30.4469</v>
+        <v>30.2961</v>
       </c>
       <c r="D12" t="n">
-        <v>43.1404</v>
+        <v>44.3574</v>
       </c>
       <c r="E12" t="n">
-        <v>57.5311</v>
+        <v>56.0877</v>
       </c>
       <c r="F12" t="n">
-        <v>34.3142</v>
+        <v>33.3242</v>
       </c>
       <c r="G12" t="n">
-        <v>46.4204</v>
+        <v>46.7643</v>
       </c>
     </row>
     <row r="13">
@@ -8525,22 +8525,22 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>24.3114</v>
+        <v>24.6331</v>
       </c>
       <c r="C13" t="n">
-        <v>30.364</v>
+        <v>30.5631</v>
       </c>
       <c r="D13" t="n">
-        <v>44.2693</v>
+        <v>43.6416</v>
       </c>
       <c r="E13" t="n">
-        <v>57.3954</v>
+        <v>54.6369</v>
       </c>
       <c r="F13" t="n">
-        <v>34.5388</v>
+        <v>35.5194</v>
       </c>
       <c r="G13" t="n">
-        <v>46.334</v>
+        <v>46.6827</v>
       </c>
     </row>
     <row r="14">
@@ -8548,22 +8548,22 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>24.1797</v>
+        <v>24.4695</v>
       </c>
       <c r="C14" t="n">
-        <v>30.2707</v>
+        <v>30.3277</v>
       </c>
       <c r="D14" t="n">
-        <v>43.9103</v>
+        <v>44.4781</v>
       </c>
       <c r="E14" t="n">
-        <v>58.0072</v>
+        <v>56.6234</v>
       </c>
       <c r="F14" t="n">
-        <v>35.43</v>
+        <v>35.65</v>
       </c>
       <c r="G14" t="n">
-        <v>45.9505</v>
+        <v>46.4627</v>
       </c>
     </row>
     <row r="15">
@@ -8571,22 +8571,22 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>24.5112</v>
+        <v>24.5712</v>
       </c>
       <c r="C15" t="n">
-        <v>30.5634</v>
+        <v>30.3356</v>
       </c>
       <c r="D15" t="n">
-        <v>44.6769</v>
+        <v>45.6104</v>
       </c>
       <c r="E15" t="n">
-        <v>56.9652</v>
+        <v>58.2901</v>
       </c>
       <c r="F15" t="n">
-        <v>35.6339</v>
+        <v>35.5685</v>
       </c>
       <c r="G15" t="n">
-        <v>46.8143</v>
+        <v>46.8236</v>
       </c>
     </row>
     <row r="16">
@@ -8594,22 +8594,22 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>23.9354</v>
+        <v>24.7031</v>
       </c>
       <c r="C16" t="n">
-        <v>30.516</v>
+        <v>30.6671</v>
       </c>
       <c r="D16" t="n">
-        <v>44.343</v>
+        <v>45.8832</v>
       </c>
       <c r="E16" t="n">
-        <v>58.1087</v>
+        <v>59.344</v>
       </c>
       <c r="F16" t="n">
-        <v>35.8832</v>
+        <v>36.7812</v>
       </c>
       <c r="G16" t="n">
-        <v>46.4574</v>
+        <v>47.3777</v>
       </c>
     </row>
     <row r="17">
@@ -8617,22 +8617,22 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>24.2783</v>
+        <v>24.4853</v>
       </c>
       <c r="C17" t="n">
-        <v>30.8842</v>
+        <v>30.6709</v>
       </c>
       <c r="D17" t="n">
-        <v>45.9702</v>
+        <v>46.8949</v>
       </c>
       <c r="E17" t="n">
-        <v>57.9153</v>
+        <v>58.5671</v>
       </c>
       <c r="F17" t="n">
-        <v>34.9436</v>
+        <v>36.1877</v>
       </c>
       <c r="G17" t="n">
-        <v>46.5468</v>
+        <v>46.4911</v>
       </c>
     </row>
   </sheetData>
@@ -8695,22 +8695,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.8256</v>
+        <v>8.87674</v>
       </c>
       <c r="C2" t="n">
-        <v>10.9058</v>
+        <v>10.9643</v>
       </c>
       <c r="D2" t="n">
-        <v>13.2535</v>
+        <v>13.2446</v>
       </c>
       <c r="E2" t="n">
-        <v>15.2982</v>
+        <v>15.3023</v>
       </c>
       <c r="F2" t="n">
-        <v>12.2514</v>
+        <v>12.2895</v>
       </c>
       <c r="G2" t="n">
-        <v>14.4101</v>
+        <v>14.456</v>
       </c>
     </row>
     <row r="3">
@@ -8718,22 +8718,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>16.7333</v>
+        <v>16.7823</v>
       </c>
       <c r="C3" t="n">
-        <v>18.205</v>
+        <v>18.5562</v>
       </c>
       <c r="D3" t="n">
-        <v>24.5681</v>
+        <v>24.6209</v>
       </c>
       <c r="E3" t="n">
-        <v>28.6427</v>
+        <v>28.7618</v>
       </c>
       <c r="F3" t="n">
-        <v>22.7182</v>
+        <v>22.8923</v>
       </c>
       <c r="G3" t="n">
-        <v>26.7133</v>
+        <v>26.8893</v>
       </c>
     </row>
     <row r="4">
@@ -8741,22 +8741,22 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>23.8587</v>
+        <v>24.2319</v>
       </c>
       <c r="C4" t="n">
-        <v>24.7877</v>
+        <v>25.218</v>
       </c>
       <c r="D4" t="n">
-        <v>34.4894</v>
+        <v>34.7474</v>
       </c>
       <c r="E4" t="n">
-        <v>40.6577</v>
+        <v>41.0255</v>
       </c>
       <c r="F4" t="n">
-        <v>31.8826</v>
+        <v>32.1649</v>
       </c>
       <c r="G4" t="n">
-        <v>37.927</v>
+        <v>37.9407</v>
       </c>
     </row>
     <row r="5">
@@ -8764,22 +8764,22 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>24.0476</v>
+        <v>24.143</v>
       </c>
       <c r="C5" t="n">
-        <v>25.4586</v>
+        <v>25.0075</v>
       </c>
       <c r="D5" t="n">
-        <v>36.4595</v>
+        <v>36.9783</v>
       </c>
       <c r="E5" t="n">
-        <v>46.7361</v>
+        <v>46.7495</v>
       </c>
       <c r="F5" t="n">
-        <v>33.7122</v>
+        <v>33.4824</v>
       </c>
       <c r="G5" t="n">
-        <v>41.272</v>
+        <v>41.8411</v>
       </c>
     </row>
     <row r="6">
@@ -8787,22 +8787,22 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>27.6296</v>
+        <v>27.6519</v>
       </c>
       <c r="C6" t="n">
-        <v>28.5947</v>
+        <v>28.539</v>
       </c>
       <c r="D6" t="n">
-        <v>42.773</v>
+        <v>42.8186</v>
       </c>
       <c r="E6" t="n">
-        <v>55.3704</v>
+        <v>55.8557</v>
       </c>
       <c r="F6" t="n">
-        <v>39.1213</v>
+        <v>39.3236</v>
       </c>
       <c r="G6" t="n">
-        <v>49.5409</v>
+        <v>49.1835</v>
       </c>
     </row>
     <row r="7">
@@ -8810,22 +8810,22 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>33.8969</v>
+        <v>33.9584</v>
       </c>
       <c r="C7" t="n">
-        <v>33.3211</v>
+        <v>33.3131</v>
       </c>
       <c r="D7" t="n">
-        <v>50.4164</v>
+        <v>50.6487</v>
       </c>
       <c r="E7" t="n">
-        <v>63.9148</v>
+        <v>63.5093</v>
       </c>
       <c r="F7" t="n">
-        <v>46.3774</v>
+        <v>46.5204</v>
       </c>
       <c r="G7" t="n">
-        <v>57.1551</v>
+        <v>57.8315</v>
       </c>
     </row>
     <row r="8">
@@ -8833,22 +8833,22 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>31.0969</v>
+        <v>30.8937</v>
       </c>
       <c r="C8" t="n">
-        <v>31.8874</v>
+        <v>32.2132</v>
       </c>
       <c r="D8" t="n">
-        <v>46.8027</v>
+        <v>46.5611</v>
       </c>
       <c r="E8" t="n">
-        <v>59.1537</v>
+        <v>61.2127</v>
       </c>
       <c r="F8" t="n">
-        <v>43.803</v>
+        <v>44.4574</v>
       </c>
       <c r="G8" t="n">
-        <v>54.3295</v>
+        <v>55.751</v>
       </c>
     </row>
     <row r="9">
@@ -8856,22 +8856,22 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>31.3205</v>
+        <v>32.0985</v>
       </c>
       <c r="C9" t="n">
-        <v>32.0271</v>
+        <v>32.1539</v>
       </c>
       <c r="D9" t="n">
-        <v>46.4534</v>
+        <v>46.79</v>
       </c>
       <c r="E9" t="n">
-        <v>59.27</v>
+        <v>60.7677</v>
       </c>
       <c r="F9" t="n">
-        <v>44.6202</v>
+        <v>43.7816</v>
       </c>
       <c r="G9" t="n">
-        <v>55.7399</v>
+        <v>55.0874</v>
       </c>
     </row>
     <row r="10">
@@ -8879,22 +8879,22 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>31.7414</v>
+        <v>31.9042</v>
       </c>
       <c r="C10" t="n">
-        <v>32.2292</v>
+        <v>32.3611</v>
       </c>
       <c r="D10" t="n">
-        <v>47.318</v>
+        <v>47.0542</v>
       </c>
       <c r="E10" t="n">
-        <v>60.2721</v>
+        <v>61.6601</v>
       </c>
       <c r="F10" t="n">
-        <v>44.7218</v>
+        <v>44.5867</v>
       </c>
       <c r="G10" t="n">
-        <v>56.0016</v>
+        <v>57.1168</v>
       </c>
     </row>
     <row r="11">
@@ -8902,22 +8902,22 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>32.3831</v>
+        <v>32.028</v>
       </c>
       <c r="C11" t="n">
-        <v>32.7106</v>
+        <v>32.5183</v>
       </c>
       <c r="D11" t="n">
-        <v>47.8116</v>
+        <v>47.966</v>
       </c>
       <c r="E11" t="n">
-        <v>60.8535</v>
+        <v>62.2988</v>
       </c>
       <c r="F11" t="n">
-        <v>44.7863</v>
+        <v>44.4479</v>
       </c>
       <c r="G11" t="n">
-        <v>56.7204</v>
+        <v>56.068</v>
       </c>
     </row>
     <row r="12">
@@ -8925,22 +8925,22 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>32.3001</v>
+        <v>32.3155</v>
       </c>
       <c r="C12" t="n">
-        <v>32.2906</v>
+        <v>32.446</v>
       </c>
       <c r="D12" t="n">
-        <v>47.6997</v>
+        <v>47.3601</v>
       </c>
       <c r="E12" t="n">
-        <v>61.9752</v>
+        <v>61.5176</v>
       </c>
       <c r="F12" t="n">
-        <v>44.5302</v>
+        <v>44.1683</v>
       </c>
       <c r="G12" t="n">
-        <v>55.711</v>
+        <v>56.857</v>
       </c>
     </row>
     <row r="13">
@@ -8948,22 +8948,22 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>32.514</v>
+        <v>32.4181</v>
       </c>
       <c r="C13" t="n">
-        <v>32.5213</v>
+        <v>32.6495</v>
       </c>
       <c r="D13" t="n">
-        <v>47.3794</v>
+        <v>48.5124</v>
       </c>
       <c r="E13" t="n">
-        <v>60.4537</v>
+        <v>60.3619</v>
       </c>
       <c r="F13" t="n">
-        <v>44.6813</v>
+        <v>44.3612</v>
       </c>
       <c r="G13" t="n">
-        <v>56.3449</v>
+        <v>56.9856</v>
       </c>
     </row>
     <row r="14">
@@ -8971,22 +8971,22 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>32.3152</v>
+        <v>32.7532</v>
       </c>
       <c r="C14" t="n">
-        <v>32.6752</v>
+        <v>32.5443</v>
       </c>
       <c r="D14" t="n">
-        <v>47.9793</v>
+        <v>48.4003</v>
       </c>
       <c r="E14" t="n">
-        <v>61.7011</v>
+        <v>61.2848</v>
       </c>
       <c r="F14" t="n">
-        <v>45.1701</v>
+        <v>45.2283</v>
       </c>
       <c r="G14" t="n">
-        <v>55.7806</v>
+        <v>56.8129</v>
       </c>
     </row>
     <row r="15">
@@ -8994,22 +8994,22 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>32.3329</v>
+        <v>32.6576</v>
       </c>
       <c r="C15" t="n">
-        <v>32.7193</v>
+        <v>32.7759</v>
       </c>
       <c r="D15" t="n">
-        <v>47.8815</v>
+        <v>48.3455</v>
       </c>
       <c r="E15" t="n">
-        <v>61.9771</v>
+        <v>61.0764</v>
       </c>
       <c r="F15" t="n">
-        <v>45.0903</v>
+        <v>44.994</v>
       </c>
       <c r="G15" t="n">
-        <v>56.2884</v>
+        <v>56.8526</v>
       </c>
     </row>
     <row r="16">
@@ -9017,22 +9017,22 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>32.4384</v>
+        <v>32.6885</v>
       </c>
       <c r="C16" t="n">
-        <v>32.1706</v>
+        <v>32.2894</v>
       </c>
       <c r="D16" t="n">
-        <v>47.9633</v>
+        <v>48.4205</v>
       </c>
       <c r="E16" t="n">
-        <v>61.7026</v>
+        <v>61.3967</v>
       </c>
       <c r="F16" t="n">
-        <v>45.3511</v>
+        <v>45.8096</v>
       </c>
       <c r="G16" t="n">
-        <v>55.7797</v>
+        <v>56.7175</v>
       </c>
     </row>
     <row r="17">
@@ -9040,22 +9040,22 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>32.4772</v>
+        <v>32.7194</v>
       </c>
       <c r="C17" t="n">
-        <v>32.4943</v>
+        <v>32.2293</v>
       </c>
       <c r="D17" t="n">
-        <v>48.7479</v>
+        <v>49.4927</v>
       </c>
       <c r="E17" t="n">
-        <v>61.803</v>
+        <v>62.1474</v>
       </c>
       <c r="F17" t="n">
-        <v>45.1836</v>
+        <v>45.3529</v>
       </c>
       <c r="G17" t="n">
-        <v>56.3244</v>
+        <v>55.8572</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Parallel workload.xlsx
+++ b/vs-x86/Parallel workload.xlsx
@@ -6580,22 +6580,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>9.426159999999999</v>
+        <v>9.42967</v>
       </c>
       <c r="C2" t="n">
-        <v>10.819</v>
+        <v>10.8087</v>
       </c>
       <c r="D2" t="n">
-        <v>13.1809</v>
+        <v>13.1892</v>
       </c>
       <c r="E2" t="n">
-        <v>15.3906</v>
+        <v>14.9775</v>
       </c>
       <c r="F2" t="n">
-        <v>12.4939</v>
+        <v>12.3636</v>
       </c>
       <c r="G2" t="n">
-        <v>14.1844</v>
+        <v>14.2211</v>
       </c>
     </row>
     <row r="3">
@@ -6603,22 +6603,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>17.7689</v>
+        <v>17.7946</v>
       </c>
       <c r="C3" t="n">
-        <v>17.0058</v>
+        <v>16.6314</v>
       </c>
       <c r="D3" t="n">
-        <v>22.0072</v>
+        <v>21.4017</v>
       </c>
       <c r="E3" t="n">
-        <v>24.0896</v>
+        <v>24.1793</v>
       </c>
       <c r="F3" t="n">
-        <v>20.0919</v>
+        <v>20.5466</v>
       </c>
       <c r="G3" t="n">
-        <v>23.5605</v>
+        <v>23.3348</v>
       </c>
     </row>
     <row r="4">
@@ -6626,22 +6626,22 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>25.328</v>
+        <v>25.0813</v>
       </c>
       <c r="C4" t="n">
-        <v>21.5582</v>
+        <v>21.7626</v>
       </c>
       <c r="D4" t="n">
-        <v>28.2481</v>
+        <v>28.5553</v>
       </c>
       <c r="E4" t="n">
-        <v>31.7015</v>
+        <v>30.9487</v>
       </c>
       <c r="F4" t="n">
-        <v>26.0944</v>
+        <v>25.7642</v>
       </c>
       <c r="G4" t="n">
-        <v>29.5812</v>
+        <v>28.5651</v>
       </c>
     </row>
     <row r="5">
@@ -6649,22 +6649,22 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>21.6213</v>
+        <v>21.7356</v>
       </c>
       <c r="C5" t="n">
-        <v>23.5162</v>
+        <v>23.393</v>
       </c>
       <c r="D5" t="n">
-        <v>30.8833</v>
+        <v>30.9345</v>
       </c>
       <c r="E5" t="n">
-        <v>35.2788</v>
+        <v>34.3831</v>
       </c>
       <c r="F5" t="n">
-        <v>32.2846</v>
+        <v>27.369</v>
       </c>
       <c r="G5" t="n">
-        <v>31.2795</v>
+        <v>32.0772</v>
       </c>
     </row>
     <row r="6">
@@ -6672,22 +6672,22 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>26.2251</v>
+        <v>26.4194</v>
       </c>
       <c r="C6" t="n">
-        <v>27.7354</v>
+        <v>27.8552</v>
       </c>
       <c r="D6" t="n">
-        <v>32.0709</v>
+        <v>32.1321</v>
       </c>
       <c r="E6" t="n">
-        <v>39.3912</v>
+        <v>39.5906</v>
       </c>
       <c r="F6" t="n">
-        <v>31.1597</v>
+        <v>31.027</v>
       </c>
       <c r="G6" t="n">
-        <v>33.0365</v>
+        <v>34.2627</v>
       </c>
     </row>
     <row r="7">
@@ -6695,22 +6695,22 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>32.4094</v>
+        <v>32.6548</v>
       </c>
       <c r="C7" t="n">
-        <v>32.5978</v>
+        <v>32.7932</v>
       </c>
       <c r="D7" t="n">
-        <v>39.1524</v>
+        <v>37.9193</v>
       </c>
       <c r="E7" t="n">
-        <v>42.9362</v>
+        <v>40.9826</v>
       </c>
       <c r="F7" t="n">
-        <v>31.9469</v>
+        <v>31.7525</v>
       </c>
       <c r="G7" t="n">
-        <v>38.7145</v>
+        <v>38.6169</v>
       </c>
     </row>
     <row r="8">
@@ -6718,22 +6718,22 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>23.0803</v>
+        <v>23.1334</v>
       </c>
       <c r="C8" t="n">
-        <v>31.6472</v>
+        <v>30.1201</v>
       </c>
       <c r="D8" t="n">
-        <v>35.9166</v>
+        <v>36.1288</v>
       </c>
       <c r="E8" t="n">
-        <v>40.8547</v>
+        <v>41.1436</v>
       </c>
       <c r="F8" t="n">
-        <v>32.0355</v>
+        <v>31.7909</v>
       </c>
       <c r="G8" t="n">
-        <v>41.0558</v>
+        <v>40.8214</v>
       </c>
     </row>
     <row r="9">
@@ -6741,22 +6741,22 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>25.7217</v>
+        <v>26.2202</v>
       </c>
       <c r="C9" t="n">
-        <v>31.1463</v>
+        <v>30.762</v>
       </c>
       <c r="D9" t="n">
-        <v>37.6882</v>
+        <v>42.5571</v>
       </c>
       <c r="E9" t="n">
-        <v>44.1941</v>
+        <v>46.1584</v>
       </c>
       <c r="F9" t="n">
-        <v>33.5627</v>
+        <v>34.0133</v>
       </c>
       <c r="G9" t="n">
-        <v>42.687</v>
+        <v>42.9227</v>
       </c>
     </row>
     <row r="10">
@@ -6764,22 +6764,22 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>28.6712</v>
+        <v>28.8951</v>
       </c>
       <c r="C10" t="n">
-        <v>31.5561</v>
+        <v>30.367</v>
       </c>
       <c r="D10" t="n">
-        <v>40.5856</v>
+        <v>42.2874</v>
       </c>
       <c r="E10" t="n">
-        <v>47.4226</v>
+        <v>46.6059</v>
       </c>
       <c r="F10" t="n">
-        <v>35.0712</v>
+        <v>36.0267</v>
       </c>
       <c r="G10" t="n">
-        <v>44.4635</v>
+        <v>44.198</v>
       </c>
     </row>
     <row r="11">
@@ -6787,22 +6787,22 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>26.3805</v>
+        <v>26.4617</v>
       </c>
       <c r="C11" t="n">
-        <v>30.5291</v>
+        <v>30.661</v>
       </c>
       <c r="D11" t="n">
-        <v>41.9841</v>
+        <v>43.4585</v>
       </c>
       <c r="E11" t="n">
-        <v>51.4957</v>
+        <v>50.2021</v>
       </c>
       <c r="F11" t="n">
-        <v>36.9194</v>
+        <v>35.5312</v>
       </c>
       <c r="G11" t="n">
-        <v>45.195</v>
+        <v>44.6382</v>
       </c>
     </row>
     <row r="12">
@@ -6810,22 +6810,22 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>29.4182</v>
+        <v>29.2286</v>
       </c>
       <c r="C12" t="n">
-        <v>30.8492</v>
+        <v>31.213</v>
       </c>
       <c r="D12" t="n">
-        <v>42.2124</v>
+        <v>45.1223</v>
       </c>
       <c r="E12" t="n">
-        <v>53.1795</v>
+        <v>52.1298</v>
       </c>
       <c r="F12" t="n">
-        <v>35.1978</v>
+        <v>37.7704</v>
       </c>
       <c r="G12" t="n">
-        <v>46.9114</v>
+        <v>44.9746</v>
       </c>
     </row>
     <row r="13">
@@ -6833,22 +6833,22 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>32.4955</v>
+        <v>32.5604</v>
       </c>
       <c r="C13" t="n">
-        <v>31.5321</v>
+        <v>31.4849</v>
       </c>
       <c r="D13" t="n">
-        <v>44.7387</v>
+        <v>44.2406</v>
       </c>
       <c r="E13" t="n">
-        <v>52.5778</v>
+        <v>53.7823</v>
       </c>
       <c r="F13" t="n">
-        <v>38.3852</v>
+        <v>38.6849</v>
       </c>
       <c r="G13" t="n">
-        <v>45.6823</v>
+        <v>48.4955</v>
       </c>
     </row>
     <row r="14">
@@ -6856,22 +6856,22 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>26.0484</v>
+        <v>26.411</v>
       </c>
       <c r="C14" t="n">
-        <v>30.2994</v>
+        <v>30.8548</v>
       </c>
       <c r="D14" t="n">
-        <v>44.7594</v>
+        <v>43.4194</v>
       </c>
       <c r="E14" t="n">
-        <v>51.1672</v>
+        <v>52.0307</v>
       </c>
       <c r="F14" t="n">
-        <v>39.5664</v>
+        <v>37.9129</v>
       </c>
       <c r="G14" t="n">
-        <v>46.6771</v>
+        <v>48.4753</v>
       </c>
     </row>
     <row r="15">
@@ -6879,22 +6879,22 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>28.0862</v>
+        <v>28.0216</v>
       </c>
       <c r="C15" t="n">
-        <v>30.8582</v>
+        <v>30.9429</v>
       </c>
       <c r="D15" t="n">
-        <v>43.3292</v>
+        <v>44.8967</v>
       </c>
       <c r="E15" t="n">
-        <v>51.5118</v>
+        <v>53.0852</v>
       </c>
       <c r="F15" t="n">
-        <v>37.5589</v>
+        <v>38.957</v>
       </c>
       <c r="G15" t="n">
-        <v>46.2456</v>
+        <v>46.7676</v>
       </c>
     </row>
     <row r="16">
@@ -6902,22 +6902,22 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>29.5708</v>
+        <v>29.8737</v>
       </c>
       <c r="C16" t="n">
-        <v>30.6282</v>
+        <v>31.0282</v>
       </c>
       <c r="D16" t="n">
-        <v>44.946</v>
+        <v>44.2254</v>
       </c>
       <c r="E16" t="n">
-        <v>51.9439</v>
+        <v>54.1778</v>
       </c>
       <c r="F16" t="n">
-        <v>38.8711</v>
+        <v>38.8255</v>
       </c>
       <c r="G16" t="n">
-        <v>47.5447</v>
+        <v>46.6032</v>
       </c>
     </row>
     <row r="17">
@@ -6925,22 +6925,22 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>28.438</v>
+        <v>28.6806</v>
       </c>
       <c r="C17" t="n">
-        <v>30.9457</v>
+        <v>30.7839</v>
       </c>
       <c r="D17" t="n">
-        <v>44.3636</v>
+        <v>45.2958</v>
       </c>
       <c r="E17" t="n">
-        <v>53.136</v>
+        <v>52.5487</v>
       </c>
       <c r="F17" t="n">
-        <v>39.7958</v>
+        <v>39.7034</v>
       </c>
       <c r="G17" t="n">
-        <v>50.4466</v>
+        <v>47.2233</v>
       </c>
     </row>
   </sheetData>
@@ -7003,22 +7003,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>9.371969999999999</v>
+        <v>9.38706</v>
       </c>
       <c r="C2" t="n">
-        <v>10.8601</v>
+        <v>10.8102</v>
       </c>
       <c r="D2" t="n">
-        <v>13.086</v>
+        <v>13.076</v>
       </c>
       <c r="E2" t="n">
-        <v>14.8201</v>
+        <v>14.7979</v>
       </c>
       <c r="F2" t="n">
-        <v>12.2717</v>
+        <v>12.2827</v>
       </c>
       <c r="G2" t="n">
-        <v>14.1143</v>
+        <v>14.1135</v>
       </c>
     </row>
     <row r="3">
@@ -7026,22 +7026,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>17.771</v>
+        <v>17.7012</v>
       </c>
       <c r="C3" t="n">
-        <v>17.3894</v>
+        <v>17.1288</v>
       </c>
       <c r="D3" t="n">
-        <v>21.3418</v>
+        <v>21.3279</v>
       </c>
       <c r="E3" t="n">
-        <v>23.8166</v>
+        <v>23.9792</v>
       </c>
       <c r="F3" t="n">
-        <v>20.6653</v>
+        <v>20.0109</v>
       </c>
       <c r="G3" t="n">
-        <v>23.4102</v>
+        <v>22.7392</v>
       </c>
     </row>
     <row r="4">
@@ -7049,22 +7049,22 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>24</v>
+        <v>24.7155</v>
       </c>
       <c r="C4" t="n">
-        <v>20.7875</v>
+        <v>21.9868</v>
       </c>
       <c r="D4" t="n">
-        <v>26.6661</v>
+        <v>26.6067</v>
       </c>
       <c r="E4" t="n">
-        <v>30.0533</v>
+        <v>29.9982</v>
       </c>
       <c r="F4" t="n">
-        <v>26.2393</v>
+        <v>26.255</v>
       </c>
       <c r="G4" t="n">
-        <v>28.31</v>
+        <v>27.6862</v>
       </c>
     </row>
     <row r="5">
@@ -7072,22 +7072,22 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>21.3833</v>
+        <v>21.7991</v>
       </c>
       <c r="C5" t="n">
-        <v>23.6534</v>
+        <v>23.481</v>
       </c>
       <c r="D5" t="n">
-        <v>28.9914</v>
+        <v>28.8399</v>
       </c>
       <c r="E5" t="n">
-        <v>35.6176</v>
+        <v>34.9183</v>
       </c>
       <c r="F5" t="n">
-        <v>26.0899</v>
+        <v>26.7685</v>
       </c>
       <c r="G5" t="n">
-        <v>30.9969</v>
+        <v>31.1857</v>
       </c>
     </row>
     <row r="6">
@@ -7095,22 +7095,22 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>26.3604</v>
+        <v>26.3144</v>
       </c>
       <c r="C6" t="n">
-        <v>27.6741</v>
+        <v>27.9065</v>
       </c>
       <c r="D6" t="n">
-        <v>34.6823</v>
+        <v>35.1145</v>
       </c>
       <c r="E6" t="n">
-        <v>35.1258</v>
+        <v>39.2885</v>
       </c>
       <c r="F6" t="n">
-        <v>30.1763</v>
+        <v>29.7062</v>
       </c>
       <c r="G6" t="n">
-        <v>35.1957</v>
+        <v>34.9696</v>
       </c>
     </row>
     <row r="7">
@@ -7118,22 +7118,22 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>32.6127</v>
+        <v>32.6444</v>
       </c>
       <c r="C7" t="n">
-        <v>32.7632</v>
+        <v>32.8103</v>
       </c>
       <c r="D7" t="n">
-        <v>35.0781</v>
+        <v>35.1317</v>
       </c>
       <c r="E7" t="n">
-        <v>44.9659</v>
+        <v>45.1565</v>
       </c>
       <c r="F7" t="n">
-        <v>34.272</v>
+        <v>34.3643</v>
       </c>
       <c r="G7" t="n">
-        <v>38.2279</v>
+        <v>37.9594</v>
       </c>
     </row>
     <row r="8">
@@ -7141,22 +7141,22 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>22.7809</v>
+        <v>22.8731</v>
       </c>
       <c r="C8" t="n">
-        <v>29.6064</v>
+        <v>29.3654</v>
       </c>
       <c r="D8" t="n">
-        <v>35.2449</v>
+        <v>34.1043</v>
       </c>
       <c r="E8" t="n">
-        <v>42.0516</v>
+        <v>41.6015</v>
       </c>
       <c r="F8" t="n">
-        <v>34.901</v>
+        <v>33.8039</v>
       </c>
       <c r="G8" t="n">
-        <v>36.9831</v>
+        <v>37.3117</v>
       </c>
     </row>
     <row r="9">
@@ -7164,22 +7164,22 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>26.1075</v>
+        <v>26.0298</v>
       </c>
       <c r="C9" t="n">
-        <v>29.491</v>
+        <v>29.7572</v>
       </c>
       <c r="D9" t="n">
-        <v>36.2781</v>
+        <v>35.8964</v>
       </c>
       <c r="E9" t="n">
-        <v>44.5344</v>
+        <v>45.8352</v>
       </c>
       <c r="F9" t="n">
-        <v>34.6966</v>
+        <v>35.4171</v>
       </c>
       <c r="G9" t="n">
-        <v>38.2999</v>
+        <v>39.0254</v>
       </c>
     </row>
     <row r="10">
@@ -7187,22 +7187,22 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>28.4003</v>
+        <v>28.8676</v>
       </c>
       <c r="C10" t="n">
-        <v>30.0745</v>
+        <v>30.5453</v>
       </c>
       <c r="D10" t="n">
-        <v>39.9783</v>
+        <v>37.5991</v>
       </c>
       <c r="E10" t="n">
-        <v>48.897</v>
+        <v>47.0647</v>
       </c>
       <c r="F10" t="n">
-        <v>36.2925</v>
+        <v>36.5234</v>
       </c>
       <c r="G10" t="n">
-        <v>40.8668</v>
+        <v>40.5669</v>
       </c>
     </row>
     <row r="11">
@@ -7210,22 +7210,22 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>26.4466</v>
+        <v>26.444</v>
       </c>
       <c r="C11" t="n">
-        <v>30.5235</v>
+        <v>30.3281</v>
       </c>
       <c r="D11" t="n">
-        <v>40.0069</v>
+        <v>39.498</v>
       </c>
       <c r="E11" t="n">
-        <v>51.2151</v>
+        <v>52.1669</v>
       </c>
       <c r="F11" t="n">
-        <v>36.945</v>
+        <v>36.1912</v>
       </c>
       <c r="G11" t="n">
-        <v>42.8536</v>
+        <v>42.4654</v>
       </c>
     </row>
     <row r="12">
@@ -7233,22 +7233,22 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>29.2498</v>
+        <v>29.2734</v>
       </c>
       <c r="C12" t="n">
-        <v>30.7101</v>
+        <v>30.6829</v>
       </c>
       <c r="D12" t="n">
-        <v>42.5119</v>
+        <v>42.4229</v>
       </c>
       <c r="E12" t="n">
-        <v>52.1738</v>
+        <v>52.8162</v>
       </c>
       <c r="F12" t="n">
-        <v>36.8876</v>
+        <v>38.1466</v>
       </c>
       <c r="G12" t="n">
-        <v>41.3799</v>
+        <v>43.704</v>
       </c>
     </row>
     <row r="13">
@@ -7256,22 +7256,22 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>32.6122</v>
+        <v>32.6903</v>
       </c>
       <c r="C13" t="n">
-        <v>31.2455</v>
+        <v>31.474</v>
       </c>
       <c r="D13" t="n">
-        <v>43.1606</v>
+        <v>44.0992</v>
       </c>
       <c r="E13" t="n">
-        <v>52.2293</v>
+        <v>53.617</v>
       </c>
       <c r="F13" t="n">
-        <v>38.6772</v>
+        <v>38.5084</v>
       </c>
       <c r="G13" t="n">
-        <v>43.0276</v>
+        <v>43.4159</v>
       </c>
     </row>
     <row r="14">
@@ -7279,22 +7279,22 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>26.0613</v>
+        <v>26.1475</v>
       </c>
       <c r="C14" t="n">
-        <v>31.659</v>
+        <v>31.451</v>
       </c>
       <c r="D14" t="n">
-        <v>42.6182</v>
+        <v>43.9526</v>
       </c>
       <c r="E14" t="n">
-        <v>52.9645</v>
+        <v>52.1541</v>
       </c>
       <c r="F14" t="n">
-        <v>37.6043</v>
+        <v>38.5544</v>
       </c>
       <c r="G14" t="n">
-        <v>43.9367</v>
+        <v>43.2529</v>
       </c>
     </row>
     <row r="15">
@@ -7302,22 +7302,22 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>28.2885</v>
+        <v>28.0801</v>
       </c>
       <c r="C15" t="n">
-        <v>31.9189</v>
+        <v>31.3785</v>
       </c>
       <c r="D15" t="n">
-        <v>42.6232</v>
+        <v>43.2892</v>
       </c>
       <c r="E15" t="n">
-        <v>52.9834</v>
+        <v>54.5752</v>
       </c>
       <c r="F15" t="n">
-        <v>37.7392</v>
+        <v>38.7726</v>
       </c>
       <c r="G15" t="n">
-        <v>44.5334</v>
+        <v>44.794</v>
       </c>
     </row>
     <row r="16">
@@ -7325,22 +7325,22 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>29.845</v>
+        <v>29.6416</v>
       </c>
       <c r="C16" t="n">
-        <v>31.5647</v>
+        <v>31.285</v>
       </c>
       <c r="D16" t="n">
-        <v>44.675</v>
+        <v>45.4481</v>
       </c>
       <c r="E16" t="n">
-        <v>54.2401</v>
+        <v>53.1334</v>
       </c>
       <c r="F16" t="n">
-        <v>39.2921</v>
+        <v>38.9436</v>
       </c>
       <c r="G16" t="n">
-        <v>44.1213</v>
+        <v>43.7678</v>
       </c>
     </row>
     <row r="17">
@@ -7348,22 +7348,22 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>28.5179</v>
+        <v>28.4387</v>
       </c>
       <c r="C17" t="n">
-        <v>31.8089</v>
+        <v>31.7958</v>
       </c>
       <c r="D17" t="n">
-        <v>43.8951</v>
+        <v>44.9844</v>
       </c>
       <c r="E17" t="n">
-        <v>53.5395</v>
+        <v>52.9333</v>
       </c>
       <c r="F17" t="n">
-        <v>39.6659</v>
+        <v>39.36</v>
       </c>
       <c r="G17" t="n">
-        <v>48.9331</v>
+        <v>44.4613</v>
       </c>
     </row>
   </sheetData>
@@ -7426,22 +7426,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>10.9366</v>
+        <v>10.9458</v>
       </c>
       <c r="C2" t="n">
-        <v>11.7395</v>
+        <v>11.7392</v>
       </c>
       <c r="D2" t="n">
-        <v>13.9314</v>
+        <v>13.935</v>
       </c>
       <c r="E2" t="n">
-        <v>15.3597</v>
+        <v>15.3479</v>
       </c>
       <c r="F2" t="n">
-        <v>13.406</v>
+        <v>13.4031</v>
       </c>
       <c r="G2" t="n">
-        <v>14.9303</v>
+        <v>15.1156</v>
       </c>
     </row>
     <row r="3">
@@ -7449,22 +7449,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>19.4465</v>
+        <v>19.5079</v>
       </c>
       <c r="C3" t="n">
-        <v>19.4137</v>
+        <v>19.4353</v>
       </c>
       <c r="D3" t="n">
-        <v>22.9532</v>
+        <v>23.0097</v>
       </c>
       <c r="E3" t="n">
-        <v>25.6343</v>
+        <v>25.8293</v>
       </c>
       <c r="F3" t="n">
-        <v>22.2624</v>
+        <v>22.2403</v>
       </c>
       <c r="G3" t="n">
-        <v>24.4559</v>
+        <v>24.5771</v>
       </c>
     </row>
     <row r="4">
@@ -7472,22 +7472,22 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>27.025</v>
+        <v>27.2072</v>
       </c>
       <c r="C4" t="n">
-        <v>25.4595</v>
+        <v>23.6254</v>
       </c>
       <c r="D4" t="n">
-        <v>31.5616</v>
+        <v>31.3408</v>
       </c>
       <c r="E4" t="n">
-        <v>33.9322</v>
+        <v>32.5926</v>
       </c>
       <c r="F4" t="n">
-        <v>29.3657</v>
+        <v>29.5967</v>
       </c>
       <c r="G4" t="n">
-        <v>31.4484</v>
+        <v>32.269</v>
       </c>
     </row>
     <row r="5">
@@ -7495,22 +7495,22 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>24.3704</v>
+        <v>25.0899</v>
       </c>
       <c r="C5" t="n">
-        <v>24.9495</v>
+        <v>25.263</v>
       </c>
       <c r="D5" t="n">
-        <v>31.4962</v>
+        <v>31.5091</v>
       </c>
       <c r="E5" t="n">
-        <v>35.316</v>
+        <v>34.935</v>
       </c>
       <c r="F5" t="n">
-        <v>31.2349</v>
+        <v>30.2449</v>
       </c>
       <c r="G5" t="n">
-        <v>35.5343</v>
+        <v>34.5751</v>
       </c>
     </row>
     <row r="6">
@@ -7518,22 +7518,22 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>29.3208</v>
+        <v>29.2344</v>
       </c>
       <c r="C6" t="n">
-        <v>28.7312</v>
+        <v>29.0208</v>
       </c>
       <c r="D6" t="n">
-        <v>34.1517</v>
+        <v>34.8977</v>
       </c>
       <c r="E6" t="n">
-        <v>38.0584</v>
+        <v>36.0162</v>
       </c>
       <c r="F6" t="n">
-        <v>33.0004</v>
+        <v>32.2734</v>
       </c>
       <c r="G6" t="n">
-        <v>36.2778</v>
+        <v>36.4174</v>
       </c>
     </row>
     <row r="7">
@@ -7541,22 +7541,22 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>35.4431</v>
+        <v>35.5145</v>
       </c>
       <c r="C7" t="n">
-        <v>33.8508</v>
+        <v>33.8571</v>
       </c>
       <c r="D7" t="n">
-        <v>35.0536</v>
+        <v>34.9999</v>
       </c>
       <c r="E7" t="n">
-        <v>52.2559</v>
+        <v>45.1487</v>
       </c>
       <c r="F7" t="n">
-        <v>36.2814</v>
+        <v>36.1114</v>
       </c>
       <c r="G7" t="n">
-        <v>43.9175</v>
+        <v>42.922</v>
       </c>
     </row>
     <row r="8">
@@ -7564,22 +7564,22 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>32.1857</v>
+        <v>31.6298</v>
       </c>
       <c r="C8" t="n">
-        <v>29.5803</v>
+        <v>29.9426</v>
       </c>
       <c r="D8" t="n">
-        <v>35.1858</v>
+        <v>35.3583</v>
       </c>
       <c r="E8" t="n">
-        <v>47.7431</v>
+        <v>47.6997</v>
       </c>
       <c r="F8" t="n">
-        <v>35.6325</v>
+        <v>34.7429</v>
       </c>
       <c r="G8" t="n">
-        <v>45.9202</v>
+        <v>47.1496</v>
       </c>
     </row>
     <row r="9">
@@ -7587,22 +7587,22 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>31.1744</v>
+        <v>31.366</v>
       </c>
       <c r="C9" t="n">
-        <v>30.3195</v>
+        <v>30.6716</v>
       </c>
       <c r="D9" t="n">
-        <v>39.1572</v>
+        <v>41.0396</v>
       </c>
       <c r="E9" t="n">
-        <v>47.9559</v>
+        <v>51.2268</v>
       </c>
       <c r="F9" t="n">
-        <v>38.0151</v>
+        <v>37.7204</v>
       </c>
       <c r="G9" t="n">
-        <v>46.4966</v>
+        <v>46.6232</v>
       </c>
     </row>
     <row r="10">
@@ -7610,22 +7610,22 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>31.5645</v>
+        <v>31.5243</v>
       </c>
       <c r="C10" t="n">
-        <v>30.496</v>
+        <v>30.1931</v>
       </c>
       <c r="D10" t="n">
-        <v>43.4596</v>
+        <v>42.0223</v>
       </c>
       <c r="E10" t="n">
-        <v>53.5744</v>
+        <v>49.9781</v>
       </c>
       <c r="F10" t="n">
-        <v>40.4157</v>
+        <v>41.2095</v>
       </c>
       <c r="G10" t="n">
-        <v>47.7459</v>
+        <v>48.735</v>
       </c>
     </row>
     <row r="11">
@@ -7633,22 +7633,22 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>32.5657</v>
+        <v>32.5251</v>
       </c>
       <c r="C11" t="n">
-        <v>31.017</v>
+        <v>30.6163</v>
       </c>
       <c r="D11" t="n">
-        <v>43.7059</v>
+        <v>42.8446</v>
       </c>
       <c r="E11" t="n">
-        <v>51.5369</v>
+        <v>54.248</v>
       </c>
       <c r="F11" t="n">
-        <v>40.6265</v>
+        <v>41.0562</v>
       </c>
       <c r="G11" t="n">
-        <v>51.3284</v>
+        <v>50.8753</v>
       </c>
     </row>
     <row r="12">
@@ -7656,22 +7656,22 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>32.4432</v>
+        <v>33.1329</v>
       </c>
       <c r="C12" t="n">
-        <v>31.3022</v>
+        <v>30.5684</v>
       </c>
       <c r="D12" t="n">
-        <v>43.3547</v>
+        <v>44.8783</v>
       </c>
       <c r="E12" t="n">
-        <v>51.1376</v>
+        <v>55.1745</v>
       </c>
       <c r="F12" t="n">
-        <v>41.1918</v>
+        <v>40.8559</v>
       </c>
       <c r="G12" t="n">
-        <v>47.3897</v>
+        <v>50.6669</v>
       </c>
     </row>
     <row r="13">
@@ -7679,22 +7679,22 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>32.6239</v>
+        <v>33.3831</v>
       </c>
       <c r="C13" t="n">
-        <v>31.6998</v>
+        <v>31.2547</v>
       </c>
       <c r="D13" t="n">
-        <v>44.883</v>
+        <v>44.3157</v>
       </c>
       <c r="E13" t="n">
-        <v>53.8706</v>
+        <v>53.387</v>
       </c>
       <c r="F13" t="n">
-        <v>41.6878</v>
+        <v>41.1814</v>
       </c>
       <c r="G13" t="n">
-        <v>49.6814</v>
+        <v>50.3318</v>
       </c>
     </row>
     <row r="14">
@@ -7702,22 +7702,22 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>32.6952</v>
+        <v>32.771</v>
       </c>
       <c r="C14" t="n">
-        <v>31.2635</v>
+        <v>31.5732</v>
       </c>
       <c r="D14" t="n">
-        <v>44.9195</v>
+        <v>43.4279</v>
       </c>
       <c r="E14" t="n">
-        <v>53.6457</v>
+        <v>52.3214</v>
       </c>
       <c r="F14" t="n">
-        <v>41.3228</v>
+        <v>41.5149</v>
       </c>
       <c r="G14" t="n">
-        <v>49.9859</v>
+        <v>51.202</v>
       </c>
     </row>
     <row r="15">
@@ -7725,22 +7725,22 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>32.726</v>
+        <v>33.1975</v>
       </c>
       <c r="C15" t="n">
-        <v>31.5054</v>
+        <v>31.2732</v>
       </c>
       <c r="D15" t="n">
-        <v>44.0423</v>
+        <v>43.7464</v>
       </c>
       <c r="E15" t="n">
-        <v>52.8216</v>
+        <v>52.5848</v>
       </c>
       <c r="F15" t="n">
-        <v>42.0081</v>
+        <v>40.5644</v>
       </c>
       <c r="G15" t="n">
-        <v>48.6467</v>
+        <v>50.1262</v>
       </c>
     </row>
     <row r="16">
@@ -7748,22 +7748,22 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>33.5437</v>
+        <v>33.5524</v>
       </c>
       <c r="C16" t="n">
-        <v>32.0905</v>
+        <v>31.6782</v>
       </c>
       <c r="D16" t="n">
-        <v>44.4865</v>
+        <v>45.2836</v>
       </c>
       <c r="E16" t="n">
-        <v>52.5249</v>
+        <v>52.487</v>
       </c>
       <c r="F16" t="n">
-        <v>41.6455</v>
+        <v>40.8442</v>
       </c>
       <c r="G16" t="n">
-        <v>49.5435</v>
+        <v>47.7575</v>
       </c>
     </row>
     <row r="17">
@@ -7771,22 +7771,22 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>33.4928</v>
+        <v>33.9022</v>
       </c>
       <c r="C17" t="n">
-        <v>32.0295</v>
+        <v>31.8735</v>
       </c>
       <c r="D17" t="n">
-        <v>45.4337</v>
+        <v>45.5574</v>
       </c>
       <c r="E17" t="n">
-        <v>52.6557</v>
+        <v>53.63</v>
       </c>
       <c r="F17" t="n">
-        <v>41.2234</v>
+        <v>41.7745</v>
       </c>
       <c r="G17" t="n">
-        <v>49.2144</v>
+        <v>51.5623</v>
       </c>
     </row>
   </sheetData>
@@ -7849,22 +7849,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4.95252</v>
+        <v>4.92773</v>
       </c>
       <c r="C2" t="n">
-        <v>9.08559</v>
+        <v>9.00825</v>
       </c>
       <c r="D2" t="n">
-        <v>10.8873</v>
+        <v>10.8814</v>
       </c>
       <c r="E2" t="n">
-        <v>13.9867</v>
+        <v>14.0297</v>
       </c>
       <c r="F2" t="n">
-        <v>8.6638</v>
+        <v>8.6229</v>
       </c>
       <c r="G2" t="n">
-        <v>11.5349</v>
+        <v>11.5167</v>
       </c>
     </row>
     <row r="3">
@@ -7872,22 +7872,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.80148</v>
+        <v>9.753159999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>15.8275</v>
+        <v>15.8083</v>
       </c>
       <c r="D3" t="n">
-        <v>20.8263</v>
+        <v>20.8342</v>
       </c>
       <c r="E3" t="n">
-        <v>26.6851</v>
+        <v>26.7487</v>
       </c>
       <c r="F3" t="n">
-        <v>16.4322</v>
+        <v>16.3553</v>
       </c>
       <c r="G3" t="n">
-        <v>21.6927</v>
+        <v>21.5322</v>
       </c>
     </row>
     <row r="4">
@@ -7895,22 +7895,22 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>14.359</v>
+        <v>14.2732</v>
       </c>
       <c r="C4" t="n">
-        <v>22.1034</v>
+        <v>21.8683</v>
       </c>
       <c r="D4" t="n">
-        <v>29.6428</v>
+        <v>29.8079</v>
       </c>
       <c r="E4" t="n">
-        <v>38.1638</v>
+        <v>38.0718</v>
       </c>
       <c r="F4" t="n">
-        <v>23.3902</v>
+        <v>23.3761</v>
       </c>
       <c r="G4" t="n">
-        <v>30.7022</v>
+        <v>30.8265</v>
       </c>
     </row>
     <row r="5">
@@ -7918,22 +7918,22 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>17.3529</v>
+        <v>17.4699</v>
       </c>
       <c r="C5" t="n">
-        <v>23.0336</v>
+        <v>23.0176</v>
       </c>
       <c r="D5" t="n">
-        <v>33.8532</v>
+        <v>33.7667</v>
       </c>
       <c r="E5" t="n">
-        <v>44.0664</v>
+        <v>44.3625</v>
       </c>
       <c r="F5" t="n">
-        <v>27.1463</v>
+        <v>27.3705</v>
       </c>
       <c r="G5" t="n">
-        <v>35.6641</v>
+        <v>35.735</v>
       </c>
     </row>
     <row r="6">
@@ -7941,22 +7941,22 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>21.383</v>
+        <v>21.379</v>
       </c>
       <c r="C6" t="n">
-        <v>26.2803</v>
+        <v>26.5061</v>
       </c>
       <c r="D6" t="n">
-        <v>40.9494</v>
+        <v>41.2125</v>
       </c>
       <c r="E6" t="n">
-        <v>52.0359</v>
+        <v>52.3144</v>
       </c>
       <c r="F6" t="n">
-        <v>32.9032</v>
+        <v>32.8719</v>
       </c>
       <c r="G6" t="n">
-        <v>42.2643</v>
+        <v>42.1245</v>
       </c>
     </row>
     <row r="7">
@@ -7964,22 +7964,22 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>25.9045</v>
+        <v>25.8755</v>
       </c>
       <c r="C7" t="n">
-        <v>31.3022</v>
+        <v>31.205</v>
       </c>
       <c r="D7" t="n">
-        <v>47.8117</v>
+        <v>47.8263</v>
       </c>
       <c r="E7" t="n">
-        <v>62.2829</v>
+        <v>62.2475</v>
       </c>
       <c r="F7" t="n">
-        <v>38.2846</v>
+        <v>38.1987</v>
       </c>
       <c r="G7" t="n">
-        <v>48.6591</v>
+        <v>48.7466</v>
       </c>
     </row>
     <row r="8">
@@ -7987,22 +7987,22 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>22.2604</v>
+        <v>22.8411</v>
       </c>
       <c r="C8" t="n">
-        <v>29.7095</v>
+        <v>29.5735</v>
       </c>
       <c r="D8" t="n">
-        <v>44.3885</v>
+        <v>43.5522</v>
       </c>
       <c r="E8" t="n">
-        <v>53.8804</v>
+        <v>54.7522</v>
       </c>
       <c r="F8" t="n">
-        <v>35.346</v>
+        <v>33.9188</v>
       </c>
       <c r="G8" t="n">
-        <v>41.2211</v>
+        <v>42.8221</v>
       </c>
     </row>
     <row r="9">
@@ -8010,22 +8010,22 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>23.953</v>
+        <v>23.3427</v>
       </c>
       <c r="C9" t="n">
-        <v>30.0469</v>
+        <v>29.7771</v>
       </c>
       <c r="D9" t="n">
-        <v>43.6287</v>
+        <v>41.9329</v>
       </c>
       <c r="E9" t="n">
-        <v>56.2675</v>
+        <v>52.6351</v>
       </c>
       <c r="F9" t="n">
-        <v>34.1878</v>
+        <v>35.0479</v>
       </c>
       <c r="G9" t="n">
-        <v>44.9894</v>
+        <v>43.2145</v>
       </c>
     </row>
     <row r="10">
@@ -8033,22 +8033,22 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>24.0924</v>
+        <v>23.8086</v>
       </c>
       <c r="C10" t="n">
-        <v>30.0961</v>
+        <v>30.1743</v>
       </c>
       <c r="D10" t="n">
-        <v>43.1896</v>
+        <v>41.8749</v>
       </c>
       <c r="E10" t="n">
-        <v>55.7363</v>
+        <v>56.2</v>
       </c>
       <c r="F10" t="n">
-        <v>34.2189</v>
+        <v>33.8096</v>
       </c>
       <c r="G10" t="n">
-        <v>44.8264</v>
+        <v>45.2861</v>
       </c>
     </row>
     <row r="11">
@@ -8056,22 +8056,22 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>24.2591</v>
+        <v>23.8959</v>
       </c>
       <c r="C11" t="n">
-        <v>29.9163</v>
+        <v>29.8044</v>
       </c>
       <c r="D11" t="n">
-        <v>43.8751</v>
+        <v>43.5866</v>
       </c>
       <c r="E11" t="n">
-        <v>57.3258</v>
+        <v>56.0082</v>
       </c>
       <c r="F11" t="n">
-        <v>36.1282</v>
+        <v>34.2895</v>
       </c>
       <c r="G11" t="n">
-        <v>44.9135</v>
+        <v>44.8734</v>
       </c>
     </row>
     <row r="12">
@@ -8079,22 +8079,22 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>24.3443</v>
+        <v>24.1147</v>
       </c>
       <c r="C12" t="n">
-        <v>30.0513</v>
+        <v>29.9371</v>
       </c>
       <c r="D12" t="n">
-        <v>44.0207</v>
+        <v>44.9408</v>
       </c>
       <c r="E12" t="n">
-        <v>55.9509</v>
+        <v>56.4931</v>
       </c>
       <c r="F12" t="n">
-        <v>33.6486</v>
+        <v>36.1106</v>
       </c>
       <c r="G12" t="n">
-        <v>45.1014</v>
+        <v>44.1845</v>
       </c>
     </row>
     <row r="13">
@@ -8102,22 +8102,22 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>24.4532</v>
+        <v>24.4899</v>
       </c>
       <c r="C13" t="n">
-        <v>30.4155</v>
+        <v>30.2457</v>
       </c>
       <c r="D13" t="n">
-        <v>44.319</v>
+        <v>45.7026</v>
       </c>
       <c r="E13" t="n">
-        <v>58.8975</v>
+        <v>57.7886</v>
       </c>
       <c r="F13" t="n">
-        <v>36.3913</v>
+        <v>36.1264</v>
       </c>
       <c r="G13" t="n">
-        <v>45.7732</v>
+        <v>45.2824</v>
       </c>
     </row>
     <row r="14">
@@ -8125,22 +8125,22 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>24.1605</v>
+        <v>24.0054</v>
       </c>
       <c r="C14" t="n">
-        <v>30.5329</v>
+        <v>30.2306</v>
       </c>
       <c r="D14" t="n">
-        <v>44.951</v>
+        <v>44.4511</v>
       </c>
       <c r="E14" t="n">
-        <v>59.6073</v>
+        <v>59.0032</v>
       </c>
       <c r="F14" t="n">
-        <v>36.2377</v>
+        <v>35.6857</v>
       </c>
       <c r="G14" t="n">
-        <v>45.8287</v>
+        <v>47.0275</v>
       </c>
     </row>
     <row r="15">
@@ -8148,22 +8148,22 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>24.3149</v>
+        <v>24.1215</v>
       </c>
       <c r="C15" t="n">
-        <v>30.6277</v>
+        <v>30.3221</v>
       </c>
       <c r="D15" t="n">
-        <v>45.8175</v>
+        <v>45.9713</v>
       </c>
       <c r="E15" t="n">
-        <v>58.3485</v>
+        <v>58.5716</v>
       </c>
       <c r="F15" t="n">
-        <v>35.2669</v>
+        <v>36.3719</v>
       </c>
       <c r="G15" t="n">
-        <v>45.5096</v>
+        <v>47.1757</v>
       </c>
     </row>
     <row r="16">
@@ -8171,22 +8171,22 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>24.082</v>
+        <v>23.9901</v>
       </c>
       <c r="C16" t="n">
-        <v>30.4487</v>
+        <v>30.2998</v>
       </c>
       <c r="D16" t="n">
-        <v>45.5449</v>
+        <v>46.2573</v>
       </c>
       <c r="E16" t="n">
-        <v>58.8967</v>
+        <v>57.9378</v>
       </c>
       <c r="F16" t="n">
-        <v>36.4667</v>
+        <v>35.9607</v>
       </c>
       <c r="G16" t="n">
-        <v>46.3967</v>
+        <v>45.9502</v>
       </c>
     </row>
     <row r="17">
@@ -8194,22 +8194,22 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>24.3038</v>
+        <v>24.3619</v>
       </c>
       <c r="C17" t="n">
-        <v>30.3561</v>
+        <v>30.6448</v>
       </c>
       <c r="D17" t="n">
-        <v>45.8407</v>
+        <v>46.5058</v>
       </c>
       <c r="E17" t="n">
-        <v>58.8881</v>
+        <v>57.5496</v>
       </c>
       <c r="F17" t="n">
-        <v>36.5572</v>
+        <v>36.6554</v>
       </c>
       <c r="G17" t="n">
-        <v>47.2387</v>
+        <v>47.2784</v>
       </c>
     </row>
   </sheetData>
@@ -8272,22 +8272,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>5.0492</v>
+        <v>5.01863</v>
       </c>
       <c r="C2" t="n">
-        <v>9.100949999999999</v>
+        <v>8.99554</v>
       </c>
       <c r="D2" t="n">
-        <v>10.9035</v>
+        <v>10.8712</v>
       </c>
       <c r="E2" t="n">
-        <v>14.0585</v>
+        <v>14.0314</v>
       </c>
       <c r="F2" t="n">
-        <v>8.602639999999999</v>
+        <v>8.56575</v>
       </c>
       <c r="G2" t="n">
-        <v>11.5773</v>
+        <v>11.5102</v>
       </c>
     </row>
     <row r="3">
@@ -8295,22 +8295,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.99567</v>
+        <v>9.95318</v>
       </c>
       <c r="C3" t="n">
-        <v>15.9734</v>
+        <v>15.8966</v>
       </c>
       <c r="D3" t="n">
-        <v>20.8279</v>
+        <v>20.7338</v>
       </c>
       <c r="E3" t="n">
-        <v>26.572</v>
+        <v>26.6472</v>
       </c>
       <c r="F3" t="n">
-        <v>16.4189</v>
+        <v>16.3646</v>
       </c>
       <c r="G3" t="n">
-        <v>21.6831</v>
+        <v>21.6891</v>
       </c>
     </row>
     <row r="4">
@@ -8318,22 +8318,22 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>14.6642</v>
+        <v>14.5839</v>
       </c>
       <c r="C4" t="n">
-        <v>22.1062</v>
+        <v>21.9439</v>
       </c>
       <c r="D4" t="n">
-        <v>30.2411</v>
+        <v>29.9354</v>
       </c>
       <c r="E4" t="n">
-        <v>38.3737</v>
+        <v>34.8372</v>
       </c>
       <c r="F4" t="n">
-        <v>23.4565</v>
+        <v>22.5506</v>
       </c>
       <c r="G4" t="n">
-        <v>30.7802</v>
+        <v>30.5825</v>
       </c>
     </row>
     <row r="5">
@@ -8341,22 +8341,22 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>17.4852</v>
+        <v>17.4871</v>
       </c>
       <c r="C5" t="n">
-        <v>23.0085</v>
+        <v>22.8856</v>
       </c>
       <c r="D5" t="n">
-        <v>33.5998</v>
+        <v>32.6601</v>
       </c>
       <c r="E5" t="n">
-        <v>43.8794</v>
+        <v>43.8109</v>
       </c>
       <c r="F5" t="n">
-        <v>27.1154</v>
+        <v>26.6957</v>
       </c>
       <c r="G5" t="n">
-        <v>35.9366</v>
+        <v>35.9093</v>
       </c>
     </row>
     <row r="6">
@@ -8364,22 +8364,22 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>21.6651</v>
+        <v>21.5896</v>
       </c>
       <c r="C6" t="n">
-        <v>26.3487</v>
+        <v>26.3577</v>
       </c>
       <c r="D6" t="n">
-        <v>39.6798</v>
+        <v>40.0037</v>
       </c>
       <c r="E6" t="n">
-        <v>51.7746</v>
+        <v>52.0235</v>
       </c>
       <c r="F6" t="n">
-        <v>33.0233</v>
+        <v>32.9933</v>
       </c>
       <c r="G6" t="n">
-        <v>42.2815</v>
+        <v>42.5869</v>
       </c>
     </row>
     <row r="7">
@@ -8387,22 +8387,22 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>26.2241</v>
+        <v>26.2012</v>
       </c>
       <c r="C7" t="n">
-        <v>31.3503</v>
+        <v>31.2791</v>
       </c>
       <c r="D7" t="n">
-        <v>47.4015</v>
+        <v>47.5531</v>
       </c>
       <c r="E7" t="n">
-        <v>59.9628</v>
+        <v>60.8138</v>
       </c>
       <c r="F7" t="n">
-        <v>38.0013</v>
+        <v>38.0395</v>
       </c>
       <c r="G7" t="n">
-        <v>49.727</v>
+        <v>49.0705</v>
       </c>
     </row>
     <row r="8">
@@ -8410,22 +8410,22 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>23.1167</v>
+        <v>22.3611</v>
       </c>
       <c r="C8" t="n">
-        <v>29.872</v>
+        <v>29.6204</v>
       </c>
       <c r="D8" t="n">
-        <v>42.511</v>
+        <v>42.8071</v>
       </c>
       <c r="E8" t="n">
-        <v>53.1566</v>
+        <v>52.8884</v>
       </c>
       <c r="F8" t="n">
-        <v>34.5368</v>
+        <v>34.0107</v>
       </c>
       <c r="G8" t="n">
-        <v>43.7216</v>
+        <v>44.0374</v>
       </c>
     </row>
     <row r="9">
@@ -8433,22 +8433,22 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>23.3465</v>
+        <v>23.4709</v>
       </c>
       <c r="C9" t="n">
-        <v>29.9939</v>
+        <v>29.6425</v>
       </c>
       <c r="D9" t="n">
-        <v>42.7779</v>
+        <v>43.4016</v>
       </c>
       <c r="E9" t="n">
-        <v>55.3334</v>
+        <v>55.2695</v>
       </c>
       <c r="F9" t="n">
-        <v>34.658</v>
+        <v>33.8627</v>
       </c>
       <c r="G9" t="n">
-        <v>45.331</v>
+        <v>43.3838</v>
       </c>
     </row>
     <row r="10">
@@ -8456,22 +8456,22 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>24.2348</v>
+        <v>24.2556</v>
       </c>
       <c r="C10" t="n">
-        <v>30.0677</v>
+        <v>30.0838</v>
       </c>
       <c r="D10" t="n">
-        <v>42.7322</v>
+        <v>43.7483</v>
       </c>
       <c r="E10" t="n">
-        <v>55.8497</v>
+        <v>56.4491</v>
       </c>
       <c r="F10" t="n">
-        <v>34.6715</v>
+        <v>34.808</v>
       </c>
       <c r="G10" t="n">
-        <v>43.6852</v>
+        <v>44.0742</v>
       </c>
     </row>
     <row r="11">
@@ -8479,22 +8479,22 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>24.5491</v>
+        <v>24.4184</v>
       </c>
       <c r="C11" t="n">
-        <v>30.3388</v>
+        <v>30.237</v>
       </c>
       <c r="D11" t="n">
-        <v>43.1013</v>
+        <v>44.19</v>
       </c>
       <c r="E11" t="n">
-        <v>56.8577</v>
+        <v>56.4721</v>
       </c>
       <c r="F11" t="n">
-        <v>35.8699</v>
+        <v>34.9891</v>
       </c>
       <c r="G11" t="n">
-        <v>43.8159</v>
+        <v>46.2918</v>
       </c>
     </row>
     <row r="12">
@@ -8502,22 +8502,22 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>24.1642</v>
+        <v>24.2371</v>
       </c>
       <c r="C12" t="n">
-        <v>30.2961</v>
+        <v>29.6285</v>
       </c>
       <c r="D12" t="n">
-        <v>44.3574</v>
+        <v>44.2058</v>
       </c>
       <c r="E12" t="n">
-        <v>56.0877</v>
+        <v>57.3695</v>
       </c>
       <c r="F12" t="n">
-        <v>33.3242</v>
+        <v>35.2203</v>
       </c>
       <c r="G12" t="n">
-        <v>46.7643</v>
+        <v>46.0875</v>
       </c>
     </row>
     <row r="13">
@@ -8525,22 +8525,22 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>24.6331</v>
+        <v>24.471</v>
       </c>
       <c r="C13" t="n">
-        <v>30.5631</v>
+        <v>30.1813</v>
       </c>
       <c r="D13" t="n">
-        <v>43.6416</v>
+        <v>44.5122</v>
       </c>
       <c r="E13" t="n">
-        <v>54.6369</v>
+        <v>57.1999</v>
       </c>
       <c r="F13" t="n">
-        <v>35.5194</v>
+        <v>35.8857</v>
       </c>
       <c r="G13" t="n">
-        <v>46.6827</v>
+        <v>46.5891</v>
       </c>
     </row>
     <row r="14">
@@ -8548,22 +8548,22 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>24.4695</v>
+        <v>24.3843</v>
       </c>
       <c r="C14" t="n">
-        <v>30.3277</v>
+        <v>30.3887</v>
       </c>
       <c r="D14" t="n">
-        <v>44.4781</v>
+        <v>45.0651</v>
       </c>
       <c r="E14" t="n">
-        <v>56.6234</v>
+        <v>57.8537</v>
       </c>
       <c r="F14" t="n">
-        <v>35.65</v>
+        <v>35.7128</v>
       </c>
       <c r="G14" t="n">
-        <v>46.4627</v>
+        <v>45.7585</v>
       </c>
     </row>
     <row r="15">
@@ -8571,22 +8571,22 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>24.5712</v>
+        <v>24.3812</v>
       </c>
       <c r="C15" t="n">
-        <v>30.3356</v>
+        <v>30.7363</v>
       </c>
       <c r="D15" t="n">
-        <v>45.6104</v>
+        <v>45.6085</v>
       </c>
       <c r="E15" t="n">
-        <v>58.2901</v>
+        <v>58.7061</v>
       </c>
       <c r="F15" t="n">
-        <v>35.5685</v>
+        <v>34.8703</v>
       </c>
       <c r="G15" t="n">
-        <v>46.8236</v>
+        <v>46.8683</v>
       </c>
     </row>
     <row r="16">
@@ -8594,22 +8594,22 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>24.7031</v>
+        <v>24.1556</v>
       </c>
       <c r="C16" t="n">
-        <v>30.6671</v>
+        <v>30.459</v>
       </c>
       <c r="D16" t="n">
-        <v>45.8832</v>
+        <v>46.008</v>
       </c>
       <c r="E16" t="n">
-        <v>59.344</v>
+        <v>59.3269</v>
       </c>
       <c r="F16" t="n">
-        <v>36.7812</v>
+        <v>36.2053</v>
       </c>
       <c r="G16" t="n">
-        <v>47.3777</v>
+        <v>48.1564</v>
       </c>
     </row>
     <row r="17">
@@ -8617,22 +8617,22 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>24.4853</v>
+        <v>24.3667</v>
       </c>
       <c r="C17" t="n">
-        <v>30.6709</v>
+        <v>30.7676</v>
       </c>
       <c r="D17" t="n">
-        <v>46.8949</v>
+        <v>45.7775</v>
       </c>
       <c r="E17" t="n">
-        <v>58.5671</v>
+        <v>58.5614</v>
       </c>
       <c r="F17" t="n">
-        <v>36.1877</v>
+        <v>36.0671</v>
       </c>
       <c r="G17" t="n">
-        <v>46.4911</v>
+        <v>46.8236</v>
       </c>
     </row>
   </sheetData>
@@ -8695,22 +8695,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.87674</v>
+        <v>8.82138</v>
       </c>
       <c r="C2" t="n">
-        <v>10.9643</v>
+        <v>10.8601</v>
       </c>
       <c r="D2" t="n">
-        <v>13.2446</v>
+        <v>13.2288</v>
       </c>
       <c r="E2" t="n">
-        <v>15.3023</v>
+        <v>15.2931</v>
       </c>
       <c r="F2" t="n">
-        <v>12.2895</v>
+        <v>12.2508</v>
       </c>
       <c r="G2" t="n">
-        <v>14.456</v>
+        <v>14.4093</v>
       </c>
     </row>
     <row r="3">
@@ -8718,22 +8718,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>16.7823</v>
+        <v>16.6352</v>
       </c>
       <c r="C3" t="n">
-        <v>18.5562</v>
+        <v>18.3616</v>
       </c>
       <c r="D3" t="n">
-        <v>24.6209</v>
+        <v>24.6178</v>
       </c>
       <c r="E3" t="n">
-        <v>28.7618</v>
+        <v>28.5845</v>
       </c>
       <c r="F3" t="n">
-        <v>22.8923</v>
+        <v>22.6759</v>
       </c>
       <c r="G3" t="n">
-        <v>26.8893</v>
+        <v>26.6502</v>
       </c>
     </row>
     <row r="4">
@@ -8741,22 +8741,22 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>24.2319</v>
+        <v>23.7382</v>
       </c>
       <c r="C4" t="n">
-        <v>25.218</v>
+        <v>24.7089</v>
       </c>
       <c r="D4" t="n">
-        <v>34.7474</v>
+        <v>34.305</v>
       </c>
       <c r="E4" t="n">
-        <v>41.0255</v>
+        <v>40.4345</v>
       </c>
       <c r="F4" t="n">
-        <v>32.1649</v>
+        <v>32.0061</v>
       </c>
       <c r="G4" t="n">
-        <v>37.9407</v>
+        <v>37.9534</v>
       </c>
     </row>
     <row r="5">
@@ -8764,22 +8764,22 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>24.143</v>
+        <v>23.791</v>
       </c>
       <c r="C5" t="n">
-        <v>25.0075</v>
+        <v>25.1803</v>
       </c>
       <c r="D5" t="n">
-        <v>36.9783</v>
+        <v>36.8162</v>
       </c>
       <c r="E5" t="n">
-        <v>46.7495</v>
+        <v>46.2386</v>
       </c>
       <c r="F5" t="n">
-        <v>33.4824</v>
+        <v>33.6215</v>
       </c>
       <c r="G5" t="n">
-        <v>41.8411</v>
+        <v>41.8384</v>
       </c>
     </row>
     <row r="6">
@@ -8787,22 +8787,22 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>27.6519</v>
+        <v>27.6151</v>
       </c>
       <c r="C6" t="n">
-        <v>28.539</v>
+        <v>28.5735</v>
       </c>
       <c r="D6" t="n">
-        <v>42.8186</v>
+        <v>43.0901</v>
       </c>
       <c r="E6" t="n">
-        <v>55.8557</v>
+        <v>56.2569</v>
       </c>
       <c r="F6" t="n">
-        <v>39.3236</v>
+        <v>39.4009</v>
       </c>
       <c r="G6" t="n">
-        <v>49.1835</v>
+        <v>49.1114</v>
       </c>
     </row>
     <row r="7">
@@ -8810,22 +8810,22 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>33.9584</v>
+        <v>33.9576</v>
       </c>
       <c r="C7" t="n">
-        <v>33.3131</v>
+        <v>33.2786</v>
       </c>
       <c r="D7" t="n">
-        <v>50.6487</v>
+        <v>50.3455</v>
       </c>
       <c r="E7" t="n">
-        <v>63.5093</v>
+        <v>63.7242</v>
       </c>
       <c r="F7" t="n">
-        <v>46.5204</v>
+        <v>46.5076</v>
       </c>
       <c r="G7" t="n">
-        <v>57.8315</v>
+        <v>57.146</v>
       </c>
     </row>
     <row r="8">
@@ -8833,22 +8833,22 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>30.8937</v>
+        <v>30.9631</v>
       </c>
       <c r="C8" t="n">
-        <v>32.2132</v>
+        <v>31.8911</v>
       </c>
       <c r="D8" t="n">
-        <v>46.5611</v>
+        <v>47.4472</v>
       </c>
       <c r="E8" t="n">
-        <v>61.2127</v>
+        <v>60.8217</v>
       </c>
       <c r="F8" t="n">
-        <v>44.4574</v>
+        <v>44.6119</v>
       </c>
       <c r="G8" t="n">
-        <v>55.751</v>
+        <v>55.7859</v>
       </c>
     </row>
     <row r="9">
@@ -8856,22 +8856,22 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>32.0985</v>
+        <v>31.0088</v>
       </c>
       <c r="C9" t="n">
-        <v>32.1539</v>
+        <v>31.6747</v>
       </c>
       <c r="D9" t="n">
-        <v>46.79</v>
+        <v>46.9423</v>
       </c>
       <c r="E9" t="n">
-        <v>60.7677</v>
+        <v>59.7938</v>
       </c>
       <c r="F9" t="n">
-        <v>43.7816</v>
+        <v>43.9459</v>
       </c>
       <c r="G9" t="n">
-        <v>55.0874</v>
+        <v>56.0747</v>
       </c>
     </row>
     <row r="10">
@@ -8879,22 +8879,22 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>31.9042</v>
+        <v>31.9778</v>
       </c>
       <c r="C10" t="n">
-        <v>32.3611</v>
+        <v>31.9954</v>
       </c>
       <c r="D10" t="n">
-        <v>47.0542</v>
+        <v>47.0146</v>
       </c>
       <c r="E10" t="n">
-        <v>61.6601</v>
+        <v>60.6367</v>
       </c>
       <c r="F10" t="n">
-        <v>44.5867</v>
+        <v>44.9174</v>
       </c>
       <c r="G10" t="n">
-        <v>57.1168</v>
+        <v>56.6786</v>
       </c>
     </row>
     <row r="11">
@@ -8902,22 +8902,22 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>32.028</v>
+        <v>32.5862</v>
       </c>
       <c r="C11" t="n">
-        <v>32.5183</v>
+        <v>32.2562</v>
       </c>
       <c r="D11" t="n">
-        <v>47.966</v>
+        <v>47.7236</v>
       </c>
       <c r="E11" t="n">
-        <v>62.2988</v>
+        <v>60.2797</v>
       </c>
       <c r="F11" t="n">
-        <v>44.4479</v>
+        <v>44.5008</v>
       </c>
       <c r="G11" t="n">
-        <v>56.068</v>
+        <v>56.1981</v>
       </c>
     </row>
     <row r="12">
@@ -8925,22 +8925,22 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>32.3155</v>
+        <v>31.822</v>
       </c>
       <c r="C12" t="n">
-        <v>32.446</v>
+        <v>32.3906</v>
       </c>
       <c r="D12" t="n">
-        <v>47.3601</v>
+        <v>47.0004</v>
       </c>
       <c r="E12" t="n">
-        <v>61.5176</v>
+        <v>61.7675</v>
       </c>
       <c r="F12" t="n">
-        <v>44.1683</v>
+        <v>45.2463</v>
       </c>
       <c r="G12" t="n">
-        <v>56.857</v>
+        <v>56.6726</v>
       </c>
     </row>
     <row r="13">
@@ -8948,22 +8948,22 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>32.4181</v>
+        <v>31.9163</v>
       </c>
       <c r="C13" t="n">
-        <v>32.6495</v>
+        <v>32.6141</v>
       </c>
       <c r="D13" t="n">
-        <v>48.5124</v>
+        <v>48.563</v>
       </c>
       <c r="E13" t="n">
-        <v>60.3619</v>
+        <v>61.533</v>
       </c>
       <c r="F13" t="n">
-        <v>44.3612</v>
+        <v>44.3774</v>
       </c>
       <c r="G13" t="n">
-        <v>56.9856</v>
+        <v>56.8052</v>
       </c>
     </row>
     <row r="14">
@@ -8971,22 +8971,22 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>32.7532</v>
+        <v>32.2907</v>
       </c>
       <c r="C14" t="n">
-        <v>32.5443</v>
+        <v>32.2746</v>
       </c>
       <c r="D14" t="n">
-        <v>48.4003</v>
+        <v>48.6086</v>
       </c>
       <c r="E14" t="n">
-        <v>61.2848</v>
+        <v>62.0247</v>
       </c>
       <c r="F14" t="n">
-        <v>45.2283</v>
+        <v>44.7121</v>
       </c>
       <c r="G14" t="n">
-        <v>56.8129</v>
+        <v>56.1748</v>
       </c>
     </row>
     <row r="15">
@@ -8994,22 +8994,22 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>32.6576</v>
+        <v>32.0959</v>
       </c>
       <c r="C15" t="n">
-        <v>32.7759</v>
+        <v>32.5526</v>
       </c>
       <c r="D15" t="n">
-        <v>48.3455</v>
+        <v>48.4572</v>
       </c>
       <c r="E15" t="n">
-        <v>61.0764</v>
+        <v>62.4797</v>
       </c>
       <c r="F15" t="n">
-        <v>44.994</v>
+        <v>45.2152</v>
       </c>
       <c r="G15" t="n">
-        <v>56.8526</v>
+        <v>56.3492</v>
       </c>
     </row>
     <row r="16">
@@ -9017,22 +9017,22 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>32.6885</v>
+        <v>32.4334</v>
       </c>
       <c r="C16" t="n">
-        <v>32.2894</v>
+        <v>32.6437</v>
       </c>
       <c r="D16" t="n">
-        <v>48.4205</v>
+        <v>49.2457</v>
       </c>
       <c r="E16" t="n">
-        <v>61.3967</v>
+        <v>63.092</v>
       </c>
       <c r="F16" t="n">
-        <v>45.8096</v>
+        <v>45.101</v>
       </c>
       <c r="G16" t="n">
-        <v>56.7175</v>
+        <v>56.2393</v>
       </c>
     </row>
     <row r="17">
@@ -9040,22 +9040,22 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>32.7194</v>
+        <v>32.6905</v>
       </c>
       <c r="C17" t="n">
-        <v>32.2293</v>
+        <v>32.2762</v>
       </c>
       <c r="D17" t="n">
-        <v>49.4927</v>
+        <v>49.3132</v>
       </c>
       <c r="E17" t="n">
-        <v>62.1474</v>
+        <v>62.902</v>
       </c>
       <c r="F17" t="n">
-        <v>45.3529</v>
+        <v>44.1433</v>
       </c>
       <c r="G17" t="n">
-        <v>55.8572</v>
+        <v>56.4437</v>
       </c>
     </row>
   </sheetData>
